--- a/data/02_intermediate/cleaned_Hayce_Lemsi_songs.xlsx
+++ b/data/02_intermediate/cleaned_Hayce_Lemsi_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ouuh welcome to the Hayce world OK Je recherche la forme et le fond, j'observe la flore et la faune Sous l'effet d'la fleur, de la sueur sur le front, l'Eldorado n'est pas en forme d'hexagone Hegoune, t'as des preuves avant d'm'inculper ? Trop fier pour faire mon mea culpa J'attends pas que la France nous vire à coups d'pied pour capter qu'elle ne nous écoute pas Je n'oublie pas que chaque minute est chère et j'ai peur de périr sans chahed Dans mes veines d'Algérien jihen coule du sang de moudjahed J'ai mon public à chérir mais il est possible que demain j'arrête Tous les soirs j'suis déchiré, j'reprends les ients-cli qu't'as chehel J'arrive avec deux barres sur la paire de Fred, deux barres juste après le XV Deux barres sur l'uniforme de c't'enculé de képi que j'viens d'gifler Deux barres de fer dans le coffre de la tchop, cesse de t'plaindre, on a pas de tié-pi Rien qu'tu grattes les p'tits ça m'choque, Paname c'est pas l'Éthiopie Biko je n'ai pas changé j'prend toujours l'game en one-one J'suis venu rapper my life, biko, blako, blanko, postés De la mélodie j'suis malade, la musique c'est my wife, aucun puto n'peut riposter Ces bikos ne m'auront pas d'sitôt, ma pét'Hayce vient de Mexico New bitch, new flow, l'électron libre est dans le game biko Ces bikos ne m'auront pas d'sitôt, ma pét'Hayce vient de Mexico New bitch, new flow, l'Electron libre est dans le game biko You might also like Ton calibre risque de s'enrayer, face à la Kalash tah Poutine MC Lemsi te piétine, t'en oublies tes disque de platine Parti d'un beat et de quelques lettres, je me démène pour celle qui m'a fait naître Ils sont à la porte, Fouzia jette la selha par la fenêtre Biko foulek, ça gère un tas d'poulettes J'allais dans les studios, j'kickais tous les rappeurs, survet', plein d'trous d'boulettes Wesh l'ancien t'es bourré ? Sur n'importe quelle prod j'te prends Essaye pas de rivaliser, t'avais mon âge à l'époque des francs Elégant, éloquent, y a qu'les putes qui changent de camp Ma cagoule me va comme un gant, j'sors en indé' comme un grand Rien qu'tu trembles, t'as besoin d'une paire de couilles, pas d'un entrainement Tu t'manges des baffes en province, viens pas sur Paris faire de l'Entertainment Biko je n'ai pas changé j'prend toujours l'game en one-one J'suis venu rapper my life, biko, blako, blanko, postés De la mélodie j'suis malade, la musique c'est my wife, aucun puto n'peut riposter Ces bikos ne m'auront pas d'sitôt, ma pét'Hayce vient de Mexico New bitch, new flow, l'électron libre est dans le game biko Ces bikos ne m'auront pas d'sitôt, ma pét'Hayce vient de Mexico New bitch, new flow, l'Electron libre est dans le game biko Au mic' j'leur met qu'des tempêtes, Lass, Oussem, Dino solo sur un compét' On vend d'la zipette pour faires des emplettes, attraper de belles bitchs, pas d'baraque au bled Moi j'suis parano mec, j'suis pas renommé, à part pour la monnaie, j'suis pas malhonnête J'suis ce parolier, qui peut renier, que j'vous parraine au mic' bande de marionnettes ? J'vais niquer des reu-mé, tu vas pas m'reconnaitre J'ai rien à espérer, rien à promettre Nul n'est à l'abri d'une rafale dans les pommettes De finir à Fleury, Fresnes, aux Baumettes Passez pas la pommade, j'vais devenir vulgaire J'voulais juste une limonade et des chiennes de guerre Comme un pointeur en promenade rentre sous terre Sur Paname ramène pas tes textes de merde Biko je n'ai pas changé j'prend toujours l'game en one-one J'suis venu rapper my life, biko, blako, blanko, postés De la mélodie j'suis malade, la musique c'est my wife, aucun puto n'peut riposter Ces bikos ne m'auront pas d'sitôt, ma pét'Hayce vient de Mexico New bitch, new flow, l'électron libre est dans le game biko Ces bikos ne m'auront pas d'sitôt, ma pét'Hayce vient de Mexico New bitch, new flow, l'Electron libre est dans le game biko Siete, cinco, biko, blako, blanko, loko Chez nous tout est open, biko, t'as l'salem de tout mon ghetto Cognac, tel-hô, c'est juste Mister Biko Loko Hola, Hello, bienvenue dans mon siete cinco52</t>
+          <t>Ouuh welcome to the Hayce world OK Je recherche la forme et le fond, j'observe la flore et la faune Sous l'effet d'la fleur, de la sueur sur le front, l'Eldorado n'est pas en forme d'hexagone Hegoune, t'as des preuves avant d'm'inculper ? Trop fier pour faire mon mea culpa J'attends pas que la France nous vire à coups d'pied pour capter qu'elle ne nous écoute pas Je n'oublie pas que chaque minute est chère et j'ai peur de périr sans chahed Dans mes veines d'Algérien jihen coule du sang de moudjahed J'ai mon public à chérir mais il est possible que demain j'arrête Tous les soirs j'suis déchiré, j'reprends les ients-cli qu't'as chehel J'arrive avec deux barres sur la paire de Fred, deux barres juste après le XV Deux barres sur l'uniforme de c't'enculé de képi que j'viens d'gifler Deux barres de fer dans le coffre de la tchop, cesse de t'plaindre, on a pas de tié-pi Rien qu'tu grattes les p'tits ça m'choque, Paname c'est pas l'Éthiopie Biko je n'ai pas changé j'prend toujours l'game en one-one J'suis venu rapper my life, biko, blako, blanko, postés De la mélodie j'suis malade, la musique c'est my wife, aucun puto n'peut riposter Ces bikos ne m'auront pas d'sitôt, ma pét'Hayce vient de Mexico New bitch, new flow, l'électron libre est dans le game biko Ces bikos ne m'auront pas d'sitôt, ma pét'Hayce vient de Mexico New bitch, new flow, l'Electron libre est dans le game biko Ton calibre risque de s'enrayer, face à la Kalash tah Poutine MC Lemsi te piétine, t'en oublies tes disque de platine Parti d'un beat et de quelques lettres, je me démène pour celle qui m'a fait naître Ils sont à la porte, Fouzia jette la selha par la fenêtre Biko foulek, ça gère un tas d'poulettes J'allais dans les studios, j'kickais tous les rappeurs, survet', plein d'trous d'boulettes Wesh l'ancien t'es bourré ? Sur n'importe quelle prod j'te prends Essaye pas de rivaliser, t'avais mon âge à l'époque des francs Elégant, éloquent, y a qu'les putes qui changent de camp Ma cagoule me va comme un gant, j'sors en indé' comme un grand Rien qu'tu trembles, t'as besoin d'une paire de couilles, pas d'un entrainement Tu t'manges des baffes en province, viens pas sur Paris faire de l'Entertainment Biko je n'ai pas changé j'prend toujours l'game en one-one J'suis venu rapper my life, biko, blako, blanko, postés De la mélodie j'suis malade, la musique c'est my wife, aucun puto n'peut riposter Ces bikos ne m'auront pas d'sitôt, ma pét'Hayce vient de Mexico New bitch, new flow, l'électron libre est dans le game biko Ces bikos ne m'auront pas d'sitôt, ma pét'Hayce vient de Mexico New bitch, new flow, l'Electron libre est dans le game biko Au mic' j'leur met qu'des tempêtes, Lass, Oussem, Dino solo sur un compét' On vend d'la zipette pour faires des emplettes, attraper de belles bitchs, pas d'baraque au bled Moi j'suis parano mec, j'suis pas renommé, à part pour la monnaie, j'suis pas malhonnête J'suis ce parolier, qui peut renier, que j'vous parraine au mic' bande de marionnettes ? J'vais niquer des reu-mé, tu vas pas m'reconnaitre J'ai rien à espérer, rien à promettre Nul n'est à l'abri d'une rafale dans les pommettes De finir à Fleury, Fresnes, aux Baumettes Passez pas la pommade, j'vais devenir vulgaire J'voulais juste une limonade et des chiennes de guerre Comme un pointeur en promenade rentre sous terre Sur Paname ramène pas tes textes de merde Biko je n'ai pas changé j'prend toujours l'game en one-one J'suis venu rapper my life, biko, blako, blanko, postés De la mélodie j'suis malade, la musique c'est my wife, aucun puto n'peut riposter Ces bikos ne m'auront pas d'sitôt, ma pét'Hayce vient de Mexico New bitch, new flow, l'électron libre est dans le game biko Ces bikos ne m'auront pas d'sitôt, ma pét'Hayce vient de Mexico New bitch, new flow, l'Electron libre est dans le game biko Siete, cinco, biko, blako, blanko, loko Chez nous tout est open, biko, t'as l'salem de tout mon ghetto Cognac, tel-hô, c'est juste Mister Biko Loko Hola, Hello, bienvenue dans mon siete cinco52</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ok, Zougata'Brule ma gueule en direct de Marseille Paris, Marseille, PES, FIFA Un homme, une femme, un trou c'est trou khoya haha Toujours le même, y a des armes à la baraque, la BRB, la PJ dans les parages J'suis dans le viseur si tu cherches la merde négro j'vole un T-Max j't'allume ta mère et j'm'en débarrasse MC t'as le swagg d'un pêcheur, toi c'est la hass nous c'est la fraîcheur Wesh ce soir j'ai la tête dedans, je rachète le temps parce que ma montre coûte trop cher Oh ! Aucune compassion, le rap de merde mon terrain d'occupation Moi j'ai de la haine, de la colère, de lorgueil, pour 100 000 cash je baise Angela Merkel Tu parles mal de Lacrim ? Nique ta mère, t'as trop donné ta chatte ? Nique ta mère Big up à la police ? Nique ta mère, et si tu les rencarde Nique ta mère Passe, passe, passe moi, passe moi du biff, la caisse pas de CAF on casse grave des bij' Champagne, resto, foie gras, piscine, Floride khey j'm'arrête pas de vivre Visage cassé mais je plais grave, achète une arme avant d'te mettre à bicrave Fusil d'assaut, j'connais la vie, celle des pules-cra, grave haut, mé-cra oh C'est le block, c'est le drame, j'vais te monter au crâne comme un zouz de hiya Seum sous l'cellophane, les MC's stressent comme des épouses de G.I Faut qu'j'découpe le grillage d'la Cour des Miracles à court de cash Parcours de pirate, partout c'est l'Irak, ça troue ça kidnappe, à quand le calme ? Biatch J'navigue à vue, ça vise la Lune là où les requins s'charclent Combien rêvent d'être payés à rien branler comme le Prince Charles ? La vie, la rue t'apprennent l'esprit la ruse même quand t'es brisé Sens aiguisé, briller comme les Champs-Elysées sans s'déguiser Pour mon crew, ma reine, j'porterai toujours le ventre du missile J'baise tout en sous-marin... Loana dans la piscine Kho c'est Lacrim, L'Afro, la clique ça vaut de l'or Pas trop la suite plutôt le coffre, le code, la Gold et le compte gonflé Ce n'est que l'début dites aux pétasse que j'n'ai pas d'time, Nisso pour le Wild Boy Vaut mieux être seul qu'mal accompagné moi, même seul le Sheïtan m'accompagne boy J'suis pas né avec une cuillère en argent dans la bouche, disons que j'n'ai pas d'bol Tu veux partir loin et n'jamais revenir ? Tire-toi une balle dans la tête, jettes-toi boy Ni Tony, ni Many Wanis, algérien-maroqui La frappe et l'danger vient d'chez nous l'ami, Nisso dis-le à ta copine L'argent bien se fait en suant, j'en connais qui suent en braquant des Brinks Pathétique de me comparer à tous ces pédés j'crois bien qu'on a pas les même dreams haha Fais péter les plombs, te fais péter les plombs, envié pas les mecs de mon âge et respecté par les grands Les MC's mangent des K.O's, mon flow de malade a mis les gants Mes défauts baisent vos qualités, bienvenue dans ma vida loca hein Snatch DJ, Wanis aka le 3-1 1-3, bain d'sang, c'est la bande son ratatata, ramasse les douilles Tu veux la gloire ? Tiens la rançon ratatata, ramasse les douilles 'Bats les couilles de tout ce qu'ils sont, j'arrive couilles pleine comme le Père Noël 'Bats les couilles de tout ce qu'ils ont, j'arrive, coup de pelle comme Bernie Noël Une p'tite voix me dit Leggo, leggo, game and game, retourne le putain Tout se paye, fuck you, pay me gain and gain, fais tourner l'butin Le Rap est mort, j'suis sa dépouille, mes condoléances, dis-moi où je signe J'vais avoir une larme, qu'une vie, qu'une âme, le savoir une arme, dis-moi où je cible Viens pas sympathiser, va t'faire, j't'aime pas tu sais J'te laisse ma part d'succès mais j'te laisse pas m'la sucer J'pisse sur ta putain d'boom et j'suis sur ta putain d'bouche J'suis sur l'putain d'tapis rouge, Aladin sur ta putain d'bouche Comme Crimo, j'suis toujours le même, ceux qui veulent peser mes couilles ou pisser sur ma dépouille Après mon 12, ramassez les douilles, allez tous niquez vos mères Entre nous un écart de fou, j'massoie pas là où y'a pas des rats comme nous Pas des tapins qui sucent à tous les feux rouges, tous les carrefours On les partouze, on les efface tous, N.I.R.O, Lacrim, gros on est partout Sur le parcours on reconnait les braves et les caves-pou qui crachent même sur les sujets tabous Partout où on passe, on casse tout, bâtard, pas touche à nos gars louche, mets-toi un-doigt Comme la sère-mi personne veut entendre parler d'toi De quoi méditer, que des vérités, peu d'sincérité, tout est mérité Evitez d'parler crédibilité, j'suis pour l'unité, demande à mon équipe, y'a pas d'quoi douter Ma fiabilité, tu sais qui pèse dans ton block Flow crédit illimité, I'm a real best mothafucker Si je suis là c'est qu'le son part sur une bonne note, nigga Gros c'est la N.E, mothafucka, préviens les haineux Gunshot Kill, negro sous le choc, deuspi one shot Kill De toute force j'suis dans les veines, pas la peine que t'essaies de nous ken, dans la mothafuckin' tête c'est le del-bor Pas d'tête à tête, t'auras ta tête à terre car la vie nous à ken, on est très terre à terre Te mêle pas d'nos vies frère, on a pas d'temps à perdre, notre passe-temps c'est de faire fructifier nos affaires J'suis pas inquiet, mais si tu me mets un faux plan, j't'indiquerais tranquillement le chemin de ta tombe Ouais j'ppé-ra comme un young mais t'as vu que j'suis yomb, grosse te-tar d'éléphant si ma feu-meu me trompe Si t'es un loux-ja qui a la critique aussi facile qu'une pétasse, ne clique pas Ou alors va niquer ta mère ou bien mes potos vont le faire et tu seras devenu un fils de pute mais ne flippe pas Ok tchik BAH, s'ils te demandent d'où j'viens dis-leur qu'j'suis pas terrien Moi j'veux être partout comme le drapeau Algérien J'suis un XV Barbare bad boy, Bico Loco-caïne cowboy J'vis chaque jour comme si j'devais partir demain pourtant j'ai peur d'partir sous alcool Mes pét'Hayces extirpent ta Carte Gold, mes bicos parlent d'ramener par tonnes J'escaladais les échafaudages à la Spiderman, me cagouler pour faucher l'pactole Ils s'demandent comment j'rappe à la vitesse d'une arme serbe, s'demandent combien de temps j'ai pas dormi vu mes cernes Dis-moi qui tu aimes et je te dirais qui tu hais, bico c'est la perpétuité que nos trains de vie desservent Bico, loco, loco, put your hands up in the air, ils s'doutaient que j'les démolirais via la langue de Molière Malheureusement j'suis sorti d'l'anonymat niquez vos mères, les gars c'était dans la nuit noire qu'il fallait croire en la lumière Fresnes, Fleury, Bois d'ar, la Santé, Osny, j'compte enterrer l'Rap Game comme promis Mental Ali la pointe, Swagg Taghmaoui, un joint d'hi, flow tah Young Money Doucement sur mon champaign sale biatch, t'sais qu'dans la vie tout s'paye sale biatch Etap Hotel j't'appelle à midi, mais j'te lâche pas jusqu'au lendemain midi biatch C'est Kamelenouvo, nouveau best de mon département 95, Villiers-le-Bel, mise à la de-men Tu veux représenter ? Fais-le correctement, nous hacheum pas, wAllah qu'on t'lâchera pas Tu veux ter-mon ? On t'laissera pas, t'as l'démon, je sais qu't'auras L'seum d'revoir les mecs de Villiers-le-Bel, au sommet comme à l'époque du Secteur Ä C'est V.I.2.L.I.E.R.S, chez nous les p'tits tirent sur les CRS Monsieur l'inspecteur, moi j'étais pas dans les émeutes, sur la tête de mon CRF Villiers-le-Bel on est plus que déters, sale comme un putain qu'on déterre Avale, maintenant t'as plus qu'à te taire, cavale ou tu finis plus bas que terre L'argent ne fais pas le bonhomme car une paire de couilles ça coûte cher Ton équipe te suce la bite, moi j'hagar le beat et c'est moi qu'elle écoute, cheh Mon équipe je gère, on m'a dit qu'je gène, ton équipe me cherche, dis-leur qu'j'viens relever le niveau Dis-leur qu'j'ai saigné les scènes à Ge-Gen, j'm'appelle Kamel Lenouvo Que des cailleras sur la scène Ok, de Paris à Marseille Armes, drogue, billets, Vodka RedBull 2-0-13, c'est nous la musique, vous êtes tous d'accord ?!You might also like21</t>
+          <t>Ok, Zougata'Brule ma gueule en direct de Marseille Paris, Marseille, PES, FIFA Un homme, une femme, un trou c'est trou khoya haha Toujours le même, y a des armes à la baraque, la BRB, la PJ dans les parages J'suis dans le viseur si tu cherches la merde négro j'vole un T-Max j't'allume ta mère et j'm'en débarrasse MC t'as le swagg d'un pêcheur, toi c'est la hass nous c'est la fraîcheur Wesh ce soir j'ai la tête dedans, je rachète le temps parce que ma montre coûte trop cher Oh ! Aucune compassion, le rap de merde mon terrain d'occupation Moi j'ai de la haine, de la colère, de lorgueil, pour 100 000 cash je baise Angela Merkel Tu parles mal de Lacrim ? Nique ta mère, t'as trop donné ta chatte ? Nique ta mère Big up à la police ? Nique ta mère, et si tu les rencarde Nique ta mère Passe, passe, passe moi, passe moi du biff, la caisse pas de CAF on casse grave des bij' Champagne, resto, foie gras, piscine, Floride khey j'm'arrête pas de vivre Visage cassé mais je plais grave, achète une arme avant d'te mettre à bicrave Fusil d'assaut, j'connais la vie, celle des pules-cra, grave haut, mé-cra oh C'est le block, c'est le drame, j'vais te monter au crâne comme un zouz de hiya Seum sous l'cellophane, les MC's stressent comme des épouses de G.I Faut qu'j'découpe le grillage d'la Cour des Miracles à court de cash Parcours de pirate, partout c'est l'Irak, ça troue ça kidnappe, à quand le calme ? Biatch J'navigue à vue, ça vise la Lune là où les requins s'charclent Combien rêvent d'être payés à rien branler comme le Prince Charles ? La vie, la rue t'apprennent l'esprit la ruse même quand t'es brisé Sens aiguisé, briller comme les Champs-Elysées sans s'déguiser Pour mon crew, ma reine, j'porterai toujours le ventre du missile J'baise tout en sous-marin... Loana dans la piscine Kho c'est Lacrim, L'Afro, la clique ça vaut de l'or Pas trop la suite plutôt le coffre, le code, la Gold et le compte gonflé Ce n'est que l'début dites aux pétasse que j'n'ai pas d'time, Nisso pour le Wild Boy Vaut mieux être seul qu'mal accompagné moi, même seul le Sheïtan m'accompagne boy J'suis pas né avec une cuillère en argent dans la bouche, disons que j'n'ai pas d'bol Tu veux partir loin et n'jamais revenir ? Tire-toi une balle dans la tête, jettes-toi boy Ni Tony, ni Many Wanis, algérien-maroqui La frappe et l'danger vient d'chez nous l'ami, Nisso dis-le à ta copine L'argent bien se fait en suant, j'en connais qui suent en braquant des Brinks Pathétique de me comparer à tous ces pédés j'crois bien qu'on a pas les même dreams haha Fais péter les plombs, te fais péter les plombs, envié pas les mecs de mon âge et respecté par les grands Les MC's mangent des K.O's, mon flow de malade a mis les gants Mes défauts baisent vos qualités, bienvenue dans ma vida loca hein Snatch DJ, Wanis aka le 3-1 1-3, bain d'sang, c'est la bande son ratatata, ramasse les douilles Tu veux la gloire ? Tiens la rançon ratatata, ramasse les douilles 'Bats les couilles de tout ce qu'ils sont, j'arrive couilles pleine comme le Père Noël 'Bats les couilles de tout ce qu'ils ont, j'arrive, coup de pelle comme Bernie Noël Une p'tite voix me dit Leggo, leggo, game and game, retourne le putain Tout se paye, fuck you, pay me gain and gain, fais tourner l'butin Le Rap est mort, j'suis sa dépouille, mes condoléances, dis-moi où je signe J'vais avoir une larme, qu'une vie, qu'une âme, le savoir une arme, dis-moi où je cible Viens pas sympathiser, va t'faire, j't'aime pas tu sais J'te laisse ma part d'succès mais j'te laisse pas m'la sucer J'pisse sur ta putain d'boom et j'suis sur ta putain d'bouche J'suis sur l'putain d'tapis rouge, Aladin sur ta putain d'bouche Comme Crimo, j'suis toujours le même, ceux qui veulent peser mes couilles ou pisser sur ma dépouille Après mon 12, ramassez les douilles, allez tous niquez vos mères Entre nous un écart de fou, j'massoie pas là où y'a pas des rats comme nous Pas des tapins qui sucent à tous les feux rouges, tous les carrefours On les partouze, on les efface tous, N.I.R.O, Lacrim, gros on est partout Sur le parcours on reconnait les braves et les caves-pou qui crachent même sur les sujets tabous Partout où on passe, on casse tout, bâtard, pas touche à nos gars louche, mets-toi un-doigt Comme la sère-mi personne veut entendre parler d'toi De quoi méditer, que des vérités, peu d'sincérité, tout est mérité Evitez d'parler crédibilité, j'suis pour l'unité, demande à mon équipe, y'a pas d'quoi douter Ma fiabilité, tu sais qui pèse dans ton block Flow crédit illimité, I'm a real best mothafucker Si je suis là c'est qu'le son part sur une bonne note, nigga Gros c'est la N.E, mothafucka, préviens les haineux Gunshot Kill, negro sous le choc, deuspi one shot Kill De toute force j'suis dans les veines, pas la peine que t'essaies de nous ken, dans la mothafuckin' tête c'est le del-bor Pas d'tête à tête, t'auras ta tête à terre car la vie nous à ken, on est très terre à terre Te mêle pas d'nos vies frère, on a pas d'temps à perdre, notre passe-temps c'est de faire fructifier nos affaires J'suis pas inquiet, mais si tu me mets un faux plan, j't'indiquerais tranquillement le chemin de ta tombe Ouais j'ppé-ra comme un young mais t'as vu que j'suis yomb, grosse te-tar d'éléphant si ma feu-meu me trompe Si t'es un loux-ja qui a la critique aussi facile qu'une pétasse, ne clique pas Ou alors va niquer ta mère ou bien mes potos vont le faire et tu seras devenu un fils de pute mais ne flippe pas Ok tchik BAH, s'ils te demandent d'où j'viens dis-leur qu'j'suis pas terrien Moi j'veux être partout comme le drapeau Algérien J'suis un XV Barbare bad boy, Bico Loco-caïne cowboy J'vis chaque jour comme si j'devais partir demain pourtant j'ai peur d'partir sous alcool Mes pét'Hayces extirpent ta Carte Gold, mes bicos parlent d'ramener par tonnes J'escaladais les échafaudages à la Spiderman, me cagouler pour faucher l'pactole Ils s'demandent comment j'rappe à la vitesse d'une arme serbe, s'demandent combien de temps j'ai pas dormi vu mes cernes Dis-moi qui tu aimes et je te dirais qui tu hais, bico c'est la perpétuité que nos trains de vie desservent Bico, loco, loco, put your hands up in the air, ils s'doutaient que j'les démolirais via la langue de Molière Malheureusement j'suis sorti d'l'anonymat niquez vos mères, les gars c'était dans la nuit noire qu'il fallait croire en la lumière Fresnes, Fleury, Bois d'ar, la Santé, Osny, j'compte enterrer l'Rap Game comme promis Mental Ali la pointe, Swagg Taghmaoui, un joint d'hi, flow tah Young Money Doucement sur mon champaign sale biatch, t'sais qu'dans la vie tout s'paye sale biatch Etap Hotel j't'appelle à midi, mais j'te lâche pas jusqu'au lendemain midi biatch C'est Kamelenouvo, nouveau best de mon département 95, Villiers-le-Bel, mise à la de-men Tu veux représenter ? Fais-le correctement, nous hacheum pas, wAllah qu'on t'lâchera pas Tu veux ter-mon ? On t'laissera pas, t'as l'démon, je sais qu't'auras L'seum d'revoir les mecs de Villiers-le-Bel, au sommet comme à l'époque du Secteur Ä C'est V.I.2.L.I.E.R.S, chez nous les p'tits tirent sur les CRS Monsieur l'inspecteur, moi j'étais pas dans les émeutes, sur la tête de mon CRF Villiers-le-Bel on est plus que déters, sale comme un putain qu'on déterre Avale, maintenant t'as plus qu'à te taire, cavale ou tu finis plus bas que terre L'argent ne fais pas le bonhomme car une paire de couilles ça coûte cher Ton équipe te suce la bite, moi j'hagar le beat et c'est moi qu'elle écoute, cheh Mon équipe je gère, on m'a dit qu'je gène, ton équipe me cherche, dis-leur qu'j'viens relever le niveau Dis-leur qu'j'ai saigné les scènes à Ge-Gen, j'm'appelle Kamel Lenouvo Que des cailleras sur la scène Ok, de Paris à Marseille Armes, drogue, billets, Vodka RedBull 2-0-13, c'est nous la musique, vous êtes tous d'accord ?!21</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>J'arrive j'suis armé, comme au Monténégro Bon j'avoue c'est pas vrai, j'suis même pas du ghetto Ton daron, il a pas de cheveux, depuis qu'il a 8 piges, on l'appelle monsieur Il est tellement vieux qu'il a une 4 chevaux, j'connais bien les chevaux car j'ai la même queue Ton cul c'est comme des ballerines, c'est plat et l'odeur dedans est horrible J'ramène des meufs au tel-hô, j'les ken et je regarde Toy Story C'est bien de faire de beaux clips mais ça vaut pas le coup si c'est pas audible Y'a rien d'impossible y'a pas qu'des tou-bab qui peuvent être toubib Ça part en rre-gue, faire des lovés, tu joues à Sochaux, négro t'as déconné Tu nous connais, sous mon bonnet, mon cerveau a déjà tout encodé J'préfère être fils d'esclave plutôt qu'être fils de maître swish Pour moi t'existes pas, t'es comme un fils de prêtre, yeah J'ai percé frère, comme quoi tout arrive J'leur tire la langue, Christophe Dugarry Si j'hausse le ton, j'réveille tout Paris Ils m'attendent au tournant comme un rallye J'ai l'bras tellement long qu'j'me crois dans Space Jam Space Jam, Space Jam On dépense le double de ce qu'on encaisse man Space Jam, Space Jam You might also like MC va chercher la ba-balle et donne à papa, la chatte à ta tata Pas besoin d'AK tout ça pour rafaler tout ça, ratatatathayce Claque 10 feuilles pour son sac Dior, elle s'fout d'ta gueule Si ton petit reuf se prend pour Mojito sur Snap, casse-lui sa gueule La vie s'écrit, chapitre de l'amitié, ton ingratitude a laissé des ratures Si j'te fais cette passe décisive à la Verratti, la verras-tu ? Ces victimes se volatilisent dans la nature, plus personne ne veut voir ta sale gueule comme Arthur Elle peut se maquiller, c'est toujours la même merde derrière la dernière couche de peinture Si t'enlèves le collant de la feuille, j'roule beuh comme Nabil Et j'fume le truc Ces temps-ci je suis remonté, un peu comme ma bite yeah hoe J'ai vaincu mais j'ai vu le revers de la médaille, et je me taille dans le bando, je vis comme un animal Et me roule un énorme bédo, dans la minute je linhale, sur la prod à Geronimo renaît le règne animal Paris, Créteil, Rari, champagne Electron libre, légendaire, j'attends deux trois keh de Neuchâtel Elle floque New York, dans le carré VIP y'a que nous, ya J'suis en Insta direct avec ta go, j'la bouyave J'ai percé frère, comme quoi tout arrive J'leur tire la langue, Christophe Dugarry Si j'hausse le ton, j'réveille tout Paris Ils m'attendent au tournant comme un rallye J'ai l'bras tellement long qu'j'me crois dans Space Jam Space Jam, Space Jam On dépense le double de ce qu'on encaisse man Space Jam, Space Jam Tout ce que je fais dans ma vie je l'assume, qu'est-ce que je dirai devant l'éternel ? Y'a des gens qui meurent, ils n'ont pas la thune, toi tu pleures parce que t'as plus internet ah ah Sombre merde, quoi tu penses teste la capitale ? C'est vrai que c'est difficile d'bien rapper avec une teub-zer dans lamygdale T'es pas mon ami, je ne serai jamais ton poto Elle vient en privé pour que je la ken, toi tu l'lé-lé sur ses photos Et la vie va si vite, mais la route est longue demande à Yvick Une plume et un flow totalement chimique, ton cadavre est caché dans le pacifique Si tu n'es pas fraîche, tu n'es pas ma go Moi j'suis dejà rappeur, je n'ai pas besoin d'abdo Les concurrents m'détestent, où sont ceux qui lâchaient des vrais textes ? Si je m'marie ta daronne c'est ma maîtresse, je vous attends, je suis posé sur l'Mont Everest J'ai percé frère, comme quoi tout arrive J'leur tire la langue, Christophe Dugarry Si j'hausse le ton, j'réveille tout Paris Ils m'attendent au tournant comme un rallye J'ai l'bras tellement long qu'j'me crois dans Space Jam Space Jam, Space Jam On dépense le double de ce qu'on encaisse man Space Jam, Space Jam6</t>
+          <t>J'arrive j'suis armé, comme au Monténégro Bon j'avoue c'est pas vrai, j'suis même pas du ghetto Ton daron, il a pas de cheveux, depuis qu'il a 8 piges, on l'appelle monsieur Il est tellement vieux qu'il a une 4 chevaux, j'connais bien les chevaux car j'ai la même queue Ton cul c'est comme des ballerines, c'est plat et l'odeur dedans est horrible J'ramène des meufs au tel-hô, j'les ken et je regarde Toy Story C'est bien de faire de beaux clips mais ça vaut pas le coup si c'est pas audible Y'a rien d'impossible y'a pas qu'des tou-bab qui peuvent être toubib Ça part en rre-gue, faire des lovés, tu joues à Sochaux, négro t'as déconné Tu nous connais, sous mon bonnet, mon cerveau a déjà tout encodé J'préfère être fils d'esclave plutôt qu'être fils de maître swish Pour moi t'existes pas, t'es comme un fils de prêtre, yeah J'ai percé frère, comme quoi tout arrive J'leur tire la langue, Christophe Dugarry Si j'hausse le ton, j'réveille tout Paris Ils m'attendent au tournant comme un rallye J'ai l'bras tellement long qu'j'me crois dans Space Jam Space Jam, Space Jam On dépense le double de ce qu'on encaisse man Space Jam, Space Jam MC va chercher la ba-balle et donne à papa, la chatte à ta tata Pas besoin d'AK tout ça pour rafaler tout ça, ratatatathayce Claque 10 feuilles pour son sac Dior, elle s'fout d'ta gueule Si ton petit reuf se prend pour Mojito sur Snap, casse-lui sa gueule La vie s'écrit, chapitre de l'amitié, ton ingratitude a laissé des ratures Si j'te fais cette passe décisive à la Verratti, la verras-tu ? Ces victimes se volatilisent dans la nature, plus personne ne veut voir ta sale gueule comme Arthur Elle peut se maquiller, c'est toujours la même merde derrière la dernière couche de peinture Si t'enlèves le collant de la feuille, j'roule beuh comme Nabil Et j'fume le truc Ces temps-ci je suis remonté, un peu comme ma bite yeah hoe J'ai vaincu mais j'ai vu le revers de la médaille, et je me taille dans le bando, je vis comme un animal Et me roule un énorme bédo, dans la minute je linhale, sur la prod à Geronimo renaît le règne animal Paris, Créteil, Rari, champagne Electron libre, légendaire, j'attends deux trois keh de Neuchâtel Elle floque New York, dans le carré VIP y'a que nous, ya J'suis en Insta direct avec ta go, j'la bouyave J'ai percé frère, comme quoi tout arrive J'leur tire la langue, Christophe Dugarry Si j'hausse le ton, j'réveille tout Paris Ils m'attendent au tournant comme un rallye J'ai l'bras tellement long qu'j'me crois dans Space Jam Space Jam, Space Jam On dépense le double de ce qu'on encaisse man Space Jam, Space Jam Tout ce que je fais dans ma vie je l'assume, qu'est-ce que je dirai devant l'éternel ? Y'a des gens qui meurent, ils n'ont pas la thune, toi tu pleures parce que t'as plus internet ah ah Sombre merde, quoi tu penses teste la capitale ? C'est vrai que c'est difficile d'bien rapper avec une teub-zer dans lamygdale T'es pas mon ami, je ne serai jamais ton poto Elle vient en privé pour que je la ken, toi tu l'lé-lé sur ses photos Et la vie va si vite, mais la route est longue demande à Yvick Une plume et un flow totalement chimique, ton cadavre est caché dans le pacifique Si tu n'es pas fraîche, tu n'es pas ma go Moi j'suis dejà rappeur, je n'ai pas besoin d'abdo Les concurrents m'détestent, où sont ceux qui lâchaient des vrais textes ? Si je m'marie ta daronne c'est ma maîtresse, je vous attends, je suis posé sur l'Mont Everest J'ai percé frère, comme quoi tout arrive J'leur tire la langue, Christophe Dugarry Si j'hausse le ton, j'réveille tout Paris Ils m'attendent au tournant comme un rallye J'ai l'bras tellement long qu'j'me crois dans Space Jam Space Jam, Space Jam On dépense le double de ce qu'on encaisse man Space Jam, Space Jam6</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Putain, pourquoi elle répond pas ? Ouais c'est Islem là, rappelle ! Tu rends ouf, là, rappelle ! Vas-y, j'regrette, rappelle ! Le printemps passe et l'amour balayé plus vite que les feuilles d'automne La routine s'installe, pas de communication, la vie devient monotone Une larme de sang glisse de sa joue puis tombe sur le sol Je t'aime mais je te hais, c'est l'ironie du sort J'ai beau jouer le bourreau des curs, ce soir on dîne aux chandelles dans le plus beau décor J'ai refusé de nourrir ma vie de tes pleurs, t'as le plus beau des visages et le plus beau des corps Je, je, je veux te demander ta main, nan, je n'ai pas peur d'affronter le regard de ton père J'ai, j'ai, j'ai tout ce qui faut pour faire ton bonheur et le mien s'il me valide et qu'il coopère Moi, j'suis peut-être pas le mec parfait, j'place peut-être quelques disquettes par phrases Mais je t'assure que si dans ma vie, si tout était à refaire, je le referais j'ai trimé pour mériter ma place Moi, on m'a rien donné dans la vie, de mes mains j'ai construit le plus beau des navires Et j'échouerais seul sur une île comme Tom si celui-ci chavire Le regard vide, j'ai froid sans toi Le printemps passe et l'amour balayé plus vite que les feuilles d'automne Moi qui ne connais l'effroi, seul dans mon désarroi Une larme de sang glisse de sa joue puis tombe sur le sol Je sais qu'tu m'en veux, t'as mis le téléphone en veille C'est la faute de ma carrière Je sais qu'tu regardes les messages de la veille T'as érigé des barrières Je sais que j'laisse un vide dans la pièce Mais je veux qu'tu soit ma hlel, ma reine, qu'on t'appelle altesse You might also like J'ai peur de m'engager donc je fuis, c'est la faute de ma carrière Elles m'ont sucé le sang comme un vampire, j'voulais juste une reine qui tienne mon empire T'as érigé des barrières, c'est toi Tu fais parti d'celles qui passent au-dessus de l'oseille et des jantes en alliage C'est bien plus qu'un flirt car devenir un homme c'est faire sa demande en mariage Un nouveau chapitre nous était destiné t'as préféré tourner la page Je t'aime, mais je te hais, de l'amour à la rage Je me rapelle t'avoir fait la cour, ce jour-là je savais déjà ce que je ressentais Oublions nos guerres, célébrons et faisons l'amour, ce soir je suis seul avec ma plume je trinque à ta santé Et toi, toi, toi qui m'a rendu malade à vie, tout ce qu'il me reste aujourd'hui ce sont les souvenirs T'as, t'as, t'as griffé mon cur avec ta nouvelle manucure, à l'époque je n'ai rien vu venir, nan Hors de question que j'reste par terre, j'espère que t'arrives à te regarder dans la glace J'ai l'impression de te sentir couler dans mes artères, je voulais te montrer les mers et faire le tour de l'Atlas Chaque fois que j'ai dû te décevoir, ma fierté ne voulait pas que je demande pardon Et je sais que tu m'en veux de t'avoir délaissé de la sorte en allant au charbon Le regard vide, j'ai froid sans toi Le printemps passe et l'amour balayé plus vite que les feuilles d'automne Moi qui ne connais l'effroi, seul dans mon désarroi Une larme de sang glisse de sa joue puis tombe sur le sol Je sais qu'tu m'en veux, t'as mis le téléphone en veille C'est la faute de ma carrière Je sais qu'tu regardes les messages de la veille T'as érigé des barrières Je sais que j'laisse un vide dans la pièce Mais je veux qu'tu soit ma hlel, ma reine, qu'on t'appelle altesse J'ai peur de m'engager donc je fuis, c'est la faute de ma carrière Elles m'ont sucé le sang comme un vampire, j'voulais juste une reine qui tienne mon empire T'as érigé des barrières, c'est toi Les remords, les regrets, dis-lui qu'tu l'aimes mon pote Va la chercher sous la pluie s'il faut Parce que quand elle sera plus là tu comprendras pourquoi j'ai écrit ce morceau À toutes celles qu'on mérite pas Je t'aime moi non plus3</t>
+          <t>Putain, pourquoi elle répond pas ? Ouais c'est Islem là, rappelle ! Tu rends ouf, là, rappelle ! Vas-y, j'regrette, rappelle ! Le printemps passe et l'amour balayé plus vite que les feuilles d'automne La routine s'installe, pas de communication, la vie devient monotone Une larme de sang glisse de sa joue puis tombe sur le sol Je t'aime mais je te hais, c'est l'ironie du sort J'ai beau jouer le bourreau des curs, ce soir on dîne aux chandelles dans le plus beau décor J'ai refusé de nourrir ma vie de tes pleurs, t'as le plus beau des visages et le plus beau des corps Je, je, je veux te demander ta main, nan, je n'ai pas peur d'affronter le regard de ton père J'ai, j'ai, j'ai tout ce qui faut pour faire ton bonheur et le mien s'il me valide et qu'il coopère Moi, j'suis peut-être pas le mec parfait, j'place peut-être quelques disquettes par phrases Mais je t'assure que si dans ma vie, si tout était à refaire, je le referais j'ai trimé pour mériter ma place Moi, on m'a rien donné dans la vie, de mes mains j'ai construit le plus beau des navires Et j'échouerais seul sur une île comme Tom si celui-ci chavire Le regard vide, j'ai froid sans toi Le printemps passe et l'amour balayé plus vite que les feuilles d'automne Moi qui ne connais l'effroi, seul dans mon désarroi Une larme de sang glisse de sa joue puis tombe sur le sol Je sais qu'tu m'en veux, t'as mis le téléphone en veille C'est la faute de ma carrière Je sais qu'tu regardes les messages de la veille T'as érigé des barrières Je sais que j'laisse un vide dans la pièce Mais je veux qu'tu soit ma hlel, ma reine, qu'on t'appelle altesse J'ai peur de m'engager donc je fuis, c'est la faute de ma carrière Elles m'ont sucé le sang comme un vampire, j'voulais juste une reine qui tienne mon empire T'as érigé des barrières, c'est toi Tu fais parti d'celles qui passent au-dessus de l'oseille et des jantes en alliage C'est bien plus qu'un flirt car devenir un homme c'est faire sa demande en mariage Un nouveau chapitre nous était destiné t'as préféré tourner la page Je t'aime, mais je te hais, de l'amour à la rage Je me rapelle t'avoir fait la cour, ce jour-là je savais déjà ce que je ressentais Oublions nos guerres, célébrons et faisons l'amour, ce soir je suis seul avec ma plume je trinque à ta santé Et toi, toi, toi qui m'a rendu malade à vie, tout ce qu'il me reste aujourd'hui ce sont les souvenirs T'as, t'as, t'as griffé mon cur avec ta nouvelle manucure, à l'époque je n'ai rien vu venir, nan Hors de question que j'reste par terre, j'espère que t'arrives à te regarder dans la glace J'ai l'impression de te sentir couler dans mes artères, je voulais te montrer les mers et faire le tour de l'Atlas Chaque fois que j'ai dû te décevoir, ma fierté ne voulait pas que je demande pardon Et je sais que tu m'en veux de t'avoir délaissé de la sorte en allant au charbon Le regard vide, j'ai froid sans toi Le printemps passe et l'amour balayé plus vite que les feuilles d'automne Moi qui ne connais l'effroi, seul dans mon désarroi Une larme de sang glisse de sa joue puis tombe sur le sol Je sais qu'tu m'en veux, t'as mis le téléphone en veille C'est la faute de ma carrière Je sais qu'tu regardes les messages de la veille T'as érigé des barrières Je sais que j'laisse un vide dans la pièce Mais je veux qu'tu soit ma hlel, ma reine, qu'on t'appelle altesse J'ai peur de m'engager donc je fuis, c'est la faute de ma carrière Elles m'ont sucé le sang comme un vampire, j'voulais juste une reine qui tienne mon empire T'as érigé des barrières, c'est toi Les remords, les regrets, dis-lui qu'tu l'aimes mon pote Va la chercher sous la pluie s'il faut Parce que quand elle sera plus là tu comprendras pourquoi j'ai écrit ce morceau À toutes celles qu'on mérite pas Je t'aime moi non plus3</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Si j'ai des cernes violettes, et le teint si maussade, le teint si maussade C'est que j'pense à nos frères, à nos soeurs, à nos shrabs Toujours affamés, qui s'font rafaler par le Mossad Salope j'ai la bite propre, mais j'ai les mains sales J'pose ma haine à l'anti-pop, j'suis un guerrier maassaï J'ai cultivé mon hip-hop comme un art martial Mes petits rackettent les gosses de riches en Franklin Marshall Rester dans la rue sans un rond, ça marche ap Ensemble en marge de l'État nous marchâmes Les plus jaloux me demandent pourquoi je m'acharne, haha Occupe-toi d'ta chatte ! J'ai rangé mon écharpe et les gants pour les charts La rue c'est hrach, rien ne lui échappe Petit, prends le droit chemin si la rue te charme Hier elle portait les courses de ta mère ce soir elle te charcle Ce soir elle te charcle, ta mère la pute Petit poto, dans la rue ni karaté, ni pencak À part pour le cash, en vérité, on s'aime pas S'bouffe entre nous pour un terrain qui tourne même pas Entourés d'serpents, dépôt, mitard et ça repart Le savoir est une arme dont on ne se sert pas Tous les jours je découvre les gens sous un nouveau jour, les couilles ça s'achète pas J'ai pas trouvé la vérité dans les papyrus Certaines femmes en cachent une autre, évite les poupées russes Elle cherche un bico sorti d'la cuisse à Jupiter Comme si cette pét'Hayce débarque de Venus Même les cainrys m'trouvent famous J'ai grandi dans le besoin, j'ai besoin de vrai luxe Dès mon plus jeune âge, contaminé par la rage, j'escaladais léchafaudage et rentrait par le Vélux Entre drogue, violence et pied d'biche Mon putain d'parcours est une vrai lutte Un jour, tout le rap game sera sous mon emprise Même si je tombe, me relève et trébuche, bitch, bitch Je les baise de manière très brusque Poukito j'te laisserai pas t'épanouir dans la traîtrise Aucun puto peut me nuir, j'fais parti des vrais gus, bitch, bitch L'injustice de l'OPJ rend violent mon phrasé Ces catins connaissent le contenu de mon casier J'suis qu'une cible mouvante sous les tirs croisés Crois en mon expérience, mon auto-destruction De la sueur, du sang, des larmes et des frissons Face aux objections du juge d'instruction La police scientifique ça n'est pas une fiction Fiston, j'ai des pulsions meurtrières, meurtrières Ces petits bâtards me soulèvent chez ma pauvre mère Mon envie de leur tirer dessus ne date pas d'hier Y'a longtemps qu'on sait que les bons flics sont au cimetière Frère, je suis si fier de mon XV2 J'suis là, faudrait s'y faire incessamment sous peu Qu'est-c'tu veux ?! L'homme a le cur glacé Depuis l'âge de pierre on s'approche du feu You might also like J'suis un enfant du Sahara, un descendant d'martyr Faîtes des dou'a pour moi, le jour où je vais partir Ils pensent rapper la street, ils font du rythm and blues J'me suis fait seul au milieu des hyènes en pleine brousse J'mets des coups de crosses, pas besoin de coup de pouce Amener la vie dure en vendant de la drogue douce Ils s'pensent rappeurs street, ils font du rythm and blues J'me suis fait seul au milieu des hyènes en pleine brousse J'mets des coups de crosses, pas besoin de coup de pouce T'as l'nez dans la farine, j'ai la moustache pleine de couscous18</t>
+          <t>Si j'ai des cernes violettes, et le teint si maussade, le teint si maussade C'est que j'pense à nos frères, à nos soeurs, à nos shrabs Toujours affamés, qui s'font rafaler par le Mossad Salope j'ai la bite propre, mais j'ai les mains sales J'pose ma haine à l'anti-pop, j'suis un guerrier maassaï J'ai cultivé mon hip-hop comme un art martial Mes petits rackettent les gosses de riches en Franklin Marshall Rester dans la rue sans un rond, ça marche ap Ensemble en marge de l'État nous marchâmes Les plus jaloux me demandent pourquoi je m'acharne, haha Occupe-toi d'ta chatte ! J'ai rangé mon écharpe et les gants pour les charts La rue c'est hrach, rien ne lui échappe Petit, prends le droit chemin si la rue te charme Hier elle portait les courses de ta mère ce soir elle te charcle Ce soir elle te charcle, ta mère la pute Petit poto, dans la rue ni karaté, ni pencak À part pour le cash, en vérité, on s'aime pas S'bouffe entre nous pour un terrain qui tourne même pas Entourés d'serpents, dépôt, mitard et ça repart Le savoir est une arme dont on ne se sert pas Tous les jours je découvre les gens sous un nouveau jour, les couilles ça s'achète pas J'ai pas trouvé la vérité dans les papyrus Certaines femmes en cachent une autre, évite les poupées russes Elle cherche un bico sorti d'la cuisse à Jupiter Comme si cette pét'Hayce débarque de Venus Même les cainrys m'trouvent famous J'ai grandi dans le besoin, j'ai besoin de vrai luxe Dès mon plus jeune âge, contaminé par la rage, j'escaladais léchafaudage et rentrait par le Vélux Entre drogue, violence et pied d'biche Mon putain d'parcours est une vrai lutte Un jour, tout le rap game sera sous mon emprise Même si je tombe, me relève et trébuche, bitch, bitch Je les baise de manière très brusque Poukito j'te laisserai pas t'épanouir dans la traîtrise Aucun puto peut me nuir, j'fais parti des vrais gus, bitch, bitch L'injustice de l'OPJ rend violent mon phrasé Ces catins connaissent le contenu de mon casier J'suis qu'une cible mouvante sous les tirs croisés Crois en mon expérience, mon auto-destruction De la sueur, du sang, des larmes et des frissons Face aux objections du juge d'instruction La police scientifique ça n'est pas une fiction Fiston, j'ai des pulsions meurtrières, meurtrières Ces petits bâtards me soulèvent chez ma pauvre mère Mon envie de leur tirer dessus ne date pas d'hier Y'a longtemps qu'on sait que les bons flics sont au cimetière Frère, je suis si fier de mon XV2 J'suis là, faudrait s'y faire incessamment sous peu Qu'est-c'tu veux ?! L'homme a le cur glacé Depuis l'âge de pierre on s'approche du feu J'suis un enfant du Sahara, un descendant d'martyr Faîtes des dou'a pour moi, le jour où je vais partir Ils pensent rapper la street, ils font du rythm and blues J'me suis fait seul au milieu des hyènes en pleine brousse J'mets des coups de crosses, pas besoin de coup de pouce Amener la vie dure en vendant de la drogue douce Ils s'pensent rappeurs street, ils font du rythm and blues J'me suis fait seul au milieu des hyènes en pleine brousse J'mets des coups de crosses, pas besoin de coup de pouce T'as l'nez dans la farine, j'ai la moustache pleine de couscous18</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nique ces rappeurs de merde, ces rappeurs entrés par piston Guette la taille de mes cernes, quand j'croise Morphée j'l'appelle fiston En feat avec une arme serbe, les faux, les vrais qui l'sont ? Maman j'veux pas qu'tes yeux s'ferment, un jour nos proches nous quitteront À l'ancienne ça m'négligeait, on m'prenait pour un baisé Maintenant j'serre des bastos, toi tu serres des meufs flinguées J'tente ma chance comme au tiercé, j'ai qu'des frères j'ai pas d'soces À chaque fois qu'j'aime quelqu'un, mon cur vient braquer ma fierté Donne-moi du biff, donne-moi mon avance, on vous gifle bande de hataïs En un freestyle à Sky' on a mis d'accord toute la France On traîne en bas même quand ça caille, c'est Paname qui mène la danse Faudrait qu'j'aille à Phuket pour trouver un rappeur de taille Haha, allez-vous faire enculer, vous allez partir en fumée Maintenant qu'vous voyez qui nous sommes, vous voulez nous calculer ? Il va falloir assumer, ferme ta gueule et déguste On s'est appelés les Frères Lumières parce qu'on vous gifle depuis des lustres On passe de l'ombre à la lumière mon frère, j'ai vu nos étoiles illuminer tout le système lunaire Nos fiertés les mettre à poil, je ne m'arrêterai que six pieds sous terre En guerre dans la vendetta Révolutionnaires, quand les Frères Lumières opèrent c'est le coup d'État Wesh les haineux n'cliquez pas, wAllah qu'on va vous faire paniquer On taffe pas dans l'cinéma, pourtant on a des plans d'qualité Alors ferme ta gueule et apprécie, ferme ta gueule et apprécie Désormais c'game de merde se résume à Volts Face et Hayce Lemsi You might also like Le hood, les thunes, la luxure, les trous dans ma paire de Air Structure Malgré mon mental indestructible, trop p'tit pour accepter leur rupture Tellement de temps perdu sur le ter-ter, la drogue dure, le choc des cultures Je n'ai que de la hargne dans les artères, maudit sois l'Père Noël c'est qu'une ordure J'met les voiles à vive allure, fidèle à mes rats, des goûts qui m'couvrent, la h'nouch me rate Parabellum pare balles dans le Panamera, j'ai giflé l'jnoun de ton bout-mara J'suis au bout d'ma rage, tu vas faire quoi ? J'passe de l'ombre à la lumière ViceVersa Si je pose mon arme à terre, celle de mon frère est dirigée vers toi Sans domicile fixe durant quelques temps, je me demande où étaient ces kahbas ? Qui aujourd'hui m'côtoient pour l'argent, qu'j'aurai p't-être demain si je n'm'égare pas Quand Azzedine est parti j'ai failli mal tourner, les meilleurs nous quittent les putes ne partent pas Tous soudés pour bicrave ou braquer, chacun pour sa peau lors du partage J'prends la fuite avant le palpage, on a pas l'time, arrête ton baratin T'étais pas là quand les Frères Lumières s'faisaient soulever vers 6h du matin J'ai trop souffert rien ne m'atteint, refais mon parcours j'te laisse ma tain-p' Nous n'avons que de la mélancolie dans les veines, de la haine à dissimuler salope nous ne faisons qu'un J'attends pas qu'on m'apporte à graille, sont gravement jaloux qu'j'monte en grade En Fé-fé sur le Troca, j'sais qu'elles veulent plus qu'un autographe Le game à besoin de s'faire mitrailler, les dernières années furent trop calmes Mister Vida Loca tu grimpes, handek si l'succès t'monte au crâne quand tu goûtes au Graal Aller ferme ta gueule apprécie l'flow, j'suis pisté par la lice-po J'kick même sur de la disco, j'peux michtonner une michto Regarde c'que mon équipe vaut, j'suis pas d'ceux qui en disent trop Pétasse tu veux ma queue ? Attends j'regarde si elle est dispo J'fous l'bordel comme à Buraka, bitch me porte pas l'aïn j'ai la baraka J'met la France hors d'elle, j'sors des marécages, bitch on passe du corner à Malaga Bitch moi j'attends pas qu'ces putos m'estiment, j'rends les coups comme la Palestine J'ai cette constante envie d'investir l'instru j'ai l'chic pour varier les styles Allez j'sais pas tu veux quoi ? Ferme-la gaspille pas ta salive J'ai plus de meufs à l'heure où j'parle, que t'as eu d'ex dans ta iv' Armé d'un shlass eux d'un canif, j't'enterre le jour de ton anniv' Bébé j'étais déjà dans l'futur avant qu'Booba arrive 13</t>
+          <t>Nique ces rappeurs de merde, ces rappeurs entrés par piston Guette la taille de mes cernes, quand j'croise Morphée j'l'appelle fiston En feat avec une arme serbe, les faux, les vrais qui l'sont ? Maman j'veux pas qu'tes yeux s'ferment, un jour nos proches nous quitteront À l'ancienne ça m'négligeait, on m'prenait pour un baisé Maintenant j'serre des bastos, toi tu serres des meufs flinguées J'tente ma chance comme au tiercé, j'ai qu'des frères j'ai pas d'soces À chaque fois qu'j'aime quelqu'un, mon cur vient braquer ma fierté Donne-moi du biff, donne-moi mon avance, on vous gifle bande de hataïs En un freestyle à Sky' on a mis d'accord toute la France On traîne en bas même quand ça caille, c'est Paname qui mène la danse Faudrait qu'j'aille à Phuket pour trouver un rappeur de taille Haha, allez-vous faire enculer, vous allez partir en fumée Maintenant qu'vous voyez qui nous sommes, vous voulez nous calculer ? Il va falloir assumer, ferme ta gueule et déguste On s'est appelés les Frères Lumières parce qu'on vous gifle depuis des lustres On passe de l'ombre à la lumière mon frère, j'ai vu nos étoiles illuminer tout le système lunaire Nos fiertés les mettre à poil, je ne m'arrêterai que six pieds sous terre En guerre dans la vendetta Révolutionnaires, quand les Frères Lumières opèrent c'est le coup d'État Wesh les haineux n'cliquez pas, wAllah qu'on va vous faire paniquer On taffe pas dans l'cinéma, pourtant on a des plans d'qualité Alors ferme ta gueule et apprécie, ferme ta gueule et apprécie Désormais c'game de merde se résume à Volts Face et Hayce Lemsi Le hood, les thunes, la luxure, les trous dans ma paire de Air Structure Malgré mon mental indestructible, trop p'tit pour accepter leur rupture Tellement de temps perdu sur le ter-ter, la drogue dure, le choc des cultures Je n'ai que de la hargne dans les artères, maudit sois l'Père Noël c'est qu'une ordure J'met les voiles à vive allure, fidèle à mes rats, des goûts qui m'couvrent, la h'nouch me rate Parabellum pare balles dans le Panamera, j'ai giflé l'jnoun de ton bout-mara J'suis au bout d'ma rage, tu vas faire quoi ? J'passe de l'ombre à la lumière ViceVersa Si je pose mon arme à terre, celle de mon frère est dirigée vers toi Sans domicile fixe durant quelques temps, je me demande où étaient ces kahbas ? Qui aujourd'hui m'côtoient pour l'argent, qu'j'aurai p't-être demain si je n'm'égare pas Quand Azzedine est parti j'ai failli mal tourner, les meilleurs nous quittent les putes ne partent pas Tous soudés pour bicrave ou braquer, chacun pour sa peau lors du partage J'prends la fuite avant le palpage, on a pas l'time, arrête ton baratin T'étais pas là quand les Frères Lumières s'faisaient soulever vers 6h du matin J'ai trop souffert rien ne m'atteint, refais mon parcours j'te laisse ma tain-p' Nous n'avons que de la mélancolie dans les veines, de la haine à dissimuler salope nous ne faisons qu'un J'attends pas qu'on m'apporte à graille, sont gravement jaloux qu'j'monte en grade En Fé-fé sur le Troca, j'sais qu'elles veulent plus qu'un autographe Le game à besoin de s'faire mitrailler, les dernières années furent trop calmes Mister Vida Loca tu grimpes, handek si l'succès t'monte au crâne quand tu goûtes au Graal Aller ferme ta gueule apprécie l'flow, j'suis pisté par la lice-po J'kick même sur de la disco, j'peux michtonner une michto Regarde c'que mon équipe vaut, j'suis pas d'ceux qui en disent trop Pétasse tu veux ma queue ? Attends j'regarde si elle est dispo J'fous l'bordel comme à Buraka, bitch me porte pas l'aïn j'ai la baraka J'met la France hors d'elle, j'sors des marécages, bitch on passe du corner à Malaga Bitch moi j'attends pas qu'ces putos m'estiment, j'rends les coups comme la Palestine J'ai cette constante envie d'investir l'instru j'ai l'chic pour varier les styles Allez j'sais pas tu veux quoi ? Ferme-la gaspille pas ta salive J'ai plus de meufs à l'heure où j'parle, que t'as eu d'ex dans ta iv' Armé d'un shlass eux d'un canif, j't'enterre le jour de ton anniv' Bébé j'étais déjà dans l'futur avant qu'Booba arrive 13</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vous savez ?! Un homme qui manque de sommeil est un homme très dangereux. Disons que l'insomnie lui confère une certaine hargne .. Une certaine Hayssurance La vengeance est un plat qui se mange ice, ma pet'Hayce est delicious elle a le goût du champaign Biko, j'fais ma pl'Hayce le temps p'Hayce et les an-ienc' ont les sinus fourrés dans la cocain Biko, Blako, Blanko, Loko, leggo c'est la street pas le buzz qui nous forge On est hard on regorge de hargne, de larmes dans les yeuz' et des joies qui nous prennent à la gorge Biko, vestibule insalubre, énième joint chargé comme la mule Qu'on m'allume si mon rap est faux, je joue sur les flows comme la Lune Biko, j'ai cette haine amoureuse envers chacun de mes trophées Le marchand de sable arrache des keus' y'a des traces d'intraveineuse sur les bras de Morphée Traînée de poudre, par l'oseille frustré transforme les soirées dansantes en bains d'sang J'la vois sortir du Soleil Sucré ses petites mèches fouettent les mouches en marchant La vérité s'cache derrière une montagne de courtoisie Mal vus ici, car on est pas issus de leur putain d'immigration choisie Trop de fissures, demande à Lissu, G-T, Lassgass, KranMax ou Grizzly Quand tu bois de l'alcool tu parles mal boy, quand tu vois le magnum tu perds ton zizi Un grand pas pour le rap Frenchy, biko blako blanko dans le narcotrafic J'ai pas ton temps vas-y reste tranquille biko y'avais pas de micro dans mon échographie Nul ne me mène en bateau, j'suis sûr de moi j'suis Hayce Lem Eiffel Tower sur le drapeau, je n'ai pas dormi de la semaine Maintenant je veux voir les bras hauts, c'est l'deuxième braquo d'Hayce Lem Biko, Blako, Blanko j'suis venu rançonner le rap game Biatch, biatch, biatch, biatch C'est le retour de Hayce Lem, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch J'suis venu rançonner l'rap game, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch C'est le retour de Hayce Lem, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch Qu'ils aiment ou haïssent Hayce Lem, biatch, biatch, biatch, biatch You might also like J'ai beau chercher le bonheur dans un encrier, dissimuler tout c'que j'ai souffert sous terre Personne ne pourra m'entendre crier, si rapper c'est tout c'que je sais faire mon frère Sois pas paresseux, te contente pas du RSA Pour caressey son boule graisseux, sors 2-3-4 bouteilles de rosé Disque de platine mon précieux, mauvais karma j'aime le flouse J'aime les femmes et les fusils zina djibili kahwa kalb el louz Débit volubilité j'ai de la folie dans les veines et d'l'euphorie dans les nerfs bitch I'm the shit J'ai pas d'immunité j'ai longtemps lutté dans la merde amenez-moi la qualité qu'on parle de chiffres Que des gifles dans vos r'Hayce, que des cr'Hayce dans les quartiers chics Quand l'sang gicle on est tous cori'Hayce, tu verras pas d'poukis dans mes relationships Les p'tites crasseuses qui recherchent Crésus, savent que la Kalash humaine vise très juste Et que sans trébucher j'kickerais jusqu'au petit matin, dj part au plage fréjus XV Barbare dans le building, une arme blanche dans le manteau noir Tout le game sur le ring j'en fais du pudding, ma pet'Hayce tise à l'entonnoir Tu te demandes d'où vient ce flow d'alien ? Normal ça vient de Paris Ça va jusqu'à l'acte de barbarie, juste pour porter des marques italiennes Nul ne me mène en bateau, j'suis sûr de moi j'suis Hayce Lem Eiffel Tower sur le drapeau, je n'ai pas dormi de la semaine Maintenant je veux voir les bras hauts, c'est l'deuxième braquo d'Hayce Lem Biko, Blako, Blanko j'suis venu rançonner le rap game Biatch, biatch, biatch, biatch C'est le retour de Hayce Lem, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch J'suis venu rançonner l'rap game, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch C'est le retour de Hayce Lem, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch Qu'ils aiment ou haïssent Hayce Lem, biatch, biatch, biatch, biatch Nul ne me mène en bateau, j'suis sûr de moi j'suis Hayce Lem Eiffel Tower sur le drapeau, je n'ai pas dormi de la semaine Maintenant je veux voir les bras hauts, c'est l'deuxième braquo d'Hayce Lem Biko, Blako, Blanko j'suis venu rançonner le rap game Biatch, biatch, biatch, biatch C'est le retour de Hayce Lem, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch J'suis venu rançonner l'rap game, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch C'est le retour de Hayce Lem, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch Qu'ils aiment ou haïssent Hayce Lem, biatch, biatch, biatch, biatch Un grand pas pour le rap Frenchy, grand pas pour le rap Frenchy Un grand pas pour le rap Frenchy, un grand pas-pas, un grand pas-pas Un grand pour le rap Frenchy, grand pas pour le rap Frenchy Un grand pas pour le rap Frenchy, un grand pas, un grand pas Je vous l'avais dit n'est-ce pas ? Cet insomniaque est intenable, et nul ne sait jusqu'où il pourra aller ..15</t>
+          <t>Vous savez ?! Un homme qui manque de sommeil est un homme très dangereux. Disons que l'insomnie lui confère une certaine hargne .. Une certaine Hayssurance La vengeance est un plat qui se mange ice, ma pet'Hayce est delicious elle a le goût du champaign Biko, j'fais ma pl'Hayce le temps p'Hayce et les an-ienc' ont les sinus fourrés dans la cocain Biko, Blako, Blanko, Loko, leggo c'est la street pas le buzz qui nous forge On est hard on regorge de hargne, de larmes dans les yeuz' et des joies qui nous prennent à la gorge Biko, vestibule insalubre, énième joint chargé comme la mule Qu'on m'allume si mon rap est faux, je joue sur les flows comme la Lune Biko, j'ai cette haine amoureuse envers chacun de mes trophées Le marchand de sable arrache des keus' y'a des traces d'intraveineuse sur les bras de Morphée Traînée de poudre, par l'oseille frustré transforme les soirées dansantes en bains d'sang J'la vois sortir du Soleil Sucré ses petites mèches fouettent les mouches en marchant La vérité s'cache derrière une montagne de courtoisie Mal vus ici, car on est pas issus de leur putain d'immigration choisie Trop de fissures, demande à Lissu, G-T, Lassgass, KranMax ou Grizzly Quand tu bois de l'alcool tu parles mal boy, quand tu vois le magnum tu perds ton zizi Un grand pas pour le rap Frenchy, biko blako blanko dans le narcotrafic J'ai pas ton temps vas-y reste tranquille biko y'avais pas de micro dans mon échographie Nul ne me mène en bateau, j'suis sûr de moi j'suis Hayce Lem Eiffel Tower sur le drapeau, je n'ai pas dormi de la semaine Maintenant je veux voir les bras hauts, c'est l'deuxième braquo d'Hayce Lem Biko, Blako, Blanko j'suis venu rançonner le rap game Biatch, biatch, biatch, biatch C'est le retour de Hayce Lem, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch J'suis venu rançonner l'rap game, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch C'est le retour de Hayce Lem, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch Qu'ils aiment ou haïssent Hayce Lem, biatch, biatch, biatch, biatch J'ai beau chercher le bonheur dans un encrier, dissimuler tout c'que j'ai souffert sous terre Personne ne pourra m'entendre crier, si rapper c'est tout c'que je sais faire mon frère Sois pas paresseux, te contente pas du RSA Pour caressey son boule graisseux, sors 2-3-4 bouteilles de rosé Disque de platine mon précieux, mauvais karma j'aime le flouse J'aime les femmes et les fusils zina djibili kahwa kalb el louz Débit volubilité j'ai de la folie dans les veines et d'l'euphorie dans les nerfs bitch I'm the shit J'ai pas d'immunité j'ai longtemps lutté dans la merde amenez-moi la qualité qu'on parle de chiffres Que des gifles dans vos r'Hayce, que des cr'Hayce dans les quartiers chics Quand l'sang gicle on est tous cori'Hayce, tu verras pas d'poukis dans mes relationships Les p'tites crasseuses qui recherchent Crésus, savent que la Kalash humaine vise très juste Et que sans trébucher j'kickerais jusqu'au petit matin, dj part au plage fréjus XV Barbare dans le building, une arme blanche dans le manteau noir Tout le game sur le ring j'en fais du pudding, ma pet'Hayce tise à l'entonnoir Tu te demandes d'où vient ce flow d'alien ? Normal ça vient de Paris Ça va jusqu'à l'acte de barbarie, juste pour porter des marques italiennes Nul ne me mène en bateau, j'suis sûr de moi j'suis Hayce Lem Eiffel Tower sur le drapeau, je n'ai pas dormi de la semaine Maintenant je veux voir les bras hauts, c'est l'deuxième braquo d'Hayce Lem Biko, Blako, Blanko j'suis venu rançonner le rap game Biatch, biatch, biatch, biatch C'est le retour de Hayce Lem, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch J'suis venu rançonner l'rap game, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch C'est le retour de Hayce Lem, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch Qu'ils aiment ou haïssent Hayce Lem, biatch, biatch, biatch, biatch Nul ne me mène en bateau, j'suis sûr de moi j'suis Hayce Lem Eiffel Tower sur le drapeau, je n'ai pas dormi de la semaine Maintenant je veux voir les bras hauts, c'est l'deuxième braquo d'Hayce Lem Biko, Blako, Blanko j'suis venu rançonner le rap game Biatch, biatch, biatch, biatch C'est le retour de Hayce Lem, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch J'suis venu rançonner l'rap game, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch C'est le retour de Hayce Lem, biatch, biatch, biatch, biatch Biatch, biatch, biatch, biatch Qu'ils aiment ou haïssent Hayce Lem, biatch, biatch, biatch, biatch Un grand pas pour le rap Frenchy, grand pas pour le rap Frenchy Un grand pas pour le rap Frenchy, un grand pas-pas, un grand pas-pas Un grand pour le rap Frenchy, grand pas pour le rap Frenchy Un grand pas pour le rap Frenchy, un grand pas, un grand pas Je vous l'avais dit n'est-ce pas ? Cet insomniaque est intenable, et nul ne sait jusqu'où il pourra aller ..15</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Technique de typique petit biko mal-aimé, brah brah beaucoup de monde à malmener Haha qui veut tenter de méliminer ? Jtac-tacle le beat à la Makélélé Barbare cest le mec du 2XV oh que cest lourd, excellente accélération Berbère, petite paire et petite ste-vè juste un peu hystérique dans le feu de laction Cest moi que ta petite copine bigo, ça cuisine sans porter de toque Bain de minuit dans hémoglobine biko, de quoi foutre la chair de poule à Manu le Coq Motherfuckin' assohle pisté par la APC vers PSO Jaime le dollar jai la dégaine du zonard, jai la plume de Zola, le pinceau de Picasso Hayce Lemsi selha dans le caleçon, à cette heure-ci je nai pas de compassion Pour lennemi Hennessy sans glaçon, la sensi le cigare du patron Mélomane éliminant malement les mégalomanes, jai mal au mic à la Puccino Coup de fil anonyme au milieu de la night, on se capte à La Fourche biko Lemsi Loko veut des bimbos lokas dans le tel-hô, de la bonne weed locale Oit bolosse tu débites la coca donnes tes loves cest la vida loca Jamène la rime je manie les mots comme dit Cawcaw ça fait brouh miaah Jallume la hi' menvole là-haut, je navigue dans la ville insomnia Hay-Hay-Hayce Lem jélimine le game en one-one Je manque de khaliss de sommeil You you you know my life Selha lalala blanche porcelaine You you you know what I am sayin' Moi-moi-moi cest Hayce Lem Mu-Mu-Music is my wife Hay-Hay-Hayce Lem jélimine le game en one-one Je manque de khaliss de sommeil You you you know my life Selha lalala blanche porcelaine You you you know what I am sayin' Moi-moi-moi cest Hayce Lem Mu-Mu-Music is my wife You might also like Jai peut-être pas la belle gueule habile et gue-din, mets les balles dans le gun, mégalomanes à lagonie Vil et malin, mets la monnaie dans la mine, malmenant mâlement le méli-mélo mon ami, mélanine halée mal-aimée Mais nan dans mon paki ya pas de henné, maintenant je mets le paquet je nique des mères Pas le temps de te demander de laide PD, yen a marre dérrer Hip-hop développé, le mic malimente à 17 000 watts minimum, jte ligote, jtélimine, yen a marre des menottes Jveux la maille et le cul de Pénélope Put your hands up in the air, cest le petit berbère bing bang bang Tellement de mélancolie dans les mots de calumets, de monnaie, mille délits maléfiques sur le ter-ter Voulez-vous naviguer dans la ville où lon meurt jeune ? Mets les voiles amigo tas la tête dans le mehjoune Mon level à malmené ta clique harcheum Mêlée dans la street gyrophares et la BAC shoot Mets les mets les watts pousses la sono, écoutes ce flow dHayce'tronaute Mille et une mélodies de malade à la minute, Hayssieds toi prends des notes kholoto Je thypnotise au micro, litron de nitro, narcotrafic, râbra Cernes de vampires, regard troublant, le phrasé de Rabelais, lil de cobra abracadabra Jcrochète la serrure dun coffio, conio, jcombats le pollo, polo Ralph lo, coffré bimbo fiole au fond de la gova Hay-Hay-Hayce Lem jélimine le game en one-one Je manque de khaliss de sommeil You you you know my life Selha lalala blanche porcelaine You you you know what I am sayin' Moi-moi-moi cest Hayce Lem Mu-Mu-Music is my wife Hay-Hay-Hayce Lem jélimine le game en one-one Je manque de khaliss de sommeil You you you know my life Selha lalala blanche porcelaine You you you know what I am sayin' Moi-moi-moi cest Hayce Lem Mu-Mu-Music is my wife Rap Genius nous éliminons la concurrence en one-one ! Rejoins-nous !26</t>
+          <t>Technique de typique petit biko mal-aimé, brah brah beaucoup de monde à malmener Haha qui veut tenter de méliminer ? Jtac-tacle le beat à la Makélélé Barbare cest le mec du 2XV oh que cest lourd, excellente accélération Berbère, petite paire et petite ste-vè juste un peu hystérique dans le feu de laction Cest moi que ta petite copine bigo, ça cuisine sans porter de toque Bain de minuit dans hémoglobine biko, de quoi foutre la chair de poule à Manu le Coq Motherfuckin' assohle pisté par la APC vers PSO Jaime le dollar jai la dégaine du zonard, jai la plume de Zola, le pinceau de Picasso Hayce Lemsi selha dans le caleçon, à cette heure-ci je nai pas de compassion Pour lennemi Hennessy sans glaçon, la sensi le cigare du patron Mélomane éliminant malement les mégalomanes, jai mal au mic à la Puccino Coup de fil anonyme au milieu de la night, on se capte à La Fourche biko Lemsi Loko veut des bimbos lokas dans le tel-hô, de la bonne weed locale Oit bolosse tu débites la coca donnes tes loves cest la vida loca Jamène la rime je manie les mots comme dit Cawcaw ça fait brouh miaah Jallume la hi' menvole là-haut, je navigue dans la ville insomnia Hay-Hay-Hayce Lem jélimine le game en one-one Je manque de khaliss de sommeil You you you know my life Selha lalala blanche porcelaine You you you know what I am sayin' Moi-moi-moi cest Hayce Lem Mu-Mu-Music is my wife Hay-Hay-Hayce Lem jélimine le game en one-one Je manque de khaliss de sommeil You you you know my life Selha lalala blanche porcelaine You you you know what I am sayin' Moi-moi-moi cest Hayce Lem Mu-Mu-Music is my wife Jai peut-être pas la belle gueule habile et gue-din, mets les balles dans le gun, mégalomanes à lagonie Vil et malin, mets la monnaie dans la mine, malmenant mâlement le méli-mélo mon ami, mélanine halée mal-aimée Mais nan dans mon paki ya pas de henné, maintenant je mets le paquet je nique des mères Pas le temps de te demander de laide PD, yen a marre dérrer Hip-hop développé, le mic malimente à 17 000 watts minimum, jte ligote, jtélimine, yen a marre des menottes Jveux la maille et le cul de Pénélope Put your hands up in the air, cest le petit berbère bing bang bang Tellement de mélancolie dans les mots de calumets, de monnaie, mille délits maléfiques sur le ter-ter Voulez-vous naviguer dans la ville où lon meurt jeune ? Mets les voiles amigo tas la tête dans le mehjoune Mon level à malmené ta clique harcheum Mêlée dans la street gyrophares et la BAC shoot Mets les mets les watts pousses la sono, écoutes ce flow dHayce'tronaute Mille et une mélodies de malade à la minute, Hayssieds toi prends des notes kholoto Je thypnotise au micro, litron de nitro, narcotrafic, râbra Cernes de vampires, regard troublant, le phrasé de Rabelais, lil de cobra abracadabra Jcrochète la serrure dun coffio, conio, jcombats le pollo, polo Ralph lo, coffré bimbo fiole au fond de la gova Hay-Hay-Hayce Lem jélimine le game en one-one Je manque de khaliss de sommeil You you you know my life Selha lalala blanche porcelaine You you you know what I am sayin' Moi-moi-moi cest Hayce Lem Mu-Mu-Music is my wife Hay-Hay-Hayce Lem jélimine le game en one-one Je manque de khaliss de sommeil You you you know my life Selha lalala blanche porcelaine You you you know what I am sayin' Moi-moi-moi cest Hayce Lem Mu-Mu-Music is my wife Rap Genius nous éliminons la concurrence en one-one ! Rejoins-nous !26</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>XV Barbare viens sur l'ter-ter on sort d'la brousse ah ouais Mets les mains terre-par, j'veux l'code de la carte pourquoi tu glousses ta mère ? Les minots t'hagar tes lunettes tier-Car te piste en douce à iep' Et de Paris vous pensez qu'j'perd le nord vous êtes tous à l'ouest Faut qu'j'trouve A Milli debout de minuit à minuit MC j't'humilie ouais c'est la hass c'est miné y'a de la s' dans les Cooper Mini J'fais sauter la caisse de la Sacem illico loco j'empeste le talent inouï L'holocauste c'est Hayce le best et weed weed dans la veste charcle l'intestin d'Emile Louis Han Vibes à la martienne, mentalité malsaine, tu l'as dis dans marcel, parler de Hayce Lem' De Paname a Marseille, die sur la passerelle, punchline j'parsème, pét'Hayces m'harcèlent J'arrive en soum-soum aux anciens j'fous le seum J'suis le petit d'personne, personne moi j'me suis fais tout seul haha J'tappe dans les tympans, j'tarte les tainps dans le rap J'élimine ton cartel en partant d'rien j'te demarre J't'écarte les pattes arrière dans le bat' ou l'hôtel Etap Arrêtez le rap de boloss de ré-soi Tellement de victoires j'suis le battant, harbi l'rap d'aujourd'hui m'déçois Trop de merdes dans les bacs, hey les mecs on débarque En soum-soum easy, fils ici missile téléguidée, risques résines Obstinance brisée, triple six nous fixe en silence Misez sur la patience et dire en viendra le caviar Le dernier rappeur que j'ai vu rêvait de la paye d'un guetteur plein-phare Zina atini tilifoune dialek, étonnée de mon foutu dialecte Épaulé par mes fous d'la rue, j'prends le mic' t'es foutu direct On connais les fous d'la rue, t'armes pas si t'as peur de tirer J'rap à la vitesse d'une kalash russe CanonHayceLemscié Reprise de volée dans la bouche, extirpe les violets de la poche harboush Comme Sniper j'suis gravée dans la roche, comme Solaar faut j'cartouche la fille de Partouche Quoi j'peux crier vida loca, sans jouer les mecs de la Mara Les rappeurs que tu kiffes tellement tapent tous dans la selha lalala bawawa Fuck le calendrier Maya, Oba-marionnette Sarko, toutes les eaux sont couleurs noyades Les infos manquent pas d'fiction, les nymphos manquent d'affections Trop d'intraveineuse injections, j'ai traumatisé l'ingé' son Fiston y'a pas d'henné dans mon Paki trop de llets-bi dans la pocket C'est la guerre je vois tout en kaki, pouki demande ap' le prix de la plaquette Ton équipe raconte que des pipeaux personne va sortir l'nine J'te ferais pas tourner mes bimbos loca, tu les baiserais mal Ah ouais !You might also like6</t>
+          <t>XV Barbare viens sur l'ter-ter on sort d'la brousse ah ouais Mets les mains terre-par, j'veux l'code de la carte pourquoi tu glousses ta mère ? Les minots t'hagar tes lunettes tier-Car te piste en douce à iep' Et de Paris vous pensez qu'j'perd le nord vous êtes tous à l'ouest Faut qu'j'trouve A Milli debout de minuit à minuit MC j't'humilie ouais c'est la hass c'est miné y'a de la s' dans les Cooper Mini J'fais sauter la caisse de la Sacem illico loco j'empeste le talent inouï L'holocauste c'est Hayce le best et weed weed dans la veste charcle l'intestin d'Emile Louis Han Vibes à la martienne, mentalité malsaine, tu l'as dis dans marcel, parler de Hayce Lem' De Paname a Marseille, die sur la passerelle, punchline j'parsème, pét'Hayces m'harcèlent J'arrive en soum-soum aux anciens j'fous le seum J'suis le petit d'personne, personne moi j'me suis fais tout seul haha J'tappe dans les tympans, j'tarte les tainps dans le rap J'élimine ton cartel en partant d'rien j'te demarre J't'écarte les pattes arrière dans le bat' ou l'hôtel Etap Arrêtez le rap de boloss de ré-soi Tellement de victoires j'suis le battant, harbi l'rap d'aujourd'hui m'déçois Trop de merdes dans les bacs, hey les mecs on débarque En soum-soum easy, fils ici missile téléguidée, risques résines Obstinance brisée, triple six nous fixe en silence Misez sur la patience et dire en viendra le caviar Le dernier rappeur que j'ai vu rêvait de la paye d'un guetteur plein-phare Zina atini tilifoune dialek, étonnée de mon foutu dialecte Épaulé par mes fous d'la rue, j'prends le mic' t'es foutu direct On connais les fous d'la rue, t'armes pas si t'as peur de tirer J'rap à la vitesse d'une kalash russe CanonHayceLemscié Reprise de volée dans la bouche, extirpe les violets de la poche harboush Comme Sniper j'suis gravée dans la roche, comme Solaar faut j'cartouche la fille de Partouche Quoi j'peux crier vida loca, sans jouer les mecs de la Mara Les rappeurs que tu kiffes tellement tapent tous dans la selha lalala bawawa Fuck le calendrier Maya, Oba-marionnette Sarko, toutes les eaux sont couleurs noyades Les infos manquent pas d'fiction, les nymphos manquent d'affections Trop d'intraveineuse injections, j'ai traumatisé l'ingé' son Fiston y'a pas d'henné dans mon Paki trop de llets-bi dans la pocket C'est la guerre je vois tout en kaki, pouki demande ap' le prix de la plaquette Ton équipe raconte que des pipeaux personne va sortir l'nine J'te ferais pas tourner mes bimbos loca, tu les baiserais mal Ah ouais !6</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hola Hello, biko loko, caramello, zeb, cola, tel-hô, collage, caféinoman, alcoolo, coño Té-ma dépouillé par ces sales poyos Polo que-mar, connard mon peu-ra marque Bouneau Bouillant j'démarre au quart écarte-toi boloss Bériz on sait faire le khaliss en douce J'arrive peinard, peignoir, champagne, bimbo Tu joues l'zonard bizarre tu sens pas le ghetto Seille-O, cognac j'kick avec mes sales bicos À la démarche on reconnait les sales baceux Allô t'es là ? Qu'on s'allume un ou deux pilons Histoire de tuer le temps pour échanger nos opinions Elle dit qu'elle me trouve mignon mais qu'elle aime ceux qu'on péter l'million Il vaut mieux que je m'éloigne, j'consomme plus d'herbe qu'un bison J'élimine le rap game en one-one et vous laisse plein de frissons Technique de typique petit loco mélomane aux milles maniements du mic' j'tiens les murs du son Mal-luné dans la night mets la monnaie sur la table et t'aura ton écaille de poisson Bawawa du pilon plein de billets-llets-llets-llets-llets Toute la night L'Insomniak est réveillé-llé-llé-llé-llé Bico Ba-wa-wa Blaco Yeah yeah yeah Blanco Ba-wa-wa Loco Yeah yeah yeah Technique de typique petit loco mélomane éliminant malement les mégalomanes Bico, blaco, blanco, loco On s'die dans ma ville on kiffe prendre le mic', mes pirates naviguent sur un air de raï On s'die dans ma ville on kiffe prendre le mic', mes pirates naviguent sur un air de raï De la maille dans la mine, le moral dans les Nike Le pe-ra j'réanime j'vagabonde la night Nouveau thème, nouveau pin, ça bicrave en anonyme J'raccompagne ta copine complètement khabat Tout niquer c'est ma routine, Nord Island c'est ma team J'te piétine, de lhémoglobine sur l'sebat Même les putes se battent, pour un michton qui paye ses bottes Pendant que les baceux bloquent le bac où l'on détaille des blocs C'est juste mon bico lo-come back Je veux que mon rap marque l'époque et que tout tes potes me back J'décapite les wack, ils ont jamais mis de patate ils nous parlent de Glock Ils font aud-ch dahak j'manie les mots male-mène la mélodie dans les taudis de ton ghetto bico loco Money money j'tacle le beat à la Makélélé mate un peu les mecs du siete cinco You might also like J'ai l'uppercut à de la Hoya Petit bico qui débite de la hiya devant le comico On débarque dans ta villa sous Veuve Clicquot tu connais ma ville khoya Siete cinco, bico, blaco, blanco, put your hands up in the air Voilà le sagittaire solitaire aka le charbonneur de l'hiver J'dompte les vers mes punchlines tassommes MC j'te fais plus d'ombre qu'un parasol Un rouleau de billets au mi-li-eu de la night J'appelle Cendrillon mais elle est coincé dans un cendrier Die-die-die dans la cage d'escalier Bawawa qui peut mempêcher d'briller White widow dans la cage thoracique Escorté par un arc-en-ciel cache toi raciste Ding dong, brah brah brah, j'dégaine élimine tout le game à la vitesse lumière Bico, blaco, blanco, loco, put your hands up in the air Toute la night nous aussi on est réveillés-llés-llés-llés-llés !14</t>
+          <t>Hola Hello, biko loko, caramello, zeb, cola, tel-hô, collage, caféinoman, alcoolo, coño Té-ma dépouillé par ces sales poyos Polo que-mar, connard mon peu-ra marque Bouneau Bouillant j'démarre au quart écarte-toi boloss Bériz on sait faire le khaliss en douce J'arrive peinard, peignoir, champagne, bimbo Tu joues l'zonard bizarre tu sens pas le ghetto Seille-O, cognac j'kick avec mes sales bicos À la démarche on reconnait les sales baceux Allô t'es là ? Qu'on s'allume un ou deux pilons Histoire de tuer le temps pour échanger nos opinions Elle dit qu'elle me trouve mignon mais qu'elle aime ceux qu'on péter l'million Il vaut mieux que je m'éloigne, j'consomme plus d'herbe qu'un bison J'élimine le rap game en one-one et vous laisse plein de frissons Technique de typique petit loco mélomane aux milles maniements du mic' j'tiens les murs du son Mal-luné dans la night mets la monnaie sur la table et t'aura ton écaille de poisson Bawawa du pilon plein de billets-llets-llets-llets-llets Toute la night L'Insomniak est réveillé-llé-llé-llé-llé Bico Ba-wa-wa Blaco Yeah yeah yeah Blanco Ba-wa-wa Loco Yeah yeah yeah Technique de typique petit loco mélomane éliminant malement les mégalomanes Bico, blaco, blanco, loco On s'die dans ma ville on kiffe prendre le mic', mes pirates naviguent sur un air de raï On s'die dans ma ville on kiffe prendre le mic', mes pirates naviguent sur un air de raï De la maille dans la mine, le moral dans les Nike Le pe-ra j'réanime j'vagabonde la night Nouveau thème, nouveau pin, ça bicrave en anonyme J'raccompagne ta copine complètement khabat Tout niquer c'est ma routine, Nord Island c'est ma team J'te piétine, de lhémoglobine sur l'sebat Même les putes se battent, pour un michton qui paye ses bottes Pendant que les baceux bloquent le bac où l'on détaille des blocs C'est juste mon bico lo-come back Je veux que mon rap marque l'époque et que tout tes potes me back J'décapite les wack, ils ont jamais mis de patate ils nous parlent de Glock Ils font aud-ch dahak j'manie les mots male-mène la mélodie dans les taudis de ton ghetto bico loco Money money j'tacle le beat à la Makélélé mate un peu les mecs du siete cinco J'ai l'uppercut à de la Hoya Petit bico qui débite de la hiya devant le comico On débarque dans ta villa sous Veuve Clicquot tu connais ma ville khoya Siete cinco, bico, blaco, blanco, put your hands up in the air Voilà le sagittaire solitaire aka le charbonneur de l'hiver J'dompte les vers mes punchlines tassommes MC j'te fais plus d'ombre qu'un parasol Un rouleau de billets au mi-li-eu de la night J'appelle Cendrillon mais elle est coincé dans un cendrier Die-die-die dans la cage d'escalier Bawawa qui peut mempêcher d'briller White widow dans la cage thoracique Escorté par un arc-en-ciel cache toi raciste Ding dong, brah brah brah, j'dégaine élimine tout le game à la vitesse lumière Bico, blaco, blanco, loco, put your hands up in the air Toute la night nous aussi on est réveillés-llés-llés-llés-llés !14</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L'Électron libre est de retour dans ce putain de game J'suis pas un artiste de l'industrie J'suis un artiste et j'suis une industrie Bitch XV Barbare J'm'exprime au premier degré, je ne laisse ni le blé, ni l'amour m'aveugler J'rappe pour de vrai, je mapproprie les trophées de force ou de gré Tout est millimétré, nos contentieux mènent à Bichat, Robert-Debré Aucun regret sauf quand j'aperçois des lokos m'idolâtrer La folie des grandeurs va m'avoir à l'usure, ma folie, ses rondeurs, l'odeur de la luxure 300 000 au compteur, insomnie mon moteur, j'éprouve comme une rancur quand mon cur se fissure J'sais qui tient les ficelles, dès l'enfance, mon talent né d'une triste blessure Y a du monde à vi-ser et des nouvelles recettes, c'est la MS17 qui te brise le fémur 20 piges, pied du mur Corner, cagoulé sur la Hornet 4 pét'hayce dans la corvette, les rappeurs baillent au corneille Omerta, silence, honneur, poukito, j'te monte en l'air L'élite arrive à vive allure, j'ai la dalle, j'viens du corner Respecte les seniors, l'insolence est borgne, le silence est d'or car le silencieux dort Dehors ou dedans, ne trahis pas l'omerta, y aura pas mort d'homme Petit, tu te demandes pourquoi les grands te forgent à la loi du plus fort ? La rue n'est pas un jeu, tout l'monde n'a pas ton âge et des gens vont plonger si tu perds tes couilles à deux pas du coffre fort J'rappe c'que j'ai souffert toute ma life, la vingtaine, pas d'enfant, pas d'wife J'prends le micro toute la night, paranoïaque, schizophrène, insomniaque, vie d'ma rhayce Biko, j'suis sur le corner, biko, j'suis sur la Hornet Arme serbe sur tes pommettes, biko, j'suis sur tes côtelettes Bico, j'suis sur le corner, bico, j'suis sur la Hornet Arme serbe sur tes pommettes, biko, j'suis sur tes côtelettes Elle veut pas d'toi, biko, c'est ma bitch, elle veut pas d'toi, biko, c'est ma bitch Je crois qu'elle cherche un homme riche, elle aura qu'lhôtel, une 'teille, un sandwich Y'a d'la poudre dans l'air, tout le corner à terre commission rogatoire Bico mon mandataire dit avoir aperçu Belphégor au parloir J'investis dans la pierre, le sang coule dans les rues, sors l'oseille du tiroir Elle arrive de Tijuana, j'pisse du Rozay pour marquer mon territoire L'argent fait le bohneur, les yachts, la haute couture, le monde est à nous Passe au corner avec mes darlos si tu veux pas j'te hagar au hanout Filature préméditée sous le doux feu de laurore, loin des pays parfumés que le soleil caresse A la recherche dune identité, dune arme de lest, on a les sens éveillés mais loseille nehess Jai toujours les mêmes habitudes, sur le bitume, biko Wiz' attitude À lheure où jécris ctexte dadino roule une tulipe et jignore encore comment lalbum sintitule Ptite pute jnai quune parole je suis formel car le corner m'a formé 75 Squad dans tes oreilles, barrettes partent comme des cornets Respecte les seniors, l'insolence est borgne, le silence est d'or car le silencieux dort Dehors ou dedans, ne trahis pas l'omerta, y aura pas mort d'homme Petit, tu te demandes pourquoi les grands te forgent à la loi du plus fort ? La rue n'est pas un jeu, tout l'monde n'a pas ton âge et des gens vont plonger si tu perds tes couilles à deux pas du coffre fort J'rappe c'que j'ai souffert toute ma life, la vingtaine, pas d'enfant, pas d'wife J'prends le micro toute la night, paranoïaque, schizophrène, insomniaque, vie d'ma rhayce Biko, j'suis sur le corner, biko, j'suis sur la Hornet Arme serbe sur tes pommettes, biko, j'suis sur tes côtelettes Bico, j'suis sur le corner, bico, j'suis sur la Hornet Arme serbe sur tes pommettes, biko, j'suis sur tes côtelettes Elle veut pas d'toi, biko, c'est ma bitch, elle veut pas d'toi, biko, c'est ma bitch Je crois qu'elle cherche un homme riche, elle aura qu'lhôtel, une 'teille, un sandwich Capote, seringue, mégot, fleur fanée MD, sel3a, bédo, détaillés Quatre-vingt seize heures au dépot, déférée Liasse de billets dans les couilles, feuille enfouraillée Nah-nah dans lfrigo, mes Oranais Mes Algérois dégo, mes négros dlannée LF, la J, lréseau de fous alliés Le tit-pe du tit-pe dmon ti-pe va défouraillerYou might also like26</t>
+          <t>L'Électron libre est de retour dans ce putain de game J'suis pas un artiste de l'industrie J'suis un artiste et j'suis une industrie Bitch XV Barbare J'm'exprime au premier degré, je ne laisse ni le blé, ni l'amour m'aveugler J'rappe pour de vrai, je mapproprie les trophées de force ou de gré Tout est millimétré, nos contentieux mènent à Bichat, Robert-Debré Aucun regret sauf quand j'aperçois des lokos m'idolâtrer La folie des grandeurs va m'avoir à l'usure, ma folie, ses rondeurs, l'odeur de la luxure 300 000 au compteur, insomnie mon moteur, j'éprouve comme une rancur quand mon cur se fissure J'sais qui tient les ficelles, dès l'enfance, mon talent né d'une triste blessure Y a du monde à vi-ser et des nouvelles recettes, c'est la MS17 qui te brise le fémur 20 piges, pied du mur Corner, cagoulé sur la Hornet 4 pét'hayce dans la corvette, les rappeurs baillent au corneille Omerta, silence, honneur, poukito, j'te monte en l'air L'élite arrive à vive allure, j'ai la dalle, j'viens du corner Respecte les seniors, l'insolence est borgne, le silence est d'or car le silencieux dort Dehors ou dedans, ne trahis pas l'omerta, y aura pas mort d'homme Petit, tu te demandes pourquoi les grands te forgent à la loi du plus fort ? La rue n'est pas un jeu, tout l'monde n'a pas ton âge et des gens vont plonger si tu perds tes couilles à deux pas du coffre fort J'rappe c'que j'ai souffert toute ma life, la vingtaine, pas d'enfant, pas d'wife J'prends le micro toute la night, paranoïaque, schizophrène, insomniaque, vie d'ma rhayce Biko, j'suis sur le corner, biko, j'suis sur la Hornet Arme serbe sur tes pommettes, biko, j'suis sur tes côtelettes Bico, j'suis sur le corner, bico, j'suis sur la Hornet Arme serbe sur tes pommettes, biko, j'suis sur tes côtelettes Elle veut pas d'toi, biko, c'est ma bitch, elle veut pas d'toi, biko, c'est ma bitch Je crois qu'elle cherche un homme riche, elle aura qu'lhôtel, une 'teille, un sandwich Y'a d'la poudre dans l'air, tout le corner à terre commission rogatoire Bico mon mandataire dit avoir aperçu Belphégor au parloir J'investis dans la pierre, le sang coule dans les rues, sors l'oseille du tiroir Elle arrive de Tijuana, j'pisse du Rozay pour marquer mon territoire L'argent fait le bohneur, les yachts, la haute couture, le monde est à nous Passe au corner avec mes darlos si tu veux pas j'te hagar au hanout Filature préméditée sous le doux feu de laurore, loin des pays parfumés que le soleil caresse A la recherche dune identité, dune arme de lest, on a les sens éveillés mais loseille nehess Jai toujours les mêmes habitudes, sur le bitume, biko Wiz' attitude À lheure où jécris ctexte dadino roule une tulipe et jignore encore comment lalbum sintitule Ptite pute jnai quune parole je suis formel car le corner m'a formé 75 Squad dans tes oreilles, barrettes partent comme des cornets Respecte les seniors, l'insolence est borgne, le silence est d'or car le silencieux dort Dehors ou dedans, ne trahis pas l'omerta, y aura pas mort d'homme Petit, tu te demandes pourquoi les grands te forgent à la loi du plus fort ? La rue n'est pas un jeu, tout l'monde n'a pas ton âge et des gens vont plonger si tu perds tes couilles à deux pas du coffre fort J'rappe c'que j'ai souffert toute ma life, la vingtaine, pas d'enfant, pas d'wife J'prends le micro toute la night, paranoïaque, schizophrène, insomniaque, vie d'ma rhayce Biko, j'suis sur le corner, biko, j'suis sur la Hornet Arme serbe sur tes pommettes, biko, j'suis sur tes côtelettes Bico, j'suis sur le corner, bico, j'suis sur la Hornet Arme serbe sur tes pommettes, biko, j'suis sur tes côtelettes Elle veut pas d'toi, biko, c'est ma bitch, elle veut pas d'toi, biko, c'est ma bitch Je crois qu'elle cherche un homme riche, elle aura qu'lhôtel, une 'teille, un sandwich Capote, seringue, mégot, fleur fanée MD, sel3a, bédo, détaillés Quatre-vingt seize heures au dépot, déférée Liasse de billets dans les couilles, feuille enfouraillée Nah-nah dans lfrigo, mes Oranais Mes Algérois dégo, mes négros dlannée LF, la J, lréseau de fous alliés Le tit-pe du tit-pe dmon ti-pe va défourailler26</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bourbier, bourbier, bourbier Eh, Skro, t'es en place ? Les goûts et les couleurs ne s'discutent pas d'après les Bloods et les Crips No Je prends le trône comme poste fixe Oui, tu vas croquer la chaussée No P.S.O, history X, les-les-les chiffres tombent Dans nos rues, c'est la matrix, j'te donne du blé, tu fais de la farine Donne la farine que je te fasse du blé, qui est-ce qui domine ? Tant qu'c'est Bériz, tu m'envois ravi Eh Hey, niggas, à mon avis Eh, faut pas brûler ces putains d'étapes ou sinon, t'es cramé à vie À vie, maintenant que tu le sais Igo, tiens-tu à ta vie ? Vente de rails de C Au bigo, c'est mon train de vie, hey, hey, ça sent le bourbier, Hayce, dis-leur, dégainez les bombardiers Là, c'est la fin, c'est le S, ça va barder, bang, bang, ba-da-bang J'suis la renaissance et à la fois le Big Bang Hun Paname gang On n'est pas les bienvenus quand on est de la Tu peux caner dès demain men, pense qu'a coupé des demi-yah J'avance bel gelb ou b'nniyâ, avant d'quitter l'denneya Bourbier, bourbier, j'rappe à la vitesse d'unT-Max 500 Poupée, poupée, on dit qu'l'argent n'a pas d'odeur mais quand t'en as pas ça s'sent ! Coup d'pied, coup d'pied, qui voulait m'éteindre j'l'allumerais en passant Doutez, doutez, vous allez finir noyés dans un bain de sang ! ouhh Noyés dans un bain de sang ! ouhh Noyés dans un bain d'sang ! J'rêvais d'brasser devant la piscine, mais fini serré par les civils au croisement La rue m'épuise, le passé m'hante, la concurrence en a mal au ventre Prévenez les, allez-y, prévenez les Électron libre, c'est le 4 Novembre ! Prévenez les, allez-y, prévenez les Électron libre, c'est le 4 Novembre ! Prévenez les, allez-y, prévenez les Électron libre, c'est le 4 Novembre ! You might also like Bourbier, bourbier, X-V-Barre barre c'est bourbier Loko, lokas sont bourbier, le 7-5 c'est bourbier La fourche c'est bourbier, la J' c'est bourbier L'allée c'est Bourbier, Gauthey c'est Bourbier ! On veut que du gros zèle, sur la tête du rosé qu'on peut t'arroser sur du Rozay J'ramène de la cheup' et d'la C', c'est pour cheu-per tous mes rebeus et mes gros zen' Sache que la vie te fait pas d'ciné', plus rapide qu'un bédo, j'peux t'faire calciner Ouais, chaque ceau-mor que je fais, j'le refais avec un nigga, j'arrête pas d'signer J'suis venu pour la bourse, on va ranger les drôles J'sors de la brousse, on va changer les rôles Ouais, c'est XVBarbar, mets ton gilet par-balles Car après le barbak, j'tire sur l'épaule 22, la volaille, c'est bourbier Une histoire de dollars, c'est bourbier Grosse peine de taulard, sur les keufs un mollard, le loup pète le renard, c'est bourbier ! Devant le 9 avant d'parier, ghetto'young, Parigot, amigo Y'a assez de balles dans le barillet Billet aller-retour à Rio Le Pen, ADN, criminel, jeune enflure, cash money, give me that 3.5.7 millimètres 5, en vue 3.5 5, bien vu C'est ici qu'le vice est prospère Direct, j'te retourne le veau-cer et fais trembler l'atmosphère Dans la mêlée fiston, belek aux faux-frères D'après tous mes faussaires, c'est du sale qu'il faut faire Ouais, va niquer ta mère bien fort, c'est d'la part de tous les quartiers nord de Paris Poto, pas d'investissements à risque, on est venus tous les mettre d'accord c'est nous, on donne le tarif ! Et fais pas crari, cash money, give me that Cesse tes tminiks, ADN Criminel, A.D. cash money man' Laisse 1.8.7 sont les maîtres, redoutés comme le 9 millimètres C'est bourbier ! Si tu veux tous nous test, t'auras pas assez d'potes Le rap en cloque, devine où le taux d'criminalité augmente comme les paquets d'clopes J'répète, c'est bourbier, sa mère, cette société qui nous rend marginal Pénétration anale, animale, acte vaginal et l'rap a mal Puis l'prend pas mal, X.V.2, c'est la clique, on s'applique, on est deux P.S.O Thug, L.F.G, la Jonquière, énervés, on les baise, on est deus' Bourbier, bourbier, X-V-Barre barre c'est bourbier Loko, lokas sont bourbier, le 7-5 c'est bourbier La fourche c'est bourbier, la J' c'est bourbier L'allée c'est Bourbier, Gauthey c'est Bourbier ! Ton vécu fait dahak On n'a plus d'temps à perdre, on a plus d'nehess Guette le bourbier dans lequel tu t'es mis J'te f'rais sortir avec l'9 millimètres Fréquente des gens pas très nets, allez fais un shlass, ou bien j'te pénètre Et puis personne pourra venir à ton aide, puis-je me permettre de vous dire d'aller vous faire mettre ? Allez vous faire mettre ! Bande d'enculés ! C'est le méga bourbier ! Pétasse, faut qu'tu payes cash sinon on va t'plomber ! Depuis l'début, moi, j'suis pisté par les condés ! C'est au placard qu'ces fils de putes veulent m'faire tomber ! Ils veulent m'incarcérer, pendant des oims' Dans ta ke-shné salope, t'as des oigts-d J'ai chargé l'9, pour ces fils de tainp' Ceux qui portent plainte, c'est ceux qui parlent de oim' Ouais ! Ceux qui parlent de oim' ! J'ai chargé l'9 pour ceux qui parlent de oim' ! Ouais ! Ceux qui parlent de oim' ! J'ai chargé l'9 pour ceux qui parlent de oim' ! Toute ma clique Ouais fuck les flics Ouais, toute ma clique dégaine l'automatique Eh Gé-char, gé-char le brolique Brah, 6.3 plutôt speed Fort Gamos, ton-car, beu-her, fonce car Leto, viens dans nos caves, tu verras les mes-ar Leto Quatre heures du mat', perquis' chez oi-t, gros M16, tu deviens pâle Ah Ça baisse la vitre, belek si ça rafale Poh, sucer ma bite, les pétasses en raffolent Obligé L.E.T.O. du, du dix-sept, flow A-K-K-K 47 Leto, sortez, sortez les mitraillettes Ouais, t'es dans l'viseur, on touche ta tête Poh Semi-auto coupé, criminel, ta vie se joue dans un neuf millimètres P.S.O Thug, on blague pas, sachez-le Nan, la RLH dans le coin, c'est che-lou Yeah Sortez le bourbier, que ces MC's se mettent à crier, Kalash, Magnum, Glock chargés, on va tirer, pas pour te blesser Les charbonneurs postés sur l'allée ne se réveillent que pour faire d'la monnaie Bourbier, bourbier, X-V-Barre barre c'est bourbier Loko, lokas sont bourbier, le 7-5 c'est bourbier La fourche c'est bourbier, la J' c'est bourbier L'allée c'est Bourbier, Gauthey c'est Bourbier ! C'est le lion de la Teranga, instinct animal, je te mets en garde En direct de Dakar, c'est le non-scié-ca qui se chargera de mon putain de rencard Appelle moi PIS-PA, Brick Squad, la tour aka l'escouade Tous mes frères sont tarés, posés sur l'allée, drrem drrem ? sortez les quad Feuille de blunt, porte pas plainte, c'est la tour petit fils de tainp' Sur le texte, j'ai la machette qui égorgera tous ces fils de tép' La chienneté, c'est une mise à la mort, soit détér' mais faut pas qu'tu déconnes Comme everyday, ça bicrave des ceaux-mor, y'a d'la pure, ouais, t'inquiètes, elle est bonne Pour moi, l'école, je compte pas sur ça, ça pour buter, négro, c'est pas sorcier Une cagoule et un AK, paré pour braquer le banquier Bourbier, tête cramée, prise en photo par la B.A.C Bourbier, là, t'es fait, 9 millimètres, je te fais plaquer On-on-on m'a dit qu'l'électron est libre, il fallait que je vienne voir ça J'me rappelle pas des cours de physique donc j'prends d'la weed et quelques Masa Qué pasà ? Qu'est-ce qui t'arrives ? C'est le triangle d'or de Bériz C'est le triangle d'or de Bériz, c'est le, c'est le, c'est le triangle d'or de Bériz Pour traire la vache, t'es obligé d'mettre les gants Choisis le bouquet sur ton cercueil Avec une rose je fais l'innocent, avec un clic j'suis coupable du meurtre Ouais, barrez-vous, ouais, barrez-vous, on arrête un , des furies ou d'la foudre Ouais barrez-vous, ouais barrez-vous, j'veux mes carats pour ça qu'l'Drams se tire dans la foule Cheu-B et Black D sous ton plan, c'est bourbier ! 9 calé dans les couilles, t'es visé ! Si tu sens pas les coups, ce seront les douilles qui feront le tout Jack Daniels pour les guêpes de ma ruche, c'est l'bourbier, donc remballe ton bourbon N'essaye pas de rotte-ca mes tip', tu finis ligoté à l'arrière du fourgon Tous mes négros sont en Gucci Gucci, j'roule mon p'tit stick à ma bitchiz bitchiz Tous les jours, ça cherche le bif', 7-5-0-17, c'est ça la clique Méga bourbier, méga bourbier, méga bier-bour J'attends toujours qu'la juge, la proc' me sucent les boules ! Bourbier, bourbier, X-V-Barre barre c'est bourbier Loko, lokas sont bourbier, le 7-5 c'est bourbier La fourche c'est bourbier, la J' c'est bourbier L'allée c'est Bourbier, Gauthey c'est Bourbier ! Ok, c'est Rislo qui vient poser, donc pour vous, c'est bourbier Hayce Lemsi nous fait croquer, donc y'a pas de bourbier P.S.O, tu veux nous tester ? Tu vas t'mettre dans un bourbier Va péter Électron Libre ou pour toi ça sera bourbier Premier jour en loc' ta cartonner, putain, ça c'est bourbier En plus, la caution tu l'as pas payée, putain, ça c'est bourbier Les plus grands des bandits portaient du Louis Vui' car la juge leur a dit De se porter à carreaux, 7-5-0, oui, mon négro, tu connais la suite des numéros Dis leur S'KRO, brah brah, bang, dans les rues de P.S.O Brick Squad ma gueule, on est trop chauds, Youssouf dis leur, 17 sur l'dos Le rap m'en bats les couilles, billaye, moi, c'qu'il m'faut, c'est des billets Et si tu m'empêches d'atteindre mon but, tu seras une cendre dans un cendrier ! Bourbier, bourbier, bourbier, bourbier Commissions rogatoire, interpellation, interrogatoire avant la prolongation Le bruit des clés du mitard, l'odeur du placard, à cogiter dans le noir aux arrivants sous pression J'en ai giflé des bâtards, je suis né sur ma terre mère, j'ai grandi sous loubia kalb el louz et quatre-quarts Aujourd'hui, j'ai des papelards, 10 chiennes à ma table, 10 bouteilles de champaign comme un joueur du Qatar Le XV Barbare sait de quoi j'suis capable, ils m'ont dit Lemsi loko fais leur sauter l'caisson Va clipper dans ton tier-quar' espèce de poucave, à Paname on veut pas d'toi, retourne en rééducation C'est le chant des cassos qui rend fou l'éducateur, en garde-à-vue 4 heures, en vérification Je me farcie des bastos, je suis un vainqueur mes bikos passent au 20h à cause d'écailles de poisson Flow fruit de la passion, je fais que passer, je vois les ennemis s'entasser dans mon chant de vision Venu les déclasser, les empêcher de brasser, c'est pas le même vécu pas la même interprétation Que des vaillants dans ma lignée et pas de faux bikos bitch, la vengeance t'allumera devant le comico brrr Aucun producteur, j'me suis fais solo bitch, je suis un homme d'affaire avec un micro brrr brrr brrr J'entends Sauve qui peut, tu regrettes ta traîtrise une fois qu'il pleut Me raconte pas de pipos, puto, je t'envoies le tit-pe du tit-pe du tit-pe de mon tit-pe C'putain d'quartier nous rend loko, donc on y a mit le feu, des familles entassées dans des hôtels miteux Dites aux maisons de disques que j'aime les grosses sommes, je veux un contrat d'artiste à 300 00011</t>
+          <t>Bourbier, bourbier, bourbier Eh, Skro, t'es en place ? Les goûts et les couleurs ne s'discutent pas d'après les Bloods et les Crips No Je prends le trône comme poste fixe Oui, tu vas croquer la chaussée No P.S.O, history X, les-les-les chiffres tombent Dans nos rues, c'est la matrix, j'te donne du blé, tu fais de la farine Donne la farine que je te fasse du blé, qui est-ce qui domine ? Tant qu'c'est Bériz, tu m'envois ravi Eh Hey, niggas, à mon avis Eh, faut pas brûler ces putains d'étapes ou sinon, t'es cramé à vie À vie, maintenant que tu le sais Igo, tiens-tu à ta vie ? Vente de rails de C Au bigo, c'est mon train de vie, hey, hey, ça sent le bourbier, Hayce, dis-leur, dégainez les bombardiers Là, c'est la fin, c'est le S, ça va barder, bang, bang, ba-da-bang J'suis la renaissance et à la fois le Big Bang Hun Paname gang On n'est pas les bienvenus quand on est de la Tu peux caner dès demain men, pense qu'a coupé des demi-yah J'avance bel gelb ou b'nniyâ, avant d'quitter l'denneya Bourbier, bourbier, j'rappe à la vitesse d'unT-Max 500 Poupée, poupée, on dit qu'l'argent n'a pas d'odeur mais quand t'en as pas ça s'sent ! Coup d'pied, coup d'pied, qui voulait m'éteindre j'l'allumerais en passant Doutez, doutez, vous allez finir noyés dans un bain de sang ! ouhh Noyés dans un bain de sang ! ouhh Noyés dans un bain d'sang ! J'rêvais d'brasser devant la piscine, mais fini serré par les civils au croisement La rue m'épuise, le passé m'hante, la concurrence en a mal au ventre Prévenez les, allez-y, prévenez les Électron libre, c'est le 4 Novembre ! Prévenez les, allez-y, prévenez les Électron libre, c'est le 4 Novembre ! Prévenez les, allez-y, prévenez les Électron libre, c'est le 4 Novembre ! Bourbier, bourbier, X-V-Barre barre c'est bourbier Loko, lokas sont bourbier, le 7-5 c'est bourbier La fourche c'est bourbier, la J' c'est bourbier L'allée c'est Bourbier, Gauthey c'est Bourbier ! On veut que du gros zèle, sur la tête du rosé qu'on peut t'arroser sur du Rozay J'ramène de la cheup' et d'la C', c'est pour cheu-per tous mes rebeus et mes gros zen' Sache que la vie te fait pas d'ciné', plus rapide qu'un bédo, j'peux t'faire calciner Ouais, chaque ceau-mor que je fais, j'le refais avec un nigga, j'arrête pas d'signer J'suis venu pour la bourse, on va ranger les drôles J'sors de la brousse, on va changer les rôles Ouais, c'est XVBarbar, mets ton gilet par-balles Car après le barbak, j'tire sur l'épaule 22, la volaille, c'est bourbier Une histoire de dollars, c'est bourbier Grosse peine de taulard, sur les keufs un mollard, le loup pète le renard, c'est bourbier ! Devant le 9 avant d'parier, ghetto'young, Parigot, amigo Y'a assez de balles dans le barillet Billet aller-retour à Rio Le Pen, ADN, criminel, jeune enflure, cash money, give me that 3.5.7 millimètres 5, en vue 3.5 5, bien vu C'est ici qu'le vice est prospère Direct, j'te retourne le veau-cer et fais trembler l'atmosphère Dans la mêlée fiston, belek aux faux-frères D'après tous mes faussaires, c'est du sale qu'il faut faire Ouais, va niquer ta mère bien fort, c'est d'la part de tous les quartiers nord de Paris Poto, pas d'investissements à risque, on est venus tous les mettre d'accord c'est nous, on donne le tarif ! Et fais pas crari, cash money, give me that Cesse tes tminiks, ADN Criminel, A.D. cash money man' Laisse 1.8.7 sont les maîtres, redoutés comme le 9 millimètres C'est bourbier ! Si tu veux tous nous test, t'auras pas assez d'potes Le rap en cloque, devine où le taux d'criminalité augmente comme les paquets d'clopes J'répète, c'est bourbier, sa mère, cette société qui nous rend marginal Pénétration anale, animale, acte vaginal et l'rap a mal Puis l'prend pas mal, X.V.2, c'est la clique, on s'applique, on est deux P.S.O Thug, L.F.G, la Jonquière, énervés, on les baise, on est deus' Bourbier, bourbier, X-V-Barre barre c'est bourbier Loko, lokas sont bourbier, le 7-5 c'est bourbier La fourche c'est bourbier, la J' c'est bourbier L'allée c'est Bourbier, Gauthey c'est Bourbier ! Ton vécu fait dahak On n'a plus d'temps à perdre, on a plus d'nehess Guette le bourbier dans lequel tu t'es mis J'te f'rais sortir avec l'9 millimètres Fréquente des gens pas très nets, allez fais un shlass, ou bien j'te pénètre Et puis personne pourra venir à ton aide, puis-je me permettre de vous dire d'aller vous faire mettre ? Allez vous faire mettre ! Bande d'enculés ! C'est le méga bourbier ! Pétasse, faut qu'tu payes cash sinon on va t'plomber ! Depuis l'début, moi, j'suis pisté par les condés ! C'est au placard qu'ces fils de putes veulent m'faire tomber ! Ils veulent m'incarcérer, pendant des oims' Dans ta ke-shné salope, t'as des oigts-d J'ai chargé l'9, pour ces fils de tainp' Ceux qui portent plainte, c'est ceux qui parlent de oim' Ouais ! Ceux qui parlent de oim' ! J'ai chargé l'9 pour ceux qui parlent de oim' ! Ouais ! Ceux qui parlent de oim' ! J'ai chargé l'9 pour ceux qui parlent de oim' ! Toute ma clique Ouais fuck les flics Ouais, toute ma clique dégaine l'automatique Eh Gé-char, gé-char le brolique Brah, 6.3 plutôt speed Fort Gamos, ton-car, beu-her, fonce car Leto, viens dans nos caves, tu verras les mes-ar Leto Quatre heures du mat', perquis' chez oi-t, gros M16, tu deviens pâle Ah Ça baisse la vitre, belek si ça rafale Poh, sucer ma bite, les pétasses en raffolent Obligé L.E.T.O. du, du dix-sept, flow A-K-K-K 47 Leto, sortez, sortez les mitraillettes Ouais, t'es dans l'viseur, on touche ta tête Poh Semi-auto coupé, criminel, ta vie se joue dans un neuf millimètres P.S.O Thug, on blague pas, sachez-le Nan, la RLH dans le coin, c'est che-lou Yeah Sortez le bourbier, que ces MC's se mettent à crier, Kalash, Magnum, Glock chargés, on va tirer, pas pour te blesser Les charbonneurs postés sur l'allée ne se réveillent que pour faire d'la monnaie Bourbier, bourbier, X-V-Barre barre c'est bourbier Loko, lokas sont bourbier, le 7-5 c'est bourbier La fourche c'est bourbier, la J' c'est bourbier L'allée c'est Bourbier, Gauthey c'est Bourbier ! C'est le lion de la Teranga, instinct animal, je te mets en garde En direct de Dakar, c'est le non-scié-ca qui se chargera de mon putain de rencard Appelle moi PIS-PA, Brick Squad, la tour aka l'escouade Tous mes frères sont tarés, posés sur l'allée, drrem drrem ? sortez les quad Feuille de blunt, porte pas plainte, c'est la tour petit fils de tainp' Sur le texte, j'ai la machette qui égorgera tous ces fils de tép' La chienneté, c'est une mise à la mort, soit détér' mais faut pas qu'tu déconnes Comme everyday, ça bicrave des ceaux-mor, y'a d'la pure, ouais, t'inquiètes, elle est bonne Pour moi, l'école, je compte pas sur ça, ça pour buter, négro, c'est pas sorcier Une cagoule et un AK, paré pour braquer le banquier Bourbier, tête cramée, prise en photo par la B.A.C Bourbier, là, t'es fait, 9 millimètres, je te fais plaquer On-on-on m'a dit qu'l'électron est libre, il fallait que je vienne voir ça J'me rappelle pas des cours de physique donc j'prends d'la weed et quelques Masa Qué pasà ? Qu'est-ce qui t'arrives ? C'est le triangle d'or de Bériz C'est le triangle d'or de Bériz, c'est le, c'est le, c'est le triangle d'or de Bériz Pour traire la vache, t'es obligé d'mettre les gants Choisis le bouquet sur ton cercueil Avec une rose je fais l'innocent, avec un clic j'suis coupable du meurtre Ouais, barrez-vous, ouais, barrez-vous, on arrête un , des furies ou d'la foudre Ouais barrez-vous, ouais barrez-vous, j'veux mes carats pour ça qu'l'Drams se tire dans la foule Cheu-B et Black D sous ton plan, c'est bourbier ! 9 calé dans les couilles, t'es visé ! Si tu sens pas les coups, ce seront les douilles qui feront le tout Jack Daniels pour les guêpes de ma ruche, c'est l'bourbier, donc remballe ton bourbon N'essaye pas de rotte-ca mes tip', tu finis ligoté à l'arrière du fourgon Tous mes négros sont en Gucci Gucci, j'roule mon p'tit stick à ma bitchiz bitchiz Tous les jours, ça cherche le bif', 7-5-0-17, c'est ça la clique Méga bourbier, méga bourbier, méga bier-bour J'attends toujours qu'la juge, la proc' me sucent les boules ! Bourbier, bourbier, X-V-Barre barre c'est bourbier Loko, lokas sont bourbier, le 7-5 c'est bourbier La fourche c'est bourbier, la J' c'est bourbier L'allée c'est Bourbier, Gauthey c'est Bourbier ! Ok, c'est Rislo qui vient poser, donc pour vous, c'est bourbier Hayce Lemsi nous fait croquer, donc y'a pas de bourbier P.S.O, tu veux nous tester ? Tu vas t'mettre dans un bourbier Va péter Électron Libre ou pour toi ça sera bourbier Premier jour en loc' ta cartonner, putain, ça c'est bourbier En plus, la caution tu l'as pas payée, putain, ça c'est bourbier Les plus grands des bandits portaient du Louis Vui' car la juge leur a dit De se porter à carreaux, 7-5-0, oui, mon négro, tu connais la suite des numéros Dis leur S'KRO, brah brah, bang, dans les rues de P.S.O Brick Squad ma gueule, on est trop chauds, Youssouf dis leur, 17 sur l'dos Le rap m'en bats les couilles, billaye, moi, c'qu'il m'faut, c'est des billets Et si tu m'empêches d'atteindre mon but, tu seras une cendre dans un cendrier ! Bourbier, bourbier, bourbier, bourbier Commissions rogatoire, interpellation, interrogatoire avant la prolongation Le bruit des clés du mitard, l'odeur du placard, à cogiter dans le noir aux arrivants sous pression J'en ai giflé des bâtards, je suis né sur ma terre mère, j'ai grandi sous loubia kalb el louz et quatre-quarts Aujourd'hui, j'ai des papelards, 10 chiennes à ma table, 10 bouteilles de champaign comme un joueur du Qatar Le XV Barbare sait de quoi j'suis capable, ils m'ont dit Lemsi loko fais leur sauter l'caisson Va clipper dans ton tier-quar' espèce de poucave, à Paname on veut pas d'toi, retourne en rééducation C'est le chant des cassos qui rend fou l'éducateur, en garde-à-vue 4 heures, en vérification Je me farcie des bastos, je suis un vainqueur mes bikos passent au 20h à cause d'écailles de poisson Flow fruit de la passion, je fais que passer, je vois les ennemis s'entasser dans mon chant de vision Venu les déclasser, les empêcher de brasser, c'est pas le même vécu pas la même interprétation Que des vaillants dans ma lignée et pas de faux bikos bitch, la vengeance t'allumera devant le comico brrr Aucun producteur, j'me suis fais solo bitch, je suis un homme d'affaire avec un micro brrr brrr brrr J'entends Sauve qui peut, tu regrettes ta traîtrise une fois qu'il pleut Me raconte pas de pipos, puto, je t'envoies le tit-pe du tit-pe du tit-pe de mon tit-pe C'putain d'quartier nous rend loko, donc on y a mit le feu, des familles entassées dans des hôtels miteux Dites aux maisons de disques que j'aime les grosses sommes, je veux un contrat d'artiste à 300 00011</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Baissez le pont levis Baissez le pont levis Baissez le pont levis Le Prince est arrivé Il est là, le Prince est là H.A.Y.C.E C'est une grosse pute, même si tu lui paies la dernière des Lamborghini elle dit pas merci J'vais niquer tout c'que t'aimes, faire de ta vie un cauchemar, ne jamais tenter de détourner la go de Lemsi Je les découpe quand ça rappe, j'ai les manies d'un prince arabe, j'fais le tour de Paname en un éclair comme le Prince Noir J'ai du débit quand ça rame, à l'indélébile sur la rame, j'te rentre dedans même si t'as l'gabarit d'Brock Lesnar Stresse pas trop ma clique, guette pas trop ma p'tite soeur car ça pourrait terminer en stress post-traumatique J't'allume à l'automatique, évite de m'écouter au volant si t'aimes trop ma 'zique, fais-le pour moi, zine J'mène le même combat que Borsalino, Gasolina flow, je vais tout exploser La vie c'est un combat d'boxe, mon bico dès la naissance on t'emmène à la pesée Est-ce que les Hommes naissent libres et égaux en droits ? L'intolérance nourrit l'esprit de mille et un fachos Marianne n'a pas le burkini facile, un arrêté municipal et c'est l'Burkina Faso T'façon y'en a tellement qui rêvent que j'me casse les dents, ma vie se rentabilise quand tu regardes passer l'temps J'n'en ai guère pour vos enfantillages et vos sottises, bico blacko blanco je change pas d'slogan Hier n'existe plus, demain ne viendra peut-être jamais J'vais leur tomber dessus comme l'orage, bico j'dégage une rage amère Algérien du barrio, j'suis né le majeur en l'air Je n'avais rien, amigo, mais j'ai dû prendre la mer Dis-leur que c'est no pain, no gain, j'vais t'apprendre à respecter la kalash Rafaler le rap game, rap game, ces bicos sont devenus des putes du Dallas Dis-leur que c'est no pain, no gain, j'vais t'apprendre à respecter la kalash Rafaler le rap game, rap game Les jaloux vont friser l'anorexie, j'suis cultivé comme si j'avais fait des années d'médecine J'vais vous apprendre à respecter Maître Lemsi, fais pas l'rappeur, t'écris jamais, tu penses qu'à ton textile, sale pute J'suis pas d'ces rappeurs qui s'cachent dans leurs studios, j'suis dans toute la France et j'enchaîne les selfies Mon voisin qui m'a snobbé toute sa life entend ma voix hanter la chambre de ses filles Même père de famille j'serai un bad boy, pas un pochtron qui tabasse sa femme sous alcool Rebeu tu m'envoies des pics, tu devrais t'acheter des couilles, j'vais te tomber d'ssus comme la foudre avant d'te finir au sol Niquer des mamans dans le rap game j'suis bon qu'à ça, j'ai pas la même vision de la vie, pas le même pinceau J'suis un vrai parisien déter comme mon pote Inso, j'aurai mon couronnement royal à la Bokassa Personne ne veut construire un hôtel rue de la Paix, vous êtes bons qu'à monter des bordels à rue de la Pompe Arrêter de tromper ta loca si t'as peur de la perdre, tu finiras chez ta mère à chialer dans ses jupons J'suis un mec à part, j'fais bande à part, t'arrêteras d'me boycotte avec une balle dans l'corps On te raye d'la carte et j'me d'mande encore si j'suis vraiment un gros bâtard ou un mec en or, Big Lemsi yeah hoe Hier n'existe plus, demain ne viendra peut-être jamais J'vais leur tomber dessus comme l'orage, bico j'dégage une rage amère Algérien du barrio, j'suis né le majeur en l'air Je n'avais rien, amigo, mais j'ai dû prendre la mer Dis-leur que c'est no pain, no gain, j'vais t'apprendre à respecter la kalash Rafaler le rap game, rap game, ces bicos sont devenus des putes du Dallas Dis-leur que c'est no pain, no gain, j'vais t'apprendre à respecter la kalash Rafaler le rap game, rap gameYou might also like5</t>
+          <t>Baissez le pont levis Baissez le pont levis Baissez le pont levis Le Prince est arrivé Il est là, le Prince est là H.A.Y.C.E C'est une grosse pute, même si tu lui paies la dernière des Lamborghini elle dit pas merci J'vais niquer tout c'que t'aimes, faire de ta vie un cauchemar, ne jamais tenter de détourner la go de Lemsi Je les découpe quand ça rappe, j'ai les manies d'un prince arabe, j'fais le tour de Paname en un éclair comme le Prince Noir J'ai du débit quand ça rame, à l'indélébile sur la rame, j'te rentre dedans même si t'as l'gabarit d'Brock Lesnar Stresse pas trop ma clique, guette pas trop ma p'tite soeur car ça pourrait terminer en stress post-traumatique J't'allume à l'automatique, évite de m'écouter au volant si t'aimes trop ma 'zique, fais-le pour moi, zine J'mène le même combat que Borsalino, Gasolina flow, je vais tout exploser La vie c'est un combat d'boxe, mon bico dès la naissance on t'emmène à la pesée Est-ce que les Hommes naissent libres et égaux en droits ? L'intolérance nourrit l'esprit de mille et un fachos Marianne n'a pas le burkini facile, un arrêté municipal et c'est l'Burkina Faso T'façon y'en a tellement qui rêvent que j'me casse les dents, ma vie se rentabilise quand tu regardes passer l'temps J'n'en ai guère pour vos enfantillages et vos sottises, bico blacko blanco je change pas d'slogan Hier n'existe plus, demain ne viendra peut-être jamais J'vais leur tomber dessus comme l'orage, bico j'dégage une rage amère Algérien du barrio, j'suis né le majeur en l'air Je n'avais rien, amigo, mais j'ai dû prendre la mer Dis-leur que c'est no pain, no gain, j'vais t'apprendre à respecter la kalash Rafaler le rap game, rap game, ces bicos sont devenus des putes du Dallas Dis-leur que c'est no pain, no gain, j'vais t'apprendre à respecter la kalash Rafaler le rap game, rap game Les jaloux vont friser l'anorexie, j'suis cultivé comme si j'avais fait des années d'médecine J'vais vous apprendre à respecter Maître Lemsi, fais pas l'rappeur, t'écris jamais, tu penses qu'à ton textile, sale pute J'suis pas d'ces rappeurs qui s'cachent dans leurs studios, j'suis dans toute la France et j'enchaîne les selfies Mon voisin qui m'a snobbé toute sa life entend ma voix hanter la chambre de ses filles Même père de famille j'serai un bad boy, pas un pochtron qui tabasse sa femme sous alcool Rebeu tu m'envoies des pics, tu devrais t'acheter des couilles, j'vais te tomber d'ssus comme la foudre avant d'te finir au sol Niquer des mamans dans le rap game j'suis bon qu'à ça, j'ai pas la même vision de la vie, pas le même pinceau J'suis un vrai parisien déter comme mon pote Inso, j'aurai mon couronnement royal à la Bokassa Personne ne veut construire un hôtel rue de la Paix, vous êtes bons qu'à monter des bordels à rue de la Pompe Arrêter de tromper ta loca si t'as peur de la perdre, tu finiras chez ta mère à chialer dans ses jupons J'suis un mec à part, j'fais bande à part, t'arrêteras d'me boycotte avec une balle dans l'corps On te raye d'la carte et j'me d'mande encore si j'suis vraiment un gros bâtard ou un mec en or, Big Lemsi yeah hoe Hier n'existe plus, demain ne viendra peut-être jamais J'vais leur tomber dessus comme l'orage, bico j'dégage une rage amère Algérien du barrio, j'suis né le majeur en l'air Je n'avais rien, amigo, mais j'ai dû prendre la mer Dis-leur que c'est no pain, no gain, j'vais t'apprendre à respecter la kalash Rafaler le rap game, rap game, ces bicos sont devenus des putes du Dallas Dis-leur que c'est no pain, no gain, j'vais t'apprendre à respecter la kalash Rafaler le rap game, rap game5</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Je vole lEtat j'm'en bas les couilles qu'il me qualifie d'esclave À Nine O'clock j'te récupère à 3 du mat' on baise grave J'ai pas l'permis de port d'arme, grande brigade ont mon A.D.N Grosse équipe la tienne est rodave, y'a que des shlags qui font d'la pé-eine Tu n'es qu'un menteur, tu fais que dalle tu gratte les culs des glan-deurs, splendeur J'envois d'la frappe le tampon c'est Mark Landers Je maccroche à mon âme, dis-moi ceux qui la veulent On aurait vu le monde entier même si on avait été aveugle Voyons, y'a pas dhôtel libre, Kelly, belli- Ssima, j'ai l'coup d'rein d'Balotelli On n'sait faire que des délits, nous n'sommes pas trop aimables Tu veux clasher ta mère sucera la béquille du T-max En pleine aprem' Il y a des choses qu'on fait d'abord et qu'on dit après J'm'apprête à faire du vacarme, la pute veux m'mettre au placard Miroir dis moi qui sont les vrais, Dis-moi dis-moi qui sont les bâtards Sur les sentiers de la dolce vita perdre des plumes est inévitable Enchanté vieni qua bellissima Hayce Lacrim le cash nous est vital Grosse voiture Italienne, Hau-hau-haute couture Italienne T-T-Top model Italienne, C'est un braquage à l'Italienne, Dolce Vita Sur les sentiers de la dolce vita perdre des plumes est inévitable Enchanté vieni qua bellissima Hayce Lacrim le cash nous est vital Grosse voiture Italienne, Hau-hau-haute couture Italienne T-T-Top model Italienne, C'est un braquage à l'Italienne, Dolce Vita You might also like L'enfer est pavé de bonnes intentions mais le Diable vend de la poussière d'ange Au volant d'un Range Rover de location, j'veux la dolce vita j'suis venus prendre ma r'vanche Bad bitch t'a le nez dans la blanche porcelaine, de nos textes les faussaires se mêlent L'imitation reste la plus sincère des flatteries, t'auras pas l'style d' Lacrimo, Hayce Lem Harceler trop d'femelles dans la même semaine, Hustler au point de ne plus trouver le sommeil Arsenal de guerre on arrive en mercenaire, on est pas des étoiles, on les laisse au système solaire Insolent je ne regrette pas le passé, juste le temps perdu Lorsque dur sont les murs qu'y'a rien à brasser, l'espoir perpétue j'suis perturbé De la patience est la meilleure des vertus pour des tagliatelles al dente C'est un braquage à l'italienne Uzi milli que des Mini y'aura pas d'Bentley Mieux vaut un ennemi qu'un ami qui m'envie si j'ai la dolce vita couvert de Gucci Certains rêveront qu'j'perde mon level que les keufs me soulève qu'on me termine en ville Ma pét'Hayce est vétue de Dolce, yeux verts issue du Vésuve Elle m'appelle Marcelo Hayce, elle ignore qu'c'est à l'oseille qu'ma vie s'résume Sur les sentiers de la dolce vita perdre des plumes est inévitable Enchanté vieni qua bellissima Hayce Lacrim le cash nous est vital Grosse voiture Italienne, Hau-hau-haute couture Italienne T-T-Top model Italienne, C'est un braquage à l'Italienne, Dolce Vita Sur les sentiers de la dolce vita perdre des plumes est inévitable Enchanté vieni qua bellissima Hayce Lacrim le cash nous est vital Grosse voiture Italienne, Hau-hau-haute couture Italienne T-T-Top model Italienne, C'est un braquage à l'Italienne, Dolce Vita Dolce, dolce vita rocco Gilera 800 On part au casse-pipe depuis qu'on a 15 piges on lave toutes nos affaires avec du sang Plus d'cents clients dans la carte Sim, de la putain dM.D dans les boites à pizza L'rap game tromat' on marque le cycle, on s'empare du pactole, ciao buenasera De la sel3a dans les avions, dans les chattes, dans les narines On échappe aux bleu marine, eux déja v'nus des mecs de Paris Ahah Vieni qua bellissima, j'ai ce coté Fédérico Fellini Rien n'sert d'faire ton cinéma vu qu'le film ne va durer qu'une nuit Sur les sentiers de la dolce vita perdre des plumes est inévitable Enchanté vieni qua bellissima Hayce Lacrim le cash nous est vital Grosse voiture Italienne, Hau-hau-haute couture Italienne T-T-Top model Italienne, C'est un braquage à l'Italienne, Dolce Vita Sur les sentiers de la dolce vita perdre des plumes est inévitable Enchanté vieni qua bellissima Hayce Lacrim le cash nous est vital Grosse voiture Italienne, Hau-hau-haute couture Italienne T-T-Top model Italienne, C'est un braquage à l'Italienne, Dolce Vita --------------------------------------------------------------------------- Sur les sentiers de Rap Genius, nous rejoindre est inévitable3</t>
+          <t>Je vole lEtat j'm'en bas les couilles qu'il me qualifie d'esclave À Nine O'clock j'te récupère à 3 du mat' on baise grave J'ai pas l'permis de port d'arme, grande brigade ont mon A.D.N Grosse équipe la tienne est rodave, y'a que des shlags qui font d'la pé-eine Tu n'es qu'un menteur, tu fais que dalle tu gratte les culs des glan-deurs, splendeur J'envois d'la frappe le tampon c'est Mark Landers Je maccroche à mon âme, dis-moi ceux qui la veulent On aurait vu le monde entier même si on avait été aveugle Voyons, y'a pas dhôtel libre, Kelly, belli- Ssima, j'ai l'coup d'rein d'Balotelli On n'sait faire que des délits, nous n'sommes pas trop aimables Tu veux clasher ta mère sucera la béquille du T-max En pleine aprem' Il y a des choses qu'on fait d'abord et qu'on dit après J'm'apprête à faire du vacarme, la pute veux m'mettre au placard Miroir dis moi qui sont les vrais, Dis-moi dis-moi qui sont les bâtards Sur les sentiers de la dolce vita perdre des plumes est inévitable Enchanté vieni qua bellissima Hayce Lacrim le cash nous est vital Grosse voiture Italienne, Hau-hau-haute couture Italienne T-T-Top model Italienne, C'est un braquage à l'Italienne, Dolce Vita Sur les sentiers de la dolce vita perdre des plumes est inévitable Enchanté vieni qua bellissima Hayce Lacrim le cash nous est vital Grosse voiture Italienne, Hau-hau-haute couture Italienne T-T-Top model Italienne, C'est un braquage à l'Italienne, Dolce Vita L'enfer est pavé de bonnes intentions mais le Diable vend de la poussière d'ange Au volant d'un Range Rover de location, j'veux la dolce vita j'suis venus prendre ma r'vanche Bad bitch t'a le nez dans la blanche porcelaine, de nos textes les faussaires se mêlent L'imitation reste la plus sincère des flatteries, t'auras pas l'style d' Lacrimo, Hayce Lem Harceler trop d'femelles dans la même semaine, Hustler au point de ne plus trouver le sommeil Arsenal de guerre on arrive en mercenaire, on est pas des étoiles, on les laisse au système solaire Insolent je ne regrette pas le passé, juste le temps perdu Lorsque dur sont les murs qu'y'a rien à brasser, l'espoir perpétue j'suis perturbé De la patience est la meilleure des vertus pour des tagliatelles al dente C'est un braquage à l'italienne Uzi milli que des Mini y'aura pas d'Bentley Mieux vaut un ennemi qu'un ami qui m'envie si j'ai la dolce vita couvert de Gucci Certains rêveront qu'j'perde mon level que les keufs me soulève qu'on me termine en ville Ma pét'Hayce est vétue de Dolce, yeux verts issue du Vésuve Elle m'appelle Marcelo Hayce, elle ignore qu'c'est à l'oseille qu'ma vie s'résume Sur les sentiers de la dolce vita perdre des plumes est inévitable Enchanté vieni qua bellissima Hayce Lacrim le cash nous est vital Grosse voiture Italienne, Hau-hau-haute couture Italienne T-T-Top model Italienne, C'est un braquage à l'Italienne, Dolce Vita Sur les sentiers de la dolce vita perdre des plumes est inévitable Enchanté vieni qua bellissima Hayce Lacrim le cash nous est vital Grosse voiture Italienne, Hau-hau-haute couture Italienne T-T-Top model Italienne, C'est un braquage à l'Italienne, Dolce Vita Dolce, dolce vita rocco Gilera 800 On part au casse-pipe depuis qu'on a 15 piges on lave toutes nos affaires avec du sang Plus d'cents clients dans la carte Sim, de la putain dM.D dans les boites à pizza L'rap game tromat' on marque le cycle, on s'empare du pactole, ciao buenasera De la sel3a dans les avions, dans les chattes, dans les narines On échappe aux bleu marine, eux déja v'nus des mecs de Paris Ahah Vieni qua bellissima, j'ai ce coté Fédérico Fellini Rien n'sert d'faire ton cinéma vu qu'le film ne va durer qu'une nuit Sur les sentiers de la dolce vita perdre des plumes est inévitable Enchanté vieni qua bellissima Hayce Lacrim le cash nous est vital Grosse voiture Italienne, Hau-hau-haute couture Italienne T-T-Top model Italienne, C'est un braquage à l'Italienne, Dolce Vita Sur les sentiers de la dolce vita perdre des plumes est inévitable Enchanté vieni qua bellissima Hayce Lacrim le cash nous est vital Grosse voiture Italienne, Hau-hau-haute couture Italienne T-T-Top model Italienne, C'est un braquage à l'Italienne, Dolce Vita --------------------------------------------------------------------------- Sur les sentiers de Rap Genius, nous rejoindre est inévitable3</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Suis-je le gardien de mon frère Lumière ? La revanche de mes erreurs passées La prochaine pierre tombale au cimetière, celui que Morphée refuse d'entrelacer J'me retrouve sans lacets, cadenassé, fils de stups, n'assume pas la C J'suis la force de mon père, l'caractère de ma mère, suis-je une menace ou dois-je menacer ? Qui suis-je ? Un biko qui tombe fait plus de bruit qu'un champ d'canna' qui pousse Suis-je à l'abri d'un geush-la HIV dans la picouse ? Suis-je riche en patience à force de braquer l'espoir ? Dois-je m'abreuver d'cocktails Molotov pour vivre ivre de savoir ? Qui suis-je ? Un loubard solo dans l'brouillard Qui suis-je ? Le biko que j'vois dans l'miroir Qui suis-je ? La boussole dans les trous noirs L'9 milli silencieux dans les brouhahahahayce Hahahayce Est-ce que mon épiderme les perturbe ? Ses parents ne veulent pas qu'on s'mette ensemble Notre amour est-il une cause perdue ? Naaan Suis-je ce futur père divorcé qui n'verra pas ses enfants grandir Seul avec ces yeux pour pleurer, cette banque à braquer, ce Glock à brandir Suis-je devenu ce que je voulais devenir ? Dealer, Voler, Vagabonder Dans la ville du palpable, envenimé par le diable J'ignore qui je suis, de quoi j'suis capable Tu me poses pleins d'questions J'cherche moi-même à m'identifier J'ai beau avoir un nom J'suis à la recherche d'une identité Pleins d'traîtres autour de moi Je n'sais même plus à qui m'fier Seul face à mon miroir Les mêmes façon d'me qualifier Qui suis-je ? Qui suis-je ? Qui suis-je ? Qui suis-je ? Qui suis-je Qui ? Volts Face vieux Qui suis-je ? Qui suis-je ? Qui suis-je ? Qui suis-je ? Qui suis-je Qui ? Hayce Lemsi bico You might also like Qui je suis j'en doute peu, j'm'endors au son du coup d'feu Négro, mon père j'écoute peu, j'ai distillé des bouts d'beuh Qui je suis ? Ce bout d'buzz qui peut partir à coup d'beuj Ici c'est triste, tise, tise mène le hardcord a tout l'zbeul Volts toi même tu sais, Paris un terrain sous tension Sauf que nos débordements finissent en centre de détention Moi j'suis un ailier, un pur sang, un bélier Commissaire je ne suis pas celui dont vous verrez la langue se délier J'suis le quartier, le vif du sujet La pression, l'oppression du peuple les restrictions du budget J'suis la réalité de cet enfant qui connait pas sa mère Ou cette meuf les ein-s à l'air pour gagner un salaire Parce-que une chose est sûre c'est de plus en plus dur J'vis la vie côté u-re, renoi la coc' est pure Ca fait depuis qu'on vit un temps de pluie J't'invite à suivre mes pas pour savoir qui je suis Anh, qui suis-je ? Descendant d'Afrique Qui j'fuis ? Le côté Éfrit Peur de passer toute ma vie dans le quartier à bicrave des substances illicites tah l'shit Go fast, tu peux die dans l'trafic Le time il passe ultra vite, plus d'coups d'pression ni d'fle-gi Un gun et des gants et tu claques là izi Zehma j'suis mignon, vas-y barre-toi Tu crois qu'j'ai des millions dans ma barqua ? Sale pute j'co-habite avec les fard-ca A part te ken et te téj j'peux faire quoi ? J'suis s'parano qui cherche quelqu'un de confiance dans une foule de fouf' Biatch mythomane, t'es aussi vierge qu'un CD d'film de boules Même innocent, j'vais être coupable Inoffen-sif Et d'un coup, le coup part J'me fais péter ou j'mets la soupape XXX J'rêve de blé, de paix dans mon de-ble Pendant qu'ils font les bêtes de gangsters pour moi c'est rien qu'des teu-bé Des larmes rouges ont peint mes joues quand j'ai su l'histoire d'mon continent J'me plaint d'la mauvaise sauce dans l'grec là-bas sa bouffe sans condiments J'pense à nos parents, qui faisaient tout avec rien Nous on fait rien, alors qu'on a tout Suis-je le gardien de mon frère lumière ? Insomniaque et incompris Tous les jours j'me couche au shtars et j'te parle pas d'son-pri Regardes tout c'qu'il m'ont pris, comprends qu'j'en ai ras-le-bol J'veux pas finir par m'tuer au shit ou aux verres d'alcool J'ai un pied dans la mosquée un il sur la daronne Quand la vie t'empêche de parler, comment être un homme de parole ? J'ai jamais fais la cour, j'ai pas d'femmes pour m'apaiser J'sais pas s'que veut dire faire l'amour, j'ai un caractère de baisé J'apparais souvent stressé, lent comme un astronaute Peur de regresser, j'ai même peur de mettre la barre trop haute J'suis pt'être différent, j'marche avec les reu-fré Mon cur est un sac poubelle, j'passe ma vie à m'faire jeter Un jour j'suis heureux, un jour j'me plaint d'tel et tel trucs Aujourd'hui j'ai d'la mifa, demain j'en aurais p'têtre plus J'aimerais te dire que tout vas bien, te dire que j'suis content Mais quand ton coeur est mort, comment faire du rap conscient ?13</t>
+          <t>Suis-je le gardien de mon frère Lumière ? La revanche de mes erreurs passées La prochaine pierre tombale au cimetière, celui que Morphée refuse d'entrelacer J'me retrouve sans lacets, cadenassé, fils de stups, n'assume pas la C J'suis la force de mon père, l'caractère de ma mère, suis-je une menace ou dois-je menacer ? Qui suis-je ? Un biko qui tombe fait plus de bruit qu'un champ d'canna' qui pousse Suis-je à l'abri d'un geush-la HIV dans la picouse ? Suis-je riche en patience à force de braquer l'espoir ? Dois-je m'abreuver d'cocktails Molotov pour vivre ivre de savoir ? Qui suis-je ? Un loubard solo dans l'brouillard Qui suis-je ? Le biko que j'vois dans l'miroir Qui suis-je ? La boussole dans les trous noirs L'9 milli silencieux dans les brouhahahahayce Hahahayce Est-ce que mon épiderme les perturbe ? Ses parents ne veulent pas qu'on s'mette ensemble Notre amour est-il une cause perdue ? Naaan Suis-je ce futur père divorcé qui n'verra pas ses enfants grandir Seul avec ces yeux pour pleurer, cette banque à braquer, ce Glock à brandir Suis-je devenu ce que je voulais devenir ? Dealer, Voler, Vagabonder Dans la ville du palpable, envenimé par le diable J'ignore qui je suis, de quoi j'suis capable Tu me poses pleins d'questions J'cherche moi-même à m'identifier J'ai beau avoir un nom J'suis à la recherche d'une identité Pleins d'traîtres autour de moi Je n'sais même plus à qui m'fier Seul face à mon miroir Les mêmes façon d'me qualifier Qui suis-je ? Qui suis-je ? Qui suis-je ? Qui suis-je ? Qui suis-je Qui ? Volts Face vieux Qui suis-je ? Qui suis-je ? Qui suis-je ? Qui suis-je ? Qui suis-je Qui ? Hayce Lemsi bico Qui je suis j'en doute peu, j'm'endors au son du coup d'feu Négro, mon père j'écoute peu, j'ai distillé des bouts d'beuh Qui je suis ? Ce bout d'buzz qui peut partir à coup d'beuj Ici c'est triste, tise, tise mène le hardcord a tout l'zbeul Volts toi même tu sais, Paris un terrain sous tension Sauf que nos débordements finissent en centre de détention Moi j'suis un ailier, un pur sang, un bélier Commissaire je ne suis pas celui dont vous verrez la langue se délier J'suis le quartier, le vif du sujet La pression, l'oppression du peuple les restrictions du budget J'suis la réalité de cet enfant qui connait pas sa mère Ou cette meuf les ein-s à l'air pour gagner un salaire Parce-que une chose est sûre c'est de plus en plus dur J'vis la vie côté u-re, renoi la coc' est pure Ca fait depuis qu'on vit un temps de pluie J't'invite à suivre mes pas pour savoir qui je suis Anh, qui suis-je ? Descendant d'Afrique Qui j'fuis ? Le côté Éfrit Peur de passer toute ma vie dans le quartier à bicrave des substances illicites tah l'shit Go fast, tu peux die dans l'trafic Le time il passe ultra vite, plus d'coups d'pression ni d'fle-gi Un gun et des gants et tu claques là izi Zehma j'suis mignon, vas-y barre-toi Tu crois qu'j'ai des millions dans ma barqua ? Sale pute j'co-habite avec les fard-ca A part te ken et te téj j'peux faire quoi ? J'suis s'parano qui cherche quelqu'un de confiance dans une foule de fouf' Biatch mythomane, t'es aussi vierge qu'un CD d'film de boules Même innocent, j'vais être coupable Inoffen-sif Et d'un coup, le coup part J'me fais péter ou j'mets la soupape XXX J'rêve de blé, de paix dans mon de-ble Pendant qu'ils font les bêtes de gangsters pour moi c'est rien qu'des teu-bé Des larmes rouges ont peint mes joues quand j'ai su l'histoire d'mon continent J'me plaint d'la mauvaise sauce dans l'grec là-bas sa bouffe sans condiments J'pense à nos parents, qui faisaient tout avec rien Nous on fait rien, alors qu'on a tout Suis-je le gardien de mon frère lumière ? Insomniaque et incompris Tous les jours j'me couche au shtars et j'te parle pas d'son-pri Regardes tout c'qu'il m'ont pris, comprends qu'j'en ai ras-le-bol J'veux pas finir par m'tuer au shit ou aux verres d'alcool J'ai un pied dans la mosquée un il sur la daronne Quand la vie t'empêche de parler, comment être un homme de parole ? J'ai jamais fais la cour, j'ai pas d'femmes pour m'apaiser J'sais pas s'que veut dire faire l'amour, j'ai un caractère de baisé J'apparais souvent stressé, lent comme un astronaute Peur de regresser, j'ai même peur de mettre la barre trop haute J'suis pt'être différent, j'marche avec les reu-fré Mon cur est un sac poubelle, j'passe ma vie à m'faire jeter Un jour j'suis heureux, un jour j'me plaint d'tel et tel trucs Aujourd'hui j'ai d'la mifa, demain j'en aurais p'têtre plus J'aimerais te dire que tout vas bien, te dire que j'suis content Mais quand ton coeur est mort, comment faire du rap conscient ?13</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hayce Lemsi ! Okay, Electron Libre, Libre, Libre J'vais finir agriculteur au triangle d'or J'suis carré pour faire des ronds dans l'hexagone, quelle tête fera le proc' si j'étrangle un porc ? J'apporte ma part de lucidité laissez les médisants me salir au lieu de s'éduquer Trop deuspi pour me laisser du pied j'ai de la fresh diamond ta weed c'est du thé La crédibilité se mérite le hood m'a pimpé, rebelle comme Ali la pointe, Kunta Kinté Mes petits locos s'agitent au CJD, trop original aucun bico ne peut m'étiqueter Tchik pah d'pitié pour ces bicos qui stagnent, de Hassi Messaoud à cette putain d'vie d'star Que tu sois disque d'or, de platine ou de cristal tu vas te faire crosser si j'te croise en freestyle Porte parole d'une jeunesse enflammée qui dors chez la daronne ou charbonne sans loyer Faut qu'on procède par ordre les allocs' nous endorment on a des remords une fois que les fleurs sont fanées Le ghetto m'a charmé les locos marchent armés j'vois le bénèf partir les bleus nuits s'acharner J'vois mes frères affamés sans familles sans foyer, sur l'avenue de Clichy mes potos s'font rafaler Bilan inachevé d'un parigo raffiné, j'vois mes cernes noircir mes nuits partent en fumée J'vois tout l'monde s'enfiler, le SIDA s'refiler, tous nos reufs se finir, le commissaire s'affoler C'est la Fourche c'est la Tour c'est L'Allée c'est la J, c'est la jungle ça vends la mort entouré d'RG J'ai ce flow young money MMG, pet'Hayce grimpe dans le AMG Si t'es au hebs, roule un teh' fais bédave ton co' Si t'es en hess, trouve du taf ou de la white widow Si t'aimes le sexe, pét'Hayce rejoins moi dans l'tel-hô Si t'aimes la cess', rentre dans le bat' et sort le seille-o You might also like La gloire m'fait pas de crédit ces bicos croient qu'j'ai la fortune de Crésus Avec de la patience tout arrive très vite, vivacité, discipline je n'ai rien d'un genius Fuckin' jealous, tu penses avoir le pouvoir absolu sous vodka J'suis le calme avant l'éruption du volcan, celui qu'elles veulent faire jouir sans pote-ca Par ici demoiselle nan nan, j'n'ai pas trouvé ma hlel Oublie mon oseille paye ton noisette, laisse parler les maquerelles J'trempe encore dans des histoires de Mac-10, suivi par Vic Mackey Ma fierté refuse de faire la paix, j'ai du mal à lâcher ma 'teille Bitch, t'occupes pas de ma life, t'occupes pas de ma life T'occupes pas de ma life, la street m'a rendu malade J'suis resté dans la street toute ma life, j'n'ai pas trouvé ma wife La plupart ne flaire que la maille, pét'Hayce trouve du travail Bitch, t'occupes pas de ma life, t'occupes pas de ma life T'occupes pas d'ma life, t'occupes pas d'ma life T'occupes d'ma life, la street m'a rendu malade J'n'ai pas trouvé ma wife, j'fais d'l'oseille pour la mama Boucherie d'dingue Electron libre bientôt dans les bacs Le rap game étouffé dans le coffre de la Maybach L'oseille c'est la seule valeur qu'on nous enseigne Tu connais pas Hayce ? Paname te renseigne J'arrive avec 4 bouteilles de rosay Mes pet'Hayces pas comprendre le françay Alors comment vont mes zouzous, d'Alger, Wahran, Tizi'ouzou Tahia DZ pour toujours, XM8 mon nouveau joujou Demande à Guigui Bass ou Fofo, ton équipe de vrais p'tits bouts d'chous Bitch I'm coming to you, elle veut pas d'toi frère t'es tout mou Les frères y'a des litres à transporter, des poucaves à défourailler Pas facile de porter ses couilles face à l'Algérien fou à lier J'suis venu vous flinguer, j'ai ce flow d'alien Je suis l'homme qui murmure à l'oreille des synthés M'invite ap a planète rap, je vais t'esquinter T'humilier devant ton équipe sur ton propre 5D Attendez, attendez qu'Electron Libre sorte vous allez vous faire plomber Attendez, attendez,qu'Electron Libre sorte vous allez vous faire plomber Où seras-tu le lundi 4 novembre, le lundi 4 novembre ? Où seras-tu le lundi 4 novembre, le lundi 4 novembre ? J'ai dis où seras-tu le lundi 4 novembre, le lundi 4 novembre ? Où seras-tu, où seras-tu, où seras-tu ? Électron libre bitch, bitch, XV Barbare bad-boyTu connais pas Hayce ? Rap Genius te renseigne, on arrive avec 4 tonnes d'explains ..15</t>
+          <t>Hayce Lemsi ! Okay, Electron Libre, Libre, Libre J'vais finir agriculteur au triangle d'or J'suis carré pour faire des ronds dans l'hexagone, quelle tête fera le proc' si j'étrangle un porc ? J'apporte ma part de lucidité laissez les médisants me salir au lieu de s'éduquer Trop deuspi pour me laisser du pied j'ai de la fresh diamond ta weed c'est du thé La crédibilité se mérite le hood m'a pimpé, rebelle comme Ali la pointe, Kunta Kinté Mes petits locos s'agitent au CJD, trop original aucun bico ne peut m'étiqueter Tchik pah d'pitié pour ces bicos qui stagnent, de Hassi Messaoud à cette putain d'vie d'star Que tu sois disque d'or, de platine ou de cristal tu vas te faire crosser si j'te croise en freestyle Porte parole d'une jeunesse enflammée qui dors chez la daronne ou charbonne sans loyer Faut qu'on procède par ordre les allocs' nous endorment on a des remords une fois que les fleurs sont fanées Le ghetto m'a charmé les locos marchent armés j'vois le bénèf partir les bleus nuits s'acharner J'vois mes frères affamés sans familles sans foyer, sur l'avenue de Clichy mes potos s'font rafaler Bilan inachevé d'un parigo raffiné, j'vois mes cernes noircir mes nuits partent en fumée J'vois tout l'monde s'enfiler, le SIDA s'refiler, tous nos reufs se finir, le commissaire s'affoler C'est la Fourche c'est la Tour c'est L'Allée c'est la J, c'est la jungle ça vends la mort entouré d'RG J'ai ce flow young money MMG, pet'Hayce grimpe dans le AMG Si t'es au hebs, roule un teh' fais bédave ton co' Si t'es en hess, trouve du taf ou de la white widow Si t'aimes le sexe, pét'Hayce rejoins moi dans l'tel-hô Si t'aimes la cess', rentre dans le bat' et sort le seille-o La gloire m'fait pas de crédit ces bicos croient qu'j'ai la fortune de Crésus Avec de la patience tout arrive très vite, vivacité, discipline je n'ai rien d'un genius Fuckin' jealous, tu penses avoir le pouvoir absolu sous vodka J'suis le calme avant l'éruption du volcan, celui qu'elles veulent faire jouir sans pote-ca Par ici demoiselle nan nan, j'n'ai pas trouvé ma hlel Oublie mon oseille paye ton noisette, laisse parler les maquerelles J'trempe encore dans des histoires de Mac-10, suivi par Vic Mackey Ma fierté refuse de faire la paix, j'ai du mal à lâcher ma 'teille Bitch, t'occupes pas de ma life, t'occupes pas de ma life T'occupes pas de ma life, la street m'a rendu malade J'suis resté dans la street toute ma life, j'n'ai pas trouvé ma wife La plupart ne flaire que la maille, pét'Hayce trouve du travail Bitch, t'occupes pas de ma life, t'occupes pas de ma life T'occupes pas d'ma life, t'occupes pas d'ma life T'occupes d'ma life, la street m'a rendu malade J'n'ai pas trouvé ma wife, j'fais d'l'oseille pour la mama Boucherie d'dingue Electron libre bientôt dans les bacs Le rap game étouffé dans le coffre de la Maybach L'oseille c'est la seule valeur qu'on nous enseigne Tu connais pas Hayce ? Paname te renseigne J'arrive avec 4 bouteilles de rosay Mes pet'Hayces pas comprendre le françay Alors comment vont mes zouzous, d'Alger, Wahran, Tizi'ouzou Tahia DZ pour toujours, XM8 mon nouveau joujou Demande à Guigui Bass ou Fofo, ton équipe de vrais p'tits bouts d'chous Bitch I'm coming to you, elle veut pas d'toi frère t'es tout mou Les frères y'a des litres à transporter, des poucaves à défourailler Pas facile de porter ses couilles face à l'Algérien fou à lier J'suis venu vous flinguer, j'ai ce flow d'alien Je suis l'homme qui murmure à l'oreille des synthés M'invite ap a planète rap, je vais t'esquinter T'humilier devant ton équipe sur ton propre 5D Attendez, attendez qu'Electron Libre sorte vous allez vous faire plomber Attendez, attendez,qu'Electron Libre sorte vous allez vous faire plomber Où seras-tu le lundi 4 novembre, le lundi 4 novembre ? Où seras-tu le lundi 4 novembre, le lundi 4 novembre ? J'ai dis où seras-tu le lundi 4 novembre, le lundi 4 novembre ? Où seras-tu, où seras-tu, où seras-tu ? Électron libre bitch, bitch, XV Barbare bad-boyTu connais pas Hayce ? Rap Genius te renseigne, on arrive avec 4 tonnes d'explains ..15</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Stone Hayce Lemsi J'suis dans une haute sphère Gros zdeh J'fais crier l'CRF République, Bastille j'entends crier l'CRS Toute ma life j'ai erré Peut être que c'qu'il m'arrive n'est qu'un rêve Ils disent que Paname c'est l'Arche de Noé J'pense qu'à l'aube du 21ème siècle, on manque de modèle À cette époque où faire le bien c'est devenu démodé Le monde où les pointeurs sont cachés sous les arbres de Noël Encore un soir de merde Malheureux j'suis mort ivre J'pense qu'à chanter j'suis devenu déjanté Comme le désespoir d'une femme stérile Qui ne rêvait que de donner la vie, que d'enfanter À toi qui passes ta vie à inventer Sache que la vérité remonte à la surface À toi qui passes ta vie à te vanter Toi qui regardes les gens avancer en faisant du surplace Le tierquar t'avale Aussi vite qu'il te recrache La volaille te perd Aussi vite qu'elle te retrace Les meilleurs d'entre nous sont au cimetière Et y'a certaines amitiés dans la vie que rien ne remplace You might also like J'suis dans une haute sphère, gros zdeh, pour calmer le seum Et si les faux frères prospèrent, je resterai seul Depuis petit gosse à problèmes, Mama se fait du mauvais sang Elle voit son bébé décoller, a peur à chaque fois qu'il descend J'suis dans une haute sphère, gros zdeh, pour calmer le seum Et si les faux frères prospèrent, je resterai seul Depuis petit gosse à problèmes, Mama se fait du mauvais sang Elle voit son bébé décoller, a peur à chaque fois qu'il descend Je ne mérite ni médaille ni prix Nobel de la paix On a survit dans nos ghettos mais bon c'était pas la pègre Gagner honnêtement sa vie pour devenir quelqu'un d'intègre T'es vite calmé quand ton poto se mange une balle dans la tête L'époque a modifié la définition du mot rajeul On rentre bourré quand nos mères se lèvent préparent le fajr Pour mériter ton respect je te regarde dans les yeux Je te foudroie s'il le faut j'te met des baffes dans la gueule Maman m'a dit marie toi avec une femme pieuse Car mener sa vie sans amour est une pente périlleuse On nous vend du rêve nous jette de la poussière dans les yeus C'est la chute libre on envie l'époque des Trente Glorieuses J'ai demandé à la lune d'apaiser mon insomnie , bref, sans suite J'connais quelques charbonneurs qui ne s'en sont jamais remis On pense très fort à nos familles en pleines courses poursuites Ce que nous enseignèrent nos parents est au funérarium Trop occupés à bronzer dans les solariums J'viens du désert c'est mon daron le plus grand des warriors Y'a mon pote à Saint-Anne seresta valium Le silence est d'or, les hommes de valeurs se taisent Toute sa vie mon daron s'est cassé le dos J'ai du mal à respecter l'argent qu'on me donne en show-case Comme celui que je faisais dans le bendo Toi le berger j'te laisse recompter tes brebis J'suis un guerrier donc je vais compter mes blessures Je suis venu conter mon histoire J'aime passer du temps seul la solitude est un lieu sûr J'suis pas l'exemple du siècle pour mes petits frères et surs T'as le sang rempli de seum, t'en a marre d'errer seul Comme une putain dans un monde sans trottoir c'est trop tard Pour les regrets tu vas tout assumer dans ton linceul J'suis dans une haute sphère, gros zdeh, pour calmer le seum Et si les faux frères prospèrent, je resterai seul Depuis petit gosse à problèmes, maman se fait du mauvais sang Elle voit son bébé décoller, a peur à chaque fois qu'il descend J'suis dans une haute sphère, gros zdeh, pour calmer le seum Et si les faux frères prospèrent, je resterai seul Depuis petit gosse à problèmes, maman se fait du mauvais sang Elle voit son bébé décoller, a peur à chaque fois qu'il descend J'suis dans une haute sphère Gros zdeh Pour calmer le seum Hayce... Stone...9</t>
+          <t>Stone Hayce Lemsi J'suis dans une haute sphère Gros zdeh J'fais crier l'CRF République, Bastille j'entends crier l'CRS Toute ma life j'ai erré Peut être que c'qu'il m'arrive n'est qu'un rêve Ils disent que Paname c'est l'Arche de Noé J'pense qu'à l'aube du 21ème siècle, on manque de modèle À cette époque où faire le bien c'est devenu démodé Le monde où les pointeurs sont cachés sous les arbres de Noël Encore un soir de merde Malheureux j'suis mort ivre J'pense qu'à chanter j'suis devenu déjanté Comme le désespoir d'une femme stérile Qui ne rêvait que de donner la vie, que d'enfanter À toi qui passes ta vie à inventer Sache que la vérité remonte à la surface À toi qui passes ta vie à te vanter Toi qui regardes les gens avancer en faisant du surplace Le tierquar t'avale Aussi vite qu'il te recrache La volaille te perd Aussi vite qu'elle te retrace Les meilleurs d'entre nous sont au cimetière Et y'a certaines amitiés dans la vie que rien ne remplace J'suis dans une haute sphère, gros zdeh, pour calmer le seum Et si les faux frères prospèrent, je resterai seul Depuis petit gosse à problèmes, Mama se fait du mauvais sang Elle voit son bébé décoller, a peur à chaque fois qu'il descend J'suis dans une haute sphère, gros zdeh, pour calmer le seum Et si les faux frères prospèrent, je resterai seul Depuis petit gosse à problèmes, Mama se fait du mauvais sang Elle voit son bébé décoller, a peur à chaque fois qu'il descend Je ne mérite ni médaille ni prix Nobel de la paix On a survit dans nos ghettos mais bon c'était pas la pègre Gagner honnêtement sa vie pour devenir quelqu'un d'intègre T'es vite calmé quand ton poto se mange une balle dans la tête L'époque a modifié la définition du mot rajeul On rentre bourré quand nos mères se lèvent préparent le fajr Pour mériter ton respect je te regarde dans les yeux Je te foudroie s'il le faut j'te met des baffes dans la gueule Maman m'a dit marie toi avec une femme pieuse Car mener sa vie sans amour est une pente périlleuse On nous vend du rêve nous jette de la poussière dans les yeus C'est la chute libre on envie l'époque des Trente Glorieuses J'ai demandé à la lune d'apaiser mon insomnie , bref, sans suite J'connais quelques charbonneurs qui ne s'en sont jamais remis On pense très fort à nos familles en pleines courses poursuites Ce que nous enseignèrent nos parents est au funérarium Trop occupés à bronzer dans les solariums J'viens du désert c'est mon daron le plus grand des warriors Y'a mon pote à Saint-Anne seresta valium Le silence est d'or, les hommes de valeurs se taisent Toute sa vie mon daron s'est cassé le dos J'ai du mal à respecter l'argent qu'on me donne en show-case Comme celui que je faisais dans le bendo Toi le berger j'te laisse recompter tes brebis J'suis un guerrier donc je vais compter mes blessures Je suis venu conter mon histoire J'aime passer du temps seul la solitude est un lieu sûr J'suis pas l'exemple du siècle pour mes petits frères et surs T'as le sang rempli de seum, t'en a marre d'errer seul Comme une putain dans un monde sans trottoir c'est trop tard Pour les regrets tu vas tout assumer dans ton linceul J'suis dans une haute sphère, gros zdeh, pour calmer le seum Et si les faux frères prospèrent, je resterai seul Depuis petit gosse à problèmes, maman se fait du mauvais sang Elle voit son bébé décoller, a peur à chaque fois qu'il descend J'suis dans une haute sphère, gros zdeh, pour calmer le seum Et si les faux frères prospèrent, je resterai seul Depuis petit gosse à problèmes, maman se fait du mauvais sang Elle voit son bébé décoller, a peur à chaque fois qu'il descend J'suis dans une haute sphère Gros zdeh Pour calmer le seum Hayce... Stone...9</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Young Bikow three nigga Bikow young Big Lemsi Record Wesh les zouzous Ahah yeah hoe ! BLR life Hier soir hennessy c'matin mon roucous, j'instaure une dictature Lemsi-mobutu Mon butin tu le veux, tu n'auras qu'ma be-teu, j'te fais charbonner dans l'bâtiment Kiloutou, kilo d'herbe Y'a les keufs, cours à la Kirikou, on arrête pas les balles à la Sirigu D'ici j'entends toutes les mésanges qui roucoulent, y'a six ripoux et j'fais la boule pour une série d'coups Verse le Ciroc sur le capot du Sirocco, on arrache tes 24 carats d'or au cou Ta grosse folle veut son coup d'Lemsi-rocco, j'vais reprendre le rrain-té, loco, la roue tourne Comme les filles du procureur de la république, ta schneck s'élargit chaque jour comme mon public A chaque fois qu't'écoutes Les Frères Lumières, tu brilles, envoie ta vidéo, je la republie Papa m'a dit les plus belles sont les plus pudiques, on dit qu'sans ses cernes, l'insomniaque perd son mythe T'as marché sur mes rimes anti-personnelles, on m'appelle Barry Allen ou Super Sonic Mes bikos veulent s'évader comme El Chapo, légérie d'l'Algérie, mémoire dans la peau Casse pas les couilles, on a perdu plus d'un million d'hommes avant d'pouvoir agiter ce drapeau Faites fumer la sticky icky icky, suce-moi la bite et j'te paye en liquide Igo, j'te rentre dedans comme un yankees si j't'attrape en train de tacler l'un de mes ients-cli J'suis d'retour pour qu'l'industrie m'fasse un lap dance Ça t'calcule pas si t'as pas d'buzz ou qu't'as pas d'benz' Le bail tourne d'Villeurbanne à Barbès Et j'entends Big L, quels sont vos désirs altesse ? Tu regardes à gauche, tu regardes à droite Tu regardes droit devant, je viens par derrière et j'te braque Tu regardes à gauche, tu regardes à droite Tu regardes droit devant, je viens par derrière et j'te braque L'argent n'a pas d'odeur comme la fumée de ton pilon, paraffiné, j'suis raffiné, je rabats les promoteurs Moi j'ai la fougue dans les veines pour vous en filer dans la foule, vous avez de belles carrosseries mais j'ai le plus gros moteur J'ai de la kush du Colorado, de l'amné' du Canada, tous mes bikos préfèrent la cavale que de retourner là-bas J'ai fais du bénéf' tout l'hiver, en été j'pars à Malaga, j'ai mal au coeur en voyant galérer mes khos, les haragas, c'est la bagarre Tu regardes à gauche, tu regardes à droite Wesh grosse folle, j'rappe mieux que tous ces bandeurs d'hommes BDH Tu rappes comme si t'étais recherché par Interpol Quand j'rappe c'est sale, gros, c'est degueul'hayce, l'alcool délie les langues, fait tomber des masques Besoin d'un méli-melo pour animer les masses, fous le feu, la folie dans les veines, rafale et mets les gaz Pour entendre siffler mes oreilles, biko, je n'ai qu'à m'absenter Tu niques ta santé pour d'l'oseille, tu niques d'l'oseille pour ta santé A ta santé, j'ai patienté, dans le ghetto, tu vends la coc', tu brilles Les p'tits voient l'école comme une prison sans savoir qu'la prison c'est l'école du crime J'porte un toast à tous les lokos, toutes les lokas qui soutiennent Et qui savent qu'Electron Libre Volume. 2 va tout ken' Tu regardes à gauche, tu regardes à droite Tu regardes à gauche, tu regardes à droiteYou might also like6</t>
+          <t>Young Bikow three nigga Bikow young Big Lemsi Record Wesh les zouzous Ahah yeah hoe ! BLR life Hier soir hennessy c'matin mon roucous, j'instaure une dictature Lemsi-mobutu Mon butin tu le veux, tu n'auras qu'ma be-teu, j'te fais charbonner dans l'bâtiment Kiloutou, kilo d'herbe Y'a les keufs, cours à la Kirikou, on arrête pas les balles à la Sirigu D'ici j'entends toutes les mésanges qui roucoulent, y'a six ripoux et j'fais la boule pour une série d'coups Verse le Ciroc sur le capot du Sirocco, on arrache tes 24 carats d'or au cou Ta grosse folle veut son coup d'Lemsi-rocco, j'vais reprendre le rrain-té, loco, la roue tourne Comme les filles du procureur de la république, ta schneck s'élargit chaque jour comme mon public A chaque fois qu't'écoutes Les Frères Lumières, tu brilles, envoie ta vidéo, je la republie Papa m'a dit les plus belles sont les plus pudiques, on dit qu'sans ses cernes, l'insomniaque perd son mythe T'as marché sur mes rimes anti-personnelles, on m'appelle Barry Allen ou Super Sonic Mes bikos veulent s'évader comme El Chapo, légérie d'l'Algérie, mémoire dans la peau Casse pas les couilles, on a perdu plus d'un million d'hommes avant d'pouvoir agiter ce drapeau Faites fumer la sticky icky icky, suce-moi la bite et j'te paye en liquide Igo, j'te rentre dedans comme un yankees si j't'attrape en train de tacler l'un de mes ients-cli J'suis d'retour pour qu'l'industrie m'fasse un lap dance Ça t'calcule pas si t'as pas d'buzz ou qu't'as pas d'benz' Le bail tourne d'Villeurbanne à Barbès Et j'entends Big L, quels sont vos désirs altesse ? Tu regardes à gauche, tu regardes à droite Tu regardes droit devant, je viens par derrière et j'te braque Tu regardes à gauche, tu regardes à droite Tu regardes droit devant, je viens par derrière et j'te braque L'argent n'a pas d'odeur comme la fumée de ton pilon, paraffiné, j'suis raffiné, je rabats les promoteurs Moi j'ai la fougue dans les veines pour vous en filer dans la foule, vous avez de belles carrosseries mais j'ai le plus gros moteur J'ai de la kush du Colorado, de l'amné' du Canada, tous mes bikos préfèrent la cavale que de retourner là-bas J'ai fais du bénéf' tout l'hiver, en été j'pars à Malaga, j'ai mal au coeur en voyant galérer mes khos, les haragas, c'est la bagarre Tu regardes à gauche, tu regardes à droite Wesh grosse folle, j'rappe mieux que tous ces bandeurs d'hommes BDH Tu rappes comme si t'étais recherché par Interpol Quand j'rappe c'est sale, gros, c'est degueul'hayce, l'alcool délie les langues, fait tomber des masques Besoin d'un méli-melo pour animer les masses, fous le feu, la folie dans les veines, rafale et mets les gaz Pour entendre siffler mes oreilles, biko, je n'ai qu'à m'absenter Tu niques ta santé pour d'l'oseille, tu niques d'l'oseille pour ta santé A ta santé, j'ai patienté, dans le ghetto, tu vends la coc', tu brilles Les p'tits voient l'école comme une prison sans savoir qu'la prison c'est l'école du crime J'porte un toast à tous les lokos, toutes les lokas qui soutiennent Et qui savent qu'Electron Libre Volume. 2 va tout ken' Tu regardes à gauche, tu regardes à droite Tu regardes à gauche, tu regardes à droite6</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hay hay Hayce Twahachtkoum La Fourche, La Tour, La J Passe au ghetto, c'est juste à coté Toujours naturel et discret comme un litron d'pure dans une fiat punto Bico plaire a tout l'monde, c'est plaire à n'importe quel puto J'entends japper la JAP j'ai la paire de llieuc coup d'Ahmadinejad Le même gauche droite high kick que Tidjani dans l'iris la flamme du siete cinco Dégoûter d'la race humaine la vérité d'ce globe se vomit frère Un homme avertit en vaut 2, un homme vertueux en vaut 1000 Vestibule arsenal sous la veste polaire, que des hagras les rappeurs ont peur d'témoigner Petit n'reste pas la tu va perdre tes molaires, que des kahbas a l'oeil sur mon porte monnaie Etant minot moi je confondais les portes aux fenêtres,douce est ma clientèle forte est mon herbe Mieux vaut choisir un drôle de train d'vie, que d'rester planter d'vant les portes palières Je me porte volontaire pour jeter les ordures je les vois sous drogue dur, le cul posé par terre J'sais qui sont mes partenaires, j'ai les phrases de Voltaire J'humilie tes artistes avec désinvolture J'arrive comme un cataclysme pyramide de narcotiques sur la balance Tempête de rage cyclone d'argent sale, on a surfé sur une vague de violence ! J'attrappe le lion par la crinière, j'partirais pas sans l'mago Bico nourrit ta pépinière au lieu d'regarder ma go Ma gueule j'la baise rien qu'j'la baise, elle me caresse les pecs pendant qu'j'fume d'la zeb' Si cette pute me trompe avec un autre bico, je ne la frapperais pas j'lui ferais la boule a Z Vazi couziiiinnn J'vais reprendre la pastille trop d-spee pour qu'ils puissent me cibler Met plus de coco dans ton fazer donne plus de poudre à tes flibustier You might also like Toujours pas d'henné dans mon paki, frère le temps c'est des plaquettes Toujours pas de cayenne dans mon parking, mon son tourne de Hall en Discothèque Toujours pas d'aîné j'suis pas ton petit, l'insomniaque ne fais pas d'sieste Toujours pas d'rivals dans la partie, toujours malmener par mon faciès Lève ton verre, lève ton verre a la santé du bad bico hey! Lève ton verre, lève ton verre a la santé du bad bico hey! La santé du bad bico, la santé du bad bico Lève ton verre, lève ton verre a la santé du bad bico hey! Je ne crois qu'en celui qui a crée, celui qui a crée le séisme artificiel Saucissonne le marionnettiste, petit pantin sers toi d'tes ficelles ! Je n'compte plus les écchymoses et les flocons de coca sous mes esquimaux 75 017 kilos d'pression sur la mâchoire, c'est le bad bico ! On t'en veut pour ta nationalité, ta couleur, ta croyance, ton état civil Parle pas d'alignement galactique, de Nostradamus ou de l'oracle Sybille T'attends qu'un tapin prenne tes patins, tu n'connais pas la race humaine Tout est monétaire la vérité s'cache à 1000 lieux sous les mers quand le diable submerge Des fans a mobiliser, des rimes a rentabiliser, ma devise est de voir les mythomanes se volatiser Par le président les médias dévaloriser, on s'tape devant les keufs sur les champs Elysées Hola Hello voulez vous naviguez dans la ville de la coca ? Bimbo, cognac, tel-ho, c'est juste mistaa vida locaa Bico la France veut nous goaler, elle a peur qu'on détourne un Boeing Flasher sous flash de weed capucher dans un bolide J'entends toc toc toc, sur c'est les Six hours il est Six'o'clock motherfuckfuck Trop d'putes dans le game je les baise tous, it's the gang bang style woop woop woop wooop4</t>
+          <t>Hay hay Hayce Twahachtkoum La Fourche, La Tour, La J Passe au ghetto, c'est juste à coté Toujours naturel et discret comme un litron d'pure dans une fiat punto Bico plaire a tout l'monde, c'est plaire à n'importe quel puto J'entends japper la JAP j'ai la paire de llieuc coup d'Ahmadinejad Le même gauche droite high kick que Tidjani dans l'iris la flamme du siete cinco Dégoûter d'la race humaine la vérité d'ce globe se vomit frère Un homme avertit en vaut 2, un homme vertueux en vaut 1000 Vestibule arsenal sous la veste polaire, que des hagras les rappeurs ont peur d'témoigner Petit n'reste pas la tu va perdre tes molaires, que des kahbas a l'oeil sur mon porte monnaie Etant minot moi je confondais les portes aux fenêtres,douce est ma clientèle forte est mon herbe Mieux vaut choisir un drôle de train d'vie, que d'rester planter d'vant les portes palières Je me porte volontaire pour jeter les ordures je les vois sous drogue dur, le cul posé par terre J'sais qui sont mes partenaires, j'ai les phrases de Voltaire J'humilie tes artistes avec désinvolture J'arrive comme un cataclysme pyramide de narcotiques sur la balance Tempête de rage cyclone d'argent sale, on a surfé sur une vague de violence ! J'attrappe le lion par la crinière, j'partirais pas sans l'mago Bico nourrit ta pépinière au lieu d'regarder ma go Ma gueule j'la baise rien qu'j'la baise, elle me caresse les pecs pendant qu'j'fume d'la zeb' Si cette pute me trompe avec un autre bico, je ne la frapperais pas j'lui ferais la boule a Z Vazi couziiiinnn J'vais reprendre la pastille trop d-spee pour qu'ils puissent me cibler Met plus de coco dans ton fazer donne plus de poudre à tes flibustier Toujours pas d'henné dans mon paki, frère le temps c'est des plaquettes Toujours pas de cayenne dans mon parking, mon son tourne de Hall en Discothèque Toujours pas d'aîné j'suis pas ton petit, l'insomniaque ne fais pas d'sieste Toujours pas d'rivals dans la partie, toujours malmener par mon faciès Lève ton verre, lève ton verre a la santé du bad bico hey! Lève ton verre, lève ton verre a la santé du bad bico hey! La santé du bad bico, la santé du bad bico Lève ton verre, lève ton verre a la santé du bad bico hey! Je ne crois qu'en celui qui a crée, celui qui a crée le séisme artificiel Saucissonne le marionnettiste, petit pantin sers toi d'tes ficelles ! Je n'compte plus les écchymoses et les flocons de coca sous mes esquimaux 75 017 kilos d'pression sur la mâchoire, c'est le bad bico ! On t'en veut pour ta nationalité, ta couleur, ta croyance, ton état civil Parle pas d'alignement galactique, de Nostradamus ou de l'oracle Sybille T'attends qu'un tapin prenne tes patins, tu n'connais pas la race humaine Tout est monétaire la vérité s'cache à 1000 lieux sous les mers quand le diable submerge Des fans a mobiliser, des rimes a rentabiliser, ma devise est de voir les mythomanes se volatiser Par le président les médias dévaloriser, on s'tape devant les keufs sur les champs Elysées Hola Hello voulez vous naviguez dans la ville de la coca ? Bimbo, cognac, tel-ho, c'est juste mistaa vida locaa Bico la France veut nous goaler, elle a peur qu'on détourne un Boeing Flasher sous flash de weed capucher dans un bolide J'entends toc toc toc, sur c'est les Six hours il est Six'o'clock motherfuckfuck Trop d'putes dans le game je les baise tous, it's the gang bang style woop woop woop wooop4</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Hip-hop se sél médicament nou ni Muni de ma kalash prémédite le murder Ma jolie t'as les yeux de la même couleur que ma money Mais j'n'ai pas le compte en banque à Birdman Tu te donnes en deux minutes si je sors le bolide J'ai le dos tourné mais je sais que tu me regardes J't'emmène à l'Holiday Inn, goûte à mon insomnie Le lendemain j'monte avec mes potes à me-Da J'arrive dans l'carré vip all eyes on me, j'lève mon verre à mes amours et mes ennemis Je ne dormirai pas cette nuit, je ne, je ne, je ne dormirai pas cette nuit J'voulais viser la lune avant de monter la colline, j'fais ma route comme un homme j'me fout qu'les gens parlent Indépendant j'parie solo carré d'Hayce all in ouvre le champagne Gangsta fier, ce soir j'me fiche de c'qu'il me reste à faire J'irai jusqu'au bout d'la nuit jusqu'au bout d'la Terre Ce soir j'me fiche de c'qu'il me reste à faire, ce soir je vis Mes lokas sont coquettes le videur est sous cocain, elles enflamment la piste Tant que les bikos payent, puis-je t'offrir un cocktail ? Zina arrache ton phone-tel, je te prendrais comme telle, comme t'aimes tu seras dans mon top ten Pas d'balade en hélicoptère, laissons brûler le feu de la passion rien n'presse No stress, j'laisserai pas les autres bikos t'plaire, j'suis ton prince charmant j'te ramène en six point tres La street fait de nous des troubles fêtes courtois, toutefois Je me demande encore pourquoi tu me crois fou, loka je suis juste fou d'toi J'ai les mains faites pour l'or donc elles sont faites pour toi Vas y rend moi loko ma loka-lo, rend moi loko ma loka-lo, rend moi loko ma loka loka, danse pour Mister Vida Loca You might also like Rend moi loko ma loka-lo, rend moi loko ma loka-lo Rend moi loko ma loka loka, danse pour Mister Vida Loca 5</t>
+          <t>Hip-hop se sél médicament nou ni Muni de ma kalash prémédite le murder Ma jolie t'as les yeux de la même couleur que ma money Mais j'n'ai pas le compte en banque à Birdman Tu te donnes en deux minutes si je sors le bolide J'ai le dos tourné mais je sais que tu me regardes J't'emmène à l'Holiday Inn, goûte à mon insomnie Le lendemain j'monte avec mes potes à me-Da J'arrive dans l'carré vip all eyes on me, j'lève mon verre à mes amours et mes ennemis Je ne dormirai pas cette nuit, je ne, je ne, je ne dormirai pas cette nuit J'voulais viser la lune avant de monter la colline, j'fais ma route comme un homme j'me fout qu'les gens parlent Indépendant j'parie solo carré d'Hayce all in ouvre le champagne Gangsta fier, ce soir j'me fiche de c'qu'il me reste à faire J'irai jusqu'au bout d'la nuit jusqu'au bout d'la Terre Ce soir j'me fiche de c'qu'il me reste à faire, ce soir je vis Mes lokas sont coquettes le videur est sous cocain, elles enflamment la piste Tant que les bikos payent, puis-je t'offrir un cocktail ? Zina arrache ton phone-tel, je te prendrais comme telle, comme t'aimes tu seras dans mon top ten Pas d'balade en hélicoptère, laissons brûler le feu de la passion rien n'presse No stress, j'laisserai pas les autres bikos t'plaire, j'suis ton prince charmant j'te ramène en six point tres La street fait de nous des troubles fêtes courtois, toutefois Je me demande encore pourquoi tu me crois fou, loka je suis juste fou d'toi J'ai les mains faites pour l'or donc elles sont faites pour toi Vas y rend moi loko ma loka-lo, rend moi loko ma loka-lo, rend moi loko ma loka loka, danse pour Mister Vida Loca Rend moi loko ma loka-lo, rend moi loko ma loka-lo Rend moi loko ma loka loka, danse pour Mister Vida Loca 5</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>- Les gens qui me voient depuis toujours et qui sont de mon côté, ils s'sentent en sécurité, parce qu'ils savent que j'suis là. Par contre les gens qui sont de l'autre côté, ils sont partagés, mais ils savent que j'suis pas loin... alors ils ont beaucoup plus peur de moi - Il vaut mieux être craint ou être aimé ? - Moi si j'avais le choix... j'préférerais qu'on me craigne Mes lokos, mes lokas, ma force le 4 Novembre Ça rêve de casse, place Vendôme en Rolls Royce concrètement Ça termine au parloir fantôme vêtu de tes plus beaux vêtements C'est l'Viêtnam dans nos boites crâniennes, on veut l'or que portent les monarques Une femme chaste comme Jeanne qui refuse de s'cambrer comme un arc Petite sur ait confiance en moi Vaut mieux rater ton premier baiser que t'faire baiser par un raté ta première fois Toi qui m'boycottes, penses-tu que les rumeurs mensongères me blessent ? Elles sont comme les vagues de la mer, elles meurent aussi vite qu'elles naissent Le game a de l'herpès, j'me retrouve seul face à la mélodie J'connais ma chance, pense à ceux qui s'retrouvent seuls face à la maladie C'est plus du rap c'est des coups d'couteaux Les maisons de disques demandent Qui est ce putain d'biko ? Discret comme un litron dans une Fiat Punto Plaire à tout le monde c'est plaire à n'importe quelle puto On met des ris-sou devant le bar tabac Samedi soir, même Picsou peut péter son Balthazar Pas d'hasard sur mon XV Barbare Les daronnes glossées qui délaissent leurs gosses pour aller boire au bar Les loss-bo qui s'font ber-bar à chaque fois qu'ils vont pper-cho Ignorent que l'patron du four s'fait michtonner par un pincho Un penchant pour l'argent sale et la hchicha J'suis pas d'ces faux bikos qui passent leur vie sur internet ou dans les chichas Chie d'la fraîche ou garde la pêche, reste en chien dans la vie d'débauche Biko j'sors de la file de gauche, j'les enterre à la pelle de guesh Wesh c'est aud-ch, t'as du cash tout le monde te parle gentiment Passe de la richesse à la hess tu sauras rapidement qui ment Comment nos parents s'cassent le dos depuis 20 piges ? Pour un pays qui subit moins de dégâts qu'il n'en inflige On vend du rêve aux portes du cauchemar Marre d'errer dans c'monde comme une traînée dans un monde sans trottoir ah ouais J'suis pas venu faire du mal, mais biko j'ai la dalle J'suis tellement loin d'avoir une baraque à Miami J'voulais pas faire de mal, j'te jure Aussi sûr qu'on peut pas rester dans la ue-r sans faire de maille ah ouais Les petits s'cachent pour fumer, on s'cache pour pleurer Les petites s'cachent pour filer dans un hôtel s'faire fourrer C'est dingue dingue dingue, c'est le petit berbère-bère Du XV Barbare-bare-bare, donc ça fait bang bang bang J'suis venu montrer d'quoi j'suis capable Celui qui veut séparer va s'manger des patates Qui stoppera Hayce Lem16 ? J'roule un énième teh' d'amné chargé comme un AA-Twelve J'ai encore des choses à apprendre Certes, j'ai aussi une revanche à prendre Mon bled à 1000 lieues, j'suis pas venu faire l'mec mignon Moi j'veux pas juste le milieu, non non, j'veux juste le million Minot j'étais prêt du radiateur impliqué dans de drôles de deals Petit, j'veux pas être admiré ni même en être digne Que-ti, on fout les balances à la fosse sceptique Grosse équipe gros gamos, gros boloss tu vas crosser qui ? Je suis trop technique c'est iné, les descentes et les courses poursuites Avec Ino c'était hella jusqu'à ce que... bref, tu connais la suite Essuie ces larmes sur tes joues, j'ai honte pour ta mère Qui vit dans la peur, compte ses jours, crèvera seule dans sa tanière Allez prévenir le taulier qui s'étonne pas que je le monte en l'air Je vais tous les rafaler kalashnikov gée-char sous le polaire Y'a le bitume pour m'épauler, dites a François qu'il pue sa mère Qu'on a besoin d'un peu d'air, de réponse pas juste d'un peut-être Je fume de l'herbe chimique, je fais le tour de la Terre j'suis libre Algérien je reste solide, au front quand la guerre se livre Dans nos yeux la haine se lit, celui qui perd ses couilles on le persécute Belzébuth veut que mes verres se décuplent, que je perce des culs Sagittaire et trop nerveux pour s'assagir On prend la route en solitaire, 3.5.7 côté passager Le 4 Novembre, biko, Electron Libre, détaché du noyau, XV Barbare You might also like J'arrive dans le rap game c'est moi qui commande c'est toi qui commente Retiens bien cette date le 4 novembre, le 4 novembre Mes lokos disent que t'es mort avant la pré-commande Haha, bitch, okay, okay Est-ce que les hommes naissent libres et égaux en droits ?, le 11-43 te donne la réponse hombre Ça se termine au mauvais moment au mauvais endroit, les plus envieux demandent à voir les Frères Lumière sombrer Mon adolescence sans blé dans l'insalubrité, j'ai découvert la musique et m'y suis abrité Je signe des tofs, des autographes everyday, je marche à Paname salope suce ma putain de célébritey J'ai ce flow débridé, je vais niquer l'industrie, les an-iencs' en freestyle qui sont tendus du string C'est la street qu'a fait de nous des rappeurs bâtard et pas le pe-ra qui nous a rendu street J'ai toujours été trop strict, avec ma personne, je suis le roi de la clé de sol mais nul ne m'a couronné J'ai toujours été trop speed, nul ne m'impressionne, j'ai confiance en personne je préfère m'auto-parrainer C'est le biko de Paris Nord, au top, je suis bon qu'a rapper des vérités que la plupart ignorent Verres fumés, monture en or, hold up, je pense a mes lokos déchus sous le regard des miradors Paris la nuit c'est hardcore, oh girl, ici personne te fera l'amour tu vas souffrir à mort Te demandes pas quel plavon mes frères élaborent, trop de cl'Hayce quand je p'Hayce les rapports en raptor Dans la zone que des lokos sans foi ni loi, je peux freestyler pendant 1000 mois Moi partir avec le tiroir caisse mon ego fissure ton miroir Aïe, tu sors une mixtape espèce de hatai ? J'ai des millions de rimes de té-co de quoi foutre le rap français sur la paille Allô, Pét'Hayce, t'es où ? J'suis au, tel-ho, débarque, dans la, minute Demande a Youdier ou Kipsta si tes copines font des tminiks Money money money munîtes mini dans la mini mani Un attentat dans le game rengainez si je dégaine, les rappeurs sont mimis Commissions rogatoire, interpellation, interrogatoire avant la prolongation Le bruit des clés du mitard, l'odeur du placard, à cogiter dans le noir aux arrivants sous pression J'en ai giflé des bâtards, je suis né sur ma terre mère, j'ai grandi sous loubia kalb el louz et quatre-quarts Aujourd'hui j'ai des papelards, 10 chiennes à ma table, 10 bouteilles de champaign comme un joueur du Qatar Le XV Barbare sait de quoi j'suis capable, ils m'ont dit Lemsi loko fais leur sauter l'caisson Va clipper dans ton tier-quar' espèce de poucave, à Paname on veut pas d'toi retourne en rééducation C'est le chant des cassos qui rend fou l'éducateur, en garde-à-v' 4 heures, en vérification Je me farci des bastos, je suis un vainqueur mes bikos passent au 20H a cause d'écailles de poisson Flow fruit de la passion, je fais que passer, je vois les ennemis s'entasser dans mon chant de vision Venu les déclasser, les empêcher de brasser, c'est pas le même vécu pas la même interprétation Que des vaillants dans ma lignée et pas de faux bikos bitch, la vengeance t'allumera devant le comico brrr Aucun producteur j'me suis fais solo bitch, je suis un homme d'affaire avec un micro brrr brrr brrr J'entends SauveQuiPeut tu regrettes ta traîtrise une fois qu'il pleut Me raconte pas de pipos, puto je t'envoies le tipeu du tipeu du tipeu de mon tipeu Ce quartier nous rend fou donc on y a mit le feu, des familles entassées dans des hôtels miteux Dites aux maisons de disques que je rêve de grosses sommes, je veux un contrat d'artiste à 300 000e Haha, ouais à 300 000e, je me fais même aguicher dans les quartiers chics elle a pas besoin de fric elle a besoin d'une queue Haha, ouais une putain de grosse queue, je fais la différence c'est la cadence qui me suit aucune dépendance je les baises avec ou sans joint de beuh' Hayce Lemsi, XV Barbare, bitch Ces bikos ne m'auront pas d'sitôt Ma pét'Hayce vient de Mexico New bitch, new flow L'Electron Libre est dans le game biko4</t>
+          <t>- Les gens qui me voient depuis toujours et qui sont de mon côté, ils s'sentent en sécurité, parce qu'ils savent que j'suis là. Par contre les gens qui sont de l'autre côté, ils sont partagés, mais ils savent que j'suis pas loin... alors ils ont beaucoup plus peur de moi - Il vaut mieux être craint ou être aimé ? - Moi si j'avais le choix... j'préférerais qu'on me craigne Mes lokos, mes lokas, ma force le 4 Novembre Ça rêve de casse, place Vendôme en Rolls Royce concrètement Ça termine au parloir fantôme vêtu de tes plus beaux vêtements C'est l'Viêtnam dans nos boites crâniennes, on veut l'or que portent les monarques Une femme chaste comme Jeanne qui refuse de s'cambrer comme un arc Petite sur ait confiance en moi Vaut mieux rater ton premier baiser que t'faire baiser par un raté ta première fois Toi qui m'boycottes, penses-tu que les rumeurs mensongères me blessent ? Elles sont comme les vagues de la mer, elles meurent aussi vite qu'elles naissent Le game a de l'herpès, j'me retrouve seul face à la mélodie J'connais ma chance, pense à ceux qui s'retrouvent seuls face à la maladie C'est plus du rap c'est des coups d'couteaux Les maisons de disques demandent Qui est ce putain d'biko ? Discret comme un litron dans une Fiat Punto Plaire à tout le monde c'est plaire à n'importe quelle puto On met des ris-sou devant le bar tabac Samedi soir, même Picsou peut péter son Balthazar Pas d'hasard sur mon XV Barbare Les daronnes glossées qui délaissent leurs gosses pour aller boire au bar Les loss-bo qui s'font ber-bar à chaque fois qu'ils vont pper-cho Ignorent que l'patron du four s'fait michtonner par un pincho Un penchant pour l'argent sale et la hchicha J'suis pas d'ces faux bikos qui passent leur vie sur internet ou dans les chichas Chie d'la fraîche ou garde la pêche, reste en chien dans la vie d'débauche Biko j'sors de la file de gauche, j'les enterre à la pelle de guesh Wesh c'est aud-ch, t'as du cash tout le monde te parle gentiment Passe de la richesse à la hess tu sauras rapidement qui ment Comment nos parents s'cassent le dos depuis 20 piges ? Pour un pays qui subit moins de dégâts qu'il n'en inflige On vend du rêve aux portes du cauchemar Marre d'errer dans c'monde comme une traînée dans un monde sans trottoir ah ouais J'suis pas venu faire du mal, mais biko j'ai la dalle J'suis tellement loin d'avoir une baraque à Miami J'voulais pas faire de mal, j'te jure Aussi sûr qu'on peut pas rester dans la ue-r sans faire de maille ah ouais Les petits s'cachent pour fumer, on s'cache pour pleurer Les petites s'cachent pour filer dans un hôtel s'faire fourrer C'est dingue dingue dingue, c'est le petit berbère-bère Du XV Barbare-bare-bare, donc ça fait bang bang bang J'suis venu montrer d'quoi j'suis capable Celui qui veut séparer va s'manger des patates Qui stoppera Hayce Lem16 ? J'roule un énième teh' d'amné chargé comme un AA-Twelve J'ai encore des choses à apprendre Certes, j'ai aussi une revanche à prendre Mon bled à 1000 lieues, j'suis pas venu faire l'mec mignon Moi j'veux pas juste le milieu, non non, j'veux juste le million Minot j'étais prêt du radiateur impliqué dans de drôles de deals Petit, j'veux pas être admiré ni même en être digne Que-ti, on fout les balances à la fosse sceptique Grosse équipe gros gamos, gros boloss tu vas crosser qui ? Je suis trop technique c'est iné, les descentes et les courses poursuites Avec Ino c'était hella jusqu'à ce que... bref, tu connais la suite Essuie ces larmes sur tes joues, j'ai honte pour ta mère Qui vit dans la peur, compte ses jours, crèvera seule dans sa tanière Allez prévenir le taulier qui s'étonne pas que je le monte en l'air Je vais tous les rafaler kalashnikov gée-char sous le polaire Y'a le bitume pour m'épauler, dites a François qu'il pue sa mère Qu'on a besoin d'un peu d'air, de réponse pas juste d'un peut-être Je fume de l'herbe chimique, je fais le tour de la Terre j'suis libre Algérien je reste solide, au front quand la guerre se livre Dans nos yeux la haine se lit, celui qui perd ses couilles on le persécute Belzébuth veut que mes verres se décuplent, que je perce des culs Sagittaire et trop nerveux pour s'assagir On prend la route en solitaire, 3.5.7 côté passager Le 4 Novembre, biko, Electron Libre, détaché du noyau, XV Barbare J'arrive dans le rap game c'est moi qui commande c'est toi qui commente Retiens bien cette date le 4 novembre, le 4 novembre Mes lokos disent que t'es mort avant la pré-commande Haha, bitch, okay, okay Est-ce que les hommes naissent libres et égaux en droits ?, le 11-43 te donne la réponse hombre Ça se termine au mauvais moment au mauvais endroit, les plus envieux demandent à voir les Frères Lumière sombrer Mon adolescence sans blé dans l'insalubrité, j'ai découvert la musique et m'y suis abrité Je signe des tofs, des autographes everyday, je marche à Paname salope suce ma putain de célébritey J'ai ce flow débridé, je vais niquer l'industrie, les an-iencs' en freestyle qui sont tendus du string C'est la street qu'a fait de nous des rappeurs bâtard et pas le pe-ra qui nous a rendu street J'ai toujours été trop strict, avec ma personne, je suis le roi de la clé de sol mais nul ne m'a couronné J'ai toujours été trop speed, nul ne m'impressionne, j'ai confiance en personne je préfère m'auto-parrainer C'est le biko de Paris Nord, au top, je suis bon qu'a rapper des vérités que la plupart ignorent Verres fumés, monture en or, hold up, je pense a mes lokos déchus sous le regard des miradors Paris la nuit c'est hardcore, oh girl, ici personne te fera l'amour tu vas souffrir à mort Te demandes pas quel plavon mes frères élaborent, trop de cl'Hayce quand je p'Hayce les rapports en raptor Dans la zone que des lokos sans foi ni loi, je peux freestyler pendant 1000 mois Moi partir avec le tiroir caisse mon ego fissure ton miroir Aïe, tu sors une mixtape espèce de hatai ? J'ai des millions de rimes de té-co de quoi foutre le rap français sur la paille Allô, Pét'Hayce, t'es où ? J'suis au, tel-ho, débarque, dans la, minute Demande a Youdier ou Kipsta si tes copines font des tminiks Money money money munîtes mini dans la mini mani Un attentat dans le game rengainez si je dégaine, les rappeurs sont mimis Commissions rogatoire, interpellation, interrogatoire avant la prolongation Le bruit des clés du mitard, l'odeur du placard, à cogiter dans le noir aux arrivants sous pression J'en ai giflé des bâtards, je suis né sur ma terre mère, j'ai grandi sous loubia kalb el louz et quatre-quarts Aujourd'hui j'ai des papelards, 10 chiennes à ma table, 10 bouteilles de champaign comme un joueur du Qatar Le XV Barbare sait de quoi j'suis capable, ils m'ont dit Lemsi loko fais leur sauter l'caisson Va clipper dans ton tier-quar' espèce de poucave, à Paname on veut pas d'toi retourne en rééducation C'est le chant des cassos qui rend fou l'éducateur, en garde-à-v' 4 heures, en vérification Je me farci des bastos, je suis un vainqueur mes bikos passent au 20H a cause d'écailles de poisson Flow fruit de la passion, je fais que passer, je vois les ennemis s'entasser dans mon chant de vision Venu les déclasser, les empêcher de brasser, c'est pas le même vécu pas la même interprétation Que des vaillants dans ma lignée et pas de faux bikos bitch, la vengeance t'allumera devant le comico brrr Aucun producteur j'me suis fais solo bitch, je suis un homme d'affaire avec un micro brrr brrr brrr J'entends SauveQuiPeut tu regrettes ta traîtrise une fois qu'il pleut Me raconte pas de pipos, puto je t'envoies le tipeu du tipeu du tipeu de mon tipeu Ce quartier nous rend fou donc on y a mit le feu, des familles entassées dans des hôtels miteux Dites aux maisons de disques que je rêve de grosses sommes, je veux un contrat d'artiste à 300 000e Haha, ouais à 300 000e, je me fais même aguicher dans les quartiers chics elle a pas besoin de fric elle a besoin d'une queue Haha, ouais une putain de grosse queue, je fais la différence c'est la cadence qui me suit aucune dépendance je les baises avec ou sans joint de beuh' Hayce Lemsi, XV Barbare, bitch Ces bikos ne m'auront pas d'sitôt Ma pét'Hayce vient de Mexico New bitch, new flow L'Electron Libre est dans le game biko4</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Depuis tout petit je m'endors sous les gyrophares, les menaces et les cris d'la BAC Ma chérie je veux t'épouser mais ton amour variera selon le prix d'la bague Gucci, caramel, beurre salé, j'arrive avec une kah maquillée comme un meurtre J'me frotte les yeuz, car j'suis persuadé d'avoir vu la faucheuse habillée comme un keuf Mon petit, dans la vie, personne parle avec toi si t'as pas un euro, mais si tu deviens riche tout le monde parle avec toi même si t'es repoussant, qu't'as pas un neurone Mes lokas font la mala jusqu'au crépuscule, mes lokos ne sont plus d'humeur à faire la fête Un moment de lucidité dans le vestibule, eurêka les idées se bousculent dans ma tête Eurêka les idées se bousculent dans ma tête, nul ne peut m'empêcher d'crier Tahia Djaz Moi j'ai trouvé l'inspi sur un air de Jazz, et j'ai vomis la vérité sur ma paire de J's Que des gangst, dans mon binks, amné selhalalalala Merco-Benz, paire de J's, dégradé sous le bandana Nouveaux textes, en averse, flow de kalalalalala Un lap dance, dans la pièce, avant de péter le Havana Que des gangst, dans mon binks, amné selhalalalala Merco-Benz, paire de J's, dégradé sous le bandana Nouveaux textes, en averse, flow de kalalalalala Un lap dance, dans la pièce, avant de péter le Havana J'essaye de tuer l'temps, mais le temps me tue J'veux me faire la belle, au ballon j'ai le sang qui bout J'suis le biko, le bouc émissaire ou la tête de Turc Milli milli, met la cagoule et les gants, clic boum Perd la raison, mais pas perd les eaux Marginalisé, toujours à l'inverse des ordres, et tu recherches le bonheur à travers les autres, retrace l'histoire à travers les Hommes Dans ma zone ça s'pique. Intraveineuse, on vient de Paname intramuros et le crack fustige Apprécie mon dernier récit vénéneux, je reste dans ma nébuleuse pendant qu'tu jactes pour tchi, abruti J'suis le rebeu dans la soute, va dire à la concu' j'arrive comme un cheveux dans la soupe J'envoie le lasso, je bédave dans la promenade avec mes lokos de la source à Orlin's You might also like Que des gangst, dans mon binks, amné selhalalalala Merco-Benz, paire de J's, dégradé sous le bandana Nouveaux textes, en averse, flow de kalalalalala Un lap dance, dans la pièce, avant de péter le Havana Que des gangst, dans mon binks, amné selhalalalala Merco-Benz, paire de J's, dégradé sous le bandana Nouveaux textes, en averse, flow de kalalalalala Un lap dance, dans la pièce, avant de péter le Havana Que des gangst, dans mon binks Que, que des gangst, dans mon binks Que des gangst, dans mon binks, amné selhalalalala Merco-Benz, paire de J's, dégradé sous le bandana Nouveaux textes, en averse, flow de kalalalalala Un lap dance, dans la pièce, avant de péter le Havana Que des gangst, dans mon binks, amné selhalalalala Merco-Benz, paire de J's, dégradé sous le bandana Nouveaux textes, en averse, flow de kalalalalala Un lap dance, dans la pièce, avant de péter le Havana6</t>
+          <t>Depuis tout petit je m'endors sous les gyrophares, les menaces et les cris d'la BAC Ma chérie je veux t'épouser mais ton amour variera selon le prix d'la bague Gucci, caramel, beurre salé, j'arrive avec une kah maquillée comme un meurtre J'me frotte les yeuz, car j'suis persuadé d'avoir vu la faucheuse habillée comme un keuf Mon petit, dans la vie, personne parle avec toi si t'as pas un euro, mais si tu deviens riche tout le monde parle avec toi même si t'es repoussant, qu't'as pas un neurone Mes lokas font la mala jusqu'au crépuscule, mes lokos ne sont plus d'humeur à faire la fête Un moment de lucidité dans le vestibule, eurêka les idées se bousculent dans ma tête Eurêka les idées se bousculent dans ma tête, nul ne peut m'empêcher d'crier Tahia Djaz Moi j'ai trouvé l'inspi sur un air de Jazz, et j'ai vomis la vérité sur ma paire de J's Que des gangst, dans mon binks, amné selhalalalala Merco-Benz, paire de J's, dégradé sous le bandana Nouveaux textes, en averse, flow de kalalalalala Un lap dance, dans la pièce, avant de péter le Havana Que des gangst, dans mon binks, amné selhalalalala Merco-Benz, paire de J's, dégradé sous le bandana Nouveaux textes, en averse, flow de kalalalalala Un lap dance, dans la pièce, avant de péter le Havana J'essaye de tuer l'temps, mais le temps me tue J'veux me faire la belle, au ballon j'ai le sang qui bout J'suis le biko, le bouc émissaire ou la tête de Turc Milli milli, met la cagoule et les gants, clic boum Perd la raison, mais pas perd les eaux Marginalisé, toujours à l'inverse des ordres, et tu recherches le bonheur à travers les autres, retrace l'histoire à travers les Hommes Dans ma zone ça s'pique. Intraveineuse, on vient de Paname intramuros et le crack fustige Apprécie mon dernier récit vénéneux, je reste dans ma nébuleuse pendant qu'tu jactes pour tchi, abruti J'suis le rebeu dans la soute, va dire à la concu' j'arrive comme un cheveux dans la soupe J'envoie le lasso, je bédave dans la promenade avec mes lokos de la source à Orlin's Que des gangst, dans mon binks, amné selhalalalala Merco-Benz, paire de J's, dégradé sous le bandana Nouveaux textes, en averse, flow de kalalalalala Un lap dance, dans la pièce, avant de péter le Havana Que des gangst, dans mon binks, amné selhalalalala Merco-Benz, paire de J's, dégradé sous le bandana Nouveaux textes, en averse, flow de kalalalalala Un lap dance, dans la pièce, avant de péter le Havana Que des gangst, dans mon binks Que, que des gangst, dans mon binks Que des gangst, dans mon binks, amné selhalalalala Merco-Benz, paire de J's, dégradé sous le bandana Nouveaux textes, en averse, flow de kalalalalala Un lap dance, dans la pièce, avant de péter le Havana Que des gangst, dans mon binks, amné selhalalalala Merco-Benz, paire de J's, dégradé sous le bandana Nouveaux textes, en averse, flow de kalalalalala Un lap dance, dans la pièce, avant de péter le Havana6</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>J'ai sorti cette Ferrari pour pécher des grosses folles J'ai le dernier maillot d'Algérie J'roule ma weed, la dose est forte Prends mon numéro d'chambre ma chérie J'veux pas ton numéro de téléphone Paris, Lyon, Massilia, Nice Fréjus, Montpellier, Carcassonne En buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, grosse folle J'ai bicrave mes premiers grammes à mon voisin il aimait trop ma came Ta mère c'est ma pute mais devant toi je l'appelle madame On est rentré cinq cent fois en marche arrière au Madam's J'ai les dents cassées elles ont frotté le macadam J'ai de l'argent, j'ai une arme Je ne vais pas trop à la salle Complètement déchiré au volant Mon ami ne s'appelle pas Sam Non je te déclare pas ma flamme Non je te déclare pas ma flamme Deux, trois verres c'est la guerre à ta santé à ta réussite mon frère T'es une langue de pute j'te fais pas fumer sur mon teh Je porte trous de boulette sur ma veste Moncler Ton rappeur je l'enterre, ton rappeur je l'enterre Ma pétasse est delicious elle a le gout du champagne, elle a le gout du Dom Per' Sur la tête de mon père, je calcul pas ta cagette Je tire deux barres sur mon teh, je claque 10 balles sur la croisette Je suis dans la golf avec Volts, jécoute les punchlines de Temps Mort en cassette Jai les deux pieds devant le D, je suis dans la surface comme Lacazette You might also like J'ai sorti cette Ferrari pour pécher des grosses folles J'ai le dernier maillot d'Algérie J'roule ma weed, la dose est forte Prends mon numéro d'chambre ma chérie J'veux pas ton numéro de téléphone Paris, Lyon, Massilia, Nice Fréjus, Montpellier, Carcassonne En buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, grosse folle Espèce de bâtard Toi tu veux des flows vas-y j'te les donne Pourquoi tu fais la star Crois-moi t'es pas assez bonne pour être conne J'rappe depuis des années C'est pas des rappeurs c'est tous des acteurs Ils parlent de Tar-pé, ils ont qu'des iPhone C'est pour ça des fois ils te parlent de chargeurs Le game se noie dans sa merde Le public mappelle le maitre-nageur J'emmerde le monde J'avais déjà mon troisième doigts levé bien avant d'être majeur Hooss et les frères lumières Tu veux la guerre, faut la faire On te soulève comme une haltère Ou bien comme une bastos qu'a pas de frère J'ai pas choisi ma life les gens m'ont rendu malade J'suis dans l'game j'me balade Appelle-moi Saitama, j'suis paname J'suis avec Hooss enchanté On a les deux pieds devant le D Tu nous vois taper la mélo' Mais crois-moi qu'on peut te gifler sans chanter Et j'rappe depuis le berceau je vois toutes ces meufs qui m'harcèle Tu crois contrôler le rap game Tu m'arrive aux pompes comme tonton Marcel J'suis avec Hooss enchanté On a les deux pieds devant le D Tu ne vois taper la mé-lo Mais crois-moi qu'on peut te gifler sans chanter J'ai sorti cette Ferrari pour pécher des grosses folles J'ai le dernier maillot d'Algérie J'roule ma weed, la dose est forte Prends mon numéro d'chambre ma chérie J'veux pas ton numéro de téléphone Paris, Lyon, Massilia, Nice Fréjus, Montpellier, Carcassonne En buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, grosse folle Les pieds devant le D je perds mon temps J'regarde pécheur faire des burns en McLaren au milieu du rond point Je reprends les devants, je me demande si la concurrence à le boule assez large pour encaisser mon poing Hmm Boug an mwen Je sors de gard'av et je retourne buter sur le terrain Young pussy bitch On a dégainé les guns quand on avait dégun J'suis en buvette au fond au cabaret J'bouge les bras fi khatar j'ai le swag Reda Taliani J'ai le mental Savastano sur Paris c'est la Gomorra Shab la tchichi shab l'Italie la classe Biko j'ai lalligator sur le polo J'passe les rapports sur la corniche Arigato cabron, j'ramasse le pactole T'as bu la Maximator T'es tout pale oh pelo Mais t'es la tu joue les Capone J'ai ce qu'il faut dans la sacoche Amnésia, lamelles de bon shit, parachute de selha J'arrive chez elle éméché Elle accueille big Lemsi avec une big lehsa bitch Avant que je te casse ta gueule A l'entrée du hanout, ramène mes papiers dollars, dollars On rigole des poucaves devant le D Ta meuf elle sent l'hout espèce de bavier1</t>
+          <t>J'ai sorti cette Ferrari pour pécher des grosses folles J'ai le dernier maillot d'Algérie J'roule ma weed, la dose est forte Prends mon numéro d'chambre ma chérie J'veux pas ton numéro de téléphone Paris, Lyon, Massilia, Nice Fréjus, Montpellier, Carcassonne En buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, grosse folle J'ai bicrave mes premiers grammes à mon voisin il aimait trop ma came Ta mère c'est ma pute mais devant toi je l'appelle madame On est rentré cinq cent fois en marche arrière au Madam's J'ai les dents cassées elles ont frotté le macadam J'ai de l'argent, j'ai une arme Je ne vais pas trop à la salle Complètement déchiré au volant Mon ami ne s'appelle pas Sam Non je te déclare pas ma flamme Non je te déclare pas ma flamme Deux, trois verres c'est la guerre à ta santé à ta réussite mon frère T'es une langue de pute j'te fais pas fumer sur mon teh Je porte trous de boulette sur ma veste Moncler Ton rappeur je l'enterre, ton rappeur je l'enterre Ma pétasse est delicious elle a le gout du champagne, elle a le gout du Dom Per' Sur la tête de mon père, je calcul pas ta cagette Je tire deux barres sur mon teh, je claque 10 balles sur la croisette Je suis dans la golf avec Volts, jécoute les punchlines de Temps Mort en cassette Jai les deux pieds devant le D, je suis dans la surface comme Lacazette J'ai sorti cette Ferrari pour pécher des grosses folles J'ai le dernier maillot d'Algérie J'roule ma weed, la dose est forte Prends mon numéro d'chambre ma chérie J'veux pas ton numéro de téléphone Paris, Lyon, Massilia, Nice Fréjus, Montpellier, Carcassonne En buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, grosse folle Espèce de bâtard Toi tu veux des flows vas-y j'te les donne Pourquoi tu fais la star Crois-moi t'es pas assez bonne pour être conne J'rappe depuis des années C'est pas des rappeurs c'est tous des acteurs Ils parlent de Tar-pé, ils ont qu'des iPhone C'est pour ça des fois ils te parlent de chargeurs Le game se noie dans sa merde Le public mappelle le maitre-nageur J'emmerde le monde J'avais déjà mon troisième doigts levé bien avant d'être majeur Hooss et les frères lumières Tu veux la guerre, faut la faire On te soulève comme une haltère Ou bien comme une bastos qu'a pas de frère J'ai pas choisi ma life les gens m'ont rendu malade J'suis dans l'game j'me balade Appelle-moi Saitama, j'suis paname J'suis avec Hooss enchanté On a les deux pieds devant le D Tu nous vois taper la mélo' Mais crois-moi qu'on peut te gifler sans chanter Et j'rappe depuis le berceau je vois toutes ces meufs qui m'harcèle Tu crois contrôler le rap game Tu m'arrive aux pompes comme tonton Marcel J'suis avec Hooss enchanté On a les deux pieds devant le D Tu ne vois taper la mé-lo Mais crois-moi qu'on peut te gifler sans chanter J'ai sorti cette Ferrari pour pécher des grosses folles J'ai le dernier maillot d'Algérie J'roule ma weed, la dose est forte Prends mon numéro d'chambre ma chérie J'veux pas ton numéro de téléphone Paris, Lyon, Massilia, Nice Fréjus, Montpellier, Carcassonne En buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, en buvette sur la corniche Grosse folle, grosse folle Les pieds devant le D je perds mon temps J'regarde pécheur faire des burns en McLaren au milieu du rond point Je reprends les devants, je me demande si la concurrence à le boule assez large pour encaisser mon poing Hmm Boug an mwen Je sors de gard'av et je retourne buter sur le terrain Young pussy bitch On a dégainé les guns quand on avait dégun J'suis en buvette au fond au cabaret J'bouge les bras fi khatar j'ai le swag Reda Taliani J'ai le mental Savastano sur Paris c'est la Gomorra Shab la tchichi shab l'Italie la classe Biko j'ai lalligator sur le polo J'passe les rapports sur la corniche Arigato cabron, j'ramasse le pactole T'as bu la Maximator T'es tout pale oh pelo Mais t'es la tu joue les Capone J'ai ce qu'il faut dans la sacoche Amnésia, lamelles de bon shit, parachute de selha J'arrive chez elle éméché Elle accueille big Lemsi avec une big lehsa bitch Avant que je te casse ta gueule A l'entrée du hanout, ramène mes papiers dollars, dollars On rigole des poucaves devant le D Ta meuf elle sent l'hout espèce de bavier1</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C'est L'Insomniak, en cernes et en seize J'transpire des vers j'pleure des proses, fleurs à titre posthume j'dépose Sur la tombe d'Azzedine, qu'en paix il repose, aujourd'hui c'est pour lui qu'j'explose À toi qui rêves de me voir l'ventre ouvert, y'a qu'Dieu qui peut marrêter j'viens d'loin J'suis le jaguar au creux des branches entrouvertes, La Fourche, La Tour, La J, Porte Saint-Ouen Ça fout les nerfs d'entendre c'que dit le proc', ça fout la merde une poule entre deux coqs Les problèmes viennent pas seuls comme le chef de poste, plie l'rap game et achève le boss Soupire un nuage de seum dans les stages, que des punchlines sales depuis qu'j'suis gosse Ma gueule il est temps d'sortir le S-Line, sans enfermer les siens à la Rick Ross Tellement de hargne shité sous l'chapiteau, j'suis né dans le sable j'vais bâtir un château Sache qu'une once d'insolence suffit, pour te monter en l'air sur le champ bico Pris par l'insomnie car le jour me nuit, car je pense à mon daron dans les hopitaux Murmures aux pieds du lit 6 mois qu'j'ai pas dormi, j'vagabonde dans les rues du siete cinco C'est la sère-mi moi j'ai pas la belle gueule, j'suis habile et gue-din j'suis la balle et j'suis le gun Bico, de battre mon coeur s'est arrêté, j'avoue j'ai souvent du mal à contrôler mon orgueil Mon regard en dit long derrière ma re-pai, c't'année y'a du pain sur la planche de cercueil Mélanine hâlée mal, aimé mal, vu mal, flairé, chante la rue sur un rythme effréné, j'ai l'seum Biko, j'suis mal Ahou !, mes mots témoignent Ahou ! Du manque de maille, les menottes me serrent les poignets Ahou ! De la street au bagne Ahou !, de La Fourche à L'Allée Ahou ! Tout le monde est die, tout le monde rêve de s'en aller Ahou ! Biko, j'suis mal Ahou !, mes mots témoignent Ahou ! Du manque de maille, les menottes me serrent les poignets Ahou ! De la street au bagne Ahou !, de La Fourche à L'Allée Ahou ! Tout le monde est die, tout le monde rêve de s'en aller Ahou ! You might also like Jusqu'au dernier souffle y'a d'l'espoir, peut-être qu'un jour tu connaîtras mon histoire De mon existence j'suis la star, à vaincre sans péril, j'triomphe sans gloire C'est bizarre mais chez nous les remords ne naissent pas, parce qu'on est loin du soleil des Tropiques Au fond de la Seine des corps de lances-ba, le peuple est loin d'avoir le sommeil tranquille Tous logés au bord de la déchéance, la justice boîte et la haine est aveugle Quitte à se noyer dans un bain de violence, dans les filets de la BAC on fait ap' nos aveux Tellement de galère à l'affilée que le temps, défile à la vitesse lumière dans une épaisse fumée L'destin prend des virages sans clignotant, j'me faufile par derrière tel un jeune furet Les dealers finissent pas tous aux Bahamas, de nos jours dur de vesqui les cops Mais je reste un leader à la Ferhat Abbas, même enfermé dans l'envers du décor Alors écoute ma théorie mothafuckin' asshole, les contentieux s'règlent à la batte de baseball Mère anxieuse peur qu'on mange une bastos, nostalgique j'pense à L'Arnak et l'S-Kro Regarde y'a du chiffre dans l'air bébé, dehors il pleut de la haine et des Sentiers du mal je déserte en vitesse, avant que l'Ange de la mort ne me donne RDV Les vautours ne veulent pas m'voir me relever, biko, la jalousie me répugne tant L'insomniaque n'a pas besoin de dormir pour rêver, donnez-moi la gloire je l'attends depuis si longtemps Biko, j'suis mal Ahou !, mes mots témoignent Ahou ! Du manque de maille, les menottes me serrent les poignets Ahou ! De la street au bagne Ahou !, de La Fourche à L'Allée Ahou ! Tout le monde est die, tout le monde rêve de s'en aller Ahou ! Biko, j'suis mal Ahou !, mes mots témoignent Ahou ! Du manque de maille, les menottes me serrent les poignets Ahou ! De la street au bagne Ahou !, de La Fourche à L'Allée Ahou ! Tout le monde est die, tout le monde rêve de s'en aller Ahou !13</t>
+          <t>C'est L'Insomniak, en cernes et en seize J'transpire des vers j'pleure des proses, fleurs à titre posthume j'dépose Sur la tombe d'Azzedine, qu'en paix il repose, aujourd'hui c'est pour lui qu'j'explose À toi qui rêves de me voir l'ventre ouvert, y'a qu'Dieu qui peut marrêter j'viens d'loin J'suis le jaguar au creux des branches entrouvertes, La Fourche, La Tour, La J, Porte Saint-Ouen Ça fout les nerfs d'entendre c'que dit le proc', ça fout la merde une poule entre deux coqs Les problèmes viennent pas seuls comme le chef de poste, plie l'rap game et achève le boss Soupire un nuage de seum dans les stages, que des punchlines sales depuis qu'j'suis gosse Ma gueule il est temps d'sortir le S-Line, sans enfermer les siens à la Rick Ross Tellement de hargne shité sous l'chapiteau, j'suis né dans le sable j'vais bâtir un château Sache qu'une once d'insolence suffit, pour te monter en l'air sur le champ bico Pris par l'insomnie car le jour me nuit, car je pense à mon daron dans les hopitaux Murmures aux pieds du lit 6 mois qu'j'ai pas dormi, j'vagabonde dans les rues du siete cinco C'est la sère-mi moi j'ai pas la belle gueule, j'suis habile et gue-din j'suis la balle et j'suis le gun Bico, de battre mon coeur s'est arrêté, j'avoue j'ai souvent du mal à contrôler mon orgueil Mon regard en dit long derrière ma re-pai, c't'année y'a du pain sur la planche de cercueil Mélanine hâlée mal, aimé mal, vu mal, flairé, chante la rue sur un rythme effréné, j'ai l'seum Biko, j'suis mal Ahou !, mes mots témoignent Ahou ! Du manque de maille, les menottes me serrent les poignets Ahou ! De la street au bagne Ahou !, de La Fourche à L'Allée Ahou ! Tout le monde est die, tout le monde rêve de s'en aller Ahou ! Biko, j'suis mal Ahou !, mes mots témoignent Ahou ! Du manque de maille, les menottes me serrent les poignets Ahou ! De la street au bagne Ahou !, de La Fourche à L'Allée Ahou ! Tout le monde est die, tout le monde rêve de s'en aller Ahou ! Jusqu'au dernier souffle y'a d'l'espoir, peut-être qu'un jour tu connaîtras mon histoire De mon existence j'suis la star, à vaincre sans péril, j'triomphe sans gloire C'est bizarre mais chez nous les remords ne naissent pas, parce qu'on est loin du soleil des Tropiques Au fond de la Seine des corps de lances-ba, le peuple est loin d'avoir le sommeil tranquille Tous logés au bord de la déchéance, la justice boîte et la haine est aveugle Quitte à se noyer dans un bain de violence, dans les filets de la BAC on fait ap' nos aveux Tellement de galère à l'affilée que le temps, défile à la vitesse lumière dans une épaisse fumée L'destin prend des virages sans clignotant, j'me faufile par derrière tel un jeune furet Les dealers finissent pas tous aux Bahamas, de nos jours dur de vesqui les cops Mais je reste un leader à la Ferhat Abbas, même enfermé dans l'envers du décor Alors écoute ma théorie mothafuckin' asshole, les contentieux s'règlent à la batte de baseball Mère anxieuse peur qu'on mange une bastos, nostalgique j'pense à L'Arnak et l'S-Kro Regarde y'a du chiffre dans l'air bébé, dehors il pleut de la haine et des Sentiers du mal je déserte en vitesse, avant que l'Ange de la mort ne me donne RDV Les vautours ne veulent pas m'voir me relever, biko, la jalousie me répugne tant L'insomniaque n'a pas besoin de dormir pour rêver, donnez-moi la gloire je l'attends depuis si longtemps Biko, j'suis mal Ahou !, mes mots témoignent Ahou ! Du manque de maille, les menottes me serrent les poignets Ahou ! De la street au bagne Ahou !, de La Fourche à L'Allée Ahou ! Tout le monde est die, tout le monde rêve de s'en aller Ahou ! Biko, j'suis mal Ahou !, mes mots témoignent Ahou ! Du manque de maille, les menottes me serrent les poignets Ahou ! De la street au bagne Ahou !, de La Fourche à L'Allée Ahou ! Tout le monde est die, tout le monde rêve de s'en aller Ahou !13</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ce rouge à lèvres te rajeunit, j'veux que tout l'week-end on reste au lit Malgré ça baby j'ai peur, tu me saoûles à la longue J't'ai dit que j'voulais t'faire des enfants, que t'étais la plus jolie Mais j'regrette ma chérie, j'aurais du retenir ma langue Alors j't'ai dit que t'étais mon bébé, t'aimes trop California, Féfé Je n'avais que de la sincérité, toi tu voulais dévaliser mon compte en banque Valentino, tu voulais ta paire, Michael Kors, tu voulais ta paire Chanel, Dior, tu voulais ta paire, baby, tu m'a laissé par terre Et là, Porsche, Féfé, Shangri-la, hôtel Je ne sais plus si tu m'aimes autant, je saigne Il faut laisser le temps au temps, je sais Moi qui voulais juste une deuxième chance, tu m'as dit Lemsi, je n'ai plus ton temps J'monterai plus jamais dans ta Porsche, c'est terminé Tu t'comportes encore comme un gosse, c'est terminé Quel que soit c'que t'as dans les poches, c'est terminé Tu goûteras plus jamais mon gloss, c'est terminé Pardonne-moi, ne me laisse pas solo, non, non, non Non, non, non, me laisse pas solo, non, non, non Pardonne-moi, ne me laisse pas solo, non, non, non Non, non, non, me laisse pas solo, non, non, non J'manque peut être de diplomatie, j'prends mes capotes à la pharmacie J'rentrerai dans la nuit si possible, t'es mon arme de destruction massive T'as l'sourire quand y'a des paillettes, on dine aux ombres, on dort au Hyatt Hyatt, Hyatt Est-ce que si demain j'mange la gamelle, je serai toujours ta mitraillette ? Bébé, j't'avoue t'avoir menti, mais j'veux m'stabiliser, m'repentir J'arrête tout c'qui touche au bédo, tout c'qui touche au bando J'te montre les mers avec les montagnes de billets violets que j'ai mis de té-cô Je t'aime, j'ai pas réalisé Que toutes ces locas ne peuvent pas rivaliser Tu m'empêches de dormir le soir, j'veux t'marier Moi qui voulais juste une deuxième chance, tu m'as dit Lemsi, je n'ai plus ton temps You might also like J'monterai plus jamais dans ta Porsche, c'est terminé Tu t'comportes encore comme un gosse, c'est terminé Quel que soit c'que t'as dans les poches, c'est terminé Tu goûteras plus jamais mon gloss, c'est terminé Pardonne-moi, ne me laisse pas solo, non, non, non Non, non, non, me laisse pas solo, non, non, non Pardonne-moi, ne me laisse pas solo, non, non, non Non, non, non, me laisse pas solo, non, non, non Oui, je n'ai plus ton temps, je ne monterai plus jamais dans ta Porsche Tu t'comportes encore comme un gosse Quel que soit c'que t'as dans les poches C'est terminé C'est terminé C'est terminé C'est terminé1</t>
+          <t>Ce rouge à lèvres te rajeunit, j'veux que tout l'week-end on reste au lit Malgré ça baby j'ai peur, tu me saoûles à la longue J't'ai dit que j'voulais t'faire des enfants, que t'étais la plus jolie Mais j'regrette ma chérie, j'aurais du retenir ma langue Alors j't'ai dit que t'étais mon bébé, t'aimes trop California, Féfé Je n'avais que de la sincérité, toi tu voulais dévaliser mon compte en banque Valentino, tu voulais ta paire, Michael Kors, tu voulais ta paire Chanel, Dior, tu voulais ta paire, baby, tu m'a laissé par terre Et là, Porsche, Féfé, Shangri-la, hôtel Je ne sais plus si tu m'aimes autant, je saigne Il faut laisser le temps au temps, je sais Moi qui voulais juste une deuxième chance, tu m'as dit Lemsi, je n'ai plus ton temps J'monterai plus jamais dans ta Porsche, c'est terminé Tu t'comportes encore comme un gosse, c'est terminé Quel que soit c'que t'as dans les poches, c'est terminé Tu goûteras plus jamais mon gloss, c'est terminé Pardonne-moi, ne me laisse pas solo, non, non, non Non, non, non, me laisse pas solo, non, non, non Pardonne-moi, ne me laisse pas solo, non, non, non Non, non, non, me laisse pas solo, non, non, non J'manque peut être de diplomatie, j'prends mes capotes à la pharmacie J'rentrerai dans la nuit si possible, t'es mon arme de destruction massive T'as l'sourire quand y'a des paillettes, on dine aux ombres, on dort au Hyatt Hyatt, Hyatt Est-ce que si demain j'mange la gamelle, je serai toujours ta mitraillette ? Bébé, j't'avoue t'avoir menti, mais j'veux m'stabiliser, m'repentir J'arrête tout c'qui touche au bédo, tout c'qui touche au bando J'te montre les mers avec les montagnes de billets violets que j'ai mis de té-cô Je t'aime, j'ai pas réalisé Que toutes ces locas ne peuvent pas rivaliser Tu m'empêches de dormir le soir, j'veux t'marier Moi qui voulais juste une deuxième chance, tu m'as dit Lemsi, je n'ai plus ton temps J'monterai plus jamais dans ta Porsche, c'est terminé Tu t'comportes encore comme un gosse, c'est terminé Quel que soit c'que t'as dans les poches, c'est terminé Tu goûteras plus jamais mon gloss, c'est terminé Pardonne-moi, ne me laisse pas solo, non, non, non Non, non, non, me laisse pas solo, non, non, non Pardonne-moi, ne me laisse pas solo, non, non, non Non, non, non, me laisse pas solo, non, non, non Oui, je n'ai plus ton temps, je ne monterai plus jamais dans ta Porsche Tu t'comportes encore comme un gosse Quel que soit c'que t'as dans les poches C'est terminé C'est terminé C'est terminé C'est terminé1</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Electron Libre XV Barbare La street m'a laissée des hématomes .. Est-ce que les hommes naissent libres et égaux en droits ? Le 11-43 te donne la réponse hombre Ça s'termine au mauvais moment au mauvais endroit, les plus envieux demandent à voir les Frères Lumière sombrer Mon adolescence sans blé dans l'insalubrité, j'ai découvert la musique et m'y suis abrité J'signe des tofs, des autographes everyday, j'marche à Paname salope suce ma putain de célébrité J'ai ce flow débridé, j'vais niquer l'industrie, les an-iencs' en freestyle qui sont tendus du string C'est la street qu'à fait de nous des rappeurs bâtaradé et pas le pe-ra qui nous a rendu street J'ai toujours été trop strict, avec ma personne, j'suis le roi de la clé de sol mais nul ne m'a couronné J'ai toujours été trop speed, nul ne m'impressionne, j'ai confiance en personne j'préfère m'auto-parrainer C'est le biko de Paris Nord, au top, j'suis bon qu'à rapper des vérités que la plupart ignorent Verres fumés, monture en or, hold up, j'pense a mes lokos déchus sous le regard des miradors Paris la nuit c'est hardcore, oh girl, aucun de mes bikos lokos ne t'appelera mi amor Te demandes pas quel plavon mes frères élaborent, trop de cl'Hayce quand je p'Hayce les rapports en raptor Dans la zone que des lokos sans foi ni loi, j'peux freestyler pendant 1000 mois Moi partir avec le tiroir caisse mon ego fissure ton miroir Aïe, tu sors une mixtape espèce de hatai ? J'ai des millions de rimes de té-co de quoi foutre le rap français sur la paille J'entends Hayce t'as du buzz tu grailles, à chacun d'tes freestyles tu grimpes Mais l'industrie du disque est en crise du calme, j'entends Hayce il est temps qu'tu trinques On s'tchek de l'épaule ou s'fait la bise du crâne, YZ savoure la brise du vent T'assumes pas l'business rien qu'tu brailles, veille sur mes arrières en allant vers l'avant La rue m'a laissée des hématomes La juge laisse un ultimatum, il est trop tard pour plomber la taupe Il est trop tard pour planquer la dope Petit l'horreur est humaine, tu n'aperçois plus le bout du tunnel Il te faudra bien plus qu'un atome Il te faudra bien plus qu'un atome de folie face à lil du magnum On vit sans foi ni loi dans la faune On vit sans foi ni loi dans la faune, la rue m'a laissée des hématomes, les frères que j'aime sont partis là-haut You might also like La mauvaise graine a germée, j'ai le cur mis en terre J'en pleure un frère que j'aimais, mes larmes font pousser les chrysanthèmes À mes frères ayant mal digéré, anorexique à cause de la prison ferme Et les meufs à la MAF le cur déchiré, sous anxiolytiques à défaut d'vivre un enfer À l'heure où j'parle chez nous ça tire, grands et petits frères s'activent Pour Versace, l'or et les saphirs, mais le procureur est versatile Personne ne bouge y'aura pas d'blessé, mon enfance la France m'a rabaissée Le mur du silence est en plexigl'Hayce, les poukis s'cachent au fond du PC J'laisse de la mélancolie via la MPC, j'viens d'Paris j'suis toujours pressé Biko t'as trop gâté cette pét'Hayce viens pas pleurer si tu t'es fais baiser J'suis toujours ce putain d'DZ, l'Electron Libre impossible à dresser J'suis le petit d'personne, j'suis le petit d'personne, j'suis le petit d'personne allez-vous faire baiser J'entends Hayce t'as du buzz tu grailles, à chacun d'tes freestyles tu grimpes Mais l'industrie du disque est en crise du calme, j'entends Hayce il est temps qu'tu trinques On s'tchek de l'épaule ou s'fait la bise du crâne, YZ savoure la brise du vent T'assumes pas l'business rien qu'tu brailles, veille sur mes arrières en allant vers l'avant La rue m'a laissée des hématomes La juge laisse un ultimatum, il est trop tard pour plomber la taupe Il est trop tard pour planquer la dope Petit l'horreur est humaine, tu n'aperçois plus le bout du tunnel Il te faudra bien plus qu'un atome Il te faudra bien plus qu'un atome de folie face à lil du magnum On vit sans foi ni loi dans la faune On vit sans foi ni loi dans la faune, la rue m'a laissée des hématomes, les frères que j'aime sont partis là-haut19</t>
+          <t>Electron Libre XV Barbare La street m'a laissée des hématomes .. Est-ce que les hommes naissent libres et égaux en droits ? Le 11-43 te donne la réponse hombre Ça s'termine au mauvais moment au mauvais endroit, les plus envieux demandent à voir les Frères Lumière sombrer Mon adolescence sans blé dans l'insalubrité, j'ai découvert la musique et m'y suis abrité J'signe des tofs, des autographes everyday, j'marche à Paname salope suce ma putain de célébrité J'ai ce flow débridé, j'vais niquer l'industrie, les an-iencs' en freestyle qui sont tendus du string C'est la street qu'à fait de nous des rappeurs bâtaradé et pas le pe-ra qui nous a rendu street J'ai toujours été trop strict, avec ma personne, j'suis le roi de la clé de sol mais nul ne m'a couronné J'ai toujours été trop speed, nul ne m'impressionne, j'ai confiance en personne j'préfère m'auto-parrainer C'est le biko de Paris Nord, au top, j'suis bon qu'à rapper des vérités que la plupart ignorent Verres fumés, monture en or, hold up, j'pense a mes lokos déchus sous le regard des miradors Paris la nuit c'est hardcore, oh girl, aucun de mes bikos lokos ne t'appelera mi amor Te demandes pas quel plavon mes frères élaborent, trop de cl'Hayce quand je p'Hayce les rapports en raptor Dans la zone que des lokos sans foi ni loi, j'peux freestyler pendant 1000 mois Moi partir avec le tiroir caisse mon ego fissure ton miroir Aïe, tu sors une mixtape espèce de hatai ? J'ai des millions de rimes de té-co de quoi foutre le rap français sur la paille J'entends Hayce t'as du buzz tu grailles, à chacun d'tes freestyles tu grimpes Mais l'industrie du disque est en crise du calme, j'entends Hayce il est temps qu'tu trinques On s'tchek de l'épaule ou s'fait la bise du crâne, YZ savoure la brise du vent T'assumes pas l'business rien qu'tu brailles, veille sur mes arrières en allant vers l'avant La rue m'a laissée des hématomes La juge laisse un ultimatum, il est trop tard pour plomber la taupe Il est trop tard pour planquer la dope Petit l'horreur est humaine, tu n'aperçois plus le bout du tunnel Il te faudra bien plus qu'un atome Il te faudra bien plus qu'un atome de folie face à lil du magnum On vit sans foi ni loi dans la faune On vit sans foi ni loi dans la faune, la rue m'a laissée des hématomes, les frères que j'aime sont partis là-haut La mauvaise graine a germée, j'ai le cur mis en terre J'en pleure un frère que j'aimais, mes larmes font pousser les chrysanthèmes À mes frères ayant mal digéré, anorexique à cause de la prison ferme Et les meufs à la MAF le cur déchiré, sous anxiolytiques à défaut d'vivre un enfer À l'heure où j'parle chez nous ça tire, grands et petits frères s'activent Pour Versace, l'or et les saphirs, mais le procureur est versatile Personne ne bouge y'aura pas d'blessé, mon enfance la France m'a rabaissée Le mur du silence est en plexigl'Hayce, les poukis s'cachent au fond du PC J'laisse de la mélancolie via la MPC, j'viens d'Paris j'suis toujours pressé Biko t'as trop gâté cette pét'Hayce viens pas pleurer si tu t'es fais baiser J'suis toujours ce putain d'DZ, l'Electron Libre impossible à dresser J'suis le petit d'personne, j'suis le petit d'personne, j'suis le petit d'personne allez-vous faire baiser J'entends Hayce t'as du buzz tu grailles, à chacun d'tes freestyles tu grimpes Mais l'industrie du disque est en crise du calme, j'entends Hayce il est temps qu'tu trinques On s'tchek de l'épaule ou s'fait la bise du crâne, YZ savoure la brise du vent T'assumes pas l'business rien qu'tu brailles, veille sur mes arrières en allant vers l'avant La rue m'a laissée des hématomes La juge laisse un ultimatum, il est trop tard pour plomber la taupe Il est trop tard pour planquer la dope Petit l'horreur est humaine, tu n'aperçois plus le bout du tunnel Il te faudra bien plus qu'un atome Il te faudra bien plus qu'un atome de folie face à lil du magnum On vit sans foi ni loi dans la faune On vit sans foi ni loi dans la faune, la rue m'a laissée des hématomes, les frères que j'aime sont partis là-haut19</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Un nouveau jour se lève sur le rap game À des années lumières ADAL On écrit des classiques Le son sort d'l'hôpital psychiatrique Déranger un pote qui s'fait sucer C'est ça partir au casse-pipe On sort d'l'école de la street Si tu m'aimes pas, nique ta tante Toi tu veux niquer ma carrière D'accord, va dans la file d'attente J'en prends pas qu'un seul, j'en prends cinquante Tu vois pas plus loin qu'ton nombril En vrai j'ai géré tellement d'beurettes Que si j'veux j'prends des parts chez Pampryl J'ai grandi avec des vrais sauvages J'te laisse crever, j'prends pas d'cours de sauvetage J'préfère payer un verre à ma meuf Que d'me faire michto par une grosse tasse J'ai rappé, j'ai rappé des années J't'ai kicker, est-ce que tu t'en souviens ? Tu pourrais m'trahir pour une poitrine ? Ma bite dans ta gorge sert de soutien J'achète, j'veux pas savoir c'est combien Mon cur est posté dans les gradins Sache que si c'est pas du Louboutin Ici-bas, personne prend tes patins Tu veux viser la lune, tiens la fusée Dégage, on veut plus voir ta gueule J'serai solo dans mon linceul Fuck la musique, j'veux pas d'la carrière à Michael Un frère moitié te-traî Je vais tirer sur tout l'monde, mettez-vous à couvert Tu mets des cadenas sur Insta On sait tous que t'as la schneck ouverte J'm'en fous de c'que les gens disent C'est pas l'argent qui rend riche Ton label te mène à la baguette Tiens ta SACEM, va t'acheter un sandwich Mes frères m'appellent du card-pla, m'demandent des nouvelles Ma plume a pris du viagra, j'vais baiser tout l'game Saitama You might also like J'ai jamais voulu poser mon glaive L'insecte, mieux que toi, se nourrit du fruit La vendeuse est grave bonne, j'm'en fous du prix Ta jalousie veut me charcler jusqu'à c'que j'en crève Corner, j'me sens seul dans ma nébuleuse Guerrier jusqu'au linceul, idées ténébreuses Berbère, instinct d'chasseur, en pente périlleuse J'veux pas la main d'ta sur la mante religieuse La gazeuse dit Guten tag, le Désert Eagle dit Tchuss Auf Wiedersehen, ma péthayce est delicious Bois dans mon sippin'juice, on a rien dans l'zen Il se précipite en sortant son arme à feu La dirigeant vers la caisse mais le butin n'est pas là, man down Faire du biff, telle est la devise, la vie de riche On s'fait péter pour train de vie car on aime les Maybach Zion, biko tu débites pour la dernière paire de Zano' Trouve un véritable but dans la vie N'écoute pas rire les hyènes et rugis comme un lion Bâtis ton royaume, tous les rêves conservent leur arôme Rome ne s'est pas faite en un jour Pour l'instant j'suis dans l'four, les baqueux m'arrosent Big Lemsi, white est ma hoe On m'connait d'Marseille jusqu'à Place d'It' Crois-moi, j'ai pas changé mes principes Le rap peut changer ton cur en pierre Et peut t'faire baiser femme en plastique Pourquoi ma meuf me sort des prétextes ? Tu sais, ma chérie, moi j'te déteste Elle m'dit qu'elle a la main sur le cur Mais tout c'que j'vois c'est ma main sur ses fesses J'ai peur de faire du mal aux gens qui m'aiment J'ai peur de faire du mal aux gens qui m'aiment Dis-moi comment j'peux faire confiance aux femmes Quand tu sais qu'elles peuvent se recoudre l'hymen J'suis déçu du game en 2016 Ils savent tous chanter mais pas rapper J'fais d'l'UFC, toi du karaté Si tu m'vises, tu ferais mieux de pas rater ADAL on vient niquer des carrières Les MCs sont mal, sont sous pression J'ai la queue tellement grosse quand j'ai la barre Que ma meuf essaie d'y faire des tractions C'est moi qui fume la prod, c'est pas l'inverse Là on parle d'un tonnerre contre une averse Mon flow tourne de Clichy jusqu'à Barbès Le péché d'un homme c'est la paresse J'suis dans la cuisine, Bernard Loiseau J'ai trempé le qalam dans le damoiseau J'suis dans ma zone Tu nous d'mandes en freestyle, sado-maso J'ai soulevé des Coffios, le rap en auto-prod La weed en auto-flow J'ai appris chez les proxo' J'aimerais te dire que j't'aime mais ces mots sonnent faux Classe S, hasba 30 kilos d'S Belek, coup d'cross si tu protestes Mes négros sont positifs à l'éthylotest Laisse une ecchymose, blesse, ça blesse Arrête de faire la mala, j'vais t'bousiller dans l'binks Ici-bas c'est contre l'mur qu'on te berce Pas d'coupe dans la 'teille, pas d'tabac dans l'pers' On a chargé l'hôtesse au cur de la tess T'es dans l'coffre de la caisse au cur de Lutèce T'as peur de nous teste, on écourte l'orchestre Et le quartier l'atteste, ADAL c'est la west Merci à tous ceux qui nous ont toujours soutenus De loin comme de près À des années lumières, le 25 Mars3</t>
+          <t>Un nouveau jour se lève sur le rap game À des années lumières ADAL On écrit des classiques Le son sort d'l'hôpital psychiatrique Déranger un pote qui s'fait sucer C'est ça partir au casse-pipe On sort d'l'école de la street Si tu m'aimes pas, nique ta tante Toi tu veux niquer ma carrière D'accord, va dans la file d'attente J'en prends pas qu'un seul, j'en prends cinquante Tu vois pas plus loin qu'ton nombril En vrai j'ai géré tellement d'beurettes Que si j'veux j'prends des parts chez Pampryl J'ai grandi avec des vrais sauvages J'te laisse crever, j'prends pas d'cours de sauvetage J'préfère payer un verre à ma meuf Que d'me faire michto par une grosse tasse J'ai rappé, j'ai rappé des années J't'ai kicker, est-ce que tu t'en souviens ? Tu pourrais m'trahir pour une poitrine ? Ma bite dans ta gorge sert de soutien J'achète, j'veux pas savoir c'est combien Mon cur est posté dans les gradins Sache que si c'est pas du Louboutin Ici-bas, personne prend tes patins Tu veux viser la lune, tiens la fusée Dégage, on veut plus voir ta gueule J'serai solo dans mon linceul Fuck la musique, j'veux pas d'la carrière à Michael Un frère moitié te-traî Je vais tirer sur tout l'monde, mettez-vous à couvert Tu mets des cadenas sur Insta On sait tous que t'as la schneck ouverte J'm'en fous de c'que les gens disent C'est pas l'argent qui rend riche Ton label te mène à la baguette Tiens ta SACEM, va t'acheter un sandwich Mes frères m'appellent du card-pla, m'demandent des nouvelles Ma plume a pris du viagra, j'vais baiser tout l'game Saitama J'ai jamais voulu poser mon glaive L'insecte, mieux que toi, se nourrit du fruit La vendeuse est grave bonne, j'm'en fous du prix Ta jalousie veut me charcler jusqu'à c'que j'en crève Corner, j'me sens seul dans ma nébuleuse Guerrier jusqu'au linceul, idées ténébreuses Berbère, instinct d'chasseur, en pente périlleuse J'veux pas la main d'ta sur la mante religieuse La gazeuse dit Guten tag, le Désert Eagle dit Tchuss Auf Wiedersehen, ma péthayce est delicious Bois dans mon sippin'juice, on a rien dans l'zen Il se précipite en sortant son arme à feu La dirigeant vers la caisse mais le butin n'est pas là, man down Faire du biff, telle est la devise, la vie de riche On s'fait péter pour train de vie car on aime les Maybach Zion, biko tu débites pour la dernière paire de Zano' Trouve un véritable but dans la vie N'écoute pas rire les hyènes et rugis comme un lion Bâtis ton royaume, tous les rêves conservent leur arôme Rome ne s'est pas faite en un jour Pour l'instant j'suis dans l'four, les baqueux m'arrosent Big Lemsi, white est ma hoe On m'connait d'Marseille jusqu'à Place d'It' Crois-moi, j'ai pas changé mes principes Le rap peut changer ton cur en pierre Et peut t'faire baiser femme en plastique Pourquoi ma meuf me sort des prétextes ? Tu sais, ma chérie, moi j'te déteste Elle m'dit qu'elle a la main sur le cur Mais tout c'que j'vois c'est ma main sur ses fesses J'ai peur de faire du mal aux gens qui m'aiment J'ai peur de faire du mal aux gens qui m'aiment Dis-moi comment j'peux faire confiance aux femmes Quand tu sais qu'elles peuvent se recoudre l'hymen J'suis déçu du game en 2016 Ils savent tous chanter mais pas rapper J'fais d'l'UFC, toi du karaté Si tu m'vises, tu ferais mieux de pas rater ADAL on vient niquer des carrières Les MCs sont mal, sont sous pression J'ai la queue tellement grosse quand j'ai la barre Que ma meuf essaie d'y faire des tractions C'est moi qui fume la prod, c'est pas l'inverse Là on parle d'un tonnerre contre une averse Mon flow tourne de Clichy jusqu'à Barbès Le péché d'un homme c'est la paresse J'suis dans la cuisine, Bernard Loiseau J'ai trempé le qalam dans le damoiseau J'suis dans ma zone Tu nous d'mandes en freestyle, sado-maso J'ai soulevé des Coffios, le rap en auto-prod La weed en auto-flow J'ai appris chez les proxo' J'aimerais te dire que j't'aime mais ces mots sonnent faux Classe S, hasba 30 kilos d'S Belek, coup d'cross si tu protestes Mes négros sont positifs à l'éthylotest Laisse une ecchymose, blesse, ça blesse Arrête de faire la mala, j'vais t'bousiller dans l'binks Ici-bas c'est contre l'mur qu'on te berce Pas d'coupe dans la 'teille, pas d'tabac dans l'pers' On a chargé l'hôtesse au cur de la tess T'es dans l'coffre de la caisse au cur de Lutèce T'as peur de nous teste, on écourte l'orchestre Et le quartier l'atteste, ADAL c'est la west Merci à tous ceux qui nous ont toujours soutenus De loin comme de près À des années lumières, le 25 Mars3</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Je viens dun monde à lenvers où la colère est passagère Une fois quon a tout saccagé, la kalash côté passager Puis cest le passage à tabac Toujours insolent de la vérif au passage à la barre Et dans le passé jme revois, jcassais la baraque, jcassais la démarche Avec Mbaraque et Papada dès le plus jeune âge Démarrage, Hold up, mets les porcs, hors deux Vends la dope dans le hall, ya comme une odeur dbonne beuh Ma belle si ton cur est à prendre laisse-moi tapprendre par cur Ou laisse-moi taper ton tarpé puis tfaire tomber sur répondeur, Hay' Rappeur, toi qui vendrait même ta zic pour un clou Tu viens juste darriver, poto reste tranquille Tu prends lpatron du cirque pour un clown Cesse de gesticuler quand Lucky Luke a le canon calé dans les yeuks Hayce fait ci, Big Lemsi fait ça Trop de facéties, je t'ai passé ça, sisi sossa 97 jdébute sur cassettes, pour les mettre à sec jsuis une star La scène, cest mon firmament, comme le diamant jai plusieurs facettes Lenvie de dévorer la vie de menvoler vers la vallée des vers mest délibérément venu je nétais quun petit crapaud, yeah yeah, un young bikow yeah yeah Jétais vil et vénal envie dun nouvel horizon, venin dans les veines, envie de khalis dans les valises et dévaliser les châteaux yeah yeah, el chapo yeah yeah Électron Libérable, yeah ow Dédic-hayce à tout les frères qui tournent à Poitiers Vivonne à Orléans-Saran Tout les chtars de France, tout les chtar du monde Ouais la cité est là Yeah ow, eh You might also like Avant dparler pose mon oseille sur la table, jme passerai bien dchanter dans ta boîte de merde Cousin tas des oursins dans les poches, tu tdemandes pourquoi cette pute fait létoile de mer Ya toujours l'mirador dans ma ligne de mire, même en portant cputain dhaki dmonitor Jai coffré ma hlel à Mirabeau, jai investi vers Michel Ange Molitor Un jour un an-ienc ma dit les temps changent , jai répondu les gens changent avec le temps Et les peines de prisons changent avec le teint, quand ya plus rien à gratter les putes changent de camps Tu mparles de ta carrière gros jmen bats les couilles, faut qujassure la famille jusquau Vieux Kouba Porsche 911 des yeux de grenouilles, on sest débrouillé sans faire de mea culpa Vicère pas les femmes enceintes qui veulent fumer du crack, hein hein Calcule pas les michto qui suceraient le premier venu pour un sac, hein hein Dans le four jme fiche de cquon dit sur moi, car limportant cest de rester soi-même Comme dhab je prends la presse traditionnelle à contrepied pendant le temps additionnel Tu verrai la cuisine dans ma planque, ça fait de la physique comme Max Planck Jattends la floraison de ma plante, jai le calibre de la bac nord sur ma tempe Sorti dhebs mes gars sûrs mattendent. On a piétiné braqueur de fourrures Jpasse en caravane, et jramasse plus de chiennes que la fourrière Jvoulais pas tfaire de mal cest lappât du gain, jvoulais pas tfaire le mal cest lappât du gain Jai dû tenir les murs jétais mort de froid, jai tapé la galette jétais mort de faim Cest fou cquon peut faire avec un tarpé, la cavale me fatigue jveux plus fuir maman Jai limpression que la vie me tire la langue, qules étoiles ne brillent plus dans mon firmament On confond lbonheur avec un fer allemand, fait la misère à tout lmonde sans savoir pourquoi Elle ma dit Jette les chiennes dans ton répertoire, Big Lemsi jtaime tellement que jtuerai pour toi La mâchoire du boer bull et lil du tigre, jpeux te jeter du pont prendre Moretti Tu vas pas ré-ti, arrête ton cinéma tu vas pas ré-ti</t>
+          <t>Je viens dun monde à lenvers où la colère est passagère Une fois quon a tout saccagé, la kalash côté passager Puis cest le passage à tabac Toujours insolent de la vérif au passage à la barre Et dans le passé jme revois, jcassais la baraque, jcassais la démarche Avec Mbaraque et Papada dès le plus jeune âge Démarrage, Hold up, mets les porcs, hors deux Vends la dope dans le hall, ya comme une odeur dbonne beuh Ma belle si ton cur est à prendre laisse-moi tapprendre par cur Ou laisse-moi taper ton tarpé puis tfaire tomber sur répondeur, Hay' Rappeur, toi qui vendrait même ta zic pour un clou Tu viens juste darriver, poto reste tranquille Tu prends lpatron du cirque pour un clown Cesse de gesticuler quand Lucky Luke a le canon calé dans les yeuks Hayce fait ci, Big Lemsi fait ça Trop de facéties, je t'ai passé ça, sisi sossa 97 jdébute sur cassettes, pour les mettre à sec jsuis une star La scène, cest mon firmament, comme le diamant jai plusieurs facettes Lenvie de dévorer la vie de menvoler vers la vallée des vers mest délibérément venu je nétais quun petit crapaud, yeah yeah, un young bikow yeah yeah Jétais vil et vénal envie dun nouvel horizon, venin dans les veines, envie de khalis dans les valises et dévaliser les châteaux yeah yeah, el chapo yeah yeah Électron Libérable, yeah ow Dédic-hayce à tout les frères qui tournent à Poitiers Vivonne à Orléans-Saran Tout les chtars de France, tout les chtar du monde Ouais la cité est là Yeah ow, eh Avant dparler pose mon oseille sur la table, jme passerai bien dchanter dans ta boîte de merde Cousin tas des oursins dans les poches, tu tdemandes pourquoi cette pute fait létoile de mer Ya toujours l'mirador dans ma ligne de mire, même en portant cputain dhaki dmonitor Jai coffré ma hlel à Mirabeau, jai investi vers Michel Ange Molitor Un jour un an-ienc ma dit les temps changent , jai répondu les gens changent avec le temps Et les peines de prisons changent avec le teint, quand ya plus rien à gratter les putes changent de camps Tu mparles de ta carrière gros jmen bats les couilles, faut qujassure la famille jusquau Vieux Kouba Porsche 911 des yeux de grenouilles, on sest débrouillé sans faire de mea culpa Vicère pas les femmes enceintes qui veulent fumer du crack, hein hein Calcule pas les michto qui suceraient le premier venu pour un sac, hein hein Dans le four jme fiche de cquon dit sur moi, car limportant cest de rester soi-même Comme dhab je prends la presse traditionnelle à contrepied pendant le temps additionnel Tu verrai la cuisine dans ma planque, ça fait de la physique comme Max Planck Jattends la floraison de ma plante, jai le calibre de la bac nord sur ma tempe Sorti dhebs mes gars sûrs mattendent. On a piétiné braqueur de fourrures Jpasse en caravane, et jramasse plus de chiennes que la fourrière Jvoulais pas tfaire de mal cest lappât du gain, jvoulais pas tfaire le mal cest lappât du gain Jai dû tenir les murs jétais mort de froid, jai tapé la galette jétais mort de faim Cest fou cquon peut faire avec un tarpé, la cavale me fatigue jveux plus fuir maman Jai limpression que la vie me tire la langue, qules étoiles ne brillent plus dans mon firmament On confond lbonheur avec un fer allemand, fait la misère à tout lmonde sans savoir pourquoi Elle ma dit Jette les chiennes dans ton répertoire, Big Lemsi jtaime tellement que jtuerai pour toi La mâchoire du boer bull et lil du tigre, jpeux te jeter du pont prendre Moretti Tu vas pas ré-ti, arrête ton cinéma tu vas pas ré-ti</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Dire que j'étais ce p'tit crouille encore entrain de ssèp' dans l'ascenseur Seulement 30 cents dans les fouilles Toujours essoufflé ,souliers troués pointure 37 Oxmo, Solaar en cassette à cet époque là, le rap m'attrape certes C'est dead j'voulais vivre en osmose avec mon art en cachette C'est fou c'que les rêves de gosses causent des séquelles, des bonnes choses Aujourd'hui voilà Hayce la Kalash tchétchène, index sur la gâchette J'suis déter' et la ue-r' m'accompagne Avant de viser la lune j'ai d'abord escaladé la montagne Ici bas mes bikos s'allument pour une traînée sous champagne On se fait pouki par la mule qu'assume plus devant les gendarmes Qui nous ramènent en cellule puis chez la méchante dame Y'a que la maille qui me stimule, je bosse quand les gens baillent Tu vois les bails ? Veni Vidi, vida loca, loko C'est la bouteille à la mer dans la ville des lumières Sur le ter-ter on est tous déter bi-bi-bikos, blakos, blankos, lokos Veni, Vidi, vida loca, loko, j'veux les sous la vie de rêve, de la weed au bout des lèvres Bing bang bang , c'est le little berbère venu soulever la coupe du Siete Cinco Mon 17 je remercie Sur ma vie les vrais te renseignent Un petit pas pour Lemsi Un grand pas pour le rap français Je n'dormirai pas cette nuit J'suis complètement défoncé J'porte un toast à mes ennemis Une rafale dans le rap français You might also like Tu peux plus m'voir continuer, tu ressens le besoin de me boycotter Tu rêves de m'voir cantiner les quelques points que j'ai mis d'coté Les narines dans la cocaïne , j'vois la concurrence taper des G Y'a les vrais boloss à coté de la plaque et les vrais lokos plaqués DG J'pense qu'a braquer des PDG, ta petite copine me trouve BG Marine me compare à Merah veut me voir en Panamera piégée Tu perds un douze, pétasse passe pas l'aspirateur T'as voulu minsérer ta picouse Wesh, t'es producteur ou docteur ? Poignard berbère dans la triple goose Fuck ces partouzeuses de rappeurs XV Barbare dans la dure, dans la douce, dans la brousse Personne ne pousse au cafteur On n'pense qu'au flouze-flouze y'a de la solidarité que dans les belles histoires On veut le pouvoir illimité malheureusement l'humilité loge au bord du désespoir L'immunité diplomatique pour faire phaysser 200 pièces de calibre automatique Nos p'tits frères et soeurs s'engraissent mais s'en sortent par césarienne Aujourd'hui le succès m'appellent en masqué-é Si j'pète un Cayenne j'ai peur de délaisser la mosquée-ée Mon 17 je remercie Sur ma vie les vrais te renseignent Un petit pas pour Lemsi Un grand pas pour le rap français Je n'dormirai pas cette nuit J'suis complètement défoncé J'porte un toast à mes ennemis Une rafale dans le rap français13</t>
+          <t>Dire que j'étais ce p'tit crouille encore entrain de ssèp' dans l'ascenseur Seulement 30 cents dans les fouilles Toujours essoufflé ,souliers troués pointure 37 Oxmo, Solaar en cassette à cet époque là, le rap m'attrape certes C'est dead j'voulais vivre en osmose avec mon art en cachette C'est fou c'que les rêves de gosses causent des séquelles, des bonnes choses Aujourd'hui voilà Hayce la Kalash tchétchène, index sur la gâchette J'suis déter' et la ue-r' m'accompagne Avant de viser la lune j'ai d'abord escaladé la montagne Ici bas mes bikos s'allument pour une traînée sous champagne On se fait pouki par la mule qu'assume plus devant les gendarmes Qui nous ramènent en cellule puis chez la méchante dame Y'a que la maille qui me stimule, je bosse quand les gens baillent Tu vois les bails ? Veni Vidi, vida loca, loko C'est la bouteille à la mer dans la ville des lumières Sur le ter-ter on est tous déter bi-bi-bikos, blakos, blankos, lokos Veni, Vidi, vida loca, loko, j'veux les sous la vie de rêve, de la weed au bout des lèvres Bing bang bang , c'est le little berbère venu soulever la coupe du Siete Cinco Mon 17 je remercie Sur ma vie les vrais te renseignent Un petit pas pour Lemsi Un grand pas pour le rap français Je n'dormirai pas cette nuit J'suis complètement défoncé J'porte un toast à mes ennemis Une rafale dans le rap français Tu peux plus m'voir continuer, tu ressens le besoin de me boycotter Tu rêves de m'voir cantiner les quelques points que j'ai mis d'coté Les narines dans la cocaïne , j'vois la concurrence taper des G Y'a les vrais boloss à coté de la plaque et les vrais lokos plaqués DG J'pense qu'a braquer des PDG, ta petite copine me trouve BG Marine me compare à Merah veut me voir en Panamera piégée Tu perds un douze, pétasse passe pas l'aspirateur T'as voulu minsérer ta picouse Wesh, t'es producteur ou docteur ? Poignard berbère dans la triple goose Fuck ces partouzeuses de rappeurs XV Barbare dans la dure, dans la douce, dans la brousse Personne ne pousse au cafteur On n'pense qu'au flouze-flouze y'a de la solidarité que dans les belles histoires On veut le pouvoir illimité malheureusement l'humilité loge au bord du désespoir L'immunité diplomatique pour faire phaysser 200 pièces de calibre automatique Nos p'tits frères et soeurs s'engraissent mais s'en sortent par césarienne Aujourd'hui le succès m'appellent en masqué-é Si j'pète un Cayenne j'ai peur de délaisser la mosquée-ée Mon 17 je remercie Sur ma vie les vrais te renseignent Un petit pas pour Lemsi Un grand pas pour le rap français Je n'dormirai pas cette nuit J'suis complètement défoncé J'porte un toast à mes ennemis Une rafale dans le rap français13</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Relève la tête au lieu d'maculer de larmes tes draps, les vrais lokos ne baissent pas les bras P'tit con, ma hargne est née dans les drames bang bang bang Pur biko, pur malfrat, j'opère en pur, indé' comme alpha Je n'ai pas d'pipos, juste une plume trempée dans l'hémoglobine des kahbas Tu rappes une comédie dramatique, j'rappe la street comme un automatique Laisse des scènes de crimes grammaticales, de nos jours seule la haine est gratuite J'empoigne le micro comme un glaive pour mes lokos dehors comme aux shtars Hier ils marchaient sur mes rêves, demain je serai leur pire cauchemar J'ai bossé dur pour en arriver là, j'ai débuté dans la cave en a cappela C'est le retour de l'arabe en parabellum, pur comme cette poudre près du Venezuela C'est l'retour d'Hayce Lem, j'manque de sommeil, blanche porcelaine est ma go Si ces bikos veulent ma peau qu'ils craignent un drive-by en vago Dans leurs yeux la haine se nie, dans les miens la hargne se lit Suis-je devenu le gardien du sommeil, de l'insomnie ? Dans leurs yeux la haine se nie, dans les miens la hargne se lit Suis-je devenu le gardien du sommeil, de l'insomnie ? Et tu sais où j'vis dis-leur, parmi escrocs, dealeurs All eyes, chronique hess, brolick XXX dis-leur dis-leur Où j'vis dis-leur, parmi escrocs, dealeurs All eyes, chronique hess, brolick XXX dis-leur dis-leur J'dors pas la nuit, j'dors pas la nuit, mon quart de siècle vécu, je retranscris Je le vis, je le vois, je le transpire, je les laisse dormir j'vais leur mettre un sprint Laisse-les critiquer Hayce Lemsi, mon son tourne de halls en discothèques Toujours pas d'glaçon dans mon Hennesy, donnez-moi de la monnaie j'hypothèque C'est La Fourche, La Tour et La J poto, j'peux dire qu'on connait la valeur du kopec 15 piges déjà le spliff au bec, 800 balles en billets d'10 dans la pocket J'ai des points d'côté faut qu'j'investisse, j'trouve un bizz, j'concrétise Ma futur épouse est une femme conquise, mon futur gosse est chef d'entreprise Qui dit ex biko dans l'hexagone dit s'manifester, s'faire lester Qui dit traînée de poudre dit grosse t'Hayce-pé, LSD, MST Désolé zina j'peux pas rester, j'dois reprendre la route J'ai 2-3 rappeurs à démarrer, j'vais le faire, demande à Houb Des montagnes à escalader, ils veulent me voiler la route Trop d'amnésia dans l'saladier, welcome to my hood You might also like Dans leurs yeux la haine se nie, dans les miens la hargne se lit Suis-je devenu le gardien du sommeil, de l'insomnie ? Dans leurs yeux la haine se nie, dans les miens la hargne se lit Suis-je devenu le gardien du sommeil, de l'insomnie ? Et tu sais où j'vis dis-leur, parmi escrocs, dealeurs All eyes, chronique hess, brolick XXX dis-leur dis-leur Où j'vis dis-leur, parmi escrocs, dealeurs All eyes, chronique hess, brolick XXX dis-leur dis-leur C'n'est pas une mixtape c'est un braquo, qui veut m'empêcher d'conquérir la Gaule ? Sont sérieux les jaloux ils parlent comme si j'avais 3 Murcielago Demandes-toi ce que tu fous sur la surface terrestre, les plus fourbes se contentent des restes Garde le mot franchise sur tes lèvres, ne laisse personne marcher sur tes rêves Instinct révolutionnaire, mental Ali la Pointe nique sa mère Nique cette France qu'essaye d'faire passer nos surs les plus pieuses pour des prisonnières Que d'la haine au sommaire, que d'la s' dans l'zemah Ils s'demandent comment ce zonard maîtrise si bien la langue de Molière Dans leurs yeux la haine se nie, dans les miens la hargne se lit Suis-je devenu le gardien du sommeil, de l'insomnie ? Dans leurs yeux la haine se nie, dans les miens la hargne se lit Suis-je devenu le gardien du sommeil, de l'insomnie ? Et tu sais où j'vis dis-leur, parmi escrocs, dealeurs All eyes, chronique hess, brolick XXX dis-leur dis-leur Où j'vis dis-leur, parmi escrocs, dealeurs All eyes, chronique hess, brolick XXX dis-leur dis-leur9</t>
+          <t>Relève la tête au lieu d'maculer de larmes tes draps, les vrais lokos ne baissent pas les bras P'tit con, ma hargne est née dans les drames bang bang bang Pur biko, pur malfrat, j'opère en pur, indé' comme alpha Je n'ai pas d'pipos, juste une plume trempée dans l'hémoglobine des kahbas Tu rappes une comédie dramatique, j'rappe la street comme un automatique Laisse des scènes de crimes grammaticales, de nos jours seule la haine est gratuite J'empoigne le micro comme un glaive pour mes lokos dehors comme aux shtars Hier ils marchaient sur mes rêves, demain je serai leur pire cauchemar J'ai bossé dur pour en arriver là, j'ai débuté dans la cave en a cappela C'est le retour de l'arabe en parabellum, pur comme cette poudre près du Venezuela C'est l'retour d'Hayce Lem, j'manque de sommeil, blanche porcelaine est ma go Si ces bikos veulent ma peau qu'ils craignent un drive-by en vago Dans leurs yeux la haine se nie, dans les miens la hargne se lit Suis-je devenu le gardien du sommeil, de l'insomnie ? Dans leurs yeux la haine se nie, dans les miens la hargne se lit Suis-je devenu le gardien du sommeil, de l'insomnie ? Et tu sais où j'vis dis-leur, parmi escrocs, dealeurs All eyes, chronique hess, brolick XXX dis-leur dis-leur Où j'vis dis-leur, parmi escrocs, dealeurs All eyes, chronique hess, brolick XXX dis-leur dis-leur J'dors pas la nuit, j'dors pas la nuit, mon quart de siècle vécu, je retranscris Je le vis, je le vois, je le transpire, je les laisse dormir j'vais leur mettre un sprint Laisse-les critiquer Hayce Lemsi, mon son tourne de halls en discothèques Toujours pas d'glaçon dans mon Hennesy, donnez-moi de la monnaie j'hypothèque C'est La Fourche, La Tour et La J poto, j'peux dire qu'on connait la valeur du kopec 15 piges déjà le spliff au bec, 800 balles en billets d'10 dans la pocket J'ai des points d'côté faut qu'j'investisse, j'trouve un bizz, j'concrétise Ma futur épouse est une femme conquise, mon futur gosse est chef d'entreprise Qui dit ex biko dans l'hexagone dit s'manifester, s'faire lester Qui dit traînée de poudre dit grosse t'Hayce-pé, LSD, MST Désolé zina j'peux pas rester, j'dois reprendre la route J'ai 2-3 rappeurs à démarrer, j'vais le faire, demande à Houb Des montagnes à escalader, ils veulent me voiler la route Trop d'amnésia dans l'saladier, welcome to my hood Dans leurs yeux la haine se nie, dans les miens la hargne se lit Suis-je devenu le gardien du sommeil, de l'insomnie ? Dans leurs yeux la haine se nie, dans les miens la hargne se lit Suis-je devenu le gardien du sommeil, de l'insomnie ? Et tu sais où j'vis dis-leur, parmi escrocs, dealeurs All eyes, chronique hess, brolick XXX dis-leur dis-leur Où j'vis dis-leur, parmi escrocs, dealeurs All eyes, chronique hess, brolick XXX dis-leur dis-leur C'n'est pas une mixtape c'est un braquo, qui veut m'empêcher d'conquérir la Gaule ? Sont sérieux les jaloux ils parlent comme si j'avais 3 Murcielago Demandes-toi ce que tu fous sur la surface terrestre, les plus fourbes se contentent des restes Garde le mot franchise sur tes lèvres, ne laisse personne marcher sur tes rêves Instinct révolutionnaire, mental Ali la Pointe nique sa mère Nique cette France qu'essaye d'faire passer nos surs les plus pieuses pour des prisonnières Que d'la haine au sommaire, que d'la s' dans l'zemah Ils s'demandent comment ce zonard maîtrise si bien la langue de Molière Dans leurs yeux la haine se nie, dans les miens la hargne se lit Suis-je devenu le gardien du sommeil, de l'insomnie ? Dans leurs yeux la haine se nie, dans les miens la hargne se lit Suis-je devenu le gardien du sommeil, de l'insomnie ? Et tu sais où j'vis dis-leur, parmi escrocs, dealeurs All eyes, chronique hess, brolick XXX dis-leur dis-leur Où j'vis dis-leur, parmi escrocs, dealeurs All eyes, chronique hess, brolick XXX dis-leur dis-leur9</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C'est le Triangle d'Or Le carrefour des drogues dures du monde entier Chapitre 1 Tout commence dans le XV Barbar Avec Dis et Ino, jeunes et fous nous étions Sous une pluie des plus battantes, au coeur du boulevard Sans vergogne, des coups d'cross et de coudes nous mettions Mon métier c'est la rue, salarié depuis bambin Envie de porter du Zilli, du Lanvin Carpe diem, on veut des lovés sans lendemain Demain c'est loinguin Ours polaire d'la banquise, vi-ser les pingouins Elle sait qu'j'fais du blégué, elle veut mon painguain Regarde-moi bienguin Demande au Frère Lum', je t'allume, tu t'éteingueins Bitch, pour toi l'amour n'est qu'un chiffre Snitch, pour toi l'honneur n'est qu'un mot Avec ou sans shit les mots fusent dans ma tête au rythme du piano J'suis mineur, j'fais des liasses Avec Niaks, Mbi, Papada, Kamel et Nass Y'a pas d'heure pour brasser, y'a pas d'âge pour les bracelets Rusé mais hélas, pris dans la mêlasse, la juge nous menace Y'a pas d'heure pour brasser, y'a pas d'âge pour les bracelets Rusé mais hélas... Weed et cocaine, j'voulais des filles coquettes Insolent, j'fais trembler les murs de ta ville en compèt' Loin des cocktails, j'voulais brûler l'top ten J'dérangeais les rageux, j'n'avais peur de sonne-per J'parlais du game comme si j'étais son père J'ai pas attendu l'rap pour sabrer le Dom Pér' Soulever des bastos, piétiner Harkos Guidonner des gamos, fonce-dé sur le corner Dans la rue, j'ai vécu J'ai vécu, j'ai dû apprendre et rendre des coups La Batmobile au cul J'ai failli, j'ai échoué, pas toujours pris des sous Esclave du capitalisme À l'affût de Tom Ford, de toute forme de confort La Faucheuse t'a sur sa liste Et ton cercueil est trop p'tit pour ton coffre-fort Polyglote armé d'un P4, de C4 Pour mes frères au D4 Vas-y tire si t'es cap N'oublie pas qu'mes erreurs sont le reflet d'mes actes J'suis filoch' par les RG Mon oseille, j'suis allé le chercher Tu voulais produire qui ? T'es barjot J'suis pas ta poule aux oeufs d'Fabergé Bienvenue dans ma dynastie M'en voulez pas si j'ai trop d'inspi De le-sty, trop deuspi, les has been se rassirent Moi ? Dans 10 piges on m'appellera Sir Toi ? Tu m'observes d'un air oisif, d'un air oisif Dire qu'avant c'était qu'un loisir Maintenant elles me veulent toutes hashtag RochVoisine Argh, j'suis de retour dans le game, bitch, bitch L'oiseau de nuit vole de ses propres ailes brrrr Argh, j'suis de retour dans le game, bitch L'oiseau de nuit vole de ses propres ailes brrrr Triangle d'Or You might also like J'vous baise, Pyramide XVBarbarie, XVBagdad, enfoiré Ratatatatatat'Hayce Hé, vous vous souvenez quand parliez d'moi p'tits pédés ? Hé, il s'en est passé des choses depuis qu'on m'appelle Hayce, enfoiré Vous croyez qu'j'dormais, bande de petits pédés, hein ? J'suis un putain d'maître de cérémonie Frère j'en ai vi-ser de la mari' Sixty chargé contre les obliques J'fume la verte avec parcimonie Par ici la monnaie, magnum pour mes homies Ignorance pour les médisants J'me dois d'être le rappeur le plus puissant Sache qu'à mes 10 ans j'me l'suis promis Elle me tire dans la chambre par le chibre Si j'vends plus, ces salopes me tchipent Mais j'tiens mieux que la Muraille de Chine Ils ont du pétrole, j'ai du gaz de schiste Lyriciste hyperactif, ils disent que j'love la coco, qu'j'ai des phases d'autiste Les rappeurs me d'mandent encore en freestyle ? Sado-masochistes On tire sur poucaves, mauvais payeurs, rappeurs, usurpateurs et flutistes Le procureur nous prive des meilleurs, j'pense à Ulysse D5 cellule 10 On regrette jadis, le monde part en couilles, les hommes veulent une chatte, les femmes un pénis La prochaine étape ils emmènent nos gosses en vacances scolaires sur des plages nudistes J'ai toujours la barre à l'enterrement d'un flic Ils ont mis 2 piges à Sango pour une 10 Voilà mon 17, j'encule la jet set J'reste ghetto, même quand j'baise une actrice Rentre dans la matrice, naissance en Afrique, j'ai vu toute ma population stagner J'ai toujours le seum, Marianne sur nos sols, 133 putains de longues années J'veux plus voir la SPIP partir au casse pipe J'vais vous faire la guerre comme le fils de Bush Le rap c'est la street, pose le micro tout de suite, on va t'baiser ta mère, enculé d'fils de bourge17</t>
+          <t>C'est le Triangle d'Or Le carrefour des drogues dures du monde entier Chapitre 1 Tout commence dans le XV Barbar Avec Dis et Ino, jeunes et fous nous étions Sous une pluie des plus battantes, au coeur du boulevard Sans vergogne, des coups d'cross et de coudes nous mettions Mon métier c'est la rue, salarié depuis bambin Envie de porter du Zilli, du Lanvin Carpe diem, on veut des lovés sans lendemain Demain c'est loinguin Ours polaire d'la banquise, vi-ser les pingouins Elle sait qu'j'fais du blégué, elle veut mon painguain Regarde-moi bienguin Demande au Frère Lum', je t'allume, tu t'éteingueins Bitch, pour toi l'amour n'est qu'un chiffre Snitch, pour toi l'honneur n'est qu'un mot Avec ou sans shit les mots fusent dans ma tête au rythme du piano J'suis mineur, j'fais des liasses Avec Niaks, Mbi, Papada, Kamel et Nass Y'a pas d'heure pour brasser, y'a pas d'âge pour les bracelets Rusé mais hélas, pris dans la mêlasse, la juge nous menace Y'a pas d'heure pour brasser, y'a pas d'âge pour les bracelets Rusé mais hélas... Weed et cocaine, j'voulais des filles coquettes Insolent, j'fais trembler les murs de ta ville en compèt' Loin des cocktails, j'voulais brûler l'top ten J'dérangeais les rageux, j'n'avais peur de sonne-per J'parlais du game comme si j'étais son père J'ai pas attendu l'rap pour sabrer le Dom Pér' Soulever des bastos, piétiner Harkos Guidonner des gamos, fonce-dé sur le corner Dans la rue, j'ai vécu J'ai vécu, j'ai dû apprendre et rendre des coups La Batmobile au cul J'ai failli, j'ai échoué, pas toujours pris des sous Esclave du capitalisme À l'affût de Tom Ford, de toute forme de confort La Faucheuse t'a sur sa liste Et ton cercueil est trop p'tit pour ton coffre-fort Polyglote armé d'un P4, de C4 Pour mes frères au D4 Vas-y tire si t'es cap N'oublie pas qu'mes erreurs sont le reflet d'mes actes J'suis filoch' par les RG Mon oseille, j'suis allé le chercher Tu voulais produire qui ? T'es barjot J'suis pas ta poule aux oeufs d'Fabergé Bienvenue dans ma dynastie M'en voulez pas si j'ai trop d'inspi De le-sty, trop deuspi, les has been se rassirent Moi ? Dans 10 piges on m'appellera Sir Toi ? Tu m'observes d'un air oisif, d'un air oisif Dire qu'avant c'était qu'un loisir Maintenant elles me veulent toutes hashtag RochVoisine Argh, j'suis de retour dans le game, bitch, bitch L'oiseau de nuit vole de ses propres ailes brrrr Argh, j'suis de retour dans le game, bitch L'oiseau de nuit vole de ses propres ailes brrrr Triangle d'Or J'vous baise, Pyramide XVBarbarie, XVBagdad, enfoiré Ratatatatatat'Hayce Hé, vous vous souvenez quand parliez d'moi p'tits pédés ? Hé, il s'en est passé des choses depuis qu'on m'appelle Hayce, enfoiré Vous croyez qu'j'dormais, bande de petits pédés, hein ? J'suis un putain d'maître de cérémonie Frère j'en ai vi-ser de la mari' Sixty chargé contre les obliques J'fume la verte avec parcimonie Par ici la monnaie, magnum pour mes homies Ignorance pour les médisants J'me dois d'être le rappeur le plus puissant Sache qu'à mes 10 ans j'me l'suis promis Elle me tire dans la chambre par le chibre Si j'vends plus, ces salopes me tchipent Mais j'tiens mieux que la Muraille de Chine Ils ont du pétrole, j'ai du gaz de schiste Lyriciste hyperactif, ils disent que j'love la coco, qu'j'ai des phases d'autiste Les rappeurs me d'mandent encore en freestyle ? Sado-masochistes On tire sur poucaves, mauvais payeurs, rappeurs, usurpateurs et flutistes Le procureur nous prive des meilleurs, j'pense à Ulysse D5 cellule 10 On regrette jadis, le monde part en couilles, les hommes veulent une chatte, les femmes un pénis La prochaine étape ils emmènent nos gosses en vacances scolaires sur des plages nudistes J'ai toujours la barre à l'enterrement d'un flic Ils ont mis 2 piges à Sango pour une 10 Voilà mon 17, j'encule la jet set J'reste ghetto, même quand j'baise une actrice Rentre dans la matrice, naissance en Afrique, j'ai vu toute ma population stagner J'ai toujours le seum, Marianne sur nos sols, 133 putains de longues années J'veux plus voir la SPIP partir au casse pipe J'vais vous faire la guerre comme le fils de Bush Le rap c'est la street, pose le micro tout de suite, on va t'baiser ta mère, enculé d'fils de bourge17</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Les Frères Lumières et Abdallah Elle a fait d'la route, Kama Sutra, clef de bras J'lui ai mis ces neufs oups-c, bisous, bonne nuit Poto, tu dégoutes tes accro au cke-cra J'tenvoie Captain Cook s'tas des insomnies Jsuis sur lautoroute, y a la Guardia Touda met la tempête, bisous, bonne nuit Tu critiques ton pote mais tu rêves de sa meuf Rrrouurouu tes un pigeon comme lui Folie narcissique algérienne que je retranscris Je rédige des vérités car les reufs transpirent Quand je trouve pas linspi, j'peux rouler jusquà trente splifs Ramène-moi mes papiers ou j'te shoot comme Steve Même quand j'suis sous champagne, série dabdos Va dire à ta girlfriend que jai son petit cadeau Arrête-moi si tu peux commissaire tas pas le cardio Ils sont millionnaires mais ils baisent des ados Jsuis sur la croisette en buvette Avec ta reumé la cagole côté passager Toi tu joues trop le gangst, quand tes dans le tieks Mais tu viens nous sucer la bite pour quon t'passe un G Rares sont les bikos que la juge libère Jai de la liqueur dans la vésicule biliaire J'suis pas là pour chialer qui a le plus souffert Tu confonds rap conscient et concurrence victimaire Lechkou bi termtek Redwa tu vas me laisser le trognon de la pomme shriki Shrab tu fais la tonne tu pèses moins quune michto teh Sheraton J'veux ken la matonne, all eyes on me J'te souhaiterais même pas de mourir dans ton lit Jai pas dormi, si tu maimes pas mouah, bisous, bonne nuit Sale fils de pute You might also like Jsuis dans le pe-ra pour la moula Pour mes arbouches, mes arboulas Jreviens dans le game vénèr comme à lancienne Et c'est juste pour leur faire la bamboula Chérie Coco, bouge ton boulard Pour Les Frères Lumières, Abdallah Papa est là pour éteindre la lumière Jappuie sur la gâchette il fait tout noir Bisous, bonne nuit Bisous, bonne nuit Mouah mouah Bisous, bonne nuit Bisous, bonne nuit Bisous, bonne nuit Mouah mouah Bisous, bonne nuit Bisous, bonne nuit Bisous, bonne nuit Mouah mouah Bisous, bonne nuit J'viendrai t'chercher même dans ton lit Biko, j'vais te soulever pour un tron-li Donc toi tu veux la guerre, va falloir l'assumer C'est l'heure de la tempête Sur Insta t'es parfaite, en vrai j'ai plus vu ta chatte que ta tête J'suis meilleur que ton père, j'suis meilleur que ta mère J'suis meilleur que ton fils T'esquiveras pas les balles dans ma matrice Va t'faire mettre toi et ton contrat d'artiste Saitama a pris du poids J't'attends quand tu veux en tête à tête Bisous bonne nuit j'tallumerai dans ton lit Et jattends pas samedi soir pour te faire ta fête Pour un rien les p'tits s'entre-tuent J'te cache pas qu'ils me laissent plutôt perplexe Et j'vois que les femmes sont faux-culs J'ai même du mal à tomber sur des vrais bzez, argh On kick les même beats, on n'a pas le même sexe Tu dis que t'as un sacré cur En vrai t'es qu'un vieux porc comme à Marseille, argh Tu lui offres des t-shirts pendant qu'elle m'harcèle Si t'es pas une pute J't'assure j'que te quitterai pas comme Jacques Brel, Brel T'es mon ennemi donc j'vais te laisser sur le tek' Vu qu'elle kiff ma musique J'leur laisse faire de la flûte avec mon zgeg, zgeg C'que t'as fait j'le fait à cloche pattes Toujours du blé dans la poche droite J'suis l'genre de mec que tes potes grattent Jsuis dans le pe-ra pour la moula Pour mes arbouches, mes arboulas Jreviens dans le game vénèr comme à lancienne Et juste pour leur faire la bamboula Chérie Coco, bouge ton boulard Pour Les Frères Lumières, Abdallah Papa est là pour éteindre la lumière Jappuie sur la gâchette il fait tout noir Bisous, bonne nuit Bisous, bonne nuit Mouah mouah Bisous, bonne nuit Bisous, bonne nuit Bisous, bonne nuit Mouah mouah Bisous, bonne nuit Bisous, bonne nuit Bisous, bonne nuit Mouah mouah Bisous, bonne nuit J'viendrai t'chercher même dans ton lit Biko, j'vais te soulever pour un tron-li M'demande pas ce que j'ai bu, on m'a mis quelque chose J'aime quand tu me parles en rébus, quand tu me fais quelques poses Je te matte depuis le début, maintenant faut que t'oses Venir à table, et venir me parler, me charmer Qualité, sans jouer j'suis qualifié Copie à revoir je n'l'avais pas validée Tu vas mourir de vanité, tu vas mourir de vanité N'oublie pas l'accent aiguë à Abdallah m'a niqué J'suis dans le pe-ra pour la moula Pour mes surs qui portent le foulard T'as un balais dans l'cul mais ça vole pas haut comme à Poudlard J'ai péché mon seigneur Astarghfiroullah J'ai péché mon seigneur Astarghfiroullah Dans la Shari'ah, mieux vaut bouffer du porc que de bouffer la keschne d'un bout de lard J'balance des punchs, je m'demande si tu captes T'as une sale gueule bah t'as qu'a faire du DAB Tu me prends en snap pour me dire que tu rappes Est-ce que tu vas au Louvre pour leur dire que tu graffes Hayce et Volts Face m'ont gentiment convié à table Fallait bien que je bouffe la prod, pour que je prouve que je crève la dalle5</t>
+          <t>Les Frères Lumières et Abdallah Elle a fait d'la route, Kama Sutra, clef de bras J'lui ai mis ces neufs oups-c, bisous, bonne nuit Poto, tu dégoutes tes accro au cke-cra J'tenvoie Captain Cook s'tas des insomnies Jsuis sur lautoroute, y a la Guardia Touda met la tempête, bisous, bonne nuit Tu critiques ton pote mais tu rêves de sa meuf Rrrouurouu tes un pigeon comme lui Folie narcissique algérienne que je retranscris Je rédige des vérités car les reufs transpirent Quand je trouve pas linspi, j'peux rouler jusquà trente splifs Ramène-moi mes papiers ou j'te shoot comme Steve Même quand j'suis sous champagne, série dabdos Va dire à ta girlfriend que jai son petit cadeau Arrête-moi si tu peux commissaire tas pas le cardio Ils sont millionnaires mais ils baisent des ados Jsuis sur la croisette en buvette Avec ta reumé la cagole côté passager Toi tu joues trop le gangst, quand tes dans le tieks Mais tu viens nous sucer la bite pour quon t'passe un G Rares sont les bikos que la juge libère Jai de la liqueur dans la vésicule biliaire J'suis pas là pour chialer qui a le plus souffert Tu confonds rap conscient et concurrence victimaire Lechkou bi termtek Redwa tu vas me laisser le trognon de la pomme shriki Shrab tu fais la tonne tu pèses moins quune michto teh Sheraton J'veux ken la matonne, all eyes on me J'te souhaiterais même pas de mourir dans ton lit Jai pas dormi, si tu maimes pas mouah, bisous, bonne nuit Sale fils de pute Jsuis dans le pe-ra pour la moula Pour mes arbouches, mes arboulas Jreviens dans le game vénèr comme à lancienne Et c'est juste pour leur faire la bamboula Chérie Coco, bouge ton boulard Pour Les Frères Lumières, Abdallah Papa est là pour éteindre la lumière Jappuie sur la gâchette il fait tout noir Bisous, bonne nuit Bisous, bonne nuit Mouah mouah Bisous, bonne nuit Bisous, bonne nuit Bisous, bonne nuit Mouah mouah Bisous, bonne nuit Bisous, bonne nuit Bisous, bonne nuit Mouah mouah Bisous, bonne nuit J'viendrai t'chercher même dans ton lit Biko, j'vais te soulever pour un tron-li Donc toi tu veux la guerre, va falloir l'assumer C'est l'heure de la tempête Sur Insta t'es parfaite, en vrai j'ai plus vu ta chatte que ta tête J'suis meilleur que ton père, j'suis meilleur que ta mère J'suis meilleur que ton fils T'esquiveras pas les balles dans ma matrice Va t'faire mettre toi et ton contrat d'artiste Saitama a pris du poids J't'attends quand tu veux en tête à tête Bisous bonne nuit j'tallumerai dans ton lit Et jattends pas samedi soir pour te faire ta fête Pour un rien les p'tits s'entre-tuent J'te cache pas qu'ils me laissent plutôt perplexe Et j'vois que les femmes sont faux-culs J'ai même du mal à tomber sur des vrais bzez, argh On kick les même beats, on n'a pas le même sexe Tu dis que t'as un sacré cur En vrai t'es qu'un vieux porc comme à Marseille, argh Tu lui offres des t-shirts pendant qu'elle m'harcèle Si t'es pas une pute J't'assure j'que te quitterai pas comme Jacques Brel, Brel T'es mon ennemi donc j'vais te laisser sur le tek' Vu qu'elle kiff ma musique J'leur laisse faire de la flûte avec mon zgeg, zgeg C'que t'as fait j'le fait à cloche pattes Toujours du blé dans la poche droite J'suis l'genre de mec que tes potes grattent Jsuis dans le pe-ra pour la moula Pour mes arbouches, mes arboulas Jreviens dans le game vénèr comme à lancienne Et juste pour leur faire la bamboula Chérie Coco, bouge ton boulard Pour Les Frères Lumières, Abdallah Papa est là pour éteindre la lumière Jappuie sur la gâchette il fait tout noir Bisous, bonne nuit Bisous, bonne nuit Mouah mouah Bisous, bonne nuit Bisous, bonne nuit Bisous, bonne nuit Mouah mouah Bisous, bonne nuit Bisous, bonne nuit Bisous, bonne nuit Mouah mouah Bisous, bonne nuit J'viendrai t'chercher même dans ton lit Biko, j'vais te soulever pour un tron-li M'demande pas ce que j'ai bu, on m'a mis quelque chose J'aime quand tu me parles en rébus, quand tu me fais quelques poses Je te matte depuis le début, maintenant faut que t'oses Venir à table, et venir me parler, me charmer Qualité, sans jouer j'suis qualifié Copie à revoir je n'l'avais pas validée Tu vas mourir de vanité, tu vas mourir de vanité N'oublie pas l'accent aiguë à Abdallah m'a niqué J'suis dans le pe-ra pour la moula Pour mes surs qui portent le foulard T'as un balais dans l'cul mais ça vole pas haut comme à Poudlard J'ai péché mon seigneur Astarghfiroullah J'ai péché mon seigneur Astarghfiroullah Dans la Shari'ah, mieux vaut bouffer du porc que de bouffer la keschne d'un bout de lard J'balance des punchs, je m'demande si tu captes T'as une sale gueule bah t'as qu'a faire du DAB Tu me prends en snap pour me dire que tu rappes Est-ce que tu vas au Louvre pour leur dire que tu graffes Hayce et Volts Face m'ont gentiment convié à table Fallait bien que je bouffe la prod, pour que je prouve que je crève la dalle5</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>J'suis de retour, bitch Yeah oh Grosse pointure, de l'uranium au coeur du réacteur Faut que je délaisse la haute couture pour le Grand Créateur Messieurs les rappeurs, je reviens démasquer vos jeux d'acteurs Faut le platine, faire couler l'encre des grands rédacteurs MC, je te fusille des yeux, je te mitraille de la bouche On change de buteur sur le terrain, j't'envoie le ballon sur la touche Lemsi fait péter l'essieu du gamos fil de gauche Wesh, t'as les lèvres gercées, bitch, on te fait pas fumer sur la kush Hayce Lems aka Big Lemsi, baise le rap game yeah oh Harcèlement, je sais pas ce qu'elles veulent, je ramasse plus de putes que 2 Chainz, yeah oh On avait pas les dineros Traumatisés, les anciens tombent dans l'héro MC ton flow manque de sels minéraux J'viens de sortir de ma coquille Calimero Chez Triangle d'Orgueil, on amène la qualidad On ne dort que d'un oeil, envisage une tyrannie pyramidale Friand de métaphores, du flow dans les amygdales Un pourcentage sur tous vos projets, je vous rackette à la ritale Chez Triangle d'Orgueil, on amène la qualidad On ne dort que d'un oeil, envisage une tyrannie pyramidale Friand de métaphores, du flow dans les amygdales Un pourcentage sur tous vos projets, je vous rackette à la ritale Yeah oh You might also like J'tiens la dague, j'tiens la dague J'suis de retour, j'ai la dalle Volts Face a la dalle XV Barbar a la dalle PSO Thug a la dalle Triangle d'or a la dalle Bico j'ai la dalle Blacko j'ai la dalle Blanco j'ai la dalle Loka j'ai la dalle La dalle, la dalle, la dalle Yeah oh Triangle d'Or A toutes mes lokas... Même si t'as tourné, t'es ma loka Pas de manières, si tu me plais, j'y vais à l'audace Eurasienne, Americana, quelles que soient ta couleur ou tes origines Africana, Guatemala, je les rends malades, elles me voient dans les magazines J'pilote trop vite pour elle, elle en a des maux de coeur Loka, ne viens pas me remémorer telle ou telle fleur Ce soir t'es la reine qui manquait dans ma royale quinte flush Je fais voler les billets pour narguer l'inspecteur Je fais jaillir le champagne pendant qu'elle twerk Je fais jaillir le champagne pendant qu'elle twerk Pendant qu'elle twerk, toc, toc, toc Ça frappe à la porte, elle pense que c'est la police Loka, sois forte, c'était seulement le fleuriste J'passe les rapports et le vent caresse tes cheveux lisses T'sais que je suis so hot, loka, pl'Hayce à l'insomnie J'viens te délivrer, j'ai ce qu'il te manque Qu'est-ce que tu dirais de faire le tour du monde ? J'viens te délivrer, j'ai ce qu'il te manque Ma bimbo loka, t'as besoin d'un vrai loko Ma bimbo loka, t'as besoin d'un vrai loko Je suis dans la Lamborghini, j'ai la money, je suis viril Ma bimbo loka, t'as besoin d'un vrai loko Je suis dans la Lamborghini, j'ai la money, je suis venu te délivrer J'ai ce qu'il te manque Ma bimbo loka, t'as besoin d'un vrai loko Vas-y envoie la prod, ha ha hayce Wesh les rappeurs, bien ou quoi ? Bien... ou quoi ?! Ha ha ha Ca va chauffer pour vos petites fesses Ramenez du talc, 2015 j'suis de retour Rien qu'ils parlent, ça me désole, c'est pas des hommes Ouais c'est bien moi le DZ qui t'ait traîné sur le sol J'donne les ordres, on m'escorte Paris Nord, mes bicos sont baisés, pas sûr que d'ici tu ressortes Si les forces de l'ordre me délogent, envoyez de la bonne zèb à mon petit reufré Volts Je m'endors sous Dom Pér' car mon or dort sous terre Motherfucker, biko, y'a rien dans le coffre Deux backeux dans la voiture... donc un dans la nature 3 bicos en filature, il s'agit d'une inestimable peinture On fait partie de ses physiques ingrats que la solitude a condamné sur l'asphalte Viens pas m'importuner si ta pute s'est tatouée Hayce Lemsi sur la chatte XV Baby le PIB De la drogue tah les Pays-Bas J'rends visite à mes ennemis calibrés Sans avoir inhalé de bayda J'veux sortir le mes tits-pe de la street Mais j'ai pas le public d'Inna Modja J'vais pas m'éterniser, je connais la suite Et je ne vendrai pas mon âme au Diable Assonances et rythmique, tellement insolent que t'aimerais voir nos peaux s'éclaircir Assombri, j'ai l'éthique d'un vrai hustler, on me surnommera Hayce Lemsi Me désire-t-elle pour ce que je suis ? Me désire-t-elle pour ce que j'ai ? L'opinel est dans ses bas-résilles Elle se servira de ce que j'aime J'sors du bâtiment 17 armé d'un Mac 10 J'suis pas qu'un artiste, l'ouvreuse est sur la A10 La volaille est hors-piste, leurs keuschnés s'élargissent Tellement de buzz que je baise la boulangère et la factrice J'les neutralise ga3, j'les traumatise, bref J'fais les meilleurs mixtapes, ce n'est plus un mystère Triangulaire hémisphère, prolifère le business Tes rappeurs attrapent mes chevilles sur l'échelle de Richter25</t>
+          <t>J'suis de retour, bitch Yeah oh Grosse pointure, de l'uranium au coeur du réacteur Faut que je délaisse la haute couture pour le Grand Créateur Messieurs les rappeurs, je reviens démasquer vos jeux d'acteurs Faut le platine, faire couler l'encre des grands rédacteurs MC, je te fusille des yeux, je te mitraille de la bouche On change de buteur sur le terrain, j't'envoie le ballon sur la touche Lemsi fait péter l'essieu du gamos fil de gauche Wesh, t'as les lèvres gercées, bitch, on te fait pas fumer sur la kush Hayce Lems aka Big Lemsi, baise le rap game yeah oh Harcèlement, je sais pas ce qu'elles veulent, je ramasse plus de putes que 2 Chainz, yeah oh On avait pas les dineros Traumatisés, les anciens tombent dans l'héro MC ton flow manque de sels minéraux J'viens de sortir de ma coquille Calimero Chez Triangle d'Orgueil, on amène la qualidad On ne dort que d'un oeil, envisage une tyrannie pyramidale Friand de métaphores, du flow dans les amygdales Un pourcentage sur tous vos projets, je vous rackette à la ritale Chez Triangle d'Orgueil, on amène la qualidad On ne dort que d'un oeil, envisage une tyrannie pyramidale Friand de métaphores, du flow dans les amygdales Un pourcentage sur tous vos projets, je vous rackette à la ritale Yeah oh J'tiens la dague, j'tiens la dague J'suis de retour, j'ai la dalle Volts Face a la dalle XV Barbar a la dalle PSO Thug a la dalle Triangle d'or a la dalle Bico j'ai la dalle Blacko j'ai la dalle Blanco j'ai la dalle Loka j'ai la dalle La dalle, la dalle, la dalle Yeah oh Triangle d'Or A toutes mes lokas... Même si t'as tourné, t'es ma loka Pas de manières, si tu me plais, j'y vais à l'audace Eurasienne, Americana, quelles que soient ta couleur ou tes origines Africana, Guatemala, je les rends malades, elles me voient dans les magazines J'pilote trop vite pour elle, elle en a des maux de coeur Loka, ne viens pas me remémorer telle ou telle fleur Ce soir t'es la reine qui manquait dans ma royale quinte flush Je fais voler les billets pour narguer l'inspecteur Je fais jaillir le champagne pendant qu'elle twerk Je fais jaillir le champagne pendant qu'elle twerk Pendant qu'elle twerk, toc, toc, toc Ça frappe à la porte, elle pense que c'est la police Loka, sois forte, c'était seulement le fleuriste J'passe les rapports et le vent caresse tes cheveux lisses T'sais que je suis so hot, loka, pl'Hayce à l'insomnie J'viens te délivrer, j'ai ce qu'il te manque Qu'est-ce que tu dirais de faire le tour du monde ? J'viens te délivrer, j'ai ce qu'il te manque Ma bimbo loka, t'as besoin d'un vrai loko Ma bimbo loka, t'as besoin d'un vrai loko Je suis dans la Lamborghini, j'ai la money, je suis viril Ma bimbo loka, t'as besoin d'un vrai loko Je suis dans la Lamborghini, j'ai la money, je suis venu te délivrer J'ai ce qu'il te manque Ma bimbo loka, t'as besoin d'un vrai loko Vas-y envoie la prod, ha ha hayce Wesh les rappeurs, bien ou quoi ? Bien... ou quoi ?! Ha ha ha Ca va chauffer pour vos petites fesses Ramenez du talc, 2015 j'suis de retour Rien qu'ils parlent, ça me désole, c'est pas des hommes Ouais c'est bien moi le DZ qui t'ait traîné sur le sol J'donne les ordres, on m'escorte Paris Nord, mes bicos sont baisés, pas sûr que d'ici tu ressortes Si les forces de l'ordre me délogent, envoyez de la bonne zèb à mon petit reufré Volts Je m'endors sous Dom Pér' car mon or dort sous terre Motherfucker, biko, y'a rien dans le coffre Deux backeux dans la voiture... donc un dans la nature 3 bicos en filature, il s'agit d'une inestimable peinture On fait partie de ses physiques ingrats que la solitude a condamné sur l'asphalte Viens pas m'importuner si ta pute s'est tatouée Hayce Lemsi sur la chatte XV Baby le PIB De la drogue tah les Pays-Bas J'rends visite à mes ennemis calibrés Sans avoir inhalé de bayda J'veux sortir le mes tits-pe de la street Mais j'ai pas le public d'Inna Modja J'vais pas m'éterniser, je connais la suite Et je ne vendrai pas mon âme au Diable Assonances et rythmique, tellement insolent que t'aimerais voir nos peaux s'éclaircir Assombri, j'ai l'éthique d'un vrai hustler, on me surnommera Hayce Lemsi Me désire-t-elle pour ce que je suis ? Me désire-t-elle pour ce que j'ai ? L'opinel est dans ses bas-résilles Elle se servira de ce que j'aime J'sors du bâtiment 17 armé d'un Mac 10 J'suis pas qu'un artiste, l'ouvreuse est sur la A10 La volaille est hors-piste, leurs keuschnés s'élargissent Tellement de buzz que je baise la boulangère et la factrice J'les neutralise ga3, j'les traumatise, bref J'fais les meilleurs mixtapes, ce n'est plus un mystère Triangulaire hémisphère, prolifère le business Tes rappeurs attrapent mes chevilles sur l'échelle de Richter25</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>- Beeh.. ramène moi un verre là ! ramène moi un verre ! - Oh Tony, bien ou quoi ? - Ouais Many, ça va pas là, t'sais quoi ? Demain ils montent sur une affaire, ils veulent nous faire un gosse dans le dos Nous faire ça à nous on va leur faire voir voir c'est qui les loups hein T'sais que ça m'rend fou les baltringues chantent sans parapluie dès qu'il pleut plus J'te le jure Tony j'les amputerai avant de boire leur sang de pute Ils s'y sentent plus en plus de ça on a toujours été fidèle Elle profitait, pour elle on a fumé des mecs au Sofitel au Sofitel Ouais on s'en foutait peut-être un peu dans les fouilles mais y a pas de quoi détrôner Rockefeller Ils vivent de nos couilles on s'bouge on arrive cagoulé, gantés dès la première heure C'est nous les meilleurs on va tous se les faire rien qu'en une aprèm Tu sais qu'il y a des choses qu'on fait d'abord et qu'on dit après many Y a que ça de vrai, on les allume, sur le bitume, à la craie On se refait, sur la fortune, des te-trai You might also like Ils nous craignent en retrait, le plan n'est plus un secret Tel est pris qui croyait prendre mon cur est blanc qu'à peu près Ouais mon frère faut qu'on aille chez le dentiste, il m'reste qu'un 22 J'veux des armes de guerre pour les mettre sur blacklist bref, j'crois que le navire est à 20 lieux Il pleut des cordes et des douilles, porte tes couilles à défaut qu'on te les coupe Mets les poukis d'accord sort les armes avant que les vautours ne volent au dessus d'ta dépouille, au dessus d'ta dépouille Il pleut des cordes et des douilles, bonne chance à ceux qui restent on prend la place à ceux qui règnent Ici on danse avec les loups, il pleut des cordes et des douilles J'ai eu l'info par la poukave, la drogue arrive bien de Bastia Y'aura la pute, le client, les mec de la famille Batshall Pas d'jaloux deux gilets, du semtex, un Desert Eagle, deux 9-2, 11-2, uzi, des grenades, un M.16 On va les faire miauler comme des gonzesses Ouais baisse le on-s' le but du jeu c'est que l'on arrive bien devant eux La transac' à 5h, on sera déjà là avec des fleurs on les accueille Un cercueil qu'on creusera vip pour la mistinguette Elle veut baiser qui hein ? Elle nous a pris pour ses michtons d'la ginguette ? Ouais t'inquiètes le trou j'l'ai déjà creusé, l'heure tourne, habille-toi j'vais t'déposer Ces p'tits bâtards vont connaître des vrais névrosés Chuuut ils sont là, guette-les dans la Bentley prépare-toi Pas d'cagoule pour buter les putes, mets la patte sur ton 11-43 J'suis garant d'toi j'te donne ma vie hein, couvre-moi j'en bute un On récupère, dans l'coffre on met le butin Putain, putain Tony la Cadillac, allez tire tire Mafiosa, Lacrim, Hayce Lemsi on mord pas à l'ameçon On a cannés des grands requins, demande à poisson6</t>
+          <t>- Beeh.. ramène moi un verre là ! ramène moi un verre ! - Oh Tony, bien ou quoi ? - Ouais Many, ça va pas là, t'sais quoi ? Demain ils montent sur une affaire, ils veulent nous faire un gosse dans le dos Nous faire ça à nous on va leur faire voir voir c'est qui les loups hein T'sais que ça m'rend fou les baltringues chantent sans parapluie dès qu'il pleut plus J'te le jure Tony j'les amputerai avant de boire leur sang de pute Ils s'y sentent plus en plus de ça on a toujours été fidèle Elle profitait, pour elle on a fumé des mecs au Sofitel au Sofitel Ouais on s'en foutait peut-être un peu dans les fouilles mais y a pas de quoi détrôner Rockefeller Ils vivent de nos couilles on s'bouge on arrive cagoulé, gantés dès la première heure C'est nous les meilleurs on va tous se les faire rien qu'en une aprèm Tu sais qu'il y a des choses qu'on fait d'abord et qu'on dit après many Y a que ça de vrai, on les allume, sur le bitume, à la craie On se refait, sur la fortune, des te-trai Ils nous craignent en retrait, le plan n'est plus un secret Tel est pris qui croyait prendre mon cur est blanc qu'à peu près Ouais mon frère faut qu'on aille chez le dentiste, il m'reste qu'un 22 J'veux des armes de guerre pour les mettre sur blacklist bref, j'crois que le navire est à 20 lieux Il pleut des cordes et des douilles, porte tes couilles à défaut qu'on te les coupe Mets les poukis d'accord sort les armes avant que les vautours ne volent au dessus d'ta dépouille, au dessus d'ta dépouille Il pleut des cordes et des douilles, bonne chance à ceux qui restent on prend la place à ceux qui règnent Ici on danse avec les loups, il pleut des cordes et des douilles J'ai eu l'info par la poukave, la drogue arrive bien de Bastia Y'aura la pute, le client, les mec de la famille Batshall Pas d'jaloux deux gilets, du semtex, un Desert Eagle, deux 9-2, 11-2, uzi, des grenades, un M.16 On va les faire miauler comme des gonzesses Ouais baisse le on-s' le but du jeu c'est que l'on arrive bien devant eux La transac' à 5h, on sera déjà là avec des fleurs on les accueille Un cercueil qu'on creusera vip pour la mistinguette Elle veut baiser qui hein ? Elle nous a pris pour ses michtons d'la ginguette ? Ouais t'inquiètes le trou j'l'ai déjà creusé, l'heure tourne, habille-toi j'vais t'déposer Ces p'tits bâtards vont connaître des vrais névrosés Chuuut ils sont là, guette-les dans la Bentley prépare-toi Pas d'cagoule pour buter les putes, mets la patte sur ton 11-43 J'suis garant d'toi j'te donne ma vie hein, couvre-moi j'en bute un On récupère, dans l'coffre on met le butin Putain, putain Tony la Cadillac, allez tire tire Mafiosa, Lacrim, Hayce Lemsi on mord pas à l'ameçon On a cannés des grands requins, demande à poisson6</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ah-ah ah Loka, loka Ah-ah ah Loka, loka Pour t'avoir, j'serais jamais fatigué J'pense à toi toute la nuit j'en dors mal J'me sens mal, du mal à mappliquer Tu l'vois pas car pour toi c'est normal J'ai pas de doute j'ai pas de doute Aucune femme prendra ta place J'ai pas de doute j'ai pas de doute C'est sûr la j'suis piqué Pour toi j'serais capable de tout donner Faut pas faut pas J'te donnerais tout ouais j'te promet Faut pas faut pas J'ai pas de doute j'ai pas de doute Aucune femme prendra ta place J'ai pas de doute j'ai pas de doute Ça y est la j'suis piqué You might also like Ah, tu m'as eu Beyoncé J'ai croqué le fruit du démon señora Le regard que tu m'as lancé Mama j'ai dû cueillir les fleurs du mal Ça y est j'suis lancé Tu changes tout l'temps d'avis mais tu trouves ça normal Et si je t'invite à danser C'est que j'ai dû cueillir une fleur du mal Elle vaut des milliers, des millions, des billions Elle vaut des milliers, des millions, des billions Cara mia, j'fumé sur ce narguilé Et j'ai vu ta beauté paranormal Tombé love, ça m'est rarement arrivé Mais ton nom résonne jusqu'au fond de mon âme Et si je n'avais pas les sous Est-ce que tu serais dans mes bras Et si ça n'valais pas le coup Que je te veuille seulement sous mes draps T'auras trop d'mal à suivre ma life style, loka loka Ce soir elle se fait belle pour un gangsta, loka loka T'es faite pour moi y'a pas de doute Tu te déhanche pour me faire du mal La plupart d'entre eux lâcheraient tout Ah, tu m'as eu Beyoncé J'ai croqué le fruit du démon señora Le regard que tu m'as lancé Mama j'ai dû cueillir les fleurs du mal Ça y est j'suis lancé Tu changes tout l'temps d'avis mais tu trouves ça normal Et si je t'invite à danser C'est que j'ai dû cueillir une fleur du mal Elle vaut des milliers, des millions, des billions Elle vaut des milliers, des millions, des billions Ah, tu m'as eu Beyoncé J'ai croqué le fruit du démon señora Le regard que tu m'as lancé Mama j'ai dû cueillir les fleurs du mal Ça y est j'suis lancé Tu changes tout l'temps d'avis mais tu trouves ça normal Et si je t'invite à danser C'est que j'ai dû cueillir une fleur du mal Elle vaut des milliers, des millions, des billions Elle vaut des milliers, des millions, des billions Ah-ah1</t>
+          <t>Ah-ah ah Loka, loka Ah-ah ah Loka, loka Pour t'avoir, j'serais jamais fatigué J'pense à toi toute la nuit j'en dors mal J'me sens mal, du mal à mappliquer Tu l'vois pas car pour toi c'est normal J'ai pas de doute j'ai pas de doute Aucune femme prendra ta place J'ai pas de doute j'ai pas de doute C'est sûr la j'suis piqué Pour toi j'serais capable de tout donner Faut pas faut pas J'te donnerais tout ouais j'te promet Faut pas faut pas J'ai pas de doute j'ai pas de doute Aucune femme prendra ta place J'ai pas de doute j'ai pas de doute Ça y est la j'suis piqué Ah, tu m'as eu Beyoncé J'ai croqué le fruit du démon señora Le regard que tu m'as lancé Mama j'ai dû cueillir les fleurs du mal Ça y est j'suis lancé Tu changes tout l'temps d'avis mais tu trouves ça normal Et si je t'invite à danser C'est que j'ai dû cueillir une fleur du mal Elle vaut des milliers, des millions, des billions Elle vaut des milliers, des millions, des billions Cara mia, j'fumé sur ce narguilé Et j'ai vu ta beauté paranormal Tombé love, ça m'est rarement arrivé Mais ton nom résonne jusqu'au fond de mon âme Et si je n'avais pas les sous Est-ce que tu serais dans mes bras Et si ça n'valais pas le coup Que je te veuille seulement sous mes draps T'auras trop d'mal à suivre ma life style, loka loka Ce soir elle se fait belle pour un gangsta, loka loka T'es faite pour moi y'a pas de doute Tu te déhanche pour me faire du mal La plupart d'entre eux lâcheraient tout Ah, tu m'as eu Beyoncé J'ai croqué le fruit du démon señora Le regard que tu m'as lancé Mama j'ai dû cueillir les fleurs du mal Ça y est j'suis lancé Tu changes tout l'temps d'avis mais tu trouves ça normal Et si je t'invite à danser C'est que j'ai dû cueillir une fleur du mal Elle vaut des milliers, des millions, des billions Elle vaut des milliers, des millions, des billions Ah, tu m'as eu Beyoncé J'ai croqué le fruit du démon señora Le regard que tu m'as lancé Mama j'ai dû cueillir les fleurs du mal Ça y est j'suis lancé Tu changes tout l'temps d'avis mais tu trouves ça normal Et si je t'invite à danser C'est que j'ai dû cueillir une fleur du mal Elle vaut des milliers, des millions, des billions Elle vaut des milliers, des millions, des billions Ah-ah1</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>C'est ça, la beauté de la musique. On ne peut pas te l'enlever. Vous n'avez jamais ressenti ça avec la musique ? C'est ici que ça à le plus de sens, on en a besoin pour ne pas oublier, ne pas oublier qu'il y'a quelque chose .. en nous l'espoir On m'a appris que le songeur était plus fort que le songe Que le menteur pouvait croire dur comme fer en son mensonge Assis sur un banc de la cité, j'observe les grands ensembles Arc-en-ciel de diversité, on a grandi ensemble J'sors de lascenseur, la concierge me regarde de travers Ici, on vit pas pour les autres, on apprend à vivre avec On a des lamelles dans la sacoche et une lame dans la poche Coffre avant d'manger la gamelle, conscient qu'ce jour approche Les proches partent on retiens nos larmes, s'cache pour pleurer des rivières Boire des litres, on est fait comme des rats dans la souricière Les sourcils froncés, stressé par les sursis, par les fiches de recherches Chaque jour un nouveau soucis s'présente y'a besoin d'plus de fraîche Le shit pour antidépresseur, paro à force d'errer seul Tu t'rends compte qu't'as pas vu grandir tes p'tits frères et surs Aveuglé par lappât du gain, la dictature du paraître On prend des risques pour se ruiner chez Balmain, chez dsquared Des fois j'aimerais qu'tout ça s'arrête pourtant j'fais rien pour On rentre en garde à vue sans tapie rouge ni roulement d'tambours Il s'agit d'réagir avant lhémorragie, la tumeur Petit l'horreur est humaine, tu merdes et tu laisses rien le jour où tu meurs Tu mens toujours à ta mère en la regardant dans les yeux Tu n'peux rien cacher au créateur d'la terre et des cieux T'as des sous mais dis moi dans quoi tu les dépenses ? Ne penses qu'a te remplir la panse, c'est l'hécatombe tu tombes dans la décadence Dans la dépendance, de dealer à consommateur Les baceux tirent sans somations, tapent ton nom dans l'ordinateur Tout est bien qui finit mal, t'as fais du mal pour Phillip Plein Tu trouveras le parloir vide à Sarrant, Vivone ou Villepinte J'ai des potos qu'ont pris 10 piges et qui souffrent en centrale S'entraident ou sentre-tuent, s'retrouvent avec un shlass dans les entrailles Aucune trêve on nous jette en cellule avec ou sans preuves Pris dans les bras de la justices comme dans les tentacules de la pieuvre Appauvris, soif d'affection c'est dans la rage qu'on s'abreuve Assombris, nos curs sont noirs et nos regards ténébreux Sabrutir est plus facile que de sinstruire Tu fumes pour oublier l'avenir mais l'avenir n'oublieras pas de te détruire On veut s'en sortir et la fin justifie les moyens Prêt à tout pour payer le loyer quitte a n'plus respecter les doyens Demain qui vas nettoyer la merde qu'on a laissé ? A délaisser nos mères, nos femmes, nos surs, elle se sentent blessées On rentre chez nous tête baissée, l'escalier pue la pisse fils Le daron fais les 3 8, il est même pas 8 du mat' t'as bu 3 86 Les vils-ci t'pistent, mettent ton équipe sous commission rogatoire Interrogatoire immédiate comparution You might also like Eurêka, les idées se bousculent dans ma tête Eurêka, j'ai le regards vitreux est-ce le calme avant la tempête ? Eurêka, j'ai du mal à vivre heureux, ivre de mal être Eurêka, pour aimer les autres il faut déjà s'aimer sois même Eurêka, vil et violent dans le fond des abîmes on a du mal à trouver un sens à la vie Que des fous du volant remplis d'adrénaline sous l'effet de la lean dans les rues de ma ville Eurêka Eurêka On m'a appris que le songeur était plus fort que le songe Que le menteur pouvait croire dur comme fer en son mensonge Assis sur un banc de la cité, j'observe les grands ensembles Arc-en-ciel de diversité, on a grandi ensemble1</t>
+          <t>C'est ça, la beauté de la musique. On ne peut pas te l'enlever. Vous n'avez jamais ressenti ça avec la musique ? C'est ici que ça à le plus de sens, on en a besoin pour ne pas oublier, ne pas oublier qu'il y'a quelque chose .. en nous l'espoir On m'a appris que le songeur était plus fort que le songe Que le menteur pouvait croire dur comme fer en son mensonge Assis sur un banc de la cité, j'observe les grands ensembles Arc-en-ciel de diversité, on a grandi ensemble J'sors de lascenseur, la concierge me regarde de travers Ici, on vit pas pour les autres, on apprend à vivre avec On a des lamelles dans la sacoche et une lame dans la poche Coffre avant d'manger la gamelle, conscient qu'ce jour approche Les proches partent on retiens nos larmes, s'cache pour pleurer des rivières Boire des litres, on est fait comme des rats dans la souricière Les sourcils froncés, stressé par les sursis, par les fiches de recherches Chaque jour un nouveau soucis s'présente y'a besoin d'plus de fraîche Le shit pour antidépresseur, paro à force d'errer seul Tu t'rends compte qu't'as pas vu grandir tes p'tits frères et surs Aveuglé par lappât du gain, la dictature du paraître On prend des risques pour se ruiner chez Balmain, chez dsquared Des fois j'aimerais qu'tout ça s'arrête pourtant j'fais rien pour On rentre en garde à vue sans tapie rouge ni roulement d'tambours Il s'agit d'réagir avant lhémorragie, la tumeur Petit l'horreur est humaine, tu merdes et tu laisses rien le jour où tu meurs Tu mens toujours à ta mère en la regardant dans les yeux Tu n'peux rien cacher au créateur d'la terre et des cieux T'as des sous mais dis moi dans quoi tu les dépenses ? Ne penses qu'a te remplir la panse, c'est l'hécatombe tu tombes dans la décadence Dans la dépendance, de dealer à consommateur Les baceux tirent sans somations, tapent ton nom dans l'ordinateur Tout est bien qui finit mal, t'as fais du mal pour Phillip Plein Tu trouveras le parloir vide à Sarrant, Vivone ou Villepinte J'ai des potos qu'ont pris 10 piges et qui souffrent en centrale S'entraident ou sentre-tuent, s'retrouvent avec un shlass dans les entrailles Aucune trêve on nous jette en cellule avec ou sans preuves Pris dans les bras de la justices comme dans les tentacules de la pieuvre Appauvris, soif d'affection c'est dans la rage qu'on s'abreuve Assombris, nos curs sont noirs et nos regards ténébreux Sabrutir est plus facile que de sinstruire Tu fumes pour oublier l'avenir mais l'avenir n'oublieras pas de te détruire On veut s'en sortir et la fin justifie les moyens Prêt à tout pour payer le loyer quitte a n'plus respecter les doyens Demain qui vas nettoyer la merde qu'on a laissé ? A délaisser nos mères, nos femmes, nos surs, elle se sentent blessées On rentre chez nous tête baissée, l'escalier pue la pisse fils Le daron fais les 3 8, il est même pas 8 du mat' t'as bu 3 86 Les vils-ci t'pistent, mettent ton équipe sous commission rogatoire Interrogatoire immédiate comparution Eurêka, les idées se bousculent dans ma tête Eurêka, j'ai le regards vitreux est-ce le calme avant la tempête ? Eurêka, j'ai du mal à vivre heureux, ivre de mal être Eurêka, pour aimer les autres il faut déjà s'aimer sois même Eurêka, vil et violent dans le fond des abîmes on a du mal à trouver un sens à la vie Que des fous du volant remplis d'adrénaline sous l'effet de la lean dans les rues de ma ville Eurêka Eurêka On m'a appris que le songeur était plus fort que le songe Que le menteur pouvait croire dur comme fer en son mensonge Assis sur un banc de la cité, j'observe les grands ensembles Arc-en-ciel de diversité, on a grandi ensemble1</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hayce Lemsi Triangle D'Or Triangle D'Or Une décennie scellé sous la chrysalide Jprends l'trône dun air tyrannique Miroir, Miroir, tes mon pire ennemi L'Hayce Lemsi dans la pyramide Une décennie scellé sous la chrysalide Jprends l'trône dun air tyrannique, dun rire ironique Miroir, Miroir, tes mon pire ennemi L'Hayce Lemsi dans la pyramide Je nai que de lignorance pour tes simagrées, cest pas ta mère qui m'rendra visite au parloir J'suis dans l'gamos avec Galo, Gas et Malé, jfais du dirty, jmanie le dirty comme un reur-ti de Chiraq Tous mes petits savent danser le Coupé-Détaillé, retrousse tes manches, à ton âge t'es bon qu'à rabattre Mon pote, saoul, m'appelle d'un palais, m'envoie trois pét'hayce en Abarth XXX, litrons d'frappe sur le piano J'vends du rêve aux samaritains sous le halo, des réverbères avec une marijuana de Mexicano Mental d'rocher, biko, j'digère bien les cailloux, j'dirige le Triangle d'Or comme un véritable doyen Tous ces foutus bicos tournent autour du noyau, si j'suis meilleur que toi c'est qu'j'm'en suis donné les moyens Hold-up, T-Max 5.30, nul me voit arriver Plus fiable que l'amitié Entouré d'grands ours j'brille plus que Galilée J'arrive sur scène, pfff, Johnny Hallyday Triangle D'Or You might also like Une décennie scellé sous la chrysalide Jprends l'trône dun air tyrannique Miroir, Miroir, tes mon pire ennemi L'Hayce Lemsi dans la pyramide Une décennie scellé sous la chrysalide Jprends l'trône dun air tyrannique, dun rire ironique Miroir, Miroir, tes mon pire ennemi L'Hayce Lemsi dans la pyramide Ils confondent le Triangle d'Or et celui des Bermudes, j'te vise depuis l'angle mort en direct de la berline Bilan d'un règne inachevé mon ambition perdure, ils disent que le Triangle dort on les réveille en pleine nuit Le petit prince de la capitale est de sortie chez Capitol, allez, nique ta mère toi et tes pussy vatos On s'demande pas si vous courrez plus vite que nos bastos, on rachète ta fierté, ta pét'hayce, ton gamos Tellement d'années dans la vendetta, dans la vente de sela, c'est la zone Pour les fleurs fanées, tous les condamnés que la proc' a jetés dans le zoo Toujours affamé c'est la vida loca, dolce vita millusionne Qui peut rafaler ? C'est la Kalash' humaine à la tête du réseau J'ai des marques sur le corps, balafres sur le crâne, initiales sur le Graal, je les nargue sur le score Petit prince de Paname à l'obscur état d'âme, leurs projets exécrables s'éteignent en majors Si si si j'pète la forme, 6.6.6 sur la forte, six heures six à ta porte, le six est sur ta tempe T'es fixé sur ton sort, jalousé s'tu t'en sors, j'dérange comme le cancer, seul depuis le sous-sol Jleur fous lseum, jme suis fais tout seul depuis le sous-sol J'accède au succès via la grande porte avec ma clé d'sol On m'a jeté dans le ghetto, minot, je n'avais ni marques ni repères ni boussole Jleur fous lseum, jme suis fait tout seul depuis le sous-sol Ils ont lseum, jme suis fais solo depuis le sous-sol Insouciant, j'me suis fait solo depuis le sous-sol Clé d'sol, quelques kilogrammes de seum, j'me suis fait solo Ils ont lseum, jme suis fait tout seul depuis le sous-sol Tellement d'années dans la vendetta, dans la vente de sela, c'est la zone Pour les fleurs fanées, tous les condamnés que la proc' a jetés dans le zoo Toujours affamé c'est la vida loca, dolce vita millusionne Qui peut rafaler ? C'est la Kalash' humaine à la tête du réseau32</t>
+          <t>Hayce Lemsi Triangle D'Or Triangle D'Or Une décennie scellé sous la chrysalide Jprends l'trône dun air tyrannique Miroir, Miroir, tes mon pire ennemi L'Hayce Lemsi dans la pyramide Une décennie scellé sous la chrysalide Jprends l'trône dun air tyrannique, dun rire ironique Miroir, Miroir, tes mon pire ennemi L'Hayce Lemsi dans la pyramide Je nai que de lignorance pour tes simagrées, cest pas ta mère qui m'rendra visite au parloir J'suis dans l'gamos avec Galo, Gas et Malé, jfais du dirty, jmanie le dirty comme un reur-ti de Chiraq Tous mes petits savent danser le Coupé-Détaillé, retrousse tes manches, à ton âge t'es bon qu'à rabattre Mon pote, saoul, m'appelle d'un palais, m'envoie trois pét'hayce en Abarth XXX, litrons d'frappe sur le piano J'vends du rêve aux samaritains sous le halo, des réverbères avec une marijuana de Mexicano Mental d'rocher, biko, j'digère bien les cailloux, j'dirige le Triangle d'Or comme un véritable doyen Tous ces foutus bicos tournent autour du noyau, si j'suis meilleur que toi c'est qu'j'm'en suis donné les moyens Hold-up, T-Max 5.30, nul me voit arriver Plus fiable que l'amitié Entouré d'grands ours j'brille plus que Galilée J'arrive sur scène, pfff, Johnny Hallyday Triangle D'Or Une décennie scellé sous la chrysalide Jprends l'trône dun air tyrannique Miroir, Miroir, tes mon pire ennemi L'Hayce Lemsi dans la pyramide Une décennie scellé sous la chrysalide Jprends l'trône dun air tyrannique, dun rire ironique Miroir, Miroir, tes mon pire ennemi L'Hayce Lemsi dans la pyramide Ils confondent le Triangle d'Or et celui des Bermudes, j'te vise depuis l'angle mort en direct de la berline Bilan d'un règne inachevé mon ambition perdure, ils disent que le Triangle dort on les réveille en pleine nuit Le petit prince de la capitale est de sortie chez Capitol, allez, nique ta mère toi et tes pussy vatos On s'demande pas si vous courrez plus vite que nos bastos, on rachète ta fierté, ta pét'hayce, ton gamos Tellement d'années dans la vendetta, dans la vente de sela, c'est la zone Pour les fleurs fanées, tous les condamnés que la proc' a jetés dans le zoo Toujours affamé c'est la vida loca, dolce vita millusionne Qui peut rafaler ? C'est la Kalash' humaine à la tête du réseau J'ai des marques sur le corps, balafres sur le crâne, initiales sur le Graal, je les nargue sur le score Petit prince de Paname à l'obscur état d'âme, leurs projets exécrables s'éteignent en majors Si si si j'pète la forme, 6.6.6 sur la forte, six heures six à ta porte, le six est sur ta tempe T'es fixé sur ton sort, jalousé s'tu t'en sors, j'dérange comme le cancer, seul depuis le sous-sol Jleur fous lseum, jme suis fais tout seul depuis le sous-sol J'accède au succès via la grande porte avec ma clé d'sol On m'a jeté dans le ghetto, minot, je n'avais ni marques ni repères ni boussole Jleur fous lseum, jme suis fait tout seul depuis le sous-sol Ils ont lseum, jme suis fais solo depuis le sous-sol Insouciant, j'me suis fait solo depuis le sous-sol Clé d'sol, quelques kilogrammes de seum, j'me suis fait solo Ils ont lseum, jme suis fait tout seul depuis le sous-sol Tellement d'années dans la vendetta, dans la vente de sela, c'est la zone Pour les fleurs fanées, tous les condamnés que la proc' a jetés dans le zoo Toujours affamé c'est la vida loca, dolce vita millusionne Qui peut rafaler ? C'est la Kalash' humaine à la tête du réseau32</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lima Echo Mike Sierra India dans le talkie-walkie,Zombie tah Walking Dead au Sofitel en walking Loca latina couleur moka mwen ki ka la torpille, c'est moi qui pilote la navette pose pas ton cul dans le cockpit Pas d'autographe au greffier, la loi n'aime pas les peaux mâtes, les pneus crissent, la BAC arrivent sur les lieux comme une tornade Arrête un peu d't'la péter, la roue peut tourner, tu perds ton rrain-té, tu bétom, tu t'ronges les ongles en promenade Parait que tu parle sur oim ? Espèce de grande pute, j'vomis que des vérités tu donne des leçons de flûte J't'accorde une photo mais ne crois pas que ça sent le feat, on s'ressemble pas, t'as fait le même parcours que moi mais sans le fut Ces bikos pensent que j'ai signé le pacte avec le tan-sheï, rien à faire pour toi, même si tu signais tu serais à chier Je viens de La Fourche, comme la Cliqua je mets du Versace, mon téléphone arabe est plus puissant qu'ta 4G Ils le savent qui détient la fraîche, les zombies me cherchent, à la Doggy Dog parait que ma peau vaut cher Peu importe la situation, t'inquiètes je gère, prenez pas la peine, donnez moi la paie Sombre est ton avenir, là faudrait mettre les choses au clair, tu me croyais fou à la Galilée Crois-moi que le cul de cette biatch était bien rond, parlez moi de sous, fuck être validé Demande à mon gars Bassirou hashtag ToutEstBon, dans ma tête c'est Walking Dead Quand je me réveille le matin, défoncé Suis-moi dans le parking baby Là j'vais te montrer la dépouille du rap francais Le buteur qu'au boloss fait la passe, belek à la hnouch, c'est la base Dinoliko sort le Famas et le pot d'échappement sort du kamas Mets-toi position anale à terre, ils te l'ont mise j'sais que t'as mal suceur Hek et Bendé, sont niqués, te prennent le 6.35, après ton cul se fait am'har' Paris-Saint-Main-Gér, dans tous les tieks depuis longtemps Donc pour cela que cette glace est dans ma chaire, montrez-moi les gros chèques et les montants Un keutru pas cher et le style est nickel, j'serai pas la ce week-end Bosse dans la merde comme la marine, la re-pu africaine dans tes narines You might also like Danse de sauvage comme le haka, chemise à carreaux dans le placard A l'aise comme Ragnar dans le drakkar, Barry The Bad vient de Dakar Flow aiguisé c'est la punition, PSO Thug c'est la finition Double U, Hank c'est sa saison, visser les zombies c'est la mission Pour t'allumer j'ai mon étincelle, elle tourne la dope c'est Reptincel Y'a Jack et le Mess, les bandits et les chefs, il a Abdel, Youness, donc on sort la machette Et le jour de paye, toi t'es en crise, TDO notre entreprise Sippin' lean got me , 22 heures, la cinquième 'teille Viens dans mon 17 avec tes putos vatos on va vous brûler, chez nous tous les jours c'est Walking Dead Zombie, zombie Walking Dead, j'ai mon AA-Twelve je ne rate aucune tête Zombie, zombie XVBarbar, Walking Dead, P.S.O Thug, Walking Dead Triangle D'Or, Walking Dead, crâne ensanglanté contre l'appui-tête, Walking Dead J'suis l'premier zombie à ter-boî à midi, si ta bitch me demande, dis-lui j'suis toujours ici Marre de taille-dé la quette-pla tous les jours, am'har, am'har les pochetons comme si c'était un four Pourquoi tu fais le thug ? En plus ton daron c'est un keuf Mon pote a déjà baisé ta meuf, tu ferais mieux d'redonner tes seufs J'suis devant la B et j'vais péter mon mille feuilles T'es dans la détente, prends comme un geush de Winston Ce zombie n'a pas de faiblesses En effet, mon espèce en brochettes dans sa tête, je me demande quel effet ça lui fait bang bang bang ! Dans mon tieks c'est Walking Dead, j'te cherche, j'te traque sale traître Le côté obscur nous dévore, ces zombies veulent encore un p'tit bout de ma mort Dans le manoir j'effectue la cuisson, l'Allée, la partie sombre, y'a mon Glock qui m'encombre Ton cauchemar débute à partir du moment où tu m'dois des tunes Gun sous la ceinture, si tu fais un faux pas, j'hésite pas je t'allume Et je fouette pendant qu'elle twerk, ralentis, on arrive, je baisse la vitre Walking Dead, c'est mort, t'es dead Rentre dans l'corner, ta dose est prête Pispa, Brick Squad, la Téranga, armé comme Daryl, les shérifs se mettent en garde XXX zombies donc je prends pas, comme A.D.K c'qu'on te prend on t'le rend pas Pourquoi tu caches ta cogons ? C'est pas les keufs gros, c'est l'ambulance Parle pas sur ma p'tite, comme un zombie y'a qu'ta soeur qui déambule han snitch, snitch, snitch T'entends les sirènes, sois zen c'est pas pour toi pute, pute, pute Bandante, riche et belle sois zen j'suis trop courtois Cette bande de putes veut savoir c'qui s'passe dans mon tier-quar Moi j'veux prendre la maille puis j'retourne pioncer peinard On a tous un truc en commun on a besoin de gent-ar Je dérive, je dérive, je dérive, c'est quoi c'putain de cauchemar ? Écoute c'que je dis moi je pèse mes mots, j'fuck tes cain-ris, c'est le Aero Je m'en bats les couilles de leur putain de flow, numero uno, 17-zoo Toi c'est pour ton kiff et puis moi c'est pour l'seille, un traffic actif, ouais, faut que tu te reveille Moi je me plains pas, négro, j'ai pas sommeil Viens dans mon 17 avec tes putos vatos on va vous brûler, chez nous tous les jours c'est Walking Dead Zombie, zombie Walking Dead, j'ai mon AA-Twelve je ne rate aucune tête Zombie, zombie XVBarbar, Walking Dead, P.S.O Thug, Walking Dead Triangle D'Or, Walking Dead, crâne ensanglanté contre l'appui-tête, Walking Dead On s'en bat les couilles d'ta déposition, sauf si tu jactes à l'interrogatoire et l' Tierquar sous commission rogatoire, on va t'la mettre dans toutes les positions Bête de flow de shmett dès que je m'introduis, toujours à l'heure du crime dès que j'déboule Ne mens surtout pas sur la qualité du produit, nous on roule la frappe, tu roules du boule Négro, cette salope roule du boule, elle veut que je lui mets profond Dans sa keush-né négro, hein, il faut surtout pas confondre C'est Jacques Mess et Hayce Lem', le 4 tu t'la manges profonde dans les bacs, négro Tous mes zombies dans les coins sombres, j'suis dans la cuisine, j'taffe le crack, négro Autour de moi mes négros pètent un câble, négro Autour de moi mes négros pètent un câble, négro Autour de moi mes négros pètent un câble, négro J'préfère prévenir que guérir, commettre que subir L'oseille aux shnecks, le cash aux chèques, t'as capté c'que je veux dire Tu vois où je veux en venir, ne tente rien je te verrai venir Y a des zombies ça visser le venin, on arrive à 20 pour t'ensevelir J'opère au pe-pom pour les scalper et au Katana pour les estropier J'arrive elle a les jambes écartées, t'as affaire au barbare le plus bourbier Layone vouloir stranguler le courtier, on est des légendes pour les gars d'ton quartier Layone vouloir stranguler le courtier, on est des légendes pour les gars d'ton quartier On me chuchote à l'oreille, l'orgueil les poussent à me boycotter Je les vois courir après l'oseille, mais ils n'ont aucun point de côté Fais pas l'grossiste y a que ta porte qu'est blindée, le jour de ma mort, mes ennemis vont trinquer Terrain glissant, trottoir pire qu'enneigé, j'viens d'là où les gros poissons n'cessent de pêcher Walking Dead, mes ennemis sont dans le king-par, les concurrents sont décapités T'as le nez dans la zipette, pendant que j'comparais à Cité pour avoir vi-ser au moins six têtes Walking Dead, Walking Dead, on laissera pas tes poucaves de rappeurs nous parasiter Walking Dead, Walking Dead, on a sorti le 6 coups, biko, tu pars à 6 pieds Viens dans mon 17 avec tes putos vatos on va vous brûler, chez nous tous les jours c'est Walking Dead Zombie, zombie Walking Dead, j'ai mon AA-Twelve je ne rate aucune tête Zombie, zombie XVBarba, Walking Dead, P.S.O Thug, Walking Dead Triangle D'Or, Walking Dead, crâne ensanglanté contre l'appui-tête, Walking Dead Si j'te serre la main, rappeur, j'vais recompter tous mes doigts, rappeur, je connais tous mes droits, rappeur, tu connais tous les bois J'ai forgé mon talent sur des mélodies très anciennes, euphémisme et laconisme latin se mélangent à ma voix Puis quand je vois c'qu'est devenu le peu-ra, j'pisse la rage, fils à papa veut s'accaparer ma part du gâteau J'ai trop souffert dans la street pour pas t'enculer ta r'Hayce, paraît qu'tu rases les murs en passant dans mon ghetto Ça fait longtemps que j'attends mon heure, demande au grand Damso, ils mettent tellement de vocoder on dirait qu'ils se font dom-so J'grimpe l'arbre de l'abrupte, un espèce d'homme-singe, égérie de l'Algérie, Paris sur les dorsaux Le teint maussade, les cernes violettes, il y a longtemps que je n'ai pas dormi, WalkingDead Zombies, aux armes, j'ai l'arbalète, de Daryl et le magnum de Rick, Walking Dead Je ne rate aucune tête, mon 17 c'est The Walking Dead, crâne ensanglanté contre l'appui-tête, Walking Dead Ton équipe est discrète, tu te demandes encore si le crime paie ? C'est mister bah bah ouais ouais yippie yo, des billets, plus de 6 mois d'insomnie, zombie yo zombie yé J'descends du Zodiac, j'monte dans la Cadillac, chima yé, chalumo, chimi yo, chimi yé J'suis dans ma suite, je joue au docteur avec Tabatha,pilon du rif on s'en fout du tagatha Allez bouge moi c'gros cul al batata, fais-le pour Blacko, Papson et Vegas au card-pla Me parle pas si t'as pas grandi dans le zoo, j'ai mis la selha parachute dans la sacoche Kenzo Je ne me suis jamais senti aussi bien, je vais bâtir un empire avec les pierres que ces fils de pute m'ont jeté dans le dos J'appele tes rappeurs John Doe, MS17, tieks, viens pas m'emmerder moi j'suis pas dans la jet set M16 enervé j'te rafale comme R.D, mon micro m'est fidèle comme le Tocarev à Jet Lies Zombie, zombie... Zombie, zombie...7</t>
+          <t>Lima Echo Mike Sierra India dans le talkie-walkie,Zombie tah Walking Dead au Sofitel en walking Loca latina couleur moka mwen ki ka la torpille, c'est moi qui pilote la navette pose pas ton cul dans le cockpit Pas d'autographe au greffier, la loi n'aime pas les peaux mâtes, les pneus crissent, la BAC arrivent sur les lieux comme une tornade Arrête un peu d't'la péter, la roue peut tourner, tu perds ton rrain-té, tu bétom, tu t'ronges les ongles en promenade Parait que tu parle sur oim ? Espèce de grande pute, j'vomis que des vérités tu donne des leçons de flûte J't'accorde une photo mais ne crois pas que ça sent le feat, on s'ressemble pas, t'as fait le même parcours que moi mais sans le fut Ces bikos pensent que j'ai signé le pacte avec le tan-sheï, rien à faire pour toi, même si tu signais tu serais à chier Je viens de La Fourche, comme la Cliqua je mets du Versace, mon téléphone arabe est plus puissant qu'ta 4G Ils le savent qui détient la fraîche, les zombies me cherchent, à la Doggy Dog parait que ma peau vaut cher Peu importe la situation, t'inquiètes je gère, prenez pas la peine, donnez moi la paie Sombre est ton avenir, là faudrait mettre les choses au clair, tu me croyais fou à la Galilée Crois-moi que le cul de cette biatch était bien rond, parlez moi de sous, fuck être validé Demande à mon gars Bassirou hashtag ToutEstBon, dans ma tête c'est Walking Dead Quand je me réveille le matin, défoncé Suis-moi dans le parking baby Là j'vais te montrer la dépouille du rap francais Le buteur qu'au boloss fait la passe, belek à la hnouch, c'est la base Dinoliko sort le Famas et le pot d'échappement sort du kamas Mets-toi position anale à terre, ils te l'ont mise j'sais que t'as mal suceur Hek et Bendé, sont niqués, te prennent le 6.35, après ton cul se fait am'har' Paris-Saint-Main-Gér, dans tous les tieks depuis longtemps Donc pour cela que cette glace est dans ma chaire, montrez-moi les gros chèques et les montants Un keutru pas cher et le style est nickel, j'serai pas la ce week-end Bosse dans la merde comme la marine, la re-pu africaine dans tes narines Danse de sauvage comme le haka, chemise à carreaux dans le placard A l'aise comme Ragnar dans le drakkar, Barry The Bad vient de Dakar Flow aiguisé c'est la punition, PSO Thug c'est la finition Double U, Hank c'est sa saison, visser les zombies c'est la mission Pour t'allumer j'ai mon étincelle, elle tourne la dope c'est Reptincel Y'a Jack et le Mess, les bandits et les chefs, il a Abdel, Youness, donc on sort la machette Et le jour de paye, toi t'es en crise, TDO notre entreprise Sippin' lean got me , 22 heures, la cinquième 'teille Viens dans mon 17 avec tes putos vatos on va vous brûler, chez nous tous les jours c'est Walking Dead Zombie, zombie Walking Dead, j'ai mon AA-Twelve je ne rate aucune tête Zombie, zombie XVBarbar, Walking Dead, P.S.O Thug, Walking Dead Triangle D'Or, Walking Dead, crâne ensanglanté contre l'appui-tête, Walking Dead J'suis l'premier zombie à ter-boî à midi, si ta bitch me demande, dis-lui j'suis toujours ici Marre de taille-dé la quette-pla tous les jours, am'har, am'har les pochetons comme si c'était un four Pourquoi tu fais le thug ? En plus ton daron c'est un keuf Mon pote a déjà baisé ta meuf, tu ferais mieux d'redonner tes seufs J'suis devant la B et j'vais péter mon mille feuilles T'es dans la détente, prends comme un geush de Winston Ce zombie n'a pas de faiblesses En effet, mon espèce en brochettes dans sa tête, je me demande quel effet ça lui fait bang bang bang ! Dans mon tieks c'est Walking Dead, j'te cherche, j'te traque sale traître Le côté obscur nous dévore, ces zombies veulent encore un p'tit bout de ma mort Dans le manoir j'effectue la cuisson, l'Allée, la partie sombre, y'a mon Glock qui m'encombre Ton cauchemar débute à partir du moment où tu m'dois des tunes Gun sous la ceinture, si tu fais un faux pas, j'hésite pas je t'allume Et je fouette pendant qu'elle twerk, ralentis, on arrive, je baisse la vitre Walking Dead, c'est mort, t'es dead Rentre dans l'corner, ta dose est prête Pispa, Brick Squad, la Téranga, armé comme Daryl, les shérifs se mettent en garde XXX zombies donc je prends pas, comme A.D.K c'qu'on te prend on t'le rend pas Pourquoi tu caches ta cogons ? C'est pas les keufs gros, c'est l'ambulance Parle pas sur ma p'tite, comme un zombie y'a qu'ta soeur qui déambule han snitch, snitch, snitch T'entends les sirènes, sois zen c'est pas pour toi pute, pute, pute Bandante, riche et belle sois zen j'suis trop courtois Cette bande de putes veut savoir c'qui s'passe dans mon tier-quar Moi j'veux prendre la maille puis j'retourne pioncer peinard On a tous un truc en commun on a besoin de gent-ar Je dérive, je dérive, je dérive, c'est quoi c'putain de cauchemar ? Écoute c'que je dis moi je pèse mes mots, j'fuck tes cain-ris, c'est le Aero Je m'en bats les couilles de leur putain de flow, numero uno, 17-zoo Toi c'est pour ton kiff et puis moi c'est pour l'seille, un traffic actif, ouais, faut que tu te reveille Moi je me plains pas, négro, j'ai pas sommeil Viens dans mon 17 avec tes putos vatos on va vous brûler, chez nous tous les jours c'est Walking Dead Zombie, zombie Walking Dead, j'ai mon AA-Twelve je ne rate aucune tête Zombie, zombie XVBarbar, Walking Dead, P.S.O Thug, Walking Dead Triangle D'Or, Walking Dead, crâne ensanglanté contre l'appui-tête, Walking Dead On s'en bat les couilles d'ta déposition, sauf si tu jactes à l'interrogatoire et l' Tierquar sous commission rogatoire, on va t'la mettre dans toutes les positions Bête de flow de shmett dès que je m'introduis, toujours à l'heure du crime dès que j'déboule Ne mens surtout pas sur la qualité du produit, nous on roule la frappe, tu roules du boule Négro, cette salope roule du boule, elle veut que je lui mets profond Dans sa keush-né négro, hein, il faut surtout pas confondre C'est Jacques Mess et Hayce Lem', le 4 tu t'la manges profonde dans les bacs, négro Tous mes zombies dans les coins sombres, j'suis dans la cuisine, j'taffe le crack, négro Autour de moi mes négros pètent un câble, négro Autour de moi mes négros pètent un câble, négro Autour de moi mes négros pètent un câble, négro J'préfère prévenir que guérir, commettre que subir L'oseille aux shnecks, le cash aux chèques, t'as capté c'que je veux dire Tu vois où je veux en venir, ne tente rien je te verrai venir Y a des zombies ça visser le venin, on arrive à 20 pour t'ensevelir J'opère au pe-pom pour les scalper et au Katana pour les estropier J'arrive elle a les jambes écartées, t'as affaire au barbare le plus bourbier Layone vouloir stranguler le courtier, on est des légendes pour les gars d'ton quartier Layone vouloir stranguler le courtier, on est des légendes pour les gars d'ton quartier On me chuchote à l'oreille, l'orgueil les poussent à me boycotter Je les vois courir après l'oseille, mais ils n'ont aucun point de côté Fais pas l'grossiste y a que ta porte qu'est blindée, le jour de ma mort, mes ennemis vont trinquer Terrain glissant, trottoir pire qu'enneigé, j'viens d'là où les gros poissons n'cessent de pêcher Walking Dead, mes ennemis sont dans le king-par, les concurrents sont décapités T'as le nez dans la zipette, pendant que j'comparais à Cité pour avoir vi-ser au moins six têtes Walking Dead, Walking Dead, on laissera pas tes poucaves de rappeurs nous parasiter Walking Dead, Walking Dead, on a sorti le 6 coups, biko, tu pars à 6 pieds Viens dans mon 17 avec tes putos vatos on va vous brûler, chez nous tous les jours c'est Walking Dead Zombie, zombie Walking Dead, j'ai mon AA-Twelve je ne rate aucune tête Zombie, zombie XVBarba, Walking Dead, P.S.O Thug, Walking Dead Triangle D'Or, Walking Dead, crâne ensanglanté contre l'appui-tête, Walking Dead Si j'te serre la main, rappeur, j'vais recompter tous mes doigts, rappeur, je connais tous mes droits, rappeur, tu connais tous les bois J'ai forgé mon talent sur des mélodies très anciennes, euphémisme et laconisme latin se mélangent à ma voix Puis quand je vois c'qu'est devenu le peu-ra, j'pisse la rage, fils à papa veut s'accaparer ma part du gâteau J'ai trop souffert dans la street pour pas t'enculer ta r'Hayce, paraît qu'tu rases les murs en passant dans mon ghetto Ça fait longtemps que j'attends mon heure, demande au grand Damso, ils mettent tellement de vocoder on dirait qu'ils se font dom-so J'grimpe l'arbre de l'abrupte, un espèce d'homme-singe, égérie de l'Algérie, Paris sur les dorsaux Le teint maussade, les cernes violettes, il y a longtemps que je n'ai pas dormi, WalkingDead Zombies, aux armes, j'ai l'arbalète, de Daryl et le magnum de Rick, Walking Dead Je ne rate aucune tête, mon 17 c'est The Walking Dead, crâne ensanglanté contre l'appui-tête, Walking Dead Ton équipe est discrète, tu te demandes encore si le crime paie ? C'est mister bah bah ouais ouais yippie yo, des billets, plus de 6 mois d'insomnie, zombie yo zombie yé J'descends du Zodiac, j'monte dans la Cadillac, chima yé, chalumo, chimi yo, chimi yé J'suis dans ma suite, je joue au docteur avec Tabatha,pilon du rif on s'en fout du tagatha Allez bouge moi c'gros cul al batata, fais-le pour Blacko, Papson et Vegas au card-pla Me parle pas si t'as pas grandi dans le zoo, j'ai mis la selha parachute dans la sacoche Kenzo Je ne me suis jamais senti aussi bien, je vais bâtir un empire avec les pierres que ces fils de pute m'ont jeté dans le dos J'appele tes rappeurs John Doe, MS17, tieks, viens pas m'emmerder moi j'suis pas dans la jet set M16 enervé j'te rafale comme R.D, mon micro m'est fidèle comme le Tocarev à Jet Lies Zombie, zombie... Zombie, zombie...7</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mama m'a dit vas-y vis deviens un homme Ne te fais pas absorber par cette vida loca Elle m'a dit fais des sous et trouve toi une mignonne Fais lui des gosses et quittes la favela j'ai peur pour toi Ici y a que des rompopom rompopom ayaya Que des rompopom rompopom ayaya Dans nos barios la monnaie n'enfante pas l'homme Je chante la mélancolie de ma vida loca La chica vêtue de Gucci mucho calor Hola belle inconnue dansons la salsa portoricana Brûlé par les feux de la passion jusqu'à l'aube Avant qu'la policia ne me jette au mitard J'entend résonner la voix de mon loko Soprano J'ai cherché le bonheur au fond d'un champ de marijuana Voilà les armes lourdes, mes locos démarrent Rum ! Et ça défouraille Rum ! Rum ! Rum Mais les gyrophares tournent, mes locos se barrent Rum ! Sous le bruit des balles Rum ! Rum ! Rum ! Le bario n'oublie rien mais il a pardonné Nos mamas sont des lionnes elles valent de l'or niño La nourriture a meilleur goût lorsqu'elle est partagée Malgré le manque de billets je me sens si bien dans mon bario You might also like Oui tu m'as vu en lambo sur Los Angeles Accompagné d'Amel en train d'chanter Jean-Jacques Goldmann Tu t'es dit Sopram'Baba a tourné la veste Ça m'étonne pas de toi ce discours de débile mental Le bario c'est dans le sang, dans l'attitude, dans le vécu, dans le sourire Les larmes dans les habitudes, dans l'âme, dans la nourriture La zob' dans la solitude, le silence de ce qu'on a vu Les rompopopompompom criés sous la lune Dis toi que je chante le bario depuis mes 12 piges et ça ça ne changera pas L'amour que j'ai pour ces favelas sera toujours en moi jusqu'à c'qu'on m'enterrera Juste le fait d'en parler me fait remonter lodeur du bon mafé d'la voisine, ceux qu'ont taffés à l'usine Squattent le café et nous disent d'aller prier, wAllah dis moi comment oublier ? J'en ai vu dévaliser les convoyeurs pour payer l'avocat J'en ai vu des vols finir en drames, drames, vida loca J'en ai vu s'enliser pour un gramme de Paname à Massilia J'en ai vu s'faire éliminer d'un drive-by Hayssassinat J'en ai vu qui rêvaient d's'en aller, pour lui passer l'anneau Que la juge a condamné, à vie derrière les barreaux Dans les vols à main armé pour le lait du marmot Telle est la vie dans mon bario Bario, bario, bario, bario, ayaya Bario, bario, bario, bario, ayaya Bario, bario, bario, bario, ayaya Bario, bario, bario, bario, ayaya 8</t>
+          <t>Mama m'a dit vas-y vis deviens un homme Ne te fais pas absorber par cette vida loca Elle m'a dit fais des sous et trouve toi une mignonne Fais lui des gosses et quittes la favela j'ai peur pour toi Ici y a que des rompopom rompopom ayaya Que des rompopom rompopom ayaya Dans nos barios la monnaie n'enfante pas l'homme Je chante la mélancolie de ma vida loca La chica vêtue de Gucci mucho calor Hola belle inconnue dansons la salsa portoricana Brûlé par les feux de la passion jusqu'à l'aube Avant qu'la policia ne me jette au mitard J'entend résonner la voix de mon loko Soprano J'ai cherché le bonheur au fond d'un champ de marijuana Voilà les armes lourdes, mes locos démarrent Rum ! Et ça défouraille Rum ! Rum ! Rum Mais les gyrophares tournent, mes locos se barrent Rum ! Sous le bruit des balles Rum ! Rum ! Rum ! Le bario n'oublie rien mais il a pardonné Nos mamas sont des lionnes elles valent de l'or niño La nourriture a meilleur goût lorsqu'elle est partagée Malgré le manque de billets je me sens si bien dans mon bario Oui tu m'as vu en lambo sur Los Angeles Accompagné d'Amel en train d'chanter Jean-Jacques Goldmann Tu t'es dit Sopram'Baba a tourné la veste Ça m'étonne pas de toi ce discours de débile mental Le bario c'est dans le sang, dans l'attitude, dans le vécu, dans le sourire Les larmes dans les habitudes, dans l'âme, dans la nourriture La zob' dans la solitude, le silence de ce qu'on a vu Les rompopopompompom criés sous la lune Dis toi que je chante le bario depuis mes 12 piges et ça ça ne changera pas L'amour que j'ai pour ces favelas sera toujours en moi jusqu'à c'qu'on m'enterrera Juste le fait d'en parler me fait remonter lodeur du bon mafé d'la voisine, ceux qu'ont taffés à l'usine Squattent le café et nous disent d'aller prier, wAllah dis moi comment oublier ? J'en ai vu dévaliser les convoyeurs pour payer l'avocat J'en ai vu des vols finir en drames, drames, vida loca J'en ai vu s'enliser pour un gramme de Paname à Massilia J'en ai vu s'faire éliminer d'un drive-by Hayssassinat J'en ai vu qui rêvaient d's'en aller, pour lui passer l'anneau Que la juge a condamné, à vie derrière les barreaux Dans les vols à main armé pour le lait du marmot Telle est la vie dans mon bario Bario, bario, bario, bario, ayaya Bario, bario, bario, bario, ayaya Bario, bario, bario, bario, ayaya Bario, bario, bario, bario, ayaya 8</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>7.5 x7 Même si y'a d'l'oseille à perte de vue Trop d'fierté pour perdre la mienne, j'en ai vu des traîtres dans ma vie de rue Deux roues, cagoule, brolick, extinct' T'as l'bonjour du 7,5, Haysta la Vista puto tes propres erreurs t'esquintent Nos conditions de vie sont restreintes, on empêche les poukis d'aller s'plaindre Ces putos s'empressent d'aller s'teindre et quoi qu'il arrive mes bikos restent humble On laisse rarement des empreintes aux stups', j'attend pas qu'une putain prenne mes patins Les anciens s'piquent au petit matin, j'trinque avec 2-3 pét'Hayces au stud' Issu des bas fonds d'une terre hostile, un diamant brute sommeille dans la boue Ces putos n'prononcent que les voyelles avec un .357 dans la bouche Le harbouch va leur mettre au calme, biko le rap game a bugé J'ai trop souffert de ma vida loca pour laisser l'oseille m'aveugler J'laisse pas l'oseille m'aveugler, j'rappe la street les yeux mi-clos Je crois que le rap game a bugé suite à la scène de crime du biko J'laisse pas l'oseille m'aveugler, m'aveugler, m'aveugler J'crois que le rap game a bugé, a bugé, a bugé J'laisse pas l'oseille m'aveugler, j'rappe la street les yeux mi-clos Je crois que le rap game a bugé suite à la scène de crime du biko J'laisse pas l'oseille m'aveugler, m'aveugler, m'aveugler J'rappe la street les yeux mi-clos, j'vais les détrôner, j'vais les détrôner You might also like Les fleurs du béton fanent et nos amitiés pourrissent Les temps sévissent tout se paye la cirrhose n'a pas ce p'tit goût d'cerise Les murs ont des oreilles et finissent dans le zen des touristes Les vapeurs de selha coupées au kérosène m'étourdissent Que dire ? À part que j'puise l'inspi' dans des stands, de tir J'reste un bonhomme de l'index à la détente Petit j'instaure ma dictature dans l'game à la kalash russe Poutine Pé-pét'Hayce me raconte pas ta vie quand j'me retire Le diable vend de la poussière d'angel, c'est denja Guettes ceux qui vénèrent le Dajjâl, c'est déjà Marianne me compare à Merah, mon blase effraie les Amériques Faut qu'j'fasse du fric, j'suis pas d'ceux qu'ont hérités d'un Panamera C'est Paname, pas Shanghai, mon enfance Taga, Zubrowka Quand j'otais des tangas, tu dévorais des mangas Mon gars c'est la rue pas l'buzz qui nous forge Avec des larmes au fond des yeuz' et des joies qui prennent à la gorge 7.5 x7 Aaaah ! ... Les rappeurs claquent des fesses, s'trouvent plein d'prétextes Savent qu'Hayce est l'best, sont tous aveuglés par la jet set Pendant qu'tu taffes j'grattes mes textes J'suis l'porte parole de Paris, banlieues, provinces et toutes les tess' S'il le faut j'escaladerai l'Everest, qui veut test connaîtra la détresse J'suis pas venu m'faire des amis j'm'en fout qu'ces bâtards m'détestent J'fais d'la fraîche tous les soirs mais j'laisse pas l'oseille m'aveu-veu-veugler Depuis l'arrivée du XV Barbare le game a bu-bu-bu-bugé 15</t>
+          <t>7.5 x7 Même si y'a d'l'oseille à perte de vue Trop d'fierté pour perdre la mienne, j'en ai vu des traîtres dans ma vie de rue Deux roues, cagoule, brolick, extinct' T'as l'bonjour du 7,5, Haysta la Vista puto tes propres erreurs t'esquintent Nos conditions de vie sont restreintes, on empêche les poukis d'aller s'plaindre Ces putos s'empressent d'aller s'teindre et quoi qu'il arrive mes bikos restent humble On laisse rarement des empreintes aux stups', j'attend pas qu'une putain prenne mes patins Les anciens s'piquent au petit matin, j'trinque avec 2-3 pét'Hayces au stud' Issu des bas fonds d'une terre hostile, un diamant brute sommeille dans la boue Ces putos n'prononcent que les voyelles avec un .357 dans la bouche Le harbouch va leur mettre au calme, biko le rap game a bugé J'ai trop souffert de ma vida loca pour laisser l'oseille m'aveugler J'laisse pas l'oseille m'aveugler, j'rappe la street les yeux mi-clos Je crois que le rap game a bugé suite à la scène de crime du biko J'laisse pas l'oseille m'aveugler, m'aveugler, m'aveugler J'crois que le rap game a bugé, a bugé, a bugé J'laisse pas l'oseille m'aveugler, j'rappe la street les yeux mi-clos Je crois que le rap game a bugé suite à la scène de crime du biko J'laisse pas l'oseille m'aveugler, m'aveugler, m'aveugler J'rappe la street les yeux mi-clos, j'vais les détrôner, j'vais les détrôner Les fleurs du béton fanent et nos amitiés pourrissent Les temps sévissent tout se paye la cirrhose n'a pas ce p'tit goût d'cerise Les murs ont des oreilles et finissent dans le zen des touristes Les vapeurs de selha coupées au kérosène m'étourdissent Que dire ? À part que j'puise l'inspi' dans des stands, de tir J'reste un bonhomme de l'index à la détente Petit j'instaure ma dictature dans l'game à la kalash russe Poutine Pé-pét'Hayce me raconte pas ta vie quand j'me retire Le diable vend de la poussière d'angel, c'est denja Guettes ceux qui vénèrent le Dajjâl, c'est déjà Marianne me compare à Merah, mon blase effraie les Amériques Faut qu'j'fasse du fric, j'suis pas d'ceux qu'ont hérités d'un Panamera C'est Paname, pas Shanghai, mon enfance Taga, Zubrowka Quand j'otais des tangas, tu dévorais des mangas Mon gars c'est la rue pas l'buzz qui nous forge Avec des larmes au fond des yeuz' et des joies qui prennent à la gorge 7.5 x7 Aaaah ! ... Les rappeurs claquent des fesses, s'trouvent plein d'prétextes Savent qu'Hayce est l'best, sont tous aveuglés par la jet set Pendant qu'tu taffes j'grattes mes textes J'suis l'porte parole de Paris, banlieues, provinces et toutes les tess' S'il le faut j'escaladerai l'Everest, qui veut test connaîtra la détresse J'suis pas venu m'faire des amis j'm'en fout qu'ces bâtards m'détestent J'fais d'la fraîche tous les soirs mais j'laisse pas l'oseille m'aveu-veu-veugler Depuis l'arrivée du XV Barbare le game a bu-bu-bu-bugé 15</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Comment te parler de mon XV Barbare ? Mes lokos te vendront du rêve aux portes du cauchemar Ici les nuits sont courtes et même les barbies te hagar Malgré tout j'ai pas troqué ma doudoune contre un pare-balles C'est pour mes globe-trotteurs qui font des hurs discrètement 7.5 la chimique adoucie les murs naturellement Dans cette jungle on m'a dit les contraires s'attirent j'ai vendu d'la blanche aux gothiques Tellement j'baise des avions j'suis un pilote de l'érotique Authentique, je suis juste parigo J'suis ce type qui posera pas sur ta 'tape juste par ego Barrez-vous j'nage dans l'océan de la déchéance, ne va pas Jusqu'au bout de la musique si le tan-shei danse, avec toi J'ai la science adéquate à la rétention de la victoire J'suis archi déter', que la guerre éclair se déclare J'viens chercher le pactole à la Nord Islandaise Paris c'est L'Auberge Espagnole, à nous les p'tites anglaises Arrange nous sur les taros si ta de-wee nous fait tousser Ou mes bicos t'arrosent et prennent tout ce que t'as fais pousser À Paris Nord, on fait de l'argent quand tu bronzes Pas de remords, casse la démarche sur la braise direct en équipe de 11 Vas-y lève ton verre, et danse l'avenir on verra plus tard Wesh en France la jeunesse on l'admire que chez les vieillards J'pensais qu'a la Jonquera, j'me suis pris l'entrée du tro'm Tordu la fourche de mon scoot' à coté de la tour de contrôle You might also like Dans un état semi-comateux oinj' de beuh de bâtard au vres-lè Mes exs reviennent en courant, manient ma queue comme un relais J'renais de mes cendres, j'ai j'réanime le réseau J'vis chaque jour comme le dernier, un jour j'aurais raison XV Barbare Bras de bébé dans le calcif, une gifle ton oreille siffle Mes tibias en or massif m'assurent plus que la MACIF Assis dans le district tous les innocents s'retrouvent au hebs Ici ça prend des Mini Cooper avec l'argent d'la S Est-ce que le eu-j en vaut vraiment la chandelle ? Ramène pas ta copine là où l'alcool et lhémoglobine coulent en fontaine Nous on la pine à lhôtel, Holiday in, des bouteilles, des capotes fines Qu'elle atteigne le Nirvana comme Kurt Cobain Ça baigne dans la merde bang bang j'ai la haine Bawawa du pilon des billets, c'est l'berbère Hayce Lem' J'ai pas la vie d'choriste j'suis né dans la misère Mon père était frigoriste en plein milieu du désert Quand je te parle de risque, c'est pas au Texas Hold'em J'vais soutirer ta carte Gold, avec une grosse golden Depuis mino j'ai pas de bol, alors j'fous le bordel À vouloir faire le bad boy, j'mets la daronne hors d'elle Y'a rien à faire ma gueule, rien qu'on baise des petites serveuses Mon orgueil demande à gun en cas d'embrouille sérieuse Quelque garde av' c'est rien tant qu'on à bien coffré le zeil' Du mal à rester serein , j'les vois s'éclater le zen XV Barbare à l'état pur, XV Barbare de fer On va t'hagar, baiser ta pute, nous déclare ap' ton fer, lève ton verre Mes Genius te vendront du rêve eux aussi si tu nous rejoins8</t>
+          <t>Comment te parler de mon XV Barbare ? Mes lokos te vendront du rêve aux portes du cauchemar Ici les nuits sont courtes et même les barbies te hagar Malgré tout j'ai pas troqué ma doudoune contre un pare-balles C'est pour mes globe-trotteurs qui font des hurs discrètement 7.5 la chimique adoucie les murs naturellement Dans cette jungle on m'a dit les contraires s'attirent j'ai vendu d'la blanche aux gothiques Tellement j'baise des avions j'suis un pilote de l'érotique Authentique, je suis juste parigo J'suis ce type qui posera pas sur ta 'tape juste par ego Barrez-vous j'nage dans l'océan de la déchéance, ne va pas Jusqu'au bout de la musique si le tan-shei danse, avec toi J'ai la science adéquate à la rétention de la victoire J'suis archi déter', que la guerre éclair se déclare J'viens chercher le pactole à la Nord Islandaise Paris c'est L'Auberge Espagnole, à nous les p'tites anglaises Arrange nous sur les taros si ta de-wee nous fait tousser Ou mes bicos t'arrosent et prennent tout ce que t'as fais pousser À Paris Nord, on fait de l'argent quand tu bronzes Pas de remords, casse la démarche sur la braise direct en équipe de 11 Vas-y lève ton verre, et danse l'avenir on verra plus tard Wesh en France la jeunesse on l'admire que chez les vieillards J'pensais qu'a la Jonquera, j'me suis pris l'entrée du tro'm Tordu la fourche de mon scoot' à coté de la tour de contrôle Dans un état semi-comateux oinj' de beuh de bâtard au vres-lè Mes exs reviennent en courant, manient ma queue comme un relais J'renais de mes cendres, j'ai j'réanime le réseau J'vis chaque jour comme le dernier, un jour j'aurais raison XV Barbare Bras de bébé dans le calcif, une gifle ton oreille siffle Mes tibias en or massif m'assurent plus que la MACIF Assis dans le district tous les innocents s'retrouvent au hebs Ici ça prend des Mini Cooper avec l'argent d'la S Est-ce que le eu-j en vaut vraiment la chandelle ? Ramène pas ta copine là où l'alcool et lhémoglobine coulent en fontaine Nous on la pine à lhôtel, Holiday in, des bouteilles, des capotes fines Qu'elle atteigne le Nirvana comme Kurt Cobain Ça baigne dans la merde bang bang j'ai la haine Bawawa du pilon des billets, c'est l'berbère Hayce Lem' J'ai pas la vie d'choriste j'suis né dans la misère Mon père était frigoriste en plein milieu du désert Quand je te parle de risque, c'est pas au Texas Hold'em J'vais soutirer ta carte Gold, avec une grosse golden Depuis mino j'ai pas de bol, alors j'fous le bordel À vouloir faire le bad boy, j'mets la daronne hors d'elle Y'a rien à faire ma gueule, rien qu'on baise des petites serveuses Mon orgueil demande à gun en cas d'embrouille sérieuse Quelque garde av' c'est rien tant qu'on à bien coffré le zeil' Du mal à rester serein , j'les vois s'éclater le zen XV Barbare à l'état pur, XV Barbare de fer On va t'hagar, baiser ta pute, nous déclare ap' ton fer, lève ton verre Mes Genius te vendront du rêve eux aussi si tu nous rejoins8</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Je dégaine, je tire, je rengaine, again Je dégaine, je tire, je rengaine, again J'y pense à chaque bagatelle Stoïque Je dégaine, je tire, je rengaine, again C'était pas juste pour la paye On m'a demandé d'être stoïque Des tr'Hayce de griffes sur l'omoplate et le poids d'Paname sur les deltoïdes Je suis un Hayce'téroïde J'vois les anciens tomber dans l'héroïne Petit, ma gloire n'a rien d'un acte héroïque J'terrorise tous mes concurrents, j'ai l'atome de folie dans la plume D'puis l'époque où j'kickais sur du DJ Premier J'parle en l'occurence de mon Hayssurance, biko Je savais qu'la pomme ne tomberait sûrement pas loin du pommier Il serait temps d'troquer Paco Rabanne contre un musc Pour mes bikos d'45 kilos qu'ils t'montent en l'air une montagne de muscles Masqué pour le c'Hayce du siècle Fourchette à 10 ou 20 ans Ça ramasse les fleurs à la p'tite cuillère aux Hayssiettes À quelque heures de la floraison, lumière bleutée dans la nuit Blotti près la cargaison, la raison l'emporta sur la folie Sache que j'me torche avec leur estime J'ai les idées noires, pas le rire jaunâtre Raptor couleur Palestine, Desert Eagle tah lArizona Je zonnais ivre, rentrais tard alors que Maman sinquiétait Elle qui m'a toujours dis d'choisir la femme de ma vie pour sa piété J'en ai vu d'la came sur le macadam, un drame, un drame, mes lyrics t'en parlent Ça m'fait mal de les voir renier leurs couleurs avec le football On m'a demandé d'être stoïque Des tr'Hayce de griffes sur l'omoplate et le poids d'Paname sur les deltoïdes Je suis un Hayce'téroïde J'vois les anciens tomber dans l'héroïne Petit, ma gloire n'a rien d'un acte héroïque J'terrorise tous mes concurrents, j'ai l'atome de folie dans la plume D'puis l'époque où j'kickais sur du DJ Premier J'parle en l'occurence de mon Hayssurance, biko Je savais qu'la pomme ne tomberait sûrement pas loin du pommier Je dégaine, je tire, je rengaine, again M'arrêter ? Pas d'main la veille La folie, les douilles d'balles à terre, j'y pense à chaque bagatelle J'ai pris la vie comme une cicatrice et le métronome comme attelle C'était pas juste pour la paye Biko, j'ai l'mental solide, la pression d'un molossoïde Dans la mâchoire, éméché la main sur la machette Je suis l'Hayce'téroïde La pression d'un molossoïde dans la mâchoire, éméché Le doigt sur la gâchette du P4, j'terrorise Tous mes concurrents, j'ai l'atome de folie dans la plume P'tit con, passe l'micro qu'j't'apprenne à faire ton métier J'parle en l'occurence de mon Hayssurance et des fils de pute qui voulaient ma perte J'n'ai jamais attendu qu'vous m'aidiez Jalousé par la stup à cause du me-chro sur les jantes J'passe en télé, l'commissaire sent l'XV Barbare dans son uc' Canon scié dans mon froc', je sens comme un froid sur ma jambe Chaîne en diamant sur le cou, je sens comme un froid sur ma nuque La propreté d'mon éthique t'irrites, j'envoie des lyrics intemporelles Remballez vos critiques satiriques, j'ai la meilleure plume contemporaine Bandes de prostituées sataniques, vous n'êtes bon qu'à porter l'3aÏn Goutez donc à l'automatique, bang bang bang bang On m'a demandé d'être stoïque Des tr'Hayce de griffes sur l'omoplate et le poids d'Paname sur les deltoïdes Je suis un Hayce'téroïde J'vois les anciens tomber dans l'héroïne Petit, ma gloire n'a rien d'un acte héroïque J'terrorise tous mes concurrents, j'ai l'atome de folie dans la plume D'puis l'époque où j'kickais sur du DJ Premier J'parle en l'occurence de mon Hayssurance, biko Je savais qu'la pomme ne tomberait sûrement pas loin du pommier Je dégaine, je tire, je rengaine, again M'arrêter ? Pas d'main la veille La folie, les douilles d'balles à terre, j'y pense à chaque bagatelle J'ai pris la vie comme une cicatrice et le métronome comme attelle C'était pas juste pour la paye Je dégaine, je tire, je rengaine, again Je dégaine, je tire, je rengaine, again J'y pense à chaque bagatelle Je dégaine, je tire, je rengaine, again C'était pas juste pour la payeYou might also like3</t>
+          <t>Je dégaine, je tire, je rengaine, again Je dégaine, je tire, je rengaine, again J'y pense à chaque bagatelle Stoïque Je dégaine, je tire, je rengaine, again C'était pas juste pour la paye On m'a demandé d'être stoïque Des tr'Hayce de griffes sur l'omoplate et le poids d'Paname sur les deltoïdes Je suis un Hayce'téroïde J'vois les anciens tomber dans l'héroïne Petit, ma gloire n'a rien d'un acte héroïque J'terrorise tous mes concurrents, j'ai l'atome de folie dans la plume D'puis l'époque où j'kickais sur du DJ Premier J'parle en l'occurence de mon Hayssurance, biko Je savais qu'la pomme ne tomberait sûrement pas loin du pommier Il serait temps d'troquer Paco Rabanne contre un musc Pour mes bikos d'45 kilos qu'ils t'montent en l'air une montagne de muscles Masqué pour le c'Hayce du siècle Fourchette à 10 ou 20 ans Ça ramasse les fleurs à la p'tite cuillère aux Hayssiettes À quelque heures de la floraison, lumière bleutée dans la nuit Blotti près la cargaison, la raison l'emporta sur la folie Sache que j'me torche avec leur estime J'ai les idées noires, pas le rire jaunâtre Raptor couleur Palestine, Desert Eagle tah lArizona Je zonnais ivre, rentrais tard alors que Maman sinquiétait Elle qui m'a toujours dis d'choisir la femme de ma vie pour sa piété J'en ai vu d'la came sur le macadam, un drame, un drame, mes lyrics t'en parlent Ça m'fait mal de les voir renier leurs couleurs avec le football On m'a demandé d'être stoïque Des tr'Hayce de griffes sur l'omoplate et le poids d'Paname sur les deltoïdes Je suis un Hayce'téroïde J'vois les anciens tomber dans l'héroïne Petit, ma gloire n'a rien d'un acte héroïque J'terrorise tous mes concurrents, j'ai l'atome de folie dans la plume D'puis l'époque où j'kickais sur du DJ Premier J'parle en l'occurence de mon Hayssurance, biko Je savais qu'la pomme ne tomberait sûrement pas loin du pommier Je dégaine, je tire, je rengaine, again M'arrêter ? Pas d'main la veille La folie, les douilles d'balles à terre, j'y pense à chaque bagatelle J'ai pris la vie comme une cicatrice et le métronome comme attelle C'était pas juste pour la paye Biko, j'ai l'mental solide, la pression d'un molossoïde Dans la mâchoire, éméché la main sur la machette Je suis l'Hayce'téroïde La pression d'un molossoïde dans la mâchoire, éméché Le doigt sur la gâchette du P4, j'terrorise Tous mes concurrents, j'ai l'atome de folie dans la plume P'tit con, passe l'micro qu'j't'apprenne à faire ton métier J'parle en l'occurence de mon Hayssurance et des fils de pute qui voulaient ma perte J'n'ai jamais attendu qu'vous m'aidiez Jalousé par la stup à cause du me-chro sur les jantes J'passe en télé, l'commissaire sent l'XV Barbare dans son uc' Canon scié dans mon froc', je sens comme un froid sur ma jambe Chaîne en diamant sur le cou, je sens comme un froid sur ma nuque La propreté d'mon éthique t'irrites, j'envoie des lyrics intemporelles Remballez vos critiques satiriques, j'ai la meilleure plume contemporaine Bandes de prostituées sataniques, vous n'êtes bon qu'à porter l'3aÏn Goutez donc à l'automatique, bang bang bang bang On m'a demandé d'être stoïque Des tr'Hayce de griffes sur l'omoplate et le poids d'Paname sur les deltoïdes Je suis un Hayce'téroïde J'vois les anciens tomber dans l'héroïne Petit, ma gloire n'a rien d'un acte héroïque J'terrorise tous mes concurrents, j'ai l'atome de folie dans la plume D'puis l'époque où j'kickais sur du DJ Premier J'parle en l'occurence de mon Hayssurance, biko Je savais qu'la pomme ne tomberait sûrement pas loin du pommier Je dégaine, je tire, je rengaine, again M'arrêter ? Pas d'main la veille La folie, les douilles d'balles à terre, j'y pense à chaque bagatelle J'ai pris la vie comme une cicatrice et le métronome comme attelle C'était pas juste pour la paye Je dégaine, je tire, je rengaine, again Je dégaine, je tire, je rengaine, again J'y pense à chaque bagatelle Je dégaine, je tire, je rengaine, again C'était pas juste pour la paye3</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Les Frères Lumières Wesh les gars c'est comment depuis ADAL ? Hein ! Le 7.5 frappe... Saitama ! La kalash humaine Je vis ma vie comme je veux jamais je n'ai pris de recul Tu jalouses l'Electron Libre jusqu'à sa dernière molécule J'veux plus voir mon pote ivre jusqu'à son dernier écu Jamais je l'aurai cru le voir devenir un légume J'ai la folie des grandeurs demande au sin-cou devant le D Hooss Iroquois dégradé j'suis dans le grand cherokee La ne-chie qui m'accompagne a des airs d'Ariana Grande J'ai grandi en rêvant qué-bra le grand patron d'Cerruti J'ai toujours lil du tigre, la mâchoire du Boerbull J'aime la vitesse, j'aime tellement la vitesse qu'étant petit j'ai dû tomber dans une marmite de Redbull Je mets pas le nez dans la S, je le laisse aux 3agoune Je suis en état d'ivresse, défaut de permis Sur le périphérique du mal 300 kmh Y'a les motards derrières, j'en allume une dernière, haha BLR Life ! Tout est bien qui fini mal au sommet du règne animal Les vautours et les hyènes Je me demande où finira ce pe-ra tout n'est qu'un mirage et pour me changer les idées j'vais faire un tour au Yémen Un peu narcissique comme tous les artistes Mais j'ai toujours de l'avance comme le Marxisme Tu crois que j'dors, que j'suis faya, sisi J'vais t'mettre une hagar tah la mafia Sicile Ca gravite autour de oi-m pour ramasser plus de mailles C'est souvent les gens qu'on aime qui nous font le plus de mal J'en témoigne, tout ceux qui te tendaient la main quand t'étais debout sont devenus ceux qui te piétinent au sol quand t'es mal ... Quand t'es mal Au sol quand t'es mal Quand t'es mal Au sol quand t'es mal, ahh BLR Life ! You might also like C'est les Frères Lumière Yeah oh 5 ans que je suis dans ce milieu 5 ans que jessaye de cé-per sa mère Meilleur que toi, est-ce que c'est bien clair ? Pourtant je n'touche pas le même salaire Pas le temps pour toi jai dautres choses à faire Jai déjà tout donné, jai plus rien à perdre Jécris ça en direct de la navette Je n'vise pas les jambes je ne vise que la tête Je n'vise pas les jambes je ne vise que la tête On arrive à lheure, on termine la fête Le frigo est vide, ma mère est en pleure En ce moment j'suis pas trop dans mon assiette J'écoute que la voix qui est dans ma tête Sinon bats les couilles de vos avis Ya que pour la salât que je suis au tapis Jécoute pas ton skeud même si il est gratuit Ma meuf me casse les couilles depuis tà lheure Tes pas assez bonne, va faire du rameur Disons que le mental na plus de valeur Si tes pas beau gosse elle donne même pas lheure salope Oui lhomme a changé Le physique passe avant le reconnais-tu Quand tu montres ta tête tu fais 50 like quand tu montres ton boule on les compte même plus As-tu retenu la leçon ? Ma bite dépasse tout le temps de mon caleçon Jaime bien ton rap, je préfère quand il ny a pas dson Toute ta carrière s'est jetée par le balcon Moi pas parlé visé patron Si jai péché j'demande pardon Tu bois de lalcool et tu baises des lardons Là où jhabite mon sol est mon plafond Ramène-moi toutes ces salopes à l'affilée J'suis pas jaloux jai perdu du poids, j'fais des tractions pour maffiner Tu tes fais un film où j't'aime, en vrai je paye même pas le ciné Toi tu rappes le quartier, personne te connais dans ta cité Je décroche pas quand tu mappelles Elle mappelle bébé mais c'est qui la-celle ? J'veux brasser à mort et noyer ma peine Je préfère mourir que t'aimer j'suis pas Cabrel Cette bouffonne de merde voulait mon adresse Désormais jpousse 200 kil' à la presse Salope tétais ou quand javais de la graisse Je men fous du magasin j'veux c'qu'il y a dans la caisse Pardonne mes maladresses Maladresses Je bédave pas je vend pas la cess' Pas la cess' Fait pas la poucave ne vends pas la mèche Pas la mèche Je suis toujours bouillant, jsuis comme Salamèche Salamèche Tu prend des pêchers quand tu la rabaisses Tu prend des pêchers quand tu la re-baise Incompris comme conflit entre 2 tess' J'arrête, continue, cul entre 2 chaises J'arrête, continue, cul entre 2 chaises Non, non, non, non Saitama4</t>
+          <t>Les Frères Lumières Wesh les gars c'est comment depuis ADAL ? Hein ! Le 7.5 frappe... Saitama ! La kalash humaine Je vis ma vie comme je veux jamais je n'ai pris de recul Tu jalouses l'Electron Libre jusqu'à sa dernière molécule J'veux plus voir mon pote ivre jusqu'à son dernier écu Jamais je l'aurai cru le voir devenir un légume J'ai la folie des grandeurs demande au sin-cou devant le D Hooss Iroquois dégradé j'suis dans le grand cherokee La ne-chie qui m'accompagne a des airs d'Ariana Grande J'ai grandi en rêvant qué-bra le grand patron d'Cerruti J'ai toujours lil du tigre, la mâchoire du Boerbull J'aime la vitesse, j'aime tellement la vitesse qu'étant petit j'ai dû tomber dans une marmite de Redbull Je mets pas le nez dans la S, je le laisse aux 3agoune Je suis en état d'ivresse, défaut de permis Sur le périphérique du mal 300 kmh Y'a les motards derrières, j'en allume une dernière, haha BLR Life ! Tout est bien qui fini mal au sommet du règne animal Les vautours et les hyènes Je me demande où finira ce pe-ra tout n'est qu'un mirage et pour me changer les idées j'vais faire un tour au Yémen Un peu narcissique comme tous les artistes Mais j'ai toujours de l'avance comme le Marxisme Tu crois que j'dors, que j'suis faya, sisi J'vais t'mettre une hagar tah la mafia Sicile Ca gravite autour de oi-m pour ramasser plus de mailles C'est souvent les gens qu'on aime qui nous font le plus de mal J'en témoigne, tout ceux qui te tendaient la main quand t'étais debout sont devenus ceux qui te piétinent au sol quand t'es mal ... Quand t'es mal Au sol quand t'es mal Quand t'es mal Au sol quand t'es mal, ahh BLR Life ! C'est les Frères Lumière Yeah oh 5 ans que je suis dans ce milieu 5 ans que jessaye de cé-per sa mère Meilleur que toi, est-ce que c'est bien clair ? Pourtant je n'touche pas le même salaire Pas le temps pour toi jai dautres choses à faire Jai déjà tout donné, jai plus rien à perdre Jécris ça en direct de la navette Je n'vise pas les jambes je ne vise que la tête Je n'vise pas les jambes je ne vise que la tête On arrive à lheure, on termine la fête Le frigo est vide, ma mère est en pleure En ce moment j'suis pas trop dans mon assiette J'écoute que la voix qui est dans ma tête Sinon bats les couilles de vos avis Ya que pour la salât que je suis au tapis Jécoute pas ton skeud même si il est gratuit Ma meuf me casse les couilles depuis tà lheure Tes pas assez bonne, va faire du rameur Disons que le mental na plus de valeur Si tes pas beau gosse elle donne même pas lheure salope Oui lhomme a changé Le physique passe avant le reconnais-tu Quand tu montres ta tête tu fais 50 like quand tu montres ton boule on les compte même plus As-tu retenu la leçon ? Ma bite dépasse tout le temps de mon caleçon Jaime bien ton rap, je préfère quand il ny a pas dson Toute ta carrière s'est jetée par le balcon Moi pas parlé visé patron Si jai péché j'demande pardon Tu bois de lalcool et tu baises des lardons Là où jhabite mon sol est mon plafond Ramène-moi toutes ces salopes à l'affilée J'suis pas jaloux jai perdu du poids, j'fais des tractions pour maffiner Tu tes fais un film où j't'aime, en vrai je paye même pas le ciné Toi tu rappes le quartier, personne te connais dans ta cité Je décroche pas quand tu mappelles Elle mappelle bébé mais c'est qui la-celle ? J'veux brasser à mort et noyer ma peine Je préfère mourir que t'aimer j'suis pas Cabrel Cette bouffonne de merde voulait mon adresse Désormais jpousse 200 kil' à la presse Salope tétais ou quand javais de la graisse Je men fous du magasin j'veux c'qu'il y a dans la caisse Pardonne mes maladresses Maladresses Je bédave pas je vend pas la cess' Pas la cess' Fait pas la poucave ne vends pas la mèche Pas la mèche Je suis toujours bouillant, jsuis comme Salamèche Salamèche Tu prend des pêchers quand tu la rabaisses Tu prend des pêchers quand tu la re-baise Incompris comme conflit entre 2 tess' J'arrête, continue, cul entre 2 chaises J'arrête, continue, cul entre 2 chaises Non, non, non, non Saitama4</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>J'ai tenté de pardonner, la rue m'a donnée l'amour que je n'ai pas donné Né en Algérie j'pars de rien, les plus belles années de ma jeunesse à charbonner Tous les soirs interpellé, ils veulent que j'finisse ma vie derrière des barbelés 6 du mat', ils débarquent, me soulèvent, j'ai le fou rire en voyant le commissaire gueuler Rythme de vie dégueulasse, on vit comme ça depuis qu'on a la morve au nez L'illicite une longue impasse que l'on empreinte pour survivre ,on en marre d'voler Une main de fer dans un gant de velours, j'm'adresse à tous les bâtards qui veulent me teste venez Vous n'allez pas me voir venir, as-tu déjà eu affaire à un biko décervelé ? Il s'agit d'faire du blé, étant petit j'faisais le mur pour aller l'tenir Manque de monnaie j'me démenais pour en obtenir, quitte à m'faire cueillir si les shlags saignent du nez Ici c'est dur d'aimer, son prochain, l'appât du gain pour nous attrayer Tout ça pour fréquenter des boites de nuits, nul n'est à l'abris de tomber amoureux d'une traînée On va tous payer, pour le mal qu'on fait chaque jour on va tous payer On va tous crever, chacun son heure, chacun son tour on va tous crever Electron Libre je vais, où je veux j'viens du four, j'ai le cur gelé Et de ma vie je n'ai, jamais douté qu'un jour j'entendrais mon heure sonner C'est mon comeback, je retourne au combat Fidèle à mes principes jusqu'à la pierre tombale J'refuse qu'on me compare à ces putos, j'en bave Mes lokos sont partis mais ne reviendront pas C'est mon putain d'comeback je retourne au combat Fidèle à mes principes jusqu'à la pierre tombale J'refuse qu'on me compare à ces putos j'en bave Mes lokos sont partis mais ne reviendront pas C'est mon comeback je retourne au combat, je retourne au combat C'est mon comeback je retourne au combat, je retourne au combatYou might also like10</t>
+          <t>J'ai tenté de pardonner, la rue m'a donnée l'amour que je n'ai pas donné Né en Algérie j'pars de rien, les plus belles années de ma jeunesse à charbonner Tous les soirs interpellé, ils veulent que j'finisse ma vie derrière des barbelés 6 du mat', ils débarquent, me soulèvent, j'ai le fou rire en voyant le commissaire gueuler Rythme de vie dégueulasse, on vit comme ça depuis qu'on a la morve au nez L'illicite une longue impasse que l'on empreinte pour survivre ,on en marre d'voler Une main de fer dans un gant de velours, j'm'adresse à tous les bâtards qui veulent me teste venez Vous n'allez pas me voir venir, as-tu déjà eu affaire à un biko décervelé ? Il s'agit d'faire du blé, étant petit j'faisais le mur pour aller l'tenir Manque de monnaie j'me démenais pour en obtenir, quitte à m'faire cueillir si les shlags saignent du nez Ici c'est dur d'aimer, son prochain, l'appât du gain pour nous attrayer Tout ça pour fréquenter des boites de nuits, nul n'est à l'abris de tomber amoureux d'une traînée On va tous payer, pour le mal qu'on fait chaque jour on va tous payer On va tous crever, chacun son heure, chacun son tour on va tous crever Electron Libre je vais, où je veux j'viens du four, j'ai le cur gelé Et de ma vie je n'ai, jamais douté qu'un jour j'entendrais mon heure sonner C'est mon comeback, je retourne au combat Fidèle à mes principes jusqu'à la pierre tombale J'refuse qu'on me compare à ces putos, j'en bave Mes lokos sont partis mais ne reviendront pas C'est mon putain d'comeback je retourne au combat Fidèle à mes principes jusqu'à la pierre tombale J'refuse qu'on me compare à ces putos j'en bave Mes lokos sont partis mais ne reviendront pas C'est mon comeback je retourne au combat, je retourne au combat C'est mon comeback je retourne au combat, je retourne au combat10</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ça découpe Pour mes locos incontrôlables dans des cellules capitonnées Foncedés jusqu'à 4h du mat' pour oublier qu'le bonheur c'est d'être libre Électron libre, électron libre J'tiens l'entreprise, CEO, ces putos s'prennent pour C.I.A Pensent tout connaître sur l'bikow, j'connais tout sur eux grâce à elles Tu veux faire la guerre, sûr igo ? Sûr igo ? Mon infanterie de 50 000 bikows gravera ton blaze sur la pierre Volubile mélodie venimeuse dans la tourmente, venu monopoliser le talent, j'ai l'extendo Tu t'es volatilisé mais tu finiras pour mort, la devise ne pas chanter sur le mauvais tempo J'élabore un nouveau plavon dans le fond du manoir, j'ai les mains noires, bébé, je reviens du charbon J'ai levé la voix, j'ai vaincu pour instaurer ma loi, que la hagra, depuis je demande le pardon Vends de la dope juste pour imiter les bourges, yeah hoe Sors du shtar avec le bouc, yeah hoe Je refuse de te donner de l'amour, yeah hoe Poudra, pussy, dinero Électron libre Électron libre, électron libre J'mets l'oseille que je veux sur ma table, j'compte pas sur toi pour ma paye Puto j'te raye de la carte, juste avant d'péter ma 'teille Électron libre, électron libre Électron libre, électron libre You might also like Je dévaste la ville comme une tornade, que des rafales, pas d'accolades Indépendant, DZ Power, gros c'est fini la ratonnade Tu veux tout savoir sur Lemsi ? Combien coûtent ma caisse, ma maison, mes sappes ? Trimard, rien qu'tu critiques ma vie mais tu passes la tienne à guetter mes snaps Non, c'est pas mon genre de procrastiner, si j'te dis que je vais t'fumer, j'vais le faire Maintenant douilleur essaye de s'tirer, fini dans l'coffre du fer Allemand, tellement brutalement j'garde les miens près d'moi, mes ennemis s'éloignent Devenu riche grâce à ton talent, tu juges tes amis, la zermi témoigne Vends de la dope juste pour imiter les bourges, yeah hoe Sors du shtar avec le boug, yeah hoe Je refuse de te donner de l'amour, yeah hoe Poudra, pussy, dinero Électron libre Électron libre, électron libre J'mets l'oseille que je veux sur ma table, j'compte pas sur toi pour ma paye Puto j'te raye de la carte, juste avant d'péter ma 'teille Électron libre, électron libre Électron libre, électron libre Hayce Lem' reprend l'mic, Hayce Lem' reprend l'game Hayce Lem' vous rafale, Hayce Lem' vous malmène Hayce Lem' reprend l'mic, Hayce Lem' reprend l'game Hayce Lem' vous rafale, Hayce Lem' vous malmène Fais la kalash, fais la kalash, fais la kalash Fais la kalash, fais la kalash, fais la kalash Fais la kalash, fais la kalash, fais la kalash Fais la kalash, fais la kalash, fais la kalash Électron libre Électron libre, électron libre J'mets l'oseille que je veux sur ma table, j'compte pas sur toi pour ma paye Puto j'te raye de la carte, juste avant d'péter ma 'teille Électron libre, électron libre Électron libre, électron libre7</t>
+          <t>Ça découpe Pour mes locos incontrôlables dans des cellules capitonnées Foncedés jusqu'à 4h du mat' pour oublier qu'le bonheur c'est d'être libre Électron libre, électron libre J'tiens l'entreprise, CEO, ces putos s'prennent pour C.I.A Pensent tout connaître sur l'bikow, j'connais tout sur eux grâce à elles Tu veux faire la guerre, sûr igo ? Sûr igo ? Mon infanterie de 50 000 bikows gravera ton blaze sur la pierre Volubile mélodie venimeuse dans la tourmente, venu monopoliser le talent, j'ai l'extendo Tu t'es volatilisé mais tu finiras pour mort, la devise ne pas chanter sur le mauvais tempo J'élabore un nouveau plavon dans le fond du manoir, j'ai les mains noires, bébé, je reviens du charbon J'ai levé la voix, j'ai vaincu pour instaurer ma loi, que la hagra, depuis je demande le pardon Vends de la dope juste pour imiter les bourges, yeah hoe Sors du shtar avec le bouc, yeah hoe Je refuse de te donner de l'amour, yeah hoe Poudra, pussy, dinero Électron libre Électron libre, électron libre J'mets l'oseille que je veux sur ma table, j'compte pas sur toi pour ma paye Puto j'te raye de la carte, juste avant d'péter ma 'teille Électron libre, électron libre Électron libre, électron libre Je dévaste la ville comme une tornade, que des rafales, pas d'accolades Indépendant, DZ Power, gros c'est fini la ratonnade Tu veux tout savoir sur Lemsi ? Combien coûtent ma caisse, ma maison, mes sappes ? Trimard, rien qu'tu critiques ma vie mais tu passes la tienne à guetter mes snaps Non, c'est pas mon genre de procrastiner, si j'te dis que je vais t'fumer, j'vais le faire Maintenant douilleur essaye de s'tirer, fini dans l'coffre du fer Allemand, tellement brutalement j'garde les miens près d'moi, mes ennemis s'éloignent Devenu riche grâce à ton talent, tu juges tes amis, la zermi témoigne Vends de la dope juste pour imiter les bourges, yeah hoe Sors du shtar avec le boug, yeah hoe Je refuse de te donner de l'amour, yeah hoe Poudra, pussy, dinero Électron libre Électron libre, électron libre J'mets l'oseille que je veux sur ma table, j'compte pas sur toi pour ma paye Puto j'te raye de la carte, juste avant d'péter ma 'teille Électron libre, électron libre Électron libre, électron libre Hayce Lem' reprend l'mic, Hayce Lem' reprend l'game Hayce Lem' vous rafale, Hayce Lem' vous malmène Hayce Lem' reprend l'mic, Hayce Lem' reprend l'game Hayce Lem' vous rafale, Hayce Lem' vous malmène Fais la kalash, fais la kalash, fais la kalash Fais la kalash, fais la kalash, fais la kalash Fais la kalash, fais la kalash, fais la kalash Fais la kalash, fais la kalash, fais la kalash Électron libre Électron libre, électron libre J'mets l'oseille que je veux sur ma table, j'compte pas sur toi pour ma paye Puto j'te raye de la carte, juste avant d'péter ma 'teille Électron libre, électron libre Électron libre, électron libre7</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Je viens dun monde à lenvers où la colère est passagère Une fois quon a tout saccagé, la kalash côté passager Puis cest le passage à tabac Toujours insolent de la vérif au passage à la barre Et dans le passé jme revois, jcassais la baraque, jcassais la démarche Avec MBaraque et Papada dès le plus jeune âge Démarrage, Hold up, mets les porcs, hors deux Vends la dope dans le hall, ya comme une odeur dbonne beuh Ma belle si ton cur est à prendre laisse-moi tapprendre par cur Ou laisse-moi taper ton tarpé puis tfaire tomber sur répondeur, Hay' Rappeur, toi qui vendrait même ta 'sique pour un clou Tu viens juste darriver, poto reste tranquille Ne prend pas lpatron du cirque pour un clown Cesse de gesticuler quand Lucky Luke a le canon calé dans les yeuks Hayce fait ci, Big Lemsi fait ça Trop de facéties, je t'ai passé ça, sisi sossa 97 jdébute sur cassettes, pour les mettre à sec jsuis une star La scène, cest mon firmament, j'suis comme le diamant jai plusieurs facettes Lenvie de dévorer la vie de menvoler vers la vallée des vers mest délibérément venu je nétais quun petit crapaud, yeah yeah, un young bikow yeah yeah Jétais vil et vénal envie dun nouvel horizon, venin dans les veines, envie de khalis dans les valises et dévaliser les châteaux yeah yeah, el chapo yeah yeah Tout est bon, la mule revient des Antilles, bikow Électron libérable Mais qui t'as dis qu'on était gentils bikow ? Électron libérable Ces bikows passent leurs life a mentir, bikow Électron libérable J'sort du shtar et j'rejoins ma team, bikow Électron libérable You might also like Diamants d'Afrique me font froid dans la nuque J'passe le portique, de la frappe dans les Nike En manque d'inspi j'ai défragmenter la lune Ne t'avise jamais de de-brancher le mic Les bonbonnes de latex ont fait gerber la mule Une graine de délinquance a fait germer mon rap J'tourne avec des frères qui sont passés sur la 1 On t'allume, on t'emballe Elle est belle, elle est bonne tu fais même plus les bails N'oublie pas que la flemme c'est la sur de la mort En plus de ça l'amour va s'défenestrer L'jour ou la pauvreté passe le seuil de la porte Et je passe les rapports,j'tire ta crinière Baise ta grand mère, éteint ta lumière mirador J'ai coffré le 7.62 dans la cave Les lyrics de l'album dans la boite de Pandore Co-cocaïne basé du Suriname Faut suriner la concurrence, on est sur Paname Émancipé depuis le cordon ombilical Quand je ne suis pas sous écrous, je suis sur ta dame Tout est bon, la mule revient des Antilles, bikow Électron libérable Mais qui t'as dis qu'on était gentils bikow ? Électron libérable Ces bikows passent leurs life a mentir, bikow Électron libérable J'sort du shtar et j'rejoins ma team, bikow Électron libérable Électron libérable x42</t>
+          <t>Je viens dun monde à lenvers où la colère est passagère Une fois quon a tout saccagé, la kalash côté passager Puis cest le passage à tabac Toujours insolent de la vérif au passage à la barre Et dans le passé jme revois, jcassais la baraque, jcassais la démarche Avec MBaraque et Papada dès le plus jeune âge Démarrage, Hold up, mets les porcs, hors deux Vends la dope dans le hall, ya comme une odeur dbonne beuh Ma belle si ton cur est à prendre laisse-moi tapprendre par cur Ou laisse-moi taper ton tarpé puis tfaire tomber sur répondeur, Hay' Rappeur, toi qui vendrait même ta 'sique pour un clou Tu viens juste darriver, poto reste tranquille Ne prend pas lpatron du cirque pour un clown Cesse de gesticuler quand Lucky Luke a le canon calé dans les yeuks Hayce fait ci, Big Lemsi fait ça Trop de facéties, je t'ai passé ça, sisi sossa 97 jdébute sur cassettes, pour les mettre à sec jsuis une star La scène, cest mon firmament, j'suis comme le diamant jai plusieurs facettes Lenvie de dévorer la vie de menvoler vers la vallée des vers mest délibérément venu je nétais quun petit crapaud, yeah yeah, un young bikow yeah yeah Jétais vil et vénal envie dun nouvel horizon, venin dans les veines, envie de khalis dans les valises et dévaliser les châteaux yeah yeah, el chapo yeah yeah Tout est bon, la mule revient des Antilles, bikow Électron libérable Mais qui t'as dis qu'on était gentils bikow ? Électron libérable Ces bikows passent leurs life a mentir, bikow Électron libérable J'sort du shtar et j'rejoins ma team, bikow Électron libérable Diamants d'Afrique me font froid dans la nuque J'passe le portique, de la frappe dans les Nike En manque d'inspi j'ai défragmenter la lune Ne t'avise jamais de de-brancher le mic Les bonbonnes de latex ont fait gerber la mule Une graine de délinquance a fait germer mon rap J'tourne avec des frères qui sont passés sur la 1 On t'allume, on t'emballe Elle est belle, elle est bonne tu fais même plus les bails N'oublie pas que la flemme c'est la sur de la mort En plus de ça l'amour va s'défenestrer L'jour ou la pauvreté passe le seuil de la porte Et je passe les rapports,j'tire ta crinière Baise ta grand mère, éteint ta lumière mirador J'ai coffré le 7.62 dans la cave Les lyrics de l'album dans la boite de Pandore Co-cocaïne basé du Suriname Faut suriner la concurrence, on est sur Paname Émancipé depuis le cordon ombilical Quand je ne suis pas sous écrous, je suis sur ta dame Tout est bon, la mule revient des Antilles, bikow Électron libérable Mais qui t'as dis qu'on était gentils bikow ? Électron libérable Ces bikows passent leurs life a mentir, bikow Électron libérable J'sort du shtar et j'rejoins ma team, bikow Électron libérable Électron libérable x42</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>T'a refusé la droiture Entre teinture et fond d'teint, tu veux savoir ou est garée sa voiture Sous champagne tu te cambres comme un arc Dans un but lucratif, tu pratiques la michtonnerie comme un art Hépatite poudre blanche et larmes noires Tu vis sans une roupie, accroupie les veines en sang dans la baignoire L'argent ne feras pas ton bonheur tant que tu feras le malheur des hommes A troquer ta pudeur contre des sommes Redescend t'es ché-per, tu crois que j'sais pas c'que tu penses Tu sais plaire j'sais que tu baises parce que je sais comment tu danses Pour des verres j'te dévore du regard et tu m'ambiances MDMA jusquà l'overdose à bord de l'ambulance Noctambule, déambulante droguée sur un air de house Quitte la brume avant de finir comme Amy Winehouse T'as quitté la baraque parce que tes frères te tab'Hayce L'argent n'a pas d'odeur mais t'as du flaire pét'Hayce Tu kiffes le milieu mondain les paillettes, les strass T'en as malmené plus d'un mais les dossiers s'tassent L'argent n'a pas d'odeur mais t'as du flair Pet'Hayce Tu laisseras qu'une traînée de poudre si la mort t'embr'Hayce Tu confis ton gosse à ta mère pour aller t'faire fourrer L'argent n'a pas d'odeur mais t'as du flair Pet'hayce Talons gloss fesses à l'air t'aimes les mecs bourrés L'argent n'a pas d'odeur mais t'as du flair Pet'hayce You might also like Tu sais comment les amadouer via tes hanches tes seufs T'es seule au monde mais si douée pour affranchir tes soeurs Tu lui fais croire qu'il y'a drah, le trompe sans témoin Car s'il tombe dans tes bras, il tombe dans tes mains Tu m'dégoûtes jamais tu n'as regretté, t'es qu'une traînée Qui pour la poudre tu couches avec des retraités Tu t'mouches avec le biff qu'on t'a prêté Près du gouffre en situation précaire, intrépide, maltraitée Très dangereuse Toujours au centre des embrouilles le sang coule à cause de oi-t Tu kiffes le bruit des douilles sur l'asphalte À cheval sur ton pigeon pendant que ton mec est en prison Pour des bottes, des bijoux, des sacs, des manteaux d'bisons Tu déteste les bisous, t'aimes les claques sale catin Tu michtonnes le patron du four t'es plus fourbe que Scapin Chaque matin tu fais tout ton répertoire à la recherche d'un lapin J'me demande quel-quel baratin tu vas lui faire croire Rap Genius a Hayssi du flair ! Rejoins-nous !5</t>
+          <t>T'a refusé la droiture Entre teinture et fond d'teint, tu veux savoir ou est garée sa voiture Sous champagne tu te cambres comme un arc Dans un but lucratif, tu pratiques la michtonnerie comme un art Hépatite poudre blanche et larmes noires Tu vis sans une roupie, accroupie les veines en sang dans la baignoire L'argent ne feras pas ton bonheur tant que tu feras le malheur des hommes A troquer ta pudeur contre des sommes Redescend t'es ché-per, tu crois que j'sais pas c'que tu penses Tu sais plaire j'sais que tu baises parce que je sais comment tu danses Pour des verres j'te dévore du regard et tu m'ambiances MDMA jusquà l'overdose à bord de l'ambulance Noctambule, déambulante droguée sur un air de house Quitte la brume avant de finir comme Amy Winehouse T'as quitté la baraque parce que tes frères te tab'Hayce L'argent n'a pas d'odeur mais t'as du flaire pét'Hayce Tu kiffes le milieu mondain les paillettes, les strass T'en as malmené plus d'un mais les dossiers s'tassent L'argent n'a pas d'odeur mais t'as du flair Pet'Hayce Tu laisseras qu'une traînée de poudre si la mort t'embr'Hayce Tu confis ton gosse à ta mère pour aller t'faire fourrer L'argent n'a pas d'odeur mais t'as du flair Pet'hayce Talons gloss fesses à l'air t'aimes les mecs bourrés L'argent n'a pas d'odeur mais t'as du flair Pet'hayce Tu sais comment les amadouer via tes hanches tes seufs T'es seule au monde mais si douée pour affranchir tes soeurs Tu lui fais croire qu'il y'a drah, le trompe sans témoin Car s'il tombe dans tes bras, il tombe dans tes mains Tu m'dégoûtes jamais tu n'as regretté, t'es qu'une traînée Qui pour la poudre tu couches avec des retraités Tu t'mouches avec le biff qu'on t'a prêté Près du gouffre en situation précaire, intrépide, maltraitée Très dangereuse Toujours au centre des embrouilles le sang coule à cause de oi-t Tu kiffes le bruit des douilles sur l'asphalte À cheval sur ton pigeon pendant que ton mec est en prison Pour des bottes, des bijoux, des sacs, des manteaux d'bisons Tu déteste les bisous, t'aimes les claques sale catin Tu michtonnes le patron du four t'es plus fourbe que Scapin Chaque matin tu fais tout ton répertoire à la recherche d'un lapin J'me demande quel-quel baratin tu vas lui faire croire Rap Genius a Hayssi du flair ! Rejoins-nous !5</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mayday Mayday, La Tour au bout du fil J'suis pas gay mais j'prends mon pied sur chaque beat Comme mon grille-pain la street t'en sors grillé et t'y rentres clean Posé aux tables de ping pong j'vois défiler les ients-cli hey Le style est flexible, l'époque l'exige Parle pas de Jésus la croix c'est pour ma lessive C'est bois le prêtre, j'précise, agressif au mic' Si tu rap comme une pute, n'investis pas dans un mac On t'mets des baffes sans chaîne Hi-fi, och bad c'est certifié Baby-boom de punchlines l'instrumentale s'fait partouser J'graille mes rivaux par douzaine, la semence du coin t'fais tousser C'est à Fleury que les mauvaises graines finissent de pousser Laissez passer mes acolytes assoiffés de sang J'viens de là ou la vérité sort de la bouche des alcooliques Tu veux un 16 on t'en fait 100 La concurrence est amnésique, pour un kilo d'amnésia, on risquerait d'faire couler l'sang 7-5 comment s'en sortir sans traîtrise Et à la vue des chtars on court comme si on avait vu l'anté-christ Les chants du casse pipe les frères en perm' qui montent sur un braco Et si l'argent tombait du ciel j'serais d'ceux qui crèveraient les bras haut Ry-thme de la guerre, de la violence oui moi j'en donne On baise les flics et les gendarmes et fait du biff' quand les gens dorment Légendaire, la Jonquière, P.S.O Hood Les faux négros sont à terre, Bico Loco so good You might also like Welcome to the hood, voulez-vous naviguer dans la ville de la coca ? On t'met des bastos dans les roues nul bénévolat Veni Vidi Vida Loca Ramènes-même pas ton crew voles une enveloppe de lovés va laver l'avocat You-you-you-you know the rules Hayce Lem, 17, sur les ondes hertziennes, M-16 dans la boca Ça pue l'kérosène et l'oseille quand les misérables font causette Pour zapper les dommages collatéraux causés cousin faut qu'on zet Zina t'sais que dans le XV barbare on est och bad gueh dans ce bled y'a plus rien à brasser Chirac a braqué la caisse noire avant que Sarko nous passe les bracelets Bessières boulevard 20G dans le vagin de la cougar côté passager 1700e le feat bâtard et le tarot n'est pas prêt de changer Du XV barbare à la gloire j'connais déja l'trajet Un petit pas pour Lemsi, une rafale dans le rap français Suck my dick sale indic, j'ai mis de l'oseille dans un bic Suck my dick sale indic, si le rap n'est qu'un game j'suis qu'un geek Bico j'kick mais le rap de khabs m'ennuie, maintenant c'est moi le chef manny Un flow tah young money, le swagg à Cheb Mami Ecoute là c'est och, j'vends du H pour qu'au bled j'm'arrache J'rap sans décalage j'suis comme M'bi harbi au cheveux harach Et la rage dans la capitale y'a que des cannibales Sois pas amical ici normal on t'graille comme Lecter Hannibal Bite dans tes amygdales, jextermine tes amis seul Tous tes amis savent j'suis sur le terrain ouais j'suis comme Abidal Le tiek's c'est pas mal mais tricard la frappe est para-médical Si tu voulais m'sher-cla t'as pas le level c'est pas grave mais décale Demba dis leur j'suis marocain mort aux cons Ces fils de pute de keufs veulent nous serrer comme un marocco La bite à Rocco j'baise tous ces rookys J'dessine la street dans mon son continue à faire tes croquis Ok gros c'est Volts Face, j'tuerais pour des histoire de cash J'fais du biff que pour la miff' donc après la victoire j'me casse Ouais là ou j'habite pétasse on prend le biff on décale Si t'est til-gen ca m'est égal, j'suis pas peintre j'fais pas dans l'détail J'viens mettre un tarif a ces sois-disant narrateurs Qui quand les keufs arrive buggent plus qu'un ordinateur Qui t'appelle la miff mais qui te che-lâ en un quart d'heure J'ai grillé tous leur vice t'inquiètes je t'invite au barbec' T'as l'seum, tu deviens tout pâle Tu parles de gun parce que t'es qu'un trou d'balle Gros c'est Hayce et l'équipe quoi qu'il s'passe on est dans les temps On est pas dentiste mais on vient t'frapper dans les dents C'est la street mec, en cas d'embrouille on tire direct Pas de remake, sur les murs impact d'AK-47 Tête cramé été comme hiver viens voir à la tour ça vi-ser sec J'tire directe j'represente mon 17 Shit, cess', la meilleure came viens de ma tess Chez nous c'est la concurrence avec la poudre dans les fesses J'frappe en finesse, tellement balaise j'rentre dans le Guinness B20 M.S.T P.a.p.i.s Sénégal Mali MC tu peux serrer les fesses Laisse moi taper sur ton cul si tu veut taper sur ma S J'en place une pour mon poto S.A.L.I.F NE2S Malek Gino et pour tous les mec du tiek's Avec un million d'euros on veut tir-sor d'la banque Ouvres la porte ma grande j'sors d'la planque tous les boloss sentent la blanche Vous mettent des grosse tartes tel un putain d'pâtissier Le micro à la boule à la Z je crois qu'c'est l'heure de l'baptiser Putain c'est Och Bad, c'est pas du pe-ra borné Rap de cauchemar, nous c'est la hess qui nous a formé Ca fait que d'voler la street nous a donné des ailes J'prépare la taule et l'argile qui va cogner des ailes J'fonce sur l'autoroute sans permis A.S.S.R Venir nous tester sin-cou c'est pas nécessaire C'est ADK tah le 17 gros viens par là que j'te dissèque Ouais scard-la j'te le dis sec, que des rafales de disquettes La rue m'a bercé le vécu est corsé, véhicule forcé, transac' de C.C Appelez-moi Saïd c'est les MC's vont pousser Fini de causer guette les dégâts que j'ai causé 17 décès 0 blessé, ves-qui la PC Liasses dans les W.C fuck le C.I.C J'me faisais courser par la B.A.C, pendant que tu passais ton B.A.C J'en ai assez, j'rêve de me casser, zapper le passé Laissez passer, maintenant j'suis lancé le show peut commencer T'auras même pas le temps de penser, j'ai le veau-cer sous THC J'te lâche des rimes en excès, ces bâtards se demandent qui c'est ? On arrive dans le game guette, le cul chargé de 'quettes-'quettes Levez les compèts'-pèts', que les condés deviennent bête-bête Un petit pas pour Lemsi, on garde toujours nos principes, 100 parisien Dans tous les coins ça roule des joints, pendant que chez toi négro ça fume du foin Les tchoins veulent s'refaire les seins mais en levrette on voit qu'tes fesses Jaromatise mon bédo avec de la white widow Posté à PSO en train d'monter mon réseau J'fais du sale comme un proxo, toi t'es sale comme un toxo J'connais le tier-quar par cur j'ai des yents-cli tout-par Si j'prends une tonne tout part, si j't'allume tu pars Avant que tu m'dises ne m'tue pas Même si la cavale ne dure pas chez moi on s'rend pas On s'reprend on change de plan comme un braqueur de que-ban On fait d'l'argent tout en restant intelligent J'allume mon briquet pète mon spliff et le THC vient d's'propager Dans mon crâne du seum tah le rif' j'suis d'humeur fâcheuse c'est qu'c'est passager Sachez fumer c'est mieux qu'manger des dragées Engagé dans l'pe-ra j'mets c'billet baisé sur mon trajet PGS c'est le PSG, supporté par des barjo, fuck les agents Du taga y'en aura toujours, on en ramènera même en nageant Si t'es riche ne le montre pas aux gens, une belle caisse on pé-ta tes jantes Tu fais le mec intelligent, Paname-Zoo on te casse les jambes Ça va kicker sans répit tu fais tié-pi comme un képi Qui s'fait caillasser au bâti, fais pas l'reur-ti t'as bibi tu t'es fais té-sau Y'avais les keufs tu t'es vé-sau, on attrape les 'loss au lasso Les putes vont se mettre à criser, j'ai mis ma patte sur le réseau 1</t>
+          <t>Mayday Mayday, La Tour au bout du fil J'suis pas gay mais j'prends mon pied sur chaque beat Comme mon grille-pain la street t'en sors grillé et t'y rentres clean Posé aux tables de ping pong j'vois défiler les ients-cli hey Le style est flexible, l'époque l'exige Parle pas de Jésus la croix c'est pour ma lessive C'est bois le prêtre, j'précise, agressif au mic' Si tu rap comme une pute, n'investis pas dans un mac On t'mets des baffes sans chaîne Hi-fi, och bad c'est certifié Baby-boom de punchlines l'instrumentale s'fait partouser J'graille mes rivaux par douzaine, la semence du coin t'fais tousser C'est à Fleury que les mauvaises graines finissent de pousser Laissez passer mes acolytes assoiffés de sang J'viens de là ou la vérité sort de la bouche des alcooliques Tu veux un 16 on t'en fait 100 La concurrence est amnésique, pour un kilo d'amnésia, on risquerait d'faire couler l'sang 7-5 comment s'en sortir sans traîtrise Et à la vue des chtars on court comme si on avait vu l'anté-christ Les chants du casse pipe les frères en perm' qui montent sur un braco Et si l'argent tombait du ciel j'serais d'ceux qui crèveraient les bras haut Ry-thme de la guerre, de la violence oui moi j'en donne On baise les flics et les gendarmes et fait du biff' quand les gens dorment Légendaire, la Jonquière, P.S.O Hood Les faux négros sont à terre, Bico Loco so good Welcome to the hood, voulez-vous naviguer dans la ville de la coca ? On t'met des bastos dans les roues nul bénévolat Veni Vidi Vida Loca Ramènes-même pas ton crew voles une enveloppe de lovés va laver l'avocat You-you-you-you know the rules Hayce Lem, 17, sur les ondes hertziennes, M-16 dans la boca Ça pue l'kérosène et l'oseille quand les misérables font causette Pour zapper les dommages collatéraux causés cousin faut qu'on zet Zina t'sais que dans le XV barbare on est och bad gueh dans ce bled y'a plus rien à brasser Chirac a braqué la caisse noire avant que Sarko nous passe les bracelets Bessières boulevard 20G dans le vagin de la cougar côté passager 1700e le feat bâtard et le tarot n'est pas prêt de changer Du XV barbare à la gloire j'connais déja l'trajet Un petit pas pour Lemsi, une rafale dans le rap français Suck my dick sale indic, j'ai mis de l'oseille dans un bic Suck my dick sale indic, si le rap n'est qu'un game j'suis qu'un geek Bico j'kick mais le rap de khabs m'ennuie, maintenant c'est moi le chef manny Un flow tah young money, le swagg à Cheb Mami Ecoute là c'est och, j'vends du H pour qu'au bled j'm'arrache J'rap sans décalage j'suis comme M'bi harbi au cheveux harach Et la rage dans la capitale y'a que des cannibales Sois pas amical ici normal on t'graille comme Lecter Hannibal Bite dans tes amygdales, jextermine tes amis seul Tous tes amis savent j'suis sur le terrain ouais j'suis comme Abidal Le tiek's c'est pas mal mais tricard la frappe est para-médical Si tu voulais m'sher-cla t'as pas le level c'est pas grave mais décale Demba dis leur j'suis marocain mort aux cons Ces fils de pute de keufs veulent nous serrer comme un marocco La bite à Rocco j'baise tous ces rookys J'dessine la street dans mon son continue à faire tes croquis Ok gros c'est Volts Face, j'tuerais pour des histoire de cash J'fais du biff que pour la miff' donc après la victoire j'me casse Ouais là ou j'habite pétasse on prend le biff on décale Si t'est til-gen ca m'est égal, j'suis pas peintre j'fais pas dans l'détail J'viens mettre un tarif a ces sois-disant narrateurs Qui quand les keufs arrive buggent plus qu'un ordinateur Qui t'appelle la miff mais qui te che-lâ en un quart d'heure J'ai grillé tous leur vice t'inquiètes je t'invite au barbec' T'as l'seum, tu deviens tout pâle Tu parles de gun parce que t'es qu'un trou d'balle Gros c'est Hayce et l'équipe quoi qu'il s'passe on est dans les temps On est pas dentiste mais on vient t'frapper dans les dents C'est la street mec, en cas d'embrouille on tire direct Pas de remake, sur les murs impact d'AK-47 Tête cramé été comme hiver viens voir à la tour ça vi-ser sec J'tire directe j'represente mon 17 Shit, cess', la meilleure came viens de ma tess Chez nous c'est la concurrence avec la poudre dans les fesses J'frappe en finesse, tellement balaise j'rentre dans le Guinness B20 M.S.T P.a.p.i.s Sénégal Mali MC tu peux serrer les fesses Laisse moi taper sur ton cul si tu veut taper sur ma S J'en place une pour mon poto S.A.L.I.F NE2S Malek Gino et pour tous les mec du tiek's Avec un million d'euros on veut tir-sor d'la banque Ouvres la porte ma grande j'sors d'la planque tous les boloss sentent la blanche Vous mettent des grosse tartes tel un putain d'pâtissier Le micro à la boule à la Z je crois qu'c'est l'heure de l'baptiser Putain c'est Och Bad, c'est pas du pe-ra borné Rap de cauchemar, nous c'est la hess qui nous a formé Ca fait que d'voler la street nous a donné des ailes J'prépare la taule et l'argile qui va cogner des ailes J'fonce sur l'autoroute sans permis A.S.S.R Venir nous tester sin-cou c'est pas nécessaire C'est ADK tah le 17 gros viens par là que j'te dissèque Ouais scard-la j'te le dis sec, que des rafales de disquettes La rue m'a bercé le vécu est corsé, véhicule forcé, transac' de C.C Appelez-moi Saïd c'est les MC's vont pousser Fini de causer guette les dégâts que j'ai causé 17 décès 0 blessé, ves-qui la PC Liasses dans les W.C fuck le C.I.C J'me faisais courser par la B.A.C, pendant que tu passais ton B.A.C J'en ai assez, j'rêve de me casser, zapper le passé Laissez passer, maintenant j'suis lancé le show peut commencer T'auras même pas le temps de penser, j'ai le veau-cer sous THC J'te lâche des rimes en excès, ces bâtards se demandent qui c'est ? On arrive dans le game guette, le cul chargé de 'quettes-'quettes Levez les compèts'-pèts', que les condés deviennent bête-bête Un petit pas pour Lemsi, on garde toujours nos principes, 100 parisien Dans tous les coins ça roule des joints, pendant que chez toi négro ça fume du foin Les tchoins veulent s'refaire les seins mais en levrette on voit qu'tes fesses Jaromatise mon bédo avec de la white widow Posté à PSO en train d'monter mon réseau J'fais du sale comme un proxo, toi t'es sale comme un toxo J'connais le tier-quar par cur j'ai des yents-cli tout-par Si j'prends une tonne tout part, si j't'allume tu pars Avant que tu m'dises ne m'tue pas Même si la cavale ne dure pas chez moi on s'rend pas On s'reprend on change de plan comme un braqueur de que-ban On fait d'l'argent tout en restant intelligent J'allume mon briquet pète mon spliff et le THC vient d's'propager Dans mon crâne du seum tah le rif' j'suis d'humeur fâcheuse c'est qu'c'est passager Sachez fumer c'est mieux qu'manger des dragées Engagé dans l'pe-ra j'mets c'billet baisé sur mon trajet PGS c'est le PSG, supporté par des barjo, fuck les agents Du taga y'en aura toujours, on en ramènera même en nageant Si t'es riche ne le montre pas aux gens, une belle caisse on pé-ta tes jantes Tu fais le mec intelligent, Paname-Zoo on te casse les jambes Ça va kicker sans répit tu fais tié-pi comme un képi Qui s'fait caillasser au bâti, fais pas l'reur-ti t'as bibi tu t'es fais té-sau Y'avais les keufs tu t'es vé-sau, on attrape les 'loss au lasso Les putes vont se mettre à criser, j'ai mis ma patte sur le réseau 1</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mon egoooo Mon egoooo ! Elle a raison mais j'm'entête à dire qu'elle a tort J'quitte la maison en claquant la porte Plus j'l'écoute mieux j'me porte mais j'ai la tête dure Comme d'habitude, Maman pleure car son enfant titube Sur l'bitume, ma fierté prend le dessus même lorsque mon cur se fissure Faut qu'j'oublie les rancunes passées, que j'pense au futur Que j'panse mes blessures, que j'fasse le plus dur Que j'trouve une leçon à tirer de chaque point d'suture J'voulais juste vivre en modestie, mon ego m'a noyé dans l'orgueil Dans la street un triste sort s'dessine à ceux qui ferment leurs gueules Nos ego nous empêchent de l'être Empêche de faire le premier pas pour voir une amitié renaître Mon ego garde une rancune amère, tu m'as mal rencardée Mon ego veut que j'te monte en l'air tu m'as mal regardé Il s'acharne et refuse de voir la gloire s'attarder J'veux dire à ceux qu'j'aime que j'vais mal mais il m'empêche de parler, pardonnez Mon egoooo Mon egoooo ! Mon egoooo Mon egoooo ! You might also like Biko l'ego s'arrête où la modestie commence L'arrogance nous envoie surfer sur une vague de violence À porter tes couilles comme un trophée, tu t'es retrouvé dans l'ambulance Mon père m'a dit wlidi soit dur et fier, les hommes pleurent en silence J'voulais montrer qui j'étais, faire mes preuves à la Terre entière Au pied du mur j'me sens rejeté, l'ego transforme les curs en pierre Trop souvent les sentiments s'annulent, si la fierté émerge J'aurais pu décroisser la lune pour voir un sourire sur ses lèvres Chez nous l'amour est une faiblesse, nos mentalités régressent L'ego ne met ni gant ni cagoule quand il faut stranguler lallégresse Pardonne-moi si j't'ai frappé tu mérites peut-être pas qu'j'te fasse de mal Mais j'peux pas rester dans la rue sans faire de maille Si mon ego vous a pris de haut, les khos ne m'en voulez pas Des frères qui charbonnaient dur en bas, par sa faute se sont retrouvés là-haut Malgré ça si j'défonce les remparts, que j'ai ce fuckin' flow Qu'ils ne m'invitent pas dans leurs freestyles, qu'ils tremblent devant le biko loko, c'est grâce à... Mon egoooo Mon egoooo ! Mon egoooo Mon egoooo ! Du mal à leur dire que j'les aimes Ego Quand l'amour fait place à la haine Ego J'ai fais ma place qu'ils me la prennent Ego J'laisse la concurrence à la traîne Ego Du mal à leur dire que j'les aimes Ego Quand l'amour fait place à la haine Ego J'ai fais ma place qu'ils me la prennent Ego Nos ego nous empêchent de vivre Ego Mon egoooo Mon egoooo ! Mon egoooo Mon egoooo !5</t>
+          <t>Mon egoooo Mon egoooo ! Elle a raison mais j'm'entête à dire qu'elle a tort J'quitte la maison en claquant la porte Plus j'l'écoute mieux j'me porte mais j'ai la tête dure Comme d'habitude, Maman pleure car son enfant titube Sur l'bitume, ma fierté prend le dessus même lorsque mon cur se fissure Faut qu'j'oublie les rancunes passées, que j'pense au futur Que j'panse mes blessures, que j'fasse le plus dur Que j'trouve une leçon à tirer de chaque point d'suture J'voulais juste vivre en modestie, mon ego m'a noyé dans l'orgueil Dans la street un triste sort s'dessine à ceux qui ferment leurs gueules Nos ego nous empêchent de l'être Empêche de faire le premier pas pour voir une amitié renaître Mon ego garde une rancune amère, tu m'as mal rencardée Mon ego veut que j'te monte en l'air tu m'as mal regardé Il s'acharne et refuse de voir la gloire s'attarder J'veux dire à ceux qu'j'aime que j'vais mal mais il m'empêche de parler, pardonnez Mon egoooo Mon egoooo ! Mon egoooo Mon egoooo ! Biko l'ego s'arrête où la modestie commence L'arrogance nous envoie surfer sur une vague de violence À porter tes couilles comme un trophée, tu t'es retrouvé dans l'ambulance Mon père m'a dit wlidi soit dur et fier, les hommes pleurent en silence J'voulais montrer qui j'étais, faire mes preuves à la Terre entière Au pied du mur j'me sens rejeté, l'ego transforme les curs en pierre Trop souvent les sentiments s'annulent, si la fierté émerge J'aurais pu décroisser la lune pour voir un sourire sur ses lèvres Chez nous l'amour est une faiblesse, nos mentalités régressent L'ego ne met ni gant ni cagoule quand il faut stranguler lallégresse Pardonne-moi si j't'ai frappé tu mérites peut-être pas qu'j'te fasse de mal Mais j'peux pas rester dans la rue sans faire de maille Si mon ego vous a pris de haut, les khos ne m'en voulez pas Des frères qui charbonnaient dur en bas, par sa faute se sont retrouvés là-haut Malgré ça si j'défonce les remparts, que j'ai ce fuckin' flow Qu'ils ne m'invitent pas dans leurs freestyles, qu'ils tremblent devant le biko loko, c'est grâce à... Mon egoooo Mon egoooo ! Mon egoooo Mon egoooo ! Du mal à leur dire que j'les aimes Ego Quand l'amour fait place à la haine Ego J'ai fais ma place qu'ils me la prennent Ego J'laisse la concurrence à la traîne Ego Du mal à leur dire que j'les aimes Ego Quand l'amour fait place à la haine Ego J'ai fais ma place qu'ils me la prennent Ego Nos ego nous empêchent de vivre Ego Mon egoooo Mon egoooo ! Mon egoooo Mon egoooo !5</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Les Frères Lumières Je n'ai pas pris le bon chemin Je n'ai pas pris le bon chemin, j'ai perdu le contrôle de ma vie Je prie pour chaque lendemain, je ne compte même plus les insomnies Et tous les jours que Dieu fait, je cours derrière mon oseille Et tous les jours que Dieu fait, je cours derrière mon oseille Bitch tu roules du boule en recherchant le droit chemin Ferme-la, laisse-moi regarder le match hein ! Les ignorants nous parlent de pyramides et de parchemins Comme si j'étais Kanye dans Watch The Throne Dans nos rues salaces, on s'alarme, on sort des sous-sols A l'heure où le soleil s'est levé, les petites reu-sseu font la salat Un salam à tous mes lossas, les yeux faya par la salat Qui slaloment les soucis solides avancent solo dans la savane C'est la selecao sur nos terrains vagues Quand je te dis que je suis né près des chameaux, c'est pas des blagues Sur le terrain c'est toujours le même scénario pour des battes Tu les vois pas venir, ils t'arrosent, t'as pris les lions pour des blattes Je n'ai pas pris le bon chemin, j'ai perdu le contrôle de ma vie Je prie pour chaque lendemain, je ne compte même plus les insomnies Et tous les jours que Dieu fait, je cours derrière mon oseille Et tous les jours que Dieu fait, je cours derrière mon oseille Polo croco sur le cross, on t'emmène au sol à la crocop A cause d'une loca mignonne à croquer dans son dernier crop-top On tape des poings sur nos torses, fait des sacrifices pour être au top Les baceus nous électrocutent, cassent la démarche de Robocop On est loin d'aimer son prochain, loin du mental philanthrope Microbe, saccageant le Franprix juste avant de s'enfuir en trott' Tes paroles sont infantiles, t'as dû boire un kir en trop C'est la loi de l'Omerta, la fierté jamais on ne se défile entre hommes On exige beaucoup de sa personne lorsqu'on attend rien des autres J'n'attends pas qu'on me mette bien , je préfère mettre bien les autres BLR music sur l'étendard, fais comme moi travaille dur et tais-toi Si tu t'es trompé de rêves, changes de ciel tu changeras d'étoiles Je n'ai pas pris le bon chemin, j'ai perdu le contrôle de ma vie Je prie pour chaque lendemain, je ne compte même plus les insomnies Et tous les jours que Dieu fait, je cours derrière mon oseille Et tous les jours que Dieu fait, je cours derrière mon oseille Je n'ai pas pris le bon chemin Je prie pour chaque lendemain Et tous les jours que Dieu fait, je cours derrière mon oseille Et tous les jours que Dieu fait, je cours derrière mon oseilleYou might also like</t>
+          <t>Les Frères Lumières Je n'ai pas pris le bon chemin Je n'ai pas pris le bon chemin, j'ai perdu le contrôle de ma vie Je prie pour chaque lendemain, je ne compte même plus les insomnies Et tous les jours que Dieu fait, je cours derrière mon oseille Et tous les jours que Dieu fait, je cours derrière mon oseille Bitch tu roules du boule en recherchant le droit chemin Ferme-la, laisse-moi regarder le match hein ! Les ignorants nous parlent de pyramides et de parchemins Comme si j'étais Kanye dans Watch The Throne Dans nos rues salaces, on s'alarme, on sort des sous-sols A l'heure où le soleil s'est levé, les petites reu-sseu font la salat Un salam à tous mes lossas, les yeux faya par la salat Qui slaloment les soucis solides avancent solo dans la savane C'est la selecao sur nos terrains vagues Quand je te dis que je suis né près des chameaux, c'est pas des blagues Sur le terrain c'est toujours le même scénario pour des battes Tu les vois pas venir, ils t'arrosent, t'as pris les lions pour des blattes Je n'ai pas pris le bon chemin, j'ai perdu le contrôle de ma vie Je prie pour chaque lendemain, je ne compte même plus les insomnies Et tous les jours que Dieu fait, je cours derrière mon oseille Et tous les jours que Dieu fait, je cours derrière mon oseille Polo croco sur le cross, on t'emmène au sol à la crocop A cause d'une loca mignonne à croquer dans son dernier crop-top On tape des poings sur nos torses, fait des sacrifices pour être au top Les baceus nous électrocutent, cassent la démarche de Robocop On est loin d'aimer son prochain, loin du mental philanthrope Microbe, saccageant le Franprix juste avant de s'enfuir en trott' Tes paroles sont infantiles, t'as dû boire un kir en trop C'est la loi de l'Omerta, la fierté jamais on ne se défile entre hommes On exige beaucoup de sa personne lorsqu'on attend rien des autres J'n'attends pas qu'on me mette bien , je préfère mettre bien les autres BLR music sur l'étendard, fais comme moi travaille dur et tais-toi Si tu t'es trompé de rêves, changes de ciel tu changeras d'étoiles Je n'ai pas pris le bon chemin, j'ai perdu le contrôle de ma vie Je prie pour chaque lendemain, je ne compte même plus les insomnies Et tous les jours que Dieu fait, je cours derrière mon oseille Et tous les jours que Dieu fait, je cours derrière mon oseille Je n'ai pas pris le bon chemin Je prie pour chaque lendemain Et tous les jours que Dieu fait, je cours derrière mon oseille Et tous les jours que Dieu fait, je cours derrière mon oseille</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>9.3 c'est ma guerre, on se cale, on be3ed Y'a le 7.5 4,3,2 wâ7d Algérien du game, accent d'moudjahid Hayce Lemsi, Fianso, qu'est-ce que t'attends pour shahad Quand j'tire l'équipe tire frère on dirait qu'on m'back Parlez moi pas d'major dans ma tête c'est Ong-bak La mâchoire se contracte, ich ich Fais le fou, paf coup de tête ! Mesure double contact J'suis dans l'pétrole frère c'est pas l'même billet Pour compter tout mon pactole poto j'en ai pour 2 mois Un sport de roi, des scores de NBA J'suis tellement fort que je crois même des fois j'suis plus fort que moi Tous entassés dans la cellule en position ftale Par la faute de celle que l'on vend que l'on inhale Tout est bien qui finit mal au sommet du règne animal On fait l'amour entre 2 guerres au lieu de consulter l'imam A la recherche d'la pièce ma came, la pièce mon bif La pièce ma liasse, la pièce ma pièce La pièce ma came, la pièce ma liasse La pièce mon bif, la pièce ich ich ouhh J'rentre dans la tie-par tapis direct j'l'ai baise en brochette en brelan ma gueule on vise le four Si tu veux me fumer tu fais la queue t'es pas content dans pas longtemps j'sors double calibre comme le signe de Jul Si tu veux passer chez So dans mon vaisseaux boule de fumée j'suis pas là demande à Kala dis le si j'te saoule Passe à la cité ma rapacité tu vas 'rhaffer' face à face tu vas te refaire baffer par un jnoun J'me suis refais de la pièce, que j'ai trouvé dans la tess Aujourd'hui ils m'appellent Altesse, hier ils me tournaient l'dos Donne moi une pièce et regarde moi bâtir un empire Donne moi une pièce et regarde moi bâtir un empire J'me suis refais de la pièce, que j'ai trouvé dans la tess Aujourd'hui ils m'appellent Altesse, hier ils me tournaient l'dos Donne moi une pièce et regarde moi bâtir un empire Donne moi une pièce et regarde moi bâtir un empire Faut que j'gratte ma pièce, ma caisse, ma liasse Ma peste de Budapest, j't'attache je m'arrache de la tess Les yeuz écarquillés devant la Féfé California Ce que nous enseignèrent nos parents est au funérarium Dans tout les ghettos c'est la guerre territoriale La prison, les hôpitaux, le célesta, le Valium, bicot Dans nos tess on fait l'biff en enchaînant J'dors plus pour le bénef, mais non man on veut ta pièce On fait des cures en saignant Des dictatures en régnant, mes deux mains dans la caisse On ramasse et en se plaignant Cavaler comme un Kenyan esquivé comme la peste Pour toucher Fianso t'es lent On recule pas trimard, on prend l'élan et le reste On se refait d'une pièce, nul ne connait l'avenir Handek, ta langue c'est comme ta femme à toi de savoir la tenir On se refait d'une pièce, pour m'avoir ils se lèveront tôt Rafale dans l'bas de caisse, on t'allume dans un cab', j'prends mon calibre et je dab quand l'ennemi est dans mon dos Bang, bang, bang, bang ! J'me suis refait de la pièce, que j'ai trouvé dans la tess Aujourd'hui ils m'appellent Altesse, hier ils me tourné l'dos Donne moi une pièce et regarde moi bâtir un empire Donne moi une pièce et regarde moi bâtir un empire J'me suis refait de la pièce, que j'ai trouvé dans la tess Aujourd'hui ils m'appellent Altesse, hier ils me tourné l'dos Donne moi une pièce et regarde moi bâtir un empire Donne moi une pièce et regarde moi bâtir un empire A l'aube du 21ème siècle ce qui nous manque c'est pas l'argent mais de véritable valeur La vie c'est pas les belles filles, le Dom Pérignon, sur le périphérique à 300 kilomètres à l'heure J'ai beau demander à la lune d'apaiser mon insomnie, ouais, sans suite J'connais quelques charbonneurs qui ne s'en sont jamais remis, on pense très fort à nos familles en pleine course poursuite, tout ça pour la pièceYou might also like5</t>
+          <t>9.3 c'est ma guerre, on se cale, on be3ed Y'a le 7.5 4,3,2 wâ7d Algérien du game, accent d'moudjahid Hayce Lemsi, Fianso, qu'est-ce que t'attends pour shahad Quand j'tire l'équipe tire frère on dirait qu'on m'back Parlez moi pas d'major dans ma tête c'est Ong-bak La mâchoire se contracte, ich ich Fais le fou, paf coup de tête ! Mesure double contact J'suis dans l'pétrole frère c'est pas l'même billet Pour compter tout mon pactole poto j'en ai pour 2 mois Un sport de roi, des scores de NBA J'suis tellement fort que je crois même des fois j'suis plus fort que moi Tous entassés dans la cellule en position ftale Par la faute de celle que l'on vend que l'on inhale Tout est bien qui finit mal au sommet du règne animal On fait l'amour entre 2 guerres au lieu de consulter l'imam A la recherche d'la pièce ma came, la pièce mon bif La pièce ma liasse, la pièce ma pièce La pièce ma came, la pièce ma liasse La pièce mon bif, la pièce ich ich ouhh J'rentre dans la tie-par tapis direct j'l'ai baise en brochette en brelan ma gueule on vise le four Si tu veux me fumer tu fais la queue t'es pas content dans pas longtemps j'sors double calibre comme le signe de Jul Si tu veux passer chez So dans mon vaisseaux boule de fumée j'suis pas là demande à Kala dis le si j'te saoule Passe à la cité ma rapacité tu vas 'rhaffer' face à face tu vas te refaire baffer par un jnoun J'me suis refais de la pièce, que j'ai trouvé dans la tess Aujourd'hui ils m'appellent Altesse, hier ils me tournaient l'dos Donne moi une pièce et regarde moi bâtir un empire Donne moi une pièce et regarde moi bâtir un empire J'me suis refais de la pièce, que j'ai trouvé dans la tess Aujourd'hui ils m'appellent Altesse, hier ils me tournaient l'dos Donne moi une pièce et regarde moi bâtir un empire Donne moi une pièce et regarde moi bâtir un empire Faut que j'gratte ma pièce, ma caisse, ma liasse Ma peste de Budapest, j't'attache je m'arrache de la tess Les yeuz écarquillés devant la Féfé California Ce que nous enseignèrent nos parents est au funérarium Dans tout les ghettos c'est la guerre territoriale La prison, les hôpitaux, le célesta, le Valium, bicot Dans nos tess on fait l'biff en enchaînant J'dors plus pour le bénef, mais non man on veut ta pièce On fait des cures en saignant Des dictatures en régnant, mes deux mains dans la caisse On ramasse et en se plaignant Cavaler comme un Kenyan esquivé comme la peste Pour toucher Fianso t'es lent On recule pas trimard, on prend l'élan et le reste On se refait d'une pièce, nul ne connait l'avenir Handek, ta langue c'est comme ta femme à toi de savoir la tenir On se refait d'une pièce, pour m'avoir ils se lèveront tôt Rafale dans l'bas de caisse, on t'allume dans un cab', j'prends mon calibre et je dab quand l'ennemi est dans mon dos Bang, bang, bang, bang ! J'me suis refait de la pièce, que j'ai trouvé dans la tess Aujourd'hui ils m'appellent Altesse, hier ils me tourné l'dos Donne moi une pièce et regarde moi bâtir un empire Donne moi une pièce et regarde moi bâtir un empire J'me suis refait de la pièce, que j'ai trouvé dans la tess Aujourd'hui ils m'appellent Altesse, hier ils me tourné l'dos Donne moi une pièce et regarde moi bâtir un empire Donne moi une pièce et regarde moi bâtir un empire A l'aube du 21ème siècle ce qui nous manque c'est pas l'argent mais de véritable valeur La vie c'est pas les belles filles, le Dom Pérignon, sur le périphérique à 300 kilomètres à l'heure J'ai beau demander à la lune d'apaiser mon insomnie, ouais, sans suite J'connais quelques charbonneurs qui ne s'en sont jamais remis, on pense très fort à nos familles en pleine course poursuite, tout ça pour la pièce5</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Tu crois que t'es mieux que moi toi ? Tu me connais pas ! Vous me connaissez pas ! Encore un soir sale où je me confie à cette pute ! Elle qui m'enivre et qui m'enjolive Tous les bons moments qu'on a passé je ne m'en rappelle plus Quand elle est là je ne m'en rends pas compte mais je nique tout Là j'suis pas bien Je sirote, je sirote, je sirote Je sirote, je sirote, je sirote Je sirote, je sirote, je sirote Le Cognac, le Whisky, le Ciroc ! La femme la plus vicieuse que je connaisse J'ai butiné le Jack Honey, Jack Honey Je vais boire un coup avec les locos d'à côté Sirote la codé, la codé, la codé J'ai pas besoin d'elle pour sentir mes cojones Elle pousse les p'tites michtoneuses à racoler Ce soir j'oublie mais demain les soucis renaissent Sirote la codé, la codé, la codé J'ai perdu des collègues en excès de vitesse Après l'avoir bu je me dit que j'ai déconné, déconné Nuit blanche il est noir, moment d'ivresse Sirote la codé,la codé, la codé Tout était si rose avant la cirrhose Avant d'avoir goûter l'urine du démon Avant Hennessy, Moët et Chandon, Ciroc L'élixir, la potion, la codé, le biberon Ce bico m'a dit L'alcool ne mène à rien, tu verras plus tard, Toute façon t'es du ghetto donc t'iras nul part Alors trinque à ma santé poto mets toi bien Sur ma codé, ma codé, ma codé je la cole Ma codé bico je me la colle Ma belle c'est pas l'alcool qui tient l'homme Là c'est ton homme qui tient pas l'alcool Ce soir je suis fly J'ai la tête dans la codé J'ai l'esprit dans les étoiles Ce soir je suis fly J'suis à côté, j'bois la codé, j'ai déconné Car je connais la revanche de cette femme 2 Encore un soir sale où je me confie à cette pute ! Elle qui m'enivre et qui m'enjolive Tous les bons moments qu'on a passé je ne m'en rappelle plus Quand elle est là je ne m'en rends pas compte mais je nique tout Là j'suis pas bien Je sirote, je sirote, je sirote Je sirote, je sirote, je sirote Je sirote, je sirote, je sirote Le Cognac, le Whisky, le Ciroc ! J'tiens plus debout dans cette chambre d'hôtel Ma loca s'endort profondément Je combat mes démons Je veut m'éloigner d'elle Pour déployer mes ailes reprendre les devants Je me rappelle pas du prix de la chaîne sur mon torse Ni du prénom de la loca dans mon lit Mon corps nassimile plus la codé mais je force Et repars sur un nouveau cycle d'insomnie J'm'alcoolise, j'me détruit le foie, la vésicule J'ai beau me croire au dessus des lois J'ignore encore où j'ai garé mon véhicule J'ai plus d'oseille en poche et j'suis loin de chez moi Si la codé te coince elle te passe les menottes Elle aime passer à l'acte sans préliminaires Elle s'empare de ma voix met du feu dans mes notes Plus jeune elle m'entraînais dans des délits mineurs Petit frère elle peut devenir ta pire ennemie La solution c'est de ne pas commencer N'écoute pas tes amis car s'ils sont tes amis C'est leurs rôles de te dissuader, d'y renoncer Laisse la codé, la codé, la codé là-bas J'en ai vu boire jusquà crever la dalle J'en ai vu boire à sendetter, charbonner, bourré, rongé par les remords à la barre Ce soir je suis fly J'ai la tête dans la codé J'ai l'esprit dans les étoiles Ce soir je suis fly J'suis à côté, j'bois la codé, j'ai déconné Car je connais la revanche de cette femme 2 Encore un soir sale où je me confie à cette pute ! Elle qui m'enivre et qui m'enjolive Tous les bons moments qu'on a passé je ne m'en rappelle plus Quand elle est là je ne m'en rends pas compte mais je nique tout Là j'suis pas bien Je sirote, je sirote, je sirote Je sirote, je sirote, je sirote Je sirote, je sirote, je sirote Le Cognac, le Whisky, le Ciroc !You might also like</t>
+          <t>Tu crois que t'es mieux que moi toi ? Tu me connais pas ! Vous me connaissez pas ! Encore un soir sale où je me confie à cette pute ! Elle qui m'enivre et qui m'enjolive Tous les bons moments qu'on a passé je ne m'en rappelle plus Quand elle est là je ne m'en rends pas compte mais je nique tout Là j'suis pas bien Je sirote, je sirote, je sirote Je sirote, je sirote, je sirote Je sirote, je sirote, je sirote Le Cognac, le Whisky, le Ciroc ! La femme la plus vicieuse que je connaisse J'ai butiné le Jack Honey, Jack Honey Je vais boire un coup avec les locos d'à côté Sirote la codé, la codé, la codé J'ai pas besoin d'elle pour sentir mes cojones Elle pousse les p'tites michtoneuses à racoler Ce soir j'oublie mais demain les soucis renaissent Sirote la codé, la codé, la codé J'ai perdu des collègues en excès de vitesse Après l'avoir bu je me dit que j'ai déconné, déconné Nuit blanche il est noir, moment d'ivresse Sirote la codé,la codé, la codé Tout était si rose avant la cirrhose Avant d'avoir goûter l'urine du démon Avant Hennessy, Moët et Chandon, Ciroc L'élixir, la potion, la codé, le biberon Ce bico m'a dit L'alcool ne mène à rien, tu verras plus tard, Toute façon t'es du ghetto donc t'iras nul part Alors trinque à ma santé poto mets toi bien Sur ma codé, ma codé, ma codé je la cole Ma codé bico je me la colle Ma belle c'est pas l'alcool qui tient l'homme Là c'est ton homme qui tient pas l'alcool Ce soir je suis fly J'ai la tête dans la codé J'ai l'esprit dans les étoiles Ce soir je suis fly J'suis à côté, j'bois la codé, j'ai déconné Car je connais la revanche de cette femme 2 Encore un soir sale où je me confie à cette pute ! Elle qui m'enivre et qui m'enjolive Tous les bons moments qu'on a passé je ne m'en rappelle plus Quand elle est là je ne m'en rends pas compte mais je nique tout Là j'suis pas bien Je sirote, je sirote, je sirote Je sirote, je sirote, je sirote Je sirote, je sirote, je sirote Le Cognac, le Whisky, le Ciroc ! J'tiens plus debout dans cette chambre d'hôtel Ma loca s'endort profondément Je combat mes démons Je veut m'éloigner d'elle Pour déployer mes ailes reprendre les devants Je me rappelle pas du prix de la chaîne sur mon torse Ni du prénom de la loca dans mon lit Mon corps nassimile plus la codé mais je force Et repars sur un nouveau cycle d'insomnie J'm'alcoolise, j'me détruit le foie, la vésicule J'ai beau me croire au dessus des lois J'ignore encore où j'ai garé mon véhicule J'ai plus d'oseille en poche et j'suis loin de chez moi Si la codé te coince elle te passe les menottes Elle aime passer à l'acte sans préliminaires Elle s'empare de ma voix met du feu dans mes notes Plus jeune elle m'entraînais dans des délits mineurs Petit frère elle peut devenir ta pire ennemie La solution c'est de ne pas commencer N'écoute pas tes amis car s'ils sont tes amis C'est leurs rôles de te dissuader, d'y renoncer Laisse la codé, la codé, la codé là-bas J'en ai vu boire jusquà crever la dalle J'en ai vu boire à sendetter, charbonner, bourré, rongé par les remords à la barre Ce soir je suis fly J'ai la tête dans la codé J'ai l'esprit dans les étoiles Ce soir je suis fly J'suis à côté, j'bois la codé, j'ai déconné Car je connais la revanche de cette femme 2 Encore un soir sale où je me confie à cette pute ! Elle qui m'enivre et qui m'enjolive Tous les bons moments qu'on a passé je ne m'en rappelle plus Quand elle est là je ne m'en rends pas compte mais je nique tout Là j'suis pas bien Je sirote, je sirote, je sirote Je sirote, je sirote, je sirote Je sirote, je sirote, je sirote Le Cognac, le Whisky, le Ciroc !</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Il faut une vie à un homme pour se faire une réputation Mais il suffit d'une seconde, une mauvaise parole pour la détruire Envoie les billets Les bons comptes font les bons amis, pour ça que je marche tout seul Paname Boss, tu sais pas qui j'suis ? Tape mon nom sur Google Lâche l'affaire frère, y'a qu'le banquier qui peut m'régler mon compte Le gent-ar ça va ça vient frère, comme un fusil à pompe J'préfère grailler du porc que voter pour Sarko Nique sa mère dans c'rap français y a que des chards-clo 2013 y a plus d'relève, j'suis de plus en plus célèbre J'te touche même pas, j'te pénètre, j'côtoie des futurs proxénètes Venez venez si vous êtes hip-hop, calibré j'veux mourir maintenant Achète mes CDs, j'm'en fous qu'tu m'aimes humainement Prodige comme Pajot et Thauvin, une balle et t'es die Entre gens bons et sales amis, 'bat les couilles j'veux tout graille J'ai qu'une seule parole, une seule daronne et j'peux mourir pour les deux Gros c'est paro, si tu m'carottes j't'allume ta mère sous ses yeux Po-po-potte-ca sur la rétine, on t'encule sans sourciller J'cherche un épicier aveugle pour faire passer des faux billets Si t'as cassé faut payer j'peux jurer wAllah qu'tu vas raquer WA-WA-WAllah qu'tu vas raquer, ou bien wAllah qu'tu repars à pieds Gros ça vient d'la tess', traîne dans le 16, chienne de guerre contre Bulle Terrier Jamais en grève, jamais en hess, faut d'la cess' même les jours fériés Sous les couilles d'la 0.9 dans l'75008 mes 07, tiens chérie prend mon 06 Poto invite moi sur un feat, si t'as besoin d'un classique Le jour où j'ferais-défai Zlatan tu verras qu'Paris est magique You might also like Parle nous en cash on fait pas d'mes-chro envoie les billets Si j'suis cagoulé ne parle pas trop envoie les billets Que tu sois blanc, rebeu ou négro envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Rien à foutre d'finir au ste-po envoie les billets M'sers pas la main j'suis pas ton poto envoie les billets Si tu veux pas finir à l'hôsto envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Envoie l'oseille que j'l'investisse et qu'j'là coupe au kérosène Sous tes beaux airs s'cache une traîtrise qui ferait courir un faussaire Tes rappeurs s'trémoussent entre eux, miss on oublie l'génocide sur la terre promise Indépendant j'rap comme un électron libre, j'suis violent j'fais du violet via la matière grise Pour des sommes astronomiques méfie-toi des frères qui t'enterrent sans gants Ton putain d'arbre généalogique n'est plus qu'un putain dautomne sanglant Money-money-money mothafuck' dans un gant de velours, j'veux la vie de rêve et de lovés dans l'enveloppe Si j'fais l'mort j'entends voler les vautours, j'sors du poste avec du biff et des marques de menottes Amenez du liquide, tout d'suite, Algérien, Marocain, Tounsi Il reste d'l'espoir même pris pour cible, par la BAC en pleine course poursuite J'court-circuite le rap game, No pain No gain Hôtel, champaign, cocain, oseille Trop d'cicatrices sur le corps y a même plus d'place comme Weezy C'est Still Fresh fils de porc ne demande plus jamais Who is it ? Négro j'fusille, le savoir est une arme j'écris avec un uzi Tu t'feras briser, si t'essayes d'niquer un négro déjà baisé Les rappeurs qui détaillent les étapes de la bicrave sont des poucaves musicales La plupart sont des acteurs compare leurs textes avec leurs vies et tu ricanes Ici ça rappe, représente tous nos gars Niakaté, Camara, on est faits comme des rats C'est pour les malins amène, on prend la monnaie à la minute, depuis minot j'élimine ma musique, cannes Coup d'fil à La Faucheuse pour vous terminer deux par deux J'pisse où j'veux, mon territoire est dans les cieux Depardieu J'calcule moins, elles disent Tu frimes toi, tu fais la re-sta Baby j'fais pas la re-sta... j'suis une re-sta Parle nous en cash on fait pas d'mes-chro envoie les billets Si j'suis cagoulé ne parle pas trop envoie les billets Que tu sois blanc, rebeu ou négro envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Rien à foutre d'finir au ste-po envoie les billets M'sers pas la main j'suis pas ton poto envoie les billets Si tu veux pas finir à l'hôsto envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Pour les thunes c'est pour ça j'vaille-tra, mais on est trop c'est pour ça j'graille pas Sans perversion c'est pour les velo-tra, mais rien qu'j'les ken j'suis dans l'bizz de pottes-ca Mon style est fou, envoie les sous, le rap c'est chez moi donc installez-vous Rien qu'j'brule des MC's donc régalez-vous, mon flow sser-pa donc décalez-vous Gagner dans l'halal on veut m'en empêcher, tu veux m'rottes-ca ? Va falloir encaisser J'connais les chiffres tu vas pas m'taxer, ainsi qu'l'alphabet on va pas s'rabaisser Tantôt entetté, tantôt endetté, on fait des faits divers qui nous mettent bien l'été Parce que ta vie est moche va pas la saboter, c'est pas parce que t'es grand qu'on va pas sauter Le langage est codé, le personnel est rodé, Banlieue Sale ça bicrave les auditeurs font des OD's On fait des tunes ici pour pouvoir investir au de-ble,crevard du savoir, j'veux pas instruire tout ces teu-bé Fanatique t'as vu comment j'kick, baisé du cerveau t'as vu comment j'trip J'en veux dans mes poches, de la même que dans les clips, j'en ai dans mon flow ouais j'en ai dans mon slip, salope Ici c'est problèmes, grosses peines, drogues douces, boloss, cocaine Paris, hotel, stress, sky, cola, champaign Fiftyfifty, business, money fictil Vil-ci, big deal, 7-5 c'est ma city Briquet, pe-stu, pe-clo dans le jean, sur fond d'Michael Jackson - Billie Jean Ce soir j'fais seul, mon cash dans la ville, prends deux-trois nums de 'tasses dans la file Ma 'sique c'est d'la colombienne, j'attends que les boloss viennent Ma 'sique c'est d'la colombienne, j'attends que les boloss viennent Donc envoie les billets qu'on s'arrache d'ici en Air Force Sur Dakar, Pikine, Belfort ou Washington Airport Bitch, j'suis international Comme Future I wanna woke up in a Bugatti Parle nous en cash on fait pas d'mes-chro envoie les billets Si j'suis cagoulé ne parle pas trop envoie les billets Que tu sois blanc, rebeu ou négro envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Rien à foutre d'finir au ste-po envoie les billets M'sers pas la main j'suis pas ton poto envoie les billets Si tu veux pas finir à l'hôsto envoie les billets Matin midi soir j'pense qu'à ça même les mains liées</t>
+          <t>Il faut une vie à un homme pour se faire une réputation Mais il suffit d'une seconde, une mauvaise parole pour la détruire Envoie les billets Les bons comptes font les bons amis, pour ça que je marche tout seul Paname Boss, tu sais pas qui j'suis ? Tape mon nom sur Google Lâche l'affaire frère, y'a qu'le banquier qui peut m'régler mon compte Le gent-ar ça va ça vient frère, comme un fusil à pompe J'préfère grailler du porc que voter pour Sarko Nique sa mère dans c'rap français y a que des chards-clo 2013 y a plus d'relève, j'suis de plus en plus célèbre J'te touche même pas, j'te pénètre, j'côtoie des futurs proxénètes Venez venez si vous êtes hip-hop, calibré j'veux mourir maintenant Achète mes CDs, j'm'en fous qu'tu m'aimes humainement Prodige comme Pajot et Thauvin, une balle et t'es die Entre gens bons et sales amis, 'bat les couilles j'veux tout graille J'ai qu'une seule parole, une seule daronne et j'peux mourir pour les deux Gros c'est paro, si tu m'carottes j't'allume ta mère sous ses yeux Po-po-potte-ca sur la rétine, on t'encule sans sourciller J'cherche un épicier aveugle pour faire passer des faux billets Si t'as cassé faut payer j'peux jurer wAllah qu'tu vas raquer WA-WA-WAllah qu'tu vas raquer, ou bien wAllah qu'tu repars à pieds Gros ça vient d'la tess', traîne dans le 16, chienne de guerre contre Bulle Terrier Jamais en grève, jamais en hess, faut d'la cess' même les jours fériés Sous les couilles d'la 0.9 dans l'75008 mes 07, tiens chérie prend mon 06 Poto invite moi sur un feat, si t'as besoin d'un classique Le jour où j'ferais-défai Zlatan tu verras qu'Paris est magique Parle nous en cash on fait pas d'mes-chro envoie les billets Si j'suis cagoulé ne parle pas trop envoie les billets Que tu sois blanc, rebeu ou négro envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Rien à foutre d'finir au ste-po envoie les billets M'sers pas la main j'suis pas ton poto envoie les billets Si tu veux pas finir à l'hôsto envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Envoie l'oseille que j'l'investisse et qu'j'là coupe au kérosène Sous tes beaux airs s'cache une traîtrise qui ferait courir un faussaire Tes rappeurs s'trémoussent entre eux, miss on oublie l'génocide sur la terre promise Indépendant j'rap comme un électron libre, j'suis violent j'fais du violet via la matière grise Pour des sommes astronomiques méfie-toi des frères qui t'enterrent sans gants Ton putain d'arbre généalogique n'est plus qu'un putain dautomne sanglant Money-money-money mothafuck' dans un gant de velours, j'veux la vie de rêve et de lovés dans l'enveloppe Si j'fais l'mort j'entends voler les vautours, j'sors du poste avec du biff et des marques de menottes Amenez du liquide, tout d'suite, Algérien, Marocain, Tounsi Il reste d'l'espoir même pris pour cible, par la BAC en pleine course poursuite J'court-circuite le rap game, No pain No gain Hôtel, champaign, cocain, oseille Trop d'cicatrices sur le corps y a même plus d'place comme Weezy C'est Still Fresh fils de porc ne demande plus jamais Who is it ? Négro j'fusille, le savoir est une arme j'écris avec un uzi Tu t'feras briser, si t'essayes d'niquer un négro déjà baisé Les rappeurs qui détaillent les étapes de la bicrave sont des poucaves musicales La plupart sont des acteurs compare leurs textes avec leurs vies et tu ricanes Ici ça rappe, représente tous nos gars Niakaté, Camara, on est faits comme des rats C'est pour les malins amène, on prend la monnaie à la minute, depuis minot j'élimine ma musique, cannes Coup d'fil à La Faucheuse pour vous terminer deux par deux J'pisse où j'veux, mon territoire est dans les cieux Depardieu J'calcule moins, elles disent Tu frimes toi, tu fais la re-sta Baby j'fais pas la re-sta... j'suis une re-sta Parle nous en cash on fait pas d'mes-chro envoie les billets Si j'suis cagoulé ne parle pas trop envoie les billets Que tu sois blanc, rebeu ou négro envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Rien à foutre d'finir au ste-po envoie les billets M'sers pas la main j'suis pas ton poto envoie les billets Si tu veux pas finir à l'hôsto envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Pour les thunes c'est pour ça j'vaille-tra, mais on est trop c'est pour ça j'graille pas Sans perversion c'est pour les velo-tra, mais rien qu'j'les ken j'suis dans l'bizz de pottes-ca Mon style est fou, envoie les sous, le rap c'est chez moi donc installez-vous Rien qu'j'brule des MC's donc régalez-vous, mon flow sser-pa donc décalez-vous Gagner dans l'halal on veut m'en empêcher, tu veux m'rottes-ca ? Va falloir encaisser J'connais les chiffres tu vas pas m'taxer, ainsi qu'l'alphabet on va pas s'rabaisser Tantôt entetté, tantôt endetté, on fait des faits divers qui nous mettent bien l'été Parce que ta vie est moche va pas la saboter, c'est pas parce que t'es grand qu'on va pas sauter Le langage est codé, le personnel est rodé, Banlieue Sale ça bicrave les auditeurs font des OD's On fait des tunes ici pour pouvoir investir au de-ble,crevard du savoir, j'veux pas instruire tout ces teu-bé Fanatique t'as vu comment j'kick, baisé du cerveau t'as vu comment j'trip J'en veux dans mes poches, de la même que dans les clips, j'en ai dans mon flow ouais j'en ai dans mon slip, salope Ici c'est problèmes, grosses peines, drogues douces, boloss, cocaine Paris, hotel, stress, sky, cola, champaign Fiftyfifty, business, money fictil Vil-ci, big deal, 7-5 c'est ma city Briquet, pe-stu, pe-clo dans le jean, sur fond d'Michael Jackson - Billie Jean Ce soir j'fais seul, mon cash dans la ville, prends deux-trois nums de 'tasses dans la file Ma 'sique c'est d'la colombienne, j'attends que les boloss viennent Ma 'sique c'est d'la colombienne, j'attends que les boloss viennent Donc envoie les billets qu'on s'arrache d'ici en Air Force Sur Dakar, Pikine, Belfort ou Washington Airport Bitch, j'suis international Comme Future I wanna woke up in a Bugatti Parle nous en cash on fait pas d'mes-chro envoie les billets Si j'suis cagoulé ne parle pas trop envoie les billets Que tu sois blanc, rebeu ou négro envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Rien à foutre d'finir au ste-po envoie les billets M'sers pas la main j'suis pas ton poto envoie les billets Si tu veux pas finir à l'hôsto envoie les billets Matin midi soir j'pense qu'à ça même les mains liées</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Triangle d'Or Des fois je me demande pourquoi je fais tout ça La musique... J'ai le même dirty que tartineur, j'tiens le micro comme le daron tenait le martinet J'ai le swag d'un bico qu'on a téj à Baltimore, va multiplier les dinars et lâche ton narguilé 9owed Mon shlass dans ta musculature, ma mitraillette refait la déco Bolosse, transac', filature, buf-carottes avant fouille du dépôt Rentabilité, main de fer dans un gant de velours, c'est le retour du venimeux volubile aux mille vers J'ai trop de fer, hashtag sidérurgie, tant d'énergie déjà minot j'pensais comme un millionnaire Belvédère, tomatech dans ton -uc, mes Bicos coupent le chanvre dans la hutte Mes Blacks ont des bourrelets dans la nuque, j'rappe plus vite que mon ombre hashtag LuckyLuke Je n'ai pas dormi depuis six mois, mais je prends sur moi, bico j'suis faya J'rappe plus vite que mon ombre hashtag LuckyLuke Dégouté de ce milieu sournois, j'n'aime que mes lokos, j'n'aime que mes lokas J'suis un électron libre, hashtag Einstein Loko, j'ignore ce que Dieu me destine, loko, mon orgueil est en guerre avec ma modestie Loko, J'irai pas plus loin me disent-ils, loko, j'ai ce qu'ils nauront jamais Du goût et du style Allez, il serait temps d'accélérer le rythme, prince de Paname, j'suis un artiste et une industrie Allez, j'm'arrache avec une loka magnifique sur la péninsule ibérique, déguste des langoustines J'peux pas tourner le dos sans qu'ils ne parlent de moi La musique dans la peau, mes lokos savent que je n'ai pas dormi depuis six mois Toujours dans mon ghetto, loin de ce milieu sournois La rue m'a vu grandir, elle a fait de moi Hayce, j'avais rien mais j'étais sur de moi J'écrit mes textes à 11 piges plus d'école à 15 piges, dans la vie tout à un prix j'en paye le prestige La jeunesse fait qu'on s'fiche de ce qui doit nous intriguer, triangulaire zone, bitch, la chatte en digestive Je ne veux pas travailler, je veux juste aller ra-cailler Manger des cailloux, jusqu'au Porsche Cayenne plutôt que d'porter l'3ain, j'vais les rafaler Je n'ai pas dormi depuis six mois, mais je prends sur moi, bico j'suis faya J'rappe plus vite que mon ombre hashtag LuckyLuke Dégouté de ce milieu sournois, j'n'aime que mes lokos, j'n'aime que mes lokas J'suis un électron libre, hashtag Einstein Triangle d'Or mon label, passe au bureau ma belle J'butine les fleurs du mal, j'conduis ce gamos d'Allemagne dans un ensemble abeille Triangle d'Or mon label, passe au bureau ma belle J'butine les fleurs du mal, j'conduis ce gamos d'Allemagne dans un ensemble abeille Je n'ai pas dormi depuis six mois, mais je prends sur moi, bico j'suis faya J'rappe plus vite que mon ombre hashtag LuckyLuke Dégouté de ce milieu sournois, j'n'aime que mes lokos, j'n'aime que mes lokas J'suis un électron libre, hashtag Einstein J'rappe plus vite que mon ombre hashtag LuckyLuke J'suis un électron libre, hashtag EinsteinYou might also like15</t>
+          <t>Triangle d'Or Des fois je me demande pourquoi je fais tout ça La musique... J'ai le même dirty que tartineur, j'tiens le micro comme le daron tenait le martinet J'ai le swag d'un bico qu'on a téj à Baltimore, va multiplier les dinars et lâche ton narguilé 9owed Mon shlass dans ta musculature, ma mitraillette refait la déco Bolosse, transac', filature, buf-carottes avant fouille du dépôt Rentabilité, main de fer dans un gant de velours, c'est le retour du venimeux volubile aux mille vers J'ai trop de fer, hashtag sidérurgie, tant d'énergie déjà minot j'pensais comme un millionnaire Belvédère, tomatech dans ton -uc, mes Bicos coupent le chanvre dans la hutte Mes Blacks ont des bourrelets dans la nuque, j'rappe plus vite que mon ombre hashtag LuckyLuke Je n'ai pas dormi depuis six mois, mais je prends sur moi, bico j'suis faya J'rappe plus vite que mon ombre hashtag LuckyLuke Dégouté de ce milieu sournois, j'n'aime que mes lokos, j'n'aime que mes lokas J'suis un électron libre, hashtag Einstein Loko, j'ignore ce que Dieu me destine, loko, mon orgueil est en guerre avec ma modestie Loko, J'irai pas plus loin me disent-ils, loko, j'ai ce qu'ils nauront jamais Du goût et du style Allez, il serait temps d'accélérer le rythme, prince de Paname, j'suis un artiste et une industrie Allez, j'm'arrache avec une loka magnifique sur la péninsule ibérique, déguste des langoustines J'peux pas tourner le dos sans qu'ils ne parlent de moi La musique dans la peau, mes lokos savent que je n'ai pas dormi depuis six mois Toujours dans mon ghetto, loin de ce milieu sournois La rue m'a vu grandir, elle a fait de moi Hayce, j'avais rien mais j'étais sur de moi J'écrit mes textes à 11 piges plus d'école à 15 piges, dans la vie tout à un prix j'en paye le prestige La jeunesse fait qu'on s'fiche de ce qui doit nous intriguer, triangulaire zone, bitch, la chatte en digestive Je ne veux pas travailler, je veux juste aller ra-cailler Manger des cailloux, jusqu'au Porsche Cayenne plutôt que d'porter l'3ain, j'vais les rafaler Je n'ai pas dormi depuis six mois, mais je prends sur moi, bico j'suis faya J'rappe plus vite que mon ombre hashtag LuckyLuke Dégouté de ce milieu sournois, j'n'aime que mes lokos, j'n'aime que mes lokas J'suis un électron libre, hashtag Einstein Triangle d'Or mon label, passe au bureau ma belle J'butine les fleurs du mal, j'conduis ce gamos d'Allemagne dans un ensemble abeille Triangle d'Or mon label, passe au bureau ma belle J'butine les fleurs du mal, j'conduis ce gamos d'Allemagne dans un ensemble abeille Je n'ai pas dormi depuis six mois, mais je prends sur moi, bico j'suis faya J'rappe plus vite que mon ombre hashtag LuckyLuke Dégouté de ce milieu sournois, j'n'aime que mes lokos, j'n'aime que mes lokas J'suis un électron libre, hashtag Einstein J'rappe plus vite que mon ombre hashtag LuckyLuke J'suis un électron libre, hashtag Einstein15</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Atroce gars Elle s'est pris pour ma fe-meu mais ce n'est qu'une lope-sa Quand j'la tire par les cheveux, je sais qu'elle adore ça Veut qu'on se connaisse un peu mieux mais moi je la stoppe sale Oui je la stoppe sale J'ai la mula qui m'appelle donc j'ai pas l'temps d'te répondre Lâche-moi, vis ta vie ma belle pour moi faut pas qu'tu t'effondres J'suis pas ton Roméo, t'es pas ma Juliette Mais bon le rodéo, se pratique au pluriel Devant ma mère, crois pas qu'tu rivalises T'es ni ma hlel ni ma p'tite amie Tu passerais p't'être avant FIFA si T'étais pas autant une fille facile Devant ma mère, crois pas qu'tu rivalises T'es ni ma hlel ni ma p'tite amie Tu passerais p't'être avant FIFA si T'étais pas autant une fille facile Pas de meuf, pas d'inconvénients Amoureux je peux pas tomber nan J'te dis je t'aime que quand on baise Ou qu'on est flex après un bon mélange Profitons sans appréhensions Rejoins-moi dans la bre-cham, han Fera rien d'méchant, nan Fumons, baisons et mélangeons Ne fais pas la belle ou j'te dis à plus, au revoir T'fais pousser des ailes, tu devrais redescendre Car quand tu mappelles, sur mon tél' Sache que ton name commence par un 33 Tu te fais des gros films, t'es qu'un 33 Crois pas qu'j'suis accro miss, j'en ai dix comme toi Tu te fais des gros films, t'es qu'un 33 Crois pas qu'j'suis accro miss, j'en ai dix comme toi Tu fais la belle avec moi, quelle mauvaise idée Tu rêves d'un nouveau riche, rempli d'humilité Mais tu n'auras qu'une ou deux nuits homelidays Sournoise accolade, animosité Mais quand je finis la bouteille je te regarde dans les yeux Ma virilité te brusque comme d'hab' J'te rappelle que j'en ai trente comme toi Twerk à la Miley Cyrus quand je dab, 33 Déshabille-toi garde tes talons J'vais te montrer les talents d'un pur étalon J'sais qu'tu passes pas le permis si je pars au ballon T'es ma bitch, t'es ma hoe Dans tes rêves, t'es ma gow Tu te demandes si je sors d'ton imagination Tu dérives ma belle, tout est réel Viens savourer les fruits de la passion Juste avant d'venir en toi j't'aime bitch Juste après je sais plus si j't'aime bitch Nan j'ai pas changé de système bitch J'te fume, te jette comme un p'tit zdeh bitch Ne fais pas la belle ou j'te dis à plus, au revoir T'fais pousser des ailes, tu devrais redescendre Car quand tu mappelles, sur mon tél' Sache que ton name commence par un 33 Tu te fais des gros films, t'es qu'un 33 Crois pas qu'j'suis accro miss, j'en ai dix comme toi Tu te fais des gros films, t'es qu'un 33 Crois pas qu'j'suis accro miss, j'en ai dix comme toiYou might also like2</t>
+          <t>Atroce gars Elle s'est pris pour ma fe-meu mais ce n'est qu'une lope-sa Quand j'la tire par les cheveux, je sais qu'elle adore ça Veut qu'on se connaisse un peu mieux mais moi je la stoppe sale Oui je la stoppe sale J'ai la mula qui m'appelle donc j'ai pas l'temps d'te répondre Lâche-moi, vis ta vie ma belle pour moi faut pas qu'tu t'effondres J'suis pas ton Roméo, t'es pas ma Juliette Mais bon le rodéo, se pratique au pluriel Devant ma mère, crois pas qu'tu rivalises T'es ni ma hlel ni ma p'tite amie Tu passerais p't'être avant FIFA si T'étais pas autant une fille facile Devant ma mère, crois pas qu'tu rivalises T'es ni ma hlel ni ma p'tite amie Tu passerais p't'être avant FIFA si T'étais pas autant une fille facile Pas de meuf, pas d'inconvénients Amoureux je peux pas tomber nan J'te dis je t'aime que quand on baise Ou qu'on est flex après un bon mélange Profitons sans appréhensions Rejoins-moi dans la bre-cham, han Fera rien d'méchant, nan Fumons, baisons et mélangeons Ne fais pas la belle ou j'te dis à plus, au revoir T'fais pousser des ailes, tu devrais redescendre Car quand tu mappelles, sur mon tél' Sache que ton name commence par un 33 Tu te fais des gros films, t'es qu'un 33 Crois pas qu'j'suis accro miss, j'en ai dix comme toi Tu te fais des gros films, t'es qu'un 33 Crois pas qu'j'suis accro miss, j'en ai dix comme toi Tu fais la belle avec moi, quelle mauvaise idée Tu rêves d'un nouveau riche, rempli d'humilité Mais tu n'auras qu'une ou deux nuits homelidays Sournoise accolade, animosité Mais quand je finis la bouteille je te regarde dans les yeux Ma virilité te brusque comme d'hab' J'te rappelle que j'en ai trente comme toi Twerk à la Miley Cyrus quand je dab, 33 Déshabille-toi garde tes talons J'vais te montrer les talents d'un pur étalon J'sais qu'tu passes pas le permis si je pars au ballon T'es ma bitch, t'es ma hoe Dans tes rêves, t'es ma gow Tu te demandes si je sors d'ton imagination Tu dérives ma belle, tout est réel Viens savourer les fruits de la passion Juste avant d'venir en toi j't'aime bitch Juste après je sais plus si j't'aime bitch Nan j'ai pas changé de système bitch J'te fume, te jette comme un p'tit zdeh bitch Ne fais pas la belle ou j'te dis à plus, au revoir T'fais pousser des ailes, tu devrais redescendre Car quand tu mappelles, sur mon tél' Sache que ton name commence par un 33 Tu te fais des gros films, t'es qu'un 33 Crois pas qu'j'suis accro miss, j'en ai dix comme toi Tu te fais des gros films, t'es qu'un 33 Crois pas qu'j'suis accro miss, j'en ai dix comme toi2</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Les locos de ma bande, les huissiers devant la porte, les larmes de maman Les hurlements de la proc' Les grands montent sur une banque Nostalgique de mon époque, l'odeur du passé me manque Ma musique et mes potes Le dimanche au marché, mon oncle et ses packs de bières Les vols à l'arracher, la ceinture de mon père Mon lit superposé, les 2-3 matelas par terre Celle que je rêvais d'épouser a figé mon cur en pierre Mes repères, ma bonne étoile Mon ego me rend fier, le revers de la médaille, les funérailles de mon frère Le succès sans donner ces fesses Putain d'soif de fortune Les périodes sans domicile fixe Les cambriolages nocturnes Seul au fond du précipice, la France est une ordure Du sang d'leader algérien j'dirais rien sous la torture Moi j'ai pas troqué mon survêt' Paris pour un costume Rien à foutre de devenir une légende, une star à titre posthume, penses-tu Nostalgique de ces années passées Nostalgique J'suis nostalgique, on était jeune, on était ivre, on voulait tout brasser Nostalgique J'suis nostalgique, j'ai passé ma life à courir dans le ghetto sans lacets Nostalgique J'suis nostalgique, zinc on ne les a pas vus venir nous passer les bracelets Nostalgique de ces années passées You might also like La Fourche, La Tour, La J, mal logé, vit dans la gêne Les yeux rouges de rage rugissent sous l'effet du gaz lacrymogène Obsédé par Cerruti, la vie de rêve c'est cher payer J'ai soufflé mes 16 bougies dans le hall sous shit et champagne Le crack, la cocaïne, mon pays son histoire Le visa, les chartesr, les foots jusqu'au soir au square Les bagarres, les têtes-à-têtes, les soleils en cane-bé Le calme avant la tempête, le bruit des douilles du tard-pé L'épicier du quartier, les étincelles du mortier Mon respect pour les martyres, mon écriture la noche Les réveilles amochés, la bicrave et Dolce Nos familles plus que fauchées le bitume nous à coaché, gaucher Contrarié je veux me rapprocher de mon prochain Mais chez nous c'est l'oseille qui compte, la liberté c'est trop cher Moi j'ai pas troqué mon survêt' Paris pour un costume Rien à foutre de devenir une légende, une star à titre posthume, penses-tu L'Algérie ma terre mère, mes premiers pas sur le ter-ter Mon pauvre père interné, mon premier chico parterre Mes allers-retours au parquet, mes véritables partenaires Mes bicos vivent sans papiers, mes roumains niquent les parcmètres Ça caillasse les pompiers, pétHayce un peu pompette Vapeurs de skunk, estomper les poukis jouent de la trompette Le venin qu'envoie les envieux, le velours que l'on voulait porter Les valeurs qu'on avait morveux, les voleurs qui rentrent en HP Les salopes essayent de ce racheter, mais la fierté ne peut s'acheter Sachez que l'on ne voulait pas vendre de la drogue en sachet Moi j'ai pas troqué mon survêt' Paris pour un costume Rien à foutre de devenir une légende, une star à titre posthume, penses-tu J'regrette pas le passé bico, juste le temps perdu À mes frères, à mes surs C'est mon folklore2</t>
+          <t>Les locos de ma bande, les huissiers devant la porte, les larmes de maman Les hurlements de la proc' Les grands montent sur une banque Nostalgique de mon époque, l'odeur du passé me manque Ma musique et mes potes Le dimanche au marché, mon oncle et ses packs de bières Les vols à l'arracher, la ceinture de mon père Mon lit superposé, les 2-3 matelas par terre Celle que je rêvais d'épouser a figé mon cur en pierre Mes repères, ma bonne étoile Mon ego me rend fier, le revers de la médaille, les funérailles de mon frère Le succès sans donner ces fesses Putain d'soif de fortune Les périodes sans domicile fixe Les cambriolages nocturnes Seul au fond du précipice, la France est une ordure Du sang d'leader algérien j'dirais rien sous la torture Moi j'ai pas troqué mon survêt' Paris pour un costume Rien à foutre de devenir une légende, une star à titre posthume, penses-tu Nostalgique de ces années passées Nostalgique J'suis nostalgique, on était jeune, on était ivre, on voulait tout brasser Nostalgique J'suis nostalgique, j'ai passé ma life à courir dans le ghetto sans lacets Nostalgique J'suis nostalgique, zinc on ne les a pas vus venir nous passer les bracelets Nostalgique de ces années passées La Fourche, La Tour, La J, mal logé, vit dans la gêne Les yeux rouges de rage rugissent sous l'effet du gaz lacrymogène Obsédé par Cerruti, la vie de rêve c'est cher payer J'ai soufflé mes 16 bougies dans le hall sous shit et champagne Le crack, la cocaïne, mon pays son histoire Le visa, les chartesr, les foots jusqu'au soir au square Les bagarres, les têtes-à-têtes, les soleils en cane-bé Le calme avant la tempête, le bruit des douilles du tard-pé L'épicier du quartier, les étincelles du mortier Mon respect pour les martyres, mon écriture la noche Les réveilles amochés, la bicrave et Dolce Nos familles plus que fauchées le bitume nous à coaché, gaucher Contrarié je veux me rapprocher de mon prochain Mais chez nous c'est l'oseille qui compte, la liberté c'est trop cher Moi j'ai pas troqué mon survêt' Paris pour un costume Rien à foutre de devenir une légende, une star à titre posthume, penses-tu L'Algérie ma terre mère, mes premiers pas sur le ter-ter Mon pauvre père interné, mon premier chico parterre Mes allers-retours au parquet, mes véritables partenaires Mes bicos vivent sans papiers, mes roumains niquent les parcmètres Ça caillasse les pompiers, pétHayce un peu pompette Vapeurs de skunk, estomper les poukis jouent de la trompette Le venin qu'envoie les envieux, le velours que l'on voulait porter Les valeurs qu'on avait morveux, les voleurs qui rentrent en HP Les salopes essayent de ce racheter, mais la fierté ne peut s'acheter Sachez que l'on ne voulait pas vendre de la drogue en sachet Moi j'ai pas troqué mon survêt' Paris pour un costume Rien à foutre de devenir une légende, une star à titre posthume, penses-tu J'regrette pas le passé bico, juste le temps perdu À mes frères, à mes surs C'est mon folklore2</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>J'suis Panamovic, Panamovic, Panamovic, Panamovic Panamovic, Panamovic, Panamovic, Pa-Pa-Pa-Pa-Panamovic J'suis parano bitch, j'laisse des balafres aux snitch Zla-zla-zlathayce, Panamovic La mauvaise graine a germé, j'ai le coeur mis en pierre J'ai pleuré l'sourire de mon soce dans un bouquet d'chrysantèmes A mes frères devenus squelettiques en goûtant la prison ferme A mes soeurs sous anxioletiques à défaut d'vivre un Enfer Un an-ienc m'a dit noie ton passé dans l'essence et brûle le Depuis j'arpente la gloire comme une montagne au sommet brumeux Des flammes dans les prunelles, mes principes me sont précieux Faut qu'j'm'éloigne de la boisson pour m'sentir plus près des cieux Soir-ce j'suis sous hawaiienne, Q.I. au d'ssus d'la moyenne Parti d'rien, chez moi le dernier des pouilleux, s'paye un Cayenne Y'a pas moyen qu'on moyenne, détaché d'leur noyau Électron libre, je vis d'argent sale, comme la chatte à Ayem Anti-colonialiste, ils s'approprièrent l'ébène Ils profitèrent de l'aubaine pour rayer Bico Blako d'la liste 45 tours pour chanter la zer-mi, 45 shtars dans l'rétro j'suis zhahef Ca pue les 45 jours de tar-mi Panamovic a le zen loin du Kérosène, mais il a les cernes de l'insomnie J'arrive sur le Rap Game en bulldozer, qui ne saute pas n'est pas de Paris Animé par les moteurs, les eins la zeb D'puis tout petit j'entends qu'faut faire d'l'oseille Pa-pa-pa-pas d'Paname j'suis l'homme de ta nuit Rap indépendant financé par le produit d'la cocaïne, oseille, champain La vie s'encherit tellement le sourire des bico s'paye, no pain, no gain Mais je les rafale à la Kalash en pleine euphorie, fuckin' concurrence à vomir Après l'drive-by en bolide, Zlatayce compte plaider la folie Dès l'enfance on est différents comme 2Chainz, c'est le diable qui tient ton couteau C'est normal qu'tu t'prennes des coups d'chaise, fallait pas nous donner l'poukito puto J'vois cette putain d'vie couleur kaki J'sors le milli, les yeux s'equarquillent Carjacking, t'as l'coeur qui palpite à la sortie du parking Ratatatayce, Ratatatayce, Zlathayce connaît pas le Rap Game mais le Rap Game connaît Zlathayce x3 You might also like3</t>
+          <t>J'suis Panamovic, Panamovic, Panamovic, Panamovic Panamovic, Panamovic, Panamovic, Pa-Pa-Pa-Pa-Panamovic J'suis parano bitch, j'laisse des balafres aux snitch Zla-zla-zlathayce, Panamovic La mauvaise graine a germé, j'ai le coeur mis en pierre J'ai pleuré l'sourire de mon soce dans un bouquet d'chrysantèmes A mes frères devenus squelettiques en goûtant la prison ferme A mes soeurs sous anxioletiques à défaut d'vivre un Enfer Un an-ienc m'a dit noie ton passé dans l'essence et brûle le Depuis j'arpente la gloire comme une montagne au sommet brumeux Des flammes dans les prunelles, mes principes me sont précieux Faut qu'j'm'éloigne de la boisson pour m'sentir plus près des cieux Soir-ce j'suis sous hawaiienne, Q.I. au d'ssus d'la moyenne Parti d'rien, chez moi le dernier des pouilleux, s'paye un Cayenne Y'a pas moyen qu'on moyenne, détaché d'leur noyau Électron libre, je vis d'argent sale, comme la chatte à Ayem Anti-colonialiste, ils s'approprièrent l'ébène Ils profitèrent de l'aubaine pour rayer Bico Blako d'la liste 45 tours pour chanter la zer-mi, 45 shtars dans l'rétro j'suis zhahef Ca pue les 45 jours de tar-mi Panamovic a le zen loin du Kérosène, mais il a les cernes de l'insomnie J'arrive sur le Rap Game en bulldozer, qui ne saute pas n'est pas de Paris Animé par les moteurs, les eins la zeb D'puis tout petit j'entends qu'faut faire d'l'oseille Pa-pa-pa-pas d'Paname j'suis l'homme de ta nuit Rap indépendant financé par le produit d'la cocaïne, oseille, champain La vie s'encherit tellement le sourire des bico s'paye, no pain, no gain Mais je les rafale à la Kalash en pleine euphorie, fuckin' concurrence à vomir Après l'drive-by en bolide, Zlatayce compte plaider la folie Dès l'enfance on est différents comme 2Chainz, c'est le diable qui tient ton couteau C'est normal qu'tu t'prennes des coups d'chaise, fallait pas nous donner l'poukito puto J'vois cette putain d'vie couleur kaki J'sors le milli, les yeux s'equarquillent Carjacking, t'as l'coeur qui palpite à la sortie du parking Ratatatayce, Ratatatayce, Zlathayce connaît pas le Rap Game mais le Rap Game connaît Zlathayce x3 3</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Nan biko je n'ai pas changé, j'suis toujours ce métèque En première ligne dans les tranchées 75 victoires 0 défaites Éméché dans le AMG, sur les Champs, la porte ouverte J'consomme toujours plus d'herbe qu'un bison J'viens d'Algérie j'vois tout vert Toujours pris par la musique, on s'aime d'un amour fusionnel De la vie j'ai toujours la même vision, j'suis toujours visionnaire Nan biko je n'ai pas changé, j'suis toujours ce métèque Marche seul sous le ciel de Paris pour y puiser mes textes J'me suis toujours pas rangé, j'fais moins d'conneries depuis mes 'tapes Sur mon cas nul ne s'est plongé, je n'savais pas qui serait les traîtres Dis à ceux qui veulent me produire, que j'les enverrais paître C'est ma caisse à moi d'la conduire, t'as pas compris ? Je répète Dis à ceux qui veulent me produire, que j'les enverrais paître Envoyez-moi votre agent le plus intelligent j'le rendrai bête Nan biko je n'ai pas changé moi, j'suis toujours dans le tieks Toujours le nez dans le tâam, toujours le nez dans le tièp' Toujours un peu dérangé, la lune m'inspire et m'éclaire Nan biko je n'ai pas changé, si c'n'est mon flow et mes vers Haha, ces bikos croient qu'j'ai changé, mais en réalité c'est eux qui ont changé. Eh biko, arrête de regarder à gauche, à droite, regarde droit devant toi, et t'iras loin, tu vois ou pas ? J'brutalise toujours ces rappeurs de merde à chaque freestyle Toujours à bizzer sur le rrain-té j'attends pas qu'les flics taillent À noircir le papier, reparcourir mon histoire J'ai tout lâché pour la musique, j'vais m'en vouloir si j'foire Moi j'ai gardé mes amis, qui m'soutiennent depuis tant d'années J'suis parti voir mes ennemis, je les ai vus détaler J'suis dans l'game all eyes on me, mais j'vais pas m'enflammer J'ai poussé dans la sère-mi, les fleurs du bitume ont fanés Pour mes frères affamés, au micro j'fous le faya Toujours en train d'rafaler, à la vitesse du FAMAS Nan nan je n'ai pas changé, biko c'est toi qui as changé J'suis pas d'ces putos qui disparaissent du quartier pour 100g J'ai toujours le sang chaud, nan nan je n'ai pas changé Si ces putos se sentent chaud, qu'ils viennent me l'faire partager Ma life un ciel orageux, j'fais rougir les belles demoiselles et rugir les rageux J'suis toujours un rajeul You might also like Nan biko je n'ai pas changé, nan biko je n'ai pas changé Nan biko je n'ai pas changé si c'n'est mon flow et mes vers Nan biko je n'ai pas changé, nan biko je n'ai pas changé Ceux qui disent que j'ai changé n'font pas parti d'mon univers Electron Libre je n'ai pas changé, je n'ai pas changé moi Electron Libre je n'ai pas changé, je n'ai pas changé moi Electron Libre je n'ai pas changé, je n'ai pas changé moi Electron Libre je n'ai pas changé, je n'ai pas changé J'suis qu'un électron libre, je n'ai pas changé moi C'est toi qui as changé9</t>
+          <t>Nan biko je n'ai pas changé, j'suis toujours ce métèque En première ligne dans les tranchées 75 victoires 0 défaites Éméché dans le AMG, sur les Champs, la porte ouverte J'consomme toujours plus d'herbe qu'un bison J'viens d'Algérie j'vois tout vert Toujours pris par la musique, on s'aime d'un amour fusionnel De la vie j'ai toujours la même vision, j'suis toujours visionnaire Nan biko je n'ai pas changé, j'suis toujours ce métèque Marche seul sous le ciel de Paris pour y puiser mes textes J'me suis toujours pas rangé, j'fais moins d'conneries depuis mes 'tapes Sur mon cas nul ne s'est plongé, je n'savais pas qui serait les traîtres Dis à ceux qui veulent me produire, que j'les enverrais paître C'est ma caisse à moi d'la conduire, t'as pas compris ? Je répète Dis à ceux qui veulent me produire, que j'les enverrais paître Envoyez-moi votre agent le plus intelligent j'le rendrai bête Nan biko je n'ai pas changé moi, j'suis toujours dans le tieks Toujours le nez dans le tâam, toujours le nez dans le tièp' Toujours un peu dérangé, la lune m'inspire et m'éclaire Nan biko je n'ai pas changé, si c'n'est mon flow et mes vers Haha, ces bikos croient qu'j'ai changé, mais en réalité c'est eux qui ont changé. Eh biko, arrête de regarder à gauche, à droite, regarde droit devant toi, et t'iras loin, tu vois ou pas ? J'brutalise toujours ces rappeurs de merde à chaque freestyle Toujours à bizzer sur le rrain-té j'attends pas qu'les flics taillent À noircir le papier, reparcourir mon histoire J'ai tout lâché pour la musique, j'vais m'en vouloir si j'foire Moi j'ai gardé mes amis, qui m'soutiennent depuis tant d'années J'suis parti voir mes ennemis, je les ai vus détaler J'suis dans l'game all eyes on me, mais j'vais pas m'enflammer J'ai poussé dans la sère-mi, les fleurs du bitume ont fanés Pour mes frères affamés, au micro j'fous le faya Toujours en train d'rafaler, à la vitesse du FAMAS Nan nan je n'ai pas changé, biko c'est toi qui as changé J'suis pas d'ces putos qui disparaissent du quartier pour 100g J'ai toujours le sang chaud, nan nan je n'ai pas changé Si ces putos se sentent chaud, qu'ils viennent me l'faire partager Ma life un ciel orageux, j'fais rougir les belles demoiselles et rugir les rageux J'suis toujours un rajeul Nan biko je n'ai pas changé, nan biko je n'ai pas changé Nan biko je n'ai pas changé si c'n'est mon flow et mes vers Nan biko je n'ai pas changé, nan biko je n'ai pas changé Ceux qui disent que j'ai changé n'font pas parti d'mon univers Electron Libre je n'ai pas changé, je n'ai pas changé moi Electron Libre je n'ai pas changé, je n'ai pas changé moi Electron Libre je n'ai pas changé, je n'ai pas changé moi Electron Libre je n'ai pas changé, je n'ai pas changé J'suis qu'un électron libre, je n'ai pas changé moi C'est toi qui as changé9</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>T'es peut-être dans la raquette mais sur le rain-té je suis celui qu'on appelle cap'taine C'est les civils qui les raquètent pour financer leurs munitions missiles hélicoptère Flow Capello découpe à la cape et d'épée que des pelo dans la teté de la concu' même en acapella perro ah Fuck les dommages collatéraux jamais elle ne me reverra quand j'aurai bouger du tel-ho Dans mon ghetto tout le monde veut berner l'état quitte à jouer de l'harmonica Dans une cellule, on veut tous la Berlinetta T'es sous Chivas, tu t'régales Tu bédaves, t'encaisses, tu détailles Mais tu penses qu'à toi, tu dis jamais rentre à la maison petit frère, il est tard On était mineurs et débiles, on est tombés dans l'shit À en perdre les saveurs d'un aliment quelconque Un penchant pour les femmes aux fesses bombées quand tu grandis, tu t'éloignes de la relationship, bitch Ces bikos s'prennent pour CEO mais ne font qu'du surplace CEO fera toujours des sous même si y'a r, yeah hoe yeah hoe Bloqué dans un ascenseur émotionnel Ivre de vie, sent le frisson passer dans mes vertèbres Ce que raconte les délateurs est irrationnel Mon qalam brille même en écrivant des vers ternes J'ai pas grandi vers Ternes, j'ai pas des mains d'pianistes Mes deux mains sont communistes avec une grosse Despe' Oliver Twist adolescence hors piste À l'hôtel à 16 piges avec une grosse tass-pé Toi t'as percé mais t'as plus d'pantalon T'es le fanfaron du capitalisme Quelque soit la somme tu ne dis pas non T'as même pas encore signé de contrats qu'il t'la mise Dites au palefrenier de préparer ma monture Au flibustier que j'ai besoin de plus de poudre Le monde est grand, tu viens pisser sur ma clôture Surveille ta sur, elle veut michtoner des joueurs de foot Vouloir c'est pouvoir, oser c'est avoir, le tout c'est d'y croire Charbonner dur, j'étais seul dans le noir Une étincelle d'espoir m'a chuchoté Vas-y Lemsi perdure ! Yeah hoe Hayce Lem' team Je cours très vite Maurice Green J'fume pas d'Philippe Morris green Ils me critiquent ah Miskine juste parce que sa petite amie m'screen Ecris que j'ai l'salaire d'Aristide alors que j'touche une vente par 1000 streams Tu t'fais har' par les districts, dans l'industrie, y'a pas d'armistice On les nargue au petit sprint Demande à mon gars District Leurs missiles sont balistiques Bitch t'as besoin d'un mari strict J'sors une liasse de violets neufs tapis negro j'te parie c'titre J'serai né 10 ans plus tôt, j'aurais ken Deneuve et Paris Hilt' Elles s'disent Il est taré c'type ! Charismatique par estime J'veux qu'elle fixe les bas résilles, qu'son boule me rende épileptique Je te chasse comme un reptile T'es pressée d'te dévêtir Encore toute dure quand j'me retire T'as peut-être marqué ma rétine Quinte flush royal sur la blunt Royal shit OG master kush Couscous, pas de flammenküche Coup d'plafond j'nous superman punch J'suis dans la planque, je fume un blunt Je me tape comme le père à Trunks J'préfère voter pour un punk que d'voter pour Donald Trump Tu joues d'la trompette, nique ta grams' Si tu suces des bites pour quelques grammes Am stram gram, Amsterdam J'te laisse liker par Instagram Electron libre et volume dos va raffaler tes pistoleros, ah Kalimera je ressors d'ma coquille, Calimero Yeah oe, Yeah oe, Yeah oe, Yeah oe Tu veux rapper toi ? Tu veux prendre le mic ? Hein ? Ahah Un nouveau jour se lève Sur le rap game, une nouvelle génération, yeah Les gratteurs Du balais, balais, bah ouais, balais, balais, balais, balais, balais Tu veux l'buzz nini, buzz nini, buzz nini, feat nini, beats nini, nini, nini Combien d'litrons t'as poussé pour financer ton album Combien de nuits t'as rêver d'signer dans une maison d'disque La moitié des gens du milieu d'la musique sont des marioles Non qualifiés, n'ont du talent qu'pour monter des combines Je sais de quoi j'parle, j'en ai vu passer fiston Ces bikows se font fistfuck dès le premier contrat La street et la musique, un éternel contraste Toute est une histoire de couleur, de blazes et de pistons Tu fais des clips à vingt-mille euros mais t'es très très faible Je ne vois pas comment le buzz pourrait prendre forme Ton poto commence à changer, fait des trucs de traîtres Dis-lui bien qu'il aille niquer sa reumé la grande folle La street je la connais tellement qu'je l'interprète Chaque jour que Dieu fait, mes cicatrices me ronge le corps Je veux pas d'ta mallette, je souffre d'un mal-être Qui a déjà eu raison de moi que la raison ignore Paris Nord, lapdance Elle est bonne, j'la baise Paris Nord, lapdance Elle est bonne, j'la baise J'vais sûrement rentrer chez moi sans espèce Nique sa mère, j'aurais taffé mes lombaires et mes trapèzes Skurt ! J'crois qu'ma putain d'heure est arrivée Mon flow lézarde les murs, brise le plexigl'Hayce Hayce Lem' Team everyday, everyday J'dédic'Hayce dédic'Hayce J'te la mets dans la poundé Trop d'énergie, j'suis tombé dans une marmite de poundu J'suis pas dans la poule B Je la baise très fort, j'me retire tout doux J'suis auteur, interprète et éditeur T'es gros suceur, gros gratteur, profiteur Vas écrire au lieu d'aller acheter des enjoliveurs, d'enjoliver ton profil Twitter, t'as le gamos, les chaînes en or Tu nous montre ton argent dans les clips, c'est triste T'as des rimes en toc Tu forces pour un feat mais tout le monde s'en fout d'ta vieille vie mon poteYou might also like1</t>
+          <t>T'es peut-être dans la raquette mais sur le rain-té je suis celui qu'on appelle cap'taine C'est les civils qui les raquètent pour financer leurs munitions missiles hélicoptère Flow Capello découpe à la cape et d'épée que des pelo dans la teté de la concu' même en acapella perro ah Fuck les dommages collatéraux jamais elle ne me reverra quand j'aurai bouger du tel-ho Dans mon ghetto tout le monde veut berner l'état quitte à jouer de l'harmonica Dans une cellule, on veut tous la Berlinetta T'es sous Chivas, tu t'régales Tu bédaves, t'encaisses, tu détailles Mais tu penses qu'à toi, tu dis jamais rentre à la maison petit frère, il est tard On était mineurs et débiles, on est tombés dans l'shit À en perdre les saveurs d'un aliment quelconque Un penchant pour les femmes aux fesses bombées quand tu grandis, tu t'éloignes de la relationship, bitch Ces bikos s'prennent pour CEO mais ne font qu'du surplace CEO fera toujours des sous même si y'a r, yeah hoe yeah hoe Bloqué dans un ascenseur émotionnel Ivre de vie, sent le frisson passer dans mes vertèbres Ce que raconte les délateurs est irrationnel Mon qalam brille même en écrivant des vers ternes J'ai pas grandi vers Ternes, j'ai pas des mains d'pianistes Mes deux mains sont communistes avec une grosse Despe' Oliver Twist adolescence hors piste À l'hôtel à 16 piges avec une grosse tass-pé Toi t'as percé mais t'as plus d'pantalon T'es le fanfaron du capitalisme Quelque soit la somme tu ne dis pas non T'as même pas encore signé de contrats qu'il t'la mise Dites au palefrenier de préparer ma monture Au flibustier que j'ai besoin de plus de poudre Le monde est grand, tu viens pisser sur ma clôture Surveille ta sur, elle veut michtoner des joueurs de foot Vouloir c'est pouvoir, oser c'est avoir, le tout c'est d'y croire Charbonner dur, j'étais seul dans le noir Une étincelle d'espoir m'a chuchoté Vas-y Lemsi perdure ! Yeah hoe Hayce Lem' team Je cours très vite Maurice Green J'fume pas d'Philippe Morris green Ils me critiquent ah Miskine juste parce que sa petite amie m'screen Ecris que j'ai l'salaire d'Aristide alors que j'touche une vente par 1000 streams Tu t'fais har' par les districts, dans l'industrie, y'a pas d'armistice On les nargue au petit sprint Demande à mon gars District Leurs missiles sont balistiques Bitch t'as besoin d'un mari strict J'sors une liasse de violets neufs tapis negro j'te parie c'titre J'serai né 10 ans plus tôt, j'aurais ken Deneuve et Paris Hilt' Elles s'disent Il est taré c'type ! Charismatique par estime J'veux qu'elle fixe les bas résilles, qu'son boule me rende épileptique Je te chasse comme un reptile T'es pressée d'te dévêtir Encore toute dure quand j'me retire T'as peut-être marqué ma rétine Quinte flush royal sur la blunt Royal shit OG master kush Couscous, pas de flammenküche Coup d'plafond j'nous superman punch J'suis dans la planque, je fume un blunt Je me tape comme le père à Trunks J'préfère voter pour un punk que d'voter pour Donald Trump Tu joues d'la trompette, nique ta grams' Si tu suces des bites pour quelques grammes Am stram gram, Amsterdam J'te laisse liker par Instagram Electron libre et volume dos va raffaler tes pistoleros, ah Kalimera je ressors d'ma coquille, Calimero Yeah oe, Yeah oe, Yeah oe, Yeah oe Tu veux rapper toi ? Tu veux prendre le mic ? Hein ? Ahah Un nouveau jour se lève Sur le rap game, une nouvelle génération, yeah Les gratteurs Du balais, balais, bah ouais, balais, balais, balais, balais, balais Tu veux l'buzz nini, buzz nini, buzz nini, feat nini, beats nini, nini, nini Combien d'litrons t'as poussé pour financer ton album Combien de nuits t'as rêver d'signer dans une maison d'disque La moitié des gens du milieu d'la musique sont des marioles Non qualifiés, n'ont du talent qu'pour monter des combines Je sais de quoi j'parle, j'en ai vu passer fiston Ces bikows se font fistfuck dès le premier contrat La street et la musique, un éternel contraste Toute est une histoire de couleur, de blazes et de pistons Tu fais des clips à vingt-mille euros mais t'es très très faible Je ne vois pas comment le buzz pourrait prendre forme Ton poto commence à changer, fait des trucs de traîtres Dis-lui bien qu'il aille niquer sa reumé la grande folle La street je la connais tellement qu'je l'interprète Chaque jour que Dieu fait, mes cicatrices me ronge le corps Je veux pas d'ta mallette, je souffre d'un mal-être Qui a déjà eu raison de moi que la raison ignore Paris Nord, lapdance Elle est bonne, j'la baise Paris Nord, lapdance Elle est bonne, j'la baise J'vais sûrement rentrer chez moi sans espèce Nique sa mère, j'aurais taffé mes lombaires et mes trapèzes Skurt ! J'crois qu'ma putain d'heure est arrivée Mon flow lézarde les murs, brise le plexigl'Hayce Hayce Lem' Team everyday, everyday J'dédic'Hayce dédic'Hayce J'te la mets dans la poundé Trop d'énergie, j'suis tombé dans une marmite de poundu J'suis pas dans la poule B Je la baise très fort, j'me retire tout doux J'suis auteur, interprète et éditeur T'es gros suceur, gros gratteur, profiteur Vas écrire au lieu d'aller acheter des enjoliveurs, d'enjoliver ton profil Twitter, t'as le gamos, les chaînes en or Tu nous montre ton argent dans les clips, c'est triste T'as des rimes en toc Tu forces pour un feat mais tout le monde s'en fout d'ta vieille vie mon pote1</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Yeah Quand j'étais petit je voyais des breakeurs tourner sur le sol J'ai grandi loin des poules et des champs de tournesols On va voler des bouteilles quand un grand du quartier ressort A l'époque, jeune et con, je tire mon avenir au sort 8 ans je prends le métro solo normal Souffre d'hyper-activité la daronne en dort mal Psychologue éducateur et tout le tralala J'ai de la khnouna sur la gueule, j'suis intenable comme d'hab Et les kho du bando me demandent quel est ton but Y'a ceux qui font et y'a ceux qu'ont but Y'a ceux qui la ferme et y'a ceux qu'on bute Pour toi c'est la cambouille ou les cambus J'arrive au collège c'est le feu La guerre mondiale 1999 année magistrale C'est l'époque des francs les grands se régalent Qui dit moins de technologie dit plus d'argent sale On en a vu des extincteurs tomber des fenêtres On mettait le feu aux poubelles Pour taper les pompiers dès leur arrivée On vivait sur un coup de tête La première fois que j'ai fumé du bédo J'était minot t'as même pas idée Une facilité pour la langue de Poquelin Jean-Baptiste Malgré les 5 premières années de ma vie au bled J'aime gagner j'ai déjà le mental élitiste Moi je déteste les défaitistes et tous ceux qu'ont la flemme Que des petits larcins j'attends l'âge de 15 piges Et je deviens malsain j'ferais tout pour qu'elle m'voit J'veux absolument lui plaire Si elle a un boule d'bâtard ou des gros seins Dans la street j'm'embrouille tête à tête Si j'ai perdu on remet ça et j'te fais ta fête Cette époque est révolue Aujourd'hui les gens ne se battent plus Ils viennent en équipe c'est devenu des têtes à sept J'suis un mec de La Fourche, j'ai lil du tigre Jhabite a la frontière de Pigalle et des banlieues Le grand banditisme, les touristes cocaïnés Et les travestis morts ivres, ici y'a jamais non-lieu J'aime la nationalité de mon prochain J'ai ce petit côté reporter à la Mouloud Achour Les keufs ont tellement le seum De me voir sortir de la mosquée Que ces bâtards sont venus me contrôler 5 fois par jour - Policier Oh, oh, oh, Islem tu te mets sur le coté ! Tu connais la procédure, tu sors me sors ce que t'as ! - Islem J'ai rien wesh ! - Policier Tes papiers ! - Islem J'vais au studio là ! - Policier Il est où ton petit frère là ? - Islem Pourquoi tu veux parler à mon p'tit reuf ? T'es un ouf toi! - Policier Et alors ? - Islem De quoi j'me mêle ? - Policier Bien sur que je m'en mêle ! Et ils sont où tes potes là ? - Islem Ils sont pas là mais moi j'suis là - Policier Tes macaques là ! - Islem Tu parles de qui là ? - Policier De tes français convertis là, ils sont où hein ? - Islem Et j'vais niquer ta mère la pute ! - Policier Oh tu te calmes, tu te calmes ! - Islem J'm'en bats les couilles ! - Policier Neutralisez le, neutralisez le ! Un peu nerveux un peu nerveux Mais j'ai des frères pieux qui me font le rappel Comme Kamel le malaisien papadawem Des fois j'veux tout arrêter sérieux les frères Partir en Indonésie mettre à fond dans la ièr-pri J'me rappelle de la conseillère d'orientation J'arrive en fin de 3ème elle me dit Mon jeune Islem, fini la récréation - Conseillère Tu redoubles ou tu vas laver les vitres des grattes-ciels ! - Islem Quoi ? - Conseillère Et bah oui ! - Islem Mais non Madame, mais j'vais me ressaisir ! - Conseillère Mais c'est toi qui l'a voulu ! - Islem Mais non mais j'l'ai pas voulu, j'veux allez en général s'il vous plait madame ! - Conseillère Mais il est hors de question que tu ailles en général mais tu te fiches de ce qu'on te dit - Islem Mais non... - Conseillère Mais on te le dit depuis la sixième - Islem Oh putain y'a ma daronne ! - Conseillère Ça y est... Bonjour Madame ! - Mère d'Islem Bonjour ! ISLEM ! A la maison je prends des raclées J'me fais toujours coursé par le daron ceinture a la main Quand je rentre avec les yeux rouges Ou qu'il a cramé que j'ai des ronds Je parcoure la vie sur une roue sans me soucier du lendemain Faut que je me fasse une raison que je me fasse violence Que j'arrive à canaliser toute cette insolence Toute cette énergie toute cette opulence On danse au rythme des gyrophares de l'ambulance Kilos dans la poche chargeur de barrettes entre les seufs Je bifurque toujours couverts par le petit frères et soeurs Quand c'est auch-Bad J'ai rendu fous mes parents Ils m'ont dit tu verras tes enfants te feront vivre un cauchemar Les jaloux j'entends jacter parce que j'ai un flow d'assassin Que je fais 2,3 beefs Quand je galère je vais terrasser les rappeurs de châtelet Je les humilie rentre au quartier avec 2,3 miss Roule le compte avec ino10 on monte un rain-té Tout ça ne tient qu'à un fil avant de se faire épingler Ca fait toujours charbonner les ti-pe les plus dé-ter Même si c'est juste pour passer du point A a un point B Les gardes à vue s'enchainent on se réveille au dépot T'as pas payé plein pôt sans avocat tu prends cher On nous menotte en brochette la tête contre le capot Je sors du dépot sur la selle le caleçon collé Hashek J'ai quand même voulu m'inscrire à des formations Dans cette société de francs-maçons Putain d'entretien d'embauche à chaque fois je perds patience On ne t'apprend pas a pécher on te vend du poisson - Islem Bonjour Monsieur ! - Recruteur Bonjour... - Islem C'est moi qui est appelé pour l'intérim hier... - Recruteur D'accord oui c'est ça. Comment vous vous appelez ? - Islem Je m'appelle Islem monsieur - Recruteur Très bien... - Islem Merci ! - Recruteur Installez-vous je vous en prie... - Islem Merci bien - Recruteur Alors dites moi tout - Islem Voilà donc alors je suis à la recherche d'emploi ouais, voilà pourquoi je suis ouais passé par votre boite et heu... - Recruteur Vous avez des diplômes ? - Islem Non j'ai pas de diplômes ouais mais j'suis prêt a faire manutentionnaire - Recruteur Ah bah ça va pas le faire - Islem Non mais même manutentionnaire - Recruteur Ah non mais même ça - Islem C'que vous avez monsieur c'que vous avez - Recruteur Ah non non - Islem Non mais monsieur j'vous dis c'que vous avez j'suis jeune, j'suis motivé, j'suis prêt à travailler sérieusement - Recruteur Ah ouais non mais non n'insistez pas ça ne sert à rien ! - Islem Non mais je comprends pas là, c'est quoi qui vous dérange autant dans ma candidature là j'vous dis n'importe quel petit boulot j'suis prêt à le prendre là - Recruteur Ouais bah vous allez prendre la porte c'est tout ce que vous allez prendre aujourd'hui Etranglement - Islem T'aimes bien quand j'te sers le cou comme ça quand j'te sers ton cou fils de pute t'aimes bien quand j'te sers ton cou fils de pute - Recruteur Sécurité ! Haha, des hauts et des bas, des bons des mauvais moments Ouais mais je regrette rien c'est cette vida loca Qu'a fait de moi cette éléctron libre J'aimerais t'écrire toute ma vie Mais il y aura jamais assez d'arbres sur ce globe Merci à toi que tu me soutiennes de loin ou de près Yeah hoe Yeah hoe Yeah hoeYou might also like3</t>
+          <t>Yeah Quand j'étais petit je voyais des breakeurs tourner sur le sol J'ai grandi loin des poules et des champs de tournesols On va voler des bouteilles quand un grand du quartier ressort A l'époque, jeune et con, je tire mon avenir au sort 8 ans je prends le métro solo normal Souffre d'hyper-activité la daronne en dort mal Psychologue éducateur et tout le tralala J'ai de la khnouna sur la gueule, j'suis intenable comme d'hab Et les kho du bando me demandent quel est ton but Y'a ceux qui font et y'a ceux qu'ont but Y'a ceux qui la ferme et y'a ceux qu'on bute Pour toi c'est la cambouille ou les cambus J'arrive au collège c'est le feu La guerre mondiale 1999 année magistrale C'est l'époque des francs les grands se régalent Qui dit moins de technologie dit plus d'argent sale On en a vu des extincteurs tomber des fenêtres On mettait le feu aux poubelles Pour taper les pompiers dès leur arrivée On vivait sur un coup de tête La première fois que j'ai fumé du bédo J'était minot t'as même pas idée Une facilité pour la langue de Poquelin Jean-Baptiste Malgré les 5 premières années de ma vie au bled J'aime gagner j'ai déjà le mental élitiste Moi je déteste les défaitistes et tous ceux qu'ont la flemme Que des petits larcins j'attends l'âge de 15 piges Et je deviens malsain j'ferais tout pour qu'elle m'voit J'veux absolument lui plaire Si elle a un boule d'bâtard ou des gros seins Dans la street j'm'embrouille tête à tête Si j'ai perdu on remet ça et j'te fais ta fête Cette époque est révolue Aujourd'hui les gens ne se battent plus Ils viennent en équipe c'est devenu des têtes à sept J'suis un mec de La Fourche, j'ai lil du tigre Jhabite a la frontière de Pigalle et des banlieues Le grand banditisme, les touristes cocaïnés Et les travestis morts ivres, ici y'a jamais non-lieu J'aime la nationalité de mon prochain J'ai ce petit côté reporter à la Mouloud Achour Les keufs ont tellement le seum De me voir sortir de la mosquée Que ces bâtards sont venus me contrôler 5 fois par jour - Policier Oh, oh, oh, Islem tu te mets sur le coté ! Tu connais la procédure, tu sors me sors ce que t'as ! - Islem J'ai rien wesh ! - Policier Tes papiers ! - Islem J'vais au studio là ! - Policier Il est où ton petit frère là ? - Islem Pourquoi tu veux parler à mon p'tit reuf ? T'es un ouf toi! - Policier Et alors ? - Islem De quoi j'me mêle ? - Policier Bien sur que je m'en mêle ! Et ils sont où tes potes là ? - Islem Ils sont pas là mais moi j'suis là - Policier Tes macaques là ! - Islem Tu parles de qui là ? - Policier De tes français convertis là, ils sont où hein ? - Islem Et j'vais niquer ta mère la pute ! - Policier Oh tu te calmes, tu te calmes ! - Islem J'm'en bats les couilles ! - Policier Neutralisez le, neutralisez le ! Un peu nerveux un peu nerveux Mais j'ai des frères pieux qui me font le rappel Comme Kamel le malaisien papadawem Des fois j'veux tout arrêter sérieux les frères Partir en Indonésie mettre à fond dans la ièr-pri J'me rappelle de la conseillère d'orientation J'arrive en fin de 3ème elle me dit Mon jeune Islem, fini la récréation - Conseillère Tu redoubles ou tu vas laver les vitres des grattes-ciels ! - Islem Quoi ? - Conseillère Et bah oui ! - Islem Mais non Madame, mais j'vais me ressaisir ! - Conseillère Mais c'est toi qui l'a voulu ! - Islem Mais non mais j'l'ai pas voulu, j'veux allez en général s'il vous plait madame ! - Conseillère Mais il est hors de question que tu ailles en général mais tu te fiches de ce qu'on te dit - Islem Mais non... - Conseillère Mais on te le dit depuis la sixième - Islem Oh putain y'a ma daronne ! - Conseillère Ça y est... Bonjour Madame ! - Mère d'Islem Bonjour ! ISLEM ! A la maison je prends des raclées J'me fais toujours coursé par le daron ceinture a la main Quand je rentre avec les yeux rouges Ou qu'il a cramé que j'ai des ronds Je parcoure la vie sur une roue sans me soucier du lendemain Faut que je me fasse une raison que je me fasse violence Que j'arrive à canaliser toute cette insolence Toute cette énergie toute cette opulence On danse au rythme des gyrophares de l'ambulance Kilos dans la poche chargeur de barrettes entre les seufs Je bifurque toujours couverts par le petit frères et soeurs Quand c'est auch-Bad J'ai rendu fous mes parents Ils m'ont dit tu verras tes enfants te feront vivre un cauchemar Les jaloux j'entends jacter parce que j'ai un flow d'assassin Que je fais 2,3 beefs Quand je galère je vais terrasser les rappeurs de châtelet Je les humilie rentre au quartier avec 2,3 miss Roule le compte avec ino10 on monte un rain-té Tout ça ne tient qu'à un fil avant de se faire épingler Ca fait toujours charbonner les ti-pe les plus dé-ter Même si c'est juste pour passer du point A a un point B Les gardes à vue s'enchainent on se réveille au dépot T'as pas payé plein pôt sans avocat tu prends cher On nous menotte en brochette la tête contre le capot Je sors du dépot sur la selle le caleçon collé Hashek J'ai quand même voulu m'inscrire à des formations Dans cette société de francs-maçons Putain d'entretien d'embauche à chaque fois je perds patience On ne t'apprend pas a pécher on te vend du poisson - Islem Bonjour Monsieur ! - Recruteur Bonjour... - Islem C'est moi qui est appelé pour l'intérim hier... - Recruteur D'accord oui c'est ça. Comment vous vous appelez ? - Islem Je m'appelle Islem monsieur - Recruteur Très bien... - Islem Merci ! - Recruteur Installez-vous je vous en prie... - Islem Merci bien - Recruteur Alors dites moi tout - Islem Voilà donc alors je suis à la recherche d'emploi ouais, voilà pourquoi je suis ouais passé par votre boite et heu... - Recruteur Vous avez des diplômes ? - Islem Non j'ai pas de diplômes ouais mais j'suis prêt a faire manutentionnaire - Recruteur Ah bah ça va pas le faire - Islem Non mais même manutentionnaire - Recruteur Ah non mais même ça - Islem C'que vous avez monsieur c'que vous avez - Recruteur Ah non non - Islem Non mais monsieur j'vous dis c'que vous avez j'suis jeune, j'suis motivé, j'suis prêt à travailler sérieusement - Recruteur Ah ouais non mais non n'insistez pas ça ne sert à rien ! - Islem Non mais je comprends pas là, c'est quoi qui vous dérange autant dans ma candidature là j'vous dis n'importe quel petit boulot j'suis prêt à le prendre là - Recruteur Ouais bah vous allez prendre la porte c'est tout ce que vous allez prendre aujourd'hui Etranglement - Islem T'aimes bien quand j'te sers le cou comme ça quand j'te sers ton cou fils de pute t'aimes bien quand j'te sers ton cou fils de pute - Recruteur Sécurité ! Haha, des hauts et des bas, des bons des mauvais moments Ouais mais je regrette rien c'est cette vida loca Qu'a fait de moi cette éléctron libre J'aimerais t'écrire toute ma vie Mais il y aura jamais assez d'arbres sur ce globe Merci à toi que tu me soutiennes de loin ou de près Yeah hoe Yeah hoe Yeah hoe3</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Penalty dans la fourmilière Igo le monde est à nous Si t'as l'nez dans la poudrière Joue pas les Savastano L'ambition ne date pas d'hier J'ai mangé des cailloux Les p'tits frères ont délaissé Molière Pour devenir des voyous J'm'en bats les couilles, j'vous ken et j'suis maladroit J'ai quelques euros mais bon c'est pas la joie J'la baise tous les soirs, tu galères à l'avoir Ça sert à quoi d'chanter si t'as pas la voix Elle est là pour mon bif', j'lui rempli son bide Les meufs que tu gères ne sont même pas majeures T'achètes des vues c'est bien, les concerts sont vides Les nôtres sont pleins comme la chatte à ta sur Arh, ce que j'ai fait j'l'ai kické Frères Lumières devenus célébrités Je n'peux m'empêcher d'dire des vérités Bébé j'ai perdu carte de fidélité Je n'suis pas un voyou mais j'avoue j'ai traîné Arrête de faire l'ancien, ta meuf est réné Arrête d'avoir du cur, tu vas t'faire niquer Quand ça s'ra ton tour, personne viendra t'aider Plus d'une cause à plaider On a fait du bien, qui s'en rappelle ? Mon son tourne de Marseille jusqu'à Neuchâtel Laisse-moi r'tourner les caisses de la SACEM J'aime bien faire ça vite, j'aime pas trop quand ça saigne J'ai la flemme de terminer mon texte Tu t'demandes pourquoi j'parle de mes ex Tu t'demandes pourquoi j'parle de mes ex You might also like Penalty dans la fourmilière Igo le monde est à nous Si t'as l'nez dans la poudrière Joue pas les Savastano L'ambition ne date pas d'hier J'ai mangé des cailloux Les p'tits frères ont délaissé Molière Pour devenir des voyous Les magistrats m'ont traîné dans la boue J'ai labouré mon champ lexical Tout l'été c'est l'MC Damoclès Envoie des coups d'épée Tu critiques mon train d'vie, t'es resté sur les quais J'en ai gros sur le cur, beaucoup d'histoire de cul Car les histoires de cur ça devient compliqué Les Frères Lumières au cur de la polémique On passe des caves insalubres à la célébrité, yeah hoe Fouzia tire sur ces pussy bikow À moi tout seul j'suis plus productif que 6 bicots Je sais qu'elle, ferait tout pour porter du Gucci hey Qu'on va transformer le rap game en boucherie hey Coup d'pare-choc dans les te-schmi hey Mais quand même ta nana me dit Touch me ouh Tu m'demandes de faire de la zumba, ça va pas non J'suis un DZ 6.3, j'dégaine shab Lotfi Double Kanon Ça sent la lâcheté, l'industrie du disque en string sous pure Combien t'as acheté 50.000 streams sale pute ? Penalty dans la fourmilière Igo le monde est à nous Si t'as l'nez dans la poudrière Joue pas les Savastano L'ambition ne date pas d'hier J'ai mangé des cailloux Les p'tits frères ont délaissé Molière Pour devenir des voyous</t>
+          <t>Penalty dans la fourmilière Igo le monde est à nous Si t'as l'nez dans la poudrière Joue pas les Savastano L'ambition ne date pas d'hier J'ai mangé des cailloux Les p'tits frères ont délaissé Molière Pour devenir des voyous J'm'en bats les couilles, j'vous ken et j'suis maladroit J'ai quelques euros mais bon c'est pas la joie J'la baise tous les soirs, tu galères à l'avoir Ça sert à quoi d'chanter si t'as pas la voix Elle est là pour mon bif', j'lui rempli son bide Les meufs que tu gères ne sont même pas majeures T'achètes des vues c'est bien, les concerts sont vides Les nôtres sont pleins comme la chatte à ta sur Arh, ce que j'ai fait j'l'ai kické Frères Lumières devenus célébrités Je n'peux m'empêcher d'dire des vérités Bébé j'ai perdu carte de fidélité Je n'suis pas un voyou mais j'avoue j'ai traîné Arrête de faire l'ancien, ta meuf est réné Arrête d'avoir du cur, tu vas t'faire niquer Quand ça s'ra ton tour, personne viendra t'aider Plus d'une cause à plaider On a fait du bien, qui s'en rappelle ? Mon son tourne de Marseille jusqu'à Neuchâtel Laisse-moi r'tourner les caisses de la SACEM J'aime bien faire ça vite, j'aime pas trop quand ça saigne J'ai la flemme de terminer mon texte Tu t'demandes pourquoi j'parle de mes ex Tu t'demandes pourquoi j'parle de mes ex Penalty dans la fourmilière Igo le monde est à nous Si t'as l'nez dans la poudrière Joue pas les Savastano L'ambition ne date pas d'hier J'ai mangé des cailloux Les p'tits frères ont délaissé Molière Pour devenir des voyous Les magistrats m'ont traîné dans la boue J'ai labouré mon champ lexical Tout l'été c'est l'MC Damoclès Envoie des coups d'épée Tu critiques mon train d'vie, t'es resté sur les quais J'en ai gros sur le cur, beaucoup d'histoire de cul Car les histoires de cur ça devient compliqué Les Frères Lumières au cur de la polémique On passe des caves insalubres à la célébrité, yeah hoe Fouzia tire sur ces pussy bikow À moi tout seul j'suis plus productif que 6 bicots Je sais qu'elle, ferait tout pour porter du Gucci hey Qu'on va transformer le rap game en boucherie hey Coup d'pare-choc dans les te-schmi hey Mais quand même ta nana me dit Touch me ouh Tu m'demandes de faire de la zumba, ça va pas non J'suis un DZ 6.3, j'dégaine shab Lotfi Double Kanon Ça sent la lâcheté, l'industrie du disque en string sous pure Combien t'as acheté 50.000 streams sale pute ? Penalty dans la fourmilière Igo le monde est à nous Si t'as l'nez dans la poudrière Joue pas les Savastano L'ambition ne date pas d'hier J'ai mangé des cailloux Les p'tits frères ont délaissé Molière Pour devenir des voyous</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ok, ok Davodka, Hayce Lemsi Les deux avions d'chasse Tour de contrôle Attache ta ceinture, rah J'te ramène du lourd, j'ai b'soin d'un monte-charge, on s'lance dans la course pour faire un son d'barge Viens faire un tour, regarde vers les cieux si tu lèves les yeux, y'aura deux avions d'chasse Faut pas qu'on s'crashe avant l'décollage, les passagers gigotent de rire Dès que j'sirote deux litres, mon flow se transforme en pilote de ligne J'entre dans la cabine, le décollage est imminent et tout à coup, c'est la panique sur les visages, c'est évident Ouais, c'est flippant, je mets les gaz et la vitesse est calibrée pour t'emmener dans ce voyage où l'on défie la gravité On s'balade dans le ciel, balance des bombes, balance des vers, v'là le potentiel, balance le son ouh, ouh On t'balafre l'oreille, pas là pour l'oseille, voilà la leçon Davodka J'écris des vérités le soir, seul quand j'marmonne J'regarde le game battre de l'aile du haut d'mon cockpit J'défie la loi d'la gravité pour que Newton s'affole Tellement j'maîtrise le poids des mots, j'peux être un porte-parole J'espère que t'as mis l'casque, c'est Davodka qui s'fâche, y'en a certains qui s'crashent Limite pas la vitesse, me parle pas de vitesse, j'suis ce gamin qui stresse, lyrical kamikaze Je fonce dans le tas et garde la même direction, quand j'ai passé le mur du son, c'est pas la peine de pomper Toi qui voulais nous diviser, j'te balance la combinaison, maint'nant tu mouilles comme une pucelle d'vant une caserne de pompiers Tour de contrôle, tour de contrôle, tour de contrôle, mayday, mayday Tour de contrôle, tour de contrôle, on est hors de contrôle, mayday, mayday Deux avions de chasse se baladent dans le game, dans l'espace aérien Balancent du flow comme un Canadair, mettent le rap à terre et d'un coup surpassent chaque terrien You might also like C'est l'retour d'kala-kala, boycott comme si j'm'appelais Hayce Lem' Bala-Bala J'suis la balafre dans lil d'Le Pen, que des cadavres, ta carrière a pris trente coups d'pelle dans la ganache Allez, dégage, on t'encule ta mère pour un demi, trop d'ennemis mais ces fils de rappent comme en 2000 En r'tard comme s'ils avaient l'bracelet électronique, sale schlag, j'décrédibilise ton album en deux lignes Joue pas les chauds quand tu fonds dans ma glace, nouvelle garce, nouvel Axe, nouveau freezer hoe Goûte à la spécialité Davodk'Hayce, avions d'chasse impossibles à maîtriser hoe J'prends l'cellulaire, j'fais bouger la cellulite, en cellule, on est seul au mundo, le silence est lucide Souvent les mystères qui sauront nous hisser vers la réussite, dix ans d'illicite rebeu, tu connais la suite Un flow d'vatos, Los Angeles, toute ma jeunesse dans les stup' J'pense qu'à kicker, j'ai trop l'zehef, elle m'envoie DM, je laisse vu Ok, Red Bull donne des ailes autant que grosses boules donnent DZ Algérie, Russie, que les hommes une déflagration dans les airs Yeah, dans l'Porsche Panamera, met la benda, cannabinoïde emballé vient de me-da Midi-minuit, moula milli wheelie j'suis en wheeling illimité dans le délit, tu devines que Paname est là Si la balle est dans mon camp, la balle est dans ta carotide, c'qu'elle est vénale, elle en veut la salope mais j'suis pas Rothschild On débarque, des bails, des battes fourrés dans le Jeep, les rappeurs se tapent des rails rhinopharyngite, yeah, hoe x2 Tour de contrôle, tour de contrôle, tour de contrôle, mayday, mayday Tour de contrôle, tour de contrôle, on est hors de contrôle, mayday, mayday Deux avions de chasse se baladent dans le game, dans l'espace aérien Balancent du flow comme un Canadair, mettent le rap à terre et d'un coup surpassent chaque terrien Davodka, Hayce Lemsi Ouais, les deux avions d'chasse T'as compris, la combinaison Tour de contrôle1</t>
+          <t>Ok, ok Davodka, Hayce Lemsi Les deux avions d'chasse Tour de contrôle Attache ta ceinture, rah J'te ramène du lourd, j'ai b'soin d'un monte-charge, on s'lance dans la course pour faire un son d'barge Viens faire un tour, regarde vers les cieux si tu lèves les yeux, y'aura deux avions d'chasse Faut pas qu'on s'crashe avant l'décollage, les passagers gigotent de rire Dès que j'sirote deux litres, mon flow se transforme en pilote de ligne J'entre dans la cabine, le décollage est imminent et tout à coup, c'est la panique sur les visages, c'est évident Ouais, c'est flippant, je mets les gaz et la vitesse est calibrée pour t'emmener dans ce voyage où l'on défie la gravité On s'balade dans le ciel, balance des bombes, balance des vers, v'là le potentiel, balance le son ouh, ouh On t'balafre l'oreille, pas là pour l'oseille, voilà la leçon Davodka J'écris des vérités le soir, seul quand j'marmonne J'regarde le game battre de l'aile du haut d'mon cockpit J'défie la loi d'la gravité pour que Newton s'affole Tellement j'maîtrise le poids des mots, j'peux être un porte-parole J'espère que t'as mis l'casque, c'est Davodka qui s'fâche, y'en a certains qui s'crashent Limite pas la vitesse, me parle pas de vitesse, j'suis ce gamin qui stresse, lyrical kamikaze Je fonce dans le tas et garde la même direction, quand j'ai passé le mur du son, c'est pas la peine de pomper Toi qui voulais nous diviser, j'te balance la combinaison, maint'nant tu mouilles comme une pucelle d'vant une caserne de pompiers Tour de contrôle, tour de contrôle, tour de contrôle, mayday, mayday Tour de contrôle, tour de contrôle, on est hors de contrôle, mayday, mayday Deux avions de chasse se baladent dans le game, dans l'espace aérien Balancent du flow comme un Canadair, mettent le rap à terre et d'un coup surpassent chaque terrien C'est l'retour d'kala-kala, boycott comme si j'm'appelais Hayce Lem' Bala-Bala J'suis la balafre dans lil d'Le Pen, que des cadavres, ta carrière a pris trente coups d'pelle dans la ganache Allez, dégage, on t'encule ta mère pour un demi, trop d'ennemis mais ces fils de rappent comme en 2000 En r'tard comme s'ils avaient l'bracelet électronique, sale schlag, j'décrédibilise ton album en deux lignes Joue pas les chauds quand tu fonds dans ma glace, nouvelle garce, nouvel Axe, nouveau freezer hoe Goûte à la spécialité Davodk'Hayce, avions d'chasse impossibles à maîtriser hoe J'prends l'cellulaire, j'fais bouger la cellulite, en cellule, on est seul au mundo, le silence est lucide Souvent les mystères qui sauront nous hisser vers la réussite, dix ans d'illicite rebeu, tu connais la suite Un flow d'vatos, Los Angeles, toute ma jeunesse dans les stup' J'pense qu'à kicker, j'ai trop l'zehef, elle m'envoie DM, je laisse vu Ok, Red Bull donne des ailes autant que grosses boules donnent DZ Algérie, Russie, que les hommes une déflagration dans les airs Yeah, dans l'Porsche Panamera, met la benda, cannabinoïde emballé vient de me-da Midi-minuit, moula milli wheelie j'suis en wheeling illimité dans le délit, tu devines que Paname est là Si la balle est dans mon camp, la balle est dans ta carotide, c'qu'elle est vénale, elle en veut la salope mais j'suis pas Rothschild On débarque, des bails, des battes fourrés dans le Jeep, les rappeurs se tapent des rails rhinopharyngite, yeah, hoe x2 Tour de contrôle, tour de contrôle, tour de contrôle, mayday, mayday Tour de contrôle, tour de contrôle, on est hors de contrôle, mayday, mayday Deux avions de chasse se baladent dans le game, dans l'espace aérien Balancent du flow comme un Canadair, mettent le rap à terre et d'un coup surpassent chaque terrien Davodka, Hayce Lemsi Ouais, les deux avions d'chasse T'as compris, la combinaison Tour de contrôle1</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1h17 j'regarde Paname s'endormir Peu de time avant d'apercevoir les feux de l'aurore m'éblouir Je vois du brouillard, des mecs bouillir sans le vouloir Un minot débrouillard mourir, une femme courir, un schlague pourrir sur le boulevard Je trouve l'inspiration tard dans la de-mer les roses poussent Je passe toujours à l'action, je suis côté pour mes grosses bourses Et les gos s'touchent sur mon flow, fuck les putes matérialistes Je raconte l'histoire du pantin qui voulait devenir marionnettiste Harmonie triste, artiste gauche et contrarié Je compte parier sur les maisons de disques, rap à la fois futuristique et arriéré Je vagabonde et là les pneus crissent ils me cuisinent pour la recette Plus vif que James Bond, j'ai des 'loss dans le 75007 Me propose pas de feat, loko j'ai vraiment pas la tête à ça Chez nous y'a pas de fuite ou de flipette une fois dans le commissariat non Ça collectionne les papiers de couleurs et les ennemis Je fais le beurre en soum-soum j'dédicace les Soumare et les Zemi Ça-ça-ça fait 6 mois qu'j'ai pas dormi De-de-depuis tit-pe j'pense qu'a rapper jusqu'a l'hernie Co-co-collectionne les papiers de couleurs et les ennemis All-all-all eyes on me, lo-lo-loco Lemsi Haaaaaayce Oublie le hoods, tu pleures des jerricans en garde à vue Grosse pet'Hayce, hôtel, appareil génital au garde à vous J'pose, ma colère et ma joie, parait que j'suis bipolaire Et quand l'orage gronde je n'ai que le très Haut comme paratonnerre Demande à mes partenaires, on écume les quartiers chics On pousse les schmits à faire du sport au milieu de leur pause café chite J'réfléchis peu, comme dit Set', j'ai la cervelle en marshmallow On impose pas sa dictature avec une armée de chameaux tchek On va tout niquer dans le futur, le temps m'est précieux Bico la street c'est mon tuteur et mon guetteur c'est mes yeux Messieurs, dames, ici ca se braque pour un number Les idées blacks, on fait du beurre, avec la blanche, pour la chatte rose à Amber J'ai rien d'un bodybuilder, moi j'égorge highlander Mégalo, kick à la Nord Island et se placer sur le sampleur Sans tièp ici c'est la vida lo-casse toi du rrain-té Nique pas le biz', range ta marchandise frelaté You might also like Le temps p'Hayce, le beurre se fait sur le ter-ter, on change de pl'Hayce C'Hayce du sucre sur mon dos, j't'éclate une bouteille en pleine f'Hayce Khey, j'ai demandé du pain, j'ai reçu des pierres, j'suis deter Je trouve pas le bonheur dans un bulletin de salaire non J'ai demandé du pain, j'ai reçu des pierres, Hayce Lemsi circulaire Si le pe-ra ça marche ap nique sa mère non, bico dit moi Sérieusement tu veux partager quoi, les frères se bouffent Et si ta p'tite soeur part en couilles, jettes pas la faute sur Facebook 5h17 je roule un teh' d'1g7 je refais la Terre Sous les réverbères j'arrive avec 17 bougs bico La musique est bonne bonne bonne, je l'ai croisée devant le tabac Ma parole j'ai glissé mes yeux sous sa robe de kahba Selha lalala dans la veste, couronné par la tess On sait qu'uriner sur ta justice, faire démarrer ta caisse Décrédibiliser ta s', nahess dans les 'eins à ta go Prendre la ligne 13 en transe des ordi p dans le sac à dos Co-co-collectionne les annotations oranges et les IQ en nous rejoignant !3</t>
+          <t>1h17 j'regarde Paname s'endormir Peu de time avant d'apercevoir les feux de l'aurore m'éblouir Je vois du brouillard, des mecs bouillir sans le vouloir Un minot débrouillard mourir, une femme courir, un schlague pourrir sur le boulevard Je trouve l'inspiration tard dans la de-mer les roses poussent Je passe toujours à l'action, je suis côté pour mes grosses bourses Et les gos s'touchent sur mon flow, fuck les putes matérialistes Je raconte l'histoire du pantin qui voulait devenir marionnettiste Harmonie triste, artiste gauche et contrarié Je compte parier sur les maisons de disques, rap à la fois futuristique et arriéré Je vagabonde et là les pneus crissent ils me cuisinent pour la recette Plus vif que James Bond, j'ai des 'loss dans le 75007 Me propose pas de feat, loko j'ai vraiment pas la tête à ça Chez nous y'a pas de fuite ou de flipette une fois dans le commissariat non Ça collectionne les papiers de couleurs et les ennemis Je fais le beurre en soum-soum j'dédicace les Soumare et les Zemi Ça-ça-ça fait 6 mois qu'j'ai pas dormi De-de-depuis tit-pe j'pense qu'a rapper jusqu'a l'hernie Co-co-collectionne les papiers de couleurs et les ennemis All-all-all eyes on me, lo-lo-loco Lemsi Haaaaaayce Oublie le hoods, tu pleures des jerricans en garde à vue Grosse pet'Hayce, hôtel, appareil génital au garde à vous J'pose, ma colère et ma joie, parait que j'suis bipolaire Et quand l'orage gronde je n'ai que le très Haut comme paratonnerre Demande à mes partenaires, on écume les quartiers chics On pousse les schmits à faire du sport au milieu de leur pause café chite J'réfléchis peu, comme dit Set', j'ai la cervelle en marshmallow On impose pas sa dictature avec une armée de chameaux tchek On va tout niquer dans le futur, le temps m'est précieux Bico la street c'est mon tuteur et mon guetteur c'est mes yeux Messieurs, dames, ici ca se braque pour un number Les idées blacks, on fait du beurre, avec la blanche, pour la chatte rose à Amber J'ai rien d'un bodybuilder, moi j'égorge highlander Mégalo, kick à la Nord Island et se placer sur le sampleur Sans tièp ici c'est la vida lo-casse toi du rrain-té Nique pas le biz', range ta marchandise frelaté Le temps p'Hayce, le beurre se fait sur le ter-ter, on change de pl'Hayce C'Hayce du sucre sur mon dos, j't'éclate une bouteille en pleine f'Hayce Khey, j'ai demandé du pain, j'ai reçu des pierres, j'suis deter Je trouve pas le bonheur dans un bulletin de salaire non J'ai demandé du pain, j'ai reçu des pierres, Hayce Lemsi circulaire Si le pe-ra ça marche ap nique sa mère non, bico dit moi Sérieusement tu veux partager quoi, les frères se bouffent Et si ta p'tite soeur part en couilles, jettes pas la faute sur Facebook 5h17 je roule un teh' d'1g7 je refais la Terre Sous les réverbères j'arrive avec 17 bougs bico La musique est bonne bonne bonne, je l'ai croisée devant le tabac Ma parole j'ai glissé mes yeux sous sa robe de kahba Selha lalala dans la veste, couronné par la tess On sait qu'uriner sur ta justice, faire démarrer ta caisse Décrédibiliser ta s', nahess dans les 'eins à ta go Prendre la ligne 13 en transe des ordi p dans le sac à dos Co-co-collectionne les annotations oranges et les IQ en nous rejoignant !3</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Hey, hey Hayce, Hayce, Hayce, Hayce Elle baise pour la molly, hey, j'blesse pour la money, hey J'dead pour la famille, hey, j'flex Allen Barry Elle baise pour la molly, hey, j'blesse pour la money, hey J'dead pour la famille, hey, j'flex Allen Barry Elle baise pour la molly, hey, j'blesse pour la money, hey J'dead pour la famille, hey, j'flex Allen Barry, hey J'flex Daredare pour le beurre, fini le quatre-quarts, euros, dollars devient mon odeur, on fait le partage Les bikows n'sont pas de bonne augure et les gratteurs nous collent au cul, déboulent en déambulateur, j'suis dans le 4x4 Gros, t'as bien entendu le moteur, on a la patate, marteler donneurs et délateurs Algérien capables On ressort du card-pla, les chaussures à quatre balles, hein, pah, pah, pah, pah Pas la vie d'Ben Affleck, pas la voix d'Balavoine, par la vitre, par la fenêtre, qui veut test ? Qui va là ? J'suis Mal habile au milli m'y niquer à la bicot vaut mille habiles au ballon C'est la faute à Lebara Mobile Volubile, habile, pas de balles à blanc, rafale en ville, vie de rêve et se réveille aux Arrivants Mmh, bien trop speed, moi, j'te nique ta mère, dans la promenade, les brocolis transpirent dans la gamelle Le ventre vide, j'ai dévalé toute la vallée, j'vais m'affaler sur le living, j'suis affamé, j'vais les fumer, j'vais les faire J'ai embrassé la médaille, j'me suis mangé que des revers et des revanches qui datent de l'époque où j'revendais du teh Dur d'être peace, Martin Luther, tu t'compares à Barry Allen, t'as pas marqué Lutèce T'as pas marqué la tess, t'as un masque sur la tête, joue pas trop les Terminator, on te termine à terre Pas d'rimes a leau dRose que des overdoses et des prises d'otages, du côté des poukies, d'éviter le bizutage Des putos, des haters, un gros bisou niquez-les, je n'peux pas faire un AVC, je m'approche des cages niquez-les Toujours les mêmes qui prennent les devants, j'te devance, tu te vantes car je rappe comme le vent J'achète pas les likes et les ventes, pas de tact, j'arrive comme un gauche-droite dans les dents You might also like J'ai enclenché l'mode turbo, concurrence est perturbée J'crois qu'j'vais m'mettre en mode tuto', pour leur apprendre à rapper-per-per-per J'suis en mode ssiste-gro, haute vitesse, gros traficante Barry Allen, El Chapo, loco, le talent m'a repé-pé-péré Barry Allen, Barry Allen Barry Allen, Barry Allen, Barry Allen Barry Allen, Barry Allen, Barry Allen Barry Allen, Barry Allen, Barry Allen Tu sais que j'suis bien trop speed, j't'entends rapper pour de faux Viens pas surfer sur mon style, tu vas t'noyer dans mes flows Barry Allen J'vous entends débiter délibérément des balivernes, arrivederci bitchies, bitchies J'envie pas la vie de Tony, j'veux des balles à volonté pour allumer cette bande de snitchies snitchies 9 milli' dans la mano, mélomane aux milles mélo', j'ai la main lourde et la moula pour les maisons d'arrêt Qui va plus vite que la musique à part Allen ? Apparemment, t'as l'apparence et le bras long, j'suis le barème Et le baron tient la cadence à la Kala', Kala', quelle opulence, on va pas te cala, cala comme une balance On te balance dans le ce-la, quel est l'connard qui veut l'combat avec Hayce Lem16 ? J'te dégomme au mic' et j'baise ta princesse GLE habile au volant roule en ville, enlève le collant de la feuille, attend la folle en double file, on fait la bringue bezef Elle entend parler d'l'étalon du désert, Barry Allen a la Kalash et le drapeau DZ zeh Volubile envenimé de haine, j'envoie le venin, tu vois la veine Faites pas les malins, j'ai la manie d'éliminer les mégalomanes, m'égaler n'est qu'un rêve Volubile envenimé de haine, j'envoie le venin, tu vois la veine Faites pas les malins, j'ai la manie d'éliminer les mégalomanes, m'égaler n'est qu'un rêve J'ai enclenché l'mode turbo, concurrence est perturbée J'crois qu'j'vais m'mettre en mode tuto', pour leur apprendre à rapper-per-per-per J'suis en mode ssiste-gro, haute vitesse, gros traficante Barry Allen, El Chapo, loco, le talent m'a repé-pé-péré Barry Allen, Barry Allen Barry Allen, Barry Allen, Barry Allen Barry Allen, Barry Allen, Barry Allen Barry Allen, Barry Allen, Barry Allen Tu sais que j'suis bien trop speed, j't'entends rapper pour de faux Viens pas surfer sur mon style, tu vas t'noyer dans mes flows Barry Allen Je m'appelle Barry Allen, et je suis l'homme le plus rapide du monde1</t>
+          <t>Hey, hey Hayce, Hayce, Hayce, Hayce Elle baise pour la molly, hey, j'blesse pour la money, hey J'dead pour la famille, hey, j'flex Allen Barry Elle baise pour la molly, hey, j'blesse pour la money, hey J'dead pour la famille, hey, j'flex Allen Barry Elle baise pour la molly, hey, j'blesse pour la money, hey J'dead pour la famille, hey, j'flex Allen Barry, hey J'flex Daredare pour le beurre, fini le quatre-quarts, euros, dollars devient mon odeur, on fait le partage Les bikows n'sont pas de bonne augure et les gratteurs nous collent au cul, déboulent en déambulateur, j'suis dans le 4x4 Gros, t'as bien entendu le moteur, on a la patate, marteler donneurs et délateurs Algérien capables On ressort du card-pla, les chaussures à quatre balles, hein, pah, pah, pah, pah Pas la vie d'Ben Affleck, pas la voix d'Balavoine, par la vitre, par la fenêtre, qui veut test ? Qui va là ? J'suis Mal habile au milli m'y niquer à la bicot vaut mille habiles au ballon C'est la faute à Lebara Mobile Volubile, habile, pas de balles à blanc, rafale en ville, vie de rêve et se réveille aux Arrivants Mmh, bien trop speed, moi, j'te nique ta mère, dans la promenade, les brocolis transpirent dans la gamelle Le ventre vide, j'ai dévalé toute la vallée, j'vais m'affaler sur le living, j'suis affamé, j'vais les fumer, j'vais les faire J'ai embrassé la médaille, j'me suis mangé que des revers et des revanches qui datent de l'époque où j'revendais du teh Dur d'être peace, Martin Luther, tu t'compares à Barry Allen, t'as pas marqué Lutèce T'as pas marqué la tess, t'as un masque sur la tête, joue pas trop les Terminator, on te termine à terre Pas d'rimes a leau dRose que des overdoses et des prises d'otages, du côté des poukies, d'éviter le bizutage Des putos, des haters, un gros bisou niquez-les, je n'peux pas faire un AVC, je m'approche des cages niquez-les Toujours les mêmes qui prennent les devants, j'te devance, tu te vantes car je rappe comme le vent J'achète pas les likes et les ventes, pas de tact, j'arrive comme un gauche-droite dans les dents J'ai enclenché l'mode turbo, concurrence est perturbée J'crois qu'j'vais m'mettre en mode tuto', pour leur apprendre à rapper-per-per-per J'suis en mode ssiste-gro, haute vitesse, gros traficante Barry Allen, El Chapo, loco, le talent m'a repé-pé-péré Barry Allen, Barry Allen Barry Allen, Barry Allen, Barry Allen Barry Allen, Barry Allen, Barry Allen Barry Allen, Barry Allen, Barry Allen Tu sais que j'suis bien trop speed, j't'entends rapper pour de faux Viens pas surfer sur mon style, tu vas t'noyer dans mes flows Barry Allen J'vous entends débiter délibérément des balivernes, arrivederci bitchies, bitchies J'envie pas la vie de Tony, j'veux des balles à volonté pour allumer cette bande de snitchies snitchies 9 milli' dans la mano, mélomane aux milles mélo', j'ai la main lourde et la moula pour les maisons d'arrêt Qui va plus vite que la musique à part Allen ? Apparemment, t'as l'apparence et le bras long, j'suis le barème Et le baron tient la cadence à la Kala', Kala', quelle opulence, on va pas te cala, cala comme une balance On te balance dans le ce-la, quel est l'connard qui veut l'combat avec Hayce Lem16 ? J'te dégomme au mic' et j'baise ta princesse GLE habile au volant roule en ville, enlève le collant de la feuille, attend la folle en double file, on fait la bringue bezef Elle entend parler d'l'étalon du désert, Barry Allen a la Kalash et le drapeau DZ zeh Volubile envenimé de haine, j'envoie le venin, tu vois la veine Faites pas les malins, j'ai la manie d'éliminer les mégalomanes, m'égaler n'est qu'un rêve Volubile envenimé de haine, j'envoie le venin, tu vois la veine Faites pas les malins, j'ai la manie d'éliminer les mégalomanes, m'égaler n'est qu'un rêve J'ai enclenché l'mode turbo, concurrence est perturbée J'crois qu'j'vais m'mettre en mode tuto', pour leur apprendre à rapper-per-per-per J'suis en mode ssiste-gro, haute vitesse, gros traficante Barry Allen, El Chapo, loco, le talent m'a repé-pé-péré Barry Allen, Barry Allen Barry Allen, Barry Allen, Barry Allen Barry Allen, Barry Allen, Barry Allen Barry Allen, Barry Allen, Barry Allen Tu sais que j'suis bien trop speed, j't'entends rapper pour de faux Viens pas surfer sur mon style, tu vas t'noyer dans mes flows Barry Allen Je m'appelle Barry Allen, et je suis l'homme le plus rapide du monde1</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Monsieur Belouizdad Islam, né à Hussein Dey en Algérie, le 16 décembre 1987, devra effectuer une peine de prison ferme d'une durée de 11 mois Ici monsieur Belouizdad, vous aurez tout le temps de trouver l'inspiration nécessaire Ahahaha Vous m'dégoutez tous autant qu'vous êtes Moi jaguar de la brousse, vous zèbre J'me lève le visage boursoufflé Surveillante j'vais te zoom zoom zang Zeh Arrête un peu d'faire ta chaude J'fais l'soufflé, je prépare la chose J'suis toujours à la tête du fief Fièvre de haine, j'veux la tête du chef J'veux la tête du chef à la Guillotin On s'f'ra fusiller comme Guy Moquet J'ai foutu mes 16 mesures dans le grille-pain Jamais j'donne du liquide aux keh Trop déter' tah les napolitains Transaction dans le funiculaire Cousin tu joues trop les yakuza On va t'découper l'auriculaire Heureusement qu'le ridicule ne tue pas T'es loin mais n'oublie pas d'où tu pars 7.62 troue la peau J'ai encore élargi son trou, la pauvre Bang bang bang Bang bang bang Go fast, on est d'retour d'Amsterdam Tu fais l'voyou, j'ai trois fois ton vécu T'as fait wallou à part des posts Instagram Ton honneur me servira d'serpillère Car je suis l'éloquence à son paroxysme Nique sa grand-mère le S.M.P.R À l'heure qu'il est, c'est moi qui fait la morale aux psys Pas besoin d'vos soins, ni d'vos sous Vos discours sont pleins d'inepties Pas besoin d'être soûl Jack-Pepsi Reconnaissez que le patron s'appelle Hayce Lemsi 1.2.3. j'suis en 6.3 4.5.6. j'récupère ta miss 7.8.9 j'ai guer-lar les keufs 10.11.12 pièces dans le Thalys Nan Pas besoin de talisman T'as pas d'khaliss, ne mens pas au mentaliste Nan J'suis un gros zizi d'Bériz Elle agrippe les rideaux, je la brutalise Haaan J'ai trop faim sa mère J'vais t'faire un cratère J'suis un fin stratège Avant d'parler dans mon dos Regarde un peu mes trapèzes Ha, ha, ha, ha C'est les autres qui s'plaignent mais c'est moi qui souffre J'ai trempé le calame dans le fond d'ma plaie Quand je ferme les yeux, c'est le monde qui s'ouvre Ha, ha, ha, ha Le destin m'a serré dans ses bras lourds M'a laissé dans un coin d'ombre de l'histoire J'ressors et deviens numéro un des poids lourds Allez, boma yé Y'a, y'a des armes lourdes et des cadavres dans l'fond du canal de l'Ourcq Tu regardes à gauche, tu regardes à droite J'suis derrière oit', j'te fais la technique de l'ours J'viens d'voir ton mental étriqué J'irai pisser sur les décombres de ton empire Elle cherche un arabe très friqué Les canines aiguisées, elle m'suce le sang comme un vampire Hashtag Twilight J'ai bientôt la trentaine mais j'arrive avec le charisme d'un chêne centenaire Ils savent à quoi s'en tenir, j'veux pas d'or sur le trône Je me con-tenterai d'un siège en pierre De la sueur, des larmes et des chrysanthèmes C'est la crise dans nos cellules, on écrit sans thème La vie c'est pas Bouddha, paré d'Christian Dior Tu t'en rends compte le jour où tu fais d'la prison ferme J'voulais juste que ma mère soit reine J'ai longtemps vécu dans la haine J'ai souffert, j'ai appris qu'faire la guerre à la terre entière, c'était faire la guerre à soi-même, ha ! Et j'ignore la provenance de ma frustration J'veux pas juste brasser, déguster crustacés J'ai la tête qui tourne à cause des ultra-sons Pe-petit frère j't'aurai servi d'exemple La street n'est qu'une pute ingrate Le baveux mérite qu'on lui coupe la langue Car à cause de lui la liberté coûte un bras Sur la toile d'araignée du système, je vois sagglutiner les anti-sociaux Trop d'loko qui naissent en cité, dans la nécessité Mais combien s'en sortent ? Si mon cur était un encrier, que ma main me servait de plume J'prendrais trois gouttes de mon sang pour écrire que Marine Le Pen est la reine des putes Sale pute Le chtar c'est l'école du crime On en sort encore plus marginalisé J'crache ma haine, j'dénonce le système Car les vrais mafieux dorment à l'Élysée La cité là! You might also like 64.52 On m'arrête à Poitiers comme en 732 J'm'en fous, j'suis indépendant d'puis 62 Même si y'a pas un, j'coupe en deux 64.52 64.52 64.52 Eurêka, yeah, oh yeah oh1</t>
+          <t>Monsieur Belouizdad Islam, né à Hussein Dey en Algérie, le 16 décembre 1987, devra effectuer une peine de prison ferme d'une durée de 11 mois Ici monsieur Belouizdad, vous aurez tout le temps de trouver l'inspiration nécessaire Ahahaha Vous m'dégoutez tous autant qu'vous êtes Moi jaguar de la brousse, vous zèbre J'me lève le visage boursoufflé Surveillante j'vais te zoom zoom zang Zeh Arrête un peu d'faire ta chaude J'fais l'soufflé, je prépare la chose J'suis toujours à la tête du fief Fièvre de haine, j'veux la tête du chef J'veux la tête du chef à la Guillotin On s'f'ra fusiller comme Guy Moquet J'ai foutu mes 16 mesures dans le grille-pain Jamais j'donne du liquide aux keh Trop déter' tah les napolitains Transaction dans le funiculaire Cousin tu joues trop les yakuza On va t'découper l'auriculaire Heureusement qu'le ridicule ne tue pas T'es loin mais n'oublie pas d'où tu pars 7.62 troue la peau J'ai encore élargi son trou, la pauvre Bang bang bang Bang bang bang Go fast, on est d'retour d'Amsterdam Tu fais l'voyou, j'ai trois fois ton vécu T'as fait wallou à part des posts Instagram Ton honneur me servira d'serpillère Car je suis l'éloquence à son paroxysme Nique sa grand-mère le S.M.P.R À l'heure qu'il est, c'est moi qui fait la morale aux psys Pas besoin d'vos soins, ni d'vos sous Vos discours sont pleins d'inepties Pas besoin d'être soûl Jack-Pepsi Reconnaissez que le patron s'appelle Hayce Lemsi 1.2.3. j'suis en 6.3 4.5.6. j'récupère ta miss 7.8.9 j'ai guer-lar les keufs 10.11.12 pièces dans le Thalys Nan Pas besoin de talisman T'as pas d'khaliss, ne mens pas au mentaliste Nan J'suis un gros zizi d'Bériz Elle agrippe les rideaux, je la brutalise Haaan J'ai trop faim sa mère J'vais t'faire un cratère J'suis un fin stratège Avant d'parler dans mon dos Regarde un peu mes trapèzes Ha, ha, ha, ha C'est les autres qui s'plaignent mais c'est moi qui souffre J'ai trempé le calame dans le fond d'ma plaie Quand je ferme les yeux, c'est le monde qui s'ouvre Ha, ha, ha, ha Le destin m'a serré dans ses bras lourds M'a laissé dans un coin d'ombre de l'histoire J'ressors et deviens numéro un des poids lourds Allez, boma yé Y'a, y'a des armes lourdes et des cadavres dans l'fond du canal de l'Ourcq Tu regardes à gauche, tu regardes à droite J'suis derrière oit', j'te fais la technique de l'ours J'viens d'voir ton mental étriqué J'irai pisser sur les décombres de ton empire Elle cherche un arabe très friqué Les canines aiguisées, elle m'suce le sang comme un vampire Hashtag Twilight J'ai bientôt la trentaine mais j'arrive avec le charisme d'un chêne centenaire Ils savent à quoi s'en tenir, j'veux pas d'or sur le trône Je me con-tenterai d'un siège en pierre De la sueur, des larmes et des chrysanthèmes C'est la crise dans nos cellules, on écrit sans thème La vie c'est pas Bouddha, paré d'Christian Dior Tu t'en rends compte le jour où tu fais d'la prison ferme J'voulais juste que ma mère soit reine J'ai longtemps vécu dans la haine J'ai souffert, j'ai appris qu'faire la guerre à la terre entière, c'était faire la guerre à soi-même, ha ! Et j'ignore la provenance de ma frustration J'veux pas juste brasser, déguster crustacés J'ai la tête qui tourne à cause des ultra-sons Pe-petit frère j't'aurai servi d'exemple La street n'est qu'une pute ingrate Le baveux mérite qu'on lui coupe la langue Car à cause de lui la liberté coûte un bras Sur la toile d'araignée du système, je vois sagglutiner les anti-sociaux Trop d'loko qui naissent en cité, dans la nécessité Mais combien s'en sortent ? Si mon cur était un encrier, que ma main me servait de plume J'prendrais trois gouttes de mon sang pour écrire que Marine Le Pen est la reine des putes Sale pute Le chtar c'est l'école du crime On en sort encore plus marginalisé J'crache ma haine, j'dénonce le système Car les vrais mafieux dorment à l'Élysée La cité là! 64.52 On m'arrête à Poitiers comme en 732 J'm'en fous, j'suis indépendant d'puis 62 Même si y'a pas un, j'coupe en deux 64.52 64.52 64.52 Eurêka, yeah, oh yeah oh1</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Big Lemsi 2015 L'or des rois 7-5 Depuis mon plus jeune âge, j'rêve de gloire, de cash flow Jessaie d'avancer malgré ces jets de gazeuse en plein visage J'viens d'la Fourche, la J, PSO, bitch, le bando ce dégrade J'vise dans l'mille à la Vassili pendant la bataille de Stalingrad J'ai de grosses responsabilités, même sur scène j'assume le trac La bac tourne, The S', Dibla, Cheu-B cuisinent le crack Assis sur une chaise du 'rrain-té, je cherche l'inspi dans la tess' Noie mon chagrin, j'essaie d'aimer mon prochain mais j'me déteste J'viens postillonner la vérité d'ce Glock sur l'anti-pop Avant d'partir, j'te nique ta race pour qu'tu respectes mon hip-hop Et ça fait trahison à prix d'amis, traditions polygamie Mauvaise graine, épiphanie, je recherche une fille de bonne famille Les chasseurs viennent dans le safari, s'emparent du blé, d'la farine Bastos vient du Vietnam, Papada vient de Mauritanie La jalousie te bouffe, c'est plus fort que toi, mais dis-toi Qu'tu peux ap' en vouloir aux autres si t'as rien fait d'tes dix doigts J'ai quitté l'école en 3ème, à cette époque je titubais Même au sommet du gratte-ciel, petit, je regrette mes études Tu veux être acteur de mon bonheur, j'serai spectateur de ton malheur Maxime refuse Kader, taxis refusent Uber J'consomme des bouteilles en club pourtant j'sais qu'l'alcool c'est d'la merde, pas de l'eau Narvalo quand j'allais voler j'avais rien à perdre, barrio J'ai tout donné dans la street, les vrais le savent On veut monter des entreprises sans tout déclarer à l'URSAF Pour mes bikos, blakos, blankos, j'mélange défonce et nuit blanche Et ça dérange Nadine Morano qu'j'aie des reufrès de race blanche J'ai beau écouter les grands classiques de Brel et Aznavour En temps d'guerre elle me trouve un peu brutal quand j'lui fais l'amour Même dans le pire des combats, même un genou à terre, j'attaque Petit le monde est devant toi, n'attends pas qu'il débarque Le destin du game est entre mes phalanges, la boule de neige est devenue l'avalanche A viser la lune on dévalait la falaise, la volubilité, la folie, la vaillance On arrive on avance on nous marche dessus, Marianne a ligoté l'égalité des chances On navigue le ventre vide avec un putain de baril d'essence J'possède assez de rimes pour défrayer tout ton système lunaire J'te laisse lancer des rumeurs j'fais du lourd avec le Frère Lumière Tu peux me croiser dans un grec, tu peux me croiser dans la souricière Avec des frères de Clichy, Saint-Ouen, Cli-cli, Bes-bar et Laumière Bili-Biko j'ai pas de bodyguard, à la rigueur, biko, j'ai le Ruger Mon succès n'est pas un mystère comme le chat de Schrödinger Bili-Biko, moi j'ai l'oeil du tigre, la machoire du Boerbull Ils veulent tous s'emparer du titre, la plupart ont donné leurs boules On dort d'un oeil chez les porcs, tu fermes un oeil chez les borgnes J'élabore un nouveau plavon, j'suis flashé j'passe les rapports, petit Si tu fumes un joint tu vas pas crever dans la minute Tu vas te renfermer sur toi-même t'éloigner de la vie de famille Lutte contre tous tes demons chaque jour, enrichis ta propre culture Guette le trou dans lequel j'suis tombé faudra le contourner dans le futur Des gens m'ont dit T'es foutu, j'ai traversé tous les coups durs C'était pas juste pour la paye, les gros gamos et la haute couture Le 17ième c'est mon réseau, j'battis mon empire dans l'zoo Quand t'auras souffert tu sauras ce qu'il est permis de faire souffrir aux autres La pomme n'est pas loin du pommier, j'demande à Dieu qu'il me pardonne J'ai la dalle, j'suis sorti de garde-à-v en même temps que mon album L'Or des Rois c'est du lourd, darwa, c't'année je change de procédé J'viens de quitter Universal, biko, j'retourne en inde' Dans mon parcours certaines erreurs, j'ai toujours la force de me relever Je sais ce que c'est d'avoir les femmes la gloire et d'être blindé Mais j'oublie pas d'où je viens, ce que mes parents ont pu faire Eux qui ont fait de moi ce que je suis, j'pense qu'à les rendre fier Et j'serai pas enterré avec cette putain de carte gold J'pars en couilles j'suis toujours happé par les rappels de Volts Toute la Cliqua, tout le Secteurs Ä On est dans le rap nous MS17, puto XVBarbar, PSO Thug Kranmax, Volts Face Agrüm, Abim, Iscursif, Amir, Bass, Charnel District, Yaya, Ino100, MC Rikta Tous les quartiers de France Bikos, blackos, blancos, lokos Mon gars Blo' Où sont mes Belges, mes Suisses ? Mes Canadiens, toute l'Algèrie On vient de loin nous Le Maroc, la Tunisie Toute l'Afrique Mais on n'oublie pas d'où on vient nous Big LemsiYou might also like5</t>
+          <t>Big Lemsi 2015 L'or des rois 7-5 Depuis mon plus jeune âge, j'rêve de gloire, de cash flow Jessaie d'avancer malgré ces jets de gazeuse en plein visage J'viens d'la Fourche, la J, PSO, bitch, le bando ce dégrade J'vise dans l'mille à la Vassili pendant la bataille de Stalingrad J'ai de grosses responsabilités, même sur scène j'assume le trac La bac tourne, The S', Dibla, Cheu-B cuisinent le crack Assis sur une chaise du 'rrain-té, je cherche l'inspi dans la tess' Noie mon chagrin, j'essaie d'aimer mon prochain mais j'me déteste J'viens postillonner la vérité d'ce Glock sur l'anti-pop Avant d'partir, j'te nique ta race pour qu'tu respectes mon hip-hop Et ça fait trahison à prix d'amis, traditions polygamie Mauvaise graine, épiphanie, je recherche une fille de bonne famille Les chasseurs viennent dans le safari, s'emparent du blé, d'la farine Bastos vient du Vietnam, Papada vient de Mauritanie La jalousie te bouffe, c'est plus fort que toi, mais dis-toi Qu'tu peux ap' en vouloir aux autres si t'as rien fait d'tes dix doigts J'ai quitté l'école en 3ème, à cette époque je titubais Même au sommet du gratte-ciel, petit, je regrette mes études Tu veux être acteur de mon bonheur, j'serai spectateur de ton malheur Maxime refuse Kader, taxis refusent Uber J'consomme des bouteilles en club pourtant j'sais qu'l'alcool c'est d'la merde, pas de l'eau Narvalo quand j'allais voler j'avais rien à perdre, barrio J'ai tout donné dans la street, les vrais le savent On veut monter des entreprises sans tout déclarer à l'URSAF Pour mes bikos, blakos, blankos, j'mélange défonce et nuit blanche Et ça dérange Nadine Morano qu'j'aie des reufrès de race blanche J'ai beau écouter les grands classiques de Brel et Aznavour En temps d'guerre elle me trouve un peu brutal quand j'lui fais l'amour Même dans le pire des combats, même un genou à terre, j'attaque Petit le monde est devant toi, n'attends pas qu'il débarque Le destin du game est entre mes phalanges, la boule de neige est devenue l'avalanche A viser la lune on dévalait la falaise, la volubilité, la folie, la vaillance On arrive on avance on nous marche dessus, Marianne a ligoté l'égalité des chances On navigue le ventre vide avec un putain de baril d'essence J'possède assez de rimes pour défrayer tout ton système lunaire J'te laisse lancer des rumeurs j'fais du lourd avec le Frère Lumière Tu peux me croiser dans un grec, tu peux me croiser dans la souricière Avec des frères de Clichy, Saint-Ouen, Cli-cli, Bes-bar et Laumière Bili-Biko j'ai pas de bodyguard, à la rigueur, biko, j'ai le Ruger Mon succès n'est pas un mystère comme le chat de Schrödinger Bili-Biko, moi j'ai l'oeil du tigre, la machoire du Boerbull Ils veulent tous s'emparer du titre, la plupart ont donné leurs boules On dort d'un oeil chez les porcs, tu fermes un oeil chez les borgnes J'élabore un nouveau plavon, j'suis flashé j'passe les rapports, petit Si tu fumes un joint tu vas pas crever dans la minute Tu vas te renfermer sur toi-même t'éloigner de la vie de famille Lutte contre tous tes demons chaque jour, enrichis ta propre culture Guette le trou dans lequel j'suis tombé faudra le contourner dans le futur Des gens m'ont dit T'es foutu, j'ai traversé tous les coups durs C'était pas juste pour la paye, les gros gamos et la haute couture Le 17ième c'est mon réseau, j'battis mon empire dans l'zoo Quand t'auras souffert tu sauras ce qu'il est permis de faire souffrir aux autres La pomme n'est pas loin du pommier, j'demande à Dieu qu'il me pardonne J'ai la dalle, j'suis sorti de garde-à-v en même temps que mon album L'Or des Rois c'est du lourd, darwa, c't'année je change de procédé J'viens de quitter Universal, biko, j'retourne en inde' Dans mon parcours certaines erreurs, j'ai toujours la force de me relever Je sais ce que c'est d'avoir les femmes la gloire et d'être blindé Mais j'oublie pas d'où je viens, ce que mes parents ont pu faire Eux qui ont fait de moi ce que je suis, j'pense qu'à les rendre fier Et j'serai pas enterré avec cette putain de carte gold J'pars en couilles j'suis toujours happé par les rappels de Volts Toute la Cliqua, tout le Secteurs Ä On est dans le rap nous MS17, puto XVBarbar, PSO Thug Kranmax, Volts Face Agrüm, Abim, Iscursif, Amir, Bass, Charnel District, Yaya, Ino100, MC Rikta Tous les quartiers de France Bikos, blackos, blancos, lokos Mon gars Blo' Où sont mes Belges, mes Suisses ? Mes Canadiens, toute l'Algèrie On vient de loin nous Le Maroc, la Tunisie Toute l'Afrique Mais on n'oublie pas d'où on vient nous Big Lemsi5</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Alors les rappeurs ça s'phayce ? Hé hé Hayce Lem' fait son bico lo-comeback, hahaha Ici bas c'est la vida loca Biko la weed est forte et locale Faut qu'j'élimine tous les mégalomanes Qu'j'invite mon cartel au calme J'aime le rap d'un amour platonique J'suis carré pour faire des ronds Je ne me prends pas pour Tony TF1 m'traîte de terro' Hiéroglyphes gravés sur le mur de l'avant-fouille hé J'donne à ton piff un air de sphinx même pour un ksinv essaye d'douiller Le rap français j'vais l'violer, j'suis le biko décervelé Pseudo insomniaque venez, j'kick avec des cernes violettes Depuis l'époque de Goldorak j'suis c'que les faussaires veulent être Opinel 7 dans l'anorak en cas d'attaque tardive en traître Entre autres, c'est l'Hayce de trèfle j'crève la carotide aux faux Donne ton cur et ton cavu, j'pète la forme petite nympho' Pour info l'insomnie m'fatigue peu d'gens savent qu'elle est sur mes côtes comme un flic J'prépare un feat avec le marchand d'sable T'investis dans les pompes funèbres en essayant d'nous faire entrave J'guette à la fenêtre y'a un scar-la qui va s'faire un trav' Y'a pas d'fusil à lunette, y'a des Glocks pour t'allumer Tu peux garder ton amulette, dis-nous juste où la mule est Ça fume le calumet d'la haine, selha lala dans les shoes Tellement chaud qu'on essaye de recopier mon flow par cellules souches, XV zouje cous' On arrache pas les sacs mais les recettes Tu sais pas cuisiner t'as bousillé ta 0.7 C'pas du flow c'est des coups d'sep' C'est pas l'Clio c'est l'Q7 C'est pas l'témoin c'est l'accusé C'est L'Insomniak pas 50 Cent You might also like x2 Ok, je kick le mic' pour mes potos menottés Bikos, Blakos, Blankos, Lokos, toutes les communautés Même si la vie m'fait mal, c'qui n'tue pas rend plus fort Laissez-moi faire mes bails HahaHayce Trop les crocs demande à l'Skro, un litron d'shit c'est la mascotte Biko, bois sa pisse, Iblis tescorte à rue d'Aerschot Le rap a rendu l'âme, s'est pendu, j'ai fendu la prod' Dites à la proc' j'suis venu, j'ai bu, j'ai vendu d'la drogue Ventre vide on vadrouille, trouve une démarche frauduleuse Ecoute les remarques venimeuses dont nous font part les patrouilles On va faire parler ta trouille, on va faire péter les fiottes On écrira 17 tout-par à part sur nos téléphones Dans les fouilles des llets-bi des feuilles, on rappe on fait pleurer nos blocs J'veux qu'on squatte mon blog au deux extrémités du globe Trop d'hostilités mon pote essaye pas d'imiter Lemsi J'pourrais kicker sur du rock sous ice-o-lator Hennessy L'renard me fait la courte échelle j'arrache le fromage au corbeau Monte pas sur tes grands c'hvaux si tu fais l'canard avec les chiennes MC mesure tes paroles, tu t'adresses à Hayce Lem 16 J'veux pas porter la couronne avec le nose plein d'cess' x2 Ok, je kick le mic' pour mes potos menottés Bikos, Blakos, Blankos, Lokos, toutes les communautés Même si la vie m'fait mal, c'qui n'tue pas rend plus fort Laissez-moi faire mes bails HahaHayce Trop d'weeda locale dans l'joint, trop d'garces pour jouer les dom juan Trop d'obstacles sur nos ch'mins, trop d'darons se ruinent on jouant Trop vite le ciel on rejoint, trop tuent leur jeunesse en plongeant Trop d'flow dès l'âge de 11 ans, trop d'amour pour mes frangins Dans les foyers du tiekson, trop d'matelas dans la même pièce Trop d'intraveineuses injections, avenue d'Clichy, Boulevard Bès' On est trop-trop-trop biko sur un seul Tropico Y'a trop-trop-trop d'nos potos dans les hôpitaux Trop d'délits d'faciès, de contrôles interminables Trop d'alcool dans le sang des CRS besef ahlina Trop d'hiya dans les cabeza cabossées par le time, l'oseille, la street Trop d'blessés par les brigades, leur violence gratuite Après-moi du pilon plein d'billets, multipliez les plavons pillave pas l'temps d'roupiller Bilibico bawawa du pilon plein d'billets, multipliez les plavons pillave pas l'temps d'roupiller yo x2 Ok, je kick le mic' pour mes potos menottés Bikos, Blakos, Blankos, Lokos, toutes les communautés Même si la vie m'fait mal, c'qui n'tue pas rend plus fort Laissez-moi faire mes bails HahaHayce Terminus Nord Island Tous les voyageurs sont invités à descendre3</t>
+          <t>Alors les rappeurs ça s'phayce ? Hé hé Hayce Lem' fait son bico lo-comeback, hahaha Ici bas c'est la vida loca Biko la weed est forte et locale Faut qu'j'élimine tous les mégalomanes Qu'j'invite mon cartel au calme J'aime le rap d'un amour platonique J'suis carré pour faire des ronds Je ne me prends pas pour Tony TF1 m'traîte de terro' Hiéroglyphes gravés sur le mur de l'avant-fouille hé J'donne à ton piff un air de sphinx même pour un ksinv essaye d'douiller Le rap français j'vais l'violer, j'suis le biko décervelé Pseudo insomniaque venez, j'kick avec des cernes violettes Depuis l'époque de Goldorak j'suis c'que les faussaires veulent être Opinel 7 dans l'anorak en cas d'attaque tardive en traître Entre autres, c'est l'Hayce de trèfle j'crève la carotide aux faux Donne ton cur et ton cavu, j'pète la forme petite nympho' Pour info l'insomnie m'fatigue peu d'gens savent qu'elle est sur mes côtes comme un flic J'prépare un feat avec le marchand d'sable T'investis dans les pompes funèbres en essayant d'nous faire entrave J'guette à la fenêtre y'a un scar-la qui va s'faire un trav' Y'a pas d'fusil à lunette, y'a des Glocks pour t'allumer Tu peux garder ton amulette, dis-nous juste où la mule est Ça fume le calumet d'la haine, selha lala dans les shoes Tellement chaud qu'on essaye de recopier mon flow par cellules souches, XV zouje cous' On arrache pas les sacs mais les recettes Tu sais pas cuisiner t'as bousillé ta 0.7 C'pas du flow c'est des coups d'sep' C'est pas l'Clio c'est l'Q7 C'est pas l'témoin c'est l'accusé C'est L'Insomniak pas 50 Cent x2 Ok, je kick le mic' pour mes potos menottés Bikos, Blakos, Blankos, Lokos, toutes les communautés Même si la vie m'fait mal, c'qui n'tue pas rend plus fort Laissez-moi faire mes bails HahaHayce Trop les crocs demande à l'Skro, un litron d'shit c'est la mascotte Biko, bois sa pisse, Iblis tescorte à rue d'Aerschot Le rap a rendu l'âme, s'est pendu, j'ai fendu la prod' Dites à la proc' j'suis venu, j'ai bu, j'ai vendu d'la drogue Ventre vide on vadrouille, trouve une démarche frauduleuse Ecoute les remarques venimeuses dont nous font part les patrouilles On va faire parler ta trouille, on va faire péter les fiottes On écrira 17 tout-par à part sur nos téléphones Dans les fouilles des llets-bi des feuilles, on rappe on fait pleurer nos blocs J'veux qu'on squatte mon blog au deux extrémités du globe Trop d'hostilités mon pote essaye pas d'imiter Lemsi J'pourrais kicker sur du rock sous ice-o-lator Hennessy L'renard me fait la courte échelle j'arrache le fromage au corbeau Monte pas sur tes grands c'hvaux si tu fais l'canard avec les chiennes MC mesure tes paroles, tu t'adresses à Hayce Lem 16 J'veux pas porter la couronne avec le nose plein d'cess' x2 Ok, je kick le mic' pour mes potos menottés Bikos, Blakos, Blankos, Lokos, toutes les communautés Même si la vie m'fait mal, c'qui n'tue pas rend plus fort Laissez-moi faire mes bails HahaHayce Trop d'weeda locale dans l'joint, trop d'garces pour jouer les dom juan Trop d'obstacles sur nos ch'mins, trop d'darons se ruinent on jouant Trop vite le ciel on rejoint, trop tuent leur jeunesse en plongeant Trop d'flow dès l'âge de 11 ans, trop d'amour pour mes frangins Dans les foyers du tiekson, trop d'matelas dans la même pièce Trop d'intraveineuses injections, avenue d'Clichy, Boulevard Bès' On est trop-trop-trop biko sur un seul Tropico Y'a trop-trop-trop d'nos potos dans les hôpitaux Trop d'délits d'faciès, de contrôles interminables Trop d'alcool dans le sang des CRS besef ahlina Trop d'hiya dans les cabeza cabossées par le time, l'oseille, la street Trop d'blessés par les brigades, leur violence gratuite Après-moi du pilon plein d'billets, multipliez les plavons pillave pas l'temps d'roupiller Bilibico bawawa du pilon plein d'billets, multipliez les plavons pillave pas l'temps d'roupiller yo x2 Ok, je kick le mic' pour mes potos menottés Bikos, Blakos, Blankos, Lokos, toutes les communautés Même si la vie m'fait mal, c'qui n'tue pas rend plus fort Laissez-moi faire mes bails HahaHayce Terminus Nord Island Tous les voyageurs sont invités à descendre3</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Surveillant va niquer ta mère la pute, j'te respecte pas J'vais t'mettre une patate marteau pour faire le clou du spectacle J'retourne la langue de Molière moi qui n'était qu'un segpa Tu m'as déçu dans le passé, futur featuring n'espère pas J'suis Akra t'es pot Touring, t'es tout pourri tu perces pas En cellule on a pensé à s'évader au C4 Petit on arrachait en Vespa, s'arracher en Espagne Maintenant j'ai trente mille dans la sacoche, calibré en Tesla J'achète des blousons Dsquared avec l'évasion fiscale Toute la nuit j'fais des freestyles sous une pluie de crystal Elle veux que j'l'emmène chez Christian, j'l'emmène au Burger Square Paris s'agite je sens qu'il va y avoir un murder c'soir T'es un emmerdeur soit, prenons nos distances La substance que l'on inhale vient tout droit d'Afghanistan Manager Macho bang bang, producteur Julien Lebrun Conseiller backeur Papada puis l'ingénieur c'est Tristan Tu connais pas notre histoire, prenons nos distances Car les amis se dispersent, la jalousie les dispense De t'aimer pour ce que t'es vraiment ou de dire c'qu'ils pensent Contrairement à ce que tu crois l'argent ne fait pas la puissance J'connais pas les lois d'la gravité chez moi c'est no-limit La femme de ménage fait les yeux doux mais bon j'suis pas Dominique Depuis l'jour où j'ai pris l'mic toujours au cur des polémiques Si j't'attrape j'vais t'niquer ta mère ça c'est pas marqué dans les livres Montre nous c'que t'as dans le ventre si tu veux rentrer dans l'élite x2 Envoie des chiffres et des lettres à tes gars tombés pour des litres Va les chercher au hebs avec la Lambo portes élytres Trop d'kilomètres au compteur ta meuf n'a pas d'CT Confond pas les subliminaux et les coups d'cépé Chez nous la bagarre c'est normal diecisiete x2 You might also like J'bondis du bultex, le matin je flex, en mangeant mes cornflakes C'est comme un réflexe Elle sait qu'ce soir elle va voir flou Elle sait qu'j'suis v'là la bête de sexe Hum Pas de balles à blancs, deux kalashnikovs à l'appart, envoie des lokas dans l'Abarth Hum Mes bikow dépensent au Buddha Bar, en cavale à Marrakech, à Paris Nord, à Malaga Tu nous parles de moula, j'ai les rotules sur le volant, j'suis le rebeu plus violent J'ai la Rolly, j'suis la relève T'as beau relire tous les romans, tu n'as pas le vocabulaire Le couteau sur la jugulaire et je tranche des gorges J'me demande si les temps changent ou si les gens changent avec le temps J'ai tant chanté la mélancolie de nos aïeux Comme un penchant pour le change multicolores J'ai le flow qui t'enchante J'suis légende vivante, les rappeurs je les engendre Ils me tournent le dos, je les liquide et les enjambe Mytho, me parle pas d'money t'as même pas de quoi te payer les cigarettes et le chanvre Tout est bien qui finit mal au sommet du règne animal On fait l'amour entre deux guerres au lieu de consulter l'imam Enrager des canines aux molaires J'ai vu le bonheur immolé, me jalouser pour la monnaie, les talents de mélomane et l'eeny, meeny, miny, moe De la mêlée met les voiles J'étais tranquillou dans mon lit quand la police me leva Le volubiles à dix mille mots dans la minute, un neuf milli dans la mallette et les soldats de la milice dans le van Grr grr j'la baise au parloir Hey En cellule j'fume que d'la frappe Waouh Quand j'ai bu je fais d'la trap Hey Un guépard tapis dans le noir Ouah Un go-fast avec mon gars Kost et t'ignores la provenance Rien qu'j'raconte des salades niçoises à mes ex en Provence Aller bounce bounce bounce bounce, bitch Cur sur toi si tu twerk sur moi T'es sournois moi j'suis sûr de moi Ah !</t>
+          <t>Surveillant va niquer ta mère la pute, j'te respecte pas J'vais t'mettre une patate marteau pour faire le clou du spectacle J'retourne la langue de Molière moi qui n'était qu'un segpa Tu m'as déçu dans le passé, futur featuring n'espère pas J'suis Akra t'es pot Touring, t'es tout pourri tu perces pas En cellule on a pensé à s'évader au C4 Petit on arrachait en Vespa, s'arracher en Espagne Maintenant j'ai trente mille dans la sacoche, calibré en Tesla J'achète des blousons Dsquared avec l'évasion fiscale Toute la nuit j'fais des freestyles sous une pluie de crystal Elle veux que j'l'emmène chez Christian, j'l'emmène au Burger Square Paris s'agite je sens qu'il va y avoir un murder c'soir T'es un emmerdeur soit, prenons nos distances La substance que l'on inhale vient tout droit d'Afghanistan Manager Macho bang bang, producteur Julien Lebrun Conseiller backeur Papada puis l'ingénieur c'est Tristan Tu connais pas notre histoire, prenons nos distances Car les amis se dispersent, la jalousie les dispense De t'aimer pour ce que t'es vraiment ou de dire c'qu'ils pensent Contrairement à ce que tu crois l'argent ne fait pas la puissance J'connais pas les lois d'la gravité chez moi c'est no-limit La femme de ménage fait les yeux doux mais bon j'suis pas Dominique Depuis l'jour où j'ai pris l'mic toujours au cur des polémiques Si j't'attrape j'vais t'niquer ta mère ça c'est pas marqué dans les livres Montre nous c'que t'as dans le ventre si tu veux rentrer dans l'élite x2 Envoie des chiffres et des lettres à tes gars tombés pour des litres Va les chercher au hebs avec la Lambo portes élytres Trop d'kilomètres au compteur ta meuf n'a pas d'CT Confond pas les subliminaux et les coups d'cépé Chez nous la bagarre c'est normal diecisiete x2 J'bondis du bultex, le matin je flex, en mangeant mes cornflakes C'est comme un réflexe Elle sait qu'ce soir elle va voir flou Elle sait qu'j'suis v'là la bête de sexe Hum Pas de balles à blancs, deux kalashnikovs à l'appart, envoie des lokas dans l'Abarth Hum Mes bikow dépensent au Buddha Bar, en cavale à Marrakech, à Paris Nord, à Malaga Tu nous parles de moula, j'ai les rotules sur le volant, j'suis le rebeu plus violent J'ai la Rolly, j'suis la relève T'as beau relire tous les romans, tu n'as pas le vocabulaire Le couteau sur la jugulaire et je tranche des gorges J'me demande si les temps changent ou si les gens changent avec le temps J'ai tant chanté la mélancolie de nos aïeux Comme un penchant pour le change multicolores J'ai le flow qui t'enchante J'suis légende vivante, les rappeurs je les engendre Ils me tournent le dos, je les liquide et les enjambe Mytho, me parle pas d'money t'as même pas de quoi te payer les cigarettes et le chanvre Tout est bien qui finit mal au sommet du règne animal On fait l'amour entre deux guerres au lieu de consulter l'imam Enrager des canines aux molaires J'ai vu le bonheur immolé, me jalouser pour la monnaie, les talents de mélomane et l'eeny, meeny, miny, moe De la mêlée met les voiles J'étais tranquillou dans mon lit quand la police me leva Le volubiles à dix mille mots dans la minute, un neuf milli dans la mallette et les soldats de la milice dans le van Grr grr j'la baise au parloir Hey En cellule j'fume que d'la frappe Waouh Quand j'ai bu je fais d'la trap Hey Un guépard tapis dans le noir Ouah Un go-fast avec mon gars Kost et t'ignores la provenance Rien qu'j'raconte des salades niçoises à mes ex en Provence Aller bounce bounce bounce bounce, bitch Cur sur toi si tu twerk sur moi T'es sournois moi j'suis sûr de moi Ah !</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Yeah Baby baby no more 27 février dans les bacs You know Tu kiffes Fababy ? T'es qu'un suceur Aux platines DJ Battle Viens pas nous tester si t'as pas d'flingue On est des gentils voyous, t'es une méchante baltringue Tu kiffes Fababy ? T'es qu'un suceur Aux platines DJ Battle Viens pas clasher Fouiny si t'as pas d'flingue On est des gentils voyous, t'es une méchante baltringue Quand on investit sur moi j'me rappelle que j'suis qu'un produit Quand l'amour fait cartonner bah comment s'racheter une conduite ? Trop proche des croque-morts, des gars morts, des corbeaux, des démons Viol mental, quand l'cur fait battre le corps demande Baby Les frères entre quatre murs, tes frères entre quatre planches si si Comme un leader paranoïaque j'ai l'impression d'être suivi Puristes et vétérans, sont bien trop nostalgiques J'ai vu des frères bouger pour moi et des amitiés tétraplégiques On ne m'encule pas, moi j'suis pas ces autres travs' Symphonie des chargeurs, Tony est tombé sur une octave Met ton pare-balles, Banlieue Sale, 93 soldier La vie n'a pas d'prix, mais les armes de meurtres sont soldées 27 février dans les bacs et dans les blocs You might also like Hayce Lem Hayce Lem Hayce Lem Hayce Hayce Lem Hayce Lem Hayce Lem Hayce Hayce Lem Hayce Lem Hayce Lem Hayce Jai peut-être pas la belle gueule habile et gue-din, met les balles dans le gun, mégalomane à lagonie Vil et malin, de la monnaie dans la mine, malmenant mâlement le méli-mélo mon ami, mélanine hâlé mal-aimé Mais nan dans mon paki ya pas de henné Maintenant j'mets l'paquet j'nique des mères Pas le temps de te demander de laide pédé, y'en a marre derrer Hip-hop développé, le mic malimente à 17 000 watts minimum, j'te ligote, j't'élimine, y'en a marre des menottes Jveux la maille et le cul de Pénélope Put your hands up and the air, cest le petit berbère bing bang bang Tellement de mélancolie dans les mots de calumets, de monnaie, mille délits maléfiques sur l'ter-ter Voulez-vous naviguer dans la ville où lon meurt jeune ? Met les voiles amigo t'as la tête dans le mehjoun Mon level a malmené ta clique harcheum Mêlé dans la street gyrophares et la BAC shoot Met les, met les watts pousse la sono, écoute ce flow d'Hayce'tronaute Mille et une mélodies de malade à la minute, Hayssieds toi prends des notes kholo Bicot, j'ai pris le mic' un jour de pluie depuis que des murders-murders j'déchire Un jour un an-ienc' m'a dit qui vivra d'espoir mourra de désir J'vis au jour le jour dans le désert, bicot les mirages deviennent des blessures J'collectionne les mauvais souvenirs et les ennemis, la BAC nous veilles-sur J'ai pris le XXX un jour de décembre à Hassi Messaoud en plein Sahara Il s'peut qu'un jour j'me fasse descendre en soum-soum par une kahba Que des nuits blanches et des jours noirs, des juges et des baveux sournois Quand tu parles sur moi ne jure pas, un jour tu m'verras dans ton journal XV Barbare viens sur l'ter-ter on sort d'la brousse, ah ouais Met les mains terre-par, j'veux l'code de la carte pourquoi tu glousses ta mère ? Les minots t'hagar tes lunettes tier-Car te piste en douce à ied-p Et de Paris vous pensez qu'j'perds le nord vous êtes tous à l'ouest Faut qu'j'trouve à milli, debout de minuit à minuit MC j't'humilie ouais c'est la hass c'est miné Y'a de la s' dans les Cooper Mini J'fais sauter la caisse de la Sacem illico loco j'empeste le talent inouï L'holocauste c'est Hayce le best et weed-weed dans la veste charcle l'intestin d'Émile Louis Vibes à la martienne, mentalité malsaine, tu l'as dis dans marcel, parler de Hayce Lem' De Paname à Marseille, die sur la passerelle, punchline j'parsème, pét'Hayces m'harcèlent J'arrive en soum-soum aux anciens j'fous le seum J'suis le petit d'personne, personne moi j'me suis fait tout seul ah ah J'tape dans les tympans, j'tarte les tainps dans le rap J'élimine ton cartel en partant d'rien j'te démarre J't'écarte les pattes arrière dans le bat' ou l'hôtel Etap Arrêtez le rap de boloss tah rée-soi Tellement de victoires j'suis le battant, harbi l'rap d'aujourd'hui m'déçois Trop de merdes dans les bacs, hey les mecs on débarque En soum-soum easy, fils ici missile téléguidée, risque résines Obstinance brisée, triple six nous fixe en silence Misez, sur patience et dire en viendra le caviar Le dernier rappeur que j'ai vu rêvait de la paye d'un guetteur plein-phare Zina atini tilifoune dialek, étonnée de mon foutu dialecte Épaulé par mes fous d'la rue, j'prends le mic' t'es foutu direct On connais les fous d'la rue, t'arme pas si t'as peur de tirer J'rap à la vitesse d'une kalash russe CanonHayceLemscié Reprise de volée dans la bouche, extirpe les violets de la poche harboush Comme Sniper j'suis gravé dans la roche, comme Solaar faut j'cartouche la fille de Partouche Quoi ? J'peux crier vida loca, sans jouer les mecs de la Mara Les rappeurs que tu kiffes tellement tapent tous dans la selha lalala bawawa Fuck le calendrier Maya, Oba-marionnette Sarko, toutes les eaux sont couleurs noyades Les infos manquent pas d'fiction, les nymphos manquent d'affections Trop d'intraveineuses injections, j'ai traumatisé l'ingé' son Fiston y'a pas d'henné dans mon Paki trop de llets-bi dans ma pocket C'est la guerre je vois tout en kaki, pouki demande as-p le prix de la plaquette Ton équipe raconte que des pipeaux personne va sortir l'nine J'te ferais pas tourner mes bimbos, bicot tu les baiserais mal Ah ouais ! La symphonie des chargeurs bicot Hay-Hay-Hayce OK La symphonie des chargeurs Dissèque le beat, c'est le YZ du stylo BIC Sadek débarque dans l'game comme la peste ou bien les Beatles J'distribue les middles dans la tête des vétérans Si j'saute dans la foule j'risquerais d'canner tout l'premier rang Flow, drive by, gros t'es die bye bye Tu veux qu'on gagne ? Passe moi la balle Dans l'rap j'me sens comme Cristiano qui joue au Galatasaray As-salâm 'aleïkoum, je sais bien qu'tu m'écoutes 4 ans dans une cave, il est temps que j'sorte des égouts J'suis resté sur le té-cô, jeté comme un mégot Maintenant j'ai l'flow d'une montagne quand j'rap j'entends des échos Jordan de la punchline, ils sont démodés comme Eck Ils sont là pour la déco ValérieDamidot J'suis là pour faire des classiques QuentinTarantino Tu chantes devant les chtars hein ? BobbyValentino Du flow ? J'en ai des kilos, les mc's veulent me perquis' Faudrait qu'j'me mette au vert comme un joueur des Celtics Ou plutôt dans le mauve, j'te parle que d'billets d'500 T'as plus rien à la Sacem ? Bah putain ça s'sent J'ai fait l'école buissonnière, rien a foutre d'la New School J'suis un 93 baby, la rue n'a pas fait d'fausse couche Sur l'terrain on est posté, dans mon crâne c'est Moscou Enfermé dans un cauchemar où l'Sheitan crie au secours Et j'me reveille à l'hosto, Sadek c'est du costaud J'baise tout j'me barre au Mexique, la hass ? No conozco La symphonie des chargeurs va la prendre avant de t'faire cartoucher ma gueule La symphonie des chargeurs, tu connais La symphonie des chargeurs F.A Baby, tu connais Baby baby no more T'inquiete mon pote, le 27 allez chercher ca Guette ! On connais pas la peur, ni les balles à blancs On n'aime pas tes rappeurs, c'est des délateurs, on les remet à la danse On a la classe, on a la 'zic, on a la tech' On analyse, on a la win, on a rage, on a plus d'laisse O.K On peut te tacler, te taper, te piquer bêtement tes sapes Cap vert, hotel ETAP avec ton sang sur mes sabres Ils sont tous rincés, le contexte est acide L'institut c'est ainsi, c'est bondé qu'on se rassieds Des putains d'crimes que l'on commet L'institut frappe nigga quand même Crois pas que t'es chan-mé, t'es camé On peut te couler comme the might On a la haine contre les keufs qu'on vient d'croiser bete de décors On s'fait du biff' sous les portes Si tu joues au bête, on t'égorges Y'a pas d' léki ??, v'la l'union d'l'équipe Nouvelle Ecole, click it, nigga, on t'liquide Et moi c'est S ou l'best des bests Le mec de tess, avec une paire de .. 2012, cherche à faire grimper ton chiffre d'affaires J'sais pas, développe des p'tites affaires, en vrai, faut, y'a du fric à faire Reste focus, un faux-cul peut faire de toi un taulard À 2-3 bitchs? J'préfère rentrer 2-3 dollards ! Meilleurs voeux! Tu sors ta meilleure beuh Cannabis mec, on skouat pas disney, on tape pas l'17 C'est XXX mon pote Six o'clock, si cette toc tape à ta porte mon pote 6-35 dans ta face c'est pas un movie Bouge vite si tu veux pas danser I like to move it Vite citer, vite friquer, vite fliquer Vite si t'es vif de commettre des fuites, tu peux t'faire vite niquer Ici c'est taxes sociales, tas d'tos-ma Tas d'clochards, tas d'cocards et tas d'cocards Parfois même des baffes d'Oscar Yeah, pas besoin d'bloqué dans un sas nigga Rien ne sers d'avoir dla chatte, vaux mieux avoir un schlass ! F.A babyyyy B.I.L.E.L La street pour ceux qui la vivent B.I.L La symphonie des chargeurs B.I.L.E.L Tcheck Tcheck Ça va faire ça bien pour l'poto F.A.B Tcheck J'te parle de la rue comme un nudiste parlerait d'pudeur 5 kills de pur j'les liquident en 48 h Riche grâce au rap, ils sont dingues la tête de oi-m Dites aux rappeurs de passer m'voir en c'moment j'ai d'la bête de one Qui compte concurrencer sera fumé dans sa lancée J'suis pas la relève du rap francais Trou du cul j'suis le rap français B.I.L.E.L impitoyable comme Derek Inaccessible comme tes rêves Juste de passage comme tes règles B.I.L.E.L impitoyable comme Derek Inaccessible comme tes rêves Juste de passage comme tes règles Burk-burk-burk, j'suis dégueu-dégueulasse Mais la street m'aime comme a-ç donc ferme ta gueule connasse Trop d'principes j'suis pas d'ceux qui s'plient comme un clic-clac Si t'm'aimes pas met toi quatre doigts et j'sais pas si tu feras des Kit Kat Regarde les ces bouffons ils sont pas crédibles Demande à Landry on fait pas l'mouton quand on a boucher au bout du fil Ils rêvent de m'freiner, j'compte plus les bâtons dans mes roues De toute façon si le rap ça marche as-p j'finirais baron dans l'héro J'avoue que j'suis passionné j'viendrais kicker sur ta 'tape XXX me veut en feat je compte coûter les yeux d'la tête Wesh on n'est pas là tu m'étonnes qu'les souris breakent Sur le terrain j'ai du faire mes prouves vu que l'couilles s'trouvent pas sur eBay Vaut mieux être un loup chez les chiens, qu'un chien au sein des tigres J'suis à la recherche d'un chimiste pour faire sniffer d'la synthétique 5 grammes dans l'fessier c'est plus des culs c'est des sacs de sport Vaut mieux être dans le h'rm que faire d' la peine en SaxoSport Haïs dans l'game comme Mouammar à Tripoli Parce que j'ai pas été très poli en prenant leur buzz comme trampoline J'ai pas ce que je mérite comment faire pour rester tranquille ? XXX se battent pour un stick J'compte les mettre sur 30 kills S'mélanger c'est tendre la main à des piranhas La vie c'est un répondeur les hypocrites parlent quand t'es pas là J'ai pas besoin qu'on m'aime ni que j'crève pour qu'on m'regrette Plus rien m'fait bander j'suis comme Dutroux en maison d'retraite Naturellement vrai pourquoi me déguiser ? Bien sûr que ça va percer, car les punchlines sont aiguisées Scande pas la rue si t'y as traîné 48 heures Tu rappes comme un gangster, mais on te suit que sur Twitter B.I.L.E.L OK Eh Volts Face vieux Volts Face Le 75 en lui-même Les frères lumières Eh F.A.B.A.B.Y, tu connais Ah on est là, OK OK, eh OK Volts Face vieux le 75 Volts Face vieux le 75 Volts Face vieux le 75 Volts Face vieux, OK À lécole cétait la merde, j'traînais pour aller pécher Les keufs essayaient dnous laver, jpassais mes journées à sécher Négro ça vient dPaname Jpasse mes nuits à lhôpital, jécris des trucs de malade Quand jsuis perdu dans ma tête, jprie ou bien jme balade Wesh faites des livres qui parlent de bouffe vous racontez tous des salades Hayce te met à la page Dites au marchand dsable daller chercher du taf à la plage Le sexe mimporte peu, jai du bif' que pour la mif Ça joue les durs à cuire mais ça met ses potes au feu Jai arrêté lécole, jai déconné Les meufs cest comme les paroles cainris que jchante C'est jamais les bonnes, jai trop donné Jveux avancer, jcompte pas rester bader Mon avenir est comme ma coupe en gros il est dégradé Elles jouent les chaudes, elles ont la fouf toute givrée Même en nous voyant, on peut voir quon va tous vous gifler Ça vient dPaname, jreprésente car cest la dèche Jmentraîne à placer des bananes, toi tu peux garder la pêche Lamour cest dla merde, Cupidon nexiste plus Quest-ce tu veux qujte dise de plus à part qucétait un fils de pute ? Parait qu't'as un femelle mais personne la voit J'avance seul, j'suis comme Jamel gros j'ai pas d'bras droit J'ai la flemme et j'me gamèle, ouais j'suis maladroit Pétasse parait qu'tu m'aimes c'est bizarre j'ai du mal à te croire J'ai des problèmes, c'est vrai mais j'veux pas tiser Comme une rupture de stock, sache que la vie m'a épuisé XXX c'est d'la merde, j'vais lui mettre un tarif Aujourd'hui ils m'crachent dessus et demain ils lècheront ma salive J'suis la foudre dans la tempête gros, les gens moi j'les rends bête J'lâche un texte légendaire et j'prends la poudre d'escampette Et j'fais c'que j'ai à faire ouais quand j'ai un truc en tête J'rends fou les inspecteurs ils m'lâchent dès le début d'l'enquête Tu peux pas ve-squi la mort et ses procédés T'as beau jamais faire de disques tu vas finir par décéder Faut qu'j'rime, c'est moi l'vrai acteur du film J'connais mieux les vices que l'créateur de jean J'suis trop pensif, negro j'passe à l'offensif On s'mange des grosses peines, on vient des quartiers sensibles Moi j'reste tranquille, au tier-quar y'a pas qu'des pinces Pétasse tu trouveras pas le bon même si t'habite au Parc des Princes Elle t'aime mais toi tu sais pas Ton amour c'est du chocolat en gros quand elle est nue t'es là En vrai ça m'est égal, si t'es pas mon grand décale Quand une pute écarte les jambes c'est pas pour faire le grand écart Ils jouent hein, ma tête on va les caner Bébé j'te conserve que si en boite tu t'fais recaler J'ai des punchlines trop chaudes, que des grosses chattes trop en sang Paire de Air Max aux ieds-p, tout mes khos tapent dans l'vent J'ai les cros cette année, que des gros chèques calés Ramène ton biff, marre de voir les grosses têtes damer gros Volts Face on est là, F.A.Baby Fait péter on est là gros on est là N'oublie pas ry-Fleu, ne-Fre, la té-San, Osny, Bois-d'Ar Parson, Kekette, Chalmy, tout le monde tous les frères sont bés-tom l'Escroc On est là frère Aïe aïe aïe La Tache XV Barbare XV Barbare les mecs on est là Symphonie des chargeurs dans les bacs et dans les blocs F.A.B.A.B.Y F.A.B.A.B.Y F.A.B.A.B.Y F.A.B.A.B.Y F.A.B.A.B.Y Wa, wa, waw Il parle mal le physio S'il revient pas taffer demain c'est qu'mes gars l'ont fusillé, boy Les p'tits pour insulter les chtars ils se sont jamais retenus J'ai vu des frères nous dire au revoir, ils n'sont jamais revenus Les baltringues ouvrent le bal, les calibres veulent qu'on danse Tes potos t'fument dans la piscine, parce que la vengeance est étanche On taf dans l'ombre juste pour fuir l'anonymat Dans l'9.3 on appelle pas l'17 c'est pas dans la Sunna Dis aux femmes qu'on sourit plus une fois qu'on baisse les rideaux J'arrête le rap pour faire la guerre, j'ai plus d'ennemis que d'rivaux J'ai pris le mic' avec des couilles et du cran, han Dis pas à un nain qu'il comprendra quand il sera grand, oh F.A.B.A.B.Y Symphonie des chargeurs OK, la famille on est ensemble il y a pas d'traîtres Te penche pas sur notre cas on viendra te prendre en levrette2</t>
+          <t>Yeah Baby baby no more 27 février dans les bacs You know Tu kiffes Fababy ? T'es qu'un suceur Aux platines DJ Battle Viens pas nous tester si t'as pas d'flingue On est des gentils voyous, t'es une méchante baltringue Tu kiffes Fababy ? T'es qu'un suceur Aux platines DJ Battle Viens pas clasher Fouiny si t'as pas d'flingue On est des gentils voyous, t'es une méchante baltringue Quand on investit sur moi j'me rappelle que j'suis qu'un produit Quand l'amour fait cartonner bah comment s'racheter une conduite ? Trop proche des croque-morts, des gars morts, des corbeaux, des démons Viol mental, quand l'cur fait battre le corps demande Baby Les frères entre quatre murs, tes frères entre quatre planches si si Comme un leader paranoïaque j'ai l'impression d'être suivi Puristes et vétérans, sont bien trop nostalgiques J'ai vu des frères bouger pour moi et des amitiés tétraplégiques On ne m'encule pas, moi j'suis pas ces autres travs' Symphonie des chargeurs, Tony est tombé sur une octave Met ton pare-balles, Banlieue Sale, 93 soldier La vie n'a pas d'prix, mais les armes de meurtres sont soldées 27 février dans les bacs et dans les blocs Hayce Lem Hayce Lem Hayce Lem Hayce Hayce Lem Hayce Lem Hayce Lem Hayce Hayce Lem Hayce Lem Hayce Lem Hayce Jai peut-être pas la belle gueule habile et gue-din, met les balles dans le gun, mégalomane à lagonie Vil et malin, de la monnaie dans la mine, malmenant mâlement le méli-mélo mon ami, mélanine hâlé mal-aimé Mais nan dans mon paki ya pas de henné Maintenant j'mets l'paquet j'nique des mères Pas le temps de te demander de laide pédé, y'en a marre derrer Hip-hop développé, le mic malimente à 17 000 watts minimum, j'te ligote, j't'élimine, y'en a marre des menottes Jveux la maille et le cul de Pénélope Put your hands up and the air, cest le petit berbère bing bang bang Tellement de mélancolie dans les mots de calumets, de monnaie, mille délits maléfiques sur l'ter-ter Voulez-vous naviguer dans la ville où lon meurt jeune ? Met les voiles amigo t'as la tête dans le mehjoun Mon level a malmené ta clique harcheum Mêlé dans la street gyrophares et la BAC shoot Met les, met les watts pousse la sono, écoute ce flow d'Hayce'tronaute Mille et une mélodies de malade à la minute, Hayssieds toi prends des notes kholo Bicot, j'ai pris le mic' un jour de pluie depuis que des murders-murders j'déchire Un jour un an-ienc' m'a dit qui vivra d'espoir mourra de désir J'vis au jour le jour dans le désert, bicot les mirages deviennent des blessures J'collectionne les mauvais souvenirs et les ennemis, la BAC nous veilles-sur J'ai pris le XXX un jour de décembre à Hassi Messaoud en plein Sahara Il s'peut qu'un jour j'me fasse descendre en soum-soum par une kahba Que des nuits blanches et des jours noirs, des juges et des baveux sournois Quand tu parles sur moi ne jure pas, un jour tu m'verras dans ton journal XV Barbare viens sur l'ter-ter on sort d'la brousse, ah ouais Met les mains terre-par, j'veux l'code de la carte pourquoi tu glousses ta mère ? Les minots t'hagar tes lunettes tier-Car te piste en douce à ied-p Et de Paris vous pensez qu'j'perds le nord vous êtes tous à l'ouest Faut qu'j'trouve à milli, debout de minuit à minuit MC j't'humilie ouais c'est la hass c'est miné Y'a de la s' dans les Cooper Mini J'fais sauter la caisse de la Sacem illico loco j'empeste le talent inouï L'holocauste c'est Hayce le best et weed-weed dans la veste charcle l'intestin d'Émile Louis Vibes à la martienne, mentalité malsaine, tu l'as dis dans marcel, parler de Hayce Lem' De Paname à Marseille, die sur la passerelle, punchline j'parsème, pét'Hayces m'harcèlent J'arrive en soum-soum aux anciens j'fous le seum J'suis le petit d'personne, personne moi j'me suis fait tout seul ah ah J'tape dans les tympans, j'tarte les tainps dans le rap J'élimine ton cartel en partant d'rien j'te démarre J't'écarte les pattes arrière dans le bat' ou l'hôtel Etap Arrêtez le rap de boloss tah rée-soi Tellement de victoires j'suis le battant, harbi l'rap d'aujourd'hui m'déçois Trop de merdes dans les bacs, hey les mecs on débarque En soum-soum easy, fils ici missile téléguidée, risque résines Obstinance brisée, triple six nous fixe en silence Misez, sur patience et dire en viendra le caviar Le dernier rappeur que j'ai vu rêvait de la paye d'un guetteur plein-phare Zina atini tilifoune dialek, étonnée de mon foutu dialecte Épaulé par mes fous d'la rue, j'prends le mic' t'es foutu direct On connais les fous d'la rue, t'arme pas si t'as peur de tirer J'rap à la vitesse d'une kalash russe CanonHayceLemscié Reprise de volée dans la bouche, extirpe les violets de la poche harboush Comme Sniper j'suis gravé dans la roche, comme Solaar faut j'cartouche la fille de Partouche Quoi ? J'peux crier vida loca, sans jouer les mecs de la Mara Les rappeurs que tu kiffes tellement tapent tous dans la selha lalala bawawa Fuck le calendrier Maya, Oba-marionnette Sarko, toutes les eaux sont couleurs noyades Les infos manquent pas d'fiction, les nymphos manquent d'affections Trop d'intraveineuses injections, j'ai traumatisé l'ingé' son Fiston y'a pas d'henné dans mon Paki trop de llets-bi dans ma pocket C'est la guerre je vois tout en kaki, pouki demande as-p le prix de la plaquette Ton équipe raconte que des pipeaux personne va sortir l'nine J'te ferais pas tourner mes bimbos, bicot tu les baiserais mal Ah ouais ! La symphonie des chargeurs bicot Hay-Hay-Hayce OK La symphonie des chargeurs Dissèque le beat, c'est le YZ du stylo BIC Sadek débarque dans l'game comme la peste ou bien les Beatles J'distribue les middles dans la tête des vétérans Si j'saute dans la foule j'risquerais d'canner tout l'premier rang Flow, drive by, gros t'es die bye bye Tu veux qu'on gagne ? Passe moi la balle Dans l'rap j'me sens comme Cristiano qui joue au Galatasaray As-salâm 'aleïkoum, je sais bien qu'tu m'écoutes 4 ans dans une cave, il est temps que j'sorte des égouts J'suis resté sur le té-cô, jeté comme un mégot Maintenant j'ai l'flow d'une montagne quand j'rap j'entends des échos Jordan de la punchline, ils sont démodés comme Eck Ils sont là pour la déco ValérieDamidot J'suis là pour faire des classiques QuentinTarantino Tu chantes devant les chtars hein ? BobbyValentino Du flow ? J'en ai des kilos, les mc's veulent me perquis' Faudrait qu'j'me mette au vert comme un joueur des Celtics Ou plutôt dans le mauve, j'te parle que d'billets d'500 T'as plus rien à la Sacem ? Bah putain ça s'sent J'ai fait l'école buissonnière, rien a foutre d'la New School J'suis un 93 baby, la rue n'a pas fait d'fausse couche Sur l'terrain on est posté, dans mon crâne c'est Moscou Enfermé dans un cauchemar où l'Sheitan crie au secours Et j'me reveille à l'hosto, Sadek c'est du costaud J'baise tout j'me barre au Mexique, la hass ? No conozco La symphonie des chargeurs va la prendre avant de t'faire cartoucher ma gueule La symphonie des chargeurs, tu connais La symphonie des chargeurs F.A Baby, tu connais Baby baby no more T'inquiete mon pote, le 27 allez chercher ca Guette ! On connais pas la peur, ni les balles à blancs On n'aime pas tes rappeurs, c'est des délateurs, on les remet à la danse On a la classe, on a la 'zic, on a la tech' On analyse, on a la win, on a rage, on a plus d'laisse O.K On peut te tacler, te taper, te piquer bêtement tes sapes Cap vert, hotel ETAP avec ton sang sur mes sabres Ils sont tous rincés, le contexte est acide L'institut c'est ainsi, c'est bondé qu'on se rassieds Des putains d'crimes que l'on commet L'institut frappe nigga quand même Crois pas que t'es chan-mé, t'es camé On peut te couler comme the might On a la haine contre les keufs qu'on vient d'croiser bete de décors On s'fait du biff' sous les portes Si tu joues au bête, on t'égorges Y'a pas d' léki ??, v'la l'union d'l'équipe Nouvelle Ecole, click it, nigga, on t'liquide Et moi c'est S ou l'best des bests Le mec de tess, avec une paire de .. 2012, cherche à faire grimper ton chiffre d'affaires J'sais pas, développe des p'tites affaires, en vrai, faut, y'a du fric à faire Reste focus, un faux-cul peut faire de toi un taulard À 2-3 bitchs? J'préfère rentrer 2-3 dollards ! Meilleurs voeux! Tu sors ta meilleure beuh Cannabis mec, on skouat pas disney, on tape pas l'17 C'est XXX mon pote Six o'clock, si cette toc tape à ta porte mon pote 6-35 dans ta face c'est pas un movie Bouge vite si tu veux pas danser I like to move it Vite citer, vite friquer, vite fliquer Vite si t'es vif de commettre des fuites, tu peux t'faire vite niquer Ici c'est taxes sociales, tas d'tos-ma Tas d'clochards, tas d'cocards et tas d'cocards Parfois même des baffes d'Oscar Yeah, pas besoin d'bloqué dans un sas nigga Rien ne sers d'avoir dla chatte, vaux mieux avoir un schlass ! F.A babyyyy B.I.L.E.L La street pour ceux qui la vivent B.I.L La symphonie des chargeurs B.I.L.E.L Tcheck Tcheck Ça va faire ça bien pour l'poto F.A.B Tcheck J'te parle de la rue comme un nudiste parlerait d'pudeur 5 kills de pur j'les liquident en 48 h Riche grâce au rap, ils sont dingues la tête de oi-m Dites aux rappeurs de passer m'voir en c'moment j'ai d'la bête de one Qui compte concurrencer sera fumé dans sa lancée J'suis pas la relève du rap francais Trou du cul j'suis le rap français B.I.L.E.L impitoyable comme Derek Inaccessible comme tes rêves Juste de passage comme tes règles B.I.L.E.L impitoyable comme Derek Inaccessible comme tes rêves Juste de passage comme tes règles Burk-burk-burk, j'suis dégueu-dégueulasse Mais la street m'aime comme a-ç donc ferme ta gueule connasse Trop d'principes j'suis pas d'ceux qui s'plient comme un clic-clac Si t'm'aimes pas met toi quatre doigts et j'sais pas si tu feras des Kit Kat Regarde les ces bouffons ils sont pas crédibles Demande à Landry on fait pas l'mouton quand on a boucher au bout du fil Ils rêvent de m'freiner, j'compte plus les bâtons dans mes roues De toute façon si le rap ça marche as-p j'finirais baron dans l'héro J'avoue que j'suis passionné j'viendrais kicker sur ta 'tape XXX me veut en feat je compte coûter les yeux d'la tête Wesh on n'est pas là tu m'étonnes qu'les souris breakent Sur le terrain j'ai du faire mes prouves vu que l'couilles s'trouvent pas sur eBay Vaut mieux être un loup chez les chiens, qu'un chien au sein des tigres J'suis à la recherche d'un chimiste pour faire sniffer d'la synthétique 5 grammes dans l'fessier c'est plus des culs c'est des sacs de sport Vaut mieux être dans le h'rm que faire d' la peine en SaxoSport Haïs dans l'game comme Mouammar à Tripoli Parce que j'ai pas été très poli en prenant leur buzz comme trampoline J'ai pas ce que je mérite comment faire pour rester tranquille ? XXX se battent pour un stick J'compte les mettre sur 30 kills S'mélanger c'est tendre la main à des piranhas La vie c'est un répondeur les hypocrites parlent quand t'es pas là J'ai pas besoin qu'on m'aime ni que j'crève pour qu'on m'regrette Plus rien m'fait bander j'suis comme Dutroux en maison d'retraite Naturellement vrai pourquoi me déguiser ? Bien sûr que ça va percer, car les punchlines sont aiguisées Scande pas la rue si t'y as traîné 48 heures Tu rappes comme un gangster, mais on te suit que sur Twitter B.I.L.E.L OK Eh Volts Face vieux Volts Face Le 75 en lui-même Les frères lumières Eh F.A.B.A.B.Y, tu connais Ah on est là, OK OK, eh OK Volts Face vieux le 75 Volts Face vieux le 75 Volts Face vieux le 75 Volts Face vieux, OK À lécole cétait la merde, j'traînais pour aller pécher Les keufs essayaient dnous laver, jpassais mes journées à sécher Négro ça vient dPaname Jpasse mes nuits à lhôpital, jécris des trucs de malade Quand jsuis perdu dans ma tête, jprie ou bien jme balade Wesh faites des livres qui parlent de bouffe vous racontez tous des salades Hayce te met à la page Dites au marchand dsable daller chercher du taf à la plage Le sexe mimporte peu, jai du bif' que pour la mif Ça joue les durs à cuire mais ça met ses potes au feu Jai arrêté lécole, jai déconné Les meufs cest comme les paroles cainris que jchante C'est jamais les bonnes, jai trop donné Jveux avancer, jcompte pas rester bader Mon avenir est comme ma coupe en gros il est dégradé Elles jouent les chaudes, elles ont la fouf toute givrée Même en nous voyant, on peut voir quon va tous vous gifler Ça vient dPaname, jreprésente car cest la dèche Jmentraîne à placer des bananes, toi tu peux garder la pêche Lamour cest dla merde, Cupidon nexiste plus Quest-ce tu veux qujte dise de plus à part qucétait un fils de pute ? Parait qu't'as un femelle mais personne la voit J'avance seul, j'suis comme Jamel gros j'ai pas d'bras droit J'ai la flemme et j'me gamèle, ouais j'suis maladroit Pétasse parait qu'tu m'aimes c'est bizarre j'ai du mal à te croire J'ai des problèmes, c'est vrai mais j'veux pas tiser Comme une rupture de stock, sache que la vie m'a épuisé XXX c'est d'la merde, j'vais lui mettre un tarif Aujourd'hui ils m'crachent dessus et demain ils lècheront ma salive J'suis la foudre dans la tempête gros, les gens moi j'les rends bête J'lâche un texte légendaire et j'prends la poudre d'escampette Et j'fais c'que j'ai à faire ouais quand j'ai un truc en tête J'rends fou les inspecteurs ils m'lâchent dès le début d'l'enquête Tu peux pas ve-squi la mort et ses procédés T'as beau jamais faire de disques tu vas finir par décéder Faut qu'j'rime, c'est moi l'vrai acteur du film J'connais mieux les vices que l'créateur de jean J'suis trop pensif, negro j'passe à l'offensif On s'mange des grosses peines, on vient des quartiers sensibles Moi j'reste tranquille, au tier-quar y'a pas qu'des pinces Pétasse tu trouveras pas le bon même si t'habite au Parc des Princes Elle t'aime mais toi tu sais pas Ton amour c'est du chocolat en gros quand elle est nue t'es là En vrai ça m'est égal, si t'es pas mon grand décale Quand une pute écarte les jambes c'est pas pour faire le grand écart Ils jouent hein, ma tête on va les caner Bébé j'te conserve que si en boite tu t'fais recaler J'ai des punchlines trop chaudes, que des grosses chattes trop en sang Paire de Air Max aux ieds-p, tout mes khos tapent dans l'vent J'ai les cros cette année, que des gros chèques calés Ramène ton biff, marre de voir les grosses têtes damer gros Volts Face on est là, F.A.Baby Fait péter on est là gros on est là N'oublie pas ry-Fleu, ne-Fre, la té-San, Osny, Bois-d'Ar Parson, Kekette, Chalmy, tout le monde tous les frères sont bés-tom l'Escroc On est là frère Aïe aïe aïe La Tache XV Barbare XV Barbare les mecs on est là Symphonie des chargeurs dans les bacs et dans les blocs F.A.B.A.B.Y F.A.B.A.B.Y F.A.B.A.B.Y F.A.B.A.B.Y F.A.B.A.B.Y Wa, wa, waw Il parle mal le physio S'il revient pas taffer demain c'est qu'mes gars l'ont fusillé, boy Les p'tits pour insulter les chtars ils se sont jamais retenus J'ai vu des frères nous dire au revoir, ils n'sont jamais revenus Les baltringues ouvrent le bal, les calibres veulent qu'on danse Tes potos t'fument dans la piscine, parce que la vengeance est étanche On taf dans l'ombre juste pour fuir l'anonymat Dans l'9.3 on appelle pas l'17 c'est pas dans la Sunna Dis aux femmes qu'on sourit plus une fois qu'on baisse les rideaux J'arrête le rap pour faire la guerre, j'ai plus d'ennemis que d'rivaux J'ai pris le mic' avec des couilles et du cran, han Dis pas à un nain qu'il comprendra quand il sera grand, oh F.A.B.A.B.Y Symphonie des chargeurs OK, la famille on est ensemble il y a pas d'traîtres Te penche pas sur notre cas on viendra te prendre en levrette2</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>x6 Trop d'llet-bi dans my pocket Pas d'henné sur mon paki Trop d'bénéf sur chaque plaquette L'arsenal est dans l'parking Trop d'puquito dans l'quartier Trop d'aller retour au parquet Mes bicos préparent le crime parfait Ok, trop d'llet-bi dans my pocket Trop d'minikes et d'chrome par tête J'te nique ta mère appelle Clark Kent Moi j'ai trop d'llet-bi dans my pocket Trop d'llet-bi dans my pocket Lima, Echo, Mick, Sierra, India dans l'coffee Trop d'mes frères ont pris perpet' Ok moi j'ai trop d'llet-bi dans my pocket x6 Trop d'llet-bi dans my pocket Tu connais pas Hayce Paname te renseigne J'arrive avec 4 bouteilles de rosay Mes pet'Hayces pas comprendre le françay Bico moi j'ai trop d'llet-bi dans my pocket Trop d'llet-bi dans my pocket Alors comment vont mes zouzous D'Alger, Wahran, Tizi'ouzou Tahia DZ pour toujours 3.5.7 mon nouveau joujou Demande à Guigui Bass ou Fofo Ton équipe de vrais p'tits bouts d'chous Bitch I'm coming to you Elle veut pas d'toi frère t'es tout mou Bico j'ai trop d'llet-bi dans my pocket You might also like x3 Y'a des litres à transporter, des poucaves à défourailler Pas facile de porter ses couilles face à l'Algérien fou à lier Des litres à transporter, des poucaves à défourailler Pas facile de porter ses couilles face à l'Algérien fou à lier x5 Trop d'llet-bi dans my pocket</t>
+          <t>x6 Trop d'llet-bi dans my pocket Pas d'henné sur mon paki Trop d'bénéf sur chaque plaquette L'arsenal est dans l'parking Trop d'puquito dans l'quartier Trop d'aller retour au parquet Mes bicos préparent le crime parfait Ok, trop d'llet-bi dans my pocket Trop d'minikes et d'chrome par tête J'te nique ta mère appelle Clark Kent Moi j'ai trop d'llet-bi dans my pocket Trop d'llet-bi dans my pocket Lima, Echo, Mick, Sierra, India dans l'coffee Trop d'mes frères ont pris perpet' Ok moi j'ai trop d'llet-bi dans my pocket x6 Trop d'llet-bi dans my pocket Tu connais pas Hayce Paname te renseigne J'arrive avec 4 bouteilles de rosay Mes pet'Hayces pas comprendre le françay Bico moi j'ai trop d'llet-bi dans my pocket Trop d'llet-bi dans my pocket Alors comment vont mes zouzous D'Alger, Wahran, Tizi'ouzou Tahia DZ pour toujours 3.5.7 mon nouveau joujou Demande à Guigui Bass ou Fofo Ton équipe de vrais p'tits bouts d'chous Bitch I'm coming to you Elle veut pas d'toi frère t'es tout mou Bico j'ai trop d'llet-bi dans my pocket x3 Y'a des litres à transporter, des poucaves à défourailler Pas facile de porter ses couilles face à l'Algérien fou à lier Des litres à transporter, des poucaves à défourailler Pas facile de porter ses couilles face à l'Algérien fou à lier x5 Trop d'llet-bi dans my pocket</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>L'escalier pue la pisse, et je penche comme la Tour de Pise Et je reste dans ma bêtise, mon biko j'suis fayayaya Dans ma cité c'est la crise, c'est reparti pour un tour de piste J'entends les sirènes de police j'en ai marre ya yema J'ai les mains moites, j'ai froid, j'ai faim, je tremble, j'sens plus rien Je n'ai même plus d'feuilles, y'a plus d'train Je n'ai plus d'limites, j'n'ai plus d'frein Je ne m'endors plus, j'm'écroule lorsque la fatigue à raison d'moi En ce moment j'fais beaucoup de gardav' si t'es vraiment mon reufré raisonne moi Quelques litres dans le sac à dos Et je laisse une phrase gribouillée sur un rythme saccadé Je n'ai ni l'vécu d'Pablo, ni le tos-ma d'El Chapo Mais je sais qu'la faucheuse finira bien par me rencarder Musique ma gasolina, faites de la place au winner J'passe du Chivas au Ruinart, 17 ans saleté de dealer J'écris des vers tard le soir, j'prépare des freestyles d'killer Y'a des perquis' tah le SWAT, des toxicomanes qui meurent Paris c'est dégueu tout le monde se déteste J'y pense en fumant mon joint quand je fais l'tour de la tess Derrière moi j'laisse toujours vapeur de fumée très épaisse Je n'ai qu'une parole, je fais c'que j'dis je suis un vrai DZ Je m'demande si les temps changent ou si les gens changent avec le change Si les gens changent avec le temps, deviennent parano y'a qu'avec le chanvre J'ai une bastos dans la chambre et une bastos dans ma chambre En freestyle tu rêves de m'charcler, j'ai toujours un seize de rechange Tes loss-bo sont tombé de haut car il n'aime pas trop ton nouveau bédo Ta racli t'a tourné le dos car elle n'aime pas trop tes nouveaux potos A la recherche d'une offre alléchante, d'une injection dans les jambes T'as douillé les gens, t'étais éméché, l'jour où t'es à jeun rafale dans tes jambes J'étais dépité, j'ai vu le regard des tirailleurs en costume Niquez vos mères je ne veux pas d'une médaille d'honneur à titre posthume Poussière d'étoile à traversée vents et marées Poussière d'étoile ne te laisse pas le temps d'souffler pour démarrer Poussière d'étoile aura toujours de l'espoir à revendre Poussière d'étoile sait ce que c'est qu'la dalle au point d'avoir mal au ventreYou might also like</t>
+          <t>L'escalier pue la pisse, et je penche comme la Tour de Pise Et je reste dans ma bêtise, mon biko j'suis fayayaya Dans ma cité c'est la crise, c'est reparti pour un tour de piste J'entends les sirènes de police j'en ai marre ya yema J'ai les mains moites, j'ai froid, j'ai faim, je tremble, j'sens plus rien Je n'ai même plus d'feuilles, y'a plus d'train Je n'ai plus d'limites, j'n'ai plus d'frein Je ne m'endors plus, j'm'écroule lorsque la fatigue à raison d'moi En ce moment j'fais beaucoup de gardav' si t'es vraiment mon reufré raisonne moi Quelques litres dans le sac à dos Et je laisse une phrase gribouillée sur un rythme saccadé Je n'ai ni l'vécu d'Pablo, ni le tos-ma d'El Chapo Mais je sais qu'la faucheuse finira bien par me rencarder Musique ma gasolina, faites de la place au winner J'passe du Chivas au Ruinart, 17 ans saleté de dealer J'écris des vers tard le soir, j'prépare des freestyles d'killer Y'a des perquis' tah le SWAT, des toxicomanes qui meurent Paris c'est dégueu tout le monde se déteste J'y pense en fumant mon joint quand je fais l'tour de la tess Derrière moi j'laisse toujours vapeur de fumée très épaisse Je n'ai qu'une parole, je fais c'que j'dis je suis un vrai DZ Je m'demande si les temps changent ou si les gens changent avec le change Si les gens changent avec le temps, deviennent parano y'a qu'avec le chanvre J'ai une bastos dans la chambre et une bastos dans ma chambre En freestyle tu rêves de m'charcler, j'ai toujours un seize de rechange Tes loss-bo sont tombé de haut car il n'aime pas trop ton nouveau bédo Ta racli t'a tourné le dos car elle n'aime pas trop tes nouveaux potos A la recherche d'une offre alléchante, d'une injection dans les jambes T'as douillé les gens, t'étais éméché, l'jour où t'es à jeun rafale dans tes jambes J'étais dépité, j'ai vu le regard des tirailleurs en costume Niquez vos mères je ne veux pas d'une médaille d'honneur à titre posthume Poussière d'étoile à traversée vents et marées Poussière d'étoile ne te laisse pas le temps d'souffler pour démarrer Poussière d'étoile aura toujours de l'espoir à revendre Poussière d'étoile sait ce que c'est qu'la dalle au point d'avoir mal au ventre</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Enseveli de soucis jusque sous l'oreiller J'avance les souliers troués les chaussettes dépareillées Puis je passe de l'ombre à la lumière la roue tourne plus vite que le barillet La musique me sépare de mes amis j'les aime trop j'pourrais le crier Young Boss, oh oui ! Pompe chargé, Bang Bang on you ! Young Boss, oh oui ! Pompe chargé, Bang Bang on you ! Toujours en cernes, en cess, en weed c'est le retour de l'insomniaque, on you ! Young Boss oh oui, Bang Bang on you ! L'erreur est humaine, la kalash aussi, j'suis le porte-parole de Lutèce la ville escargot J'ai l'art et la manière de réaliser l'impossible, Lokos, Lokas me localisent dans tout l'hexagone Pompe chargé, Bang Bang oh you ! J'arrive dans ta ville j'suis carpo T'as même pas vendu de gramme tu parle de Cargo, j'ai gratté ma mélancolie sur la feuille de pavot Young Boss oh oui ! L'espoir choque ton crew d'sodomite Deux doigts dans la prise une main sur le mic, One shot tu reviens demain pour le mix C'est le retour d'l'insomniaque oh you ! Dans la rue qu'on a fréquentés pas de modèles Tout niquer dans la vie c'est le mot d'ordre, travail à la chaîne en bon esclave moderne Yeah Hoe ! Yeah Hoe ! Yeah Hoe ! Yeah Hoe ! Tu passes en brabus à l'arrêt d'bus Henri Barbus mon biko t'abuses, ton démon te monte au sommet d'la côte Argus Le monde est à nous, le monde est à nous ! J'suis toujours solitaire, crocs blancs Chaque fois qu'j'ai sorti mon drapeau vert, ces putes ont sorti leur drapeau blanc Enseveli de soucis jusque sous l'oreiller J'avance les souliers troués les chaussettes dépareillées Puis je passe de l'ombre à la lumière la roue tourne plus vite que le barillet La musique me sépare de mes amis j'les aime trop j'pourrais le crier Young Boss, oh oui ! Pompe chargé Bang Bang oh you ! Young Boss, oh oui ! Pompe chargé Bang Bang oh you ! Toujours en cernes, en cess, en weed c'est le retour de l'insomniaque, oh you ! Young Boss oh oui ! Bang Bang, oh you ! Nan, j'n'ai pas grandi dans la soie, j'n'ai pas connu le lycée, la fac littéraire Nan, du sommet d'ma tour d'ivoire j'contrôlais la ne-zo leader invétéré Les vérités sont toujours mal à dire, vous négligez ceux qui combattent une maladie Je n'ai qu'la mélodie, je n'aime pas ralentir, j'aime passer les rapports avec les yeux bandés Squaa Je vais les anéantir, ils passent leur vie à mentir Vous m'avez jeté des pierres mais je m'en suis servi pour bâtir un empire Squaa C'est l'hayce de trèfle, j'te pique à la carotide J'suis ton cauchemar et ton rêve, qu'est-ce qu'elle ferait pour grimper dans le AMG ? Elle est matérialiste et ça me gène, elle aime le champaign et la MD Si demain je tombe, est-ce qu'elle m'aidera à me relever? Nan, elle me laissera tomber Enseveli de soucis jusque sous l'oreiller J'avance les souliers troués les chaussettes dépareillées Puis je passe de l'ombre à la lumière la roue tourne plus vite que le barillet La musique me sépare de mes amis j'les aime trop j'pourrais le crier Young Boss, oh oui ! Pompe chargé Bang Bang oh you ! Young Boss, oh oui ! Pompe chargé Bang Bang oh you ! Toujours en cernes, en cess, en weed c'est le retour de l'insomniaque, oh you ! Young Boss, oh oui ! Bang Bang, oh you ! Ces bikos parlent beaucoup trop à mon goût ! Vous cherchez quoi !? Bang Bang Oh You ! Skurt, Electron LibreYou might also like1</t>
+          <t>Enseveli de soucis jusque sous l'oreiller J'avance les souliers troués les chaussettes dépareillées Puis je passe de l'ombre à la lumière la roue tourne plus vite que le barillet La musique me sépare de mes amis j'les aime trop j'pourrais le crier Young Boss, oh oui ! Pompe chargé, Bang Bang on you ! Young Boss, oh oui ! Pompe chargé, Bang Bang on you ! Toujours en cernes, en cess, en weed c'est le retour de l'insomniaque, on you ! Young Boss oh oui, Bang Bang on you ! L'erreur est humaine, la kalash aussi, j'suis le porte-parole de Lutèce la ville escargot J'ai l'art et la manière de réaliser l'impossible, Lokos, Lokas me localisent dans tout l'hexagone Pompe chargé, Bang Bang oh you ! J'arrive dans ta ville j'suis carpo T'as même pas vendu de gramme tu parle de Cargo, j'ai gratté ma mélancolie sur la feuille de pavot Young Boss oh oui ! L'espoir choque ton crew d'sodomite Deux doigts dans la prise une main sur le mic, One shot tu reviens demain pour le mix C'est le retour d'l'insomniaque oh you ! Dans la rue qu'on a fréquentés pas de modèles Tout niquer dans la vie c'est le mot d'ordre, travail à la chaîne en bon esclave moderne Yeah Hoe ! Yeah Hoe ! Yeah Hoe ! Yeah Hoe ! Tu passes en brabus à l'arrêt d'bus Henri Barbus mon biko t'abuses, ton démon te monte au sommet d'la côte Argus Le monde est à nous, le monde est à nous ! J'suis toujours solitaire, crocs blancs Chaque fois qu'j'ai sorti mon drapeau vert, ces putes ont sorti leur drapeau blanc Enseveli de soucis jusque sous l'oreiller J'avance les souliers troués les chaussettes dépareillées Puis je passe de l'ombre à la lumière la roue tourne plus vite que le barillet La musique me sépare de mes amis j'les aime trop j'pourrais le crier Young Boss, oh oui ! Pompe chargé Bang Bang oh you ! Young Boss, oh oui ! Pompe chargé Bang Bang oh you ! Toujours en cernes, en cess, en weed c'est le retour de l'insomniaque, oh you ! Young Boss oh oui ! Bang Bang, oh you ! Nan, j'n'ai pas grandi dans la soie, j'n'ai pas connu le lycée, la fac littéraire Nan, du sommet d'ma tour d'ivoire j'contrôlais la ne-zo leader invétéré Les vérités sont toujours mal à dire, vous négligez ceux qui combattent une maladie Je n'ai qu'la mélodie, je n'aime pas ralentir, j'aime passer les rapports avec les yeux bandés Squaa Je vais les anéantir, ils passent leur vie à mentir Vous m'avez jeté des pierres mais je m'en suis servi pour bâtir un empire Squaa C'est l'hayce de trèfle, j'te pique à la carotide J'suis ton cauchemar et ton rêve, qu'est-ce qu'elle ferait pour grimper dans le AMG ? Elle est matérialiste et ça me gène, elle aime le champaign et la MD Si demain je tombe, est-ce qu'elle m'aidera à me relever? Nan, elle me laissera tomber Enseveli de soucis jusque sous l'oreiller J'avance les souliers troués les chaussettes dépareillées Puis je passe de l'ombre à la lumière la roue tourne plus vite que le barillet La musique me sépare de mes amis j'les aime trop j'pourrais le crier Young Boss, oh oui ! Pompe chargé Bang Bang oh you ! Young Boss, oh oui ! Pompe chargé Bang Bang oh you ! Toujours en cernes, en cess, en weed c'est le retour de l'insomniaque, oh you ! Young Boss, oh oui ! Bang Bang, oh you ! Ces bikos parlent beaucoup trop à mon goût ! Vous cherchez quoi !? Bang Bang Oh You ! Skurt, Electron Libre1</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Il pensent rapper la street ils font du RB Ecoute les pensées d'un putain d'3arbi Ça pue la street mes locos foutent les balances à la fosse septique Grosse équipe, gros gamos, gros boloss tu vas crosser qui ? Je suis trop technique c'est inné les descentes et les courses poursuites avec Ino c'étais hella jusqu'a ce que, bref tu connais la suite Essuie ses larmes sur tes joues, j'ai, j'ai honte pour ta mère qui vie dans la peur compte ses jours et crèveras seule dans sa tanière Allez prévenir le taulier qu'il s'étonne pas que j'le monte en l'air J'v', j'vais tous les rafaler Kalashnikov gé-char sous le polaire Y'a l'bitume pour m'épauler dites à François qu'il pue sa mère Qu'on a besoin d'un peu d'air, de réponses pas juste d'un peut-être J'fume un peu d'herbe chimique, j'fais l'tour de la terre j'suis libre Algérien j'reste solide au front quand la guerre se livre Dans nos yeux la haine se lit, c'lui celui qui perd ses couilles on l'persécute Belzebuth veut que mes vers s'décuplent que j'perce des culs Sagittaire et trop nerveux, pour s'assagir on prend la route en solitaire 357 côté passager Il pensent rapper la street ils font du RB Grandir sur le bitume c'est se faire un tas d'ennemis Un million d'euros sans mélanger l'art et l'biz J'viens chanter amertume pour public averti averti, averti averti, averti Ils pensent rapper la street ils font du RB, RB, RB Dans tous les quartiers d'France on entend Hayce Lemsi You might also like J'viens faire de l'ombre a tous ces clones qui font les clowns pour la déco J'rappe pour mon clan, pour mes raclos qui patientent en mandat d'dépôt J'ai pas changé d'fusil d'épaule, lâche le mic, on t'a dépouillé dans les halls J'suis mal bico j'réside entre 2 pôles popopo Que des vérités sorties de l'opaque sur disque compact Les putos n'osent pas chiffrer dans la street et prient pour qu'on parte Ma clique c'est l'Afrique, j'ai l'sourire quand j'frappe un flic, tu m'invite ? Ok bico, c'est 17 000 le feat Prend la fuite, chie d'la fraîche ou reste en chien dans la ville des boches Bico j'sort de la file de gauche, j'les enterres a la pelle de guesh Wesh c'est auch t'a du cash ? Tout le monde te parle gentiment Passe de la richesse à la hass, tu sauras rapidement qui ment Comment nos parents s'cassent le dos depuis 20 piges ! putain Pour un pays qui subît moins de dégâts qu'il n'en inflige ! On vend du rêve on porte du cauchemar marre marre Errer dans c'monde comme une traînée dans un monde sans trottoirs Il pensent rapper la street ils font du RB Grandir sur le bitume c'est se faire un tas d'ennemis Un million d'euros sans mélanger l'art et l'biz J'viens chanter amertume pour public averti averti averti Ils pensent rapper la street ils font du RB, RB, RB Dans tous les quartiers d'France on entend Hayce Lemsi Le prochain puto qui se mêle de mes affaires j'lui baise sa mère Ils oublient que j'bosse pendant qu'ils somnolent, s'rappelleront seulement d'mon salaire J'te connais ap's tu veux pilote mes avions de c'hayce ? Mdr ! Fais ta pl'hayce, ou crève ta r'hayce t'étais pas là quand je mangeais des pierres Je suis déter' depuis minot bico pas réglo sur l'asphalte ce genre de pur parigot qui baise des pet'hayce dans la Smart Reste mignon l'respect s'mérite, touche au bonheur on vas s'battre puto ramène tout ton block une poignée d'hommes suffit comme à Sparte ! Parano parrainé par les pyromanes de Paris-Nord que des piranhas l'tireur a ses raisons que le marchand d'armes ignore Electron Libre mais paralysé par le taser tah les porcs j'me torche avec ton contrat d'artiste j'suis pas ta poule aux ufs d'or ! Il pensent rapper la street ils font du RB Grandir sur le bitume c'est se faire un tas d'ennemis Un million d'euros sans mélanger l'art et l'biz J'viens chanter amertume pour public averti averti averti Ils pensent rapper la street ils font du RB, RB, RB Dans tous les quartiers d'France on entend Hayce Lemsi RB, un tas d'ennemis, l'art et le biz Je viens chanter amertume pour public averti,averti,averti RB, RB, RB Dans tous les quartiers de France on entends Hayce Lemsi1</t>
+          <t>Il pensent rapper la street ils font du RB Ecoute les pensées d'un putain d'3arbi Ça pue la street mes locos foutent les balances à la fosse septique Grosse équipe, gros gamos, gros boloss tu vas crosser qui ? Je suis trop technique c'est inné les descentes et les courses poursuites avec Ino c'étais hella jusqu'a ce que, bref tu connais la suite Essuie ses larmes sur tes joues, j'ai, j'ai honte pour ta mère qui vie dans la peur compte ses jours et crèveras seule dans sa tanière Allez prévenir le taulier qu'il s'étonne pas que j'le monte en l'air J'v', j'vais tous les rafaler Kalashnikov gé-char sous le polaire Y'a l'bitume pour m'épauler dites à François qu'il pue sa mère Qu'on a besoin d'un peu d'air, de réponses pas juste d'un peut-être J'fume un peu d'herbe chimique, j'fais l'tour de la terre j'suis libre Algérien j'reste solide au front quand la guerre se livre Dans nos yeux la haine se lit, c'lui celui qui perd ses couilles on l'persécute Belzebuth veut que mes vers s'décuplent que j'perce des culs Sagittaire et trop nerveux, pour s'assagir on prend la route en solitaire 357 côté passager Il pensent rapper la street ils font du RB Grandir sur le bitume c'est se faire un tas d'ennemis Un million d'euros sans mélanger l'art et l'biz J'viens chanter amertume pour public averti averti, averti averti, averti Ils pensent rapper la street ils font du RB, RB, RB Dans tous les quartiers d'France on entend Hayce Lemsi J'viens faire de l'ombre a tous ces clones qui font les clowns pour la déco J'rappe pour mon clan, pour mes raclos qui patientent en mandat d'dépôt J'ai pas changé d'fusil d'épaule, lâche le mic, on t'a dépouillé dans les halls J'suis mal bico j'réside entre 2 pôles popopo Que des vérités sorties de l'opaque sur disque compact Les putos n'osent pas chiffrer dans la street et prient pour qu'on parte Ma clique c'est l'Afrique, j'ai l'sourire quand j'frappe un flic, tu m'invite ? Ok bico, c'est 17 000 le feat Prend la fuite, chie d'la fraîche ou reste en chien dans la ville des boches Bico j'sort de la file de gauche, j'les enterres a la pelle de guesh Wesh c'est auch t'a du cash ? Tout le monde te parle gentiment Passe de la richesse à la hass, tu sauras rapidement qui ment Comment nos parents s'cassent le dos depuis 20 piges ! putain Pour un pays qui subît moins de dégâts qu'il n'en inflige ! On vend du rêve on porte du cauchemar marre marre Errer dans c'monde comme une traînée dans un monde sans trottoirs Il pensent rapper la street ils font du RB Grandir sur le bitume c'est se faire un tas d'ennemis Un million d'euros sans mélanger l'art et l'biz J'viens chanter amertume pour public averti averti averti Ils pensent rapper la street ils font du RB, RB, RB Dans tous les quartiers d'France on entend Hayce Lemsi Le prochain puto qui se mêle de mes affaires j'lui baise sa mère Ils oublient que j'bosse pendant qu'ils somnolent, s'rappelleront seulement d'mon salaire J'te connais ap's tu veux pilote mes avions de c'hayce ? Mdr ! Fais ta pl'hayce, ou crève ta r'hayce t'étais pas là quand je mangeais des pierres Je suis déter' depuis minot bico pas réglo sur l'asphalte ce genre de pur parigot qui baise des pet'hayce dans la Smart Reste mignon l'respect s'mérite, touche au bonheur on vas s'battre puto ramène tout ton block une poignée d'hommes suffit comme à Sparte ! Parano parrainé par les pyromanes de Paris-Nord que des piranhas l'tireur a ses raisons que le marchand d'armes ignore Electron Libre mais paralysé par le taser tah les porcs j'me torche avec ton contrat d'artiste j'suis pas ta poule aux ufs d'or ! Il pensent rapper la street ils font du RB Grandir sur le bitume c'est se faire un tas d'ennemis Un million d'euros sans mélanger l'art et l'biz J'viens chanter amertume pour public averti averti averti Ils pensent rapper la street ils font du RB, RB, RB Dans tous les quartiers d'France on entend Hayce Lemsi RB, un tas d'ennemis, l'art et le biz Je viens chanter amertume pour public averti,averti,averti RB, RB, RB Dans tous les quartiers de France on entends Hayce Lemsi1</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Mes bikos blakos blankos lokos ne respecteront pas les lois Tant qu'ils voudront porter l'or que portent les rois Je suis cet artiste tristement heureux, des euros crades porteront ses 10 strass Avant que les super-héros n'fassent crisser les roues motrices La main crispée sur le mic, un noeud dans le bide, les yeux dans le vide Dur, dur d'être insomniaque sur une avenue des plus morbides Comme l'astre sorti d'son orbite j'suis différent, j'suis cet étalon talentueux sans maréchal-ferrant Déféré dans la porcherie j'fais l'autruche et les grosses paluches de L'OPJ sur le clavier ne vont pas faire avouer ma ruche Tête à tête sur le gravier, ça part en vrille, trash La Fourche, La Tournave et la Jonquière, Avenue de Clichy, Hayce Lemsi On arrache plus les sacs, on les remplit Biko loko j'arpenterai les sentiers de la gloire quel qu'en soit le prix La dalle tah Anthony Hopkins, les douilles pleuvent il te faut plus que le parapluie de Mary Poppins Qu'ils me testent s'il peuvent, j'ai d'autres chattes à fouetter D'autres victoires à fêter pendant que la police rêve de preuves Les francs-maçons pensent connaître la date du générique de fin Pensent que le monde n'est qu'une partouze de patrimoine génétique putain Toutes ces conneries ça me fout la gerbe, lis Bien dans mon regard et tu comprendras que c'est la sère-mi Zehma tu braques biko ? Tu fais qu'engrainer les mineurs Pousses toi j'ai rencard avec la gloire 17 Boulevard des Winners Appelles-moi le marteau kickeur, des nuds de marin dans l'estomac Mon cancer du foie au goulot, j'ai rien d'un enfant de chur You might also like Comment veux-tu qu'on respecte les lois ? Biko je veux porter l'or que portent les rois De l'hémoglobine sur les mains, soir-ce j'vais faire une dinguerie les mecs retenez-moi Tout ira mieux demain, mais je t'en supplie sèche tes larmes yema J'ai Dieu comme seul témoin, j'fonce tout droit vers la file de gauche éloignez-moi Mes bronzés font de l'argent pour porter l'or des rois J'écrase le sablier du marchand pour ne plus dormir des mois Regarde les agents jouient des lois, les gens qui ont vu le vol témoignent On a le mord, on va te faire ravaler tes mots, Volts et oim Paris Nord c'est la pépinière, charcle la moelle épinière L'épiderme halé, charge à perte d'haleine, le pouls inerte Et puis merde, allez tous niquer vos mères les grandes chauves Trop de shlags sur l'avenue, pour ça que 20 jeunes sur 30 chaument Fument du shit jusqu'à voir des leprechauns Quand on débarque dans les quartiers chics, la came est blanche, le rire est jaune J'arrache la jupe de la JAP, tu jactes on débite sur la butte Rap anti-fils de pute qui bouffent le zeub' de Belzébuth Pas besoin du putain de Rockfeller pour me refaire furtif Dans ton appart' comme un félin je met le Rottweiler sous somnifère L'hiver commet des crimes de sang-froid sur les clochards du trom' Sors de nul part, tu veux qu'on te pousses, t'as cru que c'était la foire du chrome ? Graille pas n'importe quelle escalope, fourre pas n'importe quelle petite Une salope te fais du shour, oublies le soleil des Tropiques Tout sous traitement thérapeutique ou judiciaire Je suis l'émissaire bouquet, ce rebeu type qui rêve de quitter l'hémisphère Mystérieux comme une bavure, de la Focus à la garde-à-vue J'pense à Azzedine qui m'a dit à plus jamais je ne l'ai revu C'est pas Roberto, c'est Carlos, qui te rentre des penaltys Chez nous Vic Mackey s'appelle Joyce, personne rêve de sauver Willy Ma communauté ne croît pas aux déesses Du mal a ves-qui ce bâtard d'Iblis vu qu'il nous promet le BM Le problème c'est la VL, on veut du LV, ils veulent relever l'ADN Dans mes veines, coule le sang d'algérien revendeur de haine Pas d'happy end, j'aime quand celui des jaloux gicle On va te marbrer si y'a des poucaves dans ton arbre généalogique MC tu veux vraiment savoir si j'ai commis des murders ? Ce que j'fais dans la street et même quelle couleur ma merde a ? Biko je veux .. que tu nous rejoignes sur Rap Genius bien sûr !5</t>
+          <t>Mes bikos blakos blankos lokos ne respecteront pas les lois Tant qu'ils voudront porter l'or que portent les rois Je suis cet artiste tristement heureux, des euros crades porteront ses 10 strass Avant que les super-héros n'fassent crisser les roues motrices La main crispée sur le mic, un noeud dans le bide, les yeux dans le vide Dur, dur d'être insomniaque sur une avenue des plus morbides Comme l'astre sorti d'son orbite j'suis différent, j'suis cet étalon talentueux sans maréchal-ferrant Déféré dans la porcherie j'fais l'autruche et les grosses paluches de L'OPJ sur le clavier ne vont pas faire avouer ma ruche Tête à tête sur le gravier, ça part en vrille, trash La Fourche, La Tournave et la Jonquière, Avenue de Clichy, Hayce Lemsi On arrache plus les sacs, on les remplit Biko loko j'arpenterai les sentiers de la gloire quel qu'en soit le prix La dalle tah Anthony Hopkins, les douilles pleuvent il te faut plus que le parapluie de Mary Poppins Qu'ils me testent s'il peuvent, j'ai d'autres chattes à fouetter D'autres victoires à fêter pendant que la police rêve de preuves Les francs-maçons pensent connaître la date du générique de fin Pensent que le monde n'est qu'une partouze de patrimoine génétique putain Toutes ces conneries ça me fout la gerbe, lis Bien dans mon regard et tu comprendras que c'est la sère-mi Zehma tu braques biko ? Tu fais qu'engrainer les mineurs Pousses toi j'ai rencard avec la gloire 17 Boulevard des Winners Appelles-moi le marteau kickeur, des nuds de marin dans l'estomac Mon cancer du foie au goulot, j'ai rien d'un enfant de chur Comment veux-tu qu'on respecte les lois ? Biko je veux porter l'or que portent les rois De l'hémoglobine sur les mains, soir-ce j'vais faire une dinguerie les mecs retenez-moi Tout ira mieux demain, mais je t'en supplie sèche tes larmes yema J'ai Dieu comme seul témoin, j'fonce tout droit vers la file de gauche éloignez-moi Mes bronzés font de l'argent pour porter l'or des rois J'écrase le sablier du marchand pour ne plus dormir des mois Regarde les agents jouient des lois, les gens qui ont vu le vol témoignent On a le mord, on va te faire ravaler tes mots, Volts et oim Paris Nord c'est la pépinière, charcle la moelle épinière L'épiderme halé, charge à perte d'haleine, le pouls inerte Et puis merde, allez tous niquer vos mères les grandes chauves Trop de shlags sur l'avenue, pour ça que 20 jeunes sur 30 chaument Fument du shit jusqu'à voir des leprechauns Quand on débarque dans les quartiers chics, la came est blanche, le rire est jaune J'arrache la jupe de la JAP, tu jactes on débite sur la butte Rap anti-fils de pute qui bouffent le zeub' de Belzébuth Pas besoin du putain de Rockfeller pour me refaire furtif Dans ton appart' comme un félin je met le Rottweiler sous somnifère L'hiver commet des crimes de sang-froid sur les clochards du trom' Sors de nul part, tu veux qu'on te pousses, t'as cru que c'était la foire du chrome ? Graille pas n'importe quelle escalope, fourre pas n'importe quelle petite Une salope te fais du shour, oublies le soleil des Tropiques Tout sous traitement thérapeutique ou judiciaire Je suis l'émissaire bouquet, ce rebeu type qui rêve de quitter l'hémisphère Mystérieux comme une bavure, de la Focus à la garde-à-vue J'pense à Azzedine qui m'a dit à plus jamais je ne l'ai revu C'est pas Roberto, c'est Carlos, qui te rentre des penaltys Chez nous Vic Mackey s'appelle Joyce, personne rêve de sauver Willy Ma communauté ne croît pas aux déesses Du mal a ves-qui ce bâtard d'Iblis vu qu'il nous promet le BM Le problème c'est la VL, on veut du LV, ils veulent relever l'ADN Dans mes veines, coule le sang d'algérien revendeur de haine Pas d'happy end, j'aime quand celui des jaloux gicle On va te marbrer si y'a des poucaves dans ton arbre généalogique MC tu veux vraiment savoir si j'ai commis des murders ? Ce que j'fais dans la street et même quelle couleur ma merde a ? Biko je veux .. que tu nous rejoignes sur Rap Genius bien sûr !5</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Elle est plutôt mignonette Mignonette, mignonette Elle a plus d'une marionnette Marionnette, marionnette Elle est plutôt visionnaire Visionnaire, visionnaire Elle recherche un millionnaire Millionnaire, millionnaire x2 Bitch, I dont care Bitch, I dont care Lâche mon Dom Per Cest pas la teille à ton père Elle recherche un millionnaire Une dot à un million net Elle a fait des kilomètres Pour faire de lui sa marionnette Elle aime les Bikos malhonnêtes Les suppléments mayonnaise Le Veuve Clicquot, la monnaie Elle fait monter lbaromètre Elle est souvent ivre daprès cque jentends Cette péthayce arrive toujours dans lcarré VIP en chantant Hola, moi cest Hayce le boss, enchanté Tu dis ne pas mconnaître mais tu fais semblant Argent, gloire et beauté, elle veut me ligoter Elle ne mérite pas mieux quun hôtel miteux rue Gauthey Elle peut pas chipoter, elle sait qujsuis coté Tu rêves de tfaire un blaze à travers mon épopée, poupée x2 Bitch, I dont care Bitch, I dont care Lâche mon Dom Per Cest pas la teille à ton père x2 Elle recherche un millionnaire Millionnaire, millionnaire Elle recherche un millionnaire Millionnaire, millionnaire Elle recherche un millionnaire Millionnaire, millionnaire Millionnaire, millionnaire Millionnaire, millionnaire Elle boit comme un homme Elle fait lamour comme une femme Une fois quelle a vidé ton magnum Elle prend la vie comme une fable Le champagne en fontaine pour madame Reconnue dans tous les clubs Et les grands hôtels de Marseille à Paname Tu cèdes à ses petits caprices Ses talents de petite actrice Elle te laisse une cicatrice Ou te ramène en psychatrie Elle recherche un millionnaire Toi tes juste une marionnette Quelle emmène chez Marionnaud Quelle mène à la baïonnette Tu sais plus sur quel pied danser D'puis qutes devenu son bolosse Elle attend qutu tfasses péter Pour péter les clés du gamos coupé L'genre de femme à redouter Tu rêves de tfaire un blaze à travers mon épopée, poupée x2 Bitch, I dont care Bitch, I dont care Lâche mon Dom Per Cest pas la teille à ton père Elle recherche un millionnaire Millionnaire, millionnaire Elle recherche un millionnaire Millionnaire, millionnaire Elle recherche un millionnaire Millionnaire, millionnaire Millionnaire, millionnaire Millionnaire, millionnaire x2 Bitch, I dont care Bitch, I dont care Lâche mon Dom Per Cest pas la teille à ton père Elle recherche un millionnaire Millionnaire, millionnaire Elle recherche un millionnaire Millionnaire, millionnaire Elle recherche un millionnaire Millionnaire, millionnaire Millionnaire, millionnaire Millionnaire, millionnaireYou might also like5</t>
+          <t>Elle est plutôt mignonette Mignonette, mignonette Elle a plus d'une marionnette Marionnette, marionnette Elle est plutôt visionnaire Visionnaire, visionnaire Elle recherche un millionnaire Millionnaire, millionnaire x2 Bitch, I dont care Bitch, I dont care Lâche mon Dom Per Cest pas la teille à ton père Elle recherche un millionnaire Une dot à un million net Elle a fait des kilomètres Pour faire de lui sa marionnette Elle aime les Bikos malhonnêtes Les suppléments mayonnaise Le Veuve Clicquot, la monnaie Elle fait monter lbaromètre Elle est souvent ivre daprès cque jentends Cette péthayce arrive toujours dans lcarré VIP en chantant Hola, moi cest Hayce le boss, enchanté Tu dis ne pas mconnaître mais tu fais semblant Argent, gloire et beauté, elle veut me ligoter Elle ne mérite pas mieux quun hôtel miteux rue Gauthey Elle peut pas chipoter, elle sait qujsuis coté Tu rêves de tfaire un blaze à travers mon épopée, poupée x2 Bitch, I dont care Bitch, I dont care Lâche mon Dom Per Cest pas la teille à ton père x2 Elle recherche un millionnaire Millionnaire, millionnaire Elle recherche un millionnaire Millionnaire, millionnaire Elle recherche un millionnaire Millionnaire, millionnaire Millionnaire, millionnaire Millionnaire, millionnaire Elle boit comme un homme Elle fait lamour comme une femme Une fois quelle a vidé ton magnum Elle prend la vie comme une fable Le champagne en fontaine pour madame Reconnue dans tous les clubs Et les grands hôtels de Marseille à Paname Tu cèdes à ses petits caprices Ses talents de petite actrice Elle te laisse une cicatrice Ou te ramène en psychatrie Elle recherche un millionnaire Toi tes juste une marionnette Quelle emmène chez Marionnaud Quelle mène à la baïonnette Tu sais plus sur quel pied danser D'puis qutes devenu son bolosse Elle attend qutu tfasses péter Pour péter les clés du gamos coupé L'genre de femme à redouter Tu rêves de tfaire un blaze à travers mon épopée, poupée x2 Bitch, I dont care Bitch, I dont care Lâche mon Dom Per Cest pas la teille à ton père Elle recherche un millionnaire Millionnaire, millionnaire Elle recherche un millionnaire Millionnaire, millionnaire Elle recherche un millionnaire Millionnaire, millionnaire Millionnaire, millionnaire Millionnaire, millionnaire x2 Bitch, I dont care Bitch, I dont care Lâche mon Dom Per Cest pas la teille à ton père Elle recherche un millionnaire Millionnaire, millionnaire Elle recherche un millionnaire Millionnaire, millionnaire Elle recherche un millionnaire Millionnaire, millionnaire Millionnaire, millionnaire Millionnaire, millionnaire5</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>La pomme ne tombe pas loin du pommier Y'a plus d'surveillant sur mon pallier Vais-je enfin terminer premier ? Faut qu'on organise une party, hey J'suis bé-tom, tu m'as tourné l'dos pour un autre Les masques tombent à chaque fois qu'ça pue les loves Pourquoi tu m'as poukie biko ? Pull in up Pull in up, pull in up, pull in up Loco, loca, nous qu'a fait Et j'bouge la, j'bouge la tête comme Waka Flocka Flame Tu veux ton gamos, ton Bentley Bah bouge-toi, bouge-toi l'cul mon loco, fuck la flemme J'voulais manier les mots comme Eminem Délit mineur, lamelle de caramelo Caramilla tu es plus jolie sans rimmel Ton père a mis la dot à 100.000 euros Tu n'es pas sincère, je le vois dans tes yeuz' Arrête ton cinéma, je sais quand tu mens Et même lorsque le chapitre est poussiéreux J'arrive à lire à travers tes sentiments Je fais la prise de l'ours à l'apiculteur Je me lèche les babines même au bord de la ruche Ton équipe de hyène passe un mauvais quart d'heure quand je les monte en l'air, c'est les montagnes russes On rêve d'accéder à la chambre forte Vois la vie sous damoiseau, chanvre fort Ouvre les portes du succès, j'suis téméraire Et nul n'a le pouvoir d'arrêter mes rêves Tout ira bien si c'est moi qui donne les ordres Trahison rime avec perceuse dans les os On retracera l'histoire à travers les hommes Et tu cherches le bonheur à travers les autres Enlève tout, je baisse les stores Casey Jones dans le bec, j'suis stone En promenade on a semé la discorde Allez fuck la gamelle, on est chef cuisto You might also like La pomme ne tombe pas loin du pommier Y'a plus d'surveillant sur mon pallier Vais-je enfin terminer premier ? Faut qu'on organise une party, hey J'suis bé-tom, tu m'as tourné l'dos pour un autre Les masques tombent à chaque fois qu'ça pue les loves Pourquoi tu m'as poukie biko ? Pull in up Pull in up, pull in up, pull in up Loco, loca, nous qu'a fait Et j'bouge la, j'bouge la tête comme Waka Flocka Flame Tu veux ton gamos, ton Bentley Bah bouge-toi, bouge-toi l'cul mon loco, fuck la flemme J't'envoie la kush après la gamelle, j'suis faya J'pose ma serviette en promenade, j'm'imagine à la playa Hey, j'm'imagine à la playa Vous rêvez d'me déstabiliser mais vous n'y arriverez pas, yah Le juge porte une fourrure de dalmatien, la procureur a des yeux de grenouille Incarcération, j'reste pragmatique, j'mets le fromage et le thon dans les nouilles On sait très bien qu'l'État nous baratine Alors on passe du stand de tir au grappling Mes locas m'ont localisés, sors à peine Deux feuilles de pinapple et j'tiens la carabine J'sais parler aux femmes depuis mes premiers pas Ma chérie je t'aime mais j'te le dirai pas Un p'tit côté Cloclo, j'boirai tout le Nil si tu n'me reviens pas La pomme ne tombe pas loin du pommier Y'a plus d'surveillant sur mon pallier Vais-je enfin terminer premier ? Faut qu'on organise une party, hey J'suis bé-tom, tu m'as tourné l'dos pour un autre Les masques tombent à chaque fois qu'ça pue les loves Pourquoi tu m'as poukie biko ? Pull in up Pull in up, pull in up, pull in up Loco, loca, nous qu'a fait Et j'bouge la, j'bouge la tête comme Waka Flocka Flame Tu veux ton gamos, ton Bentley Bah bouge-toi, bouge-toi l'cul mon loco, fuck la flemme La pomme ne tombe pas loin du pommier Y'a plus d'surveillant sur mon pallier Vais-je enfin terminer premier ? Faut qu'on organise une party, hey J'suis bé-tom, tu m'as tourné l'dos pour un autre Les masques tombent à chaque fois qu'ça pue les loves Pourquoi tu m'as poukie biko ? Pull in up Pull in up, pull in up, pull in up1</t>
+          <t>La pomme ne tombe pas loin du pommier Y'a plus d'surveillant sur mon pallier Vais-je enfin terminer premier ? Faut qu'on organise une party, hey J'suis bé-tom, tu m'as tourné l'dos pour un autre Les masques tombent à chaque fois qu'ça pue les loves Pourquoi tu m'as poukie biko ? Pull in up Pull in up, pull in up, pull in up Loco, loca, nous qu'a fait Et j'bouge la, j'bouge la tête comme Waka Flocka Flame Tu veux ton gamos, ton Bentley Bah bouge-toi, bouge-toi l'cul mon loco, fuck la flemme J'voulais manier les mots comme Eminem Délit mineur, lamelle de caramelo Caramilla tu es plus jolie sans rimmel Ton père a mis la dot à 100.000 euros Tu n'es pas sincère, je le vois dans tes yeuz' Arrête ton cinéma, je sais quand tu mens Et même lorsque le chapitre est poussiéreux J'arrive à lire à travers tes sentiments Je fais la prise de l'ours à l'apiculteur Je me lèche les babines même au bord de la ruche Ton équipe de hyène passe un mauvais quart d'heure quand je les monte en l'air, c'est les montagnes russes On rêve d'accéder à la chambre forte Vois la vie sous damoiseau, chanvre fort Ouvre les portes du succès, j'suis téméraire Et nul n'a le pouvoir d'arrêter mes rêves Tout ira bien si c'est moi qui donne les ordres Trahison rime avec perceuse dans les os On retracera l'histoire à travers les hommes Et tu cherches le bonheur à travers les autres Enlève tout, je baisse les stores Casey Jones dans le bec, j'suis stone En promenade on a semé la discorde Allez fuck la gamelle, on est chef cuisto La pomme ne tombe pas loin du pommier Y'a plus d'surveillant sur mon pallier Vais-je enfin terminer premier ? Faut qu'on organise une party, hey J'suis bé-tom, tu m'as tourné l'dos pour un autre Les masques tombent à chaque fois qu'ça pue les loves Pourquoi tu m'as poukie biko ? Pull in up Pull in up, pull in up, pull in up Loco, loca, nous qu'a fait Et j'bouge la, j'bouge la tête comme Waka Flocka Flame Tu veux ton gamos, ton Bentley Bah bouge-toi, bouge-toi l'cul mon loco, fuck la flemme J't'envoie la kush après la gamelle, j'suis faya J'pose ma serviette en promenade, j'm'imagine à la playa Hey, j'm'imagine à la playa Vous rêvez d'me déstabiliser mais vous n'y arriverez pas, yah Le juge porte une fourrure de dalmatien, la procureur a des yeux de grenouille Incarcération, j'reste pragmatique, j'mets le fromage et le thon dans les nouilles On sait très bien qu'l'État nous baratine Alors on passe du stand de tir au grappling Mes locas m'ont localisés, sors à peine Deux feuilles de pinapple et j'tiens la carabine J'sais parler aux femmes depuis mes premiers pas Ma chérie je t'aime mais j'te le dirai pas Un p'tit côté Cloclo, j'boirai tout le Nil si tu n'me reviens pas La pomme ne tombe pas loin du pommier Y'a plus d'surveillant sur mon pallier Vais-je enfin terminer premier ? Faut qu'on organise une party, hey J'suis bé-tom, tu m'as tourné l'dos pour un autre Les masques tombent à chaque fois qu'ça pue les loves Pourquoi tu m'as poukie biko ? Pull in up Pull in up, pull in up, pull in up Loco, loca, nous qu'a fait Et j'bouge la, j'bouge la tête comme Waka Flocka Flame Tu veux ton gamos, ton Bentley Bah bouge-toi, bouge-toi l'cul mon loco, fuck la flemme La pomme ne tombe pas loin du pommier Y'a plus d'surveillant sur mon pallier Vais-je enfin terminer premier ? Faut qu'on organise une party, hey J'suis bé-tom, tu m'as tourné l'dos pour un autre Les masques tombent à chaque fois qu'ça pue les loves Pourquoi tu m'as poukie biko ? Pull in up Pull in up, pull in up, pull in up1</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>À la fuck you bicow, fuck you ! T'as l'salam de la Kalash Ils parlent de me mettre au tapis utopie, utopie Ils essayent de rapper deuspi pâles copies, pâles copies C'est la guerre, je vois tout de vert kaki sale pouki, sale pouki Mental Ali la Pointe, Swagg Taghmaoui, voilà Hayce Lemsi, Hayce Lemsi J'fais plus de buzz qu'une bagarre à la barre, je n'invite pas n'importe qu'elle pétasse à ma table Je n'invite pas n'importe quel bâtard à me back, et petit bico ne croit pas que le bitume est rentable À vendre la came l'ventre vide, on ne parle que de grammes, que de deal Te laisse pas vaincre par le haram, triomphe du haram par le dîn J'rap comme l'arme d'assaut perso d'Poutine, indépendant plus de mérite pour mes rimes Les rappeurs sont lâches et les lâches ne se lâchent qu'en supériorité numérique Mais la rue n'a qu'un visage, un jour les masques vont tomber Ils s'prendront moins pour 2Pac lorsque l'un d'entre eux s'fera plomber Je n'ai pas d'plan B, y a les porcs à lil de buf J'fais l'autruche dans la rue c'est l'rush, malheur à celui qui pioche du miel dans nos ruches Och bad j'suis l'acteur de ma vie c'est un film de boule, aller pose le mic petit fils de bourge Tu fais och dahak tu sais qu'L'Insomniak ne raconte jamais d'histoires à dormir debout De nos jours même les petit t'fracturent au 9 mili-mili willy miclo J'préfère un ennemi qu'un ami qui veut m'éliminer demande à Croupiko Bico, j'ai mis tout l'rap game sur attente Ressens-tu le froid du canon HayceLemscié sur ta tempe ? You might also like J'pose ma haine à la fuck you, j'pose ma 'teille à la fuck you J'baise le game à la fuck you, j'baise le game à la fuck you Bang bang bang bang entre deux porcs à bord de la Focus J'baise le game à la fuck you, j'baise le game à la fuck you J'performe tel Ali dans sa jeunesse, de Paname à Marseille dans les banlieues Lyonnaises Ma carrière brille d'une sombre clarté, j'vais passer du corner à Los Angeles Swagg Taghmaoui, flow Young Money, vida loca oui le monde m'a rendu mauvais Ces fils de puto viennent me lever, j'viens de la ville où le diable tient ses promesses L'arsenal est dans l'parking, la traîtrise est dans l'harki Dans c'monde même les meurtres se maquillent, pour le top ten les rappeurs tapinent Donnez-moi le mic que j'passe à l'action j'arrive avec Dir, KranMax et Niakso oh J'suis la voix de La Fourche, La Tour, La J, PSO oh Toujours les mêmes putos qui portent plainte L'Electron Libre enjambe les poukis, j'suis un putain d'bico pas un porte flingue Elles veulent un gringo, comme oim, une frappe de Paname Elles cherchent ceux qu'on appelle Monsieur dans le carré VIP du Madam Plus j'graille plus j'ai la dalle, j'ai l'moral dans les Air Nike Ici Zlat'Hayce Panamovic à bord du Porsche Paname Airlines J'pose mes explains à la fuck you ! Rejoins-nous à la fuck you !7</t>
+          <t>À la fuck you bicow, fuck you ! T'as l'salam de la Kalash Ils parlent de me mettre au tapis utopie, utopie Ils essayent de rapper deuspi pâles copies, pâles copies C'est la guerre, je vois tout de vert kaki sale pouki, sale pouki Mental Ali la Pointe, Swagg Taghmaoui, voilà Hayce Lemsi, Hayce Lemsi J'fais plus de buzz qu'une bagarre à la barre, je n'invite pas n'importe qu'elle pétasse à ma table Je n'invite pas n'importe quel bâtard à me back, et petit bico ne croit pas que le bitume est rentable À vendre la came l'ventre vide, on ne parle que de grammes, que de deal Te laisse pas vaincre par le haram, triomphe du haram par le dîn J'rap comme l'arme d'assaut perso d'Poutine, indépendant plus de mérite pour mes rimes Les rappeurs sont lâches et les lâches ne se lâchent qu'en supériorité numérique Mais la rue n'a qu'un visage, un jour les masques vont tomber Ils s'prendront moins pour 2Pac lorsque l'un d'entre eux s'fera plomber Je n'ai pas d'plan B, y a les porcs à lil de buf J'fais l'autruche dans la rue c'est l'rush, malheur à celui qui pioche du miel dans nos ruches Och bad j'suis l'acteur de ma vie c'est un film de boule, aller pose le mic petit fils de bourge Tu fais och dahak tu sais qu'L'Insomniak ne raconte jamais d'histoires à dormir debout De nos jours même les petit t'fracturent au 9 mili-mili willy miclo J'préfère un ennemi qu'un ami qui veut m'éliminer demande à Croupiko Bico, j'ai mis tout l'rap game sur attente Ressens-tu le froid du canon HayceLemscié sur ta tempe ? J'pose ma haine à la fuck you, j'pose ma 'teille à la fuck you J'baise le game à la fuck you, j'baise le game à la fuck you Bang bang bang bang entre deux porcs à bord de la Focus J'baise le game à la fuck you, j'baise le game à la fuck you J'performe tel Ali dans sa jeunesse, de Paname à Marseille dans les banlieues Lyonnaises Ma carrière brille d'une sombre clarté, j'vais passer du corner à Los Angeles Swagg Taghmaoui, flow Young Money, vida loca oui le monde m'a rendu mauvais Ces fils de puto viennent me lever, j'viens de la ville où le diable tient ses promesses L'arsenal est dans l'parking, la traîtrise est dans l'harki Dans c'monde même les meurtres se maquillent, pour le top ten les rappeurs tapinent Donnez-moi le mic que j'passe à l'action j'arrive avec Dir, KranMax et Niakso oh J'suis la voix de La Fourche, La Tour, La J, PSO oh Toujours les mêmes putos qui portent plainte L'Electron Libre enjambe les poukis, j'suis un putain d'bico pas un porte flingue Elles veulent un gringo, comme oim, une frappe de Paname Elles cherchent ceux qu'on appelle Monsieur dans le carré VIP du Madam Plus j'graille plus j'ai la dalle, j'ai l'moral dans les Air Nike Ici Zlat'Hayce Panamovic à bord du Porsche Paname Airlines J'pose mes explains à la fuck you ! Rejoins-nous à la fuck you !7</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Electron libre Yeah La toison d'or sur lépaule droite L'horizon j'matte Le coucher de soleil avant la floraison Dans cette chienne de vie on obtient jamais rien sans s'battre L'homme est mauvais lorsqu'il abandonne un nourrisson Moi, j'suis là le regard écarquillé, les mains moites Elle se dandine comme la vipère autour du bâton yeah Nos déclarations sons maladroites L'argent facile est un sprint en plein marathon Moi, j'redige mon vécu dans un coin de l'appart' J'ai trempé la qualam dans l'encre, le sort est lancé J'rêve de visiter les quatres coins de la carte Maman me demande ce que j'attends pour me fiancer Doucement sur le pollen Hayce Lem' les abeilles veulent ton miel T'as ton name dans le game dégaine rengaine again Tu reignes entre deux guerres, tout se paye yeah yeah La substance est dans le mixeur Et je bouge de la cabeza comme un hipster On voulait juste rouler dans le dernier classe S Offrir des études à l'étranger pour nos petites soeurs On refuse d'admettre ce qui nous contrarie De ma vie je n'ai connu que les ghettos de Paris Je veux voir les kangourous à Sydney en Australie C'est juste l'autobiographie d'un young boss many La vie vaut-elle dêtre vécue sans amour de l'argent ? Oui, la vie vaut-elle dêtre vécue sans prendre le large, nan ? Nan, l'impression d'avoir deja trop vécu pour mon âge Oublie les strass et les paillettes pour la vie sauvage On se rappelle vite d'où l'on vient lorsque arrive l'orage Mon inspiration débute aux premiers feux de l'aurore Elle veut que je reste là, elle veut que je reste sage Elle me dit you should stay right now You might also like A nos amours, à nos ennemis, nos amis, nos victoires et nos défaites Au fond, de quoi la vie est faite ? La vérité se manifeste un jour ou l'autre many, elle me dit You should stay right now Parce qu'on a peur qu'un jour nos parents n'aient plus la santé Peur de ne plus sortir une fois qu'on y est rentré Comme un parloir fantôme dans une prison hantée You should stay right now Et tu te rassures en pensant que l'enfer c'est les autres L'horreur est humaine, regarde ce qu'on détruit les hommes Ce qu'ils ont fait dans les forêts, les déserts, et les eaux You should stay right now You, je sais right now, grâce à l'amour que me porte la Hayce Lem' team J'ai de quoi garder le sourire jusqu'à la fin de ma life Je vous aime You should stay right now Ahah, jusqu'à la fin de ma life Yeah, jusqu'à la fin de ma life You should stay right now J'suis décalé, je n'ai pas dormi de la night Je les vois s'égarer, dans la vie y'a pas que la maille House Lemsi Je ne dors pas quand tu n'es plus là Une histoire d'amour des plus virulentes Tu m'as sucé le sang, Caligula Tu avais tout d'une femme indépendante Oui, demain c'est loin qui vivra verra Le regard injecté dhémoglobine sous les lunettes Je veux juste qu'on se réconcilie sous les draps J'en vois le visage de l'enfant que je n'ai vu naître Oui, je veux que le paradis soit sous tes pieds Et je pose ma mélancolie sur le trépied Sans toi, je trouve que la vie n'a rien de trépidant J'marche seul, mais j'ai l'impression dêtre épié Je trébuche et me relève à chaque obstacle du dessin Je dois prendre l'air, j'ai mes raisons J'ai mangé les raisins de la colère Tu m'exposes à la foudre sans paratonnerre De la poudre de mensonge, des paroles en l'air Do you remember the time When nothing was wrong when our hopes were so high We dreamed about starting a life Through good and through bad Hand in hand side by side Memories fly all over my mind The things you would hide Smiling with pride lie over lie You were so alive And i was so faded but i realized !!</t>
+          <t>Electron libre Yeah La toison d'or sur lépaule droite L'horizon j'matte Le coucher de soleil avant la floraison Dans cette chienne de vie on obtient jamais rien sans s'battre L'homme est mauvais lorsqu'il abandonne un nourrisson Moi, j'suis là le regard écarquillé, les mains moites Elle se dandine comme la vipère autour du bâton yeah Nos déclarations sons maladroites L'argent facile est un sprint en plein marathon Moi, j'redige mon vécu dans un coin de l'appart' J'ai trempé la qualam dans l'encre, le sort est lancé J'rêve de visiter les quatres coins de la carte Maman me demande ce que j'attends pour me fiancer Doucement sur le pollen Hayce Lem' les abeilles veulent ton miel T'as ton name dans le game dégaine rengaine again Tu reignes entre deux guerres, tout se paye yeah yeah La substance est dans le mixeur Et je bouge de la cabeza comme un hipster On voulait juste rouler dans le dernier classe S Offrir des études à l'étranger pour nos petites soeurs On refuse d'admettre ce qui nous contrarie De ma vie je n'ai connu que les ghettos de Paris Je veux voir les kangourous à Sydney en Australie C'est juste l'autobiographie d'un young boss many La vie vaut-elle dêtre vécue sans amour de l'argent ? Oui, la vie vaut-elle dêtre vécue sans prendre le large, nan ? Nan, l'impression d'avoir deja trop vécu pour mon âge Oublie les strass et les paillettes pour la vie sauvage On se rappelle vite d'où l'on vient lorsque arrive l'orage Mon inspiration débute aux premiers feux de l'aurore Elle veut que je reste là, elle veut que je reste sage Elle me dit you should stay right now A nos amours, à nos ennemis, nos amis, nos victoires et nos défaites Au fond, de quoi la vie est faite ? La vérité se manifeste un jour ou l'autre many, elle me dit You should stay right now Parce qu'on a peur qu'un jour nos parents n'aient plus la santé Peur de ne plus sortir une fois qu'on y est rentré Comme un parloir fantôme dans une prison hantée You should stay right now Et tu te rassures en pensant que l'enfer c'est les autres L'horreur est humaine, regarde ce qu'on détruit les hommes Ce qu'ils ont fait dans les forêts, les déserts, et les eaux You should stay right now You, je sais right now, grâce à l'amour que me porte la Hayce Lem' team J'ai de quoi garder le sourire jusqu'à la fin de ma life Je vous aime You should stay right now Ahah, jusqu'à la fin de ma life Yeah, jusqu'à la fin de ma life You should stay right now J'suis décalé, je n'ai pas dormi de la night Je les vois s'égarer, dans la vie y'a pas que la maille House Lemsi Je ne dors pas quand tu n'es plus là Une histoire d'amour des plus virulentes Tu m'as sucé le sang, Caligula Tu avais tout d'une femme indépendante Oui, demain c'est loin qui vivra verra Le regard injecté dhémoglobine sous les lunettes Je veux juste qu'on se réconcilie sous les draps J'en vois le visage de l'enfant que je n'ai vu naître Oui, je veux que le paradis soit sous tes pieds Et je pose ma mélancolie sur le trépied Sans toi, je trouve que la vie n'a rien de trépidant J'marche seul, mais j'ai l'impression dêtre épié Je trébuche et me relève à chaque obstacle du dessin Je dois prendre l'air, j'ai mes raisons J'ai mangé les raisins de la colère Tu m'exposes à la foudre sans paratonnerre De la poudre de mensonge, des paroles en l'air Do you remember the time When nothing was wrong when our hopes were so high We dreamed about starting a life Through good and through bad Hand in hand side by side Memories fly all over my mind The things you would hide Smiling with pride lie over lie You were so alive And i was so faded but i realized !!</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Evry, Grigny, Corbeil Paname, le 17e, La Fourche, La Tour, La J Y'a des jours pluvieux, des jours ensoleillés Profite bien avant le jour du jugement dernier J'ai pris le mic' un jour de pluie depuis que des murders-murders j'déchire Un jour un an-ienc' ma dit qui vivra d'espoir mourra de désir On vit au jour au jour dans le désert, bico les mirages deviennent des blessures J'collectionne les mauvais souvenirs et les ennemis, la bac nous veille-sur J'ai vu le jour un jour de décembre à Hassi Messaoud en plein Sahara Il s'peut qu'un jour j'me fasse descendre en soum-soum par une kahba Que des nuits blanches et des jours noirs, des juges et des baveux sournois Quand tu parles sur moi ne jures pas, un jour tu m'verras dans le journal Un jour les keufs m'ont menacés comme s'ils allaient péter 30 kilos M'ont roués d'coups, gazé pour walou puis s'sont cassés tranquillou Un jour on m'a dit entre nous tu fumes trop d'pilon, tu baises trop d'pinettes Comment t'écris deux on-s' en 30 minutes ? Tu dors ap depuis longtemps tu m'fais reup' Chaque jour de plus est un jour de moins, faut pas qu'j'recule On m'a dit t'as la tête de celui qu'on accuse de loin, fais beleck à ton matricule Un jour j'vais peut-être me faire avoir par gourmandise et luxure Un jour j'ai vu c'bico s'faire shlasser la joue pour la moitié d'une injure J'vis chaque jour comme le dernier car un jour faudra rendre des comptes J'ai le poids d'Paname sur les épaules j'suis laise-ba sans pousser la fonte Un jour ta meuf est venue m'gâter, chambre 17 à l'Etap Hotel Elle est bien tombée levrette, clé d'bras je l'ai terminée juste après la bouteille Tout le game découpé dans le sac poubelle, un jour les poids lourds perdront des plumes vu la mienne Les grands esprits s'rencontrent ça donne Alkpote, Hayce Lem Du sang, de la sueur, du liquide et des larmes ont coulés sous les ponts C'est Evry, c'est le 17e, ferme la clique et pousse le son You might also like Un jour t'as d'la caille Un jour t'as d'la pure écaille Tellement lassés d'vivre au jour le jour On fait plus d'détail Tous les jours on souffre toutes nos troupes Méritent une médaille À nos frères qui sont partis pour toujours Journée funérailles Ce soir on nique les condés je mène la danse, obligé d'me défoncer en permanence Un jour j'aurais plus c'flow d'barge, ces rimes de ouf, j's'rais VIP rayé d'la liste rouge Hier c'était Wu Tang et Cypress Hill, aujourdhui c'est Alkpote et Hayce Lemsi Demain ce s'ra échalotes, sel, poivre, ail, persil, v'là le master chef en Nike Air, jeans J'élimine la vermine, j'illumine la rétine, féminine, maghrébine jeffrite vite ma résine Un jour de l'herbe sèche du hash' bien gras, t'inquiètes salope un jour ton mac viendra On verra c'qu'il adviendra d'tes chanteurs, j'suis Serge Gainzbeur, le légendaire Géant Vert Un jour j'volerais dans les airs, j'naviguerais en mer, dans leur paradis j'déchaînerais les enfers Un jour c'est des rappeurs un jour c'est des gangsters, un jour on est en paix un jour on est en guerre Un jour t'es triste, un jour t'es heureux, un jour t'es vif, un jour t'es peureux Cris au s'cours ça d'vient trop lourd, j'sais qu'un beau jour tu t'fras dévorer par pleins d'vautours Tu f'ras pas long feu à Evry ou a Place Clichy, Inch'Allah qu'un jour on s'casse d'ici A.L.K.P.O.T.E, Hayce Lem Un jour on va changer les règles du game Nan haha un jour on va changer l'game Bico, Blaco, Blanco, Loco Haysta Luego .1</t>
+          <t>Evry, Grigny, Corbeil Paname, le 17e, La Fourche, La Tour, La J Y'a des jours pluvieux, des jours ensoleillés Profite bien avant le jour du jugement dernier J'ai pris le mic' un jour de pluie depuis que des murders-murders j'déchire Un jour un an-ienc' ma dit qui vivra d'espoir mourra de désir On vit au jour au jour dans le désert, bico les mirages deviennent des blessures J'collectionne les mauvais souvenirs et les ennemis, la bac nous veille-sur J'ai vu le jour un jour de décembre à Hassi Messaoud en plein Sahara Il s'peut qu'un jour j'me fasse descendre en soum-soum par une kahba Que des nuits blanches et des jours noirs, des juges et des baveux sournois Quand tu parles sur moi ne jures pas, un jour tu m'verras dans le journal Un jour les keufs m'ont menacés comme s'ils allaient péter 30 kilos M'ont roués d'coups, gazé pour walou puis s'sont cassés tranquillou Un jour on m'a dit entre nous tu fumes trop d'pilon, tu baises trop d'pinettes Comment t'écris deux on-s' en 30 minutes ? Tu dors ap depuis longtemps tu m'fais reup' Chaque jour de plus est un jour de moins, faut pas qu'j'recule On m'a dit t'as la tête de celui qu'on accuse de loin, fais beleck à ton matricule Un jour j'vais peut-être me faire avoir par gourmandise et luxure Un jour j'ai vu c'bico s'faire shlasser la joue pour la moitié d'une injure J'vis chaque jour comme le dernier car un jour faudra rendre des comptes J'ai le poids d'Paname sur les épaules j'suis laise-ba sans pousser la fonte Un jour ta meuf est venue m'gâter, chambre 17 à l'Etap Hotel Elle est bien tombée levrette, clé d'bras je l'ai terminée juste après la bouteille Tout le game découpé dans le sac poubelle, un jour les poids lourds perdront des plumes vu la mienne Les grands esprits s'rencontrent ça donne Alkpote, Hayce Lem Du sang, de la sueur, du liquide et des larmes ont coulés sous les ponts C'est Evry, c'est le 17e, ferme la clique et pousse le son Un jour t'as d'la caille Un jour t'as d'la pure écaille Tellement lassés d'vivre au jour le jour On fait plus d'détail Tous les jours on souffre toutes nos troupes Méritent une médaille À nos frères qui sont partis pour toujours Journée funérailles Ce soir on nique les condés je mène la danse, obligé d'me défoncer en permanence Un jour j'aurais plus c'flow d'barge, ces rimes de ouf, j's'rais VIP rayé d'la liste rouge Hier c'était Wu Tang et Cypress Hill, aujourdhui c'est Alkpote et Hayce Lemsi Demain ce s'ra échalotes, sel, poivre, ail, persil, v'là le master chef en Nike Air, jeans J'élimine la vermine, j'illumine la rétine, féminine, maghrébine jeffrite vite ma résine Un jour de l'herbe sèche du hash' bien gras, t'inquiètes salope un jour ton mac viendra On verra c'qu'il adviendra d'tes chanteurs, j'suis Serge Gainzbeur, le légendaire Géant Vert Un jour j'volerais dans les airs, j'naviguerais en mer, dans leur paradis j'déchaînerais les enfers Un jour c'est des rappeurs un jour c'est des gangsters, un jour on est en paix un jour on est en guerre Un jour t'es triste, un jour t'es heureux, un jour t'es vif, un jour t'es peureux Cris au s'cours ça d'vient trop lourd, j'sais qu'un beau jour tu t'fras dévorer par pleins d'vautours Tu f'ras pas long feu à Evry ou a Place Clichy, Inch'Allah qu'un jour on s'casse d'ici A.L.K.P.O.T.E, Hayce Lem Un jour on va changer les règles du game Nan haha un jour on va changer l'game Bico, Blaco, Blanco, Loco Haysta Luego .1</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ok, j'ai money, swag, top modèles, faya them Rejoins-moi dans l'fond du Mathusalem Je fume sur cette dope saveur caramel J'laisse parler l'jaloux, j'm'enjaille, let's get it, shit Ok, j'ai money, swag, top modèles, faya them Rejoins-moi dans l'fond du Mathusalem Je fume sur cette dope saveur caramel J'laisse parler l'jaloux, j'm'enjaille, let's get it, shit Quand je conduis la Bugatti Elles m'appellent Young Abu Dhabi J'vais faire mes valises en damier J'ai besoin de temps, moins de deniers, moins d'amis Mes lokas coupent dans la trap house J'ai sorti la chemise, les mocassins bordeaux Un million d'euros pour celui qui rattrape Hayce Brille comme un diamant brut au milieu du bando Bando, bando, ma team est imbattable, t'as senti la patate Renverse pas d'rosé sur mon dernier Kenzo Trop d'teilles à ma table, tu vas faire une attaque ADAL, ADAL, loin de l'espace Schengen BARBARXV, PSO Gang Rafale, rafale, c'est la kalash tchétchène Nae nae comme moi You might also like Ok, j'ai money, swag, top modèles, faya them Rejoins-moi dans l'fond du Mathusalem Je fume sur cette dope saveur caramel J'laisse parler l'jaloux, j'm'enjaille, let's get it, shit Ok, j'ai money, swag, top modèles, faya them Rejoins-moi dans l'fond du Mathusalem Je fume sur cette dope saveur caramel J'laisse parler l'jaloux, j'm'enjaille, let's get it, shit J'bédave pas, tu l'fais à ma place J'tise pas, tu l'fais à ma place J'suis dans l'fond d'la boîte, tu vois l'truc Les meufs sont là juste pour mon blaze Viens pas twerker si t'as pas de uc J'suis avec fennecs et lions d'l'Atlas Ce soir, on s'enjaille, c'est la fête Et m'prends pas la tête avec ta paperasse Tu connais la suite de l'histoire J'vois tous ces gens qui nous invitent T'as tout donné pour Philipp Plein Mais ton compte est loin d'être rempli C'est comme ça qu'on fait dans l'tieks C'est comme ça qu'on fait dans l'tieks Tu crois qu'tu pètes, tu fais tièp Tu crois qu'tu pètes, tu fais tièp Ok, j'ai money, swag, top modèles, faya them Rejoins-moi dans l'fond du Mathusalem Je fume sur cette dope saveur caramel J'laisse parler l'jaloux, j'm'enjaille, let's get it, shit Ok, j'ai money, swag, top modèles, faya them Rejoins-moi dans l'fond du Mathusalem Je fume sur cette dope saveur caramel J'laisse parler l'jaloux, j'm'enjaille, let's get it, shit1</t>
+          <t>Ok, j'ai money, swag, top modèles, faya them Rejoins-moi dans l'fond du Mathusalem Je fume sur cette dope saveur caramel J'laisse parler l'jaloux, j'm'enjaille, let's get it, shit Ok, j'ai money, swag, top modèles, faya them Rejoins-moi dans l'fond du Mathusalem Je fume sur cette dope saveur caramel J'laisse parler l'jaloux, j'm'enjaille, let's get it, shit Quand je conduis la Bugatti Elles m'appellent Young Abu Dhabi J'vais faire mes valises en damier J'ai besoin de temps, moins de deniers, moins d'amis Mes lokas coupent dans la trap house J'ai sorti la chemise, les mocassins bordeaux Un million d'euros pour celui qui rattrape Hayce Brille comme un diamant brut au milieu du bando Bando, bando, ma team est imbattable, t'as senti la patate Renverse pas d'rosé sur mon dernier Kenzo Trop d'teilles à ma table, tu vas faire une attaque ADAL, ADAL, loin de l'espace Schengen BARBARXV, PSO Gang Rafale, rafale, c'est la kalash tchétchène Nae nae comme moi Ok, j'ai money, swag, top modèles, faya them Rejoins-moi dans l'fond du Mathusalem Je fume sur cette dope saveur caramel J'laisse parler l'jaloux, j'm'enjaille, let's get it, shit Ok, j'ai money, swag, top modèles, faya them Rejoins-moi dans l'fond du Mathusalem Je fume sur cette dope saveur caramel J'laisse parler l'jaloux, j'm'enjaille, let's get it, shit J'bédave pas, tu l'fais à ma place J'tise pas, tu l'fais à ma place J'suis dans l'fond d'la boîte, tu vois l'truc Les meufs sont là juste pour mon blaze Viens pas twerker si t'as pas de uc J'suis avec fennecs et lions d'l'Atlas Ce soir, on s'enjaille, c'est la fête Et m'prends pas la tête avec ta paperasse Tu connais la suite de l'histoire J'vois tous ces gens qui nous invitent T'as tout donné pour Philipp Plein Mais ton compte est loin d'être rempli C'est comme ça qu'on fait dans l'tieks C'est comme ça qu'on fait dans l'tieks Tu crois qu'tu pètes, tu fais tièp Tu crois qu'tu pètes, tu fais tièp Ok, j'ai money, swag, top modèles, faya them Rejoins-moi dans l'fond du Mathusalem Je fume sur cette dope saveur caramel J'laisse parler l'jaloux, j'm'enjaille, let's get it, shit Ok, j'ai money, swag, top modèles, faya them Rejoins-moi dans l'fond du Mathusalem Je fume sur cette dope saveur caramel J'laisse parler l'jaloux, j'm'enjaille, let's get it, shit1</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Nous sommes au cur du XVIème arrondissement de Paris Sacré Tony Montaigne - Eh ils en mettent du temps là pour un cocktail ! - Tranquille Tony - Eh ils vont entendre parler de moi ici, serveur ! Qui veut mon pouvoir repartira comme tel , je suis Tony Montaigne Tony J'ai changé d'avis, je n'aime plus ce cocktail, je suis Tony Montaigne Avenue Montaigne J'ai engagé cette fille juste pour rouler mon teh, je suis Tony Montaigne Tony Montaigne J'ai même un larbin pour me tenir mon tel, je suis Tony Montaigne Saint Honoré, Concorde, Alma, Champs-Élysées, Avenue Montaigne Trocadéro, Passy Plaza, Neuilly, Jasmin, Avenue Montaigne Tellement riche, tellement vil, tellement teigne Tony Montaigne, Tony Montaigne, Tony Montaigne Je viens de faire scandale à la réception, je suis Tony Montaigne Ça fait une heure que j'ai appelé le room service En amour j'ai connu quelques déceptions, j'ai bientôt la trentaine Des véhicules, apparts en ma possession, je peux pas dormir sans ken Mon oseille dort loin de la récession, je suis Tony Montaigne Pose pas trop de questions sur mon living room, sur ma vie privée Je suis parano Je déteste attendre, allez magne toi le cul, je peux te faire virer Juste pour info Ceux qui m'envient critiquent ma vie sur Twitter Il y a qu'une bouteille sur leur table quand je les croise au Tity Twister Oh J'achète qui je veux quand je veux, j'ai le pouvoir Je ne tolère pas ces remarques, elle va rentrer à pied Prends ce billet de cinq-cents ou refuse le pourboire, si ton honneur a plus de valeur qu'un bout de papier Rolex, mocassin marron, du caviar, des truffes, des macarons Le Matignon, l'Montana, le Baron Mes comptes sont carrés mais je tourne pas rond You might also like Qui veut mon pouvoir repartira comme tel, je suis Tony Montaigne Tony J'ai changé d'avis, je n'aime plus ce cocktail, je suis Tony Montaigne Avenue Montaigne J'ai engagé cette fille juste pour rouler mon teh, je suis Tony Montaigne Tony Montaigne J'ai même un larbin pour me tenir mon tel, je suis Tony Montaigne Saint Honoré, Concorde, Alma, Champs-Élysées, Avenue Montaigne Trocadero, Passy Plaza, Neuilly, Jasmin, Avenue Montaigne Tellement riche, tellement vil, tellement teigne Tony Montaigne, Tony Montaigne, Tony Montaigne Pour démarrer la journée, je lis le journal en mangeant mes ufs d'esturgeon Du caviar Que piaillent les mésanges, mon miel fait toujours butiner les bourdons Ma Cadillac Dans mon parking privé, ce faible pour les voitures de collection C'est familial J'ai l'air d'un héritier mais ma carrière a démarré d'une seule connexion Formidable ! J'fais mousser le champagne, tu penses me michto mais je sais que tu t'sens belle T'es juste ma bitch ! Allez magne toi le cul, ramasse tes affaires, tu m'as déjà fait moucher la chandelle Je te prends un hitch ! Comme je parle cinq langues, je les attrapes au Sacré-Cur Je peux prendre un billet d'avion juste pour faire venir le traiteur Dans le milieu mondain, tout le monde connais Montaigne La haute bourgeoisie, l'adulte pourri gâté J'ai besoin de rien, je peux laisser sonner mon tel L'ami si ton compte est à sec j'ai de quoi l'hydrater Je me vois comme une tumeur, j'ai l'impression que mon bonheur tue leur espoir Ils savent que je suis ce winner arrogant plus Parisien tu meurs Tony Montaigne Qui veut mon pouvoir repartira comme tel, je suis Tony Montaigne Tony J'ai changé d'avis, je n'aime plus ce cocktail, je suis Tony Montaigne Avenue Montaigne J'ai engagé cette fille juste pour rouler mon teh, je suis Tony Montaigne Tony Montaigne J'ai même un larbin pour me tenir mon tel, je suis Tony Montaigne Saint Honoré, Concorde, Alma, Champs-Élysées, Avenue Montaigne Trocadéro, Passy Plaza, Neuilly, Jasmin, Avenue Montaigne Tellement riche, tellement vil, tellement teigne Tony Montaigne, Tony Montaigne, Tony Montaigne A mes soixante-quinze bouteilles, lalalala Pour monsieur Tony Montaigne, lalalala Jeune et riche la vie est belle, lalalala Je suis sur l'avenue Montaigne, lalalala A mes soixante-quinze bouteilles, lalalala Pour monsieur Tony Montaigne, lalalala Jeune et riche la vie est belle, lalalala Je suis sur l'avenue Montaigne, lalalala Qui veut mon pouvoir repartira comme tel, je suis Tony Montaigne Tony J'ai changé d'avis, je n'aime plus ce cocktail, je suis Tony Montaigne Avenue Montaigne J'ai engagé cette fille juste pour rouler mon teh, je suis Tony Montaigne Tony Montaigne J'ai même un larbin pour me tenir mon tel, je suis Tony Montaigne Saint Honoré, Concorde, Alma, Champs-Élysées, Avenue Montaigne Trocadéro, Passy Plaza, Neuilly, Jasmin, Avenue Montaigne Tellement riche, tellement vil, tellement teigne Tony Montaigne, Tony Montaigne, Tony Montaigne</t>
+          <t>Nous sommes au cur du XVIème arrondissement de Paris Sacré Tony Montaigne - Eh ils en mettent du temps là pour un cocktail ! - Tranquille Tony - Eh ils vont entendre parler de moi ici, serveur ! Qui veut mon pouvoir repartira comme tel , je suis Tony Montaigne Tony J'ai changé d'avis, je n'aime plus ce cocktail, je suis Tony Montaigne Avenue Montaigne J'ai engagé cette fille juste pour rouler mon teh, je suis Tony Montaigne Tony Montaigne J'ai même un larbin pour me tenir mon tel, je suis Tony Montaigne Saint Honoré, Concorde, Alma, Champs-Élysées, Avenue Montaigne Trocadéro, Passy Plaza, Neuilly, Jasmin, Avenue Montaigne Tellement riche, tellement vil, tellement teigne Tony Montaigne, Tony Montaigne, Tony Montaigne Je viens de faire scandale à la réception, je suis Tony Montaigne Ça fait une heure que j'ai appelé le room service En amour j'ai connu quelques déceptions, j'ai bientôt la trentaine Des véhicules, apparts en ma possession, je peux pas dormir sans ken Mon oseille dort loin de la récession, je suis Tony Montaigne Pose pas trop de questions sur mon living room, sur ma vie privée Je suis parano Je déteste attendre, allez magne toi le cul, je peux te faire virer Juste pour info Ceux qui m'envient critiquent ma vie sur Twitter Il y a qu'une bouteille sur leur table quand je les croise au Tity Twister Oh J'achète qui je veux quand je veux, j'ai le pouvoir Je ne tolère pas ces remarques, elle va rentrer à pied Prends ce billet de cinq-cents ou refuse le pourboire, si ton honneur a plus de valeur qu'un bout de papier Rolex, mocassin marron, du caviar, des truffes, des macarons Le Matignon, l'Montana, le Baron Mes comptes sont carrés mais je tourne pas rond Qui veut mon pouvoir repartira comme tel, je suis Tony Montaigne Tony J'ai changé d'avis, je n'aime plus ce cocktail, je suis Tony Montaigne Avenue Montaigne J'ai engagé cette fille juste pour rouler mon teh, je suis Tony Montaigne Tony Montaigne J'ai même un larbin pour me tenir mon tel, je suis Tony Montaigne Saint Honoré, Concorde, Alma, Champs-Élysées, Avenue Montaigne Trocadero, Passy Plaza, Neuilly, Jasmin, Avenue Montaigne Tellement riche, tellement vil, tellement teigne Tony Montaigne, Tony Montaigne, Tony Montaigne Pour démarrer la journée, je lis le journal en mangeant mes ufs d'esturgeon Du caviar Que piaillent les mésanges, mon miel fait toujours butiner les bourdons Ma Cadillac Dans mon parking privé, ce faible pour les voitures de collection C'est familial J'ai l'air d'un héritier mais ma carrière a démarré d'une seule connexion Formidable ! J'fais mousser le champagne, tu penses me michto mais je sais que tu t'sens belle T'es juste ma bitch ! Allez magne toi le cul, ramasse tes affaires, tu m'as déjà fait moucher la chandelle Je te prends un hitch ! Comme je parle cinq langues, je les attrapes au Sacré-Cur Je peux prendre un billet d'avion juste pour faire venir le traiteur Dans le milieu mondain, tout le monde connais Montaigne La haute bourgeoisie, l'adulte pourri gâté J'ai besoin de rien, je peux laisser sonner mon tel L'ami si ton compte est à sec j'ai de quoi l'hydrater Je me vois comme une tumeur, j'ai l'impression que mon bonheur tue leur espoir Ils savent que je suis ce winner arrogant plus Parisien tu meurs Tony Montaigne Qui veut mon pouvoir repartira comme tel, je suis Tony Montaigne Tony J'ai changé d'avis, je n'aime plus ce cocktail, je suis Tony Montaigne Avenue Montaigne J'ai engagé cette fille juste pour rouler mon teh, je suis Tony Montaigne Tony Montaigne J'ai même un larbin pour me tenir mon tel, je suis Tony Montaigne Saint Honoré, Concorde, Alma, Champs-Élysées, Avenue Montaigne Trocadéro, Passy Plaza, Neuilly, Jasmin, Avenue Montaigne Tellement riche, tellement vil, tellement teigne Tony Montaigne, Tony Montaigne, Tony Montaigne A mes soixante-quinze bouteilles, lalalala Pour monsieur Tony Montaigne, lalalala Jeune et riche la vie est belle, lalalala Je suis sur l'avenue Montaigne, lalalala A mes soixante-quinze bouteilles, lalalala Pour monsieur Tony Montaigne, lalalala Jeune et riche la vie est belle, lalalala Je suis sur l'avenue Montaigne, lalalala Qui veut mon pouvoir repartira comme tel, je suis Tony Montaigne Tony J'ai changé d'avis, je n'aime plus ce cocktail, je suis Tony Montaigne Avenue Montaigne J'ai engagé cette fille juste pour rouler mon teh, je suis Tony Montaigne Tony Montaigne J'ai même un larbin pour me tenir mon tel, je suis Tony Montaigne Saint Honoré, Concorde, Alma, Champs-Élysées, Avenue Montaigne Trocadéro, Passy Plaza, Neuilly, Jasmin, Avenue Montaigne Tellement riche, tellement vil, tellement teigne Tony Montaigne, Tony Montaigne, Tony Montaigne</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Hayce Lem', biko, blacko, blanko, loko Hayce Lem', Hayce Lem' Hayce Lem', Hayce Lem' Un petit pas pour Lemsi, un grand pas pour le rap français En tailleur au pied du sommier, j'ai la rétine ensanglantée Main de fer de velours gantée, Madame Insomnia m'a hanté Stup', sse-lia dans les souliers, par le bitume accompagné J'ai l'écriture finement soignée, marques de menottes violettes aux poignets Dans l'panier j'ai d'la salade, j'suis seul au monde à la Crusoé J'éclate la chrysalide, j'représente les frères isolés Derrière des grilles à se-l'ai, dans la street à zoner En psychiatrie, assommés Les p'tites soeurs cleans à la son-mai All eyes on me, je les vois zoomer Voilà le zombie, j'fais que zoner Pét'Hayce, au lit j'ai les reins solides, jamais sommeil, j'suis sonné Je ne me soucie pas du hasard, y'a d'la sueur sur la somme Enracinés comme des arbres qui pleurent sur le sol Si t'as chromé, rembourse ou c'est la fin de ta fausse équipe J'ai les yeux rivés sur la Grande Ourse en dos crawlé dans la fosse sceptique Dans l'optique de rentabilité, cash en poche via les coups tordus La vérité sort de la bouche des mioches ou sous la torture J'me pointe au summum au soleil en tong avec les Bikos Se goinfrer solo c'est creuser sa tombe avec ses chicos, loko L'État nous raquette, les keufs nous prennent pour un sac de frappe Fais pas l'mec qui bute la 'quette, on sait que tu racontes des cracks Et dans le noir on pille l'or Comme disait Lass-dinguo c'est nous les pilotes De Maghnia j'fume la hiya, j'démarre d'une vague épilogue Alors écoute biko Chez nous c'est wicked, go to the hood Click boom nikemouk, mitoYou might also like6</t>
+          <t>Hayce Lem', biko, blacko, blanko, loko Hayce Lem', Hayce Lem' Hayce Lem', Hayce Lem' Un petit pas pour Lemsi, un grand pas pour le rap français En tailleur au pied du sommier, j'ai la rétine ensanglantée Main de fer de velours gantée, Madame Insomnia m'a hanté Stup', sse-lia dans les souliers, par le bitume accompagné J'ai l'écriture finement soignée, marques de menottes violettes aux poignets Dans l'panier j'ai d'la salade, j'suis seul au monde à la Crusoé J'éclate la chrysalide, j'représente les frères isolés Derrière des grilles à se-l'ai, dans la street à zoner En psychiatrie, assommés Les p'tites soeurs cleans à la son-mai All eyes on me, je les vois zoomer Voilà le zombie, j'fais que zoner Pét'Hayce, au lit j'ai les reins solides, jamais sommeil, j'suis sonné Je ne me soucie pas du hasard, y'a d'la sueur sur la somme Enracinés comme des arbres qui pleurent sur le sol Si t'as chromé, rembourse ou c'est la fin de ta fausse équipe J'ai les yeux rivés sur la Grande Ourse en dos crawlé dans la fosse sceptique Dans l'optique de rentabilité, cash en poche via les coups tordus La vérité sort de la bouche des mioches ou sous la torture J'me pointe au summum au soleil en tong avec les Bikos Se goinfrer solo c'est creuser sa tombe avec ses chicos, loko L'État nous raquette, les keufs nous prennent pour un sac de frappe Fais pas l'mec qui bute la 'quette, on sait que tu racontes des cracks Et dans le noir on pille l'or Comme disait Lass-dinguo c'est nous les pilotes De Maghnia j'fume la hiya, j'démarre d'une vague épilogue Alors écoute biko Chez nous c'est wicked, go to the hood Click boom nikemouk, mito6</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Messieurs dames bonjour, bienvenue sur le vol numéro 75017 de la Paname Airlines Tout d'abord merci d'écouter les consignes de sécurité Ne tentez pas d'écrire un texte En cas d'incident ou de turbulence lyricale Ne tentez pas de vous échapper il n'y a aucune issue Pendant le vol des punchlines vous seront servis La température est torride il fait 75 C'est la Vida Loca J'ai la tête dans les nuages d'épaisses fumées sans cesse fouillés Par les bleus pris de rage et de nos yeux rouges on regarde les étoiles filer Plus vite que les années perdues pour du cash, vertus piétinées par flashs et H J'suis pas de la race à Poutine mais j'rappe à la vitesse d'une kalash Sur lasphalte ça pète un sbar, y'a de la vodka de Saint Petersbourg Moi de mon existence j'suis la star, petit prince sur 45 tours Caramelo lame dans le ventre khabat, tous posté devant le bar-tabac Pisté jusquà 6 du mat, le diable te parle et la bac t'abat Bico, 17 c'est ma dream-team, ici les bonnes ambiance terminent en bang bang J'suis linterprète de la victime du système dans lequel on baigne baigne Bébé j'ai le moral en chute libre, quand y'a pas de cash money dans les fouilles Quand y'a pas de chatte en mini-jupe, il faut que j'rentre a plat-ventre bredouille Bienvenue sur Paname Airlines sans escale jusquà Nord Island Prenez le taxi jusquà l'avenue Hayce Lemsi, j'vous présente ma bande Que les passagers s'installent confortablement Boulet aux chevilles j'fais l'bilan d'une vie inachevée sur un beat lent You might also like Paname Airlines, Paname Airlines, Paname Airlines Installez-vous confortablement, j'ai la tête dans les nuages les pieds sur le ciment Paname Airlines, Paname Airlines, Paname Airlines De toutes mes hôtesses, accompagné en vous remerciant d'avoir choisi la compagnie Paname Airlines, Paname Airlines, Paname Airlines T'as le moral dans les Air Nike, découvre un nouvel horizon crame dans l'avion de L'Insomniak Paname Airlines, Paname Airlines, Paname Airlines Nord Island Paname Airlines, Paname Airlines, Paname Airlines Bienvenue chez Paname Airlines C'est dans la cafetière que l'insomnie noya mon sommeil pour de bon J'tourne autour de la gloire et la terre tourne autour du soleil chaque seconde On parle argent comptant, parce que prendre le large on compte On prend de l'âge et la police nous suit des yeux comme la Joconde J'ai toujours la rime amère la faut savoir faire des braves Même si les bicos casse des kilos de sucre sur ma colonne vertébrale Les caprices de la trotteuse assassinent ma vida loca Quand on porte le Qamis ils nous disent de la nébuleuse Al Quaïda Bico Loco la paix n'est qu'un intervalle entre 2 guerres J'ai du respect pour ceux qui dorment sur le trottoir entre 2 glaires En vous remerciant d'avoir choisi la compagnie Paname Airlines Le nom de la team c'est Nord Island, pour les intimes c'est N.I C'est la Vida Loca Merci d'avoir choisi la compagnie Paname Airlines Et bon séjour sur Nord Island C'est la vida loca Un petit pas pour Lemsi un grand pour le rap français Bico loco Quant à toi, tu peux rejoindre notre Rap Genius Airlines !3</t>
+          <t>Messieurs dames bonjour, bienvenue sur le vol numéro 75017 de la Paname Airlines Tout d'abord merci d'écouter les consignes de sécurité Ne tentez pas d'écrire un texte En cas d'incident ou de turbulence lyricale Ne tentez pas de vous échapper il n'y a aucune issue Pendant le vol des punchlines vous seront servis La température est torride il fait 75 C'est la Vida Loca J'ai la tête dans les nuages d'épaisses fumées sans cesse fouillés Par les bleus pris de rage et de nos yeux rouges on regarde les étoiles filer Plus vite que les années perdues pour du cash, vertus piétinées par flashs et H J'suis pas de la race à Poutine mais j'rappe à la vitesse d'une kalash Sur lasphalte ça pète un sbar, y'a de la vodka de Saint Petersbourg Moi de mon existence j'suis la star, petit prince sur 45 tours Caramelo lame dans le ventre khabat, tous posté devant le bar-tabac Pisté jusquà 6 du mat, le diable te parle et la bac t'abat Bico, 17 c'est ma dream-team, ici les bonnes ambiance terminent en bang bang J'suis linterprète de la victime du système dans lequel on baigne baigne Bébé j'ai le moral en chute libre, quand y'a pas de cash money dans les fouilles Quand y'a pas de chatte en mini-jupe, il faut que j'rentre a plat-ventre bredouille Bienvenue sur Paname Airlines sans escale jusquà Nord Island Prenez le taxi jusquà l'avenue Hayce Lemsi, j'vous présente ma bande Que les passagers s'installent confortablement Boulet aux chevilles j'fais l'bilan d'une vie inachevée sur un beat lent Paname Airlines, Paname Airlines, Paname Airlines Installez-vous confortablement, j'ai la tête dans les nuages les pieds sur le ciment Paname Airlines, Paname Airlines, Paname Airlines De toutes mes hôtesses, accompagné en vous remerciant d'avoir choisi la compagnie Paname Airlines, Paname Airlines, Paname Airlines T'as le moral dans les Air Nike, découvre un nouvel horizon crame dans l'avion de L'Insomniak Paname Airlines, Paname Airlines, Paname Airlines Nord Island Paname Airlines, Paname Airlines, Paname Airlines Bienvenue chez Paname Airlines C'est dans la cafetière que l'insomnie noya mon sommeil pour de bon J'tourne autour de la gloire et la terre tourne autour du soleil chaque seconde On parle argent comptant, parce que prendre le large on compte On prend de l'âge et la police nous suit des yeux comme la Joconde J'ai toujours la rime amère la faut savoir faire des braves Même si les bicos casse des kilos de sucre sur ma colonne vertébrale Les caprices de la trotteuse assassinent ma vida loca Quand on porte le Qamis ils nous disent de la nébuleuse Al Quaïda Bico Loco la paix n'est qu'un intervalle entre 2 guerres J'ai du respect pour ceux qui dorment sur le trottoir entre 2 glaires En vous remerciant d'avoir choisi la compagnie Paname Airlines Le nom de la team c'est Nord Island, pour les intimes c'est N.I C'est la Vida Loca Merci d'avoir choisi la compagnie Paname Airlines Et bon séjour sur Nord Island C'est la vida loca Un petit pas pour Lemsi un grand pour le rap français Bico loco Quant à toi, tu peux rejoindre notre Rap Genius Airlines !3</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ce soir 14 balles furent tirées 4 dans le torse d'un toxicomane étant parti s'piquer 6 d'entre elles plongèrent dans le coma 2 adolescents Une dans le vide et 3 dans l'estomac d'un innocent Impact blessant, lieu sordide, fin morbide Les histoires stupides finissent toujours en flaque de sang Mes semblables prient, les mafiosi vagabondent et un blédard crie Fouzia sort le fusil à pompe, pour une place on plombe 4 personnes T'impressionnes comme un casse entre potos près d'un entrepôt Calberson Larguez les amarres, marre de ce méridien Mon armée d'indiens samouraïs tuera les bons samaritains Ça mérite un coup d'tomahawk Ma yeuc tu m'as vu Choquant comme un E-wok en moonwalk sur l'avenue T'as le seum tu ves-qui le touareg au grand ter-ter Me laisse pas seul avec un skin je risquerais d'prendre perpet' Interprète, rappeur à l'heure où les brigands braquent Un peu bordélique et borné j'ai grandis dans un bric à brac Abra-ca-da-bra je braille pour éloigner le mal Tu veux nettoyer passes me voir si tu crois manier le mic Associé du diable, idéalisme démoniaque Mon charisme c'est mes cernes, certains me surnomment l'insomniak Ma zik telle une danseuse orientale se déhanche Depuis mon plus jeune âge, mes cordes vocales me démangent Déranger les gens se permettant d'empêcher de faire naître mon talent Qu'ils ne m'attendent pas pour aller se faire mettre, les grands c'est classe Hayce a la manie d'éliminer les masses, c'est la miss la menace Assome les maîtres de cérémonie sur place, j'me surpasse Parce que la vie n'offre pas grand chose Grand shlag tu galères vas niquer ta mère la grande chauve You might also likeMon avenir est véhiculé, reculez Si j'entre en scène, cessez d'gesticuler J'sais que mes propos sont obscènes Observe ma façon d'opérer, de pé-ra pour les terro' J'aime enterrer quelques rappeurs apeurés pour apéro Repéré par le parrain pour une histoire de carat Dans le tier-quar on tuerait pour un grand écart de Clara Déclarant que je ne vais pas te louper si ton string m'intrigue Poses ton boul sur le canapé, poupée j'te sers un drink Occupé à vous marteler par le biais de ma technique Je ne vais pas sur Châtelet pour danser la tecktonique avec le calibre de la BAC les pneus crissent coup d'crosse Escroquerie digne de Rocancourt Chris Ici Hayce l'art du punchline, pushka dans la bouche, fine Branché goose et blanches baskets, épouses mon blues man A 12 ans j'imposais mes proses par des kilomètres de lettres Biko au style haut stylo bic laissez mon style naître Sillonne Paname observant chaque membre et charbonner Chasse l'inspi fraîche entre pêche et pot d'échappement Chapeau melon, casquette, TN ou NY texte et maille de haine Teigneux c'est nous qui tenons les tenailles Téma la longue tellement d'artiste à cette époque hein Combien maîtrise la langue de Jean-Baptiste Poquelin Les bouquins restent poussiéreux, les casiers s'ouvrent Périlleuse chute, je chante à plein gosier qu'on souffre Essoufflé mes godillots s'usent Des gadjios sucent Je relaye et succède les paroliers de luxe Je te brusque et tu décales car je t'ai calculé coño T'as calqué l'vécu de Khaled Kelkal, quel culot Philosophie du kiloWatt. Wait, innocent, pour cent pur sang District et Hayce kill au mic ouais</t>
+          <t>Ce soir 14 balles furent tirées 4 dans le torse d'un toxicomane étant parti s'piquer 6 d'entre elles plongèrent dans le coma 2 adolescents Une dans le vide et 3 dans l'estomac d'un innocent Impact blessant, lieu sordide, fin morbide Les histoires stupides finissent toujours en flaque de sang Mes semblables prient, les mafiosi vagabondent et un blédard crie Fouzia sort le fusil à pompe, pour une place on plombe 4 personnes T'impressionnes comme un casse entre potos près d'un entrepôt Calberson Larguez les amarres, marre de ce méridien Mon armée d'indiens samouraïs tuera les bons samaritains Ça mérite un coup d'tomahawk Ma yeuc tu m'as vu Choquant comme un E-wok en moonwalk sur l'avenue T'as le seum tu ves-qui le touareg au grand ter-ter Me laisse pas seul avec un skin je risquerais d'prendre perpet' Interprète, rappeur à l'heure où les brigands braquent Un peu bordélique et borné j'ai grandis dans un bric à brac Abra-ca-da-bra je braille pour éloigner le mal Tu veux nettoyer passes me voir si tu crois manier le mic Associé du diable, idéalisme démoniaque Mon charisme c'est mes cernes, certains me surnomment l'insomniak Ma zik telle une danseuse orientale se déhanche Depuis mon plus jeune âge, mes cordes vocales me démangent Déranger les gens se permettant d'empêcher de faire naître mon talent Qu'ils ne m'attendent pas pour aller se faire mettre, les grands c'est classe Hayce a la manie d'éliminer les masses, c'est la miss la menace Assome les maîtres de cérémonie sur place, j'me surpasse Parce que la vie n'offre pas grand chose Grand shlag tu galères vas niquer ta mère la grande chauve Mon avenir est véhiculé, reculez Si j'entre en scène, cessez d'gesticuler J'sais que mes propos sont obscènes Observe ma façon d'opérer, de pé-ra pour les terro' J'aime enterrer quelques rappeurs apeurés pour apéro Repéré par le parrain pour une histoire de carat Dans le tier-quar on tuerait pour un grand écart de Clara Déclarant que je ne vais pas te louper si ton string m'intrigue Poses ton boul sur le canapé, poupée j'te sers un drink Occupé à vous marteler par le biais de ma technique Je ne vais pas sur Châtelet pour danser la tecktonique avec le calibre de la BAC les pneus crissent coup d'crosse Escroquerie digne de Rocancourt Chris Ici Hayce l'art du punchline, pushka dans la bouche, fine Branché goose et blanches baskets, épouses mon blues man A 12 ans j'imposais mes proses par des kilomètres de lettres Biko au style haut stylo bic laissez mon style naître Sillonne Paname observant chaque membre et charbonner Chasse l'inspi fraîche entre pêche et pot d'échappement Chapeau melon, casquette, TN ou NY texte et maille de haine Teigneux c'est nous qui tenons les tenailles Téma la longue tellement d'artiste à cette époque hein Combien maîtrise la langue de Jean-Baptiste Poquelin Les bouquins restent poussiéreux, les casiers s'ouvrent Périlleuse chute, je chante à plein gosier qu'on souffre Essoufflé mes godillots s'usent Des gadjios sucent Je relaye et succède les paroliers de luxe Je te brusque et tu décales car je t'ai calculé coño T'as calqué l'vécu de Khaled Kelkal, quel culot Philosophie du kiloWatt. Wait, innocent, pour cent pur sang District et Hayce kill au mic ouais</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>J'ai connu la douleur, la vie m'en fait voir toutes les couleurs T'as rêvé dêtre quelqu'un, t'es plus personne quand tu meurs Que Dieu pardonne mes torts, t'obtiens jamais rien sans effort Faut qu'j'mette à couvert la famille avant de penser au coupé sport J'ai grandi j'ai grandi, certains rêveraient de me voir chuter J'ai choisi de ne pas faire le bandit J'ai choisi de ne pas vous écouter Tous mes frères m'ont prévenu Tu verras qu'la roue va tourner Au final rien ne se passe comme prévu, mes propres potes me font douter Ça fait cinq ans qu'je suis dans ce milieu C'est pas pour autant que je vis mieux J'ai découvert c'qu'était la musique J'ai compris c'qu'c'était qu'un vicieux Et puis je touche pas à l'alcool Un peu fou comme le père à Malcolm J'ai pas confiance au Belvédère J'ai plus confiance en mon magnum Mes frères, mes frères, vous m'avez déçu Mes frères, mes frères, vous m'avez déçu Mes surs, mes surs, vous m'avez déçu Mes surs , mes surs, vous m'avez déçu You might also like J'arrive à la fin de cette bottle d'champagne J'roule avec elle, on trouve pas dhôtel Mercure Faut qu'j'aille mettre le plein Porte d'la Chapelle Elle profite de l'aubaine, snap sur son tel Au fond j'suis pas mieux qu'elle J'ai connu le succès très jeune, fais le tour de l'Europe pris quelques sous Des dollars J'me roule encore par terre à mon âge ma belle Mais j'm'endors mieux quand j'ai pris quelques coups La bagarre Du mal à gérer mes sentiments tu l'as senti j'mens pas c'est juste que j'ai du mal à trouver les mots, ouais J'suis en peignoir dans le living, j'écoute encore un vieux vinyle Et je t'attends pour sabrer le Moët On souffre à l'idée de mourir on oublie tant d'vivre J'te dis jamais c'que j'ressens mais j'en meurs d'envie C'est ton regard qui m'empêche de partir en vrille Fais pas l'indifférente mon absence te laisse un grand vide Girl moi aussi j'ai connu la douleur On m'en a voulu pour ma couleur À 6 heure la BAC est venu me soulever Devant mes parents mes p'tits frères mes p'tites surs Avant l'amour de mes lokas, de mes lokos Ma vie n'était qu'une accumulation de quiproquos Encore une pour tous les frères en llules-ce Comme Lissu, la feuille on roule la moula fait le yoyo Mes frères, mes frères, vous m'avez déçu Mes frères, mes frères, vous m'avez déçu Mes surs, mes surs, vous m'avez déçu Mes surs , mes surs, vous m'avez déçu2</t>
+          <t>J'ai connu la douleur, la vie m'en fait voir toutes les couleurs T'as rêvé dêtre quelqu'un, t'es plus personne quand tu meurs Que Dieu pardonne mes torts, t'obtiens jamais rien sans effort Faut qu'j'mette à couvert la famille avant de penser au coupé sport J'ai grandi j'ai grandi, certains rêveraient de me voir chuter J'ai choisi de ne pas faire le bandit J'ai choisi de ne pas vous écouter Tous mes frères m'ont prévenu Tu verras qu'la roue va tourner Au final rien ne se passe comme prévu, mes propres potes me font douter Ça fait cinq ans qu'je suis dans ce milieu C'est pas pour autant que je vis mieux J'ai découvert c'qu'était la musique J'ai compris c'qu'c'était qu'un vicieux Et puis je touche pas à l'alcool Un peu fou comme le père à Malcolm J'ai pas confiance au Belvédère J'ai plus confiance en mon magnum Mes frères, mes frères, vous m'avez déçu Mes frères, mes frères, vous m'avez déçu Mes surs, mes surs, vous m'avez déçu Mes surs , mes surs, vous m'avez déçu J'arrive à la fin de cette bottle d'champagne J'roule avec elle, on trouve pas dhôtel Mercure Faut qu'j'aille mettre le plein Porte d'la Chapelle Elle profite de l'aubaine, snap sur son tel Au fond j'suis pas mieux qu'elle J'ai connu le succès très jeune, fais le tour de l'Europe pris quelques sous Des dollars J'me roule encore par terre à mon âge ma belle Mais j'm'endors mieux quand j'ai pris quelques coups La bagarre Du mal à gérer mes sentiments tu l'as senti j'mens pas c'est juste que j'ai du mal à trouver les mots, ouais J'suis en peignoir dans le living, j'écoute encore un vieux vinyle Et je t'attends pour sabrer le Moët On souffre à l'idée de mourir on oublie tant d'vivre J'te dis jamais c'que j'ressens mais j'en meurs d'envie C'est ton regard qui m'empêche de partir en vrille Fais pas l'indifférente mon absence te laisse un grand vide Girl moi aussi j'ai connu la douleur On m'en a voulu pour ma couleur À 6 heure la BAC est venu me soulever Devant mes parents mes p'tits frères mes p'tites surs Avant l'amour de mes lokas, de mes lokos Ma vie n'était qu'une accumulation de quiproquos Encore une pour tous les frères en llules-ce Comme Lissu, la feuille on roule la moula fait le yoyo Mes frères, mes frères, vous m'avez déçu Mes frères, mes frères, vous m'avez déçu Mes surs, mes surs, vous m'avez déçu Mes surs , mes surs, vous m'avez déçu2</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Cité Chevaleret Cri d'horreur à l'heure des feux de l'aurore Accompagné d'une de ces beautés charnelles On est debout quand Paris dort Champagne, champagne Le lendemain rebelote et ça ne sarrête jamais Paris-Sud, Paris-Nord Champagne, champagne Parisien trop éméché Faudrait chauffer leur week-end champagne, champagne ! Fumons cette dope tout au long du week-end, hey Buvons cette tise tout au long du week-end, hey Bébé, baisons tout au long du week-end, hey Chaque jour de la semaine est un putain de week-end, hey Week-end, week-end, fucked up, fucked up J'vais faire une sextape avec ta meuf sur Périscope Lui arracher son serre-tête, elle boira pas mieux qu'Eristoff Portoricaine, Africaine, Américaine j'suis polyglotte ma bitch Cassez-vous de la boite c'est Jok'Air et Hayce Lem' Où sont ces keh', on distribue les bracelets Y'a tout mes k-sos, les crapules, hussler, hussler, hussler Le gamos l'a excitée, j'me gare dans le fond de la cité Mamacita, j'laisserai pas la jalousie nous parasiter J'ai posé de l'Arc au Montana Quand je dormais dans des bâtiments tu n'étais pas là Y'a de la sel3a-la-la-la dans l'ai-l'ai-l'air Et j'ai la gerbe, la mauvais graine a germé Découpe la-lamelle au la-laser Holà la sère-mi, c'est moi qui dirige l'équipe à la Madjer Tous les jours biko c'est le week-end ! J'ai chanté tout l'été, bébé j'ai charbonné toute l'année On a fait que de se tromper lorsque j'étais en tournée J'voudrais tout dans la vie mais c'est toi que je préfère Donc appelle ton patron, prends des jours de congé J'ai du shit, du champagne ce sera tous les jours le week-end J'ai fait assez de monnaie pour assumer ce week-end Chaque jour de la semaine pour moi est un putain de week-end Bébé avec moi c'est tous les jours le week-end Hey, hey Fumons cette dope tout au long du week-end, hey Buvons cette tise tout au long du week-end, hey Bébé, baisons tout au long du week-end, hey Chaque jour de la semaine est un putain de week-end, hey J'ai bu l'alcool tout l'été égaré l'Audi TT Roulé dans un gamos tout pété Elle veut Loubou', Féfé, Canard a l'étouffée Hey, tous les jours c'est le week-end Hey, j'fais de la monnaie en faisant ce que j'aime Bébé, rejoins dans le centre de la ville Faire pleurer les murs de ma chambre d'hôtel, hey Nouveau swag Toronto J'm'infiltre chez toi comme Tarentule Ces bikos m'espionnent à la Colombo Go tu peux garder ton number et ta rancune Avec mon squad dans le bloc on paye des bouteilles de champagne Et on retourne au charbon pour passer de meilleurs week-ends J'ai chanté tout l'été, bébé j'ai charbonné toute l'année On a fait que de se tromper lorsque j'étais en tournée J'voudrais tout dans la vie mais c'est toi que je préfère Donc appelle ton patron, prends des jours de congé J'ai du shit, du champagne ce sera tous les jours le week-end J'ai fait assez de monnaie pour assumer ce week-end Chaque jour de la semaine pour moi est un putain de week-end Bébé avec moi c'est tous les jours le week-end Hey, hey X2 Fumons cette dope tout au long du week-end, hey Buvons cette tise tout au long du week-end, hey Bébé, baisons tout au long du week-end, hey Chaque jour de la semaine est un putain de week-end, heyYou might also like2</t>
+          <t>Cité Chevaleret Cri d'horreur à l'heure des feux de l'aurore Accompagné d'une de ces beautés charnelles On est debout quand Paris dort Champagne, champagne Le lendemain rebelote et ça ne sarrête jamais Paris-Sud, Paris-Nord Champagne, champagne Parisien trop éméché Faudrait chauffer leur week-end champagne, champagne ! Fumons cette dope tout au long du week-end, hey Buvons cette tise tout au long du week-end, hey Bébé, baisons tout au long du week-end, hey Chaque jour de la semaine est un putain de week-end, hey Week-end, week-end, fucked up, fucked up J'vais faire une sextape avec ta meuf sur Périscope Lui arracher son serre-tête, elle boira pas mieux qu'Eristoff Portoricaine, Africaine, Américaine j'suis polyglotte ma bitch Cassez-vous de la boite c'est Jok'Air et Hayce Lem' Où sont ces keh', on distribue les bracelets Y'a tout mes k-sos, les crapules, hussler, hussler, hussler Le gamos l'a excitée, j'me gare dans le fond de la cité Mamacita, j'laisserai pas la jalousie nous parasiter J'ai posé de l'Arc au Montana Quand je dormais dans des bâtiments tu n'étais pas là Y'a de la sel3a-la-la-la dans l'ai-l'ai-l'air Et j'ai la gerbe, la mauvais graine a germé Découpe la-lamelle au la-laser Holà la sère-mi, c'est moi qui dirige l'équipe à la Madjer Tous les jours biko c'est le week-end ! J'ai chanté tout l'été, bébé j'ai charbonné toute l'année On a fait que de se tromper lorsque j'étais en tournée J'voudrais tout dans la vie mais c'est toi que je préfère Donc appelle ton patron, prends des jours de congé J'ai du shit, du champagne ce sera tous les jours le week-end J'ai fait assez de monnaie pour assumer ce week-end Chaque jour de la semaine pour moi est un putain de week-end Bébé avec moi c'est tous les jours le week-end Hey, hey Fumons cette dope tout au long du week-end, hey Buvons cette tise tout au long du week-end, hey Bébé, baisons tout au long du week-end, hey Chaque jour de la semaine est un putain de week-end, hey J'ai bu l'alcool tout l'été égaré l'Audi TT Roulé dans un gamos tout pété Elle veut Loubou', Féfé, Canard a l'étouffée Hey, tous les jours c'est le week-end Hey, j'fais de la monnaie en faisant ce que j'aime Bébé, rejoins dans le centre de la ville Faire pleurer les murs de ma chambre d'hôtel, hey Nouveau swag Toronto J'm'infiltre chez toi comme Tarentule Ces bikos m'espionnent à la Colombo Go tu peux garder ton number et ta rancune Avec mon squad dans le bloc on paye des bouteilles de champagne Et on retourne au charbon pour passer de meilleurs week-ends J'ai chanté tout l'été, bébé j'ai charbonné toute l'année On a fait que de se tromper lorsque j'étais en tournée J'voudrais tout dans la vie mais c'est toi que je préfère Donc appelle ton patron, prends des jours de congé J'ai du shit, du champagne ce sera tous les jours le week-end J'ai fait assez de monnaie pour assumer ce week-end Chaque jour de la semaine pour moi est un putain de week-end Bébé avec moi c'est tous les jours le week-end Hey, hey X2 Fumons cette dope tout au long du week-end, hey Buvons cette tise tout au long du week-end, hey Bébé, baisons tout au long du week-end, hey Chaque jour de la semaine est un putain de week-end, hey2</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>J'arrive, ma monture un cheval de fer Totopirate, j'envoie le cerf-volant Coup d'perceuse dans les g'noux pour le nerf de la guerre J'fais la guerre à mes nerfs, des sommes mirobolantes À l'arrière j'la joue bête, ivre au volant Je m'arrête, écarte les pattes arrières ma chouquette J'rappe la gorge tranchée, débarrasse le plancher Surveillant, j't'en mettrai une dans la tête Ma jeunesse gue-dro, tard-pé pied de biche À l'hôtel avec une kahba de bitch Dès le matin l'hyperactivité J'suis excité comme si j'venais d'taper deux biches Sors le bourbier, fais les courir J'ai pas d'bouche à nourrir, j'ai qu'des chattes à fouetter J'ressens leur anxiété, donc je lève mon verre à nos frères qui n'ont aucune victoire à fêter Humain trop humain, gros je rappe comme si j'avais trois poumons Le pe-pom dans les mains, coups de reins de gue-din Tasse-pé ton conte de fée se transforme en histoire sans lendemain Routoutoutou tous autant que vous êtes J'suis jaguar dans la brousse, allez cours petit zèbre J'aime pas ton rap, t'as des discours bizarres J'te rassure l'industrie, recrute les courtisanes Bitch T'es sur un fil, funambule, j'enfonce mon cran d'arrêt dans ton cul sans rancune On t'allume sans recul, une parole j'en ai qu'une Si t'écoute l'insomniak, tu deviens somnanbule Non seulement j'rappe mieux qu'eux mais j'ai plus de lles-coui Plus de vécu, ils ont rien fait du tout J'leur fais du tort, je les tue, je les tords Je les rafale sur leur terrain, toutoutoutou Comment contenir tant de R.A.G.E J'pars en Air Algérie, tourne la P.A.G.E Investisseur, plusieurs comptes à gérer Je leur vire de l'argent depuis ma C.A.G.E Depuis mon plus jeune A.G.E., j'suis motivé Je savais quoi faire de ma V.I.E Que Dieu me préserve du V.I.H. et de celles qui pratiquent la M.A.G.I.E Gepetto s'fait manipuler par Pinocchio Le mouton sort du troupeau, tue le berger Pars à gauche, j'pars à droite Change de plaque et de puce On est deuss', on a rendu barjots les RG Naufragés du système, dans l'il du cyclone Tu m'portes l'3ain, il de cyclope Fais le Yeah hoe, je te fais le yo-yo Je t'enverrai de la frappe et 5 ou 6 clopes You might also like Totopirate Big Lemsi Totopirate Young Pablo Totopirate drrr drrr Totopirate yeah hoe, yeah hoe J'veux qu'l'industrie m'fasse un lap dance Que des avions, j'passe mon baptême de l'air, putain Lemsi Molière, j'suis un malade imaginaire, putain Le mec s'étire, ses yeux pétillent Le mec tue comme Pétain Le mec re-ti sur le splif, reste productif comme Pékin C'que du shit, bitch ton mec est squelettique J'tiens l'équilibre, sur les flows J'pratique le Hayce Lem-ski nautique Baw C'est léger, rouge-vert-blanc, mon drapeau Wesh, surveillant, le drapeau On m'appelle human kalash Grrrrrroaaaahhh Routoutoutou Mes zouzous sont comme les pierres de mon empire Sont là pour le meilleur, et pour le pire Là pour le meilleur, et pour le pire Ils sont là pour le meilleur, et pour le pire 2, 3, 4 bouteilles de rosé J'fous le bordel comme un gosse hey J'prends le micro comme un boss hey J'allume ces salopes, un, dos, tres J'allume ces salopes, un, dos, tres J'veux qu'l'industrie m'fasse un lap dance Bikow bikow bikow bikow Ouais la cité là x22</t>
+          <t>J'arrive, ma monture un cheval de fer Totopirate, j'envoie le cerf-volant Coup d'perceuse dans les g'noux pour le nerf de la guerre J'fais la guerre à mes nerfs, des sommes mirobolantes À l'arrière j'la joue bête, ivre au volant Je m'arrête, écarte les pattes arrières ma chouquette J'rappe la gorge tranchée, débarrasse le plancher Surveillant, j't'en mettrai une dans la tête Ma jeunesse gue-dro, tard-pé pied de biche À l'hôtel avec une kahba de bitch Dès le matin l'hyperactivité J'suis excité comme si j'venais d'taper deux biches Sors le bourbier, fais les courir J'ai pas d'bouche à nourrir, j'ai qu'des chattes à fouetter J'ressens leur anxiété, donc je lève mon verre à nos frères qui n'ont aucune victoire à fêter Humain trop humain, gros je rappe comme si j'avais trois poumons Le pe-pom dans les mains, coups de reins de gue-din Tasse-pé ton conte de fée se transforme en histoire sans lendemain Routoutoutou tous autant que vous êtes J'suis jaguar dans la brousse, allez cours petit zèbre J'aime pas ton rap, t'as des discours bizarres J'te rassure l'industrie, recrute les courtisanes Bitch T'es sur un fil, funambule, j'enfonce mon cran d'arrêt dans ton cul sans rancune On t'allume sans recul, une parole j'en ai qu'une Si t'écoute l'insomniak, tu deviens somnanbule Non seulement j'rappe mieux qu'eux mais j'ai plus de lles-coui Plus de vécu, ils ont rien fait du tout J'leur fais du tort, je les tue, je les tords Je les rafale sur leur terrain, toutoutoutou Comment contenir tant de R.A.G.E J'pars en Air Algérie, tourne la P.A.G.E Investisseur, plusieurs comptes à gérer Je leur vire de l'argent depuis ma C.A.G.E Depuis mon plus jeune A.G.E., j'suis motivé Je savais quoi faire de ma V.I.E Que Dieu me préserve du V.I.H. et de celles qui pratiquent la M.A.G.I.E Gepetto s'fait manipuler par Pinocchio Le mouton sort du troupeau, tue le berger Pars à gauche, j'pars à droite Change de plaque et de puce On est deuss', on a rendu barjots les RG Naufragés du système, dans l'il du cyclone Tu m'portes l'3ain, il de cyclope Fais le Yeah hoe, je te fais le yo-yo Je t'enverrai de la frappe et 5 ou 6 clopes Totopirate Big Lemsi Totopirate Young Pablo Totopirate drrr drrr Totopirate yeah hoe, yeah hoe J'veux qu'l'industrie m'fasse un lap dance Que des avions, j'passe mon baptême de l'air, putain Lemsi Molière, j'suis un malade imaginaire, putain Le mec s'étire, ses yeux pétillent Le mec tue comme Pétain Le mec re-ti sur le splif, reste productif comme Pékin C'que du shit, bitch ton mec est squelettique J'tiens l'équilibre, sur les flows J'pratique le Hayce Lem-ski nautique Baw C'est léger, rouge-vert-blanc, mon drapeau Wesh, surveillant, le drapeau On m'appelle human kalash Grrrrrroaaaahhh Routoutoutou Mes zouzous sont comme les pierres de mon empire Sont là pour le meilleur, et pour le pire Là pour le meilleur, et pour le pire Ils sont là pour le meilleur, et pour le pire 2, 3, 4 bouteilles de rosé J'fous le bordel comme un gosse hey J'prends le micro comme un boss hey J'allume ces salopes, un, dos, tres J'allume ces salopes, un, dos, tres J'veux qu'l'industrie m'fasse un lap dance Bikow bikow bikow bikow Ouais la cité là x22</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Viens que je t'explique en 2-4-6, sensations fortes via 2-3 spliffs Embrouille de tess de 2-3 types, un frère se perd en 2-3 Clic- -Boom, le Swagg d'un pitbull, à l'affut d'une petite poule Tu es un prototype cool, ce soir j'ai besoin d'un petit... Veni Vidi Vici, 22 v'là les vil-ci Vite faut qu'on s'éloigne d'ici, check moi sur N.Y ou D.C On tré-ren par la petite porte, on consomme de la tise forte Sensations fortes de toute sorte, sans façon braque le XXX 75 75 protège ta tête et ta mère zinc' Protège ta belle quand XXX parce que fonce-dé sous bouteille de blanc de Label 5 Fini l'époque du petit lait, l'époque nous a tous mutilé On a vu souffrir nos mères, voilà pourquoi frère on a dealé On a pas choisi de faire le mal, ni même de grandir dans le malheur On a trop de haine, trop de peine, trop de blèmes qu'on noie dans des trucs qu'on inhale On a trouvé de l'air dans la fumée, niqué nos poumons dans la foulée Je traine avec des tâches et des thugs, tout le monde est dingue, tout le monde est chiré Nitro dans le moteur, Diana dans le Pioneer Mondéo dans le retro, accélère les battements de coeur Pour mes glockeurs, j'débite des tas d'horreurs Fais crier le Roadster, les minots lèvent leur majeur Négro on rend honneur, aux charbonneurs On alimente les crackeurs, toujours posés sur le corner Dépoussière la poucav à la XXX, je suis over Sous Polka, Marijuana, Jack, I'm a monster Baise ton game de médisant, posté dans ma zone Je m'en remets qu'au tout puissant, posé sur son trône Ils nous prennent pour des paysans, on leur fera le remake des bouseux Corleone X X X X X X X X X X X X Evite le coup de filet des chalutiers, reste calibré Une grosse pointure chez les va-nu-pied, c'est ça l'idée Austère, gros fer, vitres teintées, j'vois que des gars vibrer On baise ton règne, y a que devant une liasse que je peux saliver Elles veulent des gros voleurs, des charbonneurs X X X X, qu'elles puissent mouiller sur du cuir neuf Sache qu'ici on fume aussi rapide qu'une barrette Revolution Urbaine la comète You might also like Ca vient d'en bas de nos XXX, où les voisins mettent les voiles Les petits guettent les phares, nos mères s'inquiètent des vols Là où, personne n'a jamais eu la moyenne Ils veulent tous dégainer voyons, et rapper par tous les moyens La qualité est garantie nigo J'rapperai pas jusqu'à 40 piges Figo La concurrence nous ralentie, j'rigole Revolution Urbaine, Bico C'est Marseille, Centre-Ville, c'est la vraie vie qu'on te rap Nous on te frappe à la tête, donc impossible qu'on te rate Nous appelle pas en inconnu si tu veux qu'on te rép' On a la cote, on est connu, toi tu touches la Cotorep Fuck la RTM, maintenant je veux rouler en grosse tutur' On rap dans la rue, toi tu rap en rose tutu Je te le dis texto, viens pas tester techniquement Je t'explose au micro, style flow, j'kick gros 22-22 v'là les condés, c'est pas vraiment la fête Tu penses à me fouiller les couilles, mais j'ai déjà la beuh dans la tête Et tu peux retourner la pièce, défoncé de la veille On pense qu'à tiser la teille, et rien à foutre de qui la paye Et puis à l'aube on fait l'appel, oui car la foi y a rien de plus sur 3 points de suspensions peuvent remplacer 3 points de suture T'es nouveau tu crois que t'as fait le plus dur Roule au passé, tu touches au présent, je vais fumer le futur Dis-moi qu'est-ce tu connais de l'amour Ne pense qu'à faire la cour, aux demoiselles qui râlent mais font tout pour Plaire, l'envie te pousse à l'adultère Influencé par une paire de seins, du coup, d'une pierre deux coups Tu glisses et continues à le faire La tise te désaltère, t'as plus de rides que ton père Leu-cou, tu nous fais juste marrer Roule un joint de com' et fais semblant de planer Wahrani, j'ai pas l'accent du bled Accro à la buvette, les MC râlent parce qu'on lève pas la cuvette Mais t'y vois quoi derrière tes lunettes ? T'es plein de commentaires J'me tiens les couilles en concert, pour tenir ma fumette La vengeance est un plat qui se mange Hayce ma petHayce est delicious, elle a le gout du champaign, bico J'fais ma plHayce, le temps pHayce et les an-ienc' ont les sinus fourrés dans la Cocain, bico Bico, Blaco, Blanco, Loco, Lego c'est la street pas de buzz qui nous forge On est hard on regorge de hargne et de larmes dans les yeuz et des joints qui nous prennent à la gorge, bico Vestibule insalubre, énième joint chargé comme la mule Qu'on m'allume si mon rap est faux, je joue sur les flows comme la Lune, bico J'ai cette haine amoureuse envers chacun de mes trophées Le marchand de sable arrache des keus', y'a des traces d'intraveineuse sur les bras de Morphée Trainée de poudre, par l'oseille frustré, transforme les soirées dansantes en bain de sang Je la vois sortir du soleil sucré, ses petites mèches fouettent les mouches en marchant La vérité se cache derrière une montagne de courtoisie, bico Mal vu ici, parce qu'on est pas issu de leur putain d'immigration choisie Trop de fissures, demande à Lissu, G-T, Lassgass, KranMax ou Grizzly Quand tu bois de l'alcool, tu parles mal boy, quand tu vois le magnum, tu perds ton zizi J'ai beau chercher le bonheur dans un encrier, dissimuler tout ce que j'ai souffert, sous terre Personne ne pourra m'entendre crier, si rapper c'est tout ce que j'ai su faire, mon frère Sois pas paresseux, te contente pas du RSA Pour caresser son boule graisseux, sors 2-3-4 bouteilles de rosé</t>
+          <t>Viens que je t'explique en 2-4-6, sensations fortes via 2-3 spliffs Embrouille de tess de 2-3 types, un frère se perd en 2-3 Clic- -Boom, le Swagg d'un pitbull, à l'affut d'une petite poule Tu es un prototype cool, ce soir j'ai besoin d'un petit... Veni Vidi Vici, 22 v'là les vil-ci Vite faut qu'on s'éloigne d'ici, check moi sur N.Y ou D.C On tré-ren par la petite porte, on consomme de la tise forte Sensations fortes de toute sorte, sans façon braque le XXX 75 75 protège ta tête et ta mère zinc' Protège ta belle quand XXX parce que fonce-dé sous bouteille de blanc de Label 5 Fini l'époque du petit lait, l'époque nous a tous mutilé On a vu souffrir nos mères, voilà pourquoi frère on a dealé On a pas choisi de faire le mal, ni même de grandir dans le malheur On a trop de haine, trop de peine, trop de blèmes qu'on noie dans des trucs qu'on inhale On a trouvé de l'air dans la fumée, niqué nos poumons dans la foulée Je traine avec des tâches et des thugs, tout le monde est dingue, tout le monde est chiré Nitro dans le moteur, Diana dans le Pioneer Mondéo dans le retro, accélère les battements de coeur Pour mes glockeurs, j'débite des tas d'horreurs Fais crier le Roadster, les minots lèvent leur majeur Négro on rend honneur, aux charbonneurs On alimente les crackeurs, toujours posés sur le corner Dépoussière la poucav à la XXX, je suis over Sous Polka, Marijuana, Jack, I'm a monster Baise ton game de médisant, posté dans ma zone Je m'en remets qu'au tout puissant, posé sur son trône Ils nous prennent pour des paysans, on leur fera le remake des bouseux Corleone X X X X X X X X X X X X Evite le coup de filet des chalutiers, reste calibré Une grosse pointure chez les va-nu-pied, c'est ça l'idée Austère, gros fer, vitres teintées, j'vois que des gars vibrer On baise ton règne, y a que devant une liasse que je peux saliver Elles veulent des gros voleurs, des charbonneurs X X X X, qu'elles puissent mouiller sur du cuir neuf Sache qu'ici on fume aussi rapide qu'une barrette Revolution Urbaine la comète Ca vient d'en bas de nos XXX, où les voisins mettent les voiles Les petits guettent les phares, nos mères s'inquiètent des vols Là où, personne n'a jamais eu la moyenne Ils veulent tous dégainer voyons, et rapper par tous les moyens La qualité est garantie nigo J'rapperai pas jusqu'à 40 piges Figo La concurrence nous ralentie, j'rigole Revolution Urbaine, Bico C'est Marseille, Centre-Ville, c'est la vraie vie qu'on te rap Nous on te frappe à la tête, donc impossible qu'on te rate Nous appelle pas en inconnu si tu veux qu'on te rép' On a la cote, on est connu, toi tu touches la Cotorep Fuck la RTM, maintenant je veux rouler en grosse tutur' On rap dans la rue, toi tu rap en rose tutu Je te le dis texto, viens pas tester techniquement Je t'explose au micro, style flow, j'kick gros 22-22 v'là les condés, c'est pas vraiment la fête Tu penses à me fouiller les couilles, mais j'ai déjà la beuh dans la tête Et tu peux retourner la pièce, défoncé de la veille On pense qu'à tiser la teille, et rien à foutre de qui la paye Et puis à l'aube on fait l'appel, oui car la foi y a rien de plus sur 3 points de suspensions peuvent remplacer 3 points de suture T'es nouveau tu crois que t'as fait le plus dur Roule au passé, tu touches au présent, je vais fumer le futur Dis-moi qu'est-ce tu connais de l'amour Ne pense qu'à faire la cour, aux demoiselles qui râlent mais font tout pour Plaire, l'envie te pousse à l'adultère Influencé par une paire de seins, du coup, d'une pierre deux coups Tu glisses et continues à le faire La tise te désaltère, t'as plus de rides que ton père Leu-cou, tu nous fais juste marrer Roule un joint de com' et fais semblant de planer Wahrani, j'ai pas l'accent du bled Accro à la buvette, les MC râlent parce qu'on lève pas la cuvette Mais t'y vois quoi derrière tes lunettes ? T'es plein de commentaires J'me tiens les couilles en concert, pour tenir ma fumette La vengeance est un plat qui se mange Hayce ma petHayce est delicious, elle a le gout du champaign, bico J'fais ma plHayce, le temps pHayce et les an-ienc' ont les sinus fourrés dans la Cocain, bico Bico, Blaco, Blanco, Loco, Lego c'est la street pas de buzz qui nous forge On est hard on regorge de hargne et de larmes dans les yeuz et des joints qui nous prennent à la gorge, bico Vestibule insalubre, énième joint chargé comme la mule Qu'on m'allume si mon rap est faux, je joue sur les flows comme la Lune, bico J'ai cette haine amoureuse envers chacun de mes trophées Le marchand de sable arrache des keus', y'a des traces d'intraveineuse sur les bras de Morphée Trainée de poudre, par l'oseille frustré, transforme les soirées dansantes en bain de sang Je la vois sortir du soleil sucré, ses petites mèches fouettent les mouches en marchant La vérité se cache derrière une montagne de courtoisie, bico Mal vu ici, parce qu'on est pas issu de leur putain d'immigration choisie Trop de fissures, demande à Lissu, G-T, Lassgass, KranMax ou Grizzly Quand tu bois de l'alcool, tu parles mal boy, quand tu vois le magnum, tu perds ton zizi J'ai beau chercher le bonheur dans un encrier, dissimuler tout ce que j'ai souffert, sous terre Personne ne pourra m'entendre crier, si rapper c'est tout ce que j'ai su faire, mon frère Sois pas paresseux, te contente pas du RSA Pour caresser son boule graisseux, sors 2-3-4 bouteilles de rosé</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>On veut lécher les p'tites poires de Marie-Antoinette On cuisine au bain-marie pour vi-ser aux toilettes Bsahtek le gabarie, méfie-toi des poids lègs' Fais c'que t'as à faire car personne ne croira en toi, mec Moi, j'ai peut-être pas la science infuse J'ai un fusil pas loin du tertus Moi, freestyler jusqu'à l'infarctus Eternel insatisfait j'ai toujours envie d'en faire plus Man down, man down, on a fumé trop d'shit Averse de Moët Chandon dans son brushing Slalome sur les pistes noires, on m'appelle Hayce Lemski Ta salope connait mes paroles, ma chambre et mon brechi Toi t'es tellement mauvais qu'on s'demande si tu connais l'Diable T'avises pas d'jouer les samouraïs pour une vieille geisha J'boxe avec les mots, t'as pas la garde pour encaisser l'jab Le rap appartient à la rue, sûrement pas aux médias J'ai cette dope dans le métabolisme Un atome de guerrier jusque dans l'groupe sanguin Pédale, il est trop tard pour appeler la police Tu restes en vie si le crédité retrouve son gain J'recrache fumée comme le dragon Y'a Papada aka bras long Volts Face la poudre à canon Matchio bang bang c'est le gravon Viens charbonner petit raton Cours pour la bibi, triathlon On met le rap game en amont Il est l'heure de tout niquer sur ma montre You might also like Biff, oseille, moula J'viens dire c'que tu penses tout bas Si cette caisse te plait, loue-la Rageux, qu'est-ce que tu fous là J'ai dit vis pour cette moula J'viens dire c'que tu penses tout bas Si cette caisse te plait, loue-la Rageux, qu'est-ce que tu fous là T'es pas l'bienvenu dans la party Pas l'bienvenu dans la party J'vais conduire cette Maserati Conduire cette Maserati, bitch T'envoie des piques, petit, t'es personne Pour te faire fuir, t'inquiète, c'est rapide Il m'suffit juste d'un coup d'téléphone Pour que t'oublies l'odeur d'la cabine On serre des femmes, tu serre des gamines Les gens has been disent que t'es has been Si y'a pas d'criminel, y'a pas d'crime Si y'a pas de buzz réel, y'a pas d'string, hahaha Toi tu veux ma peau, tu seras déjà chanceux si t'atteins mes côtes J'aurais pas dû la ken, le soir c'est une frappe, le matin, une faute Et c'est comme ça qu'ça s'passe dans ma life Au quartier les p'tits t'parlent de vente d'armes J'traîne avec des gens peu fréquentables Qui jouent les Van Damne devant les gendarmes La vie m'a rendu asthmatique J'me vois partout comme un Asiatique Au tierquar tous mes potes glissent Paname ça devient un parc aquatique On m'a dit Volts, rebeu, t'as gé-chan J'ai pas gé-chan, c'est toi qui est vicieux On a bossé pour mouiller le maillot Toi, fils de pute, tu sors quand il pleut Attends d'te marier, les traîtres seront présents à ton cortège Meurs demain, ils baiseront ta femme Enterré, t'auras encore le corps beige Ça y est tu viens d'mourir, bah ouais regarde tes soi-disant frères Hier ils crevaient pour toi, aujourd'hui ils prient pour qu't'ailles en Enfer Hier ils crevaient pour toi, aujourd'hui ils prient pour qu't'ailles en Enfer Biff, oseille, moula J'viens dire c'que tu penses tout bas Si cette caisse te plait, loue-la Rageux, qu'est-ce que tu fous là J'ai dit vis pour cette moula J'viens dire c'que tu penses tout bas Si cette caisse te plait, loue-la Rageux, qu'est-ce que tu fous là T'es pas l'bienvenu dans la party Pas l'bienvenu dans la party J'vais conduire cette Maserati Conduire cette Maserati, bitch</t>
+          <t>On veut lécher les p'tites poires de Marie-Antoinette On cuisine au bain-marie pour vi-ser aux toilettes Bsahtek le gabarie, méfie-toi des poids lègs' Fais c'que t'as à faire car personne ne croira en toi, mec Moi, j'ai peut-être pas la science infuse J'ai un fusil pas loin du tertus Moi, freestyler jusqu'à l'infarctus Eternel insatisfait j'ai toujours envie d'en faire plus Man down, man down, on a fumé trop d'shit Averse de Moët Chandon dans son brushing Slalome sur les pistes noires, on m'appelle Hayce Lemski Ta salope connait mes paroles, ma chambre et mon brechi Toi t'es tellement mauvais qu'on s'demande si tu connais l'Diable T'avises pas d'jouer les samouraïs pour une vieille geisha J'boxe avec les mots, t'as pas la garde pour encaisser l'jab Le rap appartient à la rue, sûrement pas aux médias J'ai cette dope dans le métabolisme Un atome de guerrier jusque dans l'groupe sanguin Pédale, il est trop tard pour appeler la police Tu restes en vie si le crédité retrouve son gain J'recrache fumée comme le dragon Y'a Papada aka bras long Volts Face la poudre à canon Matchio bang bang c'est le gravon Viens charbonner petit raton Cours pour la bibi, triathlon On met le rap game en amont Il est l'heure de tout niquer sur ma montre Biff, oseille, moula J'viens dire c'que tu penses tout bas Si cette caisse te plait, loue-la Rageux, qu'est-ce que tu fous là J'ai dit vis pour cette moula J'viens dire c'que tu penses tout bas Si cette caisse te plait, loue-la Rageux, qu'est-ce que tu fous là T'es pas l'bienvenu dans la party Pas l'bienvenu dans la party J'vais conduire cette Maserati Conduire cette Maserati, bitch T'envoie des piques, petit, t'es personne Pour te faire fuir, t'inquiète, c'est rapide Il m'suffit juste d'un coup d'téléphone Pour que t'oublies l'odeur d'la cabine On serre des femmes, tu serre des gamines Les gens has been disent que t'es has been Si y'a pas d'criminel, y'a pas d'crime Si y'a pas de buzz réel, y'a pas d'string, hahaha Toi tu veux ma peau, tu seras déjà chanceux si t'atteins mes côtes J'aurais pas dû la ken, le soir c'est une frappe, le matin, une faute Et c'est comme ça qu'ça s'passe dans ma life Au quartier les p'tits t'parlent de vente d'armes J'traîne avec des gens peu fréquentables Qui jouent les Van Damne devant les gendarmes La vie m'a rendu asthmatique J'me vois partout comme un Asiatique Au tierquar tous mes potes glissent Paname ça devient un parc aquatique On m'a dit Volts, rebeu, t'as gé-chan J'ai pas gé-chan, c'est toi qui est vicieux On a bossé pour mouiller le maillot Toi, fils de pute, tu sors quand il pleut Attends d'te marier, les traîtres seront présents à ton cortège Meurs demain, ils baiseront ta femme Enterré, t'auras encore le corps beige Ça y est tu viens d'mourir, bah ouais regarde tes soi-disant frères Hier ils crevaient pour toi, aujourd'hui ils prient pour qu't'ailles en Enfer Hier ils crevaient pour toi, aujourd'hui ils prient pour qu't'ailles en Enfer Biff, oseille, moula J'viens dire c'que tu penses tout bas Si cette caisse te plait, loue-la Rageux, qu'est-ce que tu fous là J'ai dit vis pour cette moula J'viens dire c'que tu penses tout bas Si cette caisse te plait, loue-la Rageux, qu'est-ce que tu fous là T'es pas l'bienvenu dans la party Pas l'bienvenu dans la party J'vais conduire cette Maserati Conduire cette Maserati, bitch</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Dédicace à toute la France, la Belgique, la Suisse, le Maghreb, le Canada, XV Barbar, Volts Face, PSO Thug Le vendredi 4 Septembre j'casse la gueule de ton rappeur préféré bitch T'as peut-être déjà vu ma gueule sur un poster Poses pas de questions, mets ton cavu sur la cane-bé J'bosse comme un Philippin mon train de vie de Boss laisse peu d'espace et de temps malgré les équations d'Albert Hausse la mise et fais tomber tous les masques Est-ce dans ma volubilité qu'est née leur foutue bassesse ? Hayce interpellé pour un délit de faciès Barbe à Napoli, dans la pyramide ou l'Iceberg Barbare impoli j'ai le milli' dans le Holster Drive-by en bolide ces bicos nous payent au lance-pierre Hayce Algerian Gangster, Cristiano du Rap des millions d'euros le transfert Snitch t'as rien à faire dans le four Tu deviens trop lourd j'te jette de la montgolfière American Express dans le larfeuille 6' du Sbah pour aller braquer l'orfèvre J'ai la folie des grandeurs et mon arsenal dans le coffre Ta ville, ton équipe, ton vécu, ta mif' I don't care J'ai grandi, on vieillit avec des balles dans le corps Elle glisse de la mali dans ton magnum de Domper On vit à 230 d'Amsterdam à Berlin Massage Thaï, match du Paris Saint Germain Stranguler les a3tay au drapeau Algérien Ils ont entendu pyramides ils m'ont pris pour Merlin Moi c'est Hayce Lemsi, toi t'es j'sais pas qui Berkoukès, chebkia Deux trois litrons dans le que-s J'suis de retour dans la course, tu sais où je t'emmène après le show-case biatch biatch biatch J'fais des travaux sur la corniche Porte le bandana comme la MS de Californie T'as pris ta vie pour un rêve fallait pas t'endormir Ta femme et ce que t'appelles ton meilleur ami forniquent Nique-Nique-Nique la Police Canabinoïde dans mon métabolisme Les petits déchargent tout le camtar ohisse Je glisse un billet violet dans le tablier de la boniche Jeune et riche bitch, ich liebe dich bitch Bouge la tête dans tous les sens LimpBizkit Fais gaffe à ton petit cul quand tu m'aguiches bitch J'sors pas un mille-feuille pour tremper le biscuit Mieux vaut de l'amour pour soi qu'un soi pour seul amour Elle n'aura qu'un ... moulé dans le taille-basse Chacun pour soi quand les keufs arrivent dans le four Ces derniers se jettent sur le premier guetteur et le tabassent Un pas de strass aux anti-dépresseurs Comment rendre un véritable hommage aux prédécesseus Dans ce monde de traître j'veux supprimer l'opresseur Dis pas qu'tes son frère s'tu veux baiser ses soeurs MC j'te laisse machouiller ta tétine, en un chouia j'te piétine Depuis qu'j'sais que l'argent fait tourner l'monde C'est décathlon dans la guerilla marketing En un chouia j'te piétine,j'te laisse machouiller ta tétine Depuis qu'j'sais que l'argent fait tourner l'monde C'est décathlon dans la guérilla marketing You might also like XV Bagdad Aux armes Odeur de gloire je me suis parfumé, je me suis parfumé Costard 12 pièces, homme d'affaire éclairé Vitres et verres fumés Mon un jardin, mon flow comme jardinier, comme jardinier Hayce Lemsi dans le rôle du meurtrier J'finirai par fumer Poupée suce moi dans le classe S, poupée Ils veulent m'inculper Rien ne sert à faire appel, ça sonne occupé, ça sonne occupé Les poukis passent à table on leur fait du pied Ils n'ont pas de toupet Jt'ai raté mais la prochaine fois jvais pas te louper, non jvais pas te louper Ton territoire encerclé par tout mes ti-peu calibrés T'sais pas où t'es, tu casses , tu paies, puto t'sais pas où t'es Les livres d'histoire falsifiés comme la chatte à Ruquier Depuis quand les requins sont pêchés pas les petits chalutiers les white widow dans le boomqueur Le marchand de sables comme beatmaker Jsuis toujours insolent face à leurs inspecteurs Jroule en ville, solo, 300 000 au compteur Omerta le mot d'ordre On donne du fil à retordre aux indicateurs Depuis XXX XXX j'ai fait blanchir les cheveux de l'éducateur Et le diamant sommeil, sommeil Qui aurait dit que je deviendrai célèbre, célèbre Dans la street un nouveau jour se lève, se lève Ces fils de pute veulent défier HayceLem, Haycelem ! Sorti de la pénombre AstreEclipsé, AstreEclipsé J'envoie des missiles aux artificiers Ils essayent de me pister Depuis que mon sort et mes lokas sont ficellés Ils veulent insister J'ai refusé de faire parti des assistés J'ai du persister La vengeance a toujours animée les rois, animée les rois Dans vos rétines j'arrive à lire l'effrois et le désarroi Vous n'avez pas pris le temps de vous regarder dans le miroir Le monde est à moi Cette industrie deviendra mon urinoir Jsuis venu faire ma loi ! La concurrence est sadomasochiste Usurpateurs et soi disant grossiste Ils pensent pouvoir vaincre mon insomnie mais je suis l'éloquence en son paroxysme L'homme de fer XXX un frère se fait négliger par XXX L'homme de fer et les bikos t'enferment oui les bikos t'enferment ont rendu paro le psy Commandant Hayce à bord du cockpit J'risque pas d'taper dans ta coke bitch ! J'risque pas d'taper dans ta coke bitch ! Young rich Panamovic, haschich de Maastricht Sommeil Qui aurait dit que je deviendrai célèbre, célèbre Dans la Street un nouveau jour se lève, se lève Ces fils de pute veulent défier HayceLem, Haycelem Faut qu'ça Trayce, Faut qu'ça Trayce Le Vrai Rap du Siete Cinco Faut que je le fasse pour tout mes lokos T'as beau faire du buzz tout le monde sait que dans tes écouteurs y'a Hayce Lem' Demande à S-Pri j'fais des prix sur la S' J'ai du style même quand je les braque pendant que Volt Face vide la caisse Ma vérité roule à sens unique avec une Pet-hayce de Budapest Le pillon mharleine à chimique enfume la pièce C'est la hess ouai c'est comme d'hab les familles s'entassent au jeu de la pièce Les porcs appellent les renforts et ces fils de pute vident la tess' Investit dans un hanout au lieu de flamber dans un Classe S Buiseness man depuis lépoque ou El Bino navait pas de tresses UnDosTrès On sort la night 75 degrés Fahrenheit Phares éteint sur le periph', Triangle dOr sur la plaque paranoïaque Moi jai la tête dure comme leurs matraque j'suis un macaque avec une bite d'éléphanteau dans une phantom au milieu de la night Démoniaque cest linsomniaque jpeut pas mendormir dans une chart En manque daffection et daction la délinquance a du charme Jvais pas cracher dans la Chorba Cest la fin des haricots, cest la fin de la loubia Mais ce ne sera jamais la fin de mes Parigos Ouai mange ma Bounia bourricot Les jeunes ont tendance à mourir tôt Si tu les douilles évite de brailler tu mérites une rafale de balle sous Mojito Hijo de la puta, j'recèle, hiro de la puta Jobserve a chaque fois que l'étau se ressert et que les poukitos se reservent Demande aux frères lumières des années lumières décart entre les frères Asiatique, blanc, arabe, noir et fier Paris n'a pas d'odeur mais le Qatar a du flair Une putain d'fissure au cur lorsque l'arnaque a manger du ferme Pour nos pères un peu du-per ayant plongé dans l'adultère Pris sur l'euphorie du ter' avec une keh' a la place du ter' Y'as pas de place pour les traîtres dans mon cur Y'as pas de place pour les Bookmakers dans mon boumqueur Trop de public pour tes bookers Y'a du halal dans mon Uber faut que j'arrête de la ken' dans la Cooper Haysolateur mon coup de cur on sert tes boloss à toutes heures Hayce Lemsi pénètre le Boeing armé d'un Cutter Dites aux rappeurs de venir accompagnés d'un tuteur On dirait que le 75 a trouvé son meilleur buteur Zlat'Hayce Tu peux le posté sur Twitter bitch14</t>
+          <t>Dédicace à toute la France, la Belgique, la Suisse, le Maghreb, le Canada, XV Barbar, Volts Face, PSO Thug Le vendredi 4 Septembre j'casse la gueule de ton rappeur préféré bitch T'as peut-être déjà vu ma gueule sur un poster Poses pas de questions, mets ton cavu sur la cane-bé J'bosse comme un Philippin mon train de vie de Boss laisse peu d'espace et de temps malgré les équations d'Albert Hausse la mise et fais tomber tous les masques Est-ce dans ma volubilité qu'est née leur foutue bassesse ? Hayce interpellé pour un délit de faciès Barbe à Napoli, dans la pyramide ou l'Iceberg Barbare impoli j'ai le milli' dans le Holster Drive-by en bolide ces bicos nous payent au lance-pierre Hayce Algerian Gangster, Cristiano du Rap des millions d'euros le transfert Snitch t'as rien à faire dans le four Tu deviens trop lourd j'te jette de la montgolfière American Express dans le larfeuille 6' du Sbah pour aller braquer l'orfèvre J'ai la folie des grandeurs et mon arsenal dans le coffre Ta ville, ton équipe, ton vécu, ta mif' I don't care J'ai grandi, on vieillit avec des balles dans le corps Elle glisse de la mali dans ton magnum de Domper On vit à 230 d'Amsterdam à Berlin Massage Thaï, match du Paris Saint Germain Stranguler les a3tay au drapeau Algérien Ils ont entendu pyramides ils m'ont pris pour Merlin Moi c'est Hayce Lemsi, toi t'es j'sais pas qui Berkoukès, chebkia Deux trois litrons dans le que-s J'suis de retour dans la course, tu sais où je t'emmène après le show-case biatch biatch biatch J'fais des travaux sur la corniche Porte le bandana comme la MS de Californie T'as pris ta vie pour un rêve fallait pas t'endormir Ta femme et ce que t'appelles ton meilleur ami forniquent Nique-Nique-Nique la Police Canabinoïde dans mon métabolisme Les petits déchargent tout le camtar ohisse Je glisse un billet violet dans le tablier de la boniche Jeune et riche bitch, ich liebe dich bitch Bouge la tête dans tous les sens LimpBizkit Fais gaffe à ton petit cul quand tu m'aguiches bitch J'sors pas un mille-feuille pour tremper le biscuit Mieux vaut de l'amour pour soi qu'un soi pour seul amour Elle n'aura qu'un ... moulé dans le taille-basse Chacun pour soi quand les keufs arrivent dans le four Ces derniers se jettent sur le premier guetteur et le tabassent Un pas de strass aux anti-dépresseurs Comment rendre un véritable hommage aux prédécesseus Dans ce monde de traître j'veux supprimer l'opresseur Dis pas qu'tes son frère s'tu veux baiser ses soeurs MC j'te laisse machouiller ta tétine, en un chouia j'te piétine Depuis qu'j'sais que l'argent fait tourner l'monde C'est décathlon dans la guerilla marketing En un chouia j'te piétine,j'te laisse machouiller ta tétine Depuis qu'j'sais que l'argent fait tourner l'monde C'est décathlon dans la guérilla marketing XV Bagdad Aux armes Odeur de gloire je me suis parfumé, je me suis parfumé Costard 12 pièces, homme d'affaire éclairé Vitres et verres fumés Mon un jardin, mon flow comme jardinier, comme jardinier Hayce Lemsi dans le rôle du meurtrier J'finirai par fumer Poupée suce moi dans le classe S, poupée Ils veulent m'inculper Rien ne sert à faire appel, ça sonne occupé, ça sonne occupé Les poukis passent à table on leur fait du pied Ils n'ont pas de toupet Jt'ai raté mais la prochaine fois jvais pas te louper, non jvais pas te louper Ton territoire encerclé par tout mes ti-peu calibrés T'sais pas où t'es, tu casses , tu paies, puto t'sais pas où t'es Les livres d'histoire falsifiés comme la chatte à Ruquier Depuis quand les requins sont pêchés pas les petits chalutiers les white widow dans le boomqueur Le marchand de sables comme beatmaker Jsuis toujours insolent face à leurs inspecteurs Jroule en ville, solo, 300 000 au compteur Omerta le mot d'ordre On donne du fil à retordre aux indicateurs Depuis XXX XXX j'ai fait blanchir les cheveux de l'éducateur Et le diamant sommeil, sommeil Qui aurait dit que je deviendrai célèbre, célèbre Dans la street un nouveau jour se lève, se lève Ces fils de pute veulent défier HayceLem, Haycelem ! Sorti de la pénombre AstreEclipsé, AstreEclipsé J'envoie des missiles aux artificiers Ils essayent de me pister Depuis que mon sort et mes lokas sont ficellés Ils veulent insister J'ai refusé de faire parti des assistés J'ai du persister La vengeance a toujours animée les rois, animée les rois Dans vos rétines j'arrive à lire l'effrois et le désarroi Vous n'avez pas pris le temps de vous regarder dans le miroir Le monde est à moi Cette industrie deviendra mon urinoir Jsuis venu faire ma loi ! La concurrence est sadomasochiste Usurpateurs et soi disant grossiste Ils pensent pouvoir vaincre mon insomnie mais je suis l'éloquence en son paroxysme L'homme de fer XXX un frère se fait négliger par XXX L'homme de fer et les bikos t'enferment oui les bikos t'enferment ont rendu paro le psy Commandant Hayce à bord du cockpit J'risque pas d'taper dans ta coke bitch ! J'risque pas d'taper dans ta coke bitch ! Young rich Panamovic, haschich de Maastricht Sommeil Qui aurait dit que je deviendrai célèbre, célèbre Dans la Street un nouveau jour se lève, se lève Ces fils de pute veulent défier HayceLem, Haycelem Faut qu'ça Trayce, Faut qu'ça Trayce Le Vrai Rap du Siete Cinco Faut que je le fasse pour tout mes lokos T'as beau faire du buzz tout le monde sait que dans tes écouteurs y'a Hayce Lem' Demande à S-Pri j'fais des prix sur la S' J'ai du style même quand je les braque pendant que Volt Face vide la caisse Ma vérité roule à sens unique avec une Pet-hayce de Budapest Le pillon mharleine à chimique enfume la pièce C'est la hess ouai c'est comme d'hab les familles s'entassent au jeu de la pièce Les porcs appellent les renforts et ces fils de pute vident la tess' Investit dans un hanout au lieu de flamber dans un Classe S Buiseness man depuis lépoque ou El Bino navait pas de tresses UnDosTrès On sort la night 75 degrés Fahrenheit Phares éteint sur le periph', Triangle dOr sur la plaque paranoïaque Moi jai la tête dure comme leurs matraque j'suis un macaque avec une bite d'éléphanteau dans une phantom au milieu de la night Démoniaque cest linsomniaque jpeut pas mendormir dans une chart En manque daffection et daction la délinquance a du charme Jvais pas cracher dans la Chorba Cest la fin des haricots, cest la fin de la loubia Mais ce ne sera jamais la fin de mes Parigos Ouai mange ma Bounia bourricot Les jeunes ont tendance à mourir tôt Si tu les douilles évite de brailler tu mérites une rafale de balle sous Mojito Hijo de la puta, j'recèle, hiro de la puta Jobserve a chaque fois que l'étau se ressert et que les poukitos se reservent Demande aux frères lumières des années lumières décart entre les frères Asiatique, blanc, arabe, noir et fier Paris n'a pas d'odeur mais le Qatar a du flair Une putain d'fissure au cur lorsque l'arnaque a manger du ferme Pour nos pères un peu du-per ayant plongé dans l'adultère Pris sur l'euphorie du ter' avec une keh' a la place du ter' Y'as pas de place pour les traîtres dans mon cur Y'as pas de place pour les Bookmakers dans mon boumqueur Trop de public pour tes bookers Y'a du halal dans mon Uber faut que j'arrête de la ken' dans la Cooper Haysolateur mon coup de cur on sert tes boloss à toutes heures Hayce Lemsi pénètre le Boeing armé d'un Cutter Dites aux rappeurs de venir accompagnés d'un tuteur On dirait que le 75 a trouvé son meilleur buteur Zlat'Hayce Tu peux le posté sur Twitter bitch14</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ils ont tenté de m'interroger mais je nie Je n'ai jamais crié défaite, j'suis pas du genre à gémir Ils ont tenté de m'enterrer mais j'suis une graine de génie J'ai n'ai que ma fierté, mon savoir et mon drapeau d'Algérie Jamais je n'ai nié mon appartenance Jamais je n'ai cessé d'm'oxygener d'hayssonnances Quitte à courir à ma perte avec pertinence On est dans la partie même les mauvais garçon dansent Calibre à l'abdomen, sers de la gl'Hayce au boss Les mauvais garçons dansent On s'en fiche d'être beau gosse Les mauvais garçons dansent Venus de loin, le ghetto nous éduqua tous malgré nos différences Les mauvais garçons dansent x2 J'vais danser jusqu'a demain Mes bikos, blakos, blankos, lokos vont danser jusqu'a demain Les mauvais garçons dansent Loka, je te prends par la main Tu sais déjà qu'nous partirons ensemble au petit matin Ce soir on oublie la street, on s'amuse un peu On oublie la street on s'amuse un peu Balenciaga, Louboutin, champagne et joints d'beuh Ce soir on oublie la street, on s'amuse un peu On oublie la street, on s'amuse un peu On oublie la street, on s'amuse un peu Suite aux Four Seasons, ma bitch est fraîche Cette nuit j'm'appelle Stevens à cause d'une fiche de recherche Mauvais garçon sur la piste avec une whisky sec Laisse-moi kiffer la musique, représenter le 17 Détendez-vous, j'viens m'éclater pas montrer l'biceps À chaque fois qu'elles entendent mon blase, elles demandent du sexe J'tiens le mur depuis des années, j'veux plus voir d'misère J'veux visiter la planète et changer d'hémisphère Génération d'hommes élevés par des femmes Génération de femmes qui s'assument comme des hommes Ayant du mal à distinguer la lumière des flammes Génération qui refuse de recevoir des ordres Génération de free-lance, de province ou d'Paname Cette semaine j'fais des dollars, samedi soir, je danse C'est moi j'finance, range ton oseille caraï On est pas bons qu'à racailler, les mauvais garçons dansent x2 J'vais danser jusqu'a demain Mes bikos, blakos, blankos, lokos vont danser jusqu'a demain Les mauvais garçons dansent Loka, je te prends par la main Tu sais déjà qu'nous partirons ensemble au petit matin Ce soir on oublie la street, on s'amuse un peu On oublie la street on s'amuse un peu Balenciaga, Louboutin, champagne et joints d'beuh Ce soir on oublie la street, on s'amuse un peu On oublie la street, on s'amuse un peu On oublie la street, on s'amuse un peu Les mauvais garçons dansent Les mauvais garçons dansent Les mauvais garçons dansent Les mauvais garçons dansent Les mauvais garçons dansent Ce soir on oublie la street, on s'amuse un peu On oublie la street on s'amuse un peu Balenciaga, Louboutin, champagne et joints d'beuh Ce soir on oublie la street, on s'amuse un peu On oublie la street, on s'amuse un peu On oublie la street, on s'amuse un peuYou might also like4</t>
+          <t>Ils ont tenté de m'interroger mais je nie Je n'ai jamais crié défaite, j'suis pas du genre à gémir Ils ont tenté de m'enterrer mais j'suis une graine de génie J'ai n'ai que ma fierté, mon savoir et mon drapeau d'Algérie Jamais je n'ai nié mon appartenance Jamais je n'ai cessé d'm'oxygener d'hayssonnances Quitte à courir à ma perte avec pertinence On est dans la partie même les mauvais garçon dansent Calibre à l'abdomen, sers de la gl'Hayce au boss Les mauvais garçons dansent On s'en fiche d'être beau gosse Les mauvais garçons dansent Venus de loin, le ghetto nous éduqua tous malgré nos différences Les mauvais garçons dansent x2 J'vais danser jusqu'a demain Mes bikos, blakos, blankos, lokos vont danser jusqu'a demain Les mauvais garçons dansent Loka, je te prends par la main Tu sais déjà qu'nous partirons ensemble au petit matin Ce soir on oublie la street, on s'amuse un peu On oublie la street on s'amuse un peu Balenciaga, Louboutin, champagne et joints d'beuh Ce soir on oublie la street, on s'amuse un peu On oublie la street, on s'amuse un peu On oublie la street, on s'amuse un peu Suite aux Four Seasons, ma bitch est fraîche Cette nuit j'm'appelle Stevens à cause d'une fiche de recherche Mauvais garçon sur la piste avec une whisky sec Laisse-moi kiffer la musique, représenter le 17 Détendez-vous, j'viens m'éclater pas montrer l'biceps À chaque fois qu'elles entendent mon blase, elles demandent du sexe J'tiens le mur depuis des années, j'veux plus voir d'misère J'veux visiter la planète et changer d'hémisphère Génération d'hommes élevés par des femmes Génération de femmes qui s'assument comme des hommes Ayant du mal à distinguer la lumière des flammes Génération qui refuse de recevoir des ordres Génération de free-lance, de province ou d'Paname Cette semaine j'fais des dollars, samedi soir, je danse C'est moi j'finance, range ton oseille caraï On est pas bons qu'à racailler, les mauvais garçons dansent x2 J'vais danser jusqu'a demain Mes bikos, blakos, blankos, lokos vont danser jusqu'a demain Les mauvais garçons dansent Loka, je te prends par la main Tu sais déjà qu'nous partirons ensemble au petit matin Ce soir on oublie la street, on s'amuse un peu On oublie la street on s'amuse un peu Balenciaga, Louboutin, champagne et joints d'beuh Ce soir on oublie la street, on s'amuse un peu On oublie la street, on s'amuse un peu On oublie la street, on s'amuse un peu Les mauvais garçons dansent Les mauvais garçons dansent Les mauvais garçons dansent Les mauvais garçons dansent Les mauvais garçons dansent Ce soir on oublie la street, on s'amuse un peu On oublie la street on s'amuse un peu Balenciaga, Louboutin, champagne et joints d'beuh Ce soir on oublie la street, on s'amuse un peu On oublie la street, on s'amuse un peu On oublie la street, on s'amuse un peu4</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>J'ai mal et la nuit je sens que Je m'éloigne de là, m'éloigne de là, des rivières de larmes L'amour commence par un sourire et se termine par une larme Lorsque la folie s'invite, un mineur s'accapare une arme J'arpente les rues de ma ville, le soir très tard comme un clandestino prend la mer en pleine nuit sur une barque Et comme la rosée du matin, les larmes que l'ont versent empêche nos coeurs de faner Remettre en question ce qu'on aime, j'aurais beau leur dire en latin Mon regard parle de lui-même, j'ai beau faire mon baratin j'en frisonne jusque l'épiderme Et j'ai choisi d'être droit, sincère, loyal, marche au rythme de mes rêves Je suis un conquérant dans l'âme alors je choisis d'être roi, poussière d'étoiles C'est tout ce qu'il restera de mon règne quand je rendrai l'âme J'aurais beau noyé mon chagrin dans un ruisseau de liqueure Au point que l'être humain m'écure et m'éloigne du droit chemin Ma vie ne sera pas meilleure et me faire trahir j'en ai peur Ah si seulement je pouvais lire dans les coeurs de mon prochain Si tu fais du temps sans vouloir changer, j'essaie Si je t'ais fais du mal pardonne-moi tous mes excès Ce soir je suis si seule Ce soir je suis si seule, sans toi J'ai mal et la nuit je sens que Je m'éloigne de là, m'éloigne de là, des rivières de larmes J'ai la tête dans les nuages le moral dans les souliers Lorsque je vois passer l'orage à courir après des rivages Et rédiger ma rage en proses et vers au pied du sommier J'ai dû forcer tous les barrages, essayer de tourner la page Et chaque chapitre de nos vies, nous en apprends sur nous même Le mal que l'ont fait nous suivra jusqu'après la mort Sans le pupitre et la plume je ne sais où la vie me mène J'aurais pu finir enfermer sur le regard des miradors Mais j'ai la chance d'avoir une mère, je la serre très fort dans mes bras La seule pour qui j'irai contre vents et marrées Et ne pourra contrecarrer l'amour que j'ai pour elle Elle est la seule qui m'a permis d'affronter le destin sans m'égarer Quand je suis seul dans ma galère que le monde entier m'en veut Que les gens me tournent le dos, je peux toujours compter sur elle Et même en écrivant des pages entières Je ne trouve les mots parce que misérable est l'amour qui se laisserait mesurer J'ai mal et la nuit je sens que Je m'éloigne de là, m'éloigne de là, des rivières de larmes J'ai mal Des rivières de larmes Et quand le ciel réconforte mes peines Que les lumières de la ville s'éteignent Devenir meilleure j'essayeYou might also like</t>
+          <t>J'ai mal et la nuit je sens que Je m'éloigne de là, m'éloigne de là, des rivières de larmes L'amour commence par un sourire et se termine par une larme Lorsque la folie s'invite, un mineur s'accapare une arme J'arpente les rues de ma ville, le soir très tard comme un clandestino prend la mer en pleine nuit sur une barque Et comme la rosée du matin, les larmes que l'ont versent empêche nos coeurs de faner Remettre en question ce qu'on aime, j'aurais beau leur dire en latin Mon regard parle de lui-même, j'ai beau faire mon baratin j'en frisonne jusque l'épiderme Et j'ai choisi d'être droit, sincère, loyal, marche au rythme de mes rêves Je suis un conquérant dans l'âme alors je choisis d'être roi, poussière d'étoiles C'est tout ce qu'il restera de mon règne quand je rendrai l'âme J'aurais beau noyé mon chagrin dans un ruisseau de liqueure Au point que l'être humain m'écure et m'éloigne du droit chemin Ma vie ne sera pas meilleure et me faire trahir j'en ai peur Ah si seulement je pouvais lire dans les coeurs de mon prochain Si tu fais du temps sans vouloir changer, j'essaie Si je t'ais fais du mal pardonne-moi tous mes excès Ce soir je suis si seule Ce soir je suis si seule, sans toi J'ai mal et la nuit je sens que Je m'éloigne de là, m'éloigne de là, des rivières de larmes J'ai la tête dans les nuages le moral dans les souliers Lorsque je vois passer l'orage à courir après des rivages Et rédiger ma rage en proses et vers au pied du sommier J'ai dû forcer tous les barrages, essayer de tourner la page Et chaque chapitre de nos vies, nous en apprends sur nous même Le mal que l'ont fait nous suivra jusqu'après la mort Sans le pupitre et la plume je ne sais où la vie me mène J'aurais pu finir enfermer sur le regard des miradors Mais j'ai la chance d'avoir une mère, je la serre très fort dans mes bras La seule pour qui j'irai contre vents et marrées Et ne pourra contrecarrer l'amour que j'ai pour elle Elle est la seule qui m'a permis d'affronter le destin sans m'égarer Quand je suis seul dans ma galère que le monde entier m'en veut Que les gens me tournent le dos, je peux toujours compter sur elle Et même en écrivant des pages entières Je ne trouve les mots parce que misérable est l'amour qui se laisserait mesurer J'ai mal et la nuit je sens que Je m'éloigne de là, m'éloigne de là, des rivières de larmes J'ai mal Des rivières de larmes Et quand le ciel réconforte mes peines Que les lumières de la ville s'éteignent Devenir meilleure j'essaye</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Tic tac Tic tac Tic tac Tic tac Tic tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti d'l'usine tah Yuri Orlov Bébé, tu veux qu'j't'offre une paire de Dior, j'te prends des Jordan Un ch'veu dans ma soupe, j'y plonge le visage du majordome Et chaque nuit, j'entends tic tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti de l'usine tah Yuri Orlov Bébé, tu veux qu'j't'offre une paire de Dior, j'te prends des Jordan Un ch'veu dans ma soupe, j'y plonge le visage du majordome Mon pote Nathan m'a dit Le temps n'attend pas,alors je frappe le beat comme Tang Pô T'as dû choper sur le mauvais tempo, toute ton équipe est au shtar, y'a que toi qui tombe pas J'ai les poings serrés, leader Fehrat, derrière gauche droite s'cache un middle Et J'ai beau taper ton blaze sur Google, recherche , 404 not found On t'massacre si tu matte nos femmes, toi ferme-la suis le système et vote Si tu respectes pas nos choufs, pleins phare, coup d'pare-chocs Range Rover Evoque Tes vers ne m'évoquent pas grand chose à part de lesbroufe J'nage avec mon argent car les euros sont waterproofs J'dors pas, j'regarde la trotteuse, l'horloge Les pipeuses me font des éloges, ténébreuse, ma clique dans la loge Sucre d'orge au fond de la gorge, solitaire comme un gitano J'fume beaucoup shab les mexicanos, conduite brutal sur la Brutale, ignoti nulla cupido You might also like Tic tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti d'l'usine tah Yuri Orlov Bébé, tu veux qu'j't'offre une paire de Dior, j'te prends des Jordan Un ch'veu dans ma soupe, j'y plonge le visage du majordome Et chaque nuit, j'entends tic tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti de l'usine tah Yuri Orlov Bébé, tu veux qu'j't'offre une paire de Dior, j'te prends des Jordan Un ch'veu dans ma soupe, j'y plonge le visage du majordome Le jeune loup solitaire attire les chiennes en rute, les gens seront solidaires quand il pleuvra du fric Algérois, Soninkés font partis de ma hutte, un putain de sagittaire au mental anti-flic Anti-faya y'a ta feu-meu qui m'identifie, tous les locos les plus fadas m'authentifient Donnez moi disque d'or pour que j'relativise, tu sais kicker, t'es fort mais t'es mon petit fils Dis-moi, dis-moi qui m'a aidé, ne m'appelle pas j'ai des mamelles à téter Bandit de Bondy, zahef dans la Féfé, celle-là c'est pour moi xxx Je te brûle ton rap et nique la porte pare-feu, pas de tête à tête, venez deux par deux Tout est bien qui finit mal au sommet du règne animal, le shit, la coke et les armes à feu Je renais de mes cendres, hashtag Phoenix, et je suis trop bourré j'ai saccagé le Ritz J'tiens pas debout comme Lenny Kravitz, et j'insulte la mère des keufs en vérif' Bande de fils de pute Alger, Vieux Kouba la grande poste, aucune chance même si tu ripostes C'est bien toi que je visais pas ton pote, les balles ça ricochent, Big Lemsi Records Tic tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti d'l'usine tah Yuri Orlov Bébé, tu veux qu'j't'offre une paire de Dior, j'te prends des Jordan Un ch'veu dans ma soupe, j'y plonge le visage du majordome Et chaque nuit, j'entends tic tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti de l'usine tah Yuri Orlov Bébé, tu veux qu'j't'offre une paire de Dior, j'te prends des Jordan Un ch'veu dans ma soupe, j'y plonge le visage du majordome Tic tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti d'l'usine tah Yuri Orlov Bébé, tu veux qu'j't'offre une paire de Dior, j'te prends des Jordan Un ch'veu dans ma soupe, j'y plonge le visage du majordome Et chaque nuit, j'entends1</t>
+          <t>Tic tac Tic tac Tic tac Tic tac Tic tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti d'l'usine tah Yuri Orlov Bébé, tu veux qu'j't'offre une paire de Dior, j'te prends des Jordan Un ch'veu dans ma soupe, j'y plonge le visage du majordome Et chaque nuit, j'entends tic tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti de l'usine tah Yuri Orlov Bébé, tu veux qu'j't'offre une paire de Dior, j'te prends des Jordan Un ch'veu dans ma soupe, j'y plonge le visage du majordome Mon pote Nathan m'a dit Le temps n'attend pas,alors je frappe le beat comme Tang Pô T'as dû choper sur le mauvais tempo, toute ton équipe est au shtar, y'a que toi qui tombe pas J'ai les poings serrés, leader Fehrat, derrière gauche droite s'cache un middle Et J'ai beau taper ton blaze sur Google, recherche , 404 not found On t'massacre si tu matte nos femmes, toi ferme-la suis le système et vote Si tu respectes pas nos choufs, pleins phare, coup d'pare-chocs Range Rover Evoque Tes vers ne m'évoquent pas grand chose à part de lesbroufe J'nage avec mon argent car les euros sont waterproofs J'dors pas, j'regarde la trotteuse, l'horloge Les pipeuses me font des éloges, ténébreuse, ma clique dans la loge Sucre d'orge au fond de la gorge, solitaire comme un gitano J'fume beaucoup shab les mexicanos, conduite brutal sur la Brutale, ignoti nulla cupido Tic tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti d'l'usine tah Yuri Orlov Bébé, tu veux qu'j't'offre une paire de Dior, j'te prends des Jordan Un ch'veu dans ma soupe, j'y plonge le visage du majordome Et chaque nuit, j'entends tic tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti de l'usine tah Yuri Orlov Bébé, tu veux qu'j't'offre une paire de Dior, j'te prends des Jordan Un ch'veu dans ma soupe, j'y plonge le visage du majordome Le jeune loup solitaire attire les chiennes en rute, les gens seront solidaires quand il pleuvra du fric Algérois, Soninkés font partis de ma hutte, un putain de sagittaire au mental anti-flic Anti-faya y'a ta feu-meu qui m'identifie, tous les locos les plus fadas m'authentifient Donnez moi disque d'or pour que j'relativise, tu sais kicker, t'es fort mais t'es mon petit fils Dis-moi, dis-moi qui m'a aidé, ne m'appelle pas j'ai des mamelles à téter Bandit de Bondy, zahef dans la Féfé, celle-là c'est pour moi xxx Je te brûle ton rap et nique la porte pare-feu, pas de tête à tête, venez deux par deux Tout est bien qui finit mal au sommet du règne animal, le shit, la coke et les armes à feu Je renais de mes cendres, hashtag Phoenix, et je suis trop bourré j'ai saccagé le Ritz J'tiens pas debout comme Lenny Kravitz, et j'insulte la mère des keufs en vérif' Bande de fils de pute Alger, Vieux Kouba la grande poste, aucune chance même si tu ripostes C'est bien toi que je visais pas ton pote, les balles ça ricochent, Big Lemsi Records Tic tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti d'l'usine tah Yuri Orlov Bébé, tu veux qu'j't'offre une paire de Dior, j'te prends des Jordan Un ch'veu dans ma soupe, j'y plonge le visage du majordome Et chaque nuit, j'entends tic tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti de l'usine tah Yuri Orlov Bébé, tu veux qu'j't'offre une paire de Dior, j'te prends des Jordan Un ch'veu dans ma soupe, j'y plonge le visage du majordome Tic tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti d'l'usine tah Yuri Orlov Bébé, tu veux qu'j't'offre une paire de Dior, j'te prends des Jordan Un ch'veu dans ma soupe, j'y plonge le visage du majordome Et chaque nuit, j'entends1</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Snitch, t'as trahi l'omerta Le hood est sur tes côtes on va t'faire mal Snitch, t'as trahi l'omerta Le hood est sur tes côtes on va t'faire mal snitch Y'a du na3-na3 dans la zone Y'a d'la peufra dans la zone Y'a d'la crystal dans la zone Y'a d'la sel7a-la la la la Snitch Périmètre encerclé l'OPJ m'auditionne Millimètre chargé, cannabis de Kinsgton Si j'suis recherché tous mes petits missionnent Si tu m'dois des papiers Smith Wesson Comme dans XXX j'te retrouve au sous-sol En c'moment dans l'quartier ça doit de modiques sommes Ça parle en peines fermes, ta vraie nature qui ressort Soit tu les fais trembler soit t'as parkinson Ta parole est une femme que n'importe qui dissuade Ils vont te catch-up sec dans un parking sale T'faire recracher l'seum et les litres de 'sky Consommés grâce à mon oseille tous les samedis soirs Paye tes dettes y'aura pas d'histoires Ferme tes fesses à l'interrogatoire T'as donné des bikows, privés du territoire Tu joues les gangstas fier dans un autre tier-quar À t'entendre tu parles comme si tu tapais des bitches et des caisses d'épargne T'es en hass, tu morfles à la case départ Viens la test t'es mort, on va t'faire du mal Snitch, snitch, snitch Omerta, la loi du talion, tiens ta langue bikow La rue n'entend pas ton pardon, tiens ta langue bikow Snitch, t'as trahi l'omerta Le hood est sur tes côtes on va t'faire mal Snitch, t'as trahi l'omerta Le hood est sur tes côtes on va t'faire mal snitch Y'a du na3-na3 dans la zone Y'a d'la peufra dans la zone Y'a d'la crystal dans la zone Y'a d'la sel7a-la la la la Snitch Depuis quelques temps les rumeurs se répandent Et même si tu t'endors le doigt sur la détente Filature, cinq-trente pétantes Mes bikows savent quels clubs tu fréquentes Paraît qu'tu veux faire partie d'un vrai gang ? Snitch, snitch De quelle chatte sors-tu ? Ta parole sent l'cul Ici on s'entretue si tu nous donnes on arrive ta rhayce à trois-trente Milli bang bang bang bang bang dans les jambes Milli bang bang bang bang bang dans les jambes On arrive par derrière, par la gauche, par la droite Milli bang bang bang bang bang dans les jambes Violence gratuite toutes les armes sont offertes Les traîtres paieraient pour que tes frères te perforent Les tartineurs se tiennent hors de portée des porcs Que les guetteurs décampent avant l'claquement des portes Les murs ont des oreilles, surveille tes paroles C'est ta bouche qui t'escortera jusqu'à la morgue Omerta c'est la loi et le silence du gang Omerta à la muerte, puto tiens ta langue J'me souviens du calme avant la perquise Du charme avant la traîtrise Monte pas ton entreprise sur une terre prise Ou c'est la rafale dans ton pare-brise Snitch, t'as trahi l'omerta Le hood est sur tes côtes on va t'faire mal Snitch, t'as trahi l'omerta Le hood est sur tes côtes on va t'faire mal snitch Y'a du na3-na3 dans la zone Y'a d'la peufra dans la zone Y'a d'la crystal dans la zone Y'a d'la sel7a-la la la la Snitch x2 De l'hémoglobine en ruisseaux LFG, la Tour, la J, PSO Mes bikows font sauter tous tes vaisseaux Frérot on est là par amour du peso Omerta, la loi du talion, tiens ta langue bikow La rue n'entend pas ton pardon, tiens ta langue bikow Snitch, t'as trahi l'omerta Le hood est sur tes côtes on va t'faire mal Snitch, t'as trahi l'omerta Le hood est sur tes côtes on va t'faire mal snitch Y'a du na3-na3 dans la zone Y'a d'la peufra dans la zone Y'a d'la crystal dans la zone Y'a d'la sel7a-la la la la SnitchYou might also like18</t>
+          <t>Snitch, t'as trahi l'omerta Le hood est sur tes côtes on va t'faire mal Snitch, t'as trahi l'omerta Le hood est sur tes côtes on va t'faire mal snitch Y'a du na3-na3 dans la zone Y'a d'la peufra dans la zone Y'a d'la crystal dans la zone Y'a d'la sel7a-la la la la Snitch Périmètre encerclé l'OPJ m'auditionne Millimètre chargé, cannabis de Kinsgton Si j'suis recherché tous mes petits missionnent Si tu m'dois des papiers Smith Wesson Comme dans XXX j'te retrouve au sous-sol En c'moment dans l'quartier ça doit de modiques sommes Ça parle en peines fermes, ta vraie nature qui ressort Soit tu les fais trembler soit t'as parkinson Ta parole est une femme que n'importe qui dissuade Ils vont te catch-up sec dans un parking sale T'faire recracher l'seum et les litres de 'sky Consommés grâce à mon oseille tous les samedis soirs Paye tes dettes y'aura pas d'histoires Ferme tes fesses à l'interrogatoire T'as donné des bikows, privés du territoire Tu joues les gangstas fier dans un autre tier-quar À t'entendre tu parles comme si tu tapais des bitches et des caisses d'épargne T'es en hass, tu morfles à la case départ Viens la test t'es mort, on va t'faire du mal Snitch, snitch, snitch Omerta, la loi du talion, tiens ta langue bikow La rue n'entend pas ton pardon, tiens ta langue bikow Snitch, t'as trahi l'omerta Le hood est sur tes côtes on va t'faire mal Snitch, t'as trahi l'omerta Le hood est sur tes côtes on va t'faire mal snitch Y'a du na3-na3 dans la zone Y'a d'la peufra dans la zone Y'a d'la crystal dans la zone Y'a d'la sel7a-la la la la Snitch Depuis quelques temps les rumeurs se répandent Et même si tu t'endors le doigt sur la détente Filature, cinq-trente pétantes Mes bikows savent quels clubs tu fréquentes Paraît qu'tu veux faire partie d'un vrai gang ? Snitch, snitch De quelle chatte sors-tu ? Ta parole sent l'cul Ici on s'entretue si tu nous donnes on arrive ta rhayce à trois-trente Milli bang bang bang bang bang dans les jambes Milli bang bang bang bang bang dans les jambes On arrive par derrière, par la gauche, par la droite Milli bang bang bang bang bang dans les jambes Violence gratuite toutes les armes sont offertes Les traîtres paieraient pour que tes frères te perforent Les tartineurs se tiennent hors de portée des porcs Que les guetteurs décampent avant l'claquement des portes Les murs ont des oreilles, surveille tes paroles C'est ta bouche qui t'escortera jusqu'à la morgue Omerta c'est la loi et le silence du gang Omerta à la muerte, puto tiens ta langue J'me souviens du calme avant la perquise Du charme avant la traîtrise Monte pas ton entreprise sur une terre prise Ou c'est la rafale dans ton pare-brise Snitch, t'as trahi l'omerta Le hood est sur tes côtes on va t'faire mal Snitch, t'as trahi l'omerta Le hood est sur tes côtes on va t'faire mal snitch Y'a du na3-na3 dans la zone Y'a d'la peufra dans la zone Y'a d'la crystal dans la zone Y'a d'la sel7a-la la la la Snitch x2 De l'hémoglobine en ruisseaux LFG, la Tour, la J, PSO Mes bikows font sauter tous tes vaisseaux Frérot on est là par amour du peso Omerta, la loi du talion, tiens ta langue bikow La rue n'entend pas ton pardon, tiens ta langue bikow Snitch, t'as trahi l'omerta Le hood est sur tes côtes on va t'faire mal Snitch, t'as trahi l'omerta Le hood est sur tes côtes on va t'faire mal snitch Y'a du na3-na3 dans la zone Y'a d'la peufra dans la zone Y'a d'la crystal dans la zone Y'a d'la sel7a-la la la la Snitch18</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>J'ai mis du cur à l'ouvrage, pris mon courage à deux paluches Et j'ai vu passer l'orage en ouvrant les rideaux de peluche J'vais rendre un hommage à tous les disparus de ma ruche On vole de nos propres ailes sous l'il des vautours et des perruches Toujours seul dans mon périple, seul sur le périph' Si le rap ne payait pas, je sais pas où j'aurais pu atterrir Poussière de génie, j'l'ai fais tout seul, j'le mérite Mais je n'emporterai rien, vu qu'un jour ou l'autre on va périr Peut-être qu'on n'est pas né sous la même étoile Si tu divises pour mieux régner, tes araignées changent de toile Oui peut-être, si y'avait pas ces groupies à poil dans ma chambre Je serai marié, jemmènerais mes gosses à la voile Oui peut-être, que cet été je passerais par Hawaï Que j'ai percé sans avoir le timbre de voix de Balavoine Oui peut-être que je vis, peut-être que rêve et peut-être que je vis mon rêve alors je mets les voiles Au cur de l'insomnie, j'ai du tracer ma route Corner je m'ennuie, je suis seul au pied de ma tour Au cur de l'insomnie, loin des films d'amour Corner je m'ennuie, je suis seul au pied de ma tour Peut-être que j'aurais du partir Peut-être que j'aurais du faire autre chose Peut-être que j'aurais du partir Peut-être que j'aurais du faire autre chose You might also like Tard la nuit j'réfléchis, j'réfléchis, j'me ballade seul sur Paris J'prends tout à contre-courant, donc comment donner un sens à ma vie Peut-être que je ne suis pas fait, pas fait pour rouler en Maserati J'ai plus de faits que de vécu, dis-moi la morale tu la fais à qui Et j'me suis noyé dans les problèmes, mon cur se remplit j'en perds des collègues Ouais ma fierté remplace ma colère, énervé depuis les années collège Que Dieu nous montre le droit chemin ou qu'il m'éloigne de ces gens malsains Oui, qu'il m'éloigne de ces gens malsains Les soucis sempilent une fois que t'en caches un Au cur de l'insomnie, j'ai du tracer ma route Corner je m'ennuie, je suis seul au pied de ma tour Au cur de l'insomnie, loin des films d'amour Corner je m'ennuie, je suis seul au pied de ma tour Peut-être que j'aurais du partir Peut-être que j'aurais du faire autre chose Peut-être que j'aurais du partir Peut-être que j'aurais du faire autre chose Au cur de l'insomnie, j'ai du tracer ma route Corner je m'ennuie, je suis seul au pied de ma tour Au cur de l'insomnie, loin des films d'amour Corner je m'ennuie, je suis seul au pied de ma tour4</t>
+          <t>J'ai mis du cur à l'ouvrage, pris mon courage à deux paluches Et j'ai vu passer l'orage en ouvrant les rideaux de peluche J'vais rendre un hommage à tous les disparus de ma ruche On vole de nos propres ailes sous l'il des vautours et des perruches Toujours seul dans mon périple, seul sur le périph' Si le rap ne payait pas, je sais pas où j'aurais pu atterrir Poussière de génie, j'l'ai fais tout seul, j'le mérite Mais je n'emporterai rien, vu qu'un jour ou l'autre on va périr Peut-être qu'on n'est pas né sous la même étoile Si tu divises pour mieux régner, tes araignées changent de toile Oui peut-être, si y'avait pas ces groupies à poil dans ma chambre Je serai marié, jemmènerais mes gosses à la voile Oui peut-être, que cet été je passerais par Hawaï Que j'ai percé sans avoir le timbre de voix de Balavoine Oui peut-être que je vis, peut-être que rêve et peut-être que je vis mon rêve alors je mets les voiles Au cur de l'insomnie, j'ai du tracer ma route Corner je m'ennuie, je suis seul au pied de ma tour Au cur de l'insomnie, loin des films d'amour Corner je m'ennuie, je suis seul au pied de ma tour Peut-être que j'aurais du partir Peut-être que j'aurais du faire autre chose Peut-être que j'aurais du partir Peut-être que j'aurais du faire autre chose Tard la nuit j'réfléchis, j'réfléchis, j'me ballade seul sur Paris J'prends tout à contre-courant, donc comment donner un sens à ma vie Peut-être que je ne suis pas fait, pas fait pour rouler en Maserati J'ai plus de faits que de vécu, dis-moi la morale tu la fais à qui Et j'me suis noyé dans les problèmes, mon cur se remplit j'en perds des collègues Ouais ma fierté remplace ma colère, énervé depuis les années collège Que Dieu nous montre le droit chemin ou qu'il m'éloigne de ces gens malsains Oui, qu'il m'éloigne de ces gens malsains Les soucis sempilent une fois que t'en caches un Au cur de l'insomnie, j'ai du tracer ma route Corner je m'ennuie, je suis seul au pied de ma tour Au cur de l'insomnie, loin des films d'amour Corner je m'ennuie, je suis seul au pied de ma tour Peut-être que j'aurais du partir Peut-être que j'aurais du faire autre chose Peut-être que j'aurais du partir Peut-être que j'aurais du faire autre chose Au cur de l'insomnie, j'ai du tracer ma route Corner je m'ennuie, je suis seul au pied de ma tour Au cur de l'insomnie, loin des films d'amour Corner je m'ennuie, je suis seul au pied de ma tour4</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Hayce Lemsi, Hayce Lemsi Hayce Lemsi, Hayce Lemsi Hayce Lemsi, Hayce Lemsi Hayce Lem, Hayce Lem Hayce Lem, Hayce Lem Hayce Lem, Hayce Lem Big Lemsi de retour dans c'game de clowns au lyrics infecte crachat lyrics infectes J'pète la forme petite nymphette, petite nymphette J'pète la forme petite nymphette, petite nymphette J'pète la, j'pète la, j'pète la, j'pète la, j'pète la weed Haysta la vista puto, t'avais qu'à t'lever plus tôt, t'élever haut, jusqu'au sommet de la pyramide Haysta la vista puto, qu'est-ce que j'aime remuer l'couteau dans la plaie, je pèterais l'million sans Foucault Hayssi sur le marbre du living, Hayssasin face au miroir J'Hayspire à la victoire depuis l'vinyle, suite de luxe, leasing sont dérisoire Hassoul Paname c'est devenu Palerme, la dictature du paraître La drogue dure, la piche, le népalais, le goût du sang sur le palais Pelo viens rentabiliser ta com', bouffe mes chaussures devant l'hanout Nan j'poserai pas sur ton album, j'donne pas d'confiture au hellouf J'vois les mantes religieuses, j'crois qu'elles veulent du pain, m'ensorceler dans un hôtel vers Dublin Des fois la célébrité, ça casse les burnes mais quand j'claque du biff, ça fait du bien J'me suis ap' du-per, isolé dans mon Triangle isocèle, seul au monde à la Crusoé J'n'ai jamais lancé d'SOS, tes rappeurs sont sous S ou camisolés On ressort les cheveux grisonnant, la moitié d'une vie emprisonné Calibré sous le collant, j'ai vu la rue nous empoisonner Laisse opérer la magie, encore un fennec sur le terrain J'arrache le bitume, ma bitch agrippe mes dorsaux sur le R1 Mon daron c'est pas Gucci, si tu suis pas la tendance, t'es rien Je ne suis dans aucun registre, j'arrive de partout sur l'terrain Maudite insomnie, shit Ces bikos sont tout pleins de démagogies, bitch La gloire à toujours tenté de m'approcher, snitch Anti communautaire mais fier de mes origines, shit, ferme-la donc poukito, laisse opérer la magieYou might also like16</t>
+          <t>Hayce Lemsi, Hayce Lemsi Hayce Lemsi, Hayce Lemsi Hayce Lemsi, Hayce Lemsi Hayce Lem, Hayce Lem Hayce Lem, Hayce Lem Hayce Lem, Hayce Lem Big Lemsi de retour dans c'game de clowns au lyrics infecte crachat lyrics infectes J'pète la forme petite nymphette, petite nymphette J'pète la forme petite nymphette, petite nymphette J'pète la, j'pète la, j'pète la, j'pète la, j'pète la weed Haysta la vista puto, t'avais qu'à t'lever plus tôt, t'élever haut, jusqu'au sommet de la pyramide Haysta la vista puto, qu'est-ce que j'aime remuer l'couteau dans la plaie, je pèterais l'million sans Foucault Hayssi sur le marbre du living, Hayssasin face au miroir J'Hayspire à la victoire depuis l'vinyle, suite de luxe, leasing sont dérisoire Hassoul Paname c'est devenu Palerme, la dictature du paraître La drogue dure, la piche, le népalais, le goût du sang sur le palais Pelo viens rentabiliser ta com', bouffe mes chaussures devant l'hanout Nan j'poserai pas sur ton album, j'donne pas d'confiture au hellouf J'vois les mantes religieuses, j'crois qu'elles veulent du pain, m'ensorceler dans un hôtel vers Dublin Des fois la célébrité, ça casse les burnes mais quand j'claque du biff, ça fait du bien J'me suis ap' du-per, isolé dans mon Triangle isocèle, seul au monde à la Crusoé J'n'ai jamais lancé d'SOS, tes rappeurs sont sous S ou camisolés On ressort les cheveux grisonnant, la moitié d'une vie emprisonné Calibré sous le collant, j'ai vu la rue nous empoisonner Laisse opérer la magie, encore un fennec sur le terrain J'arrache le bitume, ma bitch agrippe mes dorsaux sur le R1 Mon daron c'est pas Gucci, si tu suis pas la tendance, t'es rien Je ne suis dans aucun registre, j'arrive de partout sur l'terrain Maudite insomnie, shit Ces bikos sont tout pleins de démagogies, bitch La gloire à toujours tenté de m'approcher, snitch Anti communautaire mais fier de mes origines, shit, ferme-la donc poukito, laisse opérer la magie16</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>À 17 000 lieues sous les mers bico, l'insomnie est devenue banale J'vagabonde dans les odeurs nauséabondes, des longues rues de Paname J'descend cette avenue qu'j'connais par cur Pas à pas longe le parc où l'on retrouve des seringues par terre J'aperçois c'boxeur accompagné d'son sparring-partner J'aperçois c'bosseur qui compte pas payer sa vie par cred' Guettes Les p'tits courent la morve au nez, shoes trouées, Mr Freeze entamés, doués pour le vol, ils dansent sur des pares-brise enflammés Et les p'tites fleurs fanées, peroxydées mèches polis s'enfuient la nuit pour s'exhiber, persister dans la michtonnerie Guettes cette mineure en galère avec deux fils à nourrir Je la vois zehef de regagner son F2 triste à mourir Ici, les travelos résident on les laisse pas vivre dans l'calme On leur rappelle le Brésil avec des pénaltys dans l'crane Guettes la vieille qui promène son chihuahua Le noi-chi archi déter qui livre des sushis sur sa Yamaha Le p'tit qui prend d'la menthe pour yema L'ancienne te-tê du ter-ter qui sest repenti parmi les frères et s'est rié-ma Ça rime à rien d'rester dehors sans faire d'oseille m'a dit c'khey Qui n'a cessé de tourner comme la Terre autour du Soleil Mon arrondissement, mon état d'âme J'vagabonde dans les odeurs nauséabondes des longues rues de Paname Bico je cherche le sommeil dans tout Parisse Tous les jours de la semaine j'veux faire mes valises Insomniaque en mode veille la chance des mains nous glisse Cannabis dans les veines j'vais faire danser la police You might also like Guettes l'ivrogne qui de mauvais sky se nourrit Qu'on retrouve à l'aube en train d'mi-dor au coin d'une ruelle pourrie Guettes l'avare, sale bâtard, il taxe des garos comme un tox' Alors qu'il a des dizaines de milliers d'euros, de l'héro dans un box Guettes ce puceau frustré qui rêve de ken' depuis des lustres Brusqué, par ses potes qui lui conseillent une timp' à Brux' Celle qui joue les sainte ni-touche alors qu'après 5 shots La salope fait des saltos pour un sac Dior ou Versace yo Guettes cet étudiant, qu'avait de grandes capacités Qui voyait grand, c'était le bico le plus clean de sa cité Mais les grands, l'ont incité à sortir l'nez des bouquins Pour mettre celui des loss dans le tos-ma 100 bolivien Guettes le vendeur à la sauvette qui s'fait souvent soulever Juste sous l'nez de ce SDF, ancien soldat de l'union soviet' Mon arrondissement, mon état d'âme J'vagabonde dans les odeurs nauséabondes des longues rues de Paname Guettes ce footballeur, le talon plâtré, cloîtré chez lui nuit et jour Pris d'peur de n'plus pouvoir taper dans la balle de sa vie Vise le mendiant qui depuis dix ans n'a plus d'maison C'est une drogue de vivre au dépend d'autrui chaque saison Guettes la pouki ligotée dans le coffre de l'Audi TT Qui a mis sa fierté d'côté juste pour quelques semaines de liberté Une tain-pu s'fait embarquée, un mec enfile sa cagoule Quand un bico s'fait buter, les médias s'en battent les couilles Guettes ce hagoun qu'a rotte-ca c'litron juste pour fumer Qu'a remboursé l'double, sest fait cafouiller dans la foulée Guettes ce mahboul qu'a pas laissé les keufs le fouiller Les a braqués, jusqu'à ce que clic boum l'un deux l'a douillé Guettes la p'tite bourge, dont les parent se sont jamais souciés Qu'on retrouvera sous la douche, une heure après s'être suicidée Guettes ce gosse de 12 piges qu'écrit 10 sons par semaine Sans l'savoir il deviendra l'célèbre Hayce Lem' Eh j'échangerais bien mon matelas de plume contre un sommeil de plomb Hayce Lem, flow interdit c'est là que je puise l'inspi' Eh, tous les chemins mènent à l'insomnie Guettes ces mecs qui expliquent des morceaux, rejoins-les !2</t>
+          <t>À 17 000 lieues sous les mers bico, l'insomnie est devenue banale J'vagabonde dans les odeurs nauséabondes, des longues rues de Paname J'descend cette avenue qu'j'connais par cur Pas à pas longe le parc où l'on retrouve des seringues par terre J'aperçois c'boxeur accompagné d'son sparring-partner J'aperçois c'bosseur qui compte pas payer sa vie par cred' Guettes Les p'tits courent la morve au nez, shoes trouées, Mr Freeze entamés, doués pour le vol, ils dansent sur des pares-brise enflammés Et les p'tites fleurs fanées, peroxydées mèches polis s'enfuient la nuit pour s'exhiber, persister dans la michtonnerie Guettes cette mineure en galère avec deux fils à nourrir Je la vois zehef de regagner son F2 triste à mourir Ici, les travelos résident on les laisse pas vivre dans l'calme On leur rappelle le Brésil avec des pénaltys dans l'crane Guettes la vieille qui promène son chihuahua Le noi-chi archi déter qui livre des sushis sur sa Yamaha Le p'tit qui prend d'la menthe pour yema L'ancienne te-tê du ter-ter qui sest repenti parmi les frères et s'est rié-ma Ça rime à rien d'rester dehors sans faire d'oseille m'a dit c'khey Qui n'a cessé de tourner comme la Terre autour du Soleil Mon arrondissement, mon état d'âme J'vagabonde dans les odeurs nauséabondes des longues rues de Paname Bico je cherche le sommeil dans tout Parisse Tous les jours de la semaine j'veux faire mes valises Insomniaque en mode veille la chance des mains nous glisse Cannabis dans les veines j'vais faire danser la police Guettes l'ivrogne qui de mauvais sky se nourrit Qu'on retrouve à l'aube en train d'mi-dor au coin d'une ruelle pourrie Guettes l'avare, sale bâtard, il taxe des garos comme un tox' Alors qu'il a des dizaines de milliers d'euros, de l'héro dans un box Guettes ce puceau frustré qui rêve de ken' depuis des lustres Brusqué, par ses potes qui lui conseillent une timp' à Brux' Celle qui joue les sainte ni-touche alors qu'après 5 shots La salope fait des saltos pour un sac Dior ou Versace yo Guettes cet étudiant, qu'avait de grandes capacités Qui voyait grand, c'était le bico le plus clean de sa cité Mais les grands, l'ont incité à sortir l'nez des bouquins Pour mettre celui des loss dans le tos-ma 100 bolivien Guettes le vendeur à la sauvette qui s'fait souvent soulever Juste sous l'nez de ce SDF, ancien soldat de l'union soviet' Mon arrondissement, mon état d'âme J'vagabonde dans les odeurs nauséabondes des longues rues de Paname Guettes ce footballeur, le talon plâtré, cloîtré chez lui nuit et jour Pris d'peur de n'plus pouvoir taper dans la balle de sa vie Vise le mendiant qui depuis dix ans n'a plus d'maison C'est une drogue de vivre au dépend d'autrui chaque saison Guettes la pouki ligotée dans le coffre de l'Audi TT Qui a mis sa fierté d'côté juste pour quelques semaines de liberté Une tain-pu s'fait embarquée, un mec enfile sa cagoule Quand un bico s'fait buter, les médias s'en battent les couilles Guettes ce hagoun qu'a rotte-ca c'litron juste pour fumer Qu'a remboursé l'double, sest fait cafouiller dans la foulée Guettes ce mahboul qu'a pas laissé les keufs le fouiller Les a braqués, jusqu'à ce que clic boum l'un deux l'a douillé Guettes la p'tite bourge, dont les parent se sont jamais souciés Qu'on retrouvera sous la douche, une heure après s'être suicidée Guettes ce gosse de 12 piges qu'écrit 10 sons par semaine Sans l'savoir il deviendra l'célèbre Hayce Lem' Eh j'échangerais bien mon matelas de plume contre un sommeil de plomb Hayce Lem, flow interdit c'est là que je puise l'inspi' Eh, tous les chemins mènent à l'insomnie Guettes ces mecs qui expliquent des morceaux, rejoins-les !2</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Qu'est-ce que je fous dans ce club ? Tu penses que je m'éclate ? J'suis passé par la grande porte Et mes thugs ont la méthode, on monte par étape J'ai rien acquis, j'me repose pas sur mes lauriers Mais j'ai peur que maman s'ennuie Les temps sont durs pour assumer la bouffe et le loyer Tu te demanderas qui sont tes amis Poussière d'étoile, on a tous fait nos buzz dans la cage d'escalier La rue m'a donné l'amour que je n'ai pas donné juste avant de me poignarder Princesse il te reste mon odeur et des souvenirs Princesse je veux que tu sois forte Je perds tout mes moyens j'aime tellement tes formes Mais ta plus belle courbe restera ton sourire Sur les murs beaucoup d'RIP La dernière fois que j'ai croisé le canon du thirty De battre, mon cur s'est arrêté Et je reste planté là comme si j'attendais l'épiphanie Il est 5h05 je sors du club Je n'ai pas assumé mon rôle daîné de famille Qu'est-ce que je fous dans ce club ? Complètement khabat J'suis passé par la grande porte et mes thugs encore entre les griffes de la BAC Je n'ai pas dormi depuis six mois, j'suis un zombie Et lélixir du démon nous enivre Je compte pas sur toi pour tirer l'alarme incendie Dieu sait que je n'arrive à rien dans la vie sans lui Je trinque à ta santé tant que t'es là Tant que t'es là, j'suis dans le club Je trinque à ta santé tant que t'es là Tant que t'es là, j'suis dans le club Et ce soir je sais que je perds mon time et je passe la night dans ce club Lorsque je sors de scène, le sourire mais je sais que je me sent si seul dans ce club J'suis prisonnier de ce club J'y chante comme un rouge-gorge en cage Faut qu'on entretienne le buzz Qu'on encaisse la recette en cash Elle pense que j'ai le compte en banque de Rothschild Elle essaye de regarder mon code quand je retire J'envoie des averses de Moët dans son brushing Une fois que je rentre elle ne veut plus que je me retire Viens boire un coup Lemsi c'est ton birthday J'sais qu'tu kiffes les grosses poitrines et le rosé On est posé, on est bien On rentre chez oi-t a l'heure du petit matin s'arrosé Combien d'oseille faut-t-il pour être ripoux ? De l'intérieur l'apparence extérieur n'est qu'une illusion du présent car le temps détruit tout Mon père m'a dit Fils tes racines sont ta fierté Donc je porte l'Algérie comme le plus beau des trophées Chaque jour que Dieu fait, ma carrière se peaufine Qui veut manger seul finira par s'étouffer Qui veut manger seul finira par s'étouffer Bendo, Barillo, pour s'en sortir on a tout fait Qu'est-ce que je fous dans ce club ? Complètement khabat J'suis passé par la grande porte et mes thugs encore entre les griffes de la BAC Je n'ai pas dormi depuis six mois, j'suis un zombie Et lélixir du démon nous enivre Je compte pas sur toi pour tirer l'alarme incendie Dieu sait que je n'arrive à rien dans la vie sans lui Je trinque à ta santé tant que t'es là Tant que t'es là, j'suis dans le club Je trinque à ta santé tant que t'es là Tant que t'es là, j'suis dans le club Et ce soir je sais que je perds mon time et je passe la night dans ce club Lorsque je sors de scène, le sourire mais je sais que je me sent si seul dans ce clubYou might also like</t>
+          <t>Qu'est-ce que je fous dans ce club ? Tu penses que je m'éclate ? J'suis passé par la grande porte Et mes thugs ont la méthode, on monte par étape J'ai rien acquis, j'me repose pas sur mes lauriers Mais j'ai peur que maman s'ennuie Les temps sont durs pour assumer la bouffe et le loyer Tu te demanderas qui sont tes amis Poussière d'étoile, on a tous fait nos buzz dans la cage d'escalier La rue m'a donné l'amour que je n'ai pas donné juste avant de me poignarder Princesse il te reste mon odeur et des souvenirs Princesse je veux que tu sois forte Je perds tout mes moyens j'aime tellement tes formes Mais ta plus belle courbe restera ton sourire Sur les murs beaucoup d'RIP La dernière fois que j'ai croisé le canon du thirty De battre, mon cur s'est arrêté Et je reste planté là comme si j'attendais l'épiphanie Il est 5h05 je sors du club Je n'ai pas assumé mon rôle daîné de famille Qu'est-ce que je fous dans ce club ? Complètement khabat J'suis passé par la grande porte et mes thugs encore entre les griffes de la BAC Je n'ai pas dormi depuis six mois, j'suis un zombie Et lélixir du démon nous enivre Je compte pas sur toi pour tirer l'alarme incendie Dieu sait que je n'arrive à rien dans la vie sans lui Je trinque à ta santé tant que t'es là Tant que t'es là, j'suis dans le club Je trinque à ta santé tant que t'es là Tant que t'es là, j'suis dans le club Et ce soir je sais que je perds mon time et je passe la night dans ce club Lorsque je sors de scène, le sourire mais je sais que je me sent si seul dans ce club J'suis prisonnier de ce club J'y chante comme un rouge-gorge en cage Faut qu'on entretienne le buzz Qu'on encaisse la recette en cash Elle pense que j'ai le compte en banque de Rothschild Elle essaye de regarder mon code quand je retire J'envoie des averses de Moët dans son brushing Une fois que je rentre elle ne veut plus que je me retire Viens boire un coup Lemsi c'est ton birthday J'sais qu'tu kiffes les grosses poitrines et le rosé On est posé, on est bien On rentre chez oi-t a l'heure du petit matin s'arrosé Combien d'oseille faut-t-il pour être ripoux ? De l'intérieur l'apparence extérieur n'est qu'une illusion du présent car le temps détruit tout Mon père m'a dit Fils tes racines sont ta fierté Donc je porte l'Algérie comme le plus beau des trophées Chaque jour que Dieu fait, ma carrière se peaufine Qui veut manger seul finira par s'étouffer Qui veut manger seul finira par s'étouffer Bendo, Barillo, pour s'en sortir on a tout fait Qu'est-ce que je fous dans ce club ? Complètement khabat J'suis passé par la grande porte et mes thugs encore entre les griffes de la BAC Je n'ai pas dormi depuis six mois, j'suis un zombie Et lélixir du démon nous enivre Je compte pas sur toi pour tirer l'alarme incendie Dieu sait que je n'arrive à rien dans la vie sans lui Je trinque à ta santé tant que t'es là Tant que t'es là, j'suis dans le club Je trinque à ta santé tant que t'es là Tant que t'es là, j'suis dans le club Et ce soir je sais que je perds mon time et je passe la night dans ce club Lorsque je sors de scène, le sourire mais je sais que je me sent si seul dans ce club</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Tu nous entends partout sur Paris C'est la lumière du rap game Misez sur nous prenez les paris C'est la lumière du rap game Tu nous entends partout sur Paris C'est la lumière du rap game Misez sur nous prenez les paris J'met les haineux dans le coffre de la gova, dans le coffre de la gova J'ai le millésim en marge, j'met ma bitch sur le sofa, j'met ma bitch sur le sofa J'ai les manies, J'ai les manies d'un bonhomme à l'état sauvage, d'un bonhomme à l'état sauvage Mili mini mili mini bang bang hova, bang bang hova Wesh espèce de pédé, y'a que limprimante qui mimpressionne J'ai ouvert les portes de ta chatte depuis que j'maîtrise les clefs de sol Ha ha, c'est les Frères Lumières qui opèrent Haineux j'baise ta mère sans ton avis, dans 2-3 mois j'deviens ton beau père J'arrive dans le game comme une maladie, c'est moi la tumeur dans ton veau-cer J'peux baiser du lundi au lundi, MC, branle toi bien sur ton poster Et bat les couilles de savoir qui t'es, si t'aime pas va t'faire niquer Ma foie porte un gilet par balles, c'est pas grave si l'sheïtan est broliqué Ici-bas plus rien n'm'étonne, un jour les potes ça part Tu sais que ma plume est bonne, c'est normal qu'elle donne la barre Normal qu'elle donne la barre, c'est nous les MC's qu'elles préfèrent Si tu traînes avec mes ennemis wallah j't'interdit de mappeler frère Et bien sur que j'suis déter, j'veux pas finir à la barre J'ai pas de problème d'acné, mais, j'éclaterais bien un shtar Paname, XV Barbare, Toute la France est dans le Attends, j'ai ta gow au phone-tel, j'te rappelle quand j'sors de l'hotel You might also like Jaloux genou sur le sol, Omerta! Joujou dans la boîte à gants du merco J'déambule en environnement Neandertal Le tit-pe du tit-pe d'mon tit-pe est sur un braco Marianne nous boycotte Ils disent que l'enfer c'est les autres Et que le paradis c'est les autres en enfer Toujours nous qu'on enferme Ils disent que mon dealer mérite la mort Ils châtient les pédophiles d'un an ferme Faut-il qu'on les enferme ? Mon rival est devenu mon valet La boule de neige est devenue l'avalanche de rime Triangle d'or le label financé par la cocaïne L'intelligence, la vengeance, le crime Guettes l'heure tourne comme une balle à ailettes Mon bico là oiv la Bac en CR La tour, la J criminel tah L.A Mini-mini-mili-bang-bang bitch bitch 7.5 sur léchelle de Richter Le désarroi, la folie dans le même mixeur Hola hello l'amour est dans le préservatif girl Mon son tourne de Paname à Pittsburgh, Gamos de Stuttgart J'écrase ta petite gueule dhypocrite Petite garce le cigare est dans la glayce Celui qui veux me faire fhayce est dans mon viseur MC, tu vis dans l'inertie C'est la fin des inepties Ici, le silence est un hommage que la parole rend à l'esprit Volts-Fhayce-Lemsi, sisi Richesse dans nos lexiques, finesse dans nos récits PetHayce tu mexcites quand tu portes mon textile On rend toute la nouvelle génération dépressive Bitch ! 11</t>
+          <t>Tu nous entends partout sur Paris C'est la lumière du rap game Misez sur nous prenez les paris C'est la lumière du rap game Tu nous entends partout sur Paris C'est la lumière du rap game Misez sur nous prenez les paris J'met les haineux dans le coffre de la gova, dans le coffre de la gova J'ai le millésim en marge, j'met ma bitch sur le sofa, j'met ma bitch sur le sofa J'ai les manies, J'ai les manies d'un bonhomme à l'état sauvage, d'un bonhomme à l'état sauvage Mili mini mili mini bang bang hova, bang bang hova Wesh espèce de pédé, y'a que limprimante qui mimpressionne J'ai ouvert les portes de ta chatte depuis que j'maîtrise les clefs de sol Ha ha, c'est les Frères Lumières qui opèrent Haineux j'baise ta mère sans ton avis, dans 2-3 mois j'deviens ton beau père J'arrive dans le game comme une maladie, c'est moi la tumeur dans ton veau-cer J'peux baiser du lundi au lundi, MC, branle toi bien sur ton poster Et bat les couilles de savoir qui t'es, si t'aime pas va t'faire niquer Ma foie porte un gilet par balles, c'est pas grave si l'sheïtan est broliqué Ici-bas plus rien n'm'étonne, un jour les potes ça part Tu sais que ma plume est bonne, c'est normal qu'elle donne la barre Normal qu'elle donne la barre, c'est nous les MC's qu'elles préfèrent Si tu traînes avec mes ennemis wallah j't'interdit de mappeler frère Et bien sur que j'suis déter, j'veux pas finir à la barre J'ai pas de problème d'acné, mais, j'éclaterais bien un shtar Paname, XV Barbare, Toute la France est dans le Attends, j'ai ta gow au phone-tel, j'te rappelle quand j'sors de l'hotel Jaloux genou sur le sol, Omerta! Joujou dans la boîte à gants du merco J'déambule en environnement Neandertal Le tit-pe du tit-pe d'mon tit-pe est sur un braco Marianne nous boycotte Ils disent que l'enfer c'est les autres Et que le paradis c'est les autres en enfer Toujours nous qu'on enferme Ils disent que mon dealer mérite la mort Ils châtient les pédophiles d'un an ferme Faut-il qu'on les enferme ? Mon rival est devenu mon valet La boule de neige est devenue l'avalanche de rime Triangle d'or le label financé par la cocaïne L'intelligence, la vengeance, le crime Guettes l'heure tourne comme une balle à ailettes Mon bico là oiv la Bac en CR La tour, la J criminel tah L.A Mini-mini-mili-bang-bang bitch bitch 7.5 sur léchelle de Richter Le désarroi, la folie dans le même mixeur Hola hello l'amour est dans le préservatif girl Mon son tourne de Paname à Pittsburgh, Gamos de Stuttgart J'écrase ta petite gueule dhypocrite Petite garce le cigare est dans la glayce Celui qui veux me faire fhayce est dans mon viseur MC, tu vis dans l'inertie C'est la fin des inepties Ici, le silence est un hommage que la parole rend à l'esprit Volts-Fhayce-Lemsi, sisi Richesse dans nos lexiques, finesse dans nos récits PetHayce tu mexcites quand tu portes mon textile On rend toute la nouvelle génération dépressive Bitch ! 11</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Yooo, Masjestik Drama Que des headshots, j'suis le sniper Quand la monnaie rentre, ça sent la rafale J'suis solide man, tu crois qu'l'Insomniak dort La weed est forte, la ceinture tiens le hardtop J'aime les bad bitch, j'ai pas d'wife hein Toi et moi, que la night hein Grandir à Paris, quelle fucking life hein ? Aux chtars c'est l'Amazonie , c'est parce qu'on a faim CocaMolly dans le fond du night club On fait des économies, contacts dans le IPhone On fume pour tuer l'ennui, loin d'avoir une life propre Fais danser la money, oubli cette fucking life bro' J'me rappelle de ceux qui m'ont pas aidés, mais j'ai plus l'âge de fait du tail-dé Soudain je mennuie dans le carrée VIP, on ne devrait plus trop tarder Quand mes chaussettes étaient dépareillées, lequel de ces bicot m'aurait parrainé Lequel de ces bicot ne m'a pas 3iyer, mais lequel de ces bicot ne m'a pas aimé Tu sais dans la vie moi je n'ai jamais vraiment voulu faire de mal autour de moi Délibérément j'ai volé au dessus des lois malheureusement les gyrophares ont succédé les Jéroboam J'ai la poisse, je passe ma vie à trimer, c'est les autres qui se plaignent, c'est moi qui souffre J'ai trempé le qalam dans le fond d'ma plaie, quand je ferme les yeux c'est le monde qui s'ouvre han Tu l'as déjà repoussé gentiment, c'est la meuf de ton pote, elle veut ken, chienne La daronne passe en bas du bâtiment mais tu n'as même pas rangé ta Heineken Qu'elle vie d'kelb sur le ter-ter, on retourne la pièce la laisse telle quelle On restera dans la rue tant qu'elle paye, human Kalash a.k.a AK You might also like Que des headshots, j'suis le sniper Quand la monnaie rentre, ça sent la rafale J'suis solide man, tu crois qu'l'Insomniak dort La weed est forte, la ceinture tiens le hardtop J'aime les bad bitch, j'ai pas d'wife hun Toi et moi, que la night hein Grandir à Paris, quelle fucking life hein ? Aux chtars c'est l'Amazonie, c'est parce qu'on a faim CocaMolly dans le fond du night club On fait des économies, contacts dans le IPhone On fume pour tuer l'ennui, loin d'avoir une life propre Fais danser la money, oubli cette fucking life bro' Que des headshots, j'suis le sniper, j'ai jeté la coca dans les chiottes du club On ne joue pas, on prend ça à cur, fais pas le voyou t'es qu'un snapeur J'ai grandi dans un bain de violence, dans un cataclysme de ségrégation La précarité, la déchéance et j'ai tout pris sur mes épaules comme un grand garçon Tu sais dans la vie moi je n'ai jamais vraiment voulu faire de mal autour de moi J'ai la poisse, j'ai loupé l'appel au Pôle Emploi, j'déambule en ville en brulant tous les feux qu'y'a devant moi J'fais la passe aux frères, qui n'ont plus de pécule, le vécu t'rattrape, peu importe le véhicule Crâne fracturé par des coup d'matraque, entame une danse macabre avant de rapper mon vécu Hey, pose mes couilles sur chaque morceaux, j'monte pas sur scène sans mouiller le Marcel Marche tout seul de Paname à Marseille, elle m'harcèle me prend pour son proxo Que des headshots, j'suis le sniper Quand la monnaie rentre, ça sent la rafale J'suis solide man, tu crois qu'l'Insomniak dort La weed est forte, la ceinture tiens le hardtop J'aime les bad bitch, j'ai pas d'wife hun Toi et moi, que la night hein Grandir à Paris, quelle fucking life hein ? Aux chtars c'est l'Amazonie , c'est parce qu'on a faim CocaMolly dans le fond du night club On fait des économies, contacts dans le IPhone On fume pour tuer l'ennui, loin d'avoir une life propre Fais danser la money, oubli cette fucking life bro' Young bikow dans le fond du club stone Young bikow bouge comme une rockstar Young bikow dans le fond du club stone Young bikow bouge comme une rockstar</t>
+          <t>Yooo, Masjestik Drama Que des headshots, j'suis le sniper Quand la monnaie rentre, ça sent la rafale J'suis solide man, tu crois qu'l'Insomniak dort La weed est forte, la ceinture tiens le hardtop J'aime les bad bitch, j'ai pas d'wife hein Toi et moi, que la night hein Grandir à Paris, quelle fucking life hein ? Aux chtars c'est l'Amazonie , c'est parce qu'on a faim CocaMolly dans le fond du night club On fait des économies, contacts dans le IPhone On fume pour tuer l'ennui, loin d'avoir une life propre Fais danser la money, oubli cette fucking life bro' J'me rappelle de ceux qui m'ont pas aidés, mais j'ai plus l'âge de fait du tail-dé Soudain je mennuie dans le carrée VIP, on ne devrait plus trop tarder Quand mes chaussettes étaient dépareillées, lequel de ces bicot m'aurait parrainé Lequel de ces bicot ne m'a pas 3iyer, mais lequel de ces bicot ne m'a pas aimé Tu sais dans la vie moi je n'ai jamais vraiment voulu faire de mal autour de moi Délibérément j'ai volé au dessus des lois malheureusement les gyrophares ont succédé les Jéroboam J'ai la poisse, je passe ma vie à trimer, c'est les autres qui se plaignent, c'est moi qui souffre J'ai trempé le qalam dans le fond d'ma plaie, quand je ferme les yeux c'est le monde qui s'ouvre han Tu l'as déjà repoussé gentiment, c'est la meuf de ton pote, elle veut ken, chienne La daronne passe en bas du bâtiment mais tu n'as même pas rangé ta Heineken Qu'elle vie d'kelb sur le ter-ter, on retourne la pièce la laisse telle quelle On restera dans la rue tant qu'elle paye, human Kalash a.k.a AK Que des headshots, j'suis le sniper Quand la monnaie rentre, ça sent la rafale J'suis solide man, tu crois qu'l'Insomniak dort La weed est forte, la ceinture tiens le hardtop J'aime les bad bitch, j'ai pas d'wife hun Toi et moi, que la night hein Grandir à Paris, quelle fucking life hein ? Aux chtars c'est l'Amazonie, c'est parce qu'on a faim CocaMolly dans le fond du night club On fait des économies, contacts dans le IPhone On fume pour tuer l'ennui, loin d'avoir une life propre Fais danser la money, oubli cette fucking life bro' Que des headshots, j'suis le sniper, j'ai jeté la coca dans les chiottes du club On ne joue pas, on prend ça à cur, fais pas le voyou t'es qu'un snapeur J'ai grandi dans un bain de violence, dans un cataclysme de ségrégation La précarité, la déchéance et j'ai tout pris sur mes épaules comme un grand garçon Tu sais dans la vie moi je n'ai jamais vraiment voulu faire de mal autour de moi J'ai la poisse, j'ai loupé l'appel au Pôle Emploi, j'déambule en ville en brulant tous les feux qu'y'a devant moi J'fais la passe aux frères, qui n'ont plus de pécule, le vécu t'rattrape, peu importe le véhicule Crâne fracturé par des coup d'matraque, entame une danse macabre avant de rapper mon vécu Hey, pose mes couilles sur chaque morceaux, j'monte pas sur scène sans mouiller le Marcel Marche tout seul de Paname à Marseille, elle m'harcèle me prend pour son proxo Que des headshots, j'suis le sniper Quand la monnaie rentre, ça sent la rafale J'suis solide man, tu crois qu'l'Insomniak dort La weed est forte, la ceinture tiens le hardtop J'aime les bad bitch, j'ai pas d'wife hun Toi et moi, que la night hein Grandir à Paris, quelle fucking life hein ? Aux chtars c'est l'Amazonie , c'est parce qu'on a faim CocaMolly dans le fond du night club On fait des économies, contacts dans le IPhone On fume pour tuer l'ennui, loin d'avoir une life propre Fais danser la money, oubli cette fucking life bro' Young bikow dans le fond du club stone Young bikow bouge comme une rockstar Young bikow dans le fond du club stone Young bikow bouge comme une rockstar</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>J'vais tout péter, cette industrie m'a how, how Un lap dance elle twerk en poirier c'est ma gow gow Mes ennemis sont à laffût sur Dimanche Lokos Ooh, Dimanche Lokos Dimanche Lokos Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Cette année l'électron libre va tous les kicker yeah hoe Ooh, o-o-o-o-o-o-o-o Qui veut tester yeah hoe Ooh, o-o-o-o Là elles tournent toutes autour de Hayce Si j'ai blessé des ex c'est qu'elles se remémorent nos scènes de sexe, Holà, yeah! C'est la kalash humaine j'ai quadrillé la zone c'est un Hold Up Holà, yeah! Septante cinq ça re-ti de partout, bikow je passe les portiques de la peu-fra dans les Nike ouh L'électron libérable est de retour dans les bacs ouh Mes lokos sont deter mes lokas sont magnifayques yeah! Lambo, blanc, lunettes, noir, c'est la faucheuse en plein dérapage incontrôlé J'suis le bikow la bête noire, de ce maudit foutoir, qu'est malheureusement devenu le rap français T'es sur un fil, funambule On t'allume sans rancune On t'encule sans rancune J'ai tissé ma toile sur le corner, tarentule En cambu sous la lune Pervers somnabule Vers six o'clock, j'me suis fait levé Moi qui voulait m'envoler Venu d'un monde à l'envers Cannabinoïde en balle et j'me fais des lovés Les voyous de la ville illuminée voulaient la vie de rêve Ne mets pas ton nez dans la bolivienne Tu veux devenir une étoile, un peu comme à Bollywood N'écoute pas les rumeurs et les balivernes Gars, c'qu'ils pensent de nous, ma gueule on s'en bat les couilles You might also like J'vais tout péter, cette industrie m'a how, how Un lap dance elle twerk en poirier c'est ma gow gow Mes ennemis sont à laffût sur Dimanche Lokos Ooh, Dimanche Lokos Dimanche Lokos Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Cette année l'électron libre va tous les kicker yeah hoe Ooh, o-o-o-o-o-o-o-o Qui veut tester yeah hoe Ooh, o-o-o-o Là elles tournent toutes autour de Hayce Si j'ai blessé des ex c'est qu'elles se remémorent nos scènes de sexe, Holà, yeah! C'est la kalash humaine j'ai quadrillé la zone c'est un Hold Up On les séduit toutes comme Pavarotti J'vais leur coller 45 sur la carotide Maillot DZ, j'ai du Maroc, shit arachide Sachet vert, j'suis plus Versace que Zanotti Yeah, on passe d'la cave à la vie de chateau Yeah, j'sors ma bite, Chapi Chapo, chapi chapo Maison Margiella, vive les disques faits maison avec ou sans maisons d'disque J'suis tellement ché-tou qu'ces fils de putain m'prennent pour un autiste Pour ton équipe de bikos décervelés c'est la loose Douce mélodie, bain d'hémoglobine dans la goose Le 12 le couz m'a dit Tu niques des mères, on te trouve époustouflant Tu peux les kicker tous, t'as le juice, la fougue t'épouse, hey T'as niqué ta rentabilité, t'es mal habilité, mon coco Tous tes potos t'ont niqué, pas la peine de polémiquer J'kick pire pour les niquer voilà mon communiqué Ma binouze, mon goose, mon hood, boom ! J'vais tout péter, cette industrie ma how, how Un lap dance elle twerk en poirier c'est ma gow gow Mes ennemis sont à laffût sur Dimanche Lokos Ooh, Dimanche Lokos Dimanche Lokos Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Cette année l'électron libre va tous les kicker yeah hoe Ooh, o-o-o-o-o-o-o-o Qui veut tester yeah hoe Ooh, o-o-o-o Là elles tournent toutes autour de Hayce1</t>
+          <t>J'vais tout péter, cette industrie m'a how, how Un lap dance elle twerk en poirier c'est ma gow gow Mes ennemis sont à laffût sur Dimanche Lokos Ooh, Dimanche Lokos Dimanche Lokos Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Cette année l'électron libre va tous les kicker yeah hoe Ooh, o-o-o-o-o-o-o-o Qui veut tester yeah hoe Ooh, o-o-o-o Là elles tournent toutes autour de Hayce Si j'ai blessé des ex c'est qu'elles se remémorent nos scènes de sexe, Holà, yeah! C'est la kalash humaine j'ai quadrillé la zone c'est un Hold Up Holà, yeah! Septante cinq ça re-ti de partout, bikow je passe les portiques de la peu-fra dans les Nike ouh L'électron libérable est de retour dans les bacs ouh Mes lokos sont deter mes lokas sont magnifayques yeah! Lambo, blanc, lunettes, noir, c'est la faucheuse en plein dérapage incontrôlé J'suis le bikow la bête noire, de ce maudit foutoir, qu'est malheureusement devenu le rap français T'es sur un fil, funambule On t'allume sans rancune On t'encule sans rancune J'ai tissé ma toile sur le corner, tarentule En cambu sous la lune Pervers somnabule Vers six o'clock, j'me suis fait levé Moi qui voulait m'envoler Venu d'un monde à l'envers Cannabinoïde en balle et j'me fais des lovés Les voyous de la ville illuminée voulaient la vie de rêve Ne mets pas ton nez dans la bolivienne Tu veux devenir une étoile, un peu comme à Bollywood N'écoute pas les rumeurs et les balivernes Gars, c'qu'ils pensent de nous, ma gueule on s'en bat les couilles J'vais tout péter, cette industrie m'a how, how Un lap dance elle twerk en poirier c'est ma gow gow Mes ennemis sont à laffût sur Dimanche Lokos Ooh, Dimanche Lokos Dimanche Lokos Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Cette année l'électron libre va tous les kicker yeah hoe Ooh, o-o-o-o-o-o-o-o Qui veut tester yeah hoe Ooh, o-o-o-o Là elles tournent toutes autour de Hayce Si j'ai blessé des ex c'est qu'elles se remémorent nos scènes de sexe, Holà, yeah! C'est la kalash humaine j'ai quadrillé la zone c'est un Hold Up On les séduit toutes comme Pavarotti J'vais leur coller 45 sur la carotide Maillot DZ, j'ai du Maroc, shit arachide Sachet vert, j'suis plus Versace que Zanotti Yeah, on passe d'la cave à la vie de chateau Yeah, j'sors ma bite, Chapi Chapo, chapi chapo Maison Margiella, vive les disques faits maison avec ou sans maisons d'disque J'suis tellement ché-tou qu'ces fils de putain m'prennent pour un autiste Pour ton équipe de bikos décervelés c'est la loose Douce mélodie, bain d'hémoglobine dans la goose Le 12 le couz m'a dit Tu niques des mères, on te trouve époustouflant Tu peux les kicker tous, t'as le juice, la fougue t'épouse, hey T'as niqué ta rentabilité, t'es mal habilité, mon coco Tous tes potos t'ont niqué, pas la peine de polémiquer J'kick pire pour les niquer voilà mon communiqué Ma binouze, mon goose, mon hood, boom ! J'vais tout péter, cette industrie ma how, how Un lap dance elle twerk en poirier c'est ma gow gow Mes ennemis sont à laffût sur Dimanche Lokos Ooh, Dimanche Lokos Dimanche Lokos Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Ils n'ont pas ma technique j'vais tous les kicker yeah hoe Cette année l'électron libre va tous les kicker yeah hoe Ooh, o-o-o-o-o-o-o-o Qui veut tester yeah hoe Ooh, o-o-o-o Là elles tournent toutes autour de Hayce1</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Hey les loups là Hey les loups, tellement d'gyrophares je vois flou Hey les loups, la rue nous a pris pour époux Hey les loups, yeah Yéma je te donnerai tout Électron libérable va rafaler ces bikos Mains sur les pectos, c'est Young Bikow Mon équipe ne joue jamais les matchs amicaux matchs amicaux ! Pas besoin d'aide, fuck, ces faux bikos Sur le rrain-te la moitié sont des gros mythos Précis comme De Vinci Léonard Islam a tout niqué devient pléonasme À l'époque où j'butais des 20 balles de shit J'me suis juré d'habiter les quartiers chics Faux bicot, ta meuf ressemble à Biyouna Elle a du mal à digérer la loubia Tu t'embrouilles dans tes mythos, t'es pas logique Tu t'embrouilles dans tes mythos, t'es pas logique Graine de délinquance a germé dans mon jardin secret J'ai la kalachnikov chargée dans le coffiot de la tchop? Bain de violence inopiné, gros dans la vie tout se paye Et quand la volaille arrive, on jette la came dans les chiottes C'est nous les gosses du square, on voulait devenir les boss du squad Dans les cours d'histoire, le professeur ne m'avait pas dit que les hommes essaieraient de changer l'cours de l'histoire Où sont passés les maîtres de cérémonie Qui dépensent pour savoir à quoi sert la money Lâchez l'rap pour la zumba t'as serré many Je m'endurcie, laisse la concu' se ramollir Les menottes ont remplacé la fer à gamo Trop busy, je saurais pas quoi faire d'un gamin Y'a des rayures partout sur mon premier gamos J'ai fait tombé d'la sauce sur mon polo Balmain You might also like Hey les loups là Hey les loups, tellement d'gyrophares je vois flou Hey les loups, la rue nous a pris pour époux Hey les loups, yeah yéma je te donnerai tout Électron libérable va rafaler ces bicots Mains sur les pectos, c'est Young Bicow Mon équipe ne joue jamais les matchs amicaux Pas besoin d'eux, ces faux bicots Sur le rrain-te la moitié sont des gros mythos J'fais de plus en plus d'argent Et j'me roule un p'tit afghan Je leur donne du fil à r'tordre Les idées noires sous Ruinart blanc J'suis le loup solitaire, sous la lune sagittaire, névrosé de la plume ban, bang On a mangé des pierres , on rêve de shooter l'commissaire sur le bitume bang bang Eurêka m'est venu telle une évidence Tellement j'envoie du lourd, mes ennemis dansent Elle m'attend dans le living en bas résilles J'l'emmène en vacances, elle connaît pas les îles Salute, j'ai l'regard sombre comme Sasuke Ils attendent d'être loin pour s'insulter J'confonds l'game avec un salon d'thé Saliter sur les ondes hertziennes Sors d'l'oseille si tu veux Hayce Lem' Deux glocks noirs pour mes adversaires Trente lokas pour mon anniversaire Hey les loups là Hey les loups, tellement d'gyrophares je vois flou Hey les loups, la rue nous a pris pour époux Hey les loups, yeah yéma je te donnerai tout Électron libérable va rafaler ces bicots Mains sur les pectos, c'est Young Bicow Mon équipe ne joue jamais les matchs amicaux Pas besoin d'eux, ces faux bicots Sur le rrain-te la moitié sont des gros mythos</t>
+          <t>Hey les loups là Hey les loups, tellement d'gyrophares je vois flou Hey les loups, la rue nous a pris pour époux Hey les loups, yeah Yéma je te donnerai tout Électron libérable va rafaler ces bikos Mains sur les pectos, c'est Young Bikow Mon équipe ne joue jamais les matchs amicaux matchs amicaux ! Pas besoin d'aide, fuck, ces faux bikos Sur le rrain-te la moitié sont des gros mythos Précis comme De Vinci Léonard Islam a tout niqué devient pléonasme À l'époque où j'butais des 20 balles de shit J'me suis juré d'habiter les quartiers chics Faux bicot, ta meuf ressemble à Biyouna Elle a du mal à digérer la loubia Tu t'embrouilles dans tes mythos, t'es pas logique Tu t'embrouilles dans tes mythos, t'es pas logique Graine de délinquance a germé dans mon jardin secret J'ai la kalachnikov chargée dans le coffiot de la tchop? Bain de violence inopiné, gros dans la vie tout se paye Et quand la volaille arrive, on jette la came dans les chiottes C'est nous les gosses du square, on voulait devenir les boss du squad Dans les cours d'histoire, le professeur ne m'avait pas dit que les hommes essaieraient de changer l'cours de l'histoire Où sont passés les maîtres de cérémonie Qui dépensent pour savoir à quoi sert la money Lâchez l'rap pour la zumba t'as serré many Je m'endurcie, laisse la concu' se ramollir Les menottes ont remplacé la fer à gamo Trop busy, je saurais pas quoi faire d'un gamin Y'a des rayures partout sur mon premier gamos J'ai fait tombé d'la sauce sur mon polo Balmain Hey les loups là Hey les loups, tellement d'gyrophares je vois flou Hey les loups, la rue nous a pris pour époux Hey les loups, yeah yéma je te donnerai tout Électron libérable va rafaler ces bicots Mains sur les pectos, c'est Young Bicow Mon équipe ne joue jamais les matchs amicaux Pas besoin d'eux, ces faux bicots Sur le rrain-te la moitié sont des gros mythos J'fais de plus en plus d'argent Et j'me roule un p'tit afghan Je leur donne du fil à r'tordre Les idées noires sous Ruinart blanc J'suis le loup solitaire, sous la lune sagittaire, névrosé de la plume ban, bang On a mangé des pierres , on rêve de shooter l'commissaire sur le bitume bang bang Eurêka m'est venu telle une évidence Tellement j'envoie du lourd, mes ennemis dansent Elle m'attend dans le living en bas résilles J'l'emmène en vacances, elle connaît pas les îles Salute, j'ai l'regard sombre comme Sasuke Ils attendent d'être loin pour s'insulter J'confonds l'game avec un salon d'thé Saliter sur les ondes hertziennes Sors d'l'oseille si tu veux Hayce Lem' Deux glocks noirs pour mes adversaires Trente lokas pour mon anniversaire Hey les loups là Hey les loups, tellement d'gyrophares je vois flou Hey les loups, la rue nous a pris pour époux Hey les loups, yeah yéma je te donnerai tout Électron libérable va rafaler ces bicots Mains sur les pectos, c'est Young Bicow Mon équipe ne joue jamais les matchs amicaux Pas besoin d'eux, ces faux bicots Sur le rrain-te la moitié sont des gros mythos</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Je viens dun monde à lenvers où la colère est passagère Une fois quon a tout saccagé, la kalash côté passager Puis cest le passage à tabac Toujours insolent de la vérif au passage à la barre Et dans le passé jme revois, jcassais la baraque, jcassais la démarche Avec Mbaraque et Papada dès le plus jeune âge Démarrage, Hold up, mets les porcs, hors deux Vends la dope dans le hall, ya comme une odeur dbonne beuh Ma belle si ton cur est à prendre laisse-moi tapprendre par cur Ou laisse-moi taper ton tarpé puis tfaire tomber sur répondeur, Hay' Rappeur, toi qui vendrait même ta zic pour un clou Tu viens juste darriver, poto reste tranquille Tu prends lpatron du cirque pour un clown Cesse de gesticuler quand Lucky Luke a le canon calé dans les yeuks Hayce fait ci, Big Lemsi fait ça Trop de facéties, je t'ai passé ça, sisi sossa 97 jdébute sur cassettes, pour les mettre à sec jsuis une star La scène, cest mon firmament, comme le diamant jai plusieurs facettes Lenvie de dévorer la vie de menvoler vers la vallée des vers mest délibérément venu je nétais quun petit crapaud, yeah yeah, un young bikow yeah yeah Jétais vil et vénal envie dun nouvel horizon, venin dans les veines, envie de khalis dans les valises et dévaliser les châteaux yeah yeah, el chapo yeah yeah Électron Libérable, yeah ow Dédic-hayce à tout les frères qui tournent à Poitiers Vivonne à Orléans-Saran Tout les chtars de France, tout les chtar du monde Ouais la cité est là Yeah ow, eh You might also like Avant dparler pose mon oseille sur la table, jme passerai bien dchanter dans ta boîte de merde Cousin tas des oursins dans les poches, tu tdemandes pourquoi cette pute fait létoile de mer Ya toujours l'mirador dans ma ligne de mire, même en portant cputain dhaki dmonitor Jai coffré ma hlel à Mirabeau, jai investi vers Michel Ange Molitor Un jour un an-ienc ma dit les temps changent , jai répondu les gens changent avec le temps Et les peines de prisons changent avec le teint, quand ya plus rien à gratter les putes changent de camps Tu mparles de ta carrière gros jmen bats les couilles, faut qujassure la famille jusquau Vieux Kouba Porsche 911 des yeux de grenouilles, on sest débrouillé sans faire de mea culpa Vicère pas les femmes enceintes qui veulent fumer du crack, hein hein Calcule pas les michto qui suceraient le premier venu pour un sac, hein hein Dans le four jme fiche de cquon dit sur moi, car limportant cest de rester soi-même Comme dhab je prends la presse traditionnelle à contrepied pendant le temps additionnel Tu verrai la cuisine dans ma planque, ça fait de la physique comme Max Planck Jattends la floraison de ma plante, jai le calibre de la bac nord sur ma tempe Sorti dhebs mes gars sûrs mattendent. On a piétiné braqueur de fourrures Jpasse en caravane, et jramasse plus de chiennes que la fourrière Jvoulais pas tfaire de mal cest lappât du gain, jvoulais pas tfaire le mal cest lappât du gain Jai dû tenir les murs jétais mort de froid, jai tapé la galette jétais mort de faim Cest fou cquon peut faire avec un tarpé, la cavale me fatigue jveux plus fuir maman Jai limpression que la vie me tire la langue, qules étoiles ne brillent plus dans mon firmament On confond lbonheur avec un fer allemand, fait la misère à tout lmonde sans savoir pourquoi Elle ma dit Jette les chiennes dans ton répertoire, Big Lemsi jtaime tellement que jtuerai pour toi La mâchoire du boer bull et lil du tigre, jpeux te jeter du pont prendre Moretti Tu vas pas ré-ti, arrête ton cinéma tu vas pas ré-ti</t>
+          <t>Je viens dun monde à lenvers où la colère est passagère Une fois quon a tout saccagé, la kalash côté passager Puis cest le passage à tabac Toujours insolent de la vérif au passage à la barre Et dans le passé jme revois, jcassais la baraque, jcassais la démarche Avec Mbaraque et Papada dès le plus jeune âge Démarrage, Hold up, mets les porcs, hors deux Vends la dope dans le hall, ya comme une odeur dbonne beuh Ma belle si ton cur est à prendre laisse-moi tapprendre par cur Ou laisse-moi taper ton tarpé puis tfaire tomber sur répondeur, Hay' Rappeur, toi qui vendrait même ta zic pour un clou Tu viens juste darriver, poto reste tranquille Tu prends lpatron du cirque pour un clown Cesse de gesticuler quand Lucky Luke a le canon calé dans les yeuks Hayce fait ci, Big Lemsi fait ça Trop de facéties, je t'ai passé ça, sisi sossa 97 jdébute sur cassettes, pour les mettre à sec jsuis une star La scène, cest mon firmament, comme le diamant jai plusieurs facettes Lenvie de dévorer la vie de menvoler vers la vallée des vers mest délibérément venu je nétais quun petit crapaud, yeah yeah, un young bikow yeah yeah Jétais vil et vénal envie dun nouvel horizon, venin dans les veines, envie de khalis dans les valises et dévaliser les châteaux yeah yeah, el chapo yeah yeah Électron Libérable, yeah ow Dédic-hayce à tout les frères qui tournent à Poitiers Vivonne à Orléans-Saran Tout les chtars de France, tout les chtar du monde Ouais la cité est là Yeah ow, eh Avant dparler pose mon oseille sur la table, jme passerai bien dchanter dans ta boîte de merde Cousin tas des oursins dans les poches, tu tdemandes pourquoi cette pute fait létoile de mer Ya toujours l'mirador dans ma ligne de mire, même en portant cputain dhaki dmonitor Jai coffré ma hlel à Mirabeau, jai investi vers Michel Ange Molitor Un jour un an-ienc ma dit les temps changent , jai répondu les gens changent avec le temps Et les peines de prisons changent avec le teint, quand ya plus rien à gratter les putes changent de camps Tu mparles de ta carrière gros jmen bats les couilles, faut qujassure la famille jusquau Vieux Kouba Porsche 911 des yeux de grenouilles, on sest débrouillé sans faire de mea culpa Vicère pas les femmes enceintes qui veulent fumer du crack, hein hein Calcule pas les michto qui suceraient le premier venu pour un sac, hein hein Dans le four jme fiche de cquon dit sur moi, car limportant cest de rester soi-même Comme dhab je prends la presse traditionnelle à contrepied pendant le temps additionnel Tu verrai la cuisine dans ma planque, ça fait de la physique comme Max Planck Jattends la floraison de ma plante, jai le calibre de la bac nord sur ma tempe Sorti dhebs mes gars sûrs mattendent. On a piétiné braqueur de fourrures Jpasse en caravane, et jramasse plus de chiennes que la fourrière Jvoulais pas tfaire de mal cest lappât du gain, jvoulais pas tfaire le mal cest lappât du gain Jai dû tenir les murs jétais mort de froid, jai tapé la galette jétais mort de faim Cest fou cquon peut faire avec un tarpé, la cavale me fatigue jveux plus fuir maman Jai limpression que la vie me tire la langue, qules étoiles ne brillent plus dans mon firmament On confond lbonheur avec un fer allemand, fait la misère à tout lmonde sans savoir pourquoi Elle ma dit Jette les chiennes dans ton répertoire, Big Lemsi jtaime tellement que jtuerai pour toi La mâchoire du boer bull et lil du tigre, jpeux te jeter du pont prendre Moretti Tu vas pas ré-ti, arrête ton cinéma tu vas pas ré-ti</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Big Lemsi Records ! Donne-moi mon putain d'HayceLem'juice ! Lima. Echo. Mic. Sierra. India ! Je t'attends sur le parking Glock sur la tempe Nique la mère à Starsky Mes bikows font sauter la banque ! Puto, va dire à ta bande, qu'on est nerveux Sur le ring et les plates-bandes ! XV2 Méga moteur allemand, j'tiens ta pute en laisse ! Monarque paranoïaque, voyage pittoresque On a tiré sur la dernière roue du carrosse Juste parce qu'on a trop bédave, qu'on est bipolaires ! OK j'porte le bandana comme à Los Angeles Allez tire sur ma banana comme sur ce Maze Trop d'jaloux s'approche de ma forteresse Ce showbiz a capitalisé ce game de merde ! Khabbat everyday, j'me sens beaucoup mieux quand j'ai vomi la vérité Hayce Lem' validé ! J'peux tenir aussi longtemps que Mr Hallyday ! J'fous la merde et j'suis dans tous mes états J'ai la veine sur le front en mode Végéta T'as deux jambes, deux bras L'argent va l'chercher ! Arrêtez d'me gratter, j'ai pas ! Tu veux m'kicker, j'ai la musique dans la peau Tu m'fais pitié, j'vais t'écraser dans ma paume ! Comme le Phénix je renaît de mes cendres Slalom entre les schlagues à chaque mois de décembre T'as plus de cocaïne, t'es en pleine descente Tu vas rayer ta carte grise et revendre tes jantes ! Moi j'emmerde les gens, j'vis comme j'veux ! J'suis un génie incompris qui s'arrache les cheveux Nan mon pote j'ai pas d'problème avec mes chevilles Mais je sais que j'suis l'meilleur et j'vais braquer le jeu ! Bande de fils de putes ! Dans tes sons, t'ouvres ta chatte Faut qu'on s'voit nous deux ! Hein Gringo ?! La dernière fois que je t'ai fumé, y'avait ce petit goût de beuuuh !You might also like1</t>
+          <t>Big Lemsi Records ! Donne-moi mon putain d'HayceLem'juice ! Lima. Echo. Mic. Sierra. India ! Je t'attends sur le parking Glock sur la tempe Nique la mère à Starsky Mes bikows font sauter la banque ! Puto, va dire à ta bande, qu'on est nerveux Sur le ring et les plates-bandes ! XV2 Méga moteur allemand, j'tiens ta pute en laisse ! Monarque paranoïaque, voyage pittoresque On a tiré sur la dernière roue du carrosse Juste parce qu'on a trop bédave, qu'on est bipolaires ! OK j'porte le bandana comme à Los Angeles Allez tire sur ma banana comme sur ce Maze Trop d'jaloux s'approche de ma forteresse Ce showbiz a capitalisé ce game de merde ! Khabbat everyday, j'me sens beaucoup mieux quand j'ai vomi la vérité Hayce Lem' validé ! J'peux tenir aussi longtemps que Mr Hallyday ! J'fous la merde et j'suis dans tous mes états J'ai la veine sur le front en mode Végéta T'as deux jambes, deux bras L'argent va l'chercher ! Arrêtez d'me gratter, j'ai pas ! Tu veux m'kicker, j'ai la musique dans la peau Tu m'fais pitié, j'vais t'écraser dans ma paume ! Comme le Phénix je renaît de mes cendres Slalom entre les schlagues à chaque mois de décembre T'as plus de cocaïne, t'es en pleine descente Tu vas rayer ta carte grise et revendre tes jantes ! Moi j'emmerde les gens, j'vis comme j'veux ! J'suis un génie incompris qui s'arrache les cheveux Nan mon pote j'ai pas d'problème avec mes chevilles Mais je sais que j'suis l'meilleur et j'vais braquer le jeu ! Bande de fils de putes ! Dans tes sons, t'ouvres ta chatte Faut qu'on s'voit nous deux ! Hein Gringo ?! La dernière fois que je t'ai fumé, y'avait ce petit goût de beuuuh !1</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>XV Barbare, bitch Moi je me bats quavec les hommes Jmets des gifles à Bertrand Cantat bitch Mon corps est né en Algérie, mon esprit vient d'Atlanta Jmappelle Islem, ces putos du rap-game craignent un attentat Cette nuit jextermine le rap-game, zina, ne mattends pas Zina, ne mattends pas, jsuis sur le corner, je retourne au combat Force et honneur, indépendance coûte cher Liberté na pas de prix, que les hafrits parlent à mon répondeur Jpose pas mon caviar sur ta mixtape, kebab döner Jai ligoté l'marionnettiste et brouillé les pistes de Jack Bauer Elles veulent être reine de mon empire For the money and the power Elles viennent en tailleur Elles veulent juste quon sen aille ailleurs Elles veulent être reine de mon empire For the money and the power Elles viennent en tailleur Elles veulent juste quon sen aille ailleurs Biko, cest ma bitch, ma bitch, ma bitch Biko, cest ma bitch, ma bitch, ma bitch Biko, cest ma bitch Biko, cest ma bitch La princesse monte dans mon carrosse Jlemmène faire des tours sur mon cross Elle a peur que ces bikos marrosent Que j'puisse plus jamais gouter son gloss La sangle abdominale dAli Jsors du tribunal amni' Négros, babtous, 3arbis Pour nos mères qui regardent les prix chez Aldi Ton rêve le plus fou te rendra riche Nerveux dans la Ferrari Fais pas crari Tout l'monde voit qu'tu tombes amoureux d'ta bitch Elles veulent diriger ma dynastie Quitte à passer par la gymnastique Ma weed vient de Maastricht Et je nai toujours pas rappelé la CPIP Elle voit mon chauffeur et son costard Hélicoptère, Kevin Costner Jembrasse nos surs Jignorais que j'me retrouverai sur des posters Eh biko, j'ai la tête ailleurs For the money and the power Elles viennent en tailleur Elles veulent juste qu'on s'en aille ailleurs Ailleurs Biko, cest ma bitch, ma bitch, ma bitch Biko, cest ma bitch, ma bitch, ma bitch Biko, cest ma bitch Biko, cest ma bitch Biko, cest ma bitch, ma bitch, ma bitch Biko, cest ma bitch, ma bitch, ma bitch Biko, cest ma bitch Biko, cest ma bitchYou might also like1</t>
+          <t>XV Barbare, bitch Moi je me bats quavec les hommes Jmets des gifles à Bertrand Cantat bitch Mon corps est né en Algérie, mon esprit vient d'Atlanta Jmappelle Islem, ces putos du rap-game craignent un attentat Cette nuit jextermine le rap-game, zina, ne mattends pas Zina, ne mattends pas, jsuis sur le corner, je retourne au combat Force et honneur, indépendance coûte cher Liberté na pas de prix, que les hafrits parlent à mon répondeur Jpose pas mon caviar sur ta mixtape, kebab döner Jai ligoté l'marionnettiste et brouillé les pistes de Jack Bauer Elles veulent être reine de mon empire For the money and the power Elles viennent en tailleur Elles veulent juste quon sen aille ailleurs Elles veulent être reine de mon empire For the money and the power Elles viennent en tailleur Elles veulent juste quon sen aille ailleurs Biko, cest ma bitch, ma bitch, ma bitch Biko, cest ma bitch, ma bitch, ma bitch Biko, cest ma bitch Biko, cest ma bitch La princesse monte dans mon carrosse Jlemmène faire des tours sur mon cross Elle a peur que ces bikos marrosent Que j'puisse plus jamais gouter son gloss La sangle abdominale dAli Jsors du tribunal amni' Négros, babtous, 3arbis Pour nos mères qui regardent les prix chez Aldi Ton rêve le plus fou te rendra riche Nerveux dans la Ferrari Fais pas crari Tout l'monde voit qu'tu tombes amoureux d'ta bitch Elles veulent diriger ma dynastie Quitte à passer par la gymnastique Ma weed vient de Maastricht Et je nai toujours pas rappelé la CPIP Elle voit mon chauffeur et son costard Hélicoptère, Kevin Costner Jembrasse nos surs Jignorais que j'me retrouverai sur des posters Eh biko, j'ai la tête ailleurs For the money and the power Elles viennent en tailleur Elles veulent juste qu'on s'en aille ailleurs Ailleurs Biko, cest ma bitch, ma bitch, ma bitch Biko, cest ma bitch, ma bitch, ma bitch Biko, cest ma bitch Biko, cest ma bitch Biko, cest ma bitch, ma bitch, ma bitch Biko, cest ma bitch, ma bitch, ma bitch Biko, cest ma bitch Biko, cest ma bitch1</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>L'oiseau de nuit vole de ses propres ailes Brrr, brrr Electron libre Le succès et tout, et tout Je répond pas Et, arrêter d'm'entourer, j'étouffe Je respire pas Des milliers de personne m'attendent sur scène j'ai la tête qui tourne Laissez-moi Blaise, mais tout ce qui m'arrive, c'est le mektoub Laisse, tu te demandes pourquoi je suis soûl Je suis encore bourré Khey, je souris tout le temps mais je souffre J'reste un guerrier jusqu'au dernier souffle T'as bien profité jusqu'au dernier sou Au dernier sou, dernier dollar Puisé dans toutes mes ressources, t'as bien cracher dans la soupe T'as bien cracher dans la soupe Quand on t'entend, tu fais le sourd Fais le sourd, t'entends ap' Tu ne me vois pas mais je te zoom Mais je te zoom, je suis là Tu ne me vois pas mais je te zoom You might also like Y'a les shtars dans l'habitacle, j'leur mets tempête juste après la bounya J'suis rock-star sans la guitare J'suis solitaire car les vrais reuf-rés sont rares Une pour mes frères condamnés à plusieurs peines Je chante sous amné', apaisée ma haine La mauvaise graine a germé, les fleurs ont fané J'attends l'épiphanie, mon biko j'suis affamé La maîtresse m'a demandé Tu feras quoi plus tard ?, j'ai répondu Rock-star sans aucune hésitation, j'ai rempli des Buvards Sur le boulevard, je rêvais de millions de dollars et d'émancipations Je regarde la rame sur ma life, sur les murs de la cité comme les murs du son Casque Arai sur cheval de fer, commotion cérébrale hospitalisation J'en ai vu partir plus d'un mais c'est Dieu qui prend Malgré leurs menaces, ce sont eux qui tremblent Vous cherchez quoi, bande de fils de pute ? Faut qu'j'rafale pour qu'on m'reste quille-tran ? T'as calé l'6.30, tu t'sens chaud, t'as froid t'as l'cul entre deux chaises Tu m'appelles Sancho, tu m'appelles mon reuf' mais tu rêves d'm'allumer sur une Sanchez J'suis un grand garçon, j'ai des principes J'ai la rétine et la plume assassine J'suis encore bourré, j'écris deux classiques Sous un ciel non étoilé couleur anthracite Tout est dans ma cible, puto n'joue pas trop derrière y'a Macho, bang bang l'ivoirien Rafale dans ta grand-mère tu vois rien Y'a les shtars dans l'habitacle, j'leur mets tempête juste après la bounya J'suis rock-star sans la guitare J'suis solitaire car les vrais reuf-rés sont rares Une pour mes frères condamnés à plusieurs peines Je chante sous amné', apaisée ma haine La mauvaise graine a germé, les fleurs ont fané J'attends l'épiphanie, mon biko j'suis affamé Et tout, et tout, et tout, et tout Et tout, et tout, et tout, et tout Et tout, et tout, et tout, et tout Et tout, et tout, et tout, et tout Hayce, binks</t>
+          <t>L'oiseau de nuit vole de ses propres ailes Brrr, brrr Electron libre Le succès et tout, et tout Je répond pas Et, arrêter d'm'entourer, j'étouffe Je respire pas Des milliers de personne m'attendent sur scène j'ai la tête qui tourne Laissez-moi Blaise, mais tout ce qui m'arrive, c'est le mektoub Laisse, tu te demandes pourquoi je suis soûl Je suis encore bourré Khey, je souris tout le temps mais je souffre J'reste un guerrier jusqu'au dernier souffle T'as bien profité jusqu'au dernier sou Au dernier sou, dernier dollar Puisé dans toutes mes ressources, t'as bien cracher dans la soupe T'as bien cracher dans la soupe Quand on t'entend, tu fais le sourd Fais le sourd, t'entends ap' Tu ne me vois pas mais je te zoom Mais je te zoom, je suis là Tu ne me vois pas mais je te zoom Y'a les shtars dans l'habitacle, j'leur mets tempête juste après la bounya J'suis rock-star sans la guitare J'suis solitaire car les vrais reuf-rés sont rares Une pour mes frères condamnés à plusieurs peines Je chante sous amné', apaisée ma haine La mauvaise graine a germé, les fleurs ont fané J'attends l'épiphanie, mon biko j'suis affamé La maîtresse m'a demandé Tu feras quoi plus tard ?, j'ai répondu Rock-star sans aucune hésitation, j'ai rempli des Buvards Sur le boulevard, je rêvais de millions de dollars et d'émancipations Je regarde la rame sur ma life, sur les murs de la cité comme les murs du son Casque Arai sur cheval de fer, commotion cérébrale hospitalisation J'en ai vu partir plus d'un mais c'est Dieu qui prend Malgré leurs menaces, ce sont eux qui tremblent Vous cherchez quoi, bande de fils de pute ? Faut qu'j'rafale pour qu'on m'reste quille-tran ? T'as calé l'6.30, tu t'sens chaud, t'as froid t'as l'cul entre deux chaises Tu m'appelles Sancho, tu m'appelles mon reuf' mais tu rêves d'm'allumer sur une Sanchez J'suis un grand garçon, j'ai des principes J'ai la rétine et la plume assassine J'suis encore bourré, j'écris deux classiques Sous un ciel non étoilé couleur anthracite Tout est dans ma cible, puto n'joue pas trop derrière y'a Macho, bang bang l'ivoirien Rafale dans ta grand-mère tu vois rien Y'a les shtars dans l'habitacle, j'leur mets tempête juste après la bounya J'suis rock-star sans la guitare J'suis solitaire car les vrais reuf-rés sont rares Une pour mes frères condamnés à plusieurs peines Je chante sous amné', apaisée ma haine La mauvaise graine a germé, les fleurs ont fané J'attends l'épiphanie, mon biko j'suis affamé Et tout, et tout, et tout, et tout Et tout, et tout, et tout, et tout Et tout, et tout, et tout, et tout Et tout, et tout, et tout, et tout Hayce, binks</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Ouais ouais ouais c'est Hayce Lemsi Young Pablo aka la Kalash humaine Pour Booska p Young bikow 5 on va vous montrer c'est quoi le vrai rap français Electron libre 2 le 17 février dans les bacs Grrrra Électron libre 2 Aou Où sera ma place lorsque montagnes et forêts seront devenu poussières? J'veux pas laisser ma trace lachez moi la grappe et laissez moi donc crever tout seul Quand le Roi-Soleil prend la plume éteignez les lumières du château s'il vous plaît J'ai bu la tasse dans un océan d'amertume j'ai le double des clés de sol j'veux toucher le ciel -Messire Pour mener une grande guerre Nous avons besoin de grands hommes Mais comment mesurer la grandeur de l'âme? -Je l'ignore soldat Tu coupes ta weed au verre pilé pour aller dépenser tout tes billets verts à Verbier Devenir une putain comme toi j'préfère rentrer dans mon bled pour devenir fermier Les paupières fermées dans la stratosphère J'écrase vos terres tel un tyrannosaure De Paris à Lausanne lokos lokas sont fières J'ai ressorti la plume de la boîte de Pandore J'suis Vladimir juste après la chute du rideau de fer Fils, j'veux qu'tous ces putos s'imprègnent de ma putain de grammaire Car il sont bon qu'à se faire Fist fuck jusqu'à l'intestin grêle Une cartouche dans ta boîte crânienne Ta cervelle éclabousse on met les essuies gl'Hayce J'irais boire le sang du prochain fils de pute qui veut ? ma pl'Hayce T'sais, la rue arrache les ailes au chérubin Tout se monnaye la liberté l'amour et la chair humaine Le lapin tue le chasseur de bon matin c'est l'aubaine Bang bang Toi tu veux ma liasse ma tainp' Sale pute J'ai trop souffert rien ne m'atteint Quand c'étais la merde à part Matthew ? personne a pris mes patins Qu'est-ce que t'attend de moi mi amor? T'es belle mais j'ai le cur amer Gringo, me critique pas trop j'vais te souhaiter la mort J'suis susceptible Me regarde pas trop longtemps dans les yeux j'vais t'baiser ta mère j'vais t'niquer tes morts 17 février 2017 balles dans ton corps Des broccolis dans mes backwoods Deux albums de tec' dans l'Macbook Je perds la boule j'suis bouré j'parle tout seul dans l'hood comme un mahboul Nik zebi j'retire les couteaux de mon dos Akrapovi extendo on traque les snitch dans le bendo Pousse pousse pousse le sale avec le keffieh d'Arafat avant d'envoyer la rafale Grrra Tout est bien qui finit mal On fait l'amour entre deux guerres au lieu de consulter l'imam Grrra Bikow savage rappe depuis l'époque de Rakim Fuck la Reine des neiges elle veut vider mes deux packit Fuck tous leurs blasphèmes ces bikow ont besoin d'un raqi Glock ambiance malsaine ça va se fumer sur le parking J'suis un putain de koro bien trop hyperactif pour eux J'ai l'impression qu'tu sors d'un vieux préservatif poreux J'bédave sur le mouv' ouais j'écris des hits j'fais des hat trick J'sais pas ce qu'm'veut j'ressemble pas à Brad Pitt j'suis en bad trip J'suis en bad trip Raaa J'suis en bad trip Raaa nike ta mère You might also like Hey, arrête de me copier tu t'es trompé de style J'suis un électron libre Einstein Mon flow fait l'amour au game Arthur Rubinstein Fais l'amour au game J'ai trouvé l'inspi' sur la capit' Frankestein Yeah, c'est mon cinquième cd mon cinquième bébé Électron libre 2 On m'a dit t'as tué ces rappeurs coupable j'ai plaidé Coupable je plaide Tu vis ton rêve ou tu vis ta crainte Tu dis qu'ça craint mais tu vas bientôt retourner ta veste espèce de pd T'attends qu'ça marche hein Le rap est mort j'viens rendre hommage frère Le cigare plein de broccolis j'rappe comme un calibre J'fais du frômage frais Ma vie n'a rien d'un poème bucolique On m'a traqué tous les braconniers veulent m'achever J'ai le dégradé l'ensemble crocodile comme a Cocody j'suis présidentielle nul ne peut m'acheter Électron libre 21</t>
+          <t>Ouais ouais ouais c'est Hayce Lemsi Young Pablo aka la Kalash humaine Pour Booska p Young bikow 5 on va vous montrer c'est quoi le vrai rap français Electron libre 2 le 17 février dans les bacs Grrrra Électron libre 2 Aou Où sera ma place lorsque montagnes et forêts seront devenu poussières? J'veux pas laisser ma trace lachez moi la grappe et laissez moi donc crever tout seul Quand le Roi-Soleil prend la plume éteignez les lumières du château s'il vous plaît J'ai bu la tasse dans un océan d'amertume j'ai le double des clés de sol j'veux toucher le ciel -Messire Pour mener une grande guerre Nous avons besoin de grands hommes Mais comment mesurer la grandeur de l'âme? -Je l'ignore soldat Tu coupes ta weed au verre pilé pour aller dépenser tout tes billets verts à Verbier Devenir une putain comme toi j'préfère rentrer dans mon bled pour devenir fermier Les paupières fermées dans la stratosphère J'écrase vos terres tel un tyrannosaure De Paris à Lausanne lokos lokas sont fières J'ai ressorti la plume de la boîte de Pandore J'suis Vladimir juste après la chute du rideau de fer Fils, j'veux qu'tous ces putos s'imprègnent de ma putain de grammaire Car il sont bon qu'à se faire Fist fuck jusqu'à l'intestin grêle Une cartouche dans ta boîte crânienne Ta cervelle éclabousse on met les essuies gl'Hayce J'irais boire le sang du prochain fils de pute qui veut ? ma pl'Hayce T'sais, la rue arrache les ailes au chérubin Tout se monnaye la liberté l'amour et la chair humaine Le lapin tue le chasseur de bon matin c'est l'aubaine Bang bang Toi tu veux ma liasse ma tainp' Sale pute J'ai trop souffert rien ne m'atteint Quand c'étais la merde à part Matthew ? personne a pris mes patins Qu'est-ce que t'attend de moi mi amor? T'es belle mais j'ai le cur amer Gringo, me critique pas trop j'vais te souhaiter la mort J'suis susceptible Me regarde pas trop longtemps dans les yeux j'vais t'baiser ta mère j'vais t'niquer tes morts 17 février 2017 balles dans ton corps Des broccolis dans mes backwoods Deux albums de tec' dans l'Macbook Je perds la boule j'suis bouré j'parle tout seul dans l'hood comme un mahboul Nik zebi j'retire les couteaux de mon dos Akrapovi extendo on traque les snitch dans le bendo Pousse pousse pousse le sale avec le keffieh d'Arafat avant d'envoyer la rafale Grrra Tout est bien qui finit mal On fait l'amour entre deux guerres au lieu de consulter l'imam Grrra Bikow savage rappe depuis l'époque de Rakim Fuck la Reine des neiges elle veut vider mes deux packit Fuck tous leurs blasphèmes ces bikow ont besoin d'un raqi Glock ambiance malsaine ça va se fumer sur le parking J'suis un putain de koro bien trop hyperactif pour eux J'ai l'impression qu'tu sors d'un vieux préservatif poreux J'bédave sur le mouv' ouais j'écris des hits j'fais des hat trick J'sais pas ce qu'm'veut j'ressemble pas à Brad Pitt j'suis en bad trip J'suis en bad trip Raaa J'suis en bad trip Raaa nike ta mère Hey, arrête de me copier tu t'es trompé de style J'suis un électron libre Einstein Mon flow fait l'amour au game Arthur Rubinstein Fais l'amour au game J'ai trouvé l'inspi' sur la capit' Frankestein Yeah, c'est mon cinquième cd mon cinquième bébé Électron libre 2 On m'a dit t'as tué ces rappeurs coupable j'ai plaidé Coupable je plaide Tu vis ton rêve ou tu vis ta crainte Tu dis qu'ça craint mais tu vas bientôt retourner ta veste espèce de pd T'attends qu'ça marche hein Le rap est mort j'viens rendre hommage frère Le cigare plein de broccolis j'rappe comme un calibre J'fais du frômage frais Ma vie n'a rien d'un poème bucolique On m'a traqué tous les braconniers veulent m'achever J'ai le dégradé l'ensemble crocodile comme a Cocody j'suis présidentielle nul ne peut m'acheter Électron libre 21</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Hey ! c'est l'électron libre... Hayce Lemsi Jremercie toute ma Haycelem team Qui m'porte tous les jours comme un trophée Pas besoin dchauffer le couteau cest dla crème Jai même pas calculé que jlavais fumé toute laprèm Dite à la concu qujai rêvé dleurs silhouette à la craie Le volubile dans le building, zêtes à la traine En buvette sur la corniche, entrain dcabrer Tentend ma rage au feu rouge de Vénissieux à Cambray Profité d'ma faiblesse et dmon casque ambré Jsuis de retour tous les rappeurs sont en train dcâbler Yeah Hoe, Yeah Hoe Jsuis une boule de nerf conçu par le rap français pour aller niquer des mères Tes rumeurs de merde volent pas plus haut quma bite Jsuis un vrai DZ comme le frère Hemer Attends-toi tu parles mais quest tu connais Tes jaloux, tu ne lavouera jamais, naaan Très vite les coups partent Parle moi bien jsuis pas ton pote La kalash humaine envoie des rafales dans ton corps et dans ton torse Ouais vous rappez que dla merde moi jcommence à mennuyer Jai mis six dans lbarillet Jnai que quelques alliés Brrr jtire sur le sablier You might also like Liberté violée Jen ai marre de voir ma communauté sfaire renier Jen ai marre davancer la roue voilée Jen ai marre de les voir importuner les surs voilées Jécris la vérité, jai lmoral dans les pump Jsuis pas du genre à traîner dans les pubs Joublie ta sale gueule Jempoigne le micro, jmonte sur scène Jrap, je bouge comme un punk Trouve moi au tacos comme au bristol Jfume de la weed avec les jamaïcain dBringston Fume toute lannée je suis constamment dans le brainstorming Ramène-moi qui tu veux je nai peur de personne Jperds le sommeil, jai le flow Smith Wesson Vers le sommet solo je me hisse de tel sorte Vers le sommet chérie, je nattendrais personne Mercenaire de la rime et Luther à la clé dsol Pas de balle à blanc jai mis le milli dans la mini De la moula dans les veines, jfais dlarabe money Toujours élégant jaime donner du plaisir au femme Mais je ne fréquenterais celles qui ne prenne pas dmolly Jai la haine, ça sent le roussi Mélodie reptilienne jai grandis sur la chaussée Flow tout terrain sur le tempo Valentino Rossi Sa vend de la weed au petite meuf tah la HEC All eyes on me, ya pas dhasard lami Jsuis toujours al sur la rime Et toute mes phrases se marient Ça te rafale sur la rive Chez nous ya pas dscénariste Allez casse-toi mani Tu boiras ap sur ma lean Maladroit comme Édouard aux mains d'argent Limpression que les darmes-gen ont tous le cur en argile Très jeune on ma dit tes le nouveau talent émergent Tu fais partie des rares gens Dont le flow peut sélargir Dites aux requins dse méfier du piranha Jrap la vérité sans entrer dans lpire haram Je nai quune envie les démolir hara Dire que jai passé toute ma vie sur le macadam Ah grrra pour ses ptits kharay Depuis que jsuis tout ptit jai trop vite la barre Sur lterrain je vous pique la balle Tu veux prendre ma place aller quitte la barre</t>
+          <t>Hey ! c'est l'électron libre... Hayce Lemsi Jremercie toute ma Haycelem team Qui m'porte tous les jours comme un trophée Pas besoin dchauffer le couteau cest dla crème Jai même pas calculé que jlavais fumé toute laprèm Dite à la concu qujai rêvé dleurs silhouette à la craie Le volubile dans le building, zêtes à la traine En buvette sur la corniche, entrain dcabrer Tentend ma rage au feu rouge de Vénissieux à Cambray Profité d'ma faiblesse et dmon casque ambré Jsuis de retour tous les rappeurs sont en train dcâbler Yeah Hoe, Yeah Hoe Jsuis une boule de nerf conçu par le rap français pour aller niquer des mères Tes rumeurs de merde volent pas plus haut quma bite Jsuis un vrai DZ comme le frère Hemer Attends-toi tu parles mais quest tu connais Tes jaloux, tu ne lavouera jamais, naaan Très vite les coups partent Parle moi bien jsuis pas ton pote La kalash humaine envoie des rafales dans ton corps et dans ton torse Ouais vous rappez que dla merde moi jcommence à mennuyer Jai mis six dans lbarillet Jnai que quelques alliés Brrr jtire sur le sablier Liberté violée Jen ai marre de voir ma communauté sfaire renier Jen ai marre davancer la roue voilée Jen ai marre de les voir importuner les surs voilées Jécris la vérité, jai lmoral dans les pump Jsuis pas du genre à traîner dans les pubs Joublie ta sale gueule Jempoigne le micro, jmonte sur scène Jrap, je bouge comme un punk Trouve moi au tacos comme au bristol Jfume de la weed avec les jamaïcain dBringston Fume toute lannée je suis constamment dans le brainstorming Ramène-moi qui tu veux je nai peur de personne Jperds le sommeil, jai le flow Smith Wesson Vers le sommet solo je me hisse de tel sorte Vers le sommet chérie, je nattendrais personne Mercenaire de la rime et Luther à la clé dsol Pas de balle à blanc jai mis le milli dans la mini De la moula dans les veines, jfais dlarabe money Toujours élégant jaime donner du plaisir au femme Mais je ne fréquenterais celles qui ne prenne pas dmolly Jai la haine, ça sent le roussi Mélodie reptilienne jai grandis sur la chaussée Flow tout terrain sur le tempo Valentino Rossi Sa vend de la weed au petite meuf tah la HEC All eyes on me, ya pas dhasard lami Jsuis toujours al sur la rime Et toute mes phrases se marient Ça te rafale sur la rive Chez nous ya pas dscénariste Allez casse-toi mani Tu boiras ap sur ma lean Maladroit comme Édouard aux mains d'argent Limpression que les darmes-gen ont tous le cur en argile Très jeune on ma dit tes le nouveau talent émergent Tu fais partie des rares gens Dont le flow peut sélargir Dites aux requins dse méfier du piranha Jrap la vérité sans entrer dans lpire haram Je nai quune envie les démolir hara Dire que jai passé toute ma vie sur le macadam Ah grrra pour ses ptits kharay Depuis que jsuis tout ptit jai trop vite la barre Sur lterrain je vous pique la balle Tu veux prendre ma place aller quitte la barre</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>J'dégage assez de testostérone pour faire taire tes Cyrus Cohiba, Montecristo, vessie pleine de licid Ciroc Triangle d'Or, c'est plus du peu-ra, c'est du free fight russe On débarque à 70 pour un freestyle à Skyrock Rusé, danse avec les loups, nage dans le fric avec les requins Consomme l'herbe comme les bisons, la France nous compare aux Ricains Gare à ton équipe de gnous, la mienne te rackette à la rital Uzi chromé, gros dégradé, sous l'bandana porto-ricain, Hayce Lem' MS17, pouki, si tu passes à table on passe aux hayssiettes Respecte, insecte Viens même pas jouer les grossistes, on sait qu't'es à sec T'arrives trop tard, on a déjà pris la recette Puto, quand tu rappes j'entends que des larsens Bass, Agrüm, Habim, 10Strict et Charnel Tu veux pécho, c'est par ici, la frappe est martienne XXX Dis-moi si y'a les dècs qui passent On répond au mal par le mal Reste à l'affût, y'a des choses que l'on esquive pas Tu m'entends moins rapper, j'suis dans la street Bien sûr qu'il y a des choses qui s'trament Troisième doigt en l'air ou vers la CPIP Titulaire dans la team, XXX pour un XXX squad Pose-toi sur le banc, mets-toi à se-l'ai XXX comme mes XXX Vends pas la peau d'un négro avant d'l'achever XXXX Fais pas le fou on va trouer ta clique SI le rap écarte, j'vais lui fourrer ma bite Sur les miens s'acharnent la foudre, on s'abrite Et si tu cherches le chemin du four, j'te l'indique Hmmm... joue pas trop les Tupac, all eyes on me J'suis posé avec mon squad, ne cherche pas d'ennuis Ils s'demandent encore c'qu'il se passe on remet de l'ordre c'est solide J'fume de l'herbe, de la chronique Ils sont là pour la déco GabrielSolis x2 XVBagdad à bord, on a les matières premières, remballe ton Doli' Ta pute crie quand on passe les rapports Dernier pilon, dernière ceinture, dernier bolide On fait qu'bicrave d'la peuf' Pris pour cible, classé sans suite, t'as pas d'preuves Course poursuite, l'adré' nous excite, y'a pas d'pleurs MS17 pas de faibles, on plaide la folie J'ai le seum je vous roule dessus, là j'suis pas d'humeur A bon entendeur, j'envie qu'les puceaux et les non-fumeurs C'est des pauvres, à prétendre le contraire, de quoi ils parlent Signe extérieur de richesse, j'me souviens de ma première paire d'Air Max Tu considères la vie comme une putain XXX ou raques Ecoute la vie des Misérables qui vivent à deux pas des Champs J'te parle Quand on leur dit qu'on vient du 17, ça leur fait bizarre De la mort on est dans le couloir, c'est pour l'au-delà l'égalité des chances Laisse-moi diffuser ma science, putain de sous-culture La génération sacrifiée c'est nos darons, nous, elle est foutue On aime les choses simples, les futilités on en abuse Au concours du m'as-tu vu en club, sur laquelle des tables y'a plus de mathu' Ils sont tous en iench' En plus de ça, leurs salopes elles tombent toutes enceintes XXX Non c'est affreux, non mais mince J'représente tous mes Cainf', Algérie, Bénin, d'où je viens J'viens pour baiser cette tainp' Si t'as pensé que t'étais une star chez les miens XXX on t'a juste fait la première partie, le temps qu'on XXX, khey Guette la XXX, guette la paye, allez serrer la XXX, ouais Pas trop de XXX car je sais qu'au placard ils vont pas m'assumer, khey Je suis seul, plus l'seum, une chambre, une pute et une bre', paw paw On s'est fait seuls, tous seuls, on t'fout l'seum Casse pas la démarche ou j'te pète une beuj' Babié, j'viens des quartiers populaires Lunettes Cartier, pompes en l'air, petit, je faisais du papier Et j'ai parcouru des kilomètres, je peux te piquer comme l'abeille Poukito, j'ai sorti le papillon L'insomniaque est dans l'abus, j'n'ai pas dormi depuis 6 mois J'ai donc éclaté c'putain de sablier, c'putain de sablier Tu pourras jamais faire trembler mon gang Ici y'a qu'des putes, elles restent sur la touche Espèce de puto, surveille donc ta bitch, elle louche sur mon cash, elle fume sur ma kush Mon shit, ma XXX, j'suis c'bête de arbouche La street me salue, Triangle d'Or sur la casquette et le t-shirt Wesh biko, tu t'prends pour Lil Durk mais ta péthayce déguelhaysse dort au Campagnile, beurk x2 XVBagdad à bord, on a les matières premières, remballe ton Doli' Ta pute crie quand on passe les rapports Dernier pilon, dernière ceinture, dernier bolide On fait qu'bicrave d'la peuf Pris pour cible, classé sans suite, t'as pas d'preuves Course poursuite, l'adré' nous excite, y'a pas d'pleurs MS17 pas de faibles, on plaide la folie J'entends des voix dans ma tête toute la journée Elles me disent MS17 Gang, ça va exploser Je ne suis pas tout seul dans cette galère Ah ouais, ça tu connais, ah ouais, ça tu connais Hé my nigga, j'entends des voix dans ma tête, toute la journée Elles me disent d'arrêter toutes ces ffairesa, ça va exploser Je ne suis pas tout seul dans cette galère Ah ouais, ça tu connais, ah ouais, ça tu connais Ah ouais, ça tu connaisYou might also like</t>
+          <t>J'dégage assez de testostérone pour faire taire tes Cyrus Cohiba, Montecristo, vessie pleine de licid Ciroc Triangle d'Or, c'est plus du peu-ra, c'est du free fight russe On débarque à 70 pour un freestyle à Skyrock Rusé, danse avec les loups, nage dans le fric avec les requins Consomme l'herbe comme les bisons, la France nous compare aux Ricains Gare à ton équipe de gnous, la mienne te rackette à la rital Uzi chromé, gros dégradé, sous l'bandana porto-ricain, Hayce Lem' MS17, pouki, si tu passes à table on passe aux hayssiettes Respecte, insecte Viens même pas jouer les grossistes, on sait qu't'es à sec T'arrives trop tard, on a déjà pris la recette Puto, quand tu rappes j'entends que des larsens Bass, Agrüm, Habim, 10Strict et Charnel Tu veux pécho, c'est par ici, la frappe est martienne XXX Dis-moi si y'a les dècs qui passent On répond au mal par le mal Reste à l'affût, y'a des choses que l'on esquive pas Tu m'entends moins rapper, j'suis dans la street Bien sûr qu'il y a des choses qui s'trament Troisième doigt en l'air ou vers la CPIP Titulaire dans la team, XXX pour un XXX squad Pose-toi sur le banc, mets-toi à se-l'ai XXX comme mes XXX Vends pas la peau d'un négro avant d'l'achever XXXX Fais pas le fou on va trouer ta clique SI le rap écarte, j'vais lui fourrer ma bite Sur les miens s'acharnent la foudre, on s'abrite Et si tu cherches le chemin du four, j'te l'indique Hmmm... joue pas trop les Tupac, all eyes on me J'suis posé avec mon squad, ne cherche pas d'ennuis Ils s'demandent encore c'qu'il se passe on remet de l'ordre c'est solide J'fume de l'herbe, de la chronique Ils sont là pour la déco GabrielSolis x2 XVBagdad à bord, on a les matières premières, remballe ton Doli' Ta pute crie quand on passe les rapports Dernier pilon, dernière ceinture, dernier bolide On fait qu'bicrave d'la peuf' Pris pour cible, classé sans suite, t'as pas d'preuves Course poursuite, l'adré' nous excite, y'a pas d'pleurs MS17 pas de faibles, on plaide la folie J'ai le seum je vous roule dessus, là j'suis pas d'humeur A bon entendeur, j'envie qu'les puceaux et les non-fumeurs C'est des pauvres, à prétendre le contraire, de quoi ils parlent Signe extérieur de richesse, j'me souviens de ma première paire d'Air Max Tu considères la vie comme une putain XXX ou raques Ecoute la vie des Misérables qui vivent à deux pas des Champs J'te parle Quand on leur dit qu'on vient du 17, ça leur fait bizarre De la mort on est dans le couloir, c'est pour l'au-delà l'égalité des chances Laisse-moi diffuser ma science, putain de sous-culture La génération sacrifiée c'est nos darons, nous, elle est foutue On aime les choses simples, les futilités on en abuse Au concours du m'as-tu vu en club, sur laquelle des tables y'a plus de mathu' Ils sont tous en iench' En plus de ça, leurs salopes elles tombent toutes enceintes XXX Non c'est affreux, non mais mince J'représente tous mes Cainf', Algérie, Bénin, d'où je viens J'viens pour baiser cette tainp' Si t'as pensé que t'étais une star chez les miens XXX on t'a juste fait la première partie, le temps qu'on XXX, khey Guette la XXX, guette la paye, allez serrer la XXX, ouais Pas trop de XXX car je sais qu'au placard ils vont pas m'assumer, khey Je suis seul, plus l'seum, une chambre, une pute et une bre', paw paw On s'est fait seuls, tous seuls, on t'fout l'seum Casse pas la démarche ou j'te pète une beuj' Babié, j'viens des quartiers populaires Lunettes Cartier, pompes en l'air, petit, je faisais du papier Et j'ai parcouru des kilomètres, je peux te piquer comme l'abeille Poukito, j'ai sorti le papillon L'insomniaque est dans l'abus, j'n'ai pas dormi depuis 6 mois J'ai donc éclaté c'putain de sablier, c'putain de sablier Tu pourras jamais faire trembler mon gang Ici y'a qu'des putes, elles restent sur la touche Espèce de puto, surveille donc ta bitch, elle louche sur mon cash, elle fume sur ma kush Mon shit, ma XXX, j'suis c'bête de arbouche La street me salue, Triangle d'Or sur la casquette et le t-shirt Wesh biko, tu t'prends pour Lil Durk mais ta péthayce déguelhaysse dort au Campagnile, beurk x2 XVBagdad à bord, on a les matières premières, remballe ton Doli' Ta pute crie quand on passe les rapports Dernier pilon, dernière ceinture, dernier bolide On fait qu'bicrave d'la peuf Pris pour cible, classé sans suite, t'as pas d'preuves Course poursuite, l'adré' nous excite, y'a pas d'pleurs MS17 pas de faibles, on plaide la folie J'entends des voix dans ma tête toute la journée Elles me disent MS17 Gang, ça va exploser Je ne suis pas tout seul dans cette galère Ah ouais, ça tu connais, ah ouais, ça tu connais Hé my nigga, j'entends des voix dans ma tête, toute la journée Elles me disent d'arrêter toutes ces ffairesa, ça va exploser Je ne suis pas tout seul dans cette galère Ah ouais, ça tu connais, ah ouais, ça tu connais Ah ouais, ça tu connais</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Les frères lumières Wesh les gars c'est comment depuis ADAL? Hein Le 75 frappe Saitama, La kalash humaine Je vis ma vie comme je veux Jamais je n'ai pris de recul Tu jalouses l'électron libre jusqu'à sa dernière molécule Je veux plus voir mon pote ivre jusqu'à son dernier écu Jamais je n'aurais cru le voir devenir un légume J'ai la folie des grandeurs demande au zin-cou devant le D Hooss Iroquois dégradé je suis dans le Grand Cherokee La ne-chie qui m'accompagne a des airs d'Ariana Grande J'ai grandis en rêvant de quer-bra le grand patron Cerruti J'ai toujours l'oeil du tigre et la machoire du Boerbull J'aime la vitesse, j'aime tellement la vitesse qu'étant petit j'ai dû tomber dans une marmite de RedBull J'met pas le nez dans la S je la laisse aux hegouls Je suis en état d'ivresse, défaut de permis sur le périphérique du mal 300 kmH Y'a les motards derrière, j'en allume une dernière BLR life Tout est bien qui finit mal au sommet du règne animal Les vautours et les hyènes Je m'demande où finira ce pe-ra, tout n'est qu'un mirage et pour me changer les idées je vais faire un tour au Yémen Un peu narcissique comme tous les artistes Mais j'ai toujours eu de l'avance comme le Marxisme Tu crois que j'dors, que j'suis faya, sisi Je vais te mettre une hagar tah la mafia Sicile Ça gravite autour de oim pour amasser plus de maille C'est souvent les gens qu'on aime qui nous font le plus de mal J'en témoigne Tous ceux qui te tendaient la main quand t'étais debout, sont devenus ceux qui te piétinent au sol quand t'es mal, au sol quand t'es mal, au sol quand t'es mal BLR Life C'est les frères lumières, yeah hoe You might also like 5 ans que j'suis dans ce milieu 5 ans que j'essaye de cé-per sa mère Meilleur que toi est-ce que c'est bien clair ? Pourtant je n'touche pas le même salaire Pas le temps pour toi, j'ai d'autre chose à faire J'ai déjà tout donné, j'ai plus rien à perdre J'écris ça en direct de la navette Je ne vise pas les jambes, je ne vise que la tête Je ne vise pas les jambes, je ne vise que la tête On arrive à l'heure où termine la fête Le frigo est vide, ma mère est en pleure En ce-moment je ne suis pas trop dans mon assiette J'écoute que la voix qui est dans ma tête Sinon bas les couilles de vos avis Y'a que pour la salat que je suis au tapis J'écoute pas ton skeud même si il est gratuit Ma meuf me casse les couilles depuis t'haleur T'es pas assez bonne, va faire du rameur Disons que le mental n'a plus de valeur Si t'es pas beau gosse, elle donne même pas l'heure Oui l'Homme a changé Le physique passe avant, le reconnais-tu? Quand tu montres ta tête, tu fais 50 likes Quand tu montres ton boule on les comptes même plus As-tu retenu la leçon? Ma bite dépasse tout le temps de mon caleçon J'aime bien ton rap, je préfère quand y'a pas le son Toute ta carrière s'est jetée par le balcon Moi pas parlé, visé patron Si j'ai pêché je demande pardon Tu bois de l'alcool et tu baises des lardons Là où j'habite mon sol est mon plafond Ramenez moi toutes ces salopes à l'affilé Je suis pas jaloux, j'ai perdu du poids Je fais des tractions pour m'affiné Tu t'ai fais un film où je t'aime En vrai je paye même pas le ciné Toi tu rap le quartier, personne te connais dans ta cité Je décroche pas quand tu m'appelles Elle m'appelle bébé mais c'est qui la-celle ? J'veux brasser à mort et noyer ma peine Je préfère mourir que t'aimer, je suis pas Cabrel Cette boufonne de merde voulait mon adresse Désormais je pousse 200 kil à la press' Salope t'étais où quand j'avais de la graisse Je m'en fou du magasin je veux ce qu'il y a dans la caisse Pardonne mes maladresses Je ne bédave pas, je ne vends pas la cess Fais pas la poucave, ne vends pas la mèche Je suis toujours bouillant, j'suis comme Salamèche Tu prends des pêchés quand tu la rabaisses Tu prends des pêchés quand tu la re-baises Incompris comme conflit entre 2 tess J'arrête, continue l'cul entre 2 chaises J'arrête, continue l'cul entre 2 chaises Saitama1</t>
+          <t>Les frères lumières Wesh les gars c'est comment depuis ADAL? Hein Le 75 frappe Saitama, La kalash humaine Je vis ma vie comme je veux Jamais je n'ai pris de recul Tu jalouses l'électron libre jusqu'à sa dernière molécule Je veux plus voir mon pote ivre jusqu'à son dernier écu Jamais je n'aurais cru le voir devenir un légume J'ai la folie des grandeurs demande au zin-cou devant le D Hooss Iroquois dégradé je suis dans le Grand Cherokee La ne-chie qui m'accompagne a des airs d'Ariana Grande J'ai grandis en rêvant de quer-bra le grand patron Cerruti J'ai toujours l'oeil du tigre et la machoire du Boerbull J'aime la vitesse, j'aime tellement la vitesse qu'étant petit j'ai dû tomber dans une marmite de RedBull J'met pas le nez dans la S je la laisse aux hegouls Je suis en état d'ivresse, défaut de permis sur le périphérique du mal 300 kmH Y'a les motards derrière, j'en allume une dernière BLR life Tout est bien qui finit mal au sommet du règne animal Les vautours et les hyènes Je m'demande où finira ce pe-ra, tout n'est qu'un mirage et pour me changer les idées je vais faire un tour au Yémen Un peu narcissique comme tous les artistes Mais j'ai toujours eu de l'avance comme le Marxisme Tu crois que j'dors, que j'suis faya, sisi Je vais te mettre une hagar tah la mafia Sicile Ça gravite autour de oim pour amasser plus de maille C'est souvent les gens qu'on aime qui nous font le plus de mal J'en témoigne Tous ceux qui te tendaient la main quand t'étais debout, sont devenus ceux qui te piétinent au sol quand t'es mal, au sol quand t'es mal, au sol quand t'es mal BLR Life C'est les frères lumières, yeah hoe 5 ans que j'suis dans ce milieu 5 ans que j'essaye de cé-per sa mère Meilleur que toi est-ce que c'est bien clair ? Pourtant je n'touche pas le même salaire Pas le temps pour toi, j'ai d'autre chose à faire J'ai déjà tout donné, j'ai plus rien à perdre J'écris ça en direct de la navette Je ne vise pas les jambes, je ne vise que la tête Je ne vise pas les jambes, je ne vise que la tête On arrive à l'heure où termine la fête Le frigo est vide, ma mère est en pleure En ce-moment je ne suis pas trop dans mon assiette J'écoute que la voix qui est dans ma tête Sinon bas les couilles de vos avis Y'a que pour la salat que je suis au tapis J'écoute pas ton skeud même si il est gratuit Ma meuf me casse les couilles depuis t'haleur T'es pas assez bonne, va faire du rameur Disons que le mental n'a plus de valeur Si t'es pas beau gosse, elle donne même pas l'heure Oui l'Homme a changé Le physique passe avant, le reconnais-tu? Quand tu montres ta tête, tu fais 50 likes Quand tu montres ton boule on les comptes même plus As-tu retenu la leçon? Ma bite dépasse tout le temps de mon caleçon J'aime bien ton rap, je préfère quand y'a pas le son Toute ta carrière s'est jetée par le balcon Moi pas parlé, visé patron Si j'ai pêché je demande pardon Tu bois de l'alcool et tu baises des lardons Là où j'habite mon sol est mon plafond Ramenez moi toutes ces salopes à l'affilé Je suis pas jaloux, j'ai perdu du poids Je fais des tractions pour m'affiné Tu t'ai fais un film où je t'aime En vrai je paye même pas le ciné Toi tu rap le quartier, personne te connais dans ta cité Je décroche pas quand tu m'appelles Elle m'appelle bébé mais c'est qui la-celle ? J'veux brasser à mort et noyer ma peine Je préfère mourir que t'aimer, je suis pas Cabrel Cette boufonne de merde voulait mon adresse Désormais je pousse 200 kil à la press' Salope t'étais où quand j'avais de la graisse Je m'en fou du magasin je veux ce qu'il y a dans la caisse Pardonne mes maladresses Je ne bédave pas, je ne vends pas la cess Fais pas la poucave, ne vends pas la mèche Je suis toujours bouillant, j'suis comme Salamèche Tu prends des pêchés quand tu la rabaisses Tu prends des pêchés quand tu la re-baises Incompris comme conflit entre 2 tess J'arrête, continue l'cul entre 2 chaises J'arrête, continue l'cul entre 2 chaises Saitama1</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ils sprennent pour Capone Moi jcompte sur ma poire Jporte le gilet pare-balles et la capote Jsuis le verbe être et avoir Tu croyais qujdormais, sale pute tu vas voir Largent, le pouvoir Omertà des langues tu portes le bavoir Jai grandi quavec des haflits Jmets jamais dvaseline quand jbaise une femme flic Algérien nerveux, si jgagne pas dans ljeu jveux gifler larbitre Amène donc à boire, larbin J'suis dans lbusiness et la zik, autour de moi ça gravite Péthayce tas mis du rosé sur mon peignoir en satin Jveux pas dton pardon, jveux qutu msuces la bite Tu chiales sur ton sort quand tas plus dessence Ou quand tas plus dcons, un minimum de décence On compte pas les litres de sang versés dans la rue depuis ladolescence Jai des couteaux dans ldos, acuponcture Tu retrouveras nos Tokarev dans ton vide-ordures Espèce de puto On na pas les mêmes ambitions Les mêmes directions, les mêmes négociateurs Vaut mieux pas quon sparle Moi jéclate la boule de cristal, enculé dassociateur Jcontrôle la zone PD tu mverras jamais faire dfeat avec un pointeur ADAL arrive comme le générique de fin Remballez vos jeux dacteur You might also like Le navire accoste et tous ces rappeurs te mènent en bateau Tous unis pour braquer Tous ennemis pendant lpartage du magot Rebeu cest quoi ton problème Tu veux mon talent, mon biff et ma go Réussir jsuis obligado, jsuis obligado, jsuis obligado Wesh ma gueule cest comment ? Là jsuis dans lsecteur Jvais pas toffrir de roses si ta shnek ressemble à un bouquet dfleurs Rafale de punchlines dans lcanon scié, rebeu, jsuis pressé Tas un cul tellement plat Que quand on lter-ma on prend pas dpêché Les gens mappellent de son-pri Mappellent de son-pri et mdisent quon les freine Après chaque prestation Au moins dix tasses-pé quattendent quon les ken Ah, cest moi lgrand-frère de Pascal Jsuis plus vraiment un mec droit Pour ça qumes relations nsont pas stables Hein, là jvais encore rentré tard, tu sais pas cque jte prépare Jveux pas qutu mallumes, jveux voir ton pétard Si tu cours après lbuzz Sois pas choqué quta carrière se fatigue Jte fais croire au grand amour Juste après la Lune de Miel jte tartine Jsuis le 7-5 en lui-même En fait jsuis Paname dans toute sa grandeur Dites aux profs qui mtraitaient de glandeur Que jfais dix fois le salaire du proviseur Ils veulent quon les prenne au mot Ils croient quêtre un thug cest finir au poste Ils sprendraient pour des timbrés Juste parce quils sont partis braquer la Poste I'm in love with the croco, jvais mruiner chez Lacoste Baby, oui, cest bien les Frères Lumières en Féfé sur la côte Préviens tous tes soldats de larrivée des Frères Lumières Cest trop tard une fois qule navire accoste Tu parles derrière, attends qujte pète Puto, cest ta mère la pute qui tape dans la coke Le navire accoste et tous ces rappeurs te mènent en bateau Tous unis pour braquer Tous ennemis pendant lpartage du magot Rebeu cest quoi ton problème Tu veux mon talent, mon biff et ma go Réussir jsuis obligado, jsuis obligado, jsuis obligado1</t>
+          <t>Ils sprennent pour Capone Moi jcompte sur ma poire Jporte le gilet pare-balles et la capote Jsuis le verbe être et avoir Tu croyais qujdormais, sale pute tu vas voir Largent, le pouvoir Omertà des langues tu portes le bavoir Jai grandi quavec des haflits Jmets jamais dvaseline quand jbaise une femme flic Algérien nerveux, si jgagne pas dans ljeu jveux gifler larbitre Amène donc à boire, larbin J'suis dans lbusiness et la zik, autour de moi ça gravite Péthayce tas mis du rosé sur mon peignoir en satin Jveux pas dton pardon, jveux qutu msuces la bite Tu chiales sur ton sort quand tas plus dessence Ou quand tas plus dcons, un minimum de décence On compte pas les litres de sang versés dans la rue depuis ladolescence Jai des couteaux dans ldos, acuponcture Tu retrouveras nos Tokarev dans ton vide-ordures Espèce de puto On na pas les mêmes ambitions Les mêmes directions, les mêmes négociateurs Vaut mieux pas quon sparle Moi jéclate la boule de cristal, enculé dassociateur Jcontrôle la zone PD tu mverras jamais faire dfeat avec un pointeur ADAL arrive comme le générique de fin Remballez vos jeux dacteur Le navire accoste et tous ces rappeurs te mènent en bateau Tous unis pour braquer Tous ennemis pendant lpartage du magot Rebeu cest quoi ton problème Tu veux mon talent, mon biff et ma go Réussir jsuis obligado, jsuis obligado, jsuis obligado Wesh ma gueule cest comment ? Là jsuis dans lsecteur Jvais pas toffrir de roses si ta shnek ressemble à un bouquet dfleurs Rafale de punchlines dans lcanon scié, rebeu, jsuis pressé Tas un cul tellement plat Que quand on lter-ma on prend pas dpêché Les gens mappellent de son-pri Mappellent de son-pri et mdisent quon les freine Après chaque prestation Au moins dix tasses-pé quattendent quon les ken Ah, cest moi lgrand-frère de Pascal Jsuis plus vraiment un mec droit Pour ça qumes relations nsont pas stables Hein, là jvais encore rentré tard, tu sais pas cque jte prépare Jveux pas qutu mallumes, jveux voir ton pétard Si tu cours après lbuzz Sois pas choqué quta carrière se fatigue Jte fais croire au grand amour Juste après la Lune de Miel jte tartine Jsuis le 7-5 en lui-même En fait jsuis Paname dans toute sa grandeur Dites aux profs qui mtraitaient de glandeur Que jfais dix fois le salaire du proviseur Ils veulent quon les prenne au mot Ils croient quêtre un thug cest finir au poste Ils sprendraient pour des timbrés Juste parce quils sont partis braquer la Poste I'm in love with the croco, jvais mruiner chez Lacoste Baby, oui, cest bien les Frères Lumières en Féfé sur la côte Préviens tous tes soldats de larrivée des Frères Lumières Cest trop tard une fois qule navire accoste Tu parles derrière, attends qujte pète Puto, cest ta mère la pute qui tape dans la coke Le navire accoste et tous ces rappeurs te mènent en bateau Tous unis pour braquer Tous ennemis pendant lpartage du magot Rebeu cest quoi ton problème Tu veux mon talent, mon biff et ma go Réussir jsuis obligado, jsuis obligado, jsuis obligado1</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>C'est Hayce Lem j'viens du bled j'viens de la brume j'roule un blunt Blonde à l'oreille en me la faisant bouffer par une belle brune Brille sous les réverbères en hiver North Face trois quarts Chez nous l'herbe est plus verte, l'eau plus claire sale bâtard Ça commence par une Heineken fini sous le chant des ambulances Le diable danse Monsieur Haine a baisé Madame Différence Au fond du précipice on nous met des grosses balayettes Les fous se précipitent où les anges ne posent pas les ieds-p Handek à ta copine elle kiff les paillettes, les breitlings À cause des femmes sur le XXX il y a moins d'eau que d'hémoglobine J'ai l'envie soudaine de violer le mouv', de lui faire un môme Ou j'irai cambrioler Le Louvre, il n'est pas question d'aller faire l'aumône Si les fiottes sont en fuite, l'audition faudra vérifier Paye l'addition, le mensonge flotte à la surface de la vérité J'ai hérité de la vida loca, n'imite pas le bico loco Je veux toutes les parts du teau-gâ nahel le XVII c'est le locos bico Jetez l'échelle de corde au fond du puits On cherche le bout du tunnel ou le soleil un jour de pluie Depuis l'temps qu'on fait d'l'oseille, qu'on fait du zèle sans faire de bruit On va déployer nos ailes, représente la misère du nord de Paris Ouais, pourquoi t'as vie n'as pas de sens ? Pourquoi tu restes à penser ? Pourquoi tu traînes et pire pourquoi tu te niques la santé ? Pourquoi tu aimes zoner ? Zen, posé genre le man qui aime causer La haine dans les veines causée par le mal qui aime doser La vie est rude hein mais tu prends l'habitude Tu prends l'attitude et quand tu mûris ça devient plus rude Tu te rends compte qu'il y a personne sur qui compter Quand t'es gond tu comptes pas t'es ronds comme un con s'édenté Toi, le seul à galérer dans cet univers On n'est unis frère, pas à l'infini vu qu'on finit vert Un monde meilleur pour certains fait de frayeur Test pas 10Strict dans le rap je suis toujours à l'heure Dites-leur ça ne fait pas le raleur on sait que tu prends des chaleurs C'est le 17, secteur au mic' qui commet le meurtre You might also like Ça roule des mécaniques, mais ça bosse pour tes mans C'est quoi l'lire-dé en 2012 khoya c'est rempli de mythomanes Et moi j'te l'dis pour la mama khey j'vais devenir l'numéro one On n'est pas dans le même lire-dé khoya moi je XXX Quand j'vois tes dents terre-pa j'connais tes mans, j'me dis nhar sheitan On s'dirige vers ta mère, représailles, Air Max, grosse bécane Devant moi t'es cheum comme un pickpocket qui vient d's'faire mer-cra Khler pas trop sur ma pochette, j'ai pas encore fini de cher-cra Dans la street y'a ceux qui brassent, ceux qui crawlent et ceux qui coulent Sur XXX j'me tape des barres, comme Lino j'kiff mon rôle de sale con Aujourd'hui j'ai grandi alors j'te fume avec d'la classe Sur ma vie gros j'vais rapper jusqu'à qu'ils me disent wesh qu'est-ce qui se passe ? Khoya ne m'raconte pas j'sais pas quoi, car ici ça bosse dur Pour chopper l'disque d'or m'sort pas qu'c'est dar' si tu t'endors Et comme j'sais j'suis hnine dans l'fond je n'ai pas peur que mon passé me rattrape Imagine moi rouler à fond accompagné d'une soce de frappe T'es arrivé au bout de .. la musique ! Tu peux maintenant nous rejoindre !1</t>
+          <t>C'est Hayce Lem j'viens du bled j'viens de la brume j'roule un blunt Blonde à l'oreille en me la faisant bouffer par une belle brune Brille sous les réverbères en hiver North Face trois quarts Chez nous l'herbe est plus verte, l'eau plus claire sale bâtard Ça commence par une Heineken fini sous le chant des ambulances Le diable danse Monsieur Haine a baisé Madame Différence Au fond du précipice on nous met des grosses balayettes Les fous se précipitent où les anges ne posent pas les ieds-p Handek à ta copine elle kiff les paillettes, les breitlings À cause des femmes sur le XXX il y a moins d'eau que d'hémoglobine J'ai l'envie soudaine de violer le mouv', de lui faire un môme Ou j'irai cambrioler Le Louvre, il n'est pas question d'aller faire l'aumône Si les fiottes sont en fuite, l'audition faudra vérifier Paye l'addition, le mensonge flotte à la surface de la vérité J'ai hérité de la vida loca, n'imite pas le bico loco Je veux toutes les parts du teau-gâ nahel le XVII c'est le locos bico Jetez l'échelle de corde au fond du puits On cherche le bout du tunnel ou le soleil un jour de pluie Depuis l'temps qu'on fait d'l'oseille, qu'on fait du zèle sans faire de bruit On va déployer nos ailes, représente la misère du nord de Paris Ouais, pourquoi t'as vie n'as pas de sens ? Pourquoi tu restes à penser ? Pourquoi tu traînes et pire pourquoi tu te niques la santé ? Pourquoi tu aimes zoner ? Zen, posé genre le man qui aime causer La haine dans les veines causée par le mal qui aime doser La vie est rude hein mais tu prends l'habitude Tu prends l'attitude et quand tu mûris ça devient plus rude Tu te rends compte qu'il y a personne sur qui compter Quand t'es gond tu comptes pas t'es ronds comme un con s'édenté Toi, le seul à galérer dans cet univers On n'est unis frère, pas à l'infini vu qu'on finit vert Un monde meilleur pour certains fait de frayeur Test pas 10Strict dans le rap je suis toujours à l'heure Dites-leur ça ne fait pas le raleur on sait que tu prends des chaleurs C'est le 17, secteur au mic' qui commet le meurtre Ça roule des mécaniques, mais ça bosse pour tes mans C'est quoi l'lire-dé en 2012 khoya c'est rempli de mythomanes Et moi j'te l'dis pour la mama khey j'vais devenir l'numéro one On n'est pas dans le même lire-dé khoya moi je XXX Quand j'vois tes dents terre-pa j'connais tes mans, j'me dis nhar sheitan On s'dirige vers ta mère, représailles, Air Max, grosse bécane Devant moi t'es cheum comme un pickpocket qui vient d's'faire mer-cra Khler pas trop sur ma pochette, j'ai pas encore fini de cher-cra Dans la street y'a ceux qui brassent, ceux qui crawlent et ceux qui coulent Sur XXX j'me tape des barres, comme Lino j'kiff mon rôle de sale con Aujourd'hui j'ai grandi alors j'te fume avec d'la classe Sur ma vie gros j'vais rapper jusqu'à qu'ils me disent wesh qu'est-ce qui se passe ? Khoya ne m'raconte pas j'sais pas quoi, car ici ça bosse dur Pour chopper l'disque d'or m'sort pas qu'c'est dar' si tu t'endors Et comme j'sais j'suis hnine dans l'fond je n'ai pas peur que mon passé me rattrape Imagine moi rouler à fond accompagné d'une soce de frappe T'es arrivé au bout de .. la musique ! Tu peux maintenant nous rejoindre !1</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>On court quaprès ce cash négro Aluminium sur ce crack négro On te pull up dans cette Porsche négro Chez nous ta go bicrave son corps négro Thugga thugga big birds Des résidus d'crack sous les semelles de mes Buscemi Mon 17 s'est tendue de Paname a Pittsburgh J'ai ma Gucci girl avec un nine au fond du Fendi On cours quaprès ce cash On cours quaprès ce cash Et tu l'sais on déboule dans ton bloc pour allumer tes volets Bébé chui fonss-dé les shtars font que tourner La plupart de tes sentiments vaux mieux les coffrer Le crime paie tout est bon tout est prêt Le wari et ces grosses bagnoles nous obligent à blesser Le crime paie tout est bon tout est prêt La rue m'a hantée maman ne sait pas c'que j'fais hein hein A l'hôtel j'ai ma 'teille je la ken Sort du bat y'a Bozo sur l'corner Le mal y est tu peux pas l'nier Quand deux-trois negros t'attendent broliqué dubble bang Pour l'instant je fouette cette came Crack, chaudasse Shlag P.S.O Thug Hayce Lem', Walking Dead You might also like On court quaprès ce cash négro Aluminium sur ce crack négro On te pull up dans cette Porsche négro Chez nous ta go bicrave son corps négro Thugga thugga big birds Des résidus d'crack sous les semelles de mes Buscemi Mon 17 s'est tendue de Paname a Pittsburgh J'ai ma Gucci girl avec un nine au fond du Fendi On cours quaprès ce cache T'es dans l'coffre de la Benz dans un boxe de la tess De Sidi Bel Abbès à Alger wouay wouay T'es pas l'boss de la terre j'te la place dans la tête 20 moins 3 ça bless' toujours en one-one-one Hatay, tu veux la selha donne le code et l'adresse On sort fonss-dé de ton club en porte d'avion chasse Sert-toi dans mon dos si t'as besoin d'un gros shlass Le gerant va tout gerer et le guetteur attend le cash Minuit je vois la Lune illuminer le XXX du bendo Mon petit frère Ben D ne bi' pas sans l'extendo T'es parti classer ton boloss en overboard Tétais ger-char, ils t'ont jeté dans une cellule du dépôt PSO Hayce tu n'entendras que bang Attendu comme si c'est le retour de Cobain Vendre le crack à 13 piges ça forge une vie de dingue Le requin s'enfuit quand les piranhas se baignent Ma biatch, ma paye, ma 'teille Mon six mon flair Im Fame, Im Young, Im Rich Ouais elle a fait 200 kilomètres je vais la ken 200 fois la pauvre Je la coffre dans le tel-ho car dans le hood les balles pleuvent Tu veux me voir au placard mais je t'encule t'as pas de preuve Je confond les mains de la juge et les tentacules de la pieuvre On court quaprès ce cash négro Aluminium sur ce crack négro On te pull up dans cette Porsche négro Chez nous ta go bicrave son corps négro Thugga thugga big birds Des résidus d'crack sous les semelles de mes Buscemi Mon 17 s'est tendue de Paname a Pittsburgh J'ai ma Gucci girl avec un nine au fond du Fendi On cours quaprès ce cache Arrivé dans le 17e arrondissement de Paris Entouré de riche moi j'avais les poches vides Epoque triste, entouré de shlags qui transpirent Argent facile, de quoi tu me parles ouais c'est pas facile La rue facine, midi-minuit t'attends toujours ta prime Les keufs te suivent engagent une course poursuite dans la ville Tu crois que c'est la vie, seul Dieu connais la suite Pense à ton avenir je sais qu'il aime pas la réussite Mais montre leur que tu vas plus vite qu'eux Vaut mieux écarter ces fils de Jeune et puis ambitieux, XXX plus vieux Pour faire taire les rageux Marre de bosser sur un terrain plat Comment avancer sur un putain de terrain vague ? On m'appelle le Aero car tu payes et tu tailles mais j'suis reglo j'te donne ta part Moi je ne veux rien venant de toi, toi qui prétend tout savoir Dit moi j'ai besoin de qui , dis moi j'ai besoin de quoi, négro surtout pas de toi J'en ai marre d'être à ma fenêtre à 6h30, c'est suspect mec Quand les 4 portes se claquent en même temps j'y vais direct Comment t'expliquer plus je n'ai pas le temps plus je progrès Je fais que travailler c'est mon passe-temps puis je m'arrête On court quaprès ce cash négro Aluminium sur ce crack négro On te pull up dans cette Porsche négro Chez nous ta go bicrave son corps négro Thugga thugga big birds Des résidus d'crack sous les semelles de mes Buscemi Mon 17 s'est tendue de Paname a Pittsburgh J'ai ma Gucci girl avec un nine au fond du Fendi On cours quaprès ce cache Et les bikos cook, et les blancos, et les blackos cook Thugga thugga Big Lemsi, Aero, Captain Cook C'est le 17e enfoiré, et ouais MS 17 Gang</t>
+          <t>On court quaprès ce cash négro Aluminium sur ce crack négro On te pull up dans cette Porsche négro Chez nous ta go bicrave son corps négro Thugga thugga big birds Des résidus d'crack sous les semelles de mes Buscemi Mon 17 s'est tendue de Paname a Pittsburgh J'ai ma Gucci girl avec un nine au fond du Fendi On cours quaprès ce cash On cours quaprès ce cash Et tu l'sais on déboule dans ton bloc pour allumer tes volets Bébé chui fonss-dé les shtars font que tourner La plupart de tes sentiments vaux mieux les coffrer Le crime paie tout est bon tout est prêt Le wari et ces grosses bagnoles nous obligent à blesser Le crime paie tout est bon tout est prêt La rue m'a hantée maman ne sait pas c'que j'fais hein hein A l'hôtel j'ai ma 'teille je la ken Sort du bat y'a Bozo sur l'corner Le mal y est tu peux pas l'nier Quand deux-trois negros t'attendent broliqué dubble bang Pour l'instant je fouette cette came Crack, chaudasse Shlag P.S.O Thug Hayce Lem', Walking Dead On court quaprès ce cash négro Aluminium sur ce crack négro On te pull up dans cette Porsche négro Chez nous ta go bicrave son corps négro Thugga thugga big birds Des résidus d'crack sous les semelles de mes Buscemi Mon 17 s'est tendue de Paname a Pittsburgh J'ai ma Gucci girl avec un nine au fond du Fendi On cours quaprès ce cache T'es dans l'coffre de la Benz dans un boxe de la tess De Sidi Bel Abbès à Alger wouay wouay T'es pas l'boss de la terre j'te la place dans la tête 20 moins 3 ça bless' toujours en one-one-one Hatay, tu veux la selha donne le code et l'adresse On sort fonss-dé de ton club en porte d'avion chasse Sert-toi dans mon dos si t'as besoin d'un gros shlass Le gerant va tout gerer et le guetteur attend le cash Minuit je vois la Lune illuminer le XXX du bendo Mon petit frère Ben D ne bi' pas sans l'extendo T'es parti classer ton boloss en overboard Tétais ger-char, ils t'ont jeté dans une cellule du dépôt PSO Hayce tu n'entendras que bang Attendu comme si c'est le retour de Cobain Vendre le crack à 13 piges ça forge une vie de dingue Le requin s'enfuit quand les piranhas se baignent Ma biatch, ma paye, ma 'teille Mon six mon flair Im Fame, Im Young, Im Rich Ouais elle a fait 200 kilomètres je vais la ken 200 fois la pauvre Je la coffre dans le tel-ho car dans le hood les balles pleuvent Tu veux me voir au placard mais je t'encule t'as pas de preuve Je confond les mains de la juge et les tentacules de la pieuvre On court quaprès ce cash négro Aluminium sur ce crack négro On te pull up dans cette Porsche négro Chez nous ta go bicrave son corps négro Thugga thugga big birds Des résidus d'crack sous les semelles de mes Buscemi Mon 17 s'est tendue de Paname a Pittsburgh J'ai ma Gucci girl avec un nine au fond du Fendi On cours quaprès ce cache Arrivé dans le 17e arrondissement de Paris Entouré de riche moi j'avais les poches vides Epoque triste, entouré de shlags qui transpirent Argent facile, de quoi tu me parles ouais c'est pas facile La rue facine, midi-minuit t'attends toujours ta prime Les keufs te suivent engagent une course poursuite dans la ville Tu crois que c'est la vie, seul Dieu connais la suite Pense à ton avenir je sais qu'il aime pas la réussite Mais montre leur que tu vas plus vite qu'eux Vaut mieux écarter ces fils de Jeune et puis ambitieux, XXX plus vieux Pour faire taire les rageux Marre de bosser sur un terrain plat Comment avancer sur un putain de terrain vague ? On m'appelle le Aero car tu payes et tu tailles mais j'suis reglo j'te donne ta part Moi je ne veux rien venant de toi, toi qui prétend tout savoir Dit moi j'ai besoin de qui , dis moi j'ai besoin de quoi, négro surtout pas de toi J'en ai marre d'être à ma fenêtre à 6h30, c'est suspect mec Quand les 4 portes se claquent en même temps j'y vais direct Comment t'expliquer plus je n'ai pas le temps plus je progrès Je fais que travailler c'est mon passe-temps puis je m'arrête On court quaprès ce cash négro Aluminium sur ce crack négro On te pull up dans cette Porsche négro Chez nous ta go bicrave son corps négro Thugga thugga big birds Des résidus d'crack sous les semelles de mes Buscemi Mon 17 s'est tendue de Paname a Pittsburgh J'ai ma Gucci girl avec un nine au fond du Fendi On cours quaprès ce cache Et les bikos cook, et les blancos, et les blackos cook Thugga thugga Big Lemsi, Aero, Captain Cook C'est le 17e enfoiré, et ouais MS 17 Gang</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Electron libre Volume dos Si, la vida loca Si Hey cabrón, cabrón Calibré, talon cabré Tu veux taper y'a d'la bonne J'ai le même couvre-chef que Capone, Capone, Capone Ces pussy vatos veulent te marbrer Car ils jalousent ton pactole Au milieu d'la noche devant la porte, la porte, la porte La kalash humaine réchauffe le climat Mucho, mucho calor La loca consomme tout ton alcool, alcool, alcool Elles twerkent en poirier dans mon carré Mucho, mucho calor Fais pas le gangsta de la mara Même à mains nues tu chiales Chico, j'me couche pas Me gusta marijuana, Manu Chao J'défonce tous les barrages Pas de mala Guardia dans les parages Une tempête, aller ciao Puto, j'vois que les ennemis rôdent Ils se promènent avec le bras Te rafaleraient dans le living-room Avec ta loca dans les bras You might also like Pour tous mes niños de la luna qui vont chercher la mula Putos, écartez-vous ce soir les seules re-sta c'est nous là Mes niños de la luna qui vont chercher la mula Putos, écartez-vous ce soir les seules re-sta c'est nous là Pour tous mes niños de la luna Tous mes niños de la luna Ceux qui vont chercher la mula Ceux qui vont chercher la mula Rends-moi loco, ma loca Mucho, mucho calor Rends-moi loco, ma loca Mucho, mucho calor Rends-moi loco, ma loca Mucho, mucho calor Rends-moi loco, ma loca Loca, loca-lo Hé, vatos, locos J'peux faire la guerre à ces poucaves jusqu'à la dernière bastos Ils savent que je reste le boss, le boss, le boss Elle m'appelle Young Pablo comme si je sortais des Narcos Et s'ils veulent me trouer la peau Dix balles ou toutes les balles on verra qui rétablira la loi Conseils au cur du barillo, loca, loca Je veux qu'tu danses pour moi Rends-moi loco ma loca, calor Muy borracho, Young Pablo viendra te plomber A l'heure où le ciel accueille la luna Entre vatos on n'se laisse pas tomber La famille nous sert des gasolina Muy borracho, Young Pablo viendra te plomber A l'heure où le ciel accueille la luna Entre vatos on n'se laisse pas tomber La famille nous sert des gasolina Pour tous mes niños de la luna Tous mes niños de la luna Ceux qui vont chercher la mula Ceux qui vont chercher la mula Rends-moi loco, ma loca Mucho, mucho calor Rends-moi loco, ma loca Mucho, mucho calor Rends-moi loco, ma loca Mucho, mucho calor Rends-moi loco, ma loca Loca, loca-lo Loca mucho, mucho calor Rends-moi loco, ma loca Mucho, mucho calor Rends-moi loco, ma loca Mucho, mucho calor Rends-moi loco, ma loca Loca, loca-lo Mucho, mucho calor Mucho, mucho calor Mucho, mucho calor Rends- moi loco, ma loca Loca, loca-lo3</t>
+          <t>Electron libre Volume dos Si, la vida loca Si Hey cabrón, cabrón Calibré, talon cabré Tu veux taper y'a d'la bonne J'ai le même couvre-chef que Capone, Capone, Capone Ces pussy vatos veulent te marbrer Car ils jalousent ton pactole Au milieu d'la noche devant la porte, la porte, la porte La kalash humaine réchauffe le climat Mucho, mucho calor La loca consomme tout ton alcool, alcool, alcool Elles twerkent en poirier dans mon carré Mucho, mucho calor Fais pas le gangsta de la mara Même à mains nues tu chiales Chico, j'me couche pas Me gusta marijuana, Manu Chao J'défonce tous les barrages Pas de mala Guardia dans les parages Une tempête, aller ciao Puto, j'vois que les ennemis rôdent Ils se promènent avec le bras Te rafaleraient dans le living-room Avec ta loca dans les bras Pour tous mes niños de la luna qui vont chercher la mula Putos, écartez-vous ce soir les seules re-sta c'est nous là Mes niños de la luna qui vont chercher la mula Putos, écartez-vous ce soir les seules re-sta c'est nous là Pour tous mes niños de la luna Tous mes niños de la luna Ceux qui vont chercher la mula Ceux qui vont chercher la mula Rends-moi loco, ma loca Mucho, mucho calor Rends-moi loco, ma loca Mucho, mucho calor Rends-moi loco, ma loca Mucho, mucho calor Rends-moi loco, ma loca Loca, loca-lo Hé, vatos, locos J'peux faire la guerre à ces poucaves jusqu'à la dernière bastos Ils savent que je reste le boss, le boss, le boss Elle m'appelle Young Pablo comme si je sortais des Narcos Et s'ils veulent me trouer la peau Dix balles ou toutes les balles on verra qui rétablira la loi Conseils au cur du barillo, loca, loca Je veux qu'tu danses pour moi Rends-moi loco ma loca, calor Muy borracho, Young Pablo viendra te plomber A l'heure où le ciel accueille la luna Entre vatos on n'se laisse pas tomber La famille nous sert des gasolina Muy borracho, Young Pablo viendra te plomber A l'heure où le ciel accueille la luna Entre vatos on n'se laisse pas tomber La famille nous sert des gasolina Pour tous mes niños de la luna Tous mes niños de la luna Ceux qui vont chercher la mula Ceux qui vont chercher la mula Rends-moi loco, ma loca Mucho, mucho calor Rends-moi loco, ma loca Mucho, mucho calor Rends-moi loco, ma loca Mucho, mucho calor Rends-moi loco, ma loca Loca, loca-lo Loca mucho, mucho calor Rends-moi loco, ma loca Mucho, mucho calor Rends-moi loco, ma loca Mucho, mucho calor Rends-moi loco, ma loca Loca, loca-lo Mucho, mucho calor Mucho, mucho calor Mucho, mucho calor Rends- moi loco, ma loca Loca, loca-lo3</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Y'a qu'à r'garder mes yeux, pas b'soin d'faire de récit La frappe vient de Oued Laou, d'temps en temps du Brésil Tu leur as rendu service, ils finissent amnésiques Boîte de 30 comme Messi, j'aime écouter mes idées Y'a des hauts y'a des bas ils ont kiffé Baresi Tu veux faire des oiseaux bah ouais c'est par ici Le rap d'aujourd'hui c'est une putain d'parodie J'fais un tour chez Porsche en passant par Audi Bat les couills d'la routine, on vise la carotide On convoqu pas les teams mais on veut l'biff' à Rothschild Les poulets on va les rôtir pour Zyed et Bouna Ensuite on va fêter ça à la Mamounia Ben on t'la déjà dit belek à la dounia Le vaccin, la maladie y'a trop d'problème ah khouya M'n jongens op zee met drugs met drugs Doekoe illegaal, fuck cops spow Veel gannoes in de box Amsterdam mattie, dit is geen Bronx Narco, doe 't smart, cargo pow Soms gedachtes van Rambo Rambo Soms die gedachtes van Kelma Ben bekend rond de street, niet op Talpa Oeh, yeah, heb die gun yo Mattie, ga je eten net gamba net gamba Kberna fi zen9a mathafack Fly net een Boeing, ik kom fully Louis, w jwana kan louwi Ik word snel boos, mattie, temperament pow We zetten ook braquage in je appartement Ik ben met m'n jongens in 't veld in 't veld Fuck shine motherfucker, ben op geld pow Sel3a li kan bi3o Veel dingen aan m'n hoofd nu Hoofd heet net Goku Mannen in je osso voor je gowtu Motherfucking skowtu Motherfucking skowtu Khdamin khdamin Flouss a mattie, floss homa lvitamine Droga, die sel3a, we pushen, we pushen Rook je van m'n jonko, weet je moet hoesten Neppe mensen, mattie, maken me woeste Van die haters, bro, ik krijg die boes Nummer drie, eng Heb die spow, altijd beng pow 3robi mayne, mkhassar Europa, kan 3assar, eng Nummer drie, eng Heb die spow, altijd beng pow 3robi mayne, mkhassar Europa, kan 3assar, eng You might also like La costa del mal Lanchas entran Si vienen enfrentar Dit moi q'uest ce qui passe Duro for Baf La J'suis, j'suis, j'suis dans l'opium avec une zlatana d'Estepona Cette pétasse consomme la cocaïna comme du Coca-Cola Elle va t'rencarder dans un hôtel de Benalmádena Ça va t'faire un trou dans la tête comme le poinçonneur des Lilas La vie est dure pour un maghrébin d'confession monothéiste Et la pauvreté parisienne, pousse à arracher des touristes 24 carats sur les pecs, j'suis plus Tony que Zepek Mon petit si tu veux peser, viens voir le boson de Higgs J'te rentre dedans même si t'es trapu comme bison dAmérique Toute cette célébrité m'est destinée, rebeu, j'la mérite Défrayer la chronique, dérégler les algorithmes Et je dripp dans un blouson Amiri Lebara, Lycamobile 4 morros fi l'automobile 17ème on sait pas jouer sauf avec le feu du crime Y'a ta gadji qu'est sous scopolamine Fais belek ça pourrait t'kidnapper comme à Medellín Grr pah j'tartine dans le Macan S 3.5.7, ça fait un, dos, tres Le dicton dit jamais deux sans trois Mais moi j'suis Algérois c'est jamais 2 sans 13 ...</t>
+          <t>Y'a qu'à r'garder mes yeux, pas b'soin d'faire de récit La frappe vient de Oued Laou, d'temps en temps du Brésil Tu leur as rendu service, ils finissent amnésiques Boîte de 30 comme Messi, j'aime écouter mes idées Y'a des hauts y'a des bas ils ont kiffé Baresi Tu veux faire des oiseaux bah ouais c'est par ici Le rap d'aujourd'hui c'est une putain d'parodie J'fais un tour chez Porsche en passant par Audi Bat les couills d'la routine, on vise la carotide On convoqu pas les teams mais on veut l'biff' à Rothschild Les poulets on va les rôtir pour Zyed et Bouna Ensuite on va fêter ça à la Mamounia Ben on t'la déjà dit belek à la dounia Le vaccin, la maladie y'a trop d'problème ah khouya M'n jongens op zee met drugs met drugs Doekoe illegaal, fuck cops spow Veel gannoes in de box Amsterdam mattie, dit is geen Bronx Narco, doe 't smart, cargo pow Soms gedachtes van Rambo Rambo Soms die gedachtes van Kelma Ben bekend rond de street, niet op Talpa Oeh, yeah, heb die gun yo Mattie, ga je eten net gamba net gamba Kberna fi zen9a mathafack Fly net een Boeing, ik kom fully Louis, w jwana kan louwi Ik word snel boos, mattie, temperament pow We zetten ook braquage in je appartement Ik ben met m'n jongens in 't veld in 't veld Fuck shine motherfucker, ben op geld pow Sel3a li kan bi3o Veel dingen aan m'n hoofd nu Hoofd heet net Goku Mannen in je osso voor je gowtu Motherfucking skowtu Motherfucking skowtu Khdamin khdamin Flouss a mattie, floss homa lvitamine Droga, die sel3a, we pushen, we pushen Rook je van m'n jonko, weet je moet hoesten Neppe mensen, mattie, maken me woeste Van die haters, bro, ik krijg die boes Nummer drie, eng Heb die spow, altijd beng pow 3robi mayne, mkhassar Europa, kan 3assar, eng Nummer drie, eng Heb die spow, altijd beng pow 3robi mayne, mkhassar Europa, kan 3assar, eng La costa del mal Lanchas entran Si vienen enfrentar Dit moi q'uest ce qui passe Duro for Baf La J'suis, j'suis, j'suis dans l'opium avec une zlatana d'Estepona Cette pétasse consomme la cocaïna comme du Coca-Cola Elle va t'rencarder dans un hôtel de Benalmádena Ça va t'faire un trou dans la tête comme le poinçonneur des Lilas La vie est dure pour un maghrébin d'confession monothéiste Et la pauvreté parisienne, pousse à arracher des touristes 24 carats sur les pecs, j'suis plus Tony que Zepek Mon petit si tu veux peser, viens voir le boson de Higgs J'te rentre dedans même si t'es trapu comme bison dAmérique Toute cette célébrité m'est destinée, rebeu, j'la mérite Défrayer la chronique, dérégler les algorithmes Et je dripp dans un blouson Amiri Lebara, Lycamobile 4 morros fi l'automobile 17ème on sait pas jouer sauf avec le feu du crime Y'a ta gadji qu'est sous scopolamine Fais belek ça pourrait t'kidnapper comme à Medellín Grr pah j'tartine dans le Macan S 3.5.7, ça fait un, dos, tres Le dicton dit jamais deux sans trois Mais moi j'suis Algérois c'est jamais 2 sans 13 ...</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>- J'ai l'impression que tout cela n'est qu'une carapace Mr Hayce Lemsi, j'ai l'impression euh que... derrière tout ça se cache une souffrance - Eh vas-y nique ta mère, cousin ! Han, j'suis avec my nigga, champagne Brutalité du mental Boumédiène On distribue les salaires et les châtaignes Ton cadavre à la tyrolienne Tu veux qu'j'rentre en Algérie, j'baise ta mère dans l'Charter J'ai crié t'Haysspé pour qu'elle revienne Petite, éloigne-toi, j'tape dans les trentenaires J'essaye d'm'approcher sans faire fuir le lièvre Wesh biko, tu rappes du thieboudienne Tout l'monde sait que t'es jihen, tu parles de gros budgets La dernière fois fois qu'j'ai vu XXX On s'en est fait trois, crois-moi c'tait pas au Ibis Budget Kalimera, j'viens de sortir ma coquille Calimero Crois-moi, niño, mentalité Luther King Dans le parking, pas d'Panamera, y'avait pas d'dinero Évitons l'imbroglio j'sors du ring, des traces de cordes sur le dos Prends la pure à Rio, on avait pas l'dinero J'voulais l'salaire de Ronaldinho, prends ton bif amigo Tu veux vivre à la Migos mais la juge te hagar à huis clos J'suis né dans l'bario, j'suis né dans l'bario, j'suis né dans l'bario Han, 600 flashs dans les yeux par showcases J'vois des étoiles, j'bois du Jack au miel Dans mon XV Barbare c'est Uncharted Ton rappeur préféré finit 3aryen Uzi chromé, bandana tah le MS13 Ton cadavre à la ferroviaire J'vais sortir le bourbier poukito, un, dos, tres J'ai vu le jour au cur d'une source pétrolière Biko, j'suis bien dans ma nébuleuse et j'pète la champagne au feu Grandir dans la violence n'est pas un choix d'vie, morveux On est les enfants de la déchéance on en a tous subi les conséquences Tu viens faire la morale aux plus jeunes, mais t'as vu ta gueule mon vieux Si seul dans la nuit noir, figé devant l'miroir Les parures, le Ruinart, les fourrures de renard Les fous rires de monarques, la folie de mon art Le click click de mon arme, l'odeur du dollar Triangle d'Or pur sur le torse, fume la wax En i comme Dino, Solo ou Sémawax Y'a les babiés qui défoncent ma porte au bélier J'me trouve derrière l'oeillet d'la voisine de palier Prends ton argent cabrón, sors l'Bentley Azure Sous un ciel étoilé soigne tes meurtrissures Prie pour Dieu nous pardonne, mon sternum se fissure Plus la peine de parler, ressens les blessures J'suis avec my nigga, champagne On distribue les salaires et les châtaignes Tu veux qu'j'rentre en Algérie, j'baise ta mère dans l'Charter Petite éloigne-toi, j'tape dans les trentenaires J'essaye d'm'approcher sans faire fuir le lièvre Han, j'suis avec my nigga, champagne Brutalité du mental Boumédiène On distribue les salaires et les châtaignes Ton cadavre à la tyrolienne Tu veux qu'j'rentre en Algérie, j'baise ta mère dans l'Charter J'ai crié t'Haysspé pour qu'elle revienne Petite éloigne-toi, j'tape dans les trentenaires J'essaye d'm'approcher sans faire fuir le lièvreYou might also like1</t>
+          <t>- J'ai l'impression que tout cela n'est qu'une carapace Mr Hayce Lemsi, j'ai l'impression euh que... derrière tout ça se cache une souffrance - Eh vas-y nique ta mère, cousin ! Han, j'suis avec my nigga, champagne Brutalité du mental Boumédiène On distribue les salaires et les châtaignes Ton cadavre à la tyrolienne Tu veux qu'j'rentre en Algérie, j'baise ta mère dans l'Charter J'ai crié t'Haysspé pour qu'elle revienne Petite, éloigne-toi, j'tape dans les trentenaires J'essaye d'm'approcher sans faire fuir le lièvre Wesh biko, tu rappes du thieboudienne Tout l'monde sait que t'es jihen, tu parles de gros budgets La dernière fois fois qu'j'ai vu XXX On s'en est fait trois, crois-moi c'tait pas au Ibis Budget Kalimera, j'viens de sortir ma coquille Calimero Crois-moi, niño, mentalité Luther King Dans le parking, pas d'Panamera, y'avait pas d'dinero Évitons l'imbroglio j'sors du ring, des traces de cordes sur le dos Prends la pure à Rio, on avait pas l'dinero J'voulais l'salaire de Ronaldinho, prends ton bif amigo Tu veux vivre à la Migos mais la juge te hagar à huis clos J'suis né dans l'bario, j'suis né dans l'bario, j'suis né dans l'bario Han, 600 flashs dans les yeux par showcases J'vois des étoiles, j'bois du Jack au miel Dans mon XV Barbare c'est Uncharted Ton rappeur préféré finit 3aryen Uzi chromé, bandana tah le MS13 Ton cadavre à la ferroviaire J'vais sortir le bourbier poukito, un, dos, tres J'ai vu le jour au cur d'une source pétrolière Biko, j'suis bien dans ma nébuleuse et j'pète la champagne au feu Grandir dans la violence n'est pas un choix d'vie, morveux On est les enfants de la déchéance on en a tous subi les conséquences Tu viens faire la morale aux plus jeunes, mais t'as vu ta gueule mon vieux Si seul dans la nuit noir, figé devant l'miroir Les parures, le Ruinart, les fourrures de renard Les fous rires de monarques, la folie de mon art Le click click de mon arme, l'odeur du dollar Triangle d'Or pur sur le torse, fume la wax En i comme Dino, Solo ou Sémawax Y'a les babiés qui défoncent ma porte au bélier J'me trouve derrière l'oeillet d'la voisine de palier Prends ton argent cabrón, sors l'Bentley Azure Sous un ciel étoilé soigne tes meurtrissures Prie pour Dieu nous pardonne, mon sternum se fissure Plus la peine de parler, ressens les blessures J'suis avec my nigga, champagne On distribue les salaires et les châtaignes Tu veux qu'j'rentre en Algérie, j'baise ta mère dans l'Charter Petite éloigne-toi, j'tape dans les trentenaires J'essaye d'm'approcher sans faire fuir le lièvre Han, j'suis avec my nigga, champagne Brutalité du mental Boumédiène On distribue les salaires et les châtaignes Ton cadavre à la tyrolienne Tu veux qu'j'rentre en Algérie, j'baise ta mère dans l'Charter J'ai crié t'Haysspé pour qu'elle revienne Petite éloigne-toi, j'tape dans les trentenaires J'essaye d'm'approcher sans faire fuir le lièvre1</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Petit loko, tu veux porter l'or des rois ? Mais à quel prix ? Warano, Hayce Lem' Au cur de Lutèce au cur de Lutèce Je veux être roi, entourés de pions et de valets roi, pions et valets Et je pense avoir fait ce qu'il fallait ce qu'il fallait Je suis un roi seul dans son palais dans son palais Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Issu des quartiers populaires, j'ai l'inspiration crépusculaire Lunettes Cartier sur le nez, j'ai grandi sur une île sans mer Entends-tu battre le cur de Lutèce, jusque dans nos textes ? Macadam brûle en grande vitesse, je suis dans le tieks' Un roi solo dans son palais, cet or en vaut-il la peine ? J'espère avoir fait ce qu'il fallait, tous les valets veulent ma reine La Kalash humaine doit rafaler, bien entouré comme Le Parrain Le scaphandrier cherche le triangle d'or dans les fonds marins Demande à mon gars Warano ce que vaut la célébrité La couronne me rend parano, j'rappe en état d'ébriété À vivre au rythme du piano, je vais trop vite pour marrêter Masseois sur un million d'euros pour la seule qui m'a allaité You might also like Au cur de Lutèce au cur de Lutèce Je veux être roi, entourés de pions et de valets roi, pions et valets Et je pense avoir fait ce qu'il fallait ce qu'il fallait Je suis un roi seul dans son palais dans son palais Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Toujours au top, make it clap, Hayce et Gims dans le fond du club Ghetto chic, chico, ta meuf trouve un charme à mon coté thug C'est quoi cette coupe, biko tu reviens de Thaï' ou d'Hawaï ? Moi je tourne toute la night avec un flash sur Paname C'est la dolce vita dans mon bando Je n'ai toujours pas trouvé le sommeil du lever au coucher du soleil Reste sereine zina, j'te raccompagne en Merco T'es la bienvenue dans le cur du siete cinco Demande à mon gars Warano ce que vaut la célébrité La couronne me rend parano, j'rappe en état d'ébriété À vivre au rythme du piano, je vais trop vite pour marrêter Masseois sur un million d'euros pour la seule qui m'a allaité Au cur de Lutèce au cur de Lutèce Je veux être roi, entourés de pions et de valets roi, pions et valets Et je pense avoir fait ce qu'il fallait ce qu'il fallait Je suis un roi seul dans son palais dans son palais Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Roi, pions et valets Ce qu'il fallait Dans son palais2</t>
+          <t>Petit loko, tu veux porter l'or des rois ? Mais à quel prix ? Warano, Hayce Lem' Au cur de Lutèce au cur de Lutèce Je veux être roi, entourés de pions et de valets roi, pions et valets Et je pense avoir fait ce qu'il fallait ce qu'il fallait Je suis un roi seul dans son palais dans son palais Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Issu des quartiers populaires, j'ai l'inspiration crépusculaire Lunettes Cartier sur le nez, j'ai grandi sur une île sans mer Entends-tu battre le cur de Lutèce, jusque dans nos textes ? Macadam brûle en grande vitesse, je suis dans le tieks' Un roi solo dans son palais, cet or en vaut-il la peine ? J'espère avoir fait ce qu'il fallait, tous les valets veulent ma reine La Kalash humaine doit rafaler, bien entouré comme Le Parrain Le scaphandrier cherche le triangle d'or dans les fonds marins Demande à mon gars Warano ce que vaut la célébrité La couronne me rend parano, j'rappe en état d'ébriété À vivre au rythme du piano, je vais trop vite pour marrêter Masseois sur un million d'euros pour la seule qui m'a allaité Au cur de Lutèce au cur de Lutèce Je veux être roi, entourés de pions et de valets roi, pions et valets Et je pense avoir fait ce qu'il fallait ce qu'il fallait Je suis un roi seul dans son palais dans son palais Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Toujours au top, make it clap, Hayce et Gims dans le fond du club Ghetto chic, chico, ta meuf trouve un charme à mon coté thug C'est quoi cette coupe, biko tu reviens de Thaï' ou d'Hawaï ? Moi je tourne toute la night avec un flash sur Paname C'est la dolce vita dans mon bando Je n'ai toujours pas trouvé le sommeil du lever au coucher du soleil Reste sereine zina, j'te raccompagne en Merco T'es la bienvenue dans le cur du siete cinco Demande à mon gars Warano ce que vaut la célébrité La couronne me rend parano, j'rappe en état d'ébriété À vivre au rythme du piano, je vais trop vite pour marrêter Masseois sur un million d'euros pour la seule qui m'a allaité Au cur de Lutèce au cur de Lutèce Je veux être roi, entourés de pions et de valets roi, pions et valets Et je pense avoir fait ce qu'il fallait ce qu'il fallait Je suis un roi seul dans son palais dans son palais Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Au coeur du siete cinco Au cur de Lutèce Roi, pions et valets Ce qu'il fallait Dans son palais2</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ok ce morceau j'le dédicace à ma jeunesse enflammée Dur de s'en sortir on cherche encore un chemin sans failles Tu me parles d'avenir mais tu niques ma vibe enfoiré Pour l'instant j'suis so fly, ouais j'suis so fly Vas y roule un zlatan, ilico presto Ghetto mental on veut prendre l'hélico en presto Ma pet'Hayce me les c'Hayce elle veut payer l'resto J'suis son bonhomme j'ai du biff il en est hors de question J'ai des potes au frai, c'est loin d'être une fable Ici nul ne peut se contenter d'amour et d'eau fraîche On refuse de s'ranger s'étonne de ne pas trouver de femme Poto on joue pas, t'es grave bonne dans ton pot d'pêche Mes locos tous emportés par la mélo Kiff avec ou sans les ieps au bord de l'eau Y'a mes Parigos, mes Suisses, mes Bordelais La saveur de mon petit caramelo Je n'arrête pas de regarder son visage et son corps Elle a twerker toute la soirée j'en redemande encore Son visage et son corps, j'en redemande encore Khabat everyday, l'avenir R.I.P J'm'en fiche tant que j'fais vibrer jeunesse dénigrée Tous les jours sont fériés, je suis fait Dans la vie d'adulte effrayé, j'veux rester frai Chaque fois que j'entend le tempo,chaque fois que j'entend le tempo C'est pour ma jeunesse enflammée Chaque fois que je donne le tempo,chaque fois que je donne le tempo C'est pour ma jeunesse en faya Chaque fois que j'entend le tempo,chaque fois que j'entend le tempo Y'a pas de chemin sans failles Chaque fois que je donne le tempo,chaque fois que je donne le tempo Relation conflictuelle,le graffeur de mon quartier génie pictural Arc en ciel diversité culturelle,lutte galsen sonorité gutturale Tu ne connais pas ma vie mais tu veux me la dicter Certaines choses ne s'achètent pas, la joie ne peut s'édictée J'ai choisi drôle de train de vie sans composter le ticket, ouais Enfin c'est plus compliqué Locos, locas put your hands up in the air Jolie tiss-mé fais bouger tes curly hair Sous adrénaline une fois qu'j'entends l'giro Bico j'peux pas m'arrêter j'ai plus d'mis-per Gosses oubliés d'l'histoire on a pas connus d'grandes guerres On traîne tard le soir avec un spliff une grande bière Chez nous la crise d'adolescence peut finir à 30 berges Une étincelle d'espoir, maman veut qu'on la rende fière Je n'arrête pas de regarder son visage et son corps Elle a twerker toute la soirée j'en redemande encore Son visage et son corps, j'en redemande encore Khabat everyday, l'avenir R.I.P J'm'en fiche tant que j'fais vibrer jeunesse dénigrée Tous les jours sont fériés, je suis fait Dans la vie d'adulte effrayé, j'veux rester frai Chaque fois que j'entend le tempo,chaque fois que j'entend le tempo C'est pour ma jeunesse enflammée Chaque fois que je donne le tempo,chaque fois que je donne le tempo C'est pour ma jeunesse en faya Chaque fois que j'entend le tempo,chaque fois que j'entend le tempo Y'a pas de chemin sans failles Chaque fois que je donne le tempo,chaque fois que je donne le tempoYou might also like</t>
+          <t>Ok ce morceau j'le dédicace à ma jeunesse enflammée Dur de s'en sortir on cherche encore un chemin sans failles Tu me parles d'avenir mais tu niques ma vibe enfoiré Pour l'instant j'suis so fly, ouais j'suis so fly Vas y roule un zlatan, ilico presto Ghetto mental on veut prendre l'hélico en presto Ma pet'Hayce me les c'Hayce elle veut payer l'resto J'suis son bonhomme j'ai du biff il en est hors de question J'ai des potes au frai, c'est loin d'être une fable Ici nul ne peut se contenter d'amour et d'eau fraîche On refuse de s'ranger s'étonne de ne pas trouver de femme Poto on joue pas, t'es grave bonne dans ton pot d'pêche Mes locos tous emportés par la mélo Kiff avec ou sans les ieps au bord de l'eau Y'a mes Parigos, mes Suisses, mes Bordelais La saveur de mon petit caramelo Je n'arrête pas de regarder son visage et son corps Elle a twerker toute la soirée j'en redemande encore Son visage et son corps, j'en redemande encore Khabat everyday, l'avenir R.I.P J'm'en fiche tant que j'fais vibrer jeunesse dénigrée Tous les jours sont fériés, je suis fait Dans la vie d'adulte effrayé, j'veux rester frai Chaque fois que j'entend le tempo,chaque fois que j'entend le tempo C'est pour ma jeunesse enflammée Chaque fois que je donne le tempo,chaque fois que je donne le tempo C'est pour ma jeunesse en faya Chaque fois que j'entend le tempo,chaque fois que j'entend le tempo Y'a pas de chemin sans failles Chaque fois que je donne le tempo,chaque fois que je donne le tempo Relation conflictuelle,le graffeur de mon quartier génie pictural Arc en ciel diversité culturelle,lutte galsen sonorité gutturale Tu ne connais pas ma vie mais tu veux me la dicter Certaines choses ne s'achètent pas, la joie ne peut s'édictée J'ai choisi drôle de train de vie sans composter le ticket, ouais Enfin c'est plus compliqué Locos, locas put your hands up in the air Jolie tiss-mé fais bouger tes curly hair Sous adrénaline une fois qu'j'entends l'giro Bico j'peux pas m'arrêter j'ai plus d'mis-per Gosses oubliés d'l'histoire on a pas connus d'grandes guerres On traîne tard le soir avec un spliff une grande bière Chez nous la crise d'adolescence peut finir à 30 berges Une étincelle d'espoir, maman veut qu'on la rende fière Je n'arrête pas de regarder son visage et son corps Elle a twerker toute la soirée j'en redemande encore Son visage et son corps, j'en redemande encore Khabat everyday, l'avenir R.I.P J'm'en fiche tant que j'fais vibrer jeunesse dénigrée Tous les jours sont fériés, je suis fait Dans la vie d'adulte effrayé, j'veux rester frai Chaque fois que j'entend le tempo,chaque fois que j'entend le tempo C'est pour ma jeunesse enflammée Chaque fois que je donne le tempo,chaque fois que je donne le tempo C'est pour ma jeunesse en faya Chaque fois que j'entend le tempo,chaque fois que j'entend le tempo Y'a pas de chemin sans failles Chaque fois que je donne le tempo,chaque fois que je donne le tempo</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Minuit minuit trente, quarante balles dans la Goyard Elle parle mal avec sa bouche, mais je sais qu'j'vais la bouyave Un brolique sous la douche, depuis que j'fais d'la moula J'suis vicieux j'suis arbouch, Kouba Belcourt Belouizdad A minuit minuit trente, quarante balles dans la Goyard Elle parle mal avec sa bouche mais je sais qu'j'vais la bouyave Y'a le brolique sous la douche depuis qu'fais d'la moula J'suis vicieux j'suis arbouch Kouba Belcourt Belouizdad J'ai détruit l'mur de Berlin grimpé la muraille de Chine J'envoie des averses de Rosé Ruinart dans son brushing La dépouille du tigre ouvre l'appétit des charognards L'aigle royal s'endort dans la fourrure de renard Un disque d'or sans tricher, une médaille d'or sans dopage Calibré pour braquer la maison du papier sans otage Les michtonneuses ne tiennent le manche à balai qu'à Poudlard Elle parle mal avec sa bouche mais je sais qu'j'vais la bouyave, bouyave, bouyave Califourchon Loka j'ai le smile à Tony Tony, Tony Trop d'vécu pour mon âge qui peut m'étonner tonner, tonner J'contrôle la zone j'suis général Je souris souvent mais j'ai mal Minuit minuit trente, quarante balles dans la Goyard Elle parle mal avec sa bouche, mais je sais qu'j'vais la bouyave Un brolique sous la douche, depuis que j'fais d'la moula J'suis vicieux j'suis arbouch, Kouba Belcourt Belouizdad A minuit minuit trente, quarante balles dans la Goyard Elle parle mal avec sa bouche mais je sais qu'j'vais la bouyave Y'a le brolique sous la douche depuis qu'fais d'la moula J'suis vicieux j'suis arbouch Kouba Belcourt Belouizdad You might also like Place à la guerre cérébrale, on sait comment passer les grades En I sur la place de l'étoile, jeune araignée fait sa toile Mon blase à l'indélébile dans les cellules de la maison d'arrêt Bikow fait les fils on n'a même pas deux minutes pour démarrer C'est le volubile au milles vérités dans l'arène on était de va-nu-pieds maintenant on arrive en McLaren La BAC nous parle de pactages Des bails de partout Des pff des braquages Des pff des cave-pou Tiens la machette comme un sauvage et la bavette frotte l'asphalte Ouh jai le pan pan pan Bédave plus de ganja que Loupan pan pan Elle veut gouter mon french kiss French Cancan J'suis en full ken ken Jlui dis fout le camp camp Jprends le mic Tous les bikow deviennent fous tentends ? Skipidi pa pa toutou pan pan Pop champagne on fait pas semblant Dans un 4x4 flambant neuf tout en blanc Bikow tout est bon Jvalide pas la démagogie Tu fais dans le bénévolat pour devenir une idole yah Traîner dans les rues de Paris Nord a fait de moi le genre de bikow quon isole Minuit minuit trente, quarante balles dans la Goyard Elle parle mal avec sa bouche, mais je sais qu'j'vais la bouyave Un brolique sous la douche, depuis que j'fais d'la moula J'suis vicieux j'suis arbouch, Kouba Belcourt Belouizdad A minuit minuit trente, quarante balles dans la Goyard Elle parle mal avec sa bouche mais je sais qu'j'vais la bouyave V'là le brolique sous la douche depuis qu'fais d'la moula J'suis vicieux j'suis arbouch Kouba Belcourt Belouizdad4</t>
+          <t>Minuit minuit trente, quarante balles dans la Goyard Elle parle mal avec sa bouche, mais je sais qu'j'vais la bouyave Un brolique sous la douche, depuis que j'fais d'la moula J'suis vicieux j'suis arbouch, Kouba Belcourt Belouizdad A minuit minuit trente, quarante balles dans la Goyard Elle parle mal avec sa bouche mais je sais qu'j'vais la bouyave Y'a le brolique sous la douche depuis qu'fais d'la moula J'suis vicieux j'suis arbouch Kouba Belcourt Belouizdad J'ai détruit l'mur de Berlin grimpé la muraille de Chine J'envoie des averses de Rosé Ruinart dans son brushing La dépouille du tigre ouvre l'appétit des charognards L'aigle royal s'endort dans la fourrure de renard Un disque d'or sans tricher, une médaille d'or sans dopage Calibré pour braquer la maison du papier sans otage Les michtonneuses ne tiennent le manche à balai qu'à Poudlard Elle parle mal avec sa bouche mais je sais qu'j'vais la bouyave, bouyave, bouyave Califourchon Loka j'ai le smile à Tony Tony, Tony Trop d'vécu pour mon âge qui peut m'étonner tonner, tonner J'contrôle la zone j'suis général Je souris souvent mais j'ai mal Minuit minuit trente, quarante balles dans la Goyard Elle parle mal avec sa bouche, mais je sais qu'j'vais la bouyave Un brolique sous la douche, depuis que j'fais d'la moula J'suis vicieux j'suis arbouch, Kouba Belcourt Belouizdad A minuit minuit trente, quarante balles dans la Goyard Elle parle mal avec sa bouche mais je sais qu'j'vais la bouyave Y'a le brolique sous la douche depuis qu'fais d'la moula J'suis vicieux j'suis arbouch Kouba Belcourt Belouizdad Place à la guerre cérébrale, on sait comment passer les grades En I sur la place de l'étoile, jeune araignée fait sa toile Mon blase à l'indélébile dans les cellules de la maison d'arrêt Bikow fait les fils on n'a même pas deux minutes pour démarrer C'est le volubile au milles vérités dans l'arène on était de va-nu-pieds maintenant on arrive en McLaren La BAC nous parle de pactages Des bails de partout Des pff des braquages Des pff des cave-pou Tiens la machette comme un sauvage et la bavette frotte l'asphalte Ouh jai le pan pan pan Bédave plus de ganja que Loupan pan pan Elle veut gouter mon french kiss French Cancan J'suis en full ken ken Jlui dis fout le camp camp Jprends le mic Tous les bikow deviennent fous tentends ? Skipidi pa pa toutou pan pan Pop champagne on fait pas semblant Dans un 4x4 flambant neuf tout en blanc Bikow tout est bon Jvalide pas la démagogie Tu fais dans le bénévolat pour devenir une idole yah Traîner dans les rues de Paris Nord a fait de moi le genre de bikow quon isole Minuit minuit trente, quarante balles dans la Goyard Elle parle mal avec sa bouche, mais je sais qu'j'vais la bouyave Un brolique sous la douche, depuis que j'fais d'la moula J'suis vicieux j'suis arbouch, Kouba Belcourt Belouizdad A minuit minuit trente, quarante balles dans la Goyard Elle parle mal avec sa bouche mais je sais qu'j'vais la bouyave V'là le brolique sous la douche depuis qu'fais d'la moula J'suis vicieux j'suis arbouch Kouba Belcourt Belouizdad4</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Un son lourd pour les bat' bico Next Jump Paname Massilia Guidé par la magie des mots Loco c'est la vendetta Après ce son t'iras remettre la prod Devine qui débarque Hayce Lemsi et Zino ensemble on kick vite ça Flamme dans l'iris Il y a du charme dans les risques Mal luné quand le ciel nous fait grise mine XXX Hey, hey, hey zina Je manie le mic' à la Rizzoli À se-l'ai, nul ne résigne, résine de cannabis On attaque en de-spee les loves tah les Jap' on débarque en Jeep Je marche avec Philip Morris, Mary Jane et Jack Check mon flow c'est de la physique quantique Pour les petits frères agités au CJD J'te l'ai dit j'partirais pas sans le titre, maitrise la langue de Poquelin sous JB Je vis peut-être dans la bue, mais j'étrangle le game d'une méchante poigne ah ah Dans la ville de la volaille où le vol envenime les bénévoles Laissez-moi dans ma bulle de champagne Tu vas y rester Joue pas les héros MC Ainsi boss c'est Z.I.N.O, Hayce Lemsi Tu peux pas tester comme si j'avais fait médecine Venez même à cinq, six vous écraser ça m'excite Je t'explique calmement, dans le lexique lyrical armement Ça kick sale c'est pas du rap tah les loves C'est le sud, t'es à l'ouest et t'en perds le nord Tu nous connais, sur l'autoroute en Vespa Tu reconnais la gimmick à la Busta Wesh gros, on est à la main des Bastas, ca passe pas On roule sur la concurrence en classe A Excellent ! Mec c'est moi le rap tah sah Mec c'est lent, c'est le RC Lens face au Barça You might also like On débarque dans les bacs Dans les govs, dans les boîtes On démarre dans la minute, minute, minute On est dans les bails, voilà les deux balles Drive By au neuf milli-milli-milli Marseillais, Parigot Bico, blacko, blanco, loco Ça c'est pour tous les ghettos Hayce Lemsi, Z.I.N.O Un son lourd pour les bat' bico Next Jump Paname Massilia Guidé par la magie des mots Loco c'est la vendetta Après ce son t'iras remettre la prod Devine qui débarque Hayce Lemsi et Zino ensemble on kick vite ça J'ai le flow, j'ai la technique Je manie la rime pour tout mes khos que j'estime Sony et Nabil J'ai pas la coke de Tony et Manny dans les narines Mais pour ma daronne j'pourrais m'engager dans les marines Nous on vient pour vous remettre d'accord Même si on pète la forme je ralentis je guette la Ford D'ici j'vois les jaloux m'jeter l'oeil et j'hallucine La plupart sont tout seul, s'font des films tah le ciné J'fais du rap sale, si ça marche pas j'vais m'exiler À Pattaya ou à Punta Cana sur les îles Vas-y dis leur, à l'aise dans mes baskets dans mes jeans Si y'a rien à khayave y'aura du MC pour le dîner Amenez Zahia car nos beurettes c'est la routine J'te baise et j'disparais, appelez-moi Houdini OK, j'rap comme une mitraillette Hin hin j'baise comme une mitraillette Veni vidi vida loca, c'est Hayce l'alien Petit bico dans mes flow ta pas yep J'ai trempé la plume dans le kahwa J'écris sur la pleine lune insomnia Mais le sable du temps m'file entre les doigts J'vais faire fortune et porter l'or des rois Bili Bico J'rap pour mes locos, mes locas j'ai les mots qui frappent, ne me parlez pas de Coca de paki mani T'auras pas la mémoire assez longue pour faire carrière dans la mythomanie Missile téléguidé dans la gueule des mégalos dans le game dans lequel on met des gole-mon devant Dégaine le gun de la boca, Zino, Hayce Lem Veni vidi vida loca Paroles rédigées et annotées par la communauté française de Rap Genius7</t>
+          <t>Un son lourd pour les bat' bico Next Jump Paname Massilia Guidé par la magie des mots Loco c'est la vendetta Après ce son t'iras remettre la prod Devine qui débarque Hayce Lemsi et Zino ensemble on kick vite ça Flamme dans l'iris Il y a du charme dans les risques Mal luné quand le ciel nous fait grise mine XXX Hey, hey, hey zina Je manie le mic' à la Rizzoli À se-l'ai, nul ne résigne, résine de cannabis On attaque en de-spee les loves tah les Jap' on débarque en Jeep Je marche avec Philip Morris, Mary Jane et Jack Check mon flow c'est de la physique quantique Pour les petits frères agités au CJD J'te l'ai dit j'partirais pas sans le titre, maitrise la langue de Poquelin sous JB Je vis peut-être dans la bue, mais j'étrangle le game d'une méchante poigne ah ah Dans la ville de la volaille où le vol envenime les bénévoles Laissez-moi dans ma bulle de champagne Tu vas y rester Joue pas les héros MC Ainsi boss c'est Z.I.N.O, Hayce Lemsi Tu peux pas tester comme si j'avais fait médecine Venez même à cinq, six vous écraser ça m'excite Je t'explique calmement, dans le lexique lyrical armement Ça kick sale c'est pas du rap tah les loves C'est le sud, t'es à l'ouest et t'en perds le nord Tu nous connais, sur l'autoroute en Vespa Tu reconnais la gimmick à la Busta Wesh gros, on est à la main des Bastas, ca passe pas On roule sur la concurrence en classe A Excellent ! Mec c'est moi le rap tah sah Mec c'est lent, c'est le RC Lens face au Barça On débarque dans les bacs Dans les govs, dans les boîtes On démarre dans la minute, minute, minute On est dans les bails, voilà les deux balles Drive By au neuf milli-milli-milli Marseillais, Parigot Bico, blacko, blanco, loco Ça c'est pour tous les ghettos Hayce Lemsi, Z.I.N.O Un son lourd pour les bat' bico Next Jump Paname Massilia Guidé par la magie des mots Loco c'est la vendetta Après ce son t'iras remettre la prod Devine qui débarque Hayce Lemsi et Zino ensemble on kick vite ça J'ai le flow, j'ai la technique Je manie la rime pour tout mes khos que j'estime Sony et Nabil J'ai pas la coke de Tony et Manny dans les narines Mais pour ma daronne j'pourrais m'engager dans les marines Nous on vient pour vous remettre d'accord Même si on pète la forme je ralentis je guette la Ford D'ici j'vois les jaloux m'jeter l'oeil et j'hallucine La plupart sont tout seul, s'font des films tah le ciné J'fais du rap sale, si ça marche pas j'vais m'exiler À Pattaya ou à Punta Cana sur les îles Vas-y dis leur, à l'aise dans mes baskets dans mes jeans Si y'a rien à khayave y'aura du MC pour le dîner Amenez Zahia car nos beurettes c'est la routine J'te baise et j'disparais, appelez-moi Houdini OK, j'rap comme une mitraillette Hin hin j'baise comme une mitraillette Veni vidi vida loca, c'est Hayce l'alien Petit bico dans mes flow ta pas yep J'ai trempé la plume dans le kahwa J'écris sur la pleine lune insomnia Mais le sable du temps m'file entre les doigts J'vais faire fortune et porter l'or des rois Bili Bico J'rap pour mes locos, mes locas j'ai les mots qui frappent, ne me parlez pas de Coca de paki mani T'auras pas la mémoire assez longue pour faire carrière dans la mythomanie Missile téléguidé dans la gueule des mégalos dans le game dans lequel on met des gole-mon devant Dégaine le gun de la boca, Zino, Hayce Lem Veni vidi vida loca Paroles rédigées et annotées par la communauté française de Rap Genius7</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>XV Bagdad Rien qu'ils parlent, ça me désole, c'pas des hommes Ouais, c'est bien moi l'DZ qui t'ait traîné sur le sol J'donne les ordres, on m'escorte Paris Nord, mes bikos sont baisés Pas sûr que d'ici tu ressortes Si les forces de l'ordre me délogent Envoyez de la bonne zèb à mon petit reufré Volts Je m'endors sous Dom Pér' car mon or dort sous terre Motherfucker, biko, y'a rien dans le coffre Deux backeux dans la voiture... donc un dans la nature 3 bikos en filature, il s'agit d'une inestimable peinture On fait partie d'ces physiques ingrats que la solitude a condamné sur l'asphalte Triangle d'Or Viens pas m'importuner si ta pute s'est tatouée Hayce Lemsi sur la chatte XV Baby le PIB De la drogue tah les Pays-Bas J'rends visite à mes ennemis, calibré Sans avoir inhalé de bayda J'veux sortir mes tits-pe de la street Mais j'ai pas le public d'Inna Modja J'vais pas m'éterniser, j'connais la suite Et je ne vendrai pas mon âme au Diable Assonances et rythmique Tellement insolent que t'aimerais voir nos peaux s'éclaircir Assombri, j'ai l'éthique d'un vrai hustler On me surnommera Hayce Lemsi Me désire-t-elle pour ce que je suis ? Me désire-t-elle pour ce que j'ai ? L'Opinel est dans ses bas-résilles Elle se servira de ce que j'aime, de ce que j'aime J'prends mon indépendance comme l'a fait mon peuple avec la puissance colonisatrice Hayce, ta tête est mise à prix, tu provoques l'idolâtrie J'voulais représenter la misère, la déchéance, mes frères en son-pri J'voulais saisir ma chance au corner, j'avais peur de n'rien faire de ma vie XV Barbare, j'ai donné ma jeunesse à la rue Bikos, blackos, blankos reconnaissent Cojones de taureau, train d'vie rocambolesque Un Algérien, trois péthayces, une arme de l'est Il me suffit d'un zeste de génie, mon flow vient de Los Angeles C'est la MS17 qui saisit tes trons-li, ton or et ta Rolex x2 Que la juge nous relaxe Que mes Bikos renaissent 3 balles dans ton thorax, torse nu sur l'T-Max T'as retourné ta veste J'réanime le rap game au défibrillateur, grimpe dans la Cooper bitch J'défie les délateurs, prestidigitateur, arrogant, jeune et riche Enervé dans le square, en D-Squared, calibré sous un ciel sans étoile T'as dénoncé ma squad, poukito, les vrais bikos disent que c'était toi J'connais pas l'désarroi, je fais partie des rois, sans effroi, je les froisse J'ai grandi dans le D3, cage d'escal', mes ennemis s'attendent au tête à tête quand j'les croise Philosophie cartésienne, on vit au jour le jour, XV2 Carpe Diem L'attitude est parisienne, j'ai fait rouler du jaune à trav' la norvégienne Ferme-la, XXX, y'a ta cocaine sur la table salope J'ai le mental d'Ali Lapointe, l'Arabe vous attaque salope Ferme-la, XXX, y'a ta cocaine sur la table salope J'ai le mental d'Ali Lapointe, l'Arabe vous attaque salope XV Baby le PIB De la drogue tah les Pays-Bas J'rends visite à mes ennemis, calibré Sans avoir inhalé de bayda J'veux sortir mes tits-pe de la street Mais j'ai pas le public d'Inna Modja J'vais pas m'éterniser, j'connais la suite Et je ne vendrai pas mon âme au Diable Assonances et rythmique Tellement insolent que t'aimerais voir nos peaux s'éclaircir Assombri, j'ai l'éthique d'un vrai hustler On me surnommera Hayce Lemsi Me désire-t-elle pour ce que je suis ? Me désire-t-elle pour ce que j'ai ? L'Opinel est dans ses bas-résilles Elle se servira de ce que j'aime, de ce que j'aime XVBagdadYou might also like3</t>
+          <t>XV Bagdad Rien qu'ils parlent, ça me désole, c'pas des hommes Ouais, c'est bien moi l'DZ qui t'ait traîné sur le sol J'donne les ordres, on m'escorte Paris Nord, mes bikos sont baisés Pas sûr que d'ici tu ressortes Si les forces de l'ordre me délogent Envoyez de la bonne zèb à mon petit reufré Volts Je m'endors sous Dom Pér' car mon or dort sous terre Motherfucker, biko, y'a rien dans le coffre Deux backeux dans la voiture... donc un dans la nature 3 bikos en filature, il s'agit d'une inestimable peinture On fait partie d'ces physiques ingrats que la solitude a condamné sur l'asphalte Triangle d'Or Viens pas m'importuner si ta pute s'est tatouée Hayce Lemsi sur la chatte XV Baby le PIB De la drogue tah les Pays-Bas J'rends visite à mes ennemis, calibré Sans avoir inhalé de bayda J'veux sortir mes tits-pe de la street Mais j'ai pas le public d'Inna Modja J'vais pas m'éterniser, j'connais la suite Et je ne vendrai pas mon âme au Diable Assonances et rythmique Tellement insolent que t'aimerais voir nos peaux s'éclaircir Assombri, j'ai l'éthique d'un vrai hustler On me surnommera Hayce Lemsi Me désire-t-elle pour ce que je suis ? Me désire-t-elle pour ce que j'ai ? L'Opinel est dans ses bas-résilles Elle se servira de ce que j'aime, de ce que j'aime J'prends mon indépendance comme l'a fait mon peuple avec la puissance colonisatrice Hayce, ta tête est mise à prix, tu provoques l'idolâtrie J'voulais représenter la misère, la déchéance, mes frères en son-pri J'voulais saisir ma chance au corner, j'avais peur de n'rien faire de ma vie XV Barbare, j'ai donné ma jeunesse à la rue Bikos, blackos, blankos reconnaissent Cojones de taureau, train d'vie rocambolesque Un Algérien, trois péthayces, une arme de l'est Il me suffit d'un zeste de génie, mon flow vient de Los Angeles C'est la MS17 qui saisit tes trons-li, ton or et ta Rolex x2 Que la juge nous relaxe Que mes Bikos renaissent 3 balles dans ton thorax, torse nu sur l'T-Max T'as retourné ta veste J'réanime le rap game au défibrillateur, grimpe dans la Cooper bitch J'défie les délateurs, prestidigitateur, arrogant, jeune et riche Enervé dans le square, en D-Squared, calibré sous un ciel sans étoile T'as dénoncé ma squad, poukito, les vrais bikos disent que c'était toi J'connais pas l'désarroi, je fais partie des rois, sans effroi, je les froisse J'ai grandi dans le D3, cage d'escal', mes ennemis s'attendent au tête à tête quand j'les croise Philosophie cartésienne, on vit au jour le jour, XV2 Carpe Diem L'attitude est parisienne, j'ai fait rouler du jaune à trav' la norvégienne Ferme-la, XXX, y'a ta cocaine sur la table salope J'ai le mental d'Ali Lapointe, l'Arabe vous attaque salope Ferme-la, XXX, y'a ta cocaine sur la table salope J'ai le mental d'Ali Lapointe, l'Arabe vous attaque salope XV Baby le PIB De la drogue tah les Pays-Bas J'rends visite à mes ennemis, calibré Sans avoir inhalé de bayda J'veux sortir mes tits-pe de la street Mais j'ai pas le public d'Inna Modja J'vais pas m'éterniser, j'connais la suite Et je ne vendrai pas mon âme au Diable Assonances et rythmique Tellement insolent que t'aimerais voir nos peaux s'éclaircir Assombri, j'ai l'éthique d'un vrai hustler On me surnommera Hayce Lemsi Me désire-t-elle pour ce que je suis ? Me désire-t-elle pour ce que j'ai ? L'Opinel est dans ses bas-résilles Elle se servira de ce que j'aime, de ce que j'aime XVBagdad3</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Juste une bouteille et deux-trois kil', jressors de la ke-schne d'une femme gendarme Main gauche sur le P38, mon blase est légendaire comme Jordan Hmm, sors le bail, j'vais cabrer, hmm fais lap dance, jvais câbler Parait qu'tu cherches après moi, j'parle pas, j'filme pas, j'regarde mes gars te marbrer, hey J'sors le truc du chapeau, joue pas trop les Casa de Papel À jamais dans l'cur des vatos, la fosse est mieux qu'la présidentielle Non, je ne vois plus demain ni combien jmets dans lBalmain hey, hey Tu ne fais rien d'tes dix doigts, tu veux que jte tende la main ? Hey, hey Tout niquer, c'est la raison, hey, Eleven's, c'est la maison, hey Passe dé, j'marque en ciseaux, hey, rap game en perd ses eaux, hey J'rafale tout comme Draco, hey, j'crache fumée comme dragon, hey J'rafale tout comme Draco, hey, j'crache fumée comme dragon, hey Bienvenue au cur de la misère humaine, le remake de La Haine, les ghettos vus du ciel Dans le monde où l'argent fait briller les lucioles, tout l'monde en fait des siennes Encore des corps et des douilles sur le sol, on fait partir d'la selha comme du tournesol et ressortir des sommes à six chiffres, on essaie J't'ai d'jà dis qu'j'enculé l'rap game, wAllah, faites même pas les fous J'rentre dans l'club, j'reprends deux-trois 'teilles, deux-trois diamants sur le cou Rien qu'tu la guettes, tu rêves de la ken, négro, j'suis d'jà sur le coup Mes ambitions sont présidentielles, mon verre de Jack me parle beaucoup J'rafale Jean Reno, Jean Reno, j'vais la chercher à Rio de Janeiro J'ai le gun, j'ai la rose, j'ai l'arôme, j'reviens énervé comme Gennaro, Gennaro J'tire sur les jaloux, les généraux, j'rafale le game à la Jean Reno Jean Reno, Jean Reno, Jean Reno Jean Reno, Jean Reno, Jean Reno You might also like Eh, y a beaucoup d'baltringues si j'peux m'permettre Hé, quand j'nique des mères, c'pas sur Internet Parle Kaabis contre Kaabis et moi, j'ouvre le four, DZ comme Abis Par Toutatis elles partent toutes à dix, on peut s'implanter partout, Tati Trace Hayce Lem' à l'encre de Chine, j'suis un autiste passionné d'chevrotine Chauffe le moteur, quatre roues motrices, une année d'bâtards tah Choupo-Moting Hé, t'entends l'Akrapovic, ça fait perdre trop d'piges de faire des grosses bij Eh, tu verras qu'la corniche impossible qu'j't'emmène à Mexico Beach J'suis Belouizdad, je suis CRB, parle sur moi, j'm'en BLC Je suis partout comme VTC, j'ai bien ché-cra, j'vais t'laisser J'suis Belouizdad, je suis CRB, parle sur moi, j'm'en BLC Je suis partout comme VTC, j'ai bien ché-cra, j'vais t'laisser Bienvenue au cur de la misère humaine, le remake de La Haine, les ghettos vus du ciel Dans le monde où l'argent fait briller les lucioles, tout l'monde en fait des siennes Encore des corps et des douilles sur le sol, on fait partir d'la selha comme du tournesol et ressortir des sommes à six chiffres, on essaie J't'ai d'jà dis qu'j'enculé le rap game, wAllah, faites même pas les fous J'rentre dans l'club, j'reprends deux-trois 'teilles, deux-trois diamants sur le cou Rien qu'tu la guettes, tu rêves de la ken, négro, j'suis d'jà sur le coup Mes ambitions sont présidentielles, mon verre de Jack me parle beaucoup J'rafale Jean Reno, Jean Reno, j'vais la chercher à Rio de Janeiro J'ai le gun, j'ai la rose, j'ai l'arôme, j'reviens énervé comme Gennaro, Gennaro J'tire sur les jaloux, les généraux, j'rafale le game à la Jean Reno Jean Reno, Jean Reno, Jean Reno Jean Reno, Jean Reno, Jean Reno</t>
+          <t>Juste une bouteille et deux-trois kil', jressors de la ke-schne d'une femme gendarme Main gauche sur le P38, mon blase est légendaire comme Jordan Hmm, sors le bail, j'vais cabrer, hmm fais lap dance, jvais câbler Parait qu'tu cherches après moi, j'parle pas, j'filme pas, j'regarde mes gars te marbrer, hey J'sors le truc du chapeau, joue pas trop les Casa de Papel À jamais dans l'cur des vatos, la fosse est mieux qu'la présidentielle Non, je ne vois plus demain ni combien jmets dans lBalmain hey, hey Tu ne fais rien d'tes dix doigts, tu veux que jte tende la main ? Hey, hey Tout niquer, c'est la raison, hey, Eleven's, c'est la maison, hey Passe dé, j'marque en ciseaux, hey, rap game en perd ses eaux, hey J'rafale tout comme Draco, hey, j'crache fumée comme dragon, hey J'rafale tout comme Draco, hey, j'crache fumée comme dragon, hey Bienvenue au cur de la misère humaine, le remake de La Haine, les ghettos vus du ciel Dans le monde où l'argent fait briller les lucioles, tout l'monde en fait des siennes Encore des corps et des douilles sur le sol, on fait partir d'la selha comme du tournesol et ressortir des sommes à six chiffres, on essaie J't'ai d'jà dis qu'j'enculé l'rap game, wAllah, faites même pas les fous J'rentre dans l'club, j'reprends deux-trois 'teilles, deux-trois diamants sur le cou Rien qu'tu la guettes, tu rêves de la ken, négro, j'suis d'jà sur le coup Mes ambitions sont présidentielles, mon verre de Jack me parle beaucoup J'rafale Jean Reno, Jean Reno, j'vais la chercher à Rio de Janeiro J'ai le gun, j'ai la rose, j'ai l'arôme, j'reviens énervé comme Gennaro, Gennaro J'tire sur les jaloux, les généraux, j'rafale le game à la Jean Reno Jean Reno, Jean Reno, Jean Reno Jean Reno, Jean Reno, Jean Reno Eh, y a beaucoup d'baltringues si j'peux m'permettre Hé, quand j'nique des mères, c'pas sur Internet Parle Kaabis contre Kaabis et moi, j'ouvre le four, DZ comme Abis Par Toutatis elles partent toutes à dix, on peut s'implanter partout, Tati Trace Hayce Lem' à l'encre de Chine, j'suis un autiste passionné d'chevrotine Chauffe le moteur, quatre roues motrices, une année d'bâtards tah Choupo-Moting Hé, t'entends l'Akrapovic, ça fait perdre trop d'piges de faire des grosses bij Eh, tu verras qu'la corniche impossible qu'j't'emmène à Mexico Beach J'suis Belouizdad, je suis CRB, parle sur moi, j'm'en BLC Je suis partout comme VTC, j'ai bien ché-cra, j'vais t'laisser J'suis Belouizdad, je suis CRB, parle sur moi, j'm'en BLC Je suis partout comme VTC, j'ai bien ché-cra, j'vais t'laisser Bienvenue au cur de la misère humaine, le remake de La Haine, les ghettos vus du ciel Dans le monde où l'argent fait briller les lucioles, tout l'monde en fait des siennes Encore des corps et des douilles sur le sol, on fait partir d'la selha comme du tournesol et ressortir des sommes à six chiffres, on essaie J't'ai d'jà dis qu'j'enculé le rap game, wAllah, faites même pas les fous J'rentre dans l'club, j'reprends deux-trois 'teilles, deux-trois diamants sur le cou Rien qu'tu la guettes, tu rêves de la ken, négro, j'suis d'jà sur le coup Mes ambitions sont présidentielles, mon verre de Jack me parle beaucoup J'rafale Jean Reno, Jean Reno, j'vais la chercher à Rio de Janeiro J'ai le gun, j'ai la rose, j'ai l'arôme, j'reviens énervé comme Gennaro, Gennaro J'tire sur les jaloux, les généraux, j'rafale le game à la Jean Reno Jean Reno, Jean Reno, Jean Reno Jean Reno, Jean Reno, Jean Reno</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>J'suis pas Français, j'suis Parisien Atchic, atchic, atchic, check, check check B.I.L.E.L., ma bite dans leur mère, hachek Dites à ces bouffons qu'ils ont la forme mais pas l'fond Ils s'réveilleront avec des couilles qu'une fois ma bite dans leur fion Putain elle est hard celle-là les mecs, faudrait p't-être la censurer Mais la street elle kiffe ma rime, pire qu'elle est en sang sur elle Forceps car trop d'fils de putes veulent pas que j'sorte J'm'en bats les couilles d'être hardcore tant qu'j'ai la rue comme sponsor On m'a dit Faut qu'tu perces, gars, c'est trop la hass Les boloss te reconnaissent, faut qu't'arrêtes de vendre la ess' Bilel c'est oim', j'étais pas l'bienvenu au casting À part la dinde, qui aurait cru qu'j'deviendrais leur anneau gastrique ? Ils sont sûrs d'eux qu'après deux Corona Les mêmes qui brûlent un feu et qui s'prennent pour Colonna Rien qu'tu blablates, mais dis-moi à qui parles-tu ? Tu pues tellement la merde que j'crois qu't'es venu au monde par le cul J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien You might also like Négro t'as qu'à pas mettre de douilles si tu veux pas te faire fumer Me fais pas tirer sur ton stick si la fumée est parfumée Le Sept-Cinq c'est plutôt sale, y'a pas d'social, les baffles sont crades Les plaquettes de sang sont grasses, si tu veux c'est 400 balles On a fait les 400 pas, peut-être même les 400 pav' On n'est pas des gars d'en-bas, on est juste des gars qu'en bavent Je sais qu'un jour tu diras qu'j'suis un bâtard Ce même jour où tu réaliseras que je suis imbattable Pour anesthésie on a d'la Vodka et d'la Redbull Plus de monde devant la raie d'tes fesses que devant l'arrêt d'bus Emcee ici c'est Paname, on t'a pas briefé ? Fougères Zoo, fais place aux animaux, on va te griffer Hello motherfucker, check motherfucker Sept-Cinq t'esquinte, yes motherfucker La plupart des MC sont des mouettes dans les bacs ou bien dans les boîtes Mets les watts ou les XXX, t'inquiète ap', j'ai la technique pour les wèt' J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien Paris 9, envie d'défourailler un keuf Si jamais j'rate tes sses-f', dans une touze-par j'aurai ta reuss' Tox' dis leur, flow d'killer, j'crois qu'c'est l'heure Paname c'est comme Sin City, demande à Frank Miller J'suis dans un game de fou, fuck ton crew Foolek à la Wu, j'porte l'aïn à ton marabout J'suis insolent comme 1Solent, dans nos galettes y'a pas d'fève Pour un cinq-six en 2008, c'était la Cité Carter J'porte mon quartier sous mon bravas, ils ont crevé mes gavas T'as sorti l'Glock pour un cavu, ça a fini mal comme une cavale Quand l'OPJ parle, réponds-lui Fuck !, tu vas pas baisser ton froc Quitte à finir devant l'proc', voir ta meuf au parlu en cloque Car un bonhomme s'endort toujours tranquille On fait les bails, on va fumer les bacs sans filtre Ma te-car d'identité, j'la brûlerais pour un cachet J'suis pas Français j'suis Parisien, sois sûr que j'vais jamais l'cacher J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien Gifle la JAP, ça cuisine sans porter de toque Avec ou sans bâton, la roue tourne comme la motherfucking fille du proc' Les car-jack' terminent en démarrage hold-up. Triste époque ! Nos vidas locas foutraient la chair de poule à Manu Le Coq Bico loco, qui vole un 9 milli' tire sur un keuf Wili wili ! m'a dit Yemma J'mets les p'tites coupures dans la Cooper Mini. Paris Nord ! On investit nos euros dans les Q7 Car on ignore la valeur de l'eau tant que le puits n'est pas sec H.A.Y, poche trouées, vésqui l'ARH direct Proches écroués, pirates surdoués du vol à la tirette Blase à l'indélébile, élimine les mégalomanes Voilà le mélomane dans le mélimélo De la maille dans la mine, l'insomniaque te contamine Un mic', de la caféine, un teh de frappe J'te pine sans Maybach, j'te termine sans Penchak Nos familles se connaissent, on sait déjà qui porte ses couilles Besoin d'argent, d'sommeil, de temps, d'la sagesse qu'apporte ses coups J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien Ici c'est Paris fuck le reste Zone à risques, Quartiers Est Ça vient du 20, tu connais l'nom d'la clique Paris c'est magique comme quand t'es coupable et qu'la juge t'acquitte, nigger Ici c'est trop speed, j'ai jamais vu Paris zen Je chanterai votre hymne quand elle s'appellera La Parisienne Nous on danse pas sur la trans' Rien qu'à Paname, y'a assez d'dope pour fournir tout l'Tour de France Les ennemis emportez-les, pendez-les, butez-les N.E. indétrônable, ton équipe remplie de putes elle est Capitale catapultée par l'capital des Qataris Capitule j'suis l'capitaine, grand gabarit 75 coupe l'ecsta', tu fais style, on t'esquinte Tragiques sont nos destins, bienvenue au festin, festin Fais pas l'fou même sous alcool ou joint d'hi' Ou mon poing dans ta face mettra les points sur les I J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien1</t>
+          <t>J'suis pas Français, j'suis Parisien Atchic, atchic, atchic, check, check check B.I.L.E.L., ma bite dans leur mère, hachek Dites à ces bouffons qu'ils ont la forme mais pas l'fond Ils s'réveilleront avec des couilles qu'une fois ma bite dans leur fion Putain elle est hard celle-là les mecs, faudrait p't-être la censurer Mais la street elle kiffe ma rime, pire qu'elle est en sang sur elle Forceps car trop d'fils de putes veulent pas que j'sorte J'm'en bats les couilles d'être hardcore tant qu'j'ai la rue comme sponsor On m'a dit Faut qu'tu perces, gars, c'est trop la hass Les boloss te reconnaissent, faut qu't'arrêtes de vendre la ess' Bilel c'est oim', j'étais pas l'bienvenu au casting À part la dinde, qui aurait cru qu'j'deviendrais leur anneau gastrique ? Ils sont sûrs d'eux qu'après deux Corona Les mêmes qui brûlent un feu et qui s'prennent pour Colonna Rien qu'tu blablates, mais dis-moi à qui parles-tu ? Tu pues tellement la merde que j'crois qu't'es venu au monde par le cul J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien Négro t'as qu'à pas mettre de douilles si tu veux pas te faire fumer Me fais pas tirer sur ton stick si la fumée est parfumée Le Sept-Cinq c'est plutôt sale, y'a pas d'social, les baffles sont crades Les plaquettes de sang sont grasses, si tu veux c'est 400 balles On a fait les 400 pas, peut-être même les 400 pav' On n'est pas des gars d'en-bas, on est juste des gars qu'en bavent Je sais qu'un jour tu diras qu'j'suis un bâtard Ce même jour où tu réaliseras que je suis imbattable Pour anesthésie on a d'la Vodka et d'la Redbull Plus de monde devant la raie d'tes fesses que devant l'arrêt d'bus Emcee ici c'est Paname, on t'a pas briefé ? Fougères Zoo, fais place aux animaux, on va te griffer Hello motherfucker, check motherfucker Sept-Cinq t'esquinte, yes motherfucker La plupart des MC sont des mouettes dans les bacs ou bien dans les boîtes Mets les watts ou les XXX, t'inquiète ap', j'ai la technique pour les wèt' J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien Paris 9, envie d'défourailler un keuf Si jamais j'rate tes sses-f', dans une touze-par j'aurai ta reuss' Tox' dis leur, flow d'killer, j'crois qu'c'est l'heure Paname c'est comme Sin City, demande à Frank Miller J'suis dans un game de fou, fuck ton crew Foolek à la Wu, j'porte l'aïn à ton marabout J'suis insolent comme 1Solent, dans nos galettes y'a pas d'fève Pour un cinq-six en 2008, c'était la Cité Carter J'porte mon quartier sous mon bravas, ils ont crevé mes gavas T'as sorti l'Glock pour un cavu, ça a fini mal comme une cavale Quand l'OPJ parle, réponds-lui Fuck !, tu vas pas baisser ton froc Quitte à finir devant l'proc', voir ta meuf au parlu en cloque Car un bonhomme s'endort toujours tranquille On fait les bails, on va fumer les bacs sans filtre Ma te-car d'identité, j'la brûlerais pour un cachet J'suis pas Français j'suis Parisien, sois sûr que j'vais jamais l'cacher J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien Gifle la JAP, ça cuisine sans porter de toque Avec ou sans bâton, la roue tourne comme la motherfucking fille du proc' Les car-jack' terminent en démarrage hold-up. Triste époque ! Nos vidas locas foutraient la chair de poule à Manu Le Coq Bico loco, qui vole un 9 milli' tire sur un keuf Wili wili ! m'a dit Yemma J'mets les p'tites coupures dans la Cooper Mini. Paris Nord ! On investit nos euros dans les Q7 Car on ignore la valeur de l'eau tant que le puits n'est pas sec H.A.Y, poche trouées, vésqui l'ARH direct Proches écroués, pirates surdoués du vol à la tirette Blase à l'indélébile, élimine les mégalomanes Voilà le mélomane dans le mélimélo De la maille dans la mine, l'insomniaque te contamine Un mic', de la caféine, un teh de frappe J'te pine sans Maybach, j'te termine sans Penchak Nos familles se connaissent, on sait déjà qui porte ses couilles Besoin d'argent, d'sommeil, de temps, d'la sagesse qu'apporte ses coups J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien Ici c'est Paris fuck le reste Zone à risques, Quartiers Est Ça vient du 20, tu connais l'nom d'la clique Paris c'est magique comme quand t'es coupable et qu'la juge t'acquitte, nigger Ici c'est trop speed, j'ai jamais vu Paris zen Je chanterai votre hymne quand elle s'appellera La Parisienne Nous on danse pas sur la trans' Rien qu'à Paname, y'a assez d'dope pour fournir tout l'Tour de France Les ennemis emportez-les, pendez-les, butez-les N.E. indétrônable, ton équipe remplie de putes elle est Capitale catapultée par l'capital des Qataris Capitule j'suis l'capitaine, grand gabarit 75 coupe l'ecsta', tu fais style, on t'esquinte Tragiques sont nos destins, bienvenue au festin, festin Fais pas l'fou même sous alcool ou joint d'hi' Ou mon poing dans ta face mettra les points sur les I J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien J'suis pas Français, j'suis Parisien j'suis pas Français, j'suis Parisien J'suis pas Français, j'suis Parisien Parisien, Parisien1</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ladies and gentlemen Laissez-moi vous présenter un nouveau concept de soirée Le Projet Hayce Une soirée des plus déjantées, où vous êtes tous invités T'as entendu parler d'cette soirée frère ? Oh ça va être trop lourd La vie d'ma mère si j'y vais pas, j'pue la merde Eh poto ! J'vais mettre la chemise Gucci, le jean Gucci, les chaussures Gucci Le slip Léo Poldo, p'tit parfum, p'tite voiture de loc' Ça va péter sa mère ! Volubile orignal aux rimes authentiques Mystérieux comme le fond d'l'Océan Atlantique J'ai siroté 6 mojitos, je refuse de conduire Protégez-vous, y'a qu'un pas du coup d'foudre à l'hépatite Tiens ta petite biko, t'y vois que tchi Au distributeur tu sais même combien tu retires La musique m'attire, cortège à la Poutine 10 pet'Hayce dans la limousine tu vois c'que j'veux dire On a rangé les Parabellum, elles veulent un bel homme Elles peuvent compter sur Hayce La cambrure de ma loka n'est pas dans les normes Son boule est énorme, il t'a figé sur pl'Hayce Perroquet sous cocaïne, girafe dans la piscine C'est le Projet Hayce, space-cake dans la cuisine Une vie de hustler, on se rit, on se pleure On se vit, on se meurt, on tire en l'air au Uzi Toute la night, la vida loca Où sont les lokos ? Où sont les lokas ? Loko, j'en oublie toute ma life, la vida loca Où sont les lokos ? Où sont les lokas ? Bienvenue dans le Projet Hayce, Hayce Bienvenue dans le Projet Hayce, Hayce Bienvenue dans le Projet Hayce Chaîne en or qui brille, chemise ouverte et Breitling J'ai le swag swag, swag Jack Cerise Le jardinier s'est endormi dans le fond du parking Je le snap snap, Snapchat, story XV Barbar me rejoindra dans la partie Les voisins pètent les plombs, la soirée n'a même pas commencé N'ayez pas d'retard, ça n'arrive qu'une fois dans une vie C'est le Projet Hayce, bitch, obligation de danser On a sorti les Panamera, c'est la Macarena Jusqu'a la mañana, profites-en ma loka Le prince de Paname est là, j'suis pas dans les rails Déguste la marijuana J'descends de l'hélicoptère, j'monte dans la limousine Sers un cocktail cette année j'suis dans les magazines Une vie de hustler, on se rit, on se pleure On se vit, on se meurt, on tire en l'air au Uzi Toute la night, la vida loca Où sont les lokos ? Où sont les lokas ? Loko, j'en oublie toute ma life, la vida loca Où sont les lokos ? Où sont les lokas ? Bienvenue dans le Projet Hayce, Hayce Bienvenue dans le Projet Hayce C'est la chanson des Arabes On se croirait dans une chicha On se croirait à Ouarzazate L'ambiance orientale Enfin, j'dis ça, j'suis pas raciste hein, je bois du café arabica Et d'ailleurs Hayce... Pourquoi t'as toujours ce drapeau d'l'Algérie sur toi ? Et pourquoi t'as la coque d'iPhone de l'Algérie Faut arrêter hein, on est en France putain Au secours Jeanne, au secours...You might also like2</t>
+          <t>Ladies and gentlemen Laissez-moi vous présenter un nouveau concept de soirée Le Projet Hayce Une soirée des plus déjantées, où vous êtes tous invités T'as entendu parler d'cette soirée frère ? Oh ça va être trop lourd La vie d'ma mère si j'y vais pas, j'pue la merde Eh poto ! J'vais mettre la chemise Gucci, le jean Gucci, les chaussures Gucci Le slip Léo Poldo, p'tit parfum, p'tite voiture de loc' Ça va péter sa mère ! Volubile orignal aux rimes authentiques Mystérieux comme le fond d'l'Océan Atlantique J'ai siroté 6 mojitos, je refuse de conduire Protégez-vous, y'a qu'un pas du coup d'foudre à l'hépatite Tiens ta petite biko, t'y vois que tchi Au distributeur tu sais même combien tu retires La musique m'attire, cortège à la Poutine 10 pet'Hayce dans la limousine tu vois c'que j'veux dire On a rangé les Parabellum, elles veulent un bel homme Elles peuvent compter sur Hayce La cambrure de ma loka n'est pas dans les normes Son boule est énorme, il t'a figé sur pl'Hayce Perroquet sous cocaïne, girafe dans la piscine C'est le Projet Hayce, space-cake dans la cuisine Une vie de hustler, on se rit, on se pleure On se vit, on se meurt, on tire en l'air au Uzi Toute la night, la vida loca Où sont les lokos ? Où sont les lokas ? Loko, j'en oublie toute ma life, la vida loca Où sont les lokos ? Où sont les lokas ? Bienvenue dans le Projet Hayce, Hayce Bienvenue dans le Projet Hayce, Hayce Bienvenue dans le Projet Hayce Chaîne en or qui brille, chemise ouverte et Breitling J'ai le swag swag, swag Jack Cerise Le jardinier s'est endormi dans le fond du parking Je le snap snap, Snapchat, story XV Barbar me rejoindra dans la partie Les voisins pètent les plombs, la soirée n'a même pas commencé N'ayez pas d'retard, ça n'arrive qu'une fois dans une vie C'est le Projet Hayce, bitch, obligation de danser On a sorti les Panamera, c'est la Macarena Jusqu'a la mañana, profites-en ma loka Le prince de Paname est là, j'suis pas dans les rails Déguste la marijuana J'descends de l'hélicoptère, j'monte dans la limousine Sers un cocktail cette année j'suis dans les magazines Une vie de hustler, on se rit, on se pleure On se vit, on se meurt, on tire en l'air au Uzi Toute la night, la vida loca Où sont les lokos ? Où sont les lokas ? Loko, j'en oublie toute ma life, la vida loca Où sont les lokos ? Où sont les lokas ? Bienvenue dans le Projet Hayce, Hayce Bienvenue dans le Projet Hayce C'est la chanson des Arabes On se croirait dans une chicha On se croirait à Ouarzazate L'ambiance orientale Enfin, j'dis ça, j'suis pas raciste hein, je bois du café arabica Et d'ailleurs Hayce... Pourquoi t'as toujours ce drapeau d'l'Algérie sur toi ? Et pourquoi t'as la coque d'iPhone de l'Algérie Faut arrêter hein, on est en France putain Au secours Jeanne, au secours...2</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Kran Max Je fais du sale, Volts Face, Hayce Lem Vingt moins trois À midi, j'monte sur le rrain-té J'roule direct un solitaire Pour qu'on arrête de se tirer dessus faut plus qu'un concert Solidays Mon pote en HP m'reconnait plus sous l'effet des somnifères T'es comme un rat, tu penses aux arrivants dans le fond de la souricière On rêve d'une meuf qui a jamais sucé pour allaiter le nouveau-né Mais on claque tout le bénef dans le Novotel On se retrouve donc avec une pute qui veut se refaire un nouveau nez et qui prendra ton banquier pour le Père Noël Alors ferme la, ne me demande pas d'où vient la Coke porte ! On est passé par la grande porte À des années lumières de ce que peuvent colporter ces cloportes Si tu portes lil chez nous, tu rentres borgne J'porte un toast à mes amours et mes ennemis Toi tu disparais pour un demi, tu fais le you-voi Au pire des tre-trai il arrive la pire des sères-mi Quand faut en découdre tu cours, tu fais la kurwa On est prêt pour la guerre Celui qui veut la faire va devoir descendre mes partenaires La guerre, la guerre Tout le monde te tend la main quand t'es debout Y'a plus personne quand t'es par terre A terre, a terre Oui c'est ma vie, j'traîne seul tard dans la nuit Oui c'est ma vie, j'traîne seul tard dans la nuit You might also like Destin sous scellé tristesse interminable J'ai vendu la dope dans l'anonymat Z1000, casqué j'arrive sans permis A Le fusil à pompe sous l'imperméable Mon écriture frôle la mélancolie C'est pour mes cranes rasés comme Feghouli Plus d'une fois menotté par les flics au lit Les petits du quartier préparent les colis J'me roule un pilon puis j'retire le collant Des fois j'me dit faut que j'les abattes Des fois j'me dit faut que j'étudie le Coran J'y pense en attendant mes clients dans un bat' J'ai fait grimper mon taux d'alcoolémie Et cette bitch dans un gam' Gam' Au fond du carré VIP, ils cotisent à 7 pour une 'teille sur la table On est prêt pour la guerre Celui qui veut la faire va devoir descendre mes partenaires La guerre, la guerre Tout le monde te tend la main quand t'es debout Y'a plus personne quand t'es par terre A terre, a terre Oui c'est ma vie, j'traîne seul tard dans la nuit Oui c'est ma vie, j'traîne seul tard dans la nuit Tu m'as demandé du rap, j'vais te montrer comment faire Ma carrière un fusil, la tienne un lance-pierre Je découpe ton rappeur devant la France entière Après-demain tu seras là où j'étais avant-hier Dîtes aux ennemis qui veulent viser mon torse Que la miff' et moi on n'a pas peur Tu pourras jamais tirer sur mon gosse, vu qu'il sort de la chatte à ta sur On va te repasser si tu sors le fer On va te repasser si tu sors le fer En guerre contre les fans comme la Palestine C'est peut-être pour ça que j'ai un cur en pierre J'aimerais savoir pourquoi tu parles de moi J'aimerais savoir pourquoi tu parles de moi J't'encule sur la prod' même si t'enlèves le beat Tinquiètes pour t'enculer il me reste encore le doigt On est prêt pour la guerre Celui qui veut la faire va devoir descendre mes partenaires La guerre, la guerre Tout le monde te tend la main quand t'es debout Y'a plus personne quand t'es par terre A terre, a terre Oui c'est ma vie, j'traîne seul tard dans la nuit Oui c'est ma vie, j'traîne seul tard dans la nuit On est prêt pour la guerre Celui qui veut la faire va devoir descendre mes partenaires Tout le monde te tend la main quand t'es debout Y'a plus personne quand t'es par terre Oui c'est ma vie, j'traîne seul tard dans la nuit Oui c'est ma vie, j'traîne seul tard dans la nuit1</t>
+          <t>Kran Max Je fais du sale, Volts Face, Hayce Lem Vingt moins trois À midi, j'monte sur le rrain-té J'roule direct un solitaire Pour qu'on arrête de se tirer dessus faut plus qu'un concert Solidays Mon pote en HP m'reconnait plus sous l'effet des somnifères T'es comme un rat, tu penses aux arrivants dans le fond de la souricière On rêve d'une meuf qui a jamais sucé pour allaiter le nouveau-né Mais on claque tout le bénef dans le Novotel On se retrouve donc avec une pute qui veut se refaire un nouveau nez et qui prendra ton banquier pour le Père Noël Alors ferme la, ne me demande pas d'où vient la Coke porte ! On est passé par la grande porte À des années lumières de ce que peuvent colporter ces cloportes Si tu portes lil chez nous, tu rentres borgne J'porte un toast à mes amours et mes ennemis Toi tu disparais pour un demi, tu fais le you-voi Au pire des tre-trai il arrive la pire des sères-mi Quand faut en découdre tu cours, tu fais la kurwa On est prêt pour la guerre Celui qui veut la faire va devoir descendre mes partenaires La guerre, la guerre Tout le monde te tend la main quand t'es debout Y'a plus personne quand t'es par terre A terre, a terre Oui c'est ma vie, j'traîne seul tard dans la nuit Oui c'est ma vie, j'traîne seul tard dans la nuit Destin sous scellé tristesse interminable J'ai vendu la dope dans l'anonymat Z1000, casqué j'arrive sans permis A Le fusil à pompe sous l'imperméable Mon écriture frôle la mélancolie C'est pour mes cranes rasés comme Feghouli Plus d'une fois menotté par les flics au lit Les petits du quartier préparent les colis J'me roule un pilon puis j'retire le collant Des fois j'me dit faut que j'les abattes Des fois j'me dit faut que j'étudie le Coran J'y pense en attendant mes clients dans un bat' J'ai fait grimper mon taux d'alcoolémie Et cette bitch dans un gam' Gam' Au fond du carré VIP, ils cotisent à 7 pour une 'teille sur la table On est prêt pour la guerre Celui qui veut la faire va devoir descendre mes partenaires La guerre, la guerre Tout le monde te tend la main quand t'es debout Y'a plus personne quand t'es par terre A terre, a terre Oui c'est ma vie, j'traîne seul tard dans la nuit Oui c'est ma vie, j'traîne seul tard dans la nuit Tu m'as demandé du rap, j'vais te montrer comment faire Ma carrière un fusil, la tienne un lance-pierre Je découpe ton rappeur devant la France entière Après-demain tu seras là où j'étais avant-hier Dîtes aux ennemis qui veulent viser mon torse Que la miff' et moi on n'a pas peur Tu pourras jamais tirer sur mon gosse, vu qu'il sort de la chatte à ta sur On va te repasser si tu sors le fer On va te repasser si tu sors le fer En guerre contre les fans comme la Palestine C'est peut-être pour ça que j'ai un cur en pierre J'aimerais savoir pourquoi tu parles de moi J'aimerais savoir pourquoi tu parles de moi J't'encule sur la prod' même si t'enlèves le beat Tinquiètes pour t'enculer il me reste encore le doigt On est prêt pour la guerre Celui qui veut la faire va devoir descendre mes partenaires La guerre, la guerre Tout le monde te tend la main quand t'es debout Y'a plus personne quand t'es par terre A terre, a terre Oui c'est ma vie, j'traîne seul tard dans la nuit Oui c'est ma vie, j'traîne seul tard dans la nuit On est prêt pour la guerre Celui qui veut la faire va devoir descendre mes partenaires Tout le monde te tend la main quand t'es debout Y'a plus personne quand t'es par terre Oui c'est ma vie, j'traîne seul tard dans la nuit Oui c'est ma vie, j'traîne seul tard dans la nuit1</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Young Bikow, Young Bikow Young Bikow, Young Bikow Young Bikow, Young Bikow Volts Face, Hayce Lemsi ! C'est les frères lumières, bitch ! J'suis de retour, j'suis Trafalgar Wesh reubeu pourquoi tu cours ? Tu te demandes pourquoi je vis la nuit, parce que je vais mourir un jour J'ai fait des trucs de malade, ouais je suis Trafalgar, je suis Paname 75 Et j'aime toujours pas ma go, j'la galoche que quand je suis malade Ok dans la bouche un Beretta , j'suis souvent dans ma bulle comme Végéta Et puis t'as beau sortir de la che-dou, ça empêchera pas les keufs de te ver-la J'me lèverai jamais pour aller fer-ta, viens pas nous raconter c'que tu n'es pas On joue au tennis avec ton flow, fils de ramènes toi au studio on te kenra Le monde est loco cocaïne, l'odeur des marchés mondiales On transforme les show cases en agence matrimoniale Addict à l'Amnesia Hayze, rentabilité cellophane Tu rappes un film de Scorsese, essaye d'encaisser mon jab Envoie la pouki qu'on la baise, chard-Clo au détail Tu te méprends puto le diable n'a guère pris mon âme J'finirais pas ma vie comme tous ces vieux chards-clo du Rap J'investi partout sur le globe j'suis l'Arabe archi durable J'ai le même costard que Tony, cigare nouvelle Calédonie, j'vais t'écraser comme une punaise et tous vous allumer okay tchinef, tchinef Tu n'as jamais poussé d'tron-li, j'ai ma Pét'hayce et mon brolick, j'compte les 500 dans le motel J'vais leur faire un cratère, 40 mesures par café latté, j'ai fini la cafetière L'insomnie m'a hanté, jeune intrépide effronté, chargé d'passer les frontières Des pet'hayce et des boloss dans le répertoire du phone-tel, fout la merde avec le re-fré dans ta party, yeah oh! Ces bikows jouent les colosses, on leur fera voir du pays, jeunesse dans la jungle en treillis, tu m'as trahi ! Yeah oh! Nos vies tenaient sur un fil, on a fait sauter ta voiture, en filature, y'a les lardus qui sont sur Paris, yeah oh ! Demande aux frères lumières, on avait pas de dinero, bats les couilles d'ton département, t'es sur Paris, yeah oh ! You might also like Appelez tous mes ennemis, dites leurs que j'reviens J'en ai rien a foutre de savoir où j'vais crever Soit pas choqué si tu vois toutes les bécanes se lever Haineux, j'ken ta meuf après j'me sers un rre-ve C'est moi qui tient les manettes, j'vois la vie en 2D J't'envoie direct mon équipe, j'veux pas salir ma re-pai Dans ce game de merde y'a personne qui va m'stopper Le 25 mai, j'arrive, c'est la date de mon EP Mc tu m'fais pitié ta carrière est un rond point Tu parles mais t'as pété ton flow sur Le Bon Coin J'incite pas les petits frères a tirer sur leurs joints J'te souhaite que du bien si jamais tu m'rejoins Et puis j'ai peur de sonne-per à part de lÉternel Les oreilles bien ouvertes à chaque fois qu'on ferme lil On fait du biff en concert et puis sur internet On prépare nos show cases, tu prépare ton cercueil J'suis d'retour j'suis Trafalgar Tu t'demandes pourquoi j'vis la nuit parce que j'vais mourir un jour J'ai fait des trucs de malade Et j'aime toujours pas ma go, j'la galoche que quand j'suis malade !2</t>
+          <t>Young Bikow, Young Bikow Young Bikow, Young Bikow Young Bikow, Young Bikow Volts Face, Hayce Lemsi ! C'est les frères lumières, bitch ! J'suis de retour, j'suis Trafalgar Wesh reubeu pourquoi tu cours ? Tu te demandes pourquoi je vis la nuit, parce que je vais mourir un jour J'ai fait des trucs de malade, ouais je suis Trafalgar, je suis Paname 75 Et j'aime toujours pas ma go, j'la galoche que quand je suis malade Ok dans la bouche un Beretta , j'suis souvent dans ma bulle comme Végéta Et puis t'as beau sortir de la che-dou, ça empêchera pas les keufs de te ver-la J'me lèverai jamais pour aller fer-ta, viens pas nous raconter c'que tu n'es pas On joue au tennis avec ton flow, fils de ramènes toi au studio on te kenra Le monde est loco cocaïne, l'odeur des marchés mondiales On transforme les show cases en agence matrimoniale Addict à l'Amnesia Hayze, rentabilité cellophane Tu rappes un film de Scorsese, essaye d'encaisser mon jab Envoie la pouki qu'on la baise, chard-Clo au détail Tu te méprends puto le diable n'a guère pris mon âme J'finirais pas ma vie comme tous ces vieux chards-clo du Rap J'investi partout sur le globe j'suis l'Arabe archi durable J'ai le même costard que Tony, cigare nouvelle Calédonie, j'vais t'écraser comme une punaise et tous vous allumer okay tchinef, tchinef Tu n'as jamais poussé d'tron-li, j'ai ma Pét'hayce et mon brolick, j'compte les 500 dans le motel J'vais leur faire un cratère, 40 mesures par café latté, j'ai fini la cafetière L'insomnie m'a hanté, jeune intrépide effronté, chargé d'passer les frontières Des pet'hayce et des boloss dans le répertoire du phone-tel, fout la merde avec le re-fré dans ta party, yeah oh! Ces bikows jouent les colosses, on leur fera voir du pays, jeunesse dans la jungle en treillis, tu m'as trahi ! Yeah oh! Nos vies tenaient sur un fil, on a fait sauter ta voiture, en filature, y'a les lardus qui sont sur Paris, yeah oh ! Demande aux frères lumières, on avait pas de dinero, bats les couilles d'ton département, t'es sur Paris, yeah oh ! Appelez tous mes ennemis, dites leurs que j'reviens J'en ai rien a foutre de savoir où j'vais crever Soit pas choqué si tu vois toutes les bécanes se lever Haineux, j'ken ta meuf après j'me sers un rre-ve C'est moi qui tient les manettes, j'vois la vie en 2D J't'envoie direct mon équipe, j'veux pas salir ma re-pai Dans ce game de merde y'a personne qui va m'stopper Le 25 mai, j'arrive, c'est la date de mon EP Mc tu m'fais pitié ta carrière est un rond point Tu parles mais t'as pété ton flow sur Le Bon Coin J'incite pas les petits frères a tirer sur leurs joints J'te souhaite que du bien si jamais tu m'rejoins Et puis j'ai peur de sonne-per à part de lÉternel Les oreilles bien ouvertes à chaque fois qu'on ferme lil On fait du biff en concert et puis sur internet On prépare nos show cases, tu prépare ton cercueil J'suis d'retour j'suis Trafalgar Tu t'demandes pourquoi j'vis la nuit parce que j'vais mourir un jour J'ai fait des trucs de malade Et j'aime toujours pas ma go, j'la galoche que quand j'suis malade !2</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>La maitresse m'a demandé Tu feras quoi plus tard ? J'ai répondu Rockstar sans aucune hésitation J'ai rempi des buvards, sur le boulevard Je rêvais de millions d'dollars et d'émancipation Je regarde la rame fuir ma life J'tiens les murs de la cité comme les murs du son Casque Araï sur cheval de fer, commotion cérébrale, hospitalisation J'en ai vu partir plus d'un, mais c'est Dieu qui prend C'est eux qui font des menaces, mais c'est eux qui tremblent Vous cherchez quoi bande de fils de pute ? Faut qu'j'rafale pour qu'on m'laisse quille-tran Vous êtes démodés comme Von Dutch, y'aura pas d'buzz Ne joue pas les pères du peu-ra, t'es qu'une mère porteuse Parigo, j'ai pas l'temps, j'suis toujours dans l'deus J'passe à la caisse et la vendeuse fait la bandeuse Loup solitaire dans une belle tanière Tu critiques mon train d'vie, t'es sur des portes palières Rapper vite ça veut pas dire rapper bien J'rappe bien, j'rappe vite et j'te nique ta mère, ah ouais Les putes c'est comme les piques c'est difficile de s'en débarrasser quand ça s'accroche Elles se fichent de ce que j'ai dans la tête Elles ne voient que les illets-bi s'entasser dans ma sacoche 6'o clock insomnie névrotique, accolade érotique Yeah hoe, bitch, elle me chauffe jusqu'aux emojis Igo c'est ma p'tite J'vous porte l'oeil le plus puissant de tous les temps Je n'ai pas d'enfant, je n'ai même pas d'femme Pour faire la guerre j'ai tout mon temps Pour ton équipe de bikos décervelés c'est la loose Douce mélodie, bain d'hémoglobine dans la goose Le 12 le couz m'a dit Tu niques des mères, on te trouve époustouflant Tu peux les kicker tous, t'as le juice, la fougue t'épouse, hey T'as niqué ta rentabilité, t'es mal habilité, mon coco Tous tes potos t'ont niqué, pas la peine de polémiquer J'kick fier pour les niquer voilà mon communiqué Ma binouze, mon goose, mon hood, hey Dans c'rap j'commence à m'ennuy'hey J'protège money et famille hey Dire que j'voulais la mari'hey J'ai changé d'avis quand je l'ai vue démaqui'hey Pourquoi tu regardes mes snaps si t'es jealous Tu m'critiques mais t'apprends mes lyrics par coeur sur Rap Genius You might also like J'cours très vite Maurice Green J'fume pas d'Philippe Morris green Ils me critiquent ah miskine Juste parce que sa petite-amie m'screen Ils crient qu'j'ai l'salaire d'Aristide Alors qu'j'touche une vente par 1000 streams Tu t'fais har' par les districts Dans l'industrie, y'a pas d'armistice On les nargue en petit sprint Demande à mon gars 10strict Leurs missiles sont balistiques Bitch, t'as besoin d'un mari strict J'sors une liasse de violets neufs Ta pine est grosse, j'te parie c'titre J'serai né 10 ans plus tôt, j'aurais ken Deneuve et Paris Hilt' Elles s'disent Il est taré c'type ! Charismatique par estime J'veux qu'elle fixe les bas résilles Qu'son boule me rende épileptique Je te chasse comme un reptile T'es pressée d'te dévêtir Encore toute dure quand j'me retire T'as peut-être marqué ma rétine Quinte flush royal sur la blunt Royal shit, OG master kush Couscous, pas de flammenküche Coup d'plafond, genou, Superman punch J'suis dans la planque, je fume un blunt J'me tape comme le père à Trunks J'préfère voter pour un punk que d'voter pour Donald Trump Tu joues d'la trompette, nique ta grams' Si tu suces des bites pour quelques grammes Am stram gram, Amsterdam J'te laisse liker par Instagram Electron libre volume dos va rafaler tes pistoleros, ah Kalimera je ressors d'ma coquille, Calimero Yeah oe, yeah oe, yeah oe, Yeah oe Tu veux rapper toi ? Tu veux prendre le mic ? Ahah Yeah, un nouveau jour se lève Sur le rap game, en direct de Générations, yeah Les gratteurs Du balai, balai, balai, bala, balais, balai, balai, balai Tu veux l'buzz ? Nini, nini, nini, nini, nini, nini, nini Combien d'litrons t'as poussés pour financer ton album ? Combien de nuits t'as rêvé d'signer dans une maison d'disque La moitié des gens du milieu d'la musique sont des marioles Non qualifiés, n'ont du talent qu'pour monter des combines J'sais de quoi j'parle, j'en ai vu passer fiston Ces bikows se font fistfuck dès le premier contrat La street et la musique, un éternel contraste Toute est une histoire de couleur, de blazes et de pistons Tu fais des clips à 20 000 euros mais t'es très faible Je ne vois pas comment le buzz pourrait prendre forme Ton poto commence à changer, fait des trucs de traîtres Dis-lui bien qu'il aille niquer sa reumé la grande folle La street je la connais tellement qu'je l'interprète Chaque jour que Dieu fait, mes cicatrices me ronge le corps Je veux pas d'ta mallette, je souffre d'un mal-être Qui a déjà eu raison de moi que la raison ignore Paris Nord, lap dance Elle est bonne, j'la baise Paris Nord, lap dance Elle est bonne, j'la baise J'vais sûrement rentrer chez moi sans espèce Nique sa mère, j'aurais taffé mes lombaires et mes trapèzes J'crois qu'ma putain d'heure est arrivée Mon flow lézarde les murs, brise le plexigl'Hayce Hayce Lem' Team everyday, everyday J'dédic'Hayce dédic'Hayce J'te la mets dans la poundé Trop d'énergie, j'suis tombé dans une marmite de poundu J'suis pas dans la poule B Je la baise très fort, je me retire tout doux J'suis auteur, interprète et éditeur T'es gros suceur, gros gratteur, profiteur Va écrire au lieu d'aller acheter des enjoliveur D'enjoliver ton profil Twitter T'as le gamos, les chaînes en or Tu nous montre ton argent dans les clips, c'est triste T'as des rimes en toc Tu forces pour un feat mais tout le monde s'en fout d'ta vieille vie mon pote C'est une grosse pute Même si tu lui paies la dernière des Lamborghini elle dit pas merci J'vais niquer tout c'que t'aimes, faire de ta vie un cauchemar Ne jamais tenter de détourner la go de Lemsi Je les découpe quand ça rappe, j'ai les manies d'un prince arabe J'fais le tour de Paname en un éclair comme le Prince Noir J'ai du débit quand ça rame, à l'indélébile sur la rame J'te rentre dedans même si t'as l'gabarit d'Brock Lesnar Stresse pas trop ma clique, guette pas trop ma p'tite soeur Car ça pourrait terminer en stress post-traumatique J't'allume à l'automatique Evite de m'écouter au volant si t'aimes trop ma 'zique Fais-le pour moi, zine J'mène le même combat que Borsalino Gasolina flow, je vais tout exploser La vie c'est un combat d'boxe Mon bico dès la naissance on t'emmène à la pesée Est-ce que les Hommes naissent libres et égaux en droits ? L'intolérance nourrit l'esprit de mille et un fachos Marianne n'a pas le burkini facile Un arrêté municipal et c'est l'Burkina Faso T'façon y'en a tellement qui rêvent que j'me casse les dents Ma vie se rentabilise quand tu regardes passer l'temps J'n'en ai guère pour vos enfantillages et vos sottises Bico blacko blanco je change pas d'slogan Hier n'existe plus Demain ne viendra peut-être jamais J'vais leur tomber dessus comme l'orage Bico j'dégage une rage amère Algérien du barrio, j'suis né le majeur en l'air Je n'avais rien, amigo, mais j'ai dû prendre la mer Dis-leur que c'est no pain, no gain J'vais t'apprendre à respecter la kalash Rafaler le rap game, rap game Ces bicos sont devenus des putes du Dallas Dis-leur que c'est no pain, no gain J'vais t'apprendre à respecter la kalash Rafaler le rap game, rap game Les jaloux vont friser l'anorexie J'suis cultivé comme si j'avais fait des années d'médecine J'vais vous apprendre à respecter Maître Lemsi Fais pas l'rappeur, t'écris jamais Tu penses qu'à ton textile, sale pute J'suis pas d'ces rappeurs qui s'cachent dans leurs studios J'suis dans toute la France et j'enchaîne les selfies Mon voisin qui m'a snobbé toute sa life Entend ma voix hanter la chambre de ses filles Même père de famille j'serai un bad boy Pas un pochtron qui tabasse sa femme sous alcool Rebeu tu m'envoies des pics, tu devrais t'acheter des couilles J'vais te tomber d'ssus comme la foudre avant d'te finir au sol Niquer des mamans dans le rap game j'suis bon qu'à ça J'ai pas la même vision de la vie, pas le même pinceau J'suis un vrai parisien déter comme mon pote Inso J'aurai mon couronnement royal à la Bokassa Personne ne veut construire un hôtel rue de la Paix Vous êtes bons qu'à monter des bordels à rue de la Pompe Arrêter de tromper ta loca si t'as peur de la perdre Tu finiras chez ta mère à chialer dans ses jupons J'suis un mec à part, j'fais bande à part T'arrêteras d'me boycotte avec une balle dans l'corps On te raye d'la carte Et j'me d'mande encore si j'suis vraiment un gros bâtard ou un mec en or Big Lemsi yeah hoe Hier n'existe plus Demain ne viendra peut-être jamais J'vais leur tomber dessus comme l'orage Bico j'dégage une rage amère Algérien du barrio, j'suis né le majeur en l'air Je n'avais rien, amigo, mais j'ai dû prendre la mer Dis-leur que c'est no pain, no gain J'vais t'apprendre à respecter la kalash Rafaler le rap game, rap game Ces bicos sont devenus des putes du Dallas Dis-leur que c'est no pain, no gain J'vais t'apprendre à respecter la kalash Rafaler le rap game, rap game2</t>
+          <t>La maitresse m'a demandé Tu feras quoi plus tard ? J'ai répondu Rockstar sans aucune hésitation J'ai rempi des buvards, sur le boulevard Je rêvais de millions d'dollars et d'émancipation Je regarde la rame fuir ma life J'tiens les murs de la cité comme les murs du son Casque Araï sur cheval de fer, commotion cérébrale, hospitalisation J'en ai vu partir plus d'un, mais c'est Dieu qui prend C'est eux qui font des menaces, mais c'est eux qui tremblent Vous cherchez quoi bande de fils de pute ? Faut qu'j'rafale pour qu'on m'laisse quille-tran Vous êtes démodés comme Von Dutch, y'aura pas d'buzz Ne joue pas les pères du peu-ra, t'es qu'une mère porteuse Parigo, j'ai pas l'temps, j'suis toujours dans l'deus J'passe à la caisse et la vendeuse fait la bandeuse Loup solitaire dans une belle tanière Tu critiques mon train d'vie, t'es sur des portes palières Rapper vite ça veut pas dire rapper bien J'rappe bien, j'rappe vite et j'te nique ta mère, ah ouais Les putes c'est comme les piques c'est difficile de s'en débarrasser quand ça s'accroche Elles se fichent de ce que j'ai dans la tête Elles ne voient que les illets-bi s'entasser dans ma sacoche 6'o clock insomnie névrotique, accolade érotique Yeah hoe, bitch, elle me chauffe jusqu'aux emojis Igo c'est ma p'tite J'vous porte l'oeil le plus puissant de tous les temps Je n'ai pas d'enfant, je n'ai même pas d'femme Pour faire la guerre j'ai tout mon temps Pour ton équipe de bikos décervelés c'est la loose Douce mélodie, bain d'hémoglobine dans la goose Le 12 le couz m'a dit Tu niques des mères, on te trouve époustouflant Tu peux les kicker tous, t'as le juice, la fougue t'épouse, hey T'as niqué ta rentabilité, t'es mal habilité, mon coco Tous tes potos t'ont niqué, pas la peine de polémiquer J'kick fier pour les niquer voilà mon communiqué Ma binouze, mon goose, mon hood, hey Dans c'rap j'commence à m'ennuy'hey J'protège money et famille hey Dire que j'voulais la mari'hey J'ai changé d'avis quand je l'ai vue démaqui'hey Pourquoi tu regardes mes snaps si t'es jealous Tu m'critiques mais t'apprends mes lyrics par coeur sur Rap Genius J'cours très vite Maurice Green J'fume pas d'Philippe Morris green Ils me critiquent ah miskine Juste parce que sa petite-amie m'screen Ils crient qu'j'ai l'salaire d'Aristide Alors qu'j'touche une vente par 1000 streams Tu t'fais har' par les districts Dans l'industrie, y'a pas d'armistice On les nargue en petit sprint Demande à mon gars 10strict Leurs missiles sont balistiques Bitch, t'as besoin d'un mari strict J'sors une liasse de violets neufs Ta pine est grosse, j'te parie c'titre J'serai né 10 ans plus tôt, j'aurais ken Deneuve et Paris Hilt' Elles s'disent Il est taré c'type ! Charismatique par estime J'veux qu'elle fixe les bas résilles Qu'son boule me rende épileptique Je te chasse comme un reptile T'es pressée d'te dévêtir Encore toute dure quand j'me retire T'as peut-être marqué ma rétine Quinte flush royal sur la blunt Royal shit, OG master kush Couscous, pas de flammenküche Coup d'plafond, genou, Superman punch J'suis dans la planque, je fume un blunt J'me tape comme le père à Trunks J'préfère voter pour un punk que d'voter pour Donald Trump Tu joues d'la trompette, nique ta grams' Si tu suces des bites pour quelques grammes Am stram gram, Amsterdam J'te laisse liker par Instagram Electron libre volume dos va rafaler tes pistoleros, ah Kalimera je ressors d'ma coquille, Calimero Yeah oe, yeah oe, yeah oe, Yeah oe Tu veux rapper toi ? Tu veux prendre le mic ? Ahah Yeah, un nouveau jour se lève Sur le rap game, en direct de Générations, yeah Les gratteurs Du balai, balai, balai, bala, balais, balai, balai, balai Tu veux l'buzz ? Nini, nini, nini, nini, nini, nini, nini Combien d'litrons t'as poussés pour financer ton album ? Combien de nuits t'as rêvé d'signer dans une maison d'disque La moitié des gens du milieu d'la musique sont des marioles Non qualifiés, n'ont du talent qu'pour monter des combines J'sais de quoi j'parle, j'en ai vu passer fiston Ces bikows se font fistfuck dès le premier contrat La street et la musique, un éternel contraste Toute est une histoire de couleur, de blazes et de pistons Tu fais des clips à 20 000 euros mais t'es très faible Je ne vois pas comment le buzz pourrait prendre forme Ton poto commence à changer, fait des trucs de traîtres Dis-lui bien qu'il aille niquer sa reumé la grande folle La street je la connais tellement qu'je l'interprète Chaque jour que Dieu fait, mes cicatrices me ronge le corps Je veux pas d'ta mallette, je souffre d'un mal-être Qui a déjà eu raison de moi que la raison ignore Paris Nord, lap dance Elle est bonne, j'la baise Paris Nord, lap dance Elle est bonne, j'la baise J'vais sûrement rentrer chez moi sans espèce Nique sa mère, j'aurais taffé mes lombaires et mes trapèzes J'crois qu'ma putain d'heure est arrivée Mon flow lézarde les murs, brise le plexigl'Hayce Hayce Lem' Team everyday, everyday J'dédic'Hayce dédic'Hayce J'te la mets dans la poundé Trop d'énergie, j'suis tombé dans une marmite de poundu J'suis pas dans la poule B Je la baise très fort, je me retire tout doux J'suis auteur, interprète et éditeur T'es gros suceur, gros gratteur, profiteur Va écrire au lieu d'aller acheter des enjoliveur D'enjoliver ton profil Twitter T'as le gamos, les chaînes en or Tu nous montre ton argent dans les clips, c'est triste T'as des rimes en toc Tu forces pour un feat mais tout le monde s'en fout d'ta vieille vie mon pote C'est une grosse pute Même si tu lui paies la dernière des Lamborghini elle dit pas merci J'vais niquer tout c'que t'aimes, faire de ta vie un cauchemar Ne jamais tenter de détourner la go de Lemsi Je les découpe quand ça rappe, j'ai les manies d'un prince arabe J'fais le tour de Paname en un éclair comme le Prince Noir J'ai du débit quand ça rame, à l'indélébile sur la rame J'te rentre dedans même si t'as l'gabarit d'Brock Lesnar Stresse pas trop ma clique, guette pas trop ma p'tite soeur Car ça pourrait terminer en stress post-traumatique J't'allume à l'automatique Evite de m'écouter au volant si t'aimes trop ma 'zique Fais-le pour moi, zine J'mène le même combat que Borsalino Gasolina flow, je vais tout exploser La vie c'est un combat d'boxe Mon bico dès la naissance on t'emmène à la pesée Est-ce que les Hommes naissent libres et égaux en droits ? L'intolérance nourrit l'esprit de mille et un fachos Marianne n'a pas le burkini facile Un arrêté municipal et c'est l'Burkina Faso T'façon y'en a tellement qui rêvent que j'me casse les dents Ma vie se rentabilise quand tu regardes passer l'temps J'n'en ai guère pour vos enfantillages et vos sottises Bico blacko blanco je change pas d'slogan Hier n'existe plus Demain ne viendra peut-être jamais J'vais leur tomber dessus comme l'orage Bico j'dégage une rage amère Algérien du barrio, j'suis né le majeur en l'air Je n'avais rien, amigo, mais j'ai dû prendre la mer Dis-leur que c'est no pain, no gain J'vais t'apprendre à respecter la kalash Rafaler le rap game, rap game Ces bicos sont devenus des putes du Dallas Dis-leur que c'est no pain, no gain J'vais t'apprendre à respecter la kalash Rafaler le rap game, rap game Les jaloux vont friser l'anorexie J'suis cultivé comme si j'avais fait des années d'médecine J'vais vous apprendre à respecter Maître Lemsi Fais pas l'rappeur, t'écris jamais Tu penses qu'à ton textile, sale pute J'suis pas d'ces rappeurs qui s'cachent dans leurs studios J'suis dans toute la France et j'enchaîne les selfies Mon voisin qui m'a snobbé toute sa life Entend ma voix hanter la chambre de ses filles Même père de famille j'serai un bad boy Pas un pochtron qui tabasse sa femme sous alcool Rebeu tu m'envoies des pics, tu devrais t'acheter des couilles J'vais te tomber d'ssus comme la foudre avant d'te finir au sol Niquer des mamans dans le rap game j'suis bon qu'à ça J'ai pas la même vision de la vie, pas le même pinceau J'suis un vrai parisien déter comme mon pote Inso J'aurai mon couronnement royal à la Bokassa Personne ne veut construire un hôtel rue de la Paix Vous êtes bons qu'à monter des bordels à rue de la Pompe Arrêter de tromper ta loca si t'as peur de la perdre Tu finiras chez ta mère à chialer dans ses jupons J'suis un mec à part, j'fais bande à part T'arrêteras d'me boycotte avec une balle dans l'corps On te raye d'la carte Et j'me d'mande encore si j'suis vraiment un gros bâtard ou un mec en or Big Lemsi yeah hoe Hier n'existe plus Demain ne viendra peut-être jamais J'vais leur tomber dessus comme l'orage Bico j'dégage une rage amère Algérien du barrio, j'suis né le majeur en l'air Je n'avais rien, amigo, mais j'ai dû prendre la mer Dis-leur que c'est no pain, no gain J'vais t'apprendre à respecter la kalash Rafaler le rap game, rap game Ces bicos sont devenus des putes du Dallas Dis-leur que c'est no pain, no gain J'vais t'apprendre à respecter la kalash Rafaler le rap game, rap game2</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Jenvoie guetter Kader et Mamadou J'vais bronzer sur les plages de Marbella J'suis trop bourbier, mappelle pas mon amour Mappelle pas bébé, chou tu vois pas que je porte un tarpé wesh La rue, la prison, j'en ai fait le tour Le monde est vaste, je rêve de l'explorer Des poulpes grillés, du Château Latour Je viens seulement de me restaurer Cest fou ce quon peut faire par amour Jenchaîne les litotes et les calembours Jsuis bourré, jarrive à la bourre Je me suis pété la gueule dans lescalier Vomis dans la Benz' mais La Haute va refaire surface Jattire lil toujours en full Kenzo Le budget d'ton album dans ma Hayce yeah Marche pas sur mes Off-White yeah Toujours chaud les go-fast yeah Avant de viser la lune jai dabord escaladé la montagne Jenvoie guetter Kader et Mamadou J'vais bronzer sur les plages de Marbella J'suis trop bourbier, mappelle pas mon amour Mappelle pas bébé, chou tu vois pas que je porte un tarpé wesh La rue, la prison, j'en ai fait le tour Le monde est vaste, je rêve de l'explorer Des poulpes grillés, du Château Latour Je viens seulement de me restaurer You might also like Ma bourge me fait des beignets de fleurs de courges Je rejoins les abeilles, jsuis sous Jack Honey Seven Binks Ta carrière sachète à Clignancourt Quand faut remplir des salles, tu m'parles en japonais arigato Deuxième étage promenade premier tour Je né-tour, tue la barre et roule un bon gros teh J'veux juste niquer des carrières par humour Maman, j'te décrocherais les étoiles par amour Jenvoie guetter Kader et Mamadou J'vais bronzer sur les plages de Marbella J'suis trop bourbier, mappelle pas mon amour Mappelle pas bébé, chou tu vois pas que je porte un tarpé wesh La rue, la prison, j'en ai fait le tour Le monde est vaste, je rêve de l'explorer Des poulpes grillés du Château Latour Je viens seulement de me restaurer</t>
+          <t>Jenvoie guetter Kader et Mamadou J'vais bronzer sur les plages de Marbella J'suis trop bourbier, mappelle pas mon amour Mappelle pas bébé, chou tu vois pas que je porte un tarpé wesh La rue, la prison, j'en ai fait le tour Le monde est vaste, je rêve de l'explorer Des poulpes grillés, du Château Latour Je viens seulement de me restaurer Cest fou ce quon peut faire par amour Jenchaîne les litotes et les calembours Jsuis bourré, jarrive à la bourre Je me suis pété la gueule dans lescalier Vomis dans la Benz' mais La Haute va refaire surface Jattire lil toujours en full Kenzo Le budget d'ton album dans ma Hayce yeah Marche pas sur mes Off-White yeah Toujours chaud les go-fast yeah Avant de viser la lune jai dabord escaladé la montagne Jenvoie guetter Kader et Mamadou J'vais bronzer sur les plages de Marbella J'suis trop bourbier, mappelle pas mon amour Mappelle pas bébé, chou tu vois pas que je porte un tarpé wesh La rue, la prison, j'en ai fait le tour Le monde est vaste, je rêve de l'explorer Des poulpes grillés, du Château Latour Je viens seulement de me restaurer Ma bourge me fait des beignets de fleurs de courges Je rejoins les abeilles, jsuis sous Jack Honey Seven Binks Ta carrière sachète à Clignancourt Quand faut remplir des salles, tu m'parles en japonais arigato Deuxième étage promenade premier tour Je né-tour, tue la barre et roule un bon gros teh J'veux juste niquer des carrières par humour Maman, j'te décrocherais les étoiles par amour Jenvoie guetter Kader et Mamadou J'vais bronzer sur les plages de Marbella J'suis trop bourbier, mappelle pas mon amour Mappelle pas bébé, chou tu vois pas que je porte un tarpé wesh La rue, la prison, j'en ai fait le tour Le monde est vaste, je rêve de l'explorer Des poulpes grillés du Château Latour Je viens seulement de me restaurer</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Dis-moi qui sont mes ennemis Dis-moi qui sont mes frères Dis-moi qui sont mes ennemis La célébrité m'effraie Dis-moi qui sont mes ennemis Dis-moi qui sont mes frères Dis-moi qui sont mes ennemis La célébrité m'effraie Et j'ai peur, et j'ai peur Et j'ai peur, et j'ai peur Que Dieu me guide Me montre le chemin J'ai de la vengeance au frais, j'ai percé, j'étais pas prêt C'était écrit dès le berceau La célébrité m'effraie, mais c'est vrai que j'suis frais Dans c'nouveau polo Kenzo Jeune indigène algérien, j'ai le teint qui gêne Fidèle à ma plume comme Léonard à son pinceau Paradoxal, j'porte or des rois Mais je rêve une femme qui porte hijeb à la maison J'prie pour que Dieu nous pardonne Qu'il nous couvre de ses bienfaits J'laisse la couronne à la daronne Et la parole à mon re-frè Dis-moi qui sont mes ennemis Dis-moi qui sont mes frères Quand mes potos m'attirent dans l'ombre Y'a qu'mon Frère Lumière qui m'éclaire J'suis cet oasis dans l'désert J'ai perdu tous mes repères J'essaie de franchir les règles En restant droit comme une équerre Et puis y'a qu'Dieu qui peut m'guider J'vous parle en toute sincérité Vas-y, pompe nos flows, ils passent crème Toi, mon vieux, ta carrière est ridée Dis-moi qui sont mes ennemis Dis-moi qui sont mes frères Dis-moi qui sont mes ennemis La célébrité m'effraie Et j'ai peur, et j'ai peur Et j'ai peur, et j'ai peur Que Dieu me guide Me montre le chemin Dis-moi qui sont mes ennemis Dis-moi qui sont mes frères Quand mes potos m'attirent dans l'ombre Y'a qu'mon Frère Lumière qui m'éclaire J'suis cet oasis dans l'désert J'ai perdu tous mes repères J'essaie de franchir les règles En restant droit comme une équerre, ah J'vois les fans me ser-cour Tu m'aimes pas ? J't'emmerde et puis c'est tout Insomniaque depuis la naissance J'me réveille à l'heure où tu vas t'cher-cou Cher-cou, cher-cou Tous mes potos sont chés-tou Mon bonheur tient qu'à un fil que ses salopes essaient de per-cou Dis-moi qui sont mes ennemis Dis-moi qui sont mes frères Dis-moi qui sont mes ennemis La célébrité m'effraie Et j'ai peur, et j'ai peur Et j'ai peur, et j'ai peur Que Dieu me guide Me montre le chemin Dis-moi qui sont mes ennemis Dis-moi qui sont mes frères Dis-moi qui sont mes ennemis La célébrité m'effraieYou might also like3</t>
+          <t>Dis-moi qui sont mes ennemis Dis-moi qui sont mes frères Dis-moi qui sont mes ennemis La célébrité m'effraie Dis-moi qui sont mes ennemis Dis-moi qui sont mes frères Dis-moi qui sont mes ennemis La célébrité m'effraie Et j'ai peur, et j'ai peur Et j'ai peur, et j'ai peur Que Dieu me guide Me montre le chemin J'ai de la vengeance au frais, j'ai percé, j'étais pas prêt C'était écrit dès le berceau La célébrité m'effraie, mais c'est vrai que j'suis frais Dans c'nouveau polo Kenzo Jeune indigène algérien, j'ai le teint qui gêne Fidèle à ma plume comme Léonard à son pinceau Paradoxal, j'porte or des rois Mais je rêve une femme qui porte hijeb à la maison J'prie pour que Dieu nous pardonne Qu'il nous couvre de ses bienfaits J'laisse la couronne à la daronne Et la parole à mon re-frè Dis-moi qui sont mes ennemis Dis-moi qui sont mes frères Quand mes potos m'attirent dans l'ombre Y'a qu'mon Frère Lumière qui m'éclaire J'suis cet oasis dans l'désert J'ai perdu tous mes repères J'essaie de franchir les règles En restant droit comme une équerre Et puis y'a qu'Dieu qui peut m'guider J'vous parle en toute sincérité Vas-y, pompe nos flows, ils passent crème Toi, mon vieux, ta carrière est ridée Dis-moi qui sont mes ennemis Dis-moi qui sont mes frères Dis-moi qui sont mes ennemis La célébrité m'effraie Et j'ai peur, et j'ai peur Et j'ai peur, et j'ai peur Que Dieu me guide Me montre le chemin Dis-moi qui sont mes ennemis Dis-moi qui sont mes frères Quand mes potos m'attirent dans l'ombre Y'a qu'mon Frère Lumière qui m'éclaire J'suis cet oasis dans l'désert J'ai perdu tous mes repères J'essaie de franchir les règles En restant droit comme une équerre, ah J'vois les fans me ser-cour Tu m'aimes pas ? J't'emmerde et puis c'est tout Insomniaque depuis la naissance J'me réveille à l'heure où tu vas t'cher-cou Cher-cou, cher-cou Tous mes potos sont chés-tou Mon bonheur tient qu'à un fil que ses salopes essaient de per-cou Dis-moi qui sont mes ennemis Dis-moi qui sont mes frères Dis-moi qui sont mes ennemis La célébrité m'effraie Et j'ai peur, et j'ai peur Et j'ai peur, et j'ai peur Que Dieu me guide Me montre le chemin Dis-moi qui sont mes ennemis Dis-moi qui sont mes frères Dis-moi qui sont mes ennemis La célébrité m'effraie3</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Grosse pointure ou grosse pourriture, soirée mondaine, tout l'monde est bourré d'thunes Ils respectent même pas la nourriture alors que pour elle, certains pourraient tuer J'vois les cochons s'gaver de confiture quand de pauvres aigles, au sol, inachevés D'un anniv' sans gâteau ni confettis, sans histoires près d'la lampe de ch'vet J'ai fait du mal et j'ai payé cher, fait d'la prison, perdu des proches Chez moi, tout est noir, poto, même l'humour, j'suis p't-être le successeur de Desproges Ramène boissons, brochettes à la tess, on viendra quand même t'embrocher la cuisse Malgré ça, j'accuse le système d'avoir fait de nous des artistes capitalistes On a qu'notre misère à proposer, des gauches-droites pour s'imposer Ouais, juste avant d'imploser, misérable dîme et j'dors chez Causette J'aime tellement les femmes que j'en veux plusieurs, tellement l'million qu'j'en veux plusieurs Une chance, on en a qu'une seule, j'tire pour la mif', qu'un frère et qu'une sur C'est qui cette pétasse dans mon king size ? J'me rappelle même pas d'la nuit passée Gros, j'suis dépassé, comme dirait Moha Le passé s'est mal passé Les shottas patientent près du patio, c'qui m'fait tenir, c'est ma passion J'sais qu'un d'ces quatre, une balle dans ma cabeza, j'donnerai pas un du ratio Ça déchire le cur d'casser tête-à-tête avec son gars sûr Nos surs sont en pleurs, nos mères sont en pleurs, tant pis, la fierté prendra l'dessus J'suis un nerveux qui veut pas trop parler, chez nous, les bonhommes sourient à la vie C'est le plus gentil qui t'baise ta grand-mère, t'expulse de ton propre navire Frère Lumières, y a toujours l'inspi', c'est nous qui donnons les cours à l'instit', coucou En promenade collective, la SPIP m'a dit Je n'en ai pas vu beaucoup J'ai le cur de Goku, je n'porte plus d'or au cou J'n'achète jamais de Dior aux keh, j'passe de Chivas à Mont Roucous J'ai peur de partir incrédule, rater l'3asr comme un faux J'sais qu'l'État nous manipule et qu'j'suis juste un détenu qui paie ses impôts Avant d'respecter des certifiés qui vont t'négliger sur Insta' T'es le premier rôle de ta propre vie, t'es ta propre star You might also like J'crois bien qu'c'est l'heure de quitter la street, la vie, c'est court, la vie, c'est rapide J'suis dans l'bus, j'colle ma tête à la vitre, tous les jours, j'me bats, j'prends pas la fuite J'ai peur de faire du mal à mes frères, mon père, ma daronne c'est mes repères J'suis solo, dans ma tête, c'est la guerre, qui viendra m'sauver quand j's'rai à terre ? Donc à c'qu'il parait, tu nous envies, parait qu'toi, tu rêves d'être une re-sta Tu sais pas c'que j'serai prêt à donner pour retourner dans l'anonymat Ils m'demandent c'que ça fait d'être heureux, j'leur réponds qu'j'en ai aucune idée J'préfère être inconnu sur la piste que d'prendre des photos dans l'VIP Honnêtement, j'vais t'dire la vérité, j'comprendrais jamais la musique On parle un peu trop des rappeurs, on parle pas du public hypocrite Parce qu'il t'félicite à tes débuts mais t'crache dessus avec les années Suffit d'une seule erreur de parcours et tu deviens l'rappeur le plus blâmé Quand j'croise tous les nouveaux rappeurs, ils m'considèrent comme un ancien Mon re-frè, est-c'que tu rappes encore ? Mon re-frè, dis-moi qu'est-c'qu'tu deviens ? J'ai pas changé, j'suis toujours le même, avec Hayce, j'sors album en commun La vie continue et j'ai appris, va leur dire que j'suis jamais parti1</t>
+          <t>Grosse pointure ou grosse pourriture, soirée mondaine, tout l'monde est bourré d'thunes Ils respectent même pas la nourriture alors que pour elle, certains pourraient tuer J'vois les cochons s'gaver de confiture quand de pauvres aigles, au sol, inachevés D'un anniv' sans gâteau ni confettis, sans histoires près d'la lampe de ch'vet J'ai fait du mal et j'ai payé cher, fait d'la prison, perdu des proches Chez moi, tout est noir, poto, même l'humour, j'suis p't-être le successeur de Desproges Ramène boissons, brochettes à la tess, on viendra quand même t'embrocher la cuisse Malgré ça, j'accuse le système d'avoir fait de nous des artistes capitalistes On a qu'notre misère à proposer, des gauches-droites pour s'imposer Ouais, juste avant d'imploser, misérable dîme et j'dors chez Causette J'aime tellement les femmes que j'en veux plusieurs, tellement l'million qu'j'en veux plusieurs Une chance, on en a qu'une seule, j'tire pour la mif', qu'un frère et qu'une sur C'est qui cette pétasse dans mon king size ? J'me rappelle même pas d'la nuit passée Gros, j'suis dépassé, comme dirait Moha Le passé s'est mal passé Les shottas patientent près du patio, c'qui m'fait tenir, c'est ma passion J'sais qu'un d'ces quatre, une balle dans ma cabeza, j'donnerai pas un du ratio Ça déchire le cur d'casser tête-à-tête avec son gars sûr Nos surs sont en pleurs, nos mères sont en pleurs, tant pis, la fierté prendra l'dessus J'suis un nerveux qui veut pas trop parler, chez nous, les bonhommes sourient à la vie C'est le plus gentil qui t'baise ta grand-mère, t'expulse de ton propre navire Frère Lumières, y a toujours l'inspi', c'est nous qui donnons les cours à l'instit', coucou En promenade collective, la SPIP m'a dit Je n'en ai pas vu beaucoup J'ai le cur de Goku, je n'porte plus d'or au cou J'n'achète jamais de Dior aux keh, j'passe de Chivas à Mont Roucous J'ai peur de partir incrédule, rater l'3asr comme un faux J'sais qu'l'État nous manipule et qu'j'suis juste un détenu qui paie ses impôts Avant d'respecter des certifiés qui vont t'négliger sur Insta' T'es le premier rôle de ta propre vie, t'es ta propre star J'crois bien qu'c'est l'heure de quitter la street, la vie, c'est court, la vie, c'est rapide J'suis dans l'bus, j'colle ma tête à la vitre, tous les jours, j'me bats, j'prends pas la fuite J'ai peur de faire du mal à mes frères, mon père, ma daronne c'est mes repères J'suis solo, dans ma tête, c'est la guerre, qui viendra m'sauver quand j's'rai à terre ? Donc à c'qu'il parait, tu nous envies, parait qu'toi, tu rêves d'être une re-sta Tu sais pas c'que j'serai prêt à donner pour retourner dans l'anonymat Ils m'demandent c'que ça fait d'être heureux, j'leur réponds qu'j'en ai aucune idée J'préfère être inconnu sur la piste que d'prendre des photos dans l'VIP Honnêtement, j'vais t'dire la vérité, j'comprendrais jamais la musique On parle un peu trop des rappeurs, on parle pas du public hypocrite Parce qu'il t'félicite à tes débuts mais t'crache dessus avec les années Suffit d'une seule erreur de parcours et tu deviens l'rappeur le plus blâmé Quand j'croise tous les nouveaux rappeurs, ils m'considèrent comme un ancien Mon re-frè, est-c'que tu rappes encore ? Mon re-frè, dis-moi qu'est-c'qu'tu deviens ? J'ai pas changé, j'suis toujours le même, avec Hayce, j'sors album en commun La vie continue et j'ai appris, va leur dire que j'suis jamais parti1</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Bonsoir, honoré Surveillant va niquer ta mère la pute, j'te respecte pas, jvais t'mettre une patate marteau pour faire le clou du spectacle J'retourne la langue de Molière moi qui nétait qu'un segpa,tu m'as déçu dans le passé, futur featuring n'espère pas J'suis Akra t'es pot Touring, t'es tout pourri tu perces pas, en cellule on a pensé à s'évader au C4 Petit on arrachait en Vespa, sarracher en Espagne, maintenant jai trente mille dans la sacoche, calibré en Tesla J'achète des blousons Disquared avec lévasion fiscale, toute la nuit j'fais des freestyles sous une pluie de crystal Elle veux que j'l'emmène chez Christian, jl'emmène au Burger Square, Paris s'agite je sens qu'il va y avoir un murder c'soir T'es un emmerdeur soit, prenons nos distances, la substance que l'on inhale vient tout droit d'Afghanistan Manager Macho bang bang, producteur Julien Lebrun, conseiller backeur Papada puis l'ingénieur c'est Tristan Tu connais pas notre histoire, prenons nos distances, car les amis se dispersent, la jalousie les dispense De t'aimer pour ce que t'es vraiment ou de dire c'qu'ils pensent, contrairement à ce que tu crois l'argent ne fait pas la puissance J'connais pas les lois d'la gravité chez moi c'est no-limit, la femme de ménage fait les yeux doux mais bon j'suis pas Dominique Depuis l'jour où j'ai pris l'mic toujours au cur des polémiques, si j't'attrape j'vais t'niquer ta mère ça c'est pas marqué dans les livres Montre nous c'que t'as dans le ventre si tu veux rentrer dans l'élite x2 Envoie des chiffres et des lettres à tes gars tombés pour des litres, va les chercher au hebs avec la Lambo portes élytres Trop d'kilomètres au compteur ta meuf n'a pas d'CT, confond pas les subliminaux et les coups d'cépé Chez nous la bagarre c'est normal diecisiete x2 J'pue la weed a 10 kilomètres fuck le maître chien, je ne porte pas mes grillz et ma hayce pour rien Mon bicow je peux me le permettre c'est parce que je rappe trop bien, ça demande de la patience et beaucoup d'entretien Mais où est donc ornicar?, j'vais remplir le jerrycan, brûlé le game bédave avec les jamaïcains de Birmingham J'suis complètement khabat, je tape mes sushi , je vois les rappeurs perdus comme des américains à wahran Et puisque la reine des neiges a le nez dans la poudreuse, elle donnerai son boule de neige pour allez sniffer l'avalanche J'crache dans les tâches de rousseurs de t'as sur, me transforme en boule de nerfs pour aller niquer la balance Moi je suis pas le genre de rebeu qui mis dans le u-c hachak, j'm'suis barrée du tel-ho tellement elle puait la shnek beurk Elle puait de la shnek el kahba on dirait qu'elle s'est fait baiser par shrek Et j'écris ma mélancolie comme le marquis de Sade j'peux pas baiser si en pharmacie y'a pas de King Size J'rappe vous trembler c'est le Parkinson, j'vois vos freestyles on dirait une putain d'partie de Scrabble Sur Paname t'es personne tu te prends pour le PDG, y'a deux, trois bouffonnes et tu peux pas t'empêcher de jouer les BG Tu te feras toujours négliger, j'sais pas a quoi tu veux jouer mais gros arrête de me parler comme si tu jouais au PSG Poto tu n'es bon qu'à tenir les murs que j'ai construit, l'égoïsme est un altruisme que tu sais retranscrire Tu mange les Pierres dont j'ai besoin pour bâtir un empire, quand tu m'appelles le sang je vois mieux tes dents de vampiresYou might also like1</t>
+          <t>Bonsoir, honoré Surveillant va niquer ta mère la pute, j'te respecte pas, jvais t'mettre une patate marteau pour faire le clou du spectacle J'retourne la langue de Molière moi qui nétait qu'un segpa,tu m'as déçu dans le passé, futur featuring n'espère pas J'suis Akra t'es pot Touring, t'es tout pourri tu perces pas, en cellule on a pensé à s'évader au C4 Petit on arrachait en Vespa, sarracher en Espagne, maintenant jai trente mille dans la sacoche, calibré en Tesla J'achète des blousons Disquared avec lévasion fiscale, toute la nuit j'fais des freestyles sous une pluie de crystal Elle veux que j'l'emmène chez Christian, jl'emmène au Burger Square, Paris s'agite je sens qu'il va y avoir un murder c'soir T'es un emmerdeur soit, prenons nos distances, la substance que l'on inhale vient tout droit d'Afghanistan Manager Macho bang bang, producteur Julien Lebrun, conseiller backeur Papada puis l'ingénieur c'est Tristan Tu connais pas notre histoire, prenons nos distances, car les amis se dispersent, la jalousie les dispense De t'aimer pour ce que t'es vraiment ou de dire c'qu'ils pensent, contrairement à ce que tu crois l'argent ne fait pas la puissance J'connais pas les lois d'la gravité chez moi c'est no-limit, la femme de ménage fait les yeux doux mais bon j'suis pas Dominique Depuis l'jour où j'ai pris l'mic toujours au cur des polémiques, si j't'attrape j'vais t'niquer ta mère ça c'est pas marqué dans les livres Montre nous c'que t'as dans le ventre si tu veux rentrer dans l'élite x2 Envoie des chiffres et des lettres à tes gars tombés pour des litres, va les chercher au hebs avec la Lambo portes élytres Trop d'kilomètres au compteur ta meuf n'a pas d'CT, confond pas les subliminaux et les coups d'cépé Chez nous la bagarre c'est normal diecisiete x2 J'pue la weed a 10 kilomètres fuck le maître chien, je ne porte pas mes grillz et ma hayce pour rien Mon bicow je peux me le permettre c'est parce que je rappe trop bien, ça demande de la patience et beaucoup d'entretien Mais où est donc ornicar?, j'vais remplir le jerrycan, brûlé le game bédave avec les jamaïcains de Birmingham J'suis complètement khabat, je tape mes sushi , je vois les rappeurs perdus comme des américains à wahran Et puisque la reine des neiges a le nez dans la poudreuse, elle donnerai son boule de neige pour allez sniffer l'avalanche J'crache dans les tâches de rousseurs de t'as sur, me transforme en boule de nerfs pour aller niquer la balance Moi je suis pas le genre de rebeu qui mis dans le u-c hachak, j'm'suis barrée du tel-ho tellement elle puait la shnek beurk Elle puait de la shnek el kahba on dirait qu'elle s'est fait baiser par shrek Et j'écris ma mélancolie comme le marquis de Sade j'peux pas baiser si en pharmacie y'a pas de King Size J'rappe vous trembler c'est le Parkinson, j'vois vos freestyles on dirait une putain d'partie de Scrabble Sur Paname t'es personne tu te prends pour le PDG, y'a deux, trois bouffonnes et tu peux pas t'empêcher de jouer les BG Tu te feras toujours négliger, j'sais pas a quoi tu veux jouer mais gros arrête de me parler comme si tu jouais au PSG Poto tu n'es bon qu'à tenir les murs que j'ai construit, l'égoïsme est un altruisme que tu sais retranscrire Tu mange les Pierres dont j'ai besoin pour bâtir un empire, quand tu m'appelles le sang je vois mieux tes dents de vampires1</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>J'attendrai pas qu'tu prennes la confiance pour t'rappeler à l'ordre J'ai pas attendu qu'on m'dise d'faire du rap pour rapper à mort Alors ferme ta gueule et écoute-moi j'fais pas mon mea culpa Les larmes les plus amères sont celles qui n'coulent pas Ali la pointe, kunta écoute-moi J'suis d'la vieille école, j'suis un ancien, j'ai été en chien ouais, endommagé par les temps plein ouais d'une vie sans lendemain Joue les nobles avec ton pognon, j'marchais avec un tard-pé, t'savais pas épeler ton prénom T'sais pas combien de larmes de sang j'ai chialé pour arriver là t'sais pas Aujourd'hui, j'peux plus marcher de Bastille à la French riviera t'sais pas S'mentir à soi-même, c'est mentir aux autres Ça fait des années qu'j'fais comme si tout allait bien mais c'est faux c'est faux C'est bien d'savoir d'où tu viens mais est-ce que tu sais où tu vas ? hein ? C'que tu veux, t'es comme aveuglé hein ?, tu n'sais plus vraiment c'que tu vois Mal dans ma peau depuis la naissance ouais, les sens en convalescence ouais Chaque jour, j'renais de mes cendres ouais, chaque jour est une renaissance ouais À qui tu parles mal ? J'ai pas besoin d'porter c'foutu pare-balles nan P'tit prince de Paname, j'suis au courant d'tout comme le barman Allez, baise ta mère, casse un tour, c'est pas d'la moula, c'est d'la merde Faire croquer sur quarante-cinq tours ? Plutôt courir à ma perte ouais Mourir comme Amaru Shakur ou bien pourrir à la retraite Voilà pourquoi j'vis chaque jour comme le dernier qu'j'fais la fête Frérot, tu n'as rien à m'envier rien, j'suis constamment en dépression rien J'suis tellement bre-som rien, c'est dur d'assumer toute cette pression J'ai trop la pression j'ai trop la pression, j'ai trop l'impression qu'tu vas m'trahir J'ai trop d'mal à te dire Je t'aime et j'prend du plaisir à t'haïr fils de pute J'remplis la potion, Opinel 12 dans l'bombardier ah J'viens d'en bas, les Misérables ont plus de valeur qu'les Thénardier Peine à deux chiffres dans la cave ah, j'effectue mouvements macabres ah Persuadé qu'tout ira mal comme Rougont-Macquart Ils m'ont pris pour un macaque fils de pute, j'sors un album de bâtard ah Attendu comme la grossesse de ma dame You might also like Perdu dans le noir, noir pah-pah-pah Et j'ai remplis le barillet pah-pah-pah, yah Et j'en ai trop vu pour mon âge pah-pah-pah, yah Quelques dollars éparpillés pah, quelques livres, l'or Perdu dans le noir, noir pah-pah-pah Et j'ai remplis le barillet pah-pah-pah, yah Et j'en ai trop vu pour mon âge pah-pah-pah, yah Quelques dollars éparpillés pah, quelques livres, l'or pah-pah-pah-pah-pah</t>
+          <t>J'attendrai pas qu'tu prennes la confiance pour t'rappeler à l'ordre J'ai pas attendu qu'on m'dise d'faire du rap pour rapper à mort Alors ferme ta gueule et écoute-moi j'fais pas mon mea culpa Les larmes les plus amères sont celles qui n'coulent pas Ali la pointe, kunta écoute-moi J'suis d'la vieille école, j'suis un ancien, j'ai été en chien ouais, endommagé par les temps plein ouais d'une vie sans lendemain Joue les nobles avec ton pognon, j'marchais avec un tard-pé, t'savais pas épeler ton prénom T'sais pas combien de larmes de sang j'ai chialé pour arriver là t'sais pas Aujourd'hui, j'peux plus marcher de Bastille à la French riviera t'sais pas S'mentir à soi-même, c'est mentir aux autres Ça fait des années qu'j'fais comme si tout allait bien mais c'est faux c'est faux C'est bien d'savoir d'où tu viens mais est-ce que tu sais où tu vas ? hein ? C'que tu veux, t'es comme aveuglé hein ?, tu n'sais plus vraiment c'que tu vois Mal dans ma peau depuis la naissance ouais, les sens en convalescence ouais Chaque jour, j'renais de mes cendres ouais, chaque jour est une renaissance ouais À qui tu parles mal ? J'ai pas besoin d'porter c'foutu pare-balles nan P'tit prince de Paname, j'suis au courant d'tout comme le barman Allez, baise ta mère, casse un tour, c'est pas d'la moula, c'est d'la merde Faire croquer sur quarante-cinq tours ? Plutôt courir à ma perte ouais Mourir comme Amaru Shakur ou bien pourrir à la retraite Voilà pourquoi j'vis chaque jour comme le dernier qu'j'fais la fête Frérot, tu n'as rien à m'envier rien, j'suis constamment en dépression rien J'suis tellement bre-som rien, c'est dur d'assumer toute cette pression J'ai trop la pression j'ai trop la pression, j'ai trop l'impression qu'tu vas m'trahir J'ai trop d'mal à te dire Je t'aime et j'prend du plaisir à t'haïr fils de pute J'remplis la potion, Opinel 12 dans l'bombardier ah J'viens d'en bas, les Misérables ont plus de valeur qu'les Thénardier Peine à deux chiffres dans la cave ah, j'effectue mouvements macabres ah Persuadé qu'tout ira mal comme Rougont-Macquart Ils m'ont pris pour un macaque fils de pute, j'sors un album de bâtard ah Attendu comme la grossesse de ma dame Perdu dans le noir, noir pah-pah-pah Et j'ai remplis le barillet pah-pah-pah, yah Et j'en ai trop vu pour mon âge pah-pah-pah, yah Quelques dollars éparpillés pah, quelques livres, l'or Perdu dans le noir, noir pah-pah-pah Et j'ai remplis le barillet pah-pah-pah, yah Et j'en ai trop vu pour mon âge pah-pah-pah, yah Quelques dollars éparpillés pah, quelques livres, l'or pah-pah-pah-pah-pah</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Bonsoir, honoré Ghost ! Comme d'hab les rageux vont parler Comme d'hab mon banquier va sortir le champ' Comme d'hab les rappeurs vont parier que cest le dernier mais il reste un poster de moi dans leur chambre En huit ans jpeux te dire que jen ai vu passé, des carrières effacées Seul du landau jusqu'au linceul Je sens le mauvais il se poser sur moi quand je chante Gilet pare-balles, Kalashnikov, 530 Si j'te retrouve tu vas prendre ta trempe Sale pute J'vois loin comme Riov, jai les idées claires à 4h30 La route de la gloire est lune des plus sinueuses Ces baltringues ont du s'perdre Et ces suceurs marcheraient la bouche ouverte sil pleuvait du sperme Les ennemis ne sont pas loin, jai pris mes précautions J'te surveille via le snap ma bitch Et jai du payer pour imprimer ta disposition Un faux pas tous le monde saura que tas snitch Ils tentent de remuer ciel et la terre, pendant quon prie le maître de la terre et des cieux tawhid Ya tellement de gens qui mont déçu, mais la solitude est de ce que jai de plus précieux Jdédicace Orléans, Poitiers, mes braqueurs, mes voleurs de coffre fort On tallume ta grande-mère ya pas de mortier brrr Jte marche dessus, les diamants dansent sur mon torse Je suis la relève de Hasni DZ Jai grandi sur du Marshall, du Tupac shakur Et vas bien dire à toutes ces salopes que malgré le buzz en promenade jétais là tous les jours You might also like Pas besoin daide jles douilles Pas besoin daide jles douilles moi, grrrrra Young Dz porte ses couilles Young Dz porte ses couilles hein, grrrrra Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Ghost, Ghost, Ghost, Ghost Ghost, Ghost, Ghost, Ghost Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Jsuis arrivé dans lrap comme un fantôme Ghost ! Prévenez les nouveaux, les anciens Ya même pas cinq-six piges jétais en chien Là j'te gifle avec ma nouvelle liasse pendant qu'mon manager strangule le tien bang bang Prends mon album comme une menace J'vais assumer comme jamais je nai assumé Tout qui compte pour moi cest de mourir Muslim, à mon stade je m'fiche de me faire fumer On arrive en boulder, en bourbier dans ta cité d'pute on te gifle, on téduque Et tauras beau sucer les algériens dans tous tes sons ne crois pas quon est dupes noksh Ton bénef dans le nez de la reine des neiges ten oublie cquelle veut chaque fois quelle te branche A cause delle combien de nos frère défunts dans la poudre blanche Dans ce game communautaire et raciste Si taime pas les blancs jtenvoie Nicoloko Taime pas les 3arbi jtenvoie Abdallah Si taime pas les renois jtenvoie Sissoko Jai pas trouve la bonne poto sur Snapchat, elle font toutes les chiennes, elle nont pas détat dâme Tu t'es bien fait baiser dans toute ta province et tu viens faire la hlel en peignoir sur Paname Eh, jvais t'dire un truc ya vla les rappeurs qui sla prennent dans le u-c Tu fais le beau-gosse en showcase, allez stream ta mère sale fils de pub Pas besoin daide jles douilles Pas besoin daide jles douilles moi, grrrrra Young Dz porte ses couilles Young Dz porte ses couilles hein, grrrrra Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Ghost, Ghost, Ghost, Ghost Ghost, Ghost, Ghost, Ghost Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Jsuis arrivé dans lrap comme un fantôme Ghost !1</t>
+          <t>Bonsoir, honoré Ghost ! Comme d'hab les rageux vont parler Comme d'hab mon banquier va sortir le champ' Comme d'hab les rappeurs vont parier que cest le dernier mais il reste un poster de moi dans leur chambre En huit ans jpeux te dire que jen ai vu passé, des carrières effacées Seul du landau jusqu'au linceul Je sens le mauvais il se poser sur moi quand je chante Gilet pare-balles, Kalashnikov, 530 Si j'te retrouve tu vas prendre ta trempe Sale pute J'vois loin comme Riov, jai les idées claires à 4h30 La route de la gloire est lune des plus sinueuses Ces baltringues ont du s'perdre Et ces suceurs marcheraient la bouche ouverte sil pleuvait du sperme Les ennemis ne sont pas loin, jai pris mes précautions J'te surveille via le snap ma bitch Et jai du payer pour imprimer ta disposition Un faux pas tous le monde saura que tas snitch Ils tentent de remuer ciel et la terre, pendant quon prie le maître de la terre et des cieux tawhid Ya tellement de gens qui mont déçu, mais la solitude est de ce que jai de plus précieux Jdédicace Orléans, Poitiers, mes braqueurs, mes voleurs de coffre fort On tallume ta grande-mère ya pas de mortier brrr Jte marche dessus, les diamants dansent sur mon torse Je suis la relève de Hasni DZ Jai grandi sur du Marshall, du Tupac shakur Et vas bien dire à toutes ces salopes que malgré le buzz en promenade jétais là tous les jours Pas besoin daide jles douilles Pas besoin daide jles douilles moi, grrrrra Young Dz porte ses couilles Young Dz porte ses couilles hein, grrrrra Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Ghost, Ghost, Ghost, Ghost Ghost, Ghost, Ghost, Ghost Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Jsuis arrivé dans lrap comme un fantôme Ghost ! Prévenez les nouveaux, les anciens Ya même pas cinq-six piges jétais en chien Là j'te gifle avec ma nouvelle liasse pendant qu'mon manager strangule le tien bang bang Prends mon album comme une menace J'vais assumer comme jamais je nai assumé Tout qui compte pour moi cest de mourir Muslim, à mon stade je m'fiche de me faire fumer On arrive en boulder, en bourbier dans ta cité d'pute on te gifle, on téduque Et tauras beau sucer les algériens dans tous tes sons ne crois pas quon est dupes noksh Ton bénef dans le nez de la reine des neiges ten oublie cquelle veut chaque fois quelle te branche A cause delle combien de nos frère défunts dans la poudre blanche Dans ce game communautaire et raciste Si taime pas les blancs jtenvoie Nicoloko Taime pas les 3arbi jtenvoie Abdallah Si taime pas les renois jtenvoie Sissoko Jai pas trouve la bonne poto sur Snapchat, elle font toutes les chiennes, elle nont pas détat dâme Tu t'es bien fait baiser dans toute ta province et tu viens faire la hlel en peignoir sur Paname Eh, jvais t'dire un truc ya vla les rappeurs qui sla prennent dans le u-c Tu fais le beau-gosse en showcase, allez stream ta mère sale fils de pub Pas besoin daide jles douilles Pas besoin daide jles douilles moi, grrrrra Young Dz porte ses couilles Young Dz porte ses couilles hein, grrrrra Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Ghost, Ghost, Ghost, Ghost Ghost, Ghost, Ghost, Ghost Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Jsuis arrivé dans lrap comme un fantôme Ghost !1</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>C'est pas ta mère qui paye mon loyer Hayce tu peux le faire J'ai sorti la tête de l'eau t'essayes de me noyer Héta Wouahèd Vous voulez quoi bande de fils de pute J'suis né pour régner par le phrasé La sel3a dans le parachute J'ai dormi dans la cage d'escalier Depuis que j'ai la quinzaine que je me bute Je croise mes voisins sous Courvoisier L'art d'envoyer les uppercuts Sur le ring j'suis l'MC Frazier Fakir Lemsi sur le brasier La gamberge quinquagénaire Bico de ma vodka j'en émerge Compte pas sur la juge pour te gracier Non c'était pas juste des mots Quand je dis que c'est pas juste pour la paye Appelle moi Young Abu-Dahbi prépare moi du barad atay On a vu ce qu'on aurait pas du voir On cauchemarde nos propre vécu Tu jalouseras l'électron libre jusqu'à sa dernière molécule Ressens tu le froid du P4, entends tu le bruit du GP800 Ma petite pute en fin de compte ce qui ne m'as pas tué m'a rendu plus puissant J'ai l'habitude d'être le meilleur dans tous ce que je fais mais j'ai pas perdu la force C'est pas ton pote, il veut ton biff, ta meuf, ta mort pour prendre ta place J'écrit chaque jour j'suis pas matrixé par la dictature du paraitre J'fais parti de la communauté la plus détestée de la planète You might also like Malgré ce qu'on pense et malgré tout ce qui se dit sur moi Y'a qu'en dieu que je place ma confiance Les gens sont si bancales et sournois A vrai dire je m'en bats les couilles du millions de disques Ce que je veux c'est rapper mieux que ces grosses baltringues qui jouent les grossistes On donne des disques d'or aux incultes, pistonnés comme d'habitudes Quand les maisons de disques mènent la danse, le rap n'a plus cette odeur de bitume Et je suis là stoïque, je prépare mon 5ème Haycetéroïde Aujourd'hui sexe rime avec argent Musulman rime avec terroriste Torse nu sous un ciel orageux, le regard noir mat RebeuxTenebreux J'donnerai ma vie j'reste un rajel Pris dans cette violence moyenâgeuse Tu veux te marier ? Je te crache dans les cheveux J'suis trop bourbier pour qu'on vive à deux Je t'oublie j'menfume tout seul dans ma bulle Ma beuh sent fort comme ce fromage bleu J'veux juste inonder les ondes hertzienne J'suis dans le rap tel un dégât des eaux Je sors le Mac-TEN , la vibe est martienne A peine un iep-ds sorti du vaisseau J'suis fait de larmes, de gloire et de sueurs Tu me reproches d'être un libre penseur On saigne à coeur ouvert dans la street Comme une mère élève son enfant seul Transpire des vers je pleure des proses Une arme de guerre qui dort dans le box Barbare j'ai le gun dans le bouquet de rose La rafale te traverse le torse Matière grasse devient matière grise Tu me fais sourire pour voler mes grillz J'vois tout les jaloux qui maigrissent Moi j'suis débrouillard comme Bear Grylls Toujours au coeur de la polémique Dans la bagatelle et l'alcoolémie J'parle à ma teille quand elle est vide J'suis si triste au fond de ce carré VIP Tout seul je gère mon biz' en indé Tu cherches à savoir si j'suis blindé La fourche PSO la Joncquière Passe me voir j'suis toujours au rrain-té Hey Hey Hey tu crois qu'on est là depuis hier ? Hayce Lemsi, Volts Face à des années lumières Le retour du vrai rap français, Hayayace Bico Blacko Blanco Loco Non bico je n'ai pas changé j'prends toujours le game en One One</t>
+          <t>C'est pas ta mère qui paye mon loyer Hayce tu peux le faire J'ai sorti la tête de l'eau t'essayes de me noyer Héta Wouahèd Vous voulez quoi bande de fils de pute J'suis né pour régner par le phrasé La sel3a dans le parachute J'ai dormi dans la cage d'escalier Depuis que j'ai la quinzaine que je me bute Je croise mes voisins sous Courvoisier L'art d'envoyer les uppercuts Sur le ring j'suis l'MC Frazier Fakir Lemsi sur le brasier La gamberge quinquagénaire Bico de ma vodka j'en émerge Compte pas sur la juge pour te gracier Non c'était pas juste des mots Quand je dis que c'est pas juste pour la paye Appelle moi Young Abu-Dahbi prépare moi du barad atay On a vu ce qu'on aurait pas du voir On cauchemarde nos propre vécu Tu jalouseras l'électron libre jusqu'à sa dernière molécule Ressens tu le froid du P4, entends tu le bruit du GP800 Ma petite pute en fin de compte ce qui ne m'as pas tué m'a rendu plus puissant J'ai l'habitude d'être le meilleur dans tous ce que je fais mais j'ai pas perdu la force C'est pas ton pote, il veut ton biff, ta meuf, ta mort pour prendre ta place J'écrit chaque jour j'suis pas matrixé par la dictature du paraitre J'fais parti de la communauté la plus détestée de la planète Malgré ce qu'on pense et malgré tout ce qui se dit sur moi Y'a qu'en dieu que je place ma confiance Les gens sont si bancales et sournois A vrai dire je m'en bats les couilles du millions de disques Ce que je veux c'est rapper mieux que ces grosses baltringues qui jouent les grossistes On donne des disques d'or aux incultes, pistonnés comme d'habitudes Quand les maisons de disques mènent la danse, le rap n'a plus cette odeur de bitume Et je suis là stoïque, je prépare mon 5ème Haycetéroïde Aujourd'hui sexe rime avec argent Musulman rime avec terroriste Torse nu sous un ciel orageux, le regard noir mat RebeuxTenebreux J'donnerai ma vie j'reste un rajel Pris dans cette violence moyenâgeuse Tu veux te marier ? Je te crache dans les cheveux J'suis trop bourbier pour qu'on vive à deux Je t'oublie j'menfume tout seul dans ma bulle Ma beuh sent fort comme ce fromage bleu J'veux juste inonder les ondes hertzienne J'suis dans le rap tel un dégât des eaux Je sors le Mac-TEN , la vibe est martienne A peine un iep-ds sorti du vaisseau J'suis fait de larmes, de gloire et de sueurs Tu me reproches d'être un libre penseur On saigne à coeur ouvert dans la street Comme une mère élève son enfant seul Transpire des vers je pleure des proses Une arme de guerre qui dort dans le box Barbare j'ai le gun dans le bouquet de rose La rafale te traverse le torse Matière grasse devient matière grise Tu me fais sourire pour voler mes grillz J'vois tout les jaloux qui maigrissent Moi j'suis débrouillard comme Bear Grylls Toujours au coeur de la polémique Dans la bagatelle et l'alcoolémie J'parle à ma teille quand elle est vide J'suis si triste au fond de ce carré VIP Tout seul je gère mon biz' en indé Tu cherches à savoir si j'suis blindé La fourche PSO la Joncquière Passe me voir j'suis toujours au rrain-té Hey Hey Hey tu crois qu'on est là depuis hier ? Hayce Lemsi, Volts Face à des années lumières Le retour du vrai rap français, Hayayace Bico Blacko Blanco Loco Non bico je n'ai pas changé j'prends toujours le game en One One</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Depuis 6 mois hey J'ai pas dormi oh Hayce ha yeah J'veux le siège de Sarkozy, baiser Carla, yeah Tu veux pécho c'est par là Cocaïne, cocaïne porcelaine et carelage Champagne, champagne, tiens bon pour mes scars-la J'me torche avec c'que le proc' stipule Une, décennie dans le vestibule Qu'est-c'tu m'parles Buddha-Bar, pédicure J'confonds ta chatte avec le fromage qui pue Pute J'suis plus physique que chimiste J'te rentre mon tube à essai Leur flow se cryogénise Ils essaieront de revenir juste avant leur décès J'suis capi, j'suis capo, j'suis grrr, grrr Young Pablo, tu indiques ton nacho J'suis dans l'monde, t'es Carlo Bikow toi et moi c'est pas l'même buzz Algérois, talentueux comme Mahrez Trop d'rappeurs s'embrouillent pour une merguez Trop d'rappeurs s'embrouillent pour une merdeuse Au parloir on voit des fantômes, on repense à nos keh' à l'Hôtel de Vendôme J'suis légendaire comme les films de Van Damme et j'vais p't-être périr avec un poignard dans l'dos You might also like Depuis 6 mois hey yeah oh J'ai pas dormi hey yeah oh L'insomnie m'a hey Rejoins-nous c'est la danse des zombies Zombies, zombies, zombies Zombies, zombies, zombies Zombies, zombies, zombies Zombies, zombies, zombies Minuit trente dans le square Envahi le quartier C'est la zombie squad Vampiresse, jambe écartée Zombies, zombies, zombies Zombies, zombies, zombies Zombies, zombies, zombies Zombies, zombies, zombies Minuit trente dans le square Envahi le quartier C'est la zombie squad Vampiresse, jambe écartée Cernes violettes, visage éclaté Zombie, zombie, zombie Tu nous dis qu'c'est toi qui gère le rrain-te Zeubi, zeubi, zeubi Cernes violettes, visage éclaté Zombie, zombie, zombie Tu nous dis qu'c'est toi qui gère le rrain-te Zeubi, zeubi, zeubi Le videur s'est mangé la bouteille Rebeu j'laisse Robocop en prothèse Mets ta vampiresse sur le côté Gros, lève ta dobble que pour le showcase On a plafonné des Trouvé des lingots d'or dans une chaussette Chez nous, chose dite est toujours chose faite Parle pas comme si t'allais faire chose quelle Bitch un feu rouge, un joint d'beuh Un point rouge, une flamme bleue frrr Farouche, c'est l'far-west Rhey on graille les képis deux par deux hey C'qui s'passe la nuit ne voit guère le soleil J'ai bu le verre de trop, je m'écroule sur la butte La concurrence dans un profond sommeil J'ai du planter mes crocs dans le cou de ta pute Zombies, zombies, zombies Zombies, zombies, zombies Zombies, zombies, zombies Zombies, zombies, zombies Minuit trente dans le square Envahi le quartier C'est la zombie squad Vampiresse, jambe écartée Zombies, zombies, zombies Zombies, zombies, zombies Zombies, zombies, zombies Zombies, zombies, zombies Minuit trente dans le square Envahi le quartier C'est la zombie squad Vampiresse, jambe écartée</t>
+          <t>Depuis 6 mois hey J'ai pas dormi oh Hayce ha yeah J'veux le siège de Sarkozy, baiser Carla, yeah Tu veux pécho c'est par là Cocaïne, cocaïne porcelaine et carelage Champagne, champagne, tiens bon pour mes scars-la J'me torche avec c'que le proc' stipule Une, décennie dans le vestibule Qu'est-c'tu m'parles Buddha-Bar, pédicure J'confonds ta chatte avec le fromage qui pue Pute J'suis plus physique que chimiste J'te rentre mon tube à essai Leur flow se cryogénise Ils essaieront de revenir juste avant leur décès J'suis capi, j'suis capo, j'suis grrr, grrr Young Pablo, tu indiques ton nacho J'suis dans l'monde, t'es Carlo Bikow toi et moi c'est pas l'même buzz Algérois, talentueux comme Mahrez Trop d'rappeurs s'embrouillent pour une merguez Trop d'rappeurs s'embrouillent pour une merdeuse Au parloir on voit des fantômes, on repense à nos keh' à l'Hôtel de Vendôme J'suis légendaire comme les films de Van Damme et j'vais p't-être périr avec un poignard dans l'dos Depuis 6 mois hey yeah oh J'ai pas dormi hey yeah oh L'insomnie m'a hey Rejoins-nous c'est la danse des zombies Zombies, zombies, zombies Zombies, zombies, zombies Zombies, zombies, zombies Zombies, zombies, zombies Minuit trente dans le square Envahi le quartier C'est la zombie squad Vampiresse, jambe écartée Zombies, zombies, zombies Zombies, zombies, zombies Zombies, zombies, zombies Zombies, zombies, zombies Minuit trente dans le square Envahi le quartier C'est la zombie squad Vampiresse, jambe écartée Cernes violettes, visage éclaté Zombie, zombie, zombie Tu nous dis qu'c'est toi qui gère le rrain-te Zeubi, zeubi, zeubi Cernes violettes, visage éclaté Zombie, zombie, zombie Tu nous dis qu'c'est toi qui gère le rrain-te Zeubi, zeubi, zeubi Le videur s'est mangé la bouteille Rebeu j'laisse Robocop en prothèse Mets ta vampiresse sur le côté Gros, lève ta dobble que pour le showcase On a plafonné des Trouvé des lingots d'or dans une chaussette Chez nous, chose dite est toujours chose faite Parle pas comme si t'allais faire chose quelle Bitch un feu rouge, un joint d'beuh Un point rouge, une flamme bleue frrr Farouche, c'est l'far-west Rhey on graille les képis deux par deux hey C'qui s'passe la nuit ne voit guère le soleil J'ai bu le verre de trop, je m'écroule sur la butte La concurrence dans un profond sommeil J'ai du planter mes crocs dans le cou de ta pute Zombies, zombies, zombies Zombies, zombies, zombies Zombies, zombies, zombies Zombies, zombies, zombies Minuit trente dans le square Envahi le quartier C'est la zombie squad Vampiresse, jambe écartée Zombies, zombies, zombies Zombies, zombies, zombies Zombies, zombies, zombies Zombies, zombies, zombies Minuit trente dans le square Envahi le quartier C'est la zombie squad Vampiresse, jambe écartée</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Han, 45 tours pour chanter la sère-mi, 45 chtars dans le rétro j'suis zehaf. Ca pue les 45 jours de tard-mi Panamovic à le zen loin du Kérosène, mais il a les cernes dans l'insomnie J'arrive sur le rap-game en bulldozer Qui ne saute pas n'est pas de Paris Animé par les moteurs, les ein-s, la zeb, les tissus des XXX d'Italie Depuis tout petit j'entends qu'faut faire d'l'oseille, Paname je suis l'homme de ta nuit! Rap indépendant financé par les profils à cocaïne, Hôtel, Champaign La vie s'enchérit tellement le sourire des bicos s'payent! No Pain - No Gain! Mais je les arrose à la kalash en pleine euphorie, fucking concurrence à vomir! Entre Drive-by en bolide! Zlat'Hayce compte plaider la folie! Dès l'enfance on est différent comme 2-Chainz! C'est le diable qui tient ton couteau! C'est normal que tu t'prennes des coups d'chaises! Fallait pas nous donnez pouki ton puto! J'vois cette putain d'vie couleur kaki J'sors le mili des yeux c'est car-ci Car-Jacking, ta l'cur qui palpite à la sortie du parking! Hold-Up, Ratatat'Hayce Ratatat'Hayce, Zlat'Hayce connaît pas l'Rap-Game mais le Rap-Game connaît Zlat'Hayce! Lass, Oussem, Dino solo sur un compét' On vend d'la zipette pour faires des emplettes Attraper de belles bitchs, pas d'baraque au bled Moi j'suis parano mec, j'suis pas renommé, à part pour la monnaie, j'suis pas malhonnête J'suis ce parolier, qui peut renier, que j'vous parraine au mic' bande de marionnettes ? J'vais niquer des reu-mé, tu vas pas m'reconnaitre J'ai rien à espérer, rien à promettre Nul n'est à l'abri d'une rafale dans les pommettes De finir à Fleury, Fresnes, aux Baumettes Passez pas la pommade, j'vais devenir vulgaire J'voulais juste une limonade et des chiennes de guerre Comme un pointeur en promenade rentre sous terre Sur Paname ramène pas tes textes de merde, bico ! J'ai tenter de pardonner, la rue m'a donner l'amour que je n'ai pas donner! Né en Algérie j'part de rien! Les plus belles années de ma jeunesse à charbonner! Tous les soirs interpellées, Ils veulent que j'finisse ma vie derrière des barbelés! 6 du mat', Ils débarquent, me soulèvent J'ai le fou-rire en voyant le commissaire gueuler! Rythme de vie dégueulasse, on vit comme ça depuis qu'on a la morve au nez L'illicite une longue impasse que l'on emprunte pour survivre, on en a marre d'voler! Une main de fer dans un gant de velours J'm'adresse a tous ces batards qui veulent me testent Venez! Vous n'allez pas me voir venir! As-tu déjà eu affaire avec un bico décervelé! Il s'agit d'faire du blé! Etant minot j'rasait l'mur pour allez l'tenir! Manque de money, j'me démenais pour en obtenir quitte à m'faire cueillir si les shlags saignent du nez! Ici c'est dur d'aimer son prochain, l'appât du gain pour nous attrayez! Tout ça pour fréquenter des boites de nuits, nul n'est à l'abri de tomber amoureux d'une trainée! On va tous payer, pour le mal qu'on fait chaque jours, On va tous payer! On va tous crever, chacun son heure, chacun son tour, On va tous crever! You might also likeElectron Libre, je vais où je veux, j'viens du four, j'ai le cur geler! Et de ma vie je n'ai jamais douter que j'entendrais mon heure sonner! C'est mon come-back, je retourne au combat! Fidèle à mes principes jusqu'à la pierre tombale J'refuse qu'on me compare à ces putos j'en bave! Mes lokos sont parti, ne reviendront pas! Relève la tête au lieu d'maculer! De larmes tes draps! Les vrais lokos ne baissent pas les bras! P'tit con ma hargne nait dans les drames! Braah' ! Pure Bico, Pur Malfrat, j'opère en pure indé' comme Alpha! Je n'ai pas de pipo juste une plume trempée dans l'hémoglobine des kehbas Tu rappes une comédie dramatique, J'rappe la street comme un automatique! 'Laisse des scènes de crime grammatical! De nos jours seul la haine est gratuite! J'empoigne le micro comme un glaive pour mes lokos dehors comme aux shtars Hier ils marchaient sur mes rêves, demain je serai leur pire cauchemar J'ai bossé dur pour en arriver là, j'ai débuté dans la cave en acappela C'est le retour de l'arabe en parabellum, pur comme cette poudre près du Venezuela C'est l'retour d'Hayce Lem, j'manque de sommeil, blanche porcelaine est ma gow Si ces bikos veulent ma peau qu'ils craignent un drive-by en vago C'n'est pas une mixtape c'est un braquo, qui veut m'empêcher d'conquérir la Gaule ? Sont sérieux les jaloux ils parlent comme si j'avais 3 Murcielago la gow! Si tu veux qu'on s'entendent, faut qu'tu soit consentante pour que j'ten sanglante après le show case! J'ramène 4 bouteilles monte sur ma bistouquette ça fait bang bang bang Bitch You XXX , you pay on avance en bande Les ptites macrelle sont souvent présentent , en entrant sans gants J'entends toc toc toc , Vic mackey le rap on s'en branle Mon frère on s'comprend , mais dit moi s'que t'en pense Tu tape Hayce lemsi , la rime transcendante , j'les étrangle sans blagues ils repartent sans dents , leurs putes m'harcèlent Wesh monsieur l'agent pose le six hours pour voir La mort est au bout du couloir , l'insomnie c'est de l'or , ils dorment Mais le temps c'est d'l'argent , la vitesse c'est l'pouvoir ! 133 piges colonisé, voilà pourquoi sur la France ont a miser Très tôt dans la délinquance , on a glisser , tous des cas isolé , camisoler Sois pas , XXXX touche le baveux! Pour le beurre et l'argent de la barrette! J'suis du XVBarbare, par où les morveux touchent la drrrogue, le Glock et la bavette ! Réglé comme le big-bang! J'ai la barre de plus et eux deux j'ai toujours envie de ken! Pet'Hayce tu es tellement cette chienne de vie qu't'as choisi d'mener cette vie d'chienne! D'où je sors c'flow de taré! La fourche La J L'allée ! Où sont mes soldats sanguinaires au cur du pavé? Mes bicos font de la money! Mes blackos font de la money! Mes blancos font de la money! Mes lokas font de la money! Mes bicos font de la money! Mes blackos font de la money! Mes blancos font de la money! Mes lokas font de la money! Elle veut pas de toi bico c'est ma Bitch! Elle veut pas de toi bico c'est ma Bitch! Je crois qu'elle cherche un homme riche, elle aura que l'hotel, une teille, un sandwich! Elle veut pas de toi bico c'est ma Bitch! Elle veut pas de toi bico c'est ma Bitch! Welcome to my Hood! On fait d'l'oseille, On Charcute les snitchs! Hip-hop se sél médicament nou ni Muni de ma kalash prémédite le murder Ma jolie t'as les yeux de la même couleur que ma money! Mais j'n'ai pas le compte en banque à Birdman! Tu te donnes en deux minutes si je sors le bolide J'ai le dos tourné mais je sais que tu me regardes! J't'emmène à l'Holiday Inn, goûte à mon insomnie Le lendemain j'monte avec mes potes à me-Da! J'arrive dans l'carré vip all eyes on me, j'lève mon verre à mes amours et mes ennemis! Je ne dormirai pas cette nuit, je ne x3 dormirai pas cette nuit J'voulais viser la lune avant de monter la colline, j'fais ma route comme un homme j'me fout qu'les gens parlent! J'fais ma route solo, carré d'Hayce all in, Wai gars sortir le Rhum le Champagne! Mes lokas sont coquettes le videur est sous cocaïne, elles enflamment la piste Tant que les bikos payent, puis-je t'offrir un cocktail ? Zina arrache ton phone-tel, je te prendrais comme telle Comme t'es, tu seras dans mon top ten Okay ! Pas d'balade en hélicoptère, laissons brûler le feu de la passion rien n'stress! No stress, j'laisserai pas les autres bikos t'plaire, j'suis ton prince charmant j'te ramène en six point tres La street fait de nous des troubles fêtes courtois, toutefois Je me demande encore pourquoi tu me crois fou, loka je suis juste fou d'toi J'ai les mains faites pour l'or, elles sont faites pour toi Rends-moi loko ma loka, Rends-moi loko ma loka,, Rends-moi loko ma loka,, danse pour Mister-Mister Vida Loca! Où seras-tu le Lundi 4 Novembre ? x82</t>
+          <t>Han, 45 tours pour chanter la sère-mi, 45 chtars dans le rétro j'suis zehaf. Ca pue les 45 jours de tard-mi Panamovic à le zen loin du Kérosène, mais il a les cernes dans l'insomnie J'arrive sur le rap-game en bulldozer Qui ne saute pas n'est pas de Paris Animé par les moteurs, les ein-s, la zeb, les tissus des XXX d'Italie Depuis tout petit j'entends qu'faut faire d'l'oseille, Paname je suis l'homme de ta nuit! Rap indépendant financé par les profils à cocaïne, Hôtel, Champaign La vie s'enchérit tellement le sourire des bicos s'payent! No Pain - No Gain! Mais je les arrose à la kalash en pleine euphorie, fucking concurrence à vomir! Entre Drive-by en bolide! Zlat'Hayce compte plaider la folie! Dès l'enfance on est différent comme 2-Chainz! C'est le diable qui tient ton couteau! C'est normal que tu t'prennes des coups d'chaises! Fallait pas nous donnez pouki ton puto! J'vois cette putain d'vie couleur kaki J'sors le mili des yeux c'est car-ci Car-Jacking, ta l'cur qui palpite à la sortie du parking! Hold-Up, Ratatat'Hayce Ratatat'Hayce, Zlat'Hayce connaît pas l'Rap-Game mais le Rap-Game connaît Zlat'Hayce! Lass, Oussem, Dino solo sur un compét' On vend d'la zipette pour faires des emplettes Attraper de belles bitchs, pas d'baraque au bled Moi j'suis parano mec, j'suis pas renommé, à part pour la monnaie, j'suis pas malhonnête J'suis ce parolier, qui peut renier, que j'vous parraine au mic' bande de marionnettes ? J'vais niquer des reu-mé, tu vas pas m'reconnaitre J'ai rien à espérer, rien à promettre Nul n'est à l'abri d'une rafale dans les pommettes De finir à Fleury, Fresnes, aux Baumettes Passez pas la pommade, j'vais devenir vulgaire J'voulais juste une limonade et des chiennes de guerre Comme un pointeur en promenade rentre sous terre Sur Paname ramène pas tes textes de merde, bico ! J'ai tenter de pardonner, la rue m'a donner l'amour que je n'ai pas donner! Né en Algérie j'part de rien! Les plus belles années de ma jeunesse à charbonner! Tous les soirs interpellées, Ils veulent que j'finisse ma vie derrière des barbelés! 6 du mat', Ils débarquent, me soulèvent J'ai le fou-rire en voyant le commissaire gueuler! Rythme de vie dégueulasse, on vit comme ça depuis qu'on a la morve au nez L'illicite une longue impasse que l'on emprunte pour survivre, on en a marre d'voler! Une main de fer dans un gant de velours J'm'adresse a tous ces batards qui veulent me testent Venez! Vous n'allez pas me voir venir! As-tu déjà eu affaire avec un bico décervelé! Il s'agit d'faire du blé! Etant minot j'rasait l'mur pour allez l'tenir! Manque de money, j'me démenais pour en obtenir quitte à m'faire cueillir si les shlags saignent du nez! Ici c'est dur d'aimer son prochain, l'appât du gain pour nous attrayez! Tout ça pour fréquenter des boites de nuits, nul n'est à l'abri de tomber amoureux d'une trainée! On va tous payer, pour le mal qu'on fait chaque jours, On va tous payer! On va tous crever, chacun son heure, chacun son tour, On va tous crever! Electron Libre, je vais où je veux, j'viens du four, j'ai le cur geler! Et de ma vie je n'ai jamais douter que j'entendrais mon heure sonner! C'est mon come-back, je retourne au combat! Fidèle à mes principes jusqu'à la pierre tombale J'refuse qu'on me compare à ces putos j'en bave! Mes lokos sont parti, ne reviendront pas! Relève la tête au lieu d'maculer! De larmes tes draps! Les vrais lokos ne baissent pas les bras! P'tit con ma hargne nait dans les drames! Braah' ! Pure Bico, Pur Malfrat, j'opère en pure indé' comme Alpha! Je n'ai pas de pipo juste une plume trempée dans l'hémoglobine des kehbas Tu rappes une comédie dramatique, J'rappe la street comme un automatique! 'Laisse des scènes de crime grammatical! De nos jours seul la haine est gratuite! J'empoigne le micro comme un glaive pour mes lokos dehors comme aux shtars Hier ils marchaient sur mes rêves, demain je serai leur pire cauchemar J'ai bossé dur pour en arriver là, j'ai débuté dans la cave en acappela C'est le retour de l'arabe en parabellum, pur comme cette poudre près du Venezuela C'est l'retour d'Hayce Lem, j'manque de sommeil, blanche porcelaine est ma gow Si ces bikos veulent ma peau qu'ils craignent un drive-by en vago C'n'est pas une mixtape c'est un braquo, qui veut m'empêcher d'conquérir la Gaule ? Sont sérieux les jaloux ils parlent comme si j'avais 3 Murcielago la gow! Si tu veux qu'on s'entendent, faut qu'tu soit consentante pour que j'ten sanglante après le show case! J'ramène 4 bouteilles monte sur ma bistouquette ça fait bang bang bang Bitch You XXX , you pay on avance en bande Les ptites macrelle sont souvent présentent , en entrant sans gants J'entends toc toc toc , Vic mackey le rap on s'en branle Mon frère on s'comprend , mais dit moi s'que t'en pense Tu tape Hayce lemsi , la rime transcendante , j'les étrangle sans blagues ils repartent sans dents , leurs putes m'harcèlent Wesh monsieur l'agent pose le six hours pour voir La mort est au bout du couloir , l'insomnie c'est de l'or , ils dorment Mais le temps c'est d'l'argent , la vitesse c'est l'pouvoir ! 133 piges colonisé, voilà pourquoi sur la France ont a miser Très tôt dans la délinquance , on a glisser , tous des cas isolé , camisoler Sois pas , XXXX touche le baveux! Pour le beurre et l'argent de la barrette! J'suis du XVBarbare, par où les morveux touchent la drrrogue, le Glock et la bavette ! Réglé comme le big-bang! J'ai la barre de plus et eux deux j'ai toujours envie de ken! Pet'Hayce tu es tellement cette chienne de vie qu't'as choisi d'mener cette vie d'chienne! D'où je sors c'flow de taré! La fourche La J L'allée ! Où sont mes soldats sanguinaires au cur du pavé? Mes bicos font de la money! Mes blackos font de la money! Mes blancos font de la money! Mes lokas font de la money! Mes bicos font de la money! Mes blackos font de la money! Mes blancos font de la money! Mes lokas font de la money! Elle veut pas de toi bico c'est ma Bitch! Elle veut pas de toi bico c'est ma Bitch! Je crois qu'elle cherche un homme riche, elle aura que l'hotel, une teille, un sandwich! Elle veut pas de toi bico c'est ma Bitch! Elle veut pas de toi bico c'est ma Bitch! Welcome to my Hood! On fait d'l'oseille, On Charcute les snitchs! Hip-hop se sél médicament nou ni Muni de ma kalash prémédite le murder Ma jolie t'as les yeux de la même couleur que ma money! Mais j'n'ai pas le compte en banque à Birdman! Tu te donnes en deux minutes si je sors le bolide J'ai le dos tourné mais je sais que tu me regardes! J't'emmène à l'Holiday Inn, goûte à mon insomnie Le lendemain j'monte avec mes potes à me-Da! J'arrive dans l'carré vip all eyes on me, j'lève mon verre à mes amours et mes ennemis! Je ne dormirai pas cette nuit, je ne x3 dormirai pas cette nuit J'voulais viser la lune avant de monter la colline, j'fais ma route comme un homme j'me fout qu'les gens parlent! J'fais ma route solo, carré d'Hayce all in, Wai gars sortir le Rhum le Champagne! Mes lokas sont coquettes le videur est sous cocaïne, elles enflamment la piste Tant que les bikos payent, puis-je t'offrir un cocktail ? Zina arrache ton phone-tel, je te prendrais comme telle Comme t'es, tu seras dans mon top ten Okay ! Pas d'balade en hélicoptère, laissons brûler le feu de la passion rien n'stress! No stress, j'laisserai pas les autres bikos t'plaire, j'suis ton prince charmant j'te ramène en six point tres La street fait de nous des troubles fêtes courtois, toutefois Je me demande encore pourquoi tu me crois fou, loka je suis juste fou d'toi J'ai les mains faites pour l'or, elles sont faites pour toi Rends-moi loko ma loka, Rends-moi loko ma loka,, Rends-moi loko ma loka,, danse pour Mister-Mister Vida Loca! Où seras-tu le Lundi 4 Novembre ? x82</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>- Wesh Hayce ! - Wesh Rebeu - Bien ou quoi ma gueule - Ouais ça va Hamdoullah - Hé là j'ai un plavon pour toi la tête de oim gros - Vas-y raconte, raconte - Hé tu peux poser avec Eminem - Oh lala mais je croyais que tu allais dire un truc sérieux - Arrête , arrête ! Arrête je te crois pas et c'est quand que tu vas dire la vérité dans ta vie ? Zeubi arrête de mentir frère Toi tu mens à ton père, toi tu mens à ton frère, toi tu mens à ta mif' T'es capable de tout faire dans la vie t'es pépère tu ferais tout pour le biff' Les gens t'ont cramé , t'ont cramé, tu continue à nous mettre des disquettes Les gens t'ont cramé , t'ont cramé, tu continue à nous mettre des disquettes Pourquoi tu mens, pourquoi tu mens, pourquoi tu mens Pourquoi tu mens, pourquoi tu mens, pourquoi tu mens On te connait, on te connait ouais mon rebeu on te connait On te connait, on te connait ouais mon renoi on te connait Paroles, paroles, paroles j'te vois venir t'es en impro vas-y doucement Shakespeare Paroles, paroles, paroles tu sais même plus ce que tu dis car tu mens comme tu respires Paroles, paroles, paroles là où le mensonge se dessine la vérité s'extirpe Le refré, la reusseu, le daron, la daronne t'as même bluffé toute la famille t'as perdu leur estime C'est faux You might also like J'entends ap' ce que tu racontes, j'aimerais dire que j'ai confiance, que ta parole est en or mais c'est faux J'en ai marre tu fous la honte et dire que tu crois dur comme fer à tes propos mais tout le monde sait que c'est faux T'as beau noyer la vérité mais elle remonte à la surface T'as fait ci, t'as fait ça poto, c'est faux C'est faux, C'est faux Retiens tes paroles, le mensonge est un vilain défaut On te connait au quartier, personne te suis dans tes plans bourbiers Tu dis aux gens que t'es tron-pa, même le Do-Mac t'a jeté à coup de pied Tout le monde sait que t'es un mytho Tout le monde sait que t'as pas de parole Tu mens même à la daronne, elle te reparlera pas de ci-tôt T'es capable de te créditer, pour prendre le dernier merco T'as ton blaze à la cité, on tappelle Monsieur Pipeau Il t'en faut peu pour t'inciter, t'as pas de biff' ,rien dans le frigo Tout le monde sait que t'es un blaireau Mon frère je crois qu'il serait temps d'arrêter Si on t'écoute t'as gagné toutes tes bagarres, t'as défendu tout ton tiéquar, t'es un super-héros Tu veux fumer sur ma frappe, t'as de la caille, tu fais croire que t'attends des kilos de Caramelo T'as une meuf imaginaire, tu veux faire carrière dans la mythomanie mais t'as pas la mémo Tout ce que tu dis parait faux, désolé frère t'as voulu me la faire à l'envers mais t'as pas trouvé les mots J'entends ap' ce que tu racontes, j'aimerais dire que j'ai confiance, que ta parole est en or mais c'est faux J'en ai marre, tu fous la honte et dire que tu crois dur comme fer à tes propos mais tout le monde sait que c'est faux T'as beau noyer la vérité mais elle remonte à la surface T'as fait ci, t'as fait ça poto, c'est faux C'est faux, c'est faux Retiens tes paroles, le mensonge est un vilain défaut Tu nous dit que t'es manager, producteur, éditeur, réalisateur mais t'es qu'un kholoto Ils se font passer pour mon frère, pour ma sur histoire d'être plus crédibles pour bluffer mes locos Tu fais croire que tu fais pleuvoir les dollars, t'avais pas de quoi payer le loyer, t'as vendu la moto Tu veux faire carrière dans la mythomanie mais t'as pas la mémo bico tout ce que tu dis c'est faux J'entend ap' ce que tu racontes, j'aimerais dire que j'ai confiance, que ta parole est en or mais c'est faux J'en ai marre, tu fous la honte et dire que tu crois dur comme fer à tes propos, mais tout le monde sait que c'est faux T'as beau noyer la vérité mais elle remonte à la surface T'as fait ci, t'as fait ça poto c'est faux C'est faux, c'est faux Retiens tes paroles, le mensonge est un vilain défaut</t>
+          <t>- Wesh Hayce ! - Wesh Rebeu - Bien ou quoi ma gueule - Ouais ça va Hamdoullah - Hé là j'ai un plavon pour toi la tête de oim gros - Vas-y raconte, raconte - Hé tu peux poser avec Eminem - Oh lala mais je croyais que tu allais dire un truc sérieux - Arrête , arrête ! Arrête je te crois pas et c'est quand que tu vas dire la vérité dans ta vie ? Zeubi arrête de mentir frère Toi tu mens à ton père, toi tu mens à ton frère, toi tu mens à ta mif' T'es capable de tout faire dans la vie t'es pépère tu ferais tout pour le biff' Les gens t'ont cramé , t'ont cramé, tu continue à nous mettre des disquettes Les gens t'ont cramé , t'ont cramé, tu continue à nous mettre des disquettes Pourquoi tu mens, pourquoi tu mens, pourquoi tu mens Pourquoi tu mens, pourquoi tu mens, pourquoi tu mens On te connait, on te connait ouais mon rebeu on te connait On te connait, on te connait ouais mon renoi on te connait Paroles, paroles, paroles j'te vois venir t'es en impro vas-y doucement Shakespeare Paroles, paroles, paroles tu sais même plus ce que tu dis car tu mens comme tu respires Paroles, paroles, paroles là où le mensonge se dessine la vérité s'extirpe Le refré, la reusseu, le daron, la daronne t'as même bluffé toute la famille t'as perdu leur estime C'est faux J'entends ap' ce que tu racontes, j'aimerais dire que j'ai confiance, que ta parole est en or mais c'est faux J'en ai marre tu fous la honte et dire que tu crois dur comme fer à tes propos mais tout le monde sait que c'est faux T'as beau noyer la vérité mais elle remonte à la surface T'as fait ci, t'as fait ça poto, c'est faux C'est faux, C'est faux Retiens tes paroles, le mensonge est un vilain défaut On te connait au quartier, personne te suis dans tes plans bourbiers Tu dis aux gens que t'es tron-pa, même le Do-Mac t'a jeté à coup de pied Tout le monde sait que t'es un mytho Tout le monde sait que t'as pas de parole Tu mens même à la daronne, elle te reparlera pas de ci-tôt T'es capable de te créditer, pour prendre le dernier merco T'as ton blaze à la cité, on tappelle Monsieur Pipeau Il t'en faut peu pour t'inciter, t'as pas de biff' ,rien dans le frigo Tout le monde sait que t'es un blaireau Mon frère je crois qu'il serait temps d'arrêter Si on t'écoute t'as gagné toutes tes bagarres, t'as défendu tout ton tiéquar, t'es un super-héros Tu veux fumer sur ma frappe, t'as de la caille, tu fais croire que t'attends des kilos de Caramelo T'as une meuf imaginaire, tu veux faire carrière dans la mythomanie mais t'as pas la mémo Tout ce que tu dis parait faux, désolé frère t'as voulu me la faire à l'envers mais t'as pas trouvé les mots J'entends ap' ce que tu racontes, j'aimerais dire que j'ai confiance, que ta parole est en or mais c'est faux J'en ai marre, tu fous la honte et dire que tu crois dur comme fer à tes propos mais tout le monde sait que c'est faux T'as beau noyer la vérité mais elle remonte à la surface T'as fait ci, t'as fait ça poto, c'est faux C'est faux, c'est faux Retiens tes paroles, le mensonge est un vilain défaut Tu nous dit que t'es manager, producteur, éditeur, réalisateur mais t'es qu'un kholoto Ils se font passer pour mon frère, pour ma sur histoire d'être plus crédibles pour bluffer mes locos Tu fais croire que tu fais pleuvoir les dollars, t'avais pas de quoi payer le loyer, t'as vendu la moto Tu veux faire carrière dans la mythomanie mais t'as pas la mémo bico tout ce que tu dis c'est faux J'entend ap' ce que tu racontes, j'aimerais dire que j'ai confiance, que ta parole est en or mais c'est faux J'en ai marre, tu fous la honte et dire que tu crois dur comme fer à tes propos, mais tout le monde sait que c'est faux T'as beau noyer la vérité mais elle remonte à la surface T'as fait ci, t'as fait ça poto c'est faux C'est faux, c'est faux Retiens tes paroles, le mensonge est un vilain défaut</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Yeah, Big Lemsi Eureka toujours disponible sur toutes les plateformes de téléchargement légales yeah hoe Même pas besoin d'enclencher le Sharingan, j'pars à la chasse pour la mi-fa comme si j'étais Charle Ingalls J'suis rentré dans l'rap avec des allumettes, un jerrycan, talentueux comme Jericco, je t'entends rapper, je ricane La cervelle est un muscle, j'ai l'esprit bodybuildeur, un pyromane au mic', mâchoire de boerbull Etant petit j'ai dû tomber dans une marmite de Red Bull, elle danse, on ne peut pas s'empêcher de lui toucher le boule Sale pute 18 carat' sur le torse, elle a des tatoos' sur le corps, j'ai des jaloux sur les côtes J'leur fait manger le décor', j'ai gué-lar les garde-côtes, bombardé vers le Nord, même en prison j'ai le sourire dans le couloir de la mort Qui peut m'empêcher d'aller prendre ma part ? Avec les pierres qu'on m'a jeté j'ai bâti mon empire C'est pas pour autant que j'suis le pire des bâtard, j'aime pas l'hypocrisie, tu n'es bon qu'à mentir Zouzou gratte mon nom sur les murs que mon son lézarde, j'suis en nike air bourré sans ré-sa Une michto' qui t'a pris pour un Dab', certaines pensent que les billets tombent des arbres J'rentre dans l'truck, comme gynécologue alcoolo', j'lui met ap' dans l'uc J'fais les choses bien j'suis écolo', laisse moi flex' avec ma p'tite babtou, laisse moi rouler CaseyJones Hey hey hey, j'prend le micro comme un boss hey J'allume ces salopes un, dos, tres, j'allume ces salopes un, dos, tres Fuck les associateurs comme Ramsès yah, patate dans les 3assas yah Du matin au soir je flex, pas besoin d'S, je t'allume après les Corn Flakes Mentalité Boumédiène, tu sens le couscous, le tajine, la kush et le poulet tiep J'arrive à Genève il y a mes bikos de Saint-Étienne, t'auras beaucoup moins d'empathie dans l'impasse entouré de hyennes P'tit bouffon de merde, j'fais sauter les soutifs' et les bouchons de liège, Grr Grrr Boug en mwen T'étais bien installé mais j'suis venu hagar ton siège, j'suis toujours à laffût, je guette partout tah les concierges Elle m'a croisé, j'écrivais ma mélancolie sous les réverbères Elle me demande c'est le cur ? La raison ? J'ai répondu c'était la raison du cur BANG BANG Yeah hoe On change d'instru on change de rythmique, on change de bail Yeah You might also like Yeah hoe Dédic-Haysse à toute ma fan base, tous les Zouzous, les lokos les lokas, tous ceux qui m'soutiennent depuis l'début de loin comme de près Yeah, yeah Ton regard ne m'fait ni chaud ni froid t'es comme un flic à la morgue Rentre gentillement dans ton serie 3 reprend ta chienne avant qu'j'la morde Quand j'vois l'ampleur que prend l'industrie j'regrette le tourne disque J'ai commencé l'rap en marchant dans l'17 avec un tourne vis Abaissez le pont-levis, on dit un truc on le fait Notre son on le rap pas on le vit, minuit pétante on est fait Une michtonneuse on la baise, un p'tit qui charbonne on l'refait Comme tes gros seins j'suis refais, comme ton gros boule j'suis refais Pour toi c'est pas qu't'enterre un neuf, pour moi c'est har j'déterre un neuf J'ai fumé beaucoup d'amné, j'ai fais courir plus d'un keuf Sous skuff je fracasse l'algorithme avec un flow fantasmagorique Tu fantasmes sur Largo , tu m'espionnes wesh LargoWinch ? Elle veut Birkin et Richard Mille et monter dans la Lamborghini d'un Narco riche Pas du genre à calculer les p'tites chattes prises, j'mettrai jamais les pieds dans ta chicha pleine de witch Mmmh jacte, mmmh l'album arrive dans les bacs, est dans les bacs Mmmh j'entends les rageux aouh, j'entends les rageux débattre aouh Renard rusé toujours à l'affût J'mets du beurre dans mes épinards, du Rosé Ruinard dans le fond d'ma flute Tout est faux ton flow ton t-shirt fucking tricheur Achète des streams espèce d'enfoiré d'fucking tricheur Eh, j'veux pas d'caresses, jveux un RS, j'veux pas nahess, j'veux qu'tu J'sors du hebs, j'nique des mères, personne va rien faire PVRF Yeah hoe, yeah hoe, c'est Hayce Lemsi Gucci Gang Tu veux , j'suis dans l'Cayenne et j'vous baise Bang</t>
+          <t>Yeah, Big Lemsi Eureka toujours disponible sur toutes les plateformes de téléchargement légales yeah hoe Même pas besoin d'enclencher le Sharingan, j'pars à la chasse pour la mi-fa comme si j'étais Charle Ingalls J'suis rentré dans l'rap avec des allumettes, un jerrycan, talentueux comme Jericco, je t'entends rapper, je ricane La cervelle est un muscle, j'ai l'esprit bodybuildeur, un pyromane au mic', mâchoire de boerbull Etant petit j'ai dû tomber dans une marmite de Red Bull, elle danse, on ne peut pas s'empêcher de lui toucher le boule Sale pute 18 carat' sur le torse, elle a des tatoos' sur le corps, j'ai des jaloux sur les côtes J'leur fait manger le décor', j'ai gué-lar les garde-côtes, bombardé vers le Nord, même en prison j'ai le sourire dans le couloir de la mort Qui peut m'empêcher d'aller prendre ma part ? Avec les pierres qu'on m'a jeté j'ai bâti mon empire C'est pas pour autant que j'suis le pire des bâtard, j'aime pas l'hypocrisie, tu n'es bon qu'à mentir Zouzou gratte mon nom sur les murs que mon son lézarde, j'suis en nike air bourré sans ré-sa Une michto' qui t'a pris pour un Dab', certaines pensent que les billets tombent des arbres J'rentre dans l'truck, comme gynécologue alcoolo', j'lui met ap' dans l'uc J'fais les choses bien j'suis écolo', laisse moi flex' avec ma p'tite babtou, laisse moi rouler CaseyJones Hey hey hey, j'prend le micro comme un boss hey J'allume ces salopes un, dos, tres, j'allume ces salopes un, dos, tres Fuck les associateurs comme Ramsès yah, patate dans les 3assas yah Du matin au soir je flex, pas besoin d'S, je t'allume après les Corn Flakes Mentalité Boumédiène, tu sens le couscous, le tajine, la kush et le poulet tiep J'arrive à Genève il y a mes bikos de Saint-Étienne, t'auras beaucoup moins d'empathie dans l'impasse entouré de hyennes P'tit bouffon de merde, j'fais sauter les soutifs' et les bouchons de liège, Grr Grrr Boug en mwen T'étais bien installé mais j'suis venu hagar ton siège, j'suis toujours à laffût, je guette partout tah les concierges Elle m'a croisé, j'écrivais ma mélancolie sous les réverbères Elle me demande c'est le cur ? La raison ? J'ai répondu c'était la raison du cur BANG BANG Yeah hoe On change d'instru on change de rythmique, on change de bail Yeah Yeah hoe Dédic-Haysse à toute ma fan base, tous les Zouzous, les lokos les lokas, tous ceux qui m'soutiennent depuis l'début de loin comme de près Yeah, yeah Ton regard ne m'fait ni chaud ni froid t'es comme un flic à la morgue Rentre gentillement dans ton serie 3 reprend ta chienne avant qu'j'la morde Quand j'vois l'ampleur que prend l'industrie j'regrette le tourne disque J'ai commencé l'rap en marchant dans l'17 avec un tourne vis Abaissez le pont-levis, on dit un truc on le fait Notre son on le rap pas on le vit, minuit pétante on est fait Une michtonneuse on la baise, un p'tit qui charbonne on l'refait Comme tes gros seins j'suis refais, comme ton gros boule j'suis refais Pour toi c'est pas qu't'enterre un neuf, pour moi c'est har j'déterre un neuf J'ai fumé beaucoup d'amné, j'ai fais courir plus d'un keuf Sous skuff je fracasse l'algorithme avec un flow fantasmagorique Tu fantasmes sur Largo , tu m'espionnes wesh LargoWinch ? Elle veut Birkin et Richard Mille et monter dans la Lamborghini d'un Narco riche Pas du genre à calculer les p'tites chattes prises, j'mettrai jamais les pieds dans ta chicha pleine de witch Mmmh jacte, mmmh l'album arrive dans les bacs, est dans les bacs Mmmh j'entends les rageux aouh, j'entends les rageux débattre aouh Renard rusé toujours à l'affût J'mets du beurre dans mes épinards, du Rosé Ruinard dans le fond d'ma flute Tout est faux ton flow ton t-shirt fucking tricheur Achète des streams espèce d'enfoiré d'fucking tricheur Eh, j'veux pas d'caresses, jveux un RS, j'veux pas nahess, j'veux qu'tu J'sors du hebs, j'nique des mères, personne va rien faire PVRF Yeah hoe, yeah hoe, c'est Hayce Lemsi Gucci Gang Tu veux , j'suis dans l'Cayenne et j'vous baise Bang</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Tu sais pas ce que j'ai dans la tête J'ai toujours voulu faire du blé, toujours faire de la moula On traînait au quartier en claquette Y'a toujours un pote qui veut t'baiser, une salope qui tentera son coup bas On a toujours fait du sale On a toujours fait du sale On a toujours fait du sale Personne narrêtera le temps ni les balles On a toujours fait du sale On a toujours fait du sale On a toujours fait du sale Personne narrêtera le temps ni les balles Saitama ne laisse pas de traces sur l'autopsie J'ai une grosse queue mais mon coeur est trop petit Touche à la mif' je te casse le coccyx Tu dis que c'est la bonne Elle n'est même pas dans le top 10 Elle veut la bague elle veut l'hélicoptère Mon équipe mène toujours au score Il fait le mec riche, il a grossi C'est pas l'argent qui est rentré, c'est juste un gros porc Hein fils de pute, y'a toujours un mec qui veut t'baiser Y'a toujours un faux-frère qui fait l'ancien Y'a toujours une meuf qui va jouer la bastos En vrai t'es cheum, c'est les photos qui rendent bien hm c'est les photos qui rendent bien Là, je me rends compte que le temps passe vite Elle maîtrise le grand écart sans gymnastique J'pense qu'il va falloir revoir ta tactique Et si j'le voulais, j'aurais fait ma place En freestyle, dis-moi qui peux m'arrêter Personne n'écrit mes textes, j'ai travaillé J'mérite ma carrière, on m'la pas prêtée J'n'ai jamais fait d'moula dans l'illégal Sa chatte est propre mais son biff est sale Pendant qu'tu parles sur nous, ça remplit les salles Même si t'as l'nez bouché, t'as senti les balles You might also like Tu sais pas ce que j'ai dans la tête J'ai toujours voulu faire du blé, toujours faire de la moula On traînait au quartier en claquette Y'a toujours un pote qui veut t'baiser, une salope qui tentera son coup bas On a toujours fait du sale On a toujours fait du sale On a toujours fait du sale Personne narrêtera le temps ni les balles On a toujours fait du sale On a toujours fait du sale On a toujours fait du sale Personne narrêtera le temps ni les balles On a toujours fait du sale On soulevait des coffres, des tableaux On calibrait comme à Chicago J'aime qu'elle m'appelle Young Pablo Et j'ai décapoté l'gamos Et j'ai décapoté l'gamos J'réanime le game comme un défibrillateur Enlève les épines bâtard avant de me jeter des fleurs Quand la maîtresse m'a demandé Tu feras quoi plus tard ? J'ai répondu qu'j'voulais devenir le plus rapide des rappeurs Je sais que t'auras pas les couilles d'appuyer sur la détente Fake biko, t'as vendu l'teki t'en fais des tonnes Rat d'égout connaît la chatte, il fait le gramme à septante Manie la parabellum, grrr C'est vrai qu'l'argent nous rend bel homme On vendait la mort en galette Pour les plages de Marbella Le loyer c'est quarante barrettes T'es paralysé, t'as mis la prométhazine dans l'Sprite Les chicos niqués à cause des glaçons que j'mets dans l'sky Lève la bécane, midi trente T'as fait quelques vues, tu t'vantes Gros, qu'il neige, qu'il pleuve, qu'il vente Tu feras même pas 238 ventes Tu sais pas ce que j'ai dans la tête J'ai toujours voulu faire du blé, toujours faire de la moula On traînait au quartier en claquette Y'a toujours un pote qui veut t'baiser, une salope qui tentera son coup bas On a toujours fait du sale On a toujours fait du sale On a toujours fait du sale Personne narrêtera le temps ni les balles On a toujours fait du sale On a toujours fait du sale On a toujours fait du sale Personne narrêtera le temps ni les balles2</t>
+          <t>Tu sais pas ce que j'ai dans la tête J'ai toujours voulu faire du blé, toujours faire de la moula On traînait au quartier en claquette Y'a toujours un pote qui veut t'baiser, une salope qui tentera son coup bas On a toujours fait du sale On a toujours fait du sale On a toujours fait du sale Personne narrêtera le temps ni les balles On a toujours fait du sale On a toujours fait du sale On a toujours fait du sale Personne narrêtera le temps ni les balles Saitama ne laisse pas de traces sur l'autopsie J'ai une grosse queue mais mon coeur est trop petit Touche à la mif' je te casse le coccyx Tu dis que c'est la bonne Elle n'est même pas dans le top 10 Elle veut la bague elle veut l'hélicoptère Mon équipe mène toujours au score Il fait le mec riche, il a grossi C'est pas l'argent qui est rentré, c'est juste un gros porc Hein fils de pute, y'a toujours un mec qui veut t'baiser Y'a toujours un faux-frère qui fait l'ancien Y'a toujours une meuf qui va jouer la bastos En vrai t'es cheum, c'est les photos qui rendent bien hm c'est les photos qui rendent bien Là, je me rends compte que le temps passe vite Elle maîtrise le grand écart sans gymnastique J'pense qu'il va falloir revoir ta tactique Et si j'le voulais, j'aurais fait ma place En freestyle, dis-moi qui peux m'arrêter Personne n'écrit mes textes, j'ai travaillé J'mérite ma carrière, on m'la pas prêtée J'n'ai jamais fait d'moula dans l'illégal Sa chatte est propre mais son biff est sale Pendant qu'tu parles sur nous, ça remplit les salles Même si t'as l'nez bouché, t'as senti les balles Tu sais pas ce que j'ai dans la tête J'ai toujours voulu faire du blé, toujours faire de la moula On traînait au quartier en claquette Y'a toujours un pote qui veut t'baiser, une salope qui tentera son coup bas On a toujours fait du sale On a toujours fait du sale On a toujours fait du sale Personne narrêtera le temps ni les balles On a toujours fait du sale On a toujours fait du sale On a toujours fait du sale Personne narrêtera le temps ni les balles On a toujours fait du sale On soulevait des coffres, des tableaux On calibrait comme à Chicago J'aime qu'elle m'appelle Young Pablo Et j'ai décapoté l'gamos Et j'ai décapoté l'gamos J'réanime le game comme un défibrillateur Enlève les épines bâtard avant de me jeter des fleurs Quand la maîtresse m'a demandé Tu feras quoi plus tard ? J'ai répondu qu'j'voulais devenir le plus rapide des rappeurs Je sais que t'auras pas les couilles d'appuyer sur la détente Fake biko, t'as vendu l'teki t'en fais des tonnes Rat d'égout connaît la chatte, il fait le gramme à septante Manie la parabellum, grrr C'est vrai qu'l'argent nous rend bel homme On vendait la mort en galette Pour les plages de Marbella Le loyer c'est quarante barrettes T'es paralysé, t'as mis la prométhazine dans l'Sprite Les chicos niqués à cause des glaçons que j'mets dans l'sky Lève la bécane, midi trente T'as fait quelques vues, tu t'vantes Gros, qu'il neige, qu'il pleuve, qu'il vente Tu feras même pas 238 ventes Tu sais pas ce que j'ai dans la tête J'ai toujours voulu faire du blé, toujours faire de la moula On traînait au quartier en claquette Y'a toujours un pote qui veut t'baiser, une salope qui tentera son coup bas On a toujours fait du sale On a toujours fait du sale On a toujours fait du sale Personne narrêtera le temps ni les balles On a toujours fait du sale On a toujours fait du sale On a toujours fait du sale Personne narrêtera le temps ni les balles2</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>J'te parle d'un truc J'te parle d'un truc J'te parle d'un truc Jsuis arrivé en One-One, jsuis repartie en deux-deux Jreviens en 4x4 avec un Neuf-neuf bitch Jai visé la Lune avant de toucher les étoiles Jamène un flow Star-Trek, tas réussi ? Bsahtek Dis-moi combien tas du payer pour acheter la victoire ? Combien de fois tas du changer déquipe espèce de sale traître ? Dans ta sale tête Haystalavista XXX Trop dinspi presque jécris comme le Bors' Mon meilleur petit veille sur le porche 75 carats sur le torse on a sorti Papillon pour te piquer comme labeille Tais-toi poupée ! Au loin jentends rire les hyènes On nest pas beaux, on est bourbiers Tu nempêcheras pas lclient de prendre le seum si tu la mal vi-ser Tu nempêcheras pas dsortir ta petite sur si tu lui demandes des sous comme un ptit frère Jai jeté mon gazouz v-esqui la gazeuse a Carlos Des kilos de cocaïne à des milliers de lames Jai jeté mon calumet mais je vais t'affronter vatos Je ne vais pas tallumer je vais te niquer ta mère Jvais te faire un truc de ouf Jte parle dun truc, jte parle dun truc Jte parle dun truc Bico jvais te faire un truc de ouf Jte parle dun truc, jte parle dun truc Haya Haya Jte parle dun truc, jte parle dun truc You might also like Jte parle dun truc, jte parle dun truc J'ai croisé cette pute, j'te parle d'un ul-c Quand je la regarde dans les yeux j'te parle d'un truc Brolique chargé dans le hall j'te parle de plein de trucs Du Corner à Los Angeles, de la Cave aux Showcases Ou est donc passée ma jeunesse, ma paire de Cortèze ? Tu rentres chez nous en CLS, tu repars en prothèse Oui c'est bien moi dans la Rolls au milieu du cortège J'écris mon testament le jour de ma naissance J'vais tout faire péter, chaque album un bidon d'essence Que j'ai vidé sur la concurrence en convalescence Rentre dans le triangle je t'enseigne mes sciences Méfiance la juge ne parle pas de sursis bico J'compte que sur mon Uzi bico Ma Pet'Hayce n'a pas de silicone J'suis devenu ce putain de C.E.O Si t'es de Paris Nord c'est que nos vies sont symétriques Si t'es hardcore, montres nous ce que t'as dans les tripes L'electron libre ne vit pas dans les normes mais prend l'avion avec une grosse liasse et un passeport biométrique Street life d'un poète incompris Ta vie, tu la rêves ou tu l'accomplis ? Des cernes de zombies de haine assombri Cagoulés dans la Porsche mes négros sont pris 11</t>
+          <t>J'te parle d'un truc J'te parle d'un truc J'te parle d'un truc Jsuis arrivé en One-One, jsuis repartie en deux-deux Jreviens en 4x4 avec un Neuf-neuf bitch Jai visé la Lune avant de toucher les étoiles Jamène un flow Star-Trek, tas réussi ? Bsahtek Dis-moi combien tas du payer pour acheter la victoire ? Combien de fois tas du changer déquipe espèce de sale traître ? Dans ta sale tête Haystalavista XXX Trop dinspi presque jécris comme le Bors' Mon meilleur petit veille sur le porche 75 carats sur le torse on a sorti Papillon pour te piquer comme labeille Tais-toi poupée ! Au loin jentends rire les hyènes On nest pas beaux, on est bourbiers Tu nempêcheras pas lclient de prendre le seum si tu la mal vi-ser Tu nempêcheras pas dsortir ta petite sur si tu lui demandes des sous comme un ptit frère Jai jeté mon gazouz v-esqui la gazeuse a Carlos Des kilos de cocaïne à des milliers de lames Jai jeté mon calumet mais je vais t'affronter vatos Je ne vais pas tallumer je vais te niquer ta mère Jvais te faire un truc de ouf Jte parle dun truc, jte parle dun truc Jte parle dun truc Bico jvais te faire un truc de ouf Jte parle dun truc, jte parle dun truc Haya Haya Jte parle dun truc, jte parle dun truc Jte parle dun truc, jte parle dun truc J'ai croisé cette pute, j'te parle d'un ul-c Quand je la regarde dans les yeux j'te parle d'un truc Brolique chargé dans le hall j'te parle de plein de trucs Du Corner à Los Angeles, de la Cave aux Showcases Ou est donc passée ma jeunesse, ma paire de Cortèze ? Tu rentres chez nous en CLS, tu repars en prothèse Oui c'est bien moi dans la Rolls au milieu du cortège J'écris mon testament le jour de ma naissance J'vais tout faire péter, chaque album un bidon d'essence Que j'ai vidé sur la concurrence en convalescence Rentre dans le triangle je t'enseigne mes sciences Méfiance la juge ne parle pas de sursis bico J'compte que sur mon Uzi bico Ma Pet'Hayce n'a pas de silicone J'suis devenu ce putain de C.E.O Si t'es de Paris Nord c'est que nos vies sont symétriques Si t'es hardcore, montres nous ce que t'as dans les tripes L'electron libre ne vit pas dans les normes mais prend l'avion avec une grosse liasse et un passeport biométrique Street life d'un poète incompris Ta vie, tu la rêves ou tu l'accomplis ? Des cernes de zombies de haine assombri Cagoulés dans la Porsche mes négros sont pris 11</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>The Shin Sekaï, Frères Lumières, Indéfini Oh oh ah Quel est l'enculé qui veut tester ? Je n'ai pas vraiment leur level, en toute modestie Nous faisons ce truc pour les lovés et le prestige, découper du MC depuis que j'ai 13 piges Paris j'n'ai pas décidé d'y naître, tous ceux qui y ont résidé s'y perdre Ah ! Mais bande d'imbéciles j'perfore la vessie d'celui dont ta té-ci est si fier Je suis ce gava noir comme ton cur penses-tu que j'ai mauvaise odeur ? Afin de mettre ses proches au beurre Aboubacar est prêt à te faire du sale Tout mes compères le savent pour ces tains-pu, mes associés n'ont guère le time Le game en otage, paix à son âme Amen j'suis vrai, je ne joue pas d'personnage La jalousie dans l'oeil de ces négros je ressens qu'elle est sur mes tes-cô Mon équipe et moi-même, nous passons de niveau, en niveau, en niveau ne te compare jamais, pauvre nigaud Paris Centre est mon secteur, les ghettos chics, mon gars, mes sappes et mes seize sont toujours clean Paris Centre est mon secteur, les ghettos chics, je viens de là où Marianne s'en met dans l'pif Mothafuckin' Tall Hmmm, j'veux faire des lovés Remplir mes poches, plus jamais compter ouais D'Janvier à Janvier 7 jours sur 7, 12 mois dans l'année Ils n'ont qu'à m'envier, ils sont mauvais Dis-moi... You might also like Quel est l'enculé qui veut tester ? Quel est l'enculé qui veut tester ? Quel est l'enculé qui veut tester ? Je vais lui inculquer tout ce qu'est le respect J'ai dit Quel est l'enculé qui veut tester ? Quel est l'enculé qui veut tester ? Quel est l'enculé qui veut tester ? Je vais lui inculquer tout ce qu'est le respect Pourquoi tu parles mal, j'ai pas ton âge, j'dis tout haut c'que ma plume dessine Pendant qu'tu fais l'canard avec ta meuf au tier-quar, on parle le langage des signes J'fais l'tour de la ville tu parles de moi dans tes textes Ta future meuf, c'est mon ex j'confonds mon Glock et mon sexe Non, j'rigole, j'ai pas d'gun j'ai juste une plume de bâtard À 40 balais, toi tu rappes encore ? Range ta carrirère dans l'placard ta gueule J'vous prends tous en vrette-le ferme-la ou bien essaie de faire mieux Ça fait 4 ans qu'j'suis dans l'game et j'commence déjà à m'faire vieux Saitama Swerve ! Je dégaine, je tire, je rengaine, again, j'ai le Ruger, c'est la guerre et le rap game est sur le ruban, nae-nae Tall et Dadju dans le bando pour une rafale, Indéfini, pas de tminiks, à tous mes lokos qui nae-nae J'suis le coup d'vent sur la robe de Marylin, mes bikos te laissent au fond de la Seine-Maritime Tous les jours une loka me dit Lemsi, marry me, je sors le dernier gamos en moins d'une heure, je fais Paris-Nice Sale chien d'la douane, j'suis sous mandarine Impérial au fond du solarium Faya dem bitch t'aimes, t'es dans l'funérarium, j'ai des manies dans mon arc je rêve d'en avoir l'or Wesh young biko, Veuve Cliquot, mon blaze est déjà gravé dans tous les comicos Suite au Hyatt ma loca, c'est pas la keh' à Mojito Hmmm, j'veux faire des lovés Remplir mes poches, plus jamais compter ouais D'Janvier à Janvier 7 jours sur 7, 12 mois dans l'année Ils n'ont qu'à m'envier, ils sont mauvais Dis-moi... Quel est l'enculé qui veut tester ? Quel est l'enculé qui veut tester ? Quel est l'enculé qui veut tester ? Je vais lui inculquer tout ce qu'est le respect J'ai dit Quel est l'enculé qui veut tester ? Quel est l'enculé qui veut tester ? Quel est l'enculé qui veut tester ? Je vais lui inculquer tout ce qu'est le respect1</t>
+          <t>The Shin Sekaï, Frères Lumières, Indéfini Oh oh ah Quel est l'enculé qui veut tester ? Je n'ai pas vraiment leur level, en toute modestie Nous faisons ce truc pour les lovés et le prestige, découper du MC depuis que j'ai 13 piges Paris j'n'ai pas décidé d'y naître, tous ceux qui y ont résidé s'y perdre Ah ! Mais bande d'imbéciles j'perfore la vessie d'celui dont ta té-ci est si fier Je suis ce gava noir comme ton cur penses-tu que j'ai mauvaise odeur ? Afin de mettre ses proches au beurre Aboubacar est prêt à te faire du sale Tout mes compères le savent pour ces tains-pu, mes associés n'ont guère le time Le game en otage, paix à son âme Amen j'suis vrai, je ne joue pas d'personnage La jalousie dans l'oeil de ces négros je ressens qu'elle est sur mes tes-cô Mon équipe et moi-même, nous passons de niveau, en niveau, en niveau ne te compare jamais, pauvre nigaud Paris Centre est mon secteur, les ghettos chics, mon gars, mes sappes et mes seize sont toujours clean Paris Centre est mon secteur, les ghettos chics, je viens de là où Marianne s'en met dans l'pif Mothafuckin' Tall Hmmm, j'veux faire des lovés Remplir mes poches, plus jamais compter ouais D'Janvier à Janvier 7 jours sur 7, 12 mois dans l'année Ils n'ont qu'à m'envier, ils sont mauvais Dis-moi... Quel est l'enculé qui veut tester ? Quel est l'enculé qui veut tester ? Quel est l'enculé qui veut tester ? Je vais lui inculquer tout ce qu'est le respect J'ai dit Quel est l'enculé qui veut tester ? Quel est l'enculé qui veut tester ? Quel est l'enculé qui veut tester ? Je vais lui inculquer tout ce qu'est le respect Pourquoi tu parles mal, j'ai pas ton âge, j'dis tout haut c'que ma plume dessine Pendant qu'tu fais l'canard avec ta meuf au tier-quar, on parle le langage des signes J'fais l'tour de la ville tu parles de moi dans tes textes Ta future meuf, c'est mon ex j'confonds mon Glock et mon sexe Non, j'rigole, j'ai pas d'gun j'ai juste une plume de bâtard À 40 balais, toi tu rappes encore ? Range ta carrirère dans l'placard ta gueule J'vous prends tous en vrette-le ferme-la ou bien essaie de faire mieux Ça fait 4 ans qu'j'suis dans l'game et j'commence déjà à m'faire vieux Saitama Swerve ! Je dégaine, je tire, je rengaine, again, j'ai le Ruger, c'est la guerre et le rap game est sur le ruban, nae-nae Tall et Dadju dans le bando pour une rafale, Indéfini, pas de tminiks, à tous mes lokos qui nae-nae J'suis le coup d'vent sur la robe de Marylin, mes bikos te laissent au fond de la Seine-Maritime Tous les jours une loka me dit Lemsi, marry me, je sors le dernier gamos en moins d'une heure, je fais Paris-Nice Sale chien d'la douane, j'suis sous mandarine Impérial au fond du solarium Faya dem bitch t'aimes, t'es dans l'funérarium, j'ai des manies dans mon arc je rêve d'en avoir l'or Wesh young biko, Veuve Cliquot, mon blaze est déjà gravé dans tous les comicos Suite au Hyatt ma loca, c'est pas la keh' à Mojito Hmmm, j'veux faire des lovés Remplir mes poches, plus jamais compter ouais D'Janvier à Janvier 7 jours sur 7, 12 mois dans l'année Ils n'ont qu'à m'envier, ils sont mauvais Dis-moi... Quel est l'enculé qui veut tester ? Quel est l'enculé qui veut tester ? Quel est l'enculé qui veut tester ? Je vais lui inculquer tout ce qu'est le respect J'ai dit Quel est l'enculé qui veut tester ? Quel est l'enculé qui veut tester ? Quel est l'enculé qui veut tester ? Je vais lui inculquer tout ce qu'est le respect1</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MillionBeats Hayce J'ai failli m'faire avoir le paraître, le pouvoir, les paillettes, le Ruinart, les parures, le renard Le revers d'la médaille dans l'ivresse, dans le noir, j'suis en mode non retour, je ne veux plus les voir J'ai failli m'faire avoir le paraître, le pouvoir, les paillettes, le Ruinart, les parures, le renard Le revers d'la médaille dans l'ivresse, dans le noir, j'suis en mode non retour, je ne veux plus les voir Eh, j'sors d'la maison hantée, j'vais reprendre le rrain-te J'vais mettre les doigts dans leur gâteau pour m'emparer d'leur fève Tu rêvais d'me voir en vrai, les poings, le visage enflés, j'quitte les bras d'Morphée pour aller braquer l'orfèvre Y a qu'en leur faisant la guerre jusqu'à les regarder ramper que j'pourrais mourir en paix, tu pourras pas recompter J'suis pas dans les clubs, j'suis avec mes trafiquantés, Alicante Les petits mettent des coups d'tournevis très tôt, j'sors du binks, j'me fais serrer comme un ristretto Crépuscule, mes idées les plus malsaines se bousculent, shout-out aux grands d'chez moi qui sont tombés pour stup' J'suis un bonhomme, j'veux pas tomber pour assumer des salopes qui t'enverraient même pas d'quoi cantiner, quelques échalotes Eh, eh, bipolaire avec un Glock, trap Hayce, on est dans la cuisine sans la toque, toque, toque Ok, j'ai comme une maladie, envie d'niquer des mères sur n'importe quelle mélodie J'fume la OG, j'monte le son dans la Audi C'est comme une maladie, c'est comme une maladie Obligé d'casser des bouches, tu casses du sucre, on m'a dit, t'es jaloux, tu nous maudis C'est comme une maladie, c'est comme une maladie On fait la moula quand tu dors, fais pas la mala, on t'a dit, c'est comme une maladie c'est comme une maladie You might also like J'ai failli m'faire avoir le paraître, le pouvoir, les paillettes, le Ruinart, les parures, le renard Le revers d'la médaille dans l'ivresse, dans le noir, j'suis en mode non retour, je ne veux plus les voir J'ai failli m'faire avoir le paraître, le pouvoir, les paillettes, le Ruinart, les parures, le renard Le revers d'la médaille dans l'ivresse, dans le noir, j'suis en mode non retour, je ne veux plus les voir Monsieur l'agent, j'faisais bagatelles avec ma compagne, j'étais pas là, j'savais pas qu'ça avait pull up dans l'bât' Arrête de pper-ra, t'es affolé pour une petite entaille, on faisait la selha t'étais même pas né, petit nangaille J'marche solo comme un nomade, comme un homme du Nord au Sud J'mange ta part avant d'me torcher avec tes idées reçues Tout l'monde sait qu'tu dois des sous, un soir, on va t'tomber dessus Gars, on va t'rouler dessus La retraite à soixante-cinq pour une jeunesse qui rêve de rouler en A45 bien avant quarante-cinq C'pas un 6-35, j'arrive du septante-cinq, j'ai la taule dans la peau, j'ai la tôle dans la paume J'ai l'atome de folie, pétasse, ton avis, on s'en cogne, on fait semblant d's'intéresser à c'que tu dis parce que t'es bonne Eh, bipolaire avec un Glock, trap Hayce on est dans la cuisine sans la toque, toque, toque Ok, j'ai comme une maladie, envie d'niquer des mères sur n'importe quelle mélodie J'fume la OG, j'monte le son dans la Audi C'est comme une maladie, c'est comme une maladie Obligé d'casser des bouches, tu casses du sucre, on m'a dit, t'es jaloux, tu nous maudis C'est comme une maladie, c'est comme une maladie On fait la moula quand tu dors, fais pas la mala, on t'a dit, c'est comme une maladie c'est comme une maladie J'ai failli m'faire avoir le paraître, le pouvoir, les paillettes, le Ruinart, les parures, le renard Le revers d'la médaille dans l'ivresse, dans le noir, j'suis en mode non retour, je ne veux plus les voir J'ai failli m'faire avoir le paraître, le pouvoir, les paillettes, le Ruinart, les parures, le renard Le revers d'la médaille dans l'ivresse, dans le noir, j'suis en mode non retour, je ne veux plus les voir</t>
+          <t>MillionBeats Hayce J'ai failli m'faire avoir le paraître, le pouvoir, les paillettes, le Ruinart, les parures, le renard Le revers d'la médaille dans l'ivresse, dans le noir, j'suis en mode non retour, je ne veux plus les voir J'ai failli m'faire avoir le paraître, le pouvoir, les paillettes, le Ruinart, les parures, le renard Le revers d'la médaille dans l'ivresse, dans le noir, j'suis en mode non retour, je ne veux plus les voir Eh, j'sors d'la maison hantée, j'vais reprendre le rrain-te J'vais mettre les doigts dans leur gâteau pour m'emparer d'leur fève Tu rêvais d'me voir en vrai, les poings, le visage enflés, j'quitte les bras d'Morphée pour aller braquer l'orfèvre Y a qu'en leur faisant la guerre jusqu'à les regarder ramper que j'pourrais mourir en paix, tu pourras pas recompter J'suis pas dans les clubs, j'suis avec mes trafiquantés, Alicante Les petits mettent des coups d'tournevis très tôt, j'sors du binks, j'me fais serrer comme un ristretto Crépuscule, mes idées les plus malsaines se bousculent, shout-out aux grands d'chez moi qui sont tombés pour stup' J'suis un bonhomme, j'veux pas tomber pour assumer des salopes qui t'enverraient même pas d'quoi cantiner, quelques échalotes Eh, eh, bipolaire avec un Glock, trap Hayce, on est dans la cuisine sans la toque, toque, toque Ok, j'ai comme une maladie, envie d'niquer des mères sur n'importe quelle mélodie J'fume la OG, j'monte le son dans la Audi C'est comme une maladie, c'est comme une maladie Obligé d'casser des bouches, tu casses du sucre, on m'a dit, t'es jaloux, tu nous maudis C'est comme une maladie, c'est comme une maladie On fait la moula quand tu dors, fais pas la mala, on t'a dit, c'est comme une maladie c'est comme une maladie J'ai failli m'faire avoir le paraître, le pouvoir, les paillettes, le Ruinart, les parures, le renard Le revers d'la médaille dans l'ivresse, dans le noir, j'suis en mode non retour, je ne veux plus les voir J'ai failli m'faire avoir le paraître, le pouvoir, les paillettes, le Ruinart, les parures, le renard Le revers d'la médaille dans l'ivresse, dans le noir, j'suis en mode non retour, je ne veux plus les voir Monsieur l'agent, j'faisais bagatelles avec ma compagne, j'étais pas là, j'savais pas qu'ça avait pull up dans l'bât' Arrête de pper-ra, t'es affolé pour une petite entaille, on faisait la selha t'étais même pas né, petit nangaille J'marche solo comme un nomade, comme un homme du Nord au Sud J'mange ta part avant d'me torcher avec tes idées reçues Tout l'monde sait qu'tu dois des sous, un soir, on va t'tomber dessus Gars, on va t'rouler dessus La retraite à soixante-cinq pour une jeunesse qui rêve de rouler en A45 bien avant quarante-cinq C'pas un 6-35, j'arrive du septante-cinq, j'ai la taule dans la peau, j'ai la tôle dans la paume J'ai l'atome de folie, pétasse, ton avis, on s'en cogne, on fait semblant d's'intéresser à c'que tu dis parce que t'es bonne Eh, bipolaire avec un Glock, trap Hayce on est dans la cuisine sans la toque, toque, toque Ok, j'ai comme une maladie, envie d'niquer des mères sur n'importe quelle mélodie J'fume la OG, j'monte le son dans la Audi C'est comme une maladie, c'est comme une maladie Obligé d'casser des bouches, tu casses du sucre, on m'a dit, t'es jaloux, tu nous maudis C'est comme une maladie, c'est comme une maladie On fait la moula quand tu dors, fais pas la mala, on t'a dit, c'est comme une maladie c'est comme une maladie J'ai failli m'faire avoir le paraître, le pouvoir, les paillettes, le Ruinart, les parures, le renard Le revers d'la médaille dans l'ivresse, dans le noir, j'suis en mode non retour, je ne veux plus les voir J'ai failli m'faire avoir le paraître, le pouvoir, les paillettes, le Ruinart, les parures, le renard Le revers d'la médaille dans l'ivresse, dans le noir, j'suis en mode non retour, je ne veux plus les voir</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>J'trouverais pas l'amour dans le club Tu t'ennuies dans ta life, ma chérie t'as besoin d'un thug Viens rejoindre l'Insomniak Et même si ce soir les balles pleuvent J'te protégerais t'es ma wife J'te protégerais t'es ma wife J'te protégerais t'es ma wife L'histoire est à couleur dollar J'voulais la célébrité sans qu'on midolâtre J'ai fumer trop de rappeurs pneumothorax Depuis Hola Hello, jenvoie du lourd pour les dollars Or des Rois sur la nuque tel un Monarque La musique est une femme ville et sournoise On viens reprendre le pouvoir comme Nicolas Moi j'ai toujours les doigts dans la moule et dans la moula Hold up Hold up Tes serments d'hypocrites sonnent faux même avec un serment d'Hippocrate Bientôt j'arrête, j'veux pas gratter mes textes avec l'arthrite J'suis toujours dans la street, je suis vrai comme Socrate ADAL que la lumière soit sur les 2 empereurs On a trouver l'Eldorado dans le fond du sampleur On vous attend dos à dos sous la branche du saule pleureur You might also like Salope j'ai pas de cur, j'trouverais pas l'amour dans le club On s'en tape, j'ai le pouvoir de tout changer dans mes mains J'trouve pas l'amour dans le club On s'en tape my nigga, j'ai le pouvoir de tout changer dans mes mains Y'a pas de limite Hier j'étais dans le noir, j'rêvais de gloire et j'avais pas de money Y'a pas de limite, aujourd'hui j'ai plus l'time jentends plus envieux, follow me Y'a pas de limites Nan, Nan, Nan, Nan, Nan, Nan, Nan, Nan Y'a pas de limites Nan, Nan, Nan, Nan, Nan, Nan, Nan, Nan J'me rappelle qu'à l'époque on voulait ap' de mes DC C'est la rue elle même qui depuis petit m'a repérer J'fume la weed, j'me suis calmer sur le Belvédère Fais-toi belle, on est de retour dans les bacs bébé On a grandit dans le bando, même la Bac bégaye Je dégaine, je tire, je rengaine, again Dans les vices depuis la petite enfance Pour moins de 99 gros j'aurais pu braquer Beigbeder Dis à ton équipe qu'on repartira pas sans le titre Dis à ton équipe qu'ADAL est bientôt de sortit J'laisse un violet pour le chauffeur et le portier Je cherche les roses en marchant dans les orties J'suis tellement loko que tous les hommes en blanc m'coursent La weed et le miel, j'suis la maison ours Tu veux vraiment savoir c'qui nous poussent J'trouverais pas l'amour dans le club On s'en tape, j'ai le pouvoir de tout changer dans mes mains J'trouve pas l'amour dans le club On s'en tape my nigga, j'ai le pouvoir de tout changer dans mes mains Y'a pas de limite Hier j'étais dans le noir, j'rêvais de gloire et j'avais pas de money Y'a pas de limite, aujourd'hui j'ai plus l'time jentends plus envieux, follow me Y'a pas de limites Nan, Nan, Nan, Nan, Nan, Nan, Nan, Nan Y'a pas de limites Nan, Nan, Nan, Nan, Nan, Nan, Nan, Nan</t>
+          <t>J'trouverais pas l'amour dans le club Tu t'ennuies dans ta life, ma chérie t'as besoin d'un thug Viens rejoindre l'Insomniak Et même si ce soir les balles pleuvent J'te protégerais t'es ma wife J'te protégerais t'es ma wife J'te protégerais t'es ma wife L'histoire est à couleur dollar J'voulais la célébrité sans qu'on midolâtre J'ai fumer trop de rappeurs pneumothorax Depuis Hola Hello, jenvoie du lourd pour les dollars Or des Rois sur la nuque tel un Monarque La musique est une femme ville et sournoise On viens reprendre le pouvoir comme Nicolas Moi j'ai toujours les doigts dans la moule et dans la moula Hold up Hold up Tes serments d'hypocrites sonnent faux même avec un serment d'Hippocrate Bientôt j'arrête, j'veux pas gratter mes textes avec l'arthrite J'suis toujours dans la street, je suis vrai comme Socrate ADAL que la lumière soit sur les 2 empereurs On a trouver l'Eldorado dans le fond du sampleur On vous attend dos à dos sous la branche du saule pleureur Salope j'ai pas de cur, j'trouverais pas l'amour dans le club On s'en tape, j'ai le pouvoir de tout changer dans mes mains J'trouve pas l'amour dans le club On s'en tape my nigga, j'ai le pouvoir de tout changer dans mes mains Y'a pas de limite Hier j'étais dans le noir, j'rêvais de gloire et j'avais pas de money Y'a pas de limite, aujourd'hui j'ai plus l'time jentends plus envieux, follow me Y'a pas de limites Nan, Nan, Nan, Nan, Nan, Nan, Nan, Nan Y'a pas de limites Nan, Nan, Nan, Nan, Nan, Nan, Nan, Nan J'me rappelle qu'à l'époque on voulait ap' de mes DC C'est la rue elle même qui depuis petit m'a repérer J'fume la weed, j'me suis calmer sur le Belvédère Fais-toi belle, on est de retour dans les bacs bébé On a grandit dans le bando, même la Bac bégaye Je dégaine, je tire, je rengaine, again Dans les vices depuis la petite enfance Pour moins de 99 gros j'aurais pu braquer Beigbeder Dis à ton équipe qu'on repartira pas sans le titre Dis à ton équipe qu'ADAL est bientôt de sortit J'laisse un violet pour le chauffeur et le portier Je cherche les roses en marchant dans les orties J'suis tellement loko que tous les hommes en blanc m'coursent La weed et le miel, j'suis la maison ours Tu veux vraiment savoir c'qui nous poussent J'trouverais pas l'amour dans le club On s'en tape, j'ai le pouvoir de tout changer dans mes mains J'trouve pas l'amour dans le club On s'en tape my nigga, j'ai le pouvoir de tout changer dans mes mains Y'a pas de limite Hier j'étais dans le noir, j'rêvais de gloire et j'avais pas de money Y'a pas de limite, aujourd'hui j'ai plus l'time jentends plus envieux, follow me Y'a pas de limites Nan, Nan, Nan, Nan, Nan, Nan, Nan, Nan Y'a pas de limites Nan, Nan, Nan, Nan, Nan, Nan, Nan, Nan</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Si j'me refais la boule à Z comme à l'ancienne, j't'allume, oublie la ligne d'arrivée, j'suis sur les starting blocks Véracité, j'ai vécu des halls insalubres, c'est la danse des voyous, cagoulés pour agiter le Glock J'refais l'Armée Rouge avec la kalash' de Trotski, j'te tire dans les beujs au feu rouge avant d'péter mon joint d'beuh Morsure de la hnouch qui m'a rendu trop speed, tu ne verras qu'un point rouge avant la flamme bleue J'ai de l'amour pour ma fanbase, de la haine pour les rappeurs, tu changes de flow pour les radios, tu rappes comme un indicateur J'arrive en Ducati 750, étant petit c'est moi qui ai blanchi les cheveux de cet enfoiré d'éducateur d'hypocrisie dans ton regard de donneur, tu veux la peau de Lemsi, faut te lever de bonne heure Et je te bannis du corner, j'ai qu'à lever le petit doigt hein, j'arrive chez elle, la baise entre 5 et 10 fois Tes rappeurs sont mes petits-fils, j'apporte ma pierre à l'édifice, c't'année j'suis motivé, j'en ai marre de claquer du blé jusqu'à Dublin J'vais baiser vos groupies par tous les orifices, faire du mal à ces putes de rappeurs, ça fait du bien J'ai tissé ma toile, j'suis pas né sous la bonne étoile, je vois les gyrophares s'éloigner, Redouane a passé les douanes L'un des seuls rappeurs de Paname qu'on voit marcher seul à Paname, défoncé, j'ai pris tous les Jeroboam du Madam Désormais, le rap game est au 17ème, XV, Volts, PSO Thug, Hayce Lem' Soudés comme les doigts de la main, vos intentions sont malsaines, on s'est fait copier tous nos flows, mais c'est pas fini, sale chienne Veste en cuir, Jordan couleur cuivre, bagarre sous Cristal, la boxe de l'homme ivre J'bâtis mon empire, j'me sens renaître, t'as peur de mourir, on souffre de vivre J'refais le monde avec ma vodka pure et mon Glock 30, Pistolero sur le Trocadéro, minuit pétante Sur la terrasse elle sirote un Coca Zéro, me dit qu'elle vient de Genève, qu'elle veut pécho son meug' de neige à septante Malgré ce que le système nous inflige, on est devenus des rappeurs de prestige Et si je tire trois fois sur ce puto, quelle péthayce va m'attendre 15 piges ? Si j'te serre la main, rappeur, j'vais compter tous mes doigts, rappeur, je connais tous mes droits, rappeur, tu connais tous les bois J'ai forgé mon talent sur des mélodies très anciennes, l'euphémisme et laconisme latin se mélange à ma voix Puis, quand je vois ce qu'est devenu le peura, j'pisse la rage, fils à papa veut prendre ma part du gâteau J'ai trop souffert dans la street pour pas t'enculer ta race, paraît que tu rases les murs en passant dans mon ghetto Ca fait longtemps que j'attends mon heure, demande au grand Damso, ils mettent tellement de vocoder, on dirait qu'ils se font dom-so J'grimpe l'arbre de l'abrupte, un espèce d'homme-singe, égérie de l'Algérie, Paris sur les dorsaux Yeah ohYou might also like1</t>
+          <t>Si j'me refais la boule à Z comme à l'ancienne, j't'allume, oublie la ligne d'arrivée, j'suis sur les starting blocks Véracité, j'ai vécu des halls insalubres, c'est la danse des voyous, cagoulés pour agiter le Glock J'refais l'Armée Rouge avec la kalash' de Trotski, j'te tire dans les beujs au feu rouge avant d'péter mon joint d'beuh Morsure de la hnouch qui m'a rendu trop speed, tu ne verras qu'un point rouge avant la flamme bleue J'ai de l'amour pour ma fanbase, de la haine pour les rappeurs, tu changes de flow pour les radios, tu rappes comme un indicateur J'arrive en Ducati 750, étant petit c'est moi qui ai blanchi les cheveux de cet enfoiré d'éducateur d'hypocrisie dans ton regard de donneur, tu veux la peau de Lemsi, faut te lever de bonne heure Et je te bannis du corner, j'ai qu'à lever le petit doigt hein, j'arrive chez elle, la baise entre 5 et 10 fois Tes rappeurs sont mes petits-fils, j'apporte ma pierre à l'édifice, c't'année j'suis motivé, j'en ai marre de claquer du blé jusqu'à Dublin J'vais baiser vos groupies par tous les orifices, faire du mal à ces putes de rappeurs, ça fait du bien J'ai tissé ma toile, j'suis pas né sous la bonne étoile, je vois les gyrophares s'éloigner, Redouane a passé les douanes L'un des seuls rappeurs de Paname qu'on voit marcher seul à Paname, défoncé, j'ai pris tous les Jeroboam du Madam Désormais, le rap game est au 17ème, XV, Volts, PSO Thug, Hayce Lem' Soudés comme les doigts de la main, vos intentions sont malsaines, on s'est fait copier tous nos flows, mais c'est pas fini, sale chienne Veste en cuir, Jordan couleur cuivre, bagarre sous Cristal, la boxe de l'homme ivre J'bâtis mon empire, j'me sens renaître, t'as peur de mourir, on souffre de vivre J'refais le monde avec ma vodka pure et mon Glock 30, Pistolero sur le Trocadéro, minuit pétante Sur la terrasse elle sirote un Coca Zéro, me dit qu'elle vient de Genève, qu'elle veut pécho son meug' de neige à septante Malgré ce que le système nous inflige, on est devenus des rappeurs de prestige Et si je tire trois fois sur ce puto, quelle péthayce va m'attendre 15 piges ? Si j'te serre la main, rappeur, j'vais compter tous mes doigts, rappeur, je connais tous mes droits, rappeur, tu connais tous les bois J'ai forgé mon talent sur des mélodies très anciennes, l'euphémisme et laconisme latin se mélange à ma voix Puis, quand je vois ce qu'est devenu le peura, j'pisse la rage, fils à papa veut prendre ma part du gâteau J'ai trop souffert dans la street pour pas t'enculer ta race, paraît que tu rases les murs en passant dans mon ghetto Ca fait longtemps que j'attends mon heure, demande au grand Damso, ils mettent tellement de vocoder, on dirait qu'ils se font dom-so J'grimpe l'arbre de l'abrupte, un espèce d'homme-singe, égérie de l'Algérie, Paris sur les dorsaux Yeah oh1</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Salope arrête de m'draguer pour m'plugger avec ton pote, il est éclaté, moi pas partager Quand j'ai commencé l'rap y'avait pas d'4G, ramasse ta cagette, saccagé Y'avait grave d'la keh de la musique à fond, gros c'est toi t'as tout tu t'es bien fais michtonner Mais t'as même pas ken une folle, bouffon, maintenant t'es à terre t'as plus d'plafond On se sourit mais on est tous des rats, à préméditer ton guet-apens sous un abri bus On est devenu des alpinistes de la chatte négro à escalader les monts d'Vénus et les montagnes russes Je les bloque à la clef d'sol gréco-romaine, on ira chercher le bénef à la tyrolienne Prunelles distillées par le miel, on t'a déjà niqué ta mère et les p'tits reviennent Si les gens veulent te descendre c'est qu't'es au-dessus d'eux, ils prennent ta défense quand t'es en dessous d'eux Si ils peuvent pas venir gratter des sous, ils essaieront d'gratter un ein-s ou deux Tu crois qu'j'ai une dent contre toi ? J'ai un schlass en travers de la gorge M'appelle pas mi amor, toi tu connais l'amour, moi j'suis né à la morgue Loin des gratte-ciel et des stations balnéaires, du sang d'guerrier de mon père, de mon grand-père Certes ma génération aura connu de grandes gueules, mais elle n'aura jamais connu de grandes guerres Il est tard, j'ai froid, j'ai faim, j'ai pas, dans le bat' j'm'étale au cinquième étage Et nos parents qui ont sacrifié toute leur vie pour nous, j'prie pour que nos gosses obtiennent héritage Ils pensent qu'au statut d'intermittent, j'pense qu'à contrôler l'industrie et sa maintenance On va jusqu'au bout du match mais y'a pas d'mi-temps, j'viens de là où tu verras ton reflet dans un bain d'ang-s J'crois qu'j'ai pas d'chance, j'crois que j'me suis réveillé dans un cauchemar Où des gamines se font pointer par des milliardaires, qui n'iront jamais au schtar T'auras même pas l'temps d'dire kalimera que surgira l'pistolero La rue, ses entrailles où les geu-shla chient du crack, pissent de l'héro' Même les pookies font du rap, j'ai rien à dire à ces travelos Tout pleins d'piques, menaces utopiques, devraient s'mettre au lancer d'javelot Ils oublient qu'sarcastique rime avec mort par asphyxie dans un sac plastique Les chaussures, l'attitude, la voiture, tout pour sa plastique On l'assume, la rassure, on est dur en restant d'braves types Pas comme ces fils de pute qui tapent leur pétasse à chaque Pastis Crise totale, là je sors d'une triste angoisse Sorti des cristaux d'glace, cigare Montecristo, j'trhayce My way no pain, no gain, on doublait triplé sur le R À l'époque où toi tu déambulais dans les gares RER Mes repères, c'est ma famille, j'laisserai personne les salir J'fume un perse et j'me souviens d'mon enfance, ça m'fait sourire J'pète le diplôme sans réviser, pars en mala J'réserve le meilleur restau, Champs-Élysées pour la mama Holala, trop mal aux mollets, j'ai mis tempête de fou malade La moula bien cellophanée, j'leur fais danser le Funana Fou d'nanas, fou d'millésime mais toujours prêt pour l'intifada J'suis fada, j'leur fais l'coup du foulard en full Prada J'rejoins 3abib au Prado, j'avais prédis qu'on ferait l'hella Tu baises avec des crados, t'approche pas d'ma bite el kehba J'fais gronder les bécanes de Philadelphie, phénoménal J'fais chanter les Rossignols de Philomèle, ma kalash fait le ménage Les horreurs se bousculent de l'aurore au crépuscule De l'erreur à l'imposture, dans le Rhum et la peu-stu Les gars d'la peu-stu sont des pustules Ils aimeraient m'voir à titre posthume Sorti d'un berceau sublunaire, d'une tempête de sable noir Je les ai vu fumer Subutex, j'ai vu des Bultex remplis d'dollars J'ai bifurqué toute la nuit sur Lutèce, au milieux d'la tess, en ensemble noir J'ai toujours trouvé Paris pittoresque, que le python reste blotti dans le noir Je change de fleur une fois qu'j'ai craché mon pollen, j'conduis plus vite que Räikkönen Quand mes bikows s'prennent des coups d'opinel dans l'abdomen Dans mon domaine, multiple courtisanes épineuses comme la rose Ma rose d'amour me prépare une tisane pour composer ma prose Explose au mic', monte sur le ring avec l'assurance d'Iron Mic' Et la rue m'a taillé tel un Rubis, m'a surnommé Diamond Hayce Bourbier m'ont filé l'bourdon, m'ont vraiment filé l'bourdon J'connais des mecs qui font péter l'bourbon juste après l'fourgon J'suis fougueux comme mon père hein, j'observe comme Faucon Pèlerin Les rappeurs ils sont pérave, ils savent bien c'est qui leur père hein Ils savent très bien c'est qui leur père, le woo Hayce Lem', dix ans d'rap You might also like Laisse moi crouler sous le poids d'mes péchés, j'étais si content d'les voir venir pécho Dictature sur l'asphalte, Augusto Pinochet, Pinocchio d'ses ficelles étrangle Gepetto Gelato dans le freezer, perquis' à six heure, audition à dix heure À vingt heure dans l'téléviseur, ne jamais perdre un opposant du viseur J'suis pas magicien, c't'à la fin du bal qu'on paye les musiciens L'intuition de Rimbaud, si y'avait pas Vendredi bah j'me sentirais seul comme Robin J'ai la verbalistique d'un poète disparu mais j'suis bien dans tes oreilles, j'suis bien dans ta rue Ours polaire opulent vient mettre un penalty dans ta ruche Toi tu fais l'loco, tu parles beaucoup, t'as la boca mais y'a quoi dans ton gros calot Toi tu fais l'loco, tu parles beaucoup, t'as la boca, mes bikows n't'ont même pas cala J'arrive des quartiers peligroso, j'suis un one, two, three, j'ai un big four five DZ, DZ J'arrive des quartiers peligroso, j'suis un one, two, three, j'ai un big four five</t>
+          <t>Salope arrête de m'draguer pour m'plugger avec ton pote, il est éclaté, moi pas partager Quand j'ai commencé l'rap y'avait pas d'4G, ramasse ta cagette, saccagé Y'avait grave d'la keh de la musique à fond, gros c'est toi t'as tout tu t'es bien fais michtonner Mais t'as même pas ken une folle, bouffon, maintenant t'es à terre t'as plus d'plafond On se sourit mais on est tous des rats, à préméditer ton guet-apens sous un abri bus On est devenu des alpinistes de la chatte négro à escalader les monts d'Vénus et les montagnes russes Je les bloque à la clef d'sol gréco-romaine, on ira chercher le bénef à la tyrolienne Prunelles distillées par le miel, on t'a déjà niqué ta mère et les p'tits reviennent Si les gens veulent te descendre c'est qu't'es au-dessus d'eux, ils prennent ta défense quand t'es en dessous d'eux Si ils peuvent pas venir gratter des sous, ils essaieront d'gratter un ein-s ou deux Tu crois qu'j'ai une dent contre toi ? J'ai un schlass en travers de la gorge M'appelle pas mi amor, toi tu connais l'amour, moi j'suis né à la morgue Loin des gratte-ciel et des stations balnéaires, du sang d'guerrier de mon père, de mon grand-père Certes ma génération aura connu de grandes gueules, mais elle n'aura jamais connu de grandes guerres Il est tard, j'ai froid, j'ai faim, j'ai pas, dans le bat' j'm'étale au cinquième étage Et nos parents qui ont sacrifié toute leur vie pour nous, j'prie pour que nos gosses obtiennent héritage Ils pensent qu'au statut d'intermittent, j'pense qu'à contrôler l'industrie et sa maintenance On va jusqu'au bout du match mais y'a pas d'mi-temps, j'viens de là où tu verras ton reflet dans un bain d'ang-s J'crois qu'j'ai pas d'chance, j'crois que j'me suis réveillé dans un cauchemar Où des gamines se font pointer par des milliardaires, qui n'iront jamais au schtar T'auras même pas l'temps d'dire kalimera que surgira l'pistolero La rue, ses entrailles où les geu-shla chient du crack, pissent de l'héro' Même les pookies font du rap, j'ai rien à dire à ces travelos Tout pleins d'piques, menaces utopiques, devraient s'mettre au lancer d'javelot Ils oublient qu'sarcastique rime avec mort par asphyxie dans un sac plastique Les chaussures, l'attitude, la voiture, tout pour sa plastique On l'assume, la rassure, on est dur en restant d'braves types Pas comme ces fils de pute qui tapent leur pétasse à chaque Pastis Crise totale, là je sors d'une triste angoisse Sorti des cristaux d'glace, cigare Montecristo, j'trhayce My way no pain, no gain, on doublait triplé sur le R À l'époque où toi tu déambulais dans les gares RER Mes repères, c'est ma famille, j'laisserai personne les salir J'fume un perse et j'me souviens d'mon enfance, ça m'fait sourire J'pète le diplôme sans réviser, pars en mala J'réserve le meilleur restau, Champs-Élysées pour la mama Holala, trop mal aux mollets, j'ai mis tempête de fou malade La moula bien cellophanée, j'leur fais danser le Funana Fou d'nanas, fou d'millésime mais toujours prêt pour l'intifada J'suis fada, j'leur fais l'coup du foulard en full Prada J'rejoins 3abib au Prado, j'avais prédis qu'on ferait l'hella Tu baises avec des crados, t'approche pas d'ma bite el kehba J'fais gronder les bécanes de Philadelphie, phénoménal J'fais chanter les Rossignols de Philomèle, ma kalash fait le ménage Les horreurs se bousculent de l'aurore au crépuscule De l'erreur à l'imposture, dans le Rhum et la peu-stu Les gars d'la peu-stu sont des pustules Ils aimeraient m'voir à titre posthume Sorti d'un berceau sublunaire, d'une tempête de sable noir Je les ai vu fumer Subutex, j'ai vu des Bultex remplis d'dollars J'ai bifurqué toute la nuit sur Lutèce, au milieux d'la tess, en ensemble noir J'ai toujours trouvé Paris pittoresque, que le python reste blotti dans le noir Je change de fleur une fois qu'j'ai craché mon pollen, j'conduis plus vite que Räikkönen Quand mes bikows s'prennent des coups d'opinel dans l'abdomen Dans mon domaine, multiple courtisanes épineuses comme la rose Ma rose d'amour me prépare une tisane pour composer ma prose Explose au mic', monte sur le ring avec l'assurance d'Iron Mic' Et la rue m'a taillé tel un Rubis, m'a surnommé Diamond Hayce Bourbier m'ont filé l'bourdon, m'ont vraiment filé l'bourdon J'connais des mecs qui font péter l'bourbon juste après l'fourgon J'suis fougueux comme mon père hein, j'observe comme Faucon Pèlerin Les rappeurs ils sont pérave, ils savent bien c'est qui leur père hein Ils savent très bien c'est qui leur père, le woo Hayce Lem', dix ans d'rap Laisse moi crouler sous le poids d'mes péchés, j'étais si content d'les voir venir pécho Dictature sur l'asphalte, Augusto Pinochet, Pinocchio d'ses ficelles étrangle Gepetto Gelato dans le freezer, perquis' à six heure, audition à dix heure À vingt heure dans l'téléviseur, ne jamais perdre un opposant du viseur J'suis pas magicien, c't'à la fin du bal qu'on paye les musiciens L'intuition de Rimbaud, si y'avait pas Vendredi bah j'me sentirais seul comme Robin J'ai la verbalistique d'un poète disparu mais j'suis bien dans tes oreilles, j'suis bien dans ta rue Ours polaire opulent vient mettre un penalty dans ta ruche Toi tu fais l'loco, tu parles beaucoup, t'as la boca mais y'a quoi dans ton gros calot Toi tu fais l'loco, tu parles beaucoup, t'as la boca, mes bikows n't'ont même pas cala J'arrive des quartiers peligroso, j'suis un one, two, three, j'ai un big four five DZ, DZ J'arrive des quartiers peligroso, j'suis un one, two, three, j'ai un big four five</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Sous le masque y'a personne, sous le masque y'a zebi, tu veux ton temps de cerise ? Monte une équipe. Des menaces à pardon y'a deux voir trois rounds. Un bout de ruelle, une ombre chinoise, ça r'part à zéro Tacle à la ge-gor avant chaque pute y'a un péage, y'a pas d'timiniks Numéro 10 ta carrière s'termine au square ou en ph Fracture du tibia péroné, j'relativise des fois j'te parle d'mes lésions avec ironie Drancy avenir, destin erroné, c'est la bagne en fait j'suis entre Ryu et Roni La taule a rendue fou Adebisi, j'espère bientôt pouvoir arrêter d'viser Trop grillé pour briller, 16's de feux dans mon cahier d'brouillon Trop bouillant lâche le s'ness-bui, brouillant j'lâche 16's de feux vu qu'on apprend qu'en s'brûlant Mes parents n'ont pas faits tous ces sacrifices de fou pour qu'j'devienne un genre de truand Gé-char au max à l'intersection 5 place du Tertre bodjo bodjo j'suis grave déter' Mes vins-de ont cadrés l'secteur, on veut notre part du game pour aller voir ailleurs T'as poussé du matos à un bâtard d'mauvais d'payeur Les bras cassés tirent dans les pattes tout ça pour récupérer un du Les tits-pe charcle la star avec des grands shlass pointus Dans mon ghetto les jours se suivent mais ne se ressemblent pas ouais La fonce-dé reste excessive on suit le biff ensemble tard ouais Que d'affaires classés sans suite on s'retrouve trop vite au mitard ouais La justice est insensible on va faire un max de dollars ah ouais Tous postés devant le bar tabac, rares sont les bicos qui n'ont pas d'taga Tousse pas loss-bo les minots t'abattent à la sortie d'l'hosto même à l'aube khabat 12 ans d'âge et champ' millésimé, carambolage alcoolisé Tous en bas l'sheïtan à les idées, cambriolage improvisée Le type du type de mon ti-peu t'vi-ser un XXX lège' Tellement d'carottes et d'selha que j'peux faire un bonhomme de neige Wesh ma gueule on est dans l'bât', botanique, arnaque, monnaie au black J'ai la weed à Wiz en guise d'homéopathe Hayce Lem fait son bico lo-comeback, bico lo-comeback J'ai quitté les bras d'Morphée, morflé, dans mon ovni lonely coffré L'ennemi prie pour qu'mon insomnie déclare forfait Omniprésente elle est elle me maîtrise m'attriste, est-elle innée ? Demande à Ino L'Insomniak est né, dans les nine tissement de L.A Il a fallu qu'j'empoigne le microphone, fuck ce milieu d'faux-culs Indélébile on pète la forme s'affirme au fond de la Ford Focus XV Barbare, aucun remord fils, ok j'amorce le seum t'extorpille Ok j'annonce le contexte à cause de mes xes-tê bico j'dors plus You might also like Les annotations restent excessives .. donc rejoins-nous !1</t>
+          <t>Sous le masque y'a personne, sous le masque y'a zebi, tu veux ton temps de cerise ? Monte une équipe. Des menaces à pardon y'a deux voir trois rounds. Un bout de ruelle, une ombre chinoise, ça r'part à zéro Tacle à la ge-gor avant chaque pute y'a un péage, y'a pas d'timiniks Numéro 10 ta carrière s'termine au square ou en ph Fracture du tibia péroné, j'relativise des fois j'te parle d'mes lésions avec ironie Drancy avenir, destin erroné, c'est la bagne en fait j'suis entre Ryu et Roni La taule a rendue fou Adebisi, j'espère bientôt pouvoir arrêter d'viser Trop grillé pour briller, 16's de feux dans mon cahier d'brouillon Trop bouillant lâche le s'ness-bui, brouillant j'lâche 16's de feux vu qu'on apprend qu'en s'brûlant Mes parents n'ont pas faits tous ces sacrifices de fou pour qu'j'devienne un genre de truand Gé-char au max à l'intersection 5 place du Tertre bodjo bodjo j'suis grave déter' Mes vins-de ont cadrés l'secteur, on veut notre part du game pour aller voir ailleurs T'as poussé du matos à un bâtard d'mauvais d'payeur Les bras cassés tirent dans les pattes tout ça pour récupérer un du Les tits-pe charcle la star avec des grands shlass pointus Dans mon ghetto les jours se suivent mais ne se ressemblent pas ouais La fonce-dé reste excessive on suit le biff ensemble tard ouais Que d'affaires classés sans suite on s'retrouve trop vite au mitard ouais La justice est insensible on va faire un max de dollars ah ouais Tous postés devant le bar tabac, rares sont les bicos qui n'ont pas d'taga Tousse pas loss-bo les minots t'abattent à la sortie d'l'hosto même à l'aube khabat 12 ans d'âge et champ' millésimé, carambolage alcoolisé Tous en bas l'sheïtan à les idées, cambriolage improvisée Le type du type de mon ti-peu t'vi-ser un XXX lège' Tellement d'carottes et d'selha que j'peux faire un bonhomme de neige Wesh ma gueule on est dans l'bât', botanique, arnaque, monnaie au black J'ai la weed à Wiz en guise d'homéopathe Hayce Lem fait son bico lo-comeback, bico lo-comeback J'ai quitté les bras d'Morphée, morflé, dans mon ovni lonely coffré L'ennemi prie pour qu'mon insomnie déclare forfait Omniprésente elle est elle me maîtrise m'attriste, est-elle innée ? Demande à Ino L'Insomniak est né, dans les nine tissement de L.A Il a fallu qu'j'empoigne le microphone, fuck ce milieu d'faux-culs Indélébile on pète la forme s'affirme au fond de la Ford Focus XV Barbare, aucun remord fils, ok j'amorce le seum t'extorpille Ok j'annonce le contexte à cause de mes xes-tê bico j'dors plus Les annotations restent excessives .. donc rejoins-nous !1</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Bigflo Oli, tu connais, non ? ADAL 2 Hayce Lemsi, Volts Face, tu connais aussi, non ? Ouh, ouh, ouh Hayce Lemsi, Oli, on y va Touche pas à mon frère Sur la tête de mon frère Tu voulais du rap, hein ? Tu sais pourquoi j'suis meilleur que toi non ? Parce que le rap, moi, j'l'aime vraiment Le mic', j'le respecte, je répète chaque texte dans ma tête afin qu'il devienne dément Pendant que tu draguais des meufs devant les grilles J'remplissais des pages comme un te-bê, j'grattais des lignes J'rêvais d'avoir des fans pendant qu'tu fumais des spliffs Je grattais des open mic' comme un taré dans toute la ville Et quand tu t'es décidé à rapper quelques rimes, j'avais déjà fini mon premier CD, tu piges ? Débile, j'éclipse les types qui disent depuis deux piges qu'ils vivent pour l'rap, les artistes m'épuisent Ils sont 10 000 dans la salle, j'monte sur scène comme s'ils étaient 4 Ça fait des années qu'j'suis tous les soirs en spectacle, j'aimerais connaître ce que vous appelez l'trac Mes putains d'sons te font bouger la tête et te dressent l'épiderme, qu'on leur amène des minerves Ma mine est un monument, je manie le mic' manuellement, j'élimine tous les mecs, ramène-moi même Eminem Ladies and gentlemen, ne testez pas le phénomène ou je te plante dans l'abdomen Les sons de merde, c'est leur domaine, des fois, le soir, j'entends des voix de spécimens qui m'amènent des milliers de mélodies et d'idées surhumaines Ils ont minimisé le man quand j'étais au minimum, maintenant, ils imitent même la marque et la forme de mon mic' Mais le môme face aux momies a fait mille fois plus de maille Le millésime est millimétré, je les élimine, je les mets mal On cassera tous les obstacles, on restera au top dans c'rap, j'insiste ouais, ouais Sur la tête du frère de Volts Face, sur la tête du frère de Hayce Lemsi Hayce Lemsi Rappelle-moi, tu parles à qui ? Ne m'appelle plus la famille, ami ou poto Jacques a dit Rappez vite, les Zéniths sont d'jà remplis, mais pourquoi j'fais d'la promo' ? J'crache ma rage comme une Kalash' d'Albanie quand j'rappe ma vie seul et tard au micro Faut compter sur nous à l'avenir ah ouais ?, sur la tête du frère de Bigflo You might also like J'ai débité dans des maisons closes et des open mic', mal-aimé par civils, poulets dans une Opel noire Avant de savourer célébrité, chiller dans l'penthouse, j'lâchais des freestyles téléguidés pour les mecs du squa' J'dilapidais tout le bénéf' de mon stup' dans l'stud', j'faisais des afters avec des bikows jusque dans l'Sud Tous les serpents de l'industrie veulent investir, penses-tu qu'j'ai fait tout ce chemin pour sombrer dans l'côté obscur ? Brr, brr J'vois que l'bigo bugue en balle, un tas de labels veulent me développer moi l'indépendant vendeur de lamelles ?! Ils savent pas sur quel pied danser, souliers dans d'la merde, d'l'hémoglobine de parolier sous mes dents d'la mer, hey J'ai rappé de mars à févri', hey, pour que tous mes jours soient féri', hey Sur la tête du frèguere de Bigfloguo, j'ai les poches trop p'tites pour tous ces bi', hey Des impacts de Kala', Kala' sur les cadavres et le carrelage, on a canardé leurs carrières en décadence sans décalage Et ça défonce tous les barrages, en soirée, ça vend des parach' Et débarrasse le plancher avant qu'les bleus arrivent, on s'arrache. Fiche de recherche, t'es wanted comme Sarah Les rappeurs continuent à faire d'la merde tant qu'ça marche, j'vais leur faire la guerre comme Chirak Et j'ai mis deux mille mots dix mille demain au minimum et la mine au milli-millimètre Eeny, meeny, miny, moe, moi, j'ai le record du 1000 mètres Vis parmi les animaux, mélomane aux mille mélodies, mal-aimé par le monde et les êtres Vis parmi les animaux, mélomane aux mille mélodies, mal-aimé par le monde et les êtres Avant d'partir, j'vais tous me les faire J'peux pas mentir sur la tête de mon frère J'ai lu l'avenir dans les yeux d'ma mère J'le jure, j'le jure sur la tête de mon frère Sur la tête de mon frère, tête de mon frère J'le jure, j'le jure sur la tête de mon frère Sur la tête de mon frère, tête de mon frère J'le jure, j'le jure sur la tête de mon frère Poto, rien qu'ça jacte, poto, rien qu'ça jacte, allez, ferme ta chatte, allez, ferme ta chatte J'ai grandi parmi les bandits, les Gandhi, j'ai quitté l'école tôt, rien à faire d'la fac On arrive et tu l'as senti, t'es gentil, j'suis posé dans l'Merco, rien à faire d'la BAC Ouais, j'connais beaucoup de gens qui nous envient, j'ai défié la chance trop et si j'perds, j'la braque Quand c'était la merde, dis-moi où t'étais hein ?, sur la tête de Bigflo, j'vais tout péter Tu veux mon cur ou tu veux ma CB ? J'ai commis des choses que je n'peux pas regretter nan, nan C'est la fête, pourtant, y a rien à fêter ouh, j'me la pète, gros, j'en ai rien à péter ouh Tu les aides mais personne viendra t'aider, j'arrive en VTT puis repars en TT ouh Faire du sale, j'en ai l'habitude hey, hey, hey, j'suis charismatique dans mon attitude Comment t'en sortir quand t'as pas les thunes ? Dis à mes ennemis qu't'inquiète pas, j'les fume hey, hey, hey J'ai grandi dans l'tieks, dans la capitale, j'ai baisé l'amour comme un animal Une erreur, tu sautes, gros c'est radical, il m'reste quelques frères, j'm'en sors pas si mal pah, pah, pah Ne m'pose plus de questions, je n'parle plus, je ré-ti On sait gérer la pression, une Kalash' dans la rétine Ma daronne avait raison très calme d'puis la tétine Et j'rappe à toutes les saisons, dis-moi quand l'succès fait signe Avec le poto Hayce et son frère Volts Face, on est beaucoup trop chauds, ouais, faut qu'on en parle poh, poh Je n'ai pas signé d'pacte, nan, je reste intact, j'suis tellement en avance, dis-moi quand tu reçois l'impact Et j'vends tellement d'albums, j'dois les vendre par pack tiens, tiens, tiens Comme les cacahuètes que nous vendent les Pak-Pak Ils sont bons mais sans charisme comme un joli plat d'pâtes Elle fait genre qu'elle s'en fout mais elle finira à quatre pattes Et la montre fait tic-tac, tic-tac, oui, je m'éloigne de la Flic-Flac p'tit à p'tit Cannabis dans le Eastpack, tu ne réalises pas le taff que j'ai fait pour y arriver Hasta la vista, mon ami, on n'avait pas de quoi se saper en Kiabi J'suis rare et discret comme un okapi, toi, tu ne penses qu'aux filles appétissantes comme des Big Mac Mec, ressaisis-toi, le chemin de la victoire ne s'écrit pas sans sueur J'ai gravi l'escalier marche par marche, il n'y avait pas d'ascenseur Et quand tout va mal, que t'as pas d'espoir et que t'as comme un trou dans l'cur Dis-toi qu'on est plein comme toi dans le noir quand tous les soirs, tu te sens seul allez J'ai des milliers de mots au fond du palais qui te balaient Fais pas genre tu t'en bats les, bats les, tu ne peux pas faire pareil Tu t'es emballé et t'as parlé dans mon dos, dans mon sommeil Tu t'es recalmé parce que, devant moi, tu bu-bu-bu-bugguais On attend, je me balade comme un pacha dans mon palais Et j'suis calé dans les palaces desquels tu t'es fait recaler Il fallait pas, tu vas t'faire empaler alors gars bats les pattes Et okay, c'est du hockey, j'suis la crosse et toi, le palet, paw Avant d'partir, j'vais tous me les faire J'peux pas mentir sur la tête de mon frère J'ai lu l'avenir dans les yeux d'ma mère J'le jure, j'le jure sur la tête de mon frère Sur la tête de mon frère, tête de mon frère J'le jure, j'le jure sur la tête de mon frère Sur la tête de mon frère, tête de mon frère J'le jure, j'le jure sur la tête de mon frère</t>
+          <t>Bigflo Oli, tu connais, non ? ADAL 2 Hayce Lemsi, Volts Face, tu connais aussi, non ? Ouh, ouh, ouh Hayce Lemsi, Oli, on y va Touche pas à mon frère Sur la tête de mon frère Tu voulais du rap, hein ? Tu sais pourquoi j'suis meilleur que toi non ? Parce que le rap, moi, j'l'aime vraiment Le mic', j'le respecte, je répète chaque texte dans ma tête afin qu'il devienne dément Pendant que tu draguais des meufs devant les grilles J'remplissais des pages comme un te-bê, j'grattais des lignes J'rêvais d'avoir des fans pendant qu'tu fumais des spliffs Je grattais des open mic' comme un taré dans toute la ville Et quand tu t'es décidé à rapper quelques rimes, j'avais déjà fini mon premier CD, tu piges ? Débile, j'éclipse les types qui disent depuis deux piges qu'ils vivent pour l'rap, les artistes m'épuisent Ils sont 10 000 dans la salle, j'monte sur scène comme s'ils étaient 4 Ça fait des années qu'j'suis tous les soirs en spectacle, j'aimerais connaître ce que vous appelez l'trac Mes putains d'sons te font bouger la tête et te dressent l'épiderme, qu'on leur amène des minerves Ma mine est un monument, je manie le mic' manuellement, j'élimine tous les mecs, ramène-moi même Eminem Ladies and gentlemen, ne testez pas le phénomène ou je te plante dans l'abdomen Les sons de merde, c'est leur domaine, des fois, le soir, j'entends des voix de spécimens qui m'amènent des milliers de mélodies et d'idées surhumaines Ils ont minimisé le man quand j'étais au minimum, maintenant, ils imitent même la marque et la forme de mon mic' Mais le môme face aux momies a fait mille fois plus de maille Le millésime est millimétré, je les élimine, je les mets mal On cassera tous les obstacles, on restera au top dans c'rap, j'insiste ouais, ouais Sur la tête du frère de Volts Face, sur la tête du frère de Hayce Lemsi Hayce Lemsi Rappelle-moi, tu parles à qui ? Ne m'appelle plus la famille, ami ou poto Jacques a dit Rappez vite, les Zéniths sont d'jà remplis, mais pourquoi j'fais d'la promo' ? J'crache ma rage comme une Kalash' d'Albanie quand j'rappe ma vie seul et tard au micro Faut compter sur nous à l'avenir ah ouais ?, sur la tête du frère de Bigflo J'ai débité dans des maisons closes et des open mic', mal-aimé par civils, poulets dans une Opel noire Avant de savourer célébrité, chiller dans l'penthouse, j'lâchais des freestyles téléguidés pour les mecs du squa' J'dilapidais tout le bénéf' de mon stup' dans l'stud', j'faisais des afters avec des bikows jusque dans l'Sud Tous les serpents de l'industrie veulent investir, penses-tu qu'j'ai fait tout ce chemin pour sombrer dans l'côté obscur ? Brr, brr J'vois que l'bigo bugue en balle, un tas de labels veulent me développer moi l'indépendant vendeur de lamelles ?! Ils savent pas sur quel pied danser, souliers dans d'la merde, d'l'hémoglobine de parolier sous mes dents d'la mer, hey J'ai rappé de mars à févri', hey, pour que tous mes jours soient féri', hey Sur la tête du frèguere de Bigfloguo, j'ai les poches trop p'tites pour tous ces bi', hey Des impacts de Kala', Kala' sur les cadavres et le carrelage, on a canardé leurs carrières en décadence sans décalage Et ça défonce tous les barrages, en soirée, ça vend des parach' Et débarrasse le plancher avant qu'les bleus arrivent, on s'arrache. Fiche de recherche, t'es wanted comme Sarah Les rappeurs continuent à faire d'la merde tant qu'ça marche, j'vais leur faire la guerre comme Chirak Et j'ai mis deux mille mots dix mille demain au minimum et la mine au milli-millimètre Eeny, meeny, miny, moe, moi, j'ai le record du 1000 mètres Vis parmi les animaux, mélomane aux mille mélodies, mal-aimé par le monde et les êtres Vis parmi les animaux, mélomane aux mille mélodies, mal-aimé par le monde et les êtres Avant d'partir, j'vais tous me les faire J'peux pas mentir sur la tête de mon frère J'ai lu l'avenir dans les yeux d'ma mère J'le jure, j'le jure sur la tête de mon frère Sur la tête de mon frère, tête de mon frère J'le jure, j'le jure sur la tête de mon frère Sur la tête de mon frère, tête de mon frère J'le jure, j'le jure sur la tête de mon frère Poto, rien qu'ça jacte, poto, rien qu'ça jacte, allez, ferme ta chatte, allez, ferme ta chatte J'ai grandi parmi les bandits, les Gandhi, j'ai quitté l'école tôt, rien à faire d'la fac On arrive et tu l'as senti, t'es gentil, j'suis posé dans l'Merco, rien à faire d'la BAC Ouais, j'connais beaucoup de gens qui nous envient, j'ai défié la chance trop et si j'perds, j'la braque Quand c'était la merde, dis-moi où t'étais hein ?, sur la tête de Bigflo, j'vais tout péter Tu veux mon cur ou tu veux ma CB ? J'ai commis des choses que je n'peux pas regretter nan, nan C'est la fête, pourtant, y a rien à fêter ouh, j'me la pète, gros, j'en ai rien à péter ouh Tu les aides mais personne viendra t'aider, j'arrive en VTT puis repars en TT ouh Faire du sale, j'en ai l'habitude hey, hey, hey, j'suis charismatique dans mon attitude Comment t'en sortir quand t'as pas les thunes ? Dis à mes ennemis qu't'inquiète pas, j'les fume hey, hey, hey J'ai grandi dans l'tieks, dans la capitale, j'ai baisé l'amour comme un animal Une erreur, tu sautes, gros c'est radical, il m'reste quelques frères, j'm'en sors pas si mal pah, pah, pah Ne m'pose plus de questions, je n'parle plus, je ré-ti On sait gérer la pression, une Kalash' dans la rétine Ma daronne avait raison très calme d'puis la tétine Et j'rappe à toutes les saisons, dis-moi quand l'succès fait signe Avec le poto Hayce et son frère Volts Face, on est beaucoup trop chauds, ouais, faut qu'on en parle poh, poh Je n'ai pas signé d'pacte, nan, je reste intact, j'suis tellement en avance, dis-moi quand tu reçois l'impact Et j'vends tellement d'albums, j'dois les vendre par pack tiens, tiens, tiens Comme les cacahuètes que nous vendent les Pak-Pak Ils sont bons mais sans charisme comme un joli plat d'pâtes Elle fait genre qu'elle s'en fout mais elle finira à quatre pattes Et la montre fait tic-tac, tic-tac, oui, je m'éloigne de la Flic-Flac p'tit à p'tit Cannabis dans le Eastpack, tu ne réalises pas le taff que j'ai fait pour y arriver Hasta la vista, mon ami, on n'avait pas de quoi se saper en Kiabi J'suis rare et discret comme un okapi, toi, tu ne penses qu'aux filles appétissantes comme des Big Mac Mec, ressaisis-toi, le chemin de la victoire ne s'écrit pas sans sueur J'ai gravi l'escalier marche par marche, il n'y avait pas d'ascenseur Et quand tout va mal, que t'as pas d'espoir et que t'as comme un trou dans l'cur Dis-toi qu'on est plein comme toi dans le noir quand tous les soirs, tu te sens seul allez J'ai des milliers de mots au fond du palais qui te balaient Fais pas genre tu t'en bats les, bats les, tu ne peux pas faire pareil Tu t'es emballé et t'as parlé dans mon dos, dans mon sommeil Tu t'es recalmé parce que, devant moi, tu bu-bu-bu-bugguais On attend, je me balade comme un pacha dans mon palais Et j'suis calé dans les palaces desquels tu t'es fait recaler Il fallait pas, tu vas t'faire empaler alors gars bats les pattes Et okay, c'est du hockey, j'suis la crosse et toi, le palet, paw Avant d'partir, j'vais tous me les faire J'peux pas mentir sur la tête de mon frère J'ai lu l'avenir dans les yeux d'ma mère J'le jure, j'le jure sur la tête de mon frère Sur la tête de mon frère, tête de mon frère J'le jure, j'le jure sur la tête de mon frère Sur la tête de mon frère, tête de mon frère J'le jure, j'le jure sur la tête de mon frère</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Dix piges déjà et dire qu'à la base, c'était juste comme ça Hayce Lemsi Et dire qu'à la base, c'était juste au square, c'était jusqu'au soir c'était jusqu'au soir C'était juste sous 'sky, c'était juste entre s'hab juste comme ça Comme ça Je m'baladais dans Paname pour m'en imprégner parce que la pomme ne tombe jamais loin du po', oh J'l'ai déjà dit, bref, moi, j'voulais finir premier pour être sûr de ne jamais tomber loin du palmier J'avais pas un, nan, j'avais pas d'deniers, ça détaille la dope, j'suis dans l'atelier Ça parle pas chinois, ça noircit l'cahier, j'écoute grave du Oxmo dans l'escalier Je sentais que petit à petit, mon talent prenait forme, alors, j'ai redoublé d'effort Et quand les gens nous disent que c'est mort, on les baise, on est forts, il revient un disque d'or J'arrive Requin trouées, cernes d'ouvrier, j'rafale tout l'monde dans l'open mic' Y a une ex à oi-m, j'me suis fais griller, mais j'crois qu'mon couplet l'a mise dans l'mal J'ai dix-sept ans, je n'rêve que d'briller, devenir sujet d'la presse à scandales J'demande pas grand-chose, juste un écuyer, la baraque vitrée, la caisse à cent balles J'paye le stud' 'vec l'argent du binks, tout plein d'stup' et d'vols, j'suis du-per Quand la rue m'fait du ied-p, si j'vais voir ailleurs, c'est d'l'adultère J'freestylais dans tout les quartiers d'Paname à pas d'heure, c'est pour le Panamera qu'j'parle de labeur J'ai gratté mon premier 16 la première fois qu'on m'a prêté un baladeur, anti-flics indic et délateurs, hein Ma meuf de l'époque me reproche de n'parler que d'pe-ra, j'porte le bandana d'LL Cool J J'ai jamais pris pour exemple le Montana, je rêvais d'la carrière de Tupac et Biggie J'voyais Volts kicker, il avait même pas sept hein, on s'enregistrait sur cassette, ha Jusqu'au bout d'la nuit, jusqu'à c'que l'daron nous rende des manchettes Dissipé disait le CPE, chaque fois qu'j'me fais péter C'est pas moi, c'est pas eux Seule la musique me donnera CDI, pour l'instant, j'ai du teh, de la S et d'la beuh Est-ce que tu veux qu'j'te raconte mon histoire ? J'ai tout sacrifié juste pour les freestyles Certains voulaient me dicter mon avenir, j'ai rentré penalty dans leur boule de cristal Ne crois qu'en tes rêves, n'écoute pas les autres, un jour tu seras le plus heureux des hommes Oublie tes intérêts la fierté, c'est La Haute, dix ans déjà You might also like Et dire qu'à la base, c'était juste comme ça ouais Et dire qu'à la base, c'était juste au square, c'était jusqu'au soir c'était jusqu'au soir C'était juste en s'hab, c'était juste sous 'sky, juste comme ça Hayce Lemsi et j'le regrette pas Yeah hoe Hayce Lemsi Pour moi, c'est ça, c'est ça, la Haycelemteam</t>
+          <t>Dix piges déjà et dire qu'à la base, c'était juste comme ça Hayce Lemsi Et dire qu'à la base, c'était juste au square, c'était jusqu'au soir c'était jusqu'au soir C'était juste sous 'sky, c'était juste entre s'hab juste comme ça Comme ça Je m'baladais dans Paname pour m'en imprégner parce que la pomme ne tombe jamais loin du po', oh J'l'ai déjà dit, bref, moi, j'voulais finir premier pour être sûr de ne jamais tomber loin du palmier J'avais pas un, nan, j'avais pas d'deniers, ça détaille la dope, j'suis dans l'atelier Ça parle pas chinois, ça noircit l'cahier, j'écoute grave du Oxmo dans l'escalier Je sentais que petit à petit, mon talent prenait forme, alors, j'ai redoublé d'effort Et quand les gens nous disent que c'est mort, on les baise, on est forts, il revient un disque d'or J'arrive Requin trouées, cernes d'ouvrier, j'rafale tout l'monde dans l'open mic' Y a une ex à oi-m, j'me suis fais griller, mais j'crois qu'mon couplet l'a mise dans l'mal J'ai dix-sept ans, je n'rêve que d'briller, devenir sujet d'la presse à scandales J'demande pas grand-chose, juste un écuyer, la baraque vitrée, la caisse à cent balles J'paye le stud' 'vec l'argent du binks, tout plein d'stup' et d'vols, j'suis du-per Quand la rue m'fait du ied-p, si j'vais voir ailleurs, c'est d'l'adultère J'freestylais dans tout les quartiers d'Paname à pas d'heure, c'est pour le Panamera qu'j'parle de labeur J'ai gratté mon premier 16 la première fois qu'on m'a prêté un baladeur, anti-flics indic et délateurs, hein Ma meuf de l'époque me reproche de n'parler que d'pe-ra, j'porte le bandana d'LL Cool J J'ai jamais pris pour exemple le Montana, je rêvais d'la carrière de Tupac et Biggie J'voyais Volts kicker, il avait même pas sept hein, on s'enregistrait sur cassette, ha Jusqu'au bout d'la nuit, jusqu'à c'que l'daron nous rende des manchettes Dissipé disait le CPE, chaque fois qu'j'me fais péter C'est pas moi, c'est pas eux Seule la musique me donnera CDI, pour l'instant, j'ai du teh, de la S et d'la beuh Est-ce que tu veux qu'j'te raconte mon histoire ? J'ai tout sacrifié juste pour les freestyles Certains voulaient me dicter mon avenir, j'ai rentré penalty dans leur boule de cristal Ne crois qu'en tes rêves, n'écoute pas les autres, un jour tu seras le plus heureux des hommes Oublie tes intérêts la fierté, c'est La Haute, dix ans déjà Et dire qu'à la base, c'était juste comme ça ouais Et dire qu'à la base, c'était juste au square, c'était jusqu'au soir c'était jusqu'au soir C'était juste en s'hab, c'était juste sous 'sky, juste comme ça Hayce Lemsi et j'le regrette pas Yeah hoe Hayce Lemsi Pour moi, c'est ça, c'est ça, la Haycelemteam</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Stef Becker Beatmaker Ouh J'veux voir gouvernement renversé, j'fais dégouliner le mercier dans ton dernier string Pas d'succès d'estime, t'es bon qu'à sucer, t'as les lèvres gercées par ma Jersey Drill Bikow, j'suis l'homme au masque de fer, ces rappeurs mous manquent de fibres et de fer Tu veux suivre le mouvement, tu t'es du-per, dans ma gestu', tu fais peur aux tiper P'tit con, crédibilité, l'habit ne fait pas le moine, han, han, j'fais couler du champagne, han, han T'étais où quand j'avais pas un ? J'te laisse crever, j'te donne pas un rein Du magret pour mes Maghrébins, c'est RB, Belouizdad dans les gradins Ta fumas court après l'gratin, trop d'vovo, j'crois qu'elle s'sent pas très bien Te repose pas sur tes lauriers, moi, j'confectionne une couronne avec Si j'termine en elle, elle f'ra l'poirier pour être sûr que mon gosse, elle allaite J'me défends mieux qu'le bâtonnier, cartésien sous eau artésienne J'vais tout baiser mais j'veux pas spoiler, méthode parisienne carpe diem Cagoule sous la Gucci dans l'Vito, 3agoun quieres jugar conmigo Le hood, j'y suis depuis Bambino, le Woo m'a surnommé Bandito Biko blacko blanco dans l'cur et le message restera fédérateur On s'demande de qui ils ont pas peur, tu sais c'que j'en fais d'tes rappeurs ? Biko blako blanco dans l'cur et le message restera fédérateur On s'demande de qui ils ont pas peur, tu sais c'que j'en fais d'tes rappeurs ? You might also like Biko je ne n'ai pas changé J'prends toujours l'game en one-one, j'suis venu shooter, grr, paw Aucun opps ne peut riposter De la mélodie, j'suis malade, dans le club, j'fais mala-la-la-la La concu' veut des passes dé' J'prends toujours l'game en one-one, j'suis venu shooter, grr, paw Aucun opps ne peut riposter De la mélodie, j'suis malade, dans le club, j'fais mala-la-la-la La concu' veut des passes dé' Pyromane dans un Porsche Macan, en pétard, c'est Paname Nord, chacal États d'âme, dix-sept macadams et j'repars avec ta madame Pyromane dans un Porsche Macan, en pétard, c'est Paname Nord, chacal États d'âme, dix-sept macadams et j'repars avec ta madame Full Yamaha, casque Araï grr, paw Tacticien comme Kasparov Je prends toujours le game en one one 1V1, j'ai qu'une parole Bikow, je ne n'ai pas changé J'prends toujours l'game en one one, j'suis venu shooter, grr, paw Aucun opps ne peut riposter De la mélodie, j'suis malade, dans le club, j'fais mala-la-la-la La concu' veut des passes dé' Électron libre</t>
+          <t>Stef Becker Beatmaker Ouh J'veux voir gouvernement renversé, j'fais dégouliner le mercier dans ton dernier string Pas d'succès d'estime, t'es bon qu'à sucer, t'as les lèvres gercées par ma Jersey Drill Bikow, j'suis l'homme au masque de fer, ces rappeurs mous manquent de fibres et de fer Tu veux suivre le mouvement, tu t'es du-per, dans ma gestu', tu fais peur aux tiper P'tit con, crédibilité, l'habit ne fait pas le moine, han, han, j'fais couler du champagne, han, han T'étais où quand j'avais pas un ? J'te laisse crever, j'te donne pas un rein Du magret pour mes Maghrébins, c'est RB, Belouizdad dans les gradins Ta fumas court après l'gratin, trop d'vovo, j'crois qu'elle s'sent pas très bien Te repose pas sur tes lauriers, moi, j'confectionne une couronne avec Si j'termine en elle, elle f'ra l'poirier pour être sûr que mon gosse, elle allaite J'me défends mieux qu'le bâtonnier, cartésien sous eau artésienne J'vais tout baiser mais j'veux pas spoiler, méthode parisienne carpe diem Cagoule sous la Gucci dans l'Vito, 3agoun quieres jugar conmigo Le hood, j'y suis depuis Bambino, le Woo m'a surnommé Bandito Biko blacko blanco dans l'cur et le message restera fédérateur On s'demande de qui ils ont pas peur, tu sais c'que j'en fais d'tes rappeurs ? Biko blako blanco dans l'cur et le message restera fédérateur On s'demande de qui ils ont pas peur, tu sais c'que j'en fais d'tes rappeurs ? Biko je ne n'ai pas changé J'prends toujours l'game en one-one, j'suis venu shooter, grr, paw Aucun opps ne peut riposter De la mélodie, j'suis malade, dans le club, j'fais mala-la-la-la La concu' veut des passes dé' J'prends toujours l'game en one-one, j'suis venu shooter, grr, paw Aucun opps ne peut riposter De la mélodie, j'suis malade, dans le club, j'fais mala-la-la-la La concu' veut des passes dé' Pyromane dans un Porsche Macan, en pétard, c'est Paname Nord, chacal États d'âme, dix-sept macadams et j'repars avec ta madame Pyromane dans un Porsche Macan, en pétard, c'est Paname Nord, chacal États d'âme, dix-sept macadams et j'repars avec ta madame Full Yamaha, casque Araï grr, paw Tacticien comme Kasparov Je prends toujours le game en one one 1V1, j'ai qu'une parole Bikow, je ne n'ai pas changé J'prends toujours l'game en one one, j'suis venu shooter, grr, paw Aucun opps ne peut riposter De la mélodie, j'suis malade, dans le club, j'fais mala-la-la-la La concu' veut des passes dé' Électron libre</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Young Bikow Grrr 45 AMG, la méduse, les menottes Ferragamo, Kenzo, Versace, Jet Ski dans la remorque J'marche avec quarante-cinq frères dAlger, j'transforme en llets-bi les feuilles de mon bloc-notes 45 AMG, 45 AMG, Kala' Mitraille mais ne parle pas, ferme lil mais ne dort pas Prends l'rap par le colback, légendaire comme l'époque du Golf 4 Hey, 45 AMG, 45 AMG J'suis le p'tit d'personne, j'me suis fais tout seul, hey, personne ne m'a partagé Dans le fond dmes flows, nombreux naufragés, Wax, Crumble dans le verre égyptien Nombreuses ssont perdues dans mon phrasé comme dans mon premier appart' haussmannien Moi, cest Islem Lems', c'est pas la East Cost guerre, c'est pas la business classe, jsuis dans l'p'tit classe S Que du business S, dans le binks, ça passe Hey, 45 AMG, 45 AMG Tu vis dans les contes de fées, moi j'fais les comptes natché J'voulais faire de l'oseille, j'avais même pas l'âge d'marcher Kala', Kala', Kala', 45 AMG, la Draco, l'drapeau ALG PGP, y aura pas d'RG, comme une envie de mouiller le maillot du PSG Hey, 45 AMG, Burrata, café allongé Je ne sais plus comment canaliser mon énergie, j'suis Hayceberg, je compte émerger Cent-cinquante tractions, j'ai les pec' tracés, j'ai ma Cambodgienne dans un gros classe G Je monte sur le capot pop Dettinger, j'ai fais pousser du Gelato dans mon potager Hey, 45 AMG, 45 AMG Laissez passer mauvais garçon, on est déclassé, même nos p'tites re-seu n'conduisent plus d'classe C Hey, 45 AMG, quarante sarrasins mal léchés Quarante-cinq pétasses éméchées, ne me demande même pas si tu peux passer, tu m'fais chier You might also like 45 AMG, la méduse, les menottes Ferragamo, Kenzo, Versace, Jet Ski dans la remorque J'marche avec quarante-cinq frères d'Alger, j'transforme en llets-bi les feuilles de mon bloc-notes 45 AMG, 45 AMG, Kala'</t>
+          <t>Young Bikow Grrr 45 AMG, la méduse, les menottes Ferragamo, Kenzo, Versace, Jet Ski dans la remorque J'marche avec quarante-cinq frères dAlger, j'transforme en llets-bi les feuilles de mon bloc-notes 45 AMG, 45 AMG, Kala' Mitraille mais ne parle pas, ferme lil mais ne dort pas Prends l'rap par le colback, légendaire comme l'époque du Golf 4 Hey, 45 AMG, 45 AMG J'suis le p'tit d'personne, j'me suis fais tout seul, hey, personne ne m'a partagé Dans le fond dmes flows, nombreux naufragés, Wax, Crumble dans le verre égyptien Nombreuses ssont perdues dans mon phrasé comme dans mon premier appart' haussmannien Moi, cest Islem Lems', c'est pas la East Cost guerre, c'est pas la business classe, jsuis dans l'p'tit classe S Que du business S, dans le binks, ça passe Hey, 45 AMG, 45 AMG Tu vis dans les contes de fées, moi j'fais les comptes natché J'voulais faire de l'oseille, j'avais même pas l'âge d'marcher Kala', Kala', Kala', 45 AMG, la Draco, l'drapeau ALG PGP, y aura pas d'RG, comme une envie de mouiller le maillot du PSG Hey, 45 AMG, Burrata, café allongé Je ne sais plus comment canaliser mon énergie, j'suis Hayceberg, je compte émerger Cent-cinquante tractions, j'ai les pec' tracés, j'ai ma Cambodgienne dans un gros classe G Je monte sur le capot pop Dettinger, j'ai fais pousser du Gelato dans mon potager Hey, 45 AMG, 45 AMG Laissez passer mauvais garçon, on est déclassé, même nos p'tites re-seu n'conduisent plus d'classe C Hey, 45 AMG, quarante sarrasins mal léchés Quarante-cinq pétasses éméchées, ne me demande même pas si tu peux passer, tu m'fais chier 45 AMG, la méduse, les menottes Ferragamo, Kenzo, Versace, Jet Ski dans la remorque J'marche avec quarante-cinq frères d'Alger, j'transforme en llets-bi les feuilles de mon bloc-notes 45 AMG, 45 AMG, Kala'</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Stef Becker beatmaker J'traîne avec tellement d'voleurs qu'j'ai des pare-chocs dans ma chambre J'traîne avec tellement d'shooters qu'j'ai des bastos dans ma chambre Sont tout plein d'machins, sont tout plein d'dettes, sont tout plein d'hlel Ils viennent pleurer quand ils ont du plomb dans la jambe Fiche de recherche tu m'auras pas moi j'me rend pas la con d'ta race J'retourn à Puerto Banùs, à San Petro de Alcantàra Ta montr ne vient pas de Suisse, ton teh ne vient pas d'Ketama Fais pas l'fou j't'ai pas cala j'suis dans mon hazi j'te canarde Grr Pah c'est la guitare ça va 120 microns À c't'heure ci des frères incarcérés pour 120 litrons Si tu la ramènes du bled, elle t'oubliera pour Louis Vuitton Tu veux la garder, pose une kichta sur le guéridon J'conduis j'tiens pas le guidon, j'ai fait 1-2-3 soleil Les keufs m'ont hagar dans l'allée j'ai fait la boule comme l'hérisson Les CRS envoient des bombes incendiaires mais j'les baise J'leur faisait des oigts-d depuis ma poussette quand j'étais nourrisson J'suis pas français j'suis parisien, j'connais tout j'ai peur de rien J'suis pas du tout paresseux, j't'ouvre le hazi de rien J'peux m'refaire sur un 10g, faire manger mes indigents M'sapper chez Christian Audigier, fructifier l'intelligence You might also like A4, rafale, harbat, que des armes lourdes Braquage, partage, paquetage, vole le miel de l'ours Patate, bagarre, hagar, si tu parles de nous T-MAX, terrasse, Grrr-Ah T'es riche comme César et t'as tout perdu aux cartes Maintenant qu'tu sais qu'Cléopâtre monte pas dans un Clio 4 sale pute J'connais qu'des schizophrènes et des pyromanes J'ai pas les yeux bleus ma belle, c'est l'reflet des gyrophares Y a des armes lourdes qui t'ouvrent un moteur en deux Mon rebeu si tu shootes avec, tu vas t'faire une tendinite Toi ça s'voit t'es pas d'ici j'sais pas c'que tu fais par ici Viens pas faire le bandit chef, on t'attache pour même pas 10 litres T'as peur du bruit du moteur au démarrage Personne pourra m'évincer, personne peut vacciner ma rage Les jaloux c'est des castors, ils nous ont construit des barrages On recompte, sponsorisés par zipette et Lebara Ça s'voit c'est pas trop la cailler t'sais pas trop d'quoi tu parles Te fais pas chier, à Dubaï ça vaut 10 balles C'est un petit gap qui vient pour allumer ton bodyguard On sait c'que t'es prêt à faire, pour faire péter l'audimat Tu t'demandes si t'es maudit quand tu vois passer l'Audi noire Quand tu vois passer l'Audi noire Tu dors plus t'as peur de croiser ton regard dans les miroirs T'as trahi l'omerta, la rançon et la gloire A4, rafale, harbat, que des armes lourdes Braquage, partage, paquetage, vole le miel de l'ours Patate, bagarre, hagar, si tu parles de nous T-MAX, terrasse, Grrr-Ah A4, rafale, harbat, que des armes lourdes Braquage, partage, paquetage, vole le miel de l'ours Patate</t>
+          <t>Stef Becker beatmaker J'traîne avec tellement d'voleurs qu'j'ai des pare-chocs dans ma chambre J'traîne avec tellement d'shooters qu'j'ai des bastos dans ma chambre Sont tout plein d'machins, sont tout plein d'dettes, sont tout plein d'hlel Ils viennent pleurer quand ils ont du plomb dans la jambe Fiche de recherche tu m'auras pas moi j'me rend pas la con d'ta race J'retourn à Puerto Banùs, à San Petro de Alcantàra Ta montr ne vient pas de Suisse, ton teh ne vient pas d'Ketama Fais pas l'fou j't'ai pas cala j'suis dans mon hazi j'te canarde Grr Pah c'est la guitare ça va 120 microns À c't'heure ci des frères incarcérés pour 120 litrons Si tu la ramènes du bled, elle t'oubliera pour Louis Vuitton Tu veux la garder, pose une kichta sur le guéridon J'conduis j'tiens pas le guidon, j'ai fait 1-2-3 soleil Les keufs m'ont hagar dans l'allée j'ai fait la boule comme l'hérisson Les CRS envoient des bombes incendiaires mais j'les baise J'leur faisait des oigts-d depuis ma poussette quand j'étais nourrisson J'suis pas français j'suis parisien, j'connais tout j'ai peur de rien J'suis pas du tout paresseux, j't'ouvre le hazi de rien J'peux m'refaire sur un 10g, faire manger mes indigents M'sapper chez Christian Audigier, fructifier l'intelligence A4, rafale, harbat, que des armes lourdes Braquage, partage, paquetage, vole le miel de l'ours Patate, bagarre, hagar, si tu parles de nous T-MAX, terrasse, Grrr-Ah T'es riche comme César et t'as tout perdu aux cartes Maintenant qu'tu sais qu'Cléopâtre monte pas dans un Clio 4 sale pute J'connais qu'des schizophrènes et des pyromanes J'ai pas les yeux bleus ma belle, c'est l'reflet des gyrophares Y a des armes lourdes qui t'ouvrent un moteur en deux Mon rebeu si tu shootes avec, tu vas t'faire une tendinite Toi ça s'voit t'es pas d'ici j'sais pas c'que tu fais par ici Viens pas faire le bandit chef, on t'attache pour même pas 10 litres T'as peur du bruit du moteur au démarrage Personne pourra m'évincer, personne peut vacciner ma rage Les jaloux c'est des castors, ils nous ont construit des barrages On recompte, sponsorisés par zipette et Lebara Ça s'voit c'est pas trop la cailler t'sais pas trop d'quoi tu parles Te fais pas chier, à Dubaï ça vaut 10 balles C'est un petit gap qui vient pour allumer ton bodyguard On sait c'que t'es prêt à faire, pour faire péter l'audimat Tu t'demandes si t'es maudit quand tu vois passer l'Audi noire Quand tu vois passer l'Audi noire Tu dors plus t'as peur de croiser ton regard dans les miroirs T'as trahi l'omerta, la rançon et la gloire A4, rafale, harbat, que des armes lourdes Braquage, partage, paquetage, vole le miel de l'ours Patate, bagarre, hagar, si tu parles de nous T-MAX, terrasse, Grrr-Ah A4, rafale, harbat, que des armes lourdes Braquage, partage, paquetage, vole le miel de l'ours Patate</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Gauche, droite, centre, je suis toujours indécis Car le gouvernement n'enfante que des imbéciles J'entends Big L, est-on toujours en indé, sir ? Salope, t'auras pas c'que tu veux si tu bats des cils Elle cache peut-être un Opinel sous ses bas-résilles Tu fais l'mec blindé mais t'as même pas d'garettes-ci Moi, depuis tout petit le succès me fait des signes Aujourd'hui j'gagne ma vie comme si j'avais fait médecine J'vois l'bus et j'prends mon dernier flash à l'épicerie Réussir c'est fourrer des modèles et des speakerines ? Ta carrière vaut pas le quart de ma tapisserie J'kiffe les meufs fines mais seulement dans les patisseries Le million d'euros arrive avec la calvitie J'marche à PSO, j'suis pisté par la APC J'vide un magnum de Moët Chandon dans la piscine Une anglaise m'a dit Fais-moi visiter Paris, sweet Et ouais bitch ADAL, le 8 avril dans les bacs, merci si t'as pré-commandé Hay-hay-hayce Si on est dans tes oreilles c'est qu't'es dans nos coeurs Toi même tu sais Un disque d'or et j'relativise Je mélange pas le Sprite avec l'Activis BLR 140 Squad pour un feu d'artifice Algérois mal luné, je te martyrise J'suis en buvette à Warhan au Sheraton Y'a mes rifis dans l'Sofitel Marrakkech Si faut j'casse un tour pour finir l'album J'te termine à coups d'penalty dans la tête Autodidacte, cultivé sans école Besoin d'un capteur pour ouvrir la brèche Anti-superstitions d'associateur On t'a déjà banane, allez, garde la pêche Le ciel se déchire en lambeaux J'suis magique, j'ai le swag Orlando J'tire sans regarder, j'suis comme Rondo Grâce à moi l'17 c'est devenu Toronto J'm'infiltre chez toi la tarentule Que dirais-tu d'une bastos dans ta rotule ? J'vis ma vie comme je veux, moi, j'ai pas d'recul J'suis deuspi, tu crois qu'j'ai pris 2 grammes de pure ? On cherche à éteindre le rapport de force C'est dur d'être le meilleur rappeur de France Surdoué dès la p'tite enfance J'crie 75.0.17 en force Au feu rouge t'insultes les mères Sors de ta voiture si t'es un homme C'est pas l'Homme qui prend la mer C'est ma mère qui a fait d'moi un homme You might also like Quand Lemsi n'est pas là, les salopes buzzent Le rap est au 17ème, bitch T'as peut-être déjà vu ma gueule sur un poster Pose pas de questions, mets ton cavu sur la cane-bé J'bosse comme un Philippin, mon train de vie de boss laisse Peu d'espace et de temps malgré les équations d'Albert Hausse la mise et fais tomber tous les masques Est-ce dans ma volubilité qu'est née leur foutue bassesse ? Hayce... pour un délit de faciès Barba Napoli, dans la pyramide ou l'Iceberg Barbare impoli j'ai le milli' dans le Holster Drive-by en bolide ces bicos nous payent au lance-pierre Hayce Algerian Gangster Cristiano du Rap des millions d'euros le transfert Snitch t'as rien à faire dans le four Tu deviens trop lourd j'te jette de la montgolfière American Express dans le larfeuille 6' du sbah pour aller braquer l'orfèvre J'ai la folie des grandeurs et mon arsenal dans le coffre Ta ville, ton équipe, ton vécu, ta mif' I don't care J'ai grandi, on vieillit avec des balles dans le corps Elle glisse de la molly dans ton magnum de Dom Per' On vit à 230 d'Amsterdam à Berlin Massage Thaï, match du Paris-Saint-Germain Stranguler les hataïs au drapeau Algérien Ils ont entendu pyramides ils m'ont pris pour Merlin Moi c'est Hayce Lemsi, toi t'es j'sais pas qui ah Berkoukès, chebkia Deux trois litrons dans le que-s J'suis de retour dans la course, tu sais où je t'emmène après le show-case biatch biatch biatch J'fais des travaux sur la corniche Porte le bandana comme la MS de Californie T'as pris ta vie pour un rêve, il fallait pas t'endormir Ta femme et ce que t'appelles ton meilleur ami forniquent Nique-Nique-Nique la Police Canabinoïde dans mon métabolisme Les petits déchargent tout le camtar oh hisse Je glisse un billet violet dans le tablier de la boniche Jeune et riche bitch, ich liebe dich bitch Bouge la tête dans tous les sens LimpBizkit Fais gaffe à ton petit cul quand tu m'aguiches, bitch J'sors pas un mille-feuille pour tremper le biscuit Mieux vaut de l'amour pour soi qu'un soi pour seul amour Elle n'aura qu'un racole Un corps à mouler dans le taille-basse Chacun pour soi, les keufs arrivent dans l'four Ces derniers se jettent sur le premier guetteur et le tabassent Un pas des strass aux anti-dépresseurs Comment rendre un véritable hommage aux prédécesseurs ? Dans ce monde de te-traî j'veux supprimer l'oppresseur Dis pas qu't'es son frère s'tu veux baiser ses soeurs MC j'te laisse mâchouiller ta tétine, en un chouia j'te piétine Depuis qu'j'sais que l'argent fait tourner l'monde C'est décathlon dans la guérilla marketing J'sors enfouraillé du parking On a voulu briser mon rêve et celui de Luther king À côté les petits guettent et tartinent J'peux te pull up si tu veux faire la guerre à mon quartier Jt'avertis, j'sors la patate tu vas peut-être me voir Fais gaffe à ton cul bico je crains de ne pas t'revoir Dans ce pays seul nos parents sont le patrimoine En dirait que ça les dérange que la daronne porte le voile Peu importe, renoi, t'es avec ou contre moi ? Est-ce que tu m'regarderas si j'arrête le rap redwa T'es capable de tout niquer, petit, montre-moi Montre-moi, j'attends vas-y, petit montre-moi Musique c'est ma wife, et j'suis pas cocu J'rappe avec le coeur, tu rappes comme un cul J'laisserai pas l'rap game aux incultes Musique c'est ma wife, et j'suis pas cocu Non, j'suis pas cocu Jsuis toujours coquet, j'suis jamais coké J'laisserai pas l'rap game aux incultes, bitch Le rap est au 17ème, n'oubliez jamais ça1</t>
+          <t>Gauche, droite, centre, je suis toujours indécis Car le gouvernement n'enfante que des imbéciles J'entends Big L, est-on toujours en indé, sir ? Salope, t'auras pas c'que tu veux si tu bats des cils Elle cache peut-être un Opinel sous ses bas-résilles Tu fais l'mec blindé mais t'as même pas d'garettes-ci Moi, depuis tout petit le succès me fait des signes Aujourd'hui j'gagne ma vie comme si j'avais fait médecine J'vois l'bus et j'prends mon dernier flash à l'épicerie Réussir c'est fourrer des modèles et des speakerines ? Ta carrière vaut pas le quart de ma tapisserie J'kiffe les meufs fines mais seulement dans les patisseries Le million d'euros arrive avec la calvitie J'marche à PSO, j'suis pisté par la APC J'vide un magnum de Moët Chandon dans la piscine Une anglaise m'a dit Fais-moi visiter Paris, sweet Et ouais bitch ADAL, le 8 avril dans les bacs, merci si t'as pré-commandé Hay-hay-hayce Si on est dans tes oreilles c'est qu't'es dans nos coeurs Toi même tu sais Un disque d'or et j'relativise Je mélange pas le Sprite avec l'Activis BLR 140 Squad pour un feu d'artifice Algérois mal luné, je te martyrise J'suis en buvette à Warhan au Sheraton Y'a mes rifis dans l'Sofitel Marrakkech Si faut j'casse un tour pour finir l'album J'te termine à coups d'penalty dans la tête Autodidacte, cultivé sans école Besoin d'un capteur pour ouvrir la brèche Anti-superstitions d'associateur On t'a déjà banane, allez, garde la pêche Le ciel se déchire en lambeaux J'suis magique, j'ai le swag Orlando J'tire sans regarder, j'suis comme Rondo Grâce à moi l'17 c'est devenu Toronto J'm'infiltre chez toi la tarentule Que dirais-tu d'une bastos dans ta rotule ? J'vis ma vie comme je veux, moi, j'ai pas d'recul J'suis deuspi, tu crois qu'j'ai pris 2 grammes de pure ? On cherche à éteindre le rapport de force C'est dur d'être le meilleur rappeur de France Surdoué dès la p'tite enfance J'crie 75.0.17 en force Au feu rouge t'insultes les mères Sors de ta voiture si t'es un homme C'est pas l'Homme qui prend la mer C'est ma mère qui a fait d'moi un homme Quand Lemsi n'est pas là, les salopes buzzent Le rap est au 17ème, bitch T'as peut-être déjà vu ma gueule sur un poster Pose pas de questions, mets ton cavu sur la cane-bé J'bosse comme un Philippin, mon train de vie de boss laisse Peu d'espace et de temps malgré les équations d'Albert Hausse la mise et fais tomber tous les masques Est-ce dans ma volubilité qu'est née leur foutue bassesse ? Hayce... pour un délit de faciès Barba Napoli, dans la pyramide ou l'Iceberg Barbare impoli j'ai le milli' dans le Holster Drive-by en bolide ces bicos nous payent au lance-pierre Hayce Algerian Gangster Cristiano du Rap des millions d'euros le transfert Snitch t'as rien à faire dans le four Tu deviens trop lourd j'te jette de la montgolfière American Express dans le larfeuille 6' du sbah pour aller braquer l'orfèvre J'ai la folie des grandeurs et mon arsenal dans le coffre Ta ville, ton équipe, ton vécu, ta mif' I don't care J'ai grandi, on vieillit avec des balles dans le corps Elle glisse de la molly dans ton magnum de Dom Per' On vit à 230 d'Amsterdam à Berlin Massage Thaï, match du Paris-Saint-Germain Stranguler les hataïs au drapeau Algérien Ils ont entendu pyramides ils m'ont pris pour Merlin Moi c'est Hayce Lemsi, toi t'es j'sais pas qui ah Berkoukès, chebkia Deux trois litrons dans le que-s J'suis de retour dans la course, tu sais où je t'emmène après le show-case biatch biatch biatch J'fais des travaux sur la corniche Porte le bandana comme la MS de Californie T'as pris ta vie pour un rêve, il fallait pas t'endormir Ta femme et ce que t'appelles ton meilleur ami forniquent Nique-Nique-Nique la Police Canabinoïde dans mon métabolisme Les petits déchargent tout le camtar oh hisse Je glisse un billet violet dans le tablier de la boniche Jeune et riche bitch, ich liebe dich bitch Bouge la tête dans tous les sens LimpBizkit Fais gaffe à ton petit cul quand tu m'aguiches, bitch J'sors pas un mille-feuille pour tremper le biscuit Mieux vaut de l'amour pour soi qu'un soi pour seul amour Elle n'aura qu'un racole Un corps à mouler dans le taille-basse Chacun pour soi, les keufs arrivent dans l'four Ces derniers se jettent sur le premier guetteur et le tabassent Un pas des strass aux anti-dépresseurs Comment rendre un véritable hommage aux prédécesseurs ? Dans ce monde de te-traî j'veux supprimer l'oppresseur Dis pas qu't'es son frère s'tu veux baiser ses soeurs MC j'te laisse mâchouiller ta tétine, en un chouia j'te piétine Depuis qu'j'sais que l'argent fait tourner l'monde C'est décathlon dans la guérilla marketing J'sors enfouraillé du parking On a voulu briser mon rêve et celui de Luther king À côté les petits guettent et tartinent J'peux te pull up si tu veux faire la guerre à mon quartier Jt'avertis, j'sors la patate tu vas peut-être me voir Fais gaffe à ton cul bico je crains de ne pas t'revoir Dans ce pays seul nos parents sont le patrimoine En dirait que ça les dérange que la daronne porte le voile Peu importe, renoi, t'es avec ou contre moi ? Est-ce que tu m'regarderas si j'arrête le rap redwa T'es capable de tout niquer, petit, montre-moi Montre-moi, j'attends vas-y, petit montre-moi Musique c'est ma wife, et j'suis pas cocu J'rappe avec le coeur, tu rappes comme un cul J'laisserai pas l'rap game aux incultes Musique c'est ma wife, et j'suis pas cocu Non, j'suis pas cocu Jsuis toujours coquet, j'suis jamais coké J'laisserai pas l'rap game aux incultes, bitch Le rap est au 17ème, n'oubliez jamais ça1</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Paroles de Akra Les mauvais garçons crient Arah Les T-MAX 500 crient Akra Et lorsque t'as senti la lame T'as laissé retentir l'alarme J'descends d'chez moi j'pue d'la gueule j'ai pas ouehda sans commentaires J'salue pas la gardienne j'sais qu'cette pute a sauté tout mon teh D'ailleurs j'roule mon premier teh, j'pète les autres au PMU Pose mon noisette sur le zin le zin là j'suis en PLS J'croise un mec qui parle aux arbres tout seul depuis deux nuits Le genre de mecs chelous qui fait des gardav' pieds nus Sans parler du toxico qui m'demande euros pour du crack Le destin autour du cou, le garrot autour du bras Contrôle de routine en ville ça veut m'mettre un étranglement Contrepoids j't'emmène au sol et j'fais pas ça n'importe comment 75 Paname escargots tous les jours c'est l'débarquement Ceux qui critiquent sont les plus fanatiques de mon département J'ai coffré peufra j'sors du hood, j'ai trop de flow j'sors du woo Et j'suis persuadé qu'les gars d'la cité d'en face parlent de nous C'n'est pas qu'une question de goûts, c'est une question de woo Et j'suis persuadé qu'chaque nuit les filles d'à côté rêvent de nous You might also like Les mauvais garçons crient Arah Les T-MAX 500 crient Akra Et lorsque t'as senti la lame T'as laissé retentir l'alarme Les mauvais garçons crient Arah Les T-MAX 500 crient Akra Et lorsque t'as senti la lame T'as laissé retentir l'alarme Ce soir j'ai sorti l'T-MAX pour une petasse de terrasse Mon pote de Marseille me dit présente sa copine la con d'ta race Dans la nuit j'vais cantare sous Jack ou Doré sur la place avec les kheys Fennec pilon rouge et lions d'l'Atlas Mon polo déjà plein de taches, la go fait tomber son flash Elle est folle, j'parie 200 que si j'm'endors elle m'attache Du coup j'm'arrache démarrage, zebi j'tombe sur un barrage Demi tour ça part en chasse, me gare et repart en chap-chap J'arrive sur les quais, j'profite de Paris l'été J'profite de la change d'y écrire j'suis pas illettré Quand j'me suis fait péter le juge m'a demandé d'pas réitérer Mais le kho joue à cache-cache on a le fer pour l'repérer Les petits sortent en courant j'crois qu'ils ont retourné l'Carrefour Au quartier c'est calme, ça bosse on appelle ça silence du four J'suis devenu paro j'ai trop j'bédave j'vois des baqueux partout Gars j'vois des lutins j'aurais jamais du tant charger l'Backwoods putain Les mauvais garçons crient Arah Les T-MAX 500 crient Akra Et lorsque t'as senti la lame T'as laissé retentir l'alarme Les mauvais garçons crient Arah Les T-MAX 500 crient Akra Et lorsque t'as senti la lame T'as laissé retentir l'alarme</t>
+          <t>Paroles de Akra Les mauvais garçons crient Arah Les T-MAX 500 crient Akra Et lorsque t'as senti la lame T'as laissé retentir l'alarme J'descends d'chez moi j'pue d'la gueule j'ai pas ouehda sans commentaires J'salue pas la gardienne j'sais qu'cette pute a sauté tout mon teh D'ailleurs j'roule mon premier teh, j'pète les autres au PMU Pose mon noisette sur le zin le zin là j'suis en PLS J'croise un mec qui parle aux arbres tout seul depuis deux nuits Le genre de mecs chelous qui fait des gardav' pieds nus Sans parler du toxico qui m'demande euros pour du crack Le destin autour du cou, le garrot autour du bras Contrôle de routine en ville ça veut m'mettre un étranglement Contrepoids j't'emmène au sol et j'fais pas ça n'importe comment 75 Paname escargots tous les jours c'est l'débarquement Ceux qui critiquent sont les plus fanatiques de mon département J'ai coffré peufra j'sors du hood, j'ai trop de flow j'sors du woo Et j'suis persuadé qu'les gars d'la cité d'en face parlent de nous C'n'est pas qu'une question de goûts, c'est une question de woo Et j'suis persuadé qu'chaque nuit les filles d'à côté rêvent de nous Les mauvais garçons crient Arah Les T-MAX 500 crient Akra Et lorsque t'as senti la lame T'as laissé retentir l'alarme Les mauvais garçons crient Arah Les T-MAX 500 crient Akra Et lorsque t'as senti la lame T'as laissé retentir l'alarme Ce soir j'ai sorti l'T-MAX pour une petasse de terrasse Mon pote de Marseille me dit présente sa copine la con d'ta race Dans la nuit j'vais cantare sous Jack ou Doré sur la place avec les kheys Fennec pilon rouge et lions d'l'Atlas Mon polo déjà plein de taches, la go fait tomber son flash Elle est folle, j'parie 200 que si j'm'endors elle m'attache Du coup j'm'arrache démarrage, zebi j'tombe sur un barrage Demi tour ça part en chasse, me gare et repart en chap-chap J'arrive sur les quais, j'profite de Paris l'été J'profite de la change d'y écrire j'suis pas illettré Quand j'me suis fait péter le juge m'a demandé d'pas réitérer Mais le kho joue à cache-cache on a le fer pour l'repérer Les petits sortent en courant j'crois qu'ils ont retourné l'Carrefour Au quartier c'est calme, ça bosse on appelle ça silence du four J'suis devenu paro j'ai trop j'bédave j'vois des baqueux partout Gars j'vois des lutins j'aurais jamais du tant charger l'Backwoods putain Les mauvais garçons crient Arah Les T-MAX 500 crient Akra Et lorsque t'as senti la lame T'as laissé retentir l'alarme Les mauvais garçons crient Arah Les T-MAX 500 crient Akra Et lorsque t'as senti la lame T'as laissé retentir l'alarme</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Yeah Hoe ! Alexandre 3... Que la night, que la night, que la night... Big Lem'... BOOM Comme si je portais le poids du monde sur mes épaules Autodidacte, jeune et fougueux qui rêvait de quitter l'école J'ai refusé de servir de modèle ou d'icône, t'es tellement jaloux de mon succès que tu t'étouffes avec tes propres com's En buvette sur le pont, Alexandre 3, le commissaire et tous ses collègues sentent l'alcool, je te brise le cur, les morceaux s'recollent, suce les frères Lumière, sombre conne ! Si la plume était une arme, je les aurais tous tués J'cherche à produire une petite rentable, génération tant que j'ai des billets j'm'en tape, télé-réalité de débile mental ! C'est la Kalash Humaine qui rafale ton pare-brise, je retombe toujours sur la contrebasse, on sait qui gagne au bras-de-fer amitié contre biz', naissent un peu comme un Est-ce que les auditions s'contredisent ? La B.A.C fait sortir les poukis contre un blaz T'as du vice, on t'charcle avec un tournevis, l'être humain se méprise, il aime vivre sans glace ! Arabe, terroriste pléonasme. Arrah, héroïne, litron d'frappe. Ah, je vois toujours la police à 6 du mat', j'ai percé dans l'pe-ra mais le passé me rattrape ! En buvette sur le pont, Alexandre 3, tu m'envoies des piques ? j't'enlève ta culotte. Les braconniers dans le Safari, je sers de proie C'est maître Lemsi qui donne les leçons, toi tu notes ! En buvette sur le pont, Alexandre 3, viens pas gratter l'amitié on s'ressemble pas, la moitié du rap game a repris tous mes flows, mais comment dire... Ça sonne faux, ça m'ressemble pas ! Que des rappeurs parodiques Tremblement d'terter chaotique On t'ouvre l'artère carotide On rêve des chèques à Rothschild J'suis cramé j'sais pas mentir Les poulets n'servent qu'à rôtir Les mecs les plus paros tirent J'bande encore quand j'me retire ! Pour mes djellabas, mes boubous mes gitans comme Doudoum bang bang, happy birthday to you bitch, Islem est toujours debout, j'arrive doré sur un deux roues, dans le 17 on t'a Vrou-Vrou, bang bang, Happy birthday to you bitch, Islem est toujours debout ! On s'en bat les couilles de la vie, demande à mes bicows de Nanterre. J'aurai pas dû ressortir d'ma tanière, tu respectes plus ton dealer que ta mère, on cherche toujours une arme plus fiable, règlement de compte en période pluviale, vis-ser la haine, t'es sur la péniche, on encule la police fluviale ! Toi tu rêves de mourir jeune et riche mais tu vas te faire rafaler comme Mesrine, ta carrière ne vaut pas une seule de mes rimes, en vérité toi t'es juste un suppôt du diable Et juste parce qu'ils bousillent l'Hip-Hop, dois-je me pencher sur le cas d'ces pussy, bicow? Que la night, que la night, que la night, que la night ! YEAH HOEYou might also like</t>
+          <t>Yeah Hoe ! Alexandre 3... Que la night, que la night, que la night... Big Lem'... BOOM Comme si je portais le poids du monde sur mes épaules Autodidacte, jeune et fougueux qui rêvait de quitter l'école J'ai refusé de servir de modèle ou d'icône, t'es tellement jaloux de mon succès que tu t'étouffes avec tes propres com's En buvette sur le pont, Alexandre 3, le commissaire et tous ses collègues sentent l'alcool, je te brise le cur, les morceaux s'recollent, suce les frères Lumière, sombre conne ! Si la plume était une arme, je les aurais tous tués J'cherche à produire une petite rentable, génération tant que j'ai des billets j'm'en tape, télé-réalité de débile mental ! C'est la Kalash Humaine qui rafale ton pare-brise, je retombe toujours sur la contrebasse, on sait qui gagne au bras-de-fer amitié contre biz', naissent un peu comme un Est-ce que les auditions s'contredisent ? La B.A.C fait sortir les poukis contre un blaz T'as du vice, on t'charcle avec un tournevis, l'être humain se méprise, il aime vivre sans glace ! Arabe, terroriste pléonasme. Arrah, héroïne, litron d'frappe. Ah, je vois toujours la police à 6 du mat', j'ai percé dans l'pe-ra mais le passé me rattrape ! En buvette sur le pont, Alexandre 3, tu m'envoies des piques ? j't'enlève ta culotte. Les braconniers dans le Safari, je sers de proie C'est maître Lemsi qui donne les leçons, toi tu notes ! En buvette sur le pont, Alexandre 3, viens pas gratter l'amitié on s'ressemble pas, la moitié du rap game a repris tous mes flows, mais comment dire... Ça sonne faux, ça m'ressemble pas ! Que des rappeurs parodiques Tremblement d'terter chaotique On t'ouvre l'artère carotide On rêve des chèques à Rothschild J'suis cramé j'sais pas mentir Les poulets n'servent qu'à rôtir Les mecs les plus paros tirent J'bande encore quand j'me retire ! Pour mes djellabas, mes boubous mes gitans comme Doudoum bang bang, happy birthday to you bitch, Islem est toujours debout, j'arrive doré sur un deux roues, dans le 17 on t'a Vrou-Vrou, bang bang, Happy birthday to you bitch, Islem est toujours debout ! On s'en bat les couilles de la vie, demande à mes bicows de Nanterre. J'aurai pas dû ressortir d'ma tanière, tu respectes plus ton dealer que ta mère, on cherche toujours une arme plus fiable, règlement de compte en période pluviale, vis-ser la haine, t'es sur la péniche, on encule la police fluviale ! Toi tu rêves de mourir jeune et riche mais tu vas te faire rafaler comme Mesrine, ta carrière ne vaut pas une seule de mes rimes, en vérité toi t'es juste un suppôt du diable Et juste parce qu'ils bousillent l'Hip-Hop, dois-je me pencher sur le cas d'ces pussy, bicow? Que la night, que la night, que la night, que la night ! YEAH HOE</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Il est revenu Yaya On The Track Il est de retour Full Throtlle Switch, All Day Le prince est là Ici, tout l'monde à une guitare pourtant personne ne connait les Beatles Bactérie veut brûler les étapes, han, le gérant jadis était guetteur T'entendras pas de grrr grrr quand j'enverrai l'missile sol-air J'essaie d'm'approcher du ciel mais le poids d'mes péchés me ramène vrs le sol, hey Cyclone d mauvaises actions vient balayer pyramide de Benjamin Franklin les péchés J'mange avec les requins, j'danse avec les loups, rage et folie ne front qu'un La bavette a frotté, la police a frappé, déféré au parquet, j'fais couler son fond d'teint Algérien, toujours effronté, entrainé pour tenir le hebs et les temps pleins J'viens d'là où la drogue est un tremplin, chargeur est trop plein si tu portes te-plain chargeur est trop plein Hayce don Pietro, celui qui m'parle trop, j'piétine son patron Y a pas d'fumée sans feu, j'hésiterai pas à sortir mon feu pour te fumer Horizon funèbre, le maître des lettres est de retour bande de fumiers, fuyez, fuyez, fuyez Ho Madre Mia, c'est un pour l'honneur, deux pour l'oseille J'ai perdu l'anonymat, depuis que j'l'ai perdu j'suis plus le même , insomniaque, j'ai toujours pas trouvé le sommeil J'suis tombé dans l'déni ha, y a que sur une bécane en I que j'm'approche du Soleil You might also like Ali la Pointe dans les veines Ha, Boumediene dans les veines Ha, Belouizdad dans les veines HA, chef de guerre dans les gènes Ali la Pointe dans les veines Ha, Boumediene dans les veines Ha, Belouizdad dans les veines Ha, chef de guerre dans les gènes Un million pour éloigner deux personnes, en troisième j'rêvais du Audi A4 gamos Les pointus plaident le cinquième amendement pour écoper moins d'six mois au placard Cette année j'fais l'grand huit, j'vais sortir le neuf, pouvez v'nir à dix, onze ans qu'j'suis dans l'rap J'découpe Cendrillon sur le capot comme un capo avant les douze coups d'minuit No cap j'allais kicker jusque dans l'treize pour porter la même couronne que Louis XIV, han Solide comme le XV de France, han, gravé dans la sève des corps L'envers du décor, des pensées malsaines, du sang sous la semelle, moi j't'écris des seize J'te décris la scène des frères aux assiettes, cadavres dans la scène, la même du dix-septième jusqu'à Marseille Ho Madre Mia, c'est un pour l'honneur, deux pour l'oseille J'ai perdu l'anonymat, depuis que j'l'ai perdu j'suis plus le même , insomniaque, j'ai toujours pas trouvé le sommeil J'suis tombé dans l'déni ha, y a que sur une bécane en i que j'm'approche du Soleil Ali la Pointe dans les veines Ha, Boumediene dans les veines Ha, Belouizdad dans les veines HA, chef de guerre dans les gènes Ali la Pointe dans les veines Ha, Boumediene dans les veines Ha, Belouizdad dans les veines Ha, chef de guerre dans les gènes</t>
+          <t>Il est revenu Yaya On The Track Il est de retour Full Throtlle Switch, All Day Le prince est là Ici, tout l'monde à une guitare pourtant personne ne connait les Beatles Bactérie veut brûler les étapes, han, le gérant jadis était guetteur T'entendras pas de grrr grrr quand j'enverrai l'missile sol-air J'essaie d'm'approcher du ciel mais le poids d'mes péchés me ramène vrs le sol, hey Cyclone d mauvaises actions vient balayer pyramide de Benjamin Franklin les péchés J'mange avec les requins, j'danse avec les loups, rage et folie ne front qu'un La bavette a frotté, la police a frappé, déféré au parquet, j'fais couler son fond d'teint Algérien, toujours effronté, entrainé pour tenir le hebs et les temps pleins J'viens d'là où la drogue est un tremplin, chargeur est trop plein si tu portes te-plain chargeur est trop plein Hayce don Pietro, celui qui m'parle trop, j'piétine son patron Y a pas d'fumée sans feu, j'hésiterai pas à sortir mon feu pour te fumer Horizon funèbre, le maître des lettres est de retour bande de fumiers, fuyez, fuyez, fuyez Ho Madre Mia, c'est un pour l'honneur, deux pour l'oseille J'ai perdu l'anonymat, depuis que j'l'ai perdu j'suis plus le même , insomniaque, j'ai toujours pas trouvé le sommeil J'suis tombé dans l'déni ha, y a que sur une bécane en I que j'm'approche du Soleil Ali la Pointe dans les veines Ha, Boumediene dans les veines Ha, Belouizdad dans les veines HA, chef de guerre dans les gènes Ali la Pointe dans les veines Ha, Boumediene dans les veines Ha, Belouizdad dans les veines Ha, chef de guerre dans les gènes Un million pour éloigner deux personnes, en troisième j'rêvais du Audi A4 gamos Les pointus plaident le cinquième amendement pour écoper moins d'six mois au placard Cette année j'fais l'grand huit, j'vais sortir le neuf, pouvez v'nir à dix, onze ans qu'j'suis dans l'rap J'découpe Cendrillon sur le capot comme un capo avant les douze coups d'minuit No cap j'allais kicker jusque dans l'treize pour porter la même couronne que Louis XIV, han Solide comme le XV de France, han, gravé dans la sève des corps L'envers du décor, des pensées malsaines, du sang sous la semelle, moi j't'écris des seize J'te décris la scène des frères aux assiettes, cadavres dans la scène, la même du dix-septième jusqu'à Marseille Ho Madre Mia, c'est un pour l'honneur, deux pour l'oseille J'ai perdu l'anonymat, depuis que j'l'ai perdu j'suis plus le même , insomniaque, j'ai toujours pas trouvé le sommeil J'suis tombé dans l'déni ha, y a que sur une bécane en i que j'm'approche du Soleil Ali la Pointe dans les veines Ha, Boumediene dans les veines Ha, Belouizdad dans les veines HA, chef de guerre dans les gènes Ali la Pointe dans les veines Ha, Boumediene dans les veines Ha, Belouizdad dans les veines Ha, chef de guerre dans les gènes</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Katrina Squad Hey Hey, LRL LRL, Shtar Ac' Shtar Ac Des Baumettes à Fresnes À Fresnes, trop d'larmes sur les pommettes et plus rien qui freine Qui freine C'nest plus c'que c'était C'était Rien à fêter, toujours bien apprêté 'pprêté Mais rien à fêter, pas de traité d'paix Traité d'paix, rien à r'gretter Rien à rgretter Autre temps, autre mentale, autre vision, que dalle horizon, faut sfaire un raison L'avenir, le présent, aucun prévision, pas bsoin de c'qu'ils ont, j'ai ce quil te faut Dealer, livraison, là pour en faire à foison, tout est bon, tout est poison J'sais qui sont les faux, les killers, les vrais hommes et c'qu'il s'dit derrière les cloisons 1.3, la favel' internationale, quelques verres d'javel dans l'confessionnal Tout pour le papel, imprimerie nationale, sa mère la retraite, police nationale Jamais dans la norme, toujours dans la lutte La vie est une pute, viens pas faire la nonne, qui paierait la note ? La leur ou la nôtre ? J'leur braquerai la lune, passerai dans la note, j'ai plus rien à fêter, y a plus d'corazón, nan, pas d'coup du sort Si tu t'la racontes, ça va dans l'appart' et puis, ça t'la sort Qu'est-ce que tu racontes ? Avec moi ou contre ? Chaque homme sa part d'ombre, que Dieu me pardonne Toujours loin du compte, le reste, c'est des cons Que faut faire du gaz, dioxyde de carbone You might also like On est vrais comme le sang sur les murs, y a des règles, c'est pour pas s'faire l'amour C'est pour pas s'faire l'amour Mes res-frè, comme leurs produits, sont durs, fument la frappe du pays d'Wijnaldum Si t'es faux comme tes codes, ça s'ra dur, en promenade, faudra pas faire la moue Faudra pas faire la moue Gros, si t'as des trucs à dire, évite-les, viens plutôt l'dire à nous Y a les barreaux, pas de pole dance, vu les taros, toute la colle danse La nuit porte conseil quand t'as pas d'punaise, deux cons vont s'la mettre si l'ambiance est mauvaise Prends un bon conseil si ton affaire est chaude comme la braise Et s'tu les baises, fais leur la bise, dis-leur Labess, j'fume cannabis Assis en cour, j'attends la cour d'assise, Blur Encore un matin où la serrure dérange mes rêves J'lève mon pied pour l'appel, dès qu'on sort d'ici, on change les règles On change les règles, eh Parce qu'elles sont pas faites pour nous arranger J'sors du parlu, j'passe à la fouille, il est même pas fichu d'trouver mon vingt G' Il est même pas fichu, j'l'ai bien caché Obligé comme les produits ménagers, assis-toi, mon frère, tu peux manger par terre Bloqué au mitard, c'est la Cité Carter Et y a l'autre enculé qui a , demain, en promenade, va y avoir un feuilleton Nan, sale Quelle réinsertion, entre les fesses, j'ai d'la cons' et des biftons Des cantines en masse, ouais, y a plusieurs packs, eux, ils vendent leur âme et ont plusieurs pactes Laisse-nous en cellule, le jour où j'sors et j'reprends le volant du Audi Sport J'ai connu les dépôts, , Shtar Academy pour les frères au ballon Les zonzons de France, c'est un repaire de talents, rentré sur une fuite et ressorti le bras long T'inquiète, dehors, on n'est pas loin, on protège les mif' et les darons Ça cuisine, fils de pute, la fumée du joint sort à travers les barreaux Ils visser des peines de meurtriers, c'est nous dans leur viseur, ils allument les primaires Ça parle en années les épisodes, ils vont pas regarder les trajets d'ta daronne Les prisons pour femmes et les prisons pour mineurs apportent la douleur à la parole Défaut d'mis-per à la carotte, les res-frè aussi dans la cavale J'reçois des Snap' sur mes Temps en cellule, libérez Bourbier, faites-le maintenant, c'est mieux Mes reufs sont branchés ce matin au C.U, il suffit d'une perm' pour que j'relance ces putes Apprendre la nouvelle, c'est l'pire moment, c'est dur, on s'tape pas la tête, celui qui arrête, c'est Dieu Dedans, dehors, faut qu'on ramasse les thunes, nique sa grand-mère les , j'leur pénave en J'suis très souvent aigri Très souvent aigri, j'rugis en cage Eh, eh Ça changera never, personne f'ra autant qu'toi-même le taff Vu que la kichta maigrit Oui, en tête, tout est noir Noir, noir Ouais, on peut s'les faires, ces putains, ils prient pour jamais nous r'voir Ils prient Et ces p'tites que dans ces couloirs ont du pouvoir De partout, fu-, fu-, le parloir, une passoire J'passe à la fouille, fouille mais j'le savais comme d'hab' J'ouvre sereinement ma braguette, c'est pas moi qui remonte la plaquette Un cercueil s'ferme, une cellule s'ouvre, une seule atmosphère odeur de soufre Le noir cliché mange plein d'Hot Wings, mon blase affiché, l'nouveau point Godwin Le mal, j'l'emmène, le monde, j'le mords, pourvu qu'ils m'aiment comme un rappeur mort Pas de Macklemore, cache les écolières, y a un poil pubien sur la langue de Molière Che Guevara, Gaviria, on est passés, c'est un virage à cent quatre-vingt degrés C'rap est viral, j'rime en 3D, j'fais des films pour aveugles, Changer la donne, pas inverser les rôles, au sommet, les après les Là, c'est zéro, zéro, zéro, jeunesse passée dans un bloc ravagé par l'héro' Mes s'melles ont cramé dans ces rues brûlantes, j'veux mourir comme mes idées mais de mort lente La gloire des bâtiments, c'est , des rivières de ciment aux frères qu'on incarcère Le Diable fait son wess-wess, ses messes basses, la nature n'aime pas l'vide, j'remplis l'espace Mauvaise extase, son des messes marre, niquer l'système, il a l'air d'aimer ça On s'voilait la tempe, quand on fait du biz', j'vais pas qu'tu m'fasses la bise Ouais, les bails sont propres, ouais, on fait la diff', je n'compte pas les gros que font la mif' On d'vait tous faire parties d'Konami Ouais, pétasse, t'es bien bonne, j'suis pas ton ami Repars surveiller l'bifton qu'on a mis, garde à v', dépôt, prison, t'es dans la merde On a fini sous barbelés, on a commencé sous barbelés Mort en évitant d'être interpellé, un black ne laisse pas un frère black pleurer J'repars au combat, mes blessures n'ont pas cicatrisé J'veux passer du D2 au Détroit d'Gibraltar dans un 4x4 climatisé, ah Tu connais nos lifes Tu connais nos lifes, en promenade, j'ai d'l'espèce J'suis frais mais j'veux être free, j'suis trop thug, d'mande aux 3esses On respecte les consignes quand il n'y a pas de règles comme un implant dans le bras de ta re-m' C'est ta patata qui donne le go et entend ra-ta-ta-ta dans ta ruelle Ce matin, j'me réveille, promenade, deuxième tour, c't'après-m', je reçois le colis D'la viande, un bigot, deux plaquettes, d'la patata pour les Broly Bientôt, j'fais mon paquetage, le co', c'est un bon donc je partage, j'appelle le poto, j'fais passer l'temps Tous la même bataille, j'ai Chunku pour m'refaire, si j'suis là, c'est que j'ai raté l'plan C'est la Shtar Academy, c'est le mitard, j'm'endors au bruit des rats, pas des guitares On mange toujours les mêmes plats, gros, c'est riz-pâtes On garde les bons souvenirs mais dedans, tu ris pas Une Teisseire, j'suis refait, soirée poker, quand y a parlu, j'peux pas laisser le tél' en cellule C'trou du cul s'prend pour ton père, les nerfs quand ils referment à double tour la cellule, pah La prison, c'est dur et la sortie, c'est sûr Sûr mais y a rien d'plus certain que la mort Avec mes voyous, j'ai des désaccords, bien avant l'argent, la famille d'abord L'insalubrité, il est temps que ça cesse, au bled, on entasse les corps 81 ils abolissent la chaise mais combien d'autres ont fini sous la corde ? Hein, pas d'équité, Dieu leur rendra la monnaie d'la pièce Ils ont plus peur de Satan que d'la braise, l'heure d'la promenade écourtera la sieste C'est pour ceux qu'ont jamais r'tourné la veste Nan, même si elle est sans puche-ca Pule-cra, chez nous, on n'adule pas, Afrique de l'Ouest mais la rafale est bulgare Ceci n'est qu'une épreuve, le Très-Haut dans l'cur Pardonne l'erreur, s'en fout des preuves Hein, tu crois qu'on joue, c'est pas beer pong Pour tous mes frérots, sache que la haine monte Et l'hiver arrive très vite quand la peine tombe Pah, pah, pah, pah Déferré, j'pointe à la barre, menotté, dans les , bizarre qu'j'nie même pas les faits Sous mandat d'dépôt, j'déboule, , j'connais le quart du shtar, en balle, j'me refais Et j'pense que j'en aurai au moins pour cinq piges, , au bigo, j'tartine Wouh En promenade, on voit que les rats m'visent, enfoncer notre grosse lame dans les douches à Hello, hello, ça prépare des popotes, mieux qu'au tel-hô Ouais, ouais Paro, paro, on enchaîne kush sur kush, aqua d'bédo Ouais, ouais Tar-mi inévitable, on en a vu une trentaine péter des câbles Ouh C'est le 6.9, purge et c'est délicat Eh, force aux détenus enfermés, faut la mentale Ouais Spartacus est dans l'arène, en face, là, ça grimpe aux grillages Politique, brr, quelques immigrés qu'ont du pillage Pâtes au thon et des matons, mauvais endroit, mauvais moment Lourd est l'poids des mots des balances, plus proche d'la potence, que d'une romance Surveille ta cage comme Mandanda Ouh, lire des bouquins, envoyer des lettres Le nom des frérots dans les mandats, j'ai mon PGP pour les pipelettes Garage, garage, on s'débarrasse, j'aurais pu sortir, fuck la paperasse Moi, j'demande à Dieu, pas b'soin d'leur grâce, moi, j'demande à Dieu, pas b'soin d'leur grâce Une taffe, deux taffes, trois taffes, quatre baffes dans ta tête de con, ta tête de con T'as ni les bons plav', t'es ni à la page, ça pique quand ça touche, ça tache quand ça s'passe Si mon teh rend fou la catin, c'est qu'tu parles mal de la bouche Grr, pah C'est ta maman qui débite et qui va t'charger balles de .12 Toi, t'es fêlé, , donne un rouge pour un Pah, pah Un bleu pour un vingt, tu peux la payer sans invit' Voleur, voleur je suis car j'ai voulu, moula, nougat, quelques fois, c'est d'l'olive Coups d'batte, coupable, pas là pour rigoler, c'est à Fresnes que j'ai écrit ce couplet Les frères purgeront leur peine, c'est l'mektoub, j'ai ma conscience en doute, j'viens des eaux troubles Éduqué à la dure, j'connais pas l'souple, j'vais lui casser ses dents, il boit qu'd'la soupe C'est pas les menaces qui nous font perdre le latin T'es dans le terrier quand ça tire comme les lapins On n'a jamais eu peur dans l'noir, les mauvais sont dans la lumière La procureure veut rien savoir, elle est rancunière Ils ont soulevé le labo', pas d'cadeau, la zone est carbo' Ils ont plongé, y a pas d'radeau, cultiver l'savoir et l'pavot Pasta, pasta comme va piano, deux-trois garages sans mécano J'suis avec Mouloud et Nonô, tout l'monde a plongé, tout tombe à l'eau 1030 j'me réveille, p'tit doré, p'tit ménage J'laisse toujours le lit du haut pour le bikow qu'emménage Trois-cent avant la gamelle, cinquantaine les deux paquets d'Camel Mets ta baguette, on est mardi, l'auxi' passe pour le linge J'écris vint mesures de rage, j'récupère ma consolation, tue la barre J'cours un peu histoire de réduire la consommation d'mes rapaces J'récupère un colis dans la promenade, j'fais la passe à mon co', j'me fais crever par le gradé, j'ai la poisse À mon tour au mitard, dès que j'sors, j'la recoupe au Bigard J'ai accords de guitare, effiloche un oligarque, Lyca' mobile, un peu d'liquide, une équipe, on y va Rah RDV 1530 avec amore mia, j'lui fais l'amour au parloir, elle prend des risques pour moi Ma peine s'écourte chaque fois qu'elle vient twerk pour moi Dès qu'j'sors, j'l'emmène à Dubaï et Atlanta Tu parles mal à la f'nêtre, demain, j'te fais ta fête Laisse mon pénave à la nounou pour un tête-à-tête Y aura pas d'représailles si j'te laisse par terre, sale pute, si j'te laisse un gros cratère Le 3esses a des airs de raciste, y a qu'la mif' et les vrais qui m'assistent J'suis comme bloqué dans la chrysalide, c'est la crise, on a l'habitude, c'est la street, mon ami J'suis en cellule comme dans l'binks Tenir la cellule ou la promenade ? Promenade, parlu, première presse J'attends que la drogue remonte du parloir J'attends plus tes PCS, maison d'arrêt mon adresse J'suis en cellule comme dans l'binks Le surveillant n'a plus aucun pouvoir J'suis en cellule comme dans l'binks Tenir la cellule ou la promenade ? Promenade, parlu, première presse J'attends que la drogue remonte du parloir J'attends plus tes PCS, maison d'arrêt mon adresse J'suis en cellule comme dans l'binks Le surveillant n'a plus aucun pouvoir Zéro dans l'pécule, j'vais tous les hagar, bloc de shit entre les fesses, j'm'en sors en racaille Ambiance , ici, pas d'rafale, ça t'patate en promenade quand ça t'baise ta femme J'ai pas vu d'rappeur, l'aumônier, j'lui fais des rappels Poto, tu t'rappelles ? C'est nous les rapaces, on contrôle la pièce Tu nous verras pas, la routine, j'suis à l'aise là où les rats passent J'attends mon parrain, enculé, ramasse, ça t'arrache ta place comme des piranhas Écroué, j'm'affranchis de leur pyramide, tyrannie d'la promenade, t'auras plus nada Et par Albator, l'avocat m'adore, le front sur le sol, j'attends qu'on m'libère Crois pas qu'on hiberne, que des maudits, frère, la rage au parloir, c'est ça nos vies d'merde Maison d'arrêt, CD, j'pourrai jamais céder, la prison, c'est dur car la prison, c'est nous T'arrêtes pas quand on tourne, un regard et c'est bon On parle avec les jnouns, on graille avec les loups La grâce de Dieu t'a donné la vie, la crasse des lieux peut t'donner la mort en cellule, pense à ton avenir, 92i, drapeau noir, ils sont dans la merde Dans la merde, dans la merde</t>
+          <t>Katrina Squad Hey Hey, LRL LRL, Shtar Ac' Shtar Ac Des Baumettes à Fresnes À Fresnes, trop d'larmes sur les pommettes et plus rien qui freine Qui freine C'nest plus c'que c'était C'était Rien à fêter, toujours bien apprêté 'pprêté Mais rien à fêter, pas de traité d'paix Traité d'paix, rien à r'gretter Rien à rgretter Autre temps, autre mentale, autre vision, que dalle horizon, faut sfaire un raison L'avenir, le présent, aucun prévision, pas bsoin de c'qu'ils ont, j'ai ce quil te faut Dealer, livraison, là pour en faire à foison, tout est bon, tout est poison J'sais qui sont les faux, les killers, les vrais hommes et c'qu'il s'dit derrière les cloisons 1.3, la favel' internationale, quelques verres d'javel dans l'confessionnal Tout pour le papel, imprimerie nationale, sa mère la retraite, police nationale Jamais dans la norme, toujours dans la lutte La vie est une pute, viens pas faire la nonne, qui paierait la note ? La leur ou la nôtre ? J'leur braquerai la lune, passerai dans la note, j'ai plus rien à fêter, y a plus d'corazón, nan, pas d'coup du sort Si tu t'la racontes, ça va dans l'appart' et puis, ça t'la sort Qu'est-ce que tu racontes ? Avec moi ou contre ? Chaque homme sa part d'ombre, que Dieu me pardonne Toujours loin du compte, le reste, c'est des cons Que faut faire du gaz, dioxyde de carbone On est vrais comme le sang sur les murs, y a des règles, c'est pour pas s'faire l'amour C'est pour pas s'faire l'amour Mes res-frè, comme leurs produits, sont durs, fument la frappe du pays d'Wijnaldum Si t'es faux comme tes codes, ça s'ra dur, en promenade, faudra pas faire la moue Faudra pas faire la moue Gros, si t'as des trucs à dire, évite-les, viens plutôt l'dire à nous Y a les barreaux, pas de pole dance, vu les taros, toute la colle danse La nuit porte conseil quand t'as pas d'punaise, deux cons vont s'la mettre si l'ambiance est mauvaise Prends un bon conseil si ton affaire est chaude comme la braise Et s'tu les baises, fais leur la bise, dis-leur Labess, j'fume cannabis Assis en cour, j'attends la cour d'assise, Blur Encore un matin où la serrure dérange mes rêves J'lève mon pied pour l'appel, dès qu'on sort d'ici, on change les règles On change les règles, eh Parce qu'elles sont pas faites pour nous arranger J'sors du parlu, j'passe à la fouille, il est même pas fichu d'trouver mon vingt G' Il est même pas fichu, j'l'ai bien caché Obligé comme les produits ménagers, assis-toi, mon frère, tu peux manger par terre Bloqué au mitard, c'est la Cité Carter Et y a l'autre enculé qui a , demain, en promenade, va y avoir un feuilleton Nan, sale Quelle réinsertion, entre les fesses, j'ai d'la cons' et des biftons Des cantines en masse, ouais, y a plusieurs packs, eux, ils vendent leur âme et ont plusieurs pactes Laisse-nous en cellule, le jour où j'sors et j'reprends le volant du Audi Sport J'ai connu les dépôts, , Shtar Academy pour les frères au ballon Les zonzons de France, c'est un repaire de talents, rentré sur une fuite et ressorti le bras long T'inquiète, dehors, on n'est pas loin, on protège les mif' et les darons Ça cuisine, fils de pute, la fumée du joint sort à travers les barreaux Ils visser des peines de meurtriers, c'est nous dans leur viseur, ils allument les primaires Ça parle en années les épisodes, ils vont pas regarder les trajets d'ta daronne Les prisons pour femmes et les prisons pour mineurs apportent la douleur à la parole Défaut d'mis-per à la carotte, les res-frè aussi dans la cavale J'reçois des Snap' sur mes Temps en cellule, libérez Bourbier, faites-le maintenant, c'est mieux Mes reufs sont branchés ce matin au C.U, il suffit d'une perm' pour que j'relance ces putes Apprendre la nouvelle, c'est l'pire moment, c'est dur, on s'tape pas la tête, celui qui arrête, c'est Dieu Dedans, dehors, faut qu'on ramasse les thunes, nique sa grand-mère les , j'leur pénave en J'suis très souvent aigri Très souvent aigri, j'rugis en cage Eh, eh Ça changera never, personne f'ra autant qu'toi-même le taff Vu que la kichta maigrit Oui, en tête, tout est noir Noir, noir Ouais, on peut s'les faires, ces putains, ils prient pour jamais nous r'voir Ils prient Et ces p'tites que dans ces couloirs ont du pouvoir De partout, fu-, fu-, le parloir, une passoire J'passe à la fouille, fouille mais j'le savais comme d'hab' J'ouvre sereinement ma braguette, c'est pas moi qui remonte la plaquette Un cercueil s'ferme, une cellule s'ouvre, une seule atmosphère odeur de soufre Le noir cliché mange plein d'Hot Wings, mon blase affiché, l'nouveau point Godwin Le mal, j'l'emmène, le monde, j'le mords, pourvu qu'ils m'aiment comme un rappeur mort Pas de Macklemore, cache les écolières, y a un poil pubien sur la langue de Molière Che Guevara, Gaviria, on est passés, c'est un virage à cent quatre-vingt degrés C'rap est viral, j'rime en 3D, j'fais des films pour aveugles, Changer la donne, pas inverser les rôles, au sommet, les après les Là, c'est zéro, zéro, zéro, jeunesse passée dans un bloc ravagé par l'héro' Mes s'melles ont cramé dans ces rues brûlantes, j'veux mourir comme mes idées mais de mort lente La gloire des bâtiments, c'est , des rivières de ciment aux frères qu'on incarcère Le Diable fait son wess-wess, ses messes basses, la nature n'aime pas l'vide, j'remplis l'espace Mauvaise extase, son des messes marre, niquer l'système, il a l'air d'aimer ça On s'voilait la tempe, quand on fait du biz', j'vais pas qu'tu m'fasses la bise Ouais, les bails sont propres, ouais, on fait la diff', je n'compte pas les gros que font la mif' On d'vait tous faire parties d'Konami Ouais, pétasse, t'es bien bonne, j'suis pas ton ami Repars surveiller l'bifton qu'on a mis, garde à v', dépôt, prison, t'es dans la merde On a fini sous barbelés, on a commencé sous barbelés Mort en évitant d'être interpellé, un black ne laisse pas un frère black pleurer J'repars au combat, mes blessures n'ont pas cicatrisé J'veux passer du D2 au Détroit d'Gibraltar dans un 4x4 climatisé, ah Tu connais nos lifes Tu connais nos lifes, en promenade, j'ai d'l'espèce J'suis frais mais j'veux être free, j'suis trop thug, d'mande aux 3esses On respecte les consignes quand il n'y a pas de règles comme un implant dans le bras de ta re-m' C'est ta patata qui donne le go et entend ra-ta-ta-ta dans ta ruelle Ce matin, j'me réveille, promenade, deuxième tour, c't'après-m', je reçois le colis D'la viande, un bigot, deux plaquettes, d'la patata pour les Broly Bientôt, j'fais mon paquetage, le co', c'est un bon donc je partage, j'appelle le poto, j'fais passer l'temps Tous la même bataille, j'ai Chunku pour m'refaire, si j'suis là, c'est que j'ai raté l'plan C'est la Shtar Academy, c'est le mitard, j'm'endors au bruit des rats, pas des guitares On mange toujours les mêmes plats, gros, c'est riz-pâtes On garde les bons souvenirs mais dedans, tu ris pas Une Teisseire, j'suis refait, soirée poker, quand y a parlu, j'peux pas laisser le tél' en cellule C'trou du cul s'prend pour ton père, les nerfs quand ils referment à double tour la cellule, pah La prison, c'est dur et la sortie, c'est sûr Sûr mais y a rien d'plus certain que la mort Avec mes voyous, j'ai des désaccords, bien avant l'argent, la famille d'abord L'insalubrité, il est temps que ça cesse, au bled, on entasse les corps 81 ils abolissent la chaise mais combien d'autres ont fini sous la corde ? Hein, pas d'équité, Dieu leur rendra la monnaie d'la pièce Ils ont plus peur de Satan que d'la braise, l'heure d'la promenade écourtera la sieste C'est pour ceux qu'ont jamais r'tourné la veste Nan, même si elle est sans puche-ca Pule-cra, chez nous, on n'adule pas, Afrique de l'Ouest mais la rafale est bulgare Ceci n'est qu'une épreuve, le Très-Haut dans l'cur Pardonne l'erreur, s'en fout des preuves Hein, tu crois qu'on joue, c'est pas beer pong Pour tous mes frérots, sache que la haine monte Et l'hiver arrive très vite quand la peine tombe Pah, pah, pah, pah Déferré, j'pointe à la barre, menotté, dans les , bizarre qu'j'nie même pas les faits Sous mandat d'dépôt, j'déboule, , j'connais le quart du shtar, en balle, j'me refais Et j'pense que j'en aurai au moins pour cinq piges, , au bigo, j'tartine Wouh En promenade, on voit que les rats m'visent, enfoncer notre grosse lame dans les douches à Hello, hello, ça prépare des popotes, mieux qu'au tel-hô Ouais, ouais Paro, paro, on enchaîne kush sur kush, aqua d'bédo Ouais, ouais Tar-mi inévitable, on en a vu une trentaine péter des câbles Ouh C'est le 6.9, purge et c'est délicat Eh, force aux détenus enfermés, faut la mentale Ouais Spartacus est dans l'arène, en face, là, ça grimpe aux grillages Politique, brr, quelques immigrés qu'ont du pillage Pâtes au thon et des matons, mauvais endroit, mauvais moment Lourd est l'poids des mots des balances, plus proche d'la potence, que d'une romance Surveille ta cage comme Mandanda Ouh, lire des bouquins, envoyer des lettres Le nom des frérots dans les mandats, j'ai mon PGP pour les pipelettes Garage, garage, on s'débarrasse, j'aurais pu sortir, fuck la paperasse Moi, j'demande à Dieu, pas b'soin d'leur grâce, moi, j'demande à Dieu, pas b'soin d'leur grâce Une taffe, deux taffes, trois taffes, quatre baffes dans ta tête de con, ta tête de con T'as ni les bons plav', t'es ni à la page, ça pique quand ça touche, ça tache quand ça s'passe Si mon teh rend fou la catin, c'est qu'tu parles mal de la bouche Grr, pah C'est ta maman qui débite et qui va t'charger balles de .12 Toi, t'es fêlé, , donne un rouge pour un Pah, pah Un bleu pour un vingt, tu peux la payer sans invit' Voleur, voleur je suis car j'ai voulu, moula, nougat, quelques fois, c'est d'l'olive Coups d'batte, coupable, pas là pour rigoler, c'est à Fresnes que j'ai écrit ce couplet Les frères purgeront leur peine, c'est l'mektoub, j'ai ma conscience en doute, j'viens des eaux troubles Éduqué à la dure, j'connais pas l'souple, j'vais lui casser ses dents, il boit qu'd'la soupe C'est pas les menaces qui nous font perdre le latin T'es dans le terrier quand ça tire comme les lapins On n'a jamais eu peur dans l'noir, les mauvais sont dans la lumière La procureure veut rien savoir, elle est rancunière Ils ont soulevé le labo', pas d'cadeau, la zone est carbo' Ils ont plongé, y a pas d'radeau, cultiver l'savoir et l'pavot Pasta, pasta comme va piano, deux-trois garages sans mécano J'suis avec Mouloud et Nonô, tout l'monde a plongé, tout tombe à l'eau 1030 j'me réveille, p'tit doré, p'tit ménage J'laisse toujours le lit du haut pour le bikow qu'emménage Trois-cent avant la gamelle, cinquantaine les deux paquets d'Camel Mets ta baguette, on est mardi, l'auxi' passe pour le linge J'écris vint mesures de rage, j'récupère ma consolation, tue la barre J'cours un peu histoire de réduire la consommation d'mes rapaces J'récupère un colis dans la promenade, j'fais la passe à mon co', j'me fais crever par le gradé, j'ai la poisse À mon tour au mitard, dès que j'sors, j'la recoupe au Bigard J'ai accords de guitare, effiloche un oligarque, Lyca' mobile, un peu d'liquide, une équipe, on y va Rah RDV 1530 avec amore mia, j'lui fais l'amour au parloir, elle prend des risques pour moi Ma peine s'écourte chaque fois qu'elle vient twerk pour moi Dès qu'j'sors, j'l'emmène à Dubaï et Atlanta Tu parles mal à la f'nêtre, demain, j'te fais ta fête Laisse mon pénave à la nounou pour un tête-à-tête Y aura pas d'représailles si j'te laisse par terre, sale pute, si j'te laisse un gros cratère Le 3esses a des airs de raciste, y a qu'la mif' et les vrais qui m'assistent J'suis comme bloqué dans la chrysalide, c'est la crise, on a l'habitude, c'est la street, mon ami J'suis en cellule comme dans l'binks Tenir la cellule ou la promenade ? Promenade, parlu, première presse J'attends que la drogue remonte du parloir J'attends plus tes PCS, maison d'arrêt mon adresse J'suis en cellule comme dans l'binks Le surveillant n'a plus aucun pouvoir J'suis en cellule comme dans l'binks Tenir la cellule ou la promenade ? Promenade, parlu, première presse J'attends que la drogue remonte du parloir J'attends plus tes PCS, maison d'arrêt mon adresse J'suis en cellule comme dans l'binks Le surveillant n'a plus aucun pouvoir Zéro dans l'pécule, j'vais tous les hagar, bloc de shit entre les fesses, j'm'en sors en racaille Ambiance , ici, pas d'rafale, ça t'patate en promenade quand ça t'baise ta femme J'ai pas vu d'rappeur, l'aumônier, j'lui fais des rappels Poto, tu t'rappelles ? C'est nous les rapaces, on contrôle la pièce Tu nous verras pas, la routine, j'suis à l'aise là où les rats passent J'attends mon parrain, enculé, ramasse, ça t'arrache ta place comme des piranhas Écroué, j'm'affranchis de leur pyramide, tyrannie d'la promenade, t'auras plus nada Et par Albator, l'avocat m'adore, le front sur le sol, j'attends qu'on m'libère Crois pas qu'on hiberne, que des maudits, frère, la rage au parloir, c'est ça nos vies d'merde Maison d'arrêt, CD, j'pourrai jamais céder, la prison, c'est dur car la prison, c'est nous T'arrêtes pas quand on tourne, un regard et c'est bon On parle avec les jnouns, on graille avec les loups La grâce de Dieu t'a donné la vie, la crasse des lieux peut t'donner la mort en cellule, pense à ton avenir, 92i, drapeau noir, ils sont dans la merde Dans la merde, dans la merde</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Ska ska ska Hey J'ai assez d'talent pour finir en tendance chez les malentendants On s'est dit Rendez-vous tout là-haut, j'ai failli prendre racine en t'attendant J'suis cagoulé devant l'buraliste, j'ai besoin d'plus de khaliss T'étais mon pire ennemi, t'as perdu tellement d'force que t'es plus sur ma liste On s'laisse pas manipuler par capitalisme, les hypocrites croient qu'on est satanique Dire que y'a même pas deux ans, j'étais au hebs avec Kost et Malik Paris, c'est magique, GLA, je m'agite J'veux qu'mon futur fils devienne un rajel, comme moi et mon frère Nadjib J'ai le mal du pays, roule un p'tit d'gelato, fait tourner l'organique Cocaïne basée tah le Suriname, pas d'organigramme, pour un gramme, tu la niques J'veux rien savoir, igo, fais tomber la bécane, tu vas goûter granite Gradé fait monter les pointeurs à l'étage et fait rentrer nouveaux schlass en céramique J'veux la place du Marquis comme Cyrano, j'ai l'impression qu'ces rats morts nous pensaient amis J'connais déjà l'scénario, c'est moi, j't'ai fait la passe mais t'as pensé à lui En promenade c'est la cour des miracles, un corps de fighter, un cur de pirate On compte pas les heures, on fait des dou'as, j'fais salat avec le Keffieh des Emirats J'lui donne pas trop d'amour, elle va prendre la confiance Si elle bombarde au parlu, là, j'lui laisse une seconde chance Si elle m'demande des parures, j'le prendrai comme une offense Elle s'endort dans mes bras quand j'me défonce, si elle m'trahit j'prendrai plus sa défense You might also like Amis, ennemis Amis, ennemis Amis, ennemis Ouh, amis, ennemis Ouh, amis, ennemis Amis, ennemis Amis, ennemis Amis, ennemis Amis, ennemis</t>
+          <t>Ska ska ska Hey J'ai assez d'talent pour finir en tendance chez les malentendants On s'est dit Rendez-vous tout là-haut, j'ai failli prendre racine en t'attendant J'suis cagoulé devant l'buraliste, j'ai besoin d'plus de khaliss T'étais mon pire ennemi, t'as perdu tellement d'force que t'es plus sur ma liste On s'laisse pas manipuler par capitalisme, les hypocrites croient qu'on est satanique Dire que y'a même pas deux ans, j'étais au hebs avec Kost et Malik Paris, c'est magique, GLA, je m'agite J'veux qu'mon futur fils devienne un rajel, comme moi et mon frère Nadjib J'ai le mal du pays, roule un p'tit d'gelato, fait tourner l'organique Cocaïne basée tah le Suriname, pas d'organigramme, pour un gramme, tu la niques J'veux rien savoir, igo, fais tomber la bécane, tu vas goûter granite Gradé fait monter les pointeurs à l'étage et fait rentrer nouveaux schlass en céramique J'veux la place du Marquis comme Cyrano, j'ai l'impression qu'ces rats morts nous pensaient amis J'connais déjà l'scénario, c'est moi, j't'ai fait la passe mais t'as pensé à lui En promenade c'est la cour des miracles, un corps de fighter, un cur de pirate On compte pas les heures, on fait des dou'as, j'fais salat avec le Keffieh des Emirats J'lui donne pas trop d'amour, elle va prendre la confiance Si elle bombarde au parlu, là, j'lui laisse une seconde chance Si elle m'demande des parures, j'le prendrai comme une offense Elle s'endort dans mes bras quand j'me défonce, si elle m'trahit j'prendrai plus sa défense Amis, ennemis Amis, ennemis Amis, ennemis Ouh, amis, ennemis Ouh, amis, ennemis Amis, ennemis Amis, ennemis Amis, ennemis Amis, ennemis</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Sujet tabou est-ce que ta toujours les mêmes potes Mais, est-ce que t'occupe toujours le même poste Vous appreniez les même choses à la même époque Mais, êtes vous rentrez par la même porte ? Et lorsque les éloges du succès se présente, tu crois vraiment que tes un mec simple, sain Tu sauves pas dvie, t'es pas médecin, tu crois vraiment que t'es un exemple Il y a que des rendez-vous, y a pas dhasard J'oublierai jamais ce qu'on a partagé Pour pardonner, il n'est pas trop tard, car le destin n'aura pas de retard Même si on se connait depuis bac-à-sable, dis-moi quelle amitié demeure incassable Même si on se connait depuis bac-à-sable, des fois la trahison demeure intraçable Si on c'est aimé c'est qu'on se ressemble, aujourdhui cest différent mais tu restes le sang Amitié à contre sens, mais je sais que tu seras la pour moi si on marche ensemble entre amour et jalousie dans un monde infâme Je t'ai tout donner tu ne vois que mes tords, tes si rancunier que tu me souhaites la mort Et à chaque fois que j'ai le dos retourner j'sais que tu yeux-te ma femme Dans les ténèbres, je mets les pleins phares et je reconnais plus mes collègues quand l'air prend formes Tu parais vrai mais tes qu'un falsch, j'sais dès qu'y a des euro dans la story tu te transformes Dans les tenêbres je met les pleins phares Dans les tenêbres je met les pleins phares tout va bien je ne me pleins pas où sont les vrai je ne sais pas Je te pardonne une première fois Je te pardonne une deuxième fois Je te pardonne une troisième fois Je te pardonne une énième fois Je te pardonne une première fois Je te pardonne une deuxième fois Je te pardonne une troisième fois Mais je n'oublierai pas cette fois Je n'oublierai pas cette fois j'ai du mal à oublier Je n'oublierai pas j'ai du mal à pardonner Je n'oublierai pas j'ai trop donné Je n'oublierai pas You might also like Ça fait des années, on a changé loin des tranchées On c'est rangés, on se regarde comme des étrangers Alors qu'on se regardait grandir, grandir c'est pardonner, donc j'ai du apprendre à grandir Je crois pas mais je suis déçu, parler dans mon dos et me cracher dessus Ta toujours la pire excuse, le manque d'argent fait que j'ai vu mes frérot se tirer dessus Dans les ténèbres, je mets les pleins phares Dans les ténèbres, je mets les pleins phares tout va bien je ne me pleins pas où sont les vrai je ne sais pas Je te pardonne une première fois Je te pardonne une deuxième fois Je te pardonne une troisième fois Je te pardonne une énième fois Je te pardonne une première fois Je te pardonne une deuxième fois Je te pardonne une troisième fois Mais je n'oublierai pas cette fois Je n'oublierai pas cette fois j'ai du mal à oublier Je n'oublierai pas j'ai du mal à pardonner Je n'oublierai pas j'ai trop donné Je n'oublierai pas a nos amis, à nos ennemis, a nos amours le temps est précieux, grandir c'est pardonner quoi que tu es fait, je te pardonne mon frère</t>
+          <t>Sujet tabou est-ce que ta toujours les mêmes potes Mais, est-ce que t'occupe toujours le même poste Vous appreniez les même choses à la même époque Mais, êtes vous rentrez par la même porte ? Et lorsque les éloges du succès se présente, tu crois vraiment que tes un mec simple, sain Tu sauves pas dvie, t'es pas médecin, tu crois vraiment que t'es un exemple Il y a que des rendez-vous, y a pas dhasard J'oublierai jamais ce qu'on a partagé Pour pardonner, il n'est pas trop tard, car le destin n'aura pas de retard Même si on se connait depuis bac-à-sable, dis-moi quelle amitié demeure incassable Même si on se connait depuis bac-à-sable, des fois la trahison demeure intraçable Si on c'est aimé c'est qu'on se ressemble, aujourdhui cest différent mais tu restes le sang Amitié à contre sens, mais je sais que tu seras la pour moi si on marche ensemble entre amour et jalousie dans un monde infâme Je t'ai tout donner tu ne vois que mes tords, tes si rancunier que tu me souhaites la mort Et à chaque fois que j'ai le dos retourner j'sais que tu yeux-te ma femme Dans les ténèbres, je mets les pleins phares et je reconnais plus mes collègues quand l'air prend formes Tu parais vrai mais tes qu'un falsch, j'sais dès qu'y a des euro dans la story tu te transformes Dans les tenêbres je met les pleins phares Dans les tenêbres je met les pleins phares tout va bien je ne me pleins pas où sont les vrai je ne sais pas Je te pardonne une première fois Je te pardonne une deuxième fois Je te pardonne une troisième fois Je te pardonne une énième fois Je te pardonne une première fois Je te pardonne une deuxième fois Je te pardonne une troisième fois Mais je n'oublierai pas cette fois Je n'oublierai pas cette fois j'ai du mal à oublier Je n'oublierai pas j'ai du mal à pardonner Je n'oublierai pas j'ai trop donné Je n'oublierai pas Ça fait des années, on a changé loin des tranchées On c'est rangés, on se regarde comme des étrangers Alors qu'on se regardait grandir, grandir c'est pardonner, donc j'ai du apprendre à grandir Je crois pas mais je suis déçu, parler dans mon dos et me cracher dessus Ta toujours la pire excuse, le manque d'argent fait que j'ai vu mes frérot se tirer dessus Dans les ténèbres, je mets les pleins phares Dans les ténèbres, je mets les pleins phares tout va bien je ne me pleins pas où sont les vrai je ne sais pas Je te pardonne une première fois Je te pardonne une deuxième fois Je te pardonne une troisième fois Je te pardonne une énième fois Je te pardonne une première fois Je te pardonne une deuxième fois Je te pardonne une troisième fois Mais je n'oublierai pas cette fois Je n'oublierai pas cette fois j'ai du mal à oublier Je n'oublierai pas j'ai du mal à pardonner Je n'oublierai pas j'ai trop donné Je n'oublierai pas a nos amis, à nos ennemis, a nos amours le temps est précieux, grandir c'est pardonner quoi que tu es fait, je te pardonne mon frère</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Big Hayce GFB, LFG, 17B J'veux mon bif, asap, AP, private jet Pas de flic flac, tic-tac, bitch, anyway Halloween style, Freddy Krueger dans un Bentley Coupé, j'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'veux mon bif, asap, AP, private jet Pas de flic flac, tic-tac, bitch, anyway Halloween style, Freddy Krueger dans un Bentley Coupé, j'dois sécuriser l bac, j'dois me calibrer J'dois sécuriser l bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer T'as changé depuis qu't'as pop Que des mensonges, obligé d'venir au bas d'ta porte Les tits-pe toujours en pétard que des bagarres et des , seventeen Salvadore Salvatore Ferragamo pour te stranguler prend le pompe éclate un sanglier Que des sangs mêlés, que des sangs liés On va s'en mêler, t'as plus qu'à prier J'bois la concu plus vite que mon Capri Sun Puis la célébrité me rend capricieux Iconoclaste, on t'attrape ici Dis-leur, biko, no cap, j'ai tout appris seul Il a scotché les écouteurs à ses oreilles sur ma musique Il a cambu toute la baraque en un temps record bang bang Pense fort aux porcs dans la chambre forte Ils hésitent à nous loger des balles dans le corps J'bédave, j'tire à la guitare, on m'appelle Julien Doré J'fais la moula sur Genève, on m'appelle Claude Franc Suisse Business planque, j'ai pris le temps d'élaborer Mon bigo toujours en cavale sur la A36 You might also like A-A-Attention, à cent, ascension Attention, ascension A Sosa, attention Ascension, ascension J'veux mon bif, asap, AP, private jet Pas de flic flac, tic-tac, bitch, anyway Halloween style, Freddy Krueger dans un Bentley Coupé, j'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'veux mon bif, asap, AP, private jet Pas de flic flac, tic-tac, bitch, anyway Halloween style, Freddy Krueger dans un Bentley Coupé, j'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer chaud J'dois sécuriser le bac, j'dois me calibrer chaud J'suis pas ton crush, pauvre cruche T'accroche pas trop, sinon ton petit cur s'crashe wow Qu'est-ce tu f'rais un p'tit peu d'cash ? wow Nouvelle certifiée sur ta page IG, hi bicthasse, tu t'es prise pour Kylie, perspicace Célèbre à la vie, IG, j'claque 10 balles Rejoins Karim, De partout, mes billets s'éparpillent, hey Trapu, j'suis gainé, j'suis barbu, hey J'dois la gâter, c'est ma Barbie, hey T'es pas welcome to the party, hey Big Hayce a laissé couler ton sang sur la banquise , j'te rentre dedans comme un Yankee Taki taki taki, j'la monte en l'air comme un monkey Si ta mère était une pute, j's'rais son meilleur ient-cli C'est mon baveux qui défend l'tien Viens fumer sur le calumet du chef indien Elle est sur Dubaï, tu lui achètes un bien Elle mange caca, diamant et couche avec un chien A-A-Attention, à cent, ascension Attention, ascension A Sosa, attention Ascension, ascension J'veux mon bif, asap, AP, private jet Pas de flic flac, tic-tac, bitch, anyway Halloween style, Freddy Krueger dans un Bentley Coupé, j'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'veux mon bif, asap, AP, private jet Pas de flic flac, tic-tac, bitch, anyway Halloween style, Freddy Krueger dans un Bentley Coupé, j'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer chaud J'dois sécuriser le bac, j'dois me calibrer chaud</t>
+          <t>Big Hayce GFB, LFG, 17B J'veux mon bif, asap, AP, private jet Pas de flic flac, tic-tac, bitch, anyway Halloween style, Freddy Krueger dans un Bentley Coupé, j'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'veux mon bif, asap, AP, private jet Pas de flic flac, tic-tac, bitch, anyway Halloween style, Freddy Krueger dans un Bentley Coupé, j'dois sécuriser l bac, j'dois me calibrer J'dois sécuriser l bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer T'as changé depuis qu't'as pop Que des mensonges, obligé d'venir au bas d'ta porte Les tits-pe toujours en pétard que des bagarres et des , seventeen Salvadore Salvatore Ferragamo pour te stranguler prend le pompe éclate un sanglier Que des sangs mêlés, que des sangs liés On va s'en mêler, t'as plus qu'à prier J'bois la concu plus vite que mon Capri Sun Puis la célébrité me rend capricieux Iconoclaste, on t'attrape ici Dis-leur, biko, no cap, j'ai tout appris seul Il a scotché les écouteurs à ses oreilles sur ma musique Il a cambu toute la baraque en un temps record bang bang Pense fort aux porcs dans la chambre forte Ils hésitent à nous loger des balles dans le corps J'bédave, j'tire à la guitare, on m'appelle Julien Doré J'fais la moula sur Genève, on m'appelle Claude Franc Suisse Business planque, j'ai pris le temps d'élaborer Mon bigo toujours en cavale sur la A36 A-A-Attention, à cent, ascension Attention, ascension A Sosa, attention Ascension, ascension J'veux mon bif, asap, AP, private jet Pas de flic flac, tic-tac, bitch, anyway Halloween style, Freddy Krueger dans un Bentley Coupé, j'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'veux mon bif, asap, AP, private jet Pas de flic flac, tic-tac, bitch, anyway Halloween style, Freddy Krueger dans un Bentley Coupé, j'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer chaud J'dois sécuriser le bac, j'dois me calibrer chaud J'suis pas ton crush, pauvre cruche T'accroche pas trop, sinon ton petit cur s'crashe wow Qu'est-ce tu f'rais un p'tit peu d'cash ? wow Nouvelle certifiée sur ta page IG, hi bicthasse, tu t'es prise pour Kylie, perspicace Célèbre à la vie, IG, j'claque 10 balles Rejoins Karim, De partout, mes billets s'éparpillent, hey Trapu, j'suis gainé, j'suis barbu, hey J'dois la gâter, c'est ma Barbie, hey T'es pas welcome to the party, hey Big Hayce a laissé couler ton sang sur la banquise , j'te rentre dedans comme un Yankee Taki taki taki, j'la monte en l'air comme un monkey Si ta mère était une pute, j's'rais son meilleur ient-cli C'est mon baveux qui défend l'tien Viens fumer sur le calumet du chef indien Elle est sur Dubaï, tu lui achètes un bien Elle mange caca, diamant et couche avec un chien A-A-Attention, à cent, ascension Attention, ascension A Sosa, attention Ascension, ascension J'veux mon bif, asap, AP, private jet Pas de flic flac, tic-tac, bitch, anyway Halloween style, Freddy Krueger dans un Bentley Coupé, j'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'veux mon bif, asap, AP, private jet Pas de flic flac, tic-tac, bitch, anyway Halloween style, Freddy Krueger dans un Bentley Coupé, j'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer J'dois sécuriser le bac, j'dois me calibrer chaud J'dois sécuriser le bac, j'dois me calibrer chaud</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>J'peux plus m'contenir, j'vais niquer des mères A niquer des mères, j'vais plus m'contenir J'vais plus m'contenir, j'vais niquer des mères Hé Sky, hey ouh ouh, on les baise Une pastille, ta cervelle éclabousse sur le pare-brise bikow dans sept à huit Plus facile de trouver 3-5-7 que de trouver du taf de cinq à huit Addict au sucre, au uc-l, au stud, aux stup', sale pute, j'te refais ta nuit Comme dit You, j'suis l'chouf qu'on peut pas payer, toute la came est à lui J'ai battement pas minute qui me tient le pouls, j'sais qui court à ma perte mais je tiens le coup Tant qu'la famille est là j'suis toujours comme une chaise sous mes pieds lorsqu'une corde me tient le cou Viens faire un tour dans les cours d'école, les bombonnes de crack ont déjà remplacer les ballons d'baudruches Tout pour les riches et Macron décale, on appelle ça la politique d'l'autruche Ce soir j'dors au card-pla mi amor Ils veulent ma mise à mort Ils sont venues m'soulever à six, six, six Plus d'lacets sur ma paire d'Asics, sics Ils sont venues m'faire à six, six On a séquestré ton grossiste, siste C'est les méchants, c'est les racistes, cistes Y a les hendecks, tant pis, tempête, j'démarre sa mère tant pis, tempête Y a les hendecks, tant pis, tempête, j'démarre sa mère yah, yah J'reprends l'rain-te, j'compte le papier, deux-trois salaires compte le bénef J'reprends l'rain-té, jc'ompte le papier, deux-trois salaires yah, yah You might also like Quand ça tire c'est réel, chez nous joue pas les mafieux Y a ta pute de Vénissieux Ils veulent que j'bosse à la chaine, que j'casse mon dos pour mille trois Transactions d'shit à la , Paris, BX, RS3 Gros casse bélier cul-sec, puto, whisky cul-sec Pour que dalle ça bang bang, le monde part en sucette j'fume le pollen, j'ai belle vue sur les Champs J'la baise, fuck les poèmes, ouais on est moche et méchant Plus violent qu'la cosa nostra, plus cramé que toutes les mafias Maroc, DZ, assassinat, on débarque chez toi on fait J'allume leur mère, Call of Duty, j'arrive, tes voyous s'font tous petits Plus d'lacets sur ma paire d'Asics, sics Ils sont venues m'faire à six, six On a séquestré ton grossiste, siste C'est les méchants, c'est les racistes, cistes Y a les hendecks, tant pis, tempête, j'démarre sa mère tant pis, tempête Y a les hendecks, tant pis, tempête, j'démarre sa mère yah, yah J'reprends l'rain-te, j'compte le papier, deux-trois salaires compte le bénef J'reprends l'rain-té, jc'ompte le papier, deux-trois salaires yah, yah Hohoo Six, six Ils sont venues m'faire à six, six On a séquestré ton grossiste, siste C'est mes méchants, c'est les racistes, cistes Plus d'lacets sur ma paire d'Asics, sics Ils sont venues m'faire à six, six On a séquestré ton grossiste, siste C'est les méchants, c'est les racistes, cistes Y a les hendecks, tant pis, tempête, j'démarre sa mère tant pis, tempête Y a les hendecks, tant pis, tempête, j'démarre sa mère yah, yah J'reprends l'rain-te, j'compte le papier, deux-trois salaires compte le bénef J'reprends l'rain-té, jc'ompte le papier, deux-trois salaires yah, yah Hohoo</t>
+          <t>J'peux plus m'contenir, j'vais niquer des mères A niquer des mères, j'vais plus m'contenir J'vais plus m'contenir, j'vais niquer des mères Hé Sky, hey ouh ouh, on les baise Une pastille, ta cervelle éclabousse sur le pare-brise bikow dans sept à huit Plus facile de trouver 3-5-7 que de trouver du taf de cinq à huit Addict au sucre, au uc-l, au stud, aux stup', sale pute, j'te refais ta nuit Comme dit You, j'suis l'chouf qu'on peut pas payer, toute la came est à lui J'ai battement pas minute qui me tient le pouls, j'sais qui court à ma perte mais je tiens le coup Tant qu'la famille est là j'suis toujours comme une chaise sous mes pieds lorsqu'une corde me tient le cou Viens faire un tour dans les cours d'école, les bombonnes de crack ont déjà remplacer les ballons d'baudruches Tout pour les riches et Macron décale, on appelle ça la politique d'l'autruche Ce soir j'dors au card-pla mi amor Ils veulent ma mise à mort Ils sont venues m'soulever à six, six, six Plus d'lacets sur ma paire d'Asics, sics Ils sont venues m'faire à six, six On a séquestré ton grossiste, siste C'est les méchants, c'est les racistes, cistes Y a les hendecks, tant pis, tempête, j'démarre sa mère tant pis, tempête Y a les hendecks, tant pis, tempête, j'démarre sa mère yah, yah J'reprends l'rain-te, j'compte le papier, deux-trois salaires compte le bénef J'reprends l'rain-té, jc'ompte le papier, deux-trois salaires yah, yah Quand ça tire c'est réel, chez nous joue pas les mafieux Y a ta pute de Vénissieux Ils veulent que j'bosse à la chaine, que j'casse mon dos pour mille trois Transactions d'shit à la , Paris, BX, RS3 Gros casse bélier cul-sec, puto, whisky cul-sec Pour que dalle ça bang bang, le monde part en sucette j'fume le pollen, j'ai belle vue sur les Champs J'la baise, fuck les poèmes, ouais on est moche et méchant Plus violent qu'la cosa nostra, plus cramé que toutes les mafias Maroc, DZ, assassinat, on débarque chez toi on fait J'allume leur mère, Call of Duty, j'arrive, tes voyous s'font tous petits Plus d'lacets sur ma paire d'Asics, sics Ils sont venues m'faire à six, six On a séquestré ton grossiste, siste C'est les méchants, c'est les racistes, cistes Y a les hendecks, tant pis, tempête, j'démarre sa mère tant pis, tempête Y a les hendecks, tant pis, tempête, j'démarre sa mère yah, yah J'reprends l'rain-te, j'compte le papier, deux-trois salaires compte le bénef J'reprends l'rain-té, jc'ompte le papier, deux-trois salaires yah, yah Hohoo Six, six Ils sont venues m'faire à six, six On a séquestré ton grossiste, siste C'est mes méchants, c'est les racistes, cistes Plus d'lacets sur ma paire d'Asics, sics Ils sont venues m'faire à six, six On a séquestré ton grossiste, siste C'est les méchants, c'est les racistes, cistes Y a les hendecks, tant pis, tempête, j'démarre sa mère tant pis, tempête Y a les hendecks, tant pis, tempête, j'démarre sa mère yah, yah J'reprends l'rain-te, j'compte le papier, deux-trois salaires compte le bénef J'reprends l'rain-té, jc'ompte le papier, deux-trois salaires yah, yah Hohoo</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Fais moi une pics au bord de l'eau Une pipe au bord de l'eau AP c'est pas fort de l'eau Trop de llet-bi pour dépendre de l'autre Fais moi une pics au bord de l'eau Une pipe au bord de l'eau AP c'est pas fort de l'eau Trop de llet-bi pour dépendre de l'autre Fais moi une pics au bord de l'eau Fais moi une pipe au bord de l'eau AP c'est pas fort de l'eau Trop d llet-bi pour dépendre d l'autre Tu crains ma milice T-Max en chasse sur la A6 C'est les méchants, c'est les racistes Devant la police t'es choriste devant l'OPJ I'm a tourist Une fois sorti je m'alcoolise Encore fourré dans une potiche carbo comme postiche On est postiché avec le M le triple OD Match au bang bang dans le dernier Audi Viens j'te dis ta weed elle est indolore Elle vaut pas un dollar comme ton rap inaudible Ici c'est Paris péripéties péripatéticiennes Tah la cité qui michetonnent comme si ça tombait du ciel Ce qu'elle est vicieuse On tombe amoureux de la plus superficielle, alors You might also like Fais moi une pics au bord de l'eau Une pipe au bord de l'eau AP c'est pas fort de l'eau Trop de llet-bi pour dépendre de l'autre Fais moi une pics au bord de l'eau Une pipe au bord de l'eau AP c'est pas fort de l'eau Trop de llet-bi pour dépendre de l'autre Fais moi une pics au bord de l'eau Fais moi une pipe au bord de l'eau AP c'est pas fort de l'eau Trop de llet-bi pour dépendre de l'autre Gros fuck la concue Grande Toto, molto Hayce Lemsi, on encule n'importe qui Flow inattendu Mamacita vas y ramène ton gros cul si tu veux de la hi J'remet les pendules Wost la grand boite bla mankoun défendu procès aquis ? f7ali han drab shi bloké f Abu Dhabi Everyday vesqui condés o naviguer F'rass mankra f madrassti que j'ken everyday Tombée l'équipe, fesh mal9atini ghadinkoun acquitté Vero marroqui, f'la street Kunta Kinte Fuck l'OPG, bédo anti TT Fais moi une pics au bord de l'eau de l'eau Une pipe au bord de l'eau de l'eau AP c'est pas fort de l'eau de l'eau Trop de llet-bi pour dépendre de l'autre de l'autre Fais moi une pics au bord de l'eau de l'eau Une pipe au bord de l'eau de l'eau AP c'est pas fort de l'eau de l'eau Trop de llet-bi pour dépendre de l'autre de l'autre Fais moi une pics au bord de l'eau Fais moi une pipe au bord de l'eau AP c'est pas fort de l'eau Trop de llet-bi pour dépendre de l'autre</t>
+          <t>Fais moi une pics au bord de l'eau Une pipe au bord de l'eau AP c'est pas fort de l'eau Trop de llet-bi pour dépendre de l'autre Fais moi une pics au bord de l'eau Une pipe au bord de l'eau AP c'est pas fort de l'eau Trop de llet-bi pour dépendre de l'autre Fais moi une pics au bord de l'eau Fais moi une pipe au bord de l'eau AP c'est pas fort de l'eau Trop d llet-bi pour dépendre d l'autre Tu crains ma milice T-Max en chasse sur la A6 C'est les méchants, c'est les racistes Devant la police t'es choriste devant l'OPJ I'm a tourist Une fois sorti je m'alcoolise Encore fourré dans une potiche carbo comme postiche On est postiché avec le M le triple OD Match au bang bang dans le dernier Audi Viens j'te dis ta weed elle est indolore Elle vaut pas un dollar comme ton rap inaudible Ici c'est Paris péripéties péripatéticiennes Tah la cité qui michetonnent comme si ça tombait du ciel Ce qu'elle est vicieuse On tombe amoureux de la plus superficielle, alors Fais moi une pics au bord de l'eau Une pipe au bord de l'eau AP c'est pas fort de l'eau Trop de llet-bi pour dépendre de l'autre Fais moi une pics au bord de l'eau Une pipe au bord de l'eau AP c'est pas fort de l'eau Trop de llet-bi pour dépendre de l'autre Fais moi une pics au bord de l'eau Fais moi une pipe au bord de l'eau AP c'est pas fort de l'eau Trop de llet-bi pour dépendre de l'autre Gros fuck la concue Grande Toto, molto Hayce Lemsi, on encule n'importe qui Flow inattendu Mamacita vas y ramène ton gros cul si tu veux de la hi J'remet les pendules Wost la grand boite bla mankoun défendu procès aquis ? f7ali han drab shi bloké f Abu Dhabi Everyday vesqui condés o naviguer F'rass mankra f madrassti que j'ken everyday Tombée l'équipe, fesh mal9atini ghadinkoun acquitté Vero marroqui, f'la street Kunta Kinte Fuck l'OPG, bédo anti TT Fais moi une pics au bord de l'eau de l'eau Une pipe au bord de l'eau de l'eau AP c'est pas fort de l'eau de l'eau Trop de llet-bi pour dépendre de l'autre de l'autre Fais moi une pics au bord de l'eau de l'eau Une pipe au bord de l'eau de l'eau AP c'est pas fort de l'eau de l'eau Trop de llet-bi pour dépendre de l'autre de l'autre Fais moi une pics au bord de l'eau Fais moi une pipe au bord de l'eau AP c'est pas fort de l'eau Trop de llet-bi pour dépendre de l'autre</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Big Big Big Big Big Big Lemsi J'vais t'unfollow sans qu'tu unfollow back Backwood plein de brocolis pour enfumer le bat' J'barbouille des éclats de génie sur une feuille A4 M3rboul arrête de bander sur mes stories je n'dévoile pas tout sku sku Kalashé j'ai grrr partout J'mexcuse pas, j'demande où sont les autres cartouches Low bitch, on va baiser mais j'fais pas d'partouzes Han, Kardashian Corps de chienne veut acheter meuj de repu dans mon bâtiment J'suis encore déchiré d'la veill De ma vie j'n'ai connu que l sang la sueur et le ciment J'me rappelle d'ma peine Ghost et Malik, Abdel Taounet Et mon gava Marto On accepte le mektoub On refuse les mythos, on refuse les mythos Des braqueurs de fourrure déguisés en narco Trafiquants, j'suis dans la gov', j'taficotte Ici la proc' te ligotte si t'es trop pratiquant, han J'suis comme à Beyrouth, au Liban Comme dans le hood, à Milan J'ai les yeux rouges, amigo Nan j'ai pas d'acides aminés j'suis la pour tous les éliminer Fais pas l'rebeu vitaminé dans la street t'es mignon, non ? Cesse de loucher sur mon assiette Prends tes couilles tes neurones et tu feras pt-être des millions Pas besoin d'être opticien Pour constater que ta racli veut m'mettre aux p'tits soins Pas besoin d'être mathématicien pour savoir que j'peux pas compter sur un fils de chien, han Bitch I'm a dog ah, ah Seventy block pah, pah Da Vinci codes, j'ai la méthode Pétard dans la Goyard T'sais pas qu'j'prépare des bails très noirs Martar Ollar, Marbeya vibes Mec de paname Fuentes gyro la plein d'gyrophares Traite cocaïne au virage pour la dame blanche Elle retire ses faux cils, elle retire ses fausses hanches Elle attrape le pole-danse, ça devient d'l'accrobranche J'ai les idées trop noires pour te montrer patte blanche J'suis chez Olivia Valer j'pète 1k 6K J'sors une liasse épaisse comme un livre de Victor Hugo Si j'enlève élastique, dans une heure elle astique La street s'rappellera toujours de Young Bikow J'écrase la concurrence comme des mosquitos Sous la semelle de mes dernières Versace T'es ni rappeur ni poète ni millésime ni Moët Chaque fois qu'tu pé-ra qu'tenvoies des vers-a cheap J'ai l'flow tah John Travolta Électron Libre 3, t'affole pas J'me réveille au commissariat J'vais au hebs pour toi j'te donne pasYou might also like</t>
+          <t>Big Big Big Big Big Big Lemsi J'vais t'unfollow sans qu'tu unfollow back Backwood plein de brocolis pour enfumer le bat' J'barbouille des éclats de génie sur une feuille A4 M3rboul arrête de bander sur mes stories je n'dévoile pas tout sku sku Kalashé j'ai grrr partout J'mexcuse pas, j'demande où sont les autres cartouches Low bitch, on va baiser mais j'fais pas d'partouzes Han, Kardashian Corps de chienne veut acheter meuj de repu dans mon bâtiment J'suis encore déchiré d'la veill De ma vie j'n'ai connu que l sang la sueur et le ciment J'me rappelle d'ma peine Ghost et Malik, Abdel Taounet Et mon gava Marto On accepte le mektoub On refuse les mythos, on refuse les mythos Des braqueurs de fourrure déguisés en narco Trafiquants, j'suis dans la gov', j'taficotte Ici la proc' te ligotte si t'es trop pratiquant, han J'suis comme à Beyrouth, au Liban Comme dans le hood, à Milan J'ai les yeux rouges, amigo Nan j'ai pas d'acides aminés j'suis la pour tous les éliminer Fais pas l'rebeu vitaminé dans la street t'es mignon, non ? Cesse de loucher sur mon assiette Prends tes couilles tes neurones et tu feras pt-être des millions Pas besoin d'être opticien Pour constater que ta racli veut m'mettre aux p'tits soins Pas besoin d'être mathématicien pour savoir que j'peux pas compter sur un fils de chien, han Bitch I'm a dog ah, ah Seventy block pah, pah Da Vinci codes, j'ai la méthode Pétard dans la Goyard T'sais pas qu'j'prépare des bails très noirs Martar Ollar, Marbeya vibes Mec de paname Fuentes gyro la plein d'gyrophares Traite cocaïne au virage pour la dame blanche Elle retire ses faux cils, elle retire ses fausses hanches Elle attrape le pole-danse, ça devient d'l'accrobranche J'ai les idées trop noires pour te montrer patte blanche J'suis chez Olivia Valer j'pète 1k 6K J'sors une liasse épaisse comme un livre de Victor Hugo Si j'enlève élastique, dans une heure elle astique La street s'rappellera toujours de Young Bikow J'écrase la concurrence comme des mosquitos Sous la semelle de mes dernières Versace T'es ni rappeur ni poète ni millésime ni Moët Chaque fois qu'tu pé-ra qu'tenvoies des vers-a cheap J'ai l'flow tah John Travolta Électron Libre 3, t'affole pas J'me réveille au commissariat J'vais au hebs pour toi j'te donne pas</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Ok jai soulevé des Rihannas jai soulevé des Rihannas Jai mis des Nicky naked jai mis des Nicky naked Jai même deux trois Lady Gaga Lady Gaga Hu T'as des Cardi du bled t'as des Cardi b du bled Elles savent que jsuis bad comme Montana na na na na Elles savent que jsuis bad comme Montana na na na na Jsuis bad comme Montana na na na na Elles savent que jsuis bad comme Montana na na na na Elle dit qu'jsuis bad comme Montana elle dit que jsuis bad comme Montana Qu'j'suis pas du genre à faire le canard à faire le canard Elle rêve de nettoyer ma kalash, chemise ouverte Tony Montana Tu m'cherches au quartier mais j'suis pas là là là là là là là là Visionnaire, ouais cruel donne tout si j'ai Plus j'grimpe dans le game est plus vite elles enlèvent leurs peu-ssa Elle sait qu'j'fais du le-sa, elle veut que j'vide tout mon keu-sa Dedans plus rien, dans la teu-cha elle a coffré tous les pochtars Elle dit que jsuis bad comme Montana elle dit que jsuis bad comme Montana Que j'suis pas du genre à faire le canard à faire le canard Elle rêve de nettoyer ma kalash Chemise ouverte Tony Montana Tu m'cherches au quartier mais j'suis pas là You might also like Ok jai soulevé des Rihannas jai soulevé des Rihannas Jai mis des Nicky naked jai mis des Nicky naked Jai même deux trois Lady Gaga Lady Gaga Hu T'as des Cardi du bled t'as des Cardi b du bled Elles savent que jsuis bad comme Montana na na na na Elles savent que jsuis bad comme Montana na na na na Jsuis bad comme Montana na na na na Elles savent que jsuis bad comme Montana na na na na Elle n'a que dans la boca, elle mdit que suis un lau-ssa Loca loca loca elle menvoit des nudes sur insta Vient tasseoir sur le sofa, jveux du real fuck les facetimes Jsuis comme renard dans la surface, jveux Christina pas Nekesha Il s'trouve que depuis qu'on est dans le game on a soulevé tellement d'folles J'arrive tout seul dans ta party et j'repars avec plusieurs folles Je sors le Jack miel et butine avec les abeilles Cette bitch me trouve frais, j'suis dans la Benz Elle turn up sur du Bad and Boujee On sort les Uzi si y'a soucis Tu crois qu'c'est ma go, c'est ma nourrice J'ai tout coffré dans sa pussy Ok jai soulevé des Rihannas jai soulevé des Rihannas Jai mis des Nicky naked jai mis des Nicky naked Jai même deux trois Lady Gaga Lady Gaga Hu T'as des Cardi du bled t'as des Cardi b du bled Elles savent que jsuis bad comme Montana na na na na Elles savent que jsuis bad comme Montana na na na na Jsuis bad comme Montana na na na na Elles savent que jsuis bad comme Montana na na na na</t>
+          <t>Ok jai soulevé des Rihannas jai soulevé des Rihannas Jai mis des Nicky naked jai mis des Nicky naked Jai même deux trois Lady Gaga Lady Gaga Hu T'as des Cardi du bled t'as des Cardi b du bled Elles savent que jsuis bad comme Montana na na na na Elles savent que jsuis bad comme Montana na na na na Jsuis bad comme Montana na na na na Elles savent que jsuis bad comme Montana na na na na Elle dit qu'jsuis bad comme Montana elle dit que jsuis bad comme Montana Qu'j'suis pas du genre à faire le canard à faire le canard Elle rêve de nettoyer ma kalash, chemise ouverte Tony Montana Tu m'cherches au quartier mais j'suis pas là là là là là là là là Visionnaire, ouais cruel donne tout si j'ai Plus j'grimpe dans le game est plus vite elles enlèvent leurs peu-ssa Elle sait qu'j'fais du le-sa, elle veut que j'vide tout mon keu-sa Dedans plus rien, dans la teu-cha elle a coffré tous les pochtars Elle dit que jsuis bad comme Montana elle dit que jsuis bad comme Montana Que j'suis pas du genre à faire le canard à faire le canard Elle rêve de nettoyer ma kalash Chemise ouverte Tony Montana Tu m'cherches au quartier mais j'suis pas là Ok jai soulevé des Rihannas jai soulevé des Rihannas Jai mis des Nicky naked jai mis des Nicky naked Jai même deux trois Lady Gaga Lady Gaga Hu T'as des Cardi du bled t'as des Cardi b du bled Elles savent que jsuis bad comme Montana na na na na Elles savent que jsuis bad comme Montana na na na na Jsuis bad comme Montana na na na na Elles savent que jsuis bad comme Montana na na na na Elle n'a que dans la boca, elle mdit que suis un lau-ssa Loca loca loca elle menvoit des nudes sur insta Vient tasseoir sur le sofa, jveux du real fuck les facetimes Jsuis comme renard dans la surface, jveux Christina pas Nekesha Il s'trouve que depuis qu'on est dans le game on a soulevé tellement d'folles J'arrive tout seul dans ta party et j'repars avec plusieurs folles Je sors le Jack miel et butine avec les abeilles Cette bitch me trouve frais, j'suis dans la Benz Elle turn up sur du Bad and Boujee On sort les Uzi si y'a soucis Tu crois qu'c'est ma go, c'est ma nourrice J'ai tout coffré dans sa pussy Ok jai soulevé des Rihannas jai soulevé des Rihannas Jai mis des Nicky naked jai mis des Nicky naked Jai même deux trois Lady Gaga Lady Gaga Hu T'as des Cardi du bled t'as des Cardi b du bled Elles savent que jsuis bad comme Montana na na na na Elles savent que jsuis bad comme Montana na na na na Jsuis bad comme Montana na na na na Elles savent que jsuis bad comme Montana na na na na</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Paroles de Bandito Bandito ! Tu vas où comme ça ? Alors comme ça tu veux la Lambo ? Les guns de Rando ohlala Bandito tu n'es qu'un ado Et tu veux déjà débiter la daupe ohlala Tu veux jouer les bandits mais c'est la rue qui te stoppe On peut pas faire machine arrière T'écoutes pas c'qu'on te dit temps qu't'es dans l'coupé sport Avec de jolies cavalières Et quoi qu'on en dise je m'inquiète pour toi Oui j'ai peur pour toi car j'étais comme toi Et quoi qu'on en dise je m'inquiète pour toi Oui j'ai peur pour toi car j'étais comme toi ouais Bandito, Bandito T'attndais pas les condés de sitôt Bandito, Bandito Terminé ls A-R Puerto Rico Mojito, Mexico T'es en cellule avec un toxico Bandito, Bandito T'as donné ton cur à la rue mais elle t'a mytho You might also like Elle t'a myhto a-ah Elle t'a mytho a-ah Elle t'a myhto a-ah Elle t'a mytho T'as pris ton courage à deux mains pour la Honda Pour que la ronne-da porte Chanel et Longchamps Tu t'es fait donner par un ami de longue date Et celle qui va donner le go a de longues jambes En cellule tu cogitais constamment sur les nerfs T'as goumé ton co le hessess t'a mis au mitard Bandito prépare donc sa traversée du désert Ressort 15 kilos en moins 45 jours plus tard Remets toi dans l'Djin, t'as repris 11 mois Ta mère pleure au parlu s'inquiète pour toi Elle s'inquiète pour toi comme j'm'inquiète pour toi Oui j'ai peur pour toi car j'étais comme toi Bandito, Bandito T'attendais pas les condés de sitôt Bandito, Bandito Terminé les A-R Puerto Rico Mojito, Mexico T'es en cellule avec un toxico Bandito, Bandito T'as donné ton cur à la rue mais elle t'a mytho Elle t'a myhto Elle t'a mytho Elle t'a myhto Elle t'a mytho</t>
+          <t>Paroles de Bandito Bandito ! Tu vas où comme ça ? Alors comme ça tu veux la Lambo ? Les guns de Rando ohlala Bandito tu n'es qu'un ado Et tu veux déjà débiter la daupe ohlala Tu veux jouer les bandits mais c'est la rue qui te stoppe On peut pas faire machine arrière T'écoutes pas c'qu'on te dit temps qu't'es dans l'coupé sport Avec de jolies cavalières Et quoi qu'on en dise je m'inquiète pour toi Oui j'ai peur pour toi car j'étais comme toi Et quoi qu'on en dise je m'inquiète pour toi Oui j'ai peur pour toi car j'étais comme toi ouais Bandito, Bandito T'attndais pas les condés de sitôt Bandito, Bandito Terminé ls A-R Puerto Rico Mojito, Mexico T'es en cellule avec un toxico Bandito, Bandito T'as donné ton cur à la rue mais elle t'a mytho Elle t'a myhto a-ah Elle t'a mytho a-ah Elle t'a myhto a-ah Elle t'a mytho T'as pris ton courage à deux mains pour la Honda Pour que la ronne-da porte Chanel et Longchamps Tu t'es fait donner par un ami de longue date Et celle qui va donner le go a de longues jambes En cellule tu cogitais constamment sur les nerfs T'as goumé ton co le hessess t'a mis au mitard Bandito prépare donc sa traversée du désert Ressort 15 kilos en moins 45 jours plus tard Remets toi dans l'Djin, t'as repris 11 mois Ta mère pleure au parlu s'inquiète pour toi Elle s'inquiète pour toi comme j'm'inquiète pour toi Oui j'ai peur pour toi car j'étais comme toi Bandito, Bandito T'attendais pas les condés de sitôt Bandito, Bandito Terminé les A-R Puerto Rico Mojito, Mexico T'es en cellule avec un toxico Bandito, Bandito T'as donné ton cur à la rue mais elle t'a mytho Elle t'a myhto Elle t'a mytho Elle t'a myhto Elle t'a mytho</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>One, two Et moi j'ai l'cur brisé Par les ardeurs alcoolisées de la nuit d'ivresse Dans une suite privatisée Sous les cris bien aiguisés d'une dizaine de tigresse Gypsi Motel sur les Champs-Elysées à faire chauffer carte en terrasse J'me suis pas embourgeoisé, j'termine la soirée à la cité pété sur un TMAX C'est mon destin, j'peux pas contrôler ça Tout va bien tant qu'le front se pose contre le sol Petit faut troquer le bouquin contre les armes Troquer les animaux contre les hommes J'connais des pauvres qui ont beaucoup d'argent Et des gens qui veulent juger les dépenses J'en ai pas eu, j'ai tenté ma chance J'suis à Marbella mais j'suis pas en vacances J'maîtrise le pinceau Picasso J'rêve mes peintures avant d'peindre mes rêves Des ratures sur les copies d'mes élèves J'arrive pour tout casser, Quiero que paso J'dépoussière une kalash de parachutiste Tire une rafale en l'air, j'entends les mouettes Au fond du cabaret, j'ai les mains moites J'ai posé deux kichta, j'attends le Moët Algérien, j'ai l'drapeau facile Mon drapeau, mon maillot du CR de Belouizdad Chacun son mektoub, on avance ensemble Destins croisés, dounia pleine de mystères Malgré les embûches, on reste croyant Jamais on n'consulte la voyante J'aime trop mon p'tit frère, c'est un bonhomme J'aime trop ma p'tite sur, c'est une vaillante You might also like Belouizdad</t>
+          <t>One, two Et moi j'ai l'cur brisé Par les ardeurs alcoolisées de la nuit d'ivresse Dans une suite privatisée Sous les cris bien aiguisés d'une dizaine de tigresse Gypsi Motel sur les Champs-Elysées à faire chauffer carte en terrasse J'me suis pas embourgeoisé, j'termine la soirée à la cité pété sur un TMAX C'est mon destin, j'peux pas contrôler ça Tout va bien tant qu'le front se pose contre le sol Petit faut troquer le bouquin contre les armes Troquer les animaux contre les hommes J'connais des pauvres qui ont beaucoup d'argent Et des gens qui veulent juger les dépenses J'en ai pas eu, j'ai tenté ma chance J'suis à Marbella mais j'suis pas en vacances J'maîtrise le pinceau Picasso J'rêve mes peintures avant d'peindre mes rêves Des ratures sur les copies d'mes élèves J'arrive pour tout casser, Quiero que paso J'dépoussière une kalash de parachutiste Tire une rafale en l'air, j'entends les mouettes Au fond du cabaret, j'ai les mains moites J'ai posé deux kichta, j'attends le Moët Algérien, j'ai l'drapeau facile Mon drapeau, mon maillot du CR de Belouizdad Chacun son mektoub, on avance ensemble Destins croisés, dounia pleine de mystères Malgré les embûches, on reste croyant Jamais on n'consulte la voyante J'aime trop mon p'tit frère, c'est un bonhomme J'aime trop ma p'tite sur, c'est une vaillante Belouizdad</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Freestyle fantôme, parloir fantôme, Rolls Royce Phantom et je ride Jarrive tantôt, de vrais je m'entoure, je fais mon retour rebeu WOAAAAH ! Jai doublé ma testo quand jai arrêté le shit, si la police lisait mes pensées j'serai encore au shtar Toujours les mêmes quon retrouve aux victoires de la musique, tes pas rappeur tes comédien tu mérites un oscar Grosse crapule boostée à la taurine, grosse capuche le sourire à Tony Jai caché la cocaïne dans la chatte à Monique, en shopping à Rome, en cavale à Munich Jai construit ma carrière des murs à larchitecture, si tes quun ingrat qu'tu réussis pas je te dis cheh fik J'écoute pas tes conseils de merde j'ai la tête dur, rebeu je ferais jamais un selfie avec un sale flic Rebeu jarrive avec la nouvelle collection Kenzo, rebeu jconnais tous mes droit mon avocat connais la juge On part en virée pétasse ne vomi pas dans mon vaisseau, j'suis le renard de la rime et de la rue je connais la ruse Ya trop de salope que du sale Jfais des slalomes piste noire Jsuis dans le saloon verre de Sky La concu s'alarme Hayce Lem s'barre Freestyle fantôme, parloir fantôme, Rolls Royce Phantom et je ride Que des vautours au pied dla tour, j'fais mon retour rebeu WOAAAH ! Je vais devenir un problème si tu me prends pour une solution, jai bien revu ma clé de sol et travaillé mes soumissions Même sous mes yeux tu joues au con mais je taurai sur un coup du sort, jai les mains levées vers le ciel à la fin de chaque soumission Sans rémission tu vas ramasser tout tes péchés par le sang, je t'entend rapper la rue, jai tous validé à part le sens Moi jai mis daccord paris nord et sud en passant par le centre, cétait écrit avant que je sois nourrisson Gros c'est le return off de make appelle moi Mark Morison, si j'étais voyageur le game aurait la place de lhérisson Tu me laisses ler-par au répondeur, le jour où la gloire me rançonne, plus dbuzz, plus doseille, plus personne à lhorizon Il promet le soleil et la lune, il joue les patron et l'encule, jai choisi mon camp je ne vis pas entre le marteau et lenclume Tes rappeurs en manque de thunes je les retourne, je les baise avec ou sans autotune You might also like Ya trop de salope que du sale Jfais des slalomes piste noire Jsuis dans le saloon verre de Sky La concu s'alarme Hayce Lem s'barre Freestyle fantôme, parloir fantôme, Rolls Royce Phantom et je ride Que des vautours au pied dla tour, j'fais mon retour rebeu WOAAAH !1</t>
+          <t>Freestyle fantôme, parloir fantôme, Rolls Royce Phantom et je ride Jarrive tantôt, de vrais je m'entoure, je fais mon retour rebeu WOAAAAH ! Jai doublé ma testo quand jai arrêté le shit, si la police lisait mes pensées j'serai encore au shtar Toujours les mêmes quon retrouve aux victoires de la musique, tes pas rappeur tes comédien tu mérites un oscar Grosse crapule boostée à la taurine, grosse capuche le sourire à Tony Jai caché la cocaïne dans la chatte à Monique, en shopping à Rome, en cavale à Munich Jai construit ma carrière des murs à larchitecture, si tes quun ingrat qu'tu réussis pas je te dis cheh fik J'écoute pas tes conseils de merde j'ai la tête dur, rebeu je ferais jamais un selfie avec un sale flic Rebeu jarrive avec la nouvelle collection Kenzo, rebeu jconnais tous mes droit mon avocat connais la juge On part en virée pétasse ne vomi pas dans mon vaisseau, j'suis le renard de la rime et de la rue je connais la ruse Ya trop de salope que du sale Jfais des slalomes piste noire Jsuis dans le saloon verre de Sky La concu s'alarme Hayce Lem s'barre Freestyle fantôme, parloir fantôme, Rolls Royce Phantom et je ride Que des vautours au pied dla tour, j'fais mon retour rebeu WOAAAH ! Je vais devenir un problème si tu me prends pour une solution, jai bien revu ma clé de sol et travaillé mes soumissions Même sous mes yeux tu joues au con mais je taurai sur un coup du sort, jai les mains levées vers le ciel à la fin de chaque soumission Sans rémission tu vas ramasser tout tes péchés par le sang, je t'entend rapper la rue, jai tous validé à part le sens Moi jai mis daccord paris nord et sud en passant par le centre, cétait écrit avant que je sois nourrisson Gros c'est le return off de make appelle moi Mark Morison, si j'étais voyageur le game aurait la place de lhérisson Tu me laisses ler-par au répondeur, le jour où la gloire me rançonne, plus dbuzz, plus doseille, plus personne à lhorizon Il promet le soleil et la lune, il joue les patron et l'encule, jai choisi mon camp je ne vis pas entre le marteau et lenclume Tes rappeurs en manque de thunes je les retourne, je les baise avec ou sans autotune Ya trop de salope que du sale Jfais des slalomes piste noire Jsuis dans le saloon verre de Sky La concu s'alarme Hayce Lem s'barre Freestyle fantôme, parloir fantôme, Rolls Royce Phantom et je ride Que des vautours au pied dla tour, j'fais mon retour rebeu WOAAAH !1</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Lobotomie, monotonie mais tu t'couches aud-ch tard, quand la juge fait partir trop de types au shtar Pendant qu'mes tits-pe font partir petits pochtars, flow en pur cachemire, j'suis ton pire cauchemar Costard trois pièces, un cercueil et mes vers seront gravés dans le séquoia C'est quoi l'bail, gros ? Tu pues la merde même en appelant ta série d'freestyles Séphora J'suis en symphonie, pourquoi s'affoler ? Chacun son phallus, chacun sa folasse J'suis avec l'abeille, Jack Honey, alcool japonais, on t'encule ta rhayce Quand la rafale ira traverser ton traversin, balles d'AK dans ton baldaquin Ton vigile renversé par le Big Lemsi, j'veux une big lehsa, je roule pas d'patin J'ai la patata, tu nous parles d'la carte, mais tu blablacar les dés-blin n'parlent pas J'suis l'épaule où pleurer quand y'a plus la flamme, t'as tellement d'kehbas, tu vois plus ta femme Enfin celle que t'appelles ma chérie d'amour, elle te voit comme son che-ri plein d'humour Elle vit dans une porcherie, le velours de ses cuissardes camoufle un calibre lourd Elle te parle Maldives pas du Cap Ferret, mais le monde ne tourne que par intérêt Quand ta bouche te rapproche d'l'Enfer, que tes propres mains viendront t'enterrer On envoi Kader, Mamadou guetter, on envoi l'ouvreuse éclairée PGP, j'suis même pas repérer, j'les fais transpirer, moi, j'suis pépélé Y en a qui font la brinks pendant qu'tu fais la bringue, les matières jaunes et grises, on maîtrise être vifs La devise Ne t'approche pas trop près d'la crevasse, les requins s'font manger par les écrevisses Récupère la mule à l'aéroport, prend le Porsche, elle revient justement de Cayenne Certaines sont prêtes à manger du caca de Qataris pour 40K dans un Hyatt Mets la baguette, sors la rillette, l'assaut fléchettes, embrouille fenêtre La juge renouvelle mandat de dépôt, raccourcit le temps libre de vie qu'il nous reste On est nourrit de restes, on va mourir de rêves, le cul sur le capot du dernier GLS J'ai le shit, j'ai la S, j'ai la beuh, j'ai les deux, j'ai les trois, j'suis le king de P-A-R-I-S Hayce méticuleux dès que j'entends basse caisse claire, tu rappes un tissu d'inepties retourne dans l'tertiaire Pur produit d'Alger, j'ai la classe ya zeh, tu peux m'appeler Hassi Lemsi, j'suis né dans l'désert DZ, je me passerai de vos douces flatteries, d'votre jalousie qui sent bouquet de fleurs flétries J'suis le boss, pas besoin de nouveaux clubs, j'fais l'tri, j'reconnais les traîtres écris sur leurs têtes aigries J'détruis, tout c'qui m'empêche d'avancer, j'décris c'qui m'pousse à exprimer tant d'mépris Pourquoi tant d'mépris ? Pourquoi tant d'mépris ? Pourquoi tant d'mépris ? Pourquoi tant de... ahYou might also like</t>
+          <t>Lobotomie, monotonie mais tu t'couches aud-ch tard, quand la juge fait partir trop de types au shtar Pendant qu'mes tits-pe font partir petits pochtars, flow en pur cachemire, j'suis ton pire cauchemar Costard trois pièces, un cercueil et mes vers seront gravés dans le séquoia C'est quoi l'bail, gros ? Tu pues la merde même en appelant ta série d'freestyles Séphora J'suis en symphonie, pourquoi s'affoler ? Chacun son phallus, chacun sa folasse J'suis avec l'abeille, Jack Honey, alcool japonais, on t'encule ta rhayce Quand la rafale ira traverser ton traversin, balles d'AK dans ton baldaquin Ton vigile renversé par le Big Lemsi, j'veux une big lehsa, je roule pas d'patin J'ai la patata, tu nous parles d'la carte, mais tu blablacar les dés-blin n'parlent pas J'suis l'épaule où pleurer quand y'a plus la flamme, t'as tellement d'kehbas, tu vois plus ta femme Enfin celle que t'appelles ma chérie d'amour, elle te voit comme son che-ri plein d'humour Elle vit dans une porcherie, le velours de ses cuissardes camoufle un calibre lourd Elle te parle Maldives pas du Cap Ferret, mais le monde ne tourne que par intérêt Quand ta bouche te rapproche d'l'Enfer, que tes propres mains viendront t'enterrer On envoi Kader, Mamadou guetter, on envoi l'ouvreuse éclairée PGP, j'suis même pas repérer, j'les fais transpirer, moi, j'suis pépélé Y en a qui font la brinks pendant qu'tu fais la bringue, les matières jaunes et grises, on maîtrise être vifs La devise Ne t'approche pas trop près d'la crevasse, les requins s'font manger par les écrevisses Récupère la mule à l'aéroport, prend le Porsche, elle revient justement de Cayenne Certaines sont prêtes à manger du caca de Qataris pour 40K dans un Hyatt Mets la baguette, sors la rillette, l'assaut fléchettes, embrouille fenêtre La juge renouvelle mandat de dépôt, raccourcit le temps libre de vie qu'il nous reste On est nourrit de restes, on va mourir de rêves, le cul sur le capot du dernier GLS J'ai le shit, j'ai la S, j'ai la beuh, j'ai les deux, j'ai les trois, j'suis le king de P-A-R-I-S Hayce méticuleux dès que j'entends basse caisse claire, tu rappes un tissu d'inepties retourne dans l'tertiaire Pur produit d'Alger, j'ai la classe ya zeh, tu peux m'appeler Hassi Lemsi, j'suis né dans l'désert DZ, je me passerai de vos douces flatteries, d'votre jalousie qui sent bouquet de fleurs flétries J'suis le boss, pas besoin de nouveaux clubs, j'fais l'tri, j'reconnais les traîtres écris sur leurs têtes aigries J'détruis, tout c'qui m'empêche d'avancer, j'décris c'qui m'pousse à exprimer tant d'mépris Pourquoi tant d'mépris ? Pourquoi tant d'mépris ? Pourquoi tant d'mépris ? Pourquoi tant de... ah</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>CRB flow double rotor 0 à 100 dans les temps pas de retard Le reste du gang est à Rotter' Ça part en chasse on fait tomber les motards comme des mouches On va t'faire tapinner comme t'es moche J'sors du Porsche Macan les yeux rouges Ça passe ça passe ça caillasse les hnouches Le mot Arthena sort de toutes les bouches On a récupéré quelques ballons comme Olive et Tom Balaye ton hazi comme feuille de l'automne Que du mytho t'es loin d'la demi-tonne T'es pas un homme les go du les michtonnes Et tu nous parles comme si t'avais racheté l'hôtel Hilton Y en a qui parlent pas, y en a qui donnent Y en a qui parlent pas, y en a qui donnent C'est pas un Merco, c'est un Phantom C'est pas d'la lean c'est un Fanta, wesh Viens pas foutre le zga dans ma genda, wesh On va t'grr taa ouais ma gueule on sait pas ouej J'aime pas grogner, j'préfère cogner Si y a l'brouilleur, j'vais m'débrouiller Cuba links, méga courrier J'suis dans l'binks, c'est qui You might also like J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks Congestionné pour la plata Personne va t'ramener l'benef' sur un plateau Pour les saisonniers du paquetage J'travaille les triceps et les pecs aux packs d'eau Placage à l'étage, fuck la mumu J'laisse la baby chez la nounou Recharge, arrivage, fais pas mumuse Démarrage, hold up, Clichy avenue Juste histoire de faire chauffer new Maserati J'passe au hazi péter Bende et Ramzy Nous dis même pas qu'la selra elle est basée Juste tu la coupes avec le maillot du Brésil Force aux re-fré qui ont arraché leurs bracelets Force aux indigents qui à l'époque brassaient On n'a pas tous eu la chance d'être graciés Gros, quand tu vois tes parents embrasse-les C'est pas un Merco, c'est un Phantom C'est pas d'la lean c'est un Fanta, wesh Viens pas foutre le zga dans ma genda, wesh On va t'grr taa ouais ma gueule on sait pas ouej J'aime pas grogner, j'préfère cogner Si y a l'brouilleur, j'vais m'débrouiller Cuba links, méga courrier J'suis dans l'binks, c'est qui J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks Elec-tron-Li-Bre</t>
+          <t>CRB flow double rotor 0 à 100 dans les temps pas de retard Le reste du gang est à Rotter' Ça part en chasse on fait tomber les motards comme des mouches On va t'faire tapinner comme t'es moche J'sors du Porsche Macan les yeux rouges Ça passe ça passe ça caillasse les hnouches Le mot Arthena sort de toutes les bouches On a récupéré quelques ballons comme Olive et Tom Balaye ton hazi comme feuille de l'automne Que du mytho t'es loin d'la demi-tonne T'es pas un homme les go du les michtonnes Et tu nous parles comme si t'avais racheté l'hôtel Hilton Y en a qui parlent pas, y en a qui donnent Y en a qui parlent pas, y en a qui donnent C'est pas un Merco, c'est un Phantom C'est pas d'la lean c'est un Fanta, wesh Viens pas foutre le zga dans ma genda, wesh On va t'grr taa ouais ma gueule on sait pas ouej J'aime pas grogner, j'préfère cogner Si y a l'brouilleur, j'vais m'débrouiller Cuba links, méga courrier J'suis dans l'binks, c'est qui J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks Congestionné pour la plata Personne va t'ramener l'benef' sur un plateau Pour les saisonniers du paquetage J'travaille les triceps et les pecs aux packs d'eau Placage à l'étage, fuck la mumu J'laisse la baby chez la nounou Recharge, arrivage, fais pas mumuse Démarrage, hold up, Clichy avenue Juste histoire de faire chauffer new Maserati J'passe au hazi péter Bende et Ramzy Nous dis même pas qu'la selra elle est basée Juste tu la coupes avec le maillot du Brésil Force aux re-fré qui ont arraché leurs bracelets Force aux indigents qui à l'époque brassaient On n'a pas tous eu la chance d'être graciés Gros, quand tu vois tes parents embrasse-les C'est pas un Merco, c'est un Phantom C'est pas d'la lean c'est un Fanta, wesh Viens pas foutre le zga dans ma genda, wesh On va t'grr taa ouais ma gueule on sait pas ouej J'aime pas grogner, j'préfère cogner Si y a l'brouilleur, j'vais m'débrouiller Cuba links, méga courrier J'suis dans l'binks, c'est qui J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais du biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks, j'fais mon biff J'suis dans l'binks Elec-tron-Li-Bre</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Bitume attitude Bitume attitude Bitume attitude Bitume attitude Bitume attitude Bitume attitude Bitume attitude Bitume attitude Mc flirt peu, j'pense qu'à Nassim à ry-fleu Aux nuit blanche tel-ho tass-pé taxi basket en tarif bleu XV2 Ça fait balise, Beriz, la capitale des bizs les plus balaises D'la cess au cannabis Hayce Braque à l'algérienne, file à l'anglaise Et baise la france à la roulette russe En thaï on traumatise les trans, bidibico, fuck la focus J'vais pas t'douiller l'premier avril Ca graille des mars bedave des joints d'ice-o-lator ca part en vrille Flash machette au creux des hanches Le rire jaune le maillot vert les idées noirs Motherfucking gazeuz extinct blanche Achete ou casse toi le temps cours avant qu'on t'enterre Tonton wesh il s'passe quoi tu t'es fait sauter tout ton ter? Jsuis khabat pousse des cris jte baise ta rhayce avec mes prix Ta tchagass aime Hayce Lemsifreddi Aucun mégaloman n'élimine ma team Ici la main de fer dans le gant de velour Allons vite allumer les illuminatis You might also like J'espere avoir bien fait les choses Le boule entre deux chaise et des taches de sang sur les shoes La hess les larmes coule sur mon tapis d'prière On rend la daron mehboul a cause des pulsions meurtrières Pré-distribué des coups caféine ou sky dans les veines Classé XV depuis j'ai pris des loves du level Les poukaves devraient être noyés dans l'acide Au lieu d'aboyer met toi des oid' et laisse la street aux mecs lucides Toi aussi quand jvendais du shit tu mangeais des chips Imbécile t'es baisé t'as cru qu'la vie c'était les sims Abusé y'a trop d'meuf qui font les meuf trop d'mecs qui font les mecs' On va s'inviter dans leur fête avec un 9millimètre Pourquoi dalle rime avec menottes et gendarme Pourquoi j'fais que partir à Dam avec l'argent du haram Trop paro bidibico paré pour la guerre j'ai l'regard froid Le sang chaud la toison d'or sur l'épaule droite mes nike air Poignard planté dans l'omoplates aux aristocrate On est trop crade On va t'péter l'trou dballe on est trop bad C'est la bitume attitude Clichy l'avenue s'intitule C'est pour la Fourche la Tour la J tour de magie sur l'bitume Terroriste XXX comme Inno Sur ta fhayce ecrase le mégo Fais surfhayce fauche la place du boss le magot Haysta luego Garde la pêche et place ton ter J'perce dans l'rap a la Black Decker Tacle le beat j'suis grave deter Mc rien qu'tu gratte des ter Berbere fier dans mon laboratoire coffré conio j'peaufine Devant cosby show café tire dix taffes rève de gofio d'cofee Ya les keufs derriere la porte ils trouveront wallou tête de wam Bicrave teum-teum toute l'année lossbo j'tai douillé de la bête de one C'est Hayce pas Wayne et mon flow coule comme les chutes de l'himalaya Willi willi ma dit Yema mais du ciel il pleut pas d'la maille Mental de malade millite on debarque en austin mini Comme Nicky Larson klaxonne perché j'recherche a milli Une balle dans l'crane tu peux canner pour avoir trop fait l'brave Retrograde après l'drive-by si t'as Cochran comme baveux C'est l'insomniaque j'arrache toujours un signe berry-black Les petits rêvent d'etre braqueur Les képis rêvent d'être baceux 4</t>
+          <t>Bitume attitude Bitume attitude Bitume attitude Bitume attitude Bitume attitude Bitume attitude Bitume attitude Bitume attitude Mc flirt peu, j'pense qu'à Nassim à ry-fleu Aux nuit blanche tel-ho tass-pé taxi basket en tarif bleu XV2 Ça fait balise, Beriz, la capitale des bizs les plus balaises D'la cess au cannabis Hayce Braque à l'algérienne, file à l'anglaise Et baise la france à la roulette russe En thaï on traumatise les trans, bidibico, fuck la focus J'vais pas t'douiller l'premier avril Ca graille des mars bedave des joints d'ice-o-lator ca part en vrille Flash machette au creux des hanches Le rire jaune le maillot vert les idées noirs Motherfucking gazeuz extinct blanche Achete ou casse toi le temps cours avant qu'on t'enterre Tonton wesh il s'passe quoi tu t'es fait sauter tout ton ter? Jsuis khabat pousse des cris jte baise ta rhayce avec mes prix Ta tchagass aime Hayce Lemsifreddi Aucun mégaloman n'élimine ma team Ici la main de fer dans le gant de velour Allons vite allumer les illuminatis J'espere avoir bien fait les choses Le boule entre deux chaise et des taches de sang sur les shoes La hess les larmes coule sur mon tapis d'prière On rend la daron mehboul a cause des pulsions meurtrières Pré-distribué des coups caféine ou sky dans les veines Classé XV depuis j'ai pris des loves du level Les poukaves devraient être noyés dans l'acide Au lieu d'aboyer met toi des oid' et laisse la street aux mecs lucides Toi aussi quand jvendais du shit tu mangeais des chips Imbécile t'es baisé t'as cru qu'la vie c'était les sims Abusé y'a trop d'meuf qui font les meuf trop d'mecs qui font les mecs' On va s'inviter dans leur fête avec un 9millimètre Pourquoi dalle rime avec menottes et gendarme Pourquoi j'fais que partir à Dam avec l'argent du haram Trop paro bidibico paré pour la guerre j'ai l'regard froid Le sang chaud la toison d'or sur l'épaule droite mes nike air Poignard planté dans l'omoplates aux aristocrate On est trop crade On va t'péter l'trou dballe on est trop bad C'est la bitume attitude Clichy l'avenue s'intitule C'est pour la Fourche la Tour la J tour de magie sur l'bitume Terroriste XXX comme Inno Sur ta fhayce ecrase le mégo Fais surfhayce fauche la place du boss le magot Haysta luego Garde la pêche et place ton ter J'perce dans l'rap a la Black Decker Tacle le beat j'suis grave deter Mc rien qu'tu gratte des ter Berbere fier dans mon laboratoire coffré conio j'peaufine Devant cosby show café tire dix taffes rève de gofio d'cofee Ya les keufs derriere la porte ils trouveront wallou tête de wam Bicrave teum-teum toute l'année lossbo j'tai douillé de la bête de one C'est Hayce pas Wayne et mon flow coule comme les chutes de l'himalaya Willi willi ma dit Yema mais du ciel il pleut pas d'la maille Mental de malade millite on debarque en austin mini Comme Nicky Larson klaxonne perché j'recherche a milli Une balle dans l'crane tu peux canner pour avoir trop fait l'brave Retrograde après l'drive-by si t'as Cochran comme baveux C'est l'insomniaque j'arrache toujours un signe berry-black Les petits rêvent d'etre braqueur Les képis rêvent d'être baceux 4</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>J'm'en bats les couilles d'combien tu pousses au DLC ah ban-ban-bang J'ai beaucoup d'rageux sur les côtes mais j'ai percé ah ban-ban-bang Encore des rumeurs, Big Lemsi s'en BLC ah ban-ban-bang J'baise toujours le game en one-one, eh mercé J'te baise ta mère, j'suis énervé BLC Donnez pas la force, j'vais m'démerder BLC Parce que l'iceberg doit émerger BLC J'espère mourir près d'Alger BLC d'ta carrière néfaste, quand j'veux, j't'efface, tu pompes mes phases Toutes prêtes à baiser juste pour buzzer, bande de pétasses T'es sûr que j'tape dans Caroline, ah, tes mots sonnent faux comme ta Rolly fils de pute J'm'en bats les couilles d'combien tu pousses au DLC ah ban-ban-bang J'ai beaucoup d'rageux sur les côtes mais j'ai percé ah ban-ban-bang Encore des rumeurs, Big Lemsi s'en BLC ah ban-ban-bang J'baise toujours le game en one-one, eh mercé Plus de lean dans mon cup, cup, cup de lean, j'sors du Jeep après, je flex Elle me suce, elle te..., elle te tchip J'suis be-tom pour le gouap, mais gros j'suis devenu balèze au goulag Je sais pas de quoi tu gouma, j'viens de khalass un nouveau Glock tout noir On fait pas d'omelettes sans casser des hommes,sans casser des gueules Déraciné DZ, j'ai comme des airs de Smith Wesson, de Desert Eagle J'pète mon gars sur Boubou dans l'Essonne le sang Bouboubou, j'entends plus bou quand y a plus personne hetta wahad Tu pompes ma vitesse et mon lexique p'tite pute Tu demandes un feat', la demande est rejetée comme le Brexit hahaha, ah On joue aux échecs, vous jouez aux dames Toutes ces poukaves rêvent de voir les mouches changer d'âne You might also like J'm'en bats les couilles d'combien tu pousses au DLC ah ban-ban-bang J'ai beaucoup d'rageux sur les côtes mais j'ai percé ah ban-ban-bang Encore des rumeurs, Big Lemsi s'en BLC ah ban-ban-bang J'baise toujours le game en one-one, eh mercé J'm'en bats les couilles d'combien tu pousses au DLC au DLC J'ai beaucoup d'rageux sur les côtes mais j'ai percé ouais, j'ai percé Encore des rumeurs, Big Lemsi s'en BLC j'm'en BLC J'baise toujours le game en one-one, eh mercé eh mercé</t>
+          <t>J'm'en bats les couilles d'combien tu pousses au DLC ah ban-ban-bang J'ai beaucoup d'rageux sur les côtes mais j'ai percé ah ban-ban-bang Encore des rumeurs, Big Lemsi s'en BLC ah ban-ban-bang J'baise toujours le game en one-one, eh mercé J'te baise ta mère, j'suis énervé BLC Donnez pas la force, j'vais m'démerder BLC Parce que l'iceberg doit émerger BLC J'espère mourir près d'Alger BLC d'ta carrière néfaste, quand j'veux, j't'efface, tu pompes mes phases Toutes prêtes à baiser juste pour buzzer, bande de pétasses T'es sûr que j'tape dans Caroline, ah, tes mots sonnent faux comme ta Rolly fils de pute J'm'en bats les couilles d'combien tu pousses au DLC ah ban-ban-bang J'ai beaucoup d'rageux sur les côtes mais j'ai percé ah ban-ban-bang Encore des rumeurs, Big Lemsi s'en BLC ah ban-ban-bang J'baise toujours le game en one-one, eh mercé Plus de lean dans mon cup, cup, cup de lean, j'sors du Jeep après, je flex Elle me suce, elle te..., elle te tchip J'suis be-tom pour le gouap, mais gros j'suis devenu balèze au goulag Je sais pas de quoi tu gouma, j'viens de khalass un nouveau Glock tout noir On fait pas d'omelettes sans casser des hommes,sans casser des gueules Déraciné DZ, j'ai comme des airs de Smith Wesson, de Desert Eagle J'pète mon gars sur Boubou dans l'Essonne le sang Bouboubou, j'entends plus bou quand y a plus personne hetta wahad Tu pompes ma vitesse et mon lexique p'tite pute Tu demandes un feat', la demande est rejetée comme le Brexit hahaha, ah On joue aux échecs, vous jouez aux dames Toutes ces poukaves rêvent de voir les mouches changer d'âne J'm'en bats les couilles d'combien tu pousses au DLC ah ban-ban-bang J'ai beaucoup d'rageux sur les côtes mais j'ai percé ah ban-ban-bang Encore des rumeurs, Big Lemsi s'en BLC ah ban-ban-bang J'baise toujours le game en one-one, eh mercé J'm'en bats les couilles d'combien tu pousses au DLC au DLC J'ai beaucoup d'rageux sur les côtes mais j'ai percé ouais, j'ai percé Encore des rumeurs, Big Lemsi s'en BLC j'm'en BLC J'baise toujours le game en one-one, eh mercé eh mercé</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Une adolescence pas stable Péché l'écaille de poiscaille Étant petit j'ai pas eu de grand frère qui me passait des Pascal Je veux passer par la grande porte sans ? Je bronze avec l'argent de la jeunesse dorée de rue Mouffetard J'ai posé plus d'un son le ventre vide J'suis un peu comme Robinson, j'me sens seul sans Vendredi La Terre tourne autour du Soleil Les frères tournent au D3 Les kahba tournent autour de l'oseille Faut qu'on tourne autour de la Kaaba La vie c'est pas les Rolex, le luxe, le Rosé Vise autre chose que le 6.3 Avant de voir les montagnes exploser On rêve tous, la mort nous réveillera J'suis pt'être qu'un sale bicot J'suis pt'être qu'un sale bougnoule Mais j'rap pas pour soulever des boules et j'raconte pas de pipeau La mélancolie c'est le bonheur d'être triste Petit pantin coupe tes fils pour étrangler le marionnettiste Ici tout le monde sait garder le silence en saignant Explique que le savoir est un arme au petit qui tire sur l'enseignant Bicot le chant des ambulances, des sirènes j'connais par cur J'aspire à saigner les balances depuis l'époque des rapporteurs Mon équipe forme un seul corps Le ciel est gris j'ai l'air aigris La musique est le plus chère mais le plus haram de tous les bruits C'est la débrouille, ça lâche des glaires, fume ? Les vautours voient qu'je tourne en rond mais toujours autour de la gloire Regarde-toi bien dans le miroir avant de loucher sur mon assiette J'ai la niaque, où t'as vu qu'un insomniaque ça faisait la sieste? On fait la fiesta, quand les chargeurs sont épuisés La street une grande entreprise où les employés sont méprisés Par la justice j'ai tisé la pisse d'Iblis Comme dirait Dis on est métis renoi, arbi bouclé crépu cheuveux frisé J'ai le phrasé toujours une forme olympique J'suis fort malin Ta chatte pleure J'démarre plus vite que Schumacher au Formule 1 J'suis ce mec bourré qui bouffe des livres en plein ter-ter Barbare, Bèrbère, c'est Paris nord sale batard C'est le nerf de la guerre On a le moral dans les Air Nike On va niker le gouverment Faut qu'ça dégénère man La graine de voyou germe Les fleurs du béton fannent Et moi j'suis de la rue pas de la ferme ouais Rythme de life infernal Distributiion de g à 20g Cramé comme Franck et Zaia J'figure pas faites sauter la banque pour Alger Wahran ? L'mia j'danse avec les loups J'tacle le beat à la Makelele Dans mon teh pas de hené C'est le parc ? pas LA J'ai la peau hâlé demande à Ino C'est qui les braves on va te planter ta race avec le shlass de la bicrave J'traine avec Phillip Morris, Marie-Jeanne et Jack la hess Marqué dans l'iris j'ai mon khaliss faut qu'le claque Ça pointe au SEDJ nes-jeu pour les sous agités J'décris l'époque hein Je maitrise la langue de Poquelin sous JB Sagitaire solitaire de l'oseille à coulé sous les ponts J'échangerais mon matelas de plume contre un sommeil de plomb Bicot j'plane entre les porcs slalom Mes frères sont morts paix à leurs âmes C'est pas l'arme qui fera l'homme Salam, c'est Hayce lem' des receleurs j'ai la recette À force de compter les se-lia j'en oublie de compter les hassanets Starfallah 75017 paris nord c'est pas ? Trop de disquette on m'appelle windows bicot J'm'impose comme un Q7 J'suis accusé j'ai du bon shit J'démarre pas la 'quette Le linge sale tourne dans la machine comme les idées noires dans ma tête J'coupe le beat et les quettes-pla J'sais faire qu'la guerre et l'amour A l'heure où j'cours t'inquiète pas j'guette à reculons les mecs à la bourre J'élabore une tactique maniaque Matraque télescopique dans le Redskins J'mène une vida loca j'ai pas le look à Ricky Martin ? J'suis Picasso le ventre vide Le cur meurtri solo comme Robinson sans Vendredi A vrai dire j'ai rendez-vous sous un linceul ici bas la vie n'est qu'un sursis J'navigue avec un spliff de seum Filoche les riches quand il est tard Gant pied de biche sacoche noire t'sens la patate c'est pas au vieil insomniaque qu'on apprend à devenir un cauchemar J'crèche entre deux pôles les poumons noirs le quarterback sous mes crampons J'mate l'horizon la toison d'or sur l'épaule droiteYou might also like</t>
+          <t>Une adolescence pas stable Péché l'écaille de poiscaille Étant petit j'ai pas eu de grand frère qui me passait des Pascal Je veux passer par la grande porte sans ? Je bronze avec l'argent de la jeunesse dorée de rue Mouffetard J'ai posé plus d'un son le ventre vide J'suis un peu comme Robinson, j'me sens seul sans Vendredi La Terre tourne autour du Soleil Les frères tournent au D3 Les kahba tournent autour de l'oseille Faut qu'on tourne autour de la Kaaba La vie c'est pas les Rolex, le luxe, le Rosé Vise autre chose que le 6.3 Avant de voir les montagnes exploser On rêve tous, la mort nous réveillera J'suis pt'être qu'un sale bicot J'suis pt'être qu'un sale bougnoule Mais j'rap pas pour soulever des boules et j'raconte pas de pipeau La mélancolie c'est le bonheur d'être triste Petit pantin coupe tes fils pour étrangler le marionnettiste Ici tout le monde sait garder le silence en saignant Explique que le savoir est un arme au petit qui tire sur l'enseignant Bicot le chant des ambulances, des sirènes j'connais par cur J'aspire à saigner les balances depuis l'époque des rapporteurs Mon équipe forme un seul corps Le ciel est gris j'ai l'air aigris La musique est le plus chère mais le plus haram de tous les bruits C'est la débrouille, ça lâche des glaires, fume ? Les vautours voient qu'je tourne en rond mais toujours autour de la gloire Regarde-toi bien dans le miroir avant de loucher sur mon assiette J'ai la niaque, où t'as vu qu'un insomniaque ça faisait la sieste? On fait la fiesta, quand les chargeurs sont épuisés La street une grande entreprise où les employés sont méprisés Par la justice j'ai tisé la pisse d'Iblis Comme dirait Dis on est métis renoi, arbi bouclé crépu cheuveux frisé J'ai le phrasé toujours une forme olympique J'suis fort malin Ta chatte pleure J'démarre plus vite que Schumacher au Formule 1 J'suis ce mec bourré qui bouffe des livres en plein ter-ter Barbare, Bèrbère, c'est Paris nord sale batard C'est le nerf de la guerre On a le moral dans les Air Nike On va niker le gouverment Faut qu'ça dégénère man La graine de voyou germe Les fleurs du béton fannent Et moi j'suis de la rue pas de la ferme ouais Rythme de life infernal Distributiion de g à 20g Cramé comme Franck et Zaia J'figure pas faites sauter la banque pour Alger Wahran ? L'mia j'danse avec les loups J'tacle le beat à la Makelele Dans mon teh pas de hené C'est le parc ? pas LA J'ai la peau hâlé demande à Ino C'est qui les braves on va te planter ta race avec le shlass de la bicrave J'traine avec Phillip Morris, Marie-Jeanne et Jack la hess Marqué dans l'iris j'ai mon khaliss faut qu'le claque Ça pointe au SEDJ nes-jeu pour les sous agités J'décris l'époque hein Je maitrise la langue de Poquelin sous JB Sagitaire solitaire de l'oseille à coulé sous les ponts J'échangerais mon matelas de plume contre un sommeil de plomb Bicot j'plane entre les porcs slalom Mes frères sont morts paix à leurs âmes C'est pas l'arme qui fera l'homme Salam, c'est Hayce lem' des receleurs j'ai la recette À force de compter les se-lia j'en oublie de compter les hassanets Starfallah 75017 paris nord c'est pas ? Trop de disquette on m'appelle windows bicot J'm'impose comme un Q7 J'suis accusé j'ai du bon shit J'démarre pas la 'quette Le linge sale tourne dans la machine comme les idées noires dans ma tête J'coupe le beat et les quettes-pla J'sais faire qu'la guerre et l'amour A l'heure où j'cours t'inquiète pas j'guette à reculons les mecs à la bourre J'élabore une tactique maniaque Matraque télescopique dans le Redskins J'mène une vida loca j'ai pas le look à Ricky Martin ? J'suis Picasso le ventre vide Le cur meurtri solo comme Robinson sans Vendredi A vrai dire j'ai rendez-vous sous un linceul ici bas la vie n'est qu'un sursis J'navigue avec un spliff de seum Filoche les riches quand il est tard Gant pied de biche sacoche noire t'sens la patate c'est pas au vieil insomniaque qu'on apprend à devenir un cauchemar J'crèche entre deux pôles les poumons noirs le quarterback sous mes crampons J'mate l'horizon la toison d'or sur l'épaule droite</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Tic-tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti d'l'usine tah Yuri Orlov Hey, flex comme Hayce Hey, flex comme Hayce J'ai reçu l'invitation de Booska-p, les gars Donc j'lâche un freestyle à Booska-p, les gars J'prends du level avec le time, le bail embelli J'atteindrai le sommet de l'obélisque Elle a fait le voyage depuis Toronto, bikow, j'ai passé son snap à mon co' J'tiens le rrain-té comme le poto Marto, une kalash' enroulée dans le manteau T'es comme une meuf khéné sur Instagram, tous tes comm', toutes tes vues, tous tes fans tout est faux J'sors une 'tape avec des flow sans défauts, sur le rrain-té, la moitié sont des faux Zouzou sont comme les pierres de mon empire, sont là pour le meilleur et pour le pire J'vois rarement le Soleil comme un vampire, salope, ton producer te paye en pills J'ai l'moral dans les VaporMax, des vapeurs de wax, des pensées d'haineux Fais taper la gelée royale, laisse pilote de-spee le GLE J'suis le grand cadre de la cacophonie, j'ai les 4 feuilles, j'ai les 4 folles J'vis dans la rue la plus chère du Monopoly, tu n'as pas très faim, moi, je les perfore J'roule en ville, j'entends Lemsi t'as pris la grosse tête Ah bon, yeah hoe, c'est pas c'que dit ta sur la grosse keh' J'ai des loca bonnes tah J-Lo, tisse-mé cappuccino Car elle sait que j'n'parle pas chinois, la rue m'appelle Young Paccino On oublie pas la Salat' et l'Tawhid Qui peut tester l'Électron Libre ? Hta wahed 6.3, siège baissé, nouveau compte HSBC Arrête les blasphèmes, tu vas décéder, ces rappeurs de merde sont possédésYou might also like</t>
+          <t>Tic-tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti d'l'usine tah Yuri Orlov Hey, flex comme Hayce Hey, flex comme Hayce J'ai reçu l'invitation de Booska-p, les gars Donc j'lâche un freestyle à Booska-p, les gars J'prends du level avec le time, le bail embelli J'atteindrai le sommet de l'obélisque Elle a fait le voyage depuis Toronto, bikow, j'ai passé son snap à mon co' J'tiens le rrain-té comme le poto Marto, une kalash' enroulée dans le manteau T'es comme une meuf khéné sur Instagram, tous tes comm', toutes tes vues, tous tes fans tout est faux J'sors une 'tape avec des flow sans défauts, sur le rrain-té, la moitié sont des faux Zouzou sont comme les pierres de mon empire, sont là pour le meilleur et pour le pire J'vois rarement le Soleil comme un vampire, salope, ton producer te paye en pills J'ai l'moral dans les VaporMax, des vapeurs de wax, des pensées d'haineux Fais taper la gelée royale, laisse pilote de-spee le GLE J'suis le grand cadre de la cacophonie, j'ai les 4 feuilles, j'ai les 4 folles J'vis dans la rue la plus chère du Monopoly, tu n'as pas très faim, moi, je les perfore J'roule en ville, j'entends Lemsi t'as pris la grosse tête Ah bon, yeah hoe, c'est pas c'que dit ta sur la grosse keh' J'ai des loca bonnes tah J-Lo, tisse-mé cappuccino Car elle sait que j'n'parle pas chinois, la rue m'appelle Young Paccino On oublie pas la Salat' et l'Tawhid Qui peut tester l'Électron Libre ? Hta wahed 6.3, siège baissé, nouveau compte HSBC Arrête les blasphèmes, tu vas décéder, ces rappeurs de merde sont possédés</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>J'suis le Boson de Higgs, sans moi tu pèses pas lourd L'ours polaire deviendra l'boss de la banquise, le numéro un des poids lourds Parce que les idées noires demandent plus de matière grise, d'une main de fer dans un gant de velours J'aime écrire après l'amour, le calme avant la guerre, les roulements d'tambours Boumédiène dans l'sang, le silence est d'or C'est pour ça que j'fais tellment d'argent quand tu ferms ta gueule Moi c'est Big Lemsi, l'intelligence du gun et la street m'accueille, je sens ton orgueil de mauvais augure Guerrier, mon glaive s'lève, crève le mauvais il, rêves de minot deviennent cauchemars à l'usure L'usurpateur leurre l'homme jusqu'au linceul, seul, j'ai laissé des liasses de cent dans ma fouille Craché sur les SS juste pour le fun, j'ai laissé des larmes de joie dans la foule J'ai laissé des larmes de sang sur ma feuille, sous estime personne Le plus faible des hommes est capable de t'nuire, est capable de t'allumer, capable de tenir Une arme, éclabousser ta cervelle sur la table de nuit ou devant une boite de nuit L'amour a ses raison, la mort a ses réseaux En prison, j'ai pas compté les heures, à douze ans j'étais déjà l'homme de la maison J'en peux plus, j'vais câbler, j'vais changer d'horizon, parait qu'l'enfer c'est les autres Animal dangereux, loin des hommes, je n'sais pas dissocier le cur de la raison J'tire sur leurs baraques et leurs ballons dirigeables, adolescence en débarras dans les barrettes et les parach' En lebara dans le bario, des ballons dans les parages et les bataradés de la BAC arrivent en série d'jab Le regard noir chromé sous la visière intégrale, quand la haine prend forme, un contrat sur ton crâne L'amitié s'transforme en trahison, translucide, trop d'soucis pour se demander qui crache dans ton Graal De nos jours, déshumanisé par la muselière hélas, les émotions qui nous liaient sont devenues des menaces Politico démagogie pour manipuler les masses, interdire l'port du voile, imposer celui du masque You might also like La réussite n'est pas une fatalité, c'est Dieu qui donne donc on l'a mérité On m'dit qu'j'suis pas normal, mais dans l'fond, qu'est-ce que la normalité ? Mais dans l'fond, qu'est-ce que la moralité ? Tout ce qu'il me reste, c'est ma sincérité Obligé d'casser la porte, comme d'habitude on m'a pas invité Tout l'monde veut win mais le king y en a que un seul Y en a que un seul, y en a que un seul J'ai quitté l'école pour les livres et j'leur ai dit d'm'appeler Hayce J'me suis fait , j'me suis fait tout seul D'après mes souvenirs, lors de mes victoires vous n'aviez pas le sourire J'arrive, sous marin, j'fais chavirer le navire J'vais bâtir un empire, tu m'verras pas venir Tout l'monde veut win mais le king y en a que un seul Y en a que un seul, y en a que un seul J'ai quitté l'école pour les livres et j'leur ai dit d'm'appeler Hayce J'me suis fait , j'me suis fait tout seul D'après mes souvenirs, lors de mes victoires vous n'aviez pas le sourire J'arrive, sous marin, j'fais chavirer le navire J'vais bâtir un empire, tu m'verras pas venir Hayce J'suis le Boson de Higgs, sans moi tu pèses pas lourd L'ours polaire deviendra l'boss de la banquise, le numéro un des poids lourds Parce que les idées noires demandent plus de matière grise, d'une main de fer dans un gant de velours J'aime écrire après l'amour, le calme avant la guerre, les roulements d'tambours Boumédiène dans l'sang, le silence est d'or C'est pour ça que j'veux tellement d'argent quand tu fermes ta gueule Moi c'est Big Lemsi, l'intelligence du gun et la street m'accueille, je sens ton orgueil de mauvais augure Guerrier, mon glaive s'lève, crève le mauvais il, rêves de minot deviennent cauchemars à l'usure2</t>
+          <t>J'suis le Boson de Higgs, sans moi tu pèses pas lourd L'ours polaire deviendra l'boss de la banquise, le numéro un des poids lourds Parce que les idées noires demandent plus de matière grise, d'une main de fer dans un gant de velours J'aime écrire après l'amour, le calme avant la guerre, les roulements d'tambours Boumédiène dans l'sang, le silence est d'or C'est pour ça que j'fais tellment d'argent quand tu ferms ta gueule Moi c'est Big Lemsi, l'intelligence du gun et la street m'accueille, je sens ton orgueil de mauvais augure Guerrier, mon glaive s'lève, crève le mauvais il, rêves de minot deviennent cauchemars à l'usure L'usurpateur leurre l'homme jusqu'au linceul, seul, j'ai laissé des liasses de cent dans ma fouille Craché sur les SS juste pour le fun, j'ai laissé des larmes de joie dans la foule J'ai laissé des larmes de sang sur ma feuille, sous estime personne Le plus faible des hommes est capable de t'nuire, est capable de t'allumer, capable de tenir Une arme, éclabousser ta cervelle sur la table de nuit ou devant une boite de nuit L'amour a ses raison, la mort a ses réseaux En prison, j'ai pas compté les heures, à douze ans j'étais déjà l'homme de la maison J'en peux plus, j'vais câbler, j'vais changer d'horizon, parait qu'l'enfer c'est les autres Animal dangereux, loin des hommes, je n'sais pas dissocier le cur de la raison J'tire sur leurs baraques et leurs ballons dirigeables, adolescence en débarras dans les barrettes et les parach' En lebara dans le bario, des ballons dans les parages et les bataradés de la BAC arrivent en série d'jab Le regard noir chromé sous la visière intégrale, quand la haine prend forme, un contrat sur ton crâne L'amitié s'transforme en trahison, translucide, trop d'soucis pour se demander qui crache dans ton Graal De nos jours, déshumanisé par la muselière hélas, les émotions qui nous liaient sont devenues des menaces Politico démagogie pour manipuler les masses, interdire l'port du voile, imposer celui du masque La réussite n'est pas une fatalité, c'est Dieu qui donne donc on l'a mérité On m'dit qu'j'suis pas normal, mais dans l'fond, qu'est-ce que la normalité ? Mais dans l'fond, qu'est-ce que la moralité ? Tout ce qu'il me reste, c'est ma sincérité Obligé d'casser la porte, comme d'habitude on m'a pas invité Tout l'monde veut win mais le king y en a que un seul Y en a que un seul, y en a que un seul J'ai quitté l'école pour les livres et j'leur ai dit d'm'appeler Hayce J'me suis fait , j'me suis fait tout seul D'après mes souvenirs, lors de mes victoires vous n'aviez pas le sourire J'arrive, sous marin, j'fais chavirer le navire J'vais bâtir un empire, tu m'verras pas venir Tout l'monde veut win mais le king y en a que un seul Y en a que un seul, y en a que un seul J'ai quitté l'école pour les livres et j'leur ai dit d'm'appeler Hayce J'me suis fait , j'me suis fait tout seul D'après mes souvenirs, lors de mes victoires vous n'aviez pas le sourire J'arrive, sous marin, j'fais chavirer le navire J'vais bâtir un empire, tu m'verras pas venir Hayce J'suis le Boson de Higgs, sans moi tu pèses pas lourd L'ours polaire deviendra l'boss de la banquise, le numéro un des poids lourds Parce que les idées noires demandent plus de matière grise, d'une main de fer dans un gant de velours J'aime écrire après l'amour, le calme avant la guerre, les roulements d'tambours Boumédiène dans l'sang, le silence est d'or C'est pour ça que j'veux tellement d'argent quand tu fermes ta gueule Moi c'est Big Lemsi, l'intelligence du gun et la street m'accueille, je sens ton orgueil de mauvais augure Guerrier, mon glaive s'lève, crève le mauvais il, rêves de minot deviennent cauchemars à l'usure2</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Je boxe avec les mots, je boxe avec les mots Débite mes vers sur le beat, le poison coule à flots Il coule à flots, mon flow fait swinguer la foule Si le rap part en couille, je lui prête mes boules Tu danses sur l'ère de la lame, le chant des fusils, l'air est malsain C'est une époque à damner un saint comme un Uzi Crache la mort, j'accuse, arrache la muselière cash J'mâche plus mes mots, je lâche des bombes à chaque fois, sache Que l'heure H est proche, tâche d'avertir tes proches avant le clash Pe-ra sanglant, rimes taillées dans la roche, j'attache De l'importance au sens dans mes textes, ose causer D'misère en prose puis exploser pour la bonne cause La paix gît sous une bâche, à qui profite la guerre ? La PJ censure un rap moins violent qu'Schwarzenegger Entache mon business, puis cache la vérité Les coups sont mérités, c'est l'hôpital qui s'fout d'la charité J'ai hérité d'la violence, ça afflue sur mes compositions Qui prétend faire du rap sans prendre position ? Faire opposition ça m'connaît, moi j'veux cogner en m'faisant d'la monnaie Donner puis recevoir, au bonheur m'abonner Je boxe avec les mots Je vis au Six' Chau', couché sur le dos, à mordre les barreaux Les formules et autres politesses, nous, on s'en fout Si tu kiffes pas, renoi, t'écoutes pas et puis c'est tout You might also like J'évite le non-sens comme un virus, superstar dans l'ghetto Comme à la roulette russe, l'étau s'resserre, l'État met l'véto Les jeunes s'mettent au rap, très tôt ils frappent La résistance est prête au micro, j'deviens MC à métaux Rappe les barreaux d'prison, si t'enfermes l'expression orale Nique la morale, le rap est sous pression quand Lino râle Bam, bam, deux pressions d'la gâchette ici où le vice erre Mon album s'achète comme un douze bien vi-ser Serre-moi la poigne, les maux des frères je soigne, mes mots en témoignent Si l'enfer est pavé d'bonnes intentions, que le porc s'éloigne Encore un autre prétexte, un texte violent, mais voilà J'sais pas jouer du violon ou faire des rimes à la mords-moi là Insolent, mon solo rap shoote, crée le doute, lègue-moi l'micro Déjà les accros veulent des bootlegs Écoute, Ärsenik, c'est pas une blague, couine Gueule, kiffe le single, laisse la dance aux drag queens Je boxe avec les mots, je boxe avec les mots Débite mes vers sur le beat, le poison coule à flots Il coule à flots, mon flow fait swinguer la foule Si le rap part en couille, je lui prête mes boules Un beat, une grosse basse pour que j'me place J'hausse ma voix pour mes soces, passe-moi les bastos Faut qu'on les blesse tous, les pousse dans la fosse Fesse les fausses faces, laisse une trace dans ce nessbi, encaisse En face, mes gars en masse, flirtent avec le meurtre Ta sensibilité j'heurte, et c'est ton sang qui tache mon T-shirt L.I.N.O style, boum boum, finance tes obsèques Zoom sur ma clique, mec, capte ou suce mon zob sec X-X-X large, j'me fixe et charge Dieu me garde de mes amis, mes ennemis je m'en charge Une charge explosive barge, rime, pousse au crime, au carnage Dur car c'est dans la merde que mes lascars au tier-quar nagent Tueurs de clowns, cyclone, rap, chasseur de clones, et parano Pousse AB, Calbo, et Tony Cerrano Le capo tape, frappe au micro, brûle pas les étapes Austère comme l'engin dans mon holster, tu peux y laisser ta peau Je boxe avec les mots, je boxe avec les mots Débite mes vers sur le beat, le poison coule à flots Il coule à flots, mon flow fait swinguer la foule Si le rap part en couille, je lui prête mes boules</t>
+          <t>Je boxe avec les mots, je boxe avec les mots Débite mes vers sur le beat, le poison coule à flots Il coule à flots, mon flow fait swinguer la foule Si le rap part en couille, je lui prête mes boules Tu danses sur l'ère de la lame, le chant des fusils, l'air est malsain C'est une époque à damner un saint comme un Uzi Crache la mort, j'accuse, arrache la muselière cash J'mâche plus mes mots, je lâche des bombes à chaque fois, sache Que l'heure H est proche, tâche d'avertir tes proches avant le clash Pe-ra sanglant, rimes taillées dans la roche, j'attache De l'importance au sens dans mes textes, ose causer D'misère en prose puis exploser pour la bonne cause La paix gît sous une bâche, à qui profite la guerre ? La PJ censure un rap moins violent qu'Schwarzenegger Entache mon business, puis cache la vérité Les coups sont mérités, c'est l'hôpital qui s'fout d'la charité J'ai hérité d'la violence, ça afflue sur mes compositions Qui prétend faire du rap sans prendre position ? Faire opposition ça m'connaît, moi j'veux cogner en m'faisant d'la monnaie Donner puis recevoir, au bonheur m'abonner Je boxe avec les mots Je vis au Six' Chau', couché sur le dos, à mordre les barreaux Les formules et autres politesses, nous, on s'en fout Si tu kiffes pas, renoi, t'écoutes pas et puis c'est tout J'évite le non-sens comme un virus, superstar dans l'ghetto Comme à la roulette russe, l'étau s'resserre, l'État met l'véto Les jeunes s'mettent au rap, très tôt ils frappent La résistance est prête au micro, j'deviens MC à métaux Rappe les barreaux d'prison, si t'enfermes l'expression orale Nique la morale, le rap est sous pression quand Lino râle Bam, bam, deux pressions d'la gâchette ici où le vice erre Mon album s'achète comme un douze bien vi-ser Serre-moi la poigne, les maux des frères je soigne, mes mots en témoignent Si l'enfer est pavé d'bonnes intentions, que le porc s'éloigne Encore un autre prétexte, un texte violent, mais voilà J'sais pas jouer du violon ou faire des rimes à la mords-moi là Insolent, mon solo rap shoote, crée le doute, lègue-moi l'micro Déjà les accros veulent des bootlegs Écoute, Ärsenik, c'est pas une blague, couine Gueule, kiffe le single, laisse la dance aux drag queens Je boxe avec les mots, je boxe avec les mots Débite mes vers sur le beat, le poison coule à flots Il coule à flots, mon flow fait swinguer la foule Si le rap part en couille, je lui prête mes boules Un beat, une grosse basse pour que j'me place J'hausse ma voix pour mes soces, passe-moi les bastos Faut qu'on les blesse tous, les pousse dans la fosse Fesse les fausses faces, laisse une trace dans ce nessbi, encaisse En face, mes gars en masse, flirtent avec le meurtre Ta sensibilité j'heurte, et c'est ton sang qui tache mon T-shirt L.I.N.O style, boum boum, finance tes obsèques Zoom sur ma clique, mec, capte ou suce mon zob sec X-X-X large, j'me fixe et charge Dieu me garde de mes amis, mes ennemis je m'en charge Une charge explosive barge, rime, pousse au crime, au carnage Dur car c'est dans la merde que mes lascars au tier-quar nagent Tueurs de clowns, cyclone, rap, chasseur de clones, et parano Pousse AB, Calbo, et Tony Cerrano Le capo tape, frappe au micro, brûle pas les étapes Austère comme l'engin dans mon holster, tu peux y laisser ta peau Je boxe avec les mots, je boxe avec les mots Débite mes vers sur le beat, le poison coule à flots Il coule à flots, mon flow fait swinguer la foule Si le rap part en couille, je lui prête mes boules</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Si tu m'vois frapper l'tempo jusqu'à m'en péter les bias-ti' C'est pour la Porte de Clichy, la Fourche, la Tour, l'Allée XXX Comme tous les locos de ma team, je hais Sarko' dans la politique Il pleut des mythos, j'suis pas né d'la dernière tempête médiatique Dramatique, on pète la race pour quelques copecs au Tac-O-Tac Dans l'District on confond pas l'orage et le flash Kodak De pack en pack, on s'enracine dans les bâtiments made in OPAC J'veux l'champagne, la limousine sans avoir l'bac' Wesh cousine, joue pas les bastos ou j'te mets dans la chambre et j'tire et chtah C'est pas Shakespeare, c'est hrach, les MC's j'extirpe le cash Retire ton string, approche, je respire en cachette Kick à la vitesse d'un Porsche, et tu pries pour que j'me crash, wesh Ha-Ha-Hayce le traumatisme crânien Sortez l'champagne d'Alsace, le caviar iranien Contraint d'buter des plaquettes car les bas-fonds s'dégradent Fais pas genre tu vends d'la 'quette, on sait qu'tu racontes des cracks Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter You might also like J'te mets des coups d'tête comme si j'avais le front de Rihanna Tu nages dans la merde à côté des piranhas A la télé on dit noir, juste après on dit savane J'suis rare comme un cain-ri' qui adopte un p'tit arabe Qu'est-ce qu'il s'passe ? Encore un connard qui veut l'cash, qui fini die T'excites pas, j'tape les 'ta-'ta-'tasses, on rappe, on les mitraille C'est ti-par', on te pète le coccyx, découpe le beat avec lacolyte Hayce Lemsi, casse le mythe Quoi que l'on dise on est tricards J'tape le beat et le bute à la batte C'est le but du Bic et la lutte à l'élite On déboule des beats, des phases qui font mal Les pétasses ont la trique, on leur A la base on est pas dans les baptêmes, les battles Les boîtes, à l'épreuve des balles On écarte la prod' et la casse A la base on est pas des boloss On t'éclate la face man Passe le Bic qu'on le castagne, casse toi ou on t'casse ta gueule Cascader, , cassons ou on casse la prod' Casse les mans et les fouette comme Castlevania Tellement propre et sûr de moi qu'on les déclasse wa'Allah Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter On fait péter les watts, quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier Quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier On fait péter les watts, quoi que tu fasses dans l'rap j'vais t'briser Briser, briser, j'vais, j'vais t'plier Quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Si tu m'vois frapper l'tempo jusqu'à m'en péter les bias-ti' C'est pour la Porte de Clichy, la Fourche, la Tour, l'Allée XXX Comme tous les locos de ma team, je hais Sarko' dans la politique Il pleut des mythos, j'suis pas né d'la dernière tempête médiatique Dramatique, on pète la race pour quelques copecs au Tac-O-Tac Dans l'District on confond pas l'orage et le flash Kodak De pack en pack, on s'enracine dans les bâtiments made in OPAC J'veux l'champagne, la limousine sans avoir l'bac' Wesh cousine, joue pas les bastos ou j'te mets dans la chambre et j'tire et chtah C'est pas Shakespeare, c'est hrach, les MC's j'extirpe le cash Retire ton string, approche, je respire en cachette Kick à la vitesse d'un Porsche, et tu pries pour que j'me crash, wesh Ha-Ha-Hayce le traumatisme crânien Sortez l'champagne d'Alsace, le caviar iranien Contraint d'buter des plaquettes car les bas-fonds s'dégradent Fais pas genre tu vends d'la 'quette, on sait qu'tu racontes des cracks Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter J'te mets des coups d'tête comme si j'avais le front de Rihanna Tu nages dans la merde à côté des piranhas A la télé on dit noir, juste après on dit savane J'suis rare comme un cain-ri' qui adopte un p'tit arabe Qu'est-ce qu'il s'passe ? Encore un connard qui veut l'cash, qui fini die T'excites pas, j'tape les 'ta-'ta-'tasses, on rappe, on les mitraille C'est ti-par', on te pète le coccyx, découpe le beat avec lacolyte Hayce Lemsi, casse le mythe Quoi que l'on dise on est tricards J'tape le beat et le bute à la batte C'est le but du Bic et la lutte à l'élite On déboule des beats, des phases qui font mal Les pétasses ont la trique, on leur A la base on est pas dans les baptêmes, les battles Les boîtes, à l'épreuve des balles On écarte la prod' et la casse A la base on est pas des boloss On t'éclate la face man Passe le Bic qu'on le castagne, casse toi ou on t'casse ta gueule Cascader, , cassons ou on casse la prod' Casse les mans et les fouette comme Castlevania Tellement propre et sûr de moi qu'on les déclasse wa'Allah Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter On fait péter les watts, quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier Quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier On fait péter les watts, quoi que tu fasses dans l'rap j'vais t'briser Briser, briser, j'vais, j'vais t'plier Quoi que tu fasses dans l'rap j'vais t'briser On clash pas, on tape dans le tas pour t'plier Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter Oh putain, ça kick dur Mais il fallait inviter Hayce Lemsi, Scrib'r, T-O-X-M-O Il fallait inviter Bien sûr, bien sûr Le flow c'est du ice cream Demande à ta go, on est ses invités Ce soir, pas là pour prendre le thé Qu'on t'met d'accord en vite fait Inviter Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>K.W Triple X Paname-MTL Hayce, VT, grr Je sais qu'j'ai merdé mais là j'ai purgé ma sentence J'reviens énervé, les opps ont perdus la confiance C'est Hayce et V, on vient brouiller toutes les consciences J'reprends tout l'rain-té, Saint-Léonard va pop jusqu'en France Ça pop Paname, Saint-Léonard, ça pop, ça pop Ça vient d'où, c'est quoi ta Audemars ? J't'la prends, j't'la prends Cette baddie twerk direct sur le bar, ça t'choque, ça t'choque Tu t'demands encore d'où sort le strap, la tchop, la tchop J'arriv Gucci, Fendi, Louis, le V, poto, j'suis mitigé Hmm J'me suis refait sur un dix G J'étais au hebs, Attends avant d'twerker, bitch Attends, vas-y, stop, reprends, argh, t'es une baddie VV', j'remercie Macintosh, j'ai un big friend dans la sacoche J'envoie les petits à Ça pop, ça pop, Hennessy, j'suis quillé Ça pop, ça pop, Ça pop, ça pop, ça pop, ça pop, ça pop, ça pop, ça pop You might also like Je sais qu'j'ai merdé mais là j'ai purgé ma sentence J'reviens énervé, les opps ont perdus la confiance C'est Hayce et V, on vient brouiller toutes les consciences J'reprends tout l'rain-té, Saint-Léonard va pop jusqu'en France Ça pop Paname, Saint-Léonard, ça pop, ça pop Ça vient d'où, c'est quoi ta Audemars ? J't'la prends, j't'la prends Cette baddie twerk direct sur le bar, ça t'choque, ça t'choque Tu t'demandes encore d'où sort le strap, la tchop, la tchop Si ça voit un ennemi, ça l'pop, on va l'fumer comme une clope De loin, j'repère les salopes et depuis qu'ils me voient, ils galopent Les hommes sont forcément mauvais, y a pas pire qu'un te-traî Si j'pouvais, j't'abattrais, tout c'que j'dis, c'est pour de vrai Ça pop, ça pop, pour nous, ça pop Pour vous, ça flop, pour vous, ça flop Ah pour les opps, , un jour ou l'autre, ils sont condamnés Pour l'instant, j'ai envie de faire du flouze J'ai envie de faire du flouze Si j'ai pas mon flingue, tu goûteras au mouse Au mouse Quand les gars voient VT, ils ont la frousse Voient VT, ils ont la frousse Ils savent que pas très loin, y a des cartouches Je sais qu'j'ai merdé mais là j'ai purgé ma sentence J'reviens énervé, les opps ont perdus la confiance C'est Hayce et V, on vient brouiller toutes les consciences J'reprends tout l'rain-té, Saint-Léonard va pop jusqu'en France Ça pop K.W Triple X</t>
+          <t>K.W Triple X Paname-MTL Hayce, VT, grr Je sais qu'j'ai merdé mais là j'ai purgé ma sentence J'reviens énervé, les opps ont perdus la confiance C'est Hayce et V, on vient brouiller toutes les consciences J'reprends tout l'rain-té, Saint-Léonard va pop jusqu'en France Ça pop Paname, Saint-Léonard, ça pop, ça pop Ça vient d'où, c'est quoi ta Audemars ? J't'la prends, j't'la prends Cette baddie twerk direct sur le bar, ça t'choque, ça t'choque Tu t'demands encore d'où sort le strap, la tchop, la tchop J'arriv Gucci, Fendi, Louis, le V, poto, j'suis mitigé Hmm J'me suis refait sur un dix G J'étais au hebs, Attends avant d'twerker, bitch Attends, vas-y, stop, reprends, argh, t'es une baddie VV', j'remercie Macintosh, j'ai un big friend dans la sacoche J'envoie les petits à Ça pop, ça pop, Hennessy, j'suis quillé Ça pop, ça pop, Ça pop, ça pop, ça pop, ça pop, ça pop, ça pop, ça pop Je sais qu'j'ai merdé mais là j'ai purgé ma sentence J'reviens énervé, les opps ont perdus la confiance C'est Hayce et V, on vient brouiller toutes les consciences J'reprends tout l'rain-té, Saint-Léonard va pop jusqu'en France Ça pop Paname, Saint-Léonard, ça pop, ça pop Ça vient d'où, c'est quoi ta Audemars ? J't'la prends, j't'la prends Cette baddie twerk direct sur le bar, ça t'choque, ça t'choque Tu t'demandes encore d'où sort le strap, la tchop, la tchop Si ça voit un ennemi, ça l'pop, on va l'fumer comme une clope De loin, j'repère les salopes et depuis qu'ils me voient, ils galopent Les hommes sont forcément mauvais, y a pas pire qu'un te-traî Si j'pouvais, j't'abattrais, tout c'que j'dis, c'est pour de vrai Ça pop, ça pop, pour nous, ça pop Pour vous, ça flop, pour vous, ça flop Ah pour les opps, , un jour ou l'autre, ils sont condamnés Pour l'instant, j'ai envie de faire du flouze J'ai envie de faire du flouze Si j'ai pas mon flingue, tu goûteras au mouse Au mouse Quand les gars voient VT, ils ont la frousse Voient VT, ils ont la frousse Ils savent que pas très loin, y a des cartouches Je sais qu'j'ai merdé mais là j'ai purgé ma sentence J'reviens énervé, les opps ont perdus la confiance C'est Hayce et V, on vient brouiller toutes les consciences J'reprends tout l'rain-té, Saint-Léonard va pop jusqu'en France Ça pop K.W Triple X</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>40 pétasses dans ma loge Du champagne, de lor et alors ? yeah 6 mois javais lmirador dans ma ligne de mire même en dormant J'me repose pas sur mes lauriers J'me jette encore dans la foule yeah Si jveux je fous rien, jai les moyens dgarer ma voiture à la fourrière Vas-y doucement sur mon domper Pétasse fume pas dans la Porsche Le volant ne tourne plus j'ai quatre roues motrices et l'OCTRIS a le shlass sous la gorge D'énergie, de talent, je regorge yeah Je fais chanter les rouges gorges yeah Les étoiles au plafond de la Rolls On assume toutes les épreuves, elles nous forgent yeah Personne na crû en nous à part nous le sourire dun frère est plus cher que vos parures, alors je fais des dou'as pour ta mère qui na pas les moyens de venir au parlu Entassé dans le saloon pelo balafré de l'orteil aux pommettes Calibré comme à sao Paolo, mon zincou m'écrit des Baumettes Go fast peut finir en tonneau Elle prend Molly aux toilettes, affronte la vie ne la fuis pas comme Louis et Marie Antoinette Islem le maître de cérémonie Lemsi le maître de cérémonie Appelle moi le maître de cérémonie Respecte le maître de cérémonieYou might also like</t>
+          <t>40 pétasses dans ma loge Du champagne, de lor et alors ? yeah 6 mois javais lmirador dans ma ligne de mire même en dormant J'me repose pas sur mes lauriers J'me jette encore dans la foule yeah Si jveux je fous rien, jai les moyens dgarer ma voiture à la fourrière Vas-y doucement sur mon domper Pétasse fume pas dans la Porsche Le volant ne tourne plus j'ai quatre roues motrices et l'OCTRIS a le shlass sous la gorge D'énergie, de talent, je regorge yeah Je fais chanter les rouges gorges yeah Les étoiles au plafond de la Rolls On assume toutes les épreuves, elles nous forgent yeah Personne na crû en nous à part nous le sourire dun frère est plus cher que vos parures, alors je fais des dou'as pour ta mère qui na pas les moyens de venir au parlu Entassé dans le saloon pelo balafré de l'orteil aux pommettes Calibré comme à sao Paolo, mon zincou m'écrit des Baumettes Go fast peut finir en tonneau Elle prend Molly aux toilettes, affronte la vie ne la fuis pas comme Louis et Marie Antoinette Islem le maître de cérémonie Lemsi le maître de cérémonie Appelle moi le maître de cérémonie Respecte le maître de cérémonie</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>J'ai luppercut a hurricane petit berbère Trempé dans la sauce américaine sur le terter On veut ken des américaines, heineken verte Danse la salsa porto-ricaine au rythme du revolver Sac d'chez Gucci dans les yeu'z des michtos Dans mon ghetto les misérables tapent les riches Si je tappelle chéri met ta plus belle robe On saient que c'est du bidon car cupidon c'est fait hagar par les microbes Moi jenchaîne les supercheries rien de Fallait réfléchir avant de choisir un algérien ma chérie Chhht Je contacte Kamel par mail envoie sa par le pe-ra pas de l'opéra de Carmen Demande à Karim qu'elles soient blanche, noir ou caramel On les ken sous Jack et les zappent durant le Carême Caramel au schlass, et voila le pilon qu'on emballe Mon regard en dit long sur ma paire de lunettes Ray-Ban It's time to move Time to get loose Anywhere you are It's time to groove Me and you Up down on the floor You might also likeCoi-coi-coiffeur petit dégradé Casque mes sauce pour allez grailler , il me reste du détaillé dans la poche de ma veste Afin d'aider yema pour le loyer YEAH C'est la hess dans la street on fait des extras De la funk à l'électro biko des go y'en a trop qui joue les Carmen Electra Oooh La rue mappelle , du bon vieux temps je me rappelle A peine des poils au zboub de nos bouche ne sortait que le mot paye Khey, life pleine de frayeur à plat ventre dans les plages On verra bien qui sera le meilleur en matière de textes paro' On coupe,plaque,on a la bouche des fauves cache tout dans la bouche des dealeurs par défaut Les cachetons rendent fou les gesh et les trav' sur l'avenue J'arrive et MC tu chiale comme une chienne en garde à vue Official on est filosh par la bac XVII Y'a des Glock , y'a des schlass, y'a des battes pas besoin de biceps It's time to move Time to get loose Anywhere you are It's time to groove Me and you Up down on the floor J'ai la rime et le reste baratine les miss, anonyme sous mes lunettes de soleil Met le son dans la caisse, on va casser ta puce, on va faire des liasses et des liasses d'oseille J'ai la rime et le reste baratine les miss, anonyme sous mes lunettes de soleil Met le son dans la caisse, on va casser ta puce, on va faire des liasses et des liasses d'oseille C'est la vida loca dans mon département 75017 on est 'al comment 1 gramme 7 dans le sang sa prend le volant J'ai la tchatche pour que tu retire tes bas-collant Personne ne met pas de coño Personne ne joue pas les J'ai du biff' un peu de shit, whyski chaud, pepsi Monsieur Hayce Lemsi met tout les rappeurs à poil Paris-Nord arrive bico dédicasse a Track One C'est la vida loca dans mon département 75017 on est 'al come on C'est la vida loca dans mon département 75017 on est 'al come on C'est la vida loca dans mon département 75017 on est 'al come on C'est la vida loca dans mon département 75017 on est 'al come on Des grosse bécane a La Fourche, la Tour, la J Cross les grosses pédales ma chéri Mon équipe n'a rien de fragile O-O-One-Two-Three viva l'Algérie ! Ahahah , alors bico le son il t'a mit bien ou quoi ? Rendez-vous au prochaine épisode sur Planet Hayce Toujours dans les temps, sur tout les fronts C'est Paris-Nord bico Ha-Haysta Luego !</t>
+          <t>J'ai luppercut a hurricane petit berbère Trempé dans la sauce américaine sur le terter On veut ken des américaines, heineken verte Danse la salsa porto-ricaine au rythme du revolver Sac d'chez Gucci dans les yeu'z des michtos Dans mon ghetto les misérables tapent les riches Si je tappelle chéri met ta plus belle robe On saient que c'est du bidon car cupidon c'est fait hagar par les microbes Moi jenchaîne les supercheries rien de Fallait réfléchir avant de choisir un algérien ma chérie Chhht Je contacte Kamel par mail envoie sa par le pe-ra pas de l'opéra de Carmen Demande à Karim qu'elles soient blanche, noir ou caramel On les ken sous Jack et les zappent durant le Carême Caramel au schlass, et voila le pilon qu'on emballe Mon regard en dit long sur ma paire de lunettes Ray-Ban It's time to move Time to get loose Anywhere you are It's time to groove Me and you Up down on the floor Coi-coi-coiffeur petit dégradé Casque mes sauce pour allez grailler , il me reste du détaillé dans la poche de ma veste Afin d'aider yema pour le loyer YEAH C'est la hess dans la street on fait des extras De la funk à l'électro biko des go y'en a trop qui joue les Carmen Electra Oooh La rue mappelle , du bon vieux temps je me rappelle A peine des poils au zboub de nos bouche ne sortait que le mot paye Khey, life pleine de frayeur à plat ventre dans les plages On verra bien qui sera le meilleur en matière de textes paro' On coupe,plaque,on a la bouche des fauves cache tout dans la bouche des dealeurs par défaut Les cachetons rendent fou les gesh et les trav' sur l'avenue J'arrive et MC tu chiale comme une chienne en garde à vue Official on est filosh par la bac XVII Y'a des Glock , y'a des schlass, y'a des battes pas besoin de biceps It's time to move Time to get loose Anywhere you are It's time to groove Me and you Up down on the floor J'ai la rime et le reste baratine les miss, anonyme sous mes lunettes de soleil Met le son dans la caisse, on va casser ta puce, on va faire des liasses et des liasses d'oseille J'ai la rime et le reste baratine les miss, anonyme sous mes lunettes de soleil Met le son dans la caisse, on va casser ta puce, on va faire des liasses et des liasses d'oseille C'est la vida loca dans mon département 75017 on est 'al comment 1 gramme 7 dans le sang sa prend le volant J'ai la tchatche pour que tu retire tes bas-collant Personne ne met pas de coño Personne ne joue pas les J'ai du biff' un peu de shit, whyski chaud, pepsi Monsieur Hayce Lemsi met tout les rappeurs à poil Paris-Nord arrive bico dédicasse a Track One C'est la vida loca dans mon département 75017 on est 'al come on C'est la vida loca dans mon département 75017 on est 'al come on C'est la vida loca dans mon département 75017 on est 'al come on C'est la vida loca dans mon département 75017 on est 'al come on Des grosse bécane a La Fourche, la Tour, la J Cross les grosses pédales ma chéri Mon équipe n'a rien de fragile O-O-One-Two-Three viva l'Algérie ! Ahahah , alors bico le son il t'a mit bien ou quoi ? Rendez-vous au prochaine épisode sur Planet Hayce Toujours dans les temps, sur tout les fronts C'est Paris-Nord bico Ha-Haysta Luego !</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Hayce J'vais poser comme il se doit mon bico Kayz Paris, Wahran, NYC Juston Records, Hayce J'arrive dans le club bitch,Happy Birthday 1, 2, 3, 4 'teilles de Rosay Les lèvres de ma loka ont un gout de fraise Elle est prête à twerker toute la nuit pour mon oseille J'ai la folie des grandeurs je suis VIP Je suis fou de ses rondeurs je l'arrose au Champain' J'met le fire sur la glace All In à Papis Ce soir qui sortira le plus de bouteilles? Je m'exprime devant le gars en dit long Je me demande ce que tu fout dans ma soirée Fait la belle moi j'ai le bras assez long Pour gifler tes fesses depuis mon carré Une étrange mélodie me vient dans la tête et je ne peux m'arrêter de danser Mon bico j'en oublie mes blessures Mais ma présence te rassure Bien-sûr qu'j'assure J'suis sur la côte en Bentley azur J'oublie pas mes racines Algérien j'ai le drapeau facile J'attends pas que le bonheur me fasse signe Mon parcours les fascine J'oublie pas mes racines Algérien j'ai le drapeau facile Et j'ai jamais raté ma cible bitch Triangle d'Or assassine Faut que je le fasse pour mes lokos Faut que je le fasse pour mes lokas x4 Mister Vida Loka -Vida Loka -Vida Loka -Vida Loka You might also like Baby grimpe dans le coupé Si j'te demande sa c'est que jt'estime bien J'suis toujours occupé C'est mon côté palestinien 100'000 Watts dans les oreilles J'fais des turn en McLaren J'suis entre 4 pétasses foreign Tu portes encore du Ralph Lauren Algérien j'ai l'drapeau facile Si c'est une femme flic j'met pas d'vaseline J'les voit défoncer ma porte au bélier depuis lillet d'la voisine J'les laisse lancer des rumeurs J'laisse du riz noir dans l'urinoir De la fourrure de renard J'pose des questions à mon miroir Yeah, ouuuuuuuuuuuuuh Tout le monde est hay, ouuuuuuuuuuuuuh Tout le monde est hay Tout le monde est hay Tout le monde est hay, ouuuuuuuuuuuuuh Tout le monde est fayayaya fayayaya x4 Alleeez x106</t>
+          <t>Hayce J'vais poser comme il se doit mon bico Kayz Paris, Wahran, NYC Juston Records, Hayce J'arrive dans le club bitch,Happy Birthday 1, 2, 3, 4 'teilles de Rosay Les lèvres de ma loka ont un gout de fraise Elle est prête à twerker toute la nuit pour mon oseille J'ai la folie des grandeurs je suis VIP Je suis fou de ses rondeurs je l'arrose au Champain' J'met le fire sur la glace All In à Papis Ce soir qui sortira le plus de bouteilles? Je m'exprime devant le gars en dit long Je me demande ce que tu fout dans ma soirée Fait la belle moi j'ai le bras assez long Pour gifler tes fesses depuis mon carré Une étrange mélodie me vient dans la tête et je ne peux m'arrêter de danser Mon bico j'en oublie mes blessures Mais ma présence te rassure Bien-sûr qu'j'assure J'suis sur la côte en Bentley azur J'oublie pas mes racines Algérien j'ai le drapeau facile J'attends pas que le bonheur me fasse signe Mon parcours les fascine J'oublie pas mes racines Algérien j'ai le drapeau facile Et j'ai jamais raté ma cible bitch Triangle d'Or assassine Faut que je le fasse pour mes lokos Faut que je le fasse pour mes lokas x4 Mister Vida Loka -Vida Loka -Vida Loka -Vida Loka Baby grimpe dans le coupé Si j'te demande sa c'est que jt'estime bien J'suis toujours occupé C'est mon côté palestinien 100'000 Watts dans les oreilles J'fais des turn en McLaren J'suis entre 4 pétasses foreign Tu portes encore du Ralph Lauren Algérien j'ai l'drapeau facile Si c'est une femme flic j'met pas d'vaseline J'les voit défoncer ma porte au bélier depuis lillet d'la voisine J'les laisse lancer des rumeurs J'laisse du riz noir dans l'urinoir De la fourrure de renard J'pose des questions à mon miroir Yeah, ouuuuuuuuuuuuuh Tout le monde est hay, ouuuuuuuuuuuuuh Tout le monde est hay Tout le monde est hay Tout le monde est hay, ouuuuuuuuuuuuuh Tout le monde est fayayaya fayayaya x4 Alleeez x106</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Yeah Quand j'étais petit je voyais les braqueur sur le sol J'ai grandi loin des poules et des champs de tournesols Ont va voler des bouteilles quand ta grandi XXX A l'époque je n'ai que XXX mon avenir aux sort 8 ans j'prend le métro sur le XXX normal Souffre d'hyper activité la daronne en dort mal Psychologue éducateur, et tout le tralala j'ai de la hanouna sur la gueule, j'suis intenable comme d'hab' Et les rho du bindo me demande quel est ton but ? Y'a ceux qui font, et y'a ceux qui bue, et y'a ceux qui se la ferme et ceux qu'ont bute Pour toi ses la XXX ou les XXX J'arrive aux collège, ces l'feu La guerre mondial, 1999 année magistral C'est l'époque des franc, les grands s'régal Qui dit moins de technologie dit plus d'argent salle On en a vue des instincteur tomber des f'nêtre On m'étais le feu aux poubelle pour taper les pompiers des leur arrivais On vivais sur un coup tête La premier fois que j'ai fumer du bédo j'étais mino ta même pas idéeYou might also like</t>
+          <t>Yeah Quand j'étais petit je voyais les braqueur sur le sol J'ai grandi loin des poules et des champs de tournesols Ont va voler des bouteilles quand ta grandi XXX A l'époque je n'ai que XXX mon avenir aux sort 8 ans j'prend le métro sur le XXX normal Souffre d'hyper activité la daronne en dort mal Psychologue éducateur, et tout le tralala j'ai de la hanouna sur la gueule, j'suis intenable comme d'hab' Et les rho du bindo me demande quel est ton but ? Y'a ceux qui font, et y'a ceux qui bue, et y'a ceux qui se la ferme et ceux qu'ont bute Pour toi ses la XXX ou les XXX J'arrive aux collège, ces l'feu La guerre mondial, 1999 année magistral C'est l'époque des franc, les grands s'régal Qui dit moins de technologie dit plus d'argent salle On en a vue des instincteur tomber des f'nêtre On m'étais le feu aux poubelle pour taper les pompiers des leur arrivais On vivais sur un coup tête La premier fois que j'ai fumer du bédo j'étais mino ta même pas idée</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Je n'ai plus confiance en personne, j'ai même des amis qui me trahissent Sur la route du bonheur je klaxonne, sache que toutes les montagnes se gravissent Peur de Dieu, peur de la suite, est-ce que mon cur a pris la fuite? Bordel à l'époque j'étais que dalle, mais aujourd'hui tu payes pour un feat Allez, va t'faire mettre, je compte même plus les couteaux dans l'dos C'est plus du tout comme à l'ancienne, t'ouvre pas ta gueule devant ta go Donc ferme-la quand tes parents se plaignent hey Mon cur a noirci, j't'ai donné mon temps, t'as pas dit merci hey J'crois qu'c'est l'anarchie, la mif est restée, le reste est parti Ils se noient dans la tise, ils attendent que ça s'arrange Petit n'oublie pas tes racines, faut rester collé à ta branche Les temps ont changés, mais ça va tant que c'est pas toi qui a changé Prends sur toi et assume tes erreurs, tout va bien tant que t'as de quoi manger tant que t'as de quoi manger C'est plus comme à l'ancienne, j'kiffe plus l'odeur de la scène Dis-moi qu'est-c'qu'elle veut là-celle, pourquoi mes frères m'ont lâché ? J'ai beau r'garder le ciel, lui demander conseil J'tourne en rond comme carrousel, pourquoi mes surs m'ont lâchées ? Si jle fais cest pour maman À minuit jpète le Henny oh la la Ça sra plus jamais comme avant Jregrette mes plus belles années oh la la You might also like C'est plus comme à l'ancienne, les yeux rouges comme si j'avais vu déflagration dans l'ciel ay La gloire en fait des siennes, c'est pas pour autant qu'on irait changer le nom de l'enseigne Le cur et le corps morts comme, croque-mort, ils sont bons qu'à nous enfoncer comme un clou de cercueil Aucun remord, ils nous donnent contre Hors-bord, ils arrivent devant l'OPJ, c'est le concerto Dring dring ça sonne, garo, Chatterton, ne dors que d'un il, dis moi quelle kehba t'assomme? Les ennemis sont restés patients près du patio, rafale de balles dans la carcasse, Carcassonne ! Je m'inquiète en aucun cas, je voulais te blesser ma sur, j'ai trop peur de partir en couille et délaisser 3Asr aaah Tu veux que j'te rassure, mais ma carrière se résume à des larmes et de la sueur J'avais du sang sur mes jojo', jojo', j'ai mis benda puis j'ai pare choc G.I Joe Si ta fe-meu veut me tsou-tsou, tsou-tsou, j'suis trop loyal et j'lui dit faut que j'y aille Ça voulait passer du mini bar au , mais les grands nous ont fait bosser dans une mine d'or Dehors ou dedans cogitait, m'endormir tard, le mirador a peur de me voir dans le billboard esketit C'est plus comme à l'ancienne, j'kiffe plus l'odeur de la scène Dis-moi qu'est-c'qu'elle veut là-celle, pourquoi mes frères m'ont lâché ? J'ai beau r'garder le ciel, lui demander conseil J'tourne en rond comme carrousel, pourquoi mes surs m'ont lâchées ? Si jle fais cest pour maman À minuit jpète le Henny oh la la Ça sra plus jamais comme avant Jregrette mes plus belles années oh la la</t>
+          <t>Je n'ai plus confiance en personne, j'ai même des amis qui me trahissent Sur la route du bonheur je klaxonne, sache que toutes les montagnes se gravissent Peur de Dieu, peur de la suite, est-ce que mon cur a pris la fuite? Bordel à l'époque j'étais que dalle, mais aujourd'hui tu payes pour un feat Allez, va t'faire mettre, je compte même plus les couteaux dans l'dos C'est plus du tout comme à l'ancienne, t'ouvre pas ta gueule devant ta go Donc ferme-la quand tes parents se plaignent hey Mon cur a noirci, j't'ai donné mon temps, t'as pas dit merci hey J'crois qu'c'est l'anarchie, la mif est restée, le reste est parti Ils se noient dans la tise, ils attendent que ça s'arrange Petit n'oublie pas tes racines, faut rester collé à ta branche Les temps ont changés, mais ça va tant que c'est pas toi qui a changé Prends sur toi et assume tes erreurs, tout va bien tant que t'as de quoi manger tant que t'as de quoi manger C'est plus comme à l'ancienne, j'kiffe plus l'odeur de la scène Dis-moi qu'est-c'qu'elle veut là-celle, pourquoi mes frères m'ont lâché ? J'ai beau r'garder le ciel, lui demander conseil J'tourne en rond comme carrousel, pourquoi mes surs m'ont lâchées ? Si jle fais cest pour maman À minuit jpète le Henny oh la la Ça sra plus jamais comme avant Jregrette mes plus belles années oh la la C'est plus comme à l'ancienne, les yeux rouges comme si j'avais vu déflagration dans l'ciel ay La gloire en fait des siennes, c'est pas pour autant qu'on irait changer le nom de l'enseigne Le cur et le corps morts comme, croque-mort, ils sont bons qu'à nous enfoncer comme un clou de cercueil Aucun remord, ils nous donnent contre Hors-bord, ils arrivent devant l'OPJ, c'est le concerto Dring dring ça sonne, garo, Chatterton, ne dors que d'un il, dis moi quelle kehba t'assomme? Les ennemis sont restés patients près du patio, rafale de balles dans la carcasse, Carcassonne ! Je m'inquiète en aucun cas, je voulais te blesser ma sur, j'ai trop peur de partir en couille et délaisser 3Asr aaah Tu veux que j'te rassure, mais ma carrière se résume à des larmes et de la sueur J'avais du sang sur mes jojo', jojo', j'ai mis benda puis j'ai pare choc G.I Joe Si ta fe-meu veut me tsou-tsou, tsou-tsou, j'suis trop loyal et j'lui dit faut que j'y aille Ça voulait passer du mini bar au , mais les grands nous ont fait bosser dans une mine d'or Dehors ou dedans cogitait, m'endormir tard, le mirador a peur de me voir dans le billboard esketit C'est plus comme à l'ancienne, j'kiffe plus l'odeur de la scène Dis-moi qu'est-c'qu'elle veut là-celle, pourquoi mes frères m'ont lâché ? J'ai beau r'garder le ciel, lui demander conseil J'tourne en rond comme carrousel, pourquoi mes surs m'ont lâchées ? Si jle fais cest pour maman À minuit jpète le Henny oh la la Ça sra plus jamais comme avant Jregrette mes plus belles années oh la la</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Tu la vends c'est même pas d'la pure Allez baise ta mère, moi j'te catapulte Je t'attends, j'suis gainé, j'suis bien trapu Tu pourras t'en prendre qu'à ta pute Pas d'putas, que des grosses crapules Que des gauches droites charcle Tu parles t'as bu ? charcle charcle charcle Quand je pilote, je garde la capuche Ngro, j'casse ma puce direct dans le Brabus brrr brrr On sait pas faire que du grapling Nous on baise les shtars quand ils font trop d'grabuge Living, Parking ou Breitling On prend tout c'que t'as et on laisse pas de paluches Tu comprends que ta peine sera pas si facile Quand ton co s'met des pénaves dans l'cavu cavu DZ toujours invaincu jamais Gros CZ pour les Spartacus brrr brrr Une tempête on m'rattrapera plus J'rime avec des armes et de la vodka russe Avec moi tu fais la grosse tain-pu Avec eux tu fais des gosses, t'abuses You might also likePaname, c'est nous la violence gratuite On t'arrache ta Patek, on nique ton drip Conduite sportive, on connait la street La hess, la dope, le hebs et la SPIP Tellement d'fils de pute au mètre carré C'est pas demain la veille, que j'vais manquer d'inspi Si je gagne pas, j'vais charcler l'arbitre Gros, j'envoie pas d'piques, j'mets que des high kicks Hayce ! Ma clique, l'Afrique on attend qu'la friction BABABAW ! Sale flic, j'te nique si tu fais des t'mniks, j'te BABABAW ! Askip, t'indic', tu veux m'dégommer, le bendo va te BABABAW ! Askip, t'as dit que nanani nanamili BABABAW ! Big Lemsi 17 Hayce hayce hayce hayce...1</t>
+          <t>Tu la vends c'est même pas d'la pure Allez baise ta mère, moi j'te catapulte Je t'attends, j'suis gainé, j'suis bien trapu Tu pourras t'en prendre qu'à ta pute Pas d'putas, que des grosses crapules Que des gauches droites charcle Tu parles t'as bu ? charcle charcle charcle Quand je pilote, je garde la capuche Ngro, j'casse ma puce direct dans le Brabus brrr brrr On sait pas faire que du grapling Nous on baise les shtars quand ils font trop d'grabuge Living, Parking ou Breitling On prend tout c'que t'as et on laisse pas de paluches Tu comprends que ta peine sera pas si facile Quand ton co s'met des pénaves dans l'cavu cavu DZ toujours invaincu jamais Gros CZ pour les Spartacus brrr brrr Une tempête on m'rattrapera plus J'rime avec des armes et de la vodka russe Avec moi tu fais la grosse tain-pu Avec eux tu fais des gosses, t'abuses Paname, c'est nous la violence gratuite On t'arrache ta Patek, on nique ton drip Conduite sportive, on connait la street La hess, la dope, le hebs et la SPIP Tellement d'fils de pute au mètre carré C'est pas demain la veille, que j'vais manquer d'inspi Si je gagne pas, j'vais charcler l'arbitre Gros, j'envoie pas d'piques, j'mets que des high kicks Hayce ! Ma clique, l'Afrique on attend qu'la friction BABABAW ! Sale flic, j'te nique si tu fais des t'mniks, j'te BABABAW ! Askip, t'indic', tu veux m'dégommer, le bendo va te BABABAW ! Askip, t'as dit que nanani nanamili BABABAW ! Big Lemsi 17 Hayce hayce hayce hayce...1</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>AllDay Ton regard de feu s'embrase derrière la vitre, comme si t'avais raté l'dernier navire Je sais c'que tu ressens, j'en ai pleuré du sang, moi aussi, dans l'espoir que la flamme se ravive Moi aussi j'fais parti d'ces enfants oubliés de l'histoire, ceux qu'on a mis d'côté Comme une bougie éteinte qui s'estompe dans le noir dans le square que la gloire a fait miroiter J'pense à ceux qui n'ont qu'les étoiles comme plafond, dotés d'un mental d'acier sans pousser la fonte À se casser le dos, toute une vie pour la France alors, à qui profite le crime ? À qui la faute ? Tous les frères qui sont partis me manquent beaucoup, je sais qu'les grands dirigeants nous mentent beaucoup Mêmes les restos du cur mettent la clé sous la porte et les restaurateurs ont la corde au cou Crouler sous les factures d'une vie pleine d'impôts, le vécu d'un taulard et la tête d'un pauvre Nous, on paie plein pot donc faut charbonner, rouge et bleu comme le giro', les charponnés Jusqu'au dernier souffle, derrière le même pupitre, j'suis Français mais Marianne me répudie Même si tu restes pudique, le Président t'la mettra dans la république Mains vers le ciel, j'espère que demain tout ira bien Ça va aller, ça va aller J'ai perdu du sang, j'ai perdu les miens Mais ça va aller, ça va aller Suis-je né sous la bonne étoile ? Me serais-je trompé de voilier ? Ici c'est la guerre cérébrale, ils veulent rentrer dans mon crâne mais j'ai dit nan, nan, nan, nan Suis-je né sous la bonne étoile ? Me serais-je trompé de voilier ? Ici c'est la guerre cérébrale, ils veulent rentrer dans mon crâne mais j'ai dit nan, nan, nan, nan You might also like À brasser dans un océan d'amertume, j'irai pas dans la direction du vent J'pourrai pas rattraper le temps perdu, j'vais juste arrêter de perdre du temps Les humains sombrent dans la solitude, les humains n'sont bons qu'à se faire du tord Jugé quand t'as grandi sur le bitume, la rue m'a enseigné des règles d'or Discriminé par la PJ, la 36, la crim', la Mondéo Le mirador remplace le minaret, tu ne pourras qu'invoquer le Très-Haut Fils d'indigène devenu indigent, pour avoir raté la diligence Même doué d'intelligence, le pays n'te donne pas toutes tes chances Ça va aller, ça va aller, hein Ça va aller, han, ça va aller Ça va aller Mains vers le ciel, j'espère que demain tout ira bien Ça va aller, ça va aller J'ai perdu du sang, j'ai perdu les miens Mais ça va aller, ça va aller Suis-je né sous la bonne étoile ? Me serais-je trompé de voilier ? Ici c'est la guerre cérébrale, ils veulent rentrer dans mon crâne mais j'ai dit nan, nan, nan, nan Suis-je né sous la bonne étoile ? Me serais-je trompé de voilier ? Ici c'est la guerre cérébrale, ils veulent rentrer dans mon crâne mais j'ai dit nan, nan, nan, nan Suis-je né sous la bonne étoile ? Me serais-je trompé de voilier ? Ici c'est la guerre cérébrale, ils veulent rentrer dans mon crâne mais j'ai dit nan, nan, nan, nan J'ai dit nan, nan, nan, nan</t>
+          <t>AllDay Ton regard de feu s'embrase derrière la vitre, comme si t'avais raté l'dernier navire Je sais c'que tu ressens, j'en ai pleuré du sang, moi aussi, dans l'espoir que la flamme se ravive Moi aussi j'fais parti d'ces enfants oubliés de l'histoire, ceux qu'on a mis d'côté Comme une bougie éteinte qui s'estompe dans le noir dans le square que la gloire a fait miroiter J'pense à ceux qui n'ont qu'les étoiles comme plafond, dotés d'un mental d'acier sans pousser la fonte À se casser le dos, toute une vie pour la France alors, à qui profite le crime ? À qui la faute ? Tous les frères qui sont partis me manquent beaucoup, je sais qu'les grands dirigeants nous mentent beaucoup Mêmes les restos du cur mettent la clé sous la porte et les restaurateurs ont la corde au cou Crouler sous les factures d'une vie pleine d'impôts, le vécu d'un taulard et la tête d'un pauvre Nous, on paie plein pot donc faut charbonner, rouge et bleu comme le giro', les charponnés Jusqu'au dernier souffle, derrière le même pupitre, j'suis Français mais Marianne me répudie Même si tu restes pudique, le Président t'la mettra dans la république Mains vers le ciel, j'espère que demain tout ira bien Ça va aller, ça va aller J'ai perdu du sang, j'ai perdu les miens Mais ça va aller, ça va aller Suis-je né sous la bonne étoile ? Me serais-je trompé de voilier ? Ici c'est la guerre cérébrale, ils veulent rentrer dans mon crâne mais j'ai dit nan, nan, nan, nan Suis-je né sous la bonne étoile ? Me serais-je trompé de voilier ? Ici c'est la guerre cérébrale, ils veulent rentrer dans mon crâne mais j'ai dit nan, nan, nan, nan À brasser dans un océan d'amertume, j'irai pas dans la direction du vent J'pourrai pas rattraper le temps perdu, j'vais juste arrêter de perdre du temps Les humains sombrent dans la solitude, les humains n'sont bons qu'à se faire du tord Jugé quand t'as grandi sur le bitume, la rue m'a enseigné des règles d'or Discriminé par la PJ, la 36, la crim', la Mondéo Le mirador remplace le minaret, tu ne pourras qu'invoquer le Très-Haut Fils d'indigène devenu indigent, pour avoir raté la diligence Même doué d'intelligence, le pays n'te donne pas toutes tes chances Ça va aller, ça va aller, hein Ça va aller, han, ça va aller Ça va aller Mains vers le ciel, j'espère que demain tout ira bien Ça va aller, ça va aller J'ai perdu du sang, j'ai perdu les miens Mais ça va aller, ça va aller Suis-je né sous la bonne étoile ? Me serais-je trompé de voilier ? Ici c'est la guerre cérébrale, ils veulent rentrer dans mon crâne mais j'ai dit nan, nan, nan, nan Suis-je né sous la bonne étoile ? Me serais-je trompé de voilier ? Ici c'est la guerre cérébrale, ils veulent rentrer dans mon crâne mais j'ai dit nan, nan, nan, nan Suis-je né sous la bonne étoile ? Me serais-je trompé de voilier ? Ici c'est la guerre cérébrale, ils veulent rentrer dans mon crâne mais j'ai dit nan, nan, nan, nan J'ai dit nan, nan, nan, nan</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Ce qu'on aime faire Yeah c'est de l'espèce Money, money, money, aucun adversaire Celui qui veux tester n'a qu'à Essayer, essayer, essayer, essayer, essayer, essayer, essayer Essayer, essayer, essayer, essayer, essayer, essayer, essayer Elle a pris ton portable, elle a vu les messages Dis moi c'est qui cette go là ? Réponds moi non faut pas Bégayer, bégayer, bégayer, bégayer, bégayer, bégayer, bégayer Bégayer, bégayer, bégayer, bégayer, bégayer, bégayer, bégayer J'ai pas envie de me barrer Ce soir on s'enjaille Mais viens pas me parler Me prends pas la tête On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer J'ai mis mon dernier parfum J'ai mis mes dernières sapes Aujourd'hui jusqu'à demain Toute la nuit On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer You might also like Je suis pas dans la friendzone, je suis dans la surface Viens rejoindre Abou, Lemsi, S.Pri, Volt Face Pour l'occasion j'ai mis ma tenue la plus classe La Ciroc je la bois, la petite je l'angoisse J'ai croisé la BAC j'étais sur l'allée Alors que je savourais cette gandja Je n'avais même pas mes papiers Ils m'ont sorti de la gove et m'ont Balayé, balayé, balayé, balayé, balayé, balayé, balayé Balayé, balayé, balayé, balayé, balayé, balayé, balayé Moussa m'a dit Tu bouge comme un sénégalais T'es un harbi loko tu connais les bonnes vibes T'as petite a kiffé mon palma regardez Elle m'a dit Hayce non c'est trop là t'as Envoyé, envoyé, envoyé, envoyé, envoyé, envoyé, envoyé Envoyé, envoyé, envoyé, envoyé, envoyé, envoyé, envoyé J'vais te faire bouger la tête Ce soir on fait la fête Bébé je suis toujours le même J'ai pas retourné ma veste Les gens parlent sur moi mais je calcule pas On est trop côtés sur ris-Pa J'peux être romantique tah les ritales Mais si tu me trompe chérie tu va Dégager, dégager, dégager, dégager, dégager, dégager, dégager Dégager, dégager, dégager, dégager, dégager, dégager, dégager J'ai pas envie de me barrer Ce soir on s'enjaille Mais viens pas me parler Me prends pas la tête On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer J'ai mis mon dernier parfum J'ai mis mes dernières sapes Aujourd'hui jusqu'à demain Toute la nuit On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer Han mon ami, laisse moi ton verre allons trinquer Mamacita, viens sur la piste allons danser Détends toi papy, S Pri, Tall, Volt, Hayce dans le club J'veux pas qu'elle bégaye je lemmène au fumoir prendre une clope N'écoute pas ce que l'ont dit, j'arrive et All Eyes On Me Ta go se déhanche comme au K.O.D Ce soir on va picoler, picoler jusqu'à que tout le monde soit die Envoyer, envoyer jusqu'à que tout le monde soit die On vient pour tout plier, tout plier t'as capté le bail J'ai pas envie de me barrer Ce soir on s'enjaille Mais viens pas me parler Me prends pas la tête Célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer Célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer J'ai pas envie de me barrer Ce soir on s'enjaille Mais viens pas me parler Me prends pas la tête On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer J'ai mis mon dernier parfum J'ai mis mes dernières sapes Aujourd'hui jusqu'à demain Toute la nuit On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer</t>
+          <t>Ce qu'on aime faire Yeah c'est de l'espèce Money, money, money, aucun adversaire Celui qui veux tester n'a qu'à Essayer, essayer, essayer, essayer, essayer, essayer, essayer Essayer, essayer, essayer, essayer, essayer, essayer, essayer Elle a pris ton portable, elle a vu les messages Dis moi c'est qui cette go là ? Réponds moi non faut pas Bégayer, bégayer, bégayer, bégayer, bégayer, bégayer, bégayer Bégayer, bégayer, bégayer, bégayer, bégayer, bégayer, bégayer J'ai pas envie de me barrer Ce soir on s'enjaille Mais viens pas me parler Me prends pas la tête On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer J'ai mis mon dernier parfum J'ai mis mes dernières sapes Aujourd'hui jusqu'à demain Toute la nuit On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer Je suis pas dans la friendzone, je suis dans la surface Viens rejoindre Abou, Lemsi, S.Pri, Volt Face Pour l'occasion j'ai mis ma tenue la plus classe La Ciroc je la bois, la petite je l'angoisse J'ai croisé la BAC j'étais sur l'allée Alors que je savourais cette gandja Je n'avais même pas mes papiers Ils m'ont sorti de la gove et m'ont Balayé, balayé, balayé, balayé, balayé, balayé, balayé Balayé, balayé, balayé, balayé, balayé, balayé, balayé Moussa m'a dit Tu bouge comme un sénégalais T'es un harbi loko tu connais les bonnes vibes T'as petite a kiffé mon palma regardez Elle m'a dit Hayce non c'est trop là t'as Envoyé, envoyé, envoyé, envoyé, envoyé, envoyé, envoyé Envoyé, envoyé, envoyé, envoyé, envoyé, envoyé, envoyé J'vais te faire bouger la tête Ce soir on fait la fête Bébé je suis toujours le même J'ai pas retourné ma veste Les gens parlent sur moi mais je calcule pas On est trop côtés sur ris-Pa J'peux être romantique tah les ritales Mais si tu me trompe chérie tu va Dégager, dégager, dégager, dégager, dégager, dégager, dégager Dégager, dégager, dégager, dégager, dégager, dégager, dégager J'ai pas envie de me barrer Ce soir on s'enjaille Mais viens pas me parler Me prends pas la tête On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer J'ai mis mon dernier parfum J'ai mis mes dernières sapes Aujourd'hui jusqu'à demain Toute la nuit On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer Han mon ami, laisse moi ton verre allons trinquer Mamacita, viens sur la piste allons danser Détends toi papy, S Pri, Tall, Volt, Hayce dans le club J'veux pas qu'elle bégaye je lemmène au fumoir prendre une clope N'écoute pas ce que l'ont dit, j'arrive et All Eyes On Me Ta go se déhanche comme au K.O.D Ce soir on va picoler, picoler jusqu'à que tout le monde soit die Envoyer, envoyer jusqu'à que tout le monde soit die On vient pour tout plier, tout plier t'as capté le bail J'ai pas envie de me barrer Ce soir on s'enjaille Mais viens pas me parler Me prends pas la tête Célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer Célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer J'ai pas envie de me barrer Ce soir on s'enjaille Mais viens pas me parler Me prends pas la tête On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer J'ai mis mon dernier parfum J'ai mis mes dernières sapes Aujourd'hui jusqu'à demain Toute la nuit On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer On va célébrer, célébrer, célébrer, célébrer, célébrer, célébrer, célébrer</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>1030 j'me réveille, p'tit doré, p'tit ménage J'laisse toujours le lit du haut pour le bikow qu'emménage Trois-cent pompes avant la gamelle, cinquantaine les deux paquets d'Camel Mets ta baguette, on est mardi, l'auxi' passe pour le linge J'écris vint mesures de rage, j'récupère ma consolation, tue la barre J'cours un peu histoire de réduire la consommation d'mes rapaces J'récupère un colis dans la promenade, j'fais la passe à mon co', j'me fais crever par le gradé, j'ai la poisse À mon tour au mitard, dès que j'sors, j'la recoupe au Bigard J'ai accords de guitare, effiloche un oligarque, Lyca' mobile, un peu d'liquide, une équipe, on y va Rah RDV 1530 avec amore mia, j'lui fais l'amour, elle prend des risques pour moi Ma peine s'écourte chaque fois qu'elle vient twerk pour moi Dès qu'j'sors, j'l'emmène à Dubaï et Atlanta Tu parles mal à la f'nêtre, demain, j'te fais ta fête Laisse mon pénave à la nounou pour un tête-à-tête Y aura pas d'représailles si j'te laisse par terre, sale pute, si j'te laisse un gros cratère Le 3esses a des airs de raciste, y a qu'la mif' et les vrais qui m'assistent J'suis comme bloqué dans la chrysalide, c'est la crise, on a l'habitude, c'est la street, mon ami J'suis en cellule comme dans l'binks Tenir la cellule ou la promenade ? Promenade, parlu, première presse J'attends que la drogue remonte du parloir J'attends plus tes PCS, maison d'arrêt mon adresse J'suis en cellule comme dans l'binks Le surveillant n'a plus aucun pouvoir J'suis en cellule comme dans l'binks Tenir la cellule ou la promenade ? Promenade, parlu, première presse J'attends que la drogue remonte du parloir J'attends plus tes PCS, maison d'arrêt mon adresse J'suis en cellule comme dans l'binks Le surveillant n'a plus aucun pouvoir You might also like Zéro dans l'pécule, j'vais tous les hagar, bloc de shit entre les fesses, j'm'en sors en racaille Ambiance , ici, pas d'rafale, ça t'patate en promenade quand ça t'baise ta femme J'ai pas vu d'rappeur, l'aumônier, j'lui fais des rappels Poto, tu t'rappelles ? C'est nous les rapaces, on contrôle la pièce Tu nous verras pas, la routine, j'suis à l'aise là où les rats passent J'attends mon parrain, enculé, ramasse, ça t'arrache ta place comme des piranhas Écroué, j'm'affranchis de leur pyramide, tyrannie d'la promenade, t'auras plus nada Et par Albator, l'avocat m'adore, le front sur le sol, j'attends qu'on m'libère Crois pas qu'on hiberne, que des maudits, frère, la rage au parloir, c'est ça nos vies d'merde Maison d'arrêt, CD, j'pourrai jamais céder, la prison, c'est dur car la prison, c'est nous T'arrêtes pas quand on tourne, un regard et c'est bon On parle avec les jnouns, on graille avec les loups La grâce de Dieu t'a donné la vie, la crasse des lieux peut t'donner la mort Invoque en cellule, pense à ton avenir, 92i, drapeau noir, ils sont dans la merde Dans la merde, dans la merde</t>
+          <t>1030 j'me réveille, p'tit doré, p'tit ménage J'laisse toujours le lit du haut pour le bikow qu'emménage Trois-cent pompes avant la gamelle, cinquantaine les deux paquets d'Camel Mets ta baguette, on est mardi, l'auxi' passe pour le linge J'écris vint mesures de rage, j'récupère ma consolation, tue la barre J'cours un peu histoire de réduire la consommation d'mes rapaces J'récupère un colis dans la promenade, j'fais la passe à mon co', j'me fais crever par le gradé, j'ai la poisse À mon tour au mitard, dès que j'sors, j'la recoupe au Bigard J'ai accords de guitare, effiloche un oligarque, Lyca' mobile, un peu d'liquide, une équipe, on y va Rah RDV 1530 avec amore mia, j'lui fais l'amour, elle prend des risques pour moi Ma peine s'écourte chaque fois qu'elle vient twerk pour moi Dès qu'j'sors, j'l'emmène à Dubaï et Atlanta Tu parles mal à la f'nêtre, demain, j'te fais ta fête Laisse mon pénave à la nounou pour un tête-à-tête Y aura pas d'représailles si j'te laisse par terre, sale pute, si j'te laisse un gros cratère Le 3esses a des airs de raciste, y a qu'la mif' et les vrais qui m'assistent J'suis comme bloqué dans la chrysalide, c'est la crise, on a l'habitude, c'est la street, mon ami J'suis en cellule comme dans l'binks Tenir la cellule ou la promenade ? Promenade, parlu, première presse J'attends que la drogue remonte du parloir J'attends plus tes PCS, maison d'arrêt mon adresse J'suis en cellule comme dans l'binks Le surveillant n'a plus aucun pouvoir J'suis en cellule comme dans l'binks Tenir la cellule ou la promenade ? Promenade, parlu, première presse J'attends que la drogue remonte du parloir J'attends plus tes PCS, maison d'arrêt mon adresse J'suis en cellule comme dans l'binks Le surveillant n'a plus aucun pouvoir Zéro dans l'pécule, j'vais tous les hagar, bloc de shit entre les fesses, j'm'en sors en racaille Ambiance , ici, pas d'rafale, ça t'patate en promenade quand ça t'baise ta femme J'ai pas vu d'rappeur, l'aumônier, j'lui fais des rappels Poto, tu t'rappelles ? C'est nous les rapaces, on contrôle la pièce Tu nous verras pas, la routine, j'suis à l'aise là où les rats passent J'attends mon parrain, enculé, ramasse, ça t'arrache ta place comme des piranhas Écroué, j'm'affranchis de leur pyramide, tyrannie d'la promenade, t'auras plus nada Et par Albator, l'avocat m'adore, le front sur le sol, j'attends qu'on m'libère Crois pas qu'on hiberne, que des maudits, frère, la rage au parloir, c'est ça nos vies d'merde Maison d'arrêt, CD, j'pourrai jamais céder, la prison, c'est dur car la prison, c'est nous T'arrêtes pas quand on tourne, un regard et c'est bon On parle avec les jnouns, on graille avec les loups La grâce de Dieu t'a donné la vie, la crasse des lieux peut t'donner la mort Invoque en cellule, pense à ton avenir, 92i, drapeau noir, ils sont dans la merde Dans la merde, dans la merde</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Ces rebeux croient qu'c'est terminé Laisse-les c'est que l'début Hahahaha Big Hayce Big Lemsi Grr-Pah Ouais la rue Ouais la rue Daim, bro Essuie tes pieds quand tu passes la porte Laisse un post-it quand tu t'passes la corde Pas de menaces on te charcle l'aorte Tellement de fumée qu'on casse la hotte J'demande pas l'heure à des Si elle est pudique dans ses trends, ça va On n'est jamais trop savant J't'assure qu'on fait jamais trop d'Salaat Ces bikows n'me passent pas trop l'Salam On ne nettoie jamais trop sa lame Dans l'filtré y a trop d'salopes Que ça complote si t'as trop d'salade Ligoteur et proxénète Te perce tes rotules et la prostate Rien n'sert de faire le Jason Statham Une balle et c'est fini la Boxe Thaï You might also like T'auras beau doubler le cup Tu verras qu'ils ne racontent que des caps, wow Mon ingé n'fait pas que des cuts La femme de ma vie n'fait pas que des pâtes, wow Une pas deux, j'rallume le, havanna Y a pas de, nanani, nanana Sont pleins de, cocaïne, de GLE pour toi, Beyonce Personne sait écrire, tout le monde sait pper-ra L'ancien t'es aigri tu boycott tu paiera J'ai commencé dans le binks en New Era J'aime les livres, la peinture, l'Opera Autour de ton block j'fais des timelaps Riov Music c'est la castagne Shout Out Archad et la Caste Life On charbonne pour plus guetter les price tag Ma bite à per-cou qu't'es une grosse pookie J'viendrais t'niquer ta mère jusqu'à Barcelone J'ai fait la guerre dans la rue comme J'suis un Château Margaux t'es de l'Eau de Cologne J'me passerai volontiers de tes accolades Plus ils sont lâches plus ils passent de la pommade La proc' n'aime pas les nomades à la peau mate J'irai juste piétinner Palmade en promenade Elle fait la kehba sur TikTok Elle sait que tout le game se fait ying by me Mon triangle est loin d'celui des Pink Floyd Et j'vais serrer ton ou-c si tu look like me Y a du sang d'Colomb sur la blanche Colombe Pas d'certifs' et tu t'prend pour Central Cee Rebeu si tu t'sens aud-ch, come on Traqueur sous un gamos de la centrale Suisse Sorti du Woo comme le P-I-S-P-A Sont démodés comme PES Je les P-I-S-T-E dans la tess comme Fredo Santana J'suis en Audi S Grr-Pah J'respire le talent d'Alger bro J'te laisse dans tes calculs algébriques J'ai changé tu vois pas l'jet d'eau Depuis qu'j'ai repris l'indé' mon retour s'ébruite Intra-muros comme le Oxmo Cultivé comme si j'avais fait Oxford Ça parle de cavale avec un autre passeport T'es pas crédible comme un coach pastor Des illets-bi en plis tah YMCMB La concu' sous ma tous à douze dans un AirBnB Belouizded J'les ai tellement baisé qu'j'peux que souhaiter longue vie à mon pire ennemi On bosse on n'est pas des fêtards, han Garde avant position ftale, han Que du violet comme les Lakers T'as pas ouehda comme les haters Ma bite à per-cou qu't'es une grosse pookie J'viendrais t'niquer ta mère jusqu'à Barcelone J'ai fait la guerre dans la rue comme J'suis un Château Margaux t'es de l'Eau de Cologne Sorti du Woo comme le P-I-S-P-A Sont démodés comme PES Je les P-I-S-T-E dans la tess comme Fredo Santana J'suis en Audi S</t>
+          <t>Ces rebeux croient qu'c'est terminé Laisse-les c'est que l'début Hahahaha Big Hayce Big Lemsi Grr-Pah Ouais la rue Ouais la rue Daim, bro Essuie tes pieds quand tu passes la porte Laisse un post-it quand tu t'passes la corde Pas de menaces on te charcle l'aorte Tellement de fumée qu'on casse la hotte J'demande pas l'heure à des Si elle est pudique dans ses trends, ça va On n'est jamais trop savant J't'assure qu'on fait jamais trop d'Salaat Ces bikows n'me passent pas trop l'Salam On ne nettoie jamais trop sa lame Dans l'filtré y a trop d'salopes Que ça complote si t'as trop d'salade Ligoteur et proxénète Te perce tes rotules et la prostate Rien n'sert de faire le Jason Statham Une balle et c'est fini la Boxe Thaï T'auras beau doubler le cup Tu verras qu'ils ne racontent que des caps, wow Mon ingé n'fait pas que des cuts La femme de ma vie n'fait pas que des pâtes, wow Une pas deux, j'rallume le, havanna Y a pas de, nanani, nanana Sont pleins de, cocaïne, de GLE pour toi, Beyonce Personne sait écrire, tout le monde sait pper-ra L'ancien t'es aigri tu boycott tu paiera J'ai commencé dans le binks en New Era J'aime les livres, la peinture, l'Opera Autour de ton block j'fais des timelaps Riov Music c'est la castagne Shout Out Archad et la Caste Life On charbonne pour plus guetter les price tag Ma bite à per-cou qu't'es une grosse pookie J'viendrais t'niquer ta mère jusqu'à Barcelone J'ai fait la guerre dans la rue comme J'suis un Château Margaux t'es de l'Eau de Cologne J'me passerai volontiers de tes accolades Plus ils sont lâches plus ils passent de la pommade La proc' n'aime pas les nomades à la peau mate J'irai juste piétinner Palmade en promenade Elle fait la kehba sur TikTok Elle sait que tout le game se fait ying by me Mon triangle est loin d'celui des Pink Floyd Et j'vais serrer ton ou-c si tu look like me Y a du sang d'Colomb sur la blanche Colombe Pas d'certifs' et tu t'prend pour Central Cee Rebeu si tu t'sens aud-ch, come on Traqueur sous un gamos de la centrale Suisse Sorti du Woo comme le P-I-S-P-A Sont démodés comme PES Je les P-I-S-T-E dans la tess comme Fredo Santana J'suis en Audi S Grr-Pah J'respire le talent d'Alger bro J'te laisse dans tes calculs algébriques J'ai changé tu vois pas l'jet d'eau Depuis qu'j'ai repris l'indé' mon retour s'ébruite Intra-muros comme le Oxmo Cultivé comme si j'avais fait Oxford Ça parle de cavale avec un autre passeport T'es pas crédible comme un coach pastor Des illets-bi en plis tah YMCMB La concu' sous ma tous à douze dans un AirBnB Belouizded J'les ai tellement baisé qu'j'peux que souhaiter longue vie à mon pire ennemi On bosse on n'est pas des fêtards, han Garde avant position ftale, han Que du violet comme les Lakers T'as pas ouehda comme les haters Ma bite à per-cou qu't'es une grosse pookie J'viendrais t'niquer ta mère jusqu'à Barcelone J'ai fait la guerre dans la rue comme J'suis un Château Margaux t'es de l'Eau de Cologne Sorti du Woo comme le P-I-S-P-A Sont démodés comme PES Je les P-I-S-T-E dans la tess comme Fredo Santana J'suis en Audi S</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>I.K.B.A.L, Hayce Lemsi Allez dire à Jay-Z que les vrais négros de Paris sont ici Dis-leur que les vrais bicos de Paris sont ici Les vrais Marseillais sont ici, Marseille, Sopra'M'Baba Tu veux la guerre, on est dispo Cla-claque des dents On est chargé, on a ce qu'il faut Cla-claque des dents Quand on arrive, ils ont chaud Cla-claque des dents Tu peux pas test les kings du ghetto Cla-claque des dents, cla-claque des dents, cla-claque des dents V'là l'équipe qui te met la pression Cla-claque des dents, cla-claque des dents, cla-claque des dents T'es dépassé, subis l'agression Cruel comme une rafale dans une marche silencieuse Drive by lyricale, c'est I.K l'auto-mitrailleuse Pas de virgule, que des poings dans ta gueule Réaction de rajeul, sortez les linceuls, que la Crim' se rince l'oeil Ta vie vaut le prix d'une kalash, tu fuis Plie les bagages quand j'suis dans les parages J'refroidis ton tempérament, oh j'suis fou, j'rends malade Le médicament, tu serais dead si ça te ne tenait qu'à moi Cours plus vite que les balles ou renvoie-les comme Nadal Ils veulent du sang, ils veulent du sale J'aggrave leur pronostic vital Un flow de schyzo, de baisé mental dans mon champ de vision Disons que personne nous égale, hagra musicale On te brise tes cervicales Tes primates vont courir plus vite que Bolt Usain T'es pas à l'abri de te faire braqu', arracher tes grosse chaînes 2Chainz On te nique ta mère comme Kool Shen On est trop foncé comme mes dy-Men, et mes Doumbia Les pilliers se mangent des coups de tibia, ça rappe archi-bien You might also like Tu veux la guerre, on est dispo Cla-claque des dents On est chargé, on a ce qu'il faut Cla-claque des dents Quand on arrive, ils ont chaud Cla-claque des dents Tu peux pas test les kings du ghetto Cla-claque des dents, cla-claque des dents, cla-claque des dents V'là l'équipe qui te met la pression Cla-claque des dents, cla-claque des dents, cla-claque des dents T'es dépassé, subis l'agression Ce n'est qu'la première mesure et j'entends déjà claquer des dents Cla-cla-claquer des dents, boy Mes phases ont des mains de maçon, donc MC Prends des claques et tais-toi, cla-cla-claques et tais-toi, boy Sopra'M'Baba, XXX, toujours là pour découper toutes les prods qu'on nous propose Voilà pourquoi tu claques des dents Quand je fais de la boxe avec les mots comme Borsalino, comme Tarantino Du sang tapisse le studio, argh, ce soir appelle-moi Sopra Django Je n'ai que l'infini comme limite Les mélodies d'une kalash vocale font mes gimmicks Pas de mimiques, pas de que tminiks pour mon public Dans mes lyrics, même ego trip, j'fais de XXX, j'brise les côtes d'un Fenwick XXX, tu finis quand je débite, quand j'te lapide avec des rimes Qui découpent à la scie les MC's à la Hayce Lemsi Asseyez-vous ici sur cette chaise éléctrique, que je vous mette au courant de qui est le king M'Baba ! Tu veux la guerre, on est dispo Cla-claque des dents On est chargé, on a ce qu'il faut Cla-claque des dents Quand on arrive, ils ont chaud Cla-claque des dents Tu peux pas test les kings du ghetto Cla-claque des dents, cla-claque des dents, cla-claque des dents V'là l'équipe qui te met la pression Cla-claque des dents, cla-claque des dents, cla-claque des dents T'es dépassé, subis l'agression Tu crains mes bicos 1, 2, 3, 4 claquements de porte On entend tes chicos s'entrechoquer contre le pare-chocs du Clio Rafale de balles tombent en averse, te traversent S'il s'avère que le commissaire te soutirait des tuyaux J'te j'te j'te hagar sur le champ, elles connaissent le style du champagne, le chiffre de la chambre elle et sa copine Des ces putes enfarinées ne peut me freiner XXX XXX par un rythme effréné, bico Tu parles de murda, p'tit merdeux Tu fais moins le nerveux quand j'te rackette jusqu'au dernier mme-gra Ton ne-crâ sous mes requins, envie d'immoler un CRS Le laisser flamber sous mon air hautain J'suis dans l'ombre comme Alain, j'te fais bouffer le bitume sur un beat américain Demande à Baba ou Ikbal on va te couper tes cordes vocales si tu le mérites hein De la force de frappe, de la folie dans les veines Cla-cla-cla-claque des dents J'te défonce le crâne, de l'euphorie dans les nerfs Cla-cla-cla-clash que j'te rentre dedans Tu veux la guerre, on est dispo Cla-claque des dents On est chargé, on a ce qu'il faut Cla-claque des dents Quand on arrive, ils ont chaud Cla-claque des dents Tu peux pas test les kings du ghetto Cla-claque des dents, cla-claque des dents, cla-claque des dents V'là l'équipe qui te met la pression Cla-claque des dents, cla-claque des dents, cla-claque des dents T'es dépassé, subis l'agression2</t>
+          <t>I.K.B.A.L, Hayce Lemsi Allez dire à Jay-Z que les vrais négros de Paris sont ici Dis-leur que les vrais bicos de Paris sont ici Les vrais Marseillais sont ici, Marseille, Sopra'M'Baba Tu veux la guerre, on est dispo Cla-claque des dents On est chargé, on a ce qu'il faut Cla-claque des dents Quand on arrive, ils ont chaud Cla-claque des dents Tu peux pas test les kings du ghetto Cla-claque des dents, cla-claque des dents, cla-claque des dents V'là l'équipe qui te met la pression Cla-claque des dents, cla-claque des dents, cla-claque des dents T'es dépassé, subis l'agression Cruel comme une rafale dans une marche silencieuse Drive by lyricale, c'est I.K l'auto-mitrailleuse Pas de virgule, que des poings dans ta gueule Réaction de rajeul, sortez les linceuls, que la Crim' se rince l'oeil Ta vie vaut le prix d'une kalash, tu fuis Plie les bagages quand j'suis dans les parages J'refroidis ton tempérament, oh j'suis fou, j'rends malade Le médicament, tu serais dead si ça te ne tenait qu'à moi Cours plus vite que les balles ou renvoie-les comme Nadal Ils veulent du sang, ils veulent du sale J'aggrave leur pronostic vital Un flow de schyzo, de baisé mental dans mon champ de vision Disons que personne nous égale, hagra musicale On te brise tes cervicales Tes primates vont courir plus vite que Bolt Usain T'es pas à l'abri de te faire braqu', arracher tes grosse chaînes 2Chainz On te nique ta mère comme Kool Shen On est trop foncé comme mes dy-Men, et mes Doumbia Les pilliers se mangent des coups de tibia, ça rappe archi-bien Tu veux la guerre, on est dispo Cla-claque des dents On est chargé, on a ce qu'il faut Cla-claque des dents Quand on arrive, ils ont chaud Cla-claque des dents Tu peux pas test les kings du ghetto Cla-claque des dents, cla-claque des dents, cla-claque des dents V'là l'équipe qui te met la pression Cla-claque des dents, cla-claque des dents, cla-claque des dents T'es dépassé, subis l'agression Ce n'est qu'la première mesure et j'entends déjà claquer des dents Cla-cla-claquer des dents, boy Mes phases ont des mains de maçon, donc MC Prends des claques et tais-toi, cla-cla-claques et tais-toi, boy Sopra'M'Baba, XXX, toujours là pour découper toutes les prods qu'on nous propose Voilà pourquoi tu claques des dents Quand je fais de la boxe avec les mots comme Borsalino, comme Tarantino Du sang tapisse le studio, argh, ce soir appelle-moi Sopra Django Je n'ai que l'infini comme limite Les mélodies d'une kalash vocale font mes gimmicks Pas de mimiques, pas de que tminiks pour mon public Dans mes lyrics, même ego trip, j'fais de XXX, j'brise les côtes d'un Fenwick XXX, tu finis quand je débite, quand j'te lapide avec des rimes Qui découpent à la scie les MC's à la Hayce Lemsi Asseyez-vous ici sur cette chaise éléctrique, que je vous mette au courant de qui est le king M'Baba ! Tu veux la guerre, on est dispo Cla-claque des dents On est chargé, on a ce qu'il faut Cla-claque des dents Quand on arrive, ils ont chaud Cla-claque des dents Tu peux pas test les kings du ghetto Cla-claque des dents, cla-claque des dents, cla-claque des dents V'là l'équipe qui te met la pression Cla-claque des dents, cla-claque des dents, cla-claque des dents T'es dépassé, subis l'agression Tu crains mes bicos 1, 2, 3, 4 claquements de porte On entend tes chicos s'entrechoquer contre le pare-chocs du Clio Rafale de balles tombent en averse, te traversent S'il s'avère que le commissaire te soutirait des tuyaux J'te j'te j'te hagar sur le champ, elles connaissent le style du champagne, le chiffre de la chambre elle et sa copine Des ces putes enfarinées ne peut me freiner XXX XXX par un rythme effréné, bico Tu parles de murda, p'tit merdeux Tu fais moins le nerveux quand j'te rackette jusqu'au dernier mme-gra Ton ne-crâ sous mes requins, envie d'immoler un CRS Le laisser flamber sous mon air hautain J'suis dans l'ombre comme Alain, j'te fais bouffer le bitume sur un beat américain Demande à Baba ou Ikbal on va te couper tes cordes vocales si tu le mérites hein De la force de frappe, de la folie dans les veines Cla-cla-cla-claque des dents J'te défonce le crâne, de l'euphorie dans les nerfs Cla-cla-cla-clash que j'te rentre dedans Tu veux la guerre, on est dispo Cla-claque des dents On est chargé, on a ce qu'il faut Cla-claque des dents Quand on arrive, ils ont chaud Cla-claque des dents Tu peux pas test les kings du ghetto Cla-claque des dents, cla-claque des dents, cla-claque des dents V'là l'équipe qui te met la pression Cla-claque des dents, cla-claque des dents, cla-claque des dents T'es dépassé, subis l'agression2</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Tout est faussé comme la mort d'Michael Jackson, ils sont tous là pour le clout J'suis là s'il faut qu'le rap game s'prenne une claque, j'suis monté sur les planches avec le flow d'Iverson Averse de Moët Chandon dans son brushing, j'vais la smasher, la laisser dans la bre-cham Ils vendent pas du bon shit le tampon c'est bronchite, ils sont montés sur le bre-chi des méchants glock a dégainé sa hargne, le rebeu est gainé, la be-bar est grainée Nerveux comme à Grigny, ni besoin d'un gri-gri ou d'un gab' de grizzly pour ls faire regrettr Le bruit des grêlons sur le capot d'la Bugatti, j'mets quelques à-coups juste avant d'la garer Le silence des me-ar, l'arsenal est calé, c'est Young Abu Dhabi bro you know I got it I'm ballin I'm ballin les gratteurs, du balais, j'viens d'finir le palais, j'veux même pas leur parler J'suis bien accompagné de Paname au Panier, la kalash étoilée rafale sur ton palier han J'étais là bien avant tous ces pédés, j'suis Pepele, pour les mêler, j'vais récupérer leur bénef Petit j'étais pété, j'allais guetter pour le TP, taper cambu, finissais la nuit à L F, G C'est des phénomènes éphémères, j'suis un fennec, j'ai la folie des grandeurs j'ai même fait l'amour à des femens T'es là quand l'champagne a pété pédé profiteur, où t'étais quand j'portais le même ensemble toute la semaine ? Si tu m'connaissais par cur, tu saurais que j'n'ai pas d'cur Si tu m'connaissais par cur, tu saurais que j'n'ai pas d'cur Le pêché d'une honnête femme ne vaudra pas l'honnêteté d'une pécheresse Cultivé malgré la sécheresse du béton j'ai quitté l'école pour les Bescherelle Epicurien malgré moi j'pense qu'à crever les yeux des plus curieux On s'aime, se texte, on sexe et puis plus rien, la rupture viendra du plus furieux Le temps est pluvieux le climat est glacial, les baltringues se plient face aux spartiates On dit qu'les hommes viennent de Mars, que les femmes débarquent de Venus en vaisseau spatial J'suis pas sorti d'la cuisse de Jupiter, à chaque malheur j'les entends jubiler Jaune et violet couleurs de mes billets, j'les ai vues se plier, m'supplier pour un facial J'ai vendu l'funérarium pour emmener ma mignonne dans l'solarium J'n'ai pas trouvé ma lionne, started from the bottom, j'suis un bonhomme Started from the bottom, j'suis un bonhomme, ils rêvent de m'voir courir à ma perte J'n'ai pas de modèle, pas d'idole, j'vous emmerde, moi, j'veux ressembler à mon père J'ignore encore c'que j'vais dire à mes gosses à part ne prenez jamais la grosse tête Si tu critiques son physique parce qu'elle est grosse, en vérité, c'est bien toi la grosse merde ! You might also like Oui, l'humain est mauvais Oui, l'humain est mauvais Tellement mauvais, tellement mauvais Olala, olalax2 Hayce</t>
+          <t>Tout est faussé comme la mort d'Michael Jackson, ils sont tous là pour le clout J'suis là s'il faut qu'le rap game s'prenne une claque, j'suis monté sur les planches avec le flow d'Iverson Averse de Moët Chandon dans son brushing, j'vais la smasher, la laisser dans la bre-cham Ils vendent pas du bon shit le tampon c'est bronchite, ils sont montés sur le bre-chi des méchants glock a dégainé sa hargne, le rebeu est gainé, la be-bar est grainée Nerveux comme à Grigny, ni besoin d'un gri-gri ou d'un gab' de grizzly pour ls faire regrettr Le bruit des grêlons sur le capot d'la Bugatti, j'mets quelques à-coups juste avant d'la garer Le silence des me-ar, l'arsenal est calé, c'est Young Abu Dhabi bro you know I got it I'm ballin I'm ballin les gratteurs, du balais, j'viens d'finir le palais, j'veux même pas leur parler J'suis bien accompagné de Paname au Panier, la kalash étoilée rafale sur ton palier han J'étais là bien avant tous ces pédés, j'suis Pepele, pour les mêler, j'vais récupérer leur bénef Petit j'étais pété, j'allais guetter pour le TP, taper cambu, finissais la nuit à L F, G C'est des phénomènes éphémères, j'suis un fennec, j'ai la folie des grandeurs j'ai même fait l'amour à des femens T'es là quand l'champagne a pété pédé profiteur, où t'étais quand j'portais le même ensemble toute la semaine ? Si tu m'connaissais par cur, tu saurais que j'n'ai pas d'cur Si tu m'connaissais par cur, tu saurais que j'n'ai pas d'cur Le pêché d'une honnête femme ne vaudra pas l'honnêteté d'une pécheresse Cultivé malgré la sécheresse du béton j'ai quitté l'école pour les Bescherelle Epicurien malgré moi j'pense qu'à crever les yeux des plus curieux On s'aime, se texte, on sexe et puis plus rien, la rupture viendra du plus furieux Le temps est pluvieux le climat est glacial, les baltringues se plient face aux spartiates On dit qu'les hommes viennent de Mars, que les femmes débarquent de Venus en vaisseau spatial J'suis pas sorti d'la cuisse de Jupiter, à chaque malheur j'les entends jubiler Jaune et violet couleurs de mes billets, j'les ai vues se plier, m'supplier pour un facial J'ai vendu l'funérarium pour emmener ma mignonne dans l'solarium J'n'ai pas trouvé ma lionne, started from the bottom, j'suis un bonhomme Started from the bottom, j'suis un bonhomme, ils rêvent de m'voir courir à ma perte J'n'ai pas de modèle, pas d'idole, j'vous emmerde, moi, j'veux ressembler à mon père J'ignore encore c'que j'vais dire à mes gosses à part ne prenez jamais la grosse tête Si tu critiques son physique parce qu'elle est grosse, en vérité, c'est bien toi la grosse merde ! Oui, l'humain est mauvais Oui, l'humain est mauvais Tellement mauvais, tellement mauvais Olala, olalax2 Hayce</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Y'a la mondaine en repérage On a, déjà passé l'premier péage On a, rempli les kehs et les parach' On a, mis quatre-vingt pourcent d'TH On va, r'faire la peinture sur ta ganache On a, des grosses voitures et des shagass Mona, Lisa nous sert et débarrasse Connard, j'ouvre les portes du palace yah, yah Cur de pierre, colonne vertébrale est cimentée Ça joue les Pablo, Renault, Pugeot, accidentées Toc toc toc, c'st le Glock silencieux Brah, brah, brah, ce n'est qu'un accident hé Envie d'pull up sur la BAC, hun, le cur est désert et black, hun Je viens de finir le backwoods, guette le tête à tête j'te charcle, hun Filature, j'fais les fils, j'fais le mec, fais le dur, j'fais les thunes, j'suis le maître J'suis le Gucci nigga, j'suis the Mane, phénomène, phénomène, phénomène yah Cur de pierre, colonne vertébrale est cimentée Ça joue les Pablo, Renault, Peugeot, accidentées Toc toc toc, c'est le Glock silencieux Brah, brah, brah, ce n'est qu'un accident hé You might also like Charbonne aux côtés du Bang Bang, j'arrive dans l'club, j'suis en full yah Maxi kichta dans l'Bathing Ape, j'saute dans la foule, j'suis en full yah Nan, j'en ai plus rien à foutre, ha, du sang sur le maillot d'foot, ha J'te tombe dessus comme la foudre, ha, j'saute dans la foule, j'suis en full yah 2K, j'débarque dans l'game, j'suis en 3D, claqué au sol, la concu n'est pas prête Sur l'terrain, vif comme MBappé, 12K mid-week pour épater, ouh, yeah J'ai fait mon truc sans l'écarter, j'fourre une cain-ri pour les papiers, ouh, yeah Tu peux parler mais c'est trop tard, roro dans l'mois pour les tarter J'suis fidèle aux vrais donc j'suis fidèle aux frères, j'ai l'bras tellement long qu'je fais vider l'hôtel J'suis dans les traphouse et les soirées mondaines, le Glock braqué sur la tempe ça fait Froid comme les russes c'est la Toundra, on les baise boom-bap et en zumba Et le coup part, on l'entend tout-part, j'réveille toute l'Avenue Montaigne Cur de pierre, colonne vertébrale est cimentée Ça joue les Pablo, Renault, Peugeot, accidentées Toc toc toc, c'est le Glock silencieux Brah, brah, brah, ce n'est qu'un accident hé Charbonne aux côtés du Bang Bang, j'arrive dans l'club, j'suis en full yah Maxi kichta dans l'Bathing Ape, j'saute dans la foule, j'suis en full yah Nan, j'en ai plus rien à foutre, ha, du sang sur le maillot d'foot, ha J'te tombe dessus comme la foudre, ha, j'saute dans la foule, j'suis en full yah Désolé, j'crois qu'j'vais monter en pression, la réponse est souvent dans la question Tu la veux dans la miaou ou dans l'caisson, un Frère Lumière avec une vie très sombre Y'a Hayce et Mister V dans la maison, j'ai jamais tort donc j'ai toujours raison Bordel de merde, j'suis monté en pression, ces enculés vont repartir avec des lésions Bébé veut du cash, elle voudrait ma moula, va t'faire enculer, j'serais jamais ton raclo Moi j'suis là pour t'sauter comme Insta à Booba, la dot de cette salope vaut même pas un pack d'eau Elle aimerait qu'j'lui donne, donne, donne, mes DZ, les zhommes, zhommes, zhommes J'cours après les sommes, sommes, sommes, j'ai mon cur qui fait pom, pom, pom Cur de pierre, colonne vertébrale est cimentée Ça joue les Pablo, Renault, Peugeot, accidentées Toc toc toc, c'est le Glock silencieux Brah, brah, brah, ce n'est qu'un accident hé Charbonne aux côtés du Bang Bang, j'arrive dans l'club, j'suis en full yah Maxi kichta dans l'Bathing Ape, j'saute dans la foule, j'suis en full yah Nan, j'en ai plus rien à foutre, ha, du sang sur le maillot d'foot, ha J'te tombe dessus comme la foudre, ha, j'saute dans la foule, j'suis en full yah1</t>
+          <t>Y'a la mondaine en repérage On a, déjà passé l'premier péage On a, rempli les kehs et les parach' On a, mis quatre-vingt pourcent d'TH On va, r'faire la peinture sur ta ganache On a, des grosses voitures et des shagass Mona, Lisa nous sert et débarrasse Connard, j'ouvre les portes du palace yah, yah Cur de pierre, colonne vertébrale est cimentée Ça joue les Pablo, Renault, Pugeot, accidentées Toc toc toc, c'st le Glock silencieux Brah, brah, brah, ce n'est qu'un accident hé Envie d'pull up sur la BAC, hun, le cur est désert et black, hun Je viens de finir le backwoods, guette le tête à tête j'te charcle, hun Filature, j'fais les fils, j'fais le mec, fais le dur, j'fais les thunes, j'suis le maître J'suis le Gucci nigga, j'suis the Mane, phénomène, phénomène, phénomène yah Cur de pierre, colonne vertébrale est cimentée Ça joue les Pablo, Renault, Peugeot, accidentées Toc toc toc, c'est le Glock silencieux Brah, brah, brah, ce n'est qu'un accident hé Charbonne aux côtés du Bang Bang, j'arrive dans l'club, j'suis en full yah Maxi kichta dans l'Bathing Ape, j'saute dans la foule, j'suis en full yah Nan, j'en ai plus rien à foutre, ha, du sang sur le maillot d'foot, ha J'te tombe dessus comme la foudre, ha, j'saute dans la foule, j'suis en full yah 2K, j'débarque dans l'game, j'suis en 3D, claqué au sol, la concu n'est pas prête Sur l'terrain, vif comme MBappé, 12K mid-week pour épater, ouh, yeah J'ai fait mon truc sans l'écarter, j'fourre une cain-ri pour les papiers, ouh, yeah Tu peux parler mais c'est trop tard, roro dans l'mois pour les tarter J'suis fidèle aux vrais donc j'suis fidèle aux frères, j'ai l'bras tellement long qu'je fais vider l'hôtel J'suis dans les traphouse et les soirées mondaines, le Glock braqué sur la tempe ça fait Froid comme les russes c'est la Toundra, on les baise boom-bap et en zumba Et le coup part, on l'entend tout-part, j'réveille toute l'Avenue Montaigne Cur de pierre, colonne vertébrale est cimentée Ça joue les Pablo, Renault, Peugeot, accidentées Toc toc toc, c'est le Glock silencieux Brah, brah, brah, ce n'est qu'un accident hé Charbonne aux côtés du Bang Bang, j'arrive dans l'club, j'suis en full yah Maxi kichta dans l'Bathing Ape, j'saute dans la foule, j'suis en full yah Nan, j'en ai plus rien à foutre, ha, du sang sur le maillot d'foot, ha J'te tombe dessus comme la foudre, ha, j'saute dans la foule, j'suis en full yah Désolé, j'crois qu'j'vais monter en pression, la réponse est souvent dans la question Tu la veux dans la miaou ou dans l'caisson, un Frère Lumière avec une vie très sombre Y'a Hayce et Mister V dans la maison, j'ai jamais tort donc j'ai toujours raison Bordel de merde, j'suis monté en pression, ces enculés vont repartir avec des lésions Bébé veut du cash, elle voudrait ma moula, va t'faire enculer, j'serais jamais ton raclo Moi j'suis là pour t'sauter comme Insta à Booba, la dot de cette salope vaut même pas un pack d'eau Elle aimerait qu'j'lui donne, donne, donne, mes DZ, les zhommes, zhommes, zhommes J'cours après les sommes, sommes, sommes, j'ai mon cur qui fait pom, pom, pom Cur de pierre, colonne vertébrale est cimentée Ça joue les Pablo, Renault, Peugeot, accidentées Toc toc toc, c'est le Glock silencieux Brah, brah, brah, ce n'est qu'un accident hé Charbonne aux côtés du Bang Bang, j'arrive dans l'club, j'suis en full yah Maxi kichta dans l'Bathing Ape, j'saute dans la foule, j'suis en full yah Nan, j'en ai plus rien à foutre, ha, du sang sur le maillot d'foot, ha J'te tombe dessus comme la foudre, ha, j'saute dans la foule, j'suis en full yah1</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>T'auras même pas l'temps d'dire kalimera que surgira l'pistolero La rue, ses entrailles où les geu-shla chient du crack, pissent de l'héro' Même les pookies font du rap, j'ai rien à dire à ces travelos Tout pleins d'piques, menaces utopiques, devraient s'mettre au lancer d'javelot Ils oublient qu'sarcastique rime avec mort par asphyxie dans un sac plastique Les chaussures, l'attitude, la voitur, tout pour sa plastique On l'assume, la rassure, on st dur en restant d'braves types Pas comme ces fils de pute qui tapent leur pétasse à chaque Pastis Crise totale, là je sors d'une triste angoisse Sorti des cristaux d'glace, cigare Montecristo, j'trhayce My way no pain, no gain, on doublait triplé sur le R À l'époque où toi tu déambulais dans les gares RER Mes repères, c'est ma famille, j'laisserai personne les salir J'fume un perse et j'me souviens d'mon enfance, ça m'fait sourire J'pète le diplôme sans réviser, pars en mala J'réserve le meilleur restau, Champs-Élysées pour la mama Holala, trop mal aux mollets, j'ai mis tempête de fou malade La moula bien cellophanée, j'leur fais danser le Funana Fou d'nanas, fou d'millésime mais toujours prêt pour l'intifada J'suis fada, j'leur fais l'coup du foulard en full Prada J'rejoins 3abib au Prado, j'avais prédis qu'on ferait l'hella Tu baises avec des crados, t'approche pas d'ma bite el kehba J'fais gronder les bécanes de Philadelphie, phénoménal J'fais chanter les Rossignols de Philomèle, ma kalash fait le ménage Les horreurs se bousculent de l'aurore au crépuscule De l'erreur à l'imposture, dans le Rhum et la peu-stu Les gars d'la peu-stu sont des pustules Ils aimeraient m'voir à titre posthume Sorti d'un berceau sublunaire, d'une tempête de sable noir Je les ai vu fumer Subutex, j'ai vu des Bultex remplis d'dollars J'ai bifurqué toute la nuit sur Lutèce, au milieux d'la tess, en ensemble noir J'ai toujours trouvé Paris pittoresque, que le python reste blotti dans le noir Je change de fleur une fois qu'j'ai craché mon pollen, j'conduis plus vite que Räikkönen Quand mes bikows s'prennent des coups d'opinel dans l'abdomen Dans mon domaine, multiple courtisanes épineuses comme la rose Ma rose d'amour me prépare une tisane pour composer ma prose Explose au mic', monte sur le ring avec l'assurance d'Iron Mic' Et la rue m'a taillé tel un Rubis, m'a surnommé Diamond Hayce Bourbier m'ont filé l'bourdon, m'ont vraiment filé l'bourdon J'connais des mecs qui font péter l'bourbon juste après l'fourgon J'suis fougueux comme mon père hein, j'observe comme Faucon Pèlerin Les rappeurs ils sont pérave, ils savent bien c'est qui leur père hein Ils savent très bien c'est qui leur père, le woo Hayce Lem', dix ans d'rapYou might also like</t>
+          <t>T'auras même pas l'temps d'dire kalimera que surgira l'pistolero La rue, ses entrailles où les geu-shla chient du crack, pissent de l'héro' Même les pookies font du rap, j'ai rien à dire à ces travelos Tout pleins d'piques, menaces utopiques, devraient s'mettre au lancer d'javelot Ils oublient qu'sarcastique rime avec mort par asphyxie dans un sac plastique Les chaussures, l'attitude, la voitur, tout pour sa plastique On l'assume, la rassure, on st dur en restant d'braves types Pas comme ces fils de pute qui tapent leur pétasse à chaque Pastis Crise totale, là je sors d'une triste angoisse Sorti des cristaux d'glace, cigare Montecristo, j'trhayce My way no pain, no gain, on doublait triplé sur le R À l'époque où toi tu déambulais dans les gares RER Mes repères, c'est ma famille, j'laisserai personne les salir J'fume un perse et j'me souviens d'mon enfance, ça m'fait sourire J'pète le diplôme sans réviser, pars en mala J'réserve le meilleur restau, Champs-Élysées pour la mama Holala, trop mal aux mollets, j'ai mis tempête de fou malade La moula bien cellophanée, j'leur fais danser le Funana Fou d'nanas, fou d'millésime mais toujours prêt pour l'intifada J'suis fada, j'leur fais l'coup du foulard en full Prada J'rejoins 3abib au Prado, j'avais prédis qu'on ferait l'hella Tu baises avec des crados, t'approche pas d'ma bite el kehba J'fais gronder les bécanes de Philadelphie, phénoménal J'fais chanter les Rossignols de Philomèle, ma kalash fait le ménage Les horreurs se bousculent de l'aurore au crépuscule De l'erreur à l'imposture, dans le Rhum et la peu-stu Les gars d'la peu-stu sont des pustules Ils aimeraient m'voir à titre posthume Sorti d'un berceau sublunaire, d'une tempête de sable noir Je les ai vu fumer Subutex, j'ai vu des Bultex remplis d'dollars J'ai bifurqué toute la nuit sur Lutèce, au milieux d'la tess, en ensemble noir J'ai toujours trouvé Paris pittoresque, que le python reste blotti dans le noir Je change de fleur une fois qu'j'ai craché mon pollen, j'conduis plus vite que Räikkönen Quand mes bikows s'prennent des coups d'opinel dans l'abdomen Dans mon domaine, multiple courtisanes épineuses comme la rose Ma rose d'amour me prépare une tisane pour composer ma prose Explose au mic', monte sur le ring avec l'assurance d'Iron Mic' Et la rue m'a taillé tel un Rubis, m'a surnommé Diamond Hayce Bourbier m'ont filé l'bourdon, m'ont vraiment filé l'bourdon J'connais des mecs qui font péter l'bourbon juste après l'fourgon J'suis fougueux comme mon père hein, j'observe comme Faucon Pèlerin Les rappeurs ils sont pérave, ils savent bien c'est qui leur père hein Ils savent très bien c'est qui leur père, le woo Hayce Lem', dix ans d'rap</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Oh my god Faut qu't'aies confiance en toi, comme dit maman Mais comme d'hab', j'l'écoute à moitié évidemment Ne crois pas c'que tu vois, comme dit maman Mais j'l'écoute pas, moi, j'veux courir après l'argent Faut que j'fasse ma valise, il faut qu'j'aille me balader Bébé veut m'analyser, mon cur est kalaché J'ai fait l'tour de la ville, nan, la vie m'a pas raté Il faut qu'je change de livre car des pages sont arrachées Quand est-ce que tu m'présentes madame ? m'a dit maman Rien n'vaut la beauté de l'âme m'a dit maman J'veux plus t'voir sur le macadam m'a dit maman Remplis mon cur de bonheur et présente moi mes p'tits enfants J'veux pas qu'elle refuse mes dineros, ce s'rait comme m'indigner J'tape un temps plein sur le R, j'arrive en r'tard pour le dîner Samedi j'me fais beau pour le parloir, chagriné J'me sens pitoyable quand j'lui parle mal, je recoiffe sa crinière Sacrilège la plus belle des femmes, ma femme doit lui ressembler L'argent rapproche du Sheitan, je préfère vivre sans blé J'veux plus d'cette vie trépidante, ah non, à l'ombre J'ai pas d'autre confidente, ah non, ah non oh You might also like Faut qu't'aies confiance en toi, comme dit maman Mais comme d'hab', j'l'écoute à moitié évidemment Ne crois pas c'que tu vois, comme dit maman Mais j'l'écoute pas, moi, j'veux courir après l'argent Faut que j'fasse ma valise, il faut qu'j'aille me balader Bébé veut m'analyser, mon cur est kalaché J'ai fait l'tour de la ville, nan, la vie m'a pas raté Il faut qu'je change de livre car des pages sont arrachées Maman me fait confiance, elle ne veut que mon bien T'inquiète c'est réciproque, maman, je n'veux que le tien J'n'ai jamais vendu la C, problèmes dans la tête Et j'aimerais m'en débarrasser, maman dis moi si tout s'achète J'crois qu'il est l'heure de brasser pour t'acheter ta villa J'espère qu'un jour, j'vais m'caser, j'espère qu'ça m'arrivera J'espère être un fils modèle, eh, j'espère te combler J'ai du mal à trouver la bonne, j'espère qu'ça va s'arranger J'regarde par la vitre, souvent, j'observe les étoiles J'aimerais qu'mon cur se vide, mes ennemis ne m'auront pas Le bonheur ne m'envoie pas d'signe, je pense qu'il ne veut pas d'moi J'attends toujours son coup d'fil pour lui dire d'aller vers toi Faut qu't'aies confiance en toi, comme dit maman Mais comme d'hab', j'l'écoute à moitié évidemment Ne crois pas c'que tu vois, comme dit maman Mais j'l'écoute pas, moi, j'veux courir après l'argent Faut que j'fasse ma valise, il faut qu'j'aille me balader Bébé veut m'analyser, mon cur est kalaché J'ai fait l'tour de la ville, nan, la vie m'a pas raté Il faut qu'je change de livre car des pages sont arrachées1</t>
+          <t>Oh my god Faut qu't'aies confiance en toi, comme dit maman Mais comme d'hab', j'l'écoute à moitié évidemment Ne crois pas c'que tu vois, comme dit maman Mais j'l'écoute pas, moi, j'veux courir après l'argent Faut que j'fasse ma valise, il faut qu'j'aille me balader Bébé veut m'analyser, mon cur est kalaché J'ai fait l'tour de la ville, nan, la vie m'a pas raté Il faut qu'je change de livre car des pages sont arrachées Quand est-ce que tu m'présentes madame ? m'a dit maman Rien n'vaut la beauté de l'âme m'a dit maman J'veux plus t'voir sur le macadam m'a dit maman Remplis mon cur de bonheur et présente moi mes p'tits enfants J'veux pas qu'elle refuse mes dineros, ce s'rait comme m'indigner J'tape un temps plein sur le R, j'arrive en r'tard pour le dîner Samedi j'me fais beau pour le parloir, chagriné J'me sens pitoyable quand j'lui parle mal, je recoiffe sa crinière Sacrilège la plus belle des femmes, ma femme doit lui ressembler L'argent rapproche du Sheitan, je préfère vivre sans blé J'veux plus d'cette vie trépidante, ah non, à l'ombre J'ai pas d'autre confidente, ah non, ah non oh Faut qu't'aies confiance en toi, comme dit maman Mais comme d'hab', j'l'écoute à moitié évidemment Ne crois pas c'que tu vois, comme dit maman Mais j'l'écoute pas, moi, j'veux courir après l'argent Faut que j'fasse ma valise, il faut qu'j'aille me balader Bébé veut m'analyser, mon cur est kalaché J'ai fait l'tour de la ville, nan, la vie m'a pas raté Il faut qu'je change de livre car des pages sont arrachées Maman me fait confiance, elle ne veut que mon bien T'inquiète c'est réciproque, maman, je n'veux que le tien J'n'ai jamais vendu la C, problèmes dans la tête Et j'aimerais m'en débarrasser, maman dis moi si tout s'achète J'crois qu'il est l'heure de brasser pour t'acheter ta villa J'espère qu'un jour, j'vais m'caser, j'espère qu'ça m'arrivera J'espère être un fils modèle, eh, j'espère te combler J'ai du mal à trouver la bonne, j'espère qu'ça va s'arranger J'regarde par la vitre, souvent, j'observe les étoiles J'aimerais qu'mon cur se vide, mes ennemis ne m'auront pas Le bonheur ne m'envoie pas d'signe, je pense qu'il ne veut pas d'moi J'attends toujours son coup d'fil pour lui dire d'aller vers toi Faut qu't'aies confiance en toi, comme dit maman Mais comme d'hab', j'l'écoute à moitié évidemment Ne crois pas c'que tu vois, comme dit maman Mais j'l'écoute pas, moi, j'veux courir après l'argent Faut que j'fasse ma valise, il faut qu'j'aille me balader Bébé veut m'analyser, mon cur est kalaché J'ai fait l'tour de la ville, nan, la vie m'a pas raté Il faut qu'je change de livre car des pages sont arrachées1</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Depuis la pénombre à pas de géants Depuis les fonds marins jusqu'à recouvrir tous les océans J'étais petit j'voulais ger-man j'voulais devenir le gérant Les délateurs bons qu'à finir dans le bec d'un goéland Premier teh, premier vol, premier lossa à l'âge de treize ans Tu veux faire comme le Big, t'es trop feignant t'es trop gênant Dis bonjour à Freddy Krueger Edouard aux mains d'argent T'as pas d'cojo' ton entourage te prend tout ton argnt J'tiens le gouvernail pour la vi-i-tsse Sache qu'on donne toujours la parole à celui qui pèse Qui laisse des sommes mirobolantes sur le ticket d'caisse Mais l'être humain le plus flatteur est celui qui t'baise Liberté égalité fraternité c'est technique Quand le gouvernement valide un nettoyage ethnique Des criminels de sang froid dans un climat désertique On est deux milliards à souhaiter la mort de ces reptiles C'est pas pour le plaisir qu'on avance en bande Les saltimbanques et les Harki ne rentrent pas dans l'gang Ces bouffons sont tellement dociles ils font c'qu'on leur d'mande Y en a beaucoup qui ont la bocco rien dans l'compte en banque Grandi dans l'béton pur, la famille j'bé-ton pour Tu nous fais l'Bettencourt mais t'as plein d'dettes en cours En avance de vingt tours on me pense bête en cours Dix ans plus tard j'vais les guer-lar j'suis l'guépard de Bellecour Alger, Kouba, vrai bonhomme parle en face Ne connaît pas les coups-bas, je retourne au combat Sur un disque compact, si tu veux du contact, bouffe mon anaconda Tu veux m'tenir par la mano j'te tiens par la ficelle Même en pissant du collagène personne n'est immortel J'étrangle le marionnettiste avec ses propres ficelles Pour m'imiter faut plus qu'intelligence artificielle Black White Beur c'est le drapeau tricolore Dommage qu'on ait la police la plus raciste d'Europe C'est pour ça qu'on fout la merde comme des bassistes de Rock Les démons sont bien au chaud la justice assise dehors Cambriolage après un litre de Rhum T'es bien bavard en commentaires quand tu m'croises, tu trembles Une génération d'salopes ouais j'sais pas s'tu t'rends compte De la fragilité d'certains rebeux sur TikTok Des papillons dans l'estomac mais j'te parle pas d'amour Le bonheur est dans les sourates pas les phrases d'Aznavour Pendant la Guerre d'Algérie y avait des hommes de bravoure On prend pas son indépendance avec trente troubadours tout balourd J'regarde plus les price tag, ta foumasse me kiss Quand le monster passe, que des masterpiece Elle racole tous les raclos devant l'Relais d'l'Entrecôte Pendant qu'les guitares se raccordent à deux pas des garde-côtes Dans l'industrie tous ces Colons nous prennent pour des esclaves J'écris pas pour enrichir un nazi dans une Tesla J'respecte pas l'autorité d'un keuf qui a dix ans d'moins qu'moi Que tu m'parles de villas de montres, vas-y montre-moi Ça les dérange que tu fasses des prières surérogatoires Ils préfèrent te voir au comptoir sinon c'est l'interrogatoire Ça les dérange qu'elle soit voilée ça les empêche de bien voir son corps Pour la corrompre depuis leur tour d'ivoire mon pote You might also like Akha, des A-K, des Akra, ne les crains pas Palestine vaincra Insh'Allah Sang d'Colon sur ma paire Pour mes soldats à terre Le monde marche sur la tête Crimes de Guerre tant qu'ça paye, paye, paye Qui peut soigner ma peine ? Qui peut r'fermer ma plaie ? Le monde marche sur la tête Crimes de Guerre tant qu'ça paye, paye, paye Big Hayce Big Lemsi Palestine vaincra Insh'Allah Riov Music Wow Grr Paw Fin d'jeu</t>
+          <t>Depuis la pénombre à pas de géants Depuis les fonds marins jusqu'à recouvrir tous les océans J'étais petit j'voulais ger-man j'voulais devenir le gérant Les délateurs bons qu'à finir dans le bec d'un goéland Premier teh, premier vol, premier lossa à l'âge de treize ans Tu veux faire comme le Big, t'es trop feignant t'es trop gênant Dis bonjour à Freddy Krueger Edouard aux mains d'argent T'as pas d'cojo' ton entourage te prend tout ton argnt J'tiens le gouvernail pour la vi-i-tsse Sache qu'on donne toujours la parole à celui qui pèse Qui laisse des sommes mirobolantes sur le ticket d'caisse Mais l'être humain le plus flatteur est celui qui t'baise Liberté égalité fraternité c'est technique Quand le gouvernement valide un nettoyage ethnique Des criminels de sang froid dans un climat désertique On est deux milliards à souhaiter la mort de ces reptiles C'est pas pour le plaisir qu'on avance en bande Les saltimbanques et les Harki ne rentrent pas dans l'gang Ces bouffons sont tellement dociles ils font c'qu'on leur d'mande Y en a beaucoup qui ont la bocco rien dans l'compte en banque Grandi dans l'béton pur, la famille j'bé-ton pour Tu nous fais l'Bettencourt mais t'as plein d'dettes en cours En avance de vingt tours on me pense bête en cours Dix ans plus tard j'vais les guer-lar j'suis l'guépard de Bellecour Alger, Kouba, vrai bonhomme parle en face Ne connaît pas les coups-bas, je retourne au combat Sur un disque compact, si tu veux du contact, bouffe mon anaconda Tu veux m'tenir par la mano j'te tiens par la ficelle Même en pissant du collagène personne n'est immortel J'étrangle le marionnettiste avec ses propres ficelles Pour m'imiter faut plus qu'intelligence artificielle Black White Beur c'est le drapeau tricolore Dommage qu'on ait la police la plus raciste d'Europe C'est pour ça qu'on fout la merde comme des bassistes de Rock Les démons sont bien au chaud la justice assise dehors Cambriolage après un litre de Rhum T'es bien bavard en commentaires quand tu m'croises, tu trembles Une génération d'salopes ouais j'sais pas s'tu t'rends compte De la fragilité d'certains rebeux sur TikTok Des papillons dans l'estomac mais j'te parle pas d'amour Le bonheur est dans les sourates pas les phrases d'Aznavour Pendant la Guerre d'Algérie y avait des hommes de bravoure On prend pas son indépendance avec trente troubadours tout balourd J'regarde plus les price tag, ta foumasse me kiss Quand le monster passe, que des masterpiece Elle racole tous les raclos devant l'Relais d'l'Entrecôte Pendant qu'les guitares se raccordent à deux pas des garde-côtes Dans l'industrie tous ces Colons nous prennent pour des esclaves J'écris pas pour enrichir un nazi dans une Tesla J'respecte pas l'autorité d'un keuf qui a dix ans d'moins qu'moi Que tu m'parles de villas de montres, vas-y montre-moi Ça les dérange que tu fasses des prières surérogatoires Ils préfèrent te voir au comptoir sinon c'est l'interrogatoire Ça les dérange qu'elle soit voilée ça les empêche de bien voir son corps Pour la corrompre depuis leur tour d'ivoire mon pote Akha, des A-K, des Akra, ne les crains pas Palestine vaincra Insh'Allah Sang d'Colon sur ma paire Pour mes soldats à terre Le monde marche sur la tête Crimes de Guerre tant qu'ça paye, paye, paye Qui peut soigner ma peine ? Qui peut r'fermer ma plaie ? Le monde marche sur la tête Crimes de Guerre tant qu'ça paye, paye, paye Big Hayce Big Lemsi Palestine vaincra Insh'Allah Riov Music Wow Grr Paw Fin d'jeu</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Man Like Ron Uno Corin S dead J'ai dit S dead T est dead Sl est dead Ib a ouvert sa bouche donc bientôt il dead Badman sur le net, tu test, t'es dead S dead Hey J'ai dit S dead T est dead Woo Sl est dead Woo Ib a ouvert sa bouche Salope donc bientôt il dead Woo Badman sur le net Hey, tu test, t'es dead Bullet, bullet La zone est sous C.R, ça fait longtemps que j'mérite de cé-pr Paw J'en baffais d'jà quand j'étais en CP, en CP, j'ai ds reufs enfermés en C.D J'ai fait un rêve où j'vendais des millions d'CDs, c'est réel Paw, mon avenir est scellé Soit j'mets tout sous cello', ou bien j'deviens célèbre, viens goûter ma bite, pas goûter à ses lèvres Paw Y a pas qu'ma voix, y a le canon qui s'élève Paw, si le opps il dead, on célèbre Paw, paw, paw Big up au 6.9, ça vient du 7.5 Hein, 7.5.19, big up à mes zincs J'ai pris des grosses kich', hormis la musique Brr, contrôle sur moi j'ai mon opé et d'l'amnésia Woo, brr On va rendre à Saamou c'qui appartient à César Brr, paw, nous c'est la T.H j'veux personne qui sépare Paw, paw You might also like C'est Hayce C'est Hayce, ça blesse Ça blesse, ça shank Ça shank, ça shoot, Ça shoot J'déteste l'échec L'échec, j'te charcle ta bouche Brr J'viens d'sortir un nouveau Audi baby, baby, baby Six Its Bep-bep-bep le compèt' se lève, j'baise ta mère pour un sac Gucci Tu cours pas plus vite qu'une balle de 9 Brr, j'fais du biff comme les Balducci Paw Benda, j'veux qu'la SPIP me suce, chap-chap y'a la Ford fuck, ça va t'faire si tu portes Nautilus, j't'arrache ta mère dans l'Noctilien Grr, paw He-he-he-hey bitch, j'roll-up litron, mortier, j'suis 9.5 hold-up J'bibi Un 5 pour le hors d'uvre, gros nug tu me cherches tu me trouves hall 9 Pussy Que des chanteurs de charme, des crooners Pussy T'es un mytho menteur comme Cash, Cash, le opps est lent comme Hummels et j'ai la finition de Wayne Rooney Pshh, pshh J'tire en l'air, j'effraie les anges Big up, j'tire en l'air j'effraie les opps morts Dead Et selon où tu rentres ta lame Dead, tu vas sentir ses ossements Dead L dans ta nuque j'suis un faiseur, maillot blanc devient rouge comme si j'suis un Gunners Tchin, Tchin Si faut j'm'acharne j'suis un meneur, on cache le gue-dro dans la che-ca du runner Hey, comme dit précédemment, ta maman pratique, j'allume un doobie j'suis pas trop dans les si Brr Cicatrice en couleur comme gecko c'est magique, tes rappeurs mangent des glands, pas d'haricots magiques Brr, paw, paw J'suis assis dans un Viano avec mes invités, Barlou comme Seth Gueko c'est la réalité Paw, paw, paw Travaille le pe-ra d'vant des dessins animés, le soir j'ai les vaisseaux sanguins alcoolisés Grr, grr, paw, paw, paw Moi j'suis dans ma sphère, j'suis dans ma tess, j'suis dans mon délire, j'suis dans l'business Paw, paw, paw Tout l'temps sous piav', donc jamais je stresse, j'suis dans les trucs méchants, et dans les grosses fesses Grr, paw Dans les bails, comme Elye Wahi, les 6.9.1, 7.5.0.19 c'est miné Grr, paw J'ai mangé zéro pourcentage de mes CDs, nique la mère à la musique j'suis habitué Paw, paw C'est la tête cramée du 18 Crackito, on arrive nerveux Louches Que des boulettes dans l'cerveau Paw, toi ? Tu baises ton frère comme Cersei, nous on ramène d'la cess' pour t'servir, hachek J'fais deux mètres, j'viens que pour manger bénéf', que d'la frappe, il voulait un eug' Crack il m'rappelle pour l'deuxième Crack, crack, crack Tu fais même pas dix points à l'année Ouch, t'as des points d'suture dans l'anus Ouch J'ai vendu cé-cé toute l'année, on va pas cesser d'vous la mettre Hol' on Balle dans la tête c'est dead Boom y a pas d'aide, y a pas d'MD Paw Pas là pour parler paix Paw, c'est la guerre jusqu'à la muerte Crack S dead Hey J'ai dit S dead Hey T est dead Woo Sl est dead Ib a ouvert sa bouche Salope donc bientôt il dead Woo Badman sur le net Bullet, tu testes, t'es dead Dead Un homme averti en vaut deux Grr, le sang n'arrêtera pas les coups d'feu Grr Tes rappeurs ont le passé douteux, je les fouette tous comme le renard à neuf queues Pa-pa-pa-paw Qui revendait la meilleure beuh ? Nous Les soucis on les règle en moins d'deux Ah ouais ? J'donne toujours aux nécessiteux Ah ouais ?, 6.9.1 ne sera jamais comme eux Ah ouais ? J'bois pas d'codé', que du bois bandé Brr, 7.62 pour les dissuader Tching, tchang Le dernier opps qui a voulu m'test, il est d'jà dead et bien enterré Pa-pa-pa-paw Ça coupe et r'fourgue à la Heisenberg, j'prends pas d'dope j'réponds pas à l'appel J'serre son cou quand j'fuck ces ass, ça tient comme dans un centre équestre Olé-olé Olé-olé, y en a qui contrôlent orienté Woo, y en a d'autres qui reprises de volée Tching, tchang Ici les jeunes peuvent v'nir te voler Brr, pour tes billets violets Brr Tout c'qu'on fait c'est faire des thunes Tching, tching, eux, tout c'qu'ils font c'est miauler Bullet, tout c'qu'on fait c'est scorer Bullet, bullet Tout c'qu'on fait c'est faire d'la moula Woo, on tient l'monopole Woo I-i-ici on t'arrose ta mère, on fait pas d'octogone Woo A-Am-am-amuse toi à tester big la Fus' Brr, ils savent déjà que les armes sont russes Brr J'cache j'refais une nouvelle puce Brr, c'est l'6.9.1 qui vend le plus Bullet Faut savoir à qui faire la guerre A qui ?, si tu veux pas finir dead Woo Il a sniffé deux rails de zipette, il s'est dit Ce soir j'vais tous me les faire Olala, olala, olala Dire qu'on l'prenait pour un frère, il a fini banni du tieks Paw Il s'est mangé bon écrasement d'tête, si on l'revoit j't'assure qu'il est dead Paw, paw Dans un bât' j'visser, des fois j'vois Lester, gyro, pleine vitesse, montée vers l'quatre peuf' Paw, paw, paw Un ient-cli du-per, il m'demande d'la peuf', j'lui indique le R il part faire la queue Là-bas Dans l'game, dans l'jeu, ça peut t'schlasser si t'es trop faible Hey Dans l'bras, la beuj', encore un vitriot qui t'laisse à terre Brr S dead Hey J'ai dit S dead T est dead Woo Sl est dead Woo Ib a ouvert sa bouche Salope, donc bientôt il dead Woo Badman sur le net Hey, tu testes, t'es dead Bullet, bullet</t>
+          <t>Man Like Ron Uno Corin S dead J'ai dit S dead T est dead Sl est dead Ib a ouvert sa bouche donc bientôt il dead Badman sur le net, tu test, t'es dead S dead Hey J'ai dit S dead T est dead Woo Sl est dead Woo Ib a ouvert sa bouche Salope donc bientôt il dead Woo Badman sur le net Hey, tu test, t'es dead Bullet, bullet La zone est sous C.R, ça fait longtemps que j'mérite de cé-pr Paw J'en baffais d'jà quand j'étais en CP, en CP, j'ai ds reufs enfermés en C.D J'ai fait un rêve où j'vendais des millions d'CDs, c'est réel Paw, mon avenir est scellé Soit j'mets tout sous cello', ou bien j'deviens célèbre, viens goûter ma bite, pas goûter à ses lèvres Paw Y a pas qu'ma voix, y a le canon qui s'élève Paw, si le opps il dead, on célèbre Paw, paw, paw Big up au 6.9, ça vient du 7.5 Hein, 7.5.19, big up à mes zincs J'ai pris des grosses kich', hormis la musique Brr, contrôle sur moi j'ai mon opé et d'l'amnésia Woo, brr On va rendre à Saamou c'qui appartient à César Brr, paw, nous c'est la T.H j'veux personne qui sépare Paw, paw C'est Hayce C'est Hayce, ça blesse Ça blesse, ça shank Ça shank, ça shoot, Ça shoot J'déteste l'échec L'échec, j'te charcle ta bouche Brr J'viens d'sortir un nouveau Audi baby, baby, baby Six Its Bep-bep-bep le compèt' se lève, j'baise ta mère pour un sac Gucci Tu cours pas plus vite qu'une balle de 9 Brr, j'fais du biff comme les Balducci Paw Benda, j'veux qu'la SPIP me suce, chap-chap y'a la Ford fuck, ça va t'faire si tu portes Nautilus, j't'arrache ta mère dans l'Noctilien Grr, paw He-he-he-hey bitch, j'roll-up litron, mortier, j'suis 9.5 hold-up J'bibi Un 5 pour le hors d'uvre, gros nug tu me cherches tu me trouves hall 9 Pussy Que des chanteurs de charme, des crooners Pussy T'es un mytho menteur comme Cash, Cash, le opps est lent comme Hummels et j'ai la finition de Wayne Rooney Pshh, pshh J'tire en l'air, j'effraie les anges Big up, j'tire en l'air j'effraie les opps morts Dead Et selon où tu rentres ta lame Dead, tu vas sentir ses ossements Dead L dans ta nuque j'suis un faiseur, maillot blanc devient rouge comme si j'suis un Gunners Tchin, Tchin Si faut j'm'acharne j'suis un meneur, on cache le gue-dro dans la che-ca du runner Hey, comme dit précédemment, ta maman pratique, j'allume un doobie j'suis pas trop dans les si Brr Cicatrice en couleur comme gecko c'est magique, tes rappeurs mangent des glands, pas d'haricots magiques Brr, paw, paw J'suis assis dans un Viano avec mes invités, Barlou comme Seth Gueko c'est la réalité Paw, paw, paw Travaille le pe-ra d'vant des dessins animés, le soir j'ai les vaisseaux sanguins alcoolisés Grr, grr, paw, paw, paw Moi j'suis dans ma sphère, j'suis dans ma tess, j'suis dans mon délire, j'suis dans l'business Paw, paw, paw Tout l'temps sous piav', donc jamais je stresse, j'suis dans les trucs méchants, et dans les grosses fesses Grr, paw Dans les bails, comme Elye Wahi, les 6.9.1, 7.5.0.19 c'est miné Grr, paw J'ai mangé zéro pourcentage de mes CDs, nique la mère à la musique j'suis habitué Paw, paw C'est la tête cramée du 18 Crackito, on arrive nerveux Louches Que des boulettes dans l'cerveau Paw, toi ? Tu baises ton frère comme Cersei, nous on ramène d'la cess' pour t'servir, hachek J'fais deux mètres, j'viens que pour manger bénéf', que d'la frappe, il voulait un eug' Crack il m'rappelle pour l'deuxième Crack, crack, crack Tu fais même pas dix points à l'année Ouch, t'as des points d'suture dans l'anus Ouch J'ai vendu cé-cé toute l'année, on va pas cesser d'vous la mettre Hol' on Balle dans la tête c'est dead Boom y a pas d'aide, y a pas d'MD Paw Pas là pour parler paix Paw, c'est la guerre jusqu'à la muerte Crack S dead Hey J'ai dit S dead Hey T est dead Woo Sl est dead Ib a ouvert sa bouche Salope donc bientôt il dead Woo Badman sur le net Bullet, tu testes, t'es dead Dead Un homme averti en vaut deux Grr, le sang n'arrêtera pas les coups d'feu Grr Tes rappeurs ont le passé douteux, je les fouette tous comme le renard à neuf queues Pa-pa-pa-paw Qui revendait la meilleure beuh ? Nous Les soucis on les règle en moins d'deux Ah ouais ? J'donne toujours aux nécessiteux Ah ouais ?, 6.9.1 ne sera jamais comme eux Ah ouais ? J'bois pas d'codé', que du bois bandé Brr, 7.62 pour les dissuader Tching, tchang Le dernier opps qui a voulu m'test, il est d'jà dead et bien enterré Pa-pa-pa-paw Ça coupe et r'fourgue à la Heisenberg, j'prends pas d'dope j'réponds pas à l'appel J'serre son cou quand j'fuck ces ass, ça tient comme dans un centre équestre Olé-olé Olé-olé, y en a qui contrôlent orienté Woo, y en a d'autres qui reprises de volée Tching, tchang Ici les jeunes peuvent v'nir te voler Brr, pour tes billets violets Brr Tout c'qu'on fait c'est faire des thunes Tching, tching, eux, tout c'qu'ils font c'est miauler Bullet, tout c'qu'on fait c'est scorer Bullet, bullet Tout c'qu'on fait c'est faire d'la moula Woo, on tient l'monopole Woo I-i-ici on t'arrose ta mère, on fait pas d'octogone Woo A-Am-am-amuse toi à tester big la Fus' Brr, ils savent déjà que les armes sont russes Brr J'cache j'refais une nouvelle puce Brr, c'est l'6.9.1 qui vend le plus Bullet Faut savoir à qui faire la guerre A qui ?, si tu veux pas finir dead Woo Il a sniffé deux rails de zipette, il s'est dit Ce soir j'vais tous me les faire Olala, olala, olala Dire qu'on l'prenait pour un frère, il a fini banni du tieks Paw Il s'est mangé bon écrasement d'tête, si on l'revoit j't'assure qu'il est dead Paw, paw Dans un bât' j'visser, des fois j'vois Lester, gyro, pleine vitesse, montée vers l'quatre peuf' Paw, paw, paw Un ient-cli du-per, il m'demande d'la peuf', j'lui indique le R il part faire la queue Là-bas Dans l'game, dans l'jeu, ça peut t'schlasser si t'es trop faible Hey Dans l'bras, la beuj', encore un vitriot qui t'laisse à terre Brr S dead Hey J'ai dit S dead T est dead Woo Sl est dead Woo Ib a ouvert sa bouche Salope, donc bientôt il dead Woo Badman sur le net Hey, tu testes, t'es dead Bullet, bullet</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Rebeu, c'est le cambouis ou les cambu Dans le bloc, trop d'bruit les mecs ont bu Gros, ça ne parle que de krrr brrr, les mecs en bleu Gros, ça ne parle que de Roll Royce et de cambrure Fais chauffer l'pot, j'mets le casque inté', teinté La cité te rattrape, elle ne te lâche pas Deux pieds sur le rain-té, le tier-quar est hanté Tentez de sortir la lash-ka d'Alaska Tu dis qu'tu crains dégun mais lappât du gain te transforme Parle de nous dans ta déposition, gros t'es fucked up Trace ta route, une balle pourrait traverser tes tempes fortes Passe-nous la caisse et les clés qui mènent à la chambre forte Arsenal de guerre coffré dans le dernier Range Rov' Classe S, tu nous verras plus jamais prendre les transports Hayce à la folie des grandeurs, il aime les grandes folles Et merci le gamos devant l'bloc S'il ronronne, c'est pour larguer la guardia J'vais récupérer Karim et Nono J'suis sur la A7, direction Massilia Dégun, dégun, dégun dans la poche, poche Le hesses a fermé la porte, la porte Karim et Nono m'attendent devant l'bloc Calibré, j'crains dégun pour mes proches You might also like Si y a dégun, c'est la base Hmm, dégun dans les fouilles Le guetteur crie akha, hum baceux dans le four On veut prendre sa retraite sur un MasterCraf Plein d'kahba, on les recale, MasterCard ! Eux ils gâchent la fête, aller Master track J'viens à peine de sortir de la mêlée, mets l'contact Rebeu, mets l'contact Rebeu, ça bombarde T'es sur la A7 avec un teh de beuh Hnaya nouveau Gucci gang , tu veux haja koulchi kayen J'm'empare de tout l'archipel, on t'entend plus comme T-Pain Tu connais dégun du game, la rue c'est mon oxygène En direct de Marseille City, avec Marie Jane Et merci le gamos devant l'bloc S'il ronronne, c'est pour larguer la guardia J'vais récupérer Karim et Nono J'suis sur la A7, direction Massilia Dégun, dégun, dégun dans la poche, poche Le hesses a fermé la porte, la porte Karim et Nono m'attendent devant l'bloc Calibré, j'crains dégun pour mes proches Dégun, dégun, dégun Dégun, dégun, dégun wah Dégun, dégun, dégun Dégun, dégun, dégun wah1</t>
+          <t>Rebeu, c'est le cambouis ou les cambu Dans le bloc, trop d'bruit les mecs ont bu Gros, ça ne parle que de krrr brrr, les mecs en bleu Gros, ça ne parle que de Roll Royce et de cambrure Fais chauffer l'pot, j'mets le casque inté', teinté La cité te rattrape, elle ne te lâche pas Deux pieds sur le rain-té, le tier-quar est hanté Tentez de sortir la lash-ka d'Alaska Tu dis qu'tu crains dégun mais lappât du gain te transforme Parle de nous dans ta déposition, gros t'es fucked up Trace ta route, une balle pourrait traverser tes tempes fortes Passe-nous la caisse et les clés qui mènent à la chambre forte Arsenal de guerre coffré dans le dernier Range Rov' Classe S, tu nous verras plus jamais prendre les transports Hayce à la folie des grandeurs, il aime les grandes folles Et merci le gamos devant l'bloc S'il ronronne, c'est pour larguer la guardia J'vais récupérer Karim et Nono J'suis sur la A7, direction Massilia Dégun, dégun, dégun dans la poche, poche Le hesses a fermé la porte, la porte Karim et Nono m'attendent devant l'bloc Calibré, j'crains dégun pour mes proches Si y a dégun, c'est la base Hmm, dégun dans les fouilles Le guetteur crie akha, hum baceux dans le four On veut prendre sa retraite sur un MasterCraf Plein d'kahba, on les recale, MasterCard ! Eux ils gâchent la fête, aller Master track J'viens à peine de sortir de la mêlée, mets l'contact Rebeu, mets l'contact Rebeu, ça bombarde T'es sur la A7 avec un teh de beuh Hnaya nouveau Gucci gang , tu veux haja koulchi kayen J'm'empare de tout l'archipel, on t'entend plus comme T-Pain Tu connais dégun du game, la rue c'est mon oxygène En direct de Marseille City, avec Marie Jane Et merci le gamos devant l'bloc S'il ronronne, c'est pour larguer la guardia J'vais récupérer Karim et Nono J'suis sur la A7, direction Massilia Dégun, dégun, dégun dans la poche, poche Le hesses a fermé la porte, la porte Karim et Nono m'attendent devant l'bloc Calibré, j'crains dégun pour mes proches Dégun, dégun, dégun Dégun, dégun, dégun wah Dégun, dégun, dégun Dégun, dégun, dégun wah1</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>J'faisais TP tout en jusqu'à qu'j'ai pété la FeFe Même les plus grands m'ont fu fêter mais j'menais la guerre dure Concentré sur le blégué, j'voulais pas qu'elle m'appelle bébé J'étais bourbier mais malgré tout, cette loca me perturbe J'sais qu' veut la Lambo', han, han, fruit du démon, j'monte au charbon, cède à tous ses caprices Comment j'vais suivre le tempo, han han ? Le visage dans sa grosse poitrine au moment d'la perquis' Donc j'ai dû payer la cuenta et j'ai tourné Tu venais même pas, j'me suis fait doubler Bébé, j'suis troublé, dire qu'j'étais là pour meubler Tu m'aimais même pas, le vent a tourné Car au fond, t'es là pour ma, j'suis là pour tes T'as vu mon Dom Pé' et celui d'à côté Mais tu sais que j'suis coté, les filles d'à côté C'que ça m'a coûté, j'suis dégouté Olala, relou, le démon s'est mis entre nous Olala, relou, le fruit du démon me rend fou J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé' You might also like J'l'ai croisée dans la zone, elle m'a fait tourner la tête Elle a l'air pe-pro, j'crois qu'j'vais mener mon enquête Mais où sont tes défauts ? Prends mon cur et part avec Tu peux t'asseoir sur mon trône, la couronne, tu peux la mettre Bébé, j'veux pas t'faire de sale, j'ai grandi solo Mon cur a pris des balles, sang sur le polo Non, j'veux pas t'faire de sale, j'suis pas un salaud J'cours après les tales, vas y à t'à l'heure Car au fond, t'es là pour ma, j'suis là pour tes T'as vu mon Dom Pé' et celui d'à côté Mais tu sais que j'suis coté, les filles d'à côté C'que ça m'a coûté, j'suis dégouté Olala, relou, le démon s'est mis entre nous Olala, relou, le fruit du démon me rend fout J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé' Quelle tasse-pé, elle est déclassée Elle , j'bicrave le classe D J'suis dépassé, qu'est-ce qui s'est passé ? Fruit du démon, j'ai goûté, oh oui, j'ai goûté Olala, relou, le démon s'est mis entre nous Olala, relou, le fruit du démon me rend fout J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé'</t>
+          <t>J'faisais TP tout en jusqu'à qu'j'ai pété la FeFe Même les plus grands m'ont fu fêter mais j'menais la guerre dure Concentré sur le blégué, j'voulais pas qu'elle m'appelle bébé J'étais bourbier mais malgré tout, cette loca me perturbe J'sais qu' veut la Lambo', han, han, fruit du démon, j'monte au charbon, cède à tous ses caprices Comment j'vais suivre le tempo, han han ? Le visage dans sa grosse poitrine au moment d'la perquis' Donc j'ai dû payer la cuenta et j'ai tourné Tu venais même pas, j'me suis fait doubler Bébé, j'suis troublé, dire qu'j'étais là pour meubler Tu m'aimais même pas, le vent a tourné Car au fond, t'es là pour ma, j'suis là pour tes T'as vu mon Dom Pé' et celui d'à côté Mais tu sais que j'suis coté, les filles d'à côté C'que ça m'a coûté, j'suis dégouté Olala, relou, le démon s'est mis entre nous Olala, relou, le fruit du démon me rend fou J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé' J'l'ai croisée dans la zone, elle m'a fait tourner la tête Elle a l'air pe-pro, j'crois qu'j'vais mener mon enquête Mais où sont tes défauts ? Prends mon cur et part avec Tu peux t'asseoir sur mon trône, la couronne, tu peux la mettre Bébé, j'veux pas t'faire de sale, j'ai grandi solo Mon cur a pris des balles, sang sur le polo Non, j'veux pas t'faire de sale, j'suis pas un salaud J'cours après les tales, vas y à t'à l'heure Car au fond, t'es là pour ma, j'suis là pour tes T'as vu mon Dom Pé' et celui d'à côté Mais tu sais que j'suis coté, les filles d'à côté C'que ça m'a coûté, j'suis dégouté Olala, relou, le démon s'est mis entre nous Olala, relou, le fruit du démon me rend fout J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé' Quelle tasse-pé, elle est déclassée Elle , j'bicrave le classe D J'suis dépassé, qu'est-ce qui s'est passé ? Fruit du démon, j'ai goûté, oh oui, j'ai goûté Olala, relou, le démon s'est mis entre nous Olala, relou, le fruit du démon me rend fout J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé' J'ai croqué le fruit du dé' du dé', du dé'</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Bonsoir, Honoré Je sens qu'c'est fini, j'fume une dernière cigarette Un dernier date, un dernier verre Le passé, c'est le passé, ma belle, essaye d'oublier Un dernier date, un dernier verre J'aime trop ton corps, yah, et reparcourir tes formes, yah Partir seule et me laisser pour mort, yah J'voulais te faire des niños, mi amor, yah S'il faut de tout pour faire un monde, besoin de toi pour faire le mien Ma chérie, donne-moi la main, et viens faire tomber le Balmain ne les écoute pas J'ai pris mon air innocent et attendu au petit matin J'veux des petits de madame mais j'ai posé petit lapin Au bout du rouleau, je suis pathétique, âme enlisée dans les anxiolytiques D'la prise de masse à l'état squelettique, reprends-moi, bébé, j'pensais pas c'que j'ai dit On part en délit d'amour, la passion délie les langues C'est le printemps tous les jours, puis, c'est l'Enfer de ces nuits en attentes J'ai pleuré des larmes de sang, imploré le Tout-Puissant On s'est aimé, soi-disant, peut-être qu'on s'reverra dans dix ans Et j'ai pleuré des larmes de sang, imploré le Tout-Puissant Peut-être qu'on s'reverra dans dix ans You might also like Je sens qu'c'est fini, j'fume une dernière cigarette Un dernier date, un dernier verre Le passé, c'est le passé, ma belle, essaye d'oublier Un dernier date, un dernier verre J'aime trop ton corps, yah, et reparcourir tes formes, yah Partir serait me laisser pour mort, yah J'voulais te faire des niños, mi amor, yah Amor, fais-le pour toi, pour moi, pour nous, j'lisais tes lettres dans ma cellule solo Je n'quitterai pas le pas d'ta porte, prend du recul et sois plus forte Un dernier date, j'arrête mes conneries hey J'veux qu'on fonde une famille, hey, suis-je obligé d'te le chanter ? Je rêve qu'on sorte des abysses et qu'on puisse enfin se retrouver comme jadis On dit faute avouée, à moitié pardonnée Un dernier date, juste comme avant, qu'on parle enfants, appartement Laisse-moi prendre un dernier verre, comme avant, j'regrette tellement le temps d'avant Je sens qu'c'est fini, j'fume une dernière cigarette Un dernier date, un dernier verre Le passé, c'est le passé, ma belle, essaye d'oublier Un dernier date, un dernier verre J'aime trop ton corps, yah, et reparcourir tes formes, yah Partir serait me laisser pour mort, yah J'voulais te faire des niños, mi amor, yah1</t>
+          <t>Bonsoir, Honoré Je sens qu'c'est fini, j'fume une dernière cigarette Un dernier date, un dernier verre Le passé, c'est le passé, ma belle, essaye d'oublier Un dernier date, un dernier verre J'aime trop ton corps, yah, et reparcourir tes formes, yah Partir seule et me laisser pour mort, yah J'voulais te faire des niños, mi amor, yah S'il faut de tout pour faire un monde, besoin de toi pour faire le mien Ma chérie, donne-moi la main, et viens faire tomber le Balmain ne les écoute pas J'ai pris mon air innocent et attendu au petit matin J'veux des petits de madame mais j'ai posé petit lapin Au bout du rouleau, je suis pathétique, âme enlisée dans les anxiolytiques D'la prise de masse à l'état squelettique, reprends-moi, bébé, j'pensais pas c'que j'ai dit On part en délit d'amour, la passion délie les langues C'est le printemps tous les jours, puis, c'est l'Enfer de ces nuits en attentes J'ai pleuré des larmes de sang, imploré le Tout-Puissant On s'est aimé, soi-disant, peut-être qu'on s'reverra dans dix ans Et j'ai pleuré des larmes de sang, imploré le Tout-Puissant Peut-être qu'on s'reverra dans dix ans Je sens qu'c'est fini, j'fume une dernière cigarette Un dernier date, un dernier verre Le passé, c'est le passé, ma belle, essaye d'oublier Un dernier date, un dernier verre J'aime trop ton corps, yah, et reparcourir tes formes, yah Partir serait me laisser pour mort, yah J'voulais te faire des niños, mi amor, yah Amor, fais-le pour toi, pour moi, pour nous, j'lisais tes lettres dans ma cellule solo Je n'quitterai pas le pas d'ta porte, prend du recul et sois plus forte Un dernier date, j'arrête mes conneries hey J'veux qu'on fonde une famille, hey, suis-je obligé d'te le chanter ? Je rêve qu'on sorte des abysses et qu'on puisse enfin se retrouver comme jadis On dit faute avouée, à moitié pardonnée Un dernier date, juste comme avant, qu'on parle enfants, appartement Laisse-moi prendre un dernier verre, comme avant, j'regrette tellement le temps d'avant Je sens qu'c'est fini, j'fume une dernière cigarette Un dernier date, un dernier verre Le passé, c'est le passé, ma belle, essaye d'oublier Un dernier date, un dernier verre J'aime trop ton corps, yah, et reparcourir tes formes, yah Partir serait me laisser pour mort, yah J'voulais te faire des niños, mi amor, yah1</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Rongé par la peur d'tromper la mère de mes enfants qu'elle me trompe que j'me retrouve dans les faits divers aux infos Ravitaille zombies dans l'manoir, deux ampoules allumées sur le drapeau noir Si l'oseille c'est l'power on va baigner dans l'mal, si l'amour rend aveugle on va t'baiser dans l'noir Gros tu t'es réveillé dans un cauchemar où tu prenais peines de pointeur juste pour un pochtar hey hy J'suis d'retour avec Volts dans les bacs, Papada, fait ls back, j'fais le tour, dans le van J'fais des dates, j'fais des phases adéquates à mes fans, c'est des maths c'est pas des mythos, la rue c'est pas des lol, c'est des live Comment sombrer dans la vanité ? Jadis va-nu-pieds, le requin se régale de l'hémoglobine de chalutier J'ai de la peine pour ces rappeurs qui réclament charité, le partage remplace le talent, rap game chahuté Contrat d'artiste pour un euro symbolique, encore un bikow malheureux, saboté sans bolides C'est l'infini mélancolie d'un quotidien sordide, que des reines sans reliques et des thugs sans broliques Parabellum Araï Akha monnaie pour la mala, j'investis moula Copa Cabana, Canada, Malaga Beaucoup tentèrent de m'éliminer mais le talent n'est pas là, comment s'fait il que je buzz encore ? Ton Marabout est malade ? A l'heure de la remontada j'serai déjà là-bas, portoricaine en train d'me masser les boules et les deux panards Envie d'baiser, j'ai bu cool-al, envoie ta meuf elle est pas mal, j'réussis tout c'que j'entreprends, normal j'suis un mec de Paname Mec de Paname, mec de Paname, fais les fils et t'mets des bananes et la bavette sur le bitume, l'opinel te laisse une balafre Et ça rafale comme à Ramallah, ça refuse tous les barrages Laissez moi faire l'tour de la terre, j'ai plus l'temps pour les délits Elle aimerait que j'la baise, j'crois bien que le rap nous embellis J'suis français, je suis résidant, Police fait l'amnésique J'ai pas changé, si t'es pas content, mon ami c'est la même Des soucis dans la tête, ennemies mènent enquête Prends pas la tête, j'veux même plus dialoguer Vas-y mène ton enquête, j'm'en bats les steaks Ne crois pas qu'c'est la fête, on va t'choquer You might also like Hey, hey Niquer des mères c'est la requête, j'suis palestinien avec une roquette Algérien, j'ai l'drapeau facile, tant que j'suis refais, j'attire des refaites J'ai vendu la S en francs, mes bikows t'charclent avec des biceps d'enfant han Poteau rentrant, mes potos rentrent en cellule en chantant Poto prends ton temps, fais le , moi je nique zebi, ça demande du courage J'veux que maman porte la couronne, j'sais qu'elle fait des Douhas lors de l'orage Combien tu t'appelles, gentil n'a qu'un oeil, j'fais ma peine, j'sais qu'on m'porte l'3ain Hyperactif, je déborde de nerfs et j'ai laissé des larmes d'hémoglobine sur ma feuille Bordel de merde, tout est sous le pancho, c'est toi tu pécho, c'est moi j'ouvre le R Elle kiffe l'odeur d'mon after shave, pendant l'after show, j'suis un master chef Quand les Frères Lumières parlent, click, pah, ragrin, tah la Grinta On peut niquer le game avec un seul bras, recharger la Kalash de mes soldats Laissez moi faire l'tour de la terre, j'ai plus l'temps pour les délits Elle aimerait que j'la baise, j'crois bien que le rap nous embellis J'suis français, je suis résidant, Police fait l'amnésique J'ai pas changé, si t'es pas content, mon ami c'est la même Des soucis dans la tête, mènent enquête Prends pas la tête, j'veux même plus dialoguer Vas-y mène ton enquête, j'm'en bats les steaks Ne crois pas qu'c'est la fête, on va t'choquer C'est les Frères Lumières A des années lumières volume 2 Tous des fils de Grrr Ho krr Bye bye bye bye</t>
+          <t>Rongé par la peur d'tromper la mère de mes enfants qu'elle me trompe que j'me retrouve dans les faits divers aux infos Ravitaille zombies dans l'manoir, deux ampoules allumées sur le drapeau noir Si l'oseille c'est l'power on va baigner dans l'mal, si l'amour rend aveugle on va t'baiser dans l'noir Gros tu t'es réveillé dans un cauchemar où tu prenais peines de pointeur juste pour un pochtar hey hy J'suis d'retour avec Volts dans les bacs, Papada, fait ls back, j'fais le tour, dans le van J'fais des dates, j'fais des phases adéquates à mes fans, c'est des maths c'est pas des mythos, la rue c'est pas des lol, c'est des live Comment sombrer dans la vanité ? Jadis va-nu-pieds, le requin se régale de l'hémoglobine de chalutier J'ai de la peine pour ces rappeurs qui réclament charité, le partage remplace le talent, rap game chahuté Contrat d'artiste pour un euro symbolique, encore un bikow malheureux, saboté sans bolides C'est l'infini mélancolie d'un quotidien sordide, que des reines sans reliques et des thugs sans broliques Parabellum Araï Akha monnaie pour la mala, j'investis moula Copa Cabana, Canada, Malaga Beaucoup tentèrent de m'éliminer mais le talent n'est pas là, comment s'fait il que je buzz encore ? Ton Marabout est malade ? A l'heure de la remontada j'serai déjà là-bas, portoricaine en train d'me masser les boules et les deux panards Envie d'baiser, j'ai bu cool-al, envoie ta meuf elle est pas mal, j'réussis tout c'que j'entreprends, normal j'suis un mec de Paname Mec de Paname, mec de Paname, fais les fils et t'mets des bananes et la bavette sur le bitume, l'opinel te laisse une balafre Et ça rafale comme à Ramallah, ça refuse tous les barrages Laissez moi faire l'tour de la terre, j'ai plus l'temps pour les délits Elle aimerait que j'la baise, j'crois bien que le rap nous embellis J'suis français, je suis résidant, Police fait l'amnésique J'ai pas changé, si t'es pas content, mon ami c'est la même Des soucis dans la tête, ennemies mènent enquête Prends pas la tête, j'veux même plus dialoguer Vas-y mène ton enquête, j'm'en bats les steaks Ne crois pas qu'c'est la fête, on va t'choquer Hey, hey Niquer des mères c'est la requête, j'suis palestinien avec une roquette Algérien, j'ai l'drapeau facile, tant que j'suis refais, j'attire des refaites J'ai vendu la S en francs, mes bikows t'charclent avec des biceps d'enfant han Poteau rentrant, mes potos rentrent en cellule en chantant Poto prends ton temps, fais le , moi je nique zebi, ça demande du courage J'veux que maman porte la couronne, j'sais qu'elle fait des Douhas lors de l'orage Combien tu t'appelles, gentil n'a qu'un oeil, j'fais ma peine, j'sais qu'on m'porte l'3ain Hyperactif, je déborde de nerfs et j'ai laissé des larmes d'hémoglobine sur ma feuille Bordel de merde, tout est sous le pancho, c'est toi tu pécho, c'est moi j'ouvre le R Elle kiffe l'odeur d'mon after shave, pendant l'after show, j'suis un master chef Quand les Frères Lumières parlent, click, pah, ragrin, tah la Grinta On peut niquer le game avec un seul bras, recharger la Kalash de mes soldats Laissez moi faire l'tour de la terre, j'ai plus l'temps pour les délits Elle aimerait que j'la baise, j'crois bien que le rap nous embellis J'suis français, je suis résidant, Police fait l'amnésique J'ai pas changé, si t'es pas content, mon ami c'est la même Des soucis dans la tête, mènent enquête Prends pas la tête, j'veux même plus dialoguer Vas-y mène ton enquête, j'm'en bats les steaks Ne crois pas qu'c'est la fête, on va t'choquer C'est les Frères Lumières A des années lumières volume 2 Tous des fils de Grrr Ho krr Bye bye bye bye</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>9.3 c'est ma guerre, on se cale, on be3ed Y'a le 7.5 4,3,2 wâ7d Algérien du game, accent d'moudjahid Hayce Lemsi, Fianso, qu'est-ce que t'attends pour shahad Quand j'tire l'équipe tire frère on dirait qu'on m'back Parlez moi pas d'major dans ma tête c'est Ong-bak La mâchoire se contracte, ich ich Fais le fou, paf coup de tête ! Mesure double contact J'suis dans l'pétrole frère c'est pas l'même billet Pour compter tout mon pactole poto j'en ai pour 2 mois Un sport de roi, des scores de NBA J'suis tellement fort que je crois même des fois j'suis plus fort que moi Tous entassés dans la cellule en position ftale Par la faute de celle que l'on vend que l'on inhale Tout est bien qui finit mal au sommet du règne animal On fait l'amour entre 2 guerres au lieu de consulter l'imam A la recherche d'la pièce ma came, la pièce mon bif La pièce ma liasse, la pièce ma pièce La pièce ma came, la pièce ma liasse La pièce mon bif, la pièce ich ich ouhh J'rentre dans la tie-par tapis direct j'l'ai baise en brochette en brelan ma gueule on vise le four Si tu veux me fumer tu fais la queue t'es pas content dans pas longtemps j'sors double calibre comme le signe de Jul Si tu veux passer chez So dans mon vaisseaux boule de fumée j'suis pas là demande à Kala dis le si j'te saoule Passe à la cité ma rapacité tu vas 'rhaffer' face à face tu vas te refaire baffer par un jnoun J'me suis refais de la pièce, que j'ai trouvé dans la tess Aujourd'hui ils m'appellent Altesse, hier ils me tournaient l'dos Donne moi une pièce et regarde moi bâtir un empire Donne moi une pièce et regarde moi bâtir un empire J'me suis refais de la pièce, que j'ai trouvé dans la tess Aujourd'hui ils m'appellent Altesse, hier ils me tournaient l'dos Donne moi une pièce et regarde moi bâtir un empire Donne moi une pièce et regarde moi bâtir un empire Faut que j'gratte ma pièce, ma caisse, ma liasse Ma peste de Budapest, j't'attache je m'arrache de la tess Les yeuz écarquillés devant la Féfé California Ce que nous enseignèrent nos parents est au funérarium Dans tout les ghettos c'est la guerre territoriale La prison, les hôpitaux, le célesta, le Valium, bicot Dans nos tess on fait l'biff en enchaînant J'dors plus pour le bénef, mais non man on veut ta pièce On fait des cures en saignant Des dictatures en régnant, mes deux mains dans la caisse On ramasse et en se plaignant Cavaler comme un Kenyan esquivé comme la peste Pour toucher Fianso t'es lent On recule pas trimard, on prend l'élan et le reste On se refait d'une pièce, nul ne connait l'avenir Handek, ta langue c'est comme ta femme à toi de savoir la tenir On se refait d'une pièce, pour m'avoir ils se lèveront tôt Rafale dans l'bas de caisse, on t'allume dans un cab', j'prends mon calibre et je dab quand l'ennemi est dans mon dos Bang, bang, bang, bang ! J'me suis refait de la pièce, que j'ai trouvé dans la tess Aujourd'hui ils m'appellent Altesse, hier ils me tourné l'dos Donne moi une pièce et regarde moi bâtir un empire Donne moi une pièce et regarde moi bâtir un empire J'me suis refait de la pièce, que j'ai trouvé dans la tess Aujourd'hui ils m'appellent Altesse, hier ils me tourné l'dos Donne moi une pièce et regarde moi bâtir un empire Donne moi une pièce et regarde moi bâtir un empire A l'aube du 21ème siècle ce qui nous manque c'est pas l'argent mais de véritable valeur La vie c'est pas les belles filles, le Dom Pérignon, sur le périphérique à 300 kilomètres à l'heure J'ai beau demander à la lune d'apaiser mon insomnie, ouais, sans suite J'connais quelques charbonneurs qui ne s'en sont jamais remis, on pense très fort à nos familles en pleine course poursuite, tout ça pour la pièceYou might also like5</t>
+          <t>9.3 c'est ma guerre, on se cale, on be3ed Y'a le 7.5 4,3,2 wâ7d Algérien du game, accent d'moudjahid Hayce Lemsi, Fianso, qu'est-ce que t'attends pour shahad Quand j'tire l'équipe tire frère on dirait qu'on m'back Parlez moi pas d'major dans ma tête c'est Ong-bak La mâchoire se contracte, ich ich Fais le fou, paf coup de tête ! Mesure double contact J'suis dans l'pétrole frère c'est pas l'même billet Pour compter tout mon pactole poto j'en ai pour 2 mois Un sport de roi, des scores de NBA J'suis tellement fort que je crois même des fois j'suis plus fort que moi Tous entassés dans la cellule en position ftale Par la faute de celle que l'on vend que l'on inhale Tout est bien qui finit mal au sommet du règne animal On fait l'amour entre 2 guerres au lieu de consulter l'imam A la recherche d'la pièce ma came, la pièce mon bif La pièce ma liasse, la pièce ma pièce La pièce ma came, la pièce ma liasse La pièce mon bif, la pièce ich ich ouhh J'rentre dans la tie-par tapis direct j'l'ai baise en brochette en brelan ma gueule on vise le four Si tu veux me fumer tu fais la queue t'es pas content dans pas longtemps j'sors double calibre comme le signe de Jul Si tu veux passer chez So dans mon vaisseaux boule de fumée j'suis pas là demande à Kala dis le si j'te saoule Passe à la cité ma rapacité tu vas 'rhaffer' face à face tu vas te refaire baffer par un jnoun J'me suis refais de la pièce, que j'ai trouvé dans la tess Aujourd'hui ils m'appellent Altesse, hier ils me tournaient l'dos Donne moi une pièce et regarde moi bâtir un empire Donne moi une pièce et regarde moi bâtir un empire J'me suis refais de la pièce, que j'ai trouvé dans la tess Aujourd'hui ils m'appellent Altesse, hier ils me tournaient l'dos Donne moi une pièce et regarde moi bâtir un empire Donne moi une pièce et regarde moi bâtir un empire Faut que j'gratte ma pièce, ma caisse, ma liasse Ma peste de Budapest, j't'attache je m'arrache de la tess Les yeuz écarquillés devant la Féfé California Ce que nous enseignèrent nos parents est au funérarium Dans tout les ghettos c'est la guerre territoriale La prison, les hôpitaux, le célesta, le Valium, bicot Dans nos tess on fait l'biff en enchaînant J'dors plus pour le bénef, mais non man on veut ta pièce On fait des cures en saignant Des dictatures en régnant, mes deux mains dans la caisse On ramasse et en se plaignant Cavaler comme un Kenyan esquivé comme la peste Pour toucher Fianso t'es lent On recule pas trimard, on prend l'élan et le reste On se refait d'une pièce, nul ne connait l'avenir Handek, ta langue c'est comme ta femme à toi de savoir la tenir On se refait d'une pièce, pour m'avoir ils se lèveront tôt Rafale dans l'bas de caisse, on t'allume dans un cab', j'prends mon calibre et je dab quand l'ennemi est dans mon dos Bang, bang, bang, bang ! J'me suis refait de la pièce, que j'ai trouvé dans la tess Aujourd'hui ils m'appellent Altesse, hier ils me tourné l'dos Donne moi une pièce et regarde moi bâtir un empire Donne moi une pièce et regarde moi bâtir un empire J'me suis refait de la pièce, que j'ai trouvé dans la tess Aujourd'hui ils m'appellent Altesse, hier ils me tourné l'dos Donne moi une pièce et regarde moi bâtir un empire Donne moi une pièce et regarde moi bâtir un empire A l'aube du 21ème siècle ce qui nous manque c'est pas l'argent mais de véritable valeur La vie c'est pas les belles filles, le Dom Pérignon, sur le périphérique à 300 kilomètres à l'heure J'ai beau demander à la lune d'apaiser mon insomnie, ouais, sans suite J'connais quelques charbonneurs qui ne s'en sont jamais remis, on pense très fort à nos familles en pleine course poursuite, tout ça pour la pièce5</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Bitch I'm ready to the top, men Enfant issu d'la classe ouvrière D'la maternelle au shtar on a vrillé Aujourd'hui n'se rappelle plus d'hier Midi-minuit j'serais pas là pour le dîner J'fais monter les gamma GT dans le GTD J'ai été déçu par des gens que j'ai aidé Corazon brisé par des femmes que j'ai aimées Mais pas si rancunier j'pardonne sans oublier Chez nous faut charbonner deux fois plus pour s'en sortir J'voulais faire partie de l'élite pilote d'voitures sportives J'veux, prendre ma retraite à Palawan aux Maldives Hyperactif, DZ j'ai du sang de martyr Ils font pleurer les hommes à leur naissance Et non pas à leur mort disait Montesquieu Quand est-ce qu'on monte ensemble sans se désosser pour l'appât du gain Parler dans le dos de chacun c'est une bonne question J'suis conscient qu'le temps s'fait précieux J'sais pas faire semblant d'apprécier Le mental est d'acier J'sais qu'fortuna sourit toujours aux audacieux On n'est jamais graciés, tu veux nous écraser Comment tu veux nous retrouver si on t'crève les yeux Toute ma vie à marcher sur un brasier J'sais pas c'qu'y sont venus brailler mais j'vais braquer l'jeu You might also like J'ai pas perdu mon temps dans la cité Même si j'ai déjà chargé l'appuie-tête Les tits-peu j'veux pas les inciter J'suis dans la cité y en a qui dead Peur de n'jamais la quitter Le hazi, les armes et la zipette Les tits-peu j'veux pas les inciter J'suis dans la cité y en a qui dead J'ai pas perdu mon temps dans la cité Même si j'ai déjà chargé l'appuie-tête Les tits-peu j'veux pas les inciter J'suis dans la cité y en a qui dead Peur de n'jamais la quitter Le hazi, les armes et la zipette Les tits-peu j'veux pas les inciter J'suis dans la cité y en a qui dead Comme l'aigle royal J'me sers de la tempête pour aller plus haut Gagnant même lorsque la concurrence est déloyale Y a des fuites on s'marche sur les tuyaux Besoin d'un écuyer gentilhomme et d'une arme Aller chercher de l'or m'assoupir sur du marbre IPhone brrr c'est les forces du mal Ça va cricker d'la zipette a 4 heures du mat' Peu m'importe l'audimate les certifs les sorties C'qui m'importe c'est d'conquérir le cur de mes fans J'ai la forme et le fond j'suis la faune et la flore J'en ai crossé du mic', H la Kalash Hayce Une pas deux j'te l'éclate le plafond de verre Fais pas l'chef de guérilla t'es mon neveu J'ai poussé dans les orties des bas fonds L'hiver s'annonce bizarre j'vais foutre le feu J'ai pas perdu mon temps dans la cité Peur de n'jamais la quitter J'ai pas perdu mon temps dans la cité Même si j'ai déjà chargé l'appuie-tête Les tits-peu j'veux pas les inciter J'suis dans la cité y en a qui dead Peur de n'jamais la quitter Le hazi, les armes et la zipette Les tits-peu j'veux pas les inciter J'suis dans la cité y en a qui dead J'ai pas perdu mon temps dans la cité Même si j'ai déjà chargé l'appuie-tête Les tits-peu j'veux pas les inciter J'suis dans la cité y en a qui dead Peur de n'jamais la quitter Le hazi, les armes et la zipette Les tits-peu j'veux pas les inciter J'suis dans la cité y en a qui dead</t>
+          <t>Bitch I'm ready to the top, men Enfant issu d'la classe ouvrière D'la maternelle au shtar on a vrillé Aujourd'hui n'se rappelle plus d'hier Midi-minuit j'serais pas là pour le dîner J'fais monter les gamma GT dans le GTD J'ai été déçu par des gens que j'ai aidé Corazon brisé par des femmes que j'ai aimées Mais pas si rancunier j'pardonne sans oublier Chez nous faut charbonner deux fois plus pour s'en sortir J'voulais faire partie de l'élite pilote d'voitures sportives J'veux, prendre ma retraite à Palawan aux Maldives Hyperactif, DZ j'ai du sang de martyr Ils font pleurer les hommes à leur naissance Et non pas à leur mort disait Montesquieu Quand est-ce qu'on monte ensemble sans se désosser pour l'appât du gain Parler dans le dos de chacun c'est une bonne question J'suis conscient qu'le temps s'fait précieux J'sais pas faire semblant d'apprécier Le mental est d'acier J'sais qu'fortuna sourit toujours aux audacieux On n'est jamais graciés, tu veux nous écraser Comment tu veux nous retrouver si on t'crève les yeux Toute ma vie à marcher sur un brasier J'sais pas c'qu'y sont venus brailler mais j'vais braquer l'jeu J'ai pas perdu mon temps dans la cité Même si j'ai déjà chargé l'appuie-tête Les tits-peu j'veux pas les inciter J'suis dans la cité y en a qui dead Peur de n'jamais la quitter Le hazi, les armes et la zipette Les tits-peu j'veux pas les inciter J'suis dans la cité y en a qui dead J'ai pas perdu mon temps dans la cité Même si j'ai déjà chargé l'appuie-tête Les tits-peu j'veux pas les inciter J'suis dans la cité y en a qui dead Peur de n'jamais la quitter Le hazi, les armes et la zipette Les tits-peu j'veux pas les inciter J'suis dans la cité y en a qui dead Comme l'aigle royal J'me sers de la tempête pour aller plus haut Gagnant même lorsque la concurrence est déloyale Y a des fuites on s'marche sur les tuyaux Besoin d'un écuyer gentilhomme et d'une arme Aller chercher de l'or m'assoupir sur du marbre IPhone brrr c'est les forces du mal Ça va cricker d'la zipette a 4 heures du mat' Peu m'importe l'audimate les certifs les sorties C'qui m'importe c'est d'conquérir le cur de mes fans J'ai la forme et le fond j'suis la faune et la flore J'en ai crossé du mic', H la Kalash Hayce Une pas deux j'te l'éclate le plafond de verre Fais pas l'chef de guérilla t'es mon neveu J'ai poussé dans les orties des bas fonds L'hiver s'annonce bizarre j'vais foutre le feu J'ai pas perdu mon temps dans la cité Peur de n'jamais la quitter J'ai pas perdu mon temps dans la cité Même si j'ai déjà chargé l'appuie-tête Les tits-peu j'veux pas les inciter J'suis dans la cité y en a qui dead Peur de n'jamais la quitter Le hazi, les armes et la zipette Les tits-peu j'veux pas les inciter J'suis dans la cité y en a qui dead J'ai pas perdu mon temps dans la cité Même si j'ai déjà chargé l'appuie-tête Les tits-peu j'veux pas les inciter J'suis dans la cité y en a qui dead Peur de n'jamais la quitter Le hazi, les armes et la zipette Les tits-peu j'veux pas les inciter J'suis dans la cité y en a qui dead</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Hey, flex comme Hayce Hey, flex comme Hayce Hey, flex comme Hayce Hey, flex comme Hayce En buvette sur la corniche, un uzi sur du Hasni Baida, Baida, Mon amour Jdescends du cab', te rafale, rebeu, joue pas les Bruce Lee Vous parlez, léléphant n'sent pas les piqûres de moustique Un million deuros, des femmes, du champagne, ça mémoustille yeah Quand je prends mon air innocent, méfie-toi du gauche-droite Au mitard, y a du sang tout-par, jveux plus dormir au chtar Holala je vais les piller, je fais la mulala, des milli-mi-lliers Des melololo dans la cabeza, jappelle Fa-la-la-la-le pour les humilier Narco, Dolce Narco Dans le bendo, je sors l'extendo, rang, danse le mambo Paris bendo grimpe dans la Lambo' Pour la maille, tout le monde est mauvais Pour la moula, pour la moula tous les moyens, pour la maille, tout le monde est mauvais, pour la moula, pour la monnaie Fratello, Dolce Narco, je sors l'extendo, rang danse le mambo Tes mort dès l'début d'la série, jai voulu t'sauver mais tas flairé Tavais pas ta place, cétait serré, l'scénar' a changé, tu t'jettes sur la voie ferrée Jrespecte que la droiture tu donnes, tu reçois jy crois dur Faire sauter la toiture, jréécoute les mix dans la voiture Faut les éliminer, gros, y a pas d'secret, mets du poison dans la chicha menthe sucrée C'est tard dans la nuit que les collab' se créent j'ai fini la sauce, on passe à table, c'est prêt Bébé, j'vais pas t'sauter, non, eh, calme-toi, prends pas l'démon, eh Jprends mon temps, le game est très lent, eh, j'recule que pour prendre de lélan, eh Pas de pouvoir sans les tickets, pas de respect sans les titres, eh Pas de séparation dans léquipe, jamais touchés par les piques, eh Jarrive, j'suis dans une forme olympique, nécoutez pas vos indics, eh Flex comme Hayce et Lefa, authentiques, désolé, tes pas invité, eh You might also like Narco, Dolce Narco Dans le bendo, je sors l'extendo, rang, danse le mambo Paris bendo grimpe dans la Lambo' Pour la maille, tout le monde est mauvais Pour la moula, pour la moula tout les moyens, pour la maille, tout le monde est mauvais, pour la moula, pour la monnaie Fratello, Dolce Narco, je sors l'extendo, rang, danse le mambo Hey, 6.3 siège baissé, nouveau compte HSBC Tu lui s'ras fidèle jusquau décès Pendant que tu charbonnes, elle va se faire baiser Tes jamais content, CGT, suis les instructions sur le PGP Prends tes aises avant d'te faire éjecter, t'es quun pion sur mon échiquier Des 3arbis, des blancs, des pédés, ça mélange le t3am avec latieke Jai mis mon bandeau comme le ché, de la libido pour toute la noche Charge le coffre, y a du VTC, les maisons darrêts, cest JD Talon-tatouage poitrine compressé, un lapdance, elle peut me faire gicler Hey, flex comme Hayce Hey, flex comme Hayce Hey, flex comme Hayce Hey, flex comme Hayce</t>
+          <t>Hey, flex comme Hayce Hey, flex comme Hayce Hey, flex comme Hayce Hey, flex comme Hayce En buvette sur la corniche, un uzi sur du Hasni Baida, Baida, Mon amour Jdescends du cab', te rafale, rebeu, joue pas les Bruce Lee Vous parlez, léléphant n'sent pas les piqûres de moustique Un million deuros, des femmes, du champagne, ça mémoustille yeah Quand je prends mon air innocent, méfie-toi du gauche-droite Au mitard, y a du sang tout-par, jveux plus dormir au chtar Holala je vais les piller, je fais la mulala, des milli-mi-lliers Des melololo dans la cabeza, jappelle Fa-la-la-la-le pour les humilier Narco, Dolce Narco Dans le bendo, je sors l'extendo, rang, danse le mambo Paris bendo grimpe dans la Lambo' Pour la maille, tout le monde est mauvais Pour la moula, pour la moula tous les moyens, pour la maille, tout le monde est mauvais, pour la moula, pour la monnaie Fratello, Dolce Narco, je sors l'extendo, rang danse le mambo Tes mort dès l'début d'la série, jai voulu t'sauver mais tas flairé Tavais pas ta place, cétait serré, l'scénar' a changé, tu t'jettes sur la voie ferrée Jrespecte que la droiture tu donnes, tu reçois jy crois dur Faire sauter la toiture, jréécoute les mix dans la voiture Faut les éliminer, gros, y a pas d'secret, mets du poison dans la chicha menthe sucrée C'est tard dans la nuit que les collab' se créent j'ai fini la sauce, on passe à table, c'est prêt Bébé, j'vais pas t'sauter, non, eh, calme-toi, prends pas l'démon, eh Jprends mon temps, le game est très lent, eh, j'recule que pour prendre de lélan, eh Pas de pouvoir sans les tickets, pas de respect sans les titres, eh Pas de séparation dans léquipe, jamais touchés par les piques, eh Jarrive, j'suis dans une forme olympique, nécoutez pas vos indics, eh Flex comme Hayce et Lefa, authentiques, désolé, tes pas invité, eh Narco, Dolce Narco Dans le bendo, je sors l'extendo, rang, danse le mambo Paris bendo grimpe dans la Lambo' Pour la maille, tout le monde est mauvais Pour la moula, pour la moula tout les moyens, pour la maille, tout le monde est mauvais, pour la moula, pour la monnaie Fratello, Dolce Narco, je sors l'extendo, rang, danse le mambo Hey, 6.3 siège baissé, nouveau compte HSBC Tu lui s'ras fidèle jusquau décès Pendant que tu charbonnes, elle va se faire baiser Tes jamais content, CGT, suis les instructions sur le PGP Prends tes aises avant d'te faire éjecter, t'es quun pion sur mon échiquier Des 3arbis, des blancs, des pédés, ça mélange le t3am avec latieke Jai mis mon bandeau comme le ché, de la libido pour toute la noche Charge le coffre, y a du VTC, les maisons darrêts, cest JD Talon-tatouage poitrine compressé, un lapdance, elle peut me faire gicler Hey, flex comme Hayce Hey, flex comme Hayce Hey, flex comme Hayce Hey, flex comme Hayce</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Dope boy Dope boy Poussière d'ange tombé du ciel recouvre dope boy L'étau s'resserre, le commissaire joue les cow-boy J'entends les corbeaux, rafale de balles dans le corps boy Finis la vie de rêve, les litrons sur le hors-bord Personne ne t'a dit adios Personne ne t'a dit adios Dollar mi corazón amigos Dollar mi corazón amigos Tijuana, Marbella, Caracas Dope boy recherche le dinero On envoie l'inspecteur à la casse Vatos a la mas de pistolero Dope boy, cocaïne, cow-boy Une main sur le Smith Wesson Les yeux sur le pactole Moteur bouillant comme le magma On ne craint plus le canon du magnum On ne sent plus l'alcool J'ai gardé la tête haute D'autres se mutilent On achète la justice avec des pots d'vin Le visage du shérif sous la bottine On s'occupe de la dope et du bétail bovin Vaquero tu n'es pas d'taille, tu n'as pas d'baveux Si t'avances sans flaire, ces bâtards t'enferment Au fond du saloon ça sent fort la beuh J'ai beaucoup d'ressources pour un garçon d'ferme Ramasse tous tes pistolero J'ai vu de fidèles amis canner dans un gramme d'héro Comme si le destin m'avait tiré par le sombrero Les dinero pour illuminer nos vies sombres You might also like Poussière d'ange tombé du ciel recouvre dope boy L'étau s'resserre, le commissaire joue les cow-boy J'entends les corbeaux, rafale de balle dans le corps boy Finis la vie de rêve, les litrons sur le hors-bord Personne ne t'a dit adios Personne ne t'a dit adios Dollar mi corazón amigos Dollar mi corazón amigos On ne craint plus le canon du magnum On ne sent plus l'alcool J'ai beaucoup d'ressources pour un garçon d'ferme Comme si le destin m'avait tiré par le sombrero</t>
+          <t>Dope boy Dope boy Poussière d'ange tombé du ciel recouvre dope boy L'étau s'resserre, le commissaire joue les cow-boy J'entends les corbeaux, rafale de balles dans le corps boy Finis la vie de rêve, les litrons sur le hors-bord Personne ne t'a dit adios Personne ne t'a dit adios Dollar mi corazón amigos Dollar mi corazón amigos Tijuana, Marbella, Caracas Dope boy recherche le dinero On envoie l'inspecteur à la casse Vatos a la mas de pistolero Dope boy, cocaïne, cow-boy Une main sur le Smith Wesson Les yeux sur le pactole Moteur bouillant comme le magma On ne craint plus le canon du magnum On ne sent plus l'alcool J'ai gardé la tête haute D'autres se mutilent On achète la justice avec des pots d'vin Le visage du shérif sous la bottine On s'occupe de la dope et du bétail bovin Vaquero tu n'es pas d'taille, tu n'as pas d'baveux Si t'avances sans flaire, ces bâtards t'enferment Au fond du saloon ça sent fort la beuh J'ai beaucoup d'ressources pour un garçon d'ferme Ramasse tous tes pistolero J'ai vu de fidèles amis canner dans un gramme d'héro Comme si le destin m'avait tiré par le sombrero Les dinero pour illuminer nos vies sombres Poussière d'ange tombé du ciel recouvre dope boy L'étau s'resserre, le commissaire joue les cow-boy J'entends les corbeaux, rafale de balle dans le corps boy Finis la vie de rêve, les litrons sur le hors-bord Personne ne t'a dit adios Personne ne t'a dit adios Dollar mi corazón amigos Dollar mi corazón amigos On ne craint plus le canon du magnum On ne sent plus l'alcool J'ai beaucoup d'ressources pour un garçon d'ferme Comme si le destin m'avait tiré par le sombrero</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Nabz, nigga, what's up ? J'voulais vous parler de Dounia Dounia mais aujourd'hui, j'suis faya faya Khapta à la playa Yougataga, va bene ma bella bella L'Afrique, c'est mieux que Pattaya, vêtu de l'3arbaya, elle a délaissé Marbella, bikow, va bene ma belle Chaque dounia, les matinales, dans un linceul au village, on va la perdre au final, ouais Oh, oh, oh, j'ai repris des mois sur ma peine Oh, oh, oh, un p'tit verre, histoire de noyer ma peine Pop, pop, pop, j'le sais, frérot, mais je fréquente cette fille qui s'appelle Dounia Toc, toc, toc, les keufs cassent la porte, je rentre, je ressors, j'pars à Médina C'est ma vie, ma vie, la vida loca C'est ma vie, Hayce Lemsi, Yougataga Dans nos têtes, c'est la guerre, c'est pire qu'à Sarajevo, c'est Mister, Hayce, et l'younos ? prosterne, asseyez-vous J'voulais sortir avec Dounia mais les chapros ? n'est pas Azrail, ça vend le shit et la cocaïne Surtout, fume pas, tu seras handicapé handicapé, que Dieu m'en soit témoin témoin Le bonheur est dans le pré bonheur est dans le pré, le malheur est dans le loin woh Ne fait pas causette avec les misérables, tant d'oseille mais j'me sens si vulnérable En retard à mes funérailles, je revends le funérarium You might also like Oh, oh, oh, j'ai repris des mois sur ma peine Oh, oh, oh, un p'tit verre, histoire de noyer ma peine Pop, pop, pop, j'le sais, frérot, mais je fréquente cette fille qui s'appelle Dounia Toc, toc, toc, les keufs cassent la porte, je rentre, je ressors, j'pars à Médina C'est ma vie, ma vie, la vida loca C'est ma vie, Hayce Lemsi, Yougataga Nebki a'3lal dounia koul youm nebki a'3lal dounia Nebki a'3lal dounia koul youm nebki a'3lal dounia Pop, pop, pop, j'le sais, frérot, mais je fréquente cette fille qui s'appelle Dounia Toc, toc, toc, les keufs cassent la porte, je rentre, je ressors, j'pars à Médina C'est ma vie, ma vie, la vida loca C'est ma vie, Hayce Lemsi, Yougataga</t>
+          <t>Nabz, nigga, what's up ? J'voulais vous parler de Dounia Dounia mais aujourd'hui, j'suis faya faya Khapta à la playa Yougataga, va bene ma bella bella L'Afrique, c'est mieux que Pattaya, vêtu de l'3arbaya, elle a délaissé Marbella, bikow, va bene ma belle Chaque dounia, les matinales, dans un linceul au village, on va la perdre au final, ouais Oh, oh, oh, j'ai repris des mois sur ma peine Oh, oh, oh, un p'tit verre, histoire de noyer ma peine Pop, pop, pop, j'le sais, frérot, mais je fréquente cette fille qui s'appelle Dounia Toc, toc, toc, les keufs cassent la porte, je rentre, je ressors, j'pars à Médina C'est ma vie, ma vie, la vida loca C'est ma vie, Hayce Lemsi, Yougataga Dans nos têtes, c'est la guerre, c'est pire qu'à Sarajevo, c'est Mister, Hayce, et l'younos ? prosterne, asseyez-vous J'voulais sortir avec Dounia mais les chapros ? n'est pas Azrail, ça vend le shit et la cocaïne Surtout, fume pas, tu seras handicapé handicapé, que Dieu m'en soit témoin témoin Le bonheur est dans le pré bonheur est dans le pré, le malheur est dans le loin woh Ne fait pas causette avec les misérables, tant d'oseille mais j'me sens si vulnérable En retard à mes funérailles, je revends le funérarium Oh, oh, oh, j'ai repris des mois sur ma peine Oh, oh, oh, un p'tit verre, histoire de noyer ma peine Pop, pop, pop, j'le sais, frérot, mais je fréquente cette fille qui s'appelle Dounia Toc, toc, toc, les keufs cassent la porte, je rentre, je ressors, j'pars à Médina C'est ma vie, ma vie, la vida loca C'est ma vie, Hayce Lemsi, Yougataga Nebki a'3lal dounia koul youm nebki a'3lal dounia Nebki a'3lal dounia koul youm nebki a'3lal dounia Pop, pop, pop, j'le sais, frérot, mais je fréquente cette fille qui s'appelle Dounia Toc, toc, toc, les keufs cassent la porte, je rentre, je ressors, j'pars à Médina C'est ma vie, ma vie, la vida loca C'est ma vie, Hayce Lemsi, Yougataga</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>I, I, I love Chris Rich J'suis la suite de l'épidémie, les frères, fallait pas vous déconfiner J'fais l'rappel pendant l'Ramadan mais deux jours après, tu vas t'dandiner Tu sais, le buzz, c'est qu'un robinet, demain, tu disparais comme Flo Rida Écouté d'la ce-Fran jusqu'en Guinée, ton papa s'enjaille, pète son cohiba J'tire dans l'tas, y a du sang partout, j'traîne avec arabes, noirs, babtous J'n'ai confiance qu'en Dieu, qu'au mektoub, j'connais pas la mise mais j'mets l'double Ils croient qu'on blague, qu'on est comme eux han mais j'serai tout seul le jour où j'vais caner Comment j'vois qu'y a d'la haine dans les com', en tout cas, celui qui m'ken, il est pas né il est pas né Et j'ai grandi dans la sère-mi, contrôle de keufs, défaut d'permis, tu veux du rap, là, t'es servi J'rentre par derrière dans la te-boî, tu passeras l'salam au deur-vi coucou J'ai des ennemis qui voudraient m'éteindre, certains jaloux veulent me voir à sec Mes sentiments s'raient noirs si j'pouvais les peindre, bébé, si j'veux ton cur, crois-moi, j'pars avec ADAL 2 dans les bacs, ADAL 2 dans les bacs, ça, c'est juste la suite ADAL 2 dans les bacs, ADAL 2 dans les bacs, vas-y, prends la fuite Elle veut qu'j'lui donne de l'amour mais j'sais pas comment faire alors, apprends-moi Petit frère quitte le four, y a d'l'argent propre à faire, dis-moi t'attends quoi hun C'est pas pour rien qu'nous nous allions nan, tu peux ler-par mais essaye de faire mieux ouais Elle voudrait qu'j'la prenne au sérieux, la racli porte un t-shirt du Roi Lion eh, eh J'suis toujours sur les nerfs comme un keuf, keuf, keuf, numéro 9, on arrive à l'heure où termine la teuf, teuf, teuf Chez nous, zéro bluff, des idées noires dans la tête, si on l'a vu, on l'achète bien sûr qu'on l'achète Va poser ton cul sur la chaise, celui qui jacte, on l'achève bien sûr qu'on l'achève Ta chatte sent le chasuble, j'suis posé sur le corner ouh J'vends pas d'CD mais j'suis pas nul, vrai écrivain comme Baudelaire grick You might also like J'recompte kichtas, c'est fantastique blah J'aime trop cher-tou ses eins-s' en plastique t'-t'-ta Veuillez me passer l'oseille passer l'oseille Hold up, veuillez me passer l'oseille passer l'oseille, vite C'est l'Homme qui fait l'argent, pas l'argent qui fait l'Homme pas l'argent qui fait l'Homme J'suis toujours à la baie, j'bénéf', bédave, porte Parabellum Cocaïne, cow-boy, trop gé-char, j'traverse les portes battantes grick Touche à la mif', j't'arrache ta pomme d'Adam ta pomme d'Adam J'sors le que-tru, ça catchu, catchu J'touche pas ma kelba sans caoutchouc le caoutchouc Si j'le fais, c'est pour le Woo pour le Woo Si j'le fais, c'est pour le ah Bitch, I'm a dog, j'rappe comme un porc, arme de poing de Paname au Vieux-Port J'sors de la Porsche, j'écrase ma clope sur le visage d'un rappeur qui s'prend pour un thug Au comico, y a mon portrait rebeu, j'ai ouvert le rrain-te, t'as juste porté la beuh Ils ont tous le même flow, j'les ai pris pour des robots, ma chérie, j'veux plus de violets pour tes yeux bleus J'roule un doré sur mon disque doré doré J'n'adore pas c'qui n'a lieu d'être adoré Salvatore, Salvatore grick Veuillez me passer l'oseille grick J'recompte kichtas, c'est fantastique j'recompte kichtas, c'est fantastique J'aime trop cher-tou ses eins-s' en plastique ses eins-s' en plastique, mouah Veuillez me passer l'oseille passer ma paye Hold up, veuillez me passer l'oseille grick ah, j'recompte kichta, c'est fantastique, ADAL 2</t>
+          <t>I, I, I love Chris Rich J'suis la suite de l'épidémie, les frères, fallait pas vous déconfiner J'fais l'rappel pendant l'Ramadan mais deux jours après, tu vas t'dandiner Tu sais, le buzz, c'est qu'un robinet, demain, tu disparais comme Flo Rida Écouté d'la ce-Fran jusqu'en Guinée, ton papa s'enjaille, pète son cohiba J'tire dans l'tas, y a du sang partout, j'traîne avec arabes, noirs, babtous J'n'ai confiance qu'en Dieu, qu'au mektoub, j'connais pas la mise mais j'mets l'double Ils croient qu'on blague, qu'on est comme eux han mais j'serai tout seul le jour où j'vais caner Comment j'vois qu'y a d'la haine dans les com', en tout cas, celui qui m'ken, il est pas né il est pas né Et j'ai grandi dans la sère-mi, contrôle de keufs, défaut d'permis, tu veux du rap, là, t'es servi J'rentre par derrière dans la te-boî, tu passeras l'salam au deur-vi coucou J'ai des ennemis qui voudraient m'éteindre, certains jaloux veulent me voir à sec Mes sentiments s'raient noirs si j'pouvais les peindre, bébé, si j'veux ton cur, crois-moi, j'pars avec ADAL 2 dans les bacs, ADAL 2 dans les bacs, ça, c'est juste la suite ADAL 2 dans les bacs, ADAL 2 dans les bacs, vas-y, prends la fuite Elle veut qu'j'lui donne de l'amour mais j'sais pas comment faire alors, apprends-moi Petit frère quitte le four, y a d'l'argent propre à faire, dis-moi t'attends quoi hun C'est pas pour rien qu'nous nous allions nan, tu peux ler-par mais essaye de faire mieux ouais Elle voudrait qu'j'la prenne au sérieux, la racli porte un t-shirt du Roi Lion eh, eh J'suis toujours sur les nerfs comme un keuf, keuf, keuf, numéro 9, on arrive à l'heure où termine la teuf, teuf, teuf Chez nous, zéro bluff, des idées noires dans la tête, si on l'a vu, on l'achète bien sûr qu'on l'achète Va poser ton cul sur la chaise, celui qui jacte, on l'achève bien sûr qu'on l'achève Ta chatte sent le chasuble, j'suis posé sur le corner ouh J'vends pas d'CD mais j'suis pas nul, vrai écrivain comme Baudelaire grick J'recompte kichtas, c'est fantastique blah J'aime trop cher-tou ses eins-s' en plastique t'-t'-ta Veuillez me passer l'oseille passer l'oseille Hold up, veuillez me passer l'oseille passer l'oseille, vite C'est l'Homme qui fait l'argent, pas l'argent qui fait l'Homme pas l'argent qui fait l'Homme J'suis toujours à la baie, j'bénéf', bédave, porte Parabellum Cocaïne, cow-boy, trop gé-char, j'traverse les portes battantes grick Touche à la mif', j't'arrache ta pomme d'Adam ta pomme d'Adam J'sors le que-tru, ça catchu, catchu J'touche pas ma kelba sans caoutchouc le caoutchouc Si j'le fais, c'est pour le Woo pour le Woo Si j'le fais, c'est pour le ah Bitch, I'm a dog, j'rappe comme un porc, arme de poing de Paname au Vieux-Port J'sors de la Porsche, j'écrase ma clope sur le visage d'un rappeur qui s'prend pour un thug Au comico, y a mon portrait rebeu, j'ai ouvert le rrain-te, t'as juste porté la beuh Ils ont tous le même flow, j'les ai pris pour des robots, ma chérie, j'veux plus de violets pour tes yeux bleus J'roule un doré sur mon disque doré doré J'n'adore pas c'qui n'a lieu d'être adoré Salvatore, Salvatore grick Veuillez me passer l'oseille grick J'recompte kichtas, c'est fantastique j'recompte kichtas, c'est fantastique J'aime trop cher-tou ses eins-s' en plastique ses eins-s' en plastique, mouah Veuillez me passer l'oseille passer ma paye Hold up, veuillez me passer l'oseille grick ah, j'recompte kichta, c'est fantastique, ADAL 2</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>C'est l'insomniak L'argent n'a pas d'odeur mais la femme a du flaire Je m'adresse à mes frères, X.V.2. Vida Loca Biko je suis rabbat ! J'ai pris le mic un jour de pluie, depuis je fais que de rapper Parce que tout jeune, déjà je te jure la ur' m'a kidnappé Qui n'a pas vu les huissiers prendre le canapé Mon père m'a enseigné l'Islam pas le maniement de la canne à pèche Et je plane, piétine les fleurs et je fane, Ya Foy dans les fouilles a la daronne On a faim depuis qu'on est mouflard, ça forme des intellos you-voi Ce qu'on voyait c'était les putes à la TV La hèss m'a fait nèhèss dans les cellules, les bat' et les tel-hoes Que la concurrence se rhabille receleurs, cambrioleurs J'ai rotte-ca j'ai crav-bi , quand je pars en gard'av' c'est pour 72h Tout va bien tant que la daronne touche les allocs' Si on t'a hagar étant petit viens pas faire le mec avec ta loc' Incompris, pardonnez moi mais y a que la street pour m'apaiser Je suis bon qu'à sécher mes larmes, sortir mon arme, tout baiser Les p'tites frappes sont à la traîne, l'argent du hallam te rattrape A Paris y a plus de rappeurs que de fans de rap khey On traque l'oseille H24, H.A.Y je reste hrach Si t'as la rage viens te battre je lache pas le beefsteak Avec mon équipe de braves, entre deux plavons ça se bute au tèh Gard'av' ou Etap Hotel, bouteille, timp' éteins ton tel et va baver Je casse ma puce et ta bouche capich' Garde la pèche de porte à place cloche, trop de caboches cramés sous la capuche Bouge ma biche y a du grabuge, reste à l'abri le soleil brille mais les douilles pleuvent L'orphelin baise la veuve aux chiottes en boite de nuit t'en a plein le nez Biko paie moi ton rail, j'esquisse, y a ce qu'il faut pour aller bronzer Devenir pale au palais de justice Névrosé qu'est-ce que tu crois ? c'est dans la ur qu'on a du se tape Crois pas que ça tacle, le rugby ça bute le crane sur l'allée du stade adopte le style On veut du parfum du confort, forcer deux-trois coffres forts D'un coup de fil on peut se refaire, nos p'tits re-frés pètent la forme On est trop fiers pour être à genoux, sur le terrain pas d'RTT Déter' ou pas tu peux te faire frapper par un Jnoun un soir d'été You might also likeJe détaille au gramme Verse une larme pour nos morts pour nos mères On voulait finir millionnaire on vit des drames, Paris nord Moi je te parle de tous les frères, en passant par Ino L'euro m'a rendu insomniaque et l'insomnie me rend parano' Paralysé par le tribunal, convoqué 100 fois par an Biko parait que j'ai la rime qu'assure, au plumard je t'arrange -sur les taros 17 carat sur les phalanges, je crache à la vitesse d'une Kalach' Et tout les Falch MCs s'allongent frangin Si j'ai la rime légère c'est que la terre est plate Espionné par les mégères, j'émerge, nique ta mère, éclate la zeb On est bousillé comme les p'tits reufs en Palestine M'accapare tout dans ton appart' à tout petit pas tel un reptile Et ça ré-ti dans le XV2 parce-que l'alcool mène aux frictions J'oublie pas que Armine et Ino dorment au D2 pour séquestration Je transpire dans la ville, il faut que les civils j'évite Baisse les yeux devant l'élite, avec les 'loss on a le feeling Je fête l'Aid pas Thanksgiving, si ton petit reuf mimite J'lui dirai que l'école paie et que les rappeurs ne font que des T'miniks Arrête de polémiquer, reste poli moi je vais te niquer Ta s'en bat de ta house ici Hayce pas Mec en bref je n'ai qu'une passion, je fais du bénef' de toute façon Mes bicos sont échec et mat, y a trop de chefs d'inculpation pour une queue de poisson, les porcs ça se noient dans la boisson Force les portes de la France, oublie pas de chier sur le paillasson Les Pesos y en a pas assez, cèss dissimulée dans le caleçon Nos destins tracés comme nos pecs' en pleine série de tractions Je vais te faire transpirer la foule, je viens de la faune et la flore Biko y a la forme et le fond, des feuilles, des yé-bis dans ma fouille frelo Souvent zehèf te-ma les fractures qu'on a aif Parce qu'on a aimf', la daronne flarh devant les factures EDF haaaaan Faut savoir ouèj avec les cartes qu'on nous distribue Hamdoulah Je m'en sort très bien, je fais des prières pour ma tribu Bande de trous de balle, j'ai trop bu, je suis troublé comme ino100 Je suis coupable, cherche un peu biko, tu vas vite me trouver Tu vas passer par la tre-vi, tu conduits trop souvent sous Jack On peut pas toujours se relever, y a des siste-gros qui finissent cul de jatte Au QG les keufs nous contrôlent alors qu'un mac lapide une timp' Escortera son corps du coffre au fond d'un lac limpide La pudeur joue les funambules sur un string ficelle Au fond d'un véhicule enfumé filant vers le paradis artificiel Tous agressif, avoue que sa fout la frousse hein Bienvenue chez les séropositifs inscris sur post-it sous ton coussin Cousin je suis pris de folie dès l'heure où j'entre en piste lost ? in peace La mélancolie c'est le bonheur d'être triste C'est l'insomniaque, Hayce Lemsi, 17, La Fourche, la Tour, la J, Guy Môquet, Porte Clichy, P.S.O On est dans les temps, tu sais déjà, XV2 Vida Loca, yeah yeah L'insomniaque au mic, en cernes et en 163</t>
+          <t>C'est l'insomniak L'argent n'a pas d'odeur mais la femme a du flaire Je m'adresse à mes frères, X.V.2. Vida Loca Biko je suis rabbat ! J'ai pris le mic un jour de pluie, depuis je fais que de rapper Parce que tout jeune, déjà je te jure la ur' m'a kidnappé Qui n'a pas vu les huissiers prendre le canapé Mon père m'a enseigné l'Islam pas le maniement de la canne à pèche Et je plane, piétine les fleurs et je fane, Ya Foy dans les fouilles a la daronne On a faim depuis qu'on est mouflard, ça forme des intellos you-voi Ce qu'on voyait c'était les putes à la TV La hèss m'a fait nèhèss dans les cellules, les bat' et les tel-hoes Que la concurrence se rhabille receleurs, cambrioleurs J'ai rotte-ca j'ai crav-bi , quand je pars en gard'av' c'est pour 72h Tout va bien tant que la daronne touche les allocs' Si on t'a hagar étant petit viens pas faire le mec avec ta loc' Incompris, pardonnez moi mais y a que la street pour m'apaiser Je suis bon qu'à sécher mes larmes, sortir mon arme, tout baiser Les p'tites frappes sont à la traîne, l'argent du hallam te rattrape A Paris y a plus de rappeurs que de fans de rap khey On traque l'oseille H24, H.A.Y je reste hrach Si t'as la rage viens te battre je lache pas le beefsteak Avec mon équipe de braves, entre deux plavons ça se bute au tèh Gard'av' ou Etap Hotel, bouteille, timp' éteins ton tel et va baver Je casse ma puce et ta bouche capich' Garde la pèche de porte à place cloche, trop de caboches cramés sous la capuche Bouge ma biche y a du grabuge, reste à l'abri le soleil brille mais les douilles pleuvent L'orphelin baise la veuve aux chiottes en boite de nuit t'en a plein le nez Biko paie moi ton rail, j'esquisse, y a ce qu'il faut pour aller bronzer Devenir pale au palais de justice Névrosé qu'est-ce que tu crois ? c'est dans la ur qu'on a du se tape Crois pas que ça tacle, le rugby ça bute le crane sur l'allée du stade adopte le style On veut du parfum du confort, forcer deux-trois coffres forts D'un coup de fil on peut se refaire, nos p'tits re-frés pètent la forme On est trop fiers pour être à genoux, sur le terrain pas d'RTT Déter' ou pas tu peux te faire frapper par un Jnoun un soir d'été Je détaille au gramme Verse une larme pour nos morts pour nos mères On voulait finir millionnaire on vit des drames, Paris nord Moi je te parle de tous les frères, en passant par Ino L'euro m'a rendu insomniaque et l'insomnie me rend parano' Paralysé par le tribunal, convoqué 100 fois par an Biko parait que j'ai la rime qu'assure, au plumard je t'arrange -sur les taros 17 carat sur les phalanges, je crache à la vitesse d'une Kalach' Et tout les Falch MCs s'allongent frangin Si j'ai la rime légère c'est que la terre est plate Espionné par les mégères, j'émerge, nique ta mère, éclate la zeb On est bousillé comme les p'tits reufs en Palestine M'accapare tout dans ton appart' à tout petit pas tel un reptile Et ça ré-ti dans le XV2 parce-que l'alcool mène aux frictions J'oublie pas que Armine et Ino dorment au D2 pour séquestration Je transpire dans la ville, il faut que les civils j'évite Baisse les yeux devant l'élite, avec les 'loss on a le feeling Je fête l'Aid pas Thanksgiving, si ton petit reuf mimite J'lui dirai que l'école paie et que les rappeurs ne font que des T'miniks Arrête de polémiquer, reste poli moi je vais te niquer Ta s'en bat de ta house ici Hayce pas Mec en bref je n'ai qu'une passion, je fais du bénef' de toute façon Mes bicos sont échec et mat, y a trop de chefs d'inculpation pour une queue de poisson, les porcs ça se noient dans la boisson Force les portes de la France, oublie pas de chier sur le paillasson Les Pesos y en a pas assez, cèss dissimulée dans le caleçon Nos destins tracés comme nos pecs' en pleine série de tractions Je vais te faire transpirer la foule, je viens de la faune et la flore Biko y a la forme et le fond, des feuilles, des yé-bis dans ma fouille frelo Souvent zehèf te-ma les fractures qu'on a aif Parce qu'on a aimf', la daronne flarh devant les factures EDF haaaaan Faut savoir ouèj avec les cartes qu'on nous distribue Hamdoulah Je m'en sort très bien, je fais des prières pour ma tribu Bande de trous de balle, j'ai trop bu, je suis troublé comme ino100 Je suis coupable, cherche un peu biko, tu vas vite me trouver Tu vas passer par la tre-vi, tu conduits trop souvent sous Jack On peut pas toujours se relever, y a des siste-gros qui finissent cul de jatte Au QG les keufs nous contrôlent alors qu'un mac lapide une timp' Escortera son corps du coffre au fond d'un lac limpide La pudeur joue les funambules sur un string ficelle Au fond d'un véhicule enfumé filant vers le paradis artificiel Tous agressif, avoue que sa fout la frousse hein Bienvenue chez les séropositifs inscris sur post-it sous ton coussin Cousin je suis pris de folie dès l'heure où j'entre en piste lost ? in peace La mélancolie c'est le bonheur d'être triste C'est l'insomniaque, Hayce Lemsi, 17, La Fourche, la Tour, la J, Guy Môquet, Porte Clichy, P.S.O On est dans les temps, tu sais déjà, XV2 Vida Loca, yeah yeah L'insomniaque au mic, en cernes et en 163</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Comme si mon tarpé venait d'Arizona Toujours au bonheur des demoiselles comme si j'étais Emile Zola Moi j'ai pas acheté mes followers, j'ai traversé les vents et les orages Laisse-moi baigner dans mon opulence J'sors du hebs, le game a subi quelques turbulences J'me fou qu't'aies touché telle ou telle somme Même avec 30 influenceurs t'influences personne Hein mon rebeu, hein mon rebeu, hein mon rebeu Yeah Hoe! Que des robbers et des dealers dans le club dans le club Un peu de liqueur tu t'improvise producteur Range ton arme c'est nous les thugs, ferme ta chatte c'est nous les teuuuubs.. YAHHH !! J'suis en buvette, j'appelle le baveu même en frottant la bavette allô, allô ?! Aux arrivants j'ai tapé la gamelle Une pour la Fourche, gorille, Soum-Soum et Gargamelle Mes disques dur dorment, mais est-ce que tes disque d'or durent ? D'ordure t'as sorti tes poubelles, tes disques d'ordures Tordu comme tour de Pise Minuit dans l'four je skie, 30 ans j'ai toutes mes dents, l'statut de chef d'entreprise Chimie chimie chimie yeah chimie yahh J'sors les billets elles vont s'crêper l'chignon Arrête de rougir j'sais que je suis mignon J'sors mon tube a essai ça devient d'la chimie chimie yahh Viens pas la mettre a l'envers lorsque un ien-cli veut sa dose Tu t'prends pour le géant vert mais je suis le magicien d'Oz Drogue, folle, sexe ma bite est bien souriante Iphone 7 livré par la surveillante pute, pute Tout les jours j'reçois v'la les lettres Les avances de mes lokas ont choqué le vaguemestre Prochain show-case j'veux qu'on m'paye en bitcoin wallet Cousin j'm'en bats les couilles des billets violets dans ta mallette Ta meuf elle est 3eryana elle fait la bandeuse Jachète une paire de basket j'repars avec la vendeuse Hann, Lemsi, Big Lemsi, Big Big Lemsi Low bitch rejoins-moi vite sur le bultex A vrai dire j'ai tellement bu j'me rappelle plus l'texte Low bitch rejoins-moi vite sur le bultex A vrai dire j'ai tellement bu j'me rappelle plus l'texte Ehh merce bien la zone hein Ehh merce bien la zone hein Ehh merce bien la zone hein Ehh merce bien la zone hein Hayce Lemsi ! L'album arrive à la rentrée, restez branchés mes Zouzous !You might also like2</t>
+          <t>Comme si mon tarpé venait d'Arizona Toujours au bonheur des demoiselles comme si j'étais Emile Zola Moi j'ai pas acheté mes followers, j'ai traversé les vents et les orages Laisse-moi baigner dans mon opulence J'sors du hebs, le game a subi quelques turbulences J'me fou qu't'aies touché telle ou telle somme Même avec 30 influenceurs t'influences personne Hein mon rebeu, hein mon rebeu, hein mon rebeu Yeah Hoe! Que des robbers et des dealers dans le club dans le club Un peu de liqueur tu t'improvise producteur Range ton arme c'est nous les thugs, ferme ta chatte c'est nous les teuuuubs.. YAHHH !! J'suis en buvette, j'appelle le baveu même en frottant la bavette allô, allô ?! Aux arrivants j'ai tapé la gamelle Une pour la Fourche, gorille, Soum-Soum et Gargamelle Mes disques dur dorment, mais est-ce que tes disque d'or durent ? D'ordure t'as sorti tes poubelles, tes disques d'ordures Tordu comme tour de Pise Minuit dans l'four je skie, 30 ans j'ai toutes mes dents, l'statut de chef d'entreprise Chimie chimie chimie yeah chimie yahh J'sors les billets elles vont s'crêper l'chignon Arrête de rougir j'sais que je suis mignon J'sors mon tube a essai ça devient d'la chimie chimie yahh Viens pas la mettre a l'envers lorsque un ien-cli veut sa dose Tu t'prends pour le géant vert mais je suis le magicien d'Oz Drogue, folle, sexe ma bite est bien souriante Iphone 7 livré par la surveillante pute, pute Tout les jours j'reçois v'la les lettres Les avances de mes lokas ont choqué le vaguemestre Prochain show-case j'veux qu'on m'paye en bitcoin wallet Cousin j'm'en bats les couilles des billets violets dans ta mallette Ta meuf elle est 3eryana elle fait la bandeuse Jachète une paire de basket j'repars avec la vendeuse Hann, Lemsi, Big Lemsi, Big Big Lemsi Low bitch rejoins-moi vite sur le bultex A vrai dire j'ai tellement bu j'me rappelle plus l'texte Low bitch rejoins-moi vite sur le bultex A vrai dire j'ai tellement bu j'me rappelle plus l'texte Ehh merce bien la zone hein Ehh merce bien la zone hein Ehh merce bien la zone hein Ehh merce bien la zone hein Hayce Lemsi ! L'album arrive à la rentrée, restez branchés mes Zouzous !2</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Paroles de Étoile Noire Nouveau chapitre, nouvel air, j'déchire une page J'surveille le chantier de mon empire, qu'est-ce que tu veux qu'j'foute à Paris plage? Y a ta pute qu'y a couché à l'étage de la maison close, ça fait des tâches Détaché du noyau terrestre, près du sky, loin des laitages Légendaire comme Okocha, tu veux feat avec moi, t'as vu la fée Clochett Le mauvais il est tellment dangereux, je préfère qu'on passe pour des clochards, hein C'est ton gars sur quand on voit les actes extérieurs Mais ta réussite le rend fou, ça bouillonne grave depuis l'intérieur de son âme Comme une femelle qui souhaite la mort de son mâle Comme une mère de famille pauvre qui vend son corps pour 200 balles Des hommes de justice malhonnêtes lorsque l'oseille se compte au poids Allez danse petite marionnette, le système à besoin de toi J'écris sous l'eau raisons funèbres, sors d'un écran de fumée noire Dans les déboires du désespoir on fait que baiser, fumer, boire J'ai vu mon étoile scintiller jusqu'à éblouir tout l'miroir J'ai trempé l'calame dans le sang d'encre et ressorti tous les vieux grimoires Si je te cala' pas, crois même pas que j'ai pas d'estime de toi Mais qu'j'suis toujours occupé comme la Palestine, ma foi Je t'aime si tu stream, ensemble on baisera l'industrie Tellement fort qu'il repartira des skalapes You might also like J'arrache tout, je fais pas de bruit parce que mon étoile brille Tellement qu'elle ébloui le firmament mon étoile brille À qui profite le crime si j'ai les mains dans l'biz Un jour j'sais qu'j'te rendrai fière maman J'm'adresse au rap game comme si j'étais son père J'ai mis tout la concu' dans un ceau-ber J'm'adresse au rap game comme si j'étais son père Tu seras quelqu'un quand tu comprendras qu't'es sonne-per Dans la calle c'est l'escalade quand ça parle de stup' et de crimes Des murs criblés, des bruits sourds, des pleurs et des cris à la Brinks Les mains moites à cause de l'inflation, de la crise Tout le monde est crispé dans la street, ça cookine dans la cuisine du manoir On décide pas d'qui prend sa place, l'épée décide qui tient la plume C'est pas l'drapeau qui fait la paix, c'est pas les pauvres qui font la une J'ai beau demander à la lune ou même à Sirkis C'est Dieu qui donne, j'ignore combien d'temps je survivrai dans le circuit Rappe pas si tu sors du cirque, l'anonymat n'a pas de prix Pas vu, pas pris, les vrais hors-la-loi n'ont pas de prime On passe de Balenciaga au treillis kaki Balance un gars, ça te grrr dans le parking Quand cesseront-ils de nous guetter comme des va-nu-pieds? Vanité va niquer ta mère j't'ai pas validé J'suis dans la pièce, trop de racks t'as même pas idée, hey J'oublie ceux qui m'ont même pas aidé Rappe pas si tu sors du cirque, l'anonymat n'a pas de prix Pas vu, pas pris, les vrais hors-la-loi n'ont pas de prime On passe de Balenciaga au treillis kaki Balance un gars, ça te grrr dans le parking J'arrache tout, je fais pas de bruit parce que mon étoile brille Tellement qu'elle ébloui le firmament mon étoile brille À qui profite le crime si j'ai les mains dans l'biz Un jour j'sais qu'j'te rendrai fière maman J'm'adresse au rap game comme si j'étais son père J'ai mis tout la concu' dans un ceau-ber J'm'adresse au rap game comme si j'étais son père Tu seras quelqu'un quand tu comprendras qu't'es sonne-per</t>
+          <t>Paroles de Étoile Noire Nouveau chapitre, nouvel air, j'déchire une page J'surveille le chantier de mon empire, qu'est-ce que tu veux qu'j'foute à Paris plage? Y a ta pute qu'y a couché à l'étage de la maison close, ça fait des tâches Détaché du noyau terrestre, près du sky, loin des laitages Légendaire comme Okocha, tu veux feat avec moi, t'as vu la fée Clochett Le mauvais il est tellment dangereux, je préfère qu'on passe pour des clochards, hein C'est ton gars sur quand on voit les actes extérieurs Mais ta réussite le rend fou, ça bouillonne grave depuis l'intérieur de son âme Comme une femelle qui souhaite la mort de son mâle Comme une mère de famille pauvre qui vend son corps pour 200 balles Des hommes de justice malhonnêtes lorsque l'oseille se compte au poids Allez danse petite marionnette, le système à besoin de toi J'écris sous l'eau raisons funèbres, sors d'un écran de fumée noire Dans les déboires du désespoir on fait que baiser, fumer, boire J'ai vu mon étoile scintiller jusqu'à éblouir tout l'miroir J'ai trempé l'calame dans le sang d'encre et ressorti tous les vieux grimoires Si je te cala' pas, crois même pas que j'ai pas d'estime de toi Mais qu'j'suis toujours occupé comme la Palestine, ma foi Je t'aime si tu stream, ensemble on baisera l'industrie Tellement fort qu'il repartira des skalapes J'arrache tout, je fais pas de bruit parce que mon étoile brille Tellement qu'elle ébloui le firmament mon étoile brille À qui profite le crime si j'ai les mains dans l'biz Un jour j'sais qu'j'te rendrai fière maman J'm'adresse au rap game comme si j'étais son père J'ai mis tout la concu' dans un ceau-ber J'm'adresse au rap game comme si j'étais son père Tu seras quelqu'un quand tu comprendras qu't'es sonne-per Dans la calle c'est l'escalade quand ça parle de stup' et de crimes Des murs criblés, des bruits sourds, des pleurs et des cris à la Brinks Les mains moites à cause de l'inflation, de la crise Tout le monde est crispé dans la street, ça cookine dans la cuisine du manoir On décide pas d'qui prend sa place, l'épée décide qui tient la plume C'est pas l'drapeau qui fait la paix, c'est pas les pauvres qui font la une J'ai beau demander à la lune ou même à Sirkis C'est Dieu qui donne, j'ignore combien d'temps je survivrai dans le circuit Rappe pas si tu sors du cirque, l'anonymat n'a pas de prix Pas vu, pas pris, les vrais hors-la-loi n'ont pas de prime On passe de Balenciaga au treillis kaki Balance un gars, ça te grrr dans le parking Quand cesseront-ils de nous guetter comme des va-nu-pieds? Vanité va niquer ta mère j't'ai pas validé J'suis dans la pièce, trop de racks t'as même pas idée, hey J'oublie ceux qui m'ont même pas aidé Rappe pas si tu sors du cirque, l'anonymat n'a pas de prix Pas vu, pas pris, les vrais hors-la-loi n'ont pas de prime On passe de Balenciaga au treillis kaki Balance un gars, ça te grrr dans le parking J'arrache tout, je fais pas de bruit parce que mon étoile brille Tellement qu'elle ébloui le firmament mon étoile brille À qui profite le crime si j'ai les mains dans l'biz Un jour j'sais qu'j'te rendrai fière maman J'm'adresse au rap game comme si j'étais son père J'ai mis tout la concu' dans un ceau-ber J'm'adresse au rap game comme si j'étais son père Tu seras quelqu'un quand tu comprendras qu't'es sonne-per</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Encore le mic dans la paume Le goût du sang dans la bouche Tachète une arme assez puissante pour tuer un ours mais tu ferais pas de mal à une mouche En tourne en rond même avec les responsabilités dune lourde couronne On dit que largent attire largent Et lhomme est un loup pour lhomme Tu lui dois combien pour quil te pourchasse de la sorte de Paris J'te parie qu'il aura déjà chargé le fusil de chasse avant de franchir le pas de ta porte Et concrètement ton ness-bi combien ça rapporte Tu penses tenir combien temps avant de t'asseoir au fond de la Ford Paris trop de keufs au maître carrées, jamais de soleil après l'orage Les plus jeunes sont fonce-dé je me rappelle quon était sportifs à leurs âges ça changé Ébloui par la gloire et tous ces faisceaux De plus en plus filles faciles faux, cest par les réseaux sociaux Où sont vos principes, je relie les haters en pissant Et noublie jamais que la critique cest la puissance des impuissants Je voulais te faire un enfant, taimer jusquà lhomicide, notre addiction nous prennent pour cible, notre amour est impossible Plus Rédoine Faïd que Gandhi Noublie pas quil suffit dune nuit pour que la grosses des baltringues devient le plus grand des bandits Tu nous dis que cest ton gars sûr, il regarde ta sur d'un air malsain Je peux même plus compter mes blessures, jai mis ma peine dans une massa Je suis conscient de la chance que jai Je suis née près de la Sonatrach 20 ans plus tard jécrirai mon histoire sous la pluie comme Frank SinatraYou might also like</t>
+          <t>Encore le mic dans la paume Le goût du sang dans la bouche Tachète une arme assez puissante pour tuer un ours mais tu ferais pas de mal à une mouche En tourne en rond même avec les responsabilités dune lourde couronne On dit que largent attire largent Et lhomme est un loup pour lhomme Tu lui dois combien pour quil te pourchasse de la sorte de Paris J'te parie qu'il aura déjà chargé le fusil de chasse avant de franchir le pas de ta porte Et concrètement ton ness-bi combien ça rapporte Tu penses tenir combien temps avant de t'asseoir au fond de la Ford Paris trop de keufs au maître carrées, jamais de soleil après l'orage Les plus jeunes sont fonce-dé je me rappelle quon était sportifs à leurs âges ça changé Ébloui par la gloire et tous ces faisceaux De plus en plus filles faciles faux, cest par les réseaux sociaux Où sont vos principes, je relie les haters en pissant Et noublie jamais que la critique cest la puissance des impuissants Je voulais te faire un enfant, taimer jusquà lhomicide, notre addiction nous prennent pour cible, notre amour est impossible Plus Rédoine Faïd que Gandhi Noublie pas quil suffit dune nuit pour que la grosses des baltringues devient le plus grand des bandits Tu nous dis que cest ton gars sûr, il regarde ta sur d'un air malsain Je peux même plus compter mes blessures, jai mis ma peine dans une massa Je suis conscient de la chance que jai Je suis née près de la Sonatrach 20 ans plus tard jécrirai mon histoire sous la pluie comme Frank Sinatra</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Gerente do banco ligou, mano, ele até se assustou, woah, oh Quando olhou que o limite aumentou Entrou no Insta e viu os meus shows Só pago à vista, ó como é que eu tô Nunca foi fácil, hoje mudou Meu pescoço congelou Tudo gelado, com a mais gata do meu lado Do meu lado Cheio de paco, mano, o meu bolso tá pesado, ayy Pesado Primeiro eles falam mal Falam mal, depois eles vêm pedir feat Respeita o pai, carai, porque até as minhas batalhas são hit Tudo hit Baby, decide o que tu quer comigo Aham Quer fuder minha vida ou quer fuder comigo? Lazer de chefe E ela me pede de segunda a domingo Enquanto você fica se perguntando por que ela foi seca contigo, yeah Faço parecer fácil, faço parecer fácil Faço parecer fácil, woah-woah-woah-woah-woah Faço parecer fácil, faço parecer fácil Faço parecer fácil, woah-woah-woah-woah-woah Rum-pum-pum-pum-pum, rafale comme à Guantana' Compet' sous tequila, rum-pum tudo bom Débite à quatre bonbonnes, débarque comme aux DOM-TOM Dans la Phantom, PGP, parabellum et Tom Ford Bénef' dans la Louis Louis, guetteur sur le toit Tu mords la main qui t'a nourri oh, est-c'que t'es sûr de toi ? J'mets la rosa dans Testarossa, j'appelle laud-sa yee J'fais des gros sous, des trucs trop sales, ma gostosa yee J'aimais tant démêler tes mèches de mes phalanges maladroites Remémore les souvenirs en lisant tes lettres à la rate, hey Autoroute de l'amour, mon orgueil a déjà doublé mes sentiments par la droite oh, oh, oh Fast, Paris c'est fast Tudo bem, pétasse, le monde est vaste pétasse On marche en loup solitaire, calibré ça vient d'en bas-bas-bas-bas You might also like Faço parecer fácil, faço parecer fácil Faço parecer fácil, woah-woah-woah-woah-woah Faço parecer fácil, faço parecer fácil Faço parecer fácil, woah-woah-woah-woah-woah</t>
+          <t>Gerente do banco ligou, mano, ele até se assustou, woah, oh Quando olhou que o limite aumentou Entrou no Insta e viu os meus shows Só pago à vista, ó como é que eu tô Nunca foi fácil, hoje mudou Meu pescoço congelou Tudo gelado, com a mais gata do meu lado Do meu lado Cheio de paco, mano, o meu bolso tá pesado, ayy Pesado Primeiro eles falam mal Falam mal, depois eles vêm pedir feat Respeita o pai, carai, porque até as minhas batalhas são hit Tudo hit Baby, decide o que tu quer comigo Aham Quer fuder minha vida ou quer fuder comigo? Lazer de chefe E ela me pede de segunda a domingo Enquanto você fica se perguntando por que ela foi seca contigo, yeah Faço parecer fácil, faço parecer fácil Faço parecer fácil, woah-woah-woah-woah-woah Faço parecer fácil, faço parecer fácil Faço parecer fácil, woah-woah-woah-woah-woah Rum-pum-pum-pum-pum, rafale comme à Guantana' Compet' sous tequila, rum-pum tudo bom Débite à quatre bonbonnes, débarque comme aux DOM-TOM Dans la Phantom, PGP, parabellum et Tom Ford Bénef' dans la Louis Louis, guetteur sur le toit Tu mords la main qui t'a nourri oh, est-c'que t'es sûr de toi ? J'mets la rosa dans Testarossa, j'appelle laud-sa yee J'fais des gros sous, des trucs trop sales, ma gostosa yee J'aimais tant démêler tes mèches de mes phalanges maladroites Remémore les souvenirs en lisant tes lettres à la rate, hey Autoroute de l'amour, mon orgueil a déjà doublé mes sentiments par la droite oh, oh, oh Fast, Paris c'est fast Tudo bem, pétasse, le monde est vaste pétasse On marche en loup solitaire, calibré ça vient d'en bas-bas-bas-bas Faço parecer fácil, faço parecer fácil Faço parecer fácil, woah-woah-woah-woah-woah Faço parecer fácil, faço parecer fácil Faço parecer fácil, woah-woah-woah-woah-woah</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Yeah, mais nous deux c'est compliqué aah Yeah, mais nous deux c'est compliqué ooh J'voulais t'mettre dans mon cur mais cest compliqué, oh Jdois faire du papier Ramener les dineros, jsuis dans un bourbier babe J'suis en first class, fais le wari babe J'suis en first class, fais du wari babe J'suis en first class, fais le wari babe J'suis en first class, fais du wari babe Yeah, nos deux curs sont liés mais cest compliqué hoo, j'dois faire du papier La justice veut me bloquer tout l'été J'dois faire du bracelet Tu veux partir, tu veux faire ça maintenant Mais nous deux on s'était dit c'est pour la vie Nan bébé ça sera jamais terminé, toi même tu sais les jaloux seront ravis J'voulais nous rendre fiers, te mettre dans mon cur de pierre, visiter une île en hiver, t'as changé t'es tombée sur mon fer Mais changement de flow, tu parles fort tu casses la porte Mais changement de flow, tu parles fort tu casses la porte J'voulais t'mettre dans mon cur mais cest compliqué, oh Jdois faire du papier Ramener les dineros, jsuis dans un bourbier babe J'suis en first class, fais le wari babe J'suis en first class, fais du wari babe J'suis en first class, fais le wari babe J'suis en first class, fais du wari babe You might also like J'suis en first class ça flex, yeah, je négocie, j'achète Faut qu'j'me barre les affaires m'appellent, babe, c'qui qui ramène la paye Qui va t'emmener dans les bains, champagne, faire goûter l'fin d'bouillon d'châtaigne yeah T'es derrière moi tu surveilles toutes les fimbi dans mon phone-tel Place Vendôme j'te pète un sac Dior et ma Goyard Est-ce que tu préfères un lover sans moula On dit qu'l'argent n'a pas d'odeur mais on dit aussi que les filles comme toi, avaient plus de flair pour les billets verts que les chiens d'la douane Yah, t'es ma loca pas ma dame tu m'parles de Lambo, j'crois qu't'as craqué Tous les matins j'ai la le-da j'dois me lever tôt, faire le papier Ma vie n'vaut d'être vécue sans toi, j'ai le cur d'un tueur de sang froid Je t'aime j'te l'dirais 100 fois, je ne peux pas vivre sans toi J'voulais t'mettre dans mon cur mais cest compliqué, oh Jdois faire du papier Ramener les dineros, jsuis dans un bourbier babe J'suis en first class, fais le wari babe J'suis en first class, fais du wari babe J'suis en first class, fais le wari babe J'suis en first class, fais du wari babe Dom Pérignon, Chardonnay ne fait que couler Bébé je fais que m'saouler On s'comprend pas mais c'est terminé, j'dois faire du papier J'suis en first class, fais le wari babe J'suis en first class, fais du wari babe J'suis en first class, fais le wari babe J'suis en first class, fais du wari babe</t>
+          <t>Yeah, mais nous deux c'est compliqué aah Yeah, mais nous deux c'est compliqué ooh J'voulais t'mettre dans mon cur mais cest compliqué, oh Jdois faire du papier Ramener les dineros, jsuis dans un bourbier babe J'suis en first class, fais le wari babe J'suis en first class, fais du wari babe J'suis en first class, fais le wari babe J'suis en first class, fais du wari babe Yeah, nos deux curs sont liés mais cest compliqué hoo, j'dois faire du papier La justice veut me bloquer tout l'été J'dois faire du bracelet Tu veux partir, tu veux faire ça maintenant Mais nous deux on s'était dit c'est pour la vie Nan bébé ça sera jamais terminé, toi même tu sais les jaloux seront ravis J'voulais nous rendre fiers, te mettre dans mon cur de pierre, visiter une île en hiver, t'as changé t'es tombée sur mon fer Mais changement de flow, tu parles fort tu casses la porte Mais changement de flow, tu parles fort tu casses la porte J'voulais t'mettre dans mon cur mais cest compliqué, oh Jdois faire du papier Ramener les dineros, jsuis dans un bourbier babe J'suis en first class, fais le wari babe J'suis en first class, fais du wari babe J'suis en first class, fais le wari babe J'suis en first class, fais du wari babe J'suis en first class ça flex, yeah, je négocie, j'achète Faut qu'j'me barre les affaires m'appellent, babe, c'qui qui ramène la paye Qui va t'emmener dans les bains, champagne, faire goûter l'fin d'bouillon d'châtaigne yeah T'es derrière moi tu surveilles toutes les fimbi dans mon phone-tel Place Vendôme j'te pète un sac Dior et ma Goyard Est-ce que tu préfères un lover sans moula On dit qu'l'argent n'a pas d'odeur mais on dit aussi que les filles comme toi, avaient plus de flair pour les billets verts que les chiens d'la douane Yah, t'es ma loca pas ma dame tu m'parles de Lambo, j'crois qu't'as craqué Tous les matins j'ai la le-da j'dois me lever tôt, faire le papier Ma vie n'vaut d'être vécue sans toi, j'ai le cur d'un tueur de sang froid Je t'aime j'te l'dirais 100 fois, je ne peux pas vivre sans toi J'voulais t'mettre dans mon cur mais cest compliqué, oh Jdois faire du papier Ramener les dineros, jsuis dans un bourbier babe J'suis en first class, fais le wari babe J'suis en first class, fais du wari babe J'suis en first class, fais le wari babe J'suis en first class, fais du wari babe Dom Pérignon, Chardonnay ne fait que couler Bébé je fais que m'saouler On s'comprend pas mais c'est terminé, j'dois faire du papier J'suis en first class, fais le wari babe J'suis en first class, fais du wari babe J'suis en first class, fais le wari babe J'suis en first class, fais du wari babe</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Appelle ta meuf, elle m'a manqué, hey J'vais la monté comme un monkey, hey Ultra Paname comme un yankee, hey Essaie pas d'tacler mes ients-cli, hey OCB, j'ai la dope, pas de CBD Tout l'temps la barre depuis l'CE2 Moi pas connaitre le COD J'fais du biff comme un juif tah le CO2 Jah, jah Je vais lui casser le dos, jah, je ne vais pas jouer les Don Juan On t'incinère dans un gros joint, Je vais recharger le gros jouet Quand j'prends le mic', ils font trop genre, trop genre J'ai le poignet plein de rochers, la gauche à Capitaine Crochet Mettez vous sur le coté, carte grise et mis-per J'crache à la gueule du condé avant l'test salivaire De l'alcool, des somnifères, on passera pas l'hiver Young Bikow flex flex flex, cessez vos balivernes Y a des traces d'hémoglobine sur le micro, oh, j'rappe l'adrénaline et la nitro, oh J'rentre ma bite ni trop peu ni trop, oh, ma pute vient de Porto Rico, oh J'peux pas laisser des puants prendre ma place, fou la rage obligé de ressortir le forty Encore un album de folie ces follasses ne sont même pas encore sortis de l'euphorie Joue pas trop les Gucci Mane, j'fous l'feu t'es la torche humaine J'me torche le ul-c avec ton vieux flow, tu compares guépard à la tortue d'mer J'écrase ton ego comme un mégot, trop hrach, j'rentre pas dans la négo Tes rotules de pute, ta tête de poucave, ma perceuse, mon tard-pé, ma scie à métaux J'veux recompter plus de money, j'veux m'acheter plus d'élastiques T'as le navez plein d'machtock, on bouffe pas la chatte de la SPIP Je n'ai pas d'amis flics, je n'ai pas d'amis filles, j'rinçais ta grande sur à l'époque du magnifique Je n'ai pas d'amis flics, je n'ai pas d'amis filles, j'rinçais ta grande sur à l'époque du magnifique J'suis en Facetime dans la geôle, j'fume le jaune, ma jolie Brolické, torse nu sous l'gilet jaune, j'écoute Johnny J'suis en Facetime dans la geôle, j'fume le jaune, ma jolie Brolické, torse nu sous l'gilet jaune, j'écoute Johnny You might also like Appelle ta meuf, elle m'a manqué, hey J'vais la monté comme un monkey, hey Ultra Paname comme un yankee, hey Essaie pas d'tacler mes ients-cli, hey OCB, j'ai la dope, pas de CBD Tout l'temps la barre depuis l'CE2 Moi pas connaitre le COD J'fais du biff comme un juif tah le CO2 Jah Flex Big Lems' Skrrr</t>
+          <t>Appelle ta meuf, elle m'a manqué, hey J'vais la monté comme un monkey, hey Ultra Paname comme un yankee, hey Essaie pas d'tacler mes ients-cli, hey OCB, j'ai la dope, pas de CBD Tout l'temps la barre depuis l'CE2 Moi pas connaitre le COD J'fais du biff comme un juif tah le CO2 Jah, jah Je vais lui casser le dos, jah, je ne vais pas jouer les Don Juan On t'incinère dans un gros joint, Je vais recharger le gros jouet Quand j'prends le mic', ils font trop genre, trop genre J'ai le poignet plein de rochers, la gauche à Capitaine Crochet Mettez vous sur le coté, carte grise et mis-per J'crache à la gueule du condé avant l'test salivaire De l'alcool, des somnifères, on passera pas l'hiver Young Bikow flex flex flex, cessez vos balivernes Y a des traces d'hémoglobine sur le micro, oh, j'rappe l'adrénaline et la nitro, oh J'rentre ma bite ni trop peu ni trop, oh, ma pute vient de Porto Rico, oh J'peux pas laisser des puants prendre ma place, fou la rage obligé de ressortir le forty Encore un album de folie ces follasses ne sont même pas encore sortis de l'euphorie Joue pas trop les Gucci Mane, j'fous l'feu t'es la torche humaine J'me torche le ul-c avec ton vieux flow, tu compares guépard à la tortue d'mer J'écrase ton ego comme un mégot, trop hrach, j'rentre pas dans la négo Tes rotules de pute, ta tête de poucave, ma perceuse, mon tard-pé, ma scie à métaux J'veux recompter plus de money, j'veux m'acheter plus d'élastiques T'as le navez plein d'machtock, on bouffe pas la chatte de la SPIP Je n'ai pas d'amis flics, je n'ai pas d'amis filles, j'rinçais ta grande sur à l'époque du magnifique Je n'ai pas d'amis flics, je n'ai pas d'amis filles, j'rinçais ta grande sur à l'époque du magnifique J'suis en Facetime dans la geôle, j'fume le jaune, ma jolie Brolické, torse nu sous l'gilet jaune, j'écoute Johnny J'suis en Facetime dans la geôle, j'fume le jaune, ma jolie Brolické, torse nu sous l'gilet jaune, j'écoute Johnny Appelle ta meuf, elle m'a manqué, hey J'vais la monté comme un monkey, hey Ultra Paname comme un yankee, hey Essaie pas d'tacler mes ients-cli, hey OCB, j'ai la dope, pas de CBD Tout l'temps la barre depuis l'CE2 Moi pas connaitre le COD J'fais du biff comme un juif tah le CO2 Jah Flex Big Lems' Skrrr</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Paroles de Fredo Santana Électron Libre, citoyen du monde libre Rappeur sans frontières Hahahaha Grrrr-Oh Aye Vaut mieux servir au paradis que d'régner en enfer no way T'as pas pris un radis tourné un an ferme assume ton rôle de père Va péter des pampers le temps passe en tempête mon pote éteins ton pers' reste concentré On refait 6 chiffres on s'retrouv en hess Pris en chass par la marée chaussée Sur les marrés chaussés c'est chaud reste branché Étrange mais j'vois d'jà ton armée se retrancher J'n'attendrai pas que sonne le clocher pour vous enclencher boom-boom-boom-boom J'suis gaucher tu vois pas l'crochet faut pas t'approcher Inopiné l'opinel te charcle le back J'pète la Belleve' dans la boîte crânienne 2 bar' derrière le X, le V, X-ADV démarre KX est levé les minots veulent sauter des neiman Tellement de pression dans le box l'indic' témoigne Tout le monde est bresom dans le gang ça gifle ton arme Savent qui va devenir le boss dénigre les bails Kichta d'billets suffisent s'il s'agit d'ton âme-sur Je ne rentre pas seul j'ai laissé les passeurs géchars dans le patio Joue pas trop les hackeurs J'sais où sont les traqueurs T'as des haut-le-cur quand tu m'vois sortir du 4-Motions Méfie toi d'qui tu vas t'entourer Qui s'ra là quand tu s'ras enterré Qui ? Qui ? Et tu peux courir ça va t'Grrr Pah-Pah faut pas t'retourner Grrr-Pah You might also like J'les pull up comme Fredo Santana Ces rebeux sont tarés Pourquoi ler-par quand je n'suis pas là J't'ai même pas cala J'ramène le papel pour la Mama Ouais pour la Madre J'dépense le reste pour faire la mala Humain dénaturalisé c'est le bal masqué Relations s'dégradent deviennent infernales Si t'es mon frérot j'te laisse pas shlager J'pourrais t'sortir de la neige comme un Saint-Bernard Le juge veut savoir à qui j'ai passé l'arme Et au parlu maman ne retiens plus ses larmes En vrai même à l'école ça s'passait mal Avec NB et Kamel ça cassait des gueules On est morts de l'intérieur on vit pour le mal 10 ans plus tard on vivra pour le mic' Le range rover est neuf et le 9 est tout noir Les mains noires j'ai bossé la blanche dans le manoir J'ai appris à mes dépends à dépenser sans sous Attacher mes démons à la chaise musicale Calé dans l'Ghini j'ai fuego de Konoha Kichtaga colorée, calibré Gomorra Donneurs de go sur les nerfs ça va rafaler L'affamé profane sur la tombe d'un frère tombé sous les balles Fin d'année pleurer sans souffrir aux heures funéraires L'homme est égaré paraît qu'l'enfer c'est les autres Ils m'sous-estiment et 10 ans plus tard Ils sont v'nus m'cirer les pompes Ou bien pleurer des océans Remuer des tombes afin d'me réduire à néant Géant de l'indé j'suis sur l'terrain le gérant gelato dans les hémisphères cérébraux En treillis dans un massif forestier J'tire sur les flibustiers, et les généraux J'ai toujours du respect pour mon prochain Mais l'prochain qui gigotte Igo j'lui dévisse le cur À 14 piges on volait d'jà du biff à baver devant les vitrines de chez Foot Locker J'les pull up comme Fredo Santana Ces rebeux sont tarés Pourquoi ler-par quand je n'suis pas là J't'ai même pas cala J'ramène le papel pour la Mama Ouais pour la Madre J'dépense le reste pour faire la mala Hey, Hey J'suis en pétard, j'suis en pétard J'suis en pétard, j'suis en pétard J'suis en pétard, j'suis en pétard J'suis en pétard</t>
+          <t>Paroles de Fredo Santana Électron Libre, citoyen du monde libre Rappeur sans frontières Hahahaha Grrrr-Oh Aye Vaut mieux servir au paradis que d'régner en enfer no way T'as pas pris un radis tourné un an ferme assume ton rôle de père Va péter des pampers le temps passe en tempête mon pote éteins ton pers' reste concentré On refait 6 chiffres on s'retrouv en hess Pris en chass par la marée chaussée Sur les marrés chaussés c'est chaud reste branché Étrange mais j'vois d'jà ton armée se retrancher J'n'attendrai pas que sonne le clocher pour vous enclencher boom-boom-boom-boom J'suis gaucher tu vois pas l'crochet faut pas t'approcher Inopiné l'opinel te charcle le back J'pète la Belleve' dans la boîte crânienne 2 bar' derrière le X, le V, X-ADV démarre KX est levé les minots veulent sauter des neiman Tellement de pression dans le box l'indic' témoigne Tout le monde est bresom dans le gang ça gifle ton arme Savent qui va devenir le boss dénigre les bails Kichta d'billets suffisent s'il s'agit d'ton âme-sur Je ne rentre pas seul j'ai laissé les passeurs géchars dans le patio Joue pas trop les hackeurs J'sais où sont les traqueurs T'as des haut-le-cur quand tu m'vois sortir du 4-Motions Méfie toi d'qui tu vas t'entourer Qui s'ra là quand tu s'ras enterré Qui ? Qui ? Et tu peux courir ça va t'Grrr Pah-Pah faut pas t'retourner Grrr-Pah J'les pull up comme Fredo Santana Ces rebeux sont tarés Pourquoi ler-par quand je n'suis pas là J't'ai même pas cala J'ramène le papel pour la Mama Ouais pour la Madre J'dépense le reste pour faire la mala Humain dénaturalisé c'est le bal masqué Relations s'dégradent deviennent infernales Si t'es mon frérot j'te laisse pas shlager J'pourrais t'sortir de la neige comme un Saint-Bernard Le juge veut savoir à qui j'ai passé l'arme Et au parlu maman ne retiens plus ses larmes En vrai même à l'école ça s'passait mal Avec NB et Kamel ça cassait des gueules On est morts de l'intérieur on vit pour le mal 10 ans plus tard on vivra pour le mic' Le range rover est neuf et le 9 est tout noir Les mains noires j'ai bossé la blanche dans le manoir J'ai appris à mes dépends à dépenser sans sous Attacher mes démons à la chaise musicale Calé dans l'Ghini j'ai fuego de Konoha Kichtaga colorée, calibré Gomorra Donneurs de go sur les nerfs ça va rafaler L'affamé profane sur la tombe d'un frère tombé sous les balles Fin d'année pleurer sans souffrir aux heures funéraires L'homme est égaré paraît qu'l'enfer c'est les autres Ils m'sous-estiment et 10 ans plus tard Ils sont v'nus m'cirer les pompes Ou bien pleurer des océans Remuer des tombes afin d'me réduire à néant Géant de l'indé j'suis sur l'terrain le gérant gelato dans les hémisphères cérébraux En treillis dans un massif forestier J'tire sur les flibustiers, et les généraux J'ai toujours du respect pour mon prochain Mais l'prochain qui gigotte Igo j'lui dévisse le cur À 14 piges on volait d'jà du biff à baver devant les vitrines de chez Foot Locker J'les pull up comme Fredo Santana Ces rebeux sont tarés Pourquoi ler-par quand je n'suis pas là J't'ai même pas cala J'ramène le papel pour la Mama Ouais pour la Madre J'dépense le reste pour faire la mala Hey, Hey J'suis en pétard, j'suis en pétard J'suis en pétard, j'suis en pétard J'suis en pétard, j'suis en pétard J'suis en pétard</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>J'ai des couteaux dans le dos, acupuncture Tu n'es pas de ma pointure, j'suis de la ville escargot Tu nous parles de cargo, t'as déjà vu d'la pure ? Va dire à ta pute qu'j'ai son petit cadeau Je porte le dirty comme à Chicago La tige d'arac nettoie mes chicavavots Je moove à la Mavado, je veux coller la petite Faire un max de deniers, je suis bourbier je suis pas beau Rappeur à sac à dos, c'est pas l'heure du goûter Le rap c'est pas pour toi j'ai d'quoi dégouter On est bientôt les rois, c'est pas l'heure de douter Je vois tes associateurs tenter de m'marabouter J'ai 27 piges et je suis sur deux MILFs T'en as 40 et t'es sur une 2000 T'as poucave ce biko pour moins d'un demi ? Handek, puto t'es dans ma ligne de mire Je vais t'montrer de quel bois se chauffe l'Électron Libre 4 heures du mat' en mode boxe de l'homme ivre Ta carrière est à vomir T'as refusé mon texte, comme tu dois mal dormir Mon rebeu, je baise ta meuf plus souvent que toi J'ai changé de classe sociale et de toit Je vais vers les étoiles quant à toi Si ce que tu vas rapper n'est pas mieux que le silence tais-toi T'es bon qu'à te faire ter-doigt Jeune kholoto, je n'crois pas au hasard, je n'joue pas au loto Quand j'suis dans le blizzard et que j'ai beaucoup trop De pression sur le dos, je refais l'odo J'sors de la rue, j'suis solide Endurant, réactif, débrouillard, bricoleur J'suis ni conservateur, ni bolchevik Moi j'ai tout fait pour fuir ma vie d'cambrioleur Des canines aux molaires j'ai la dalle, j'ai la rage Petit rappeur, t'es juste en phase embryonnaire Elle cherche un millionaire, pas un branleur Qui s'fait péter pour un joint de paraf' par la ferroviaire C'est pas toi qui donne l'heure, c'est Patek Philippe On est d'retour dans le game, poto, c'est pas fini Johnny lève la bécane comme à Philly Que va me ramener ta pute à part la syphilis ? I'm young, I'm rich, I'm young, I'm rich Et je marche seul torse nu sur la corniche Depuis mioche, moi, j'veux manier le verbe comme Nietzsche UK Connection j'enregistre à Shoreditch À trop vouloir faire l'ange on devient l'pire des diables On boxe avec les mots, t'encaisses même pas les jabs S'exprime sans langue de bois dans les médias 20 moins 3 ça s'embrouille de manière médiévale, bitchesYou might also like2</t>
+          <t>J'ai des couteaux dans le dos, acupuncture Tu n'es pas de ma pointure, j'suis de la ville escargot Tu nous parles de cargo, t'as déjà vu d'la pure ? Va dire à ta pute qu'j'ai son petit cadeau Je porte le dirty comme à Chicago La tige d'arac nettoie mes chicavavots Je moove à la Mavado, je veux coller la petite Faire un max de deniers, je suis bourbier je suis pas beau Rappeur à sac à dos, c'est pas l'heure du goûter Le rap c'est pas pour toi j'ai d'quoi dégouter On est bientôt les rois, c'est pas l'heure de douter Je vois tes associateurs tenter de m'marabouter J'ai 27 piges et je suis sur deux MILFs T'en as 40 et t'es sur une 2000 T'as poucave ce biko pour moins d'un demi ? Handek, puto t'es dans ma ligne de mire Je vais t'montrer de quel bois se chauffe l'Électron Libre 4 heures du mat' en mode boxe de l'homme ivre Ta carrière est à vomir T'as refusé mon texte, comme tu dois mal dormir Mon rebeu, je baise ta meuf plus souvent que toi J'ai changé de classe sociale et de toit Je vais vers les étoiles quant à toi Si ce que tu vas rapper n'est pas mieux que le silence tais-toi T'es bon qu'à te faire ter-doigt Jeune kholoto, je n'crois pas au hasard, je n'joue pas au loto Quand j'suis dans le blizzard et que j'ai beaucoup trop De pression sur le dos, je refais l'odo J'sors de la rue, j'suis solide Endurant, réactif, débrouillard, bricoleur J'suis ni conservateur, ni bolchevik Moi j'ai tout fait pour fuir ma vie d'cambrioleur Des canines aux molaires j'ai la dalle, j'ai la rage Petit rappeur, t'es juste en phase embryonnaire Elle cherche un millionaire, pas un branleur Qui s'fait péter pour un joint de paraf' par la ferroviaire C'est pas toi qui donne l'heure, c'est Patek Philippe On est d'retour dans le game, poto, c'est pas fini Johnny lève la bécane comme à Philly Que va me ramener ta pute à part la syphilis ? I'm young, I'm rich, I'm young, I'm rich Et je marche seul torse nu sur la corniche Depuis mioche, moi, j'veux manier le verbe comme Nietzsche UK Connection j'enregistre à Shoreditch À trop vouloir faire l'ange on devient l'pire des diables On boxe avec les mots, t'encaisses même pas les jabs S'exprime sans langue de bois dans les médias 20 moins 3 ça s'embrouille de manière médiévale, bitches2</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Vrai Algérien d'la team , paraît qu'tu veux m'testes, essaye Ils font les diables, j'fais apparaître sous leurs aisselles Ils transpirent fort, j'leur mets la pression à la Denzel Ta meuf veut partir en voyage, ramène j'la monte au septième ciel Sans moi je pense que Paris ne serait pas si magique, j'découpe tes cordes vocales et puis j'men sers d'élastique J'suis en caisse avec l'équipe, j'appelle ta meuf pour qu'elle m'l'astique La vie c'est une pute et j'sais que j'payerai si j'la nique J'ai grandi dans la violence, ma concurrence est ma cible J'ai prit tellement d'assurance j'vais signer chez la Macif En fait le parce que j'enchaîne les classiques J'lâche des punch' sans faire exprès, j'avoue c'est plutôt pratique J't'allume ta race comme si j'mappelais Hitler, tu nous connais, j'te fais Danser la valse, s'tu veux, tu peux m'appeler Dieudonné, hé hé Dis à tes potes qu'on est dans le nes-bi, j'gole-ri sur la concu' qui s'clashe en sirotant mon Ice Tea Les haineux qui nous bouyccottent, crois pas qu'ça nous enchante J't'allume à Porte de la Muette pour qu'y'est aucun terrain d'entente Hayce sors la machette, ils nous écoutent en cachette Tes critiques fous-les dans ton cul puis ressors-les pour ta schneck Il suffit pas d'ken tous les jours pour être un Homme pieux On a peut-être les mêmes punchlines mais quand j'les sors ça sonne mieux Hayce, dis à tes potes qu'on est dans le business, Face à Volts le 26 mai dans les bacs Le 26 mai dans les bacs X7 You might also likeLe 26 mai dans les bacs, bitch X8 Jsuis pas un artiste de lindustrie, jsuis un artiste et une industrie un artiste et une industrie ! Jen ai vu du crime jen ai vu du string Inutile de sortir ton 22, cest le retour dla Kalash Poutine ! Toujours au Four, au Moulin, en vitrine dans larrière-boutique Tauras pas la mémoire assez longue pour faire carrière dans la mythomanie Tu gardes tes ennemies près de toi Tu dois surement tméfier dtes amis Jeffrite une tête plus grosse que la tienne Dans vitre à lépreuve des balles Ils aimeraient que jdonne tout ce que jai Puis quretourne à la case départ Tes tellement mauvais que tout le monde veux que tu restes en hass Mappelles pas frère si tu pouvais tu mferais taper dans la S Tu mérites que jtenvoie le ptit Jack Mess Armé dun Neuf sous Jack Daniel'S Jrappe Alger, Bejaia, Tounes, Bamako, Dakar et Meknès Marianne a rejeté mes 3arboush, on porte le chapeau de lépouvantail Jlui che-cra dans la bouche, les orteils en éventail Effiloche les riches des quartiers chics et couper du shit toute la night Sans le savoir Hayce Lem deviendra Monsieur Hayce Lemsi linsomniaque Jporterai pas ton étiquette, jsuis pas ton panneau publicitaire Baby, jai toujours la bite raide, jconnais lgame comme si je larbitrais Hôtel cinq étoiles, comme dhab Cette nuit jsuis célibataire, comme dhab Deux trois quatre pet-Hayce comme dhab Jai confisqué tous les portables Fuck les droit dlhomme, Jexige le port darme Ma drogue pousse derrière le portail Il est rare que jarrive en retard Si les chiffres parlent dans la Comme toi jattends qula mort me rencarde En attendant jmoccupe des rampants Dans la street pas sentimentale Ma voix se savoure tel un caviar Homme daffaire sans être avare Naitre, obtenir le pouvoir Je suis le verbe être et le verbe avoir Mec cest Calibre automatique -tique Gamos automatique -tique, snitch au cur du trafic Puto tas le adios de ma team Un bico qui meurt, une bouche à nourrir en moins pour lassistante sociale Un bico dmoins dans la surpopulation carcérale Il nexiste aucun sérum contre cracisme viscéral Jvis serein mais les dents serrées Dans le hood avoir longue vive cest rare Un nuage enfante la tempête, jai refusé dêtre un esclave Ma Pet-Hayce est portoricaine, mon style est U.K, ma kalash est slave Brin de fierté te reste-il sista ? Tu donnes ta chatte à ton boss ? Tu tprostitues pour tpayer tes Jordans à ton gosse Mon frère pourquoi mavoir trahis, nous combattions pour la même cause Dire que nous portions le même treillis, nos esprits restaient en osmose En somme il suffit dun ennemi commun pour quune amitié renaisse Suffit dun sac Hermès pour vivre un amour nourrit dallégresse À toi qui priait pour que jrégresse Sache que jescaladerai lEverest Indécent, retourné ma veste, sur le rin-té gâchette contre lindex Elle est bonne ta loca Sisisisi Elle te tient par le sexe sexe sexe Manipule comme le 666, disparait comme le 777 Mon son tourne comme la syphilis Jsuis pas doué pour les euphémismes Islem ou Hayce quils aiment ou haïssent Jme formate pas pour la playlist Jmenrichis pendant qutu tdemandes ce que tu pourrais faire si tétais riche Triangle dor cest moi qui dirige Cest moi qui commande, cest moi qui érige Algerian Gangsta, jcombats le mal par le mal Mes plaies me guérissent, mes vers vieillissent Mon esprit séloigne du jardin des délices À trois-trente sur le périf Le 26 mai, Face à Volts dans les bacs Bitch Ok Booska-Frères Lumière Han ! J'suis toujours ce putain d'rappeur, souvent accosté par ta sur Critiqué par les haineux, ça ne m'atteint pas je n'ai pas de cur Je l'ai laissé à la maison, j'crois en Dieu donc je n'ai pas peur Tous ces MCs sont des acteurs qu'aimeraient signer chez Luc Besson Ils ont tous perdu la raison, s'vantent d'être rentré dans la bibi J'avoue t'es grave un bon si si, j'sers hélicoptère, missile Bientôt j'me barre j'suis qu'en visite, j'attends juste le bif de l'album J'arrive dans ce game par accident donc sois pas choqué si ça cartonne Tu nais seul et tu repars seul, respecte ta mère elle t'a porté T'aurais pu être le sperme de c'bâtard qu'a voulu avorter Me faites pas chier j'suis pépère, je n'vous écoute pas, vous n'êtes personne J'peux péter un appart' à Kléber juste en maîtrisant les clefs de sol J'suis de Paris donc j'suis magique, toi t'as des punchlines en plastique Donne-moi n'importe quelle prod khey j'te la transforme en classique Bébé je m'installe en premier, je n'suis pas un gentleman On a peut-être le même micro yeh... Je ne supporte plus les fausses victimes, supporte plus les gros profiteurs Même si j'perdais 70 kil' j'resterais toujours un gros kickeur J'ai l'buzz de la bouteille d'Urban Peace, toutes ces salopes me sucent la bite J'sors avec une heure et j'la quitte, bas les couilles de savoir où t'habites Fais beleck à ces lopes-sa, beleck à quand tu chais-cra gros A quand la pote-ca qué-cra XXX c'est plus ta pute c'est ta go Tu m'invites sur ton projet ? J'viens, j'te kick à toute heure Tes phases, t'as peur de t'faire cramer comme si tu venais d'ber-tom en scooter J'veux plus voir tous ces fêlés, l'oseille leur donne le barreau Dois-je me saper en LV pour me tenir à carreaux ? J'bicrave seulement des CDs, je n'fume que la garrot T'aimerais qu'on vienne t'aider ? Vas-y annonce le taro Je n'ai pas fais d'erreur de parcours, je n'rate pas les bonnes occasions Attention aux discours que j'véhicule, j'sais que mon corps n'est qu'en location Starfoullah, le rap une passion, j'suis le 7-5 en personne Sur l'autoroute du droit chemin, calcule as-p le Sheïtan qui klaxonne Aie aie aie ! 7-5 en personne X10 C'est le 26 mai dans les bacs bitch ! X10 Le 26 mai, va pé-cho Face à Volts enfoiré d'ta r'Hayce, tu sais comment ça s'passe sisi XV Barbar bitch ! Tu crois qu'le triangle d'or mais le triangle dure ! Pute Aie aie aie3</t>
+          <t>Vrai Algérien d'la team , paraît qu'tu veux m'testes, essaye Ils font les diables, j'fais apparaître sous leurs aisselles Ils transpirent fort, j'leur mets la pression à la Denzel Ta meuf veut partir en voyage, ramène j'la monte au septième ciel Sans moi je pense que Paris ne serait pas si magique, j'découpe tes cordes vocales et puis j'men sers d'élastique J'suis en caisse avec l'équipe, j'appelle ta meuf pour qu'elle m'l'astique La vie c'est une pute et j'sais que j'payerai si j'la nique J'ai grandi dans la violence, ma concurrence est ma cible J'ai prit tellement d'assurance j'vais signer chez la Macif En fait le parce que j'enchaîne les classiques J'lâche des punch' sans faire exprès, j'avoue c'est plutôt pratique J't'allume ta race comme si j'mappelais Hitler, tu nous connais, j'te fais Danser la valse, s'tu veux, tu peux m'appeler Dieudonné, hé hé Dis à tes potes qu'on est dans le nes-bi, j'gole-ri sur la concu' qui s'clashe en sirotant mon Ice Tea Les haineux qui nous bouyccottent, crois pas qu'ça nous enchante J't'allume à Porte de la Muette pour qu'y'est aucun terrain d'entente Hayce sors la machette, ils nous écoutent en cachette Tes critiques fous-les dans ton cul puis ressors-les pour ta schneck Il suffit pas d'ken tous les jours pour être un Homme pieux On a peut-être les mêmes punchlines mais quand j'les sors ça sonne mieux Hayce, dis à tes potes qu'on est dans le business, Face à Volts le 26 mai dans les bacs Le 26 mai dans les bacs X7 Le 26 mai dans les bacs, bitch X8 Jsuis pas un artiste de lindustrie, jsuis un artiste et une industrie un artiste et une industrie ! Jen ai vu du crime jen ai vu du string Inutile de sortir ton 22, cest le retour dla Kalash Poutine ! Toujours au Four, au Moulin, en vitrine dans larrière-boutique Tauras pas la mémoire assez longue pour faire carrière dans la mythomanie Tu gardes tes ennemies près de toi Tu dois surement tméfier dtes amis Jeffrite une tête plus grosse que la tienne Dans vitre à lépreuve des balles Ils aimeraient que jdonne tout ce que jai Puis quretourne à la case départ Tes tellement mauvais que tout le monde veux que tu restes en hass Mappelles pas frère si tu pouvais tu mferais taper dans la S Tu mérites que jtenvoie le ptit Jack Mess Armé dun Neuf sous Jack Daniel'S Jrappe Alger, Bejaia, Tounes, Bamako, Dakar et Meknès Marianne a rejeté mes 3arboush, on porte le chapeau de lépouvantail Jlui che-cra dans la bouche, les orteils en éventail Effiloche les riches des quartiers chics et couper du shit toute la night Sans le savoir Hayce Lem deviendra Monsieur Hayce Lemsi linsomniaque Jporterai pas ton étiquette, jsuis pas ton panneau publicitaire Baby, jai toujours la bite raide, jconnais lgame comme si je larbitrais Hôtel cinq étoiles, comme dhab Cette nuit jsuis célibataire, comme dhab Deux trois quatre pet-Hayce comme dhab Jai confisqué tous les portables Fuck les droit dlhomme, Jexige le port darme Ma drogue pousse derrière le portail Il est rare que jarrive en retard Si les chiffres parlent dans la Comme toi jattends qula mort me rencarde En attendant jmoccupe des rampants Dans la street pas sentimentale Ma voix se savoure tel un caviar Homme daffaire sans être avare Naitre, obtenir le pouvoir Je suis le verbe être et le verbe avoir Mec cest Calibre automatique -tique Gamos automatique -tique, snitch au cur du trafic Puto tas le adios de ma team Un bico qui meurt, une bouche à nourrir en moins pour lassistante sociale Un bico dmoins dans la surpopulation carcérale Il nexiste aucun sérum contre cracisme viscéral Jvis serein mais les dents serrées Dans le hood avoir longue vive cest rare Un nuage enfante la tempête, jai refusé dêtre un esclave Ma Pet-Hayce est portoricaine, mon style est U.K, ma kalash est slave Brin de fierté te reste-il sista ? Tu donnes ta chatte à ton boss ? Tu tprostitues pour tpayer tes Jordans à ton gosse Mon frère pourquoi mavoir trahis, nous combattions pour la même cause Dire que nous portions le même treillis, nos esprits restaient en osmose En somme il suffit dun ennemi commun pour quune amitié renaisse Suffit dun sac Hermès pour vivre un amour nourrit dallégresse À toi qui priait pour que jrégresse Sache que jescaladerai lEverest Indécent, retourné ma veste, sur le rin-té gâchette contre lindex Elle est bonne ta loca Sisisisi Elle te tient par le sexe sexe sexe Manipule comme le 666, disparait comme le 777 Mon son tourne comme la syphilis Jsuis pas doué pour les euphémismes Islem ou Hayce quils aiment ou haïssent Jme formate pas pour la playlist Jmenrichis pendant qutu tdemandes ce que tu pourrais faire si tétais riche Triangle dor cest moi qui dirige Cest moi qui commande, cest moi qui érige Algerian Gangsta, jcombats le mal par le mal Mes plaies me guérissent, mes vers vieillissent Mon esprit séloigne du jardin des délices À trois-trente sur le périf Le 26 mai, Face à Volts dans les bacs Bitch Ok Booska-Frères Lumière Han ! J'suis toujours ce putain d'rappeur, souvent accosté par ta sur Critiqué par les haineux, ça ne m'atteint pas je n'ai pas de cur Je l'ai laissé à la maison, j'crois en Dieu donc je n'ai pas peur Tous ces MCs sont des acteurs qu'aimeraient signer chez Luc Besson Ils ont tous perdu la raison, s'vantent d'être rentré dans la bibi J'avoue t'es grave un bon si si, j'sers hélicoptère, missile Bientôt j'me barre j'suis qu'en visite, j'attends juste le bif de l'album J'arrive dans ce game par accident donc sois pas choqué si ça cartonne Tu nais seul et tu repars seul, respecte ta mère elle t'a porté T'aurais pu être le sperme de c'bâtard qu'a voulu avorter Me faites pas chier j'suis pépère, je n'vous écoute pas, vous n'êtes personne J'peux péter un appart' à Kléber juste en maîtrisant les clefs de sol J'suis de Paris donc j'suis magique, toi t'as des punchlines en plastique Donne-moi n'importe quelle prod khey j'te la transforme en classique Bébé je m'installe en premier, je n'suis pas un gentleman On a peut-être le même micro yeh... Je ne supporte plus les fausses victimes, supporte plus les gros profiteurs Même si j'perdais 70 kil' j'resterais toujours un gros kickeur J'ai l'buzz de la bouteille d'Urban Peace, toutes ces salopes me sucent la bite J'sors avec une heure et j'la quitte, bas les couilles de savoir où t'habites Fais beleck à ces lopes-sa, beleck à quand tu chais-cra gros A quand la pote-ca qué-cra XXX c'est plus ta pute c'est ta go Tu m'invites sur ton projet ? J'viens, j'te kick à toute heure Tes phases, t'as peur de t'faire cramer comme si tu venais d'ber-tom en scooter J'veux plus voir tous ces fêlés, l'oseille leur donne le barreau Dois-je me saper en LV pour me tenir à carreaux ? J'bicrave seulement des CDs, je n'fume que la garrot T'aimerais qu'on vienne t'aider ? Vas-y annonce le taro Je n'ai pas fais d'erreur de parcours, je n'rate pas les bonnes occasions Attention aux discours que j'véhicule, j'sais que mon corps n'est qu'en location Starfoullah, le rap une passion, j'suis le 7-5 en personne Sur l'autoroute du droit chemin, calcule as-p le Sheïtan qui klaxonne Aie aie aie ! 7-5 en personne X10 C'est le 26 mai dans les bacs bitch ! X10 Le 26 mai, va pé-cho Face à Volts enfoiré d'ta r'Hayce, tu sais comment ça s'passe sisi XV Barbar bitch ! Tu crois qu'le triangle d'or mais le triangle dure ! Pute Aie aie aie3</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>... Trop fort pour noyer mon anxiété dans les sédatifs, j'ai du patienter , car d'après ce que m'a dis le temps tout est relatif J'suis dans la musique, j'ai quelques dispositions natives N'attends pas d'être zéro positif pour apprendre que l'amour est dans le préservatif Dans tout tes xte-te tu fais le thug, mais quand faut tu perds ton froc, toi tu fais la belle , j'sais qu'mes phrases ont de l' efficacité sur ton corps , j'ai mon propre label J'vois l'argent sale s'entasser dans mon coffre-fort Et si tu savais comme un être humain peut changer d'visage Pour un peu de confort c'est la société ! Consommation qui nous hisse vers les arrivants, jette cette teille T'es un bon vivant , mais là frère tu ressembles à un mort-vivant Le regard glacé j'porte bien mon nom comme les enfoirés,j'reviens plus puissant R.D.V j'arrives comme Hervé, j'te rafales ta rhayce en GP-800 Y a plus d'Hip-Hop, y a qu'des hits, y a qu'd'la coke , des putes et d'la Pop Illimité, j'débites toujours aussi volubile Veni vidi vici Alexander McQueen Toi j'sais pas s'que tu me baragouines, en dirait que ta pute sort d'un bar à gween , biiitch ... XVBAGDAD yeah,yeah On est dans les times t'sais déjà , avec DJ KAYZ ! yeah Ils s'abreuvent à mon flow, mon orale laisse un parfum de soir orageux Ces rageux sans vertu jugent un livre par sa couverture Ma culture serait moyenne âgeuse , carra sur le majeur 44 à la ceinture , on s'en tire, j'assume ce point Comme un rajel,comme un rajel, comme un rajel Dites à ces fils de putes que je suis dans le jeu ! You might also likeJeune étalon talentueux sans Maréchal Férrant J'attache tous ces chiens errants sur la voie ferrée, j'les ai déjà flairés, j'les vois déjà sombrer dans mon indifférence , vois-tu ? Toi et moi c'est quand tu veux, bicow tu parles beaucoup ! On a grillé tous les feux XvBarbarBecue ! L'amertume je chante, 11.43, quelques litres de chanvres J'suis sur les chants , 20 bouteilles de champ' Elles se demandent pourquoi je suis si méchant j'suis éméché ,fallait pas m'chercher. Depuis qu'j'ai percé j'ai grave gé-chan Depuis que j'ai touché c'putain d'gros que-ché j'tappe dans la selha d'après la légende ! J'suis un enfant du Sahara , j'traverse les tempêtes de sable Un empereur en Versace sous le soleil de Versailles Avec ou sans Universal , je serai dans mon univers sale Je serai dans mon univers sale, avec ou sans Universal J'serais dans mon univers sale ! FREESTYLE 2 partie TWO ... J'réanime le rap game au défi prédators, grimpe dans la cooper bitch Je défies les délateurs, préstigiditateurs, arrogant,jeune et riche Énervé dans le square en discort, calibré sous un ciel sans étoile T'as dénoncé ma scotte,poukito les vrais bicos disent que c'était toi J'connais pas l'désaroi, je fais partie des rois, sans effroi je les froisse J'ai grandi dans d'étroites cages d'escal. , mes ennemis s'attendent au tête-à-tête quand je les croises Philosophie cartésienne, si l'OPJ demande après moi Carpe diem! Ferme-la ,y a ta cocaïne sur la table J'ai le mental d'Ali la pointe, l'arabe vous attaque 2 fois BITCH !2</t>
+          <t>... Trop fort pour noyer mon anxiété dans les sédatifs, j'ai du patienter , car d'après ce que m'a dis le temps tout est relatif J'suis dans la musique, j'ai quelques dispositions natives N'attends pas d'être zéro positif pour apprendre que l'amour est dans le préservatif Dans tout tes xte-te tu fais le thug, mais quand faut tu perds ton froc, toi tu fais la belle , j'sais qu'mes phrases ont de l' efficacité sur ton corps , j'ai mon propre label J'vois l'argent sale s'entasser dans mon coffre-fort Et si tu savais comme un être humain peut changer d'visage Pour un peu de confort c'est la société ! Consommation qui nous hisse vers les arrivants, jette cette teille T'es un bon vivant , mais là frère tu ressembles à un mort-vivant Le regard glacé j'porte bien mon nom comme les enfoirés,j'reviens plus puissant R.D.V j'arrives comme Hervé, j'te rafales ta rhayce en GP-800 Y a plus d'Hip-Hop, y a qu'des hits, y a qu'd'la coke , des putes et d'la Pop Illimité, j'débites toujours aussi volubile Veni vidi vici Alexander McQueen Toi j'sais pas s'que tu me baragouines, en dirait que ta pute sort d'un bar à gween , biiitch ... XVBAGDAD yeah,yeah On est dans les times t'sais déjà , avec DJ KAYZ ! yeah Ils s'abreuvent à mon flow, mon orale laisse un parfum de soir orageux Ces rageux sans vertu jugent un livre par sa couverture Ma culture serait moyenne âgeuse , carra sur le majeur 44 à la ceinture , on s'en tire, j'assume ce point Comme un rajel,comme un rajel, comme un rajel Dites à ces fils de putes que je suis dans le jeu ! Jeune étalon talentueux sans Maréchal Férrant J'attache tous ces chiens errants sur la voie ferrée, j'les ai déjà flairés, j'les vois déjà sombrer dans mon indifférence , vois-tu ? Toi et moi c'est quand tu veux, bicow tu parles beaucoup ! On a grillé tous les feux XvBarbarBecue ! L'amertume je chante, 11.43, quelques litres de chanvres J'suis sur les chants , 20 bouteilles de champ' Elles se demandent pourquoi je suis si méchant j'suis éméché ,fallait pas m'chercher. Depuis qu'j'ai percé j'ai grave gé-chan Depuis que j'ai touché c'putain d'gros que-ché j'tappe dans la selha d'après la légende ! J'suis un enfant du Sahara , j'traverse les tempêtes de sable Un empereur en Versace sous le soleil de Versailles Avec ou sans Universal , je serai dans mon univers sale Je serai dans mon univers sale, avec ou sans Universal J'serais dans mon univers sale ! FREESTYLE 2 partie TWO ... J'réanime le rap game au défi prédators, grimpe dans la cooper bitch Je défies les délateurs, préstigiditateurs, arrogant,jeune et riche Énervé dans le square en discort, calibré sous un ciel sans étoile T'as dénoncé ma scotte,poukito les vrais bicos disent que c'était toi J'connais pas l'désaroi, je fais partie des rois, sans effroi je les froisse J'ai grandi dans d'étroites cages d'escal. , mes ennemis s'attendent au tête-à-tête quand je les croises Philosophie cartésienne, si l'OPJ demande après moi Carpe diem! Ferme-la ,y a ta cocaïne sur la table J'ai le mental d'Ali la pointe, l'arabe vous attaque 2 fois BITCH !2</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>HayHayHayce ! DouaetChko, la fourche la tour la J, passe au ghetto c'est juste a côté Freestyle Toujours naturel et discret comme un litron de pure dans une fiat punto Biko plaire a tout le monde c'est plaire a n'importe quel puto J'entend jaqueter la JAP j'ai la paire de yeux ou d'Ahmadinejad Le même gauche droite high kick que ?? la flamme du siete cinco Dégoûté d'la race humaine la vérité d'ce globe se vomit frère, un homme avertit en vaut 2, un homme vertueux en vaut 1000 Vestibule arsenal sous la veste polaire Que des hagras les rappeurs ont peur d'témoigner Petit n'reste pas là, tu vas perdre tes molaires, que des khabas a lil sur mon porte monnaie Etant minot moi je confondais les portes aux fenêtres, douce est ma clientèle forte est mon herbe Mieux vaut de choisir un drôle de train d'vie que de rester planter devant les portes palières Je me porter volontaire pour jeter les ordures, je les vois sous drogue dure le cul posé par terre You might also likeJ'sais qui sont mes partners, j'ai le phrasé de Voltaire j'humilie tes artistes avec désinvolture J'arrive comme un cataclysme pyramide de narcotique sur la balance Tempête de rage cyclone d'argent sale, on a surfé sur un vague de violence J'attrape le lion par la crinière j'repartirais pas sans l'magot Biko nourrit ta pépinière au lieu d'regarder ma go' Ma gueule j'la baise, rien qu'j'la baise, elle ma caresse les pec' pendant que j'fume d'la zeub Si cette pute me trompe avec un autre biko je ne la frapperais j'lui ferais la boule a Z Azyy cousiiiin J'vais reprendre la pastille trop deuspi pour qu'ils puissent me cibler Met plus de coco dans ton fazer, donne plus de poudre a tes flibustiers Toujours pas d'hainé dans mon paki, frère le temps c'est des plaquettes Toujours pas d'Cayenne dans mon parking, mon son tourne de Hall en discothèque Toujours pas daîné j'suis pas ton petit, l'insomniaque ne fais pas d'siestes Toujours pas d'rival dans la partie, toujours malmené par mon faciès Lève ton verre, lève ton verre a la santé du bad bikohey!x2 La santé du bad biko, la santé du bad biko Lève ton verre, lève ton verre a la santé du bad bicohey! Je ne crois qu'en celui qui a créer celui qui a crée le séisme artificiel Saucissonne le marionnettiste petit pantin sert toi d'tes ficelles J'ne compte plus tes ecchymoses et les flots de coca sous mes esquimaux 75 017 kilos d'pression dans la mâchoire, c'est le bad biko On t'en veut pour ta nationalité, ta couleur, tes croyances, ton état civil Parle pas d'alaignement galactique, de Nostradamus, ou l'oracle Sybille T'attends qu'un tapin te prenne tes patins, Tu n'connais pas la race humaine Tout est monétaire, la vérité s'cache a 1000 lieux sous les mers quand le diable submerge Des fans a mobiliser, des rimes a rentabiliser, ma devise est de voir les mythomanes se volatiliser Par le président les médias dévalorisés, on s'tappe d'vant les keufs sur les Champs-Elyséesyeah Hola, Hello vous naviguez dans la ville de la Koca, bimbo cognac, telho c'est juste mister vida loca Bico la France veut nous gauler elle a peur qu'on détourne un Boeing Flashé sous flash weed capuché dans un bolide J'entends toc toc toc, sur les six hours, il est six'o'clock motherfuck fuck fuck, trop de pute dans l'game j'les baises toutes It's the gang bang style woop woop woop</t>
+          <t>HayHayHayce ! DouaetChko, la fourche la tour la J, passe au ghetto c'est juste a côté Freestyle Toujours naturel et discret comme un litron de pure dans une fiat punto Biko plaire a tout le monde c'est plaire a n'importe quel puto J'entend jaqueter la JAP j'ai la paire de yeux ou d'Ahmadinejad Le même gauche droite high kick que ?? la flamme du siete cinco Dégoûté d'la race humaine la vérité d'ce globe se vomit frère, un homme avertit en vaut 2, un homme vertueux en vaut 1000 Vestibule arsenal sous la veste polaire Que des hagras les rappeurs ont peur d'témoigner Petit n'reste pas là, tu vas perdre tes molaires, que des khabas a lil sur mon porte monnaie Etant minot moi je confondais les portes aux fenêtres, douce est ma clientèle forte est mon herbe Mieux vaut de choisir un drôle de train d'vie que de rester planter devant les portes palières Je me porter volontaire pour jeter les ordures, je les vois sous drogue dure le cul posé par terre J'sais qui sont mes partners, j'ai le phrasé de Voltaire j'humilie tes artistes avec désinvolture J'arrive comme un cataclysme pyramide de narcotique sur la balance Tempête de rage cyclone d'argent sale, on a surfé sur un vague de violence J'attrape le lion par la crinière j'repartirais pas sans l'magot Biko nourrit ta pépinière au lieu d'regarder ma go' Ma gueule j'la baise, rien qu'j'la baise, elle ma caresse les pec' pendant que j'fume d'la zeub Si cette pute me trompe avec un autre biko je ne la frapperais j'lui ferais la boule a Z Azyy cousiiiin J'vais reprendre la pastille trop deuspi pour qu'ils puissent me cibler Met plus de coco dans ton fazer, donne plus de poudre a tes flibustiers Toujours pas d'hainé dans mon paki, frère le temps c'est des plaquettes Toujours pas d'Cayenne dans mon parking, mon son tourne de Hall en discothèque Toujours pas daîné j'suis pas ton petit, l'insomniaque ne fais pas d'siestes Toujours pas d'rival dans la partie, toujours malmené par mon faciès Lève ton verre, lève ton verre a la santé du bad bikohey!x2 La santé du bad biko, la santé du bad biko Lève ton verre, lève ton verre a la santé du bad bicohey! Je ne crois qu'en celui qui a créer celui qui a crée le séisme artificiel Saucissonne le marionnettiste petit pantin sert toi d'tes ficelles J'ne compte plus tes ecchymoses et les flots de coca sous mes esquimaux 75 017 kilos d'pression dans la mâchoire, c'est le bad biko On t'en veut pour ta nationalité, ta couleur, tes croyances, ton état civil Parle pas d'alaignement galactique, de Nostradamus, ou l'oracle Sybille T'attends qu'un tapin te prenne tes patins, Tu n'connais pas la race humaine Tout est monétaire, la vérité s'cache a 1000 lieux sous les mers quand le diable submerge Des fans a mobiliser, des rimes a rentabiliser, ma devise est de voir les mythomanes se volatiliser Par le président les médias dévalorisés, on s'tappe d'vant les keufs sur les Champs-Elyséesyeah Hola, Hello vous naviguez dans la ville de la Koca, bimbo cognac, telho c'est juste mister vida loca Bico la France veut nous gauler elle a peur qu'on détourne un Boeing Flashé sous flash weed capuché dans un bolide J'entends toc toc toc, sur les six hours, il est six'o'clock motherfuck fuck fuck, trop de pute dans l'game j'les baises toutes It's the gang bang style woop woop woop</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>4 Septembre, 4 septembre, Bitch, bitch, bitch J'sors en fouraillé du parking, on a voulu briser mon rêve et celui de Luther king À côté mes petits guettent des kartings , si tu veux faire la guerre à mon quartier Jt'avertis, j'sors la patate tu vas peut-être me voir Fais gaffe à ton cul bicow je crains de ne pas t'revoir Dans ce pays seul nos parents sont nos patrimoines En dirait que sa les dérange que ma daronne porte le voile Peut importe que tu soies avec ou contre moi Tu m'en redira si j'arrête le rap Redwa Tu dis que tu peux tout niquer, petit montre-moi Montre-moi, j'attends vas-y, petit montre-moi Torse nu, magnum de champagne sur un deux roues Mélancolique à mes heures de nostalgie Bicow j'respire le Hood ! L'addition sera salée Déçu des maisons d'disques, des relation financières De toute façon je n'ai d'quoi m'en faire j'me torche Avec la sincérité Si je te serre la main, rappeur, je vais recompter tous mes doigts J'ai forgé mon talent sur des mélodies très anciennes Quand je vois ce qu'est devenu l'peu-ra j'pisse la rage Le fils à papa veut reprendre ma part de gâteau Trop souffert dans la rue pour n'pas t'enculer ta race Il paraît que tu rases les murs en passant dans mon ghetto Ca fait longtemps que j'attends mon heure, demande au grand Damso Ils mettent tellement de vocoder, on dirait qu'ils se font dom-so J'grimpe l'arbre de l'abrupte, un espèce d'homme-singe Egérie de l'Algérie, Paris sur les dorsaux You might also likePoses pas de questions, mets ton cavu sur la cane-bé J'bosse comme un Philippin mon train de vie de Boss laisse peu d'espace et de temps malgré les équitations d'Albert Hausse la mise et fais tomber tous les masques Est-ce dans ma volubilité qu'est née leur foutue bassesse ? Hayce interpellé pour un délit de faciès Barbe à Napoli, dans la pyramide ou l'Iceberg Barbare impoli j'ai le milli' dans le Holster Drive-by en bolide ces bicos nous payent au lance-pierre Hayce Algerian Gangster, Cristiano du Rap des millions d'euros le transfert Snitch t'as rien à faire dans le four Tu deviens trop lourd j'te jette de la montgolfière Quelques American Express dans le larfeuille 6' du Sbah pour aller braquer l'orfèvre Elle me transporte loin de la surface terrestre Trouve un job' la réalité enquerre tes rêves Ma discipline est un empire où la fièvre terreigne Je les kick tous depuis ma première paire TN J'vous ai dis que la c'est des funérailles Qui vont défourailler si je perds un partenaire! Bande de poukaves de merde, j'emboucane vos mères J'veux des milliers d'euros feuilles et stylos, carte mere T'as beau porter l'3in, j'ai la baraka, Bitch Make in train, voilà Panamovic Dans un état souvent comme Lil Wayne à Pan Bitch, bitch,bitch,bitch,bitch T'as beau porter l'3in, j'ai la baraka, Bitch Make in train, voilà Panamovic Dans un état souvent comme Lil Wayne à Pan Bitch, bitch,bitch,bitch,bitch J'suis dans la planque je fume un blunt J'me tape comme le père à T'as pas d'casier, fais pas l'thug T'as pas d'casier fais pas l'thug Vas-y, charbonne sur ma peuf' Sur scène je bouge comme un punk Loka, suce moi c'est la teuf' Du 75 j'suis l'sénateur XV BangBang,Xv Bangbang,XV Bangbang Tu provoques lidolâtrie, J'voulais représenter ma misère La déchéance en son-pri J'voulais saisir ma chance au corner J'avais peur de n'rien faire de ma vie XvBarbar j'ai laissé ma jeunesse à la rue Bicow,blaco,blanco reconnaissent Cohones de tauro , trop d'flow ils m'reconnaissent Qu'un algérien , 3 pet'hayce , une arme de l'est Il me suffit que d'un geste de génie, ce flow vient de Los Angeles C'est la MS 17 qui saisit tes trons-li, ton or et ta Rolex Que la juge nous relaxe... Que mes bicows renaissent ! Trois balles dans ton thorax Torse nu sur l'T-MAX , t'as retourné ta veste ---------------------------- Que la juge nous relaxe... Que mes bicows renaissent ! Trois balles dans ton thorax Torse nu sur l'T-MAX , t'as retourné ta veste INSTRUMENTALFREESTYLE NUMÉRO 2 Demande à S-Pri j'fais des prix sur la S' J'ai du style même quand je les braque pendant que Volt Face vide la caisse Ma vérité roule à sens unique avec une Pet-hayce de Budapest Le pillon mharleine à chimique enfume la pièce C'est la hess ouai c'est comme d'hab les familles s'entassent au jeu de la pièce Les porcs appellent les renforts et ces fils de pute vident la tess' Investit dans un hanout au lieu de flamber dans un Classe S Buiseness man depuis lépoque ou El Bino navait pas de tresses UnDosTrès On sort la night 75 degrés Fahrenheit Phares éteint sur le periph', Triangle dOr sur la plaque paranoïaque Moi jai la tête dure comme leurs matraque j'suis un macaque avec une bite d'éléphanteau dans une phantom au milieu de la night Démoniaque cest linsomniaque jpeut pas mendormir dans une chart En manque daffection et daction la délinquance a du charme Jvais pas cracher dans la Chorba Cest la fin des haricots, cest la fin de la loubia Mais ce ne sera jamais la fin de mes Parigos Ouai mange ma Bounia bourricot Les jeunes ont tendance à mourir tôt Si tu les douilles évite de brailler tu mérites une rafale de balle sous Mojito Hijo de la puta, j'recèle, hiro de la puta Jobserve a chaque fois que l'étau se ressert et que les poukitos se reservent Demande aux frères lumières des années lumières décart entre les frères Asiatique, blanc, arabe, noir et fier Paris n'a pas d'odeur mais le Qatar a du flair Une putain d'fissure au cur lorsque l'arnaque a manger du ferme</t>
+          <t>4 Septembre, 4 septembre, Bitch, bitch, bitch J'sors en fouraillé du parking, on a voulu briser mon rêve et celui de Luther king À côté mes petits guettent des kartings , si tu veux faire la guerre à mon quartier Jt'avertis, j'sors la patate tu vas peut-être me voir Fais gaffe à ton cul bicow je crains de ne pas t'revoir Dans ce pays seul nos parents sont nos patrimoines En dirait que sa les dérange que ma daronne porte le voile Peut importe que tu soies avec ou contre moi Tu m'en redira si j'arrête le rap Redwa Tu dis que tu peux tout niquer, petit montre-moi Montre-moi, j'attends vas-y, petit montre-moi Torse nu, magnum de champagne sur un deux roues Mélancolique à mes heures de nostalgie Bicow j'respire le Hood ! L'addition sera salée Déçu des maisons d'disques, des relation financières De toute façon je n'ai d'quoi m'en faire j'me torche Avec la sincérité Si je te serre la main, rappeur, je vais recompter tous mes doigts J'ai forgé mon talent sur des mélodies très anciennes Quand je vois ce qu'est devenu l'peu-ra j'pisse la rage Le fils à papa veut reprendre ma part de gâteau Trop souffert dans la rue pour n'pas t'enculer ta race Il paraît que tu rases les murs en passant dans mon ghetto Ca fait longtemps que j'attends mon heure, demande au grand Damso Ils mettent tellement de vocoder, on dirait qu'ils se font dom-so J'grimpe l'arbre de l'abrupte, un espèce d'homme-singe Egérie de l'Algérie, Paris sur les dorsaux Poses pas de questions, mets ton cavu sur la cane-bé J'bosse comme un Philippin mon train de vie de Boss laisse peu d'espace et de temps malgré les équitations d'Albert Hausse la mise et fais tomber tous les masques Est-ce dans ma volubilité qu'est née leur foutue bassesse ? Hayce interpellé pour un délit de faciès Barbe à Napoli, dans la pyramide ou l'Iceberg Barbare impoli j'ai le milli' dans le Holster Drive-by en bolide ces bicos nous payent au lance-pierre Hayce Algerian Gangster, Cristiano du Rap des millions d'euros le transfert Snitch t'as rien à faire dans le four Tu deviens trop lourd j'te jette de la montgolfière Quelques American Express dans le larfeuille 6' du Sbah pour aller braquer l'orfèvre Elle me transporte loin de la surface terrestre Trouve un job' la réalité enquerre tes rêves Ma discipline est un empire où la fièvre terreigne Je les kick tous depuis ma première paire TN J'vous ai dis que la c'est des funérailles Qui vont défourailler si je perds un partenaire! Bande de poukaves de merde, j'emboucane vos mères J'veux des milliers d'euros feuilles et stylos, carte mere T'as beau porter l'3in, j'ai la baraka, Bitch Make in train, voilà Panamovic Dans un état souvent comme Lil Wayne à Pan Bitch, bitch,bitch,bitch,bitch T'as beau porter l'3in, j'ai la baraka, Bitch Make in train, voilà Panamovic Dans un état souvent comme Lil Wayne à Pan Bitch, bitch,bitch,bitch,bitch J'suis dans la planque je fume un blunt J'me tape comme le père à T'as pas d'casier, fais pas l'thug T'as pas d'casier fais pas l'thug Vas-y, charbonne sur ma peuf' Sur scène je bouge comme un punk Loka, suce moi c'est la teuf' Du 75 j'suis l'sénateur XV BangBang,Xv Bangbang,XV Bangbang Tu provoques lidolâtrie, J'voulais représenter ma misère La déchéance en son-pri J'voulais saisir ma chance au corner J'avais peur de n'rien faire de ma vie XvBarbar j'ai laissé ma jeunesse à la rue Bicow,blaco,blanco reconnaissent Cohones de tauro , trop d'flow ils m'reconnaissent Qu'un algérien , 3 pet'hayce , une arme de l'est Il me suffit que d'un geste de génie, ce flow vient de Los Angeles C'est la MS 17 qui saisit tes trons-li, ton or et ta Rolex Que la juge nous relaxe... Que mes bicows renaissent ! Trois balles dans ton thorax Torse nu sur l'T-MAX , t'as retourné ta veste ---------------------------- Que la juge nous relaxe... Que mes bicows renaissent ! Trois balles dans ton thorax Torse nu sur l'T-MAX , t'as retourné ta veste INSTRUMENTALFREESTYLE NUMÉRO 2 Demande à S-Pri j'fais des prix sur la S' J'ai du style même quand je les braque pendant que Volt Face vide la caisse Ma vérité roule à sens unique avec une Pet-hayce de Budapest Le pillon mharleine à chimique enfume la pièce C'est la hess ouai c'est comme d'hab les familles s'entassent au jeu de la pièce Les porcs appellent les renforts et ces fils de pute vident la tess' Investit dans un hanout au lieu de flamber dans un Classe S Buiseness man depuis lépoque ou El Bino navait pas de tresses UnDosTrès On sort la night 75 degrés Fahrenheit Phares éteint sur le periph', Triangle dOr sur la plaque paranoïaque Moi jai la tête dure comme leurs matraque j'suis un macaque avec une bite d'éléphanteau dans une phantom au milieu de la night Démoniaque cest linsomniaque jpeut pas mendormir dans une chart En manque daffection et daction la délinquance a du charme Jvais pas cracher dans la Chorba Cest la fin des haricots, cest la fin de la loubia Mais ce ne sera jamais la fin de mes Parigos Ouai mange ma Bounia bourricot Les jeunes ont tendance à mourir tôt Si tu les douilles évite de brailler tu mérites une rafale de balle sous Mojito Hijo de la puta, j'recèle, hiro de la puta Jobserve a chaque fois que l'étau se ressert et que les poukitos se reservent Demande aux frères lumières des années lumières décart entre les frères Asiatique, blanc, arabe, noir et fier Paris n'a pas d'odeur mais le Qatar a du flair Une putain d'fissure au cur lorsque l'arnaque a manger du ferme</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Fuck le six et le pic du sphinx Je vois le voisin dans l'escalier se faire un fix Tu fais le grossiste t'as même pas le biff du pain Décervelé je suis l'éloquence à son paroxysme Bouddha bar, mauboussin Elle m'appelle déjà mon poussin Me caresse la barbe et mord le coussin J'ai la recette lemsi Michel Augustin Je suis un gars de bâtard v'la le le vacarme La kalash rafale ton armée se replie Sur moi rien que tu parles rien que tu baves Mais mon compte en banque et mes vers se remplissent On m'appelle du bagne force aux frères Qui font des yoyos jusqu à 6 du mat' Qui font la salat, la salat Que le bon dieu nous éloigne des forces du mal Je suis une force de la nature si j'ai un gros rass, c'est qu'il y en a la dedans Soutenir la Palestine c'est pas juste porter le keffieh bedave de l'afghan Ne vous faites pas si petit monsieur Je vous assure que vous n'êtes pas si grand Je n'est qu'un conseil pour les petites re-su La meilleure d'entre vous sera la plus récalcitrante T'as calé le 6.30 tu te sens chaud T'as froid t'as le cul entre deux chaises Tu m'appelle sancho, tu m'appelle mon reuf' Mais tu rêves de m'allumer sur une sanchez Je suis un grand garçon, j'ai des principes J'ai la rétine et la plume assassine Je suis encore bourré j'écris deux classiques Sous un ciel non étoilé couleur anthracite Toi t'es dans ma cible Puto ne joues pas trop derrière y'a macho bang bang l'ivoirien Grrrr grrrr rafale dans ta grand mère tu vois rien Yeah hoe, chargeur camembert Yeah hoe, tu pues de la shnek zer t'as mis ton string à l'envers Je veux le siège de sarko, baiser carla Tu veux pecho c'est par là Cocaine, cocaine, porcelaine écarlate Champagne, champagne, je savoure pour mes scarlas Je me torche avec ce que le proc' stipule Une décennie dans le vestibule Qu'est-ce tu parles Bouddha bar, pédicure Je confond ta chatte avec le fromage qui pue Pute, je suis plus physique que chimie Je te rentre mon tube à essai Leurs flows se criogènisent ils essayent de redevenir juste avant leurs décès Je suis capi', je suis capo Je suis grrrr grrrr young pablo Tu indiques ton nachos, je suis dans le monté carlo Toi et moi c'est pas le même buzz Algerois talentueux comme mekhleuz Trop de rappeurs s'embrouille pour une merguez, s'embrouille pour une merdeuse Au parloir on voit des fantômes, on repense à nos kehs à l'hôtel de Vendôme Je suis légendaire comme les films de Van damme et je vais peut être pourrir avec un poignard dans le dos L'argent n'a pas d'odeur comme la fumée de ton pilon, paraffiné, j'suis raffiné, je rabats les promoteurs Moi j'ai la fougue dans les veines pour vous en filer dans la foulée, vous avez de belles carrosseries mais j'ai le plus gros moteur J'ai de la kush du Colorado, de l'amné' du Canada, tous mes bikos préfèrent la cavale que de retourner là-bas J'ai fais du bénéf' tout l'hiver, en été j'pars à Malaga, j'ai mal au coeur en voyant galérer mes khos, les haragas, c'est la bagarre Tu regardes à gauche, tu regardes à droiteYou might also like</t>
+          <t>Fuck le six et le pic du sphinx Je vois le voisin dans l'escalier se faire un fix Tu fais le grossiste t'as même pas le biff du pain Décervelé je suis l'éloquence à son paroxysme Bouddha bar, mauboussin Elle m'appelle déjà mon poussin Me caresse la barbe et mord le coussin J'ai la recette lemsi Michel Augustin Je suis un gars de bâtard v'la le le vacarme La kalash rafale ton armée se replie Sur moi rien que tu parles rien que tu baves Mais mon compte en banque et mes vers se remplissent On m'appelle du bagne force aux frères Qui font des yoyos jusqu à 6 du mat' Qui font la salat, la salat Que le bon dieu nous éloigne des forces du mal Je suis une force de la nature si j'ai un gros rass, c'est qu'il y en a la dedans Soutenir la Palestine c'est pas juste porter le keffieh bedave de l'afghan Ne vous faites pas si petit monsieur Je vous assure que vous n'êtes pas si grand Je n'est qu'un conseil pour les petites re-su La meilleure d'entre vous sera la plus récalcitrante T'as calé le 6.30 tu te sens chaud T'as froid t'as le cul entre deux chaises Tu m'appelle sancho, tu m'appelle mon reuf' Mais tu rêves de m'allumer sur une sanchez Je suis un grand garçon, j'ai des principes J'ai la rétine et la plume assassine Je suis encore bourré j'écris deux classiques Sous un ciel non étoilé couleur anthracite Toi t'es dans ma cible Puto ne joues pas trop derrière y'a macho bang bang l'ivoirien Grrrr grrrr rafale dans ta grand mère tu vois rien Yeah hoe, chargeur camembert Yeah hoe, tu pues de la shnek zer t'as mis ton string à l'envers Je veux le siège de sarko, baiser carla Tu veux pecho c'est par là Cocaine, cocaine, porcelaine écarlate Champagne, champagne, je savoure pour mes scarlas Je me torche avec ce que le proc' stipule Une décennie dans le vestibule Qu'est-ce tu parles Bouddha bar, pédicure Je confond ta chatte avec le fromage qui pue Pute, je suis plus physique que chimie Je te rentre mon tube à essai Leurs flows se criogènisent ils essayent de redevenir juste avant leurs décès Je suis capi', je suis capo Je suis grrrr grrrr young pablo Tu indiques ton nachos, je suis dans le monté carlo Toi et moi c'est pas le même buzz Algerois talentueux comme mekhleuz Trop de rappeurs s'embrouille pour une merguez, s'embrouille pour une merdeuse Au parloir on voit des fantômes, on repense à nos kehs à l'hôtel de Vendôme Je suis légendaire comme les films de Van damme et je vais peut être pourrir avec un poignard dans le dos L'argent n'a pas d'odeur comme la fumée de ton pilon, paraffiné, j'suis raffiné, je rabats les promoteurs Moi j'ai la fougue dans les veines pour vous en filer dans la foulée, vous avez de belles carrosseries mais j'ai le plus gros moteur J'ai de la kush du Colorado, de l'amné' du Canada, tous mes bikos préfèrent la cavale que de retourner là-bas J'ai fais du bénéf' tout l'hiver, en été j'pars à Malaga, j'ai mal au coeur en voyant galérer mes khos, les haragas, c'est la bagarre Tu regardes à gauche, tu regardes à droite</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>EN COURS DE RETRANSCRIPTION Et la R c'est pas fun, poto ... J'ai la dalle comme le p'tit Isma ... De moi ils en ont marre je l'sais ... J'les niquerai jusqu'au dernier ... Ma liasse grossit en même temps qu'mes cuisses ... 2019 j'récupère ma SACEM ... J'ai pas fini d'faire des sous sales ... Et la R c'est pas fun Voilà, c'est tout À cause du capitalisme, les ne-jeu n'ont plus la rage Coffrer le khaliss pour le dépenser à l'arrache Régle numéro 1 ne jamais finir numéro 2 Dechire la ligne d'arrivée malgré le mauvais démarrage Pas besoin d'un , sache avec qui tu marches Ferme ta gueule méfie toi du téléphone arabe Tempête de shab, l'amitié n'est qu'un mirage Qui va t'aider le jour où tu manges la gamelle à la J'crois qu'j'vais m'baigner juste après l'avoir baisée Juste après le Champ' rosé les beignets de calamar Comptes, c'est benef je ne mange plus d'penne Posé dans le péninsulat deux locas du Canada La Carabina sur l'tec'-tec'-tec'-tec'-tec'- Y a les hendek, y a les hendek WAllah j'veux pas qu'ils m'pètent-pètent-pètent-pètent-pètent J'repense à à Poitiers il a pris perpette J'reviens d'loin l'État dit qu'j'aurais dû m'perdre Mais j'suis une légende urbaine, j'les hbel J'veux m'poser mais j'ai peur de l'adultère Qui fait du mal aux meufs bien devient le pigeon d'une keh Fourrure d'renard piste re-noie Ruinard rosé carrefour montagne Tu parles mal sur moi race de mort Au shtar je vis mieux qu'toi dehors découpe une coquine encore Passe voir le poto en Corse Pendant la guerre d'Algérie j'étais pas né Mais wAllah j'peux t'dire que j'm'en rappelle encore Cicatrices un peu partout Chez le psychiatre il m'reste qu'une cartouche T'es un peu 3arbi, t'es pas crédible dans l'taff T'es pas crédible dans l'rap quand t'es un peu babtou Préjugés sur stéréotypes Tu t'fie aux apparences tu nous a jugés au Que la vérité aux mains de stéréo j'kick Ta mixtape inaudible m'a laissé une otite T'as beaucoup d'appétit elle a chauffé tes parties T'as tellement collé la petite que t'as chopé l'hépatite Suce ma bite on m'appelle Big Lemsi Ta mère la pute ne t'a pas appris à dire merci You might also like Place à la guerre cérébrale On sait comment passer les grades En I sur la place de l'étoile Jeune araignée fait sa toile Mon blase à l'indélébile dans les cellules de la maison d'arrêt Bikow fait les fils on n'a même pas deux minutes pour démarrer C'est le volubile aux mille vérités dans l'arène On était des va-nu-pieds maintenant on arrive en McLaren La BAC nous parle de pactages des bails de partout pff des braquages, des grr de cave-pou Tiens la machette comme un sauvage et la bavette frotte l'asphalte Ouh jai le pan pan pan Bédave plus de ganja que Loupan pan pan Elle veut gouter mon french kiss, French Cancan J'suis en full ken ken jlui dit fout l'camp Quand jprends le mic, tous les bikow deviennent fous tentends ? Skipidi pah pah tou-tou pan-pan Pop' champagne on fait pas semblant Dans un 4x4 flambant neuf tout en blanc Bikow tout est bon Jvalide pas la démagogie Tu fais dans le bénévolat pour devenir une idole yah Traîner dans les rues de Paris Nord a fait de moi le genre de bikow quon isole Au sommet du règne animal On fait l'amour entre deux guerres au lieu de consulter l'Imam Enragé des canines aux molaires j'ai vu le bonheur immolé Me jalouser pour la monnaie, les talents de mélomane Et l'eeny, meeny, miny, moe de la mêlée met les voiles J'étais tranquillou dans mon lit quand la police me leva Le volubiles à dix mille mots dans la minute, un neuf milli dans la mallette Et les soldats de la milice dans le van Grr-Grr On la fait nous-même, fait nous-même, fait nous-même Phénomène, phénomène, phénomène Vagabonder les rues de Paname avec un Opinel, j'voulais juste empiler tous mes billets sur des kilomètres Jai commencé l'pe-ra juste avec seulement un kilo d'herbe Jai commencé l'pe-ra juste pour leur montrer c'est qui le maître Phénoménal, t'as tissé ta toile en solo comme Lemsi ? Fais le L, fais le L, fais le L, yah Des marques sur le corps, lenvers du décor, où les forces de lordre sont mort de rage En m'voyant rouler dans la Porsche ivre de confort, s'imagine ma car garage Ghost fait sauter des globes oculaires, un flow carré, des rimes croisées triangulaires Des pensées sanguinaires, j'vais charcler ces guignols, j'suis l'saphir qui sommeille dans la pierre angulaire Toutoutoutou J'ai tenté le tout pour le tout, et je n'ai pas peur d'échouer nan nan naaaan Personne n'a cru en nous dans l'temps, oh nan, brrrr, regarde maintenant Six heure trois, 6,3 litres, Mv agusta me gusta negro On entend plus trop parler d'vous c't'année gros je me suis installé, j'baise tout et hasta luego Même ton ego trouve que t'as trop dego, jai fait millions dollars jsuis sorti du ghetto Pourquoi jentends plus trop parler d'vous c't'année gros j'me suis installé, j'baise tout et hasta luego J'attendrais pas qu'tu finisses à terre pour te blesser Ni qu'tu quittes ton mec pour venir te baiser J'te regarde t'engraisser posé dans mon vaisseau Les proies les plus simples sont celles qui sont pressées J'ai toujours été plus vrai qu'ces rebeus Un femme qui dit la vérité en vaut deux J'me contrôle plus vraiment bien sous la colère J'm'appelle Volts Face parce que j'fais face au tonnerre J'l'ai prédit cette année Tu t'fais des films tu m'vois déjà passer l'anneau Tu fais la frappe qui veut pas s'baigner dans l'eau Ta chatte sent les poissons d'la Méditerranée Tu veux croquer dans la part du gâteau J'ai des frères libres et des frères condamnés L'équipage est solide très peu sur le bateau T'es d'ceux qu'on damé Y'a toujours un pote qui veut venir t'enculer Toujours une salope qui veut t'faire reculer J'suis pas une reusta ne vient pas m'aduler Suces mes pommes de terre j'vais cher-cra la purée Si tu m'aimes pas gros c'est la jalousie J'y peux rien moi si j'ai gérer ta go Elle m'a dit gros j'te ferais pas d'cadeaux Donc moi j'l'emmerde et j'pisse dans son lavabo Si j'le fait c'est pour le feeling J'suis affalé sur le leaving et le même vinyle tourne en boucle Me demande pas comment ça va finir J'suis en folie j'suis en furie j'entends retentir les tambours Rap Français c'est un film de boules Malgré les épreuves j'suis toujours debout Je vous ai compris a dit Charles de Gaule</t>
+          <t>EN COURS DE RETRANSCRIPTION Et la R c'est pas fun, poto ... J'ai la dalle comme le p'tit Isma ... De moi ils en ont marre je l'sais ... J'les niquerai jusqu'au dernier ... Ma liasse grossit en même temps qu'mes cuisses ... 2019 j'récupère ma SACEM ... J'ai pas fini d'faire des sous sales ... Et la R c'est pas fun Voilà, c'est tout À cause du capitalisme, les ne-jeu n'ont plus la rage Coffrer le khaliss pour le dépenser à l'arrache Régle numéro 1 ne jamais finir numéro 2 Dechire la ligne d'arrivée malgré le mauvais démarrage Pas besoin d'un , sache avec qui tu marches Ferme ta gueule méfie toi du téléphone arabe Tempête de shab, l'amitié n'est qu'un mirage Qui va t'aider le jour où tu manges la gamelle à la J'crois qu'j'vais m'baigner juste après l'avoir baisée Juste après le Champ' rosé les beignets de calamar Comptes, c'est benef je ne mange plus d'penne Posé dans le péninsulat deux locas du Canada La Carabina sur l'tec'-tec'-tec'-tec'-tec'- Y a les hendek, y a les hendek WAllah j'veux pas qu'ils m'pètent-pètent-pètent-pètent-pètent J'repense à à Poitiers il a pris perpette J'reviens d'loin l'État dit qu'j'aurais dû m'perdre Mais j'suis une légende urbaine, j'les hbel J'veux m'poser mais j'ai peur de l'adultère Qui fait du mal aux meufs bien devient le pigeon d'une keh Fourrure d'renard piste re-noie Ruinard rosé carrefour montagne Tu parles mal sur moi race de mort Au shtar je vis mieux qu'toi dehors découpe une coquine encore Passe voir le poto en Corse Pendant la guerre d'Algérie j'étais pas né Mais wAllah j'peux t'dire que j'm'en rappelle encore Cicatrices un peu partout Chez le psychiatre il m'reste qu'une cartouche T'es un peu 3arbi, t'es pas crédible dans l'taff T'es pas crédible dans l'rap quand t'es un peu babtou Préjugés sur stéréotypes Tu t'fie aux apparences tu nous a jugés au Que la vérité aux mains de stéréo j'kick Ta mixtape inaudible m'a laissé une otite T'as beaucoup d'appétit elle a chauffé tes parties T'as tellement collé la petite que t'as chopé l'hépatite Suce ma bite on m'appelle Big Lemsi Ta mère la pute ne t'a pas appris à dire merci Place à la guerre cérébrale On sait comment passer les grades En I sur la place de l'étoile Jeune araignée fait sa toile Mon blase à l'indélébile dans les cellules de la maison d'arrêt Bikow fait les fils on n'a même pas deux minutes pour démarrer C'est le volubile aux mille vérités dans l'arène On était des va-nu-pieds maintenant on arrive en McLaren La BAC nous parle de pactages des bails de partout pff des braquages, des grr de cave-pou Tiens la machette comme un sauvage et la bavette frotte l'asphalte Ouh jai le pan pan pan Bédave plus de ganja que Loupan pan pan Elle veut gouter mon french kiss, French Cancan J'suis en full ken ken jlui dit fout l'camp Quand jprends le mic, tous les bikow deviennent fous tentends ? Skipidi pah pah tou-tou pan-pan Pop' champagne on fait pas semblant Dans un 4x4 flambant neuf tout en blanc Bikow tout est bon Jvalide pas la démagogie Tu fais dans le bénévolat pour devenir une idole yah Traîner dans les rues de Paris Nord a fait de moi le genre de bikow quon isole Au sommet du règne animal On fait l'amour entre deux guerres au lieu de consulter l'Imam Enragé des canines aux molaires j'ai vu le bonheur immolé Me jalouser pour la monnaie, les talents de mélomane Et l'eeny, meeny, miny, moe de la mêlée met les voiles J'étais tranquillou dans mon lit quand la police me leva Le volubiles à dix mille mots dans la minute, un neuf milli dans la mallette Et les soldats de la milice dans le van Grr-Grr On la fait nous-même, fait nous-même, fait nous-même Phénomène, phénomène, phénomène Vagabonder les rues de Paname avec un Opinel, j'voulais juste empiler tous mes billets sur des kilomètres Jai commencé l'pe-ra juste avec seulement un kilo d'herbe Jai commencé l'pe-ra juste pour leur montrer c'est qui le maître Phénoménal, t'as tissé ta toile en solo comme Lemsi ? Fais le L, fais le L, fais le L, yah Des marques sur le corps, lenvers du décor, où les forces de lordre sont mort de rage En m'voyant rouler dans la Porsche ivre de confort, s'imagine ma car garage Ghost fait sauter des globes oculaires, un flow carré, des rimes croisées triangulaires Des pensées sanguinaires, j'vais charcler ces guignols, j'suis l'saphir qui sommeille dans la pierre angulaire Toutoutoutou J'ai tenté le tout pour le tout, et je n'ai pas peur d'échouer nan nan naaaan Personne n'a cru en nous dans l'temps, oh nan, brrrr, regarde maintenant Six heure trois, 6,3 litres, Mv agusta me gusta negro On entend plus trop parler d'vous c't'année gros je me suis installé, j'baise tout et hasta luego Même ton ego trouve que t'as trop dego, jai fait millions dollars jsuis sorti du ghetto Pourquoi jentends plus trop parler d'vous c't'année gros j'me suis installé, j'baise tout et hasta luego J'attendrais pas qu'tu finisses à terre pour te blesser Ni qu'tu quittes ton mec pour venir te baiser J'te regarde t'engraisser posé dans mon vaisseau Les proies les plus simples sont celles qui sont pressées J'ai toujours été plus vrai qu'ces rebeus Un femme qui dit la vérité en vaut deux J'me contrôle plus vraiment bien sous la colère J'm'appelle Volts Face parce que j'fais face au tonnerre J'l'ai prédit cette année Tu t'fais des films tu m'vois déjà passer l'anneau Tu fais la frappe qui veut pas s'baigner dans l'eau Ta chatte sent les poissons d'la Méditerranée Tu veux croquer dans la part du gâteau J'ai des frères libres et des frères condamnés L'équipage est solide très peu sur le bateau T'es d'ceux qu'on damé Y'a toujours un pote qui veut venir t'enculer Toujours une salope qui veut t'faire reculer J'suis pas une reusta ne vient pas m'aduler Suces mes pommes de terre j'vais cher-cra la purée Si tu m'aimes pas gros c'est la jalousie J'y peux rien moi si j'ai gérer ta go Elle m'a dit gros j'te ferais pas d'cadeaux Donc moi j'l'emmerde et j'pisse dans son lavabo Si j'le fait c'est pour le feeling J'suis affalé sur le leaving et le même vinyle tourne en boucle Me demande pas comment ça va finir J'suis en folie j'suis en furie j'entends retentir les tambours Rap Français c'est un film de boules Malgré les épreuves j'suis toujours debout Je vous ai compris a dit Charles de Gaule</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Qui peut kicker Lemsi ? Qui peut kicker Lemsi ? Yeah hoe Hey, cent textes en réserve, rebeu j'suis ce genre de lyriciste J'suis toujours en avance sur le tempo comme si j'étais Marxiste J'ai pas d'juste milieu, j'pousse le bordel à son paroxysme En France y a tellement d'tabous qu'on dira bientôt qu'Lepen n'est pas raciste Girl, welcome to the Lemsi world, sexe et castagne J'brasse du hebs au palace, j'change de flow comme de lifestyle Ne m'appelle pas baby, tu m'harcelles au phone et ça m'stresse Chaque projet qui sort, t'entends mon son dans l'fond de chaque tess Tasse-pé dans Airbnb à fond J'positive toujours, yeah hoe, le bracelet m'donne du flow Promenade premier tour, blocage, les hesses plissent le front Frrrr, frrrr, frrrr, c'est le bruit qu'mes billets font Young Bikow, cette industrie c'est ma go, go, go Hey, tout l'monde essaye d'profit'hey, j'suis pas là pour m'faire des amis hey Je m'adresse à mon Jack Dani' hey, j'ai la meilleure punchline hey J'ai de quoi toutes les déshabill'hey, j'suis le meilleur MC d'Paris hey Bitch, suis moi hola, hola Snapbikow hola bitch, suis moi hola Snapbikow hola, hola, hola, hola, low bitch, suis moi bitch, suis moi Snapbikow hola, suis moi hola, hola bitch Snapbikow yeah hoe, yeah hoe, suis moi bitch Snapbikow yeah hoe, yeah hoe, suis moi hola Snapbikow hola, hola, hola, hola, low bitch, suis moi bitch, suis moi Snapbikow hola, suis moi yeah hoe, yeah hoe Snapbikow Snapbikow Eurêka, Eurêka You might also like Hayce Lemsi Yeah, yeah, yeah, yeah Ca sent la lâcheté, l'industrie du disque en string sous pure Combien t'as acheter ? Cinquante millions d'Streams sale fils de pute Quoi d'autre à cacher ? J't'allume si t'as des triceps de Turc La tape est fâché, rédigée dans un mitard la tête dans l'uc-l Où sont passé les maitres de cérémonie qui dépensent pour savoir à quoi sert la money Faire de la Zumba ? t'as serré, Many je m'endurcis, laisse la concu se ramollir Les menottes ont remplacé la Ferragamo, trop busy, je saurais pas quoi faire d'un gamin Y a des rayures partout sur mon premier gamos, j'ai fait tomber d'la sauce sur mon polo Balmain switch Ecoute mec, elle est toute plate, elle m'dégoute berk J'ai des techniques tah les Ouzbek', une patate marteau, j'te clous l'bec Couscous, pas de , pas d'flamenco, superman punch' Pas très même dans les quiches on met d'la kush Wesh les low bitch, j'vais soulever la coupe aux grandes oreilles, intracable, j'ai le PGP Même en cellule du mal à trouver l'sommeil, j'suis jamais content tah la CGT Elle m'attend dans son baldaquin car chaque mot qui sort de ma bouche est une balle d'AK Pop Champaign nigga kra, kra, kra, j'tire sur le Front National et sur le KKK En physique chimie, j'voulais juste insérer le tube à essai dans l'orifice de la prof de science Prend pas la confiance, tu m'attendris pas, tu joues les bénévoles pour te donner bonne conscience Le ciel est si vaste, les oiseaux chantent la mort T'as même pas l'âge d'ma bouteille de Chivas, dans les commentaires t'insultes maman ? T'as tellement sucé qu'tu n'a même plus d'visage Avec ma bitch on fait des trucs bizarres T'as tellement sucé qu'tu n'a même plus d'visage Avec ma bitch on fait des trucs bizarres Cristal, quatre-vingt-seize, Rio, t'as même pas vu la couleur de l'after J'ai mis l'casque intégral, bikow, j'vais t'allumer ta mère sur du Daft Punk J'm'endors chez la marquise avec un pur de frenchies yeah hoe T'es toute pleine d'excuses, j'aime comment tu m'suces, toi tu veux du sucre yeah hoe En I comme à Phili flow piquant , glock dans les cotes, tu nous parles, guili guili Trop d'haine, faut les punir, ils prennent tous mes gimmicks, hop dans le coffre de la tchop, fini, fini, fini yeah hoe Glock 30, j'arrive en tempête et j'en tremble Ruelle pleine de crackers, crackers sur le T-Max 5.30 Rolls Ghost, parloir ghost, un l'as aux fléchette à mon gars Cost J'tourne avec Abdel et Marteau, trous d'boulettes sur mon bas Lacoste flex Ouais la cité là, ouais la cité là Hayce Lemsi, haha yeah hoe Meilleurs punchlines du rap français bitch Capi dei capo, c'est grrr grrr, Young Pablo</t>
+          <t>Qui peut kicker Lemsi ? Qui peut kicker Lemsi ? Yeah hoe Hey, cent textes en réserve, rebeu j'suis ce genre de lyriciste J'suis toujours en avance sur le tempo comme si j'étais Marxiste J'ai pas d'juste milieu, j'pousse le bordel à son paroxysme En France y a tellement d'tabous qu'on dira bientôt qu'Lepen n'est pas raciste Girl, welcome to the Lemsi world, sexe et castagne J'brasse du hebs au palace, j'change de flow comme de lifestyle Ne m'appelle pas baby, tu m'harcelles au phone et ça m'stresse Chaque projet qui sort, t'entends mon son dans l'fond de chaque tess Tasse-pé dans Airbnb à fond J'positive toujours, yeah hoe, le bracelet m'donne du flow Promenade premier tour, blocage, les hesses plissent le front Frrrr, frrrr, frrrr, c'est le bruit qu'mes billets font Young Bikow, cette industrie c'est ma go, go, go Hey, tout l'monde essaye d'profit'hey, j'suis pas là pour m'faire des amis hey Je m'adresse à mon Jack Dani' hey, j'ai la meilleure punchline hey J'ai de quoi toutes les déshabill'hey, j'suis le meilleur MC d'Paris hey Bitch, suis moi hola, hola Snapbikow hola bitch, suis moi hola Snapbikow hola, hola, hola, hola, low bitch, suis moi bitch, suis moi Snapbikow hola, suis moi hola, hola bitch Snapbikow yeah hoe, yeah hoe, suis moi bitch Snapbikow yeah hoe, yeah hoe, suis moi hola Snapbikow hola, hola, hola, hola, low bitch, suis moi bitch, suis moi Snapbikow hola, suis moi yeah hoe, yeah hoe Snapbikow Snapbikow Eurêka, Eurêka Hayce Lemsi Yeah, yeah, yeah, yeah Ca sent la lâcheté, l'industrie du disque en string sous pure Combien t'as acheter ? Cinquante millions d'Streams sale fils de pute Quoi d'autre à cacher ? J't'allume si t'as des triceps de Turc La tape est fâché, rédigée dans un mitard la tête dans l'uc-l Où sont passé les maitres de cérémonie qui dépensent pour savoir à quoi sert la money Faire de la Zumba ? t'as serré, Many je m'endurcis, laisse la concu se ramollir Les menottes ont remplacé la Ferragamo, trop busy, je saurais pas quoi faire d'un gamin Y a des rayures partout sur mon premier gamos, j'ai fait tomber d'la sauce sur mon polo Balmain switch Ecoute mec, elle est toute plate, elle m'dégoute berk J'ai des techniques tah les Ouzbek', une patate marteau, j'te clous l'bec Couscous, pas de , pas d'flamenco, superman punch' Pas très même dans les quiches on met d'la kush Wesh les low bitch, j'vais soulever la coupe aux grandes oreilles, intracable, j'ai le PGP Même en cellule du mal à trouver l'sommeil, j'suis jamais content tah la CGT Elle m'attend dans son baldaquin car chaque mot qui sort de ma bouche est une balle d'AK Pop Champaign nigga kra, kra, kra, j'tire sur le Front National et sur le KKK En physique chimie, j'voulais juste insérer le tube à essai dans l'orifice de la prof de science Prend pas la confiance, tu m'attendris pas, tu joues les bénévoles pour te donner bonne conscience Le ciel est si vaste, les oiseaux chantent la mort T'as même pas l'âge d'ma bouteille de Chivas, dans les commentaires t'insultes maman ? T'as tellement sucé qu'tu n'a même plus d'visage Avec ma bitch on fait des trucs bizarres T'as tellement sucé qu'tu n'a même plus d'visage Avec ma bitch on fait des trucs bizarres Cristal, quatre-vingt-seize, Rio, t'as même pas vu la couleur de l'after J'ai mis l'casque intégral, bikow, j'vais t'allumer ta mère sur du Daft Punk J'm'endors chez la marquise avec un pur de frenchies yeah hoe T'es toute pleine d'excuses, j'aime comment tu m'suces, toi tu veux du sucre yeah hoe En I comme à Phili flow piquant , glock dans les cotes, tu nous parles, guili guili Trop d'haine, faut les punir, ils prennent tous mes gimmicks, hop dans le coffre de la tchop, fini, fini, fini yeah hoe Glock 30, j'arrive en tempête et j'en tremble Ruelle pleine de crackers, crackers sur le T-Max 5.30 Rolls Ghost, parloir ghost, un l'as aux fléchette à mon gars Cost J'tourne avec Abdel et Marteau, trous d'boulettes sur mon bas Lacoste flex Ouais la cité là, ouais la cité là Hayce Lemsi, haha yeah hoe Meilleurs punchlines du rap français bitch Capi dei capo, c'est grrr grrr, Young Pablo</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Yeah Hoe ! C'est Hayce lemsi l'insomniaque A.k.a la kalash humaine pour Meilleurs Punchlines du Rap Français C'est comment mes lokos, mes lokas On envoie la foudre ou pas ? Boom ! Electron Libre Bitch Cette année c'est pour Hayce lem' Bikow Young and Rich Tout le monde veut ma recette Yé, yé Dans le pera je sais tout faire Yeah hoe Force à mes détenues fait pété tout mes songs dans'l'tout hebs Snapbikow storie, j'fais jaillir Champagne Elle se demande comment j'ramasse plus de putes que 2 chainz Hayce lem team one love Je veux mon disque d'or papy J'humilie tout les rappeurs que je croise depuis l'époque des baggys Comme Eminem X2 Ho Comme Eminem, devenir le meilleur Comme Eminem X2 Ho nehdin o mok J'ai la volubilité la folie dans les veines ont veux nous enlever l'envie de mener l'anarchie Ce n'est pas qu'une histoire de rentabilité j'ai pleuré des larmes de sang comment stopper l'hémorragie Je détiens tous les secrets de la littérature contemporaine contemplez bien le parigot magique Touché coulé fais des roulés boulés dans la boue, la chatte à tout les profiteurs et tout les parasites Yeah ho ! You might also likeC'est comment mes lokos, mes lokas es-que on leur montre, de quoi la Hayce Lem Team est capable ou pas ? Aie ie ie hayce, c'est partie C'T'année j'vais les wets' j'vais les wets' J'ai les nerfs J'ai les nerfs C'est la guerre c'est la guerre Mondiale qui veut dépasser le canadaire J'ai la dalle du macadame T'es paroliers vont surement devenir mes sparring partner Arigatô servez moi du saké Si je range le katana c'est pour les scalper Comme jaja' tout mes lokos se sont sapés La loka la plus nne-bo de la soirée ta snaper J'vais leur péter la gueule j'ai mon ghana dégaine les vérités dégueuler pas d'égalité dans le gué-lo Quel abrutie de mégalomane a voulue m'égaler ma gueule on n'a pas manié la mélodie juste pour ramassé de la money Ma cagoule me va comme un gant débrouillards à la Galliano J'ai toujours évité le revers de la médaille le regards vide La voix d'un criminel évadé du bagne Elle m'appelle Young Abu Dhabi Je la ramène a Dubaï j'vais crever ! Ces le poto I.S , conduite en état divresse Gyrophare C.L.S T'attendais pas mon retour Les phénix renaissent , j'fais des hits et ma peste viens tout droit de Budapest Toujours au cur des polémiques et des scandales dans la presse J'suis le king , j'suis le best c'est moi qui vous mets la west Tu m'esquive comme la peste T'entends mon son dans la tess 75017 bikow tu connais l'adresse</t>
+          <t>Yeah Hoe ! C'est Hayce lemsi l'insomniaque A.k.a la kalash humaine pour Meilleurs Punchlines du Rap Français C'est comment mes lokos, mes lokas On envoie la foudre ou pas ? Boom ! Electron Libre Bitch Cette année c'est pour Hayce lem' Bikow Young and Rich Tout le monde veut ma recette Yé, yé Dans le pera je sais tout faire Yeah hoe Force à mes détenues fait pété tout mes songs dans'l'tout hebs Snapbikow storie, j'fais jaillir Champagne Elle se demande comment j'ramasse plus de putes que 2 chainz Hayce lem team one love Je veux mon disque d'or papy J'humilie tout les rappeurs que je croise depuis l'époque des baggys Comme Eminem X2 Ho Comme Eminem, devenir le meilleur Comme Eminem X2 Ho nehdin o mok J'ai la volubilité la folie dans les veines ont veux nous enlever l'envie de mener l'anarchie Ce n'est pas qu'une histoire de rentabilité j'ai pleuré des larmes de sang comment stopper l'hémorragie Je détiens tous les secrets de la littérature contemporaine contemplez bien le parigot magique Touché coulé fais des roulés boulés dans la boue, la chatte à tout les profiteurs et tout les parasites Yeah ho ! C'est comment mes lokos, mes lokas es-que on leur montre, de quoi la Hayce Lem Team est capable ou pas ? Aie ie ie hayce, c'est partie C'T'année j'vais les wets' j'vais les wets' J'ai les nerfs J'ai les nerfs C'est la guerre c'est la guerre Mondiale qui veut dépasser le canadaire J'ai la dalle du macadame T'es paroliers vont surement devenir mes sparring partner Arigatô servez moi du saké Si je range le katana c'est pour les scalper Comme jaja' tout mes lokos se sont sapés La loka la plus nne-bo de la soirée ta snaper J'vais leur péter la gueule j'ai mon ghana dégaine les vérités dégueuler pas d'égalité dans le gué-lo Quel abrutie de mégalomane a voulue m'égaler ma gueule on n'a pas manié la mélodie juste pour ramassé de la money Ma cagoule me va comme un gant débrouillards à la Galliano J'ai toujours évité le revers de la médaille le regards vide La voix d'un criminel évadé du bagne Elle m'appelle Young Abu Dhabi Je la ramène a Dubaï j'vais crever ! Ces le poto I.S , conduite en état divresse Gyrophare C.L.S T'attendais pas mon retour Les phénix renaissent , j'fais des hits et ma peste viens tout droit de Budapest Toujours au cur des polémiques et des scandales dans la presse J'suis le king , j'suis le best c'est moi qui vous mets la west Tu m'esquive comme la peste T'entends mon son dans la tess 75017 bikow tu connais l'adresse</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>J'ai d'la poudre à canon, pas d'feu d'artifice Vas-y jette moi des pierres que j'les apporte à l'édifice En freestyle, les trois quarts des rappeurs sont mes petits fils Bénéfice au bout du fil pour millésime et Crystal, gout du risque dans l'iris D'humeur bestiale en tant de crise cagoulé sous l'intégral, prend le contrôle de la banquise On perquise, on saisis tout c'est le fruit de la traitrise Ta bêtise, fais fonctionner ta matière gris J'ai pris l'chemin le plus digne, t j'ai pas perdu la face J'suis pas l'dindon de la farce, je sais à qui donner de la force Spécial 38, deux trois pruneaux dans ta face J'oublie pas les favelas, pourtant j'ai changer de classe social J'me suis posé sur la terre ferme en vaisseaux spatial Avec ADK'nnibal on t'démarre en mode spartiate Pété tout t'es vaisseaux sanguin sans faire d'art martial Pété tout t'es vaisseaux sanguin sans faire d'art martial J'démarre ELV3 dans un abris antiatomique Il y à des gouttes d'hémoglobines sur le toit panoramique J'deviens prince de Paname, et tout les rageux se rallie contre ma cause, sans mon succès, ne s'rait jamais amis J'ai des rebeux vraiment mabé de Marbe à Miami Pull-up à la 3enneni, j'vais leurs faire une dinguerie 3ami, et finir ma soirée sur du Cheb MamiYou might also like</t>
+          <t>J'ai d'la poudre à canon, pas d'feu d'artifice Vas-y jette moi des pierres que j'les apporte à l'édifice En freestyle, les trois quarts des rappeurs sont mes petits fils Bénéfice au bout du fil pour millésime et Crystal, gout du risque dans l'iris D'humeur bestiale en tant de crise cagoulé sous l'intégral, prend le contrôle de la banquise On perquise, on saisis tout c'est le fruit de la traitrise Ta bêtise, fais fonctionner ta matière gris J'ai pris l'chemin le plus digne, t j'ai pas perdu la face J'suis pas l'dindon de la farce, je sais à qui donner de la force Spécial 38, deux trois pruneaux dans ta face J'oublie pas les favelas, pourtant j'ai changer de classe social J'me suis posé sur la terre ferme en vaisseaux spatial Avec ADK'nnibal on t'démarre en mode spartiate Pété tout t'es vaisseaux sanguin sans faire d'art martial Pété tout t'es vaisseaux sanguin sans faire d'art martial J'démarre ELV3 dans un abris antiatomique Il y à des gouttes d'hémoglobines sur le toit panoramique J'deviens prince de Paname, et tout les rageux se rallie contre ma cause, sans mon succès, ne s'rait jamais amis J'ai des rebeux vraiment mabé de Marbe à Miami Pull-up à la 3enneni, j'vais leurs faire une dinguerie 3ami, et finir ma soirée sur du Cheb Mami</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Celle ci c'est Pour les reuf , pour les reuf , pour les reuf d'la night Pour les reuf , pour les reuf , les reuf insomniaques Qui peut rivaliser , avec l'insomniaque ? Qui peut rivaliser , en direct sur sky ? Pour les reuf , pour les reuf , pour les reuf d'la night Pour les reuf , pour les reuf , les reuf insomniaques Money money j'fait la maille Money j'fait la maille Money money j'fait la maille Avec moi les frères Money j'fait la maille Money money j'fait la maille Money j'fait la maille Money money j'fait la maille Xvbarbar sur l'étendard j'suis toujours en temps d'guerre voilà pourquoi j'ai tant d'armes Mon infanterie marche aux rythmes des tambours , former tel un seul corps , du physique au mental Un enfant Versace sous les sols de Versailles , stupéfaits d'voir que j'remplie leurs salles , pourtant j'ai pas Universal derrière moi nan , j'ai qu'mon univers sale J'ai pas vraiment les critères du bico sentimentale , trop d'fiertée dans les veines pour que j'me les entailles Mon ambition le guide au sommet de la montagne , maman j'ai fait du khaliss fait tes valises on taille , always on time , always on time Pendants que ces puto me portent l'il à l'horizontal , je ne les entends , pas mais ils parlent , quand ils voient débarquer le bico Paris Nord ils sont calme You might also likeCelle ci c'est Pour les reuf , pour les reuf , pour les reuf d'la night Pour les reuf , pour les reuf , les reuf insomniaques. x2 Qui peut rivaliser , avec l'insomniaque ? Qui peut rivaliser , en direct sur sky ? x2 Money money j'fait la maille Money j'fait la maille Money money j'fait la maille Hip-hop se sél médicament nou ni Muni de ma kalash prémédite le murder Ma jolie t'as les yeux de la même couleur que ma money Mais j'n'ai pas le compte en banque à Birdman Tu te donnes en deux minutes si je sors le bolide J'ai le dos tourné mais je sais que tu me regardes J't'emmène à l'Holiday Inn, goûte à mon insomnie Le lendemain j'monte avec mes potes à me-Da J'arrive dans l'carré vip all eyes on me, j'lève mon verre à mes amours et mes ennemis Je ne dormirai pas cette nuit, je ne, je ne, je ne dormirai pas cette nuit J'voulais viser la lune avant de monter la colline, j'fais ma route comme un homme j'me fout qu'les gens parlent J'fais toujours ma route solo carré d'Hayce all in moi pas sortir le rhum, le champagne Pour les reuf , pour les reuf , pour les reuf d'la night Pour les reuf , pour les reuf , les reuf d'la maille Qui peut rivaliser , avec l'insomniaque ? Qui peut rivaliser , en direct sur sky ? x2 Mon histoire et ses mystère , d'ici la j'aurai déménager sur un autre hémisphère Tout ma vie j'leur ai servit d'bouquet missaire , j'vais leur faire la misère , ils le savent ils sont pale , always on time , always on time Kharba Montana Kharba montana x7 J'ai d'la marron , j'ai d'la white J'ai d'la marron , j'ai d'la white J'ai d'la marron pour mes bico blaco blanco insomniaque Kharba montana x8 J'ai d'la marron , j'ai d'la white J'ai d'la marron , j'ai d'la white J'ai d'la marron pour mes bico blaco blanco insomniaque Que tu sois consentante pour que j't'ensanglante , après l'show-case j'ramene 4 bouteille monte sur ma bistouquette sa fait bam bam bam B2K sa fait pan pan pan You , you pay on avance en bande Les ptites macrelle sont souvent présentent , en entrant sans gants J'entends toc toc toc , Vic mackey le rap on s'en branle Mon frère on s'comprend , mais dit moi s'que t'en pense Tu tape Hayce lemsi , la rime transcendante , j'les étrangle sans blagues ils repartent sans dents , leurs putes m'harcèlent Wesh monsieur l'agent pose le six hours pour voir La mort est au bout du couloir , l'insomnie c'est de l'or , ils dorment Mais le temps c'est d'l'argent , la vitesse c'est l'pouvoir ! 133 piges , coloniser , voilà pourquoi sur la France , ont a miser Très tôt dans la délinquance , on a glisser , tous des cas isolé , camisoler J'ai d'la marron , j'ai d'la white J'ai d'la marron , j'ai d'la white J'ai d'la marron pour mes bico blaco blanco insomniaque Kharba montana x8 J'ai d'la money , j'ai d'la white J'ai d'la money , j'ai d'la white J'ai d'la money , j'en ai bico blaco blanco insomniaque Kharba montana x8 J'ai d'la money , j'ai d'la white J'ai d'la marron , j'ai d'la white J'ai d'la marron , pour mes bico blaco blanco insomniaque Hayhayhayce</t>
+          <t>Celle ci c'est Pour les reuf , pour les reuf , pour les reuf d'la night Pour les reuf , pour les reuf , les reuf insomniaques Qui peut rivaliser , avec l'insomniaque ? Qui peut rivaliser , en direct sur sky ? Pour les reuf , pour les reuf , pour les reuf d'la night Pour les reuf , pour les reuf , les reuf insomniaques Money money j'fait la maille Money j'fait la maille Money money j'fait la maille Avec moi les frères Money j'fait la maille Money money j'fait la maille Money j'fait la maille Money money j'fait la maille Xvbarbar sur l'étendard j'suis toujours en temps d'guerre voilà pourquoi j'ai tant d'armes Mon infanterie marche aux rythmes des tambours , former tel un seul corps , du physique au mental Un enfant Versace sous les sols de Versailles , stupéfaits d'voir que j'remplie leurs salles , pourtant j'ai pas Universal derrière moi nan , j'ai qu'mon univers sale J'ai pas vraiment les critères du bico sentimentale , trop d'fiertée dans les veines pour que j'me les entailles Mon ambition le guide au sommet de la montagne , maman j'ai fait du khaliss fait tes valises on taille , always on time , always on time Pendants que ces puto me portent l'il à l'horizontal , je ne les entends , pas mais ils parlent , quand ils voient débarquer le bico Paris Nord ils sont calme Celle ci c'est Pour les reuf , pour les reuf , pour les reuf d'la night Pour les reuf , pour les reuf , les reuf insomniaques. x2 Qui peut rivaliser , avec l'insomniaque ? Qui peut rivaliser , en direct sur sky ? x2 Money money j'fait la maille Money j'fait la maille Money money j'fait la maille Hip-hop se sél médicament nou ni Muni de ma kalash prémédite le murder Ma jolie t'as les yeux de la même couleur que ma money Mais j'n'ai pas le compte en banque à Birdman Tu te donnes en deux minutes si je sors le bolide J'ai le dos tourné mais je sais que tu me regardes J't'emmène à l'Holiday Inn, goûte à mon insomnie Le lendemain j'monte avec mes potes à me-Da J'arrive dans l'carré vip all eyes on me, j'lève mon verre à mes amours et mes ennemis Je ne dormirai pas cette nuit, je ne, je ne, je ne dormirai pas cette nuit J'voulais viser la lune avant de monter la colline, j'fais ma route comme un homme j'me fout qu'les gens parlent J'fais toujours ma route solo carré d'Hayce all in moi pas sortir le rhum, le champagne Pour les reuf , pour les reuf , pour les reuf d'la night Pour les reuf , pour les reuf , les reuf d'la maille Qui peut rivaliser , avec l'insomniaque ? Qui peut rivaliser , en direct sur sky ? x2 Mon histoire et ses mystère , d'ici la j'aurai déménager sur un autre hémisphère Tout ma vie j'leur ai servit d'bouquet missaire , j'vais leur faire la misère , ils le savent ils sont pale , always on time , always on time Kharba Montana Kharba montana x7 J'ai d'la marron , j'ai d'la white J'ai d'la marron , j'ai d'la white J'ai d'la marron pour mes bico blaco blanco insomniaque Kharba montana x8 J'ai d'la marron , j'ai d'la white J'ai d'la marron , j'ai d'la white J'ai d'la marron pour mes bico blaco blanco insomniaque Que tu sois consentante pour que j't'ensanglante , après l'show-case j'ramene 4 bouteille monte sur ma bistouquette sa fait bam bam bam B2K sa fait pan pan pan You , you pay on avance en bande Les ptites macrelle sont souvent présentent , en entrant sans gants J'entends toc toc toc , Vic mackey le rap on s'en branle Mon frère on s'comprend , mais dit moi s'que t'en pense Tu tape Hayce lemsi , la rime transcendante , j'les étrangle sans blagues ils repartent sans dents , leurs putes m'harcèlent Wesh monsieur l'agent pose le six hours pour voir La mort est au bout du couloir , l'insomnie c'est de l'or , ils dorment Mais le temps c'est d'l'argent , la vitesse c'est l'pouvoir ! 133 piges , coloniser , voilà pourquoi sur la France , ont a miser Très tôt dans la délinquance , on a glisser , tous des cas isolé , camisoler J'ai d'la marron , j'ai d'la white J'ai d'la marron , j'ai d'la white J'ai d'la marron pour mes bico blaco blanco insomniaque Kharba montana x8 J'ai d'la money , j'ai d'la white J'ai d'la money , j'ai d'la white J'ai d'la money , j'en ai bico blaco blanco insomniaque Kharba montana x8 J'ai d'la money , j'ai d'la white J'ai d'la marron , j'ai d'la white J'ai d'la marron , pour mes bico blaco blanco insomniaque Hayhayhayce</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Paroles de Freestyle Jersey Drill Crimi crimi la crinière sous la grêle T'es une crème si on t'entend crier c'est la crève Y a qu'une fois les contours à la craie qu'ils regrettent À brûler dans l'enfer qu'ils ont créé eux-mêmes Increvable ils ont acheté le score mais je mène J'ai changé de number et de mail Aucun poison ne fut créé sans son remède Aucun Phoenix ne prdra la vie sans renaître J'suis pas dans la TVA j'suis prof d lettres En terrasse à Paname, escroque de l'air Mode sport j'suis en turbo DZ Off Shore dans les dunes du desert J'prendrai pas dix ans ferme pour une puta qui m'oubliera dix jours après mon décès J'prendrai pas les patins d'un putain d'ariviste qui est bon qu'à taper dans mon dessert On sort d'l'Aeroport on s'fait plaquer au sol Parler aux porcs ça pue l'aerosol Fin d'peine des affaires qui ressortent T'es un tit-pe on peut pas comparer nos sommes J'déboule pas sur le net regarde quand tu traverses l'opinel te transperce ta mère Bagatelle avec mon gang et ta go sort la langue à la vue d'une averse de Moët Elle attend J'tire en l'air du Roof' j'entends les mouettes J'sors une tape direct j'entends les hate' Twenty Racks dans un Que tu mets ta vieille foumasse en sto' Des juments j'ai un range aller ranch' ta mère J'traine avec À quatorze piges on arrachait Porsche Cayenne Au cur de la tumeur, j'suis pas d'humeur À écouter des couplets d'Youtubeurs Encore un d'plus la concu' s'fait entuber Vous aimez sucer tous les usurpateurs Sale sorcière j'suis pas Harry Potter Ta sur et toi j'vous laisse sur répondeur J'fais pas confiance aux femmes j'ai besoin d'une princesse Pour élever spirituel, âme Shake penseur Jamais pire que nous T'auras beau niquer des mères tu feras pas pire que nous Toujours amer j'suis le rebeu sans le sucre roux Toujours amer j'suis le rebeu sans le sucre roux Tu vois mes rebeux t'allumer sur deux roues T'as des doutes on est des bonhommes on est sûrs de nous On est sûrs de nous Quinze ans d'ma vie dans c'milieu corrompu Trop d'ces batârds ne savent pas rapper sans re-pu Cinq étoiles gastronomiques j'suis repu L'addition va laisser ta gadji sur le cul J'ai fait un rêve magnifique dans lequel j'te rentrais quatorze coups d'opinel dans l'cul J'ai repéré les ingrats j'donne plus J'vais niquel j'dors plus Illico le milli' rafale dans les volets Bolosses à la file indienne, on s'envoie ballons comme au volley-ball On voulait la belle vie quand on allait voler chez les bobos Le bolide est dans le bendo, la Belvé' dans le hall Machine Gun J'élargis ma communauté jusqu'à Washington Trop d'filtré dans l'quartier ça s'chiffonne Pour un paquet d'oseille ou pour une meuf archi bonne Elle veut bikow débile plein d'bitcoins Pour lui payer ses manucures et son Yorkshirk toy Une équipe s'prépare et débarque chez toi T'es qu'un dommage collatéral c'est l'anarchie boy On veut toujours plus d'or blanc sur les incisives Agiter blue bandana comme un Crips J'la met en lucarne avec un ciseau J'compte pas sur toi pour la passe décisive Les p'tits d'la cité forment un demi-cercle et t'enculent même si t'es là depuis un demi-siècle Ils vont sûrement t'faire changer d'hémisphère Opinel ça rentre comme dans du beurre demi-sel Moi, moi, moi, à la base J'rêvais de Palaces dès l'âge de marcher N'oublie pas le blaze le Hayce pas Brice de Nice Le nine pas loin de l'alligator du marché Dominant l'espace déplace des masses Démarche de la daupe à quiconque dépanne des masses J'pense à tous mes gars qui passent des master Pendant qu'on enfile un masque démarre le Max-T T'es dans mon tu brasses hélas Les rebeux d'en face te menanent et sortent les shlass Ils t'ont volé liasse pénave bédave téma tu passe pour un lâche tu cache tes larmes Il t'reste un peu d'cash t'achète une arme Tu veux rafaler comme la TN En Temps RéelYou might also like</t>
+          <t>Paroles de Freestyle Jersey Drill Crimi crimi la crinière sous la grêle T'es une crème si on t'entend crier c'est la crève Y a qu'une fois les contours à la craie qu'ils regrettent À brûler dans l'enfer qu'ils ont créé eux-mêmes Increvable ils ont acheté le score mais je mène J'ai changé de number et de mail Aucun poison ne fut créé sans son remède Aucun Phoenix ne prdra la vie sans renaître J'suis pas dans la TVA j'suis prof d lettres En terrasse à Paname, escroque de l'air Mode sport j'suis en turbo DZ Off Shore dans les dunes du desert J'prendrai pas dix ans ferme pour une puta qui m'oubliera dix jours après mon décès J'prendrai pas les patins d'un putain d'ariviste qui est bon qu'à taper dans mon dessert On sort d'l'Aeroport on s'fait plaquer au sol Parler aux porcs ça pue l'aerosol Fin d'peine des affaires qui ressortent T'es un tit-pe on peut pas comparer nos sommes J'déboule pas sur le net regarde quand tu traverses l'opinel te transperce ta mère Bagatelle avec mon gang et ta go sort la langue à la vue d'une averse de Moët Elle attend J'tire en l'air du Roof' j'entends les mouettes J'sors une tape direct j'entends les hate' Twenty Racks dans un Que tu mets ta vieille foumasse en sto' Des juments j'ai un range aller ranch' ta mère J'traine avec À quatorze piges on arrachait Porsche Cayenne Au cur de la tumeur, j'suis pas d'humeur À écouter des couplets d'Youtubeurs Encore un d'plus la concu' s'fait entuber Vous aimez sucer tous les usurpateurs Sale sorcière j'suis pas Harry Potter Ta sur et toi j'vous laisse sur répondeur J'fais pas confiance aux femmes j'ai besoin d'une princesse Pour élever spirituel, âme Shake penseur Jamais pire que nous T'auras beau niquer des mères tu feras pas pire que nous Toujours amer j'suis le rebeu sans le sucre roux Toujours amer j'suis le rebeu sans le sucre roux Tu vois mes rebeux t'allumer sur deux roues T'as des doutes on est des bonhommes on est sûrs de nous On est sûrs de nous Quinze ans d'ma vie dans c'milieu corrompu Trop d'ces batârds ne savent pas rapper sans re-pu Cinq étoiles gastronomiques j'suis repu L'addition va laisser ta gadji sur le cul J'ai fait un rêve magnifique dans lequel j'te rentrais quatorze coups d'opinel dans l'cul J'ai repéré les ingrats j'donne plus J'vais niquel j'dors plus Illico le milli' rafale dans les volets Bolosses à la file indienne, on s'envoie ballons comme au volley-ball On voulait la belle vie quand on allait voler chez les bobos Le bolide est dans le bendo, la Belvé' dans le hall Machine Gun J'élargis ma communauté jusqu'à Washington Trop d'filtré dans l'quartier ça s'chiffonne Pour un paquet d'oseille ou pour une meuf archi bonne Elle veut bikow débile plein d'bitcoins Pour lui payer ses manucures et son Yorkshirk toy Une équipe s'prépare et débarque chez toi T'es qu'un dommage collatéral c'est l'anarchie boy On veut toujours plus d'or blanc sur les incisives Agiter blue bandana comme un Crips J'la met en lucarne avec un ciseau J'compte pas sur toi pour la passe décisive Les p'tits d'la cité forment un demi-cercle et t'enculent même si t'es là depuis un demi-siècle Ils vont sûrement t'faire changer d'hémisphère Opinel ça rentre comme dans du beurre demi-sel Moi, moi, moi, à la base J'rêvais de Palaces dès l'âge de marcher N'oublie pas le blaze le Hayce pas Brice de Nice Le nine pas loin de l'alligator du marché Dominant l'espace déplace des masses Démarche de la daupe à quiconque dépanne des masses J'pense à tous mes gars qui passent des master Pendant qu'on enfile un masque démarre le Max-T T'es dans mon tu brasses hélas Les rebeux d'en face te menanent et sortent les shlass Ils t'ont volé liasse pénave bédave téma tu passe pour un lâche tu cache tes larmes Il t'reste un peu d'cash t'achète une arme Tu veux rafaler comme la TN En Temps Réel</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Dans c'monde, j'y vois qu'du feu ton paradis est un enfer Les caméras te visent, va falloir filer à l'anglaise Tu cherches le droit chemin, c'est vers le vice que ça t'entraîne Tu voulais faire la star, t'es pas ravi d'être à l'antenne J'avais des rimes en stock, j'débarque pour larguer l'tout Comme le jeu du foulard, j'suis venu pour marquer l'coup On est des rats d'égouts qui squattent les bars rrés-bou Mis à l'écart par cet Etat qui veut bé-bar tes sous J'prie pour ceux qui vivent l'horreur, et puis qu'on prive d'honneur Tu tombes, je tombe, inséparables tout comme les twins towers Beaucoup font de la merde, tu sens cette p'tite odeur Vécu monté d'toute pièce, c'est pas des rappeurs, c'est des bricoleurs Après ce spectacle, le rideau s'ferme J'vois, dehors ça bicrave des kilos d'herbe Des curs mis dans des sacs isothermes L'avenir a détale, donc au final les minots s'perdent L'amour t'évite, je pense Ta route est vide de chance Quand tu savoures ta ligne de blanche Ça roule, ça deale, ça trempe sur toute l'île de France Ah t'étais blindé d'regrets cachés Coincé sur ma galère, j'dérive à blinde Tu sais depuis qu'ce môme me fait marcher J'comprends mieux pourquoi on m'disait t'iras loin Les forces aux goinfres, les plus faibles dégustent sans aucune aide J'veux voir l'bout du tunnel, mais sans jumelle c'est rude, la haine est une prison Faut sortir d'cette cellule, si j'restais dans le censuré C'est dur pour moi trouver l'sommeil, c'est clair que si c'est pas se vendre du rêve C'est nul ! You might also like1.8 1.8 sur l'secteur Le Vers De Trop ! Le Vers De Trop ! Le Vers De Trop ! Vu ma vision floue j'crois pas qu'l'avenir domine Fonsdé Coca Skyy vodka pomme gin tonic On est en bas d'l'échelle et ils abusent de leur pouvoir donc quand l'État me jette la pierre, je jette la kryptonite Faut plus qu'un huissier pour saisir notre rime, j'écoute pas les blabla pour ver-squi l'otite Dans c'monde d'injustice certains s'exilent d'autres triment Mené en bateau j'fais du whisky-nautique Faudrait que j'me bouge mais j'reste immobile Hostile pour le prestige d'autre deals Le fric et l'insolence c'est plus les flics et la violence sont depuis bien longtemps les choses qui régissent notre vie J'essaie de faire du propre on m'fait des coups d'sse-cra Quand tu tends la main, l'amitié t'coupe le bras Les doutes te braquent On est tous sous pression, normal que tu ressentes du stress lorsque t'écoutes ce track Dans l'enfer des corps, j'vois qu'tant d'frères déconnent, la hargne enterre des potes, j'vois qu'la haine éclore Marre qu'on m'ferme les portes, j'maîtrise le poids des mots et tout ça sans en faire des tonnes J'écris pour les mecs paumés mais j'ai pas ma place dans les bacs sans en être diplômé J'aime pas la Trap mais si la prod' est bonne fais péter, là j'débarque sur tout-terrain j'ai le flow V.T.T Le doigt sur la détente, c'est tentant, c'est entêtant, et sans détail le son t'étale, sans tes thunes et sans tes dents C'est l'attentat qui retentit, tant attendu, qui te met des tartes, ça t'étonne, tout est à terre, ça détonne et tu détales Au total on met des taules à ces têtards en tête d'affiche En tête à tête on te fait ta fête, dans cet état on te tétanise On t'atomise si t'es tenté, j'ai la patate qui t'enterre C'est Davodka, du tout au tout en un couplet qui plie ton thème Si jle fait c est pour le feeling Jsuis affalé dans le living Et le meme vinyl tourne en boucle Me demande pas comment ca va finir Jsuis en folie jsuis en furie J entend retentir les tambours Rap francais c est un film de boules Malgré les epreuves jsuis toujours debout Je vous ai compris a dit Charles De Gaulle Jprend la releve pour inover Pull up rafaler tes vollets J ai pas changé de level et de lifestyle Mes victoires ne sont pas volées Jte fais ravaler ton venin Jveux m'envoler Prendre le pouvoir comme a Versailles Si je pull up mes ennemies pas de pari pas de police J ai pas d'amis dans cgame qui nous guette guette notre game dans un king bed Hypothechniquenique nique pour des Je les culbute avec bang bang Beaucoup de vécu mais la maturité t'interpelle Quand t'as né-tour avec des biko qu on pris la perpet' Je ne veux pas allez vous faire ken Le poids du monde sur les épaules hum Indépendanté je retombe hum T es dans un peignoire dior les hasanat et les péchés te retourne dans la tombe hum Hey Sur la touche parce que j ai peur Dfaire la faute en plus elle fume pas Sur ma kush elle m'envoi uet Un Elle m envoi dm mais jla laisse Sur la touche parce que j ai peur Dfaire la faute sur ma kush Et j ai mal Car ici c est dev'nu la merde c est viscéral viscéral Les grand dce monde nfont pas causette aux miserables miserables Hey hey Aux miserables Hey hey hey Jai peut-être pas la belle gueule habile et gue-din, mets les balles dans le gun, mégalomanes à lagonie Vil et malin, mets la monnaie dans la mine, malmenant mâlement le méli-mélo mon ami, mélanine halée mal-aimée Mais nan dans mon paki ya pas de henné, maintenant je mets le paquet je nique des mères Pas le temps de te demander de laide PD, yen a marre dérrer Encore le mic dans la paume Le goût du sang dans la bouche Tachète une arme assez puissante pour tuer un ours mais tu ferais pas de mal à une mouche En tourne en rond même avec les responsabilités dune lourde couronne On dit que largent attire largent Et lhomme est un loup pour lhomme Tu lui dois combien pour quil te pourchasse de la sorte J'te parie qu'il aura déjà chargé le fusil de chasse avant de franchir le pas de ta porte Et concrètement ton ness-bi combien ça rapporte Tu penses tenir combien temps avant de t'asseoir au fond de la Ford Paris trop de keufs au maître carrées, jamais de soleil après l'orage Les plus jeunes sont fonce-dé je me rappelle quon était sportifs à leurs âges ça changé Ébloui par la gloire et tous ces faisceaux De plus en plus filles faciles faux, cest par les réseaux sociaux Où sont vos principes, je relie les haters en pissant Et noublie jamais que la critique cest la puissance des impuissants Je voulais te faire un enfant, taimer jusquà lhomicide, notre addiction nous prennent pour cible, notre amour est impossible Plus Rédoine Faïd que Gandhi Noublie pas quil suffit dune nuit pour que la grosses des baltringues devient le plus grand des bandits Tu nous dis que cest ton gars sûr, il regarde ta sur d'un air malsain Je peux même plus compter mes blessures, jai mis ma peine dans une massa Je suis conscient de la chance que jai Je suis née près de la Sonatrach 20 ans plus tard jécrirai mon histoire sous la pluie comme Frank Sinatra Regarde ce monde tourner, un tas d'humain qu'on ne voit comme d'la chair J'suis à deux doigts d'les mettre au fond d'la gorge tellement ça m'donne la gerbe L'union peut faire la force et nos faiblesses que seule la mort dirige Y'a qu'un seul Dieu et plusieurs religions comme quoi l'amour divise On prend les armes pour évacuer la haine et l'stress Y'a qu'le fait qu'on s'batte pour d'la maille qui nous rappelle qu'on est d'la même espèce Tu regardes les autres tomber et toi tu restes accroché à c't'échelle Rentres pas dans c'game parce que y'a que les pions qui sont voués à l'échec Regardes les hommes veulent tout, sans rien r'donner Une courte échelle où on s'écrase les uns les autres pour atteindre le sommet La paix nous fait faux bond, tu pose une bombe et tous les cinglés sautent On mériterait l'sida tellement on s'baise tous les uns les autres On fait qu'se dénigrer, encore un son à méditer, j'prie En vérité qui d'entre nous a vraiment mérité d'vivre On va partir sans emporter les problèmes restants C'est triste car offrir ce futur à nos enfants est un mauvais présent Moi j'considère la peste, la haine, l'amour comme des épidémies Alors va donc t'acheter une glace pour faire face à ton pire ennemi On verra pas l'bout du tunnel avec des rames sans train Quand l'Afrique crève la dalle l'Europe débat sur des histoires sans fin Le monde s'dégrade j'avoue Le sang s'étale là où s'confondent les djihadistes et l'esprit d'vengeance de Nentanyahu La politique c'est trop complexe pour moi Mais j'sais qu'l'essence même de la vie ne réside pas dans des réserves d'or noir Tellement j'trouve le temps long j'ai pris ce texte pour une seconde d'adieu Suffit pas d'être Charlie une journée pour prouver qu'ce monde va mieux</t>
+          <t>Dans c'monde, j'y vois qu'du feu ton paradis est un enfer Les caméras te visent, va falloir filer à l'anglaise Tu cherches le droit chemin, c'est vers le vice que ça t'entraîne Tu voulais faire la star, t'es pas ravi d'être à l'antenne J'avais des rimes en stock, j'débarque pour larguer l'tout Comme le jeu du foulard, j'suis venu pour marquer l'coup On est des rats d'égouts qui squattent les bars rrés-bou Mis à l'écart par cet Etat qui veut bé-bar tes sous J'prie pour ceux qui vivent l'horreur, et puis qu'on prive d'honneur Tu tombes, je tombe, inséparables tout comme les twins towers Beaucoup font de la merde, tu sens cette p'tite odeur Vécu monté d'toute pièce, c'est pas des rappeurs, c'est des bricoleurs Après ce spectacle, le rideau s'ferme J'vois, dehors ça bicrave des kilos d'herbe Des curs mis dans des sacs isothermes L'avenir a détale, donc au final les minots s'perdent L'amour t'évite, je pense Ta route est vide de chance Quand tu savoures ta ligne de blanche Ça roule, ça deale, ça trempe sur toute l'île de France Ah t'étais blindé d'regrets cachés Coincé sur ma galère, j'dérive à blinde Tu sais depuis qu'ce môme me fait marcher J'comprends mieux pourquoi on m'disait t'iras loin Les forces aux goinfres, les plus faibles dégustent sans aucune aide J'veux voir l'bout du tunnel, mais sans jumelle c'est rude, la haine est une prison Faut sortir d'cette cellule, si j'restais dans le censuré C'est dur pour moi trouver l'sommeil, c'est clair que si c'est pas se vendre du rêve C'est nul ! 1.8 1.8 sur l'secteur Le Vers De Trop ! Le Vers De Trop ! Le Vers De Trop ! Vu ma vision floue j'crois pas qu'l'avenir domine Fonsdé Coca Skyy vodka pomme gin tonic On est en bas d'l'échelle et ils abusent de leur pouvoir donc quand l'État me jette la pierre, je jette la kryptonite Faut plus qu'un huissier pour saisir notre rime, j'écoute pas les blabla pour ver-squi l'otite Dans c'monde d'injustice certains s'exilent d'autres triment Mené en bateau j'fais du whisky-nautique Faudrait que j'me bouge mais j'reste immobile Hostile pour le prestige d'autre deals Le fric et l'insolence c'est plus les flics et la violence sont depuis bien longtemps les choses qui régissent notre vie J'essaie de faire du propre on m'fait des coups d'sse-cra Quand tu tends la main, l'amitié t'coupe le bras Les doutes te braquent On est tous sous pression, normal que tu ressentes du stress lorsque t'écoutes ce track Dans l'enfer des corps, j'vois qu'tant d'frères déconnent, la hargne enterre des potes, j'vois qu'la haine éclore Marre qu'on m'ferme les portes, j'maîtrise le poids des mots et tout ça sans en faire des tonnes J'écris pour les mecs paumés mais j'ai pas ma place dans les bacs sans en être diplômé J'aime pas la Trap mais si la prod' est bonne fais péter, là j'débarque sur tout-terrain j'ai le flow V.T.T Le doigt sur la détente, c'est tentant, c'est entêtant, et sans détail le son t'étale, sans tes thunes et sans tes dents C'est l'attentat qui retentit, tant attendu, qui te met des tartes, ça t'étonne, tout est à terre, ça détonne et tu détales Au total on met des taules à ces têtards en tête d'affiche En tête à tête on te fait ta fête, dans cet état on te tétanise On t'atomise si t'es tenté, j'ai la patate qui t'enterre C'est Davodka, du tout au tout en un couplet qui plie ton thème Si jle fait c est pour le feeling Jsuis affalé dans le living Et le meme vinyl tourne en boucle Me demande pas comment ca va finir Jsuis en folie jsuis en furie J entend retentir les tambours Rap francais c est un film de boules Malgré les epreuves jsuis toujours debout Je vous ai compris a dit Charles De Gaulle Jprend la releve pour inover Pull up rafaler tes vollets J ai pas changé de level et de lifestyle Mes victoires ne sont pas volées Jte fais ravaler ton venin Jveux m'envoler Prendre le pouvoir comme a Versailles Si je pull up mes ennemies pas de pari pas de police J ai pas d'amis dans cgame qui nous guette guette notre game dans un king bed Hypothechniquenique nique pour des Je les culbute avec bang bang Beaucoup de vécu mais la maturité t'interpelle Quand t'as né-tour avec des biko qu on pris la perpet' Je ne veux pas allez vous faire ken Le poids du monde sur les épaules hum Indépendanté je retombe hum T es dans un peignoire dior les hasanat et les péchés te retourne dans la tombe hum Hey Sur la touche parce que j ai peur Dfaire la faute en plus elle fume pas Sur ma kush elle m'envoi uet Un Elle m envoi dm mais jla laisse Sur la touche parce que j ai peur Dfaire la faute sur ma kush Et j ai mal Car ici c est dev'nu la merde c est viscéral viscéral Les grand dce monde nfont pas causette aux miserables miserables Hey hey Aux miserables Hey hey hey Jai peut-être pas la belle gueule habile et gue-din, mets les balles dans le gun, mégalomanes à lagonie Vil et malin, mets la monnaie dans la mine, malmenant mâlement le méli-mélo mon ami, mélanine halée mal-aimée Mais nan dans mon paki ya pas de henné, maintenant je mets le paquet je nique des mères Pas le temps de te demander de laide PD, yen a marre dérrer Encore le mic dans la paume Le goût du sang dans la bouche Tachète une arme assez puissante pour tuer un ours mais tu ferais pas de mal à une mouche En tourne en rond même avec les responsabilités dune lourde couronne On dit que largent attire largent Et lhomme est un loup pour lhomme Tu lui dois combien pour quil te pourchasse de la sorte J'te parie qu'il aura déjà chargé le fusil de chasse avant de franchir le pas de ta porte Et concrètement ton ness-bi combien ça rapporte Tu penses tenir combien temps avant de t'asseoir au fond de la Ford Paris trop de keufs au maître carrées, jamais de soleil après l'orage Les plus jeunes sont fonce-dé je me rappelle quon était sportifs à leurs âges ça changé Ébloui par la gloire et tous ces faisceaux De plus en plus filles faciles faux, cest par les réseaux sociaux Où sont vos principes, je relie les haters en pissant Et noublie jamais que la critique cest la puissance des impuissants Je voulais te faire un enfant, taimer jusquà lhomicide, notre addiction nous prennent pour cible, notre amour est impossible Plus Rédoine Faïd que Gandhi Noublie pas quil suffit dune nuit pour que la grosses des baltringues devient le plus grand des bandits Tu nous dis que cest ton gars sûr, il regarde ta sur d'un air malsain Je peux même plus compter mes blessures, jai mis ma peine dans une massa Je suis conscient de la chance que jai Je suis née près de la Sonatrach 20 ans plus tard jécrirai mon histoire sous la pluie comme Frank Sinatra Regarde ce monde tourner, un tas d'humain qu'on ne voit comme d'la chair J'suis à deux doigts d'les mettre au fond d'la gorge tellement ça m'donne la gerbe L'union peut faire la force et nos faiblesses que seule la mort dirige Y'a qu'un seul Dieu et plusieurs religions comme quoi l'amour divise On prend les armes pour évacuer la haine et l'stress Y'a qu'le fait qu'on s'batte pour d'la maille qui nous rappelle qu'on est d'la même espèce Tu regardes les autres tomber et toi tu restes accroché à c't'échelle Rentres pas dans c'game parce que y'a que les pions qui sont voués à l'échec Regardes les hommes veulent tout, sans rien r'donner Une courte échelle où on s'écrase les uns les autres pour atteindre le sommet La paix nous fait faux bond, tu pose une bombe et tous les cinglés sautent On mériterait l'sida tellement on s'baise tous les uns les autres On fait qu'se dénigrer, encore un son à méditer, j'prie En vérité qui d'entre nous a vraiment mérité d'vivre On va partir sans emporter les problèmes restants C'est triste car offrir ce futur à nos enfants est un mauvais présent Moi j'considère la peste, la haine, l'amour comme des épidémies Alors va donc t'acheter une glace pour faire face à ton pire ennemi On verra pas l'bout du tunnel avec des rames sans train Quand l'Afrique crève la dalle l'Europe débat sur des histoires sans fin Le monde s'dégrade j'avoue Le sang s'étale là où s'confondent les djihadistes et l'esprit d'vengeance de Nentanyahu La politique c'est trop complexe pour moi Mais j'sais qu'l'essence même de la vie ne réside pas dans des réserves d'or noir Tellement j'trouve le temps long j'ai pris ce texte pour une seconde d'adieu Suffit pas d'être Charlie une journée pour prouver qu'ce monde va mieux</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>C'est quoi ces rappeurs stressés ? Ils rappent comme si ils étaient banquier chez HSBC Depuis tout petit tête-à-tête, overdose, décès, téma l'taro de la S baisser L'respect s'fait zeh, ha c'est chacun son bon d'cantine ça sort les outils Je vois s'enfourcher vos langues de vipère, faudra pas pleurer des larmes de crocodile Quand l'électron libre parle, clic pah, ragrin, tah la grinta J'peux niquer le Game avec un seul bras, rechercher la Kalash de mes soldats j'ai perdu patience et trouvé passion Paname c'est le bastion de la décadence, on fait que d'niquer des mères, du bif, des tractions J'guette ta story j'plains ton grand frère, détend toi vieille pute I'm not your boyfriend Des nous souhaiteraient l'Enfer, et maintenant on Quai des Orfèvres Quand t'allégeais rebeu et revendais du soir au lende', habilement tous les lovés que j'ai levé Tous les lovés que j'ai levé j'ai innové, j'ai fait du mal pour avoir des billets violets puis m'envoler T'aimes pas les harbis on t'baise ta mère, on séquestre ta mère avec Castaner Y a des bécanes et d'la drogue sa mère, 1-2-3 Soleil, 1-2-3 salaires Le AMG fait l'bruit d'un MG42, grrrrow Ma beuh sent fort comme fromage bleuYou might also like</t>
+          <t>C'est quoi ces rappeurs stressés ? Ils rappent comme si ils étaient banquier chez HSBC Depuis tout petit tête-à-tête, overdose, décès, téma l'taro de la S baisser L'respect s'fait zeh, ha c'est chacun son bon d'cantine ça sort les outils Je vois s'enfourcher vos langues de vipère, faudra pas pleurer des larmes de crocodile Quand l'électron libre parle, clic pah, ragrin, tah la grinta J'peux niquer le Game avec un seul bras, rechercher la Kalash de mes soldats j'ai perdu patience et trouvé passion Paname c'est le bastion de la décadence, on fait que d'niquer des mères, du bif, des tractions J'guette ta story j'plains ton grand frère, détend toi vieille pute I'm not your boyfriend Des nous souhaiteraient l'Enfer, et maintenant on Quai des Orfèvres Quand t'allégeais rebeu et revendais du soir au lende', habilement tous les lovés que j'ai levé Tous les lovés que j'ai levé j'ai innové, j'ai fait du mal pour avoir des billets violets puis m'envoler T'aimes pas les harbis on t'baise ta mère, on séquestre ta mère avec Castaner Y a des bécanes et d'la drogue sa mère, 1-2-3 Soleil, 1-2-3 salaires Le AMG fait l'bruit d'un MG42, grrrrow Ma beuh sent fort comme fromage bleu</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Rongé par la peur d'tromper la mère de mes enfants qu'elle me trompe que j'me retrouve dans les faits divers aux infos Ravitaille zombis dans l'manoir, deux ampoules allumées sur le drapeau noir Si l'oseille c'est l'power on va baigner dans l'mal, si l'amour rend aveugle on va t'baiser dans l'noir Tu t'es réveillé dans un cauchemar où tu prenais peines de pointeur juste pour un pochtar J'suis d'retour dans les bacs avec Volts, Papada, fait les back, j'fais le tour, j'fais le vanne J'fais des dates, j'fais des phases adéquates à mes fans, c'est des maths c'est pas des mythos, la rue c'est pas des lol, c'est des live Sombré dans la vanité, jadis va-nu-pieds, le requin se régale de l'hémoglobine de chalutier J'ai de la peine pour ces rappeurs qui demandent charité, le partage remplace talent, rap game aime chahuter Contrat d'artiste pour un euro symbolique, encore un rappeur malheureux, saboté sans bolides C'est l'infini mélancolie d'un quotidien sordide, des reines sans reliques et des thugs sans broliques Parabellum pour la mala, j'investis moula Copa Cabana, Canada, Malaga Beaucoup veulent m'éliminer mais le talent n'est pas là, comment s'fait il que je buzz encore quand Marabout est malade ? A l'heure de la remontada j'serai déjà là-bas, portoricaine en train d'me masser les boules et les deux panards Envie d'baiser, j'suis sous cool-al, envoie ta meuf elle est pas mal j'réussis tout c'que j'entreprends, j'suis un mec de Paname hey Fais défiler des et la bavette frotte le bitume, l'opinel te laisse une balafre et ça rafale comme à ça défonce tous les barrages et les péages, en soirée ça vend des You might also like</t>
+          <t>Rongé par la peur d'tromper la mère de mes enfants qu'elle me trompe que j'me retrouve dans les faits divers aux infos Ravitaille zombis dans l'manoir, deux ampoules allumées sur le drapeau noir Si l'oseille c'est l'power on va baigner dans l'mal, si l'amour rend aveugle on va t'baiser dans l'noir Tu t'es réveillé dans un cauchemar où tu prenais peines de pointeur juste pour un pochtar J'suis d'retour dans les bacs avec Volts, Papada, fait les back, j'fais le tour, j'fais le vanne J'fais des dates, j'fais des phases adéquates à mes fans, c'est des maths c'est pas des mythos, la rue c'est pas des lol, c'est des live Sombré dans la vanité, jadis va-nu-pieds, le requin se régale de l'hémoglobine de chalutier J'ai de la peine pour ces rappeurs qui demandent charité, le partage remplace talent, rap game aime chahuter Contrat d'artiste pour un euro symbolique, encore un rappeur malheureux, saboté sans bolides C'est l'infini mélancolie d'un quotidien sordide, des reines sans reliques et des thugs sans broliques Parabellum pour la mala, j'investis moula Copa Cabana, Canada, Malaga Beaucoup veulent m'éliminer mais le talent n'est pas là, comment s'fait il que je buzz encore quand Marabout est malade ? A l'heure de la remontada j'serai déjà là-bas, portoricaine en train d'me masser les boules et les deux panards Envie d'baiser, j'suis sous cool-al, envoie ta meuf elle est pas mal j'réussis tout c'que j'entreprends, j'suis un mec de Paname hey Fais défiler des et la bavette frotte le bitume, l'opinel te laisse une balafre et ça rafale comme à ça défonce tous les barrages et les péages, en soirée ça vend des</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Ali Mout Waqef, je ne fais qu'passer, je déverse la lean et jeffrite la fleur Pour éviter d'imploser, j'mène une vie dvampire et je griffe la feuille Impossible que j'passe aux aveux, si j'récidive, j'fais la passe au baveux J'suis pas du genre à baver, déblatérer pour enterrer tous mes bikows, par intérêt, j'fais du mal aux braves Commun des mortels les rend tellement frêles car l'avenir m'effraie car les démons les freinent On nest pas à plaindre, frère, les démunis staisent, tu pleures c'était davoir des lunettes Fred Musulmans pratiquants mal vus d'la Chine au Vatican Crise identitaire pousse les jeunes à devenir narcotrafiquants S'calibrer, se ganter, faire le mal et banquer, l'âme est dentée De la lame édentée puis le tremblement dterre t'emmène à la Santé, Fleury, Fresnes, Sarrant Ça rentre en cellule le cul chargé d'shit, hesses de la fouille le sait Fouille surprise, dix heures du mat, fils de pute, j'suis en train d'pioncer Pardonne-moi, mon amour, j'ai pas assez été là, euros, dollars pour essuyer tes larmes La tête dans les octaves, la nuit dans les étoiles, sens dessus-dessous, faisait l'amour en horizontal Raison d'haïr ou d'tout détruire c'que j'ai construit autour de moi Tu penses avoir gagné la guerre mais la gloire n'est qu'un Cheval de Troie, regarde-moi Les pompes sur une main, la peine sur un pied On s'pense surhumain mais c'est qu'du papier Les gyros qu't'entends, c'est pas les pompiers, bourbier Aux frères enfermés, j'souhaite bonne annéeYou might also like</t>
+          <t>Ali Mout Waqef, je ne fais qu'passer, je déverse la lean et jeffrite la fleur Pour éviter d'imploser, j'mène une vie dvampire et je griffe la feuille Impossible que j'passe aux aveux, si j'récidive, j'fais la passe au baveux J'suis pas du genre à baver, déblatérer pour enterrer tous mes bikows, par intérêt, j'fais du mal aux braves Commun des mortels les rend tellement frêles car l'avenir m'effraie car les démons les freinent On nest pas à plaindre, frère, les démunis staisent, tu pleures c'était davoir des lunettes Fred Musulmans pratiquants mal vus d'la Chine au Vatican Crise identitaire pousse les jeunes à devenir narcotrafiquants S'calibrer, se ganter, faire le mal et banquer, l'âme est dentée De la lame édentée puis le tremblement dterre t'emmène à la Santé, Fleury, Fresnes, Sarrant Ça rentre en cellule le cul chargé d'shit, hesses de la fouille le sait Fouille surprise, dix heures du mat, fils de pute, j'suis en train d'pioncer Pardonne-moi, mon amour, j'ai pas assez été là, euros, dollars pour essuyer tes larmes La tête dans les octaves, la nuit dans les étoiles, sens dessus-dessous, faisait l'amour en horizontal Raison d'haïr ou d'tout détruire c'que j'ai construit autour de moi Tu penses avoir gagné la guerre mais la gloire n'est qu'un Cheval de Troie, regarde-moi Les pompes sur une main, la peine sur un pied On s'pense surhumain mais c'est qu'du papier Les gyros qu't'entends, c'est pas les pompiers, bourbier Aux frères enfermés, j'souhaite bonne année</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>On mdemande cest comment la Kalash humaine ? Dans quel tiroir tu vas ranger lpolichinelle ? On ta vu garé, voiture de sport, tintroduire dans les stores avec deux jumelles full Chanel La rue cest pas mon père, hermano jrécupère depuis qujsuis prépubère, dans lfour sa mère Acquérir sagesse de Martin Luther, humains faibles depuis lpêché originel Toujours faim dargent, jai lbillet vert solitaire, jveux pilote lhélicoptère sans mis-per Un kichta, deux kichtas, jrécupère cest lprmier bikow qui donne un prix qui perd Woo, crochet du gauche, plus dlumière, Woo, Sagittaire mal luné Tout droit sorti dune tempête de sable noir, on ma trouvé dans un berceau sublunaire Pas de Subutex, pas de S dans les sinus, est-ce-que la vida vaut dêtre vécue sans Urus ? S, Dollars dans liris, on nen dort pas, le virus Est, arme dassaut Hayce dans le Pétrus Next level, tu sens comme une autre saveur, comme un autre level Haters se meurent, demandent quon les aide, never, on ta bien dit next level, nique le clout Yeah, ils ont trop guetté la télévision, jai la vision depuis la fusée, folie passionnelle et métaphores en fusion Jai refusé darriver la fleur au fusil, jai mes raisons denvisager de rafaler tous les volets de leur maison Mes gars hustler, trop insolents, gros SLS dans lparking Thug comme Brixton, chargé comme Kingston, marche avec des mercenaires en kaki Han, elle veut qujlui paie tout, elle mprend pour un chien, trop curieuse, elle mdemande combien jprends pour un show Ces bikows pourraient sucer pour un shoot, jvais téclater si ces bikows tprennent pour un chaud Elle mdemande pourquoi jaime tant la vitesse, elle dégueule à trois cent vingt sur les maréchaux Mes petits lean y savent pas sarrêter, la machtock de Medellin est sur les réchauds Bili-bikow, jporte Henny, pull up cest hop Pas très magnanime, pas de bel3ni, big bad Hayce fait les bails 3ami Oui salope la zipette est bien dans lappui-tête, que jte prenne en levrette, Pythagore épithète Et pis ptète que demain jtappellerai ma biquette, sans donner dla confiture aux pipelettes You might also like Elle a vomi sa blanquette sur ma banquette, obligé d'mettre tempête, les h3tai enquêtent Ton four hypothèque, saperlipopette, t'es même pas foutu d'faire partir une plaquette Han, j'suis sous neurostimulateur, han, calibré j'simule la peur Avant d'immaculer d'hémoglobine ton débardeur, han, j'te remonte grâce au traceur La chatte à ta sur, joue pas trop les mousquetaires, wallah, étranglement coup du mousqueton Tu peux pas fumer, ça c'est d'la mousse le teh, fuck les suceurs, vas-y bouffe tes ongles Roule des pétards et des mécaniques, j'baise des panthères et des méga milfs J'rappe mieux que toi c'est mathématiques, un seul couplet té-ma té-ma bitch Tu joues aux légos devant l'instit', on comptait plus de kichtas que d'élastiques Petit reste tranquille, fais pas la street, fais l'sportif, l'entrepreneur fait l'artiste, han J'suis dans les astres, la Voie Lactée surnommé l'Hayce des Hayce Les yeux rouges sang, les idées noires comme Stendhal, j'm'endors sur la voix avec une p'tite Kendall J'ai un Nine tout neuf, t'sais quoi ? J'crois qu'j'vais t'pull up chez toi chez toi Askip j'suis auch, j'sais tout j'sais tout, les graille, les boire, j'sais pas J'ai jeté mon Magnum Champagne, j'passe le week-end à écrire au cur d'une grasse campagne Moins généreux qu'avant, j'sais comment les ingrats s'comportent, vérité qui dérange, toujours le même qu'en parle Je retourne au combat, bordel de merde, Gouvernement nous divise depuis le bord de mer Nous manipule depuis piscine à débordement, d'Emmanuel à la fille de l'autre borgne de merde J'manie langue de Molière comme un prof de lettres, vieillis bien comme le vin Bordelais Ils sont lights moi je bosse dès l'aube afin qu'aucun fils de putain ne m'apporte de l'aide Qu'on m'apporte de l'eau dans un verre de cristal, poitrine généreuse pleine de lait J'suis au bord de l'eau, je m'en beurre de l'autre et j'ai fini d'acheter ma villa en bord de mer Y'a que pour tirer que j'prends du recul, j'dépense dix mille pour claquer ton gros cul Petit, freestyler c'est pas l'autotune, j't'ai dis, freestyler c'est pas l'autotune, petit</t>
+          <t>On mdemande cest comment la Kalash humaine ? Dans quel tiroir tu vas ranger lpolichinelle ? On ta vu garé, voiture de sport, tintroduire dans les stores avec deux jumelles full Chanel La rue cest pas mon père, hermano jrécupère depuis qujsuis prépubère, dans lfour sa mère Acquérir sagesse de Martin Luther, humains faibles depuis lpêché originel Toujours faim dargent, jai lbillet vert solitaire, jveux pilote lhélicoptère sans mis-per Un kichta, deux kichtas, jrécupère cest lprmier bikow qui donne un prix qui perd Woo, crochet du gauche, plus dlumière, Woo, Sagittaire mal luné Tout droit sorti dune tempête de sable noir, on ma trouvé dans un berceau sublunaire Pas de Subutex, pas de S dans les sinus, est-ce-que la vida vaut dêtre vécue sans Urus ? S, Dollars dans liris, on nen dort pas, le virus Est, arme dassaut Hayce dans le Pétrus Next level, tu sens comme une autre saveur, comme un autre level Haters se meurent, demandent quon les aide, never, on ta bien dit next level, nique le clout Yeah, ils ont trop guetté la télévision, jai la vision depuis la fusée, folie passionnelle et métaphores en fusion Jai refusé darriver la fleur au fusil, jai mes raisons denvisager de rafaler tous les volets de leur maison Mes gars hustler, trop insolents, gros SLS dans lparking Thug comme Brixton, chargé comme Kingston, marche avec des mercenaires en kaki Han, elle veut qujlui paie tout, elle mprend pour un chien, trop curieuse, elle mdemande combien jprends pour un show Ces bikows pourraient sucer pour un shoot, jvais téclater si ces bikows tprennent pour un chaud Elle mdemande pourquoi jaime tant la vitesse, elle dégueule à trois cent vingt sur les maréchaux Mes petits lean y savent pas sarrêter, la machtock de Medellin est sur les réchauds Bili-bikow, jporte Henny, pull up cest hop Pas très magnanime, pas de bel3ni, big bad Hayce fait les bails 3ami Oui salope la zipette est bien dans lappui-tête, que jte prenne en levrette, Pythagore épithète Et pis ptète que demain jtappellerai ma biquette, sans donner dla confiture aux pipelettes Elle a vomi sa blanquette sur ma banquette, obligé d'mettre tempête, les h3tai enquêtent Ton four hypothèque, saperlipopette, t'es même pas foutu d'faire partir une plaquette Han, j'suis sous neurostimulateur, han, calibré j'simule la peur Avant d'immaculer d'hémoglobine ton débardeur, han, j'te remonte grâce au traceur La chatte à ta sur, joue pas trop les mousquetaires, wallah, étranglement coup du mousqueton Tu peux pas fumer, ça c'est d'la mousse le teh, fuck les suceurs, vas-y bouffe tes ongles Roule des pétards et des mécaniques, j'baise des panthères et des méga milfs J'rappe mieux que toi c'est mathématiques, un seul couplet té-ma té-ma bitch Tu joues aux légos devant l'instit', on comptait plus de kichtas que d'élastiques Petit reste tranquille, fais pas la street, fais l'sportif, l'entrepreneur fait l'artiste, han J'suis dans les astres, la Voie Lactée surnommé l'Hayce des Hayce Les yeux rouges sang, les idées noires comme Stendhal, j'm'endors sur la voix avec une p'tite Kendall J'ai un Nine tout neuf, t'sais quoi ? J'crois qu'j'vais t'pull up chez toi chez toi Askip j'suis auch, j'sais tout j'sais tout, les graille, les boire, j'sais pas J'ai jeté mon Magnum Champagne, j'passe le week-end à écrire au cur d'une grasse campagne Moins généreux qu'avant, j'sais comment les ingrats s'comportent, vérité qui dérange, toujours le même qu'en parle Je retourne au combat, bordel de merde, Gouvernement nous divise depuis le bord de mer Nous manipule depuis piscine à débordement, d'Emmanuel à la fille de l'autre borgne de merde J'manie langue de Molière comme un prof de lettres, vieillis bien comme le vin Bordelais Ils sont lights moi je bosse dès l'aube afin qu'aucun fils de putain ne m'apporte de l'aide Qu'on m'apporte de l'eau dans un verre de cristal, poitrine généreuse pleine de lait J'suis au bord de l'eau, je m'en beurre de l'autre et j'ai fini d'acheter ma villa en bord de mer Y'a que pour tirer que j'prends du recul, j'dépense dix mille pour claquer ton gros cul Petit, freestyler c'est pas l'autotune, j't'ai dis, freestyler c'est pas l'autotune, petit</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>RETRANSCRIPTION EN COUR Tic-tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti d'l'usine tah Yuri Orlov Hey, flex comme Hayce Hey, flex comme Hayce J'ai reçu l'invitation d'Skyrock, les gars Donc j'lâche un freestyle à Skyrock, les gars J'prends du level avec le time, le bail embelli J'atteindrai le sommet de l'obélisque Elle a fait le voyage depuis Toronto, bikow, j'ai passé son snap à mon co' J'tiens le rrain-té comme le poto Marto, une kalash' enroulée dans le manteau T'es comme une meuf khéné sur Instagram, tous tes comm', toutes tes vues, tous tes fans tout est faux J'sors une 'tape avec des flow sans défauts, sur le rrain-té, la moitié sont des faux Zouzou sont comme les pierres de mon empire, sont là pour le meilleur et pour le pire J'vois rarement le Soleil comme un vampire, salope, ton producer te paye en pills J'ai l'moral dans les VaporMax, des vapeurs de wax, des pensées d'haineux Fais taper la gelée royale, laisse pilote de-spee le GLE J'suis le grand cadre de la cacophonie, j'ai les 4 feuilles, j'ai les 4 folles J'vis dans la rue la plus chère du Monopoly, tu n'as pas très faim, moi, je les perfore J'roule en ville, j'entends Lemsi t'as pris la grosse tête Ah bon, yeah hoe, c'est pas c'que dit ta sur la grosse keh' J'ai des loca bonnes tah J-Lo, tisse-mé cappuccino Car elle sait que j'n'parle pas chinois, la rue m'appelle Young Paccino On oublie pas la Salat' et l'Tawhid Qui peut tester l'Électron Libre ? Hta wahed 6.3, siège baissé, nouveau compte HSBC Arrête les blasphèmes, tu vas décéder, ces rappeurs de merde sont possédés You might also like</t>
+          <t>RETRANSCRIPTION EN COUR Tic-tac, la trotteuse de l'horloge Bang bang, j'ai ce flow sorti d'l'usine tah Yuri Orlov Hey, flex comme Hayce Hey, flex comme Hayce J'ai reçu l'invitation d'Skyrock, les gars Donc j'lâche un freestyle à Skyrock, les gars J'prends du level avec le time, le bail embelli J'atteindrai le sommet de l'obélisque Elle a fait le voyage depuis Toronto, bikow, j'ai passé son snap à mon co' J'tiens le rrain-té comme le poto Marto, une kalash' enroulée dans le manteau T'es comme une meuf khéné sur Instagram, tous tes comm', toutes tes vues, tous tes fans tout est faux J'sors une 'tape avec des flow sans défauts, sur le rrain-té, la moitié sont des faux Zouzou sont comme les pierres de mon empire, sont là pour le meilleur et pour le pire J'vois rarement le Soleil comme un vampire, salope, ton producer te paye en pills J'ai l'moral dans les VaporMax, des vapeurs de wax, des pensées d'haineux Fais taper la gelée royale, laisse pilote de-spee le GLE J'suis le grand cadre de la cacophonie, j'ai les 4 feuilles, j'ai les 4 folles J'vis dans la rue la plus chère du Monopoly, tu n'as pas très faim, moi, je les perfore J'roule en ville, j'entends Lemsi t'as pris la grosse tête Ah bon, yeah hoe, c'est pas c'que dit ta sur la grosse keh' J'ai des loca bonnes tah J-Lo, tisse-mé cappuccino Car elle sait que j'n'parle pas chinois, la rue m'appelle Young Paccino On oublie pas la Salat' et l'Tawhid Qui peut tester l'Électron Libre ? Hta wahed 6.3, siège baissé, nouveau compte HSBC Arrête les blasphèmes, tu vas décéder, ces rappeurs de merde sont possédés</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>J't'attends sur le parking, Glock sur la tempe Nique la mère à Starsky, mes bikows font sauter la banque Puto, va dire a ta bande qu'on est nerveux Sur le ring et les plates-bandes, XV2 Méga moteur allemand, j'tiens ta pute en laisse Monarque paranoïaque, voyage pittoresque On a tiré sur la dernière roue du carrosse Juste parce qu'on a trop bédave, qu'on est bipolaire Ok, j'porte le bandana comme à Los Angeles Tire sur ma banana comme sur ce maze Trop d'jaloux s'approchent de ma forteresse Le show-biz a capitalisé ce game de merde Ouh-ouh, khabat every day J'me sens beaucoup mieux quand j'ai vomi la vérité Ouh-ouh, Hayce Lem validé J'peux tenir aussi longtemps que monsieur Hallyday Bara-bang-bang-bang, j'fous la merde et j'suis dans tous mes états J'ai la veine sur le front en mode Vegeta Ta deux jambes, deux bras, l'argent, va l'chercher Arrêtez d'me gratter, j'ai pas Tu veux m'kicker, j'ai la musique dans la peau Tu fais pitié, j'vais t'écraser dans ma paume Comme le phnix, je renais d'mes cendres Slalom entre les shlags à chaque mois d'décembre T'as plus d'cocaïne, t'es en pleine descente Tu vas rayer ta carte grise et revendre tes jantes Moi, j'emmerde les gens, j'vis comme j'veux J'suis un génie incompris qui s'arrache les cheveux Non, mon pote, j'ai pas d'problème avec mes chevilles Mais j'sais que j'suis l'meilleur et j'vais braquer l'jeu Bande de fils de pute, dans tes sons, t'ouvres ta chatte Faut qu'on s'voit, nous deux, hein Hein, gringo, la dernière que j't'ai fumé, y avait ce p'tit goût d'beuh Ring, ring, ring, yeah hoe Électron libre volume 2, bientôt disponible Tu vois c'que j'veux dire, ma p'tite gueule ? You might also like Bikow, Blacko, Blanco locos Le criminel interprète le rôle de la victime Les jurys se demandent à qui distribuer les Oscars Aucune confiance au gouvernement De la droite la plus conservatrice à la gauche la plus sociale T'es là, tu nous parles tout l'temps twenty-two T'as perdu one-one, tu fais demi-tour Après shab, tu fais la loi, t'es vénère et tout, pffff Vas-y, laisse-moi rire, j'suis le roi d'la jungle, Lemsi-Mufasa Ma nakoulch jjifa, je ne bouffe pas ça Malgré l'lourd passif, on est tous d'passage Si demain j'ai plus d'argent, tu me laisses mourir ? Enfoiré d'ta ra'Hayce, j'ai une voix chelou Un rap chelou, j'suis pas d'la même espèce que vous On est aud-ch et tout quand on rappe chez nous Tu veux faire mieux, espèce de fou Que vous parlez, vous parlez, je n'vous calcule guère Car j'ai la force mentale que vous n'avez pas Vous m'regardez, m'regardez faire de l'argent toute l'année Vous restez statiques, vous ne bougez pas J'analyse tout, je manie tout, nique ton grand manitou Les gens qui ne me connaissent pas Me prennent pour un gros sheitan Et j'ai toujours la tête qui tourne avant d'kicker tous ces rappeurs J'ai la haine, la veine est sur le front comme Vegeta J'suis dans tous mes états Rares sont ceux qui plaident en faveur de l'égalité Mais ça ne vous choque pas Petit, tu te sens très gore rappant des vulgarités Celle qui t'a éduqué ne te reconnaît pas J'veux pas payer plein pot si ces bâtards élisent la sorcière Ils veulent moderniser la France à coup d'bulldozers Utilisent l'argent de nos impôts pour des missiles sol-air Bitch ! Yeah hoe, ok Lemsi pour Urban Hit sur PMW de Shay, big up à toi, yeah hoe Ma princesse attend son carrosse en pleine avenue Montaigne Souliers troués toute ma vie, personne ne m'a fait monter Nouvel arrivage d'MD, Crystal dans les soirées mondaines Dos contre le mur, la colonne vertébrale cimentée Ma belle, tu cherches un bad boy, un bikow qui te malmène Poser ton boule dans le fer d'un gars qui sait piloter Mais le coup de bélier succède souvent les transactions malsaines Ma chérie, si je tombe, au parloir, faudra pointer Comme si j'portais l'poids du monde sur mes épaules, j'suis chargé J'déteste les matchs ex-æquo, je préfère tous les narguer J'préfère fourrer petite bourgeoise que ta meuf éclatée J'calcule pas ce qui rentre, j'ai passé la nuit à palper J'fricote avec ta bitch à deux-trois heures Même toutes ses copines, j'les ai catch up Même si tu nous donnes l'oseille, on reste des mecs du bendo Toujours en Merco, Louis V, weed et un tas de bad hoes Laissez-nous mener la vie qu'on veut Laissez-nous fumer nos spliffs de beuh Laissez-nous mener la vie qu'on veut Laissez-nous mener la vie qu'on veut Ils me remontent via l'ADN malgré j'avais les mains gantées J'suis foncedé dans ce BM, y a longtemps que j'ai pas pioncé Urban Hit m'a mis au défi mais le rap m'a enfanté Ça mélange le berbère, l'algérois, le bambara et l'anglais J'me fais michto par une frappe, j'irai pas voir mon plan B J'débouche ta tuyauterie, ce soir, je suis plombier Le premier hater qu'ouvre sa gueule se fera bientôt plomber Yeeaah, BLR Music va bientôt les plomber Aïe, aïe, Hayce, Urban Hit, défi relevé PMW, yeah hoe2</t>
+          <t>J't'attends sur le parking, Glock sur la tempe Nique la mère à Starsky, mes bikows font sauter la banque Puto, va dire a ta bande qu'on est nerveux Sur le ring et les plates-bandes, XV2 Méga moteur allemand, j'tiens ta pute en laisse Monarque paranoïaque, voyage pittoresque On a tiré sur la dernière roue du carrosse Juste parce qu'on a trop bédave, qu'on est bipolaire Ok, j'porte le bandana comme à Los Angeles Tire sur ma banana comme sur ce maze Trop d'jaloux s'approchent de ma forteresse Le show-biz a capitalisé ce game de merde Ouh-ouh, khabat every day J'me sens beaucoup mieux quand j'ai vomi la vérité Ouh-ouh, Hayce Lem validé J'peux tenir aussi longtemps que monsieur Hallyday Bara-bang-bang-bang, j'fous la merde et j'suis dans tous mes états J'ai la veine sur le front en mode Vegeta Ta deux jambes, deux bras, l'argent, va l'chercher Arrêtez d'me gratter, j'ai pas Tu veux m'kicker, j'ai la musique dans la peau Tu fais pitié, j'vais t'écraser dans ma paume Comme le phnix, je renais d'mes cendres Slalom entre les shlags à chaque mois d'décembre T'as plus d'cocaïne, t'es en pleine descente Tu vas rayer ta carte grise et revendre tes jantes Moi, j'emmerde les gens, j'vis comme j'veux J'suis un génie incompris qui s'arrache les cheveux Non, mon pote, j'ai pas d'problème avec mes chevilles Mais j'sais que j'suis l'meilleur et j'vais braquer l'jeu Bande de fils de pute, dans tes sons, t'ouvres ta chatte Faut qu'on s'voit, nous deux, hein Hein, gringo, la dernière que j't'ai fumé, y avait ce p'tit goût d'beuh Ring, ring, ring, yeah hoe Électron libre volume 2, bientôt disponible Tu vois c'que j'veux dire, ma p'tite gueule ? Bikow, Blacko, Blanco locos Le criminel interprète le rôle de la victime Les jurys se demandent à qui distribuer les Oscars Aucune confiance au gouvernement De la droite la plus conservatrice à la gauche la plus sociale T'es là, tu nous parles tout l'temps twenty-two T'as perdu one-one, tu fais demi-tour Après shab, tu fais la loi, t'es vénère et tout, pffff Vas-y, laisse-moi rire, j'suis le roi d'la jungle, Lemsi-Mufasa Ma nakoulch jjifa, je ne bouffe pas ça Malgré l'lourd passif, on est tous d'passage Si demain j'ai plus d'argent, tu me laisses mourir ? Enfoiré d'ta ra'Hayce, j'ai une voix chelou Un rap chelou, j'suis pas d'la même espèce que vous On est aud-ch et tout quand on rappe chez nous Tu veux faire mieux, espèce de fou Que vous parlez, vous parlez, je n'vous calcule guère Car j'ai la force mentale que vous n'avez pas Vous m'regardez, m'regardez faire de l'argent toute l'année Vous restez statiques, vous ne bougez pas J'analyse tout, je manie tout, nique ton grand manitou Les gens qui ne me connaissent pas Me prennent pour un gros sheitan Et j'ai toujours la tête qui tourne avant d'kicker tous ces rappeurs J'ai la haine, la veine est sur le front comme Vegeta J'suis dans tous mes états Rares sont ceux qui plaident en faveur de l'égalité Mais ça ne vous choque pas Petit, tu te sens très gore rappant des vulgarités Celle qui t'a éduqué ne te reconnaît pas J'veux pas payer plein pot si ces bâtards élisent la sorcière Ils veulent moderniser la France à coup d'bulldozers Utilisent l'argent de nos impôts pour des missiles sol-air Bitch ! Yeah hoe, ok Lemsi pour Urban Hit sur PMW de Shay, big up à toi, yeah hoe Ma princesse attend son carrosse en pleine avenue Montaigne Souliers troués toute ma vie, personne ne m'a fait monter Nouvel arrivage d'MD, Crystal dans les soirées mondaines Dos contre le mur, la colonne vertébrale cimentée Ma belle, tu cherches un bad boy, un bikow qui te malmène Poser ton boule dans le fer d'un gars qui sait piloter Mais le coup de bélier succède souvent les transactions malsaines Ma chérie, si je tombe, au parloir, faudra pointer Comme si j'portais l'poids du monde sur mes épaules, j'suis chargé J'déteste les matchs ex-æquo, je préfère tous les narguer J'préfère fourrer petite bourgeoise que ta meuf éclatée J'calcule pas ce qui rentre, j'ai passé la nuit à palper J'fricote avec ta bitch à deux-trois heures Même toutes ses copines, j'les ai catch up Même si tu nous donnes l'oseille, on reste des mecs du bendo Toujours en Merco, Louis V, weed et un tas de bad hoes Laissez-nous mener la vie qu'on veut Laissez-nous fumer nos spliffs de beuh Laissez-nous mener la vie qu'on veut Laissez-nous mener la vie qu'on veut Ils me remontent via l'ADN malgré j'avais les mains gantées J'suis foncedé dans ce BM, y a longtemps que j'ai pas pioncé Urban Hit m'a mis au défi mais le rap m'a enfanté Ça mélange le berbère, l'algérois, le bambara et l'anglais J'me fais michto par une frappe, j'irai pas voir mon plan B J'débouche ta tuyauterie, ce soir, je suis plombier Le premier hater qu'ouvre sa gueule se fera bientôt plomber Yeeaah, BLR Music va bientôt les plomber Aïe, aïe, Hayce, Urban Hit, défi relevé PMW, yeah hoe2</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Je n'pensais pas qu'le couteau pouvait venir D'un bâtard qui est toujours à côté d'moi De celle qui dort avec moi toutes les nuits C'est pour ça qu'j'ai l'calibre à côté d'moi Le bonheur à portée d'main Mais j'voulais porter l'or que portent les rois Non j'suis pas du genre à reporter demain J'ai toujours des shooteurs à côté d'moi Le renard voit les diamants reluire Distribue comme Ronnie l'a3ouina Y a du Ruinart à te faire vomir Y a des parachutes dans l'urinoir 6 heures du matin j'ai pas dormi Comm si j'investissais dans l'or noir On connait le prix de ta rolly' Prnds garde aux fregards des charognards J'arrive en chap-chap et d'un clap-clap j'sors un Range J'repense au card-pla, toto plat d'pâtes peau d'orange Algérien capable, je ne pars pas, ça dérange Ça dérange You might also like Liquide-liquide, t'es dans l'viseur Wippin-wippin, c'est dans l'mixeur Chriki-Chriki, j'suis matrixé Je n'te vois qu'dans l'rétroviseur J'entends les pneus crisser J'crois qu'ils m'ont dans l'viseur Chriki-Chriki, j'suis matrixé La vengeance dans l'freezer Liquide-liquide, t'es dans l'viseur Wippin-wippin, c'est dans l'mixeur Chriki-Chriki, j'suis matrixé Je n'te vois qu'dans l'rétroviseur J'entends les pneus crisser J'crois qu'ils m'ont dans l'viseur Chriki-Chriki, j'suis matrixé La vengeance dans l'freezer Je n'laisserai plus les bleus nuits me nuire Fuck les aboiements du malinois Pour une insulte et quelques remis Ça part en sorcellerie magie noire Au sommet du building imagine-moi Si j'prends des millions j'vais pas revenir Pour l'instant j'ai cinquante mille sur moi C'qui t'dégoûte chez les autres n'est peut être que l'reflet de ta propre nature Elle est trop immature elle s'fait ken par un autre dans ta propre voiture Tu voulais po-o-op tu voulais casser les po-o-ortes T'as fini dans le co-o-offre avec des balles dans le co-o-orps J'arrive en chap-chap et d'un clap-clap j'sors un Range J'repense au card-pla, toto plat d'pâtes peau d'orange Algérien capable, je ne pars pas, ça dérange Ça dérange Liquide-liquide, t'es dans l'viseur Wippin-wippin, c'est dans l'mixeur Chriki-Chriki, j'suis matrixé Je n'te vois qu'dans l'rétroviseur J'entends les pneus crisser J'crois qu'ils m'ont dans l'viseur Chriki-Chriki, j'suis matrixé La vengeance dans l'freezer Liquide-liquide, t'es dans l'viseur Wippin-wippin, c'est dans l'mixeur Chriki-Chriki, j'suis matrixé Je n'te vois qu'dans l'rétroviseur J'entends les pneus crisser J'crois qu'ils m'ont dans l'viseur Chriki-Chriki, j'suis matrixé La vengeance dans l'freezer Je n'pensais pas qu'le couteau pouvait venir D'un bâtard qui est toujours à côté d'moi De celle qui dort avec moi toutes les nuits C'est pour ça qu'j'ai l'calibre à côté d'moi</t>
+          <t>Je n'pensais pas qu'le couteau pouvait venir D'un bâtard qui est toujours à côté d'moi De celle qui dort avec moi toutes les nuits C'est pour ça qu'j'ai l'calibre à côté d'moi Le bonheur à portée d'main Mais j'voulais porter l'or que portent les rois Non j'suis pas du genre à reporter demain J'ai toujours des shooteurs à côté d'moi Le renard voit les diamants reluire Distribue comme Ronnie l'a3ouina Y a du Ruinart à te faire vomir Y a des parachutes dans l'urinoir 6 heures du matin j'ai pas dormi Comm si j'investissais dans l'or noir On connait le prix de ta rolly' Prnds garde aux fregards des charognards J'arrive en chap-chap et d'un clap-clap j'sors un Range J'repense au card-pla, toto plat d'pâtes peau d'orange Algérien capable, je ne pars pas, ça dérange Ça dérange Liquide-liquide, t'es dans l'viseur Wippin-wippin, c'est dans l'mixeur Chriki-Chriki, j'suis matrixé Je n'te vois qu'dans l'rétroviseur J'entends les pneus crisser J'crois qu'ils m'ont dans l'viseur Chriki-Chriki, j'suis matrixé La vengeance dans l'freezer Liquide-liquide, t'es dans l'viseur Wippin-wippin, c'est dans l'mixeur Chriki-Chriki, j'suis matrixé Je n'te vois qu'dans l'rétroviseur J'entends les pneus crisser J'crois qu'ils m'ont dans l'viseur Chriki-Chriki, j'suis matrixé La vengeance dans l'freezer Je n'laisserai plus les bleus nuits me nuire Fuck les aboiements du malinois Pour une insulte et quelques remis Ça part en sorcellerie magie noire Au sommet du building imagine-moi Si j'prends des millions j'vais pas revenir Pour l'instant j'ai cinquante mille sur moi C'qui t'dégoûte chez les autres n'est peut être que l'reflet de ta propre nature Elle est trop immature elle s'fait ken par un autre dans ta propre voiture Tu voulais po-o-op tu voulais casser les po-o-ortes T'as fini dans le co-o-offre avec des balles dans le co-o-orps J'arrive en chap-chap et d'un clap-clap j'sors un Range J'repense au card-pla, toto plat d'pâtes peau d'orange Algérien capable, je ne pars pas, ça dérange Ça dérange Liquide-liquide, t'es dans l'viseur Wippin-wippin, c'est dans l'mixeur Chriki-Chriki, j'suis matrixé Je n'te vois qu'dans l'rétroviseur J'entends les pneus crisser J'crois qu'ils m'ont dans l'viseur Chriki-Chriki, j'suis matrixé La vengeance dans l'freezer Liquide-liquide, t'es dans l'viseur Wippin-wippin, c'est dans l'mixeur Chriki-Chriki, j'suis matrixé Je n'te vois qu'dans l'rétroviseur J'entends les pneus crisser J'crois qu'ils m'ont dans l'viseur Chriki-Chriki, j'suis matrixé La vengeance dans l'freezer Je n'pensais pas qu'le couteau pouvait venir D'un bâtard qui est toujours à côté d'moi De celle qui dort avec moi toutes les nuits C'est pour ça qu'j'ai l'calibre à côté d'moi</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Key Largo Sheesh, sheesh C'est important Skuutchi Sheesh, grrr grrr Skuutchi, Yeah oh Sheesh, Cru Ensemble, sacoche, paire de Nike Putain c'est notre culture cru Bedo, bendo, arabe, black Putain c'est notre culture cru Graine de café, dégradé Rentre dans la French Culture cru T'as les taros sur les murs C'est ça d'être dans l'futur J'ai jamais aimé leur game J'ai jamais aimé leur gueule Dans ma culture personne suce sheesh Encore moins pour le succès cru, cru J'ai jamais aimé leur game J'ai jamais aimé leur gueule Dans ma culture personne suce gang Encore moins pour le succès You might also like Ils sont remplis de contacts sheesh Se font partager comme des putes sheesh Le but c'est quand même d'être bon Mais on dirait que ça marche plus comme avant Donc faut démarcher Faire une étude de marché Car tu n'aura pas ce que tu sèmes Les faux vont t'le voler Les têtes ont du buzz à donner A n'importe qui, n'importe quand Je ne comprends pas tout T'es mauvais mais on t'vois partout Des lovés grâce au cache-cou Uzi, soquet, mets-toi à g'nou Tu t'fais sauter par les jnouns Du tieks, les anciens l'ont fait avant nous Tu sais, mais jamais n'ont sucé pour le succès 9go Sarajevo Gangz bien sur Tout est pur La nouvelle trap, for real J'carbure sous zeb' à deux mille Lebara, LycaMobile A la sauvette on deale Sur Paname, met un jean J'parle avec mon ange et mon jnoun J'connais son reuf mais elle veut m'donner son boule J'parle avec mon ange et mon jnoun Même mon ange m'a dit Mets-lui elle a un bon boule French Culture French Culture French Culture French Culture sheesh Ensemble, sacoche, paire de Nike Putain c'est notre culture cru Bedo, bendo, arabe, black Putain c'est notre culture cru Graine de café, dégradé Rentre dans la French Culture cru T'as les taros sur les murs C'est ça d'être dans l'futur J'ai jamais aimé leur game J'ai jamais aimé leur gueule Dans ma culture personne suce sheesh Encore moins pour le succès cru, cru J'ai jamais aimé leur game J'ai jamais aimé leur gueule Dans ma culture personne suce gang Encore moins pour le succès Dans ma culture personne suce Juste, pour un lapsus Ça branle le pompe Toi tu veux d'la sel3a pure ? Pute, demande à Lapurple quand j'ai bu j'recompte Encore le goût du sang dans la bouche Jamais d'verre pilé dans la Kush Y'a encore d'la cyprine dans la douche Allez nettoie-moi ça, pute pute Commercial avec les clickos ouh Minkos a rodave la filature yeah Grosse sacoche, haute couture yeah J'baise la coiffeuse et la couturière Mes bikos dépensent au Buddha-bar Tous en cavale à Marrakech à Paris-Nord à Malaga Ça fait la mala, millésime et fait la moula jusqu'au Mali Mets les poukis dans la mêlée, biko pull-up à panama Waw J'ai mon tarpé dans l'tiroir ah booooon Pour les armoires à glace ah ouiiii J'vais m'faire ??? au prétoire ah noooon J'arrive au mitar et j'pète la weeeeeeeed Yaah yaah C'est le Big Lemsi feat Key Largo Rien qu'on les laisse raconter leur doss' T'es même plus dans l'game on t'a guélar gros French culture French culture C'est important, c'est important Ensemble, sacoche, paire de Nike Putain c'est notre culture Bedo, bendo, arabe, black Putain c'est notre culture Graine de café, dégradé Rentre dans la French Culture T'as les taros sur les murs C'est ça d'être dans l'futur J'ai jamais aimé leur game J'ai jamais aimé leur gueule Dans ma culture personne suce Encore moins pour le succès J'ai jamais aimé leur game J'ai jamais aimé leur gueule Dans ma culture personne suce Encore moins pour le succès En compo 4-4-2 j'vends des kit kat Moi, j'veux pas papier Avant de partir je ne ferais pas d'pattes J'ai fais le tour et j'ai vu que des potes qui veulent te la mettre pour des petites histoires de putes Si un jour ça marche j'investirai dans plein de business mettre à l'abri la mif c'est le but J'roule un joint d'beuh l'co-pi attends l'P2 Dans l'rétroviseur je vois des giros bleus J'ai 4 paquets cachés dans ta , ça sent l'pilon à bord il faut qu'j'bombarde sa mère J'dédicace personne il fallait être là J'investis dans l'doré, dans l'caramoula 100 000 vues, 7 commentaires on vous voit Au lieu d'acheter des vues allez vendre des quettes-pla Loki chargé dans l'bloc ça taille des Visser les ien-cli de 11 à minuit, les clis-clis font la queue pour un peu de CC La paki dans le jean, 9 milli dans le jean, Ketama à Paris gros go-fast AMG J'baiserai ta sur jusqu'à qu'elle ait compris pourquoi j'lui fait du mal elle sera French Culture French Culture French Culture French Culture Ensemble, sacoche, paire de Nike Putain c'est notre culture cru Bedo, bendo, arabe, black Putain c'est notre culture cru Graine de café, dégradé Rentre dans la French Culture cru T'as les taros sur les murs C'est ça d'être dans l'futur J'ai jamais aimé leur game J'ai jamais aimé leur gueule Dans ma culture personne suce sheesh Encore moins pour le succès cru, cru J'ai jamais aimé leur game J'ai jamais aimé leur gueule Dans ma culture personne suce gang Encore moins pour le succès2</t>
+          <t>Key Largo Sheesh, sheesh C'est important Skuutchi Sheesh, grrr grrr Skuutchi, Yeah oh Sheesh, Cru Ensemble, sacoche, paire de Nike Putain c'est notre culture cru Bedo, bendo, arabe, black Putain c'est notre culture cru Graine de café, dégradé Rentre dans la French Culture cru T'as les taros sur les murs C'est ça d'être dans l'futur J'ai jamais aimé leur game J'ai jamais aimé leur gueule Dans ma culture personne suce sheesh Encore moins pour le succès cru, cru J'ai jamais aimé leur game J'ai jamais aimé leur gueule Dans ma culture personne suce gang Encore moins pour le succès Ils sont remplis de contacts sheesh Se font partager comme des putes sheesh Le but c'est quand même d'être bon Mais on dirait que ça marche plus comme avant Donc faut démarcher Faire une étude de marché Car tu n'aura pas ce que tu sèmes Les faux vont t'le voler Les têtes ont du buzz à donner A n'importe qui, n'importe quand Je ne comprends pas tout T'es mauvais mais on t'vois partout Des lovés grâce au cache-cou Uzi, soquet, mets-toi à g'nou Tu t'fais sauter par les jnouns Du tieks, les anciens l'ont fait avant nous Tu sais, mais jamais n'ont sucé pour le succès 9go Sarajevo Gangz bien sur Tout est pur La nouvelle trap, for real J'carbure sous zeb' à deux mille Lebara, LycaMobile A la sauvette on deale Sur Paname, met un jean J'parle avec mon ange et mon jnoun J'connais son reuf mais elle veut m'donner son boule J'parle avec mon ange et mon jnoun Même mon ange m'a dit Mets-lui elle a un bon boule French Culture French Culture French Culture French Culture sheesh Ensemble, sacoche, paire de Nike Putain c'est notre culture cru Bedo, bendo, arabe, black Putain c'est notre culture cru Graine de café, dégradé Rentre dans la French Culture cru T'as les taros sur les murs C'est ça d'être dans l'futur J'ai jamais aimé leur game J'ai jamais aimé leur gueule Dans ma culture personne suce sheesh Encore moins pour le succès cru, cru J'ai jamais aimé leur game J'ai jamais aimé leur gueule Dans ma culture personne suce gang Encore moins pour le succès Dans ma culture personne suce Juste, pour un lapsus Ça branle le pompe Toi tu veux d'la sel3a pure ? Pute, demande à Lapurple quand j'ai bu j'recompte Encore le goût du sang dans la bouche Jamais d'verre pilé dans la Kush Y'a encore d'la cyprine dans la douche Allez nettoie-moi ça, pute pute Commercial avec les clickos ouh Minkos a rodave la filature yeah Grosse sacoche, haute couture yeah J'baise la coiffeuse et la couturière Mes bikos dépensent au Buddha-bar Tous en cavale à Marrakech à Paris-Nord à Malaga Ça fait la mala, millésime et fait la moula jusqu'au Mali Mets les poukis dans la mêlée, biko pull-up à panama Waw J'ai mon tarpé dans l'tiroir ah booooon Pour les armoires à glace ah ouiiii J'vais m'faire ??? au prétoire ah noooon J'arrive au mitar et j'pète la weeeeeeeed Yaah yaah C'est le Big Lemsi feat Key Largo Rien qu'on les laisse raconter leur doss' T'es même plus dans l'game on t'a guélar gros French culture French culture C'est important, c'est important Ensemble, sacoche, paire de Nike Putain c'est notre culture Bedo, bendo, arabe, black Putain c'est notre culture Graine de café, dégradé Rentre dans la French Culture T'as les taros sur les murs C'est ça d'être dans l'futur J'ai jamais aimé leur game J'ai jamais aimé leur gueule Dans ma culture personne suce Encore moins pour le succès J'ai jamais aimé leur game J'ai jamais aimé leur gueule Dans ma culture personne suce Encore moins pour le succès En compo 4-4-2 j'vends des kit kat Moi, j'veux pas papier Avant de partir je ne ferais pas d'pattes J'ai fais le tour et j'ai vu que des potes qui veulent te la mettre pour des petites histoires de putes Si un jour ça marche j'investirai dans plein de business mettre à l'abri la mif c'est le but J'roule un joint d'beuh l'co-pi attends l'P2 Dans l'rétroviseur je vois des giros bleus J'ai 4 paquets cachés dans ta , ça sent l'pilon à bord il faut qu'j'bombarde sa mère J'dédicace personne il fallait être là J'investis dans l'doré, dans l'caramoula 100 000 vues, 7 commentaires on vous voit Au lieu d'acheter des vues allez vendre des quettes-pla Loki chargé dans l'bloc ça taille des Visser les ien-cli de 11 à minuit, les clis-clis font la queue pour un peu de CC La paki dans le jean, 9 milli dans le jean, Ketama à Paris gros go-fast AMG J'baiserai ta sur jusqu'à qu'elle ait compris pourquoi j'lui fait du mal elle sera French Culture French Culture French Culture French Culture Ensemble, sacoche, paire de Nike Putain c'est notre culture cru Bedo, bendo, arabe, black Putain c'est notre culture cru Graine de café, dégradé Rentre dans la French Culture cru T'as les taros sur les murs C'est ça d'être dans l'futur J'ai jamais aimé leur game J'ai jamais aimé leur gueule Dans ma culture personne suce sheesh Encore moins pour le succès cru, cru J'ai jamais aimé leur game J'ai jamais aimé leur gueule Dans ma culture personne suce gang Encore moins pour le succès2</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Bonsoir, honoré Ghost ! Comme d'hab les rageux vont parler Comme d'hab mon banquier va sortir le champ' Comme d'hab les rappeurs vont parier que cest le dernier mais il reste un poster de moi dans leur chambre En huit ans jpeux te dire que jen ai vu passé, des carrières effacées Seul du landau jusqu'au linceul Je sens le mauvais il se poser sur moi quand je chante Gilet pare-balles, Kalashnikov, 530 Si j'te retrouve tu vas prendre ta trempe Sale pute J'vois loin comme Riov, jai les idées claires à 4h30 La route de la gloire est lune des plus sinueuses Ces baltringues ont du s'perdre Et ces suceurs marcheraient la bouche ouverte sil pleuvait du sperme Les ennemis ne sont pas loin, jai pris mes précautions J'te surveille via le snap ma bitch Et jai du payer pour imprimer ta disposition Un faux pas tous le monde saura que tas snitch Ils tentent de remuer ciel et la terre, pendant quon prie le maître de la terre et des cieux tawhid Ya tellement de gens qui mont déçu, mais la solitude est de ce que jai de plus précieux Jdédicace Orléans, Poitiers, mes braqueurs, mes voleurs de coffre fort On tallume ta grande-mère ya pas de mortier brrr Jte marche dessus, les diamants dansent sur mon torse Je suis la relève de Hasni DZ Jai grandi sur du Marshall, du Tupac shakur Et vas bien dire à toutes ces salopes que malgré le buzz en promenade jétais là tous les jours You might also like Pas besoin daide jles douilles Pas besoin daide jles douilles moi, grrrrra Young Dz porte ses couilles Young Dz porte ses couilles hein, grrrrra Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Ghost, Ghost, Ghost, Ghost Ghost, Ghost, Ghost, Ghost Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Jsuis arrivé dans lrap comme un fantôme Ghost ! Prévenez les nouveaux, les anciens Ya même pas cinq-six piges jétais en chien Là j'te gifle avec ma nouvelle liasse pendant qu'mon manager strangule le tien bang bang Prends mon album comme une menace J'vais assumer comme jamais je nai assumé Tout qui compte pour moi cest de mourir Muslim, à mon stade je m'fiche de me faire fumer On arrive en boulder, en bourbier dans ta cité d'pute on te gifle, on téduque Et tauras beau sucer les algériens dans tous tes sons ne crois pas quon est dupes noksh Ton bénef dans le nez de la reine des neiges ten oublie cquelle veut chaque fois quelle te branche A cause delle combien de nos frère défunts dans la poudre blanche Dans ce game communautaire et raciste Si taime pas les blancs jtenvoie Nicoloko Taime pas les 3arbi jtenvoie Abdallah Si taime pas les renois jtenvoie Sissoko Jai pas trouve la bonne poto sur Snapchat, elle font toutes les chiennes, elle nont pas détat dâme Tu t'es bien fait baiser dans toute ta province et tu viens faire la hlel en peignoir sur Paname Eh, jvais t'dire un truc ya vla les rappeurs qui sla prennent dans le u-c Tu fais le beau-gosse en showcase, allez stream ta mère sale fils de pub Pas besoin daide jles douilles Pas besoin daide jles douilles moi, grrrrra Young Dz porte ses couilles Young Dz porte ses couilles hein, grrrrra Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Ghost, Ghost, Ghost, Ghost Ghost, Ghost, Ghost, Ghost Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Jsuis arrivé dans lrap comme un fantôme Ghost !1</t>
+          <t>Bonsoir, honoré Ghost ! Comme d'hab les rageux vont parler Comme d'hab mon banquier va sortir le champ' Comme d'hab les rappeurs vont parier que cest le dernier mais il reste un poster de moi dans leur chambre En huit ans jpeux te dire que jen ai vu passé, des carrières effacées Seul du landau jusqu'au linceul Je sens le mauvais il se poser sur moi quand je chante Gilet pare-balles, Kalashnikov, 530 Si j'te retrouve tu vas prendre ta trempe Sale pute J'vois loin comme Riov, jai les idées claires à 4h30 La route de la gloire est lune des plus sinueuses Ces baltringues ont du s'perdre Et ces suceurs marcheraient la bouche ouverte sil pleuvait du sperme Les ennemis ne sont pas loin, jai pris mes précautions J'te surveille via le snap ma bitch Et jai du payer pour imprimer ta disposition Un faux pas tous le monde saura que tas snitch Ils tentent de remuer ciel et la terre, pendant quon prie le maître de la terre et des cieux tawhid Ya tellement de gens qui mont déçu, mais la solitude est de ce que jai de plus précieux Jdédicace Orléans, Poitiers, mes braqueurs, mes voleurs de coffre fort On tallume ta grande-mère ya pas de mortier brrr Jte marche dessus, les diamants dansent sur mon torse Je suis la relève de Hasni DZ Jai grandi sur du Marshall, du Tupac shakur Et vas bien dire à toutes ces salopes que malgré le buzz en promenade jétais là tous les jours Pas besoin daide jles douilles Pas besoin daide jles douilles moi, grrrrra Young Dz porte ses couilles Young Dz porte ses couilles hein, grrrrra Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Ghost, Ghost, Ghost, Ghost Ghost, Ghost, Ghost, Ghost Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Jsuis arrivé dans lrap comme un fantôme Ghost ! Prévenez les nouveaux, les anciens Ya même pas cinq-six piges jétais en chien Là j'te gifle avec ma nouvelle liasse pendant qu'mon manager strangule le tien bang bang Prends mon album comme une menace J'vais assumer comme jamais je nai assumé Tout qui compte pour moi cest de mourir Muslim, à mon stade je m'fiche de me faire fumer On arrive en boulder, en bourbier dans ta cité d'pute on te gifle, on téduque Et tauras beau sucer les algériens dans tous tes sons ne crois pas quon est dupes noksh Ton bénef dans le nez de la reine des neiges ten oublie cquelle veut chaque fois quelle te branche A cause delle combien de nos frère défunts dans la poudre blanche Dans ce game communautaire et raciste Si taime pas les blancs jtenvoie Nicoloko Taime pas les 3arbi jtenvoie Abdallah Si taime pas les renois jtenvoie Sissoko Jai pas trouve la bonne poto sur Snapchat, elle font toutes les chiennes, elle nont pas détat dâme Tu t'es bien fait baiser dans toute ta province et tu viens faire la hlel en peignoir sur Paname Eh, jvais t'dire un truc ya vla les rappeurs qui sla prennent dans le u-c Tu fais le beau-gosse en showcase, allez stream ta mère sale fils de pub Pas besoin daide jles douilles Pas besoin daide jles douilles moi, grrrrra Young Dz porte ses couilles Young Dz porte ses couilles hein, grrrrra Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Ghost, Ghost, Ghost, Ghost Ghost, Ghost, Ghost, Ghost Jsuis arrivé dans lrap comme un fantôme Et jrepartirais dans une Phantom Jsuis arrivé dans lrap comme un fantôme Ghost !1</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Hey, hey Ils font une crise identitaire, ils font une crise identitaire Hey J'ai d'la quantité, pas besoin de couper je roule un petit teh Fais le Don Omar, t'es aux chants d'guitare avec ton bling-bling de chez l'antiquaire C'est le dernier des vendus qui graille, c'est le premier qui donne un prix qui perd Tu m'envoies quatre mensonges parle de quatre motions ça a préparé les pare-balles en cas de mousson Calme mon sos' t'es un gentil garçon, t'as pas idée de ce qu'on peut te faire dans un coin sombre La petite graine j'ai trop planté, elles sont trop faciles à baiser quand t'as trop d'plata J'ai peur qu'un gosse de dix piges vienne frapper à la porte et m'appelle papa Hey Sale comme gare du nord, l'amour a ses raisons que les réseaux ignorent J'ai écrasé raisins d'la colère et j'ai disparu comme Garcimore J'ai pas l'temps l'avenir c'est maintenant, j'ai des caporales, des lieutenants Quelques artistes en développement et des enveloppes de violet maintenant J'suis dans l'saloon avec lo-ssa, devant l'hannout avec Moha Madame rêve d'une autre robe, c'fils de pute de Macron rêve d'une autre Europe J'prends l'volant j'ai bu toute la teill', j'ai repris des mois sur ma peine J'ai encore du sang sur ma paire, nique sa mère J'compte liasse avec Donna Imma Hey Remets d'la me-crè sur ma pizza Hey La qualité vendue à prix bas Yeah-yeah-yeah Lorsqu'ils voient la taille d'la villa Yeah-yeah-yeah Ils disent que j'suis trop Giovanni Pour tout ça j'suis trop Giovanni Ouh-ouh-ouh Cougar me trouve Giovanni Ouh-ouh-ouh Pochetard depuis Giovanni Ouh-ouh-ouh J'baise les chtars depuis Giovanni You might also like Je n'reviens jamais sur c'que je garantis, tu parles trop tu t'crois dans un Tarantino J'ai des pages vierges qui ne sont pas remplies, si je t'attrape tu ne reverras pas tes parents d'si tôt J'suis connu d'Marseille jusqu'à Drancy, on arrive en io-cli puis repars en Vito Gros t'as percé je vois ta tête qui s'agrandit, ma définition d'la vie n'est pas dans l'dico J'crois que j'suis bon qu'à compter les sommes, à poser mes couilles sur le canapé Plus rien m'choque j'ai vu s'embrasser des hommes, ça veut plus rien dire d'être baraqué Fils de pute tu crois que j'suis ton pote mais je m'en bats les couilles de ce que t'as pensé J'me rappelle de quand j'nettoyais les chiotte, que mon patron kiffait trop m'dévisager Hey M'en bats les couilles d'être sur le téc' j'les baise fort tellement fort qu'y s'en saigne Tu fais l'thug t'as un tatouage sur l'pec la rue c'est pas l'tatoueur qui l'enseigne J'crois bien qu'la street me respecte par contre pour les meufs j'ai des doutes Y'en a marre de parler des schneks, y en a marre de parler des chèques J'compte liasse avec Donna Imma Hey Remets d'la me-crè sur ma pizza Hey La qualité vendue à prix bas Yeah-yeah-yeah Lorsqu'ils voient la taille d'la villa Yeah-yeah-yeah Ils disent que j'suis trop Giovanni Pour tout ça j'suis trop Giovanni Ouh-ouh-ouh Cougar me trouve Giovanni Ouh-ouh-ouh Pochetard depuis Giovanni Ouh-ouh-ouh J'baise les chtars depuis Giovanni</t>
+          <t>Hey, hey Ils font une crise identitaire, ils font une crise identitaire Hey J'ai d'la quantité, pas besoin de couper je roule un petit teh Fais le Don Omar, t'es aux chants d'guitare avec ton bling-bling de chez l'antiquaire C'est le dernier des vendus qui graille, c'est le premier qui donne un prix qui perd Tu m'envoies quatre mensonges parle de quatre motions ça a préparé les pare-balles en cas de mousson Calme mon sos' t'es un gentil garçon, t'as pas idée de ce qu'on peut te faire dans un coin sombre La petite graine j'ai trop planté, elles sont trop faciles à baiser quand t'as trop d'plata J'ai peur qu'un gosse de dix piges vienne frapper à la porte et m'appelle papa Hey Sale comme gare du nord, l'amour a ses raisons que les réseaux ignorent J'ai écrasé raisins d'la colère et j'ai disparu comme Garcimore J'ai pas l'temps l'avenir c'est maintenant, j'ai des caporales, des lieutenants Quelques artistes en développement et des enveloppes de violet maintenant J'suis dans l'saloon avec lo-ssa, devant l'hannout avec Moha Madame rêve d'une autre robe, c'fils de pute de Macron rêve d'une autre Europe J'prends l'volant j'ai bu toute la teill', j'ai repris des mois sur ma peine J'ai encore du sang sur ma paire, nique sa mère J'compte liasse avec Donna Imma Hey Remets d'la me-crè sur ma pizza Hey La qualité vendue à prix bas Yeah-yeah-yeah Lorsqu'ils voient la taille d'la villa Yeah-yeah-yeah Ils disent que j'suis trop Giovanni Pour tout ça j'suis trop Giovanni Ouh-ouh-ouh Cougar me trouve Giovanni Ouh-ouh-ouh Pochetard depuis Giovanni Ouh-ouh-ouh J'baise les chtars depuis Giovanni Je n'reviens jamais sur c'que je garantis, tu parles trop tu t'crois dans un Tarantino J'ai des pages vierges qui ne sont pas remplies, si je t'attrape tu ne reverras pas tes parents d'si tôt J'suis connu d'Marseille jusqu'à Drancy, on arrive en io-cli puis repars en Vito Gros t'as percé je vois ta tête qui s'agrandit, ma définition d'la vie n'est pas dans l'dico J'crois que j'suis bon qu'à compter les sommes, à poser mes couilles sur le canapé Plus rien m'choque j'ai vu s'embrasser des hommes, ça veut plus rien dire d'être baraqué Fils de pute tu crois que j'suis ton pote mais je m'en bats les couilles de ce que t'as pensé J'me rappelle de quand j'nettoyais les chiotte, que mon patron kiffait trop m'dévisager Hey M'en bats les couilles d'être sur le téc' j'les baise fort tellement fort qu'y s'en saigne Tu fais l'thug t'as un tatouage sur l'pec la rue c'est pas l'tatoueur qui l'enseigne J'crois bien qu'la street me respecte par contre pour les meufs j'ai des doutes Y'en a marre de parler des schneks, y en a marre de parler des chèques J'compte liasse avec Donna Imma Hey Remets d'la me-crè sur ma pizza Hey La qualité vendue à prix bas Yeah-yeah-yeah Lorsqu'ils voient la taille d'la villa Yeah-yeah-yeah Ils disent que j'suis trop Giovanni Pour tout ça j'suis trop Giovanni Ouh-ouh-ouh Cougar me trouve Giovanni Ouh-ouh-ouh Pochetard depuis Giovanni Ouh-ouh-ouh J'baise les chtars depuis Giovanni</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>On s'en bat les couilles dton GLE, du moteur à la jante, t'imagines des magies noires, j'ai posé mon album à jeun Moi qui nagis qu'en marginal car j'ai tout appris dans la jungle, Algérien le drapeau facile et le flow que t'auras jamais J'ai laissé la madame et le machin dormir dans la chambre, je n'me confie qu'à mon frère, la race humaine est méchante On enterre pas l'enfant du soleil, trop dénergie à revendre, jirais plus vite que toi avec une balle dans la jambe J'suis le mélange dEminem et d'LIM, une épidémie depuis l'début, t'es mort avant lhappy end J'attends l'délibéré, mais la radio les entend débiter délibérément des putains d'balivernes Fais gaffe à tes fréquentations, ils vont charbonner ta go' pendant ton incarcération American Express dans le portefeuille, tu les sors d'la hess et ils t'portent l'il Ouh, ouh, ouh, encore la Ford encore la Ford Encore les porcs encore les porcs, ils cassent la porte, Nhar Sheitan Ouh, ouh, ouh, j'suis dans la loge j'suis dans la loge Avec ma folle grosse folle, j'lui fais l'amour, Nhar Sheitan Ouh, ouh, ouh J'suis misogyne, je changerai pas, dégage, les deux pieds dans les marécages Arrête de nous parler mariage, salope, ta gueule et va faire le ménage J'suis surement posé dans un quartier, j'vais capter une groupie mais j'ai pas l'temps Elle a mis les dents, elle fait grave chier, pourquoi tu suces comme si j'avais pas d'gland ? Surveille les côtes de ta p'tite sur, l'Homme n'est pas mauvais parce qu'il parle mal Des chroniques de beurette sur Twitter, parce que le qamis ne fait pas l'moine, bref Rebeu, j'suis toujours dans l'business et crois-moi, c'est pas l'meilleur qui pète Des putes passent leur nez dans la zipette, si si, j'baise les flics et les fliquettes Tu croyais quoi ? J'suis dans la brigade anti-flics, ta meuf te trompe donc anticipe Les rappeurs changent une fois qu'ils signent, à la première somme en liquide Hier, tu m'as quitté pour tchi, demain, tu viendras en rampant Moi, j'suis responsable de c'que j'dis, pas responsable de c'que t'entends You might also like Ouh, ouh, ouh, encore la Ford encore la Ford Encore les porcs encore les porcs, ils cassent la porte, Nhar Sheitan Ouh, ouh, ouh, j'suis dans la loge j'suis dans la loge Avec ma folle grosse folle, j'lui fais l'amour, Nhar Sheitan Ouh, ouh, ouh J'suis dans l'fond d'la Benz et j'lui fais l'amour J'suis dans l'fond du binks et j'lui fais l'amour J'sais c'qu'elle cherche deux-trois loups J'sais c'qu'elle cherche de l'or, du velours J'suis dans l'fond d'la Benz et j'lui fais l'amour J'suis dans l'fond du binks et j'lui fais l'amour J'sais c'qu'elle cherche deux-trois loups J'sais c'qu'elle cherche de l'or, du velours Ouh, ouh, ouh, encore la Ford encore la Ford Encore les porcs encore les porcs, ils cassent la porte, Nhar Sheitan Ouh, ouh, ouh, j'suis dans la loge j'suis dans la loge Avec ma folle grosse folle, j'lui fais l'amour, Nhar Sheitan Ouh, ouh, ouh Ouhouhou, ouhouhouh Nhar Sheitan Ouhouhouh</t>
+          <t>On s'en bat les couilles dton GLE, du moteur à la jante, t'imagines des magies noires, j'ai posé mon album à jeun Moi qui nagis qu'en marginal car j'ai tout appris dans la jungle, Algérien le drapeau facile et le flow que t'auras jamais J'ai laissé la madame et le machin dormir dans la chambre, je n'me confie qu'à mon frère, la race humaine est méchante On enterre pas l'enfant du soleil, trop dénergie à revendre, jirais plus vite que toi avec une balle dans la jambe J'suis le mélange dEminem et d'LIM, une épidémie depuis l'début, t'es mort avant lhappy end J'attends l'délibéré, mais la radio les entend débiter délibérément des putains d'balivernes Fais gaffe à tes fréquentations, ils vont charbonner ta go' pendant ton incarcération American Express dans le portefeuille, tu les sors d'la hess et ils t'portent l'il Ouh, ouh, ouh, encore la Ford encore la Ford Encore les porcs encore les porcs, ils cassent la porte, Nhar Sheitan Ouh, ouh, ouh, j'suis dans la loge j'suis dans la loge Avec ma folle grosse folle, j'lui fais l'amour, Nhar Sheitan Ouh, ouh, ouh J'suis misogyne, je changerai pas, dégage, les deux pieds dans les marécages Arrête de nous parler mariage, salope, ta gueule et va faire le ménage J'suis surement posé dans un quartier, j'vais capter une groupie mais j'ai pas l'temps Elle a mis les dents, elle fait grave chier, pourquoi tu suces comme si j'avais pas d'gland ? Surveille les côtes de ta p'tite sur, l'Homme n'est pas mauvais parce qu'il parle mal Des chroniques de beurette sur Twitter, parce que le qamis ne fait pas l'moine, bref Rebeu, j'suis toujours dans l'business et crois-moi, c'est pas l'meilleur qui pète Des putes passent leur nez dans la zipette, si si, j'baise les flics et les fliquettes Tu croyais quoi ? J'suis dans la brigade anti-flics, ta meuf te trompe donc anticipe Les rappeurs changent une fois qu'ils signent, à la première somme en liquide Hier, tu m'as quitté pour tchi, demain, tu viendras en rampant Moi, j'suis responsable de c'que j'dis, pas responsable de c'que t'entends Ouh, ouh, ouh, encore la Ford encore la Ford Encore les porcs encore les porcs, ils cassent la porte, Nhar Sheitan Ouh, ouh, ouh, j'suis dans la loge j'suis dans la loge Avec ma folle grosse folle, j'lui fais l'amour, Nhar Sheitan Ouh, ouh, ouh J'suis dans l'fond d'la Benz et j'lui fais l'amour J'suis dans l'fond du binks et j'lui fais l'amour J'sais c'qu'elle cherche deux-trois loups J'sais c'qu'elle cherche de l'or, du velours J'suis dans l'fond d'la Benz et j'lui fais l'amour J'suis dans l'fond du binks et j'lui fais l'amour J'sais c'qu'elle cherche deux-trois loups J'sais c'qu'elle cherche de l'or, du velours Ouh, ouh, ouh, encore la Ford encore la Ford Encore les porcs encore les porcs, ils cassent la porte, Nhar Sheitan Ouh, ouh, ouh, j'suis dans la loge j'suis dans la loge Avec ma folle grosse folle, j'lui fais l'amour, Nhar Sheitan Ouh, ouh, ouh Ouhouhou, ouhouhouh Nhar Sheitan Ouhouhouh</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Quattro mamé, yeah Ban-Banshee La rue, la vengeance, appelez le gérant, le terrain est glissant, que ça tue les bandeurs À zéro sont les compteurs et ça répond plus quand le téléphone sonne, ça t'a mis un tracker Les murs ont des oreilles, les balances ont la bouche pleine Que ça t'accuse à tort, ça fait parler le chargeur Y'a plus émotions, plus de religion, plus de sensation, exécution, tous sous tension Qu des sanctions, accélération sur la natio', j'gère le ratio Frèr, j'te rassure, j'ai le cardio, à la radio, à la rap dur J'fais des morceaux dans la voiture, nique la censure, on s'en sort J'ai rappé dans le bloc, j'arrachais pas de collier En fumette à l'école, j'arrivais les yeux collés Fais pas le con, y a toujours plus fou que le taulier rah Capo dei Capi, à la vie, à la muerte Wesh la miss, l'Q7 J'vais pas t'épouser, j'vais te dépecer puis te déposer, t'es mon bébé, tu m'fais des poussettes tchou, tchou C'est Marseille, bébé, plus la capitale, on a chargé les habitacles et les appuie-tête han Fructifie le capital, Nasseer sort une kichta, puis rachète le capitaine Amigo, la poucave, c'est l'cliquos Y a même , ils déboulent à trois comme les Migos T-Max 530, RIOV 430, grr, paw, j'fais l'signe JuL à 230 You might also like À Marseille, on se balade même si c'est pas les Bahamas Vol à l'étalage, trafic de came et de Kamagra De Noailles à la Cala', demande aux gars de Paname Wanted dans le Canada, exilés jusqu'au Panama Centre-ville ! Carrément les Roumains jouent des maracas, sah Khalid et Karima et t'es khabat à Caracas Parfois, ça dérape, pisté par la caméra, dans la soirée ça claque le salaire à Pamela A ella la gusta la gasolina, ce soir, j'vais faire zouker Carolina Sous cocaina, t'es comme Toto Riinà, j'veux Donna Imma et la tchoutchourina Marseille, Paname, dans nos cités, c'est Gomorra Ce soir, j'emmène Madame, on s'promène dans l'Panamera C'est comment tu payes, tu canes, rafale, c'est devenu banal Chez nous, tu touches la came, le bénèf', merci Lebara C'est la Lemon, on m'attendait pas et j'viens choquer vos tantes Ça sort le krr-krr de la boîte à gants J'mets la gomme, là, j'arrive à balle, toujours dans les temps Merci le J d'me mettre l'index sur la détente Ils font les faits divers, on fait les gros titres Caboussé le soir, faut qu'tu nous évites pah, pah, pah, pah Dans la chop, on est gantés, ça vient des Pablo, gros, t'as r'connu l'équipe 24, j'suis au tier-quar, rien à fêter, Glock noir dans la coche-sa, ça va péter C'est plus Dadi', gros, c'est Ze Pe' yeah, le sang versé n'a pas séché pah, pah, pah Minimum 6 sans les trois 6 waow Ça te livre à domicile comme les Trois Suisses pah Que du cash, que du liquide, pas de chèque, chèque On revient pour se venger, tu dis hachek C'est Marseille sur la A7, j'roule à 2.3, j'ai du shit à 2.6, de la mache à 3.3 Urus 4x4, avant, ça faisait 5-5 Charbonne 77, écoule les kil' en moins d'deux Pour le baveux, j'ai la plata, full Prada vers le Prado, ça s'met khabat Attends, j'ai les outils, j'ai pas d'abdo', au pire, j'ai mon Opi', j'suis un clando Ici, tout-par les minots sont sur un plan ouais H24, les condés sont sur l'rrain-te La sécu', c'est d'investir sur un pompe carré C'est la rue d'mes lauds-sa et d'mes gâtés Parle bien, ça va t'niquer ta mère Y a tout qui est neuf, faut pas salir ma paire ouh Paris-Marseille pour contrôler la terre Anti-BDH qui s'éloigne des cratères Quand c'est moi qui pilote, t'es collé qu'à l'appuie-tête mmh, ouais La rue m'a fait, j'ai du mal à la quitter eh, eh Y a qu'au foot qu'on met pause à la mi-T Avec le J, ça m'écoute en Aquitaine On est mauvais, t'as d'la chance, on t'loupe, t'as pas d'chance, on t'nique on t'nique Fais attention à c'que tu dis dans la rue, les murs ont des grandes oreilles comme la Champions League C'est le 1.3, c'est le grand classico, trafic, location, plaqué Lewandowski Laisse-les faire les voyous, ils rentrent pour le permis d'conduire, ils ressortent pour bonne conduite ah, ah, ah, ah , c'est l'13, c'est Cantona, y a que des têtes brûlées à la street abonnées Si on te touche le cur, c'est pas pour te donner d'l'amour, c'est pour te voler ta Daytona ouais Marseille, Paname, dans nos cités, c'est Gomorra Ce soir, j'emmène Madame, on s'promène dans l'Panamera C'est comment tu payes, tu canes, rafale, c'est devenu banal Chez nous, tu touches la came, le bénèf', merci Lebara Marseille, Paname, dans nos cités, c'est Gomorra Ce soir, j'emmène Madame, on s'promène dans l'Panamera C'est comment tu payes, tu canes, rafale, c'est devenu banal Chez nous, tu touches la came, le bénèf', merci Lebara</t>
+          <t>Quattro mamé, yeah Ban-Banshee La rue, la vengeance, appelez le gérant, le terrain est glissant, que ça tue les bandeurs À zéro sont les compteurs et ça répond plus quand le téléphone sonne, ça t'a mis un tracker Les murs ont des oreilles, les balances ont la bouche pleine Que ça t'accuse à tort, ça fait parler le chargeur Y'a plus émotions, plus de religion, plus de sensation, exécution, tous sous tension Qu des sanctions, accélération sur la natio', j'gère le ratio Frèr, j'te rassure, j'ai le cardio, à la radio, à la rap dur J'fais des morceaux dans la voiture, nique la censure, on s'en sort J'ai rappé dans le bloc, j'arrachais pas de collier En fumette à l'école, j'arrivais les yeux collés Fais pas le con, y a toujours plus fou que le taulier rah Capo dei Capi, à la vie, à la muerte Wesh la miss, l'Q7 J'vais pas t'épouser, j'vais te dépecer puis te déposer, t'es mon bébé, tu m'fais des poussettes tchou, tchou C'est Marseille, bébé, plus la capitale, on a chargé les habitacles et les appuie-tête han Fructifie le capital, Nasseer sort une kichta, puis rachète le capitaine Amigo, la poucave, c'est l'cliquos Y a même , ils déboulent à trois comme les Migos T-Max 530, RIOV 430, grr, paw, j'fais l'signe JuL à 230 À Marseille, on se balade même si c'est pas les Bahamas Vol à l'étalage, trafic de came et de Kamagra De Noailles à la Cala', demande aux gars de Paname Wanted dans le Canada, exilés jusqu'au Panama Centre-ville ! Carrément les Roumains jouent des maracas, sah Khalid et Karima et t'es khabat à Caracas Parfois, ça dérape, pisté par la caméra, dans la soirée ça claque le salaire à Pamela A ella la gusta la gasolina, ce soir, j'vais faire zouker Carolina Sous cocaina, t'es comme Toto Riinà, j'veux Donna Imma et la tchoutchourina Marseille, Paname, dans nos cités, c'est Gomorra Ce soir, j'emmène Madame, on s'promène dans l'Panamera C'est comment tu payes, tu canes, rafale, c'est devenu banal Chez nous, tu touches la came, le bénèf', merci Lebara C'est la Lemon, on m'attendait pas et j'viens choquer vos tantes Ça sort le krr-krr de la boîte à gants J'mets la gomme, là, j'arrive à balle, toujours dans les temps Merci le J d'me mettre l'index sur la détente Ils font les faits divers, on fait les gros titres Caboussé le soir, faut qu'tu nous évites pah, pah, pah, pah Dans la chop, on est gantés, ça vient des Pablo, gros, t'as r'connu l'équipe 24, j'suis au tier-quar, rien à fêter, Glock noir dans la coche-sa, ça va péter C'est plus Dadi', gros, c'est Ze Pe' yeah, le sang versé n'a pas séché pah, pah, pah Minimum 6 sans les trois 6 waow Ça te livre à domicile comme les Trois Suisses pah Que du cash, que du liquide, pas de chèque, chèque On revient pour se venger, tu dis hachek C'est Marseille sur la A7, j'roule à 2.3, j'ai du shit à 2.6, de la mache à 3.3 Urus 4x4, avant, ça faisait 5-5 Charbonne 77, écoule les kil' en moins d'deux Pour le baveux, j'ai la plata, full Prada vers le Prado, ça s'met khabat Attends, j'ai les outils, j'ai pas d'abdo', au pire, j'ai mon Opi', j'suis un clando Ici, tout-par les minots sont sur un plan ouais H24, les condés sont sur l'rrain-te La sécu', c'est d'investir sur un pompe carré C'est la rue d'mes lauds-sa et d'mes gâtés Parle bien, ça va t'niquer ta mère Y a tout qui est neuf, faut pas salir ma paire ouh Paris-Marseille pour contrôler la terre Anti-BDH qui s'éloigne des cratères Quand c'est moi qui pilote, t'es collé qu'à l'appuie-tête mmh, ouais La rue m'a fait, j'ai du mal à la quitter eh, eh Y a qu'au foot qu'on met pause à la mi-T Avec le J, ça m'écoute en Aquitaine On est mauvais, t'as d'la chance, on t'loupe, t'as pas d'chance, on t'nique on t'nique Fais attention à c'que tu dis dans la rue, les murs ont des grandes oreilles comme la Champions League C'est le 1.3, c'est le grand classico, trafic, location, plaqué Lewandowski Laisse-les faire les voyous, ils rentrent pour le permis d'conduire, ils ressortent pour bonne conduite ah, ah, ah, ah , c'est l'13, c'est Cantona, y a que des têtes brûlées à la street abonnées Si on te touche le cur, c'est pas pour te donner d'l'amour, c'est pour te voler ta Daytona ouais Marseille, Paname, dans nos cités, c'est Gomorra Ce soir, j'emmène Madame, on s'promène dans l'Panamera C'est comment tu payes, tu canes, rafale, c'est devenu banal Chez nous, tu touches la came, le bénèf', merci Lebara Marseille, Paname, dans nos cités, c'est Gomorra Ce soir, j'emmène Madame, on s'promène dans l'Panamera C'est comment tu payes, tu canes, rafale, c'est devenu banal Chez nous, tu touches la came, le bénèf', merci Lebara</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>J'ai la rime et le reste eh eh, l'équipe de sentiers militent illico presto oh Mais lequel de vous veut me test eh eh ? Si t'as mon level envoie-le moi par texto oh X2 La menace opulente pilote sa putain de vie d'une vague épilogue Et puis vogue parmi les élites du rap et les types durables dans le milieu de la drogue La menace opulente pilote sa putain de vie d'une vague épilogue Vogue parmi les élites du rap et les types durables dans le milieu de la drogue Inutile de s'exciter, triple six nous fixe et mon lexique est Très flexible mais persiste dans l'adversité, si le biz' liquide sans s'expliquer Puis le vice selon moi t'extirpe et le bénéfice abat les foules sur l'authenticité des belles mises, belles et bien, vivant oui, mais c'est la crise de nerf Triste mine sous l'emprise d'une vie de merde, ne m'importune pas si t'es face au Crazy Man Le crime connait Hayce, c'est le Crazy Man, criblé de face et je vise l'abdomen Lequel de vous veut désamorcer la bombe humaine ? MCs vous allez vous rappelez de oim A ma vue tous les rappeurs, pris de peur, s'éloignent, à la rue je vous mets tous mais attention à la technologie J'étudie longuement le maniement du mic' et toi tu m'en diras, des nouvelles mélomane vil et éliminant mâlement les mégalomanes en anonyme Eloignez-vous voilà Hayce, Lemsi, l'âme, le Nas au Mic Il aime éliminer les masses, voici l'insomniaque J'ai la rime et le reste eh eh, l'équipe de sentiers militent illico presto oh Mais lequel de vous veut me test eh ? Si t'as mon level envoie-le moi par texto oh X2 You might also like Regarde mon élite, débarque en héli-Coptère, repères, plaies, farces et délits Regarde mon élite, braque le Rap pour une XXX On ne fait pas de détails on est trop scred', XXX indélébile dans le 17 Trop habiles, on débite des rimes à la fil et des MCs goûtent à la défaite Défèque un flow de salop, frelot ça roule, on fout la fechnou dans sa moule Dans mon saloon on s'ouvre le crâne et souvent c'est sous l'eau Jack Daniel Sah c'est Hayce S.I.L.E.M la menace, Anonyme XXX je vous mes des XXX Et j'emmène 1000 à la minute, muni de mes phases, de mes loss et de mes liasses Je me lasse des catines, je dégaine un flow qui décapite au mic', le Mac lui veut surtout pas finir au do-Mac On m'accuse d'avoir abusé des coups de balles, on fait péter tous les MCs tombés dans le coma J'arrive à capella, là il y a le level, Yallah, la mélodie du mala-lade s'éveille Ouais il y a de la mise à l'amende dans le CV, Hayce s'envole avec et voilà la somme d'oseille Je te casse le zen, et je te casse le pif, s'il ne t'est arrivé que dalle c'est que Hayce te kiffe On pisse à la face de dizaines de déguis, dorénavant je viserai la valise pleine de bif Ton michton bouffe mon shit, c'est de la frappe atomique, ta clique de ric' est déjà prise de panique face au Hayce'berg Ta carrière a coulé comme le Titanic, enculé de comique au comico' tu mouilles Mouilles et tu dis que t'as planqué tes couilles, tentez de subtiliser mes gimmicks et les stup utilisez le plan de mes crouilles J'ai la rime et le reste eh eh, l'équipe de sentiers militent illico presto oh Mais lequel de vous veut me test eh ? Si t'as mon level envoie-le moi par texto oh X3 Tu m'en diras des nouvelles mélomanes vils et éliminant mâlement les mégalomanes en anonyme 1000 et 1 rimes émanent de ma nébuleuse, hey l'ami demande aux mines de mon homonyme Et de mon, mon domaine, mélanines hâlées mal-aimée, mélodie de malade mentale m'animait Mon malala, m'en re-mène, la rue, ma rue m'aime, emmêlé dans le méli-mélo Haha Dans le meli-mélo J'ai la rime et le reste eh eh, oh oh Lequel de vous veut me test eh eh Si t'as mon level envoie-le moi par oh oh J'ai la rime et le reste eh eh, l'équipe de sentiers militent illico presto oh Mais lequel de vous veut me test eh ? Si t'as mon level envoie-le moi par texto oh La menace opulente pilote sa putain de vie d'une vague épilogue Et puis vogue parmi les élites du rap et les types durables dans le milieu de la drogue Hayce Lemsi1</t>
+          <t>J'ai la rime et le reste eh eh, l'équipe de sentiers militent illico presto oh Mais lequel de vous veut me test eh eh ? Si t'as mon level envoie-le moi par texto oh X2 La menace opulente pilote sa putain de vie d'une vague épilogue Et puis vogue parmi les élites du rap et les types durables dans le milieu de la drogue La menace opulente pilote sa putain de vie d'une vague épilogue Vogue parmi les élites du rap et les types durables dans le milieu de la drogue Inutile de s'exciter, triple six nous fixe et mon lexique est Très flexible mais persiste dans l'adversité, si le biz' liquide sans s'expliquer Puis le vice selon moi t'extirpe et le bénéfice abat les foules sur l'authenticité des belles mises, belles et bien, vivant oui, mais c'est la crise de nerf Triste mine sous l'emprise d'une vie de merde, ne m'importune pas si t'es face au Crazy Man Le crime connait Hayce, c'est le Crazy Man, criblé de face et je vise l'abdomen Lequel de vous veut désamorcer la bombe humaine ? MCs vous allez vous rappelez de oim A ma vue tous les rappeurs, pris de peur, s'éloignent, à la rue je vous mets tous mais attention à la technologie J'étudie longuement le maniement du mic' et toi tu m'en diras, des nouvelles mélomane vil et éliminant mâlement les mégalomanes en anonyme Eloignez-vous voilà Hayce, Lemsi, l'âme, le Nas au Mic Il aime éliminer les masses, voici l'insomniaque J'ai la rime et le reste eh eh, l'équipe de sentiers militent illico presto oh Mais lequel de vous veut me test eh ? Si t'as mon level envoie-le moi par texto oh X2 Regarde mon élite, débarque en héli-Coptère, repères, plaies, farces et délits Regarde mon élite, braque le Rap pour une XXX On ne fait pas de détails on est trop scred', XXX indélébile dans le 17 Trop habiles, on débite des rimes à la fil et des MCs goûtent à la défaite Défèque un flow de salop, frelot ça roule, on fout la fechnou dans sa moule Dans mon saloon on s'ouvre le crâne et souvent c'est sous l'eau Jack Daniel Sah c'est Hayce S.I.L.E.M la menace, Anonyme XXX je vous mes des XXX Et j'emmène 1000 à la minute, muni de mes phases, de mes loss et de mes liasses Je me lasse des catines, je dégaine un flow qui décapite au mic', le Mac lui veut surtout pas finir au do-Mac On m'accuse d'avoir abusé des coups de balles, on fait péter tous les MCs tombés dans le coma J'arrive à capella, là il y a le level, Yallah, la mélodie du mala-lade s'éveille Ouais il y a de la mise à l'amende dans le CV, Hayce s'envole avec et voilà la somme d'oseille Je te casse le zen, et je te casse le pif, s'il ne t'est arrivé que dalle c'est que Hayce te kiffe On pisse à la face de dizaines de déguis, dorénavant je viserai la valise pleine de bif Ton michton bouffe mon shit, c'est de la frappe atomique, ta clique de ric' est déjà prise de panique face au Hayce'berg Ta carrière a coulé comme le Titanic, enculé de comique au comico' tu mouilles Mouilles et tu dis que t'as planqué tes couilles, tentez de subtiliser mes gimmicks et les stup utilisez le plan de mes crouilles J'ai la rime et le reste eh eh, l'équipe de sentiers militent illico presto oh Mais lequel de vous veut me test eh ? Si t'as mon level envoie-le moi par texto oh X3 Tu m'en diras des nouvelles mélomanes vils et éliminant mâlement les mégalomanes en anonyme 1000 et 1 rimes émanent de ma nébuleuse, hey l'ami demande aux mines de mon homonyme Et de mon, mon domaine, mélanines hâlées mal-aimée, mélodie de malade mentale m'animait Mon malala, m'en re-mène, la rue, ma rue m'aime, emmêlé dans le méli-mélo Haha Dans le meli-mélo J'ai la rime et le reste eh eh, oh oh Lequel de vous veut me test eh eh Si t'as mon level envoie-le moi par oh oh J'ai la rime et le reste eh eh, l'équipe de sentiers militent illico presto oh Mais lequel de vous veut me test eh ? Si t'as mon level envoie-le moi par texto oh La menace opulente pilote sa putain de vie d'une vague épilogue Et puis vogue parmi les élites du rap et les types durables dans le milieu de la drogue Hayce Lemsi1</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Les semelles pleines de gadoue, mets le gasoil à la pompe L'Opi dans la Canada Goose et la mémoire dans la peau J'suis dans l'appart, j'fais que d'pousser des métaphores et la fonte Me métamorphose en intellect dans le fond d'la classe la dope chez le même fournisseur Mais tu persistes à dire que la tienne a plus de saveur, ahcheum On t'a aidé, t'as du mal à l'admttre On regrett, on aurait dû t'laisser crever dans l'binks J'sais très bien qu'elle est là juste pour mon buzz T'as l'seum, j'suis le seul à la bousiller dans son baldaquin Plus rapide que mistral, une avalanche de cristal commence par essayer d'passer arlequin sont tes sentiments, ton orgueil Prends les devants depuis le péché originel Lui laisse un polichinelle dans l'tiroir, confus comme un lâche sa destinée comme un châtiment Criminel aux assises, procureur bien assise La juge en demande 4, elle en demande 6 sale pute depuis l'36, à travailler pour 30 cents Entre mitard et transferts, la sortie procrastine Iceberg, ice cream, Hayce Lem', ice tea Pêche dans ta bouche de pie mais 13 heures, j'pars au casse-pipe La SPIP m'astique, , Maastricht, magic Lemsi dans la raquette, y a pas d'switch You might also like On a vu d'la lumière, on est rentré Quand on met les doigts dans la poudrière, on est ganté En cavale à Alger, Marrakech, Alicante Mala-malamente traficante Buteur, j'tiens le plavon Buteur, j'suis le plavon J'suis le, buteur, j'ai le plavon J'ai des, shooters, j'suis le gravon Eh, ils m'dégoûtent car ils périront d'leur avarice À coffrer l'argent pour mourir avec, pose une pierre à la place , on a connu l'bonheur de sa vie d'crevard À vouloir écumer le moindre centime à la trace La gourmandise est un vilain défaut bitch Sois créatif, pourquoi m'voler des flows ? J'suis la nappe phréatique, j'réhydrate le réseau Quand j''effrite ma résine, on m'écrase des raisins Résidus d'tes rappeurs sous ma Balenciaga Beaucoup d'balances qui f'ront nada si y a dra Ça va pas t'khalass, t'as pas crié Akha Elle arrive tout droit de Guadalajara J'inspire comme le dragon J'expire comme la Draco J'ai des, shooters, j'suis le gravon Buteur, j'tiens le plavon Alors comme ça, petit biko, tu veux devenir millionnaire Milly Rock sur un RR, es-tu visionnaire ? Dans le bloc, que des brah brah, c'est traditionnel Tu peux pas quitter le terrain dans le temps additionnel On a vu d'la lumière, on est rentré Quand on met les doigts dans la poudrière, on est ganté En cavale à Alger, Marrakech, Alicante Mala-malamente traficante Buteur, j'tiens le plavon Buteur, j'suis le plavon J'suis le, buteur, j'ai le plavon J'ai des, shooters, j'suis le gravon On a vu d'la lumière, on est rentré Quand on met les doigts dans la poudrière, on est ganté En cavale à Alger, Marrakech, Alicante Mala-malamente traficante Buteur, j'tiens le plavon Buteur, j'suis le plavon J'suis le, buteur, j'ai le plavon J'ai des, shooters, j'suis le gravon</t>
+          <t>Les semelles pleines de gadoue, mets le gasoil à la pompe L'Opi dans la Canada Goose et la mémoire dans la peau J'suis dans l'appart, j'fais que d'pousser des métaphores et la fonte Me métamorphose en intellect dans le fond d'la classe la dope chez le même fournisseur Mais tu persistes à dire que la tienne a plus de saveur, ahcheum On t'a aidé, t'as du mal à l'admttre On regrett, on aurait dû t'laisser crever dans l'binks J'sais très bien qu'elle est là juste pour mon buzz T'as l'seum, j'suis le seul à la bousiller dans son baldaquin Plus rapide que mistral, une avalanche de cristal commence par essayer d'passer arlequin sont tes sentiments, ton orgueil Prends les devants depuis le péché originel Lui laisse un polichinelle dans l'tiroir, confus comme un lâche sa destinée comme un châtiment Criminel aux assises, procureur bien assise La juge en demande 4, elle en demande 6 sale pute depuis l'36, à travailler pour 30 cents Entre mitard et transferts, la sortie procrastine Iceberg, ice cream, Hayce Lem', ice tea Pêche dans ta bouche de pie mais 13 heures, j'pars au casse-pipe La SPIP m'astique, , Maastricht, magic Lemsi dans la raquette, y a pas d'switch On a vu d'la lumière, on est rentré Quand on met les doigts dans la poudrière, on est ganté En cavale à Alger, Marrakech, Alicante Mala-malamente traficante Buteur, j'tiens le plavon Buteur, j'suis le plavon J'suis le, buteur, j'ai le plavon J'ai des, shooters, j'suis le gravon Eh, ils m'dégoûtent car ils périront d'leur avarice À coffrer l'argent pour mourir avec, pose une pierre à la place , on a connu l'bonheur de sa vie d'crevard À vouloir écumer le moindre centime à la trace La gourmandise est un vilain défaut bitch Sois créatif, pourquoi m'voler des flows ? J'suis la nappe phréatique, j'réhydrate le réseau Quand j''effrite ma résine, on m'écrase des raisins Résidus d'tes rappeurs sous ma Balenciaga Beaucoup d'balances qui f'ront nada si y a dra Ça va pas t'khalass, t'as pas crié Akha Elle arrive tout droit de Guadalajara J'inspire comme le dragon J'expire comme la Draco J'ai des, shooters, j'suis le gravon Buteur, j'tiens le plavon Alors comme ça, petit biko, tu veux devenir millionnaire Milly Rock sur un RR, es-tu visionnaire ? Dans le bloc, que des brah brah, c'est traditionnel Tu peux pas quitter le terrain dans le temps additionnel On a vu d'la lumière, on est rentré Quand on met les doigts dans la poudrière, on est ganté En cavale à Alger, Marrakech, Alicante Mala-malamente traficante Buteur, j'tiens le plavon Buteur, j'suis le plavon J'suis le, buteur, j'ai le plavon J'ai des, shooters, j'suis le gravon On a vu d'la lumière, on est rentré Quand on met les doigts dans la poudrière, on est ganté En cavale à Alger, Marrakech, Alicante Mala-malamente traficante Buteur, j'tiens le plavon Buteur, j'suis le plavon J'suis le, buteur, j'ai le plavon J'ai des, shooters, j'suis le gravon</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Ce jeune maghrébin est intenable Ya, ya Let's go Illico le milli' rafale dans les volets bitch, elle garde tous les moments libidineux pour les riches Et j'ai les yeux rouges comme un Billy Blue, bandana comme Crips, t'as mis les voiles et te revoilà dans ma ligne de mire Mes rimes lézardent les murs d'Paname à Tournemire au Panama téma l'impact de balles sur ls murs Mélomane aux milles mélos met la cata comm Greene Maurice, attaquant d'pointe, trois points comme Lakers Illico le milli' rafale dans les volets bitch, je sais pas si ton gros cul va rentrer le jeans Parler dans mon dogo c'est me tirer dans le dogo j'ai de l'amour pour les potos qui m'ont tiré dans le Dîn Ding-dong, j'suis sauvé par le gang, dis donc, trop d'tyrans qui débarquent et se prennent pour Kim Jong J'casse tout, j'prends la p'tite et m'arrache comme King Kong, tu m'parles de la street mais t'es qui p'tit con ? J'fais les bails, j'fais le bon, j'fais la brute, j'fais le dead, j'fais la barre, j'fais le dos, j'fais les bras, j'fais les pecs J'fais du rap pour les braves, pour les surs, pour les frères, j'fais la maille, j'ai du flair, baby face, private jet Illico le milli' rafale dans les volets bitch, millésimer sur un Pop Smoke, Billie Billie Jean Tous les petits de la cité rêvent de mourir jeunes et riches, quand ils t'charclent ta mère ils cala pas tes origines J'suis numéro neuf comme Rondo, les opposants dansent le Mambo Ta go veut monter dans Lambo, Hayce Lemsi la mélodie du panneau Elle arrive de Mexico, j'suis partout dans la cité J'connais pas Despacito, elle sait qu'j'suis déjà excité Ces bikos ne m'auront pas d'si tôt yeah hoe, j'écoute par leurs flows falsifiés Green Flag sur l'aileron du Panamera, quand ta bitch passe on n'arrête pas d'siffler You might also like Illico le milli' rafale dans les volets Bolosses à la file indienne, on s'envoie ballons comme au volley-ball On voulait la belle vie Quand on allait voler chez les bobos, le bolide est dans le bendo, la Belvé dans le hall, bam bam Que des pétasses, pas de couple goal Garde à v', y a des gueush en début d'overdose J'parle mal, l'OPJ ne me donne pas d'verre d'eau J'halba-t' mais j'ai fait tomber mon Extendo Extorsion, chargeur extensible Comme une sextape quand j'attrape ses extensions, han J'ai touché la corde sensible, j'suis sûr qu'cette pétasse a des ex dans l'son Je ne la vois pas dans mes songes mais que dans mes cauchemars Gauche droite, j'tombe sur un de mes opps au chtar Och bad, 90 microns dans l'pochtar T'as fait tomber ta lampe, bosseur, on t'appelle croche-patte Crache pas dans la mano qui t'a fait manger, Manito Le daron m'a dit Préserve-toi, trouve la bonne et marie-toi Seule une sirène pourra te désengager des marécages Malgré de tous les dérapages de ta vie d'parigot Illico le milli' rafale dans les volets, bitch Ils nous parlent comme s'ils avaient la carrière d'Roddy Ricch Illico le milli' rafale dans les volets, bitch, mo... fuck, j'vais me débarasser de tous ces snitch Elle arrive de Mexico, j'suis partout dans la cité J'connais pas Despacito, elle sait qu'j'suis déjà excité Ces bikos ne m'auront pas d'si tôt yeah hoe, j'écoute par leurs flows falsifiés Green Flag sur l'aileron du Panamera, quand ta bitch passe on n'arrête pas d'siffler Green flag back dans un Panamera black Green flag back dans un Panamera Panamera Green flag back dans un Panamera black Green flag back, green flag back Feinte de check, j't'en mets cinq dans la bouche et l'il gauche Méfie-toi d'la gentillesse d'un Arbouch On était sur le hazi quand tu faisais des pas d'danse A l'époque, on charbonnait tellement qu'on prenait pas d'douche M'appelle pas le sang, j'vais faire couler l'tien Sur le boulevard de l'ingratitude, sale pute Promenade, gamelle, tu m'prends pour un chien Quand j'vais sortir, tu m'verras que sur Saturne J'connais pas l'second degré, la fiole d'acide brûle le visage au troisième degré troisième degré Oui, c'est Hayce Lemsi le vrai le vrai Celui qui a vraiment pris ta dulcinée en levrette No cap, y a les cops dans l'allée, j'décale J'ai rêvé qu'j'braquais dizaine de Caisse d'Epargne Tu peux rêver si t'espères que la tess t'épargne Tu peux rêver si t'espères être plus de-spee qu'oim Y a toute la Terre qui court après ta pute J'veux bien t'coacher si tu cours à ta perte T'es vraiment l'dernier des trous d'cul Tu bicraves, tu fais des cambus mais t'es quand même à perte On sait c'que tu f'rais pour d'la pure On sait c'que tu f'r'ais pour la fame Elle arrive de Mexico, j'suis partout dans la cité J'connais pas Despacito, elle sait qu'j'suis déjà excité Ces bikos ne m'auront pas d'si tôt yeah hoe, j'écoute par leurs flows falsifiés Green Flag sur l'aileron du Panamera, quand ta bitch passe on n'arrête pas d'siffler</t>
+          <t>Ce jeune maghrébin est intenable Ya, ya Let's go Illico le milli' rafale dans les volets bitch, elle garde tous les moments libidineux pour les riches Et j'ai les yeux rouges comme un Billy Blue, bandana comme Crips, t'as mis les voiles et te revoilà dans ma ligne de mire Mes rimes lézardent les murs d'Paname à Tournemire au Panama téma l'impact de balles sur ls murs Mélomane aux milles mélos met la cata comm Greene Maurice, attaquant d'pointe, trois points comme Lakers Illico le milli' rafale dans les volets bitch, je sais pas si ton gros cul va rentrer le jeans Parler dans mon dogo c'est me tirer dans le dogo j'ai de l'amour pour les potos qui m'ont tiré dans le Dîn Ding-dong, j'suis sauvé par le gang, dis donc, trop d'tyrans qui débarquent et se prennent pour Kim Jong J'casse tout, j'prends la p'tite et m'arrache comme King Kong, tu m'parles de la street mais t'es qui p'tit con ? J'fais les bails, j'fais le bon, j'fais la brute, j'fais le dead, j'fais la barre, j'fais le dos, j'fais les bras, j'fais les pecs J'fais du rap pour les braves, pour les surs, pour les frères, j'fais la maille, j'ai du flair, baby face, private jet Illico le milli' rafale dans les volets bitch, millésimer sur un Pop Smoke, Billie Billie Jean Tous les petits de la cité rêvent de mourir jeunes et riches, quand ils t'charclent ta mère ils cala pas tes origines J'suis numéro neuf comme Rondo, les opposants dansent le Mambo Ta go veut monter dans Lambo, Hayce Lemsi la mélodie du panneau Elle arrive de Mexico, j'suis partout dans la cité J'connais pas Despacito, elle sait qu'j'suis déjà excité Ces bikos ne m'auront pas d'si tôt yeah hoe, j'écoute par leurs flows falsifiés Green Flag sur l'aileron du Panamera, quand ta bitch passe on n'arrête pas d'siffler Illico le milli' rafale dans les volets Bolosses à la file indienne, on s'envoie ballons comme au volley-ball On voulait la belle vie Quand on allait voler chez les bobos, le bolide est dans le bendo, la Belvé dans le hall, bam bam Que des pétasses, pas de couple goal Garde à v', y a des gueush en début d'overdose J'parle mal, l'OPJ ne me donne pas d'verre d'eau J'halba-t' mais j'ai fait tomber mon Extendo Extorsion, chargeur extensible Comme une sextape quand j'attrape ses extensions, han J'ai touché la corde sensible, j'suis sûr qu'cette pétasse a des ex dans l'son Je ne la vois pas dans mes songes mais que dans mes cauchemars Gauche droite, j'tombe sur un de mes opps au chtar Och bad, 90 microns dans l'pochtar T'as fait tomber ta lampe, bosseur, on t'appelle croche-patte Crache pas dans la mano qui t'a fait manger, Manito Le daron m'a dit Préserve-toi, trouve la bonne et marie-toi Seule une sirène pourra te désengager des marécages Malgré de tous les dérapages de ta vie d'parigot Illico le milli' rafale dans les volets, bitch Ils nous parlent comme s'ils avaient la carrière d'Roddy Ricch Illico le milli' rafale dans les volets, bitch, mo... fuck, j'vais me débarasser de tous ces snitch Elle arrive de Mexico, j'suis partout dans la cité J'connais pas Despacito, elle sait qu'j'suis déjà excité Ces bikos ne m'auront pas d'si tôt yeah hoe, j'écoute par leurs flows falsifiés Green Flag sur l'aileron du Panamera, quand ta bitch passe on n'arrête pas d'siffler Green flag back dans un Panamera black Green flag back dans un Panamera Panamera Green flag back dans un Panamera black Green flag back, green flag back Feinte de check, j't'en mets cinq dans la bouche et l'il gauche Méfie-toi d'la gentillesse d'un Arbouch On était sur le hazi quand tu faisais des pas d'danse A l'époque, on charbonnait tellement qu'on prenait pas d'douche M'appelle pas le sang, j'vais faire couler l'tien Sur le boulevard de l'ingratitude, sale pute Promenade, gamelle, tu m'prends pour un chien Quand j'vais sortir, tu m'verras que sur Saturne J'connais pas l'second degré, la fiole d'acide brûle le visage au troisième degré troisième degré Oui, c'est Hayce Lemsi le vrai le vrai Celui qui a vraiment pris ta dulcinée en levrette No cap, y a les cops dans l'allée, j'décale J'ai rêvé qu'j'braquais dizaine de Caisse d'Epargne Tu peux rêver si t'espères que la tess t'épargne Tu peux rêver si t'espères être plus de-spee qu'oim Y a toute la Terre qui court après ta pute J'veux bien t'coacher si tu cours à ta perte T'es vraiment l'dernier des trous d'cul Tu bicraves, tu fais des cambus mais t'es quand même à perte On sait c'que tu f'rais pour d'la pure On sait c'que tu f'r'ais pour la fame Elle arrive de Mexico, j'suis partout dans la cité J'connais pas Despacito, elle sait qu'j'suis déjà excité Ces bikos ne m'auront pas d'si tôt yeah hoe, j'écoute par leurs flows falsifiés Green Flag sur l'aileron du Panamera, quand ta bitch passe on n'arrête pas d'siffler</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Habillé tout en blanc, j'lui manque Habillé tout en blanc L'OPJ veulent que j'donne des noms, ah non, jamais c'est non Cette nuit, j'recompte mes sous l'argent, oh non, c'est long très long J'veux cicatriser le vécu, ah non, elle veut compter mes points d'sutures, ah J'ai perdu mon temps dans la luxure, ah non, ah non J't'entends, han han, c'est tentant, han han J'ai plus l'temps pour les bitches, plus l'temps pour être riche, bich J'veux t'en'han han, j'veux juste péter l'élastique, j'suis trop bourré bitches Omri pour la monnaie, tu m'as charbonné, yeah yeah M'a abandonné, mais j't'ai pardonné Elle me regarde dans le blanc, j'lui manque Elle est habillée tout en blanc, elle sait tout c'qu'il y a en moi En moi, habillé tout en noir Millions sur le bord d'euro, accolades au bord de l'eau Si ton ex veut s'en mêler, tu connais d'jà la mélo' Je sais qui j'tape quand j'sors la kichta Que j'me tue au te-e sous l'teinté, j'ai tenté tout J'ai même tenté de remonter le temps, c'est qu'y a plus rien entre nous Je me rappelle du premier rendez-vous, de ta belle robe en velours De ton odeur dans mes draps, en FeFe, j'ai des halu', ton reflet dans l'eau J'm'enivre sale et me réveille dans un sale état J'suis pété j'sais même plus l'gamos, j'l'ai garé où You might also like Omri pour la monnaie, tu m'as charbonné, yeah yeah M'a abandonné, mais j't'ai pardonné Elle me regarde dans le blanc, j'lui manque Elle est habillée tout en blanc, elle sait tout c'qu'il y a en moi En moi, habillé tout en noir Elle est habillée tout en blanc Habillé tout en noir Bonsoir, Honoré</t>
+          <t>Habillé tout en blanc, j'lui manque Habillé tout en blanc L'OPJ veulent que j'donne des noms, ah non, jamais c'est non Cette nuit, j'recompte mes sous l'argent, oh non, c'est long très long J'veux cicatriser le vécu, ah non, elle veut compter mes points d'sutures, ah J'ai perdu mon temps dans la luxure, ah non, ah non J't'entends, han han, c'est tentant, han han J'ai plus l'temps pour les bitches, plus l'temps pour être riche, bich J'veux t'en'han han, j'veux juste péter l'élastique, j'suis trop bourré bitches Omri pour la monnaie, tu m'as charbonné, yeah yeah M'a abandonné, mais j't'ai pardonné Elle me regarde dans le blanc, j'lui manque Elle est habillée tout en blanc, elle sait tout c'qu'il y a en moi En moi, habillé tout en noir Millions sur le bord d'euro, accolades au bord de l'eau Si ton ex veut s'en mêler, tu connais d'jà la mélo' Je sais qui j'tape quand j'sors la kichta Que j'me tue au te-e sous l'teinté, j'ai tenté tout J'ai même tenté de remonter le temps, c'est qu'y a plus rien entre nous Je me rappelle du premier rendez-vous, de ta belle robe en velours De ton odeur dans mes draps, en FeFe, j'ai des halu', ton reflet dans l'eau J'm'enivre sale et me réveille dans un sale état J'suis pété j'sais même plus l'gamos, j'l'ai garé où Omri pour la monnaie, tu m'as charbonné, yeah yeah M'a abandonné, mais j't'ai pardonné Elle me regarde dans le blanc, j'lui manque Elle est habillée tout en blanc, elle sait tout c'qu'il y a en moi En moi, habillé tout en noir Elle est habillée tout en blanc Habillé tout en noir Bonsoir, Honoré</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Le succès m'a téléphoné, m'a dit je t'aime à la folie Pour ces rappeurs c'est la famine, ils disent que c'est de ma faute Les fleurs ont fané, on ne voit que nos défauts Le commissaire dans l'euphorie, quand on me défère au dépôt A croire qu'on est tous enfermé dehors ho ho ho hors Rentre chez le riche au pied de biche, vol de l'or ho ho ho or Ils achètent les likes et les vues, j'achète la baraque et la vue sur la côte Je gratte un texte et m'endors ho ho hors Solo, dans le bario, chaque nuit j'entends rompopom Et s'il le faut on ira la chercher à Rio Cocaïna Si tu payes pas rompopom Le succès m'a sélectionné, je n'étais qu'un enfant Toutes les nuits à zoner, perdu dans le temps Et j'entends cette voix résonner, Yeah Yeah Yeah Yeah x2 Et la gloire m'a téléphoné, elle était fonce-dé Elle voulait qu'on fornique T'es pleine de chichi, tu veux Givenchy, du Dior, du Gucci Pour préparer le tajine ou faire une machine tu parles en noi-chi Yeah J'ai mal mais je dis Va Bene Va Bene Va Bene, hier les babié m'ont balayé Laisses tomber ton vieux mec c'est qu'un alcoolo, j'démarre l'Aventador on y va bébé J'suis tous les soirs au resto moi Je profite avant de graille une ou deux bastos dans l'estomac You might also like x2 Le succès m'a sélectionné, je n'étais qu'un enfant Toutes les nuits à zoner, perdu dans le temps Et j'entends cette voix résonner, Yeah Yeah Yeah Yeah x2 Le succès m'a sélectionné, je n'étais qu'un enfant Et j'entends cette voix résonner, Yeah Yeah Yeah Yeah x21</t>
+          <t>Le succès m'a téléphoné, m'a dit je t'aime à la folie Pour ces rappeurs c'est la famine, ils disent que c'est de ma faute Les fleurs ont fané, on ne voit que nos défauts Le commissaire dans l'euphorie, quand on me défère au dépôt A croire qu'on est tous enfermé dehors ho ho ho hors Rentre chez le riche au pied de biche, vol de l'or ho ho ho or Ils achètent les likes et les vues, j'achète la baraque et la vue sur la côte Je gratte un texte et m'endors ho ho hors Solo, dans le bario, chaque nuit j'entends rompopom Et s'il le faut on ira la chercher à Rio Cocaïna Si tu payes pas rompopom Le succès m'a sélectionné, je n'étais qu'un enfant Toutes les nuits à zoner, perdu dans le temps Et j'entends cette voix résonner, Yeah Yeah Yeah Yeah x2 Et la gloire m'a téléphoné, elle était fonce-dé Elle voulait qu'on fornique T'es pleine de chichi, tu veux Givenchy, du Dior, du Gucci Pour préparer le tajine ou faire une machine tu parles en noi-chi Yeah J'ai mal mais je dis Va Bene Va Bene Va Bene, hier les babié m'ont balayé Laisses tomber ton vieux mec c'est qu'un alcoolo, j'démarre l'Aventador on y va bébé J'suis tous les soirs au resto moi Je profite avant de graille une ou deux bastos dans l'estomac x2 Le succès m'a sélectionné, je n'étais qu'un enfant Toutes les nuits à zoner, perdu dans le temps Et j'entends cette voix résonner, Yeah Yeah Yeah Yeah x2 Le succès m'a sélectionné, je n'étais qu'un enfant Et j'entends cette voix résonner, Yeah Yeah Yeah Yeah x21</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Bigflo Oli, tu connais, non ? ADAL 2 Hayce Lemsi, Volts Face, tu connais aussi, non ? Ouh, ouh, ouh Hayce Lemsi, Oli, on y va Touche pas à mon frère Sur la tête de mon frère Tu voulais du rap, hein ? Tu sais pourquoi j'suis meilleur que toi non ? Parce que le rap, moi, j'l'aime vraiment Le mic', j'le respecte, je répète chaque texte dans ma tête afin qu'il devienne dément Pendant que tu draguais des meufs devant les grilles J'remplissais des pages comme un te-bê, j'grattais des lignes J'rêvais d'avoir des fans pendant qu'tu fumais des spliffs Je grattais des open mic' comme un taré dans toute la ville Et quand tu t'es décidé à rapper quelques rimes, j'avais déjà fini mon premier CD, tu piges ? Débile, j'éclipse les types qui disent depuis deux piges qu'ils vivent pour l'rap, les artistes m'épuisent Ils sont 10 000 dans la salle, j'monte sur scène comme s'ils étaient 4 Ça fait des années qu'j'suis tous les soirs en spectacle, j'aimerais connaître ce que vous appelez l'trac Mes putains d'sons te font bouger la tête et te dressent l'épiderme, qu'on leur amène des minerves Ma mine est un monument, je manie le mic' manuellement, j'élimine tous les mecs, ramène-moi même Eminem Ladies and gentlemen, ne testez pas le phénomène ou je te plante dans l'abdomen Les sons de merde, c'est leur domaine, des fois, le soir, j'entends des voix de spécimens qui m'amènent des milliers de mélodies et d'idées surhumaines Ils ont minimisé le man quand j'étais au minimum, maintenant, ils imitent même la marque et la forme de mon mic' Mais le môme face aux momies a fait mille fois plus de maille Le millésime est millimétré, je les élimine, je les mets mal On cassera tous les obstacles, on restera au top dans c'rap, j'insiste ouais, ouais Sur la tête du frère de Volts Face, sur la tête du frère de Hayce Lemsi Hayce Lemsi Rappelle-moi, tu parles à qui ? Ne m'appelle plus la famille, ami ou poto Jacques a dit Rappez vite, les Zéniths sont d'jà remplis, mais pourquoi j'fais d'la promo' ? J'crache ma rage comme une Kalash' d'Albanie quand j'rappe ma vie seul et tard au micro Faut compter sur nous à l'avenir ah ouais ?, sur la tête du frère de Bigflo You might also like J'ai débité dans des maisons closes et des open mic', mal-aimé par civils, poulets dans une Opel noire Avant de savourer célébrité, chiller dans l'penthouse, j'lâchais des freestyles téléguidés pour les mecs du squa' J'dilapidais tout le bénéf' de mon stup' dans l'stud', j'faisais des afters avec des bikows jusque dans l'Sud Tous les serpents de l'industrie veulent investir, penses-tu qu'j'ai fait tout ce chemin pour sombrer dans l'côté obscur ? Brr, brr J'vois que l'bigo bugue en balle, un tas de labels veulent me développer moi l'indépendant vendeur de lamelles ?! Ils savent pas sur quel pied danser, souliers dans d'la merde, d'l'hémoglobine de parolier sous mes dents d'la mer, hey J'ai rappé de mars à févri', hey, pour que tous mes jours soient féri', hey Sur la tête du frèguere de Bigfloguo, j'ai les poches trop p'tites pour tous ces bi', hey Des impacts de Kala', Kala' sur les cadavres et le carrelage, on a canardé leurs carrières en décadence sans décalage Et ça défonce tous les barrages, en soirée, ça vend des parach' Et débarrasse le plancher avant qu'les bleus arrivent, on s'arrache. Fiche de recherche, t'es wanted comme Sarah Les rappeurs continuent à faire d'la merde tant qu'ça marche, j'vais leur faire la guerre comme Chirak Et j'ai mis deux mille mots dix mille demain au minimum et la mine au milli-millimètre Eeny, meeny, miny, moe, moi, j'ai le record du 1000 mètres Vis parmi les animaux, mélomane aux mille mélodies, mal-aimé par le monde et les êtres Vis parmi les animaux, mélomane aux mille mélodies, mal-aimé par le monde et les êtres Avant d'partir, j'vais tous me les faire J'peux pas mentir sur la tête de mon frère J'ai lu l'avenir dans les yeux d'ma mère J'le jure, j'le jure sur la tête de mon frère Sur la tête de mon frère, tête de mon frère J'le jure, j'le jure sur la tête de mon frère Sur la tête de mon frère, tête de mon frère J'le jure, j'le jure sur la tête de mon frère Poto, rien qu'ça jacte, poto, rien qu'ça jacte, allez, ferme ta chatte, allez, ferme ta chatte J'ai grandi parmi les bandits, les Gandhi, j'ai quitté l'école tôt, rien à faire d'la fac On arrive et tu l'as senti, t'es gentil, j'suis posé dans l'Merco, rien à faire d'la BAC Ouais, j'connais beaucoup de gens qui nous envient, j'ai défié la chance trop et si j'perds, j'la braque Quand c'était la merde, dis-moi où t'étais hein ?, sur la tête de Bigflo, j'vais tout péter Tu veux mon cur ou tu veux ma CB ? J'ai commis des choses que je n'peux pas regretter nan, nan C'est la fête, pourtant, y a rien à fêter ouh, j'me la pète, gros, j'en ai rien à péter ouh Tu les aides mais personne viendra t'aider, j'arrive en VTT puis repars en TT ouh Faire du sale, j'en ai l'habitude hey, hey, hey, j'suis charismatique dans mon attitude Comment t'en sortir quand t'as pas les thunes ? Dis à mes ennemis qu't'inquiète pas, j'les fume hey, hey, hey J'ai grandi dans l'tieks, dans la capitale, j'ai baisé l'amour comme un animal Une erreur, tu sautes, gros c'est radical, il m'reste quelques frères, j'm'en sors pas si mal pah, pah, pah Ne m'pose plus de questions, je n'parle plus, je ré-ti On sait gérer la pression, une Kalash' dans la rétine Ma daronne avait raison très calme d'puis la tétine Et j'rappe à toutes les saisons, dis-moi quand l'succès fait signe Avec le poto Hayce et son frère Volts Face, on est beaucoup trop chauds, ouais, faut qu'on en parle poh, poh Je n'ai pas signé d'pacte, nan, je reste intact, j'suis tellement en avance, dis-moi quand tu reçois l'impact Et j'vends tellement d'albums, j'dois les vendre par pack tiens, tiens, tiens Comme les cacahuètes que nous vendent les Pak-Pak Ils sont bons mais sans charisme comme un joli plat d'pâtes Elle fait genre qu'elle s'en fout mais elle finira à quatre pattes Et la montre fait tic-tac, tic-tac, oui, je m'éloigne de la Flic-Flac p'tit à p'tit Cannabis dans le Eastpack, tu ne réalises pas le taff que j'ai fait pour y arriver Hasta la vista, mon ami, on n'avait pas de quoi se saper en Kiabi J'suis rare et discret comme un okapi, toi, tu ne penses qu'aux filles appétissantes comme des Big Mac Mec, ressaisis-toi, le chemin de la victoire ne s'écrit pas sans sueur J'ai gravi l'escalier marche par marche, il n'y avait pas d'ascenseur Et quand tout va mal, que t'as pas d'espoir et que t'as comme un trou dans l'cur Dis-toi qu'on est plein comme toi dans le noir quand tous les soirs, tu te sens seul allez J'ai des milliers de mots au fond du palais qui te balaient Fais pas genre tu t'en bats les, bats les, tu ne peux pas faire pareil Tu t'es emballé et t'as parlé dans mon dos, dans mon sommeil Tu t'es recalmé parce que, devant moi, tu bu-bu-bu-bugguais On attend, je me balade comme un pacha dans mon palais Et j'suis calé dans les palaces desquels tu t'es fait recaler Il fallait pas, tu vas t'faire empaler alors gars bats les pattes Et okay, c'est du hockey, j'suis la crosse et toi, le palet, paw Avant d'partir, j'vais tous me les faire J'peux pas mentir sur la tête de mon frère J'ai lu l'avenir dans les yeux d'ma mère J'le jure, j'le jure sur la tête de mon frère Sur la tête de mon frère, tête de mon frère J'le jure, j'le jure sur la tête de mon frère Sur la tête de mon frère, tête de mon frère J'le jure, j'le jure sur la tête de mon frère</t>
+          <t>Bigflo Oli, tu connais, non ? ADAL 2 Hayce Lemsi, Volts Face, tu connais aussi, non ? Ouh, ouh, ouh Hayce Lemsi, Oli, on y va Touche pas à mon frère Sur la tête de mon frère Tu voulais du rap, hein ? Tu sais pourquoi j'suis meilleur que toi non ? Parce que le rap, moi, j'l'aime vraiment Le mic', j'le respecte, je répète chaque texte dans ma tête afin qu'il devienne dément Pendant que tu draguais des meufs devant les grilles J'remplissais des pages comme un te-bê, j'grattais des lignes J'rêvais d'avoir des fans pendant qu'tu fumais des spliffs Je grattais des open mic' comme un taré dans toute la ville Et quand tu t'es décidé à rapper quelques rimes, j'avais déjà fini mon premier CD, tu piges ? Débile, j'éclipse les types qui disent depuis deux piges qu'ils vivent pour l'rap, les artistes m'épuisent Ils sont 10 000 dans la salle, j'monte sur scène comme s'ils étaient 4 Ça fait des années qu'j'suis tous les soirs en spectacle, j'aimerais connaître ce que vous appelez l'trac Mes putains d'sons te font bouger la tête et te dressent l'épiderme, qu'on leur amène des minerves Ma mine est un monument, je manie le mic' manuellement, j'élimine tous les mecs, ramène-moi même Eminem Ladies and gentlemen, ne testez pas le phénomène ou je te plante dans l'abdomen Les sons de merde, c'est leur domaine, des fois, le soir, j'entends des voix de spécimens qui m'amènent des milliers de mélodies et d'idées surhumaines Ils ont minimisé le man quand j'étais au minimum, maintenant, ils imitent même la marque et la forme de mon mic' Mais le môme face aux momies a fait mille fois plus de maille Le millésime est millimétré, je les élimine, je les mets mal On cassera tous les obstacles, on restera au top dans c'rap, j'insiste ouais, ouais Sur la tête du frère de Volts Face, sur la tête du frère de Hayce Lemsi Hayce Lemsi Rappelle-moi, tu parles à qui ? Ne m'appelle plus la famille, ami ou poto Jacques a dit Rappez vite, les Zéniths sont d'jà remplis, mais pourquoi j'fais d'la promo' ? J'crache ma rage comme une Kalash' d'Albanie quand j'rappe ma vie seul et tard au micro Faut compter sur nous à l'avenir ah ouais ?, sur la tête du frère de Bigflo J'ai débité dans des maisons closes et des open mic', mal-aimé par civils, poulets dans une Opel noire Avant de savourer célébrité, chiller dans l'penthouse, j'lâchais des freestyles téléguidés pour les mecs du squa' J'dilapidais tout le bénéf' de mon stup' dans l'stud', j'faisais des afters avec des bikows jusque dans l'Sud Tous les serpents de l'industrie veulent investir, penses-tu qu'j'ai fait tout ce chemin pour sombrer dans l'côté obscur ? Brr, brr J'vois que l'bigo bugue en balle, un tas de labels veulent me développer moi l'indépendant vendeur de lamelles ?! Ils savent pas sur quel pied danser, souliers dans d'la merde, d'l'hémoglobine de parolier sous mes dents d'la mer, hey J'ai rappé de mars à févri', hey, pour que tous mes jours soient féri', hey Sur la tête du frèguere de Bigfloguo, j'ai les poches trop p'tites pour tous ces bi', hey Des impacts de Kala', Kala' sur les cadavres et le carrelage, on a canardé leurs carrières en décadence sans décalage Et ça défonce tous les barrages, en soirée, ça vend des parach' Et débarrasse le plancher avant qu'les bleus arrivent, on s'arrache. Fiche de recherche, t'es wanted comme Sarah Les rappeurs continuent à faire d'la merde tant qu'ça marche, j'vais leur faire la guerre comme Chirak Et j'ai mis deux mille mots dix mille demain au minimum et la mine au milli-millimètre Eeny, meeny, miny, moe, moi, j'ai le record du 1000 mètres Vis parmi les animaux, mélomane aux mille mélodies, mal-aimé par le monde et les êtres Vis parmi les animaux, mélomane aux mille mélodies, mal-aimé par le monde et les êtres Avant d'partir, j'vais tous me les faire J'peux pas mentir sur la tête de mon frère J'ai lu l'avenir dans les yeux d'ma mère J'le jure, j'le jure sur la tête de mon frère Sur la tête de mon frère, tête de mon frère J'le jure, j'le jure sur la tête de mon frère Sur la tête de mon frère, tête de mon frère J'le jure, j'le jure sur la tête de mon frère Poto, rien qu'ça jacte, poto, rien qu'ça jacte, allez, ferme ta chatte, allez, ferme ta chatte J'ai grandi parmi les bandits, les Gandhi, j'ai quitté l'école tôt, rien à faire d'la fac On arrive et tu l'as senti, t'es gentil, j'suis posé dans l'Merco, rien à faire d'la BAC Ouais, j'connais beaucoup de gens qui nous envient, j'ai défié la chance trop et si j'perds, j'la braque Quand c'était la merde, dis-moi où t'étais hein ?, sur la tête de Bigflo, j'vais tout péter Tu veux mon cur ou tu veux ma CB ? J'ai commis des choses que je n'peux pas regretter nan, nan C'est la fête, pourtant, y a rien à fêter ouh, j'me la pète, gros, j'en ai rien à péter ouh Tu les aides mais personne viendra t'aider, j'arrive en VTT puis repars en TT ouh Faire du sale, j'en ai l'habitude hey, hey, hey, j'suis charismatique dans mon attitude Comment t'en sortir quand t'as pas les thunes ? Dis à mes ennemis qu't'inquiète pas, j'les fume hey, hey, hey J'ai grandi dans l'tieks, dans la capitale, j'ai baisé l'amour comme un animal Une erreur, tu sautes, gros c'est radical, il m'reste quelques frères, j'm'en sors pas si mal pah, pah, pah Ne m'pose plus de questions, je n'parle plus, je ré-ti On sait gérer la pression, une Kalash' dans la rétine Ma daronne avait raison très calme d'puis la tétine Et j'rappe à toutes les saisons, dis-moi quand l'succès fait signe Avec le poto Hayce et son frère Volts Face, on est beaucoup trop chauds, ouais, faut qu'on en parle poh, poh Je n'ai pas signé d'pacte, nan, je reste intact, j'suis tellement en avance, dis-moi quand tu reçois l'impact Et j'vends tellement d'albums, j'dois les vendre par pack tiens, tiens, tiens Comme les cacahuètes que nous vendent les Pak-Pak Ils sont bons mais sans charisme comme un joli plat d'pâtes Elle fait genre qu'elle s'en fout mais elle finira à quatre pattes Et la montre fait tic-tac, tic-tac, oui, je m'éloigne de la Flic-Flac p'tit à p'tit Cannabis dans le Eastpack, tu ne réalises pas le taff que j'ai fait pour y arriver Hasta la vista, mon ami, on n'avait pas de quoi se saper en Kiabi J'suis rare et discret comme un okapi, toi, tu ne penses qu'aux filles appétissantes comme des Big Mac Mec, ressaisis-toi, le chemin de la victoire ne s'écrit pas sans sueur J'ai gravi l'escalier marche par marche, il n'y avait pas d'ascenseur Et quand tout va mal, que t'as pas d'espoir et que t'as comme un trou dans l'cur Dis-toi qu'on est plein comme toi dans le noir quand tous les soirs, tu te sens seul allez J'ai des milliers de mots au fond du palais qui te balaient Fais pas genre tu t'en bats les, bats les, tu ne peux pas faire pareil Tu t'es emballé et t'as parlé dans mon dos, dans mon sommeil Tu t'es recalmé parce que, devant moi, tu bu-bu-bu-bugguais On attend, je me balade comme un pacha dans mon palais Et j'suis calé dans les palaces desquels tu t'es fait recaler Il fallait pas, tu vas t'faire empaler alors gars bats les pattes Et okay, c'est du hockey, j'suis la crosse et toi, le palet, paw Avant d'partir, j'vais tous me les faire J'peux pas mentir sur la tête de mon frère J'ai lu l'avenir dans les yeux d'ma mère J'le jure, j'le jure sur la tête de mon frère Sur la tête de mon frère, tête de mon frère J'le jure, j'le jure sur la tête de mon frère Sur la tête de mon frère, tête de mon frère J'le jure, j'le jure sur la tête de mon frère</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Hasta la vista, faut qu'j'ramène de la moula pour mes sista J'te parle d'l'époque où j'débitais la Ganga Faut qu'j'ramène de la moula pour mes sista J'ouvre le frigo, y a rien à grailler, j'descends dans le binks Détailler, recompte la monnaie, encore un bicot dead J'ai mon tar-pé j'suis parano, comme un trafiquanté Me confie au piano, j'fume avant d'recompter Y'a plus de money J'pars au charbon, j'rappe, je deviens maître de cérémonie Young Halliday, j'suis en guitare, je n'ai pas la Rolly Si j'suis dans un coupé, j'me fais courser par la police J'te tourne autour, ta chatte sent le Jasmin Plus rapide que Busta, bientôt, il n'en reste qu'un Pute, c'est moi la re-sta, c'est moi qui paye le festin J'fais qu'regarder l'boulard, j'fais trop d'moula dans le mois J'sors le Quinte Flush, t'as la couleur, compare pas Ouais, tu connais, la moula, la moula, la vraie Ce soir, Nouvelle-Calédonie, demain, Chamonix sous camomille La ronne-da, les soldats, la Scampia, les frères, ici bas rien ne m'effraie Ce soir, j'suis en harmonie, j'ai ma money, ma jolie La moula, la moula, la moula, la vraie You might also like Petite chatte s'est égarée, je suis vétérinaire Elle sait qu'j'ai fait courir les gars d'chez elle et la BAC J'fais deux-cent pompes, charge le baille avant d'niquer des mères Kalachnikov bandoulière, iceberg dans le verre de Jack Quand je n'ai pas d'monnaie, qui va me venir en aide ? À quoi servent ces fils de pute à part trahir et parler ? J'ai fait des sacrifices toute ma vie car il le fallait J'voulais l'disque d'or Tu t'mêles de nos affaires mais personne t'a sonné Marche pas sur nos plates-bandes et traces, tu connais J'prends l'argent du beurre et la beurette Andalé Elle m'unfollow mais j'la baise Ouais, tu connais, la moula, la moula, la vraie Ce soir, Nouvelle-Calédonie, demain, Chamonix sous camomille La ronne-da, les soldats, la Scampia, les frères, ici bas rien ne m'effraie Ce soir, j'suis en harmonie, j'ai ma money, ma jolie La moula, la moula, la moula, la vraie Hasta la vista, faut qu'j'ramène de la moula pour mes sista J'te parle d'l'époque où j'débitais la Ganga Faut qu'j'ramène de la moula pour mes sista Hasta la vista, faut qu'j'ramène de la moula pour mes sista J'te parle d'l'époque où j'débitais la Ganga Faut qu'j'ramène de la moula pour mes sista Ouais, tu connais, la moula, la moula, la vraie Ce soir, Nouvelle-Calédonie, demain, Chamonix sous camomille La ronne-da, les soldats, la Scampia, les frères, ici bas rien ne m'effraie Ce soir, j'suis en harmonie, j'ai ma money, ma jolie La moula, la moula, la moula, la vraie1</t>
+          <t>Hasta la vista, faut qu'j'ramène de la moula pour mes sista J'te parle d'l'époque où j'débitais la Ganga Faut qu'j'ramène de la moula pour mes sista J'ouvre le frigo, y a rien à grailler, j'descends dans le binks Détailler, recompte la monnaie, encore un bicot dead J'ai mon tar-pé j'suis parano, comme un trafiquanté Me confie au piano, j'fume avant d'recompter Y'a plus de money J'pars au charbon, j'rappe, je deviens maître de cérémonie Young Halliday, j'suis en guitare, je n'ai pas la Rolly Si j'suis dans un coupé, j'me fais courser par la police J'te tourne autour, ta chatte sent le Jasmin Plus rapide que Busta, bientôt, il n'en reste qu'un Pute, c'est moi la re-sta, c'est moi qui paye le festin J'fais qu'regarder l'boulard, j'fais trop d'moula dans le mois J'sors le Quinte Flush, t'as la couleur, compare pas Ouais, tu connais, la moula, la moula, la vraie Ce soir, Nouvelle-Calédonie, demain, Chamonix sous camomille La ronne-da, les soldats, la Scampia, les frères, ici bas rien ne m'effraie Ce soir, j'suis en harmonie, j'ai ma money, ma jolie La moula, la moula, la moula, la vraie Petite chatte s'est égarée, je suis vétérinaire Elle sait qu'j'ai fait courir les gars d'chez elle et la BAC J'fais deux-cent pompes, charge le baille avant d'niquer des mères Kalachnikov bandoulière, iceberg dans le verre de Jack Quand je n'ai pas d'monnaie, qui va me venir en aide ? À quoi servent ces fils de pute à part trahir et parler ? J'ai fait des sacrifices toute ma vie car il le fallait J'voulais l'disque d'or Tu t'mêles de nos affaires mais personne t'a sonné Marche pas sur nos plates-bandes et traces, tu connais J'prends l'argent du beurre et la beurette Andalé Elle m'unfollow mais j'la baise Ouais, tu connais, la moula, la moula, la vraie Ce soir, Nouvelle-Calédonie, demain, Chamonix sous camomille La ronne-da, les soldats, la Scampia, les frères, ici bas rien ne m'effraie Ce soir, j'suis en harmonie, j'ai ma money, ma jolie La moula, la moula, la moula, la vraie Hasta la vista, faut qu'j'ramène de la moula pour mes sista J'te parle d'l'époque où j'débitais la Ganga Faut qu'j'ramène de la moula pour mes sista Hasta la vista, faut qu'j'ramène de la moula pour mes sista J'te parle d'l'époque où j'débitais la Ganga Faut qu'j'ramène de la moula pour mes sista Ouais, tu connais, la moula, la moula, la vraie Ce soir, Nouvelle-Calédonie, demain, Chamonix sous camomille La ronne-da, les soldats, la Scampia, les frères, ici bas rien ne m'effraie Ce soir, j'suis en harmonie, j'ai ma money, ma jolie La moula, la moula, la moula, la vraie1</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Bientôt mon biko ! Hayce Lemsi, missile téléguidée Immatriculé Paris Nord, numéro 17 Yeah x3 Il y'a des jours ou je me questionne Qu'Est-ce qui cloche? Quel costume faut-il porter pour quitter l'humidité du porch Mes proches me réconfortent de prêt quand c'est fêlée Ose refuser ce que la rue t'apporte On se téléporte tché chez ton boloss préféré Frappe a ta porte un jour férié, Tu clamse Hayce Fixé Violente tractions dans un bouquet de fleurs fanées Fallait prévoir, l'amitié que l'argent peut détruire Ignard, il s'agit de voir ce que le borgne peut décrire J'ai les critères d'un criminel de la rythmique Orh Lyriques à l'opinait sous l'imperméable hermétique Inopiné dans ma tactique T'attaques au crépuscule, intacte prends ta part et te bouscule Est-ce que tu captes en majuscule? XXX Harash et Brave La rue nous paye mais si l'oseille nous salit les queufs nous lavent parfois J'me demande ou mes pulsions vont me pousser et mon épouse et la poisse Ou que j'aille on finit par m'expulser! J'expose ma rancur sur son des dialogues entreprit Leurs éducateurs et psychologue n'auront jamais compritYou might also like</t>
+          <t>Bientôt mon biko ! Hayce Lemsi, missile téléguidée Immatriculé Paris Nord, numéro 17 Yeah x3 Il y'a des jours ou je me questionne Qu'Est-ce qui cloche? Quel costume faut-il porter pour quitter l'humidité du porch Mes proches me réconfortent de prêt quand c'est fêlée Ose refuser ce que la rue t'apporte On se téléporte tché chez ton boloss préféré Frappe a ta porte un jour férié, Tu clamse Hayce Fixé Violente tractions dans un bouquet de fleurs fanées Fallait prévoir, l'amitié que l'argent peut détruire Ignard, il s'agit de voir ce que le borgne peut décrire J'ai les critères d'un criminel de la rythmique Orh Lyriques à l'opinait sous l'imperméable hermétique Inopiné dans ma tactique T'attaques au crépuscule, intacte prends ta part et te bouscule Est-ce que tu captes en majuscule? XXX Harash et Brave La rue nous paye mais si l'oseille nous salit les queufs nous lavent parfois J'me demande ou mes pulsions vont me pousser et mon épouse et la poisse Ou que j'aille on finit par m'expulser! J'expose ma rancur sur son des dialogues entreprit Leurs éducateurs et psychologue n'auront jamais comprit</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Kran Max, Volts Face, Hayce Lem À midi, j'monte sur le rrain-té J'roule direct un solitaire Pour qu'on arrête de se tirer dessus faut plus qu'un concert Solidays Mon pote en HP m'reconnait plus sous l'effet des somnifères T'es comme un rat, tu penses aux arrivants dans le fond de la souricière On rêve d'une meuf qui a jamais sucé pour allaiter le nouveau-né Mais on claque tout le bénéf dans le Novotel On se retrouve donc avec une pute qui veut se refaire un nouveau nez et qui prendra ton banquier pour le Père Noël Alors ferme la, ne me demande pas d'où vient la Coke porte ! On est passé par la grande porte À des années lumières de ce que peuvent colporter ces cloportes Si tu portes lil chez nous, tu rentres borgne J'porte un toast à mes amours et mes ennemis Toi tu disparais pour un demi, tu fais le you-voi Au pire des tre-trai il arrive la pire des sères-mi Quand faut en découdre tu cours, tu fais la kurwa On est prêt pour la guerre Celui qui veut la faire va devoir descendre mes partenaires Tout le monde te tend la main quand t'es debout Y'a plus personne quand t'es par terre Oui c'est ma vie j'traîne seul tard dans la nuit Oui c'est ma vie j'traîne seul tard dans la nuit You might also like Destin sous scellé tristesse interminable J'ai vendu la dope dans l'anonymat Z1000, casqué j'arrive sans permis A Le fusil à pompe sous l'imperméable Mon écriture frôle la mélancolie C'est pour mes cranes rasés comme Feghouli Plus d'une fois menotté par les flics au lit Les petits du quartier préparent les collis J'me roule un pilon puis j'retire le collant Des fois j'me dit faut que j'les abatte Des fois j'me dit faut que j'étudie le Coran J'y pense en attendant mes clients dans un bat' J'ai fait grimper mon taux d'alcoolémie Et cette bitch dans un gam' Au fond du carré VIP, ils cotisent à 7 pour une 'teille sur la table On est pret pour la guerre Celui qui veut la faire va devoir descendre mes partenaires Tout le monde te tend la main quand t'es debout Y'a plus personne quand t'es par terre Oui c'est ma vie j'traîne seul tard dans la nuit Oui c'est ma vie j'traîne seul tard dans la nuit Tu m'as demandé du rap, j'vais te montrer comment faire Ma carrière un fusil, la tienne un lance-pierre Je découpe ton rappeur devant la France entière Après-demain tu seras là où j'étais avant-hier Dîtes aux ennemis qui veulent viser mon torse Que la miff' et moi on n'a pas peur Tu pourras jamais tirer sur mon gosse vu qu'il sort de la chatte à ta sur On va te repasser si tu sors le fer On va te repasser si tu sors le fer En guerre contre les fans comme la Palestine C'est peut-être pour ça que j'ai un cur en pierre J'aimerais savoir pourquoi tu parles de moi J'aimerais savoir pourquoi tu parles de moi J'tencule sur la prod' même si t'enlèves le beat Tinquiètes pour t'enculer il me reste encore le doigt X2 On est prêt pour la guerre Celui qui veut la faire va devoir descendre mes partenaires Tout le monde te tend la main quand t'es debout Y'a plus personne quand t'es par terre Oui c'est ma vie j'traîne seul tard dans la nuit Oui c'est ma vie j'traîne seul tard dans la nuit1</t>
+          <t>Kran Max, Volts Face, Hayce Lem À midi, j'monte sur le rrain-té J'roule direct un solitaire Pour qu'on arrête de se tirer dessus faut plus qu'un concert Solidays Mon pote en HP m'reconnait plus sous l'effet des somnifères T'es comme un rat, tu penses aux arrivants dans le fond de la souricière On rêve d'une meuf qui a jamais sucé pour allaiter le nouveau-né Mais on claque tout le bénéf dans le Novotel On se retrouve donc avec une pute qui veut se refaire un nouveau nez et qui prendra ton banquier pour le Père Noël Alors ferme la, ne me demande pas d'où vient la Coke porte ! On est passé par la grande porte À des années lumières de ce que peuvent colporter ces cloportes Si tu portes lil chez nous, tu rentres borgne J'porte un toast à mes amours et mes ennemis Toi tu disparais pour un demi, tu fais le you-voi Au pire des tre-trai il arrive la pire des sères-mi Quand faut en découdre tu cours, tu fais la kurwa On est prêt pour la guerre Celui qui veut la faire va devoir descendre mes partenaires Tout le monde te tend la main quand t'es debout Y'a plus personne quand t'es par terre Oui c'est ma vie j'traîne seul tard dans la nuit Oui c'est ma vie j'traîne seul tard dans la nuit Destin sous scellé tristesse interminable J'ai vendu la dope dans l'anonymat Z1000, casqué j'arrive sans permis A Le fusil à pompe sous l'imperméable Mon écriture frôle la mélancolie C'est pour mes cranes rasés comme Feghouli Plus d'une fois menotté par les flics au lit Les petits du quartier préparent les collis J'me roule un pilon puis j'retire le collant Des fois j'me dit faut que j'les abatte Des fois j'me dit faut que j'étudie le Coran J'y pense en attendant mes clients dans un bat' J'ai fait grimper mon taux d'alcoolémie Et cette bitch dans un gam' Au fond du carré VIP, ils cotisent à 7 pour une 'teille sur la table On est pret pour la guerre Celui qui veut la faire va devoir descendre mes partenaires Tout le monde te tend la main quand t'es debout Y'a plus personne quand t'es par terre Oui c'est ma vie j'traîne seul tard dans la nuit Oui c'est ma vie j'traîne seul tard dans la nuit Tu m'as demandé du rap, j'vais te montrer comment faire Ma carrière un fusil, la tienne un lance-pierre Je découpe ton rappeur devant la France entière Après-demain tu seras là où j'étais avant-hier Dîtes aux ennemis qui veulent viser mon torse Que la miff' et moi on n'a pas peur Tu pourras jamais tirer sur mon gosse vu qu'il sort de la chatte à ta sur On va te repasser si tu sors le fer On va te repasser si tu sors le fer En guerre contre les fans comme la Palestine C'est peut-être pour ça que j'ai un cur en pierre J'aimerais savoir pourquoi tu parles de moi J'aimerais savoir pourquoi tu parles de moi J'tencule sur la prod' même si t'enlèves le beat Tinquiètes pour t'enculer il me reste encore le doigt X2 On est prêt pour la guerre Celui qui veut la faire va devoir descendre mes partenaires Tout le monde te tend la main quand t'es debout Y'a plus personne quand t'es par terre Oui c'est ma vie j'traîne seul tard dans la nuit Oui c'est ma vie j'traîne seul tard dans la nuit1</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Planète RAP de Chilla, Instru Pray for em - Meek Mill Couplet 1 Le criminel interprète le rôle de la victime Les jurys se demanda a qui distribuer les Oscars Aucune confiance au gouvernement de la droite, la plus conservatrice a la gauche la plus sociale Poto t'es la tu nous parle Twenty Two T'as perdu one-one tu fait demi-tour Après shab tu fais la loi t'es vénère et tout pffff Vas-y laisse moi rire j'suis l'roi d'la jungle Lemsi-Mufasa XXX je ne bouffe pas ça Malgré le lourd passif on est tous pas sages Si demain je n'ai plus d'argent tu me laisse mourir ? Enfoiré de ta ra'Hayce j'ai une voix chelou Un rap chelou, j'suis pas d'la meme espece que vous On est au ché-tou Quand on rap chez nous tu veut faire mieux espece de fou Que vous parlez, vous parlez je ne vous calcul guère car j'ai la force mentale que vous n'avez pas Vous me regardez, m'regardez faire de l'argent toute l'année, vous restez statique vous ne bougez pas J'analyse tout, je manie tout, nique ton grand manitou Les gens qui ne me connaisse pas me prennent pour un gros sheitan Et j'ai toujours la tête qui tourne avant de kicker tout ces rappeurs J'ai la haine, la veine est sur le front comme Végéta J'suis dans tout mes états Plaide en faveur de l'égalité Mais ça ne vous choque pas Petit tu te sens thug en rappant des vulgarités Celle qui t'as éduquer ne te reconnais pas J'veux pas payer plein pot si ils élisent cette pute de sorcière Ils veulent moderniser la France a coup d'buldozers Utilisent l'argent de nos impôts pour des missiles sol-airs Bitch ! Yeah hoe You might also likeCouplet 2 Le jeune loup solitaire attire les chiennes en rute Les gens seront solidaires quand il pleuvra du fric Algérois, Soninkés font partis de ma hutte Un putain de sagittaire au mental anti-flic Anti-faya y'a ta feu-meu qui m'identifie Tous les locos les plus fadas m'authentifient Donnez moi disque d'or pour que j'relativise Tu sais kicker, t'es fort mais t'es mon petit fils Dis-moi, dis-moi qui m'a aidé Ne m'appelle pas j'ai des mamelles à téter Bandit de Bondy, zahef dans la Féfé Celle-là c'est pour moi xxx Je te brûle ton rap et nique la porte pare-feu Pas de tête à tête, venez deux par deux Tout est bien qui finit mal au sommet du règne animal Le shit, la coke et les armes à feu Je renais de mes cendres, hashtag Phoenix Et je suis trop bourré j'ai saccagé le Ritz J'tiens pas debout comme Lenny Kravitz Et j'insulte la mère des keufs en vérif' Bande de fils de pute Alger, Vieux Kouba la grande poste Aucune chance même si tu ripostes C'est bien toi que je visais pas ton pote Les balles ça ricochent, Big Lemsi Records Couplet 3 Tu fais dlizanagi, jézéirmur limbit ou tzikomoko savent que jai su profiter dun mal bien acquis Cest pas lhomme qui prend la mere, cest ma mère qua fait dmoi un homme sur ce globe ! Jte rentre ma Heineken dans la glotte ! Tout est dans lcalme, jsuis un génie comme geriko, loko tout est dans lcalme On a laissé ton équipe de PD dans lplatre ! On a laissé ton équipe de PD dans lplatre ! Yeah Oh ! Fais ça bien, jsuis dans lpullman en Balmain Mes ptits tidès su bouilin Neilleneille balance ça pour moins ! Jprends lapéro près dun peur attire une pute est paro tel-ho Fuck les dommages collatéraux, jamais elle ne me reverra ! Tu mets ton bénéfice dans bave, tu repars à zéro moi cest bikow, loko toujours paré Kaliméra Ils ont calé dans la mondéau, bitch ya pas de quoi faire un débat ! Jarrive direct suack mondéau, bitch y a pas de quoi faire un débat ! Sur ma hute, chaine en diadia sur ma hute Enni dix mille sur ta tête, je jette mes baskets sur ta pute ! Cocaine, cow boy, dévine, jporte le numéro 3 comme Alexandre Electron libre Volume 2 sortira au mois ddécembre !</t>
+          <t>Planète RAP de Chilla, Instru Pray for em - Meek Mill Couplet 1 Le criminel interprète le rôle de la victime Les jurys se demanda a qui distribuer les Oscars Aucune confiance au gouvernement de la droite, la plus conservatrice a la gauche la plus sociale Poto t'es la tu nous parle Twenty Two T'as perdu one-one tu fait demi-tour Après shab tu fais la loi t'es vénère et tout pffff Vas-y laisse moi rire j'suis l'roi d'la jungle Lemsi-Mufasa XXX je ne bouffe pas ça Malgré le lourd passif on est tous pas sages Si demain je n'ai plus d'argent tu me laisse mourir ? Enfoiré de ta ra'Hayce j'ai une voix chelou Un rap chelou, j'suis pas d'la meme espece que vous On est au ché-tou Quand on rap chez nous tu veut faire mieux espece de fou Que vous parlez, vous parlez je ne vous calcul guère car j'ai la force mentale que vous n'avez pas Vous me regardez, m'regardez faire de l'argent toute l'année, vous restez statique vous ne bougez pas J'analyse tout, je manie tout, nique ton grand manitou Les gens qui ne me connaisse pas me prennent pour un gros sheitan Et j'ai toujours la tête qui tourne avant de kicker tout ces rappeurs J'ai la haine, la veine est sur le front comme Végéta J'suis dans tout mes états Plaide en faveur de l'égalité Mais ça ne vous choque pas Petit tu te sens thug en rappant des vulgarités Celle qui t'as éduquer ne te reconnais pas J'veux pas payer plein pot si ils élisent cette pute de sorcière Ils veulent moderniser la France a coup d'buldozers Utilisent l'argent de nos impôts pour des missiles sol-airs Bitch ! Yeah hoe Couplet 2 Le jeune loup solitaire attire les chiennes en rute Les gens seront solidaires quand il pleuvra du fric Algérois, Soninkés font partis de ma hutte Un putain de sagittaire au mental anti-flic Anti-faya y'a ta feu-meu qui m'identifie Tous les locos les plus fadas m'authentifient Donnez moi disque d'or pour que j'relativise Tu sais kicker, t'es fort mais t'es mon petit fils Dis-moi, dis-moi qui m'a aidé Ne m'appelle pas j'ai des mamelles à téter Bandit de Bondy, zahef dans la Féfé Celle-là c'est pour moi xxx Je te brûle ton rap et nique la porte pare-feu Pas de tête à tête, venez deux par deux Tout est bien qui finit mal au sommet du règne animal Le shit, la coke et les armes à feu Je renais de mes cendres, hashtag Phoenix Et je suis trop bourré j'ai saccagé le Ritz J'tiens pas debout comme Lenny Kravitz Et j'insulte la mère des keufs en vérif' Bande de fils de pute Alger, Vieux Kouba la grande poste Aucune chance même si tu ripostes C'est bien toi que je visais pas ton pote Les balles ça ricochent, Big Lemsi Records Couplet 3 Tu fais dlizanagi, jézéirmur limbit ou tzikomoko savent que jai su profiter dun mal bien acquis Cest pas lhomme qui prend la mere, cest ma mère qua fait dmoi un homme sur ce globe ! Jte rentre ma Heineken dans la glotte ! Tout est dans lcalme, jsuis un génie comme geriko, loko tout est dans lcalme On a laissé ton équipe de PD dans lplatre ! On a laissé ton équipe de PD dans lplatre ! Yeah Oh ! Fais ça bien, jsuis dans lpullman en Balmain Mes ptits tidès su bouilin Neilleneille balance ça pour moins ! Jprends lapéro près dun peur attire une pute est paro tel-ho Fuck les dommages collatéraux, jamais elle ne me reverra ! Tu mets ton bénéfice dans bave, tu repars à zéro moi cest bikow, loko toujours paré Kaliméra Ils ont calé dans la mondéau, bitch ya pas de quoi faire un débat ! Jarrive direct suack mondéau, bitch y a pas de quoi faire un débat ! Sur ma hute, chaine en diadia sur ma hute Enni dix mille sur ta tête, je jette mes baskets sur ta pute ! Cocaine, cow boy, dévine, jporte le numéro 3 comme Alexandre Electron libre Volume 2 sortira au mois ddécembre !</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Mieux vaut servir au paradis que d'régner en enfer, no way T'as pas pris un radis tourné un an ferme assume ton rôle de père Va péter des pampers le temps passe en tempête mon pote éteins ton pers' reste concentré On refait 6 chiffres on s'retrouve en hess Pris en chasse par la marée chaussée Sur les marrés chaussés je reste branché Étrange mais j'vois d'jà ton armée se retrancher J'n'attendrai pas que sonne le clocher pour les enclencher boom-boom-boom-boom J'suis gaucher tu vois pas l'crochet faut pas t'approcher Inopiné l'opinel te charcle le back J'pète la Belleve' dans la boîte crânienne 2 bar' derrière le X, le V, X-ADV démarre KX est levé les minots veulent sauter des neiman Tellement de pression dans le box l'indic' témoigne Dans le box l'indic' témoigne Savent qui va devenir le boss dénigre les bails Kichta d'billets suffisent s'il s'agit d'ton âme-sur J'rentre pas seul j'ai laissé les passeurs chargés dans le patio Pas de hackeurs, pas de traqueurs Quand tu m'vois sortir du 4-Motions Et méfie toi d'qui tu vas t'entourer Qui s'ra là quand tu s'ras enterré, qui ? Et tu peux courir ça va t'Grrr Pah-Pah faut pas t'retourner J'pull up ces mecs comme Fredo Santana J'pull up la concu' Fredo Santana Ces rebeux sont tarés Tout ça pour la mama Ouais pour la madre You might also like Humain dénaturalisé dans ce bal masqué Relations s'dégradent deviennent infernales T'es mon frérot j'te laisse pas shlager J'peux t'sortir de la neige comme un Saint-Bernard Le juge veut savoir à qui j'ai passé l'arme Au parlu maman ne retiens plus ses larmes En vrai même à l'école ça s'passait mal Avec NB et ça cassait des gueules Morts de l'intérieur on vit pour le mal 10 ans plus tard on vivra pour le mic' Le range rover est noir et le 9 est tout neuf dans le manoir J'ai appris à mes dépends à dépenser sans sous À caser mes démons à la chaise musicale Calé dans l'Ghini j'ai fuego de Konoha Kichtaga colorée, calibré Gomorra Donneurs de go sur les nerfs ça va rafaler L'affamé profane sur la tombe d'un frère, sous les balles Fin d'année pleurer sans souffrir aux heures funéraires L'homme est égaré paraît qu'l'enfer c'est les autres Ils m'sous-estiment et 10 ans plus tard Ils sont v'nus m'cirer les pompes, pleurer des océans Remuer des tombes afin d'me réduire à néant Géant de l'indé j'suis sur l'terrain le gérant, gelato dans l' hémisphères cérébraux En treillis dans un massif forestier J'allume sur les flibustiers, et les généraux J'ai toujours du respect pour mon prochain Mais l'prochain qui gigotte, igo j'lui dévisse le cur À 14 piges on volait d'jà du biff à baver devant les vitrines de chez Foot Locker J'mets du champagne sur cette tchoin En attendant l'17 Juin Demande à Naps où ça va sortir La TN le 17 juin J'mets du champ', sur cette tchoin En attendant l'17 Juin Demande à Naps où ça va sortir C'est la TN 17 juin</t>
+          <t>Mieux vaut servir au paradis que d'régner en enfer, no way T'as pas pris un radis tourné un an ferme assume ton rôle de père Va péter des pampers le temps passe en tempête mon pote éteins ton pers' reste concentré On refait 6 chiffres on s'retrouve en hess Pris en chasse par la marée chaussée Sur les marrés chaussés je reste branché Étrange mais j'vois d'jà ton armée se retrancher J'n'attendrai pas que sonne le clocher pour les enclencher boom-boom-boom-boom J'suis gaucher tu vois pas l'crochet faut pas t'approcher Inopiné l'opinel te charcle le back J'pète la Belleve' dans la boîte crânienne 2 bar' derrière le X, le V, X-ADV démarre KX est levé les minots veulent sauter des neiman Tellement de pression dans le box l'indic' témoigne Dans le box l'indic' témoigne Savent qui va devenir le boss dénigre les bails Kichta d'billets suffisent s'il s'agit d'ton âme-sur J'rentre pas seul j'ai laissé les passeurs chargés dans le patio Pas de hackeurs, pas de traqueurs Quand tu m'vois sortir du 4-Motions Et méfie toi d'qui tu vas t'entourer Qui s'ra là quand tu s'ras enterré, qui ? Et tu peux courir ça va t'Grrr Pah-Pah faut pas t'retourner J'pull up ces mecs comme Fredo Santana J'pull up la concu' Fredo Santana Ces rebeux sont tarés Tout ça pour la mama Ouais pour la madre Humain dénaturalisé dans ce bal masqué Relations s'dégradent deviennent infernales T'es mon frérot j'te laisse pas shlager J'peux t'sortir de la neige comme un Saint-Bernard Le juge veut savoir à qui j'ai passé l'arme Au parlu maman ne retiens plus ses larmes En vrai même à l'école ça s'passait mal Avec NB et ça cassait des gueules Morts de l'intérieur on vit pour le mal 10 ans plus tard on vivra pour le mic' Le range rover est noir et le 9 est tout neuf dans le manoir J'ai appris à mes dépends à dépenser sans sous À caser mes démons à la chaise musicale Calé dans l'Ghini j'ai fuego de Konoha Kichtaga colorée, calibré Gomorra Donneurs de go sur les nerfs ça va rafaler L'affamé profane sur la tombe d'un frère, sous les balles Fin d'année pleurer sans souffrir aux heures funéraires L'homme est égaré paraît qu'l'enfer c'est les autres Ils m'sous-estiment et 10 ans plus tard Ils sont v'nus m'cirer les pompes, pleurer des océans Remuer des tombes afin d'me réduire à néant Géant de l'indé j'suis sur l'terrain le gérant, gelato dans l' hémisphères cérébraux En treillis dans un massif forestier J'allume sur les flibustiers, et les généraux J'ai toujours du respect pour mon prochain Mais l'prochain qui gigotte, igo j'lui dévisse le cur À 14 piges on volait d'jà du biff à baver devant les vitrines de chez Foot Locker J'mets du champagne sur cette tchoin En attendant l'17 Juin Demande à Naps où ça va sortir La TN le 17 juin J'mets du champ', sur cette tchoin En attendant l'17 Juin Demande à Naps où ça va sortir C'est la TN 17 juin</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Jordan, Jordan, Jordan, Balmont, Balenciaga Fait péter à des années lumières sur la playa J'descends de la montagne en rappel J'prend les cascade en kayak Des loss', des armes, du sexe, des larmes 17ème intifada Épargne-moi tes pipos, sortir le chimayer Passe le permis de visite si je raffale ces bikos Bitch, pourquoi tu veut savoir si je suis marié ? J'suis ce young boss Ok, j'suis décalé, je suis ce roi seul dans son palais Tire deux barres sur mon népalais Je sais que ces pédales ne pourront pas m'égaler Je suis dans la gova j'fais des lov' yeah Esprit noir my nigga champagne papi tah le ouh Saitama volts face la punchline enflamée ouh Et j'ai le barreau je la fais twerker tah les ouf Elle dit qu'elle est parti pisser J'pète les boulons elle est où Jordan, Jordan, Jordan, Balmont, Balenciaga Fait péter à des années lumières sur la playa Des loss', des armes, du sexe, des larmes 17ème intifada You might also likeCe soir tes ma grosse folle bitch tu m'a rendu fada Mbabie, mbabié, mbabié, mbabié, mbabié bendo Je suis dans le fond du hall Coup d'extendo Champagne, champagne, champagne shower Dans ta façade Pouki, pouki, pouki dans le coffre de la classe A Nan tes pas dans l'équipe biko moi je porte le brassard Jordan, Jordan, Jordan, Jordan, Jordan jo Elle veut son sac fendji Louis vui fendji jo On est les plus fort du game espèce d'idiot !</t>
+          <t>Jordan, Jordan, Jordan, Balmont, Balenciaga Fait péter à des années lumières sur la playa J'descends de la montagne en rappel J'prend les cascade en kayak Des loss', des armes, du sexe, des larmes 17ème intifada Épargne-moi tes pipos, sortir le chimayer Passe le permis de visite si je raffale ces bikos Bitch, pourquoi tu veut savoir si je suis marié ? J'suis ce young boss Ok, j'suis décalé, je suis ce roi seul dans son palais Tire deux barres sur mon népalais Je sais que ces pédales ne pourront pas m'égaler Je suis dans la gova j'fais des lov' yeah Esprit noir my nigga champagne papi tah le ouh Saitama volts face la punchline enflamée ouh Et j'ai le barreau je la fais twerker tah les ouf Elle dit qu'elle est parti pisser J'pète les boulons elle est où Jordan, Jordan, Jordan, Balmont, Balenciaga Fait péter à des années lumières sur la playa Des loss', des armes, du sexe, des larmes 17ème intifada Ce soir tes ma grosse folle bitch tu m'a rendu fada Mbabie, mbabié, mbabié, mbabié, mbabié bendo Je suis dans le fond du hall Coup d'extendo Champagne, champagne, champagne shower Dans ta façade Pouki, pouki, pouki dans le coffre de la classe A Nan tes pas dans l'équipe biko moi je porte le brassard Jordan, Jordan, Jordan, Jordan, Jordan jo Elle veut son sac fendji Louis vui fendji jo On est les plus fort du game espèce d'idiot !</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Paroles de Haycelloween Le sourire du Joker On enterre pas un zombie Hayce Lemsi J'me rappelle que cette pute voulait pas d'moi mais maintenant j'ai glow, elle pense qu'à boire du Ruinard sur le boat Elle étaient pas là quand j'faisais partir des boites, gloryboy du Hannah, traces de griffes sur le dos Bikow, c'est ton binôme qui va donner le go, en guitare au mitard, même pas d'quoi faire un doré T'envoies ta meuf au parloir avec ton co', t'aurais jamais dû tenter le diable, bikow J'bicrave des grosses quantités d'vérité, j'récupère le bénéfice du doute, bikow J'reprends le game en toute sérénité, tout niquer, j'ai pas peur, j'suis né pour, bikow J'ai toujours su qu'un jour j'ferais partie d'l'élite, j'en ai bouffé des chattes, j'en ai bouffé des livres Écoulé des litres, d'quoi leur faire garder la ligne et leurs putes sont plus jeunes que ma vigne Méga crochet, revers et tu perds deux dents, j'envois tellement de vers que tu t'perds dedans Tu m'a trahis, tu reviens mais nique ta mère, pleure une rivière que j'me baigne dedans Semi-automatique sur le tableau de bord, j'roule avec Jamel, Areski, Pablo le borgne Observe bien mes cernes, il est rare que je dorme, Édouard aux mains d'argent récupère disque d'or Paris proud of me, j'fais les bails 3ami, j'ai un nine on me, nouvelle économie J'tire sur les faux pharaons, la beldi' s'effrite comme la momie, j'fais sauter ta Rolly J'compte faire un massacre à la tronçonneuse, j'ferais l'nécessaire pour qu'leur buzz s'écroule Cinq ou six trous dans ta grosse citrouille, j'suis rien d'plus qu'un algérien qui porte ses couilles C'est des trompettes, ils ont pas d'guitare, j'connais l'game par cur, j'ai le guide du routard J'fais tomber les motards, c'est pas demain la veille qu'tu verra Freddy Krueger vivre aux frais d'une cougar J'envoie des p'tits kalashés sous Poliakov, ne serait-ce que pour t'arracher ta glotte et ta Golf J'suis dans la maison hantée, j'élabore, avec Matcho Bang Bang, on fait biff à ras bord C'est la famille d'abord, les putains après, j'aime sentir le moteur lorsque j'passe les rapports Sentir le moteur quand j'passe les rapports et suivre le menteur jusqu'au pas d'sa porte J'viens de là où le bruit et l'odeur s'accordent, han et l'odeur s'accordent C'est l'retour d'Lemsi, j'entends déjà les microbes tenir La sacoche Louis Vuitton m3mra b' cocaina, ravitaille les zombies, tire comme Toto Riina Je n'porte pas d'or, ni d'fourrure toute en renard, j'suis la tornade, le tsunami interminable J'ai le sourire de Chucky, han, et le même regard que Frankenstein J'reviens les choquer, han, j'ai toujours essayer d'm'approcher d'la folie d'Einstein Ils s'prennent pour Lil Baby, j'les éteins, j'les perfore, ils font tout pour le clout, y'en à peu qui performent Rien ne sert de forcer, tu deviendras quelqu'un le jour où tu comprendras qu't'es personne J't'ai dis c'est plus du rap, c'est des coups d'couteaux, j'suis le chef de la meute, j'ai beaucoup d'louveteaux Dis moi quel fils de pute veut la peau d'Lemsi, ma Kalash fait danser le kuduro Quand on était môme, on construisait des légos, dix ans plus tard, on s'détruit juste pour de l'égo T'as pas écouté le bikow loco, c'est ton binôme qui a donné le go skrrrYou might also like</t>
+          <t>Paroles de Haycelloween Le sourire du Joker On enterre pas un zombie Hayce Lemsi J'me rappelle que cette pute voulait pas d'moi mais maintenant j'ai glow, elle pense qu'à boire du Ruinard sur le boat Elle étaient pas là quand j'faisais partir des boites, gloryboy du Hannah, traces de griffes sur le dos Bikow, c'est ton binôme qui va donner le go, en guitare au mitard, même pas d'quoi faire un doré T'envoies ta meuf au parloir avec ton co', t'aurais jamais dû tenter le diable, bikow J'bicrave des grosses quantités d'vérité, j'récupère le bénéfice du doute, bikow J'reprends le game en toute sérénité, tout niquer, j'ai pas peur, j'suis né pour, bikow J'ai toujours su qu'un jour j'ferais partie d'l'élite, j'en ai bouffé des chattes, j'en ai bouffé des livres Écoulé des litres, d'quoi leur faire garder la ligne et leurs putes sont plus jeunes que ma vigne Méga crochet, revers et tu perds deux dents, j'envois tellement de vers que tu t'perds dedans Tu m'a trahis, tu reviens mais nique ta mère, pleure une rivière que j'me baigne dedans Semi-automatique sur le tableau de bord, j'roule avec Jamel, Areski, Pablo le borgne Observe bien mes cernes, il est rare que je dorme, Édouard aux mains d'argent récupère disque d'or Paris proud of me, j'fais les bails 3ami, j'ai un nine on me, nouvelle économie J'tire sur les faux pharaons, la beldi' s'effrite comme la momie, j'fais sauter ta Rolly J'compte faire un massacre à la tronçonneuse, j'ferais l'nécessaire pour qu'leur buzz s'écroule Cinq ou six trous dans ta grosse citrouille, j'suis rien d'plus qu'un algérien qui porte ses couilles C'est des trompettes, ils ont pas d'guitare, j'connais l'game par cur, j'ai le guide du routard J'fais tomber les motards, c'est pas demain la veille qu'tu verra Freddy Krueger vivre aux frais d'une cougar J'envoie des p'tits kalashés sous Poliakov, ne serait-ce que pour t'arracher ta glotte et ta Golf J'suis dans la maison hantée, j'élabore, avec Matcho Bang Bang, on fait biff à ras bord C'est la famille d'abord, les putains après, j'aime sentir le moteur lorsque j'passe les rapports Sentir le moteur quand j'passe les rapports et suivre le menteur jusqu'au pas d'sa porte J'viens de là où le bruit et l'odeur s'accordent, han et l'odeur s'accordent C'est l'retour d'Lemsi, j'entends déjà les microbes tenir La sacoche Louis Vuitton m3mra b' cocaina, ravitaille les zombies, tire comme Toto Riina Je n'porte pas d'or, ni d'fourrure toute en renard, j'suis la tornade, le tsunami interminable J'ai le sourire de Chucky, han, et le même regard que Frankenstein J'reviens les choquer, han, j'ai toujours essayer d'm'approcher d'la folie d'Einstein Ils s'prennent pour Lil Baby, j'les éteins, j'les perfore, ils font tout pour le clout, y'en à peu qui performent Rien ne sert de forcer, tu deviendras quelqu'un le jour où tu comprendras qu't'es personne J't'ai dis c'est plus du rap, c'est des coups d'couteaux, j'suis le chef de la meute, j'ai beaucoup d'louveteaux Dis moi quel fils de pute veut la peau d'Lemsi, ma Kalash fait danser le kuduro Quand on était môme, on construisait des légos, dix ans plus tard, on s'détruit juste pour de l'égo T'as pas écouté le bikow loco, c'est ton binôme qui a donné le go skrrr</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Voilà Hayce Lem-Siffleur de teilles Feuilles à la Bubble Gum poto Bi-Bilico c'est pas d'ma faute, j'suis faya sur l'album photo J'fais d'trop d'feats fous d'l'efferalgan Murmure une disquette à la tayce-pé, casse les beuj' et le reste Petits biceps et 17 meujs d'afghan, tac-le-le beat j'suis assis Au fond d'un petit coffee-shop Classic Affaire numéro drogue vlyce farcis Nehlele vite y'a des garces et des gar-ci Garcon Sert Hennessy sans glaçon merci, un dernier khalass l'inertie, effriter hash et sensi Every day i'm Hayce Lemsi Caramelo mic élimine les mélomanes Carrément foolek on élimine mille grammes A l'heure polopopo que la purple est grasse Elle est restée coincée dans le grinder Allez gros t'endors pas sur la ke-Skon Qu'est-ce qu'on attend pour mettre une rotte-Ca, vodka Pote-ca, Red light District frappe Algérienne crème du roc-Ma Rythmique domptée par l'insomniaque, zoulou darbouka tam-tam Ha-Ha j'ai zoum-zoum zen ta zouz en soum-soum dans ton tem-tem Ha-Ha j'ai la rime et le reste, baratine les miss, élimine les masses Ha-Ha j'ai la rime et le reste, baratine les miss, élimine les masses Ha-Ha j'ai la rime et le reste, baratine les miss, élimine les massesYou might also like1</t>
+          <t>Voilà Hayce Lem-Siffleur de teilles Feuilles à la Bubble Gum poto Bi-Bilico c'est pas d'ma faute, j'suis faya sur l'album photo J'fais d'trop d'feats fous d'l'efferalgan Murmure une disquette à la tayce-pé, casse les beuj' et le reste Petits biceps et 17 meujs d'afghan, tac-le-le beat j'suis assis Au fond d'un petit coffee-shop Classic Affaire numéro drogue vlyce farcis Nehlele vite y'a des garces et des gar-ci Garcon Sert Hennessy sans glaçon merci, un dernier khalass l'inertie, effriter hash et sensi Every day i'm Hayce Lemsi Caramelo mic élimine les mélomanes Carrément foolek on élimine mille grammes A l'heure polopopo que la purple est grasse Elle est restée coincée dans le grinder Allez gros t'endors pas sur la ke-Skon Qu'est-ce qu'on attend pour mettre une rotte-Ca, vodka Pote-ca, Red light District frappe Algérienne crème du roc-Ma Rythmique domptée par l'insomniaque, zoulou darbouka tam-tam Ha-Ha j'ai zoum-zoum zen ta zouz en soum-soum dans ton tem-tem Ha-Ha j'ai la rime et le reste, baratine les miss, élimine les masses Ha-Ha j'ai la rime et le reste, baratine les miss, élimine les masses Ha-Ha j'ai la rime et le reste, baratine les miss, élimine les masses1</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Electron libre Yeah La toison d'or sur lépaule droite L'horizon j'matte Le coucher de soleil avant la floraison Dans cette chienne de vie on obtient jamais rien sans s'battre L'homme est mauvais lorsqu'il abandonne un nourrisson Moi, j'suis là le regard écarquillé, les mains moites Elle se dandine comme la vipère autour du bâton Nos déclarations sont maladroites L'argent facile est un sprint en plein marathon Moi, j'redige mon vécu dans un coin de l'appart' J'ai trempé la qualam dans l'encre, le sort est lancé J'rêve de visiter les quatres coins de la carte Maman me demande ce que j'attends pour me fiancer Doucement sur le pollen Hayce Lem' les abeilles veulent ton miel T'as ton name dans le game dégaine rengaine again Tu reignes entre deux guerres, tout se paye La substance est dans le mixeur Et je bouge de la cabeza comme un hipster On voulait juste rouler dans le dernier classe S Offrir des études à l'étranger pour nos petites soeurs On refuse d'admettre ce qui nous contrarie De ma vie je n'ai connu que les ghettos de Paris Je veux voir les kangourous à Sydney en Australie C'est juste l'autobiographie d'un young boss many La vie vaut-elle dêtre vécue sans amour de l'argent ? Oui, la vie vaut-elle dêtre vécue sans prendre le large, nan ? Nan, l'impression d'avoir deja trop vécu pour mon âge Oublie les strass et les paillettes pour la vie sauvage On se rappelle vite d'où l'on vient lorsque arrive l'orage Mon inspiration débute aux premiers feux de l'aurore Elle veut que je reste là, elle veut que je reste sage Elle me dit You should stay right now A nos amours, à nos ennemis, nos amis, nos victoires et nos défaites Au fond, de quoi la vie est faite ? La vérité se manifeste un jour ou l'autre many, elle me dit You should stay right now Parce qu'on a peur qu'un jour nos parents n'aient plus la santé Peur de ne plus sortir une fois qu'on y est rentré Comme un parloir fantôme dans une prison hantée You should stay right now Et tu te rassures en pensant que l'enfer c'est les autres L'horreur est humaine, regarde ce qu'on détruit les hommes Ce qu'ils ont fait dans les forêts, les déserts, et les eaux You should stay right now You, je sais right now, grâce à l'amour que me porte la Hayce Lem' team J'ai de quoi garder le sourire jusqu'à la fin de ma life Je vous aime You should stay right now Ahah, jusqu'à la fin de ma life Yeah, jusqu'à la fin de ma life You should stay right now J'suis décalé, je n'ai pas dormi de la night Je les vois s'égarer, dans la vie y'a pas que la maille House Lemsi Je ne dors pas quand tu n'es plus là Une histoire d'amour des plus virulentes Tu m'as sucé le sang, Caligula Tu avais tout d'une femme indépendante Oui, demain c'est loin qui vivra verra Le regard injecté dhémoglobine sous les lunettes Je veux juste qu'on se réconcilie sous les draps J'en vois le visage de l'enfant que je n'ai vu naître Oui, je veux que le paradis soit sous tes pieds Et je pose ma mélancolie sur le trépied Sans toi, je trouve que la vie n'a rien de trépidant J'marche seul, mais j'ai l'impression dêtre épié Je trébuche et me relève à chaque obstacle du dessin Je dois prendre l'air, j'ai mes raisons J'ai mangé les raisins de la colère Tu m'exposes à la foudre sans paratonnerre De la poudre de mensonge, des paroles en l'air Do you remember the time When nothing was wrong when our hopes were so high We dreamed about starting a life Through good and through bad Hand in hand side by side Memories fly all over my mind The things you would hide Smiling with pride lie over lie You were so alive And i was so faded but i realized !!You might also like</t>
+          <t>Electron libre Yeah La toison d'or sur lépaule droite L'horizon j'matte Le coucher de soleil avant la floraison Dans cette chienne de vie on obtient jamais rien sans s'battre L'homme est mauvais lorsqu'il abandonne un nourrisson Moi, j'suis là le regard écarquillé, les mains moites Elle se dandine comme la vipère autour du bâton Nos déclarations sont maladroites L'argent facile est un sprint en plein marathon Moi, j'redige mon vécu dans un coin de l'appart' J'ai trempé la qualam dans l'encre, le sort est lancé J'rêve de visiter les quatres coins de la carte Maman me demande ce que j'attends pour me fiancer Doucement sur le pollen Hayce Lem' les abeilles veulent ton miel T'as ton name dans le game dégaine rengaine again Tu reignes entre deux guerres, tout se paye La substance est dans le mixeur Et je bouge de la cabeza comme un hipster On voulait juste rouler dans le dernier classe S Offrir des études à l'étranger pour nos petites soeurs On refuse d'admettre ce qui nous contrarie De ma vie je n'ai connu que les ghettos de Paris Je veux voir les kangourous à Sydney en Australie C'est juste l'autobiographie d'un young boss many La vie vaut-elle dêtre vécue sans amour de l'argent ? Oui, la vie vaut-elle dêtre vécue sans prendre le large, nan ? Nan, l'impression d'avoir deja trop vécu pour mon âge Oublie les strass et les paillettes pour la vie sauvage On se rappelle vite d'où l'on vient lorsque arrive l'orage Mon inspiration débute aux premiers feux de l'aurore Elle veut que je reste là, elle veut que je reste sage Elle me dit You should stay right now A nos amours, à nos ennemis, nos amis, nos victoires et nos défaites Au fond, de quoi la vie est faite ? La vérité se manifeste un jour ou l'autre many, elle me dit You should stay right now Parce qu'on a peur qu'un jour nos parents n'aient plus la santé Peur de ne plus sortir une fois qu'on y est rentré Comme un parloir fantôme dans une prison hantée You should stay right now Et tu te rassures en pensant que l'enfer c'est les autres L'horreur est humaine, regarde ce qu'on détruit les hommes Ce qu'ils ont fait dans les forêts, les déserts, et les eaux You should stay right now You, je sais right now, grâce à l'amour que me porte la Hayce Lem' team J'ai de quoi garder le sourire jusqu'à la fin de ma life Je vous aime You should stay right now Ahah, jusqu'à la fin de ma life Yeah, jusqu'à la fin de ma life You should stay right now J'suis décalé, je n'ai pas dormi de la night Je les vois s'égarer, dans la vie y'a pas que la maille House Lemsi Je ne dors pas quand tu n'es plus là Une histoire d'amour des plus virulentes Tu m'as sucé le sang, Caligula Tu avais tout d'une femme indépendante Oui, demain c'est loin qui vivra verra Le regard injecté dhémoglobine sous les lunettes Je veux juste qu'on se réconcilie sous les draps J'en vois le visage de l'enfant que je n'ai vu naître Oui, je veux que le paradis soit sous tes pieds Et je pose ma mélancolie sur le trépied Sans toi, je trouve que la vie n'a rien de trépidant J'marche seul, mais j'ai l'impression dêtre épié Je trébuche et me relève à chaque obstacle du dessin Je dois prendre l'air, j'ai mes raisons J'ai mangé les raisins de la colère Tu m'exposes à la foudre sans paratonnerre De la poudre de mensonge, des paroles en l'air Do you remember the time When nothing was wrong when our hopes were so high We dreamed about starting a life Through good and through bad Hand in hand side by side Memories fly all over my mind The things you would hide Smiling with pride lie over lie You were so alive And i was so faded but i realized !!</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Sirènes de police Tema c'est Hayce Lemsi Hey Hey ! Big Hayce, Big Lemsi Riov Musique, RM Gang ! Wow, wow ! Tigre et Dragon ! Dans le centre de Marbella j'ai goûté des Colombiennes Je rassemble que des kala' au cas où les Colons viennent me descendre Sagittaire, solitaire j'suis né le 16, en Décembre Pas le temps de déblatérer opps finit dans des cendres T'es là par intérêt tu me dis qu'on se ressemble Vaut mieux qu'on se recentre Elle voit que le buzz' dure, que la voiture est récente Elle veut qu'on sorte ensemble, me manque pas d'respect La flemme de salir mon ensemble, deux incultes restent bêtes S'ils passent trop de temps ensemble, RM Gang baby Que des Grr Bang-Bang t'es là tu-tu-tu be-be-bégaye P'tit come-back au calme, pilote le game J'sors d'la jungle on m'surnomme the mane Trône de fer rebeu j'suis on the way Trône de fer rebeu j'suis on the way Que vont célébrer les artistes aux idéaux politiques avant d'finir en blacklist ? J't'envoie le piste par piste si le mix il est zehef tu rentres dans la matrice Tata revient des abysses, y a pas d'armes factices Pas de contrat d'artiste, pas d'Label nouveau Kbis Ta salade nouveau caprice, c'est pas des Caprisun Rebeu c'est des bouteilles de stal-Cri J'ai la Ice autour du cou pourquoi tu rougis ma belle ? J'suis sorti du fond du trou depuis c'est moi j'ai la pelle Ils m'laisseraient même pas l'pudding mais j'aboutis kiss des bitchs dans mon blue jean On dirait qu'les Gucci boutiques m'appellent Sur les ordis comme des brouteurs sors les outils pour des broutilles Chez nous les papillons volent en forme de huit comme l'abeille Les petits veulent déjà rugir pour couvrir de bijoux Pas d'haine, bougies bitches pull-up pour le papel Scalpel lyrical, jeune arabe irritable, cannabis médical En pétard sous le casque intégral, véritable Quelques vices rédhibitoires on prend la caisse, le tiroir Une adresse à Tijuana on empeste le Ruinard En roue libre, dans la 'sique on a la science exacte Sors un pétard et c'est toi qui va courir en zigzag Le premier qui promet c'est le premier qui t'zappe J'me fais discret tel un uzi dans une boîte à pizza T'as pas fini ton teh que t'en roule un autre Tu cherches un chekem au final t'en trouves un autre J'l'ai pas posé sur le zinc, le zinc il m'en ressert un autre Génération sacrifiée partant dans la fierté des nôtres Ma vérité comme téléguidée par la pureté des mots J'vous laisse pas les clés d'la son-mai comme si vous étiez des mômes J'peux pas m'inspirer d'la peur et d'la médiocrité des vôtres Quand je l'ouvre, trouve un stylo, ferme ta gueule Prends des notes, prends des notes, prends des notes Atteins vite le level up, développe tes méthodes Casse les codes aux antipodes J'marchais avec l'iPod, j'ai trouvé l'antidote Ils font les investisseurs j'suis pas v'nu chasser l'antilope Anti lope-sa bro, j'prends le mic' ça purge J'prends le truc ça Grah, j'sors direct d'la brume Le Champagne sabré, la Rolex ça brille Les pétasses ça braille et l'oseille ça brûle J'ai passé l'hiver dans un vestibule enneigé Maintenant j'vais m'faire masser les testicules tout l'été Sur signal Telegram connecté Y a des bails du draham collecté Le gérant te fait la passe pour que tu fasses un TP Ta foumasse est prête à khalass pour qu'j'lui fasse un bébé Allers-retours dans son tunnel comme la RATP Ce boule rond ne suffira pas pour mettre la terre à tes pieds Le bullrun va te faire avaler tes USDT C'est la gamelle on est branchés sans la USB-C Ma petasse est tellement bonne que le Uber est stressé J'lui achète de la lingerie pour lui mettre des fessées You might also likeJe shine Gang gang</t>
+          <t>Sirènes de police Tema c'est Hayce Lemsi Hey Hey ! Big Hayce, Big Lemsi Riov Musique, RM Gang ! Wow, wow ! Tigre et Dragon ! Dans le centre de Marbella j'ai goûté des Colombiennes Je rassemble que des kala' au cas où les Colons viennent me descendre Sagittaire, solitaire j'suis né le 16, en Décembre Pas le temps de déblatérer opps finit dans des cendres T'es là par intérêt tu me dis qu'on se ressemble Vaut mieux qu'on se recentre Elle voit que le buzz' dure, que la voiture est récente Elle veut qu'on sorte ensemble, me manque pas d'respect La flemme de salir mon ensemble, deux incultes restent bêtes S'ils passent trop de temps ensemble, RM Gang baby Que des Grr Bang-Bang t'es là tu-tu-tu be-be-bégaye P'tit come-back au calme, pilote le game J'sors d'la jungle on m'surnomme the mane Trône de fer rebeu j'suis on the way Trône de fer rebeu j'suis on the way Que vont célébrer les artistes aux idéaux politiques avant d'finir en blacklist ? J't'envoie le piste par piste si le mix il est zehef tu rentres dans la matrice Tata revient des abysses, y a pas d'armes factices Pas de contrat d'artiste, pas d'Label nouveau Kbis Ta salade nouveau caprice, c'est pas des Caprisun Rebeu c'est des bouteilles de stal-Cri J'ai la Ice autour du cou pourquoi tu rougis ma belle ? J'suis sorti du fond du trou depuis c'est moi j'ai la pelle Ils m'laisseraient même pas l'pudding mais j'aboutis kiss des bitchs dans mon blue jean On dirait qu'les Gucci boutiques m'appellent Sur les ordis comme des brouteurs sors les outils pour des broutilles Chez nous les papillons volent en forme de huit comme l'abeille Les petits veulent déjà rugir pour couvrir de bijoux Pas d'haine, bougies bitches pull-up pour le papel Scalpel lyrical, jeune arabe irritable, cannabis médical En pétard sous le casque intégral, véritable Quelques vices rédhibitoires on prend la caisse, le tiroir Une adresse à Tijuana on empeste le Ruinard En roue libre, dans la 'sique on a la science exacte Sors un pétard et c'est toi qui va courir en zigzag Le premier qui promet c'est le premier qui t'zappe J'me fais discret tel un uzi dans une boîte à pizza T'as pas fini ton teh que t'en roule un autre Tu cherches un chekem au final t'en trouves un autre J'l'ai pas posé sur le zinc, le zinc il m'en ressert un autre Génération sacrifiée partant dans la fierté des nôtres Ma vérité comme téléguidée par la pureté des mots J'vous laisse pas les clés d'la son-mai comme si vous étiez des mômes J'peux pas m'inspirer d'la peur et d'la médiocrité des vôtres Quand je l'ouvre, trouve un stylo, ferme ta gueule Prends des notes, prends des notes, prends des notes Atteins vite le level up, développe tes méthodes Casse les codes aux antipodes J'marchais avec l'iPod, j'ai trouvé l'antidote Ils font les investisseurs j'suis pas v'nu chasser l'antilope Anti lope-sa bro, j'prends le mic' ça purge J'prends le truc ça Grah, j'sors direct d'la brume Le Champagne sabré, la Rolex ça brille Les pétasses ça braille et l'oseille ça brûle J'ai passé l'hiver dans un vestibule enneigé Maintenant j'vais m'faire masser les testicules tout l'été Sur signal Telegram connecté Y a des bails du draham collecté Le gérant te fait la passe pour que tu fasses un TP Ta foumasse est prête à khalass pour qu'j'lui fasse un bébé Allers-retours dans son tunnel comme la RATP Ce boule rond ne suffira pas pour mettre la terre à tes pieds Le bullrun va te faire avaler tes USDT C'est la gamelle on est branchés sans la USB-C Ma petasse est tellement bonne que le Uber est stressé J'lui achète de la lingerie pour lui mettre des fessées Je shine Gang gang</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Anti-ricochet comme la chevrotine Manque de livres austerling, de sérotonine On rappe jusquà la mort, ya pas de préavis Les quadri' sont gonflés sans la créatine Bon appétit ! Cest ce que ma dit le hazi J'produis des petits DAlger a Kin' Nique lindustrie le talent vient d'la rue Cest nous les plus physiques les plus créatifs Jai peur de rien j'sors même pas armé Ca fait plus d'quinze ans qu'j'rentre chez oi-m coquardé Parce qu'on ma encore rencardé Ou quon ma encore mal regardé J'devais signer chez Live Nation en 2017 malheureusement le chtar m'a retardé Fais pas la meuf indé, t'as la culotte trempée devant un mec blindé Le terrain ferme après minuit hbibi j'me suis remis dans de beaux draps Amiri pour les fimbi you feel me jme faufile comme cobra Ton ness-bi rapporte trop peu ça paye même pas le pannacotta Zlatana sur tes côtes d'la scopolamine dans ta copa DZ capable no cap jsuis pas coupable Cette pute de juge veut qu'je retourne à Kouba Fais pas l'Tupac tes tout pâle quand l'coup part Boom boom grah J'sors des galeries jsuis bien LV, jsors du hazi jsuis énervé Comme Curry je mets que des three que des spray You might also like Tu connais l'Hayce, tu connais l'VV Tu connais l'price, tu connais l'Hayce Tu connais l'Hayce, tu connais l'Hayce Tu connais l'Hayce, tu connais l'Hayce Cest ma bitch cest pas mi amor Elle est montée dans le Viano Elle veut faire du shopping à Milano C'est pour ça qu'j'lui ai pas mis l'anneau Cest ma bitch cest pas mi amor Elle est montée dans le Viano Elle veut faire du shopping à Milano C'est pour ça qu'j'lui ai pas mis l'anneau Elle veut faire du shopping à Milano C'est pour ça qu'j'lui ai pas mis l'anneau</t>
+          <t>Anti-ricochet comme la chevrotine Manque de livres austerling, de sérotonine On rappe jusquà la mort, ya pas de préavis Les quadri' sont gonflés sans la créatine Bon appétit ! Cest ce que ma dit le hazi J'produis des petits DAlger a Kin' Nique lindustrie le talent vient d'la rue Cest nous les plus physiques les plus créatifs Jai peur de rien j'sors même pas armé Ca fait plus d'quinze ans qu'j'rentre chez oi-m coquardé Parce qu'on ma encore rencardé Ou quon ma encore mal regardé J'devais signer chez Live Nation en 2017 malheureusement le chtar m'a retardé Fais pas la meuf indé, t'as la culotte trempée devant un mec blindé Le terrain ferme après minuit hbibi j'me suis remis dans de beaux draps Amiri pour les fimbi you feel me jme faufile comme cobra Ton ness-bi rapporte trop peu ça paye même pas le pannacotta Zlatana sur tes côtes d'la scopolamine dans ta copa DZ capable no cap jsuis pas coupable Cette pute de juge veut qu'je retourne à Kouba Fais pas l'Tupac tes tout pâle quand l'coup part Boom boom grah J'sors des galeries jsuis bien LV, jsors du hazi jsuis énervé Comme Curry je mets que des three que des spray Tu connais l'Hayce, tu connais l'VV Tu connais l'price, tu connais l'Hayce Tu connais l'Hayce, tu connais l'Hayce Tu connais l'Hayce, tu connais l'Hayce Cest ma bitch cest pas mi amor Elle est montée dans le Viano Elle veut faire du shopping à Milano C'est pour ça qu'j'lui ai pas mis l'anneau Cest ma bitch cest pas mi amor Elle est montée dans le Viano Elle veut faire du shopping à Milano C'est pour ça qu'j'lui ai pas mis l'anneau Elle veut faire du shopping à Milano C'est pour ça qu'j'lui ai pas mis l'anneau</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Bonsoir, honoré Grrr Très élégant, très éloquent, j'traverse les temps Hayce, Hayce T'as croisé le gang, tu n'as plus de dents, choisi ton camp Ice on Hayce Toi, tu m'attends Glock sur la tempe, c'est moi qui t'attend Hayce, Hayce Très élégant, très éloquent Ice on Hayce Yeah, mets plus d'Hennessy dans mon cup, mets plus de yellow dans mon bac ouh Parloir avec Volts Face hey, critical, scotch double face ouh Les êtres humains sont néfastes hey, la musique est devenue fast ouh Hater, viens me l'dire en face, j'fais pas de bruit, je t'efface brr Rebeu, j'ai la dalle comme si j'revenais dix fois d'Koh-Lanta Ma chérie, tu ressembles à Ana Polina mais t'es trop collante, ah yah, yah Ça parle de batatah, comment ça ? J'sais que ça vend du com en sah Grr Très élégant, très éloquent, j'traverse les temps Hayce, Hayce T'as croisé le gang, tu n'as plus dedans, choisi ton camp Ice on Hayce Toi, tu m'attends Glock sur la tempe, c'est moi qui t'attend Hayce, Hayce Très élégant, très éloquent Ice on Hayce You might also like S'tu m'vois tousser, c'est la Wax, chaîne Versace, twenty racks, ouh Vendent leurs carrières, Winamax, ouh, T-Max, Air Max, j'suis au max, ouh Wheelie wheelie, j'suis en Wheeling, j'baise Kimberley puis j'allume , ouh Ces humains sont cyniques, on ne baisse pas l'slip Ces rebeus n'ont pas un, moi, je rappe comme pas deux Parisien solitaire comme un campagnard, indépendant depuis 1-9-6-2 L'argent n'a pas d'odeur, j'la ken sur le paddle, rebeu, jusqu'à pas d'heure J'suis bien gainé dans l'débardeur Grr Très élégant, très éloquent, j'traverse les temps Hayce, Hayce T'as croisé le gang, tu n'as plus dedans, choisi ton camp Ice on Hayce Toi, tu m'attends Glock sur la tempe, c'est moi qui t'attend Hayce, Hayce Très élégant, très éloquent Ice on Hayce Ice on Hayce Hayce, Hayce Hayce, Hayce Hayce, Hayce Ice on Hayce</t>
+          <t>Bonsoir, honoré Grrr Très élégant, très éloquent, j'traverse les temps Hayce, Hayce T'as croisé le gang, tu n'as plus de dents, choisi ton camp Ice on Hayce Toi, tu m'attends Glock sur la tempe, c'est moi qui t'attend Hayce, Hayce Très élégant, très éloquent Ice on Hayce Yeah, mets plus d'Hennessy dans mon cup, mets plus de yellow dans mon bac ouh Parloir avec Volts Face hey, critical, scotch double face ouh Les êtres humains sont néfastes hey, la musique est devenue fast ouh Hater, viens me l'dire en face, j'fais pas de bruit, je t'efface brr Rebeu, j'ai la dalle comme si j'revenais dix fois d'Koh-Lanta Ma chérie, tu ressembles à Ana Polina mais t'es trop collante, ah yah, yah Ça parle de batatah, comment ça ? J'sais que ça vend du com en sah Grr Très élégant, très éloquent, j'traverse les temps Hayce, Hayce T'as croisé le gang, tu n'as plus dedans, choisi ton camp Ice on Hayce Toi, tu m'attends Glock sur la tempe, c'est moi qui t'attend Hayce, Hayce Très élégant, très éloquent Ice on Hayce S'tu m'vois tousser, c'est la Wax, chaîne Versace, twenty racks, ouh Vendent leurs carrières, Winamax, ouh, T-Max, Air Max, j'suis au max, ouh Wheelie wheelie, j'suis en Wheeling, j'baise Kimberley puis j'allume , ouh Ces humains sont cyniques, on ne baisse pas l'slip Ces rebeus n'ont pas un, moi, je rappe comme pas deux Parisien solitaire comme un campagnard, indépendant depuis 1-9-6-2 L'argent n'a pas d'odeur, j'la ken sur le paddle, rebeu, jusqu'à pas d'heure J'suis bien gainé dans l'débardeur Grr Très élégant, très éloquent, j'traverse les temps Hayce, Hayce T'as croisé le gang, tu n'as plus dedans, choisi ton camp Ice on Hayce Toi, tu m'attends Glock sur la tempe, c'est moi qui t'attend Hayce, Hayce Très élégant, très éloquent Ice on Hayce Ice on Hayce Hayce, Hayce Hayce, Hayce Hayce, Hayce Ice on Hayce</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Eh Eh eh eh, eh Oh oh oh Donne ton opinion, tu passes pour un hooligan Lebara, Lyca, Moneygram A peine 2 piges pour un pointeur, tu prends 2 chiffres si tu séquestres Un oligarque, il t'envoie jouer d'l'harmonica d'l'harmonica, au hebs Nos vies manquent d'harmonie, calme d'harmonie, calme Voir une femme voilée s'épanouir sur une place publique, ça les saoule Au Maghreb, j'ai croisé leurs femmes à moitié à poil dans les souks Tout est normal normal, normal Jusqu'ici, tout est normal tout est normal Bien sûr qu'j'ai plus de respect pour un rabatteur de qu'un mytho d'studio qui joue l'champion T'es qu'un ramasseur de balle, t'es bon qu'à essuyer mes crampons Les trahisons me transpercent L'hiver traverse ma North Face Baby face mais big jays baby face mais big jays Tranche les langues de vipère, visite plusieurs hémisphères Mais la suite reste un mystère Elle est loin l'époque où j'arrachais des pénaves à la Foire du Trône Sert à rien d'brailler, là c'est die Vous m'avez graille, j'fais plus d'chrome j'fais plus d'chrome C'pas ta mère qui paye le Penthouse rue du Rhône Sale sorcière, j'nique tes frères S'ils savaient qu'tu fais du shour Grr paw, cellule, pompes et pack d'eau J'pense au salaire de Pogba, la retraite sur un paquebot You might also like Quitte la table quand le respect n'est plus servi Ça rafale sur Paname, c'est la Colombie, c'est la Serbie Blanche colombe a des bastos dans les ailes S'échouera dans les débris des puits déserts Oh oh oh Oh oh Hayce Oh oh Oh Les gens ont une image d'eux-mêmes qui les arrange Tout l'monde veut la même chose Si tu l'as en premier, tu les déranges les humains J'ai pas la plume de La Fontaine, mais j'sais quand l'humain a bu Il tourne le dos à la fontaine gratitude, eh J'ai pas la plume de Rimbaud Mais j'sais qu'les négos se passent mieux avec le flingue de Rambo de Rambo, Rambo Perquise à l'heure du cocorico Elle arrive du Costa Rica On bé-tom sans la roi RICO loi RICO, sans la loi RICO Manque de fer et d'Oméga 3, ma3lich y a l'11.43 sous la Ferragamo grr, pa, pa, pa Quitte la table quand le respect n'est plus servi Ça rafale sur Paname, c'est la Colombie, c'est la Serbie Blanche colombe a des bastos dans les ailes S'échouera dans les débris des puits déserts Oh oh oh Oh oh oh puits déserts Oh oh Oh oh</t>
+          <t>Eh Eh eh eh, eh Oh oh oh Donne ton opinion, tu passes pour un hooligan Lebara, Lyca, Moneygram A peine 2 piges pour un pointeur, tu prends 2 chiffres si tu séquestres Un oligarque, il t'envoie jouer d'l'harmonica d'l'harmonica, au hebs Nos vies manquent d'harmonie, calme d'harmonie, calme Voir une femme voilée s'épanouir sur une place publique, ça les saoule Au Maghreb, j'ai croisé leurs femmes à moitié à poil dans les souks Tout est normal normal, normal Jusqu'ici, tout est normal tout est normal Bien sûr qu'j'ai plus de respect pour un rabatteur de qu'un mytho d'studio qui joue l'champion T'es qu'un ramasseur de balle, t'es bon qu'à essuyer mes crampons Les trahisons me transpercent L'hiver traverse ma North Face Baby face mais big jays baby face mais big jays Tranche les langues de vipère, visite plusieurs hémisphères Mais la suite reste un mystère Elle est loin l'époque où j'arrachais des pénaves à la Foire du Trône Sert à rien d'brailler, là c'est die Vous m'avez graille, j'fais plus d'chrome j'fais plus d'chrome C'pas ta mère qui paye le Penthouse rue du Rhône Sale sorcière, j'nique tes frères S'ils savaient qu'tu fais du shour Grr paw, cellule, pompes et pack d'eau J'pense au salaire de Pogba, la retraite sur un paquebot Quitte la table quand le respect n'est plus servi Ça rafale sur Paname, c'est la Colombie, c'est la Serbie Blanche colombe a des bastos dans les ailes S'échouera dans les débris des puits déserts Oh oh oh Oh oh Hayce Oh oh Oh Les gens ont une image d'eux-mêmes qui les arrange Tout l'monde veut la même chose Si tu l'as en premier, tu les déranges les humains J'ai pas la plume de La Fontaine, mais j'sais quand l'humain a bu Il tourne le dos à la fontaine gratitude, eh J'ai pas la plume de Rimbaud Mais j'sais qu'les négos se passent mieux avec le flingue de Rambo de Rambo, Rambo Perquise à l'heure du cocorico Elle arrive du Costa Rica On bé-tom sans la roi RICO loi RICO, sans la loi RICO Manque de fer et d'Oméga 3, ma3lich y a l'11.43 sous la Ferragamo grr, pa, pa, pa Quitte la table quand le respect n'est plus servi Ça rafale sur Paname, c'est la Colombie, c'est la Serbie Blanche colombe a des bastos dans les ailes S'échouera dans les débris des puits déserts Oh oh oh Oh oh oh puits déserts Oh oh Oh oh</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>ALGÉRIE - Abis - Ademo - ADK - Aketo - Aladin 135 - Ashe 22 - Bakar - Bakyl - Bena - Benab - Bigflo Oli - Bilk - Bilton - Carlito - COR - Deen Burbigo - Demon One - Dioussa - Djadja - Doria - Dwen - El Matador - Espiiem - Freeman - Gambino - Gips - GLK - Grizzly 942 - Gueule dAnge - Haristone - Hayce Lemsi - Heuss l'Enfoiré - Hooss - Hornet La Frappe - Houari - Infinit - Jarod - Jayel - KD - Kofs - Koma - Krilino - La F - La Péee - Lacrim - L'Algérino - LAllemand - LIM - Médine - Mehdi Yz - Mess - Moha - Moha La Squale - Morad Scred Connexion - Mougli - Naps - Nemir - Nini Mess - NOR - N.O.S - RD - Rim'k - Rimkus - RK - Rocé - Rousnam - Sat - Scurl - Sifax - Sinik - Sofiane - Soolking - Soso Maness - Stony Stone - Volts Face - Wit - Worms T - YL - Youssef Swatt's - Zbig - Ziak - Zino You might also likeALLEMAGNE - Malty 2BZ - Sch ANDALOUSIE - Josas ANGOLA - Josman - Jova TLZ Clan - Sasuke - Stavo ARGENTINE - Bigflo Oli - Godié - Jazzy Bazz - Lonepsi - Keny Arkana - Rocé ARMÉNIE - Hyacinthe - Lefty - Missak BELGIQUE - Disiz - JeanJass - Stromae BÉNIN - Kohndo - Melopheelo - Ol Kainry - thaHomey - Zoxea BRÉSIL - Cacou - Esteban BURKINA FASO - Cassidy X-Men - Shone BURUNDI - Geeeko CAMBODGE - K.E.R - Malty 2BZ CAMEROUN - Bayass - Beendo Z - Benash - BR aka Block Rider - Brvmsoo - Cahiips - Cashmire - Dinos - Dosseh - Driver - Elh Kmer - Gambi - Ichon - Ill - Katana - K.Point - Lalcko - Lionceau - LMB - Mac Tyer - MC Jean Gab'1 - Mister V - Moyomola - Nakk Mendosa - Osirus Jack - P-dro - Pit Baccardi - Pulkra - Rafleur - Sasuke - Slkrack - T2R - Tayc - Tuerie - Vesti - WaiV - WeRenoi - Yamê - Yseult - Zefor CAP-VERT - Briganté - Bilouki - Jacky Brown - Stomy Bugsy - Zekwé Ramos CENTRAFRIQUE - Dany Dan - Jo Dalton - IPNDEGO - Leys CHILI - Flaco Mundo CHYPRE - Diam's COLOMBIE - Favé - Hippocampe Fou - Rocca - Tortoz COMORES - 100 Blaze - 1pliké140 - 3010 - Alonzo - ALR - Benito - Bné - Bouska - Croma - Elams - Djado Mado - Goulam - Guirri Mafia - HK - Houssein - I.K - Ikbal - Kolo La R - Mapess - Menzo - Mister C - MOH - Mous-k - Nini Mess - Noname - La M - Le Neh - Péké - Rayad - R.E.D.K - Rohff - S.TEBAN - Saf - So La Lune - Soprano - Sultan - Thabiti - Vincenzo - Cobralaz CONGO BRAZZAVILLE - Abd al Malik - Ben-J - Calbo - Doc TMC - Docks - Dry - G-Kill - IDS - Kamini - KLN - Koba LaD - Lino - Naza - Niska - Passi - Ppros - Siboy - Stos CONGO KINSHASA - Al Patch - Arma Jackson - Bazbaz - Bedjik - Beny - Bilouki - Black Brut - Blaz Pit - Bokalossa - Bolémvn - Bosh - Braki - Captaine Roshi - Cash Crime - Cheu-B - Chily - Cinco - Da Uzi - Dadju - Dalsim - Damso - Dasko - David Okit - Davinhor - Despo Rutti - Diddi Trix - Dorseaux - Douma - El9 - Enfantdepauvres - Escobar Macson - Fally Ipupa - Franglish - Frenetik - Fresh La Peufra - Gambino La MG - Gianni - Gradur - Green Montana - Grödash - Guy2Bezbar - IDS - Irvin - ISHA - Jaymax - JNR Slice - John Cruipy - Josman - HD La Relève - Kaflo - Kalash Criminel - Kaza - KeBlack - Kellzer - KLN - Kobo - Kodes - Kozi - Krisy - La Fève - LAFINANCIERE - Landy - Le Motif - Le Risque - Lee Boma - Leust - Leto - Leys - Maître Gims - Makala - MIG - Moka Boka - Nahir - Naza - Ninho - Noah Lunsi - Poison - Prototype - Rizno - Rozzy - Shay - Skodri - Stavo - S-Pi - Theodora - Tiakola - Tito Prince - Udeyfa - Uzi - Varnish La Piscine - Youssoupha - Zed - Zola CORÉE DU SUD - JOON Corse - Ademo - Furax Barbarossa - Jul - Makizar - N.O.S - Sat - PLK CÔTE D'IVOIRE - Abou Debeing - Ash Kidd - Bayass - Black Kent - Bolémvn - Brvbus - Cacahouète - Cacou - Cheu-B - D4R - Dave - Dehmo - Esteban - Fababy - Gaulois - Gouap - H Magnum - Hache-P - Jok'Air - Junior Bvndo - JSX - Kaaris - KT Gorique - Lala ce - Landy - Laylow - Le Juiice - Liim's - L.I.O - Mini - S-Pion - Sese Kepler - Tisco - Vegedream - Zefor ÉCOSSE - Nekfeu ÉGYPTE - Deen Burbigo - Houssbad ESPAGNE - A2H - Ateyaba - Caballero - Falcko - Le Rat Luciano - Tortoz GABON - Benjamin Epps - Juicy P - Vicky R GHANA - Take A Mic GRÈCE - Nekfeu - Youri Guadeloupe - Admiral T - AP 113 - Barack Adama - Brasco - Bridjahting - Doc Gynéco - Georgio - HVmanyy - JSX - Kodes - Laskiiz - Lybro - Malty 2BZ - Melopheelo - Salif - Timal - Veerus - Zoxea GUINÉE CONAKRY - 2V La KTL - Alpha Wann - Black M - Gazo - Guizmo - Doomams - Dr Beriz - Ibrak - Luv Resval - MHD - Nixon - Savage Toddy - Shotas - Slim C GUYANE - Hatik - Zikxo HAÏTI - Alibi Montana - Beeby - Gato - Kery James - Luidji - Mac Kregor - Noma - Obia le Chef - O'Rosko Raricim - Lawid - Shyno IRAN - Pejmaxx ITALIE - Akhenaton - Anton Serra - Ash Kidd - Freeze Corleone - Furax Barbarossa - Gambi - Gueule dAnge - Jazzy Bazz - Jeff le Nerf - Jolly - Ladea - Lomepal - Lonepsi - Lucio Bukowski - Michel - Nakry - Rozzy - Seth Gueko - Swift Guad JAPON - Beamer KOSOVO - GRËJ LANGUEDOC - Maska LIBAN - Abdallah - B.B Jacques - Cheu-B - Jeff le Nerf - Sese Kepler MADAGASCAR - A2H - Chilla - Faf Larage - Gazy MP - Guizmo - Kay The Prodigy - Oboy - Shurik'n - Tsew The Kid MALI - 13or - Amy - Couli B - Dabs - D.Ace - Dinero - Djeffi Jack - Douma Kalash - Doums - Dr Beriz - Elloco - Fresh La Douille - Jackmaboy - JR O Chrome - Kennedy - L'Skadrille - Mala - Mamso - Mokobe - Oxmo Puccino - Pispa - Salif - Saamou Skuu - SenSey - Sianna - Six Coups MC - Slimka - Still Fresh - Zeguerre - Guizmo - Yaro - Yuz Boy MAROC - Aladin 135 - ALI - Alrima - ATIK - Biwai - Canardo - CEZ - Demi Portion - Dibson - Djalito - Doria - Gros Mo - Hamza - Hi-Tekk La Caution - Houssbad - JeanJass - Jolly - Kamelanc - Kamikaz - Kekra - Khali - La Fouine - La M - Larry - Lartiste - Lazer MMZ - L.E.C.K - Leonis - Le S - Leso - Maes - Mister You - Moha MMZ - Mougli - Nessbeal - Niaks - Nikkfurie - Niro - OMR - Osirus Jack - Sasso - Sneazzy - Walid - YS - Zalmad - Zamdane - Zifou - ZKR Martinique - Bushi - Busta Flex - Casey - Fabe - Flaco Mundo - JoeyStarr - Kalash - Le Rat Luciano - OldPee - Meryl - Noname - Nubi - Tiitof - Youv Dee - Zesau NIGERIA - Mac Tyer - Take A Mic PALESTINE - Wit POLOGNE - 7 Jaws - Jarod - Jazzy Bazz - PLK - Shay - Wojtek PORTUGAL - Kool Shen Réunion La - 2V La KTL - Azur - Blacko - Bushi - Faf Larage - Mussy - Shurik'n - Ziak ROUMANIE - Gemen RUSSIE - Davodka - Rocé - Ruskov - Sadek - Seth Gueko - Tovaritch - Youri RWANDA - Gaël Faye - Mussy - Stromae - Swing SÉNÉGAL - Abou Tal - Aelpéachal - Alivor - Alpha 5.20 - Barack Adama - Bassirou - Bena - Booba - Captaine Roshi - Cifack - D.Ace - Dadinho - Disiz - Freeze Corleone - Graya - Guizmo - Ixzo - Joe Lucazz - JSX - La Rvfleuze - Lefa - Madrane - MC Solaar - MHD - Mortalla - Nanass - Norsacce Berlusconi - Ormaz - Prince Waly - Sam's - Sefyu - Slimka - S.Pri Noir - Tiers Monde - Youssoupha - Youv Dee - Zuukou Mayzie SERBIE - Swift Guad SEYCHELLES - A2H TCHAD - MC Solaar TOGO - Ateyaba - Dosseh - Franglish - Kossi - Samy - Sasso TUNISIE - 2zer - Aero - Adès - Alkpote - Badjer - Bilel - Bilk - Brulux - Dinaz - Farage - Gambino - Haroun - ISK - Kacem Wapalek - Kalash l'Afro - Mokless - Nakry - Tunisiano - Sadek - Selim du 9.4 - Sneazzy TURQUIE - Kvra - MRC - Oby One VIETNAM - Mademoiselle Lou YOUGOSLAVIE - Swift Guad9</t>
+          <t>ALGÉRIE - Abis - Ademo - ADK - Aketo - Aladin 135 - Ashe 22 - Bakar - Bakyl - Bena - Benab - Bigflo Oli - Bilk - Bilton - Carlito - COR - Deen Burbigo - Demon One - Dioussa - Djadja - Doria - Dwen - El Matador - Espiiem - Freeman - Gambino - Gips - GLK - Grizzly 942 - Gueule dAnge - Haristone - Hayce Lemsi - Heuss l'Enfoiré - Hooss - Hornet La Frappe - Houari - Infinit - Jarod - Jayel - KD - Kofs - Koma - Krilino - La F - La Péee - Lacrim - L'Algérino - LAllemand - LIM - Médine - Mehdi Yz - Mess - Moha - Moha La Squale - Morad Scred Connexion - Mougli - Naps - Nemir - Nini Mess - NOR - N.O.S - RD - Rim'k - Rimkus - RK - Rocé - Rousnam - Sat - Scurl - Sifax - Sinik - Sofiane - Soolking - Soso Maness - Stony Stone - Volts Face - Wit - Worms T - YL - Youssef Swatt's - Zbig - Ziak - Zino ALLEMAGNE - Malty 2BZ - Sch ANDALOUSIE - Josas ANGOLA - Josman - Jova TLZ Clan - Sasuke - Stavo ARGENTINE - Bigflo Oli - Godié - Jazzy Bazz - Lonepsi - Keny Arkana - Rocé ARMÉNIE - Hyacinthe - Lefty - Missak BELGIQUE - Disiz - JeanJass - Stromae BÉNIN - Kohndo - Melopheelo - Ol Kainry - thaHomey - Zoxea BRÉSIL - Cacou - Esteban BURKINA FASO - Cassidy X-Men - Shone BURUNDI - Geeeko CAMBODGE - K.E.R - Malty 2BZ CAMEROUN - Bayass - Beendo Z - Benash - BR aka Block Rider - Brvmsoo - Cahiips - Cashmire - Dinos - Dosseh - Driver - Elh Kmer - Gambi - Ichon - Ill - Katana - K.Point - Lalcko - Lionceau - LMB - Mac Tyer - MC Jean Gab'1 - Mister V - Moyomola - Nakk Mendosa - Osirus Jack - P-dro - Pit Baccardi - Pulkra - Rafleur - Sasuke - Slkrack - T2R - Tayc - Tuerie - Vesti - WaiV - WeRenoi - Yamê - Yseult - Zefor CAP-VERT - Briganté - Bilouki - Jacky Brown - Stomy Bugsy - Zekwé Ramos CENTRAFRIQUE - Dany Dan - Jo Dalton - IPNDEGO - Leys CHILI - Flaco Mundo CHYPRE - Diam's COLOMBIE - Favé - Hippocampe Fou - Rocca - Tortoz COMORES - 100 Blaze - 1pliké140 - 3010 - Alonzo - ALR - Benito - Bné - Bouska - Croma - Elams - Djado Mado - Goulam - Guirri Mafia - HK - Houssein - I.K - Ikbal - Kolo La R - Mapess - Menzo - Mister C - MOH - Mous-k - Nini Mess - Noname - La M - Le Neh - Péké - Rayad - R.E.D.K - Rohff - S.TEBAN - Saf - So La Lune - Soprano - Sultan - Thabiti - Vincenzo - Cobralaz CONGO BRAZZAVILLE - Abd al Malik - Ben-J - Calbo - Doc TMC - Docks - Dry - G-Kill - IDS - Kamini - KLN - Koba LaD - Lino - Naza - Niska - Passi - Ppros - Siboy - Stos CONGO KINSHASA - Al Patch - Arma Jackson - Bazbaz - Bedjik - Beny - Bilouki - Black Brut - Blaz Pit - Bokalossa - Bolémvn - Bosh - Braki - Captaine Roshi - Cash Crime - Cheu-B - Chily - Cinco - Da Uzi - Dadju - Dalsim - Damso - Dasko - David Okit - Davinhor - Despo Rutti - Diddi Trix - Dorseaux - Douma - El9 - Enfantdepauvres - Escobar Macson - Fally Ipupa - Franglish - Frenetik - Fresh La Peufra - Gambino La MG - Gianni - Gradur - Green Montana - Grödash - Guy2Bezbar - IDS - Irvin - ISHA - Jaymax - JNR Slice - John Cruipy - Josman - HD La Relève - Kaflo - Kalash Criminel - Kaza - KeBlack - Kellzer - KLN - Kobo - Kodes - Kozi - Krisy - La Fève - LAFINANCIERE - Landy - Le Motif - Le Risque - Lee Boma - Leust - Leto - Leys - Maître Gims - Makala - MIG - Moka Boka - Nahir - Naza - Ninho - Noah Lunsi - Poison - Prototype - Rizno - Rozzy - Shay - Skodri - Stavo - S-Pi - Theodora - Tiakola - Tito Prince - Udeyfa - Uzi - Varnish La Piscine - Youssoupha - Zed - Zola CORÉE DU SUD - JOON Corse - Ademo - Furax Barbarossa - Jul - Makizar - N.O.S - Sat - PLK CÔTE D'IVOIRE - Abou Debeing - Ash Kidd - Bayass - Black Kent - Bolémvn - Brvbus - Cacahouète - Cacou - Cheu-B - D4R - Dave - Dehmo - Esteban - Fababy - Gaulois - Gouap - H Magnum - Hache-P - Jok'Air - Junior Bvndo - JSX - Kaaris - KT Gorique - Lala ce - Landy - Laylow - Le Juiice - Liim's - L.I.O - Mini - S-Pion - Sese Kepler - Tisco - Vegedream - Zefor ÉCOSSE - Nekfeu ÉGYPTE - Deen Burbigo - Houssbad ESPAGNE - A2H - Ateyaba - Caballero - Falcko - Le Rat Luciano - Tortoz GABON - Benjamin Epps - Juicy P - Vicky R GHANA - Take A Mic GRÈCE - Nekfeu - Youri Guadeloupe - Admiral T - AP 113 - Barack Adama - Brasco - Bridjahting - Doc Gynéco - Georgio - HVmanyy - JSX - Kodes - Laskiiz - Lybro - Malty 2BZ - Melopheelo - Salif - Timal - Veerus - Zoxea GUINÉE CONAKRY - 2V La KTL - Alpha Wann - Black M - Gazo - Guizmo - Doomams - Dr Beriz - Ibrak - Luv Resval - MHD - Nixon - Savage Toddy - Shotas - Slim C GUYANE - Hatik - Zikxo HAÏTI - Alibi Montana - Beeby - Gato - Kery James - Luidji - Mac Kregor - Noma - Obia le Chef - O'Rosko Raricim - Lawid - Shyno IRAN - Pejmaxx ITALIE - Akhenaton - Anton Serra - Ash Kidd - Freeze Corleone - Furax Barbarossa - Gambi - Gueule dAnge - Jazzy Bazz - Jeff le Nerf - Jolly - Ladea - Lomepal - Lonepsi - Lucio Bukowski - Michel - Nakry - Rozzy - Seth Gueko - Swift Guad JAPON - Beamer KOSOVO - GRËJ LANGUEDOC - Maska LIBAN - Abdallah - B.B Jacques - Cheu-B - Jeff le Nerf - Sese Kepler MADAGASCAR - A2H - Chilla - Faf Larage - Gazy MP - Guizmo - Kay The Prodigy - Oboy - Shurik'n - Tsew The Kid MALI - 13or - Amy - Couli B - Dabs - D.Ace - Dinero - Djeffi Jack - Douma Kalash - Doums - Dr Beriz - Elloco - Fresh La Douille - Jackmaboy - JR O Chrome - Kennedy - L'Skadrille - Mala - Mamso - Mokobe - Oxmo Puccino - Pispa - Salif - Saamou Skuu - SenSey - Sianna - Six Coups MC - Slimka - Still Fresh - Zeguerre - Guizmo - Yaro - Yuz Boy MAROC - Aladin 135 - ALI - Alrima - ATIK - Biwai - Canardo - CEZ - Demi Portion - Dibson - Djalito - Doria - Gros Mo - Hamza - Hi-Tekk La Caution - Houssbad - JeanJass - Jolly - Kamelanc - Kamikaz - Kekra - Khali - La Fouine - La M - Larry - Lartiste - Lazer MMZ - L.E.C.K - Leonis - Le S - Leso - Maes - Mister You - Moha MMZ - Mougli - Nessbeal - Niaks - Nikkfurie - Niro - OMR - Osirus Jack - Sasso - Sneazzy - Walid - YS - Zalmad - Zamdane - Zifou - ZKR Martinique - Bushi - Busta Flex - Casey - Fabe - Flaco Mundo - JoeyStarr - Kalash - Le Rat Luciano - OldPee - Meryl - Noname - Nubi - Tiitof - Youv Dee - Zesau NIGERIA - Mac Tyer - Take A Mic PALESTINE - Wit POLOGNE - 7 Jaws - Jarod - Jazzy Bazz - PLK - Shay - Wojtek PORTUGAL - Kool Shen Réunion La - 2V La KTL - Azur - Blacko - Bushi - Faf Larage - Mussy - Shurik'n - Ziak ROUMANIE - Gemen RUSSIE - Davodka - Rocé - Ruskov - Sadek - Seth Gueko - Tovaritch - Youri RWANDA - Gaël Faye - Mussy - Stromae - Swing SÉNÉGAL - Abou Tal - Aelpéachal - Alivor - Alpha 5.20 - Barack Adama - Bassirou - Bena - Booba - Captaine Roshi - Cifack - D.Ace - Dadinho - Disiz - Freeze Corleone - Graya - Guizmo - Ixzo - Joe Lucazz - JSX - La Rvfleuze - Lefa - Madrane - MC Solaar - MHD - Mortalla - Nanass - Norsacce Berlusconi - Ormaz - Prince Waly - Sam's - Sefyu - Slimka - S.Pri Noir - Tiers Monde - Youssoupha - Youv Dee - Zuukou Mayzie SERBIE - Swift Guad SEYCHELLES - A2H TCHAD - MC Solaar TOGO - Ateyaba - Dosseh - Franglish - Kossi - Samy - Sasso TUNISIE - 2zer - Aero - Adès - Alkpote - Badjer - Bilel - Bilk - Brulux - Dinaz - Farage - Gambino - Haroun - ISK - Kacem Wapalek - Kalash l'Afro - Mokless - Nakry - Tunisiano - Sadek - Selim du 9.4 - Sneazzy TURQUIE - Kvra - MRC - Oby One VIETNAM - Mademoiselle Lou YOUGOSLAVIE - Swift Guad9</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Le pessimiste voit la difficulté dans l'opportunité L'optimiste voit l'opportunité dans la difficulté Hayce Un nouveau jour se lève Offrir à mes enfants l'héritage que mes parents n'ont pas pu m'offrir en revenant du pays Quand j'pense que j'suis pas diplômé du plomo sous les plaies pour le moindre béni Qui m'aime me suive j'veux pas l'public d'un autre T'es dans la guerre des chiffres, laisse moi celle des lettres Ah ma queen, ah mon brave, J'reprends la route à l'aube En full indé rebeu j'ai l'impression d'renaître Nietzsche Goethe Freud Kant Quand à moi j'poursuis ma littérature Est-ce que l'humilité limite les ratures ? Est-ce un délit d'être hyperactif ? J'laisse personne prendre le contrôle de ma vie Là quel qu'en soit le prix c'est mon propre navire Je peux lire le désir sur les traits d'ton visage La jalousie te ronge et t'empêche de dormir Ton album reste un pavé dans la mare Au palais de l'art brut m'endort à même le marbre J'prends le pouvoir de n'importe quel monarque Parle moi de qui veut m'faire amène le moi Quelle que soit leur raison quelle que soit leur réseau Je sais qui colle l'oreille à ma porte J'ai perdu des batailles mais j'perdrai pas la guerre Y a qu'Fateh pour me prêter main forte Grrah Vois tu nos lames scintiller dans la nuit gentilhomme ? Ce serait dommage qu'on t'allume En tailleur prêt des tombeaux des lucioles J'sui un loup donc j'attends ces bâtards sous la lune On a rempli de neige tous les ballons Communique en Algérois J'ai délesté les sacs de sable Pour rendre plus léger mon ballon dirigeable On a rempli les sacs de sable Quand les frères aux ballonx s'dirigent vers le mitard Que des rendez-vous pas d'hazard Quand tu quittes ce bas-monde sur un air de guitare Soledad, soledad, soledad Dis moi combien d'soldats sont tombés sous les balles Combien de moula s'écroule sous les Car la justice est borgne et rarement nous épargne J'suis gladiateur à petit bouclier J'envoie la concu' vers le Cirque Bouglione Si t'es sincère je n'pourrais t'oublier 35 piges mais je n'ai pas trouvé ma lionne J'crois qu'suis une personne de confiance Qui ne fait confiance à personne J'leur ai déjà fait des clés d'bras Là j'vais leur faire une clé d'sol Détruire un pays pour construire un château Quel respect méritent les politiques ? Des discours soporifiques de manipulateurs Qui sont là pour un vice prolifique Où t'étais quand j'dérobais baguette à prix surréaliste Une roquette dans l'hélicoptère des streams Le rap est presque mort il faut qu'j'le réanime You might also like J'broie les mots J'peux plus m'les voir J'broie les mots Regarde toi dans l'miroir J'broie les mots Hayce Lemsi Grrr-Ah1</t>
+          <t>Le pessimiste voit la difficulté dans l'opportunité L'optimiste voit l'opportunité dans la difficulté Hayce Un nouveau jour se lève Offrir à mes enfants l'héritage que mes parents n'ont pas pu m'offrir en revenant du pays Quand j'pense que j'suis pas diplômé du plomo sous les plaies pour le moindre béni Qui m'aime me suive j'veux pas l'public d'un autre T'es dans la guerre des chiffres, laisse moi celle des lettres Ah ma queen, ah mon brave, J'reprends la route à l'aube En full indé rebeu j'ai l'impression d'renaître Nietzsche Goethe Freud Kant Quand à moi j'poursuis ma littérature Est-ce que l'humilité limite les ratures ? Est-ce un délit d'être hyperactif ? J'laisse personne prendre le contrôle de ma vie Là quel qu'en soit le prix c'est mon propre navire Je peux lire le désir sur les traits d'ton visage La jalousie te ronge et t'empêche de dormir Ton album reste un pavé dans la mare Au palais de l'art brut m'endort à même le marbre J'prends le pouvoir de n'importe quel monarque Parle moi de qui veut m'faire amène le moi Quelle que soit leur raison quelle que soit leur réseau Je sais qui colle l'oreille à ma porte J'ai perdu des batailles mais j'perdrai pas la guerre Y a qu'Fateh pour me prêter main forte Grrah Vois tu nos lames scintiller dans la nuit gentilhomme ? Ce serait dommage qu'on t'allume En tailleur prêt des tombeaux des lucioles J'sui un loup donc j'attends ces bâtards sous la lune On a rempli de neige tous les ballons Communique en Algérois J'ai délesté les sacs de sable Pour rendre plus léger mon ballon dirigeable On a rempli les sacs de sable Quand les frères aux ballonx s'dirigent vers le mitard Que des rendez-vous pas d'hazard Quand tu quittes ce bas-monde sur un air de guitare Soledad, soledad, soledad Dis moi combien d'soldats sont tombés sous les balles Combien de moula s'écroule sous les Car la justice est borgne et rarement nous épargne J'suis gladiateur à petit bouclier J'envoie la concu' vers le Cirque Bouglione Si t'es sincère je n'pourrais t'oublier 35 piges mais je n'ai pas trouvé ma lionne J'crois qu'suis une personne de confiance Qui ne fait confiance à personne J'leur ai déjà fait des clés d'bras Là j'vais leur faire une clé d'sol Détruire un pays pour construire un château Quel respect méritent les politiques ? Des discours soporifiques de manipulateurs Qui sont là pour un vice prolifique Où t'étais quand j'dérobais baguette à prix surréaliste Une roquette dans l'hélicoptère des streams Le rap est presque mort il faut qu'j'le réanime J'broie les mots J'peux plus m'les voir J'broie les mots Regarde toi dans l'miroir J'broie les mots Hayce Lemsi Grrr-Ah1</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Je sais que tu mécouteras probablement pas Je te mérite pas mais jai peur que tu me pardonnes pas Laisse moi juste une chance de te prouver que je suis Lhomme de ta vie et que même tes parents l'sachent Jai rencontré trop de garces qui ne voit que la lambo et la maille Jai le cur en lambeau, t'étais ma deuxième mama Derrière chaque guerrier se cache un cur et j'suis piqué fort Reprends moi je te promets que je ferai des efforts A lheure où je parle on est qu'deux , demain on sera peut-être trois Le poids de ton honneur sur les épaules, laisses moi gérer ne tinquiète pas S'il suffit d'un rien pour aimer je ferai tout pour toi, amour de ma vie ne mabandonne pas Tu me Blâme, Blâme, Blâme Blâme Sans toi je suis Walou walou walou Wow Tu as ravivé la flamme qui a réchauffé mon âme Tu me Blâme, Blâme, Blâme Blâme Sans toi je suis Walou walou walou Wow Je décrocherai les étoiles Je déplacerai les montagnes Ce soir je suis sous Honey, j'suis défoncé Je pense à nous baby, souvenirs passées Jsuis sur la route baby j'viens te chercher Jme fiche de combien de fe-bi, jai dépensé Car ce qui compte pour moi cest nous Oh my babe je veux te marier, jai plus peur x2 Jte protégerai, laisserai les parasites sur ma route Nécoute pas tes copines elles me veulent, elles sont jalouses Prends juste ton passeport fuck les beaux parleurs Car notre amour n'est pas le leur, non ce nest pas le leur You might also like Tu me Blâme, Blâme, Blâme Blâme Sans toi je suis Walou walou walou Waw Tu as ravivé la flamme, qui a réchauffé mon âme Tu me Blâme, Blâme, Blâme Blâme Sans toi je suis Walou walou walou Waw Je décrocherai les étoiles Je déplacerai les montagnes</t>
+          <t>Je sais que tu mécouteras probablement pas Je te mérite pas mais jai peur que tu me pardonnes pas Laisse moi juste une chance de te prouver que je suis Lhomme de ta vie et que même tes parents l'sachent Jai rencontré trop de garces qui ne voit que la lambo et la maille Jai le cur en lambeau, t'étais ma deuxième mama Derrière chaque guerrier se cache un cur et j'suis piqué fort Reprends moi je te promets que je ferai des efforts A lheure où je parle on est qu'deux , demain on sera peut-être trois Le poids de ton honneur sur les épaules, laisses moi gérer ne tinquiète pas S'il suffit d'un rien pour aimer je ferai tout pour toi, amour de ma vie ne mabandonne pas Tu me Blâme, Blâme, Blâme Blâme Sans toi je suis Walou walou walou Wow Tu as ravivé la flamme qui a réchauffé mon âme Tu me Blâme, Blâme, Blâme Blâme Sans toi je suis Walou walou walou Wow Je décrocherai les étoiles Je déplacerai les montagnes Ce soir je suis sous Honey, j'suis défoncé Je pense à nous baby, souvenirs passées Jsuis sur la route baby j'viens te chercher Jme fiche de combien de fe-bi, jai dépensé Car ce qui compte pour moi cest nous Oh my babe je veux te marier, jai plus peur x2 Jte protégerai, laisserai les parasites sur ma route Nécoute pas tes copines elles me veulent, elles sont jalouses Prends juste ton passeport fuck les beaux parleurs Car notre amour n'est pas le leur, non ce nest pas le leur Tu me Blâme, Blâme, Blâme Blâme Sans toi je suis Walou walou walou Waw Tu as ravivé la flamme, qui a réchauffé mon âme Tu me Blâme, Blâme, Blâme Blâme Sans toi je suis Walou walou walou Waw Je décrocherai les étoiles Je déplacerai les montagnes</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Hey, hey, hey What did you expect ? Yeah Elle ne veut pas que je paie tout c'qu'elle aimerait avoir Tout c'qu'elle demande, c'est d'se faire aimer Juste du love, elle n'est pas matérialiste, nan, nan Avec moi, elle aimerait s'en aller Elle peut y passer sa vie mais elle ne veut pas dépendre de moi Juste du love, rien d'autre Elle aime se faire plaisir mais ne veut pas dépendre de moi Juste du love et rien d'autre Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah yeah, eh Ma señorita, j'ai les moyens d'assurer ta seguridad J'suis plus dans l'illégal, bébé, j'ai vidé l'habitacle Elle refuse que j'paye la cuenta, j'vais l'assumer, c'est ballot Même si j'lui fais cadeau d'un bateau, mes plans tombent à l'eau Laisse-moi payer, j'suis ton djo, djo, djo, djo, djo Laisse-moi khalass lune de miel Laisse-moi payer, j'suis ton djo, djo, djo, djo, djo Si je suis roi, tu es reine You might also like Elle ne veut pas que je paie tout c'qu'elle aimerait avoir Tout c'qu'elle demande, c'est d'se faire aimer Juste du love, elle n'est pas matérialiste, nan, nan Avec moi, elle aimerait s'en aller Elle peut y passer sa vie mais elle ne veut pas dépendre de moi Juste du love, rien d'autre Elle aime se faire plaisir mais ne veut pas dépendre de moi Juste du love et rien d'autre Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah yeah, eh J'veux tout lui donner, qu'elle prenne l'argent dans la valise Elle m'fait confiance, j'le vois quand j'analyse Ma chérie, faut qu'on taille, ma chérie, faut quitter Beriz En excès d'vitesse mes sentiments sont verbalisés J'lui parle oseille, elle me dit nan, nan Je sais qu'tu m'aimes, qu'tu fais pas semblant J'lui parle oseille, elle me dit nan, nan Mais je sais qu'tu m'aimes, qu'tu fais pas semblant Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah yeah, eh</t>
+          <t>Hey, hey, hey What did you expect ? Yeah Elle ne veut pas que je paie tout c'qu'elle aimerait avoir Tout c'qu'elle demande, c'est d'se faire aimer Juste du love, elle n'est pas matérialiste, nan, nan Avec moi, elle aimerait s'en aller Elle peut y passer sa vie mais elle ne veut pas dépendre de moi Juste du love, rien d'autre Elle aime se faire plaisir mais ne veut pas dépendre de moi Juste du love et rien d'autre Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah yeah, eh Ma señorita, j'ai les moyens d'assurer ta seguridad J'suis plus dans l'illégal, bébé, j'ai vidé l'habitacle Elle refuse que j'paye la cuenta, j'vais l'assumer, c'est ballot Même si j'lui fais cadeau d'un bateau, mes plans tombent à l'eau Laisse-moi payer, j'suis ton djo, djo, djo, djo, djo Laisse-moi khalass lune de miel Laisse-moi payer, j'suis ton djo, djo, djo, djo, djo Si je suis roi, tu es reine Elle ne veut pas que je paie tout c'qu'elle aimerait avoir Tout c'qu'elle demande, c'est d'se faire aimer Juste du love, elle n'est pas matérialiste, nan, nan Avec moi, elle aimerait s'en aller Elle peut y passer sa vie mais elle ne veut pas dépendre de moi Juste du love, rien d'autre Elle aime se faire plaisir mais ne veut pas dépendre de moi Juste du love et rien d'autre Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah yeah, eh J'veux tout lui donner, qu'elle prenne l'argent dans la valise Elle m'fait confiance, j'le vois quand j'analyse Ma chérie, faut qu'on taille, ma chérie, faut quitter Beriz En excès d'vitesse mes sentiments sont verbalisés J'lui parle oseille, elle me dit nan, nan Je sais qu'tu m'aimes, qu'tu fais pas semblant J'lui parle oseille, elle me dit nan, nan Mais je sais qu'tu m'aimes, qu'tu fais pas semblant Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah Quand j'lui donne de l'argent, elle me répond lé, lé, la Quand j'lui donne mon cur, elle me répond woah, woah, woah yeah, eh</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>On a l'bif dans le visu, ça fait zi-zir Plus personne au quartier c'est bizarre, mais les boloss sont quand meme vi-ser Sur g'nève en gamos avec , j'ai fait la coupe chez yachah Le succès ce n'est que d'passage, hashtag ferme ta chatte et puis nachav Loup de la tess , et Oussama, c't'année faut que j'fasse des ouss gava Force au fréro niouf en cavale, tout est bon kalmer si vous ça va Fuck les délits de faciès, 2017 y'a pas de sieste On va taper dans ton plat, si t'es pas dans ton assiette Tu peux acheter les cahiers, pour faire du bif et des teyech Pour couper détailler, sortir du quartier en Cayenne Balmain, Gucci, Louis dans la squad Peu-fra, 9 mili-money dans le square Poussière d'étoile, j'ai tout misé sur l'espoir On va couper détailler, couper détailler Couper, couper détailler mailler mailler, couper détailler Couper, couper, couper détailler Kalmer, couper détailler tout est bon x2 Couper détailler Chez moi l'olivette c'est le fruit du péché, la tisane dans les veines, mes loups sont éméchés Manque de respect j'te présente des vrais paros, donc boy pyromane on t'allume sur les taro En vrai j'finis mon complet et j'reprends la vente, qu'est-ce qu'elle ferait pas pour un couleur lavande Seize mesures, lance roquette, j'ai l'flow du AK, masta j'suis congolais comme Serge Ibaka Port de France kill viens prendre ta photo, j'ai la rue dans la peau comme mon poto Paye nous c'que tu dois ou tu paiera plus chère, j'suis au avec les J'suis au avec les Paye nous c'que tu dois ou tu paiera plus chère You might also like Balmain, Gucci, Louis dans la squad Peu-fra, 9 mili-money dans le square Poussière d'étoile, j'ai tout misé sur l'espoir On va couper détailler, couper détailler Couper, couper détailler mailler mailler, couper détailler Couper, couper, couper détailler Kalmer, couper détailler tout est bon x2 Couper détailler J'ai sorti la première kalash, Youri Orlov, trente folles, hotel Kempinski Elle voit le hors board, elle a les formes hors norme, corps à corps sur les pistes noires avec Hayce Lem'ski J'pas l'temps, j't'allume ta re-mè comme le poto , roi du charbonne comme le poto Jamie J'ai remplit mon cigare de brocoli, les pouckies s'infiltrent au tien-son, où est Charlie ? Chargeur camembert Yeah hoe, tu pue d'la shnek'zer, t'as mis ton string à l'envers Yeah Hoe, j'vais sortir les grosses platines et la grosse berline, on prend les Roubles, les Pesetas et les Livres Sterling J'vais fourrer mes p'tites narines dans ta grosse poitrine, si j'te fréquente je rends tout ton entourage hystérique Fini les pecs de Spartacus, aujourd'hui faut peser comme Crésus T'es dans les bureaux de l'OPJ tu casses ta puce, boulevard Bess' y'a mon gava sans CLS Brabus et Tarek à Genève, on fait du fromage frais, jeunesse rocambolesque Demande à grrrrr, comme poto Crimi j'tiens toujours mes promesses Balmain, Gucci, Louis dans la squad Peu-fra, 9 mili-money dans le square Poussière d'étoile, j'ai tout misé sur l'espoir On va couper détailler, couper détailler Couper, couper détailler mailler mailler, couper détailler Couper, couper, couper détailler Kalmer, couper détailler tout est bon x2 Couper détailler On t'vi-ser comme à burningham, on t'sors le Remington On a la meilleur cam, demande au poto Ellington</t>
+          <t>On a l'bif dans le visu, ça fait zi-zir Plus personne au quartier c'est bizarre, mais les boloss sont quand meme vi-ser Sur g'nève en gamos avec , j'ai fait la coupe chez yachah Le succès ce n'est que d'passage, hashtag ferme ta chatte et puis nachav Loup de la tess , et Oussama, c't'année faut que j'fasse des ouss gava Force au fréro niouf en cavale, tout est bon kalmer si vous ça va Fuck les délits de faciès, 2017 y'a pas de sieste On va taper dans ton plat, si t'es pas dans ton assiette Tu peux acheter les cahiers, pour faire du bif et des teyech Pour couper détailler, sortir du quartier en Cayenne Balmain, Gucci, Louis dans la squad Peu-fra, 9 mili-money dans le square Poussière d'étoile, j'ai tout misé sur l'espoir On va couper détailler, couper détailler Couper, couper détailler mailler mailler, couper détailler Couper, couper, couper détailler Kalmer, couper détailler tout est bon x2 Couper détailler Chez moi l'olivette c'est le fruit du péché, la tisane dans les veines, mes loups sont éméchés Manque de respect j'te présente des vrais paros, donc boy pyromane on t'allume sur les taro En vrai j'finis mon complet et j'reprends la vente, qu'est-ce qu'elle ferait pas pour un couleur lavande Seize mesures, lance roquette, j'ai l'flow du AK, masta j'suis congolais comme Serge Ibaka Port de France kill viens prendre ta photo, j'ai la rue dans la peau comme mon poto Paye nous c'que tu dois ou tu paiera plus chère, j'suis au avec les J'suis au avec les Paye nous c'que tu dois ou tu paiera plus chère Balmain, Gucci, Louis dans la squad Peu-fra, 9 mili-money dans le square Poussière d'étoile, j'ai tout misé sur l'espoir On va couper détailler, couper détailler Couper, couper détailler mailler mailler, couper détailler Couper, couper, couper détailler Kalmer, couper détailler tout est bon x2 Couper détailler J'ai sorti la première kalash, Youri Orlov, trente folles, hotel Kempinski Elle voit le hors board, elle a les formes hors norme, corps à corps sur les pistes noires avec Hayce Lem'ski J'pas l'temps, j't'allume ta re-mè comme le poto , roi du charbonne comme le poto Jamie J'ai remplit mon cigare de brocoli, les pouckies s'infiltrent au tien-son, où est Charlie ? Chargeur camembert Yeah hoe, tu pue d'la shnek'zer, t'as mis ton string à l'envers Yeah Hoe, j'vais sortir les grosses platines et la grosse berline, on prend les Roubles, les Pesetas et les Livres Sterling J'vais fourrer mes p'tites narines dans ta grosse poitrine, si j'te fréquente je rends tout ton entourage hystérique Fini les pecs de Spartacus, aujourd'hui faut peser comme Crésus T'es dans les bureaux de l'OPJ tu casses ta puce, boulevard Bess' y'a mon gava sans CLS Brabus et Tarek à Genève, on fait du fromage frais, jeunesse rocambolesque Demande à grrrrr, comme poto Crimi j'tiens toujours mes promesses Balmain, Gucci, Louis dans la squad Peu-fra, 9 mili-money dans le square Poussière d'étoile, j'ai tout misé sur l'espoir On va couper détailler, couper détailler Couper, couper détailler mailler mailler, couper détailler Couper, couper, couper détailler Kalmer, couper détailler tout est bon x2 Couper détailler On t'vi-ser comme à burningham, on t'sors le Remington On a la meilleur cam, demande au poto Ellington</t>
         </is>
       </c>
     </row>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Lets go, Lets go Grrt Lets go, Lets go Ok j'ai déjà mis les bandes, rebeu, jm'échauffe pas Tête-à-tête avec toute ta bande, bitch me chauffe pas J'attends les échos du ghetto pour mettre les salopes à lamende Y a que la 'dre qui m'alimente khawf te sauve pas La Caille c'est pas TikTok tic-tac p'tite frappe J'ai des tactiques d'attaque j'suis pas dans les cheat-codes Jtire pas sur ls ambulances et jtape pas ls p'tites fiottes Jsuis toujours fidèle à mon opinel et à ma p'tite fiole J'ai les tibias durs, j'fais tomber les bambous Trapu jte take down, j'fais tomber les montagnes J'vais refaire la peinture, le corps suit le mental Sur le champ d'bataille au premier son des tambours J'te laisse par-terre fuck le procès Dans tous les cas y aura Fateh pour te crosser J'peux revenir d'un jour à l'autre comme Ragnar J'suis un rageux comme Ivar le désossé J'marche avec ceinture noire que personne sépare Sur le bitume que ça part en JJB sous JB Nos ruelles sont cruelles ici personne t'épargne On restera des ados remplis de haine, CJD T'auras pas l'temps d'dire Ajdimé Tu manges une rafale dans l'gilet Agité, Algérien d'bâtard obligé d'te giffler D'vant ton gang j'te localise j'y vais You might also like Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods On les tabasse les tartine les marave La dalle d'un seul homme peut exploser des barrages Par principe on t'arrange ou on t'arrache Mais wAllah qu'ça m'arrange quand j'laisse parler ma rage Suce à l'arrivée critique au démarrage L'oseille la famille c'est c'que m'a dit un sage J'suis dépositaire d'un message J'vais leur faire c'que tu fais à ta meuf après l'massage J'suis Kratos dans la Grèce Antique Zéro rimes en toc encore moins d'romantique On a grandi bizarres la faute à la rue Ici peu ont les tocs mais tout l'monde a un tic C'est la frappe en direct j'reviens d'Nador C'est pas Christian mais Dieu qu'on adore J'ai jamais sucé c'est mon plus beau disque d'or Dans les tournées pas encore trouvé mon but J'me suis rendu compte qu'hommes ou femmes c'était des putes Tous les jours c'est combat y a jamais eu d'sparring 200 balles sur le compte on parlait de s'barrer Jeunes insouciants tu sais qu'on veut tout manger Ici c'est la vraie vie tmenik on va s'marrer J'compte plus dans la ville les coups d'pression qu'j'ai mis C'est paradoxal j'viens du nord mais j'suis hami Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Ils vis-ser des manos on sert les plus belles S'tu fais l'ordure tu finis à la poubelle On arrive déter' comme les frères Boughanem On t'laisse par-terre, eh c'est ça qu'on aime Augmente le son, fais kiffer les voisons C'pour On passe par l'17 et par Valenciennes On n'appelle pas l'17 on règle ça à l'ancienne Dans la rue y a plus d'règles mais pourtant ça saigne Mon fleh dans l' récupère ma Sacem Nouvel album, nouvelle récolte Ouais ouais c'est d'la bonne un p'tit teh tu décolles K.O Direct j'vise la pointe du menton On a un putain d'vécu ne crois pas qu'nous mentons S'tu fais flops sur flops tu vas pas toucher d'biff' J'enchaîne clopes sur clopes comme Tommy Shelby Bat les couilles d'tes conseils, bat les couilles d'ton avis On veut faire de l'oseille bien kiffer la vie Les condés m'ont pété après un coup d'tel' à vif Nous on rappe pour Gaza eux ils préfèrent Tel Aviv On sort du placard on sort pas d'Saint-Cyr Chasse le naturel il r'vient avec J'défends la cause comme Yasser Arafat Fais trembler l'olivier tu t'mangeras la rafale Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods</t>
+          <t>Lets go, Lets go Grrt Lets go, Lets go Ok j'ai déjà mis les bandes, rebeu, jm'échauffe pas Tête-à-tête avec toute ta bande, bitch me chauffe pas J'attends les échos du ghetto pour mettre les salopes à lamende Y a que la 'dre qui m'alimente khawf te sauve pas La Caille c'est pas TikTok tic-tac p'tite frappe J'ai des tactiques d'attaque j'suis pas dans les cheat-codes Jtire pas sur ls ambulances et jtape pas ls p'tites fiottes Jsuis toujours fidèle à mon opinel et à ma p'tite fiole J'ai les tibias durs, j'fais tomber les bambous Trapu jte take down, j'fais tomber les montagnes J'vais refaire la peinture, le corps suit le mental Sur le champ d'bataille au premier son des tambours J'te laisse par-terre fuck le procès Dans tous les cas y aura Fateh pour te crosser J'peux revenir d'un jour à l'autre comme Ragnar J'suis un rageux comme Ivar le désossé J'marche avec ceinture noire que personne sépare Sur le bitume que ça part en JJB sous JB Nos ruelles sont cruelles ici personne t'épargne On restera des ados remplis de haine, CJD T'auras pas l'temps d'dire Ajdimé Tu manges une rafale dans l'gilet Agité, Algérien d'bâtard obligé d'te giffler D'vant ton gang j'te localise j'y vais Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods On les tabasse les tartine les marave La dalle d'un seul homme peut exploser des barrages Par principe on t'arrange ou on t'arrache Mais wAllah qu'ça m'arrange quand j'laisse parler ma rage Suce à l'arrivée critique au démarrage L'oseille la famille c'est c'que m'a dit un sage J'suis dépositaire d'un message J'vais leur faire c'que tu fais à ta meuf après l'massage J'suis Kratos dans la Grèce Antique Zéro rimes en toc encore moins d'romantique On a grandi bizarres la faute à la rue Ici peu ont les tocs mais tout l'monde a un tic C'est la frappe en direct j'reviens d'Nador C'est pas Christian mais Dieu qu'on adore J'ai jamais sucé c'est mon plus beau disque d'or Dans les tournées pas encore trouvé mon but J'me suis rendu compte qu'hommes ou femmes c'était des putes Tous les jours c'est combat y a jamais eu d'sparring 200 balles sur le compte on parlait de s'barrer Jeunes insouciants tu sais qu'on veut tout manger Ici c'est la vraie vie tmenik on va s'marrer J'compte plus dans la ville les coups d'pression qu'j'ai mis C'est paradoxal j'viens du nord mais j'suis hami Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Ils vis-ser des manos on sert les plus belles S'tu fais l'ordure tu finis à la poubelle On arrive déter' comme les frères Boughanem On t'laisse par-terre, eh c'est ça qu'on aime Augmente le son, fais kiffer les voisons C'pour On passe par l'17 et par Valenciennes On n'appelle pas l'17 on règle ça à l'ancienne Dans la rue y a plus d'règles mais pourtant ça saigne Mon fleh dans l' récupère ma Sacem Nouvel album, nouvelle récolte Ouais ouais c'est d'la bonne un p'tit teh tu décolles K.O Direct j'vise la pointe du menton On a un putain d'vécu ne crois pas qu'nous mentons S'tu fais flops sur flops tu vas pas toucher d'biff' J'enchaîne clopes sur clopes comme Tommy Shelby Bat les couilles d'tes conseils, bat les couilles d'ton avis On veut faire de l'oseille bien kiffer la vie Les condés m'ont pété après un coup d'tel' à vif Nous on rappe pour Gaza eux ils préfèrent Tel Aviv On sort du placard on sort pas d'Saint-Cyr Chasse le naturel il r'vient avec J'défends la cause comme Yasser Arafat Fais trembler l'olivier tu t'mangeras la rafale Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods Si t'es chaud on va derrière, boy Si t'es chaud on va derrière, boy Ça peut venir de derrière, boy Quand tu marches avec tes airpods</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Big Lemsi, JOON Paname, MPZ Grraw, Grrr-Ah J'pense à refaire le monde, tu sais même pas lire l'heure sur ta montre Confiance qu'en moi-même au cas où l'ciel y gronde J'ai jamais claqué l'benef pour plaire à la blonde J'peux pas ressentir la honte, faut croire en Dieu avant d'croire en soi Parfois j'me demande c'que le mot pieux veut dire en sah J'vois tout l'monde l'oublier dès l'premier soir On a revendu la gue-dro dans tous les squares La hess fait la mala, dix-sept balais j'pouvais déjà tenir une kala' Le p'tit peut t'la caler le chargeur est plus lourd qu'le calibre enculé La pénur' leur fait perdre des kilos J'conditionne toutes mes émotions dans un silo La miss mon cur est bâti d'ciment On n'écrit pas l'histoire avec le même stylo On s'détruit en s'aimant pour tenir à la vie J'attends pas qu'le bon Dieu m'fasse des signaux en vain Perdu entre les dix et les vingt Dans dix ans j'sais pas j'suis où j'suis pas devin Là-celle j'la connais pas elle m'fait la diva Ils sont bons qu'à menacer le vent Partout où y a d'l'argent à faire on ira J'ai pas brillé en cours mais j'l'ai fait dans la vente Ai-je ma chance dans la 'zik? C'est l'avenir qui l'dira J'ai fait des ou-s' dans l'bloc sa mère j'dois rien à personne J'viens de là où ça s'tue pour un klaxon Dans la pe-stu j'excelle, 7-65 j'te laisse au sol J'en place une pour Papiii qui est bloqué aux barreaux Y a trop d'noms qu'j'ai barrés, tu sais, l'amour des sous nous rend paro C'est Joon et le Hayce la même d'Angers à Paris You might also like C'est la Calle, y a le four à ravitailler Faut vite se tailler, barrio j'me suis fait balayer J'ai trimé toute ma vie j'veux pas finir aux arrivants Casqué, j'baisse la tre-vi sur ma mère j'laisse pas d'survivants C'est la Calle, y a le four à ravitailler Faut vite se tailler, barrio j'me suis fait balayer J'ai trimé toute ma vie j'veux pas finir aux arrivants Casqué, j'baisse la tre-vi sur ma mère j'laisse pas d'survivants J'ai fait un rêve magnifique Dans lequel j'te rentrais trente pénaltys dans la tête Sur le corner et son cosinus On remplit des sinus lorsqu'on prend part à la fête Tu vas pas m'la faire avec ta fausse Nautilus Rien d'plus que des comiques comme Légitimus Ils maîtrisent moins la ruse qu'un tapin Faudra plus qu'un temps plein pour pouvoir faire le plein du Urus C'matin j'ai fait 200 bur-pees Une heure de shadow, trente minutes de corde J'vais t'pull-up t'renommer Cur-tees Tu feras la une du Parisien pas d'celle de Forbes Haine algérienne pas d'California Loves Ces salopes mettent des paires de requins pour la mode On a pris toutes les sous la The North' Quand nos anciens saignaient l'terrain jusqu'à la morgue Donneuse de go gé-char dans l'Abarth Elle racole du Relais de l'Entrecôte jusqu'au Buddha Bar Opinel aiguisé j'ai fait bande à part Avec JOON et les shottas en train d'recompter dans l'appart' Indicateurs se regroupent comme un gang Elégant cagoule ma va comme un gant Wesh la rue c'est comment-gan ? J'ai des généraux des lieutenants c'est moi l'commandant C'est la Calle, y a le four à ravitailler Faut vite se tailler, barrio j'me suis fait balayer J'ai trimé toute ma vie j'veux pas finir aux arrivants Casqué, j'baisse la tre-vi sur ma mère j'laisse pas d'survivants C'est la Calle, y a le four à ravitailler Faut vite se tailler, barrio j'me suis fait balayer J'ai trimé toute ma vie j'veux pas finir aux arrivants Casqué, j'baisse la tre-vi sur ma mère j'laisse pas d'survivants C'est la Calle, y a le four à ravitailler Faut vite se tailler, barrio j'me suis fait balayer J'ai trimé toute ma vie j'veux pas finir aux arrivants Casqué, j'baisse la tre-vi sur ma mère j'laisse pas d'survivants</t>
+          <t>Big Lemsi, JOON Paname, MPZ Grraw, Grrr-Ah J'pense à refaire le monde, tu sais même pas lire l'heure sur ta montre Confiance qu'en moi-même au cas où l'ciel y gronde J'ai jamais claqué l'benef pour plaire à la blonde J'peux pas ressentir la honte, faut croire en Dieu avant d'croire en soi Parfois j'me demande c'que le mot pieux veut dire en sah J'vois tout l'monde l'oublier dès l'premier soir On a revendu la gue-dro dans tous les squares La hess fait la mala, dix-sept balais j'pouvais déjà tenir une kala' Le p'tit peut t'la caler le chargeur est plus lourd qu'le calibre enculé La pénur' leur fait perdre des kilos J'conditionne toutes mes émotions dans un silo La miss mon cur est bâti d'ciment On n'écrit pas l'histoire avec le même stylo On s'détruit en s'aimant pour tenir à la vie J'attends pas qu'le bon Dieu m'fasse des signaux en vain Perdu entre les dix et les vingt Dans dix ans j'sais pas j'suis où j'suis pas devin Là-celle j'la connais pas elle m'fait la diva Ils sont bons qu'à menacer le vent Partout où y a d'l'argent à faire on ira J'ai pas brillé en cours mais j'l'ai fait dans la vente Ai-je ma chance dans la 'zik? C'est l'avenir qui l'dira J'ai fait des ou-s' dans l'bloc sa mère j'dois rien à personne J'viens de là où ça s'tue pour un klaxon Dans la pe-stu j'excelle, 7-65 j'te laisse au sol J'en place une pour Papiii qui est bloqué aux barreaux Y a trop d'noms qu'j'ai barrés, tu sais, l'amour des sous nous rend paro C'est Joon et le Hayce la même d'Angers à Paris C'est la Calle, y a le four à ravitailler Faut vite se tailler, barrio j'me suis fait balayer J'ai trimé toute ma vie j'veux pas finir aux arrivants Casqué, j'baisse la tre-vi sur ma mère j'laisse pas d'survivants C'est la Calle, y a le four à ravitailler Faut vite se tailler, barrio j'me suis fait balayer J'ai trimé toute ma vie j'veux pas finir aux arrivants Casqué, j'baisse la tre-vi sur ma mère j'laisse pas d'survivants J'ai fait un rêve magnifique Dans lequel j'te rentrais trente pénaltys dans la tête Sur le corner et son cosinus On remplit des sinus lorsqu'on prend part à la fête Tu vas pas m'la faire avec ta fausse Nautilus Rien d'plus que des comiques comme Légitimus Ils maîtrisent moins la ruse qu'un tapin Faudra plus qu'un temps plein pour pouvoir faire le plein du Urus C'matin j'ai fait 200 bur-pees Une heure de shadow, trente minutes de corde J'vais t'pull-up t'renommer Cur-tees Tu feras la une du Parisien pas d'celle de Forbes Haine algérienne pas d'California Loves Ces salopes mettent des paires de requins pour la mode On a pris toutes les sous la The North' Quand nos anciens saignaient l'terrain jusqu'à la morgue Donneuse de go gé-char dans l'Abarth Elle racole du Relais de l'Entrecôte jusqu'au Buddha Bar Opinel aiguisé j'ai fait bande à part Avec JOON et les shottas en train d'recompter dans l'appart' Indicateurs se regroupent comme un gang Elégant cagoule ma va comme un gant Wesh la rue c'est comment-gan ? J'ai des généraux des lieutenants c'est moi l'commandant C'est la Calle, y a le four à ravitailler Faut vite se tailler, barrio j'me suis fait balayer J'ai trimé toute ma vie j'veux pas finir aux arrivants Casqué, j'baisse la tre-vi sur ma mère j'laisse pas d'survivants C'est la Calle, y a le four à ravitailler Faut vite se tailler, barrio j'me suis fait balayer J'ai trimé toute ma vie j'veux pas finir aux arrivants Casqué, j'baisse la tre-vi sur ma mère j'laisse pas d'survivants C'est la Calle, y a le four à ravitailler Faut vite se tailler, barrio j'me suis fait balayer J'ai trimé toute ma vie j'veux pas finir aux arrivants Casqué, j'baisse la tre-vi sur ma mère j'laisse pas d'survivants</t>
         </is>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Kalashnikov en bandoulière Un violet pour le sommelier J'te laisse tenir le chandelier J'viens d'cher-cra dans la flanelle de la chancelière J'vais t'la rentrer dans l'cul b'el saboune J'viens du triangle, j'rentre pas dans l'cercle J'suis l'meilleur de l'hexagone Mon à 6 litres 3 Y'a remontada t'es nerveux J'touche le litre à 1 balle 7 J'te l'rebute à 3 balles 2 Premier sur la presse, premier sur la tess, premier sur la Haute Altesse Kenzo, Gucci, j'claque salaire annuelle d'un hesses De l'hydroponique, j'ai mon brolique, ma presse hydraulique Macho bang bang me demande Quand est-ce qu'on rafale ces tho-my ? Yeah hoe C'est le H, c'est le A, c'est le YZ C'est la peste ou la mort que les vipères m'souhaitent ? Et ça parle sur moi devant les p'tites khenzettes J'suis le p'tit d'personne, j'fais du biff hendek J'fais cent pompes, elle me pompe, je recompte J'fais cent pompes, je recompte, elle me pompe Toutes les chattes sur ma beu-te retombent Front National, second tour, tu t'rends compte ? Allez ramasse ta cagette Tout l'quartier connaît ta cachette Mais personne te vole c'est frelaté Y'a qu'dans tes rêves qu'on a fait la paix pute You might also like T'as tellement sucé qu'tu n'as même plus d'visage Avec ma bitch on fait des trucs bizarres Des trucs bizarroïdes, j'suis sous cannabinoïde J'sais plus où j'ai mit, hé J'ai rangé mon passeport biométrique avec un gros paquet d'fric Une carte gold à cryptogramme dynamique Hardcore, tyranique Pas d'couteaux en céramique Les jaloux sont fucked-up, j'suis au sommet d'la pyramique Binks Binks Plus d'chrysalide J'ai le papillon qui tourne et qui tourne dans ta cuisse J'sors du Mabillon, ce soir j'vais faire un tour dans ta bitch Pendant ce temps là tu bois jusqu'à t'endormir dans ta pisse Compare pas la Kalash à des sarbacanes J'ai mit ma weed et mes potes-ca dans son sac Chanel T'es pas mariée à ton âge ? T'es qu'une sale kahba T'as constamment le gosier remplis de béchamel Des mouches plus grosses que des abeilles agglutinées sur un cadavre J'monte sur scène sans gilet pare-balles viens... Grrrrraaaa Sortis d'la tour B, le whisky est tourbé, la petite est courbée M'Barak m'a dit c'est toi le rappeur le plus bourbier ! La Haute Au-dessus c'est l'soleil, bitch !</t>
+          <t>Kalashnikov en bandoulière Un violet pour le sommelier J'te laisse tenir le chandelier J'viens d'cher-cra dans la flanelle de la chancelière J'vais t'la rentrer dans l'cul b'el saboune J'viens du triangle, j'rentre pas dans l'cercle J'suis l'meilleur de l'hexagone Mon à 6 litres 3 Y'a remontada t'es nerveux J'touche le litre à 1 balle 7 J'te l'rebute à 3 balles 2 Premier sur la presse, premier sur la tess, premier sur la Haute Altesse Kenzo, Gucci, j'claque salaire annuelle d'un hesses De l'hydroponique, j'ai mon brolique, ma presse hydraulique Macho bang bang me demande Quand est-ce qu'on rafale ces tho-my ? Yeah hoe C'est le H, c'est le A, c'est le YZ C'est la peste ou la mort que les vipères m'souhaitent ? Et ça parle sur moi devant les p'tites khenzettes J'suis le p'tit d'personne, j'fais du biff hendek J'fais cent pompes, elle me pompe, je recompte J'fais cent pompes, je recompte, elle me pompe Toutes les chattes sur ma beu-te retombent Front National, second tour, tu t'rends compte ? Allez ramasse ta cagette Tout l'quartier connaît ta cachette Mais personne te vole c'est frelaté Y'a qu'dans tes rêves qu'on a fait la paix pute T'as tellement sucé qu'tu n'as même plus d'visage Avec ma bitch on fait des trucs bizarres Des trucs bizarroïdes, j'suis sous cannabinoïde J'sais plus où j'ai mit, hé J'ai rangé mon passeport biométrique avec un gros paquet d'fric Une carte gold à cryptogramme dynamique Hardcore, tyranique Pas d'couteaux en céramique Les jaloux sont fucked-up, j'suis au sommet d'la pyramique Binks Binks Plus d'chrysalide J'ai le papillon qui tourne et qui tourne dans ta cuisse J'sors du Mabillon, ce soir j'vais faire un tour dans ta bitch Pendant ce temps là tu bois jusqu'à t'endormir dans ta pisse Compare pas la Kalash à des sarbacanes J'ai mit ma weed et mes potes-ca dans son sac Chanel T'es pas mariée à ton âge ? T'es qu'une sale kahba T'as constamment le gosier remplis de béchamel Des mouches plus grosses que des abeilles agglutinées sur un cadavre J'monte sur scène sans gilet pare-balles viens... Grrrrraaaa Sortis d'la tour B, le whisky est tourbé, la petite est courbée M'Barak m'a dit c'est toi le rappeur le plus bourbier ! La Haute Au-dessus c'est l'soleil, bitch !</t>
         </is>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Signer dans ton label pourri, bikow naaan Ils veulent test ma city, mais ils sont trop lents Rebeu je n'ai plus de limites, je leur rentre dedans Les meilleurs m'ont dit Reviens pas sur la Lambo, pas sur la Lambo Et je tourne, et je tourne, et je tourne, dans la ville, vient rentre dans la Lambo J'ai peur de périr, de leurs couteaux dans le dos J'ai fait mes classes toute la vie dans le bando J'tire sans viser, j'sors le glock, j'suis le rando L'electron libre volume 2 tsuki el mundo Les meilleurs m'ont dit Reviens pas sur la Lambo Lamborghini, merci, mélomane au mille mélodie toujours en acapella Ton bénéf' dans le nez de la Reine des Neiges Toi qui voulais juste quelques caresses de loup La bicrave fait croire que les peine sont lege À chaque fois que la BAC arrive, tu mets la gouache comme au carocelle du loup Hey, parle-moi espèce d'engrais dans mon espace Hey, elle a rien dans la tête, elle a tout dans les hanches Là j'ai pas trop la pêche, j'y ou plus quand j'y pense où je garde plus de fraîche pour assurer mes rentes Ja-ja-ja-ja, ja-j'arrive cool, comme si-si-si je rentrais de dab You might also like Signer dans ton label pourri, bikow naaan Ils veulent test ma city, mais ils sont trop lents Rebeu je n'ai plus de limites, je leur rentre dedans Les meilleurs m'ont dit Reviens pas sur la Lambo, pas sur la Lambo Et je tourne, et je tourne, et je tourne, dans la ville, vient rentre dans la Lambo J'ai peur de périr, de leurs couteaux dans le dos J'ai fait mes classes, tout apris dans le bando Je tire sans viser, j'sors le glock, j'suis le rando L'électron libre volume 2 tsuki el mundo Les meilleurs m'ont dit Reviens pas sur la Lambo Personne me fait graille, mais le contraire n'est pas sûr On apprend de ses erreurs donc ils apprennent sur moi x2 Quand j'écris allez, devine qu'était là ? Personne, personne, à part mes couilles et mon cerveau Personne, personne, essayez de me joindre sur mon tél' gros Hey, je suis fonce-dé, 'lors j'essaie de lire sur ma Brentline Hey, pouki se fait pull-up comme parking Hey, gauche-droite, ou coup de couteau, je te vois venir Signer dans ton label pourri, bikow naaan Ils veulent test ma city, mais ils sont trop lents Rebeu je n'ai plus de limites, je leur rentre dedans Les meilleurs m'ont dit Reviens pas sur la Lambo, pas sur la Lambo Et je tourne, et je tourne, et je tourne, dans la ville, vient rentre dans la Lambo J'ai peur de périr, de leurs couteaux dans le dos J'ai fait mes classes, tout apris dans le bando Je tire sans viser, j'sors le glock, j'suis le rando L'électron libre volume 2 tsuki el mundo Les meilleurs m'ont dit Reviens fast en Lambo Fast en Lambo Et je tourne, et je tourne, et je, hey, hey, hey</t>
+          <t>Signer dans ton label pourri, bikow naaan Ils veulent test ma city, mais ils sont trop lents Rebeu je n'ai plus de limites, je leur rentre dedans Les meilleurs m'ont dit Reviens pas sur la Lambo, pas sur la Lambo Et je tourne, et je tourne, et je tourne, dans la ville, vient rentre dans la Lambo J'ai peur de périr, de leurs couteaux dans le dos J'ai fait mes classes toute la vie dans le bando J'tire sans viser, j'sors le glock, j'suis le rando L'electron libre volume 2 tsuki el mundo Les meilleurs m'ont dit Reviens pas sur la Lambo Lamborghini, merci, mélomane au mille mélodie toujours en acapella Ton bénéf' dans le nez de la Reine des Neiges Toi qui voulais juste quelques caresses de loup La bicrave fait croire que les peine sont lege À chaque fois que la BAC arrive, tu mets la gouache comme au carocelle du loup Hey, parle-moi espèce d'engrais dans mon espace Hey, elle a rien dans la tête, elle a tout dans les hanches Là j'ai pas trop la pêche, j'y ou plus quand j'y pense où je garde plus de fraîche pour assurer mes rentes Ja-ja-ja-ja, ja-j'arrive cool, comme si-si-si je rentrais de dab Signer dans ton label pourri, bikow naaan Ils veulent test ma city, mais ils sont trop lents Rebeu je n'ai plus de limites, je leur rentre dedans Les meilleurs m'ont dit Reviens pas sur la Lambo, pas sur la Lambo Et je tourne, et je tourne, et je tourne, dans la ville, vient rentre dans la Lambo J'ai peur de périr, de leurs couteaux dans le dos J'ai fait mes classes, tout apris dans le bando Je tire sans viser, j'sors le glock, j'suis le rando L'électron libre volume 2 tsuki el mundo Les meilleurs m'ont dit Reviens pas sur la Lambo Personne me fait graille, mais le contraire n'est pas sûr On apprend de ses erreurs donc ils apprennent sur moi x2 Quand j'écris allez, devine qu'était là ? Personne, personne, à part mes couilles et mon cerveau Personne, personne, essayez de me joindre sur mon tél' gros Hey, je suis fonce-dé, 'lors j'essaie de lire sur ma Brentline Hey, pouki se fait pull-up comme parking Hey, gauche-droite, ou coup de couteau, je te vois venir Signer dans ton label pourri, bikow naaan Ils veulent test ma city, mais ils sont trop lents Rebeu je n'ai plus de limites, je leur rentre dedans Les meilleurs m'ont dit Reviens pas sur la Lambo, pas sur la Lambo Et je tourne, et je tourne, et je tourne, dans la ville, vient rentre dans la Lambo J'ai peur de périr, de leurs couteaux dans le dos J'ai fait mes classes, tout apris dans le bando Je tire sans viser, j'sors le glock, j'suis le rando L'électron libre volume 2 tsuki el mundo Les meilleurs m'ont dit Reviens fast en Lambo Fast en Lambo Et je tourne, et je tourne, et je, hey, hey, hey</t>
         </is>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Bébé tu m'laisses même pas recompter, tu m'laisses même pas raconter T'as bu tout l'oseille j'suis dégoûté, tu vas recracher tout le Dom Pe' J'ai laissé passer le mistral, c'que la juge m'a administré J'suis dans ma cellule en freestyle, et tous ces mystères m'ont frustré J'aime te voir te dévergonder, si ton fessier est bombé Et les rumeurs non fondées, disent que tu refuses d'enfanter Elle veut le code de la carte bleu, elle m'a vu avec un tas de fimbis Elle aimerait avoir une carte de vu, je la rachète avec un sac Fendi J'suis posé dans la zone, elle voudrait que je rentre à la maison Elle veut changer la donne, elle me dit qu'son cur a ses raisons J'suis posé dans la zone, elle voudrait que je rentre à la maison Moi j'veux ramener les sommes, donc je traîne dehors à toutes les saisons Hey hey hey hey Na na na, hey hey hey Na na na na hey hey hey Na na na, hey hey hey Na na na na J'essaie de faire mon seille-o, d'aimer ceux qui nous aime Si tu veux t'en aller faut les loves, pas calculer ceux qui nous freine Ma chérie veut m'aider elle voudrait un bébé, mais j'suis bon qu'à faire du sale Ma chérie je t'aime mais j'suis dans mon game, là j'suis bon qu'à faire du sale Faut que je fasse des lovés, j'ai des choses à donner Faut que je fasse des lovés, j'ai des choses à donner You might also like Elle veut le code de la carte bleu, elle m'a vu avec un tas de fimbis Elle aimerait avoir une carte de vu, je la rachète avec un sac Fendi J'suis posé dans la zone, elle voudrait que je rentre à la maison Elle veut changer la donne, elle me dit qu'son cur a ses raisons J'suis posé dans la zone, elle voudrait que je rentre à la maison Moi j'veux ramener les sommes, donc je traîne dehors à toutes les saisons Hey hey hey hey Na na na, hey hey hey Na na na na hey hey hey Na na na, hey hey hey Na na na na J'suis posé dans la zone, elle voudrait que je rentre à la maison Elle veut changer la donne, elle me dit qu'son cur a ses raisons J'suis posé dans la zone, elle voudrait que je rentre à la maison Moi j'veux ramener les sommes, donc je traîne dehors à toutes les saisons Hey hey hey hey Na na na, hey hey hey Na na na na hey hey hey Na na na, hey hey hey Na na na na</t>
+          <t>Bébé tu m'laisses même pas recompter, tu m'laisses même pas raconter T'as bu tout l'oseille j'suis dégoûté, tu vas recracher tout le Dom Pe' J'ai laissé passer le mistral, c'que la juge m'a administré J'suis dans ma cellule en freestyle, et tous ces mystères m'ont frustré J'aime te voir te dévergonder, si ton fessier est bombé Et les rumeurs non fondées, disent que tu refuses d'enfanter Elle veut le code de la carte bleu, elle m'a vu avec un tas de fimbis Elle aimerait avoir une carte de vu, je la rachète avec un sac Fendi J'suis posé dans la zone, elle voudrait que je rentre à la maison Elle veut changer la donne, elle me dit qu'son cur a ses raisons J'suis posé dans la zone, elle voudrait que je rentre à la maison Moi j'veux ramener les sommes, donc je traîne dehors à toutes les saisons Hey hey hey hey Na na na, hey hey hey Na na na na hey hey hey Na na na, hey hey hey Na na na na J'essaie de faire mon seille-o, d'aimer ceux qui nous aime Si tu veux t'en aller faut les loves, pas calculer ceux qui nous freine Ma chérie veut m'aider elle voudrait un bébé, mais j'suis bon qu'à faire du sale Ma chérie je t'aime mais j'suis dans mon game, là j'suis bon qu'à faire du sale Faut que je fasse des lovés, j'ai des choses à donner Faut que je fasse des lovés, j'ai des choses à donner Elle veut le code de la carte bleu, elle m'a vu avec un tas de fimbis Elle aimerait avoir une carte de vu, je la rachète avec un sac Fendi J'suis posé dans la zone, elle voudrait que je rentre à la maison Elle veut changer la donne, elle me dit qu'son cur a ses raisons J'suis posé dans la zone, elle voudrait que je rentre à la maison Moi j'veux ramener les sommes, donc je traîne dehors à toutes les saisons Hey hey hey hey Na na na, hey hey hey Na na na na hey hey hey Na na na, hey hey hey Na na na na J'suis posé dans la zone, elle voudrait que je rentre à la maison Elle veut changer la donne, elle me dit qu'son cur a ses raisons J'suis posé dans la zone, elle voudrait que je rentre à la maison Moi j'veux ramener les sommes, donc je traîne dehors à toutes les saisons Hey hey hey hey Na na na, hey hey hey Na na na na hey hey hey Na na na, hey hey hey Na na na na</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Elle finit le taff direct elle va à lhôtel Célibataire Rimmel implants mammaires Miss restera escorté jusquà Miami Cherche le michton le plus magnanime Personne ne sait vraiment ce qui sommeille en elle Elle qui détruit les hommes, les laissent le cur en miette Une fois quelle a assez bronzé à Bali Puis elle en attrape un autre au Bâoli Elle a fait du chiffres ct année Mais elle sent son cur semballer Elle est rongée par les tourments De ces années passées Elle a vu la Porsche elle est montée montée Comme Kardashian Kim ou Kylie Instagram et compagnie Dans lendroit où elle a grandi Tout lmonde sait ce quelle fait de sa vie Elle sest faite renié par toute sa famille Oh la la la la Leïla Leïla Leïla La vie cest pas Dior et Margiela Tu as tourné le dos à la famiglia famigli miglia Leïla Leïla Leïla La vie cest pas Dior et Margiela Tu cherches celui quauras le miglia lmigli miglia Si tes gusta Dans le carré que des gangstas Tous les jours elle pousse à la salle Elle ne connait que largent salle Elle ma vu en gamos elle a bombardé Elle ma dit quelle naimait pas les beaux parleurs Me parle de son ex jsuis pas comme lui Jfais rentrer des milliers deuros chaque quart dheure You might also like Fini la hess et les cannellonis Elle revient de Nouvelle Calédonie Parle de son ex jsuis pas comme lui Jfais rentrer des milliers deuros chaque quart dheure Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla La vie cest pas Dior et Margiela Tu as tourné le dos à la famiglia famigli miglia Leïla Leïla Leïla La vie cest pas Dior et Margiela Tu cherches celui quauras le miglia lmigli miglia Si tes gusta Dans le carré que des gangstas Tous les jours elle pousse à la salle Elle ne connait que largent salle Elle ma vu en gamos elle a bombardé Elle ma dit quelle naimait pas les beaux parleurs Me parle de son ex jsuis pas comme lui Jfais rentrer des milliers deuros chaque quart dheures</t>
+          <t>Elle finit le taff direct elle va à lhôtel Célibataire Rimmel implants mammaires Miss restera escorté jusquà Miami Cherche le michton le plus magnanime Personne ne sait vraiment ce qui sommeille en elle Elle qui détruit les hommes, les laissent le cur en miette Une fois quelle a assez bronzé à Bali Puis elle en attrape un autre au Bâoli Elle a fait du chiffres ct année Mais elle sent son cur semballer Elle est rongée par les tourments De ces années passées Elle a vu la Porsche elle est montée montée Comme Kardashian Kim ou Kylie Instagram et compagnie Dans lendroit où elle a grandi Tout lmonde sait ce quelle fait de sa vie Elle sest faite renié par toute sa famille Oh la la la la Leïla Leïla Leïla La vie cest pas Dior et Margiela Tu as tourné le dos à la famiglia famigli miglia Leïla Leïla Leïla La vie cest pas Dior et Margiela Tu cherches celui quauras le miglia lmigli miglia Si tes gusta Dans le carré que des gangstas Tous les jours elle pousse à la salle Elle ne connait que largent salle Elle ma vu en gamos elle a bombardé Elle ma dit quelle naimait pas les beaux parleurs Me parle de son ex jsuis pas comme lui Jfais rentrer des milliers deuros chaque quart dheure Fini la hess et les cannellonis Elle revient de Nouvelle Calédonie Parle de son ex jsuis pas comme lui Jfais rentrer des milliers deuros chaque quart dheure Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla Leïla La vie cest pas Dior et Margiela Tu as tourné le dos à la famiglia famigli miglia Leïla Leïla Leïla La vie cest pas Dior et Margiela Tu cherches celui quauras le miglia lmigli miglia Si tes gusta Dans le carré que des gangstas Tous les jours elle pousse à la salle Elle ne connait que largent salle Elle ma vu en gamos elle a bombardé Elle ma dit quelle naimait pas les beaux parleurs Me parle de son ex jsuis pas comme lui Jfais rentrer des milliers deuros chaque quart dheures</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>L'OPJ veut que j'donne les blazes, ha non, ha non, ha non Ils disent que j'suis méchant de base, ha non, ha non, ha non J'sais qu'dans leurs bouches y a que mon blaze, holala Tu peux garder simagrée, tout l'tralala J'prends l'game en otage, ils sonnent l'alarme J't'emmène au sol, j'te sortirai pas ma lame J'suis ce phénomène de la cité, tout au long de ma vie dans le ghetto en guitare Elle m'a fait le mal, elle m'a quitté, on faisait l'amour en Goyard J'voulais posséder l'rrain-té, j'ai vu cette lueur au fond du brouillard Elle m'a fait le mal, elle m'a quitté, on faisait l'amour en Goyard Elle cherche complication, alors, alors, alors Elle attend des explications, alors, alors, alors Elle veut qu'j'lui fasse un p'tit garçon, que j'l'appelle madame mais j'aime trop le macadam Et j'brise mes relations, j'suis pas normal Que les donneurs de l'çons s'abstiennent de m'faire la morale S'alcooliser, canaliser l'anxiété, j'peux même plus compter les pétards Plus jeune, j'ai vu maman s'inquiéter, j'étais ivre et je rentrais tard Dans la rue y a pas d'pitié, j'vois les bicots s'piétiner pour ta part Chaque jour, des contrôles d'identités, jusqu'à crever dans le mitard You might also like Elle cherche complication, alors, alors, alors Elle attend des explications, alors, alors, alors Elle m'dit C'est quoi c't'application ? Toi qu'aimes trop les femmes Tes mauvaises intentions te f'ront brûler dans les flammes Ta seule occupation, c'est d'faire le h3ram J'veux pas d'une relation avec un bad boy marginal</t>
+          <t>L'OPJ veut que j'donne les blazes, ha non, ha non, ha non Ils disent que j'suis méchant de base, ha non, ha non, ha non J'sais qu'dans leurs bouches y a que mon blaze, holala Tu peux garder simagrée, tout l'tralala J'prends l'game en otage, ils sonnent l'alarme J't'emmène au sol, j'te sortirai pas ma lame J'suis ce phénomène de la cité, tout au long de ma vie dans le ghetto en guitare Elle m'a fait le mal, elle m'a quitté, on faisait l'amour en Goyard J'voulais posséder l'rrain-té, j'ai vu cette lueur au fond du brouillard Elle m'a fait le mal, elle m'a quitté, on faisait l'amour en Goyard Elle cherche complication, alors, alors, alors Elle attend des explications, alors, alors, alors Elle veut qu'j'lui fasse un p'tit garçon, que j'l'appelle madame mais j'aime trop le macadam Et j'brise mes relations, j'suis pas normal Que les donneurs de l'çons s'abstiennent de m'faire la morale S'alcooliser, canaliser l'anxiété, j'peux même plus compter les pétards Plus jeune, j'ai vu maman s'inquiéter, j'étais ivre et je rentrais tard Dans la rue y a pas d'pitié, j'vois les bicots s'piétiner pour ta part Chaque jour, des contrôles d'identités, jusqu'à crever dans le mitard Elle cherche complication, alors, alors, alors Elle attend des explications, alors, alors, alors Elle m'dit C'est quoi c't'application ? Toi qu'aimes trop les femmes Tes mauvaises intentions te f'ront brûler dans les flammes Ta seule occupation, c'est d'faire le h3ram J'veux pas d'une relation avec un bad boy marginal</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>C'est L'Insomniak, c'est Lemsi Hayce La Fourche, la Tour, la J Bienvenue dans la jungle Bilibikow Pourquoi vouloir aller plus vite que le guépard au démarrage ? On, fuit comme des lézards sur l'ter-ter, les porcs aiment jouer à l'arrache Moi j'suis né entre deux chameaux, j'me comporte comme un renard Pour t'faire cracher le morceau, j'te frappe avec un chat noir On est pas tous en chien comme oit, on est fêlé ravale ton venin T'es fini, j'retombe toujours sur mes pattes, j'suis un félin Confond pas le maître et l'apôtre, faire du biff jamais la flemme hein Mon instinct me dit qu'on est fait l'un pour l'autre, un peu trop fennec Pénètre par la fenêtre, on pense à nos frères en prison J'sens que j'ai le cerveau baisé, j'consomme plus d'herbe qu'un bison Me roule en boule comme un hérisson si j'suis seul contre tous Tu nehess comme un nourrisson quand L'Insomniak est sur Pro Tools Dès le printemps, ça ken comme des lapins, les chattes ont les poils hérissés Toutes en chaleur, ça fait le tapin pour une vodka chez l'épicier Qui a pissé sur mon territoire ? J'laisse une marre de sang dans ton lit Cernes d'hibou sous lunettes noires, déboussolé par l'insomnie Les scars-la s'cachent pour pleurer, c'est pas des larmes de crocodiles On s'dit qu'faut qu'on s'accroche au Dîn en voyant la mort nous effleurer Reste muet comme une carpe, en cage dans la porcherie Des bilibikos déboulent en meute, on est des loups dans la bergerie You might also like J'égorge le coq, tire sur la colombe au Glock Voilà des animaux de la monnaie voilà mon époque J'égorgerai le coq, tire sur la blanche colombe au Glock Voilà des animaux de la monnaie voilà mon époque J'égorgerai le coq, tire sur la colombe au Glock Voilà des animaux de la monnaie voilà mon époque</t>
+          <t>C'est L'Insomniak, c'est Lemsi Hayce La Fourche, la Tour, la J Bienvenue dans la jungle Bilibikow Pourquoi vouloir aller plus vite que le guépard au démarrage ? On, fuit comme des lézards sur l'ter-ter, les porcs aiment jouer à l'arrache Moi j'suis né entre deux chameaux, j'me comporte comme un renard Pour t'faire cracher le morceau, j'te frappe avec un chat noir On est pas tous en chien comme oit, on est fêlé ravale ton venin T'es fini, j'retombe toujours sur mes pattes, j'suis un félin Confond pas le maître et l'apôtre, faire du biff jamais la flemme hein Mon instinct me dit qu'on est fait l'un pour l'autre, un peu trop fennec Pénètre par la fenêtre, on pense à nos frères en prison J'sens que j'ai le cerveau baisé, j'consomme plus d'herbe qu'un bison Me roule en boule comme un hérisson si j'suis seul contre tous Tu nehess comme un nourrisson quand L'Insomniak est sur Pro Tools Dès le printemps, ça ken comme des lapins, les chattes ont les poils hérissés Toutes en chaleur, ça fait le tapin pour une vodka chez l'épicier Qui a pissé sur mon territoire ? J'laisse une marre de sang dans ton lit Cernes d'hibou sous lunettes noires, déboussolé par l'insomnie Les scars-la s'cachent pour pleurer, c'est pas des larmes de crocodiles On s'dit qu'faut qu'on s'accroche au Dîn en voyant la mort nous effleurer Reste muet comme une carpe, en cage dans la porcherie Des bilibikos déboulent en meute, on est des loups dans la bergerie J'égorge le coq, tire sur la colombe au Glock Voilà des animaux de la monnaie voilà mon époque J'égorgerai le coq, tire sur la blanche colombe au Glock Voilà des animaux de la monnaie voilà mon époque J'égorgerai le coq, tire sur la colombe au Glock Voilà des animaux de la monnaie voilà mon époque</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Et tu cours et tu cours et tu cours et tu cours après c'que tu n'as pas Et tu tournes et tu tournes et tu tournes J'suis un genre d'surhomme, un genre d'sérum de vérité On est des p'tits gens, on a hérité de c'qu'on a mérité J'men fous tant que j'suis XXX Johnny Hallyday J'suis même validé par le mot validé yaaw V'la la diversité les arc-en-ciels nous servent de toboggan Tu marches avec des hypocrites, je nage avec des hippocampes J'suis le papa du rap, pa-palapa Je shoot quadrillé ?, la zone nous solitaire sagittaire lunaire calendrier Scaphandrier, de la rime profonde Échec et math, jsuis au max de ma tec On m'a dit Hayce t'es le maître le mac j'ai le mac telema tel un pack Telenet piiiiw J'ai peur de m'égarer comme Hansel Gretel Que le succès m'remonte les bretelles De monter sur scène de l'regretter, Hey Celle-ci c'est pour mes électrons libres Charbonne les études ou les trons-li En t'cas j'embrasse les électroniques, on restera des électrons libres Comme si le ciel mettait tomber dessus Qui sème le vent rythme le tempo L'être humain m'a déçu et je refais l'tour de Paris J'repense à nos accolades au bord de l'eau J'te ferais visiter Paris Je veux juste que tu sois ma loca J'veux qu'tu m'rejoignes à Paris OhIohIohIohHayce Fais moi visiter Paris OhIohIohIohHayce Fais moi visiter Paris OhIohIohIohHayce Fais moi visiter Paris OhIohIohIohHayce J'me rappelle de notre accolades au bord de l'eau J'te ferais visiter Paris You might also like Hey, on vient tout prendre y'a rien à comprendre On a déjà tout tenter la boule au ventre Ils font les gangsters, devant nous sont tout tendres Y'a rien à comprendre, on va tout prendre J'ai caché la beuh dans le sac de ma gadji Ce soir on va prendre une de ces suite Adagio J'ai pas la voie de Dadju, mais je sais que ce soir elle cherche le plus macho J'suis dans le périmètre, j'ai le Dom Perignon, j'ai le neuf millimètres J'suis dans le périmètre, j'ai le Dom Perignon, j'ai le neuf millimètres Celle-ci c'est pour mes électrons libres Charbonne les études ou les trons-li En t'cas j'embrasse les électroniques, on restera des électrons libres Comme si le ciel mettait tomber dessus Qui sème le vent rythme le tempo L'être humain m'a déçu et je refais l'tour de Paris J'repense à nos accolades au bord de l'eau J'te ferais visiter Paris Je veux juste que tu sois ma loca J'veux qu'tu m'rejoignes à Paris OhIohIohIohHayce Fais moi visiter Paris OhIohIohIohHayce Fais moi visiter Paris OhIohIohIohHayce Fais moi visiter Paris OhIohIohIohHayce J'me rappelle de notre accolades au bord de l'eau J'te ferais visiter Paris</t>
+          <t>Et tu cours et tu cours et tu cours et tu cours après c'que tu n'as pas Et tu tournes et tu tournes et tu tournes J'suis un genre d'surhomme, un genre d'sérum de vérité On est des p'tits gens, on a hérité de c'qu'on a mérité J'men fous tant que j'suis XXX Johnny Hallyday J'suis même validé par le mot validé yaaw V'la la diversité les arc-en-ciels nous servent de toboggan Tu marches avec des hypocrites, je nage avec des hippocampes J'suis le papa du rap, pa-palapa Je shoot quadrillé ?, la zone nous solitaire sagittaire lunaire calendrier Scaphandrier, de la rime profonde Échec et math, jsuis au max de ma tec On m'a dit Hayce t'es le maître le mac j'ai le mac telema tel un pack Telenet piiiiw J'ai peur de m'égarer comme Hansel Gretel Que le succès m'remonte les bretelles De monter sur scène de l'regretter, Hey Celle-ci c'est pour mes électrons libres Charbonne les études ou les trons-li En t'cas j'embrasse les électroniques, on restera des électrons libres Comme si le ciel mettait tomber dessus Qui sème le vent rythme le tempo L'être humain m'a déçu et je refais l'tour de Paris J'repense à nos accolades au bord de l'eau J'te ferais visiter Paris Je veux juste que tu sois ma loca J'veux qu'tu m'rejoignes à Paris OhIohIohIohHayce Fais moi visiter Paris OhIohIohIohHayce Fais moi visiter Paris OhIohIohIohHayce Fais moi visiter Paris OhIohIohIohHayce J'me rappelle de notre accolades au bord de l'eau J'te ferais visiter Paris Hey, on vient tout prendre y'a rien à comprendre On a déjà tout tenter la boule au ventre Ils font les gangsters, devant nous sont tout tendres Y'a rien à comprendre, on va tout prendre J'ai caché la beuh dans le sac de ma gadji Ce soir on va prendre une de ces suite Adagio J'ai pas la voie de Dadju, mais je sais que ce soir elle cherche le plus macho J'suis dans le périmètre, j'ai le Dom Perignon, j'ai le neuf millimètres J'suis dans le périmètre, j'ai le Dom Perignon, j'ai le neuf millimètres Celle-ci c'est pour mes électrons libres Charbonne les études ou les trons-li En t'cas j'embrasse les électroniques, on restera des électrons libres Comme si le ciel mettait tomber dessus Qui sème le vent rythme le tempo L'être humain m'a déçu et je refais l'tour de Paris J'repense à nos accolades au bord de l'eau J'te ferais visiter Paris Je veux juste que tu sois ma loca J'veux qu'tu m'rejoignes à Paris OhIohIohIohHayce Fais moi visiter Paris OhIohIohIohHayce Fais moi visiter Paris OhIohIohIohHayce Fais moi visiter Paris OhIohIohIohHayce J'me rappelle de notre accolades au bord de l'eau J'te ferais visiter Paris</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Le ciel est si vaste, les étoiles m'envient, les nuages m'en veulent Au milieu d'un cyclone d'argent sale, la violence te coupe le visage en deux Y a pas d'AP dans ton linceul, qui va nettoyer ton linge sale ? Fais pas l'fragile pour une lope-sa, tu lui payes des sacs pour t'sentir moins seul C'est un pour la mama, deux pour la moula, trois pour la mala, Enzo Dong On était là quand fallait s'per-ta quand fallait benda, Kenzo, Gucci Fendi, zebi dans ta poche un billet d'xeu-di dans c'monde où l'amour se crédite Obligé d'taper son ce-vi, sens interdit sur la route de la rédemption, la gloire et la rançon Indomptable, on s'est fait tout seul, pour péter le gamos toutes options Je vous vois, je laisse la dictature du paraître vous aveugler Quand j'te demande si tu vends ta gov', c'est qu'j'suis sûr qu't'as rien coffré J'ai des potes au frais, j'suis sortis sah, que du bon tamien dans la tanière Joue les Don Corleone à la f'nêtre, en promenade, j'vais t'baiser ta mère ho Parabellum sur le té-c' ho, la méduse est sur le pec' J'ai donné mon coeur à la tess, j'ai donné mon coeur à Lutèce ho Torse nu comme X, les haters reviennent comme ex Elle veut m'suce quand j'flex mais elle met MD dans ses cornflakes, pute Coconut dans le Granini, brocoli dans le backwood Trois fromages dans le Panini, quatre kehbas sur le top-roof Quoi qu'il en soit je n'ai pas finis, je dois peaufiner, je n'ai pas l'feeling Dentelles en soie, j'vais la terminer, j'suis déterminé, j'suis l'arabe viril va t'hara kiri j'suis tokoro, j'porte le destin comme collier J'conduis vite comme un alcoolo, j'suis pas écolo, dépensier J'ai des pensées trop déplacées pour vous en faire part spontanément Tu suces comme pute à Neymar en entendant moteur allemand Allez, rase-toi l'épiderme, prolonge la chambre et puis merde Tête à tête comme à l'ancienne, tah le square des Épinay J'trouve le temps long comme les talons d'la miss, c'est la loi du Talion Many quand est-ce qu'on t'voit porter l'khamis, dans ta ligne de mire y'a qu'la brinks Les gens, ils aiment bien parler, hein Juste un post Insta' sur l'capot, ta pétasse m'appelle Young Pablo Ces rebeus veulent ma peau, j'suis prêt j'vais même pas t'faire un tableau J'porte pas d'Zano, j'suis Savhaycetano L'premier qui jette la pierre mange une rafale, j'encule tout ton trap en bando Quoi qu'j'fasse, tu l'ouvres, abusé, tu l'ouvres Élevé par une louve, légendaire, j'suis Musée du Louvre Rafale de dragées dans l'pamplemousse, contentieux frontalier y'a la baffe Si on t'fait la passe, tu craches dans l'humus, grignote au râtelier, t'as la dalle Jamais d'la vie tu m'guettes d'un air bad, j'te défigure comme un airbag C'est moi j'ramène le Champ et les schlamps elles écartent les jambes, y'a pas d'guten tag Je wake up dans l'living du penthouse, dollars australiens pesetas Toi, tu casses tu paye, je paye je casse, si j'bluff Sortie d'club, on va t'mélanger, c'est moi j'pull up, ça part en benda Car ma vengeance s'appelle Häagen-Dazs c'est moi j'mets l'ambiance dans la guenda Trop d'succès comme Roch Voisine, contrôle en Vuitton, ça sent l'roussi J'fais l'bif aussi vite que possible, elle veut porter Gian Vito Rossi Moteur aussi puissant qu'le flow, rebeu, mes bimbos sont gossip Vroum vroum, j'brûle le bitume, Valentino Rossi Suce ma bite j'suis céliba' star, j'te baise mais j'suis juste de passage J'suis juste de passage, enfant, j'étais pas sage J'étais pas sage, j'étais pas grrr grrr grrr yah Salon de massage, juste avant la prise d'otages Écorché vif, ces fils de pute s'rappellent de mon blaze Ces fils de pute s'rappellent de mon blazeYou might also like</t>
+          <t>Le ciel est si vaste, les étoiles m'envient, les nuages m'en veulent Au milieu d'un cyclone d'argent sale, la violence te coupe le visage en deux Y a pas d'AP dans ton linceul, qui va nettoyer ton linge sale ? Fais pas l'fragile pour une lope-sa, tu lui payes des sacs pour t'sentir moins seul C'est un pour la mama, deux pour la moula, trois pour la mala, Enzo Dong On était là quand fallait s'per-ta quand fallait benda, Kenzo, Gucci Fendi, zebi dans ta poche un billet d'xeu-di dans c'monde où l'amour se crédite Obligé d'taper son ce-vi, sens interdit sur la route de la rédemption, la gloire et la rançon Indomptable, on s'est fait tout seul, pour péter le gamos toutes options Je vous vois, je laisse la dictature du paraître vous aveugler Quand j'te demande si tu vends ta gov', c'est qu'j'suis sûr qu't'as rien coffré J'ai des potes au frais, j'suis sortis sah, que du bon tamien dans la tanière Joue les Don Corleone à la f'nêtre, en promenade, j'vais t'baiser ta mère ho Parabellum sur le té-c' ho, la méduse est sur le pec' J'ai donné mon coeur à la tess, j'ai donné mon coeur à Lutèce ho Torse nu comme X, les haters reviennent comme ex Elle veut m'suce quand j'flex mais elle met MD dans ses cornflakes, pute Coconut dans le Granini, brocoli dans le backwood Trois fromages dans le Panini, quatre kehbas sur le top-roof Quoi qu'il en soit je n'ai pas finis, je dois peaufiner, je n'ai pas l'feeling Dentelles en soie, j'vais la terminer, j'suis déterminé, j'suis l'arabe viril va t'hara kiri j'suis tokoro, j'porte le destin comme collier J'conduis vite comme un alcoolo, j'suis pas écolo, dépensier J'ai des pensées trop déplacées pour vous en faire part spontanément Tu suces comme pute à Neymar en entendant moteur allemand Allez, rase-toi l'épiderme, prolonge la chambre et puis merde Tête à tête comme à l'ancienne, tah le square des Épinay J'trouve le temps long comme les talons d'la miss, c'est la loi du Talion Many quand est-ce qu'on t'voit porter l'khamis, dans ta ligne de mire y'a qu'la brinks Les gens, ils aiment bien parler, hein Juste un post Insta' sur l'capot, ta pétasse m'appelle Young Pablo Ces rebeus veulent ma peau, j'suis prêt j'vais même pas t'faire un tableau J'porte pas d'Zano, j'suis Savhaycetano L'premier qui jette la pierre mange une rafale, j'encule tout ton trap en bando Quoi qu'j'fasse, tu l'ouvres, abusé, tu l'ouvres Élevé par une louve, légendaire, j'suis Musée du Louvre Rafale de dragées dans l'pamplemousse, contentieux frontalier y'a la baffe Si on t'fait la passe, tu craches dans l'humus, grignote au râtelier, t'as la dalle Jamais d'la vie tu m'guettes d'un air bad, j'te défigure comme un airbag C'est moi j'ramène le Champ et les schlamps elles écartent les jambes, y'a pas d'guten tag Je wake up dans l'living du penthouse, dollars australiens pesetas Toi, tu casses tu paye, je paye je casse, si j'bluff Sortie d'club, on va t'mélanger, c'est moi j'pull up, ça part en benda Car ma vengeance s'appelle Häagen-Dazs c'est moi j'mets l'ambiance dans la guenda Trop d'succès comme Roch Voisine, contrôle en Vuitton, ça sent l'roussi J'fais l'bif aussi vite que possible, elle veut porter Gian Vito Rossi Moteur aussi puissant qu'le flow, rebeu, mes bimbos sont gossip Vroum vroum, j'brûle le bitume, Valentino Rossi Suce ma bite j'suis céliba' star, j'te baise mais j'suis juste de passage J'suis juste de passage, enfant, j'étais pas sage J'étais pas sage, j'étais pas grrr grrr grrr yah Salon de massage, juste avant la prise d'otages Écorché vif, ces fils de pute s'rappellent de mon blaze Ces fils de pute s'rappellent de mon blaze</t>
         </is>
       </c>
     </row>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Mon rebeu je sors de l'Audi, tout en Gucci Algérie, Maroc, Tunisie, que la beldi Mon rebeu je sors de l'Audi, tout en Gucci Algérie, Maroc, Tunisie, que la beldi C'est le retour du Jedi, sur un T-Max Tu t'demandes où est passé Hayce J'me suis pas arrêté j'étais en terrasse J'ai fait assez d'papier pour vous terrasser Nouveau flow nouvelle bitch elle est eurasienn Mal rasé, j'suis en pétard, zeh J'achète l Masé', et l'hôtesse du concessionnaire Grrr-Ah Devine qui revient, devine qui reprend les affaires J'suis l'rappeur préféré d'ton rappeur préféré Fuck vue sur la mer j'ai vue sur la terre Hendek à toi jaloux subalterne Tu sais qu'j'peux t'envoyer plus pas qu'terre, han Plus bas qu'terre Grrr-Ah J'suis l'Arc de Triomphe, j'suis les Champs Elysées Paris, Paris, Paris J'tiens la guitare à Johnny Hallyday Paris, Paris, Paris Y a que la rue qui m'a sponsorisé Paris, Paris, Paris Grrr-Paw, Johnny Hallyday Grrr-Paw, Johnny Hallyday You might also like Chef de guerre comme mon grand père Les lions ne font pas des chatons Les n'font pas des lanternes Monument vivant, rapide et fort comme le guépard Regard est noir comme la panthère En pétard en pétard, il est temps d'tout rendre à César Chacun son camp chacun ses armes, choisis l'tien Navigant d'Alger à Dakar, au quatre coins du globe avec un drakkar Palestinien J'suis revenu mettre que des headshots L'important c'est l'pilote pas la tchop L'important c'est l'talent pas la com' Mais j'ai comme une envie de t'arracher la pomme d'Adam Mes vieux grimoires et mon bloc d'Afgan J'reprends les rênes j'arrive pire qu'avant Mon rebeu j'ai toujours la même bande qu'avant Andale, Andale, Andale J'suis l'Arc de Triomphe, j'suis les Champs Elysées Paris, Paris, Paris J'tiens la guitare à Johnny Hallyday Paris, Paris, Paris Y a que la rue qui m'a sponsorisé Paris, Paris, Paris Grrr-Paw, Johnny Hallyday Grrr-Paw, Johnny Hallyday</t>
+          <t>Mon rebeu je sors de l'Audi, tout en Gucci Algérie, Maroc, Tunisie, que la beldi Mon rebeu je sors de l'Audi, tout en Gucci Algérie, Maroc, Tunisie, que la beldi C'est le retour du Jedi, sur un T-Max Tu t'demandes où est passé Hayce J'me suis pas arrêté j'étais en terrasse J'ai fait assez d'papier pour vous terrasser Nouveau flow nouvelle bitch elle est eurasienn Mal rasé, j'suis en pétard, zeh J'achète l Masé', et l'hôtesse du concessionnaire Grrr-Ah Devine qui revient, devine qui reprend les affaires J'suis l'rappeur préféré d'ton rappeur préféré Fuck vue sur la mer j'ai vue sur la terre Hendek à toi jaloux subalterne Tu sais qu'j'peux t'envoyer plus pas qu'terre, han Plus bas qu'terre Grrr-Ah J'suis l'Arc de Triomphe, j'suis les Champs Elysées Paris, Paris, Paris J'tiens la guitare à Johnny Hallyday Paris, Paris, Paris Y a que la rue qui m'a sponsorisé Paris, Paris, Paris Grrr-Paw, Johnny Hallyday Grrr-Paw, Johnny Hallyday Chef de guerre comme mon grand père Les lions ne font pas des chatons Les n'font pas des lanternes Monument vivant, rapide et fort comme le guépard Regard est noir comme la panthère En pétard en pétard, il est temps d'tout rendre à César Chacun son camp chacun ses armes, choisis l'tien Navigant d'Alger à Dakar, au quatre coins du globe avec un drakkar Palestinien J'suis revenu mettre que des headshots L'important c'est l'pilote pas la tchop L'important c'est l'talent pas la com' Mais j'ai comme une envie de t'arracher la pomme d'Adam Mes vieux grimoires et mon bloc d'Afgan J'reprends les rênes j'arrive pire qu'avant Mon rebeu j'ai toujours la même bande qu'avant Andale, Andale, Andale J'suis l'Arc de Triomphe, j'suis les Champs Elysées Paris, Paris, Paris J'tiens la guitare à Johnny Hallyday Paris, Paris, Paris Y a que la rue qui m'a sponsorisé Paris, Paris, Paris Grrr-Paw, Johnny Hallyday Grrr-Paw, Johnny Hallyday</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>2008, 21 décembre, dans ma chambre avec des sommes indécentes Quand soudain Hakim débarque à la maison, ensanglanté, contusion, me demande de descendre J'décoffre le 11.43 dSalim, j'vais les faire, j'les laisserai pas lsalir sa mère J'me dirige vers sa vie et Hakim me raconte son histoire de rain-té, j'm'énerve vite sa mère Ils savent que j'suis chef de guerre et mercenaire, s'il le faut j'sors un arsenal pour mes frères Et sur le périph' jaccélère, jarrive devant sa cité comme devant les portes de l'Enfer Ils sont plusieurs, devant le bar, le plus vieux sort un pompe, jsors mon pétard Un bruit sourd retenti, je riposte, un homme à terre des enfants qui courent, je repars À ce moment précis, j'pense jamais aux vies qu'j'ai brisé, jpense qu'à vesqui la prison J'appelle Maitre ARA sur le chemin du retour mais les gyros troublent ma vision Passage au 36, fourchette de dix piges aux assiettes, j'ai pu éviter la perpét' J'rentre dans la cour j'assume ma peine comme un grossiste mais j'fais des cauchemars et j'perds la tête Au parlu mon petit reuf me parle de Hakim, me dit qu'il a douillé l'mec en question Que c'était juste un père de famille, un ancien d'la cité, un vrai gravon J'l'ai pas vu pendant mes dix ans d'détention, là j'suis sur l'chemin d'la rédemption J'veux des enfants et une madame, un RS6 toutes options J'ai bougé pour les gens, c'est pas eux qui ont pris du ferme Personne n'a pris mes patins, le procureur m'a enfermé Hé, j'n'ai même pas de perme Hé, maintenant c'est la merde You might also like Grrr, paw, j'ai tiré et maintenant j'ai dix ans à tirer Parce que la vengeance m'a attiré, ce bâtard m'a mis dans des bourbiers Moi je rêvais d'la vie en Merco, mais à Fleury j'ai fini enfermé Moi je rêvais d'la vie en Merco, mais les barreaux ils m'ont rattrapé Grrr, paw, j'ai tiré et maintenant j'ai dix ans à tirer Parce que la vengeance m'a attiré, ce bâtard m'a mis dans des bourbiers Moi je rêvais d'la vie en Merco, mais à Fleury j'ai fini enfermé Grrr, paw, j'ai tiré, sur la vie que j'ai merdé Baw, baw, baw, baw Ce bâtard sort du shtar dans deux jours, ce jour j'attendais, j'ai déjà acheté mon joujou volé et cagoule, j'l'ai cané ce hagoune, j'étais tit-peu, moi j'avais besoin d'un papa On m'a dit d'oublier mais j'ai pas oublié, pour moi la vengeance passe avant les gros billets Un che-fla et une barrette de shit dans l'sang, j'vais lui caller une balle juste au-dessus des dents Ce fils de putain est mort ce soir, j'gare ma bécane en face du shtar J'sors mon pétard et j'vise le crâne, j'attends pas une seconde, j'appuie et j'le cane Sa mère est triste, ma mère l'était aussi, un beau jour elle a perdu son mari Ce bâtard a mérité son tarif, j'ai pas de remords, moi ma fierté a un prix Je sais qu'tu m'vois papa, je sais qu't'es pas content Mais je dors pas depuis plus de dix ans, cet enculé fait plus parti d'ce monde Paris c'est magique, mais Paris c'est tragique aussi Le lendemain perquis', ils m'ont pété à 6 J'ai eu mon jugement, j'suis mineur, j'ai pris plus d'seize piges J'vais gonfler mes pecs, et quand j'sors moi j'refais ma ie-v J'ai plein de rêves dans la tête, j'ai plein d'ambitions mon frère J'espère que quand j'sortirai, la vie me sourira en vrai J'ai plein de rêves dans ma tête, j'ai plein d'ambitions mon frère J'espère que quand j'sortirai, la vie me sourira en vrai La vie me sourira en vrai, j'lui ai mis une balle dans la tête J'ai bougé pour les gens, c'est pas eux qui ont pris du ferme Personne n'a pris mes patins, le procureur m'a enfermé Hé, j'n'ai même pas de perme Hé, maintenant c'est la merde Grrr, paw, j'ai tiré et maintenant j'ai dix ans à tirer Parce que la vengeance m'a attiré, ce bâtard m'a mis dans des bourbiers Moi je rêvais d'la vie en Merco, mais à Fleury j'ai fini enfermé Moi je rêvais d'la vie en Merco, mais les barreaux ils m'ont rattrapé Grrr, paw, j'ai tiré et maintenant j'ai dix ans à tirer Parce que la vengeance m'a attiré, ce bâtard m'a mis dans des bourbiers Moi je rêvais d'la vie en Merco, mais à Fleury j'ai fini enfermé Grrr, paw, j'ai tiré, sur la vie que j'ai merdé Baw, baw, baw, baw</t>
+          <t>2008, 21 décembre, dans ma chambre avec des sommes indécentes Quand soudain Hakim débarque à la maison, ensanglanté, contusion, me demande de descendre J'décoffre le 11.43 dSalim, j'vais les faire, j'les laisserai pas lsalir sa mère J'me dirige vers sa vie et Hakim me raconte son histoire de rain-té, j'm'énerve vite sa mère Ils savent que j'suis chef de guerre et mercenaire, s'il le faut j'sors un arsenal pour mes frères Et sur le périph' jaccélère, jarrive devant sa cité comme devant les portes de l'Enfer Ils sont plusieurs, devant le bar, le plus vieux sort un pompe, jsors mon pétard Un bruit sourd retenti, je riposte, un homme à terre des enfants qui courent, je repars À ce moment précis, j'pense jamais aux vies qu'j'ai brisé, jpense qu'à vesqui la prison J'appelle Maitre ARA sur le chemin du retour mais les gyros troublent ma vision Passage au 36, fourchette de dix piges aux assiettes, j'ai pu éviter la perpét' J'rentre dans la cour j'assume ma peine comme un grossiste mais j'fais des cauchemars et j'perds la tête Au parlu mon petit reuf me parle de Hakim, me dit qu'il a douillé l'mec en question Que c'était juste un père de famille, un ancien d'la cité, un vrai gravon J'l'ai pas vu pendant mes dix ans d'détention, là j'suis sur l'chemin d'la rédemption J'veux des enfants et une madame, un RS6 toutes options J'ai bougé pour les gens, c'est pas eux qui ont pris du ferme Personne n'a pris mes patins, le procureur m'a enfermé Hé, j'n'ai même pas de perme Hé, maintenant c'est la merde Grrr, paw, j'ai tiré et maintenant j'ai dix ans à tirer Parce que la vengeance m'a attiré, ce bâtard m'a mis dans des bourbiers Moi je rêvais d'la vie en Merco, mais à Fleury j'ai fini enfermé Moi je rêvais d'la vie en Merco, mais les barreaux ils m'ont rattrapé Grrr, paw, j'ai tiré et maintenant j'ai dix ans à tirer Parce que la vengeance m'a attiré, ce bâtard m'a mis dans des bourbiers Moi je rêvais d'la vie en Merco, mais à Fleury j'ai fini enfermé Grrr, paw, j'ai tiré, sur la vie que j'ai merdé Baw, baw, baw, baw Ce bâtard sort du shtar dans deux jours, ce jour j'attendais, j'ai déjà acheté mon joujou volé et cagoule, j'l'ai cané ce hagoune, j'étais tit-peu, moi j'avais besoin d'un papa On m'a dit d'oublier mais j'ai pas oublié, pour moi la vengeance passe avant les gros billets Un che-fla et une barrette de shit dans l'sang, j'vais lui caller une balle juste au-dessus des dents Ce fils de putain est mort ce soir, j'gare ma bécane en face du shtar J'sors mon pétard et j'vise le crâne, j'attends pas une seconde, j'appuie et j'le cane Sa mère est triste, ma mère l'était aussi, un beau jour elle a perdu son mari Ce bâtard a mérité son tarif, j'ai pas de remords, moi ma fierté a un prix Je sais qu'tu m'vois papa, je sais qu't'es pas content Mais je dors pas depuis plus de dix ans, cet enculé fait plus parti d'ce monde Paris c'est magique, mais Paris c'est tragique aussi Le lendemain perquis', ils m'ont pété à 6 J'ai eu mon jugement, j'suis mineur, j'ai pris plus d'seize piges J'vais gonfler mes pecs, et quand j'sors moi j'refais ma ie-v J'ai plein de rêves dans la tête, j'ai plein d'ambitions mon frère J'espère que quand j'sortirai, la vie me sourira en vrai J'ai plein de rêves dans ma tête, j'ai plein d'ambitions mon frère J'espère que quand j'sortirai, la vie me sourira en vrai La vie me sourira en vrai, j'lui ai mis une balle dans la tête J'ai bougé pour les gens, c'est pas eux qui ont pris du ferme Personne n'a pris mes patins, le procureur m'a enfermé Hé, j'n'ai même pas de perme Hé, maintenant c'est la merde Grrr, paw, j'ai tiré et maintenant j'ai dix ans à tirer Parce que la vengeance m'a attiré, ce bâtard m'a mis dans des bourbiers Moi je rêvais d'la vie en Merco, mais à Fleury j'ai fini enfermé Moi je rêvais d'la vie en Merco, mais les barreaux ils m'ont rattrapé Grrr, paw, j'ai tiré et maintenant j'ai dix ans à tirer Parce que la vengeance m'a attiré, ce bâtard m'a mis dans des bourbiers Moi je rêvais d'la vie en Merco, mais à Fleury j'ai fini enfermé Grrr, paw, j'ai tiré, sur la vie que j'ai merdé Baw, baw, baw, baw</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Salut les enfants J'sais pas pourquoi Mais chaque fois que j'prends c'putain d'calam ça marche, paname ne court pas J'sais pas pour toi Mais moi j'démarche pas mal dans l'bail Et je ne souhaite que le meilleur pour toi J'ai des bikows, des blackos, des blancos et des timals Au sens étymologique du terme on ne court pas Beaucoup d'jugements mais j't'avoue que j'connais peut l'code pénal Et qu'le procureur n'a pas l'air courtois Gée-char ou skinny j'men charge sa mère Elle veut que j'giffle son culo avec des billets d'banque J'fais des signes de gang, même quand j'la wet J'arrêterai jamais d'rapper la street le sang d'la veine La mélodie du Tokarev Plein d'machin dans le nazeau bikow faut qu't'arrêtes Une fois qu't'as mangé t'es tout plein de fuck la rue Tu vendrais la daronne pour la dernière McLaren C'est pas carré, j'suis dans l'carré Que tu vois de loin mon rebeu là tu t'niques la vue Dans l'gamos que tu vois de loin quand j'nique l'avenue Grrr pah, j'traffic dans la street ma puce Faut qu'j'casse ma puce Abusé comment j'te baise avant d'dire à plus Ah c't'été 3ami tous les boloss font d'la luge Abusé comment j'fais sauter les bouchons d'liège Dans ta boîte de merde Légendaire grabuge Grrr pah, calibre 45 et grosse capuche Hayce Lem', en impro j'fais sauter l'viaduc Fuck le RN et y a pas d'couleur pour être raciste j'insiste L'hypocrisie d'SOS racisme Hayssi n'a pas dit son dernier mot, reste assis Grrr pah, m'vaccine pas, la weed j'calcine J'pactise pas, j'suis pas du côté six six six Sale fou, j'arrive en metallica Limp Bizkit You might also like4 molosses dans le gamos fait l'tour de Puerto Banús, vamonos Fait pas l'vatos tu t'comporte comme une pétasse T'es jalouse ? Adios Réhydrate le bitume a la Grey Goose, bario L'autodidacte armé d'un Opinel 12, manito J'vais t'charcler sans t'dire salam aleykoum biko Grrr pah, tu croyais vraiment qu'j'étais cool biko ?! Baise ta mère, j'veux que tu crèves sale merde J'viendrais pas à tes funérailles sans mon Veuve Clicquot J'dois péter Blocka et Bende, là j'arrive à la J Calibré j'porte Gandoura du llage-vi T'as pas l'niveau d'être mon rival, tu pourras m'servir d'bracelet électronique étant donné qu'tu m'arrive à la cheville Rebeu j'ai pas d'tatoo, tu peux lire mon histoire dans mon regard t'as tout c'que tu veux mais t'es jamais content, poto j'vois flou, sale fou ça va t'oublier comme Samsung Ca m'saoule de toujours gagner la guerre comme Sun Tzu Hassoul on sait que ta pétasse a besoin d'sous sous, passe sous l'bureau pour sucer le Big Zouzou, j'casse tout, j'veux rien savoir et j'encaisse soum-soum Sale fou, ça l'fait, couscous, mafé, la gauche à John Coffey, j'envoi ta folle taffer, Han ! Un dégradé barbelé, j'ai superposé quelques grains d'café Les p'tits d'chez moi c'est des piranhas, ils attendent pas la majorité pour acheter grosse méduse Tu veux m'conseiller mais j'ai 20 ans d'rap, manquerait plus qu'mes propres gosses m'éduque ! Maître Lemsi !</t>
+          <t>Salut les enfants J'sais pas pourquoi Mais chaque fois que j'prends c'putain d'calam ça marche, paname ne court pas J'sais pas pour toi Mais moi j'démarche pas mal dans l'bail Et je ne souhaite que le meilleur pour toi J'ai des bikows, des blackos, des blancos et des timals Au sens étymologique du terme on ne court pas Beaucoup d'jugements mais j't'avoue que j'connais peut l'code pénal Et qu'le procureur n'a pas l'air courtois Gée-char ou skinny j'men charge sa mère Elle veut que j'giffle son culo avec des billets d'banque J'fais des signes de gang, même quand j'la wet J'arrêterai jamais d'rapper la street le sang d'la veine La mélodie du Tokarev Plein d'machin dans le nazeau bikow faut qu't'arrêtes Une fois qu't'as mangé t'es tout plein de fuck la rue Tu vendrais la daronne pour la dernière McLaren C'est pas carré, j'suis dans l'carré Que tu vois de loin mon rebeu là tu t'niques la vue Dans l'gamos que tu vois de loin quand j'nique l'avenue Grrr pah, j'traffic dans la street ma puce Faut qu'j'casse ma puce Abusé comment j'te baise avant d'dire à plus Ah c't'été 3ami tous les boloss font d'la luge Abusé comment j'fais sauter les bouchons d'liège Dans ta boîte de merde Légendaire grabuge Grrr pah, calibre 45 et grosse capuche Hayce Lem', en impro j'fais sauter l'viaduc Fuck le RN et y a pas d'couleur pour être raciste j'insiste L'hypocrisie d'SOS racisme Hayssi n'a pas dit son dernier mot, reste assis Grrr pah, m'vaccine pas, la weed j'calcine J'pactise pas, j'suis pas du côté six six six Sale fou, j'arrive en metallica Limp Bizkit 4 molosses dans le gamos fait l'tour de Puerto Banús, vamonos Fait pas l'vatos tu t'comporte comme une pétasse T'es jalouse ? Adios Réhydrate le bitume a la Grey Goose, bario L'autodidacte armé d'un Opinel 12, manito J'vais t'charcler sans t'dire salam aleykoum biko Grrr pah, tu croyais vraiment qu'j'étais cool biko ?! Baise ta mère, j'veux que tu crèves sale merde J'viendrais pas à tes funérailles sans mon Veuve Clicquot J'dois péter Blocka et Bende, là j'arrive à la J Calibré j'porte Gandoura du llage-vi T'as pas l'niveau d'être mon rival, tu pourras m'servir d'bracelet électronique étant donné qu'tu m'arrive à la cheville Rebeu j'ai pas d'tatoo, tu peux lire mon histoire dans mon regard t'as tout c'que tu veux mais t'es jamais content, poto j'vois flou, sale fou ça va t'oublier comme Samsung Ca m'saoule de toujours gagner la guerre comme Sun Tzu Hassoul on sait que ta pétasse a besoin d'sous sous, passe sous l'bureau pour sucer le Big Zouzou, j'casse tout, j'veux rien savoir et j'encaisse soum-soum Sale fou, ça l'fait, couscous, mafé, la gauche à John Coffey, j'envoi ta folle taffer, Han ! Un dégradé barbelé, j'ai superposé quelques grains d'café Les p'tits d'chez moi c'est des piranhas, ils attendent pas la majorité pour acheter grosse méduse Tu veux m'conseiller mais j'ai 20 ans d'rap, manquerait plus qu'mes propres gosses m'éduque ! Maître Lemsi !</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Ils me disent de me ranger mais jmen bats les Elle me parle de mariage mais jsuis foncdé Toute façon tous les jours cest ma birthday Je veux faire du wari je veux ma rollie Jen merde vos codes je veux faire la Mala, Mala, Mala Mala, Mala, Mala Mala, Mala, Mala Ils me disent de me ranger mais jmen bats les Elle me parle de mariage mais jsuis foncdé Elle mappelle Tony, tellement dmala même le police appelle la police Ahmed cest débarrassé de son bracelet électronique Hermano, ta le nez dans la cocaine Cest la notre, cest la notre, cest à nous oui Lcrepuscule dans le bendo, pute pare-chocs sur lmerco, besoin dune bouteille deau Drink Jne vois plus passé le temps , yeah Mets les loka dans le viano, jirai chanter jusquà Milano Ils me disent de me ranger mais jmen bats les Elle me parle de mariage mais jsuis foncdé Toute façon tous les jours cest ma birthday Je veux faire du wari je veux ma roly Jen merde vos code je veux faire la Mala, Mala, Mala Mala, Mala, Mala Mala, Mala, Mala Ils me disent de me ranger mais jmen bats les Elle me parle de mariage mais jsuis foncdé You might also like Io giro sempre nel quartiere come se fosse una sfilata di moda Non ho scelto questo mestiere solo perché adesso, frate, va di moda Non avevo scelta perché sennò dovevo cantare con la pistola Non sono diverso perché sono totalmente un'altra cosa Ma quante collane c'ha il mio flow? Perciò lo chiamo mon fréro Adesso il mio bro a Paris dice je suis Enzo Dong Ricordo solo Je mappelle e poi boh, non lo so Ho il cazzo tipo Tour Eiffel così inculo il mondo Je ne parle pas français, ma la strada è il mio Google Traduttore Ils me disent de me ranger mais jmen bats les Elle me parle de mariage mais jsuis foncdée Toute façon tous les jours cest ma birthday Je veux faire du wari je veux ma roly Jen merde vos code je veux faire la Mala, Mala, Mala Mala, Mala, Mala Mala, Mala, Mala Ils me disent de me ranger mais jmen bats les Elle me parle de mariage mais jsuis foncdée Jen merde vos code je veux faire la Mala, Mala, Mala Mala, Mala, Mala Mala, Mala, Mala Ils me disent de me ranger mais jmen bats les Elle me parle de mariage mais jsuis foncdée1</t>
+          <t>Ils me disent de me ranger mais jmen bats les Elle me parle de mariage mais jsuis foncdé Toute façon tous les jours cest ma birthday Je veux faire du wari je veux ma rollie Jen merde vos codes je veux faire la Mala, Mala, Mala Mala, Mala, Mala Mala, Mala, Mala Ils me disent de me ranger mais jmen bats les Elle me parle de mariage mais jsuis foncdé Elle mappelle Tony, tellement dmala même le police appelle la police Ahmed cest débarrassé de son bracelet électronique Hermano, ta le nez dans la cocaine Cest la notre, cest la notre, cest à nous oui Lcrepuscule dans le bendo, pute pare-chocs sur lmerco, besoin dune bouteille deau Drink Jne vois plus passé le temps , yeah Mets les loka dans le viano, jirai chanter jusquà Milano Ils me disent de me ranger mais jmen bats les Elle me parle de mariage mais jsuis foncdé Toute façon tous les jours cest ma birthday Je veux faire du wari je veux ma roly Jen merde vos code je veux faire la Mala, Mala, Mala Mala, Mala, Mala Mala, Mala, Mala Ils me disent de me ranger mais jmen bats les Elle me parle de mariage mais jsuis foncdé Io giro sempre nel quartiere come se fosse una sfilata di moda Non ho scelto questo mestiere solo perché adesso, frate, va di moda Non avevo scelta perché sennò dovevo cantare con la pistola Non sono diverso perché sono totalmente un'altra cosa Ma quante collane c'ha il mio flow? Perciò lo chiamo mon fréro Adesso il mio bro a Paris dice je suis Enzo Dong Ricordo solo Je mappelle e poi boh, non lo so Ho il cazzo tipo Tour Eiffel così inculo il mondo Je ne parle pas français, ma la strada è il mio Google Traduttore Ils me disent de me ranger mais jmen bats les Elle me parle de mariage mais jsuis foncdée Toute façon tous les jours cest ma birthday Je veux faire du wari je veux ma roly Jen merde vos code je veux faire la Mala, Mala, Mala Mala, Mala, Mala Mala, Mala, Mala Ils me disent de me ranger mais jmen bats les Elle me parle de mariage mais jsuis foncdée Jen merde vos code je veux faire la Mala, Mala, Mala Mala, Mala, Mala Mala, Mala, Mala Ils me disent de me ranger mais jmen bats les Elle me parle de mariage mais jsuis foncdée1</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Les frères lumière Une bouteille à la mer, j'ai confiné cette lettre Sans toi je manque d'oxygène, pardonne mes maladresses J'range ma fierté de fer, le paradis se trouve sous ta voûte plantaire J'suis toujours pas marié mais j'ai quitté la tess Les larmes que t'as versé m'ont rempli de culpabilité J'dois poser la machette, la guerre est terminée 15 ans sur le corner, chargeur, promenade, camembert J'voulais te rendre fière Ho mama t'es dans ma tête, je n'ai pas changé de thème T'as traversé les parloirs pour me dire je t'aime, je t'aime Ho mama t'es dans ma tête, je n'ai pas trouvé ma hlel J'essaie, j'ai jeté cette bouteille à la mer Et je bâtirai ton royaume Ho Y'a que toi que j'appelle le sang Ho J'raye la CG de la Phantom Ho T'as préservé mon innocence Tu seras toujours dans ma tête, il faut pas que tu t'inquiètes Mama ne croit pas ce que les gens disent sur les réseaux Tu sais que je t'aime, et si tu as des problèmes T'as pas à faire un geste, j'suis le premier à venir te ver-sau You might also like Mama, rien n'est vrai sur les réseaux Mama, j'suis le premier à venir te ver-sau Mama, rien n'est vrai sur les réseaux Mama, j'suis le premier à venir te ver-sau J'fais tout pour ma mère et si je pars en concert C'est pour te rendre fière, les keufs veulent mon argent Rabaissé par l'agent, j'ai du biff et j't'emmerde Pardon Monsieur l'agent, faire plaisir à ma mif J'suis bien obligé, écrire postiché J'pense à rentabiliser, j'pense à rentabiliser Tout baiser, j'suis bien obligé, voir l'argent rentrer J'pense à rentabiliser, j'pense à rentabiliser Si on t'agresse, sors de la tess, j'irai les chercher en caisse, j'vais nous sortir de la hess Ca blesse, sort le Panamera S, S, S, S Sors de la tess, essaie de gratter ta pièce, sors ta daronne de la hess Pas d'stresse, vise le Panamera S T'es ma vie, j'ai même plus les mots Ho Tu seras jamais sur le té-co Ho T'es ma vie, j'ai même plus les mots Ho Je pourrai jamais te laisser solo Tu seras toujours dans ma tête, il faut pas que tu t'inquiètes Mama ne croit pas ce que les gens disent sur les réseaux Tu sais que je t'aime, et si tu as des problèmes T'as pas à faire un geste, j'suis le premier à venir te ver-sau Mama, rien n'est vrai sur les réseaux Mama, j'suis le premier à venir te ver-sau Mama, rien n'est vrai sur les réseaux Mama, j'suis le premier à venir te ver-sau Il faut pas que tu t'inquiètes Mama ne croit pas ce que les gens disent sur les réseaux Tu sais que je t'aime, et si tu as des problèmes T'as pas à faire un geste, j'suis le premier à venir te ver-sau Mama, Mama, Mama, Mama</t>
+          <t>Les frères lumière Une bouteille à la mer, j'ai confiné cette lettre Sans toi je manque d'oxygène, pardonne mes maladresses J'range ma fierté de fer, le paradis se trouve sous ta voûte plantaire J'suis toujours pas marié mais j'ai quitté la tess Les larmes que t'as versé m'ont rempli de culpabilité J'dois poser la machette, la guerre est terminée 15 ans sur le corner, chargeur, promenade, camembert J'voulais te rendre fière Ho mama t'es dans ma tête, je n'ai pas changé de thème T'as traversé les parloirs pour me dire je t'aime, je t'aime Ho mama t'es dans ma tête, je n'ai pas trouvé ma hlel J'essaie, j'ai jeté cette bouteille à la mer Et je bâtirai ton royaume Ho Y'a que toi que j'appelle le sang Ho J'raye la CG de la Phantom Ho T'as préservé mon innocence Tu seras toujours dans ma tête, il faut pas que tu t'inquiètes Mama ne croit pas ce que les gens disent sur les réseaux Tu sais que je t'aime, et si tu as des problèmes T'as pas à faire un geste, j'suis le premier à venir te ver-sau Mama, rien n'est vrai sur les réseaux Mama, j'suis le premier à venir te ver-sau Mama, rien n'est vrai sur les réseaux Mama, j'suis le premier à venir te ver-sau J'fais tout pour ma mère et si je pars en concert C'est pour te rendre fière, les keufs veulent mon argent Rabaissé par l'agent, j'ai du biff et j't'emmerde Pardon Monsieur l'agent, faire plaisir à ma mif J'suis bien obligé, écrire postiché J'pense à rentabiliser, j'pense à rentabiliser Tout baiser, j'suis bien obligé, voir l'argent rentrer J'pense à rentabiliser, j'pense à rentabiliser Si on t'agresse, sors de la tess, j'irai les chercher en caisse, j'vais nous sortir de la hess Ca blesse, sort le Panamera S, S, S, S Sors de la tess, essaie de gratter ta pièce, sors ta daronne de la hess Pas d'stresse, vise le Panamera S T'es ma vie, j'ai même plus les mots Ho Tu seras jamais sur le té-co Ho T'es ma vie, j'ai même plus les mots Ho Je pourrai jamais te laisser solo Tu seras toujours dans ma tête, il faut pas que tu t'inquiètes Mama ne croit pas ce que les gens disent sur les réseaux Tu sais que je t'aime, et si tu as des problèmes T'as pas à faire un geste, j'suis le premier à venir te ver-sau Mama, rien n'est vrai sur les réseaux Mama, j'suis le premier à venir te ver-sau Mama, rien n'est vrai sur les réseaux Mama, j'suis le premier à venir te ver-sau Il faut pas que tu t'inquiètes Mama ne croit pas ce que les gens disent sur les réseaux Tu sais que je t'aime, et si tu as des problèmes T'as pas à faire un geste, j'suis le premier à venir te ver-sau Mama, Mama, Mama, Mama</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Ouais c'est moi Tu dors ? J'arrive à la maison J'ai fini le studio À toute EMC, j'apprécie contrecarrer tes plans tes rappeurs n'ont pas d'vraies cibles Font les hommes, font les , ils ont pas d'résine Qu'ils m'écrasent des raisins, m'fassent un millésime Quand t'es bien t'appelle pas, quand t'as rien, tu me harcèles La guerre on la perd pas temps qu'on n'a pas rejoint l'ciel Ta carrière, même un coup d'cric, ça démarre pas On aime dégainer les Kalashnikow comme à Marseille Ls p'tits d'la caille ils démarrent des Vspa Mettent des hasba, l'école ça les intéresse pas du tout Cartable contre sacoche Prada pour avoir collier VVS autour du coup Coucou, tu t'rappelles du moi et de mes coups d'coude Ou faut encore qu'jte goume, que j'te fasse du Kung Fu Coule de source on baise tout sa mère J'déboule même en cas d'faux salaire Elle a beaucoup d'admirateurs elle fait des appels d'offre Elle veut sac Brikin ou vêtements Bergdorf Elle arrache tout, belek elle va bientôt t'mettre off Arrête un peu d'faire la hnina tu fais que chercher l'coffre Chez toi t'es si prétentieuse que tu rêves debout Tu montes pas dans la tchop si c'est pas du luxe T'es pas assez bonne pour être capricieuse Va faire un tour à la salle, ça serait pas du luxe You might also like Marre de courir Quand est-ce que la vie nous sourit Parce qu'on est fatigués d'souffrir J'prends ma route solo j'suis sorry Marre de courir Marre de courir Quand est-ce que la vie nous sourit j'ai demandé de l'aide on m'a demandé des plata Parce qu'on est fatigués d'souffrir démoraliser mes car on en est capables J'prends ma route solo j'suis sorry dénaturalisés, les humains refusent le partage J'ai beau chercher l'coupable et je culpabilise Le daron a toujours raison mais je ne l'écoute pas J'cours partout, j'prends des coups mais ne m'écroule pas Douze cartouches pour éviter mea culpa Cou plein d'glace gros gamos dans l'allée Même avec cent lourds tout est éphémère J'veux plus qu'ma mère me voit dans la rue J'veux emmener les enfants d'la rue voir la mer Comme Sniper gravé dans la roche J'ai les yeux rouges mais ce n'est pas la rage Demande à Yota j'attends pas d'éloges J'ai commencé ma carrière à l'arrache Reste cool j'vais pas t'follow j'veux rien sur tes droits phonographiques Tu sais qu'j'baise tout, faut qu'j'te fasse un graphique Si j'enlève l'élastique, j'prends des mesures drastiques Marre de courir marre de courir O-Oh On est fatigués d'souffrir O-Oh Marre de courir Quand est-ce que la vie nous sourit Parce qu'on est fatigués d'souffrir J'prends ma route solo j'suis sorry Marre de courir marre de courir Quand est-ce que la vie nous sourit j'ai demandé de l'aide on m'a demandé des plata Parce qu'on est fatigués d'souffrir démoraliser mes car on en est capables J'prends ma route solo j'suis sorry dénaturalisés, les humains refusent le partage Marre de courir</t>
+          <t>Ouais c'est moi Tu dors ? J'arrive à la maison J'ai fini le studio À toute EMC, j'apprécie contrecarrer tes plans tes rappeurs n'ont pas d'vraies cibles Font les hommes, font les , ils ont pas d'résine Qu'ils m'écrasent des raisins, m'fassent un millésime Quand t'es bien t'appelle pas, quand t'as rien, tu me harcèles La guerre on la perd pas temps qu'on n'a pas rejoint l'ciel Ta carrière, même un coup d'cric, ça démarre pas On aime dégainer les Kalashnikow comme à Marseille Ls p'tits d'la caille ils démarrent des Vspa Mettent des hasba, l'école ça les intéresse pas du tout Cartable contre sacoche Prada pour avoir collier VVS autour du coup Coucou, tu t'rappelles du moi et de mes coups d'coude Ou faut encore qu'jte goume, que j'te fasse du Kung Fu Coule de source on baise tout sa mère J'déboule même en cas d'faux salaire Elle a beaucoup d'admirateurs elle fait des appels d'offre Elle veut sac Brikin ou vêtements Bergdorf Elle arrache tout, belek elle va bientôt t'mettre off Arrête un peu d'faire la hnina tu fais que chercher l'coffre Chez toi t'es si prétentieuse que tu rêves debout Tu montes pas dans la tchop si c'est pas du luxe T'es pas assez bonne pour être capricieuse Va faire un tour à la salle, ça serait pas du luxe Marre de courir Quand est-ce que la vie nous sourit Parce qu'on est fatigués d'souffrir J'prends ma route solo j'suis sorry Marre de courir Marre de courir Quand est-ce que la vie nous sourit j'ai demandé de l'aide on m'a demandé des plata Parce qu'on est fatigués d'souffrir démoraliser mes car on en est capables J'prends ma route solo j'suis sorry dénaturalisés, les humains refusent le partage J'ai beau chercher l'coupable et je culpabilise Le daron a toujours raison mais je ne l'écoute pas J'cours partout, j'prends des coups mais ne m'écroule pas Douze cartouches pour éviter mea culpa Cou plein d'glace gros gamos dans l'allée Même avec cent lourds tout est éphémère J'veux plus qu'ma mère me voit dans la rue J'veux emmener les enfants d'la rue voir la mer Comme Sniper gravé dans la roche J'ai les yeux rouges mais ce n'est pas la rage Demande à Yota j'attends pas d'éloges J'ai commencé ma carrière à l'arrache Reste cool j'vais pas t'follow j'veux rien sur tes droits phonographiques Tu sais qu'j'baise tout, faut qu'j'te fasse un graphique Si j'enlève l'élastique, j'prends des mesures drastiques Marre de courir marre de courir O-Oh On est fatigués d'souffrir O-Oh Marre de courir Quand est-ce que la vie nous sourit Parce qu'on est fatigués d'souffrir J'prends ma route solo j'suis sorry Marre de courir marre de courir Quand est-ce que la vie nous sourit j'ai demandé de l'aide on m'a demandé des plata Parce qu'on est fatigués d'souffrir démoraliser mes car on en est capables J'prends ma route solo j'suis sorry dénaturalisés, les humains refusent le partage Marre de courir</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Hey, hey, c'est comment ? Hey, c'est Marseille C'est le sang, c'est le Nord, c'est comment ? Hey, c'est Paname mon Snap' c'est TK.13 Hey, hey, c'est comment ? Eh, eh, pouloupou poulou J'entends plein de rumeurs, aujourd'hui, j'suis pas d'humeur J'ai dormi chez mon plan, demain, j'serai pas à l'heure Pas ouehda, faut qu'on m'jette, ça coûte trop cher les Uber Et quand elles sont trop fraîches, j'fais l'amour aux followers T'as fait des loves, mazel tov J'suis dans la gov', drogue et Poliakov T'as fait des loves, mazel tov J'suis dans la gov', drogue et Poliakov Be-be-bep, c'est la moto, be-be-bep, lève-toi d'là Be-be-bep, c'est la moto, be-be-bep, lève-toi d'là Be-be-bep, eh, eh, be-be-bep, eh, eh Be-be-bep, eh, eh, be-be-bep, eh, eh You might also like AK-47, vodka, Get 27, pas trop d'jet set mais on fête ça Hayce Lemsi et TK, loue Alpha et Oméga Y a embrouille, on sort l'zinga Biatch veut faire du hard, biatch veut faire du hard pouloupou poulou Elle repart avec moi et toi, tu vas paniquer niquer J'fume un joint d'niya, sous vodka, j'ai envie d'pisser pisser Et fais pas l'héros ou sinon tu vas glisser, pah, pah Tu vas glisser, pah, pah, tu vas glisser Hayce, mala, mala, dégaine de DZ, la Kalash' À la galache, plein de balafres, allez, one, two, three J'ai laissé la follasse dans le palace, récupéré TK, Elams Allez, one, two, three J'regardais l'Algérie jouer, j'ai fait griller les merguez Si tu vois un raz-de-marée, eh, c'est Riyad Mahrez T'as fait des loves, mazel tov J'suis dans la gov', drogue et Poliakov T'as fait des loves fait des loves, mazel tov mazel tov J'suis dans la gov', drogue et Poliakov Tout grailler, ah, on vient tout grailler tout, tout, tout, tout Tout grailler, ah, on vient tout grailler tout, tout, tout, tout La bouteille est finie, faut ressortir les llets-bi La bouteille est finie, faut ressortir les llets-bi La bouteille est finie, faut ressortir les llets-bi, -bi La bouteille est finie, faut ressortir les llets-bi, -bi La bouteille est finie, faut ressortir les llets-bi, -bi La bouteille est finie, faut ressortir les llets-bi, -bi La bouteille est finie, faut ressortir les llets-bi La bouteille est finie, faut ressortir les llets-bi, -bi Be-be-bep, c'est la moto, be-be-bep, lève-toi d'là Be-be-bep, c'est la moto, be-be-bep, lève-toi d'là Be-be-bep, eh, eh, be-be-bep, eh, eh Be-be-bep, eh, eh, be-be-bep, eh, eh</t>
+          <t>Hey, hey, c'est comment ? Hey, c'est Marseille C'est le sang, c'est le Nord, c'est comment ? Hey, c'est Paname mon Snap' c'est TK.13 Hey, hey, c'est comment ? Eh, eh, pouloupou poulou J'entends plein de rumeurs, aujourd'hui, j'suis pas d'humeur J'ai dormi chez mon plan, demain, j'serai pas à l'heure Pas ouehda, faut qu'on m'jette, ça coûte trop cher les Uber Et quand elles sont trop fraîches, j'fais l'amour aux followers T'as fait des loves, mazel tov J'suis dans la gov', drogue et Poliakov T'as fait des loves, mazel tov J'suis dans la gov', drogue et Poliakov Be-be-bep, c'est la moto, be-be-bep, lève-toi d'là Be-be-bep, c'est la moto, be-be-bep, lève-toi d'là Be-be-bep, eh, eh, be-be-bep, eh, eh Be-be-bep, eh, eh, be-be-bep, eh, eh AK-47, vodka, Get 27, pas trop d'jet set mais on fête ça Hayce Lemsi et TK, loue Alpha et Oméga Y a embrouille, on sort l'zinga Biatch veut faire du hard, biatch veut faire du hard pouloupou poulou Elle repart avec moi et toi, tu vas paniquer niquer J'fume un joint d'niya, sous vodka, j'ai envie d'pisser pisser Et fais pas l'héros ou sinon tu vas glisser, pah, pah Tu vas glisser, pah, pah, tu vas glisser Hayce, mala, mala, dégaine de DZ, la Kalash' À la galache, plein de balafres, allez, one, two, three J'ai laissé la follasse dans le palace, récupéré TK, Elams Allez, one, two, three J'regardais l'Algérie jouer, j'ai fait griller les merguez Si tu vois un raz-de-marée, eh, c'est Riyad Mahrez T'as fait des loves, mazel tov J'suis dans la gov', drogue et Poliakov T'as fait des loves fait des loves, mazel tov mazel tov J'suis dans la gov', drogue et Poliakov Tout grailler, ah, on vient tout grailler tout, tout, tout, tout Tout grailler, ah, on vient tout grailler tout, tout, tout, tout La bouteille est finie, faut ressortir les llets-bi La bouteille est finie, faut ressortir les llets-bi La bouteille est finie, faut ressortir les llets-bi, -bi La bouteille est finie, faut ressortir les llets-bi, -bi La bouteille est finie, faut ressortir les llets-bi, -bi La bouteille est finie, faut ressortir les llets-bi, -bi La bouteille est finie, faut ressortir les llets-bi La bouteille est finie, faut ressortir les llets-bi, -bi Be-be-bep, c'est la moto, be-be-bep, lève-toi d'là Be-be-bep, c'est la moto, be-be-bep, lève-toi d'là Be-be-bep, eh, eh, be-be-bep, eh, eh Be-be-bep, eh, eh, be-be-bep, eh, eh</t>
         </is>
       </c>
     </row>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Big Lemsi 17 Rapleader Rapleader Grrrraw McLaren 720S, j'me rappelle qu'on faisait les fils d'la Ford dans la tess Dans la faune, dans la flore, dans l'froid, dans la hess, on a l'code de ton coffre, ta plaque, ton adresse Porsche, Porsche, Porsche, Porsche Macan GTS, mal garé, McLaren 720S pas d'dance, élastique d'espèce, enfoiré, p'tites chattes deviennent des tigresses J'ai plus où j'ai garé la coche, là j'cherche la dama de noch bitch J'ai plus où j'ai garé la coche, là j'cherche la dama d noche bitch Là j'sors la guitare et c'est pas pour faire un hit, c'que j'sors de l'habitacle vaut plus chère que ta vida, volubile Ambidextre, on fuit pas le paraffine, me fais pas trop de raffiner, j'vais t'fumer, c'est pas un film Hollywoodien Dans le Woo, le ciel est rouge vif, les orques sortent de l'eau dans un gamos tout jdid Les hors-bord, les kichtas dans les sacoches Gucci, les forces de l'ordre alléchées par le shit et koulchi Comportement OG bitch, Don Felix Gallardo, si la guardia pousse les sirènes Madre mia pleure mes peines dans mon dos, que devient l'amitié quand y a qu'de l'eau sur la table ? On ne boit que des dents de loup, pose bien ton cul dans le velours, j'espère que le destin parle de nous donne du cash à tes rents-pa, avant d'mettre quinze balles dans ta roppa Petit tu fais l'ancien ou quoi ? Tu respectes les anciens ou grraw T'aimes bien quand j'débarque like a boss, grrr paw paw paw paw T'aimes bien quand j'te goume, quand j'te boxe, grrr paw paw paw paw T'aimes bien quand j'te mets qu'des coups d'cross, j'graille le micro d'puis j'suis gosse Paris bendo, l'manque d'argent rend précoce, grrr paw paw paw pawYou might also like</t>
+          <t>Big Lemsi 17 Rapleader Rapleader Grrrraw McLaren 720S, j'me rappelle qu'on faisait les fils d'la Ford dans la tess Dans la faune, dans la flore, dans l'froid, dans la hess, on a l'code de ton coffre, ta plaque, ton adresse Porsche, Porsche, Porsche, Porsche Macan GTS, mal garé, McLaren 720S pas d'dance, élastique d'espèce, enfoiré, p'tites chattes deviennent des tigresses J'ai plus où j'ai garé la coche, là j'cherche la dama de noch bitch J'ai plus où j'ai garé la coche, là j'cherche la dama d noche bitch Là j'sors la guitare et c'est pas pour faire un hit, c'que j'sors de l'habitacle vaut plus chère que ta vida, volubile Ambidextre, on fuit pas le paraffine, me fais pas trop de raffiner, j'vais t'fumer, c'est pas un film Hollywoodien Dans le Woo, le ciel est rouge vif, les orques sortent de l'eau dans un gamos tout jdid Les hors-bord, les kichtas dans les sacoches Gucci, les forces de l'ordre alléchées par le shit et koulchi Comportement OG bitch, Don Felix Gallardo, si la guardia pousse les sirènes Madre mia pleure mes peines dans mon dos, que devient l'amitié quand y a qu'de l'eau sur la table ? On ne boit que des dents de loup, pose bien ton cul dans le velours, j'espère que le destin parle de nous donne du cash à tes rents-pa, avant d'mettre quinze balles dans ta roppa Petit tu fais l'ancien ou quoi ? Tu respectes les anciens ou grraw T'aimes bien quand j'débarque like a boss, grrr paw paw paw paw T'aimes bien quand j'te goume, quand j'te boxe, grrr paw paw paw paw T'aimes bien quand j'te mets qu'des coups d'cross, j'graille le micro d'puis j'suis gosse Paris bendo, l'manque d'argent rend précoce, grrr paw paw paw paw</t>
         </is>
       </c>
     </row>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Hayyyyyyce Lemsi Qui peux kicker Lemsi? Bico, Qui peux kicker Lemsi? x3 J'ai la tête qui va péter khoya Défouraillage à la Nord Islandaise Pour mon bylka djazairy for life Tap en thai, file à l'anglaise Vida Loca, Casque intégrale Vida Loca, s'mettent à rapper Vida Loca, sauce de que-bra Vida Loca, casse toi du rain-té Votez, La Fourche, La Tour, L'Allée, La J' Tous de la rue salariée Sa mère la queue, j'XXX dans la chatte à Balzac on était pas mal armé Sa transate de l'automne à l'été Bien avant nos 17 printemps L'hiver s'annonce Nord Fr-Hay-cisé Cousin force, j'perce bien avant 30 ans! Missile Hayce Téléguidé! THaypé dans une cage descalier Bouille, descends dormir sur un pallier Palpiter sur le bruit des portières Bicrave quatre saisons dans le quartier THaypé dans une cage descalier Bouille, descends dormir sur un pallier Palpiter sur le bruit des portières Bicrave quatre saisons dans le quartier En place, micro branché, la maille à nos tass' C'est les tass nous somme perchées!? Hayce c'est la classe, c'est la hass en Versace Ne laisse aucune traces ou la bac nous recherche dans le quartier Cartel Opé! Depuis XXXYou might also like1</t>
+          <t>Hayyyyyyce Lemsi Qui peux kicker Lemsi? Bico, Qui peux kicker Lemsi? x3 J'ai la tête qui va péter khoya Défouraillage à la Nord Islandaise Pour mon bylka djazairy for life Tap en thai, file à l'anglaise Vida Loca, Casque intégrale Vida Loca, s'mettent à rapper Vida Loca, sauce de que-bra Vida Loca, casse toi du rain-té Votez, La Fourche, La Tour, L'Allée, La J' Tous de la rue salariée Sa mère la queue, j'XXX dans la chatte à Balzac on était pas mal armé Sa transate de l'automne à l'été Bien avant nos 17 printemps L'hiver s'annonce Nord Fr-Hay-cisé Cousin force, j'perce bien avant 30 ans! Missile Hayce Téléguidé! THaypé dans une cage descalier Bouille, descends dormir sur un pallier Palpiter sur le bruit des portières Bicrave quatre saisons dans le quartier THaypé dans une cage descalier Bouille, descends dormir sur un pallier Palpiter sur le bruit des portières Bicrave quatre saisons dans le quartier En place, micro branché, la maille à nos tass' C'est les tass nous somme perchées!? Hayce c'est la classe, c'est la hass en Versace Ne laisse aucune traces ou la bac nous recherche dans le quartier Cartel Opé! Depuis XXX1</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Paroles de Midi Minuit Le goût du sang dans la bouche comme une chaleur dans la nuque Lorsque la violence et l'ivresse ne font plus qu'un dans la rue La rétine attirée par l'oseille on arrive tout droit du désert Une pookie ça reste une pookie même avec un maillot DZ Vision sur l'avenir en 4K, je me voyais dans un 4x4 avec une veste à 4 balles À 40 sur un quatre quart on ira jusqu'au paquetage Tapag nocturne on va charger chez l'pak-pak Pic t pic et colegram, deux me-ca dans l'Macan GTS J'vais la saccager comme un jeune macaque J'rentre pour ta mère la pute et t'envoie pas d'PCS J'vais te trouver même si t'achète nationalité Malgache J'monte dans la fusée comme Elon Musk Pas d'eau de Cologne, pas d'acide aminés dans le muscle Une main sur l'eau de Pologne, l'autre sur une cross russe Rase les murs s'il le faut ça va te rafaler dans le bus J'ai quitté l'école à 13 pour aller cambu j'connais pas les campus A,B,A, scorpus, mélodie du ketbouss Catapulte les ballons des aller retours en Brabus Papyss côté passager remet des cartouches Partout j'porte mes cojo' j'emmène mes khos dans l'luxe Qu'est-ce ça peut te foutre que je mette cent-mille euros dans le lustre Baltringue tu les a donné c'est pastille dans l'buste En pétard dans le binks, de la selra dans le cul You might also like Midi minuit pour la paye Minuit midi pour la teille On donne nos vies pour la tess J'pars en pogo comme Wu-Tang Manquerais plus que ma clique rapplique T'entend plus qu'le clic, plus qu'le bang J'attends que le jour de paye J'attends que le jour de paye Fais voir ton tarpé en bal ? Wesh c'est un baisé tu fait quoi là ? Hahahaha Wesh wesh tu fais quoi là ? Oups, Yeah Hoe C'est un ouf lui Arabe terroriste, pléonasme Époque féodale, fêlé comme un Néandertal Joue pas les Edwards Norton, la violence n'est pas verbale Vielle baltringue, on joue aux échecs pas aux dames Va t'mêler devant ta bien aimée tu va pas t'en remettre wesh Il me reste un peu de poudre gueush Elle suce elle a plus de blush J'la casse elle a plus d'beuj' J'sors une guitare et ça danse le flamenco J'sors des favelas maillot du Flamengo Espera momento, j'entends plus rien j'suis dans l'Merco J'ouvre le hazi j'prends ma part du ghetto Tu vas fumer personne, que du bedo Tu crois qu't'es quelqu'un mais on devient personne, en donnant des go Coupe coupe dans la mano, si y a pas c'est coup de couteau Tu te rappelle de moi et de mes coup de coudes Puto pété sous le couvre chef, sacoche Gucci remplie d'CHF han Bien sûr que c'est moi le chief han Bien sûr que c'est moi le chef Tu me respecte quand j'te met des gifles J'ai déchiffré vice de kharbet Midi minuit pour la paye Minuit midi pour la teille On donne nos vies pour la tess J'pars en pogo comme Wu-Tang Manquerais plus que ma clique rapplique T'entend plus qu'le clic, plus qu'le bang J'attends que le jour de paye J'attends que le jour de paye</t>
+          <t>Paroles de Midi Minuit Le goût du sang dans la bouche comme une chaleur dans la nuque Lorsque la violence et l'ivresse ne font plus qu'un dans la rue La rétine attirée par l'oseille on arrive tout droit du désert Une pookie ça reste une pookie même avec un maillot DZ Vision sur l'avenir en 4K, je me voyais dans un 4x4 avec une veste à 4 balles À 40 sur un quatre quart on ira jusqu'au paquetage Tapag nocturne on va charger chez l'pak-pak Pic t pic et colegram, deux me-ca dans l'Macan GTS J'vais la saccager comme un jeune macaque J'rentre pour ta mère la pute et t'envoie pas d'PCS J'vais te trouver même si t'achète nationalité Malgache J'monte dans la fusée comme Elon Musk Pas d'eau de Cologne, pas d'acide aminés dans le muscle Une main sur l'eau de Pologne, l'autre sur une cross russe Rase les murs s'il le faut ça va te rafaler dans le bus J'ai quitté l'école à 13 pour aller cambu j'connais pas les campus A,B,A, scorpus, mélodie du ketbouss Catapulte les ballons des aller retours en Brabus Papyss côté passager remet des cartouches Partout j'porte mes cojo' j'emmène mes khos dans l'luxe Qu'est-ce ça peut te foutre que je mette cent-mille euros dans le lustre Baltringue tu les a donné c'est pastille dans l'buste En pétard dans le binks, de la selra dans le cul Midi minuit pour la paye Minuit midi pour la teille On donne nos vies pour la tess J'pars en pogo comme Wu-Tang Manquerais plus que ma clique rapplique T'entend plus qu'le clic, plus qu'le bang J'attends que le jour de paye J'attends que le jour de paye Fais voir ton tarpé en bal ? Wesh c'est un baisé tu fait quoi là ? Hahahaha Wesh wesh tu fais quoi là ? Oups, Yeah Hoe C'est un ouf lui Arabe terroriste, pléonasme Époque féodale, fêlé comme un Néandertal Joue pas les Edwards Norton, la violence n'est pas verbale Vielle baltringue, on joue aux échecs pas aux dames Va t'mêler devant ta bien aimée tu va pas t'en remettre wesh Il me reste un peu de poudre gueush Elle suce elle a plus de blush J'la casse elle a plus d'beuj' J'sors une guitare et ça danse le flamenco J'sors des favelas maillot du Flamengo Espera momento, j'entends plus rien j'suis dans l'Merco J'ouvre le hazi j'prends ma part du ghetto Tu vas fumer personne, que du bedo Tu crois qu't'es quelqu'un mais on devient personne, en donnant des go Coupe coupe dans la mano, si y a pas c'est coup de couteau Tu te rappelle de moi et de mes coup de coudes Puto pété sous le couvre chef, sacoche Gucci remplie d'CHF han Bien sûr que c'est moi le chief han Bien sûr que c'est moi le chef Tu me respecte quand j'te met des gifles J'ai déchiffré vice de kharbet Midi minuit pour la paye Minuit midi pour la teille On donne nos vies pour la tess J'pars en pogo comme Wu-Tang Manquerais plus que ma clique rapplique T'entend plus qu'le clic, plus qu'le bang J'attends que le jour de paye J'attends que le jour de paye</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Paroles de Nikola Tesla J'ai confiance en l'Amérique L'Amérique, elle a fait ma fortune J'ai élevé ma fille comme une véritable américaine Je lui ai dit Tu es libre Mais surtout, tu ne dois jamais déshonorer ta famille Never broke again j'aurais plus l'vent en poupe Au feu rouge mes vociférations tournent en boucle Déflagration sur cette marée humaine La culture urbaine se doit de foutr le souk S'échappe la trahison par les pors de ta peau J'me vois déjà frotter pour faire partir la poudre De l'huile de coude du sang sur le drapeau Ne croise pas le bikow la concu' j'l'envoie coudre Ça fait longtemps qu'j'en n'ai plus rien à foutre J'comprends plus rien au rap j'comprends plus rien au foot Tous les systèmes corrompus par l'oseille Mais t'inquiète c'est pas Zeus qui fait tomber la foudre J'me sens comme Nikola Tesla Lorsqu'il a mis au point le courant alternatif Redouble d'efforts loin de ma terre natale Nage à contre-courant pas d'autre alternative You might also like Loin des îles Baléares han Des aurores boréales des aurores boréales Arsenal, de quoi faire un film d'horreur idéal han Tu testes, ou quoi ? T'es bête, ou quoi ? Tu dead, ou quoi ? Tu dead, ou quoi ? Ah ! Grrrr-Ah On s'aime, ou pas ? On baise, ou quoi ? Je sais même plus pour lequel tu l'écartes Ton ex, j'l'éclate, ton mec, j'l'éclate Ils savent tous les deux qu'tu fais la bise pour le clout Fais pas la se-bi, me check pas J'te vois en bizarre même si t'as fait gendarme deux mois J'suis pas là ils parlent de moi J'sais qu'ils ont trop peur de moi Igo faut charbonner, porter ses couilles Ta peur est ta pire ennemie, t'es mort de trouille J'en n'ai pas marre des beafs, j'en n'ai pas marre des trolls Le jour où y en a plus c'est qu'mon buzz s'écroule On va sûrement mettre la commissaire au tapin C'est la guerre la mumu nous chasse comme des lapins Avant-hier t'avais pas un radis Mon rebeu demain tu rachètes le Paladin J'me sens comme Nikola Tesla Nikola Tesla Toujours un pied dans la tess, moi 17 J'me sens comme Nikola Tesla Courant alternatif, pas d'autre alternative C'est la guerre, Grrrr-Ah Low low, j'y vais low low J'ai l'opinel ze-dou j'le garde même quand je pisse Au coeur des polémiques et du pogo Le feu sort de mes yeux quand les poulets rôtissent J'ai ta carrière on my wrist J'arrive de la zone à risque Hassi Messaoud c'est pas l'Arizona Belouizdad sur le dos j'suis en Il m'faut plus d'une couronne pour la daronne Trop de brain et ma foumasse te coupe le souffle J'ai encore beaucoup d'chemin jusqu'à Rome Malheureusement pour vous j'ai beaucoup d'ressources Envoie les shlags se moucher Y a qu'les pookies qui discutent à fleuret moucheté Éméché parmi traqueurs et mouchards Sors une kish' de la Goyard ils s'mettent à loucher</t>
+          <t>Paroles de Nikola Tesla J'ai confiance en l'Amérique L'Amérique, elle a fait ma fortune J'ai élevé ma fille comme une véritable américaine Je lui ai dit Tu es libre Mais surtout, tu ne dois jamais déshonorer ta famille Never broke again j'aurais plus l'vent en poupe Au feu rouge mes vociférations tournent en boucle Déflagration sur cette marée humaine La culture urbaine se doit de foutr le souk S'échappe la trahison par les pors de ta peau J'me vois déjà frotter pour faire partir la poudre De l'huile de coude du sang sur le drapeau Ne croise pas le bikow la concu' j'l'envoie coudre Ça fait longtemps qu'j'en n'ai plus rien à foutre J'comprends plus rien au rap j'comprends plus rien au foot Tous les systèmes corrompus par l'oseille Mais t'inquiète c'est pas Zeus qui fait tomber la foudre J'me sens comme Nikola Tesla Lorsqu'il a mis au point le courant alternatif Redouble d'efforts loin de ma terre natale Nage à contre-courant pas d'autre alternative Loin des îles Baléares han Des aurores boréales des aurores boréales Arsenal, de quoi faire un film d'horreur idéal han Tu testes, ou quoi ? T'es bête, ou quoi ? Tu dead, ou quoi ? Tu dead, ou quoi ? Ah ! Grrrr-Ah On s'aime, ou pas ? On baise, ou quoi ? Je sais même plus pour lequel tu l'écartes Ton ex, j'l'éclate, ton mec, j'l'éclate Ils savent tous les deux qu'tu fais la bise pour le clout Fais pas la se-bi, me check pas J'te vois en bizarre même si t'as fait gendarme deux mois J'suis pas là ils parlent de moi J'sais qu'ils ont trop peur de moi Igo faut charbonner, porter ses couilles Ta peur est ta pire ennemie, t'es mort de trouille J'en n'ai pas marre des beafs, j'en n'ai pas marre des trolls Le jour où y en a plus c'est qu'mon buzz s'écroule On va sûrement mettre la commissaire au tapin C'est la guerre la mumu nous chasse comme des lapins Avant-hier t'avais pas un radis Mon rebeu demain tu rachètes le Paladin J'me sens comme Nikola Tesla Nikola Tesla Toujours un pied dans la tess, moi 17 J'me sens comme Nikola Tesla Courant alternatif, pas d'autre alternative C'est la guerre, Grrrr-Ah Low low, j'y vais low low J'ai l'opinel ze-dou j'le garde même quand je pisse Au coeur des polémiques et du pogo Le feu sort de mes yeux quand les poulets rôtissent J'ai ta carrière on my wrist J'arrive de la zone à risque Hassi Messaoud c'est pas l'Arizona Belouizdad sur le dos j'suis en Il m'faut plus d'une couronne pour la daronne Trop de brain et ma foumasse te coupe le souffle J'ai encore beaucoup d'chemin jusqu'à Rome Malheureusement pour vous j'ai beaucoup d'ressources Envoie les shlags se moucher Y a qu'les pookies qui discutent à fleuret moucheté Éméché parmi traqueurs et mouchards Sors une kish' de la Goyard ils s'mettent à loucher</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Hey hey SDLT ouais la cité là, Big Lems' T'es prêt ? ouais la cité là Hey hey Devant l'pilote il t'a palpé l'autre, c'est pour les pirates qui passent dans des pirogues sous pillave J'envoie l'gardien faire une parade, SD ça frappe fort bientôt on a pareil Apparemment tu joues d'la trompette, apparence trompeuse gros tu vas trembler J'suis pas ton pote, tu connais l'empire, tu prends une tampette, pour toi c'est tant pis Tu vois tes grands taper dans la poudre, j'préfère taffer que d'bicrave à perte Et ouais mon pote j'en ai rien à foutre, quelques pirates coffrés dans l'appart Deux-trois pétasses coffrées dans l'hôtel, j'les rejoint pas si j'dois graille ma part J'suis pas comme eux j'suis pas dans le dél', ça découpe et j'les mets tous d'accord Les condés sont passés, tout l'monde se replie dans l'bat' depuis midi pile Igo c'est la merde donc on augmente les prix l'argent m'appelle dans la street je file Les condés sont passés, tout l'monde se replie la go m'harcelle, elle est trop tactile Igo c'est la merde donc on augmente les prix à la cité ça cavale quand y a les flics On fleek on fleek, on fleek on fleek, j'piétine un flic, j'suis en on fleek on fleek Ça critique mais rien qu'ça clique ça clique, ma clique ma clique, l'Afrique l'Afrique SDLT toujours on fleek on fleek, Human Kalash toujours on fleek on fleek Ces pédés parlent de la street la street, ma bite ma bite, ma bite ma bite You might also like La rue c'est méchant quand la BAC elle opère, les p'tits jouent les grands, ouais tout l'monde est déter Joue pas au con si on dégaine un fer, quatre heure et demi, j'suis encore à la tess Non mon ami y a pas d'pochtons offerts, tu m'oubliera si demain j'prends du ferme Et sur l'bitume y a pas place pour les faibles, avec les vrais j'suis resté solidaire Là ça symphonie des métaux, nouveau jour se lève, j'remercie le Très-Haut Faut garder en tête que tout l'monde à la dalle, loup solitaire bataille pour dinero Tu t'demande encore qui crame le game, pousse les rapports derrière y a des TM akha Crois-moi c'est pas la même j'mets tout en sécu quand j'entends les sirènes Les condés sont passés, tout l'monde se replie dans l'bat' depuis midi pile Igo c'est la merde donc on augmente les prix l'argent m'appelle dans la street je file Les condés sont passés, tout l'monde se replie la go m'harcelle, elle est trop tactile Igo c'est la merde donc on augmente les prix à la cité ça cavale quand y a les flics On fleek on fleek, on fleek on fleek, j'piétine un flic, j'suis en on fleek on fleek Ça critique mais rien qu'ça clique ça clique, ma clique ma clique, l'Afrique l'Afrique SDLT toujours on fleek on fleek, Human Kalash toujours on fleek on fleek Ces pédés parlent de la street la street, ma bite ma bite, ma bite ma bite Ils font d'la Trap wAllah que j'les coule, le son en grosse fumée là j'l'écoute Allo deux cent balles c'est cool, si il doit des sous il prend ses coups qu'après deux heure y aura des excès Conduite énervait les TC, bécanes énervées pas d'VTC J'fais le coup du foulard à ta fumas, du mal à m'débarrasser des parach' Dérapage, l'APJ dans les parages, on a passé l'premier péage, pas de brouillard, pas de barrage Depuis quand les bandeurs font les Antonio Banderas, sur un T-Max on t'allume ta race en terrasse Gelato, grosse dose de TH, le doigt sur la Kalash, fuck un FAMAS, c'est pas GTA, c'est Damas T'en a marre de voir ma ganache, low bitch, les seins le cul refait mais tu pues d'la chatte low bitch Tu veux tout l'monde haram que j'te mette en cloque ma britch, mes bikows portent les gants le calibre et l'pied d'biche Midi-minuit que la plata haahaa, des brocolis dans mon pétou houhou J'suis venu gâcher la guenda haahaa, elle arrive elle est pas pée-cou houhou Ouais la cité là Le brolic, la sacoche haute couture, demande à Big Daddy, c'est la dictature Les p'tits coupent le crac à p'tites spatules, Salvatore Lemsi pisse sur vos p'tites peintures Le gros bolide et la boite Tronic, j'vais m'refaire la be-bar et la p'tite teinture SDLT, Lemsi marchent sur vous, ça met des grosses amendes et des p'tites factures grrrrr Les condés sont passés, tout l'monde se replie dans l'bat' depuis midi pile Igo c'est la merde donc on augmente les prix l'argent m'appelle dans la street je file Les condés sont passés, tout l'monde se replie la go m'harcelle, elle est trop tactile Igo c'est la merde donc on augmente les prix à la cité ça cavale quand y a les flics On fleek on fleek, on fleek on fleek, j'piétine un flic, j'suis en on fleek on fleek Ça critique mais rien qu'ça clique ça clique, ma clique ma clique, l'Afrique l'Afrique SDLT toujours on fleek on fleek, Human Kalash toujours on fleek on fleek Ces pédés parlent de la street la street, ma bite ma bite, ma bite ma bite</t>
+          <t>Hey hey SDLT ouais la cité là, Big Lems' T'es prêt ? ouais la cité là Hey hey Devant l'pilote il t'a palpé l'autre, c'est pour les pirates qui passent dans des pirogues sous pillave J'envoie l'gardien faire une parade, SD ça frappe fort bientôt on a pareil Apparemment tu joues d'la trompette, apparence trompeuse gros tu vas trembler J'suis pas ton pote, tu connais l'empire, tu prends une tampette, pour toi c'est tant pis Tu vois tes grands taper dans la poudre, j'préfère taffer que d'bicrave à perte Et ouais mon pote j'en ai rien à foutre, quelques pirates coffrés dans l'appart Deux-trois pétasses coffrées dans l'hôtel, j'les rejoint pas si j'dois graille ma part J'suis pas comme eux j'suis pas dans le dél', ça découpe et j'les mets tous d'accord Les condés sont passés, tout l'monde se replie dans l'bat' depuis midi pile Igo c'est la merde donc on augmente les prix l'argent m'appelle dans la street je file Les condés sont passés, tout l'monde se replie la go m'harcelle, elle est trop tactile Igo c'est la merde donc on augmente les prix à la cité ça cavale quand y a les flics On fleek on fleek, on fleek on fleek, j'piétine un flic, j'suis en on fleek on fleek Ça critique mais rien qu'ça clique ça clique, ma clique ma clique, l'Afrique l'Afrique SDLT toujours on fleek on fleek, Human Kalash toujours on fleek on fleek Ces pédés parlent de la street la street, ma bite ma bite, ma bite ma bite La rue c'est méchant quand la BAC elle opère, les p'tits jouent les grands, ouais tout l'monde est déter Joue pas au con si on dégaine un fer, quatre heure et demi, j'suis encore à la tess Non mon ami y a pas d'pochtons offerts, tu m'oubliera si demain j'prends du ferme Et sur l'bitume y a pas place pour les faibles, avec les vrais j'suis resté solidaire Là ça symphonie des métaux, nouveau jour se lève, j'remercie le Très-Haut Faut garder en tête que tout l'monde à la dalle, loup solitaire bataille pour dinero Tu t'demande encore qui crame le game, pousse les rapports derrière y a des TM akha Crois-moi c'est pas la même j'mets tout en sécu quand j'entends les sirènes Les condés sont passés, tout l'monde se replie dans l'bat' depuis midi pile Igo c'est la merde donc on augmente les prix l'argent m'appelle dans la street je file Les condés sont passés, tout l'monde se replie la go m'harcelle, elle est trop tactile Igo c'est la merde donc on augmente les prix à la cité ça cavale quand y a les flics On fleek on fleek, on fleek on fleek, j'piétine un flic, j'suis en on fleek on fleek Ça critique mais rien qu'ça clique ça clique, ma clique ma clique, l'Afrique l'Afrique SDLT toujours on fleek on fleek, Human Kalash toujours on fleek on fleek Ces pédés parlent de la street la street, ma bite ma bite, ma bite ma bite Ils font d'la Trap wAllah que j'les coule, le son en grosse fumée là j'l'écoute Allo deux cent balles c'est cool, si il doit des sous il prend ses coups qu'après deux heure y aura des excès Conduite énervait les TC, bécanes énervées pas d'VTC J'fais le coup du foulard à ta fumas, du mal à m'débarrasser des parach' Dérapage, l'APJ dans les parages, on a passé l'premier péage, pas de brouillard, pas de barrage Depuis quand les bandeurs font les Antonio Banderas, sur un T-Max on t'allume ta race en terrasse Gelato, grosse dose de TH, le doigt sur la Kalash, fuck un FAMAS, c'est pas GTA, c'est Damas T'en a marre de voir ma ganache, low bitch, les seins le cul refait mais tu pues d'la chatte low bitch Tu veux tout l'monde haram que j'te mette en cloque ma britch, mes bikows portent les gants le calibre et l'pied d'biche Midi-minuit que la plata haahaa, des brocolis dans mon pétou houhou J'suis venu gâcher la guenda haahaa, elle arrive elle est pas pée-cou houhou Ouais la cité là Le brolic, la sacoche haute couture, demande à Big Daddy, c'est la dictature Les p'tits coupent le crac à p'tites spatules, Salvatore Lemsi pisse sur vos p'tites peintures Le gros bolide et la boite Tronic, j'vais m'refaire la be-bar et la p'tite teinture SDLT, Lemsi marchent sur vous, ça met des grosses amendes et des p'tites factures grrrrr Les condés sont passés, tout l'monde se replie dans l'bat' depuis midi pile Igo c'est la merde donc on augmente les prix l'argent m'appelle dans la street je file Les condés sont passés, tout l'monde se replie la go m'harcelle, elle est trop tactile Igo c'est la merde donc on augmente les prix à la cité ça cavale quand y a les flics On fleek on fleek, on fleek on fleek, j'piétine un flic, j'suis en on fleek on fleek Ça critique mais rien qu'ça clique ça clique, ma clique ma clique, l'Afrique l'Afrique SDLT toujours on fleek on fleek, Human Kalash toujours on fleek on fleek Ces pédés parlent de la street la street, ma bite ma bite, ma bite ma bite</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>shadow, trois heures de sac, endurant comme le chameau, les crochets te charclent Plus d'un tour dans mon chapeau, après le jab vient la gauche puis la droite puis la tempête de sable La victoire aime les forts, j'ai baigné dans la sueur, mon uppercut brise ton menton de cristal Issu d'une famille d'dix-huit frères et surs, hey, qu'est-ce qu'ils connaissent de mon histoire ? J'le fais pour l'honneur du daron, la parole fait l'homme alors j'le fais pour ma fille, pour ma femme Si j'fais des dinero c'est pour la daronne pas pour les boites de nuits ni la fête ni le J'ai bâti mon empire à la force de mes bras, mes lèvres me rongent et je tombe dans mes draps J'ai des frissons quand j'repense à Las Vegas, ils m'parlaient d'Uzi mais c'est moi qui ai fait braah ! Ils ont tenté de m'rabaisser, délaisser, dès lors j'suis parti soulever WBC Ils ont fini par m'carresser dans l'sens du poil mais le lion pour un rien se sent agresser J'ferai pas demi tour j'suis si proche du but, j'ai le crochet du gauche qui t'arrache la bouche J'veux plus m'retrouver au pied du mur, j'ai mérité mon succès, y'a pas d'tabous Si j'monte sur le ring c'est pour win la couronne, la ceinture du king yah, yah, yah Ma famille, mon pays, ma ville, le gouvernail du navire yah, yah, yah Si j'monte sur le ring c'est pour win la couronne, la ceinture du king Oubaali Ma famille, mon pays, ma ville, le gouvernail du navire Oubaali J'te couche du gauche comme OubaaliYou might also like</t>
+          <t>shadow, trois heures de sac, endurant comme le chameau, les crochets te charclent Plus d'un tour dans mon chapeau, après le jab vient la gauche puis la droite puis la tempête de sable La victoire aime les forts, j'ai baigné dans la sueur, mon uppercut brise ton menton de cristal Issu d'une famille d'dix-huit frères et surs, hey, qu'est-ce qu'ils connaissent de mon histoire ? J'le fais pour l'honneur du daron, la parole fait l'homme alors j'le fais pour ma fille, pour ma femme Si j'fais des dinero c'est pour la daronne pas pour les boites de nuits ni la fête ni le J'ai bâti mon empire à la force de mes bras, mes lèvres me rongent et je tombe dans mes draps J'ai des frissons quand j'repense à Las Vegas, ils m'parlaient d'Uzi mais c'est moi qui ai fait braah ! Ils ont tenté de m'rabaisser, délaisser, dès lors j'suis parti soulever WBC Ils ont fini par m'carresser dans l'sens du poil mais le lion pour un rien se sent agresser J'ferai pas demi tour j'suis si proche du but, j'ai le crochet du gauche qui t'arrache la bouche J'veux plus m'retrouver au pied du mur, j'ai mérité mon succès, y'a pas d'tabous Si j'monte sur le ring c'est pour win la couronne, la ceinture du king yah, yah, yah Ma famille, mon pays, ma ville, le gouvernail du navire yah, yah, yah Si j'monte sur le ring c'est pour win la couronne, la ceinture du king Oubaali Ma famille, mon pays, ma ville, le gouvernail du navire Oubaali J'te couche du gauche comme Oubaali</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Yeah Hoe C'est Hayce lemsi l'insomniaque Petite démo pour Adal Suivez-moi sur Snapchat Snapbikow Yeah Hoe Bad biko du bendo, bavier zebi rani m'nervé Kalash tchétchène Champagne shower dans sa chevelure peroxydé Tout mes bikow debout pour l'after, bibi la mdd J'sors du gamos, bloque la rue pour nae nae Juste pour nae nae Balmain, Balanciaga, Prada Je veux pas de ta cagette t'es fada Toujours au cur du réacteur reconnu jusqu'au Canada Je veux que tu work à la Rihanna-Rihanna J'ai la main sur Paname J'ai de la moula j'fais la mala-lalala sur le macadam bel air Bikow j'ai tout donné dans la cabine Trop dénergie c'est la pile alcaline Les go du ghetto ne sont pas caline Et les go du 16 en mode méthamphétamine Pussy bikow tu manque de vitamine Tu sais même pas satisfaire ta petite amie cheeeeh Yeah Hoe je suis dans l'appart Et je recherche la forme et le fond J'suis de retour dans les backs avec le re-frè Saitama A des années-lumières de ces rappeurs lambda La j'ai ressorti la maybach ouh ouh ouh ouh Car ce dernier chèque contient bien six chiffres Et jemmène ma bitch, à Hawai ouh ouh ouh ouh Non y a pas d'échec, la mixtape déchire Le 8 avril, c'est ADAL ouh ouh ouh ouh T'es ma loca t'es ma bitch T'es ma bimbo tu seras tout ce que tu voudras ouh ouh ouh Tu peux faire ton spitch me raconter ce que tu voudras Moi ce que je veux c'est te mettre un ou-ou-ou-ouc' You might also like Ah je sais je suis un gamin Calmer calmer Merci la famille Que tu soutiennes de loin ou de près Team frères lums'</t>
+          <t>Yeah Hoe C'est Hayce lemsi l'insomniaque Petite démo pour Adal Suivez-moi sur Snapchat Snapbikow Yeah Hoe Bad biko du bendo, bavier zebi rani m'nervé Kalash tchétchène Champagne shower dans sa chevelure peroxydé Tout mes bikow debout pour l'after, bibi la mdd J'sors du gamos, bloque la rue pour nae nae Juste pour nae nae Balmain, Balanciaga, Prada Je veux pas de ta cagette t'es fada Toujours au cur du réacteur reconnu jusqu'au Canada Je veux que tu work à la Rihanna-Rihanna J'ai la main sur Paname J'ai de la moula j'fais la mala-lalala sur le macadam bel air Bikow j'ai tout donné dans la cabine Trop dénergie c'est la pile alcaline Les go du ghetto ne sont pas caline Et les go du 16 en mode méthamphétamine Pussy bikow tu manque de vitamine Tu sais même pas satisfaire ta petite amie cheeeeh Yeah Hoe je suis dans l'appart Et je recherche la forme et le fond J'suis de retour dans les backs avec le re-frè Saitama A des années-lumières de ces rappeurs lambda La j'ai ressorti la maybach ouh ouh ouh ouh Car ce dernier chèque contient bien six chiffres Et jemmène ma bitch, à Hawai ouh ouh ouh ouh Non y a pas d'échec, la mixtape déchire Le 8 avril, c'est ADAL ouh ouh ouh ouh T'es ma loca t'es ma bitch T'es ma bimbo tu seras tout ce que tu voudras ouh ouh ouh Tu peux faire ton spitch me raconter ce que tu voudras Moi ce que je veux c'est te mettre un ou-ou-ou-ouc' Ah je sais je suis un gamin Calmer calmer Merci la famille Que tu soutiennes de loin ou de près Team frères lums'</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Quelques trous dans la peau, ils m'ont passé les gourmettes Mais j'lai mérité, c'est la vérité Ils te bloquent dans le binks, t'emmènent 24 heures Et ça peut se compliquer, ça part en RIP Ahh mama m'a dit sur du sable les gens bâtissent Les gens s'aiment, s'anéantissent, à 10 ans ça vend déjà la matiti des abysses Dé-détailler les plaquettes, je sors de la maison hantée Je sors de ta maison ganté, avec mes trafiquantés Au fond du club, gêné, mes amis deviennent ennemis Oh mama j'ai mal à la vie, grandir dans le même tieks pour se haïr Grandir dans le même tieks pour se trahir J'ai mal à la vida Et c'est la vérité, tu veux venir vérifier? J'dis que la vérité, des fois j'suis terrifié J'sui posé j'suis dans l'zoo, si t'es la mif on s'aide J'ai quelques frères en haut, j'ai quelques frères au ciel Tu veux la guerre j'sui pas là là là là là Ailleurs j'suis pas là là là là là Plus l'temps j'suis pas là là là là là Dis leurs j'suis pas là là là là là You might also like Ils aimeraient qu'on leur donne tout ce qu'on a dans les poches, j'en ai rien à foutre d'être seul dans la cité Comme si les keufs allaient me faire J'ai grandi dans la misère, faire le tour de l'hémisphère ah ah J'crois qui serait l'temps d'me taire de me poser, j'ai fait du sal, j'suis en pierre, le cur gelé comme Médusa Ceux qui m'guettent veulent me juger, j'les calcule pas, j'les emmerde J'en ai mal à la tête, j'ai toujours été vrai, dis-moi à quoi ça sert Tous les gens t'la mette, seul sur ma planète C'est vrai j'suis très solo dans ma tête, des re-frès s'allument, des mères sont en miettes J'vois du sang par terre, tu perds des amis, tu perds des partenaires J'suis dans des salades, j'm'éloigne des salopes J'crois qu'au final t'es solo, j'vais quitter la zone Et c'est la vérité, tu veux venir vérifier? J'dis que la vérité, des fois j'suis terrifié J'sui posé j'sui dans l'zoo, si t'es la mif on s'aide J'ai quelques frères en haut, j'ai quelques frères au ciel Tu veux la guerre j'sui pas là là là là làààà Ailleurs j'sui pas là là là là làààà Plus l'temps j'sui pas là là là là làààà Dis leurs j'sui pas là là là là làààà</t>
+          <t>Quelques trous dans la peau, ils m'ont passé les gourmettes Mais j'lai mérité, c'est la vérité Ils te bloquent dans le binks, t'emmènent 24 heures Et ça peut se compliquer, ça part en RIP Ahh mama m'a dit sur du sable les gens bâtissent Les gens s'aiment, s'anéantissent, à 10 ans ça vend déjà la matiti des abysses Dé-détailler les plaquettes, je sors de la maison hantée Je sors de ta maison ganté, avec mes trafiquantés Au fond du club, gêné, mes amis deviennent ennemis Oh mama j'ai mal à la vie, grandir dans le même tieks pour se haïr Grandir dans le même tieks pour se trahir J'ai mal à la vida Et c'est la vérité, tu veux venir vérifier? J'dis que la vérité, des fois j'suis terrifié J'sui posé j'suis dans l'zoo, si t'es la mif on s'aide J'ai quelques frères en haut, j'ai quelques frères au ciel Tu veux la guerre j'sui pas là là là là là Ailleurs j'suis pas là là là là là Plus l'temps j'suis pas là là là là là Dis leurs j'suis pas là là là là là Ils aimeraient qu'on leur donne tout ce qu'on a dans les poches, j'en ai rien à foutre d'être seul dans la cité Comme si les keufs allaient me faire J'ai grandi dans la misère, faire le tour de l'hémisphère ah ah J'crois qui serait l'temps d'me taire de me poser, j'ai fait du sal, j'suis en pierre, le cur gelé comme Médusa Ceux qui m'guettent veulent me juger, j'les calcule pas, j'les emmerde J'en ai mal à la tête, j'ai toujours été vrai, dis-moi à quoi ça sert Tous les gens t'la mette, seul sur ma planète C'est vrai j'suis très solo dans ma tête, des re-frès s'allument, des mères sont en miettes J'vois du sang par terre, tu perds des amis, tu perds des partenaires J'suis dans des salades, j'm'éloigne des salopes J'crois qu'au final t'es solo, j'vais quitter la zone Et c'est la vérité, tu veux venir vérifier? J'dis que la vérité, des fois j'suis terrifié J'sui posé j'sui dans l'zoo, si t'es la mif on s'aide J'ai quelques frères en haut, j'ai quelques frères au ciel Tu veux la guerre j'sui pas là là là là làààà Ailleurs j'sui pas là là là là làààà Plus l'temps j'sui pas là là là là làààà Dis leurs j'sui pas là là là là làààà</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Quand les flics viennent nous laver, c'est pas par mesure hygiénique Deux-trois coups d'taser dans l'cul, y a comme une ambiance électrique Gelato cookie quali', voyage sans passeport biométrique Vodka dans la coupe du trépas, j'arrêterai pas d'faire le Crib Jette le parachute et boulettes pour les frères enfermés Et j'sors de la guinguette en buvette, jpilote dun oil fermé J'leur fais le sourir du Joker quand ils attendent une passe dé' J'suis avec Fateh et Batman au cur de la Caste' J'casse tout, j'gare tout, j'fais 100k j'en dépense 10 Et si j'achète ton album, c'est juste pour faire du lance-disque Les faux frères s'arrachent avec ton oseille aux Maldives Combien d'allers-retours faut faire pour enfin rentrer dans l'dîn ? T'as mis les pieds dans le trafic, t'as pris du filtré trois fois Trop d'dettes à la fois, tu t'es fait tanker trois fois Électron Libre 3 j'annonce, demande à Amustre Fallait pas m'boycott vous avez créé un monstre Baisse les vitre de la gari juste avant d'les allumer Ils s'font passer pour des grands dealers, ils prennent même pas un dinar Sors les kalashs on n'a pas l'temps pour l'fusil à lunette J'ai pris du retard, c'est mon retour et j'suis vraiment pas d'humeur Roule un pe'ou mais où, fume pas persou, appelle pas la police, appelle la poliakou Rien que j'mets des à-coups, gros big up à Karkou, j'cartouche, j'cave-pou sous la cagoule à trois trous, j'cartouche You might also like La street m'appelle, ça t'allume en citadelle Mêlé dans de tristes affaires, quand y a plus d'papel Dans la street, ça drip sa mère, ça tire sa mère Mêlé dans de tristes affaires, quand y a plus d'papel S'il faut ça va la cher-cher dans les montagnes à Caracas Apparemment tu dois des racks, tu vas rien faire à par encaisser Rafale dans ta carapace, à part la poisse, y a pas grand-chose qui nous colle à la peau ma race Ton bout-mara t'a 3asba, t'es dans la tess à la ramasse Alors amigo, t'as touché ton 30 à 50 ? J'te cache pas qu'j'ai le doigt sur la détente et ça m'tente X-ADV, KTM, T-MAX 530 Les microbes visser la zipette en zik ou en trot' De Paname à Marseille c'est la même Nardinamouk Quand l'OPJ nous harcèle, on ne dit pas un seul mot J'vais soulever le rap game avec une seule mano J'suis numéro neuf comme Rondo la voix du bendo Bikow, j'maîtrise les calembours et les hyperboles Mais ce que tu vois sur le hazi c'est pas un paintball Ma folasse aime trop la Grey Goose elle est hyper bonne J'projette avec mon biff comme si je sortais du Super Bowl Baisse les vitre de la gari juste avant d'les allumer Ils s'font passer pour des grands dealers, ils prennent pas un dinar Sors les kalashs on n'a pas l'temps pour l'fusil à lunette J'ai pris du retard, c'est mon retour et j'suis vraiment pas d'humeur Roule un pe'ou mais où, fume pas persou, appelle pas la police, appelle la poliakou Rien que j'mets des à-coups, gros big up à Karkou, j'cave-pou sous la cagoule à trois trous La street m'appelle, ça t'allume en citadelle Mêlé dans de tristes affaires, quand y a plus d'papel Dans la street sa drip sa mère, sa tire sa mère Mêlé dans de tristes affaires, quand y a plus d'papel</t>
+          <t>Quand les flics viennent nous laver, c'est pas par mesure hygiénique Deux-trois coups d'taser dans l'cul, y a comme une ambiance électrique Gelato cookie quali', voyage sans passeport biométrique Vodka dans la coupe du trépas, j'arrêterai pas d'faire le Crib Jette le parachute et boulettes pour les frères enfermés Et j'sors de la guinguette en buvette, jpilote dun oil fermé J'leur fais le sourir du Joker quand ils attendent une passe dé' J'suis avec Fateh et Batman au cur de la Caste' J'casse tout, j'gare tout, j'fais 100k j'en dépense 10 Et si j'achète ton album, c'est juste pour faire du lance-disque Les faux frères s'arrachent avec ton oseille aux Maldives Combien d'allers-retours faut faire pour enfin rentrer dans l'dîn ? T'as mis les pieds dans le trafic, t'as pris du filtré trois fois Trop d'dettes à la fois, tu t'es fait tanker trois fois Électron Libre 3 j'annonce, demande à Amustre Fallait pas m'boycott vous avez créé un monstre Baisse les vitre de la gari juste avant d'les allumer Ils s'font passer pour des grands dealers, ils prennent même pas un dinar Sors les kalashs on n'a pas l'temps pour l'fusil à lunette J'ai pris du retard, c'est mon retour et j'suis vraiment pas d'humeur Roule un pe'ou mais où, fume pas persou, appelle pas la police, appelle la poliakou Rien que j'mets des à-coups, gros big up à Karkou, j'cartouche, j'cave-pou sous la cagoule à trois trous, j'cartouche La street m'appelle, ça t'allume en citadelle Mêlé dans de tristes affaires, quand y a plus d'papel Dans la street, ça drip sa mère, ça tire sa mère Mêlé dans de tristes affaires, quand y a plus d'papel S'il faut ça va la cher-cher dans les montagnes à Caracas Apparemment tu dois des racks, tu vas rien faire à par encaisser Rafale dans ta carapace, à part la poisse, y a pas grand-chose qui nous colle à la peau ma race Ton bout-mara t'a 3asba, t'es dans la tess à la ramasse Alors amigo, t'as touché ton 30 à 50 ? J'te cache pas qu'j'ai le doigt sur la détente et ça m'tente X-ADV, KTM, T-MAX 530 Les microbes visser la zipette en zik ou en trot' De Paname à Marseille c'est la même Nardinamouk Quand l'OPJ nous harcèle, on ne dit pas un seul mot J'vais soulever le rap game avec une seule mano J'suis numéro neuf comme Rondo la voix du bendo Bikow, j'maîtrise les calembours et les hyperboles Mais ce que tu vois sur le hazi c'est pas un paintball Ma folasse aime trop la Grey Goose elle est hyper bonne J'projette avec mon biff comme si je sortais du Super Bowl Baisse les vitre de la gari juste avant d'les allumer Ils s'font passer pour des grands dealers, ils prennent pas un dinar Sors les kalashs on n'a pas l'temps pour l'fusil à lunette J'ai pris du retard, c'est mon retour et j'suis vraiment pas d'humeur Roule un pe'ou mais où, fume pas persou, appelle pas la police, appelle la poliakou Rien que j'mets des à-coups, gros big up à Karkou, j'cave-pou sous la cagoule à trois trous La street m'appelle, ça t'allume en citadelle Mêlé dans de tristes affaires, quand y a plus d'papel Dans la street sa drip sa mère, sa tire sa mère Mêlé dans de tristes affaires, quand y a plus d'papel</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Yeah hoe I2H Volts Face Hayce Lem' Mon époque est dingue, ça baise normal dans les toilettes Contre NTM, FDP on parle en trois lettres Et même si, admettons, on r'fait pas l'monde avec des si On ouvre des coffres avec des scies à métaux Y'a des lascars d'un mètre 60 qui posent des mètres de bédos Madame la juge, cette grosse salope qui veut pas lâcher Fredo La paix j'y crois plus d'puis longtemps J'passe la conduite accompagné, j'me fais sucer en pilotant L'temps qu'la drogue arrive à bon port L'argent s'ra pas halal Ils disent qu'ils font des bons scores, ils font 1000 première semaine Mais tu seras jamais ma meuf, j'ai la bague sur l'annulaire La justice est aveugle, les témoins sont occulaires T'as un gamos, on t'le carjack Pour le fric, proche d'la crise cardiaque Car j'suis au cur du trafic gros Repris d'justice, j'vois l'avocat entre deux scènes Mes refrains sont bancales parce qu'ils ont l'cul entre deux seizes You might also like Conduite en état d'ivresse Ma folie se manifeste Et les civils insistent Quand t'es qu'une poucave, ils t'laissent Mes bikos m'ont demandé de pas suivre l'insigne Ils critiquent mais reconnaissent Que je vais rentrer dans le Guiness Et niquer l'industrie De Villeneuve La Garenne à garge les gonesse Tu feras pas mon score même en comptant les streams J'la connais bien ta cousine Tu sais pas combien j'en ai vu défilé des strings Mais j'connais ta jalousie Tu sais pas combien j'en ai vu défilé des traitres Moi je rêve d'Indonésie Je laisse pas la mala prendre le dessus de mon esprit Y'a de l'amour dans ma poésie J'peux pas laisser la mama dans une maison d'retraite Paris, péripéties Péripatéticienne J'suis trop buzy, j'me fais pan, pan le zizi par l'esthéticienne Ye-Oh, Bel Air Music reprend le contrôle du rap français La moitié du rap français parle mal le français Ça kick sale avec I2H Jamais sans les frères de Mulhouse Une loca m'attend bien sagement Lèvres pulpeuse, saveur fruits rouges Ralentit pas dans les virages, yeah hoe J'suis qu'un mirage, yeah hoe J'pense qu'à t'bloquer contre un mur tu penses au mariage yeah hoe J'aimerais bien voir ces nouveaux rappeurs poser sur du Mobb Deep J'ai arrêté les grecs, j'vais à la salle et j'fais du crossfit Hier, j'étais personne aujourd'hui j'ai trois mixtape J'ai géré la meuf d'un rappeur mais cette salope est discrète A la salle, j'soulève 90 lockés à 10 rep' J'fait du blé, fuck Thalès et les parallélépipèdes J'emmerde les trous d'balle qui t'agresse quand il sont khabat Cherche pas à capter, j'baise le game, j'le mets à quatre pattes Dans mon équipe, y'a tous mes frères on a juré on parle ap' J'fait du blé, mais fuck le resto j'préfère graille un plat d'pâtes J'vois des bouffonnes de 13 piges qui veulent jouer les tass-pés Avant d'jouer les bastos, va d'jà t'acheter un tard-pé Y'a plus d'rappeurs si t'enlève la trap et l'flow autotuné J'suis l'genre de mec qui donne un orgasme à une prostituée Nique sa mère la célébrité, regard glacé sous la casquette Et si mon avenir est brisé, c'est qu'ma vie est un casse-tête</t>
+          <t>Yeah hoe I2H Volts Face Hayce Lem' Mon époque est dingue, ça baise normal dans les toilettes Contre NTM, FDP on parle en trois lettres Et même si, admettons, on r'fait pas l'monde avec des si On ouvre des coffres avec des scies à métaux Y'a des lascars d'un mètre 60 qui posent des mètres de bédos Madame la juge, cette grosse salope qui veut pas lâcher Fredo La paix j'y crois plus d'puis longtemps J'passe la conduite accompagné, j'me fais sucer en pilotant L'temps qu'la drogue arrive à bon port L'argent s'ra pas halal Ils disent qu'ils font des bons scores, ils font 1000 première semaine Mais tu seras jamais ma meuf, j'ai la bague sur l'annulaire La justice est aveugle, les témoins sont occulaires T'as un gamos, on t'le carjack Pour le fric, proche d'la crise cardiaque Car j'suis au cur du trafic gros Repris d'justice, j'vois l'avocat entre deux scènes Mes refrains sont bancales parce qu'ils ont l'cul entre deux seizes Conduite en état d'ivresse Ma folie se manifeste Et les civils insistent Quand t'es qu'une poucave, ils t'laissent Mes bikos m'ont demandé de pas suivre l'insigne Ils critiquent mais reconnaissent Que je vais rentrer dans le Guiness Et niquer l'industrie De Villeneuve La Garenne à garge les gonesse Tu feras pas mon score même en comptant les streams J'la connais bien ta cousine Tu sais pas combien j'en ai vu défilé des strings Mais j'connais ta jalousie Tu sais pas combien j'en ai vu défilé des traitres Moi je rêve d'Indonésie Je laisse pas la mala prendre le dessus de mon esprit Y'a de l'amour dans ma poésie J'peux pas laisser la mama dans une maison d'retraite Paris, péripéties Péripatéticienne J'suis trop buzy, j'me fais pan, pan le zizi par l'esthéticienne Ye-Oh, Bel Air Music reprend le contrôle du rap français La moitié du rap français parle mal le français Ça kick sale avec I2H Jamais sans les frères de Mulhouse Une loca m'attend bien sagement Lèvres pulpeuse, saveur fruits rouges Ralentit pas dans les virages, yeah hoe J'suis qu'un mirage, yeah hoe J'pense qu'à t'bloquer contre un mur tu penses au mariage yeah hoe J'aimerais bien voir ces nouveaux rappeurs poser sur du Mobb Deep J'ai arrêté les grecs, j'vais à la salle et j'fais du crossfit Hier, j'étais personne aujourd'hui j'ai trois mixtape J'ai géré la meuf d'un rappeur mais cette salope est discrète A la salle, j'soulève 90 lockés à 10 rep' J'fait du blé, fuck Thalès et les parallélépipèdes J'emmerde les trous d'balle qui t'agresse quand il sont khabat Cherche pas à capter, j'baise le game, j'le mets à quatre pattes Dans mon équipe, y'a tous mes frères on a juré on parle ap' J'fait du blé, mais fuck le resto j'préfère graille un plat d'pâtes J'vois des bouffonnes de 13 piges qui veulent jouer les tass-pés Avant d'jouer les bastos, va d'jà t'acheter un tard-pé Y'a plus d'rappeurs si t'enlève la trap et l'flow autotuné J'suis l'genre de mec qui donne un orgasme à une prostituée Nique sa mère la célébrité, regard glacé sous la casquette Et si mon avenir est brisé, c'est qu'ma vie est un casse-tête</t>
         </is>
       </c>
     </row>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Pas facile à garder, la fille qui te plaît Pas facile à gagner l'argent que tu te fais Difficile à réaliser-er-er tous tes, tous tes, tous tes projets Pas facile à payer ta bagnole à crédit Pas facile à boucler le loyer ce mois-ci Difficile à réaliser-er-er tous tes, tous tes, tous tes projets... Quoi d'neuf Primo? Rien de spécial, rien d'époustouflant Rien dans l'frigo, j'comprends pourquoi tu fais tout c'boucan Tous mes bicos sont capuchés, c'est l'couscous clan J'ai mis ma camisa negra, mes négros ont des boubous blancs Dans tes poches t'as zéro, elle veut qu'tu l'emmènes au Trocadéro Que tu lui paies un Coca Zero C'est 90D, taille 36, un Q.I en dessous de zéro C'est comme au Loto, pas facile de tirer les bons numéros Cabron, compte pas sur le rap pour résoudre la crise Tu paies l'ingé avec un bout d'hachich Tu rêves du bling bling à Ludacris Même ta grand-mère cache sa bicrave dans les couches de la petite C'est mamie mamie blue Mamie blue magic ! Pas facile de plaire à des bouffons pré-pubères Qu'on jamais vu la banquette arrière d'un fourgon cellulaire Pas facile, pas facile de taper des grosses barres sans pétard Garde espoir avec des Sy on transforme Omar en César You might also like C'est pas facile à ter-chan, pas facile à vivre J'ai retenu qu'un seul dicton de leur putain d'livre Charbonne mon chacalito, charbonne mon chacalito, charbonne mon chacalito Charbonne cabron ! C'est pas facile à ter-chan, pas facile à vivre J'ai retenu qu'un seul dicton de leur putain d'livre Charbonne mon bico loco, charbonne mon blacko loco, charbonne mon blanco loco Charbonne cabron ! Pas facile à payer ta bagnole à crédit Pas facile à boucler le loyer ce mois-ci Difficile à réaliser-er-er tous tes, tous tes, tous tes projets... Pas facile de taille-dé dans le bat en face du poulailler Pas facile de pouille-dé tous les 'loss à la sortie du rrain-te Pas facile de tailler quand les keufs te soulèvent dans ton lit Pas facile de payer celui qui t'a poussé 10 trons-li Pas facile de plier tous les moutons de la bergerie Difficile d'oublier tous les méfaits d'la guerre d'Algérie Difficile d'éliminer le missile téléguidé de la capitale Jvacille dans la lignée de l'inégalité faut que j'fasse d'la maille Faut qu'j'aille péter le poto Zekwé J'vends d'la zipette mais tappe pas drails Y'a de lamné de la set jme fonce-dé mais je nai même pas graille Cette pethayce est une pompe à fric mais tu te lasses pas la fourrer, oh ! Elle n'aime pas les baraques à frites Elle a monopolisé ta monéo ! Tous tes projets j'm'accroche, j'reste fort dans la Mondéo J'prends la vie par la crinière, l'avenir un rodéo Tous tes projets j'm'accroche, j'reste fort dans la Mondéo J'prends la vie par la crinière, l'avenir un rodéo</t>
+          <t>Pas facile à garder, la fille qui te plaît Pas facile à gagner l'argent que tu te fais Difficile à réaliser-er-er tous tes, tous tes, tous tes projets Pas facile à payer ta bagnole à crédit Pas facile à boucler le loyer ce mois-ci Difficile à réaliser-er-er tous tes, tous tes, tous tes projets... Quoi d'neuf Primo? Rien de spécial, rien d'époustouflant Rien dans l'frigo, j'comprends pourquoi tu fais tout c'boucan Tous mes bicos sont capuchés, c'est l'couscous clan J'ai mis ma camisa negra, mes négros ont des boubous blancs Dans tes poches t'as zéro, elle veut qu'tu l'emmènes au Trocadéro Que tu lui paies un Coca Zero C'est 90D, taille 36, un Q.I en dessous de zéro C'est comme au Loto, pas facile de tirer les bons numéros Cabron, compte pas sur le rap pour résoudre la crise Tu paies l'ingé avec un bout d'hachich Tu rêves du bling bling à Ludacris Même ta grand-mère cache sa bicrave dans les couches de la petite C'est mamie mamie blue Mamie blue magic ! Pas facile de plaire à des bouffons pré-pubères Qu'on jamais vu la banquette arrière d'un fourgon cellulaire Pas facile, pas facile de taper des grosses barres sans pétard Garde espoir avec des Sy on transforme Omar en César C'est pas facile à ter-chan, pas facile à vivre J'ai retenu qu'un seul dicton de leur putain d'livre Charbonne mon chacalito, charbonne mon chacalito, charbonne mon chacalito Charbonne cabron ! C'est pas facile à ter-chan, pas facile à vivre J'ai retenu qu'un seul dicton de leur putain d'livre Charbonne mon bico loco, charbonne mon blacko loco, charbonne mon blanco loco Charbonne cabron ! Pas facile à payer ta bagnole à crédit Pas facile à boucler le loyer ce mois-ci Difficile à réaliser-er-er tous tes, tous tes, tous tes projets... Pas facile de taille-dé dans le bat en face du poulailler Pas facile de pouille-dé tous les 'loss à la sortie du rrain-te Pas facile de tailler quand les keufs te soulèvent dans ton lit Pas facile de payer celui qui t'a poussé 10 trons-li Pas facile de plier tous les moutons de la bergerie Difficile d'oublier tous les méfaits d'la guerre d'Algérie Difficile d'éliminer le missile téléguidé de la capitale Jvacille dans la lignée de l'inégalité faut que j'fasse d'la maille Faut qu'j'aille péter le poto Zekwé J'vends d'la zipette mais tappe pas drails Y'a de lamné de la set jme fonce-dé mais je nai même pas graille Cette pethayce est une pompe à fric mais tu te lasses pas la fourrer, oh ! Elle n'aime pas les baraques à frites Elle a monopolisé ta monéo ! Tous tes projets j'm'accroche, j'reste fort dans la Mondéo J'prends la vie par la crinière, l'avenir un rodéo Tous tes projets j'm'accroche, j'reste fort dans la Mondéo J'prends la vie par la crinière, l'avenir un rodéo</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Libre penseur, j'peux pas donner d'la force à des forceurs Artiste, producteur, j'ai toujours le rôle de l'avant-centre et du défenseur Je voulais graill' dans l'Crillon mais j'ai bac5 à l'école du crime Millésimes dans l'crayon, j'me demande qui croire à l'époque du stream Gros j'ai peur de rien, à 300 dans la Choupetta, j'aime être tout ce que vous n'êtes pas Pedigree d'immigré dénigré, j'aime faire ce que vous n faites pas Le monde st cruel mais ton rap de salope ne le reflète pas Ces rebeus sont fragiles comme Lil Uzi, vendent leur âme pour lifestyle jacuzzi J'préfère entretenir une meuf de la hess que de sortir avec une millionnaire dans la S J'ai passé l'hiver à Londres et le summer à l'ombre à niquer les hesses Nouvelle paire TN là j'suis tout en Supreme j'ntm J'écris vu quand tu m'envoies DM, Belouizdad, sanguinaire ADN Roule à bord de plusieurs véhicules comme si j'avais marqué pendant le Superbowl Roule un pur de yellow fais des hyperboles et mes block boy's font les bails et gesticulent Fais recompter la kich' à Donna Imma dans la favela, j'ralentis sur la Tu veux faire la mafia, j'te fais faire l'mafé l't3am et les sandwichs Tu bombes le torse avant l'audition mais tu ressembles à 6ix9ine fils de pute Fais la boule comme l'hérisson, y aura pas d'rémission fils de pute J'ai peur de rien, peur de peur de rien, peur de peur de rien J'ai peur de rien, peur de peur de rien, peur de peur de rien J'ai peur de rien, peur de peur de rien, peur de peur de rien J'ai peur de rien, peur de peur de rien, peur de peur de rien You might also like J'crois qu'ils attendaient la suite d'ADAL, on leur donne oublie le pare-balle Quand ton heure sonne, j'rafale J'viens de commencer, si tu parles mal on va te violenter Juste pour le fun j'fais des rimes en c', tu viens me sucer, tu veux te fiancer Tu parles mariage, tu parles financier, prends tes bagages, j'te laisse commenter Reubeu j'ai pas besoin de tes conseils je m'en branle encore plus de c'que tu crois La différence entre toi et moi c'est qu'moi ma bouche rapporte de l'oseille Tu vois le truc, j'suis dans un game de fils de tchoin, où le public suce les plus nuls Où tous les meilleurs vendent le moins et c'est comme ça Hey J'ai toujours l'habitude d'être sur le té-co, j'ai toujours le doigt qui titille la gâchette On dit qu'avec le biffe y'a tout que tu peux pécho, sauf que l'argent n'est pas quelque chose qui s'achète Je te baise pas besoin de dire s'il-te-plait, peur de rien, peur de sonne-per Le liquide me désaltère, j'serai heureux qu'avec une piscine de blé J'ai peur de rien, peur de peur de rien, peur de peur de rien J'ai peur de rien, peur de peur de rien, peur de peur de rien J'ai peur de rien, peur de peur de rien, peur de peur de rien J'ai peur de rien, peur de peur de rien, peur de peur de rien J'ai peur de rien, peur de peur de rien, peur de peur de rien J'ai peur de rien, peur de peur de rien, peur de peur de rien J'ai peur de rien, peur de peur de rien, peur de peur de rien J'ai peur de rien, peur de peur de rien, peur de peur de rien</t>
+          <t>Libre penseur, j'peux pas donner d'la force à des forceurs Artiste, producteur, j'ai toujours le rôle de l'avant-centre et du défenseur Je voulais graill' dans l'Crillon mais j'ai bac5 à l'école du crime Millésimes dans l'crayon, j'me demande qui croire à l'époque du stream Gros j'ai peur de rien, à 300 dans la Choupetta, j'aime être tout ce que vous n'êtes pas Pedigree d'immigré dénigré, j'aime faire ce que vous n faites pas Le monde st cruel mais ton rap de salope ne le reflète pas Ces rebeus sont fragiles comme Lil Uzi, vendent leur âme pour lifestyle jacuzzi J'préfère entretenir une meuf de la hess que de sortir avec une millionnaire dans la S J'ai passé l'hiver à Londres et le summer à l'ombre à niquer les hesses Nouvelle paire TN là j'suis tout en Supreme j'ntm J'écris vu quand tu m'envoies DM, Belouizdad, sanguinaire ADN Roule à bord de plusieurs véhicules comme si j'avais marqué pendant le Superbowl Roule un pur de yellow fais des hyperboles et mes block boy's font les bails et gesticulent Fais recompter la kich' à Donna Imma dans la favela, j'ralentis sur la Tu veux faire la mafia, j'te fais faire l'mafé l't3am et les sandwichs Tu bombes le torse avant l'audition mais tu ressembles à 6ix9ine fils de pute Fais la boule comme l'hérisson, y aura pas d'rémission fils de pute J'ai peur de rien, peur de peur de rien, peur de peur de rien J'ai peur de rien, peur de peur de rien, peur de peur de rien J'ai peur de rien, peur de peur de rien, peur de peur de rien J'ai peur de rien, peur de peur de rien, peur de peur de rien J'crois qu'ils attendaient la suite d'ADAL, on leur donne oublie le pare-balle Quand ton heure sonne, j'rafale J'viens de commencer, si tu parles mal on va te violenter Juste pour le fun j'fais des rimes en c', tu viens me sucer, tu veux te fiancer Tu parles mariage, tu parles financier, prends tes bagages, j'te laisse commenter Reubeu j'ai pas besoin de tes conseils je m'en branle encore plus de c'que tu crois La différence entre toi et moi c'est qu'moi ma bouche rapporte de l'oseille Tu vois le truc, j'suis dans un game de fils de tchoin, où le public suce les plus nuls Où tous les meilleurs vendent le moins et c'est comme ça Hey J'ai toujours l'habitude d'être sur le té-co, j'ai toujours le doigt qui titille la gâchette On dit qu'avec le biffe y'a tout que tu peux pécho, sauf que l'argent n'est pas quelque chose qui s'achète Je te baise pas besoin de dire s'il-te-plait, peur de rien, peur de sonne-per Le l